--- a/Data/National Accounts/PSA-Quarter-Q1-1981-to-latest.xlsx
+++ b/Data/National Accounts/PSA-Quarter-Q1-1981-to-latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonny Gutierrez\Desktop\Web Release\Q2 2021\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonny Gutierrez\Desktop\Web Release\Q3 2021\For Posting\Time Series Data (after presscon)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC3472D-B3A1-4012-B403-C05EA3F263A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F458A6F-335F-4979-AB35-BB7528854507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="324" windowWidth="20376" windowHeight="12216" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1 1981 to Q2 2020" sheetId="5" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="82">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -338,13 +338,13 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of August 2021</t>
+    <t>As of November 2021</t>
   </si>
   <si>
-    <t>Q1 1981 to Q2 2021</t>
+    <t>Q1 1981 to Q3 2021</t>
   </si>
   <si>
-    <t>Q1 1982 to Q2 2021</t>
+    <t>Q1 1982 to Q3 2021</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -489,28 +489,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -806,11 +790,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FG313"/>
+  <dimension ref="A1:FH313"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D29" sqref="D29"/>
+      <pane xSplit="1" topLeftCell="FA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="FK274" sqref="FK274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -891,295 +875,295 @@
     <col min="159" max="159" width="14" style="2" customWidth="1"/>
     <col min="160" max="160" width="14.453125" style="2" customWidth="1"/>
     <col min="161" max="161" width="14.1796875" style="2" customWidth="1"/>
-    <col min="162" max="162" width="13.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="164" max="16384" width="9.26953125" style="2"/>
+    <col min="162" max="164" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="165" max="16384" width="9.26953125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="32">
+      <c r="B9" s="29">
         <v>1981</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32">
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29">
         <v>1982</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32">
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29">
         <v>1983</v>
       </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32">
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29">
         <v>1984</v>
       </c>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32">
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29">
         <v>1985</v>
       </c>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32">
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29">
         <v>1986</v>
       </c>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32">
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29">
         <v>1987</v>
       </c>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="32">
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29">
         <v>1988</v>
       </c>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="32"/>
-      <c r="AH9" s="32">
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="29">
         <v>1989</v>
       </c>
-      <c r="AI9" s="32"/>
-      <c r="AJ9" s="32"/>
-      <c r="AK9" s="32"/>
-      <c r="AL9" s="32">
+      <c r="AI9" s="29"/>
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="29"/>
+      <c r="AL9" s="29">
         <v>1990</v>
       </c>
-      <c r="AM9" s="32"/>
-      <c r="AN9" s="32"/>
-      <c r="AO9" s="32"/>
-      <c r="AP9" s="32">
+      <c r="AM9" s="29"/>
+      <c r="AN9" s="29"/>
+      <c r="AO9" s="29"/>
+      <c r="AP9" s="29">
         <v>1991</v>
       </c>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="32"/>
-      <c r="AS9" s="32"/>
-      <c r="AT9" s="32">
+      <c r="AQ9" s="29"/>
+      <c r="AR9" s="29"/>
+      <c r="AS9" s="29"/>
+      <c r="AT9" s="29">
         <v>1992</v>
       </c>
-      <c r="AU9" s="32"/>
-      <c r="AV9" s="32"/>
-      <c r="AW9" s="32"/>
-      <c r="AX9" s="32">
+      <c r="AU9" s="29"/>
+      <c r="AV9" s="29"/>
+      <c r="AW9" s="29"/>
+      <c r="AX9" s="29">
         <v>1993</v>
       </c>
-      <c r="AY9" s="32"/>
-      <c r="AZ9" s="32"/>
-      <c r="BA9" s="32"/>
-      <c r="BB9" s="32">
+      <c r="AY9" s="29"/>
+      <c r="AZ9" s="29"/>
+      <c r="BA9" s="29"/>
+      <c r="BB9" s="29">
         <v>1994</v>
       </c>
-      <c r="BC9" s="32"/>
-      <c r="BD9" s="32"/>
-      <c r="BE9" s="32"/>
-      <c r="BF9" s="32">
+      <c r="BC9" s="29"/>
+      <c r="BD9" s="29"/>
+      <c r="BE9" s="29"/>
+      <c r="BF9" s="29">
         <v>1995</v>
       </c>
-      <c r="BG9" s="32"/>
-      <c r="BH9" s="32"/>
-      <c r="BI9" s="32"/>
-      <c r="BJ9" s="32">
+      <c r="BG9" s="29"/>
+      <c r="BH9" s="29"/>
+      <c r="BI9" s="29"/>
+      <c r="BJ9" s="29">
         <v>1996</v>
       </c>
-      <c r="BK9" s="32"/>
-      <c r="BL9" s="32"/>
-      <c r="BM9" s="32"/>
-      <c r="BN9" s="32">
+      <c r="BK9" s="29"/>
+      <c r="BL9" s="29"/>
+      <c r="BM9" s="29"/>
+      <c r="BN9" s="29">
         <v>1997</v>
       </c>
-      <c r="BO9" s="32"/>
-      <c r="BP9" s="32"/>
-      <c r="BQ9" s="32"/>
-      <c r="BR9" s="32">
+      <c r="BO9" s="29"/>
+      <c r="BP9" s="29"/>
+      <c r="BQ9" s="29"/>
+      <c r="BR9" s="29">
         <v>1998</v>
       </c>
-      <c r="BS9" s="32"/>
-      <c r="BT9" s="32"/>
-      <c r="BU9" s="32"/>
-      <c r="BV9" s="32">
+      <c r="BS9" s="29"/>
+      <c r="BT9" s="29"/>
+      <c r="BU9" s="29"/>
+      <c r="BV9" s="29">
         <v>1999</v>
       </c>
-      <c r="BW9" s="32"/>
-      <c r="BX9" s="32"/>
-      <c r="BY9" s="32"/>
-      <c r="BZ9" s="32">
+      <c r="BW9" s="29"/>
+      <c r="BX9" s="29"/>
+      <c r="BY9" s="29"/>
+      <c r="BZ9" s="29">
         <v>2000</v>
       </c>
-      <c r="CA9" s="32"/>
-      <c r="CB9" s="32"/>
-      <c r="CC9" s="32"/>
-      <c r="CD9" s="32">
+      <c r="CA9" s="29"/>
+      <c r="CB9" s="29"/>
+      <c r="CC9" s="29"/>
+      <c r="CD9" s="29">
         <v>2001</v>
       </c>
-      <c r="CE9" s="32"/>
-      <c r="CF9" s="32"/>
-      <c r="CG9" s="32"/>
-      <c r="CH9" s="32">
+      <c r="CE9" s="29"/>
+      <c r="CF9" s="29"/>
+      <c r="CG9" s="29"/>
+      <c r="CH9" s="29">
         <v>2002</v>
       </c>
-      <c r="CI9" s="32"/>
-      <c r="CJ9" s="32"/>
-      <c r="CK9" s="32"/>
-      <c r="CL9" s="32">
+      <c r="CI9" s="29"/>
+      <c r="CJ9" s="29"/>
+      <c r="CK9" s="29"/>
+      <c r="CL9" s="29">
         <v>2003</v>
       </c>
-      <c r="CM9" s="32"/>
-      <c r="CN9" s="32"/>
-      <c r="CO9" s="32"/>
-      <c r="CP9" s="32">
+      <c r="CM9" s="29"/>
+      <c r="CN9" s="29"/>
+      <c r="CO9" s="29"/>
+      <c r="CP9" s="29">
         <v>2004</v>
       </c>
-      <c r="CQ9" s="32"/>
-      <c r="CR9" s="32"/>
-      <c r="CS9" s="32"/>
-      <c r="CT9" s="32">
+      <c r="CQ9" s="29"/>
+      <c r="CR9" s="29"/>
+      <c r="CS9" s="29"/>
+      <c r="CT9" s="29">
         <v>2005</v>
       </c>
-      <c r="CU9" s="32"/>
-      <c r="CV9" s="32"/>
-      <c r="CW9" s="32"/>
-      <c r="CX9" s="32">
+      <c r="CU9" s="29"/>
+      <c r="CV9" s="29"/>
+      <c r="CW9" s="29"/>
+      <c r="CX9" s="29">
         <v>2006</v>
       </c>
-      <c r="CY9" s="32"/>
-      <c r="CZ9" s="32"/>
-      <c r="DA9" s="32"/>
-      <c r="DB9" s="32">
+      <c r="CY9" s="29"/>
+      <c r="CZ9" s="29"/>
+      <c r="DA9" s="29"/>
+      <c r="DB9" s="29">
         <v>2007</v>
       </c>
-      <c r="DC9" s="32"/>
-      <c r="DD9" s="32"/>
-      <c r="DE9" s="32"/>
-      <c r="DF9" s="32">
+      <c r="DC9" s="29"/>
+      <c r="DD9" s="29"/>
+      <c r="DE9" s="29"/>
+      <c r="DF9" s="29">
         <v>2008</v>
       </c>
-      <c r="DG9" s="32"/>
-      <c r="DH9" s="32"/>
-      <c r="DI9" s="32"/>
-      <c r="DJ9" s="32">
+      <c r="DG9" s="29"/>
+      <c r="DH9" s="29"/>
+      <c r="DI9" s="29"/>
+      <c r="DJ9" s="29">
         <v>2009</v>
       </c>
-      <c r="DK9" s="32"/>
-      <c r="DL9" s="32"/>
-      <c r="DM9" s="32"/>
-      <c r="DN9" s="32">
+      <c r="DK9" s="29"/>
+      <c r="DL9" s="29"/>
+      <c r="DM9" s="29"/>
+      <c r="DN9" s="29">
         <v>2010</v>
       </c>
-      <c r="DO9" s="32"/>
-      <c r="DP9" s="32"/>
-      <c r="DQ9" s="32"/>
-      <c r="DR9" s="32">
+      <c r="DO9" s="29"/>
+      <c r="DP9" s="29"/>
+      <c r="DQ9" s="29"/>
+      <c r="DR9" s="29">
         <v>2011</v>
       </c>
-      <c r="DS9" s="32"/>
-      <c r="DT9" s="32"/>
-      <c r="DU9" s="32"/>
-      <c r="DV9" s="32">
+      <c r="DS9" s="29"/>
+      <c r="DT9" s="29"/>
+      <c r="DU9" s="29"/>
+      <c r="DV9" s="29">
         <v>2012</v>
       </c>
-      <c r="DW9" s="32"/>
-      <c r="DX9" s="32"/>
-      <c r="DY9" s="32"/>
-      <c r="DZ9" s="32">
+      <c r="DW9" s="29"/>
+      <c r="DX9" s="29"/>
+      <c r="DY9" s="29"/>
+      <c r="DZ9" s="29">
         <v>2013</v>
       </c>
-      <c r="EA9" s="32"/>
-      <c r="EB9" s="32"/>
-      <c r="EC9" s="32"/>
-      <c r="ED9" s="32">
+      <c r="EA9" s="29"/>
+      <c r="EB9" s="29"/>
+      <c r="EC9" s="29"/>
+      <c r="ED9" s="29">
         <v>2014</v>
       </c>
-      <c r="EE9" s="32"/>
-      <c r="EF9" s="32"/>
-      <c r="EG9" s="32"/>
-      <c r="EH9" s="32">
+      <c r="EE9" s="29"/>
+      <c r="EF9" s="29"/>
+      <c r="EG9" s="29"/>
+      <c r="EH9" s="29">
         <v>2015</v>
       </c>
-      <c r="EI9" s="32"/>
-      <c r="EJ9" s="32"/>
-      <c r="EK9" s="32"/>
-      <c r="EL9" s="32">
+      <c r="EI9" s="29"/>
+      <c r="EJ9" s="29"/>
+      <c r="EK9" s="29"/>
+      <c r="EL9" s="29">
         <v>2016</v>
       </c>
-      <c r="EM9" s="32"/>
-      <c r="EN9" s="32"/>
-      <c r="EO9" s="32"/>
-      <c r="EP9" s="32">
+      <c r="EM9" s="29"/>
+      <c r="EN9" s="29"/>
+      <c r="EO9" s="29"/>
+      <c r="EP9" s="29">
         <v>2017</v>
       </c>
-      <c r="EQ9" s="32"/>
-      <c r="ER9" s="32"/>
-      <c r="ES9" s="32"/>
-      <c r="ET9" s="32">
+      <c r="EQ9" s="29"/>
+      <c r="ER9" s="29"/>
+      <c r="ES9" s="29"/>
+      <c r="ET9" s="29">
         <v>2018</v>
       </c>
-      <c r="EU9" s="32"/>
-      <c r="EV9" s="32"/>
-      <c r="EW9" s="32"/>
-      <c r="EX9" s="32">
+      <c r="EU9" s="29"/>
+      <c r="EV9" s="29"/>
+      <c r="EW9" s="29"/>
+      <c r="EX9" s="29">
         <v>2019</v>
       </c>
-      <c r="EY9" s="32"/>
-      <c r="EZ9" s="32"/>
-      <c r="FA9" s="32"/>
-      <c r="FB9" s="32">
+      <c r="EY9" s="29"/>
+      <c r="EZ9" s="29"/>
+      <c r="FA9" s="29"/>
+      <c r="FB9" s="29">
         <v>2020</v>
       </c>
-      <c r="FC9" s="32"/>
-      <c r="FD9" s="32"/>
-      <c r="FE9" s="32"/>
+      <c r="FC9" s="29"/>
+      <c r="FD9" s="29"/>
+      <c r="FE9" s="29"/>
       <c r="FF9" s="29">
         <v>2021</v>
       </c>
-      <c r="FG9" s="30"/>
+      <c r="FG9" s="29"/>
+      <c r="FH9" s="29"/>
     </row>
-    <row r="10" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1669,11 +1653,14 @@
       <c r="FG10" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="FH10" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="11" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:164" x14ac:dyDescent="0.3">
       <c r="FB11" s="2"/>
     </row>
-    <row r="12" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -2161,10 +2148,13 @@
         <v>3397984.9737919262</v>
       </c>
       <c r="FG12" s="7">
-        <v>3393673.6699086153</v>
+        <v>3395451.2801445238</v>
+      </c>
+      <c r="FH12" s="7">
+        <v>3583418.7969846404</v>
       </c>
     </row>
-    <row r="13" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -2652,10 +2642,13 @@
         <v>633733.89712513145</v>
       </c>
       <c r="FG13" s="7">
-        <v>811446.70939360897</v>
+        <v>817408.4911648453</v>
+      </c>
+      <c r="FH13" s="7">
+        <v>746676.76641403791</v>
       </c>
     </row>
-    <row r="14" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -3143,10 +3136,13 @@
         <v>830974.51053644891</v>
       </c>
       <c r="FG14" s="7">
-        <v>1104830.3383312905</v>
+        <v>1125662.0196367416</v>
+      </c>
+      <c r="FH14" s="7">
+        <v>964707.36067736696</v>
       </c>
     </row>
-    <row r="15" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -3634,10 +3630,13 @@
         <v>1187294.6712282272</v>
       </c>
       <c r="FG15" s="7">
-        <v>1157063.9138932547</v>
+        <v>1165222.1432899851</v>
+      </c>
+      <c r="FH15" s="7">
+        <v>1282724.4438212959</v>
       </c>
     </row>
-    <row r="16" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -4125,10 +4124,13 @@
         <v>1643640.0144370203</v>
       </c>
       <c r="FG16" s="7">
-        <v>1748854.0488751521</v>
+        <v>1775657.428299173</v>
+      </c>
+      <c r="FH16" s="7">
+        <v>1939696.1704020649</v>
       </c>
     </row>
-    <row r="17" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -4616,10 +4618,13 @@
         <v>-42648.049403163604</v>
       </c>
       <c r="FG17" s="7">
-        <v>32180.925080032088</v>
+        <v>30816.123339849524</v>
+      </c>
+      <c r="FH17" s="7">
+        <v>-27840.383711998351</v>
       </c>
     </row>
-    <row r="18" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:164" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4782,8 +4787,9 @@
       <c r="FE18" s="7"/>
       <c r="FF18" s="7"/>
       <c r="FG18" s="7"/>
+      <c r="FH18" s="7"/>
     </row>
-    <row r="19" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>10</v>
       </c>
@@ -5271,10 +5277,13 @@
         <v>4363699.9888415495</v>
       </c>
       <c r="FG19" s="7">
-        <v>4750341.5077316491</v>
+        <v>4758902.629276773</v>
+      </c>
+      <c r="FH19" s="7">
+        <v>4609990.8137832778</v>
       </c>
     </row>
-    <row r="20" spans="1:163" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:164" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -5432,7 +5441,7 @@
       <c r="EZ20" s="7"/>
       <c r="FA20" s="7"/>
     </row>
-    <row r="21" spans="1:163" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:164" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -5590,7 +5599,7 @@
       <c r="EZ21" s="7"/>
       <c r="FA21" s="7"/>
     </row>
-    <row r="22" spans="1:163" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:164" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -5748,7 +5757,7 @@
       <c r="EZ22" s="7"/>
       <c r="FA22" s="7"/>
     </row>
-    <row r="23" spans="1:163" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:164" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -5906,7 +5915,7 @@
       <c r="EZ23" s="7"/>
       <c r="FA23" s="7"/>
     </row>
-    <row r="24" spans="1:163" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:164" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -6070,297 +6079,299 @@
       <c r="FE24" s="9"/>
       <c r="FF24" s="9"/>
       <c r="FG24" s="9"/>
+      <c r="FH24" s="9"/>
     </row>
-    <row r="25" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="BY25" s="10"/>
     </row>
-    <row r="28" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
-      <c r="B36" s="32">
+      <c r="B36" s="29">
         <v>1981</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32">
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29">
         <v>1982</v>
       </c>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32">
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29">
         <v>1983</v>
       </c>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32">
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29">
         <v>1984</v>
       </c>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32">
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29">
         <v>1985</v>
       </c>
-      <c r="S36" s="32"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="32">
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29">
         <v>1986</v>
       </c>
-      <c r="W36" s="32"/>
-      <c r="X36" s="32"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="32">
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29">
         <v>1987</v>
       </c>
-      <c r="AA36" s="32"/>
-      <c r="AB36" s="32"/>
-      <c r="AC36" s="32"/>
-      <c r="AD36" s="32">
+      <c r="AA36" s="29"/>
+      <c r="AB36" s="29"/>
+      <c r="AC36" s="29"/>
+      <c r="AD36" s="29">
         <v>1988</v>
       </c>
-      <c r="AE36" s="32"/>
-      <c r="AF36" s="32"/>
-      <c r="AG36" s="32"/>
-      <c r="AH36" s="32">
+      <c r="AE36" s="29"/>
+      <c r="AF36" s="29"/>
+      <c r="AG36" s="29"/>
+      <c r="AH36" s="29">
         <v>1989</v>
       </c>
-      <c r="AI36" s="32"/>
-      <c r="AJ36" s="32"/>
-      <c r="AK36" s="32"/>
-      <c r="AL36" s="32">
+      <c r="AI36" s="29"/>
+      <c r="AJ36" s="29"/>
+      <c r="AK36" s="29"/>
+      <c r="AL36" s="29">
         <v>1990</v>
       </c>
-      <c r="AM36" s="32"/>
-      <c r="AN36" s="32"/>
-      <c r="AO36" s="32"/>
-      <c r="AP36" s="32">
+      <c r="AM36" s="29"/>
+      <c r="AN36" s="29"/>
+      <c r="AO36" s="29"/>
+      <c r="AP36" s="29">
         <v>1991</v>
       </c>
-      <c r="AQ36" s="32"/>
-      <c r="AR36" s="32"/>
-      <c r="AS36" s="32"/>
-      <c r="AT36" s="32">
+      <c r="AQ36" s="29"/>
+      <c r="AR36" s="29"/>
+      <c r="AS36" s="29"/>
+      <c r="AT36" s="29">
         <v>1992</v>
       </c>
-      <c r="AU36" s="32"/>
-      <c r="AV36" s="32"/>
-      <c r="AW36" s="32"/>
-      <c r="AX36" s="32">
+      <c r="AU36" s="29"/>
+      <c r="AV36" s="29"/>
+      <c r="AW36" s="29"/>
+      <c r="AX36" s="29">
         <v>1993</v>
       </c>
-      <c r="AY36" s="32"/>
-      <c r="AZ36" s="32"/>
-      <c r="BA36" s="32"/>
-      <c r="BB36" s="32">
+      <c r="AY36" s="29"/>
+      <c r="AZ36" s="29"/>
+      <c r="BA36" s="29"/>
+      <c r="BB36" s="29">
         <v>1994</v>
       </c>
-      <c r="BC36" s="32"/>
-      <c r="BD36" s="32"/>
-      <c r="BE36" s="32"/>
-      <c r="BF36" s="32">
+      <c r="BC36" s="29"/>
+      <c r="BD36" s="29"/>
+      <c r="BE36" s="29"/>
+      <c r="BF36" s="29">
         <v>1995</v>
       </c>
-      <c r="BG36" s="32"/>
-      <c r="BH36" s="32"/>
-      <c r="BI36" s="32"/>
-      <c r="BJ36" s="32">
+      <c r="BG36" s="29"/>
+      <c r="BH36" s="29"/>
+      <c r="BI36" s="29"/>
+      <c r="BJ36" s="29">
         <v>1996</v>
       </c>
-      <c r="BK36" s="32"/>
-      <c r="BL36" s="32"/>
-      <c r="BM36" s="32"/>
-      <c r="BN36" s="32">
+      <c r="BK36" s="29"/>
+      <c r="BL36" s="29"/>
+      <c r="BM36" s="29"/>
+      <c r="BN36" s="29">
         <v>1997</v>
       </c>
-      <c r="BO36" s="32"/>
-      <c r="BP36" s="32"/>
-      <c r="BQ36" s="32"/>
-      <c r="BR36" s="32">
+      <c r="BO36" s="29"/>
+      <c r="BP36" s="29"/>
+      <c r="BQ36" s="29"/>
+      <c r="BR36" s="29">
         <v>1998</v>
       </c>
-      <c r="BS36" s="32"/>
-      <c r="BT36" s="32"/>
-      <c r="BU36" s="32"/>
-      <c r="BV36" s="32">
+      <c r="BS36" s="29"/>
+      <c r="BT36" s="29"/>
+      <c r="BU36" s="29"/>
+      <c r="BV36" s="29">
         <v>1999</v>
       </c>
-      <c r="BW36" s="32"/>
-      <c r="BX36" s="32"/>
-      <c r="BY36" s="32"/>
-      <c r="BZ36" s="32">
+      <c r="BW36" s="29"/>
+      <c r="BX36" s="29"/>
+      <c r="BY36" s="29"/>
+      <c r="BZ36" s="29">
         <v>2000</v>
       </c>
-      <c r="CA36" s="32"/>
-      <c r="CB36" s="32"/>
-      <c r="CC36" s="32"/>
-      <c r="CD36" s="32">
+      <c r="CA36" s="29"/>
+      <c r="CB36" s="29"/>
+      <c r="CC36" s="29"/>
+      <c r="CD36" s="29">
         <v>2001</v>
       </c>
-      <c r="CE36" s="32"/>
-      <c r="CF36" s="32"/>
-      <c r="CG36" s="32"/>
-      <c r="CH36" s="32">
+      <c r="CE36" s="29"/>
+      <c r="CF36" s="29"/>
+      <c r="CG36" s="29"/>
+      <c r="CH36" s="29">
         <v>2002</v>
       </c>
-      <c r="CI36" s="32"/>
-      <c r="CJ36" s="32"/>
-      <c r="CK36" s="32"/>
-      <c r="CL36" s="32">
+      <c r="CI36" s="29"/>
+      <c r="CJ36" s="29"/>
+      <c r="CK36" s="29"/>
+      <c r="CL36" s="29">
         <v>2003</v>
       </c>
-      <c r="CM36" s="32"/>
-      <c r="CN36" s="32"/>
-      <c r="CO36" s="32"/>
-      <c r="CP36" s="32">
+      <c r="CM36" s="29"/>
+      <c r="CN36" s="29"/>
+      <c r="CO36" s="29"/>
+      <c r="CP36" s="29">
         <v>2004</v>
       </c>
-      <c r="CQ36" s="32"/>
-      <c r="CR36" s="32"/>
-      <c r="CS36" s="32"/>
-      <c r="CT36" s="32">
+      <c r="CQ36" s="29"/>
+      <c r="CR36" s="29"/>
+      <c r="CS36" s="29"/>
+      <c r="CT36" s="29">
         <v>2005</v>
       </c>
-      <c r="CU36" s="32"/>
-      <c r="CV36" s="32"/>
-      <c r="CW36" s="32"/>
-      <c r="CX36" s="32">
+      <c r="CU36" s="29"/>
+      <c r="CV36" s="29"/>
+      <c r="CW36" s="29"/>
+      <c r="CX36" s="29">
         <v>2006</v>
       </c>
-      <c r="CY36" s="32"/>
-      <c r="CZ36" s="32"/>
-      <c r="DA36" s="32"/>
-      <c r="DB36" s="32">
+      <c r="CY36" s="29"/>
+      <c r="CZ36" s="29"/>
+      <c r="DA36" s="29"/>
+      <c r="DB36" s="29">
         <v>2007</v>
       </c>
-      <c r="DC36" s="32"/>
-      <c r="DD36" s="32"/>
-      <c r="DE36" s="32"/>
-      <c r="DF36" s="32">
+      <c r="DC36" s="29"/>
+      <c r="DD36" s="29"/>
+      <c r="DE36" s="29"/>
+      <c r="DF36" s="29">
         <v>2008</v>
       </c>
-      <c r="DG36" s="32"/>
-      <c r="DH36" s="32"/>
-      <c r="DI36" s="32"/>
-      <c r="DJ36" s="32">
+      <c r="DG36" s="29"/>
+      <c r="DH36" s="29"/>
+      <c r="DI36" s="29"/>
+      <c r="DJ36" s="29">
         <v>2009</v>
       </c>
-      <c r="DK36" s="32"/>
-      <c r="DL36" s="32"/>
-      <c r="DM36" s="32"/>
-      <c r="DN36" s="32">
+      <c r="DK36" s="29"/>
+      <c r="DL36" s="29"/>
+      <c r="DM36" s="29"/>
+      <c r="DN36" s="29">
         <v>2010</v>
       </c>
-      <c r="DO36" s="32"/>
-      <c r="DP36" s="32"/>
-      <c r="DQ36" s="32"/>
-      <c r="DR36" s="32">
+      <c r="DO36" s="29"/>
+      <c r="DP36" s="29"/>
+      <c r="DQ36" s="29"/>
+      <c r="DR36" s="29">
         <v>2011</v>
       </c>
-      <c r="DS36" s="32"/>
-      <c r="DT36" s="32"/>
-      <c r="DU36" s="32"/>
-      <c r="DV36" s="32">
+      <c r="DS36" s="29"/>
+      <c r="DT36" s="29"/>
+      <c r="DU36" s="29"/>
+      <c r="DV36" s="29">
         <v>2012</v>
       </c>
-      <c r="DW36" s="32"/>
-      <c r="DX36" s="32"/>
-      <c r="DY36" s="32"/>
-      <c r="DZ36" s="32">
+      <c r="DW36" s="29"/>
+      <c r="DX36" s="29"/>
+      <c r="DY36" s="29"/>
+      <c r="DZ36" s="29">
         <v>2013</v>
       </c>
-      <c r="EA36" s="32"/>
-      <c r="EB36" s="32"/>
-      <c r="EC36" s="32"/>
-      <c r="ED36" s="32">
+      <c r="EA36" s="29"/>
+      <c r="EB36" s="29"/>
+      <c r="EC36" s="29"/>
+      <c r="ED36" s="29">
         <v>2014</v>
       </c>
-      <c r="EE36" s="32"/>
-      <c r="EF36" s="32"/>
-      <c r="EG36" s="32"/>
-      <c r="EH36" s="32">
+      <c r="EE36" s="29"/>
+      <c r="EF36" s="29"/>
+      <c r="EG36" s="29"/>
+      <c r="EH36" s="29">
         <v>2015</v>
       </c>
-      <c r="EI36" s="32"/>
-      <c r="EJ36" s="32"/>
-      <c r="EK36" s="32"/>
-      <c r="EL36" s="32">
+      <c r="EI36" s="29"/>
+      <c r="EJ36" s="29"/>
+      <c r="EK36" s="29"/>
+      <c r="EL36" s="29">
         <v>2016</v>
       </c>
-      <c r="EM36" s="32"/>
-      <c r="EN36" s="32"/>
-      <c r="EO36" s="32"/>
-      <c r="EP36" s="32">
+      <c r="EM36" s="29"/>
+      <c r="EN36" s="29"/>
+      <c r="EO36" s="29"/>
+      <c r="EP36" s="29">
         <v>2017</v>
       </c>
-      <c r="EQ36" s="32"/>
-      <c r="ER36" s="32"/>
-      <c r="ES36" s="32"/>
-      <c r="ET36" s="32">
+      <c r="EQ36" s="29"/>
+      <c r="ER36" s="29"/>
+      <c r="ES36" s="29"/>
+      <c r="ET36" s="29">
         <v>2018</v>
       </c>
-      <c r="EU36" s="32"/>
-      <c r="EV36" s="32"/>
-      <c r="EW36" s="32"/>
-      <c r="EX36" s="32">
+      <c r="EU36" s="29"/>
+      <c r="EV36" s="29"/>
+      <c r="EW36" s="29"/>
+      <c r="EX36" s="29">
         <v>2019</v>
       </c>
-      <c r="EY36" s="32"/>
-      <c r="EZ36" s="32"/>
-      <c r="FA36" s="32"/>
-      <c r="FB36" s="32">
+      <c r="EY36" s="29"/>
+      <c r="EZ36" s="29"/>
+      <c r="FA36" s="29"/>
+      <c r="FB36" s="29">
         <v>2020</v>
       </c>
-      <c r="FC36" s="32"/>
-      <c r="FD36" s="32"/>
+      <c r="FC36" s="29"/>
+      <c r="FD36" s="29"/>
       <c r="FE36" s="24"/>
       <c r="FF36" s="29">
         <v>2021</v>
       </c>
-      <c r="FG36" s="30"/>
+      <c r="FG36" s="29"/>
+      <c r="FH36" s="29"/>
     </row>
-    <row r="37" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>14</v>
       </c>
@@ -6850,11 +6861,14 @@
       <c r="FG37" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="FH37" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="38" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:164" x14ac:dyDescent="0.3">
       <c r="FB38" s="2"/>
     </row>
-    <row r="39" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>1</v>
       </c>
@@ -7342,10 +7356,13 @@
         <v>3156930.3384596184</v>
       </c>
       <c r="FG39" s="7">
-        <v>3129503.91166439</v>
+        <v>3130923.6869703522</v>
+      </c>
+      <c r="FH39" s="7">
+        <v>3246818.3372662989</v>
       </c>
     </row>
-    <row r="40" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
@@ -7833,10 +7850,13 @@
         <v>650335.78746581683</v>
       </c>
       <c r="FG40" s="7">
-        <v>807843.8062011156</v>
+        <v>813789.9172483572</v>
+      </c>
+      <c r="FH40" s="7">
+        <v>692311.25834554143</v>
       </c>
     </row>
-    <row r="41" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -8324,10 +8344,13 @@
         <v>846959.89255285112</v>
       </c>
       <c r="FG41" s="7">
-        <v>1104895.2731468391</v>
+        <v>1135332.5997935922</v>
+      </c>
+      <c r="FH41" s="7">
+        <v>913667.8374508972</v>
       </c>
     </row>
-    <row r="42" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>4</v>
       </c>
@@ -8815,10 +8838,13 @@
         <v>1213942.2314788722</v>
       </c>
       <c r="FG42" s="7">
-        <v>1278375.1245710363</v>
+        <v>1286311.1346979465</v>
+      </c>
+      <c r="FH42" s="7">
+        <v>1349616.2269866425</v>
       </c>
     </row>
-    <row r="43" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>5</v>
       </c>
@@ -9306,10 +9332,13 @@
         <v>1642896.4427498858</v>
       </c>
       <c r="FG43" s="7">
-        <v>1730304.8268525265</v>
+        <v>1756087.5704188191</v>
+      </c>
+      <c r="FH43" s="7">
+        <v>1735683.9313510933</v>
       </c>
     </row>
-    <row r="44" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>6</v>
       </c>
@@ -9797,10 +9826,13 @@
         <v>32449.720151822083</v>
       </c>
       <c r="FG44" s="7">
-        <v>37761.872659542598</v>
+        <v>26476.320933525451</v>
+      </c>
+      <c r="FH44" s="7">
+        <v>-37761.203566698357</v>
       </c>
     </row>
-    <row r="45" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:164" x14ac:dyDescent="0.3">
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -9963,8 +9995,9 @@
       <c r="FE45" s="7"/>
       <c r="FF45" s="7"/>
       <c r="FG45" s="7"/>
+      <c r="FH45" s="7"/>
     </row>
-    <row r="46" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>10</v>
       </c>
@@ -10452,10 +10485,13 @@
         <v>4257721.5273590954</v>
       </c>
       <c r="FG46" s="7">
-        <v>4628075.1613903977</v>
+        <v>4636746.0892249551</v>
+      </c>
+      <c r="FH46" s="7">
+        <v>4428968.5251315888</v>
       </c>
     </row>
-    <row r="47" spans="1:163" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:164" hidden="1" x14ac:dyDescent="0.3">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -10613,7 +10649,7 @@
       <c r="EZ47" s="7"/>
       <c r="FA47" s="7"/>
     </row>
-    <row r="48" spans="1:163" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:164" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -10771,7 +10807,7 @@
       <c r="EZ48" s="7"/>
       <c r="FA48" s="7"/>
     </row>
-    <row r="49" spans="1:163" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:164" hidden="1" x14ac:dyDescent="0.3">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -10929,7 +10965,7 @@
       <c r="EZ49" s="7"/>
       <c r="FA49" s="7"/>
     </row>
-    <row r="50" spans="1:163" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:164" hidden="1" x14ac:dyDescent="0.3">
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -11087,7 +11123,7 @@
       <c r="EZ50" s="7"/>
       <c r="FA50" s="7"/>
     </row>
-    <row r="51" spans="1:163" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:164" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -11251,36 +11287,37 @@
       <c r="FE51" s="9"/>
       <c r="FF51" s="9"/>
       <c r="FG51" s="9"/>
+      <c r="FH51" s="9"/>
     </row>
-    <row r="52" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>81</v>
       </c>
@@ -11289,7 +11326,7 @@
       <c r="FD60" s="28"/>
       <c r="FE60" s="28"/>
     </row>
-    <row r="61" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>19</v>
       </c>
@@ -11298,257 +11335,257 @@
       <c r="FD61" s="28"/>
       <c r="FE61" s="28"/>
     </row>
-    <row r="62" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="FB62" s="28"/>
       <c r="FC62" s="28"/>
       <c r="FD62" s="28"/>
       <c r="FE62" s="28"/>
     </row>
-    <row r="63" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
-      <c r="B63" s="32" t="s">
+      <c r="B63" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32" t="s">
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="32"/>
-      <c r="J63" s="32" t="s">
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="K63" s="32"/>
-      <c r="L63" s="32"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="32" t="s">
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="O63" s="32"/>
-      <c r="P63" s="32"/>
-      <c r="Q63" s="32"/>
-      <c r="R63" s="32" t="s">
+      <c r="O63" s="29"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="S63" s="32"/>
-      <c r="T63" s="32"/>
-      <c r="U63" s="32"/>
-      <c r="V63" s="32" t="s">
+      <c r="S63" s="29"/>
+      <c r="T63" s="29"/>
+      <c r="U63" s="29"/>
+      <c r="V63" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="W63" s="32"/>
-      <c r="X63" s="32"/>
-      <c r="Y63" s="32"/>
-      <c r="Z63" s="32" t="s">
+      <c r="W63" s="29"/>
+      <c r="X63" s="29"/>
+      <c r="Y63" s="29"/>
+      <c r="Z63" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AA63" s="32"/>
-      <c r="AB63" s="32"/>
-      <c r="AC63" s="32"/>
-      <c r="AD63" s="32" t="s">
+      <c r="AA63" s="29"/>
+      <c r="AB63" s="29"/>
+      <c r="AC63" s="29"/>
+      <c r="AD63" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AE63" s="32"/>
-      <c r="AF63" s="32"/>
-      <c r="AG63" s="32"/>
-      <c r="AH63" s="32" t="s">
+      <c r="AE63" s="29"/>
+      <c r="AF63" s="29"/>
+      <c r="AG63" s="29"/>
+      <c r="AH63" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AI63" s="32"/>
-      <c r="AJ63" s="32"/>
-      <c r="AK63" s="32"/>
-      <c r="AL63" s="32" t="s">
+      <c r="AI63" s="29"/>
+      <c r="AJ63" s="29"/>
+      <c r="AK63" s="29"/>
+      <c r="AL63" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="AM63" s="32"/>
-      <c r="AN63" s="32"/>
-      <c r="AO63" s="32"/>
-      <c r="AP63" s="32" t="s">
+      <c r="AM63" s="29"/>
+      <c r="AN63" s="29"/>
+      <c r="AO63" s="29"/>
+      <c r="AP63" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AQ63" s="32"/>
-      <c r="AR63" s="32"/>
-      <c r="AS63" s="32"/>
-      <c r="AT63" s="32" t="s">
+      <c r="AQ63" s="29"/>
+      <c r="AR63" s="29"/>
+      <c r="AS63" s="29"/>
+      <c r="AT63" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AU63" s="32"/>
-      <c r="AV63" s="32"/>
-      <c r="AW63" s="32"/>
-      <c r="AX63" s="32" t="s">
+      <c r="AU63" s="29"/>
+      <c r="AV63" s="29"/>
+      <c r="AW63" s="29"/>
+      <c r="AX63" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="AY63" s="32"/>
-      <c r="AZ63" s="32"/>
-      <c r="BA63" s="32"/>
-      <c r="BB63" s="32" t="s">
+      <c r="AY63" s="29"/>
+      <c r="AZ63" s="29"/>
+      <c r="BA63" s="29"/>
+      <c r="BB63" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="BC63" s="32"/>
-      <c r="BD63" s="32"/>
-      <c r="BE63" s="32"/>
-      <c r="BF63" s="32" t="s">
+      <c r="BC63" s="29"/>
+      <c r="BD63" s="29"/>
+      <c r="BE63" s="29"/>
+      <c r="BF63" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="BG63" s="32"/>
-      <c r="BH63" s="32"/>
-      <c r="BI63" s="32"/>
-      <c r="BJ63" s="32" t="s">
+      <c r="BG63" s="29"/>
+      <c r="BH63" s="29"/>
+      <c r="BI63" s="29"/>
+      <c r="BJ63" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="BK63" s="32"/>
-      <c r="BL63" s="32"/>
-      <c r="BM63" s="32"/>
-      <c r="BN63" s="32" t="s">
+      <c r="BK63" s="29"/>
+      <c r="BL63" s="29"/>
+      <c r="BM63" s="29"/>
+      <c r="BN63" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="BO63" s="32"/>
-      <c r="BP63" s="32"/>
-      <c r="BQ63" s="32"/>
-      <c r="BR63" s="32" t="s">
+      <c r="BO63" s="29"/>
+      <c r="BP63" s="29"/>
+      <c r="BQ63" s="29"/>
+      <c r="BR63" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="BS63" s="32"/>
-      <c r="BT63" s="32"/>
-      <c r="BU63" s="32"/>
-      <c r="BV63" s="32" t="s">
+      <c r="BS63" s="29"/>
+      <c r="BT63" s="29"/>
+      <c r="BU63" s="29"/>
+      <c r="BV63" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="BW63" s="32"/>
-      <c r="BX63" s="32"/>
-      <c r="BY63" s="32"/>
-      <c r="BZ63" s="32" t="s">
+      <c r="BW63" s="29"/>
+      <c r="BX63" s="29"/>
+      <c r="BY63" s="29"/>
+      <c r="BZ63" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="CA63" s="32"/>
-      <c r="CB63" s="32"/>
-      <c r="CC63" s="32"/>
-      <c r="CD63" s="32" t="s">
+      <c r="CA63" s="29"/>
+      <c r="CB63" s="29"/>
+      <c r="CC63" s="29"/>
+      <c r="CD63" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="CE63" s="32"/>
-      <c r="CF63" s="32"/>
-      <c r="CG63" s="32"/>
-      <c r="CH63" s="32" t="s">
+      <c r="CE63" s="29"/>
+      <c r="CF63" s="29"/>
+      <c r="CG63" s="29"/>
+      <c r="CH63" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="CI63" s="32"/>
-      <c r="CJ63" s="32"/>
-      <c r="CK63" s="32"/>
-      <c r="CL63" s="32" t="s">
+      <c r="CI63" s="29"/>
+      <c r="CJ63" s="29"/>
+      <c r="CK63" s="29"/>
+      <c r="CL63" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="CM63" s="32"/>
-      <c r="CN63" s="32"/>
-      <c r="CO63" s="32"/>
-      <c r="CP63" s="32" t="s">
+      <c r="CM63" s="29"/>
+      <c r="CN63" s="29"/>
+      <c r="CO63" s="29"/>
+      <c r="CP63" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="CQ63" s="32"/>
-      <c r="CR63" s="32"/>
-      <c r="CS63" s="32"/>
-      <c r="CT63" s="32" t="s">
+      <c r="CQ63" s="29"/>
+      <c r="CR63" s="29"/>
+      <c r="CS63" s="29"/>
+      <c r="CT63" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="CU63" s="32"/>
-      <c r="CV63" s="32"/>
-      <c r="CW63" s="32"/>
-      <c r="CX63" s="32" t="s">
+      <c r="CU63" s="29"/>
+      <c r="CV63" s="29"/>
+      <c r="CW63" s="29"/>
+      <c r="CX63" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="CY63" s="32"/>
-      <c r="CZ63" s="32"/>
-      <c r="DA63" s="32"/>
-      <c r="DB63" s="32" t="s">
+      <c r="CY63" s="29"/>
+      <c r="CZ63" s="29"/>
+      <c r="DA63" s="29"/>
+      <c r="DB63" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="DC63" s="32"/>
-      <c r="DD63" s="32"/>
-      <c r="DE63" s="32"/>
-      <c r="DF63" s="32" t="s">
+      <c r="DC63" s="29"/>
+      <c r="DD63" s="29"/>
+      <c r="DE63" s="29"/>
+      <c r="DF63" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="DG63" s="32"/>
-      <c r="DH63" s="32"/>
-      <c r="DI63" s="32"/>
-      <c r="DJ63" s="32" t="s">
+      <c r="DG63" s="29"/>
+      <c r="DH63" s="29"/>
+      <c r="DI63" s="29"/>
+      <c r="DJ63" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="DK63" s="32"/>
-      <c r="DL63" s="32"/>
-      <c r="DM63" s="32"/>
-      <c r="DN63" s="32" t="s">
+      <c r="DK63" s="29"/>
+      <c r="DL63" s="29"/>
+      <c r="DM63" s="29"/>
+      <c r="DN63" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="DO63" s="32"/>
-      <c r="DP63" s="32"/>
-      <c r="DQ63" s="32"/>
-      <c r="DR63" s="32" t="s">
+      <c r="DO63" s="29"/>
+      <c r="DP63" s="29"/>
+      <c r="DQ63" s="29"/>
+      <c r="DR63" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="DS63" s="32"/>
-      <c r="DT63" s="32"/>
-      <c r="DU63" s="32"/>
-      <c r="DV63" s="32" t="s">
+      <c r="DS63" s="29"/>
+      <c r="DT63" s="29"/>
+      <c r="DU63" s="29"/>
+      <c r="DV63" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="DW63" s="32"/>
-      <c r="DX63" s="32"/>
-      <c r="DY63" s="32"/>
-      <c r="DZ63" s="32" t="s">
+      <c r="DW63" s="29"/>
+      <c r="DX63" s="29"/>
+      <c r="DY63" s="29"/>
+      <c r="DZ63" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="EA63" s="32"/>
-      <c r="EB63" s="32"/>
-      <c r="EC63" s="32"/>
-      <c r="ED63" s="32" t="s">
+      <c r="EA63" s="29"/>
+      <c r="EB63" s="29"/>
+      <c r="EC63" s="29"/>
+      <c r="ED63" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="EE63" s="32"/>
-      <c r="EF63" s="32"/>
-      <c r="EG63" s="32"/>
-      <c r="EH63" s="32" t="s">
+      <c r="EE63" s="29"/>
+      <c r="EF63" s="29"/>
+      <c r="EG63" s="29"/>
+      <c r="EH63" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="EI63" s="32"/>
-      <c r="EJ63" s="32"/>
-      <c r="EK63" s="32"/>
-      <c r="EL63" s="32" t="s">
+      <c r="EI63" s="29"/>
+      <c r="EJ63" s="29"/>
+      <c r="EK63" s="29"/>
+      <c r="EL63" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="EM63" s="32"/>
-      <c r="EN63" s="32"/>
-      <c r="EO63" s="32"/>
-      <c r="EP63" s="32" t="s">
+      <c r="EM63" s="29"/>
+      <c r="EN63" s="29"/>
+      <c r="EO63" s="29"/>
+      <c r="EP63" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="EQ63" s="32"/>
-      <c r="ER63" s="32"/>
-      <c r="ES63" s="32"/>
-      <c r="ET63" s="32" t="s">
+      <c r="EQ63" s="29"/>
+      <c r="ER63" s="29"/>
+      <c r="ES63" s="29"/>
+      <c r="ET63" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="EU63" s="32"/>
-      <c r="EV63" s="32"/>
-      <c r="EW63" s="32"/>
-      <c r="EX63" s="32" t="s">
+      <c r="EU63" s="29"/>
+      <c r="EV63" s="29"/>
+      <c r="EW63" s="29"/>
+      <c r="EX63" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="EY63" s="32"/>
-      <c r="EZ63" s="32"/>
-      <c r="FA63" s="32"/>
+      <c r="EY63" s="29"/>
+      <c r="EZ63" s="29"/>
+      <c r="FA63" s="29"/>
       <c r="FB63" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="FC63" s="31"/>
-      <c r="FD63" s="28"/>
+      <c r="FC63" s="29"/>
+      <c r="FD63" s="29"/>
       <c r="FE63" s="28"/>
     </row>
-    <row r="64" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>14</v>
       </c>
@@ -12026,7 +12063,9 @@
       <c r="FC64" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="FD64" s="28"/>
+      <c r="FD64" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="FE64" s="28"/>
     </row>
     <row r="65" spans="1:161" x14ac:dyDescent="0.3">
@@ -12511,9 +12550,11 @@
         <v>-0.7127895554888255</v>
       </c>
       <c r="FC66" s="26">
-        <v>11.525917953667957</v>
-      </c>
-      <c r="FD66" s="28"/>
+        <v>11.584335359879219</v>
+      </c>
+      <c r="FD66" s="26">
+        <v>11.594803015704841</v>
+      </c>
       <c r="FE66" s="28"/>
     </row>
     <row r="67" spans="1:161" x14ac:dyDescent="0.3">
@@ -12992,7 +13033,10 @@
         <v>19.755251610037661</v>
       </c>
       <c r="FC67" s="25">
-        <v>-2.1761832194293476</v>
+        <v>-1.457461655925826</v>
+      </c>
+      <c r="FD67" s="25">
+        <v>16.751861962242472</v>
       </c>
     </row>
     <row r="68" spans="1:161" x14ac:dyDescent="0.3">
@@ -13471,7 +13515,10 @@
         <v>-13.294496830254829</v>
       </c>
       <c r="FC68" s="25">
-        <v>111.66969861236583</v>
+        <v>115.66075094911974</v>
+      </c>
+      <c r="FD68" s="25">
+        <v>38.65108834178011</v>
       </c>
     </row>
     <row r="69" spans="1:161" x14ac:dyDescent="0.3">
@@ -13950,7 +13997,10 @@
         <v>-9.4155689825667537</v>
       </c>
       <c r="FC69" s="25">
-        <v>28.4603249935397</v>
+        <v>29.366073403019982</v>
+      </c>
+      <c r="FD69" s="25">
+        <v>14.614387591579288</v>
       </c>
     </row>
     <row r="70" spans="1:161" x14ac:dyDescent="0.3">
@@ -14429,7 +14479,10 @@
         <v>-6.8170348124229463</v>
       </c>
       <c r="FC70" s="25">
-        <v>52.393880702316778</v>
+        <v>54.729507857133029</v>
+      </c>
+      <c r="FD70" s="25">
+        <v>29.009897892539186</v>
       </c>
     </row>
     <row r="71" spans="1:161" x14ac:dyDescent="0.3">
@@ -14591,6 +14644,7 @@
       <c r="FA71" s="25"/>
       <c r="FB71" s="26"/>
       <c r="FC71" s="25"/>
+      <c r="FD71" s="25"/>
     </row>
     <row r="72" spans="1:161" x14ac:dyDescent="0.3">
       <c r="B72" s="13"/>
@@ -14751,6 +14805,7 @@
       <c r="FA72" s="25"/>
       <c r="FB72" s="26"/>
       <c r="FC72" s="25"/>
+      <c r="FD72" s="25"/>
     </row>
     <row r="73" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
@@ -15228,7 +15283,10 @@
         <v>-1.847432708916358</v>
       </c>
       <c r="FC73" s="25">
-        <v>14.890646850784691</v>
+        <v>15.097704130874263</v>
+      </c>
+      <c r="FD73" s="25">
+        <v>9.6848415311552145</v>
       </c>
     </row>
     <row r="74" spans="1:161" hidden="1" x14ac:dyDescent="0.3">
@@ -16011,6 +16069,7 @@
       <c r="FA78" s="9"/>
       <c r="FB78" s="9"/>
       <c r="FC78" s="9"/>
+      <c r="FD78" s="9"/>
     </row>
     <row r="79" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
@@ -16022,284 +16081,285 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
     </row>
-    <row r="90" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
-      <c r="B90" s="32" t="s">
+      <c r="B90" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32"/>
-      <c r="E90" s="32"/>
-      <c r="F90" s="32" t="s">
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="G90" s="32"/>
-      <c r="H90" s="32"/>
-      <c r="I90" s="32"/>
-      <c r="J90" s="32" t="s">
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
+      <c r="J90" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="K90" s="32"/>
-      <c r="L90" s="32"/>
-      <c r="M90" s="32"/>
-      <c r="N90" s="32" t="s">
+      <c r="K90" s="29"/>
+      <c r="L90" s="29"/>
+      <c r="M90" s="29"/>
+      <c r="N90" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="O90" s="32"/>
-      <c r="P90" s="32"/>
-      <c r="Q90" s="32"/>
-      <c r="R90" s="32" t="s">
+      <c r="O90" s="29"/>
+      <c r="P90" s="29"/>
+      <c r="Q90" s="29"/>
+      <c r="R90" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="S90" s="32"/>
-      <c r="T90" s="32"/>
-      <c r="U90" s="32"/>
-      <c r="V90" s="32" t="s">
+      <c r="S90" s="29"/>
+      <c r="T90" s="29"/>
+      <c r="U90" s="29"/>
+      <c r="V90" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="W90" s="32"/>
-      <c r="X90" s="32"/>
-      <c r="Y90" s="32"/>
-      <c r="Z90" s="32" t="s">
+      <c r="W90" s="29"/>
+      <c r="X90" s="29"/>
+      <c r="Y90" s="29"/>
+      <c r="Z90" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AA90" s="32"/>
-      <c r="AB90" s="32"/>
-      <c r="AC90" s="32"/>
-      <c r="AD90" s="32" t="s">
+      <c r="AA90" s="29"/>
+      <c r="AB90" s="29"/>
+      <c r="AC90" s="29"/>
+      <c r="AD90" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AE90" s="32"/>
-      <c r="AF90" s="32"/>
-      <c r="AG90" s="32"/>
-      <c r="AH90" s="32" t="s">
+      <c r="AE90" s="29"/>
+      <c r="AF90" s="29"/>
+      <c r="AG90" s="29"/>
+      <c r="AH90" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AI90" s="32"/>
-      <c r="AJ90" s="32"/>
-      <c r="AK90" s="32"/>
-      <c r="AL90" s="32" t="s">
+      <c r="AI90" s="29"/>
+      <c r="AJ90" s="29"/>
+      <c r="AK90" s="29"/>
+      <c r="AL90" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="AM90" s="32"/>
-      <c r="AN90" s="32"/>
-      <c r="AO90" s="32"/>
-      <c r="AP90" s="32" t="s">
+      <c r="AM90" s="29"/>
+      <c r="AN90" s="29"/>
+      <c r="AO90" s="29"/>
+      <c r="AP90" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AQ90" s="32"/>
-      <c r="AR90" s="32"/>
-      <c r="AS90" s="32"/>
-      <c r="AT90" s="32" t="s">
+      <c r="AQ90" s="29"/>
+      <c r="AR90" s="29"/>
+      <c r="AS90" s="29"/>
+      <c r="AT90" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AU90" s="32"/>
-      <c r="AV90" s="32"/>
-      <c r="AW90" s="32"/>
-      <c r="AX90" s="32" t="s">
+      <c r="AU90" s="29"/>
+      <c r="AV90" s="29"/>
+      <c r="AW90" s="29"/>
+      <c r="AX90" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="AY90" s="32"/>
-      <c r="AZ90" s="32"/>
-      <c r="BA90" s="32"/>
-      <c r="BB90" s="32" t="s">
+      <c r="AY90" s="29"/>
+      <c r="AZ90" s="29"/>
+      <c r="BA90" s="29"/>
+      <c r="BB90" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="BC90" s="32"/>
-      <c r="BD90" s="32"/>
-      <c r="BE90" s="32"/>
-      <c r="BF90" s="32" t="s">
+      <c r="BC90" s="29"/>
+      <c r="BD90" s="29"/>
+      <c r="BE90" s="29"/>
+      <c r="BF90" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="BG90" s="32"/>
-      <c r="BH90" s="32"/>
-      <c r="BI90" s="32"/>
-      <c r="BJ90" s="32" t="s">
+      <c r="BG90" s="29"/>
+      <c r="BH90" s="29"/>
+      <c r="BI90" s="29"/>
+      <c r="BJ90" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="BK90" s="32"/>
-      <c r="BL90" s="32"/>
-      <c r="BM90" s="32"/>
-      <c r="BN90" s="32" t="s">
+      <c r="BK90" s="29"/>
+      <c r="BL90" s="29"/>
+      <c r="BM90" s="29"/>
+      <c r="BN90" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="BO90" s="32"/>
-      <c r="BP90" s="32"/>
-      <c r="BQ90" s="32"/>
-      <c r="BR90" s="32" t="s">
+      <c r="BO90" s="29"/>
+      <c r="BP90" s="29"/>
+      <c r="BQ90" s="29"/>
+      <c r="BR90" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="BS90" s="32"/>
-      <c r="BT90" s="32"/>
-      <c r="BU90" s="32"/>
-      <c r="BV90" s="32" t="s">
+      <c r="BS90" s="29"/>
+      <c r="BT90" s="29"/>
+      <c r="BU90" s="29"/>
+      <c r="BV90" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="BW90" s="32"/>
-      <c r="BX90" s="32"/>
-      <c r="BY90" s="32"/>
-      <c r="BZ90" s="32" t="s">
+      <c r="BW90" s="29"/>
+      <c r="BX90" s="29"/>
+      <c r="BY90" s="29"/>
+      <c r="BZ90" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="CA90" s="32"/>
-      <c r="CB90" s="32"/>
-      <c r="CC90" s="32"/>
-      <c r="CD90" s="32" t="s">
+      <c r="CA90" s="29"/>
+      <c r="CB90" s="29"/>
+      <c r="CC90" s="29"/>
+      <c r="CD90" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="CE90" s="32"/>
-      <c r="CF90" s="32"/>
-      <c r="CG90" s="32"/>
-      <c r="CH90" s="32" t="s">
+      <c r="CE90" s="29"/>
+      <c r="CF90" s="29"/>
+      <c r="CG90" s="29"/>
+      <c r="CH90" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="CI90" s="32"/>
-      <c r="CJ90" s="32"/>
-      <c r="CK90" s="32"/>
-      <c r="CL90" s="32" t="s">
+      <c r="CI90" s="29"/>
+      <c r="CJ90" s="29"/>
+      <c r="CK90" s="29"/>
+      <c r="CL90" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="CM90" s="32"/>
-      <c r="CN90" s="32"/>
-      <c r="CO90" s="32"/>
-      <c r="CP90" s="32" t="s">
+      <c r="CM90" s="29"/>
+      <c r="CN90" s="29"/>
+      <c r="CO90" s="29"/>
+      <c r="CP90" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="CQ90" s="32"/>
-      <c r="CR90" s="32"/>
-      <c r="CS90" s="32"/>
-      <c r="CT90" s="32" t="s">
+      <c r="CQ90" s="29"/>
+      <c r="CR90" s="29"/>
+      <c r="CS90" s="29"/>
+      <c r="CT90" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="CU90" s="32"/>
-      <c r="CV90" s="32"/>
-      <c r="CW90" s="32"/>
-      <c r="CX90" s="32" t="s">
+      <c r="CU90" s="29"/>
+      <c r="CV90" s="29"/>
+      <c r="CW90" s="29"/>
+      <c r="CX90" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="CY90" s="32"/>
-      <c r="CZ90" s="32"/>
-      <c r="DA90" s="32"/>
-      <c r="DB90" s="32" t="s">
+      <c r="CY90" s="29"/>
+      <c r="CZ90" s="29"/>
+      <c r="DA90" s="29"/>
+      <c r="DB90" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="DC90" s="32"/>
-      <c r="DD90" s="32"/>
-      <c r="DE90" s="32"/>
-      <c r="DF90" s="32" t="s">
+      <c r="DC90" s="29"/>
+      <c r="DD90" s="29"/>
+      <c r="DE90" s="29"/>
+      <c r="DF90" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="DG90" s="32"/>
-      <c r="DH90" s="32"/>
-      <c r="DI90" s="32"/>
-      <c r="DJ90" s="32" t="s">
+      <c r="DG90" s="29"/>
+      <c r="DH90" s="29"/>
+      <c r="DI90" s="29"/>
+      <c r="DJ90" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="DK90" s="32"/>
-      <c r="DL90" s="32"/>
-      <c r="DM90" s="32"/>
-      <c r="DN90" s="32" t="s">
+      <c r="DK90" s="29"/>
+      <c r="DL90" s="29"/>
+      <c r="DM90" s="29"/>
+      <c r="DN90" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="DO90" s="32"/>
-      <c r="DP90" s="32"/>
-      <c r="DQ90" s="32"/>
-      <c r="DR90" s="32" t="s">
+      <c r="DO90" s="29"/>
+      <c r="DP90" s="29"/>
+      <c r="DQ90" s="29"/>
+      <c r="DR90" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="DS90" s="32"/>
-      <c r="DT90" s="32"/>
-      <c r="DU90" s="32"/>
-      <c r="DV90" s="32" t="s">
+      <c r="DS90" s="29"/>
+      <c r="DT90" s="29"/>
+      <c r="DU90" s="29"/>
+      <c r="DV90" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="DW90" s="32"/>
-      <c r="DX90" s="32"/>
-      <c r="DY90" s="32"/>
-      <c r="DZ90" s="32" t="s">
+      <c r="DW90" s="29"/>
+      <c r="DX90" s="29"/>
+      <c r="DY90" s="29"/>
+      <c r="DZ90" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="EA90" s="32"/>
-      <c r="EB90" s="32"/>
-      <c r="EC90" s="32"/>
-      <c r="ED90" s="32" t="s">
+      <c r="EA90" s="29"/>
+      <c r="EB90" s="29"/>
+      <c r="EC90" s="29"/>
+      <c r="ED90" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="EE90" s="32"/>
-      <c r="EF90" s="32"/>
-      <c r="EG90" s="32"/>
-      <c r="EH90" s="32" t="s">
+      <c r="EE90" s="29"/>
+      <c r="EF90" s="29"/>
+      <c r="EG90" s="29"/>
+      <c r="EH90" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="EI90" s="32"/>
-      <c r="EJ90" s="32"/>
-      <c r="EK90" s="32"/>
-      <c r="EL90" s="32" t="s">
+      <c r="EI90" s="29"/>
+      <c r="EJ90" s="29"/>
+      <c r="EK90" s="29"/>
+      <c r="EL90" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="EM90" s="32"/>
-      <c r="EN90" s="32"/>
-      <c r="EO90" s="32"/>
-      <c r="EP90" s="32" t="s">
+      <c r="EM90" s="29"/>
+      <c r="EN90" s="29"/>
+      <c r="EO90" s="29"/>
+      <c r="EP90" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="EQ90" s="32"/>
-      <c r="ER90" s="32"/>
-      <c r="ES90" s="32"/>
-      <c r="ET90" s="32" t="s">
+      <c r="EQ90" s="29"/>
+      <c r="ER90" s="29"/>
+      <c r="ES90" s="29"/>
+      <c r="ET90" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="EU90" s="32"/>
-      <c r="EV90" s="32"/>
-      <c r="EW90" s="32"/>
-      <c r="EX90" s="32" t="s">
+      <c r="EU90" s="29"/>
+      <c r="EV90" s="29"/>
+      <c r="EW90" s="29"/>
+      <c r="EX90" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="EY90" s="32"/>
-      <c r="EZ90" s="32"/>
-      <c r="FA90" s="32"/>
+      <c r="EY90" s="29"/>
+      <c r="EZ90" s="29"/>
+      <c r="FA90" s="29"/>
       <c r="FB90" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="FC90" s="31"/>
+      <c r="FC90" s="29"/>
+      <c r="FD90" s="29"/>
     </row>
-    <row r="91" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>14</v>
       </c>
@@ -16777,8 +16837,11 @@
       <c r="FC91" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="FD91" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="93" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>1</v>
       </c>
@@ -17254,10 +17317,13 @@
         <v>-4.7499086974296461</v>
       </c>
       <c r="FC93" s="25">
-        <v>7.230473868216734</v>
+        <v>7.279121571859875</v>
+      </c>
+      <c r="FD93" s="25">
+        <v>7.1264810914908168</v>
       </c>
     </row>
-    <row r="94" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>2</v>
       </c>
@@ -17733,10 +17799,13 @@
         <v>16.071851328063531</v>
       </c>
       <c r="FC94" s="25">
-        <v>-4.8724738801317358</v>
+        <v>-4.1722904664369054</v>
+      </c>
+      <c r="FD94" s="25">
+        <v>13.617081338740107</v>
       </c>
     </row>
-    <row r="95" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>3</v>
       </c>
@@ -18212,10 +18281,13 @@
         <v>-14.804654040755523</v>
       </c>
       <c r="FC95" s="25">
-        <v>75.507788167004861</v>
+        <v>80.342624560388828</v>
+      </c>
+      <c r="FD95" s="25">
+        <v>22.030947456258417</v>
       </c>
     </row>
-    <row r="96" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>4</v>
       </c>
@@ -18691,10 +18763,13 @@
         <v>-8.8473169979656205</v>
       </c>
       <c r="FC96" s="25">
-        <v>26.989161313679205</v>
+        <v>27.777495857134397</v>
+      </c>
+      <c r="FD96" s="25">
+        <v>9.0448467843347515</v>
       </c>
     </row>
-    <row r="97" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>5</v>
       </c>
@@ -19170,10 +19245,13 @@
         <v>-7.0210122748633097</v>
       </c>
       <c r="FC97" s="25">
-        <v>37.789103394008777</v>
+        <v>39.842256725089385</v>
+      </c>
+      <c r="FD97" s="25">
+        <v>13.191599876750601</v>
       </c>
     </row>
-    <row r="98" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:160" x14ac:dyDescent="0.3">
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
@@ -19332,8 +19410,9 @@
       <c r="FA98" s="25"/>
       <c r="FB98" s="26"/>
       <c r="FC98" s="25"/>
+      <c r="FD98" s="25"/>
     </row>
-    <row r="99" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:160" x14ac:dyDescent="0.3">
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
@@ -19492,8 +19571,9 @@
       <c r="FA99" s="25"/>
       <c r="FB99" s="26"/>
       <c r="FC99" s="25"/>
+      <c r="FD99" s="25"/>
     </row>
-    <row r="100" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
         <v>10</v>
       </c>
@@ -19969,10 +20049,13 @@
         <v>-3.8984486229420838</v>
       </c>
       <c r="FC100" s="25">
-        <v>11.809510417140729</v>
+        <v>12.018991067786217</v>
+      </c>
+      <c r="FD100" s="25">
+        <v>7.138348738301886</v>
       </c>
     </row>
-    <row r="101" spans="1:159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:160" hidden="1" x14ac:dyDescent="0.3">
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
@@ -20126,7 +20209,7 @@
       <c r="EV101" s="13"/>
       <c r="EW101" s="13"/>
     </row>
-    <row r="102" spans="1:159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:160" hidden="1" x14ac:dyDescent="0.3">
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
@@ -20280,7 +20363,7 @@
       <c r="EV102" s="13"/>
       <c r="EW102" s="13"/>
     </row>
-    <row r="103" spans="1:159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:160" hidden="1" x14ac:dyDescent="0.3">
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
@@ -20434,7 +20517,7 @@
       <c r="EV103" s="13"/>
       <c r="EW103" s="13"/>
     </row>
-    <row r="104" spans="1:159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:160" hidden="1" x14ac:dyDescent="0.3">
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
@@ -20588,7 +20671,7 @@
       <c r="EV104" s="13"/>
       <c r="EW104" s="13"/>
     </row>
-    <row r="105" spans="1:159" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:160" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -20748,301 +20831,303 @@
       <c r="FA105" s="9"/>
       <c r="FB105" s="9"/>
       <c r="FC105" s="9"/>
+      <c r="FD105" s="9"/>
     </row>
-    <row r="106" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="109" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="112" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
     </row>
-    <row r="113" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A114" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="115" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="116" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
     </row>
-    <row r="117" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A117" s="4"/>
-      <c r="B117" s="32">
+      <c r="B117" s="29">
         <v>1981</v>
       </c>
-      <c r="C117" s="32"/>
-      <c r="D117" s="32"/>
-      <c r="E117" s="32"/>
-      <c r="F117" s="32">
+      <c r="C117" s="29"/>
+      <c r="D117" s="29"/>
+      <c r="E117" s="29"/>
+      <c r="F117" s="29">
         <v>1982</v>
       </c>
-      <c r="G117" s="32"/>
-      <c r="H117" s="32"/>
-      <c r="I117" s="32"/>
-      <c r="J117" s="32">
+      <c r="G117" s="29"/>
+      <c r="H117" s="29"/>
+      <c r="I117" s="29"/>
+      <c r="J117" s="29">
         <v>1983</v>
       </c>
-      <c r="K117" s="32"/>
-      <c r="L117" s="32"/>
-      <c r="M117" s="32"/>
-      <c r="N117" s="32">
+      <c r="K117" s="29"/>
+      <c r="L117" s="29"/>
+      <c r="M117" s="29"/>
+      <c r="N117" s="29">
         <v>1984</v>
       </c>
-      <c r="O117" s="32"/>
-      <c r="P117" s="32"/>
-      <c r="Q117" s="32"/>
-      <c r="R117" s="32">
+      <c r="O117" s="29"/>
+      <c r="P117" s="29"/>
+      <c r="Q117" s="29"/>
+      <c r="R117" s="29">
         <v>1985</v>
       </c>
-      <c r="S117" s="32"/>
-      <c r="T117" s="32"/>
-      <c r="U117" s="32"/>
-      <c r="V117" s="32">
+      <c r="S117" s="29"/>
+      <c r="T117" s="29"/>
+      <c r="U117" s="29"/>
+      <c r="V117" s="29">
         <v>1986</v>
       </c>
-      <c r="W117" s="32"/>
-      <c r="X117" s="32"/>
-      <c r="Y117" s="32"/>
-      <c r="Z117" s="32">
+      <c r="W117" s="29"/>
+      <c r="X117" s="29"/>
+      <c r="Y117" s="29"/>
+      <c r="Z117" s="29">
         <v>1987</v>
       </c>
-      <c r="AA117" s="32"/>
-      <c r="AB117" s="32"/>
-      <c r="AC117" s="32"/>
-      <c r="AD117" s="32">
+      <c r="AA117" s="29"/>
+      <c r="AB117" s="29"/>
+      <c r="AC117" s="29"/>
+      <c r="AD117" s="29">
         <v>1988</v>
       </c>
-      <c r="AE117" s="32"/>
-      <c r="AF117" s="32"/>
-      <c r="AG117" s="32"/>
-      <c r="AH117" s="32">
+      <c r="AE117" s="29"/>
+      <c r="AF117" s="29"/>
+      <c r="AG117" s="29"/>
+      <c r="AH117" s="29">
         <v>1989</v>
       </c>
-      <c r="AI117" s="32"/>
-      <c r="AJ117" s="32"/>
-      <c r="AK117" s="32"/>
-      <c r="AL117" s="32">
+      <c r="AI117" s="29"/>
+      <c r="AJ117" s="29"/>
+      <c r="AK117" s="29"/>
+      <c r="AL117" s="29">
         <v>1990</v>
       </c>
-      <c r="AM117" s="32"/>
-      <c r="AN117" s="32"/>
-      <c r="AO117" s="32"/>
-      <c r="AP117" s="32">
+      <c r="AM117" s="29"/>
+      <c r="AN117" s="29"/>
+      <c r="AO117" s="29"/>
+      <c r="AP117" s="29">
         <v>1991</v>
       </c>
-      <c r="AQ117" s="32"/>
-      <c r="AR117" s="32"/>
-      <c r="AS117" s="32"/>
-      <c r="AT117" s="32">
+      <c r="AQ117" s="29"/>
+      <c r="AR117" s="29"/>
+      <c r="AS117" s="29"/>
+      <c r="AT117" s="29">
         <v>1992</v>
       </c>
-      <c r="AU117" s="32"/>
-      <c r="AV117" s="32"/>
-      <c r="AW117" s="32"/>
-      <c r="AX117" s="32">
+      <c r="AU117" s="29"/>
+      <c r="AV117" s="29"/>
+      <c r="AW117" s="29"/>
+      <c r="AX117" s="29">
         <v>1993</v>
       </c>
-      <c r="AY117" s="32"/>
-      <c r="AZ117" s="32"/>
-      <c r="BA117" s="32"/>
-      <c r="BB117" s="32">
+      <c r="AY117" s="29"/>
+      <c r="AZ117" s="29"/>
+      <c r="BA117" s="29"/>
+      <c r="BB117" s="29">
         <v>1994</v>
       </c>
-      <c r="BC117" s="32"/>
-      <c r="BD117" s="32"/>
-      <c r="BE117" s="32"/>
-      <c r="BF117" s="32">
+      <c r="BC117" s="29"/>
+      <c r="BD117" s="29"/>
+      <c r="BE117" s="29"/>
+      <c r="BF117" s="29">
         <v>1995</v>
       </c>
-      <c r="BG117" s="32"/>
-      <c r="BH117" s="32"/>
-      <c r="BI117" s="32"/>
-      <c r="BJ117" s="32">
+      <c r="BG117" s="29"/>
+      <c r="BH117" s="29"/>
+      <c r="BI117" s="29"/>
+      <c r="BJ117" s="29">
         <v>1996</v>
       </c>
-      <c r="BK117" s="32"/>
-      <c r="BL117" s="32"/>
-      <c r="BM117" s="32"/>
-      <c r="BN117" s="32">
+      <c r="BK117" s="29"/>
+      <c r="BL117" s="29"/>
+      <c r="BM117" s="29"/>
+      <c r="BN117" s="29">
         <v>1997</v>
       </c>
-      <c r="BO117" s="32"/>
-      <c r="BP117" s="32"/>
-      <c r="BQ117" s="32"/>
-      <c r="BR117" s="32">
+      <c r="BO117" s="29"/>
+      <c r="BP117" s="29"/>
+      <c r="BQ117" s="29"/>
+      <c r="BR117" s="29">
         <v>1998</v>
       </c>
-      <c r="BS117" s="32"/>
-      <c r="BT117" s="32"/>
-      <c r="BU117" s="32"/>
-      <c r="BV117" s="32">
+      <c r="BS117" s="29"/>
+      <c r="BT117" s="29"/>
+      <c r="BU117" s="29"/>
+      <c r="BV117" s="29">
         <v>1999</v>
       </c>
-      <c r="BW117" s="32"/>
-      <c r="BX117" s="32"/>
-      <c r="BY117" s="32"/>
-      <c r="BZ117" s="32">
+      <c r="BW117" s="29"/>
+      <c r="BX117" s="29"/>
+      <c r="BY117" s="29"/>
+      <c r="BZ117" s="29">
         <v>2000</v>
       </c>
-      <c r="CA117" s="32"/>
-      <c r="CB117" s="32"/>
-      <c r="CC117" s="32"/>
-      <c r="CD117" s="32">
+      <c r="CA117" s="29"/>
+      <c r="CB117" s="29"/>
+      <c r="CC117" s="29"/>
+      <c r="CD117" s="29">
         <v>2001</v>
       </c>
-      <c r="CE117" s="32"/>
-      <c r="CF117" s="32"/>
-      <c r="CG117" s="32"/>
-      <c r="CH117" s="32">
+      <c r="CE117" s="29"/>
+      <c r="CF117" s="29"/>
+      <c r="CG117" s="29"/>
+      <c r="CH117" s="29">
         <v>2002</v>
       </c>
-      <c r="CI117" s="32"/>
-      <c r="CJ117" s="32"/>
-      <c r="CK117" s="32"/>
-      <c r="CL117" s="32">
+      <c r="CI117" s="29"/>
+      <c r="CJ117" s="29"/>
+      <c r="CK117" s="29"/>
+      <c r="CL117" s="29">
         <v>2003</v>
       </c>
-      <c r="CM117" s="32"/>
-      <c r="CN117" s="32"/>
-      <c r="CO117" s="32"/>
-      <c r="CP117" s="32">
+      <c r="CM117" s="29"/>
+      <c r="CN117" s="29"/>
+      <c r="CO117" s="29"/>
+      <c r="CP117" s="29">
         <v>2004</v>
       </c>
-      <c r="CQ117" s="32"/>
-      <c r="CR117" s="32"/>
-      <c r="CS117" s="32"/>
-      <c r="CT117" s="32">
+      <c r="CQ117" s="29"/>
+      <c r="CR117" s="29"/>
+      <c r="CS117" s="29"/>
+      <c r="CT117" s="29">
         <v>2005</v>
       </c>
-      <c r="CU117" s="32"/>
-      <c r="CV117" s="32"/>
-      <c r="CW117" s="32"/>
-      <c r="CX117" s="32">
+      <c r="CU117" s="29"/>
+      <c r="CV117" s="29"/>
+      <c r="CW117" s="29"/>
+      <c r="CX117" s="29">
         <v>2006</v>
       </c>
-      <c r="CY117" s="32"/>
-      <c r="CZ117" s="32"/>
-      <c r="DA117" s="32"/>
-      <c r="DB117" s="32">
+      <c r="CY117" s="29"/>
+      <c r="CZ117" s="29"/>
+      <c r="DA117" s="29"/>
+      <c r="DB117" s="29">
         <v>2007</v>
       </c>
-      <c r="DC117" s="32"/>
-      <c r="DD117" s="32"/>
-      <c r="DE117" s="32"/>
-      <c r="DF117" s="32">
+      <c r="DC117" s="29"/>
+      <c r="DD117" s="29"/>
+      <c r="DE117" s="29"/>
+      <c r="DF117" s="29">
         <v>2008</v>
       </c>
-      <c r="DG117" s="32"/>
-      <c r="DH117" s="32"/>
-      <c r="DI117" s="32"/>
-      <c r="DJ117" s="32">
+      <c r="DG117" s="29"/>
+      <c r="DH117" s="29"/>
+      <c r="DI117" s="29"/>
+      <c r="DJ117" s="29">
         <v>2009</v>
       </c>
-      <c r="DK117" s="32"/>
-      <c r="DL117" s="32"/>
-      <c r="DM117" s="32"/>
-      <c r="DN117" s="32">
+      <c r="DK117" s="29"/>
+      <c r="DL117" s="29"/>
+      <c r="DM117" s="29"/>
+      <c r="DN117" s="29">
         <v>2010</v>
       </c>
-      <c r="DO117" s="32"/>
-      <c r="DP117" s="32"/>
-      <c r="DQ117" s="32"/>
-      <c r="DR117" s="32">
+      <c r="DO117" s="29"/>
+      <c r="DP117" s="29"/>
+      <c r="DQ117" s="29"/>
+      <c r="DR117" s="29">
         <v>2011</v>
       </c>
-      <c r="DS117" s="32"/>
-      <c r="DT117" s="32"/>
-      <c r="DU117" s="32"/>
-      <c r="DV117" s="32">
+      <c r="DS117" s="29"/>
+      <c r="DT117" s="29"/>
+      <c r="DU117" s="29"/>
+      <c r="DV117" s="29">
         <v>2012</v>
       </c>
-      <c r="DW117" s="32"/>
-      <c r="DX117" s="32"/>
-      <c r="DY117" s="32"/>
-      <c r="DZ117" s="32">
+      <c r="DW117" s="29"/>
+      <c r="DX117" s="29"/>
+      <c r="DY117" s="29"/>
+      <c r="DZ117" s="29">
         <v>2013</v>
       </c>
-      <c r="EA117" s="32"/>
-      <c r="EB117" s="32"/>
-      <c r="EC117" s="32"/>
-      <c r="ED117" s="32">
+      <c r="EA117" s="29"/>
+      <c r="EB117" s="29"/>
+      <c r="EC117" s="29"/>
+      <c r="ED117" s="29">
         <v>2014</v>
       </c>
-      <c r="EE117" s="32"/>
-      <c r="EF117" s="32"/>
-      <c r="EG117" s="32"/>
-      <c r="EH117" s="32">
+      <c r="EE117" s="29"/>
+      <c r="EF117" s="29"/>
+      <c r="EG117" s="29"/>
+      <c r="EH117" s="29">
         <v>2015</v>
       </c>
-      <c r="EI117" s="32"/>
-      <c r="EJ117" s="32"/>
-      <c r="EK117" s="32"/>
-      <c r="EL117" s="32">
+      <c r="EI117" s="29"/>
+      <c r="EJ117" s="29"/>
+      <c r="EK117" s="29"/>
+      <c r="EL117" s="29">
         <v>2016</v>
       </c>
-      <c r="EM117" s="32"/>
-      <c r="EN117" s="32"/>
-      <c r="EO117" s="32"/>
-      <c r="EP117" s="32">
+      <c r="EM117" s="29"/>
+      <c r="EN117" s="29"/>
+      <c r="EO117" s="29"/>
+      <c r="EP117" s="29">
         <v>2017</v>
       </c>
-      <c r="EQ117" s="32"/>
-      <c r="ER117" s="32"/>
-      <c r="ES117" s="32"/>
-      <c r="ET117" s="32">
+      <c r="EQ117" s="29"/>
+      <c r="ER117" s="29"/>
+      <c r="ES117" s="29"/>
+      <c r="ET117" s="29">
         <v>2018</v>
       </c>
-      <c r="EU117" s="32"/>
-      <c r="EV117" s="32"/>
-      <c r="EW117" s="32"/>
-      <c r="EX117" s="32">
+      <c r="EU117" s="29"/>
+      <c r="EV117" s="29"/>
+      <c r="EW117" s="29"/>
+      <c r="EX117" s="29">
         <v>2019</v>
       </c>
-      <c r="EY117" s="32"/>
-      <c r="EZ117" s="32"/>
-      <c r="FA117" s="32"/>
-      <c r="FB117" s="32">
+      <c r="EY117" s="29"/>
+      <c r="EZ117" s="29"/>
+      <c r="FA117" s="29"/>
+      <c r="FB117" s="29">
         <v>2020</v>
       </c>
-      <c r="FC117" s="32"/>
-      <c r="FD117" s="32"/>
+      <c r="FC117" s="29"/>
+      <c r="FD117" s="29"/>
       <c r="FE117" s="24"/>
       <c r="FF117" s="29">
         <v>2021</v>
       </c>
-      <c r="FG117" s="31"/>
+      <c r="FG117" s="29"/>
+      <c r="FH117" s="29"/>
     </row>
-    <row r="118" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>14</v>
       </c>
@@ -21532,11 +21617,14 @@
       <c r="FG118" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="FH118" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="119" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:164" x14ac:dyDescent="0.3">
       <c r="FB119" s="2"/>
     </row>
-    <row r="120" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>1</v>
       </c>
@@ -22024,10 +22112,13 @@
         <v>77.869353587115057</v>
       </c>
       <c r="FG120" s="25">
-        <v>71.440625150530266</v>
+        <v>71.349458996191785</v>
+      </c>
+      <c r="FH120" s="25">
+        <v>77.731582160005189</v>
       </c>
     </row>
-    <row r="121" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>2</v>
       </c>
@@ -22515,10 +22606,13 @@
         <v>14.522856721260794</v>
       </c>
       <c r="FG121" s="25">
-        <v>17.081860495143339</v>
+        <v>17.176407143448312</v>
+      </c>
+      <c r="FH121" s="25">
+        <v>16.196925255936971</v>
       </c>
     </row>
-    <row r="122" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>3</v>
       </c>
@@ -23006,10 +23100,13 @@
         <v>19.042888206369369</v>
       </c>
       <c r="FG122" s="25">
-        <v>23.257913910675057</v>
+        <v>23.653814909169771</v>
+      </c>
+      <c r="FH122" s="25">
+        <v>20.926448655667958</v>
       </c>
     </row>
-    <row r="123" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>4</v>
       </c>
@@ -23497,10 +23594,13 @@
         <v>27.208439495480153</v>
       </c>
       <c r="FG123" s="25">
-        <v>24.357489077575142</v>
+        <v>24.485101588789345</v>
+      </c>
+      <c r="FH123" s="25">
+        <v>27.824880691434682</v>
       </c>
     </row>
-    <row r="124" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>5</v>
       </c>
@@ -23988,10 +24088,13 @@
         <v>37.666201128399862</v>
       </c>
       <c r="FG124" s="25">
-        <v>36.815333087710009</v>
+        <v>37.312329472246965</v>
+      </c>
+      <c r="FH124" s="25">
+        <v>42.075922680857055</v>
       </c>
     </row>
-    <row r="125" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:164" x14ac:dyDescent="0.3">
       <c r="B125" s="13">
         <v>10.790109715083961</v>
       </c>
@@ -24306,8 +24409,9 @@
       <c r="FE125" s="25"/>
       <c r="FF125" s="25"/>
       <c r="FG125" s="25"/>
+      <c r="FH125" s="25"/>
     </row>
-    <row r="126" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:164" x14ac:dyDescent="0.3">
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
@@ -24470,8 +24574,9 @@
       <c r="FE126" s="25"/>
       <c r="FF126" s="25"/>
       <c r="FG126" s="25"/>
+      <c r="FH126" s="25"/>
     </row>
-    <row r="127" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
         <v>10</v>
       </c>
@@ -24961,8 +25066,11 @@
       <c r="FG127" s="25">
         <v>100</v>
       </c>
+      <c r="FH127" s="25">
+        <v>100</v>
+      </c>
     </row>
-    <row r="128" spans="1:163" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:164" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="13">
         <v>0</v>
       </c>
@@ -25122,7 +25230,7 @@
       <c r="EZ128" s="13"/>
       <c r="FA128" s="13"/>
     </row>
-    <row r="129" spans="1:163" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:164" hidden="1" x14ac:dyDescent="0.3">
       <c r="B129" s="13">
         <v>0</v>
       </c>
@@ -25282,7 +25390,7 @@
       <c r="EZ129" s="13"/>
       <c r="FA129" s="13"/>
     </row>
-    <row r="130" spans="1:163" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:164" hidden="1" x14ac:dyDescent="0.3">
       <c r="B130" s="13">
         <v>0</v>
       </c>
@@ -25442,7 +25550,7 @@
       <c r="EZ130" s="13"/>
       <c r="FA130" s="13"/>
     </row>
-    <row r="131" spans="1:163" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:164" hidden="1" x14ac:dyDescent="0.3">
       <c r="B131" s="13">
         <v>0</v>
       </c>
@@ -25602,7 +25710,7 @@
       <c r="EZ131" s="13"/>
       <c r="FA131" s="13"/>
     </row>
-    <row r="132" spans="1:163" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:164" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -25766,34 +25874,35 @@
       <c r="FE132" s="9"/>
       <c r="FF132" s="9"/>
       <c r="FG132" s="9"/>
+      <c r="FH132" s="9"/>
     </row>
-    <row r="133" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="139" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="FC139" s="3"/>
       <c r="FD139" s="3"/>
       <c r="FE139" s="3"/>
     </row>
-    <row r="140" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>46</v>
       </c>
@@ -25801,7 +25910,7 @@
       <c r="FD140" s="3"/>
       <c r="FE140" s="3"/>
     </row>
-    <row r="141" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A141" s="11" t="s">
         <v>80</v>
       </c>
@@ -25809,7 +25918,7 @@
       <c r="FD141" s="3"/>
       <c r="FE141" s="3"/>
     </row>
-    <row r="142" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>54</v>
       </c>
@@ -25817,260 +25926,261 @@
       <c r="FD142" s="3"/>
       <c r="FE142" s="3"/>
     </row>
-    <row r="143" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="FC143" s="3"/>
       <c r="FD143" s="3"/>
       <c r="FE143" s="3"/>
     </row>
-    <row r="144" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A144" s="4"/>
-      <c r="B144" s="32">
+      <c r="B144" s="29">
         <v>1981</v>
       </c>
-      <c r="C144" s="32"/>
-      <c r="D144" s="32"/>
-      <c r="E144" s="32"/>
-      <c r="F144" s="32">
+      <c r="C144" s="29"/>
+      <c r="D144" s="29"/>
+      <c r="E144" s="29"/>
+      <c r="F144" s="29">
         <v>1982</v>
       </c>
-      <c r="G144" s="32"/>
-      <c r="H144" s="32"/>
-      <c r="I144" s="32"/>
-      <c r="J144" s="32">
+      <c r="G144" s="29"/>
+      <c r="H144" s="29"/>
+      <c r="I144" s="29"/>
+      <c r="J144" s="29">
         <v>1983</v>
       </c>
-      <c r="K144" s="32"/>
-      <c r="L144" s="32"/>
-      <c r="M144" s="32"/>
-      <c r="N144" s="32">
+      <c r="K144" s="29"/>
+      <c r="L144" s="29"/>
+      <c r="M144" s="29"/>
+      <c r="N144" s="29">
         <v>1984</v>
       </c>
-      <c r="O144" s="32"/>
-      <c r="P144" s="32"/>
-      <c r="Q144" s="32"/>
-      <c r="R144" s="32">
+      <c r="O144" s="29"/>
+      <c r="P144" s="29"/>
+      <c r="Q144" s="29"/>
+      <c r="R144" s="29">
         <v>1985</v>
       </c>
-      <c r="S144" s="32"/>
-      <c r="T144" s="32"/>
-      <c r="U144" s="32"/>
-      <c r="V144" s="32">
+      <c r="S144" s="29"/>
+      <c r="T144" s="29"/>
+      <c r="U144" s="29"/>
+      <c r="V144" s="29">
         <v>1986</v>
       </c>
-      <c r="W144" s="32"/>
-      <c r="X144" s="32"/>
-      <c r="Y144" s="32"/>
-      <c r="Z144" s="32">
+      <c r="W144" s="29"/>
+      <c r="X144" s="29"/>
+      <c r="Y144" s="29"/>
+      <c r="Z144" s="29">
         <v>1987</v>
       </c>
-      <c r="AA144" s="32"/>
-      <c r="AB144" s="32"/>
-      <c r="AC144" s="32"/>
-      <c r="AD144" s="32">
+      <c r="AA144" s="29"/>
+      <c r="AB144" s="29"/>
+      <c r="AC144" s="29"/>
+      <c r="AD144" s="29">
         <v>1988</v>
       </c>
-      <c r="AE144" s="32"/>
-      <c r="AF144" s="32"/>
-      <c r="AG144" s="32"/>
-      <c r="AH144" s="32">
+      <c r="AE144" s="29"/>
+      <c r="AF144" s="29"/>
+      <c r="AG144" s="29"/>
+      <c r="AH144" s="29">
         <v>1989</v>
       </c>
-      <c r="AI144" s="32"/>
-      <c r="AJ144" s="32"/>
-      <c r="AK144" s="32"/>
-      <c r="AL144" s="32">
+      <c r="AI144" s="29"/>
+      <c r="AJ144" s="29"/>
+      <c r="AK144" s="29"/>
+      <c r="AL144" s="29">
         <v>1990</v>
       </c>
-      <c r="AM144" s="32"/>
-      <c r="AN144" s="32"/>
-      <c r="AO144" s="32"/>
-      <c r="AP144" s="32">
+      <c r="AM144" s="29"/>
+      <c r="AN144" s="29"/>
+      <c r="AO144" s="29"/>
+      <c r="AP144" s="29">
         <v>1991</v>
       </c>
-      <c r="AQ144" s="32"/>
-      <c r="AR144" s="32"/>
-      <c r="AS144" s="32"/>
-      <c r="AT144" s="32">
+      <c r="AQ144" s="29"/>
+      <c r="AR144" s="29"/>
+      <c r="AS144" s="29"/>
+      <c r="AT144" s="29">
         <v>1992</v>
       </c>
-      <c r="AU144" s="32"/>
-      <c r="AV144" s="32"/>
-      <c r="AW144" s="32"/>
-      <c r="AX144" s="32">
+      <c r="AU144" s="29"/>
+      <c r="AV144" s="29"/>
+      <c r="AW144" s="29"/>
+      <c r="AX144" s="29">
         <v>1993</v>
       </c>
-      <c r="AY144" s="32"/>
-      <c r="AZ144" s="32"/>
-      <c r="BA144" s="32"/>
-      <c r="BB144" s="32">
+      <c r="AY144" s="29"/>
+      <c r="AZ144" s="29"/>
+      <c r="BA144" s="29"/>
+      <c r="BB144" s="29">
         <v>1994</v>
       </c>
-      <c r="BC144" s="32"/>
-      <c r="BD144" s="32"/>
-      <c r="BE144" s="32"/>
-      <c r="BF144" s="32">
+      <c r="BC144" s="29"/>
+      <c r="BD144" s="29"/>
+      <c r="BE144" s="29"/>
+      <c r="BF144" s="29">
         <v>1995</v>
       </c>
-      <c r="BG144" s="32"/>
-      <c r="BH144" s="32"/>
-      <c r="BI144" s="32"/>
-      <c r="BJ144" s="32">
+      <c r="BG144" s="29"/>
+      <c r="BH144" s="29"/>
+      <c r="BI144" s="29"/>
+      <c r="BJ144" s="29">
         <v>1996</v>
       </c>
-      <c r="BK144" s="32"/>
-      <c r="BL144" s="32"/>
-      <c r="BM144" s="32"/>
-      <c r="BN144" s="32">
+      <c r="BK144" s="29"/>
+      <c r="BL144" s="29"/>
+      <c r="BM144" s="29"/>
+      <c r="BN144" s="29">
         <v>1997</v>
       </c>
-      <c r="BO144" s="32"/>
-      <c r="BP144" s="32"/>
-      <c r="BQ144" s="32"/>
-      <c r="BR144" s="32">
+      <c r="BO144" s="29"/>
+      <c r="BP144" s="29"/>
+      <c r="BQ144" s="29"/>
+      <c r="BR144" s="29">
         <v>1998</v>
       </c>
-      <c r="BS144" s="32"/>
-      <c r="BT144" s="32"/>
-      <c r="BU144" s="32"/>
-      <c r="BV144" s="32">
+      <c r="BS144" s="29"/>
+      <c r="BT144" s="29"/>
+      <c r="BU144" s="29"/>
+      <c r="BV144" s="29">
         <v>1999</v>
       </c>
-      <c r="BW144" s="32"/>
-      <c r="BX144" s="32"/>
-      <c r="BY144" s="32"/>
-      <c r="BZ144" s="32">
+      <c r="BW144" s="29"/>
+      <c r="BX144" s="29"/>
+      <c r="BY144" s="29"/>
+      <c r="BZ144" s="29">
         <v>2000</v>
       </c>
-      <c r="CA144" s="32"/>
-      <c r="CB144" s="32"/>
-      <c r="CC144" s="32"/>
-      <c r="CD144" s="32">
+      <c r="CA144" s="29"/>
+      <c r="CB144" s="29"/>
+      <c r="CC144" s="29"/>
+      <c r="CD144" s="29">
         <v>2001</v>
       </c>
-      <c r="CE144" s="32"/>
-      <c r="CF144" s="32"/>
-      <c r="CG144" s="32"/>
-      <c r="CH144" s="32">
+      <c r="CE144" s="29"/>
+      <c r="CF144" s="29"/>
+      <c r="CG144" s="29"/>
+      <c r="CH144" s="29">
         <v>2002</v>
       </c>
-      <c r="CI144" s="32"/>
-      <c r="CJ144" s="32"/>
-      <c r="CK144" s="32"/>
-      <c r="CL144" s="32">
+      <c r="CI144" s="29"/>
+      <c r="CJ144" s="29"/>
+      <c r="CK144" s="29"/>
+      <c r="CL144" s="29">
         <v>2003</v>
       </c>
-      <c r="CM144" s="32"/>
-      <c r="CN144" s="32"/>
-      <c r="CO144" s="32"/>
-      <c r="CP144" s="32">
+      <c r="CM144" s="29"/>
+      <c r="CN144" s="29"/>
+      <c r="CO144" s="29"/>
+      <c r="CP144" s="29">
         <v>2004</v>
       </c>
-      <c r="CQ144" s="32"/>
-      <c r="CR144" s="32"/>
-      <c r="CS144" s="32"/>
-      <c r="CT144" s="32">
+      <c r="CQ144" s="29"/>
+      <c r="CR144" s="29"/>
+      <c r="CS144" s="29"/>
+      <c r="CT144" s="29">
         <v>2005</v>
       </c>
-      <c r="CU144" s="32"/>
-      <c r="CV144" s="32"/>
-      <c r="CW144" s="32"/>
-      <c r="CX144" s="32">
+      <c r="CU144" s="29"/>
+      <c r="CV144" s="29"/>
+      <c r="CW144" s="29"/>
+      <c r="CX144" s="29">
         <v>2006</v>
       </c>
-      <c r="CY144" s="32"/>
-      <c r="CZ144" s="32"/>
-      <c r="DA144" s="32"/>
-      <c r="DB144" s="32">
+      <c r="CY144" s="29"/>
+      <c r="CZ144" s="29"/>
+      <c r="DA144" s="29"/>
+      <c r="DB144" s="29">
         <v>2007</v>
       </c>
-      <c r="DC144" s="32"/>
-      <c r="DD144" s="32"/>
-      <c r="DE144" s="32"/>
-      <c r="DF144" s="32">
+      <c r="DC144" s="29"/>
+      <c r="DD144" s="29"/>
+      <c r="DE144" s="29"/>
+      <c r="DF144" s="29">
         <v>2008</v>
       </c>
-      <c r="DG144" s="32"/>
-      <c r="DH144" s="32"/>
-      <c r="DI144" s="32"/>
-      <c r="DJ144" s="32">
+      <c r="DG144" s="29"/>
+      <c r="DH144" s="29"/>
+      <c r="DI144" s="29"/>
+      <c r="DJ144" s="29">
         <v>2009</v>
       </c>
-      <c r="DK144" s="32"/>
-      <c r="DL144" s="32"/>
-      <c r="DM144" s="32"/>
-      <c r="DN144" s="32">
+      <c r="DK144" s="29"/>
+      <c r="DL144" s="29"/>
+      <c r="DM144" s="29"/>
+      <c r="DN144" s="29">
         <v>2010</v>
       </c>
-      <c r="DO144" s="32"/>
-      <c r="DP144" s="32"/>
-      <c r="DQ144" s="32"/>
-      <c r="DR144" s="32">
+      <c r="DO144" s="29"/>
+      <c r="DP144" s="29"/>
+      <c r="DQ144" s="29"/>
+      <c r="DR144" s="29">
         <v>2011</v>
       </c>
-      <c r="DS144" s="32"/>
-      <c r="DT144" s="32"/>
-      <c r="DU144" s="32"/>
-      <c r="DV144" s="32">
+      <c r="DS144" s="29"/>
+      <c r="DT144" s="29"/>
+      <c r="DU144" s="29"/>
+      <c r="DV144" s="29">
         <v>2012</v>
       </c>
-      <c r="DW144" s="32"/>
-      <c r="DX144" s="32"/>
-      <c r="DY144" s="32"/>
-      <c r="DZ144" s="32">
+      <c r="DW144" s="29"/>
+      <c r="DX144" s="29"/>
+      <c r="DY144" s="29"/>
+      <c r="DZ144" s="29">
         <v>2013</v>
       </c>
-      <c r="EA144" s="32"/>
-      <c r="EB144" s="32"/>
-      <c r="EC144" s="32"/>
-      <c r="ED144" s="32">
+      <c r="EA144" s="29"/>
+      <c r="EB144" s="29"/>
+      <c r="EC144" s="29"/>
+      <c r="ED144" s="29">
         <v>2014</v>
       </c>
-      <c r="EE144" s="32"/>
-      <c r="EF144" s="32"/>
-      <c r="EG144" s="32"/>
-      <c r="EH144" s="32">
+      <c r="EE144" s="29"/>
+      <c r="EF144" s="29"/>
+      <c r="EG144" s="29"/>
+      <c r="EH144" s="29">
         <v>2015</v>
       </c>
-      <c r="EI144" s="32"/>
-      <c r="EJ144" s="32"/>
-      <c r="EK144" s="32"/>
-      <c r="EL144" s="32">
+      <c r="EI144" s="29"/>
+      <c r="EJ144" s="29"/>
+      <c r="EK144" s="29"/>
+      <c r="EL144" s="29">
         <v>2016</v>
       </c>
-      <c r="EM144" s="32"/>
-      <c r="EN144" s="32"/>
-      <c r="EO144" s="32"/>
-      <c r="EP144" s="32">
+      <c r="EM144" s="29"/>
+      <c r="EN144" s="29"/>
+      <c r="EO144" s="29"/>
+      <c r="EP144" s="29">
         <v>2017</v>
       </c>
-      <c r="EQ144" s="32"/>
-      <c r="ER144" s="32"/>
-      <c r="ES144" s="32"/>
-      <c r="ET144" s="32">
+      <c r="EQ144" s="29"/>
+      <c r="ER144" s="29"/>
+      <c r="ES144" s="29"/>
+      <c r="ET144" s="29">
         <v>2018</v>
       </c>
-      <c r="EU144" s="32"/>
-      <c r="EV144" s="32"/>
-      <c r="EW144" s="32"/>
-      <c r="EX144" s="32">
+      <c r="EU144" s="29"/>
+      <c r="EV144" s="29"/>
+      <c r="EW144" s="29"/>
+      <c r="EX144" s="29">
         <v>2019</v>
       </c>
-      <c r="EY144" s="32"/>
-      <c r="EZ144" s="32"/>
-      <c r="FA144" s="32"/>
-      <c r="FB144" s="32">
+      <c r="EY144" s="29"/>
+      <c r="EZ144" s="29"/>
+      <c r="FA144" s="29"/>
+      <c r="FB144" s="29">
         <v>2020</v>
       </c>
-      <c r="FC144" s="32"/>
-      <c r="FD144" s="32"/>
+      <c r="FC144" s="29"/>
+      <c r="FD144" s="29"/>
       <c r="FE144" s="24"/>
       <c r="FF144" s="29">
         <v>2021</v>
       </c>
-      <c r="FG144" s="31"/>
+      <c r="FG144" s="29"/>
+      <c r="FH144" s="29"/>
     </row>
-    <row r="145" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>14</v>
       </c>
@@ -26560,11 +26670,14 @@
       <c r="FG145" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="FH145" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="146" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:164" x14ac:dyDescent="0.3">
       <c r="FB146" s="2"/>
     </row>
-    <row r="147" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>1</v>
       </c>
@@ -27052,10 +27165,13 @@
         <v>74.146003165635491</v>
       </c>
       <c r="FG147" s="25">
-        <v>67.619988926977641</v>
+        <v>67.524156525329488</v>
+      </c>
+      <c r="FH147" s="25">
+        <v>73.3086794101756</v>
       </c>
     </row>
-    <row r="148" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>2</v>
       </c>
@@ -27543,10 +27659,13 @@
         <v>15.274267781180976</v>
       </c>
       <c r="FG148" s="25">
-        <v>17.45528709085221</v>
+        <v>17.550883779024968</v>
+      </c>
+      <c r="FH148" s="25">
+        <v>15.631433242686507</v>
       </c>
     </row>
-    <row r="149" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>3</v>
       </c>
@@ -28034,10 +28153,13 @@
         <v>19.892327084110374</v>
       </c>
       <c r="FG149" s="25">
-        <v>23.873753874275867</v>
+        <v>24.485546069298916</v>
+      </c>
+      <c r="FH149" s="25">
+        <v>20.629359460705384</v>
       </c>
     </row>
-    <row r="150" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>4</v>
       </c>
@@ -28525,10 +28647,13 @@
         <v>28.511545991873145</v>
       </c>
       <c r="FG150" s="25">
-        <v>27.622177254938489</v>
+        <v>27.741677244029482</v>
+      </c>
+      <c r="FH150" s="25">
+        <v>30.472472751351155</v>
       </c>
     </row>
-    <row r="151" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>5</v>
       </c>
@@ -29016,10 +29141,13 @@
         <v>38.586282174468856</v>
       </c>
       <c r="FG151" s="25">
-        <v>37.387137557478574</v>
+        <v>37.873274417585243</v>
+      </c>
+      <c r="FH151" s="25">
+        <v>39.189348976001689</v>
       </c>
     </row>
-    <row r="152" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:164" x14ac:dyDescent="0.3">
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
       <c r="D152" s="13"/>
@@ -29182,8 +29310,9 @@
       <c r="FE152" s="25"/>
       <c r="FF152" s="25"/>
       <c r="FG152" s="25"/>
+      <c r="FH152" s="25"/>
     </row>
-    <row r="153" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:164" x14ac:dyDescent="0.3">
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
       <c r="D153" s="13"/>
@@ -29346,8 +29475,9 @@
       <c r="FE153" s="25"/>
       <c r="FF153" s="25"/>
       <c r="FG153" s="25"/>
+      <c r="FH153" s="25"/>
     </row>
-    <row r="154" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A154" s="8" t="s">
         <v>10</v>
       </c>
@@ -29837,8 +29967,11 @@
       <c r="FG154" s="25">
         <v>100</v>
       </c>
+      <c r="FH154" s="25">
+        <v>100</v>
+      </c>
     </row>
-    <row r="155" spans="1:163" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:164" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
       <c r="D155" s="13"/>
@@ -29996,7 +30129,7 @@
       <c r="EZ155" s="13"/>
       <c r="FA155" s="13"/>
     </row>
-    <row r="156" spans="1:163" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:164" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
       <c r="D156" s="13"/>
@@ -30154,7 +30287,7 @@
       <c r="EZ156" s="13"/>
       <c r="FA156" s="13"/>
     </row>
-    <row r="157" spans="1:163" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:164" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
       <c r="D157" s="13"/>
@@ -30312,7 +30445,7 @@
       <c r="EZ157" s="13"/>
       <c r="FA157" s="13"/>
     </row>
-    <row r="158" spans="1:163" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:164" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
       <c r="D158" s="13"/>
@@ -30470,7 +30603,7 @@
       <c r="EZ158" s="13"/>
       <c r="FA158" s="13"/>
     </row>
-    <row r="159" spans="1:163" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:164" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
@@ -30634,31 +30767,32 @@
       <c r="FE159" s="9"/>
       <c r="FF159" s="9"/>
       <c r="FG159" s="9"/>
+      <c r="FH159" s="9"/>
     </row>
-    <row r="160" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="166" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
     </row>
-    <row r="167" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>47</v>
       </c>
@@ -30666,7 +30800,7 @@
       <c r="FD167" s="3"/>
       <c r="FE167" s="3"/>
     </row>
-    <row r="168" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A168" s="11" t="s">
         <v>80</v>
       </c>
@@ -30674,7 +30808,7 @@
       <c r="FD168" s="3"/>
       <c r="FE168" s="3"/>
     </row>
-    <row r="169" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>11</v>
       </c>
@@ -30682,260 +30816,261 @@
       <c r="FD169" s="3"/>
       <c r="FE169" s="3"/>
     </row>
-    <row r="170" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="FC170" s="3"/>
       <c r="FD170" s="3"/>
       <c r="FE170" s="3"/>
     </row>
-    <row r="171" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A171" s="4"/>
-      <c r="B171" s="32">
+      <c r="B171" s="29">
         <v>1981</v>
       </c>
-      <c r="C171" s="32"/>
-      <c r="D171" s="32"/>
-      <c r="E171" s="32"/>
-      <c r="F171" s="32">
+      <c r="C171" s="29"/>
+      <c r="D171" s="29"/>
+      <c r="E171" s="29"/>
+      <c r="F171" s="29">
         <v>1982</v>
       </c>
-      <c r="G171" s="32"/>
-      <c r="H171" s="32"/>
-      <c r="I171" s="32"/>
-      <c r="J171" s="32">
+      <c r="G171" s="29"/>
+      <c r="H171" s="29"/>
+      <c r="I171" s="29"/>
+      <c r="J171" s="29">
         <v>1983</v>
       </c>
-      <c r="K171" s="32"/>
-      <c r="L171" s="32"/>
-      <c r="M171" s="32"/>
-      <c r="N171" s="32">
+      <c r="K171" s="29"/>
+      <c r="L171" s="29"/>
+      <c r="M171" s="29"/>
+      <c r="N171" s="29">
         <v>1984</v>
       </c>
-      <c r="O171" s="32"/>
-      <c r="P171" s="32"/>
-      <c r="Q171" s="32"/>
-      <c r="R171" s="32">
+      <c r="O171" s="29"/>
+      <c r="P171" s="29"/>
+      <c r="Q171" s="29"/>
+      <c r="R171" s="29">
         <v>1985</v>
       </c>
-      <c r="S171" s="32"/>
-      <c r="T171" s="32"/>
-      <c r="U171" s="32"/>
-      <c r="V171" s="32">
+      <c r="S171" s="29"/>
+      <c r="T171" s="29"/>
+      <c r="U171" s="29"/>
+      <c r="V171" s="29">
         <v>1986</v>
       </c>
-      <c r="W171" s="32"/>
-      <c r="X171" s="32"/>
-      <c r="Y171" s="32"/>
-      <c r="Z171" s="32">
+      <c r="W171" s="29"/>
+      <c r="X171" s="29"/>
+      <c r="Y171" s="29"/>
+      <c r="Z171" s="29">
         <v>1987</v>
       </c>
-      <c r="AA171" s="32"/>
-      <c r="AB171" s="32"/>
-      <c r="AC171" s="32"/>
-      <c r="AD171" s="32">
+      <c r="AA171" s="29"/>
+      <c r="AB171" s="29"/>
+      <c r="AC171" s="29"/>
+      <c r="AD171" s="29">
         <v>1988</v>
       </c>
-      <c r="AE171" s="32"/>
-      <c r="AF171" s="32"/>
-      <c r="AG171" s="32"/>
-      <c r="AH171" s="32">
+      <c r="AE171" s="29"/>
+      <c r="AF171" s="29"/>
+      <c r="AG171" s="29"/>
+      <c r="AH171" s="29">
         <v>1989</v>
       </c>
-      <c r="AI171" s="32"/>
-      <c r="AJ171" s="32"/>
-      <c r="AK171" s="32"/>
-      <c r="AL171" s="32">
+      <c r="AI171" s="29"/>
+      <c r="AJ171" s="29"/>
+      <c r="AK171" s="29"/>
+      <c r="AL171" s="29">
         <v>1990</v>
       </c>
-      <c r="AM171" s="32"/>
-      <c r="AN171" s="32"/>
-      <c r="AO171" s="32"/>
-      <c r="AP171" s="32">
+      <c r="AM171" s="29"/>
+      <c r="AN171" s="29"/>
+      <c r="AO171" s="29"/>
+      <c r="AP171" s="29">
         <v>1991</v>
       </c>
-      <c r="AQ171" s="32"/>
-      <c r="AR171" s="32"/>
-      <c r="AS171" s="32"/>
-      <c r="AT171" s="32">
+      <c r="AQ171" s="29"/>
+      <c r="AR171" s="29"/>
+      <c r="AS171" s="29"/>
+      <c r="AT171" s="29">
         <v>1992</v>
       </c>
-      <c r="AU171" s="32"/>
-      <c r="AV171" s="32"/>
-      <c r="AW171" s="32"/>
-      <c r="AX171" s="32">
+      <c r="AU171" s="29"/>
+      <c r="AV171" s="29"/>
+      <c r="AW171" s="29"/>
+      <c r="AX171" s="29">
         <v>1993</v>
       </c>
-      <c r="AY171" s="32"/>
-      <c r="AZ171" s="32"/>
-      <c r="BA171" s="32"/>
-      <c r="BB171" s="32">
+      <c r="AY171" s="29"/>
+      <c r="AZ171" s="29"/>
+      <c r="BA171" s="29"/>
+      <c r="BB171" s="29">
         <v>1994</v>
       </c>
-      <c r="BC171" s="32"/>
-      <c r="BD171" s="32"/>
-      <c r="BE171" s="32"/>
-      <c r="BF171" s="32">
+      <c r="BC171" s="29"/>
+      <c r="BD171" s="29"/>
+      <c r="BE171" s="29"/>
+      <c r="BF171" s="29">
         <v>1995</v>
       </c>
-      <c r="BG171" s="32"/>
-      <c r="BH171" s="32"/>
-      <c r="BI171" s="32"/>
-      <c r="BJ171" s="32">
+      <c r="BG171" s="29"/>
+      <c r="BH171" s="29"/>
+      <c r="BI171" s="29"/>
+      <c r="BJ171" s="29">
         <v>1996</v>
       </c>
-      <c r="BK171" s="32"/>
-      <c r="BL171" s="32"/>
-      <c r="BM171" s="32"/>
-      <c r="BN171" s="32">
+      <c r="BK171" s="29"/>
+      <c r="BL171" s="29"/>
+      <c r="BM171" s="29"/>
+      <c r="BN171" s="29">
         <v>1997</v>
       </c>
-      <c r="BO171" s="32"/>
-      <c r="BP171" s="32"/>
-      <c r="BQ171" s="32"/>
-      <c r="BR171" s="32">
+      <c r="BO171" s="29"/>
+      <c r="BP171" s="29"/>
+      <c r="BQ171" s="29"/>
+      <c r="BR171" s="29">
         <v>1998</v>
       </c>
-      <c r="BS171" s="32"/>
-      <c r="BT171" s="32"/>
-      <c r="BU171" s="32"/>
-      <c r="BV171" s="32">
+      <c r="BS171" s="29"/>
+      <c r="BT171" s="29"/>
+      <c r="BU171" s="29"/>
+      <c r="BV171" s="29">
         <v>1999</v>
       </c>
-      <c r="BW171" s="32"/>
-      <c r="BX171" s="32"/>
-      <c r="BY171" s="32"/>
-      <c r="BZ171" s="32">
+      <c r="BW171" s="29"/>
+      <c r="BX171" s="29"/>
+      <c r="BY171" s="29"/>
+      <c r="BZ171" s="29">
         <v>2000</v>
       </c>
-      <c r="CA171" s="32"/>
-      <c r="CB171" s="32"/>
-      <c r="CC171" s="32"/>
-      <c r="CD171" s="32">
+      <c r="CA171" s="29"/>
+      <c r="CB171" s="29"/>
+      <c r="CC171" s="29"/>
+      <c r="CD171" s="29">
         <v>2001</v>
       </c>
-      <c r="CE171" s="32"/>
-      <c r="CF171" s="32"/>
-      <c r="CG171" s="32"/>
-      <c r="CH171" s="32">
+      <c r="CE171" s="29"/>
+      <c r="CF171" s="29"/>
+      <c r="CG171" s="29"/>
+      <c r="CH171" s="29">
         <v>2002</v>
       </c>
-      <c r="CI171" s="32"/>
-      <c r="CJ171" s="32"/>
-      <c r="CK171" s="32"/>
-      <c r="CL171" s="32">
+      <c r="CI171" s="29"/>
+      <c r="CJ171" s="29"/>
+      <c r="CK171" s="29"/>
+      <c r="CL171" s="29">
         <v>2003</v>
       </c>
-      <c r="CM171" s="32"/>
-      <c r="CN171" s="32"/>
-      <c r="CO171" s="32"/>
-      <c r="CP171" s="32">
+      <c r="CM171" s="29"/>
+      <c r="CN171" s="29"/>
+      <c r="CO171" s="29"/>
+      <c r="CP171" s="29">
         <v>2004</v>
       </c>
-      <c r="CQ171" s="32"/>
-      <c r="CR171" s="32"/>
-      <c r="CS171" s="32"/>
-      <c r="CT171" s="32">
+      <c r="CQ171" s="29"/>
+      <c r="CR171" s="29"/>
+      <c r="CS171" s="29"/>
+      <c r="CT171" s="29">
         <v>2005</v>
       </c>
-      <c r="CU171" s="32"/>
-      <c r="CV171" s="32"/>
-      <c r="CW171" s="32"/>
-      <c r="CX171" s="32">
+      <c r="CU171" s="29"/>
+      <c r="CV171" s="29"/>
+      <c r="CW171" s="29"/>
+      <c r="CX171" s="29">
         <v>2006</v>
       </c>
-      <c r="CY171" s="32"/>
-      <c r="CZ171" s="32"/>
-      <c r="DA171" s="32"/>
-      <c r="DB171" s="32">
+      <c r="CY171" s="29"/>
+      <c r="CZ171" s="29"/>
+      <c r="DA171" s="29"/>
+      <c r="DB171" s="29">
         <v>2007</v>
       </c>
-      <c r="DC171" s="32"/>
-      <c r="DD171" s="32"/>
-      <c r="DE171" s="32"/>
-      <c r="DF171" s="32">
+      <c r="DC171" s="29"/>
+      <c r="DD171" s="29"/>
+      <c r="DE171" s="29"/>
+      <c r="DF171" s="29">
         <v>2008</v>
       </c>
-      <c r="DG171" s="32"/>
-      <c r="DH171" s="32"/>
-      <c r="DI171" s="32"/>
-      <c r="DJ171" s="32">
+      <c r="DG171" s="29"/>
+      <c r="DH171" s="29"/>
+      <c r="DI171" s="29"/>
+      <c r="DJ171" s="29">
         <v>2009</v>
       </c>
-      <c r="DK171" s="32"/>
-      <c r="DL171" s="32"/>
-      <c r="DM171" s="32"/>
-      <c r="DN171" s="32">
+      <c r="DK171" s="29"/>
+      <c r="DL171" s="29"/>
+      <c r="DM171" s="29"/>
+      <c r="DN171" s="29">
         <v>2010</v>
       </c>
-      <c r="DO171" s="32"/>
-      <c r="DP171" s="32"/>
-      <c r="DQ171" s="32"/>
-      <c r="DR171" s="32">
+      <c r="DO171" s="29"/>
+      <c r="DP171" s="29"/>
+      <c r="DQ171" s="29"/>
+      <c r="DR171" s="29">
         <v>2011</v>
       </c>
-      <c r="DS171" s="32"/>
-      <c r="DT171" s="32"/>
-      <c r="DU171" s="32"/>
-      <c r="DV171" s="32">
+      <c r="DS171" s="29"/>
+      <c r="DT171" s="29"/>
+      <c r="DU171" s="29"/>
+      <c r="DV171" s="29">
         <v>2012</v>
       </c>
-      <c r="DW171" s="32"/>
-      <c r="DX171" s="32"/>
-      <c r="DY171" s="32"/>
-      <c r="DZ171" s="32">
+      <c r="DW171" s="29"/>
+      <c r="DX171" s="29"/>
+      <c r="DY171" s="29"/>
+      <c r="DZ171" s="29">
         <v>2013</v>
       </c>
-      <c r="EA171" s="32"/>
-      <c r="EB171" s="32"/>
-      <c r="EC171" s="32"/>
-      <c r="ED171" s="32">
+      <c r="EA171" s="29"/>
+      <c r="EB171" s="29"/>
+      <c r="EC171" s="29"/>
+      <c r="ED171" s="29">
         <v>2014</v>
       </c>
-      <c r="EE171" s="32"/>
-      <c r="EF171" s="32"/>
-      <c r="EG171" s="32"/>
-      <c r="EH171" s="32">
+      <c r="EE171" s="29"/>
+      <c r="EF171" s="29"/>
+      <c r="EG171" s="29"/>
+      <c r="EH171" s="29">
         <v>2015</v>
       </c>
-      <c r="EI171" s="32"/>
-      <c r="EJ171" s="32"/>
-      <c r="EK171" s="32"/>
-      <c r="EL171" s="32">
+      <c r="EI171" s="29"/>
+      <c r="EJ171" s="29"/>
+      <c r="EK171" s="29"/>
+      <c r="EL171" s="29">
         <v>2016</v>
       </c>
-      <c r="EM171" s="32"/>
-      <c r="EN171" s="32"/>
-      <c r="EO171" s="32"/>
-      <c r="EP171" s="32">
+      <c r="EM171" s="29"/>
+      <c r="EN171" s="29"/>
+      <c r="EO171" s="29"/>
+      <c r="EP171" s="29">
         <v>2017</v>
       </c>
-      <c r="EQ171" s="32"/>
-      <c r="ER171" s="32"/>
-      <c r="ES171" s="32"/>
-      <c r="ET171" s="32">
+      <c r="EQ171" s="29"/>
+      <c r="ER171" s="29"/>
+      <c r="ES171" s="29"/>
+      <c r="ET171" s="29">
         <v>2018</v>
       </c>
-      <c r="EU171" s="32"/>
-      <c r="EV171" s="32"/>
-      <c r="EW171" s="32"/>
-      <c r="EX171" s="32">
+      <c r="EU171" s="29"/>
+      <c r="EV171" s="29"/>
+      <c r="EW171" s="29"/>
+      <c r="EX171" s="29">
         <v>2019</v>
       </c>
-      <c r="EY171" s="32"/>
-      <c r="EZ171" s="32"/>
-      <c r="FA171" s="32"/>
-      <c r="FB171" s="32">
+      <c r="EY171" s="29"/>
+      <c r="EZ171" s="29"/>
+      <c r="FA171" s="29"/>
+      <c r="FB171" s="29">
         <v>2020</v>
       </c>
-      <c r="FC171" s="32"/>
-      <c r="FD171" s="32"/>
+      <c r="FC171" s="29"/>
+      <c r="FD171" s="29"/>
       <c r="FE171" s="24"/>
       <c r="FF171" s="29">
         <v>2021</v>
       </c>
-      <c r="FG171" s="31"/>
+      <c r="FG171" s="29"/>
+      <c r="FH171" s="29"/>
     </row>
-    <row r="172" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>13</v>
       </c>
@@ -31425,11 +31560,14 @@
       <c r="FG172" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="FH172" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="173" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:164" x14ac:dyDescent="0.3">
       <c r="FB173" s="2"/>
     </row>
-    <row r="174" spans="1:163" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="15" t="s">
         <v>74</v>
       </c>
@@ -31917,10 +32055,13 @@
         <v>487007.69756520254</v>
       </c>
       <c r="FG174" s="27">
-        <v>456336.35463200766</v>
+        <v>453927.94203751889</v>
+      </c>
+      <c r="FH174" s="27">
+        <v>432887.5994120923</v>
       </c>
     </row>
-    <row r="175" spans="1:163" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="15" t="s">
         <v>75</v>
       </c>
@@ -32408,10 +32549,13 @@
         <v>1237359.9915332333</v>
       </c>
       <c r="FG175" s="27">
-        <v>1421659.5019208333</v>
+        <v>1423866.952145309</v>
+      </c>
+      <c r="FH175" s="27">
+        <v>1161534.7294816896</v>
       </c>
     </row>
-    <row r="176" spans="1:163" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="15" t="s">
         <v>76</v>
       </c>
@@ -32899,10 +33043,13 @@
         <v>2639332.2997431136</v>
       </c>
       <c r="FG176" s="27">
-        <v>2872345.6511788084</v>
+        <v>2881107.7350939452</v>
+      </c>
+      <c r="FH176" s="27">
+        <v>3015568.4848894961</v>
       </c>
     </row>
-    <row r="177" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A177" s="16"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -33066,8 +33213,9 @@
       <c r="FE177" s="7"/>
       <c r="FF177" s="7"/>
       <c r="FG177" s="7"/>
+      <c r="FH177" s="7"/>
     </row>
-    <row r="178" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>10</v>
       </c>
@@ -33555,10 +33703,13 @@
         <v>4363699.9888415495</v>
       </c>
       <c r="FG178" s="7">
-        <v>4750341.5077316491</v>
+        <v>4758902.629276773</v>
+      </c>
+      <c r="FH178" s="7">
+        <v>4609990.8137832778</v>
       </c>
     </row>
-    <row r="179" spans="1:163" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:164" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
@@ -33722,7 +33873,7 @@
         <v>-24370.119758612476</v>
       </c>
     </row>
-    <row r="180" spans="1:163" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:164" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
@@ -33882,7 +34033,7 @@
       <c r="FB180" s="7"/>
       <c r="FC180" s="7"/>
     </row>
-    <row r="181" spans="1:163" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:164" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
@@ -34046,7 +34197,7 @@
         <v>4857262.3839106075</v>
       </c>
     </row>
-    <row r="182" spans="1:163" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:164" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
@@ -34204,7 +34355,7 @@
       <c r="EZ182" s="7"/>
       <c r="FA182" s="7"/>
     </row>
-    <row r="183" spans="1:163" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:164" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="9"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
@@ -34368,35 +34519,36 @@
       <c r="FE183" s="9"/>
       <c r="FF183" s="9"/>
       <c r="FG183" s="9"/>
+      <c r="FH183" s="9"/>
     </row>
-    <row r="184" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:164" x14ac:dyDescent="0.3">
       <c r="E185" s="10"/>
       <c r="I185" s="10"/>
     </row>
-    <row r="186" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:164" x14ac:dyDescent="0.3">
       <c r="FB186" s="17"/>
       <c r="FC186" s="17"/>
     </row>
-    <row r="187" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>8</v>
       </c>
       <c r="FB187" s="18"/>
       <c r="FC187" s="17"/>
     </row>
-    <row r="188" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>9</v>
       </c>
       <c r="FB188" s="18"/>
       <c r="FC188" s="17"/>
     </row>
-    <row r="189" spans="1:163" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>79</v>
       </c>
@@ -34557,7 +34709,7 @@
       <c r="EZ189" s="2"/>
       <c r="FA189" s="2"/>
     </row>
-    <row r="190" spans="1:163" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -34716,7 +34868,7 @@
       <c r="EZ190" s="2"/>
       <c r="FA190" s="2"/>
     </row>
-    <row r="191" spans="1:163" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>48</v>
       </c>
@@ -34877,7 +35029,7 @@
       <c r="EZ191" s="2"/>
       <c r="FA191" s="2"/>
     </row>
-    <row r="192" spans="1:163" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="11" t="s">
         <v>80</v>
       </c>
@@ -35038,7 +35190,7 @@
       <c r="EZ192" s="2"/>
       <c r="FA192" s="2"/>
     </row>
-    <row r="193" spans="1:163" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>12</v>
       </c>
@@ -35199,7 +35351,7 @@
       <c r="EZ193" s="2"/>
       <c r="FA193" s="2"/>
     </row>
-    <row r="194" spans="1:163" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -35358,254 +35510,255 @@
       <c r="EZ194" s="2"/>
       <c r="FA194" s="2"/>
     </row>
-    <row r="195" spans="1:163" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="4"/>
-      <c r="B195" s="32">
+      <c r="B195" s="29">
         <v>1981</v>
       </c>
-      <c r="C195" s="32"/>
-      <c r="D195" s="32"/>
-      <c r="E195" s="32"/>
-      <c r="F195" s="32">
+      <c r="C195" s="29"/>
+      <c r="D195" s="29"/>
+      <c r="E195" s="29"/>
+      <c r="F195" s="29">
         <v>1982</v>
       </c>
-      <c r="G195" s="32"/>
-      <c r="H195" s="32"/>
-      <c r="I195" s="32"/>
-      <c r="J195" s="32">
+      <c r="G195" s="29"/>
+      <c r="H195" s="29"/>
+      <c r="I195" s="29"/>
+      <c r="J195" s="29">
         <v>1983</v>
       </c>
-      <c r="K195" s="32"/>
-      <c r="L195" s="32"/>
-      <c r="M195" s="32"/>
-      <c r="N195" s="32">
+      <c r="K195" s="29"/>
+      <c r="L195" s="29"/>
+      <c r="M195" s="29"/>
+      <c r="N195" s="29">
         <v>1984</v>
       </c>
-      <c r="O195" s="32"/>
-      <c r="P195" s="32"/>
-      <c r="Q195" s="32"/>
-      <c r="R195" s="32">
+      <c r="O195" s="29"/>
+      <c r="P195" s="29"/>
+      <c r="Q195" s="29"/>
+      <c r="R195" s="29">
         <v>1985</v>
       </c>
-      <c r="S195" s="32"/>
-      <c r="T195" s="32"/>
-      <c r="U195" s="32"/>
-      <c r="V195" s="32">
+      <c r="S195" s="29"/>
+      <c r="T195" s="29"/>
+      <c r="U195" s="29"/>
+      <c r="V195" s="29">
         <v>1986</v>
       </c>
-      <c r="W195" s="32"/>
-      <c r="X195" s="32"/>
-      <c r="Y195" s="32"/>
-      <c r="Z195" s="32">
+      <c r="W195" s="29"/>
+      <c r="X195" s="29"/>
+      <c r="Y195" s="29"/>
+      <c r="Z195" s="29">
         <v>1987</v>
       </c>
-      <c r="AA195" s="32"/>
-      <c r="AB195" s="32"/>
-      <c r="AC195" s="32"/>
-      <c r="AD195" s="32">
+      <c r="AA195" s="29"/>
+      <c r="AB195" s="29"/>
+      <c r="AC195" s="29"/>
+      <c r="AD195" s="29">
         <v>1988</v>
       </c>
-      <c r="AE195" s="32"/>
-      <c r="AF195" s="32"/>
-      <c r="AG195" s="32"/>
-      <c r="AH195" s="32">
+      <c r="AE195" s="29"/>
+      <c r="AF195" s="29"/>
+      <c r="AG195" s="29"/>
+      <c r="AH195" s="29">
         <v>1989</v>
       </c>
-      <c r="AI195" s="32"/>
-      <c r="AJ195" s="32"/>
-      <c r="AK195" s="32"/>
-      <c r="AL195" s="32">
+      <c r="AI195" s="29"/>
+      <c r="AJ195" s="29"/>
+      <c r="AK195" s="29"/>
+      <c r="AL195" s="29">
         <v>1990</v>
       </c>
-      <c r="AM195" s="32"/>
-      <c r="AN195" s="32"/>
-      <c r="AO195" s="32"/>
-      <c r="AP195" s="32">
+      <c r="AM195" s="29"/>
+      <c r="AN195" s="29"/>
+      <c r="AO195" s="29"/>
+      <c r="AP195" s="29">
         <v>1991</v>
       </c>
-      <c r="AQ195" s="32"/>
-      <c r="AR195" s="32"/>
-      <c r="AS195" s="32"/>
-      <c r="AT195" s="32">
+      <c r="AQ195" s="29"/>
+      <c r="AR195" s="29"/>
+      <c r="AS195" s="29"/>
+      <c r="AT195" s="29">
         <v>1992</v>
       </c>
-      <c r="AU195" s="32"/>
-      <c r="AV195" s="32"/>
-      <c r="AW195" s="32"/>
-      <c r="AX195" s="32">
+      <c r="AU195" s="29"/>
+      <c r="AV195" s="29"/>
+      <c r="AW195" s="29"/>
+      <c r="AX195" s="29">
         <v>1993</v>
       </c>
-      <c r="AY195" s="32"/>
-      <c r="AZ195" s="32"/>
-      <c r="BA195" s="32"/>
-      <c r="BB195" s="32">
+      <c r="AY195" s="29"/>
+      <c r="AZ195" s="29"/>
+      <c r="BA195" s="29"/>
+      <c r="BB195" s="29">
         <v>1994</v>
       </c>
-      <c r="BC195" s="32"/>
-      <c r="BD195" s="32"/>
-      <c r="BE195" s="32"/>
-      <c r="BF195" s="32">
+      <c r="BC195" s="29"/>
+      <c r="BD195" s="29"/>
+      <c r="BE195" s="29"/>
+      <c r="BF195" s="29">
         <v>1995</v>
       </c>
-      <c r="BG195" s="32"/>
-      <c r="BH195" s="32"/>
-      <c r="BI195" s="32"/>
-      <c r="BJ195" s="32">
+      <c r="BG195" s="29"/>
+      <c r="BH195" s="29"/>
+      <c r="BI195" s="29"/>
+      <c r="BJ195" s="29">
         <v>1996</v>
       </c>
-      <c r="BK195" s="32"/>
-      <c r="BL195" s="32"/>
-      <c r="BM195" s="32"/>
-      <c r="BN195" s="32">
+      <c r="BK195" s="29"/>
+      <c r="BL195" s="29"/>
+      <c r="BM195" s="29"/>
+      <c r="BN195" s="29">
         <v>1997</v>
       </c>
-      <c r="BO195" s="32"/>
-      <c r="BP195" s="32"/>
-      <c r="BQ195" s="32"/>
-      <c r="BR195" s="32">
+      <c r="BO195" s="29"/>
+      <c r="BP195" s="29"/>
+      <c r="BQ195" s="29"/>
+      <c r="BR195" s="29">
         <v>1998</v>
       </c>
-      <c r="BS195" s="32"/>
-      <c r="BT195" s="32"/>
-      <c r="BU195" s="32"/>
-      <c r="BV195" s="32">
+      <c r="BS195" s="29"/>
+      <c r="BT195" s="29"/>
+      <c r="BU195" s="29"/>
+      <c r="BV195" s="29">
         <v>1999</v>
       </c>
-      <c r="BW195" s="32"/>
-      <c r="BX195" s="32"/>
-      <c r="BY195" s="32"/>
-      <c r="BZ195" s="32">
+      <c r="BW195" s="29"/>
+      <c r="BX195" s="29"/>
+      <c r="BY195" s="29"/>
+      <c r="BZ195" s="29">
         <v>2000</v>
       </c>
-      <c r="CA195" s="32"/>
-      <c r="CB195" s="32"/>
-      <c r="CC195" s="32"/>
-      <c r="CD195" s="32">
+      <c r="CA195" s="29"/>
+      <c r="CB195" s="29"/>
+      <c r="CC195" s="29"/>
+      <c r="CD195" s="29">
         <v>2001</v>
       </c>
-      <c r="CE195" s="32"/>
-      <c r="CF195" s="32"/>
-      <c r="CG195" s="32"/>
-      <c r="CH195" s="32">
+      <c r="CE195" s="29"/>
+      <c r="CF195" s="29"/>
+      <c r="CG195" s="29"/>
+      <c r="CH195" s="29">
         <v>2002</v>
       </c>
-      <c r="CI195" s="32"/>
-      <c r="CJ195" s="32"/>
-      <c r="CK195" s="32"/>
-      <c r="CL195" s="32">
+      <c r="CI195" s="29"/>
+      <c r="CJ195" s="29"/>
+      <c r="CK195" s="29"/>
+      <c r="CL195" s="29">
         <v>2003</v>
       </c>
-      <c r="CM195" s="32"/>
-      <c r="CN195" s="32"/>
-      <c r="CO195" s="32"/>
-      <c r="CP195" s="32">
+      <c r="CM195" s="29"/>
+      <c r="CN195" s="29"/>
+      <c r="CO195" s="29"/>
+      <c r="CP195" s="29">
         <v>2004</v>
       </c>
-      <c r="CQ195" s="32"/>
-      <c r="CR195" s="32"/>
-      <c r="CS195" s="32"/>
-      <c r="CT195" s="32">
+      <c r="CQ195" s="29"/>
+      <c r="CR195" s="29"/>
+      <c r="CS195" s="29"/>
+      <c r="CT195" s="29">
         <v>2005</v>
       </c>
-      <c r="CU195" s="32"/>
-      <c r="CV195" s="32"/>
-      <c r="CW195" s="32"/>
-      <c r="CX195" s="32">
+      <c r="CU195" s="29"/>
+      <c r="CV195" s="29"/>
+      <c r="CW195" s="29"/>
+      <c r="CX195" s="29">
         <v>2006</v>
       </c>
-      <c r="CY195" s="32"/>
-      <c r="CZ195" s="32"/>
-      <c r="DA195" s="32"/>
-      <c r="DB195" s="32">
+      <c r="CY195" s="29"/>
+      <c r="CZ195" s="29"/>
+      <c r="DA195" s="29"/>
+      <c r="DB195" s="29">
         <v>2007</v>
       </c>
-      <c r="DC195" s="32"/>
-      <c r="DD195" s="32"/>
-      <c r="DE195" s="32"/>
-      <c r="DF195" s="32">
+      <c r="DC195" s="29"/>
+      <c r="DD195" s="29"/>
+      <c r="DE195" s="29"/>
+      <c r="DF195" s="29">
         <v>2008</v>
       </c>
-      <c r="DG195" s="32"/>
-      <c r="DH195" s="32"/>
-      <c r="DI195" s="32"/>
-      <c r="DJ195" s="32">
+      <c r="DG195" s="29"/>
+      <c r="DH195" s="29"/>
+      <c r="DI195" s="29"/>
+      <c r="DJ195" s="29">
         <v>2009</v>
       </c>
-      <c r="DK195" s="32"/>
-      <c r="DL195" s="32"/>
-      <c r="DM195" s="32"/>
-      <c r="DN195" s="32">
+      <c r="DK195" s="29"/>
+      <c r="DL195" s="29"/>
+      <c r="DM195" s="29"/>
+      <c r="DN195" s="29">
         <v>2010</v>
       </c>
-      <c r="DO195" s="32"/>
-      <c r="DP195" s="32"/>
-      <c r="DQ195" s="32"/>
-      <c r="DR195" s="32">
+      <c r="DO195" s="29"/>
+      <c r="DP195" s="29"/>
+      <c r="DQ195" s="29"/>
+      <c r="DR195" s="29">
         <v>2011</v>
       </c>
-      <c r="DS195" s="32"/>
-      <c r="DT195" s="32"/>
-      <c r="DU195" s="32"/>
-      <c r="DV195" s="32">
+      <c r="DS195" s="29"/>
+      <c r="DT195" s="29"/>
+      <c r="DU195" s="29"/>
+      <c r="DV195" s="29">
         <v>2012</v>
       </c>
-      <c r="DW195" s="32"/>
-      <c r="DX195" s="32"/>
-      <c r="DY195" s="32"/>
-      <c r="DZ195" s="32">
+      <c r="DW195" s="29"/>
+      <c r="DX195" s="29"/>
+      <c r="DY195" s="29"/>
+      <c r="DZ195" s="29">
         <v>2013</v>
       </c>
-      <c r="EA195" s="32"/>
-      <c r="EB195" s="32"/>
-      <c r="EC195" s="32"/>
-      <c r="ED195" s="32">
+      <c r="EA195" s="29"/>
+      <c r="EB195" s="29"/>
+      <c r="EC195" s="29"/>
+      <c r="ED195" s="29">
         <v>2014</v>
       </c>
-      <c r="EE195" s="32"/>
-      <c r="EF195" s="32"/>
-      <c r="EG195" s="32"/>
-      <c r="EH195" s="32">
+      <c r="EE195" s="29"/>
+      <c r="EF195" s="29"/>
+      <c r="EG195" s="29"/>
+      <c r="EH195" s="29">
         <v>2015</v>
       </c>
-      <c r="EI195" s="32"/>
-      <c r="EJ195" s="32"/>
-      <c r="EK195" s="32"/>
-      <c r="EL195" s="32">
+      <c r="EI195" s="29"/>
+      <c r="EJ195" s="29"/>
+      <c r="EK195" s="29"/>
+      <c r="EL195" s="29">
         <v>2016</v>
       </c>
-      <c r="EM195" s="32"/>
-      <c r="EN195" s="32"/>
-      <c r="EO195" s="32"/>
-      <c r="EP195" s="32">
+      <c r="EM195" s="29"/>
+      <c r="EN195" s="29"/>
+      <c r="EO195" s="29"/>
+      <c r="EP195" s="29">
         <v>2017</v>
       </c>
-      <c r="EQ195" s="32"/>
-      <c r="ER195" s="32"/>
-      <c r="ES195" s="32"/>
-      <c r="ET195" s="32">
+      <c r="EQ195" s="29"/>
+      <c r="ER195" s="29"/>
+      <c r="ES195" s="29"/>
+      <c r="ET195" s="29">
         <v>2018</v>
       </c>
-      <c r="EU195" s="32"/>
-      <c r="EV195" s="32"/>
-      <c r="EW195" s="32"/>
-      <c r="EX195" s="32">
+      <c r="EU195" s="29"/>
+      <c r="EV195" s="29"/>
+      <c r="EW195" s="29"/>
+      <c r="EX195" s="29">
         <v>2019</v>
       </c>
-      <c r="EY195" s="32"/>
-      <c r="EZ195" s="32"/>
-      <c r="FA195" s="32"/>
-      <c r="FB195" s="32">
+      <c r="EY195" s="29"/>
+      <c r="EZ195" s="29"/>
+      <c r="FA195" s="29"/>
+      <c r="FB195" s="29">
         <v>2020</v>
       </c>
-      <c r="FC195" s="32"/>
-      <c r="FD195" s="32"/>
+      <c r="FC195" s="29"/>
+      <c r="FD195" s="29"/>
       <c r="FE195" s="24"/>
       <c r="FF195" s="29">
         <v>2021</v>
       </c>
-      <c r="FG195" s="31"/>
+      <c r="FG195" s="29"/>
+      <c r="FH195" s="29"/>
     </row>
-    <row r="196" spans="1:163" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
         <v>13</v>
       </c>
@@ -36095,11 +36248,14 @@
       <c r="FG196" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="FH196" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="197" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:164" x14ac:dyDescent="0.3">
       <c r="FB197" s="2"/>
     </row>
-    <row r="198" spans="1:163" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="15" t="s">
         <v>74</v>
       </c>
@@ -36587,10 +36743,13 @@
         <v>434001.99609410099</v>
       </c>
       <c r="FG198" s="27">
-        <v>415944.53011795931</v>
+        <v>416272.20131800859</v>
+      </c>
+      <c r="FH198" s="27">
+        <v>398212.70314841636</v>
       </c>
     </row>
-    <row r="199" spans="1:163" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="15" t="s">
         <v>75</v>
       </c>
@@ -37078,10 +37237,13 @@
         <v>1278648.7644676939</v>
       </c>
       <c r="FG199" s="27">
-        <v>1425797.8474191078</v>
+        <v>1428127.268469644</v>
+      </c>
+      <c r="FH199" s="27">
+        <v>1200899.5464549323</v>
       </c>
     </row>
-    <row r="200" spans="1:163" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="15" t="s">
         <v>76</v>
       </c>
@@ -37569,10 +37731,13 @@
         <v>2545070.7667973004</v>
       </c>
       <c r="FG200" s="27">
-        <v>2786332.7838533306</v>
+        <v>2792346.6194373029</v>
+      </c>
+      <c r="FH200" s="27">
+        <v>2829856.2755282405</v>
       </c>
     </row>
-    <row r="201" spans="1:163" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="16"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -37736,8 +37901,9 @@
       <c r="FE201" s="27"/>
       <c r="FF201" s="27"/>
       <c r="FG201" s="27"/>
+      <c r="FH201" s="27"/>
     </row>
-    <row r="202" spans="1:163" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>10</v>
       </c>
@@ -38225,10 +38391,13 @@
         <v>4257721.5273590954</v>
       </c>
       <c r="FG202" s="27">
-        <v>4628075.1613903977</v>
+        <v>4636746.0892249551</v>
+      </c>
+      <c r="FH202" s="27">
+        <v>4428968.5251315888</v>
       </c>
     </row>
-    <row r="203" spans="1:163" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:164" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
@@ -38393,7 +38562,7 @@
         <v>-24370.119758612476</v>
       </c>
     </row>
-    <row r="204" spans="1:163" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:164" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -38554,7 +38723,7 @@
       <c r="FB204" s="7"/>
       <c r="FC204" s="7"/>
     </row>
-    <row r="205" spans="1:163" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:164" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
@@ -38719,7 +38888,7 @@
         <v>4857262.3839106075</v>
       </c>
     </row>
-    <row r="206" spans="1:163" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:164" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
@@ -38879,7 +39048,7 @@
       <c r="FA206" s="7"/>
       <c r="FC206" s="2"/>
     </row>
-    <row r="207" spans="1:163" s="3" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:164" s="3" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="9"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
@@ -39043,8 +39212,9 @@
       <c r="FE207" s="9"/>
       <c r="FF207" s="9"/>
       <c r="FG207" s="9"/>
+      <c r="FH207" s="9"/>
     </row>
-    <row r="208" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>0</v>
       </c>
@@ -39117,244 +39287,245 @@
     </row>
     <row r="219" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A219" s="4"/>
-      <c r="B219" s="32" t="s">
+      <c r="B219" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C219" s="32"/>
-      <c r="D219" s="32"/>
-      <c r="E219" s="32"/>
-      <c r="F219" s="32" t="s">
+      <c r="C219" s="29"/>
+      <c r="D219" s="29"/>
+      <c r="E219" s="29"/>
+      <c r="F219" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="G219" s="32"/>
-      <c r="H219" s="32"/>
-      <c r="I219" s="32"/>
-      <c r="J219" s="32" t="s">
+      <c r="G219" s="29"/>
+      <c r="H219" s="29"/>
+      <c r="I219" s="29"/>
+      <c r="J219" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="K219" s="32"/>
-      <c r="L219" s="32"/>
-      <c r="M219" s="32"/>
-      <c r="N219" s="32" t="s">
+      <c r="K219" s="29"/>
+      <c r="L219" s="29"/>
+      <c r="M219" s="29"/>
+      <c r="N219" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="O219" s="32"/>
-      <c r="P219" s="32"/>
-      <c r="Q219" s="32"/>
-      <c r="R219" s="32" t="s">
+      <c r="O219" s="29"/>
+      <c r="P219" s="29"/>
+      <c r="Q219" s="29"/>
+      <c r="R219" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="S219" s="32"/>
-      <c r="T219" s="32"/>
-      <c r="U219" s="32"/>
-      <c r="V219" s="32" t="s">
+      <c r="S219" s="29"/>
+      <c r="T219" s="29"/>
+      <c r="U219" s="29"/>
+      <c r="V219" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="W219" s="32"/>
-      <c r="X219" s="32"/>
-      <c r="Y219" s="32"/>
-      <c r="Z219" s="32" t="s">
+      <c r="W219" s="29"/>
+      <c r="X219" s="29"/>
+      <c r="Y219" s="29"/>
+      <c r="Z219" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AA219" s="32"/>
-      <c r="AB219" s="32"/>
-      <c r="AC219" s="32"/>
-      <c r="AD219" s="32" t="s">
+      <c r="AA219" s="29"/>
+      <c r="AB219" s="29"/>
+      <c r="AC219" s="29"/>
+      <c r="AD219" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AE219" s="32"/>
-      <c r="AF219" s="32"/>
-      <c r="AG219" s="32"/>
-      <c r="AH219" s="32" t="s">
+      <c r="AE219" s="29"/>
+      <c r="AF219" s="29"/>
+      <c r="AG219" s="29"/>
+      <c r="AH219" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AI219" s="32"/>
-      <c r="AJ219" s="32"/>
-      <c r="AK219" s="32"/>
-      <c r="AL219" s="32" t="s">
+      <c r="AI219" s="29"/>
+      <c r="AJ219" s="29"/>
+      <c r="AK219" s="29"/>
+      <c r="AL219" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="AM219" s="32"/>
-      <c r="AN219" s="32"/>
-      <c r="AO219" s="32"/>
-      <c r="AP219" s="32" t="s">
+      <c r="AM219" s="29"/>
+      <c r="AN219" s="29"/>
+      <c r="AO219" s="29"/>
+      <c r="AP219" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AQ219" s="32"/>
-      <c r="AR219" s="32"/>
-      <c r="AS219" s="32"/>
-      <c r="AT219" s="32" t="s">
+      <c r="AQ219" s="29"/>
+      <c r="AR219" s="29"/>
+      <c r="AS219" s="29"/>
+      <c r="AT219" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AU219" s="32"/>
-      <c r="AV219" s="32"/>
-      <c r="AW219" s="32"/>
-      <c r="AX219" s="32" t="s">
+      <c r="AU219" s="29"/>
+      <c r="AV219" s="29"/>
+      <c r="AW219" s="29"/>
+      <c r="AX219" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="AY219" s="32"/>
-      <c r="AZ219" s="32"/>
-      <c r="BA219" s="32"/>
-      <c r="BB219" s="32" t="s">
+      <c r="AY219" s="29"/>
+      <c r="AZ219" s="29"/>
+      <c r="BA219" s="29"/>
+      <c r="BB219" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="BC219" s="32"/>
-      <c r="BD219" s="32"/>
-      <c r="BE219" s="32"/>
-      <c r="BF219" s="32" t="s">
+      <c r="BC219" s="29"/>
+      <c r="BD219" s="29"/>
+      <c r="BE219" s="29"/>
+      <c r="BF219" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="BG219" s="32"/>
-      <c r="BH219" s="32"/>
-      <c r="BI219" s="32"/>
-      <c r="BJ219" s="32" t="s">
+      <c r="BG219" s="29"/>
+      <c r="BH219" s="29"/>
+      <c r="BI219" s="29"/>
+      <c r="BJ219" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="BK219" s="32"/>
-      <c r="BL219" s="32"/>
-      <c r="BM219" s="32"/>
-      <c r="BN219" s="32" t="s">
+      <c r="BK219" s="29"/>
+      <c r="BL219" s="29"/>
+      <c r="BM219" s="29"/>
+      <c r="BN219" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="BO219" s="32"/>
-      <c r="BP219" s="32"/>
-      <c r="BQ219" s="32"/>
-      <c r="BR219" s="32" t="s">
+      <c r="BO219" s="29"/>
+      <c r="BP219" s="29"/>
+      <c r="BQ219" s="29"/>
+      <c r="BR219" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="BS219" s="32"/>
-      <c r="BT219" s="32"/>
-      <c r="BU219" s="32"/>
-      <c r="BV219" s="32" t="s">
+      <c r="BS219" s="29"/>
+      <c r="BT219" s="29"/>
+      <c r="BU219" s="29"/>
+      <c r="BV219" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="BW219" s="32"/>
-      <c r="BX219" s="32"/>
-      <c r="BY219" s="32"/>
-      <c r="BZ219" s="32" t="s">
+      <c r="BW219" s="29"/>
+      <c r="BX219" s="29"/>
+      <c r="BY219" s="29"/>
+      <c r="BZ219" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="CA219" s="32"/>
-      <c r="CB219" s="32"/>
-      <c r="CC219" s="32"/>
-      <c r="CD219" s="32" t="s">
+      <c r="CA219" s="29"/>
+      <c r="CB219" s="29"/>
+      <c r="CC219" s="29"/>
+      <c r="CD219" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="CE219" s="32"/>
-      <c r="CF219" s="32"/>
-      <c r="CG219" s="32"/>
-      <c r="CH219" s="32" t="s">
+      <c r="CE219" s="29"/>
+      <c r="CF219" s="29"/>
+      <c r="CG219" s="29"/>
+      <c r="CH219" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="CI219" s="32"/>
-      <c r="CJ219" s="32"/>
-      <c r="CK219" s="32"/>
-      <c r="CL219" s="32" t="s">
+      <c r="CI219" s="29"/>
+      <c r="CJ219" s="29"/>
+      <c r="CK219" s="29"/>
+      <c r="CL219" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="CM219" s="32"/>
-      <c r="CN219" s="32"/>
-      <c r="CO219" s="32"/>
-      <c r="CP219" s="32" t="s">
+      <c r="CM219" s="29"/>
+      <c r="CN219" s="29"/>
+      <c r="CO219" s="29"/>
+      <c r="CP219" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="CQ219" s="32"/>
-      <c r="CR219" s="32"/>
-      <c r="CS219" s="32"/>
-      <c r="CT219" s="32" t="s">
+      <c r="CQ219" s="29"/>
+      <c r="CR219" s="29"/>
+      <c r="CS219" s="29"/>
+      <c r="CT219" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="CU219" s="32"/>
-      <c r="CV219" s="32"/>
-      <c r="CW219" s="32"/>
-      <c r="CX219" s="32" t="s">
+      <c r="CU219" s="29"/>
+      <c r="CV219" s="29"/>
+      <c r="CW219" s="29"/>
+      <c r="CX219" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="CY219" s="32"/>
-      <c r="CZ219" s="32"/>
-      <c r="DA219" s="32"/>
-      <c r="DB219" s="32" t="s">
+      <c r="CY219" s="29"/>
+      <c r="CZ219" s="29"/>
+      <c r="DA219" s="29"/>
+      <c r="DB219" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="DC219" s="32"/>
-      <c r="DD219" s="32"/>
-      <c r="DE219" s="32"/>
-      <c r="DF219" s="32" t="s">
+      <c r="DC219" s="29"/>
+      <c r="DD219" s="29"/>
+      <c r="DE219" s="29"/>
+      <c r="DF219" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="DG219" s="32"/>
-      <c r="DH219" s="32"/>
-      <c r="DI219" s="32"/>
-      <c r="DJ219" s="32" t="s">
+      <c r="DG219" s="29"/>
+      <c r="DH219" s="29"/>
+      <c r="DI219" s="29"/>
+      <c r="DJ219" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="DK219" s="32"/>
-      <c r="DL219" s="32"/>
-      <c r="DM219" s="32"/>
-      <c r="DN219" s="32" t="s">
+      <c r="DK219" s="29"/>
+      <c r="DL219" s="29"/>
+      <c r="DM219" s="29"/>
+      <c r="DN219" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="DO219" s="32"/>
-      <c r="DP219" s="32"/>
-      <c r="DQ219" s="32"/>
-      <c r="DR219" s="32" t="s">
+      <c r="DO219" s="29"/>
+      <c r="DP219" s="29"/>
+      <c r="DQ219" s="29"/>
+      <c r="DR219" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="DS219" s="32"/>
-      <c r="DT219" s="32"/>
-      <c r="DU219" s="32"/>
-      <c r="DV219" s="32" t="s">
+      <c r="DS219" s="29"/>
+      <c r="DT219" s="29"/>
+      <c r="DU219" s="29"/>
+      <c r="DV219" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="DW219" s="32"/>
-      <c r="DX219" s="32"/>
-      <c r="DY219" s="32"/>
-      <c r="DZ219" s="32" t="s">
+      <c r="DW219" s="29"/>
+      <c r="DX219" s="29"/>
+      <c r="DY219" s="29"/>
+      <c r="DZ219" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="EA219" s="32"/>
-      <c r="EB219" s="32"/>
-      <c r="EC219" s="32"/>
-      <c r="ED219" s="32" t="s">
+      <c r="EA219" s="29"/>
+      <c r="EB219" s="29"/>
+      <c r="EC219" s="29"/>
+      <c r="ED219" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="EE219" s="32"/>
-      <c r="EF219" s="32"/>
-      <c r="EG219" s="32"/>
-      <c r="EH219" s="32" t="s">
+      <c r="EE219" s="29"/>
+      <c r="EF219" s="29"/>
+      <c r="EG219" s="29"/>
+      <c r="EH219" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="EI219" s="32"/>
-      <c r="EJ219" s="32"/>
-      <c r="EK219" s="32"/>
-      <c r="EL219" s="32" t="s">
+      <c r="EI219" s="29"/>
+      <c r="EJ219" s="29"/>
+      <c r="EK219" s="29"/>
+      <c r="EL219" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="EM219" s="32"/>
-      <c r="EN219" s="32"/>
-      <c r="EO219" s="32"/>
-      <c r="EP219" s="32" t="s">
+      <c r="EM219" s="29"/>
+      <c r="EN219" s="29"/>
+      <c r="EO219" s="29"/>
+      <c r="EP219" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="EQ219" s="32"/>
-      <c r="ER219" s="32"/>
-      <c r="ES219" s="32"/>
-      <c r="ET219" s="32" t="s">
+      <c r="EQ219" s="29"/>
+      <c r="ER219" s="29"/>
+      <c r="ES219" s="29"/>
+      <c r="ET219" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="EU219" s="32"/>
-      <c r="EV219" s="32"/>
-      <c r="EW219" s="32"/>
-      <c r="EX219" s="32" t="s">
+      <c r="EU219" s="29"/>
+      <c r="EV219" s="29"/>
+      <c r="EW219" s="29"/>
+      <c r="EX219" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="EY219" s="32"/>
-      <c r="EZ219" s="32"/>
+      <c r="EY219" s="29"/>
+      <c r="EZ219" s="29"/>
       <c r="FA219" s="24"/>
       <c r="FB219" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="FC219" s="31"/>
+      <c r="FC219" s="29"/>
+      <c r="FD219" s="29"/>
     </row>
     <row r="220" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
@@ -39833,6 +40004,9 @@
       </c>
       <c r="FC220" s="6" t="s">
         <v>16</v>
+      </c>
+      <c r="FD220" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="221" spans="1:161" x14ac:dyDescent="0.3">
@@ -40314,7 +40488,10 @@
         <v>10.033889413548764</v>
       </c>
       <c r="FC222" s="25">
-        <v>7.6239868950149514</v>
+        <v>7.0559783134587661</v>
+      </c>
+      <c r="FD222" s="25">
+        <v>5.5147554894543021</v>
       </c>
     </row>
     <row r="223" spans="1:161" x14ac:dyDescent="0.3">
@@ -40793,7 +40970,10 @@
         <v>-6.0158895725668486</v>
       </c>
       <c r="FC223" s="25">
-        <v>24.14984930655433</v>
+        <v>24.342620228389052</v>
+      </c>
+      <c r="FD223" s="25">
+        <v>10.472214199528125</v>
       </c>
     </row>
     <row r="224" spans="1:161" x14ac:dyDescent="0.3">
@@ -41272,10 +41452,13 @@
         <v>-1.7620529211223186</v>
       </c>
       <c r="FC224" s="25">
-        <v>11.958815852944809</v>
+        <v>12.300345967588314</v>
+      </c>
+      <c r="FD224" s="25">
+        <v>10.006944438672477</v>
       </c>
     </row>
-    <row r="225" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A225" s="16"/>
       <c r="B225" s="13"/>
       <c r="C225" s="13"/>
@@ -41435,8 +41618,9 @@
       <c r="FA225" s="25"/>
       <c r="FB225" s="25"/>
       <c r="FC225" s="25"/>
+      <c r="FD225" s="25"/>
     </row>
-    <row r="226" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>10</v>
       </c>
@@ -41912,10 +42096,13 @@
         <v>-1.847432708916358</v>
       </c>
       <c r="FC226" s="25">
-        <v>14.890646850784691</v>
+        <v>15.097704130874263</v>
+      </c>
+      <c r="FD226" s="25">
+        <v>9.6848415311552145</v>
       </c>
     </row>
-    <row r="227" spans="1:159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:160" hidden="1" x14ac:dyDescent="0.3">
       <c r="B227" s="13"/>
       <c r="C227" s="13"/>
       <c r="D227" s="13"/>
@@ -42076,7 +42263,7 @@
       </c>
       <c r="FB227" s="2"/>
     </row>
-    <row r="228" spans="1:159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:160" hidden="1" x14ac:dyDescent="0.3">
       <c r="B228" s="13"/>
       <c r="C228" s="13"/>
       <c r="D228" s="13"/>
@@ -42237,7 +42424,7 @@
       </c>
       <c r="FB228" s="2"/>
     </row>
-    <row r="229" spans="1:159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:160" hidden="1" x14ac:dyDescent="0.3">
       <c r="B229" s="13"/>
       <c r="C229" s="13"/>
       <c r="D229" s="13"/>
@@ -42398,7 +42585,7 @@
       </c>
       <c r="FB229" s="2"/>
     </row>
-    <row r="230" spans="1:159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:160" hidden="1" x14ac:dyDescent="0.3">
       <c r="B230" s="13"/>
       <c r="C230" s="13"/>
       <c r="D230" s="13"/>
@@ -42559,7 +42746,7 @@
       </c>
       <c r="FB230" s="2"/>
     </row>
-    <row r="231" spans="1:159" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:160" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="9"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
@@ -42719,305 +42906,307 @@
       <c r="FA231" s="9"/>
       <c r="FB231" s="9"/>
       <c r="FC231" s="9"/>
+      <c r="FD231" s="9"/>
     </row>
-    <row r="232" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>0</v>
       </c>
       <c r="FB232" s="2"/>
     </row>
-    <row r="233" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:160" x14ac:dyDescent="0.3">
       <c r="FB233" s="2"/>
     </row>
-    <row r="234" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:160" x14ac:dyDescent="0.3">
       <c r="FB234" s="2"/>
     </row>
-    <row r="235" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>8</v>
       </c>
       <c r="FB235" s="2"/>
     </row>
-    <row r="236" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>7</v>
       </c>
       <c r="FB236" s="2"/>
     </row>
-    <row r="237" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>79</v>
       </c>
       <c r="FB237" s="2"/>
     </row>
-    <row r="238" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="FB238" s="2"/>
     </row>
-    <row r="239" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>50</v>
       </c>
       <c r="FB239" s="2"/>
     </row>
-    <row r="240" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A240" s="11" t="s">
         <v>81</v>
       </c>
       <c r="FB240" s="2"/>
     </row>
-    <row r="241" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>20</v>
       </c>
       <c r="FB241" s="2"/>
     </row>
-    <row r="242" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="FB242" s="2"/>
     </row>
-    <row r="243" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A243" s="4"/>
-      <c r="B243" s="32" t="s">
+      <c r="B243" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C243" s="32"/>
-      <c r="D243" s="32"/>
-      <c r="E243" s="32"/>
-      <c r="F243" s="32" t="s">
+      <c r="C243" s="29"/>
+      <c r="D243" s="29"/>
+      <c r="E243" s="29"/>
+      <c r="F243" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="G243" s="32"/>
-      <c r="H243" s="32"/>
-      <c r="I243" s="32"/>
-      <c r="J243" s="32" t="s">
+      <c r="G243" s="29"/>
+      <c r="H243" s="29"/>
+      <c r="I243" s="29"/>
+      <c r="J243" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="K243" s="32"/>
-      <c r="L243" s="32"/>
-      <c r="M243" s="32"/>
-      <c r="N243" s="32" t="s">
+      <c r="K243" s="29"/>
+      <c r="L243" s="29"/>
+      <c r="M243" s="29"/>
+      <c r="N243" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="O243" s="32"/>
-      <c r="P243" s="32"/>
-      <c r="Q243" s="32"/>
-      <c r="R243" s="32" t="s">
+      <c r="O243" s="29"/>
+      <c r="P243" s="29"/>
+      <c r="Q243" s="29"/>
+      <c r="R243" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="S243" s="32"/>
-      <c r="T243" s="32"/>
-      <c r="U243" s="32"/>
-      <c r="V243" s="32" t="s">
+      <c r="S243" s="29"/>
+      <c r="T243" s="29"/>
+      <c r="U243" s="29"/>
+      <c r="V243" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="W243" s="32"/>
-      <c r="X243" s="32"/>
-      <c r="Y243" s="32"/>
-      <c r="Z243" s="32" t="s">
+      <c r="W243" s="29"/>
+      <c r="X243" s="29"/>
+      <c r="Y243" s="29"/>
+      <c r="Z243" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AA243" s="32"/>
-      <c r="AB243" s="32"/>
-      <c r="AC243" s="32"/>
-      <c r="AD243" s="32" t="s">
+      <c r="AA243" s="29"/>
+      <c r="AB243" s="29"/>
+      <c r="AC243" s="29"/>
+      <c r="AD243" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AE243" s="32"/>
-      <c r="AF243" s="32"/>
-      <c r="AG243" s="32"/>
-      <c r="AH243" s="32" t="s">
+      <c r="AE243" s="29"/>
+      <c r="AF243" s="29"/>
+      <c r="AG243" s="29"/>
+      <c r="AH243" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AI243" s="32"/>
-      <c r="AJ243" s="32"/>
-      <c r="AK243" s="32"/>
-      <c r="AL243" s="32" t="s">
+      <c r="AI243" s="29"/>
+      <c r="AJ243" s="29"/>
+      <c r="AK243" s="29"/>
+      <c r="AL243" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="AM243" s="32"/>
-      <c r="AN243" s="32"/>
-      <c r="AO243" s="32"/>
-      <c r="AP243" s="32" t="s">
+      <c r="AM243" s="29"/>
+      <c r="AN243" s="29"/>
+      <c r="AO243" s="29"/>
+      <c r="AP243" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AQ243" s="32"/>
-      <c r="AR243" s="32"/>
-      <c r="AS243" s="32"/>
-      <c r="AT243" s="32" t="s">
+      <c r="AQ243" s="29"/>
+      <c r="AR243" s="29"/>
+      <c r="AS243" s="29"/>
+      <c r="AT243" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AU243" s="32"/>
-      <c r="AV243" s="32"/>
-      <c r="AW243" s="32"/>
-      <c r="AX243" s="32" t="s">
+      <c r="AU243" s="29"/>
+      <c r="AV243" s="29"/>
+      <c r="AW243" s="29"/>
+      <c r="AX243" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="AY243" s="32"/>
-      <c r="AZ243" s="32"/>
-      <c r="BA243" s="32"/>
-      <c r="BB243" s="32" t="s">
+      <c r="AY243" s="29"/>
+      <c r="AZ243" s="29"/>
+      <c r="BA243" s="29"/>
+      <c r="BB243" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="BC243" s="32"/>
-      <c r="BD243" s="32"/>
-      <c r="BE243" s="32"/>
-      <c r="BF243" s="32" t="s">
+      <c r="BC243" s="29"/>
+      <c r="BD243" s="29"/>
+      <c r="BE243" s="29"/>
+      <c r="BF243" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="BG243" s="32"/>
-      <c r="BH243" s="32"/>
-      <c r="BI243" s="32"/>
-      <c r="BJ243" s="32" t="s">
+      <c r="BG243" s="29"/>
+      <c r="BH243" s="29"/>
+      <c r="BI243" s="29"/>
+      <c r="BJ243" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="BK243" s="32"/>
-      <c r="BL243" s="32"/>
-      <c r="BM243" s="32"/>
-      <c r="BN243" s="32" t="s">
+      <c r="BK243" s="29"/>
+      <c r="BL243" s="29"/>
+      <c r="BM243" s="29"/>
+      <c r="BN243" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="BO243" s="32"/>
-      <c r="BP243" s="32"/>
-      <c r="BQ243" s="32"/>
-      <c r="BR243" s="32" t="s">
+      <c r="BO243" s="29"/>
+      <c r="BP243" s="29"/>
+      <c r="BQ243" s="29"/>
+      <c r="BR243" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="BS243" s="32"/>
-      <c r="BT243" s="32"/>
-      <c r="BU243" s="32"/>
-      <c r="BV243" s="32" t="s">
+      <c r="BS243" s="29"/>
+      <c r="BT243" s="29"/>
+      <c r="BU243" s="29"/>
+      <c r="BV243" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="BW243" s="32"/>
-      <c r="BX243" s="32"/>
-      <c r="BY243" s="32"/>
-      <c r="BZ243" s="32" t="s">
+      <c r="BW243" s="29"/>
+      <c r="BX243" s="29"/>
+      <c r="BY243" s="29"/>
+      <c r="BZ243" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="CA243" s="32"/>
-      <c r="CB243" s="32"/>
-      <c r="CC243" s="32"/>
-      <c r="CD243" s="32" t="s">
+      <c r="CA243" s="29"/>
+      <c r="CB243" s="29"/>
+      <c r="CC243" s="29"/>
+      <c r="CD243" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="CE243" s="32"/>
-      <c r="CF243" s="32"/>
-      <c r="CG243" s="32"/>
-      <c r="CH243" s="32" t="s">
+      <c r="CE243" s="29"/>
+      <c r="CF243" s="29"/>
+      <c r="CG243" s="29"/>
+      <c r="CH243" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="CI243" s="32"/>
-      <c r="CJ243" s="32"/>
-      <c r="CK243" s="32"/>
-      <c r="CL243" s="32" t="s">
+      <c r="CI243" s="29"/>
+      <c r="CJ243" s="29"/>
+      <c r="CK243" s="29"/>
+      <c r="CL243" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="CM243" s="32"/>
-      <c r="CN243" s="32"/>
-      <c r="CO243" s="32"/>
-      <c r="CP243" s="32" t="s">
+      <c r="CM243" s="29"/>
+      <c r="CN243" s="29"/>
+      <c r="CO243" s="29"/>
+      <c r="CP243" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="CQ243" s="32"/>
-      <c r="CR243" s="32"/>
-      <c r="CS243" s="32"/>
-      <c r="CT243" s="32" t="s">
+      <c r="CQ243" s="29"/>
+      <c r="CR243" s="29"/>
+      <c r="CS243" s="29"/>
+      <c r="CT243" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="CU243" s="32"/>
-      <c r="CV243" s="32"/>
-      <c r="CW243" s="32"/>
-      <c r="CX243" s="32" t="s">
+      <c r="CU243" s="29"/>
+      <c r="CV243" s="29"/>
+      <c r="CW243" s="29"/>
+      <c r="CX243" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="CY243" s="32"/>
-      <c r="CZ243" s="32"/>
-      <c r="DA243" s="32"/>
-      <c r="DB243" s="32" t="s">
+      <c r="CY243" s="29"/>
+      <c r="CZ243" s="29"/>
+      <c r="DA243" s="29"/>
+      <c r="DB243" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="DC243" s="32"/>
-      <c r="DD243" s="32"/>
-      <c r="DE243" s="32"/>
-      <c r="DF243" s="32" t="s">
+      <c r="DC243" s="29"/>
+      <c r="DD243" s="29"/>
+      <c r="DE243" s="29"/>
+      <c r="DF243" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="DG243" s="32"/>
-      <c r="DH243" s="32"/>
-      <c r="DI243" s="32"/>
-      <c r="DJ243" s="32" t="s">
+      <c r="DG243" s="29"/>
+      <c r="DH243" s="29"/>
+      <c r="DI243" s="29"/>
+      <c r="DJ243" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="DK243" s="32"/>
-      <c r="DL243" s="32"/>
-      <c r="DM243" s="32"/>
-      <c r="DN243" s="32" t="s">
+      <c r="DK243" s="29"/>
+      <c r="DL243" s="29"/>
+      <c r="DM243" s="29"/>
+      <c r="DN243" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="DO243" s="32"/>
-      <c r="DP243" s="32"/>
-      <c r="DQ243" s="32"/>
-      <c r="DR243" s="32" t="s">
+      <c r="DO243" s="29"/>
+      <c r="DP243" s="29"/>
+      <c r="DQ243" s="29"/>
+      <c r="DR243" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="DS243" s="32"/>
-      <c r="DT243" s="32"/>
-      <c r="DU243" s="32"/>
-      <c r="DV243" s="32" t="s">
+      <c r="DS243" s="29"/>
+      <c r="DT243" s="29"/>
+      <c r="DU243" s="29"/>
+      <c r="DV243" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="DW243" s="32"/>
-      <c r="DX243" s="32"/>
-      <c r="DY243" s="32"/>
-      <c r="DZ243" s="32" t="s">
+      <c r="DW243" s="29"/>
+      <c r="DX243" s="29"/>
+      <c r="DY243" s="29"/>
+      <c r="DZ243" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="EA243" s="32"/>
-      <c r="EB243" s="32"/>
-      <c r="EC243" s="32"/>
-      <c r="ED243" s="32" t="s">
+      <c r="EA243" s="29"/>
+      <c r="EB243" s="29"/>
+      <c r="EC243" s="29"/>
+      <c r="ED243" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="EE243" s="32"/>
-      <c r="EF243" s="32"/>
-      <c r="EG243" s="32"/>
-      <c r="EH243" s="32" t="s">
+      <c r="EE243" s="29"/>
+      <c r="EF243" s="29"/>
+      <c r="EG243" s="29"/>
+      <c r="EH243" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="EI243" s="32"/>
-      <c r="EJ243" s="32"/>
-      <c r="EK243" s="32"/>
-      <c r="EL243" s="32" t="s">
+      <c r="EI243" s="29"/>
+      <c r="EJ243" s="29"/>
+      <c r="EK243" s="29"/>
+      <c r="EL243" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="EM243" s="32"/>
-      <c r="EN243" s="32"/>
-      <c r="EO243" s="32"/>
-      <c r="EP243" s="32" t="s">
+      <c r="EM243" s="29"/>
+      <c r="EN243" s="29"/>
+      <c r="EO243" s="29"/>
+      <c r="EP243" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="EQ243" s="32"/>
-      <c r="ER243" s="32"/>
-      <c r="ES243" s="32"/>
-      <c r="ET243" s="32" t="s">
+      <c r="EQ243" s="29"/>
+      <c r="ER243" s="29"/>
+      <c r="ES243" s="29"/>
+      <c r="ET243" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="EU243" s="32"/>
-      <c r="EV243" s="32"/>
-      <c r="EW243" s="32"/>
-      <c r="EX243" s="32" t="s">
+      <c r="EU243" s="29"/>
+      <c r="EV243" s="29"/>
+      <c r="EW243" s="29"/>
+      <c r="EX243" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="EY243" s="32"/>
-      <c r="EZ243" s="32"/>
+      <c r="EY243" s="29"/>
+      <c r="EZ243" s="29"/>
       <c r="FA243" s="24"/>
       <c r="FB243" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="FC243" s="31"/>
+      <c r="FC243" s="29"/>
+      <c r="FD243" s="29"/>
     </row>
-    <row r="244" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="s">
         <v>13</v>
       </c>
@@ -43495,11 +43684,14 @@
       <c r="FC244" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="FD244" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="245" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:160" x14ac:dyDescent="0.3">
       <c r="FB245" s="2"/>
     </row>
-    <row r="246" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A246" s="15" t="s">
         <v>74</v>
       </c>
@@ -43975,10 +44167,13 @@
         <v>-1.3034417755662702</v>
       </c>
       <c r="FC246" s="25">
-        <v>-5.7039344197576725E-2</v>
+        <v>2.1693341252770892E-2</v>
+      </c>
+      <c r="FD246" s="25">
+        <v>-1.6729384729843986</v>
       </c>
     </row>
-    <row r="247" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A247" s="15" t="s">
         <v>75</v>
       </c>
@@ -44454,10 +44649,13 @@
         <v>-4.3879732758218353</v>
       </c>
       <c r="FC247" s="25">
-        <v>20.782034574750696</v>
+        <v>20.979364241347056</v>
+      </c>
+      <c r="FD247" s="25">
+        <v>7.8629747023476</v>
       </c>
     </row>
-    <row r="248" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A248" s="15" t="s">
         <v>76</v>
       </c>
@@ -44933,10 +45131,13 @@
         <v>-4.081783243118835</v>
       </c>
       <c r="FC248" s="25">
-        <v>9.586126292012608</v>
+        <v>9.8226497071709247</v>
+      </c>
+      <c r="FD248" s="25">
+        <v>8.194231876810008</v>
       </c>
     </row>
-    <row r="249" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A249" s="16"/>
       <c r="B249" s="13"/>
       <c r="C249" s="13"/>
@@ -45096,8 +45297,9 @@
       <c r="FA249" s="25"/>
       <c r="FB249" s="26"/>
       <c r="FC249" s="25"/>
+      <c r="FD249" s="25"/>
     </row>
-    <row r="250" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>10</v>
       </c>
@@ -45573,10 +45775,13 @@
         <v>-3.8984486229420838</v>
       </c>
       <c r="FC250" s="25">
-        <v>11.809510417140729</v>
+        <v>12.018991067786217</v>
+      </c>
+      <c r="FD250" s="25">
+        <v>7.138348738301886</v>
       </c>
     </row>
-    <row r="251" spans="1:159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:160" hidden="1" x14ac:dyDescent="0.3">
       <c r="B251" s="13"/>
       <c r="C251" s="13"/>
       <c r="D251" s="13"/>
@@ -45736,7 +45941,7 @@
         <v>-24370.119758612476</v>
       </c>
     </row>
-    <row r="252" spans="1:159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:160" hidden="1" x14ac:dyDescent="0.3">
       <c r="B252" s="13"/>
       <c r="C252" s="13"/>
       <c r="D252" s="13"/>
@@ -45892,7 +46097,7 @@
       <c r="EX252" s="7"/>
       <c r="EY252" s="7"/>
     </row>
-    <row r="253" spans="1:159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:160" hidden="1" x14ac:dyDescent="0.3">
       <c r="B253" s="13"/>
       <c r="C253" s="13"/>
       <c r="D253" s="13"/>
@@ -46052,7 +46257,7 @@
         <v>4857262.3839106075</v>
       </c>
     </row>
-    <row r="254" spans="1:159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:160" hidden="1" x14ac:dyDescent="0.3">
       <c r="B254" s="13"/>
       <c r="C254" s="13"/>
       <c r="D254" s="13"/>
@@ -46207,7 +46412,7 @@
       <c r="EW254" s="13"/>
       <c r="EX254" s="3"/>
     </row>
-    <row r="255" spans="1:159" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:160" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="9"/>
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
@@ -46367,296 +46572,298 @@
       <c r="FA255" s="9"/>
       <c r="FB255" s="9"/>
       <c r="FC255" s="9"/>
+      <c r="FD255" s="9"/>
     </row>
-    <row r="256" spans="1:159" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:160" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="262" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
     </row>
-    <row r="263" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="264" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A264" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="265" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="266" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
     </row>
-    <row r="267" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A267" s="4"/>
-      <c r="B267" s="32">
+      <c r="B267" s="29">
         <v>1981</v>
       </c>
-      <c r="C267" s="32"/>
-      <c r="D267" s="32"/>
-      <c r="E267" s="32"/>
-      <c r="F267" s="32">
+      <c r="C267" s="29"/>
+      <c r="D267" s="29"/>
+      <c r="E267" s="29"/>
+      <c r="F267" s="29">
         <v>1982</v>
       </c>
-      <c r="G267" s="32"/>
-      <c r="H267" s="32"/>
-      <c r="I267" s="32"/>
-      <c r="J267" s="32">
+      <c r="G267" s="29"/>
+      <c r="H267" s="29"/>
+      <c r="I267" s="29"/>
+      <c r="J267" s="29">
         <v>1983</v>
       </c>
-      <c r="K267" s="32"/>
-      <c r="L267" s="32"/>
-      <c r="M267" s="32"/>
-      <c r="N267" s="32">
+      <c r="K267" s="29"/>
+      <c r="L267" s="29"/>
+      <c r="M267" s="29"/>
+      <c r="N267" s="29">
         <v>1984</v>
       </c>
-      <c r="O267" s="32"/>
-      <c r="P267" s="32"/>
-      <c r="Q267" s="32"/>
-      <c r="R267" s="32">
+      <c r="O267" s="29"/>
+      <c r="P267" s="29"/>
+      <c r="Q267" s="29"/>
+      <c r="R267" s="29">
         <v>1985</v>
       </c>
-      <c r="S267" s="32"/>
-      <c r="T267" s="32"/>
-      <c r="U267" s="32"/>
-      <c r="V267" s="32">
+      <c r="S267" s="29"/>
+      <c r="T267" s="29"/>
+      <c r="U267" s="29"/>
+      <c r="V267" s="29">
         <v>1986</v>
       </c>
-      <c r="W267" s="32"/>
-      <c r="X267" s="32"/>
-      <c r="Y267" s="32"/>
-      <c r="Z267" s="32">
+      <c r="W267" s="29"/>
+      <c r="X267" s="29"/>
+      <c r="Y267" s="29"/>
+      <c r="Z267" s="29">
         <v>1987</v>
       </c>
-      <c r="AA267" s="32"/>
-      <c r="AB267" s="32"/>
-      <c r="AC267" s="32"/>
-      <c r="AD267" s="32">
+      <c r="AA267" s="29"/>
+      <c r="AB267" s="29"/>
+      <c r="AC267" s="29"/>
+      <c r="AD267" s="29">
         <v>1988</v>
       </c>
-      <c r="AE267" s="32"/>
-      <c r="AF267" s="32"/>
-      <c r="AG267" s="32"/>
-      <c r="AH267" s="32">
+      <c r="AE267" s="29"/>
+      <c r="AF267" s="29"/>
+      <c r="AG267" s="29"/>
+      <c r="AH267" s="29">
         <v>1989</v>
       </c>
-      <c r="AI267" s="32"/>
-      <c r="AJ267" s="32"/>
-      <c r="AK267" s="32"/>
-      <c r="AL267" s="32">
+      <c r="AI267" s="29"/>
+      <c r="AJ267" s="29"/>
+      <c r="AK267" s="29"/>
+      <c r="AL267" s="29">
         <v>1990</v>
       </c>
-      <c r="AM267" s="32"/>
-      <c r="AN267" s="32"/>
-      <c r="AO267" s="32"/>
-      <c r="AP267" s="32">
+      <c r="AM267" s="29"/>
+      <c r="AN267" s="29"/>
+      <c r="AO267" s="29"/>
+      <c r="AP267" s="29">
         <v>1991</v>
       </c>
-      <c r="AQ267" s="32"/>
-      <c r="AR267" s="32"/>
-      <c r="AS267" s="32"/>
-      <c r="AT267" s="32">
+      <c r="AQ267" s="29"/>
+      <c r="AR267" s="29"/>
+      <c r="AS267" s="29"/>
+      <c r="AT267" s="29">
         <v>1992</v>
       </c>
-      <c r="AU267" s="32"/>
-      <c r="AV267" s="32"/>
-      <c r="AW267" s="32"/>
-      <c r="AX267" s="32">
+      <c r="AU267" s="29"/>
+      <c r="AV267" s="29"/>
+      <c r="AW267" s="29"/>
+      <c r="AX267" s="29">
         <v>1993</v>
       </c>
-      <c r="AY267" s="32"/>
-      <c r="AZ267" s="32"/>
-      <c r="BA267" s="32"/>
-      <c r="BB267" s="32">
+      <c r="AY267" s="29"/>
+      <c r="AZ267" s="29"/>
+      <c r="BA267" s="29"/>
+      <c r="BB267" s="29">
         <v>1994</v>
       </c>
-      <c r="BC267" s="32"/>
-      <c r="BD267" s="32"/>
-      <c r="BE267" s="32"/>
-      <c r="BF267" s="32">
+      <c r="BC267" s="29"/>
+      <c r="BD267" s="29"/>
+      <c r="BE267" s="29"/>
+      <c r="BF267" s="29">
         <v>1995</v>
       </c>
-      <c r="BG267" s="32"/>
-      <c r="BH267" s="32"/>
-      <c r="BI267" s="32"/>
-      <c r="BJ267" s="32">
+      <c r="BG267" s="29"/>
+      <c r="BH267" s="29"/>
+      <c r="BI267" s="29"/>
+      <c r="BJ267" s="29">
         <v>1996</v>
       </c>
-      <c r="BK267" s="32"/>
-      <c r="BL267" s="32"/>
-      <c r="BM267" s="32"/>
-      <c r="BN267" s="32">
+      <c r="BK267" s="29"/>
+      <c r="BL267" s="29"/>
+      <c r="BM267" s="29"/>
+      <c r="BN267" s="29">
         <v>1997</v>
       </c>
-      <c r="BO267" s="32"/>
-      <c r="BP267" s="32"/>
-      <c r="BQ267" s="32"/>
-      <c r="BR267" s="32">
+      <c r="BO267" s="29"/>
+      <c r="BP267" s="29"/>
+      <c r="BQ267" s="29"/>
+      <c r="BR267" s="29">
         <v>1998</v>
       </c>
-      <c r="BS267" s="32"/>
-      <c r="BT267" s="32"/>
-      <c r="BU267" s="32"/>
-      <c r="BV267" s="32">
+      <c r="BS267" s="29"/>
+      <c r="BT267" s="29"/>
+      <c r="BU267" s="29"/>
+      <c r="BV267" s="29">
         <v>1999</v>
       </c>
-      <c r="BW267" s="32"/>
-      <c r="BX267" s="32"/>
-      <c r="BY267" s="32"/>
-      <c r="BZ267" s="32">
+      <c r="BW267" s="29"/>
+      <c r="BX267" s="29"/>
+      <c r="BY267" s="29"/>
+      <c r="BZ267" s="29">
         <v>2000</v>
       </c>
-      <c r="CA267" s="32"/>
-      <c r="CB267" s="32"/>
-      <c r="CC267" s="32"/>
-      <c r="CD267" s="32">
+      <c r="CA267" s="29"/>
+      <c r="CB267" s="29"/>
+      <c r="CC267" s="29"/>
+      <c r="CD267" s="29">
         <v>2001</v>
       </c>
-      <c r="CE267" s="32"/>
-      <c r="CF267" s="32"/>
-      <c r="CG267" s="32"/>
-      <c r="CH267" s="32">
+      <c r="CE267" s="29"/>
+      <c r="CF267" s="29"/>
+      <c r="CG267" s="29"/>
+      <c r="CH267" s="29">
         <v>2002</v>
       </c>
-      <c r="CI267" s="32"/>
-      <c r="CJ267" s="32"/>
-      <c r="CK267" s="32"/>
-      <c r="CL267" s="32">
+      <c r="CI267" s="29"/>
+      <c r="CJ267" s="29"/>
+      <c r="CK267" s="29"/>
+      <c r="CL267" s="29">
         <v>2003</v>
       </c>
-      <c r="CM267" s="32"/>
-      <c r="CN267" s="32"/>
-      <c r="CO267" s="32"/>
-      <c r="CP267" s="32">
+      <c r="CM267" s="29"/>
+      <c r="CN267" s="29"/>
+      <c r="CO267" s="29"/>
+      <c r="CP267" s="29">
         <v>2004</v>
       </c>
-      <c r="CQ267" s="32"/>
-      <c r="CR267" s="32"/>
-      <c r="CS267" s="32"/>
-      <c r="CT267" s="32">
+      <c r="CQ267" s="29"/>
+      <c r="CR267" s="29"/>
+      <c r="CS267" s="29"/>
+      <c r="CT267" s="29">
         <v>2005</v>
       </c>
-      <c r="CU267" s="32"/>
-      <c r="CV267" s="32"/>
-      <c r="CW267" s="32"/>
-      <c r="CX267" s="32">
+      <c r="CU267" s="29"/>
+      <c r="CV267" s="29"/>
+      <c r="CW267" s="29"/>
+      <c r="CX267" s="29">
         <v>2006</v>
       </c>
-      <c r="CY267" s="32"/>
-      <c r="CZ267" s="32"/>
-      <c r="DA267" s="32"/>
-      <c r="DB267" s="32">
+      <c r="CY267" s="29"/>
+      <c r="CZ267" s="29"/>
+      <c r="DA267" s="29"/>
+      <c r="DB267" s="29">
         <v>2007</v>
       </c>
-      <c r="DC267" s="32"/>
-      <c r="DD267" s="32"/>
-      <c r="DE267" s="32"/>
-      <c r="DF267" s="32">
+      <c r="DC267" s="29"/>
+      <c r="DD267" s="29"/>
+      <c r="DE267" s="29"/>
+      <c r="DF267" s="29">
         <v>2008</v>
       </c>
-      <c r="DG267" s="32"/>
-      <c r="DH267" s="32"/>
-      <c r="DI267" s="32"/>
-      <c r="DJ267" s="32">
+      <c r="DG267" s="29"/>
+      <c r="DH267" s="29"/>
+      <c r="DI267" s="29"/>
+      <c r="DJ267" s="29">
         <v>2009</v>
       </c>
-      <c r="DK267" s="32"/>
-      <c r="DL267" s="32"/>
-      <c r="DM267" s="32"/>
-      <c r="DN267" s="32">
+      <c r="DK267" s="29"/>
+      <c r="DL267" s="29"/>
+      <c r="DM267" s="29"/>
+      <c r="DN267" s="29">
         <v>2010</v>
       </c>
-      <c r="DO267" s="32"/>
-      <c r="DP267" s="32"/>
-      <c r="DQ267" s="32"/>
-      <c r="DR267" s="32">
+      <c r="DO267" s="29"/>
+      <c r="DP267" s="29"/>
+      <c r="DQ267" s="29"/>
+      <c r="DR267" s="29">
         <v>2011</v>
       </c>
-      <c r="DS267" s="32"/>
-      <c r="DT267" s="32"/>
-      <c r="DU267" s="32"/>
-      <c r="DV267" s="32">
+      <c r="DS267" s="29"/>
+      <c r="DT267" s="29"/>
+      <c r="DU267" s="29"/>
+      <c r="DV267" s="29">
         <v>2012</v>
       </c>
-      <c r="DW267" s="32"/>
-      <c r="DX267" s="32"/>
-      <c r="DY267" s="32"/>
-      <c r="DZ267" s="32">
+      <c r="DW267" s="29"/>
+      <c r="DX267" s="29"/>
+      <c r="DY267" s="29"/>
+      <c r="DZ267" s="29">
         <v>2013</v>
       </c>
-      <c r="EA267" s="32"/>
-      <c r="EB267" s="32"/>
-      <c r="EC267" s="32"/>
-      <c r="ED267" s="32">
+      <c r="EA267" s="29"/>
+      <c r="EB267" s="29"/>
+      <c r="EC267" s="29"/>
+      <c r="ED267" s="29">
         <v>2014</v>
       </c>
-      <c r="EE267" s="32"/>
-      <c r="EF267" s="32"/>
-      <c r="EG267" s="32"/>
-      <c r="EH267" s="32">
+      <c r="EE267" s="29"/>
+      <c r="EF267" s="29"/>
+      <c r="EG267" s="29"/>
+      <c r="EH267" s="29">
         <v>2015</v>
       </c>
-      <c r="EI267" s="32"/>
-      <c r="EJ267" s="32"/>
-      <c r="EK267" s="32"/>
-      <c r="EL267" s="32">
+      <c r="EI267" s="29"/>
+      <c r="EJ267" s="29"/>
+      <c r="EK267" s="29"/>
+      <c r="EL267" s="29">
         <v>2016</v>
       </c>
-      <c r="EM267" s="32"/>
-      <c r="EN267" s="32"/>
-      <c r="EO267" s="32"/>
-      <c r="EP267" s="32">
+      <c r="EM267" s="29"/>
+      <c r="EN267" s="29"/>
+      <c r="EO267" s="29"/>
+      <c r="EP267" s="29">
         <v>2017</v>
       </c>
-      <c r="EQ267" s="32"/>
-      <c r="ER267" s="32"/>
-      <c r="ES267" s="32"/>
-      <c r="ET267" s="32">
+      <c r="EQ267" s="29"/>
+      <c r="ER267" s="29"/>
+      <c r="ES267" s="29"/>
+      <c r="ET267" s="29">
         <v>2018</v>
       </c>
-      <c r="EU267" s="32"/>
-      <c r="EV267" s="32"/>
-      <c r="EW267" s="32"/>
-      <c r="EX267" s="32">
+      <c r="EU267" s="29"/>
+      <c r="EV267" s="29"/>
+      <c r="EW267" s="29"/>
+      <c r="EX267" s="29">
         <v>2019</v>
       </c>
-      <c r="EY267" s="32"/>
-      <c r="EZ267" s="32"/>
-      <c r="FA267" s="32"/>
-      <c r="FB267" s="32">
+      <c r="EY267" s="29"/>
+      <c r="EZ267" s="29"/>
+      <c r="FA267" s="29"/>
+      <c r="FB267" s="29">
         <v>2020</v>
       </c>
-      <c r="FC267" s="32"/>
-      <c r="FD267" s="32"/>
+      <c r="FC267" s="29"/>
+      <c r="FD267" s="29"/>
       <c r="FE267" s="24"/>
       <c r="FF267" s="29">
         <v>2021</v>
       </c>
-      <c r="FG267" s="31"/>
+      <c r="FG267" s="29"/>
+      <c r="FH267" s="29"/>
     </row>
-    <row r="268" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A268" s="5" t="s">
         <v>13</v>
       </c>
@@ -47146,11 +47353,14 @@
       <c r="FG268" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="FH268" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="269" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:164" x14ac:dyDescent="0.3">
       <c r="FB269" s="2"/>
     </row>
-    <row r="270" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A270" s="15" t="s">
         <v>74</v>
       </c>
@@ -47638,10 +47848,13 @@
         <v>11.160430341465583</v>
       </c>
       <c r="FG270" s="25">
-        <v>9.6063904855950941</v>
+        <v>9.5385003098183567</v>
+      </c>
+      <c r="FH270" s="25">
+        <v>9.3902052498198962</v>
       </c>
     </row>
-    <row r="271" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A271" s="15" t="s">
         <v>75</v>
       </c>
@@ -48129,10 +48342,13 @@
         <v>28.355753023748104</v>
       </c>
       <c r="FG271" s="25">
-        <v>29.927522044613891</v>
+        <v>29.920069038304721</v>
+      </c>
+      <c r="FH271" s="25">
+        <v>25.196031324159058</v>
       </c>
     </row>
-    <row r="272" spans="1:163" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A272" s="15" t="s">
         <v>76</v>
       </c>
@@ -48620,10 +48836,13 @@
         <v>60.483816634786315</v>
       </c>
       <c r="FG272" s="26">
-        <v>60.46608746979102</v>
+        <v>60.541430651876929</v>
+      </c>
+      <c r="FH272" s="26">
+        <v>65.413763426021049</v>
       </c>
     </row>
-    <row r="273" spans="1:163" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A273" s="16"/>
       <c r="B273" s="13"/>
       <c r="C273" s="13"/>
@@ -48787,8 +49006,9 @@
       <c r="FE273" s="26"/>
       <c r="FF273" s="26"/>
       <c r="FG273" s="26"/>
+      <c r="FH273" s="26"/>
     </row>
-    <row r="274" spans="1:163" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A274" s="8" t="s">
         <v>10</v>
       </c>
@@ -49278,8 +49498,11 @@
       <c r="FG274" s="26">
         <v>100</v>
       </c>
+      <c r="FH274" s="26">
+        <v>100</v>
+      </c>
     </row>
-    <row r="275" spans="1:163" s="3" customFormat="1" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:164" s="3" customFormat="1" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2"/>
       <c r="B275" s="13"/>
       <c r="C275" s="13"/>
@@ -49444,7 +49667,7 @@
         <v>-24370.119758612476</v>
       </c>
     </row>
-    <row r="276" spans="1:163" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:164" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2"/>
       <c r="B276" s="13"/>
       <c r="C276" s="13"/>
@@ -49605,7 +49828,7 @@
       <c r="FB276" s="7"/>
       <c r="FC276" s="7"/>
     </row>
-    <row r="277" spans="1:163" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:164" hidden="1" x14ac:dyDescent="0.3">
       <c r="B277" s="13"/>
       <c r="C277" s="13"/>
       <c r="D277" s="13"/>
@@ -49769,7 +49992,7 @@
         <v>4857262.3839106075</v>
       </c>
     </row>
-    <row r="278" spans="1:163" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:164" hidden="1" x14ac:dyDescent="0.3">
       <c r="B278" s="13"/>
       <c r="C278" s="13"/>
       <c r="D278" s="13"/>
@@ -49927,7 +50150,7 @@
       <c r="EZ278" s="13"/>
       <c r="FA278" s="13"/>
     </row>
-    <row r="279" spans="1:163" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:164" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="9"/>
       <c r="B279" s="9"/>
       <c r="C279" s="9"/>
@@ -50091,23 +50314,24 @@
       <c r="FE279" s="9"/>
       <c r="FF279" s="9"/>
       <c r="FG279" s="9"/>
+      <c r="FH279" s="9"/>
     </row>
-    <row r="280" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>79</v>
       </c>
@@ -50115,13 +50339,13 @@
       <c r="FD285" s="3"/>
       <c r="FE285" s="3"/>
     </row>
-    <row r="286" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A286" s="1"/>
       <c r="FC286" s="3"/>
       <c r="FD286" s="3"/>
       <c r="FE286" s="3"/>
     </row>
-    <row r="287" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>52</v>
       </c>
@@ -50129,267 +50353,268 @@
       <c r="FD287" s="3"/>
       <c r="FE287" s="3"/>
     </row>
-    <row r="288" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A288" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="289" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="290" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
     </row>
-    <row r="291" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A291" s="4"/>
-      <c r="B291" s="32">
+      <c r="B291" s="29">
         <v>1981</v>
       </c>
-      <c r="C291" s="32"/>
-      <c r="D291" s="32"/>
-      <c r="E291" s="32"/>
-      <c r="F291" s="32">
+      <c r="C291" s="29"/>
+      <c r="D291" s="29"/>
+      <c r="E291" s="29"/>
+      <c r="F291" s="29">
         <v>1982</v>
       </c>
-      <c r="G291" s="32"/>
-      <c r="H291" s="32"/>
-      <c r="I291" s="32"/>
-      <c r="J291" s="32">
+      <c r="G291" s="29"/>
+      <c r="H291" s="29"/>
+      <c r="I291" s="29"/>
+      <c r="J291" s="29">
         <v>1983</v>
       </c>
-      <c r="K291" s="32"/>
-      <c r="L291" s="32"/>
-      <c r="M291" s="32"/>
-      <c r="N291" s="32">
+      <c r="K291" s="29"/>
+      <c r="L291" s="29"/>
+      <c r="M291" s="29"/>
+      <c r="N291" s="29">
         <v>1984</v>
       </c>
-      <c r="O291" s="32"/>
-      <c r="P291" s="32"/>
-      <c r="Q291" s="32"/>
-      <c r="R291" s="32">
+      <c r="O291" s="29"/>
+      <c r="P291" s="29"/>
+      <c r="Q291" s="29"/>
+      <c r="R291" s="29">
         <v>1985</v>
       </c>
-      <c r="S291" s="32"/>
-      <c r="T291" s="32"/>
-      <c r="U291" s="32"/>
-      <c r="V291" s="32">
+      <c r="S291" s="29"/>
+      <c r="T291" s="29"/>
+      <c r="U291" s="29"/>
+      <c r="V291" s="29">
         <v>1986</v>
       </c>
-      <c r="W291" s="32"/>
-      <c r="X291" s="32"/>
-      <c r="Y291" s="32"/>
-      <c r="Z291" s="32">
+      <c r="W291" s="29"/>
+      <c r="X291" s="29"/>
+      <c r="Y291" s="29"/>
+      <c r="Z291" s="29">
         <v>1987</v>
       </c>
-      <c r="AA291" s="32"/>
-      <c r="AB291" s="32"/>
-      <c r="AC291" s="32"/>
-      <c r="AD291" s="32">
+      <c r="AA291" s="29"/>
+      <c r="AB291" s="29"/>
+      <c r="AC291" s="29"/>
+      <c r="AD291" s="29">
         <v>1988</v>
       </c>
-      <c r="AE291" s="32"/>
-      <c r="AF291" s="32"/>
-      <c r="AG291" s="32"/>
-      <c r="AH291" s="32">
+      <c r="AE291" s="29"/>
+      <c r="AF291" s="29"/>
+      <c r="AG291" s="29"/>
+      <c r="AH291" s="29">
         <v>1989</v>
       </c>
-      <c r="AI291" s="32"/>
-      <c r="AJ291" s="32"/>
-      <c r="AK291" s="32"/>
-      <c r="AL291" s="32">
+      <c r="AI291" s="29"/>
+      <c r="AJ291" s="29"/>
+      <c r="AK291" s="29"/>
+      <c r="AL291" s="29">
         <v>1990</v>
       </c>
-      <c r="AM291" s="32"/>
-      <c r="AN291" s="32"/>
-      <c r="AO291" s="32"/>
-      <c r="AP291" s="32">
+      <c r="AM291" s="29"/>
+      <c r="AN291" s="29"/>
+      <c r="AO291" s="29"/>
+      <c r="AP291" s="29">
         <v>1991</v>
       </c>
-      <c r="AQ291" s="32"/>
-      <c r="AR291" s="32"/>
-      <c r="AS291" s="32"/>
-      <c r="AT291" s="32">
+      <c r="AQ291" s="29"/>
+      <c r="AR291" s="29"/>
+      <c r="AS291" s="29"/>
+      <c r="AT291" s="29">
         <v>1992</v>
       </c>
-      <c r="AU291" s="32"/>
-      <c r="AV291" s="32"/>
-      <c r="AW291" s="32"/>
-      <c r="AX291" s="32">
+      <c r="AU291" s="29"/>
+      <c r="AV291" s="29"/>
+      <c r="AW291" s="29"/>
+      <c r="AX291" s="29">
         <v>1993</v>
       </c>
-      <c r="AY291" s="32"/>
-      <c r="AZ291" s="32"/>
-      <c r="BA291" s="32"/>
-      <c r="BB291" s="32">
+      <c r="AY291" s="29"/>
+      <c r="AZ291" s="29"/>
+      <c r="BA291" s="29"/>
+      <c r="BB291" s="29">
         <v>1994</v>
       </c>
-      <c r="BC291" s="32"/>
-      <c r="BD291" s="32"/>
-      <c r="BE291" s="32"/>
-      <c r="BF291" s="32">
+      <c r="BC291" s="29"/>
+      <c r="BD291" s="29"/>
+      <c r="BE291" s="29"/>
+      <c r="BF291" s="29">
         <v>1995</v>
       </c>
-      <c r="BG291" s="32"/>
-      <c r="BH291" s="32"/>
-      <c r="BI291" s="32"/>
-      <c r="BJ291" s="32">
+      <c r="BG291" s="29"/>
+      <c r="BH291" s="29"/>
+      <c r="BI291" s="29"/>
+      <c r="BJ291" s="29">
         <v>1996</v>
       </c>
-      <c r="BK291" s="32"/>
-      <c r="BL291" s="32"/>
-      <c r="BM291" s="32"/>
-      <c r="BN291" s="32">
+      <c r="BK291" s="29"/>
+      <c r="BL291" s="29"/>
+      <c r="BM291" s="29"/>
+      <c r="BN291" s="29">
         <v>1997</v>
       </c>
-      <c r="BO291" s="32"/>
-      <c r="BP291" s="32"/>
-      <c r="BQ291" s="32"/>
-      <c r="BR291" s="32">
+      <c r="BO291" s="29"/>
+      <c r="BP291" s="29"/>
+      <c r="BQ291" s="29"/>
+      <c r="BR291" s="29">
         <v>1998</v>
       </c>
-      <c r="BS291" s="32"/>
-      <c r="BT291" s="32"/>
-      <c r="BU291" s="32"/>
-      <c r="BV291" s="32">
+      <c r="BS291" s="29"/>
+      <c r="BT291" s="29"/>
+      <c r="BU291" s="29"/>
+      <c r="BV291" s="29">
         <v>1999</v>
       </c>
-      <c r="BW291" s="32"/>
-      <c r="BX291" s="32"/>
-      <c r="BY291" s="32"/>
-      <c r="BZ291" s="32">
+      <c r="BW291" s="29"/>
+      <c r="BX291" s="29"/>
+      <c r="BY291" s="29"/>
+      <c r="BZ291" s="29">
         <v>2000</v>
       </c>
-      <c r="CA291" s="32"/>
-      <c r="CB291" s="32"/>
-      <c r="CC291" s="32"/>
-      <c r="CD291" s="32">
+      <c r="CA291" s="29"/>
+      <c r="CB291" s="29"/>
+      <c r="CC291" s="29"/>
+      <c r="CD291" s="29">
         <v>2001</v>
       </c>
-      <c r="CE291" s="32"/>
-      <c r="CF291" s="32"/>
-      <c r="CG291" s="32"/>
-      <c r="CH291" s="32">
+      <c r="CE291" s="29"/>
+      <c r="CF291" s="29"/>
+      <c r="CG291" s="29"/>
+      <c r="CH291" s="29">
         <v>2002</v>
       </c>
-      <c r="CI291" s="32"/>
-      <c r="CJ291" s="32"/>
-      <c r="CK291" s="32"/>
-      <c r="CL291" s="32">
+      <c r="CI291" s="29"/>
+      <c r="CJ291" s="29"/>
+      <c r="CK291" s="29"/>
+      <c r="CL291" s="29">
         <v>2003</v>
       </c>
-      <c r="CM291" s="32"/>
-      <c r="CN291" s="32"/>
-      <c r="CO291" s="32"/>
-      <c r="CP291" s="32">
+      <c r="CM291" s="29"/>
+      <c r="CN291" s="29"/>
+      <c r="CO291" s="29"/>
+      <c r="CP291" s="29">
         <v>2004</v>
       </c>
-      <c r="CQ291" s="32"/>
-      <c r="CR291" s="32"/>
-      <c r="CS291" s="32"/>
-      <c r="CT291" s="32">
+      <c r="CQ291" s="29"/>
+      <c r="CR291" s="29"/>
+      <c r="CS291" s="29"/>
+      <c r="CT291" s="29">
         <v>2005</v>
       </c>
-      <c r="CU291" s="32"/>
-      <c r="CV291" s="32"/>
-      <c r="CW291" s="32"/>
-      <c r="CX291" s="32">
+      <c r="CU291" s="29"/>
+      <c r="CV291" s="29"/>
+      <c r="CW291" s="29"/>
+      <c r="CX291" s="29">
         <v>2006</v>
       </c>
-      <c r="CY291" s="32"/>
-      <c r="CZ291" s="32"/>
-      <c r="DA291" s="32"/>
-      <c r="DB291" s="32">
+      <c r="CY291" s="29"/>
+      <c r="CZ291" s="29"/>
+      <c r="DA291" s="29"/>
+      <c r="DB291" s="29">
         <v>2007</v>
       </c>
-      <c r="DC291" s="32"/>
-      <c r="DD291" s="32"/>
-      <c r="DE291" s="32"/>
-      <c r="DF291" s="32">
+      <c r="DC291" s="29"/>
+      <c r="DD291" s="29"/>
+      <c r="DE291" s="29"/>
+      <c r="DF291" s="29">
         <v>2008</v>
       </c>
-      <c r="DG291" s="32"/>
-      <c r="DH291" s="32"/>
-      <c r="DI291" s="32"/>
-      <c r="DJ291" s="32">
+      <c r="DG291" s="29"/>
+      <c r="DH291" s="29"/>
+      <c r="DI291" s="29"/>
+      <c r="DJ291" s="29">
         <v>2009</v>
       </c>
-      <c r="DK291" s="32"/>
-      <c r="DL291" s="32"/>
-      <c r="DM291" s="32"/>
-      <c r="DN291" s="32">
+      <c r="DK291" s="29"/>
+      <c r="DL291" s="29"/>
+      <c r="DM291" s="29"/>
+      <c r="DN291" s="29">
         <v>2010</v>
       </c>
-      <c r="DO291" s="32"/>
-      <c r="DP291" s="32"/>
-      <c r="DQ291" s="32"/>
-      <c r="DR291" s="32">
+      <c r="DO291" s="29"/>
+      <c r="DP291" s="29"/>
+      <c r="DQ291" s="29"/>
+      <c r="DR291" s="29">
         <v>2011</v>
       </c>
-      <c r="DS291" s="32"/>
-      <c r="DT291" s="32"/>
-      <c r="DU291" s="32"/>
-      <c r="DV291" s="32">
+      <c r="DS291" s="29"/>
+      <c r="DT291" s="29"/>
+      <c r="DU291" s="29"/>
+      <c r="DV291" s="29">
         <v>2012</v>
       </c>
-      <c r="DW291" s="32"/>
-      <c r="DX291" s="32"/>
-      <c r="DY291" s="32"/>
-      <c r="DZ291" s="32">
+      <c r="DW291" s="29"/>
+      <c r="DX291" s="29"/>
+      <c r="DY291" s="29"/>
+      <c r="DZ291" s="29">
         <v>2013</v>
       </c>
-      <c r="EA291" s="32"/>
-      <c r="EB291" s="32"/>
-      <c r="EC291" s="32"/>
-      <c r="ED291" s="32">
+      <c r="EA291" s="29"/>
+      <c r="EB291" s="29"/>
+      <c r="EC291" s="29"/>
+      <c r="ED291" s="29">
         <v>2014</v>
       </c>
-      <c r="EE291" s="32"/>
-      <c r="EF291" s="32"/>
-      <c r="EG291" s="32"/>
-      <c r="EH291" s="32">
+      <c r="EE291" s="29"/>
+      <c r="EF291" s="29"/>
+      <c r="EG291" s="29"/>
+      <c r="EH291" s="29">
         <v>2015</v>
       </c>
-      <c r="EI291" s="32"/>
-      <c r="EJ291" s="32"/>
-      <c r="EK291" s="32"/>
-      <c r="EL291" s="32">
+      <c r="EI291" s="29"/>
+      <c r="EJ291" s="29"/>
+      <c r="EK291" s="29"/>
+      <c r="EL291" s="29">
         <v>2016</v>
       </c>
-      <c r="EM291" s="32"/>
-      <c r="EN291" s="32"/>
-      <c r="EO291" s="32"/>
-      <c r="EP291" s="32">
+      <c r="EM291" s="29"/>
+      <c r="EN291" s="29"/>
+      <c r="EO291" s="29"/>
+      <c r="EP291" s="29">
         <v>2017</v>
       </c>
-      <c r="EQ291" s="32"/>
-      <c r="ER291" s="32"/>
-      <c r="ES291" s="32"/>
-      <c r="ET291" s="32">
+      <c r="EQ291" s="29"/>
+      <c r="ER291" s="29"/>
+      <c r="ES291" s="29"/>
+      <c r="ET291" s="29">
         <v>2018</v>
       </c>
-      <c r="EU291" s="32"/>
-      <c r="EV291" s="32"/>
-      <c r="EW291" s="32"/>
-      <c r="EX291" s="32">
+      <c r="EU291" s="29"/>
+      <c r="EV291" s="29"/>
+      <c r="EW291" s="29"/>
+      <c r="EX291" s="29">
         <v>2019</v>
       </c>
-      <c r="EY291" s="32"/>
-      <c r="EZ291" s="32"/>
-      <c r="FA291" s="32"/>
-      <c r="FB291" s="32">
+      <c r="EY291" s="29"/>
+      <c r="EZ291" s="29"/>
+      <c r="FA291" s="29"/>
+      <c r="FB291" s="29">
         <v>2020</v>
       </c>
-      <c r="FC291" s="32"/>
-      <c r="FD291" s="32"/>
+      <c r="FC291" s="29"/>
+      <c r="FD291" s="29"/>
       <c r="FE291" s="24"/>
       <c r="FF291" s="29">
         <v>2021</v>
       </c>
-      <c r="FG291" s="31"/>
+      <c r="FG291" s="29"/>
+      <c r="FH291" s="29"/>
     </row>
-    <row r="292" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A292" s="5" t="s">
         <v>13</v>
       </c>
@@ -50879,11 +51104,14 @@
       <c r="FG292" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="FH292" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="293" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:164" x14ac:dyDescent="0.3">
       <c r="FB293" s="2"/>
     </row>
-    <row r="294" spans="1:163" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A294" s="15" t="s">
         <v>74</v>
       </c>
@@ -51371,10 +51599,13 @@
         <v>10.19329219408335</v>
       </c>
       <c r="FG294" s="26">
-        <v>8.9874195127159169</v>
+        <v>8.9776794611496538</v>
+      </c>
+      <c r="FH294" s="26">
+        <v>8.991093544440691</v>
       </c>
     </row>
-    <row r="295" spans="1:163" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A295" s="15" t="s">
         <v>75</v>
       </c>
@@ -51862,10 +52093,13 @@
         <v>30.03129153119583</v>
       </c>
       <c r="FG295" s="26">
-        <v>30.807577614853599</v>
+        <v>30.800204302503857</v>
+      </c>
+      <c r="FH295" s="26">
+        <v>27.114655244005203</v>
       </c>
     </row>
-    <row r="296" spans="1:163" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296" s="15" t="s">
         <v>76</v>
       </c>
@@ -52353,10 +52587,13 @@
         <v>59.775416274720818</v>
       </c>
       <c r="FG296" s="26">
-        <v>60.205002872430477</v>
+        <v>60.222116236346501</v>
+      </c>
+      <c r="FH296" s="26">
+        <v>63.894251211554106</v>
       </c>
     </row>
-    <row r="297" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A297" s="16"/>
       <c r="B297" s="13"/>
       <c r="C297" s="13"/>
@@ -52520,8 +52757,9 @@
       <c r="FE297" s="25"/>
       <c r="FF297" s="25"/>
       <c r="FG297" s="25"/>
+      <c r="FH297" s="25"/>
     </row>
-    <row r="298" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A298" s="8" t="s">
         <v>10</v>
       </c>
@@ -53011,8 +53249,11 @@
       <c r="FG298" s="25">
         <v>100</v>
       </c>
+      <c r="FH298" s="25">
+        <v>100</v>
+      </c>
     </row>
-    <row r="299" spans="1:163" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:164" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B299" s="13"/>
       <c r="C299" s="13"/>
       <c r="D299" s="13"/>
@@ -53176,7 +53417,7 @@
         <v>-0.58654919688841323</v>
       </c>
     </row>
-    <row r="300" spans="1:163" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:164" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B300" s="13"/>
       <c r="C300" s="13"/>
       <c r="D300" s="13"/>
@@ -53340,7 +53581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:163" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:164" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B301" s="13"/>
       <c r="C301" s="13"/>
       <c r="D301" s="13"/>
@@ -53504,7 +53745,7 @@
         <v>116.90641566717015</v>
       </c>
     </row>
-    <row r="302" spans="1:163" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:164" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B302" s="13"/>
       <c r="C302" s="13"/>
       <c r="D302" s="13"/>
@@ -53668,7 +53909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:163" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:164" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="9"/>
       <c r="B303" s="9"/>
       <c r="C303" s="9"/>
@@ -53832,8 +54073,9 @@
       <c r="FE303" s="9"/>
       <c r="FF303" s="9"/>
       <c r="FG303" s="9"/>
+      <c r="FH303" s="9"/>
     </row>
-    <row r="304" spans="1:163" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:164" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>0</v>
       </c>
@@ -54173,16 +54415,462 @@
       <c r="FE313" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="476">
-    <mergeCell ref="FB36:FD36"/>
-    <mergeCell ref="EX63:FA63"/>
-    <mergeCell ref="EX90:FA90"/>
-    <mergeCell ref="FB117:FD117"/>
-    <mergeCell ref="FB144:FD144"/>
-    <mergeCell ref="FB171:FD171"/>
-    <mergeCell ref="FB195:FD195"/>
-    <mergeCell ref="EX195:FA195"/>
-    <mergeCell ref="EX36:FA36"/>
+  <mergeCells count="488">
+    <mergeCell ref="FF36:FH36"/>
+    <mergeCell ref="FF9:FH9"/>
+    <mergeCell ref="FB63:FD63"/>
+    <mergeCell ref="FB90:FD90"/>
+    <mergeCell ref="FF117:FH117"/>
+    <mergeCell ref="FF144:FH144"/>
+    <mergeCell ref="FF171:FH171"/>
+    <mergeCell ref="FF195:FH195"/>
+    <mergeCell ref="FF291:FH291"/>
+    <mergeCell ref="FF267:FH267"/>
+    <mergeCell ref="FB243:FD243"/>
+    <mergeCell ref="FB219:FD219"/>
+    <mergeCell ref="FB9:FE9"/>
+    <mergeCell ref="CD36:CG36"/>
+    <mergeCell ref="CH36:CK36"/>
+    <mergeCell ref="CL36:CO36"/>
+    <mergeCell ref="CP36:CS36"/>
+    <mergeCell ref="CT36:CW36"/>
+    <mergeCell ref="CX36:DA36"/>
+    <mergeCell ref="DB36:DE36"/>
+    <mergeCell ref="DV9:DY9"/>
+    <mergeCell ref="CX9:DA9"/>
+    <mergeCell ref="DB9:DE9"/>
+    <mergeCell ref="DF9:DI9"/>
+    <mergeCell ref="DJ9:DM9"/>
+    <mergeCell ref="DN9:DQ9"/>
+    <mergeCell ref="DR9:DU9"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CP9:CS9"/>
+    <mergeCell ref="CT9:CW9"/>
+    <mergeCell ref="DF36:DI36"/>
+    <mergeCell ref="DJ36:DM36"/>
+    <mergeCell ref="DN36:DQ36"/>
+    <mergeCell ref="DR36:DU36"/>
+    <mergeCell ref="DV36:DY36"/>
+    <mergeCell ref="DZ36:EC36"/>
+    <mergeCell ref="ET9:EW9"/>
+    <mergeCell ref="EX9:FA9"/>
+    <mergeCell ref="DZ9:EC9"/>
+    <mergeCell ref="ED9:EG9"/>
+    <mergeCell ref="EH9:EK9"/>
+    <mergeCell ref="EL9:EO9"/>
+    <mergeCell ref="EP9:ES9"/>
+    <mergeCell ref="EH36:EK36"/>
+    <mergeCell ref="EL36:EO36"/>
+    <mergeCell ref="EP36:ES36"/>
+    <mergeCell ref="ET36:EW36"/>
+    <mergeCell ref="ED36:EG36"/>
+    <mergeCell ref="EL63:EO63"/>
+    <mergeCell ref="EP63:ES63"/>
+    <mergeCell ref="CD63:CG63"/>
+    <mergeCell ref="EH90:EK90"/>
+    <mergeCell ref="EL90:EO90"/>
+    <mergeCell ref="EP90:ES90"/>
+    <mergeCell ref="ET90:EW90"/>
+    <mergeCell ref="DJ90:DM90"/>
+    <mergeCell ref="DN90:DQ90"/>
+    <mergeCell ref="DR90:DU90"/>
+    <mergeCell ref="DV90:DY90"/>
+    <mergeCell ref="DZ90:EC90"/>
+    <mergeCell ref="ED90:EG90"/>
+    <mergeCell ref="CD90:CG90"/>
+    <mergeCell ref="CH90:CK90"/>
+    <mergeCell ref="CL90:CO90"/>
+    <mergeCell ref="CP90:CS90"/>
+    <mergeCell ref="CH63:CK63"/>
+    <mergeCell ref="CL63:CO63"/>
+    <mergeCell ref="DF90:DI90"/>
+    <mergeCell ref="DF63:DI63"/>
+    <mergeCell ref="DJ63:DM63"/>
+    <mergeCell ref="DN63:DQ63"/>
+    <mergeCell ref="DR63:DU63"/>
+    <mergeCell ref="CP63:CS63"/>
+    <mergeCell ref="CT63:CW63"/>
+    <mergeCell ref="CT90:CW90"/>
+    <mergeCell ref="CX90:DA90"/>
+    <mergeCell ref="DB90:DE90"/>
+    <mergeCell ref="CX63:DA63"/>
+    <mergeCell ref="DB63:DE63"/>
+    <mergeCell ref="ET144:EW144"/>
+    <mergeCell ref="EX144:FA144"/>
+    <mergeCell ref="DZ144:EC144"/>
+    <mergeCell ref="ED144:EG144"/>
+    <mergeCell ref="EH144:EK144"/>
+    <mergeCell ref="EL144:EO144"/>
+    <mergeCell ref="EP144:ES144"/>
+    <mergeCell ref="EH117:EK117"/>
+    <mergeCell ref="EL117:EO117"/>
+    <mergeCell ref="EP117:ES117"/>
+    <mergeCell ref="ET117:EW117"/>
+    <mergeCell ref="EX117:FA117"/>
+    <mergeCell ref="ET63:EW63"/>
+    <mergeCell ref="DV63:DY63"/>
+    <mergeCell ref="DZ63:EC63"/>
+    <mergeCell ref="ED63:EG63"/>
+    <mergeCell ref="EH63:EK63"/>
+    <mergeCell ref="BZ117:CC117"/>
+    <mergeCell ref="CD117:CG117"/>
+    <mergeCell ref="CH117:CK117"/>
+    <mergeCell ref="CL117:CO117"/>
+    <mergeCell ref="CP117:CS117"/>
+    <mergeCell ref="CT117:CW117"/>
+    <mergeCell ref="CX117:DA117"/>
+    <mergeCell ref="DB117:DE117"/>
+    <mergeCell ref="ED117:EG117"/>
+    <mergeCell ref="DF117:DI117"/>
+    <mergeCell ref="DJ117:DM117"/>
+    <mergeCell ref="DN117:DQ117"/>
+    <mergeCell ref="DR117:DU117"/>
+    <mergeCell ref="DV117:DY117"/>
+    <mergeCell ref="DZ117:EC117"/>
+    <mergeCell ref="CD171:CG171"/>
+    <mergeCell ref="CH171:CK171"/>
+    <mergeCell ref="CL171:CO171"/>
+    <mergeCell ref="CP171:CS171"/>
+    <mergeCell ref="CT171:CW171"/>
+    <mergeCell ref="CX171:DA171"/>
+    <mergeCell ref="DB171:DE171"/>
+    <mergeCell ref="DV144:DY144"/>
+    <mergeCell ref="CX144:DA144"/>
+    <mergeCell ref="DB144:DE144"/>
+    <mergeCell ref="DF144:DI144"/>
+    <mergeCell ref="DJ144:DM144"/>
+    <mergeCell ref="DN144:DQ144"/>
+    <mergeCell ref="DR144:DU144"/>
+    <mergeCell ref="CD144:CG144"/>
+    <mergeCell ref="CH144:CK144"/>
+    <mergeCell ref="CL144:CO144"/>
+    <mergeCell ref="CP144:CS144"/>
+    <mergeCell ref="CT144:CW144"/>
+    <mergeCell ref="ET171:EW171"/>
+    <mergeCell ref="ET195:EW195"/>
+    <mergeCell ref="EX171:FA171"/>
+    <mergeCell ref="DF171:DI171"/>
+    <mergeCell ref="DJ171:DM171"/>
+    <mergeCell ref="DN171:DQ171"/>
+    <mergeCell ref="DR171:DU171"/>
+    <mergeCell ref="DV171:DY171"/>
+    <mergeCell ref="DZ171:EC171"/>
+    <mergeCell ref="ED219:EG219"/>
+    <mergeCell ref="CH195:CK195"/>
+    <mergeCell ref="CL195:CO195"/>
+    <mergeCell ref="CP195:CS195"/>
+    <mergeCell ref="CT195:CW195"/>
+    <mergeCell ref="ED171:EG171"/>
+    <mergeCell ref="EH171:EK171"/>
+    <mergeCell ref="EL171:EO171"/>
+    <mergeCell ref="EP171:ES171"/>
+    <mergeCell ref="DZ195:EC195"/>
+    <mergeCell ref="ED195:EG195"/>
+    <mergeCell ref="EH195:EK195"/>
+    <mergeCell ref="EL195:EO195"/>
+    <mergeCell ref="EP195:ES195"/>
+    <mergeCell ref="CX195:DA195"/>
+    <mergeCell ref="DB195:DE195"/>
+    <mergeCell ref="DF195:DI195"/>
+    <mergeCell ref="DJ195:DM195"/>
+    <mergeCell ref="DN195:DQ195"/>
+    <mergeCell ref="DR195:DU195"/>
+    <mergeCell ref="EH219:EK219"/>
+    <mergeCell ref="EL219:EO219"/>
+    <mergeCell ref="EP219:ES219"/>
+    <mergeCell ref="CD219:CG219"/>
+    <mergeCell ref="CH219:CK219"/>
+    <mergeCell ref="CL219:CO219"/>
+    <mergeCell ref="CP219:CS219"/>
+    <mergeCell ref="CT219:CW219"/>
+    <mergeCell ref="CX219:DA219"/>
+    <mergeCell ref="DB219:DE219"/>
+    <mergeCell ref="DV195:DY195"/>
+    <mergeCell ref="BZ195:CC195"/>
+    <mergeCell ref="CD195:CG195"/>
+    <mergeCell ref="ET219:EW219"/>
+    <mergeCell ref="BZ243:CC243"/>
+    <mergeCell ref="CD243:CG243"/>
+    <mergeCell ref="CH243:CK243"/>
+    <mergeCell ref="CL243:CO243"/>
+    <mergeCell ref="CP243:CS243"/>
+    <mergeCell ref="DF219:DI219"/>
+    <mergeCell ref="DJ219:DM219"/>
+    <mergeCell ref="DN219:DQ219"/>
+    <mergeCell ref="DR219:DU219"/>
+    <mergeCell ref="DV219:DY219"/>
+    <mergeCell ref="DZ219:EC219"/>
+    <mergeCell ref="EP243:ES243"/>
+    <mergeCell ref="ET243:EW243"/>
+    <mergeCell ref="DV243:DY243"/>
+    <mergeCell ref="DZ243:EC243"/>
+    <mergeCell ref="ED243:EG243"/>
+    <mergeCell ref="EH243:EK243"/>
+    <mergeCell ref="EL243:EO243"/>
+    <mergeCell ref="DR243:DU243"/>
+    <mergeCell ref="CT243:CW243"/>
+    <mergeCell ref="CX243:DA243"/>
+    <mergeCell ref="DB243:DE243"/>
+    <mergeCell ref="DF243:DI243"/>
+    <mergeCell ref="DJ243:DM243"/>
+    <mergeCell ref="DN243:DQ243"/>
+    <mergeCell ref="CT267:CW267"/>
+    <mergeCell ref="EX291:FA291"/>
+    <mergeCell ref="DF291:DI291"/>
+    <mergeCell ref="DJ291:DM291"/>
+    <mergeCell ref="DN291:DQ291"/>
+    <mergeCell ref="DR291:DU291"/>
+    <mergeCell ref="DV291:DY291"/>
+    <mergeCell ref="DZ291:EC291"/>
+    <mergeCell ref="ET267:EW267"/>
+    <mergeCell ref="EX267:FA267"/>
+    <mergeCell ref="DV267:DY267"/>
+    <mergeCell ref="DZ267:EC267"/>
+    <mergeCell ref="ED267:EG267"/>
+    <mergeCell ref="EH267:EK267"/>
+    <mergeCell ref="EL267:EO267"/>
+    <mergeCell ref="EP267:ES267"/>
+    <mergeCell ref="DF267:DI267"/>
+    <mergeCell ref="DJ267:DM267"/>
+    <mergeCell ref="DN267:DQ267"/>
+    <mergeCell ref="DR267:DU267"/>
+    <mergeCell ref="ET291:EW291"/>
+    <mergeCell ref="ED291:EG291"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="BZ291:CC291"/>
+    <mergeCell ref="BZ219:CC219"/>
+    <mergeCell ref="BZ171:CC171"/>
+    <mergeCell ref="BZ144:CC144"/>
+    <mergeCell ref="BZ63:CC63"/>
+    <mergeCell ref="BZ90:CC90"/>
+    <mergeCell ref="BZ36:CC36"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="BR36:BU36"/>
+    <mergeCell ref="BV36:BY36"/>
+    <mergeCell ref="BF63:BI63"/>
+    <mergeCell ref="EH291:EK291"/>
+    <mergeCell ref="EL291:EO291"/>
+    <mergeCell ref="EP291:ES291"/>
+    <mergeCell ref="CX267:DA267"/>
+    <mergeCell ref="DB267:DE267"/>
+    <mergeCell ref="BZ267:CC267"/>
+    <mergeCell ref="CD267:CG267"/>
+    <mergeCell ref="CH267:CK267"/>
+    <mergeCell ref="CL267:CO267"/>
+    <mergeCell ref="CP267:CS267"/>
+    <mergeCell ref="CD291:CG291"/>
+    <mergeCell ref="CH291:CK291"/>
+    <mergeCell ref="CL291:CO291"/>
+    <mergeCell ref="CP291:CS291"/>
+    <mergeCell ref="CT291:CW291"/>
+    <mergeCell ref="CX291:DA291"/>
+    <mergeCell ref="DB291:DE291"/>
+    <mergeCell ref="BJ63:BM63"/>
+    <mergeCell ref="BN63:BQ63"/>
+    <mergeCell ref="BR63:BU63"/>
+    <mergeCell ref="BV63:BY63"/>
+    <mergeCell ref="AX63:BA63"/>
+    <mergeCell ref="BB63:BE63"/>
+    <mergeCell ref="BR90:BU90"/>
+    <mergeCell ref="BV90:BY90"/>
+    <mergeCell ref="AX90:BA90"/>
+    <mergeCell ref="BB90:BE90"/>
+    <mergeCell ref="BF90:BI90"/>
+    <mergeCell ref="BJ90:BM90"/>
+    <mergeCell ref="BN90:BQ90"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="BJ36:BM36"/>
+    <mergeCell ref="BN36:BQ36"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="R36:U36"/>
+    <mergeCell ref="V36:Y36"/>
+    <mergeCell ref="Z36:AC36"/>
+    <mergeCell ref="AD36:AG36"/>
+    <mergeCell ref="AH36:AK36"/>
+    <mergeCell ref="AL36:AO36"/>
+    <mergeCell ref="AP36:AS36"/>
+    <mergeCell ref="AT36:AW36"/>
+    <mergeCell ref="AX36:BA36"/>
+    <mergeCell ref="BB36:BE36"/>
+    <mergeCell ref="BF36:BI36"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="J90:M90"/>
+    <mergeCell ref="N90:Q90"/>
+    <mergeCell ref="R90:U90"/>
+    <mergeCell ref="AH63:AK63"/>
+    <mergeCell ref="AL63:AO63"/>
+    <mergeCell ref="AP63:AS63"/>
+    <mergeCell ref="AT63:AW63"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="R63:U63"/>
+    <mergeCell ref="V63:Y63"/>
+    <mergeCell ref="Z63:AC63"/>
+    <mergeCell ref="AD63:AG63"/>
+    <mergeCell ref="AT90:AW90"/>
+    <mergeCell ref="V90:Y90"/>
+    <mergeCell ref="Z90:AC90"/>
+    <mergeCell ref="AD90:AG90"/>
+    <mergeCell ref="AH90:AK90"/>
+    <mergeCell ref="AL90:AO90"/>
+    <mergeCell ref="AP90:AS90"/>
+    <mergeCell ref="B117:E117"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="J117:M117"/>
+    <mergeCell ref="N117:Q117"/>
+    <mergeCell ref="R117:U117"/>
+    <mergeCell ref="BR117:BU117"/>
+    <mergeCell ref="BV117:BY117"/>
+    <mergeCell ref="AX117:BA117"/>
+    <mergeCell ref="BB117:BE117"/>
+    <mergeCell ref="BF117:BI117"/>
+    <mergeCell ref="BJ117:BM117"/>
+    <mergeCell ref="BN117:BQ117"/>
+    <mergeCell ref="F144:I144"/>
+    <mergeCell ref="J144:M144"/>
+    <mergeCell ref="N144:Q144"/>
+    <mergeCell ref="R144:U144"/>
+    <mergeCell ref="V144:Y144"/>
+    <mergeCell ref="Z144:AC144"/>
+    <mergeCell ref="AD144:AG144"/>
+    <mergeCell ref="AT117:AW117"/>
+    <mergeCell ref="V117:Y117"/>
+    <mergeCell ref="Z117:AC117"/>
+    <mergeCell ref="AD117:AG117"/>
+    <mergeCell ref="AH117:AK117"/>
+    <mergeCell ref="AL117:AO117"/>
+    <mergeCell ref="AP117:AS117"/>
+    <mergeCell ref="BF144:BI144"/>
+    <mergeCell ref="BJ144:BM144"/>
+    <mergeCell ref="BN144:BQ144"/>
+    <mergeCell ref="BR144:BU144"/>
+    <mergeCell ref="BV144:BY144"/>
+    <mergeCell ref="B171:E171"/>
+    <mergeCell ref="F171:I171"/>
+    <mergeCell ref="J171:M171"/>
+    <mergeCell ref="N171:Q171"/>
+    <mergeCell ref="R171:U171"/>
+    <mergeCell ref="AH144:AK144"/>
+    <mergeCell ref="AL144:AO144"/>
+    <mergeCell ref="AP144:AS144"/>
+    <mergeCell ref="AT144:AW144"/>
+    <mergeCell ref="AX144:BA144"/>
+    <mergeCell ref="BB144:BE144"/>
+    <mergeCell ref="BR171:BU171"/>
+    <mergeCell ref="BV171:BY171"/>
+    <mergeCell ref="AX171:BA171"/>
+    <mergeCell ref="BB171:BE171"/>
+    <mergeCell ref="BF171:BI171"/>
+    <mergeCell ref="BJ171:BM171"/>
+    <mergeCell ref="BN171:BQ171"/>
+    <mergeCell ref="B144:E144"/>
+    <mergeCell ref="F195:I195"/>
+    <mergeCell ref="J195:M195"/>
+    <mergeCell ref="N195:Q195"/>
+    <mergeCell ref="R195:U195"/>
+    <mergeCell ref="V195:Y195"/>
+    <mergeCell ref="Z195:AC195"/>
+    <mergeCell ref="AD195:AG195"/>
+    <mergeCell ref="AT171:AW171"/>
+    <mergeCell ref="V171:Y171"/>
+    <mergeCell ref="Z171:AC171"/>
+    <mergeCell ref="AD171:AG171"/>
+    <mergeCell ref="AH171:AK171"/>
+    <mergeCell ref="AL171:AO171"/>
+    <mergeCell ref="AP171:AS171"/>
+    <mergeCell ref="BF195:BI195"/>
+    <mergeCell ref="BJ195:BM195"/>
+    <mergeCell ref="BN195:BQ195"/>
+    <mergeCell ref="BR195:BU195"/>
+    <mergeCell ref="BV195:BY195"/>
+    <mergeCell ref="B219:E219"/>
+    <mergeCell ref="F219:I219"/>
+    <mergeCell ref="J219:M219"/>
+    <mergeCell ref="N219:Q219"/>
+    <mergeCell ref="R219:U219"/>
+    <mergeCell ref="AH195:AK195"/>
+    <mergeCell ref="AL195:AO195"/>
+    <mergeCell ref="AP195:AS195"/>
+    <mergeCell ref="AT195:AW195"/>
+    <mergeCell ref="AX195:BA195"/>
+    <mergeCell ref="BB195:BE195"/>
+    <mergeCell ref="BR219:BU219"/>
+    <mergeCell ref="BV219:BY219"/>
+    <mergeCell ref="AX219:BA219"/>
+    <mergeCell ref="BB219:BE219"/>
+    <mergeCell ref="BF219:BI219"/>
+    <mergeCell ref="BJ219:BM219"/>
+    <mergeCell ref="BN219:BQ219"/>
+    <mergeCell ref="B195:E195"/>
+    <mergeCell ref="F243:I243"/>
+    <mergeCell ref="J243:M243"/>
+    <mergeCell ref="N243:Q243"/>
+    <mergeCell ref="R243:U243"/>
+    <mergeCell ref="V243:Y243"/>
+    <mergeCell ref="Z243:AC243"/>
+    <mergeCell ref="AD243:AG243"/>
+    <mergeCell ref="AT219:AW219"/>
+    <mergeCell ref="V219:Y219"/>
+    <mergeCell ref="Z219:AC219"/>
+    <mergeCell ref="AD219:AG219"/>
+    <mergeCell ref="AH219:AK219"/>
+    <mergeCell ref="AL219:AO219"/>
+    <mergeCell ref="AP219:AS219"/>
+    <mergeCell ref="BF243:BI243"/>
+    <mergeCell ref="BJ243:BM243"/>
+    <mergeCell ref="BN243:BQ243"/>
+    <mergeCell ref="BR243:BU243"/>
+    <mergeCell ref="BV243:BY243"/>
+    <mergeCell ref="AH243:AK243"/>
+    <mergeCell ref="AL243:AO243"/>
+    <mergeCell ref="AP243:AS243"/>
+    <mergeCell ref="AT243:AW243"/>
+    <mergeCell ref="AX243:BA243"/>
+    <mergeCell ref="BB243:BE243"/>
+    <mergeCell ref="AD267:AG267"/>
+    <mergeCell ref="BR267:BU267"/>
+    <mergeCell ref="BV267:BY267"/>
+    <mergeCell ref="B291:E291"/>
+    <mergeCell ref="F291:I291"/>
+    <mergeCell ref="J291:M291"/>
+    <mergeCell ref="N291:Q291"/>
+    <mergeCell ref="R291:U291"/>
+    <mergeCell ref="AH267:AK267"/>
+    <mergeCell ref="AL267:AO267"/>
+    <mergeCell ref="AP267:AS267"/>
+    <mergeCell ref="AT267:AW267"/>
+    <mergeCell ref="AX267:BA267"/>
+    <mergeCell ref="BB267:BE267"/>
+    <mergeCell ref="BR291:BU291"/>
+    <mergeCell ref="BV291:BY291"/>
+    <mergeCell ref="AT291:AW291"/>
+    <mergeCell ref="AX291:BA291"/>
+    <mergeCell ref="BB291:BE291"/>
     <mergeCell ref="FB267:FD267"/>
     <mergeCell ref="FB291:FD291"/>
     <mergeCell ref="EX219:EZ219"/>
@@ -54207,458 +54895,24 @@
     <mergeCell ref="R267:U267"/>
     <mergeCell ref="V267:Y267"/>
     <mergeCell ref="Z267:AC267"/>
-    <mergeCell ref="AD267:AG267"/>
-    <mergeCell ref="BR267:BU267"/>
-    <mergeCell ref="BV267:BY267"/>
-    <mergeCell ref="B291:E291"/>
-    <mergeCell ref="F291:I291"/>
-    <mergeCell ref="J291:M291"/>
-    <mergeCell ref="N291:Q291"/>
-    <mergeCell ref="R291:U291"/>
-    <mergeCell ref="AH267:AK267"/>
-    <mergeCell ref="AL267:AO267"/>
-    <mergeCell ref="AP267:AS267"/>
-    <mergeCell ref="AT267:AW267"/>
-    <mergeCell ref="AX267:BA267"/>
-    <mergeCell ref="BB267:BE267"/>
-    <mergeCell ref="BR291:BU291"/>
-    <mergeCell ref="BV291:BY291"/>
-    <mergeCell ref="AT291:AW291"/>
-    <mergeCell ref="AX291:BA291"/>
-    <mergeCell ref="BB291:BE291"/>
-    <mergeCell ref="BF243:BI243"/>
-    <mergeCell ref="BJ243:BM243"/>
-    <mergeCell ref="BN243:BQ243"/>
-    <mergeCell ref="BR243:BU243"/>
-    <mergeCell ref="BV243:BY243"/>
-    <mergeCell ref="AH243:AK243"/>
-    <mergeCell ref="AL243:AO243"/>
-    <mergeCell ref="AP243:AS243"/>
-    <mergeCell ref="AT243:AW243"/>
-    <mergeCell ref="AX243:BA243"/>
-    <mergeCell ref="BB243:BE243"/>
-    <mergeCell ref="F243:I243"/>
-    <mergeCell ref="J243:M243"/>
-    <mergeCell ref="N243:Q243"/>
-    <mergeCell ref="R243:U243"/>
-    <mergeCell ref="V243:Y243"/>
-    <mergeCell ref="Z243:AC243"/>
-    <mergeCell ref="AD243:AG243"/>
-    <mergeCell ref="AT219:AW219"/>
-    <mergeCell ref="V219:Y219"/>
-    <mergeCell ref="Z219:AC219"/>
-    <mergeCell ref="AD219:AG219"/>
-    <mergeCell ref="AH219:AK219"/>
-    <mergeCell ref="AL219:AO219"/>
-    <mergeCell ref="AP219:AS219"/>
-    <mergeCell ref="BF195:BI195"/>
-    <mergeCell ref="BJ195:BM195"/>
-    <mergeCell ref="BN195:BQ195"/>
-    <mergeCell ref="BR195:BU195"/>
-    <mergeCell ref="BV195:BY195"/>
-    <mergeCell ref="B219:E219"/>
-    <mergeCell ref="F219:I219"/>
-    <mergeCell ref="J219:M219"/>
-    <mergeCell ref="N219:Q219"/>
-    <mergeCell ref="R219:U219"/>
-    <mergeCell ref="AH195:AK195"/>
-    <mergeCell ref="AL195:AO195"/>
-    <mergeCell ref="AP195:AS195"/>
-    <mergeCell ref="AT195:AW195"/>
-    <mergeCell ref="AX195:BA195"/>
-    <mergeCell ref="BB195:BE195"/>
-    <mergeCell ref="BR219:BU219"/>
-    <mergeCell ref="BV219:BY219"/>
-    <mergeCell ref="AX219:BA219"/>
-    <mergeCell ref="BB219:BE219"/>
-    <mergeCell ref="BF219:BI219"/>
-    <mergeCell ref="BJ219:BM219"/>
-    <mergeCell ref="BN219:BQ219"/>
-    <mergeCell ref="B195:E195"/>
-    <mergeCell ref="F195:I195"/>
-    <mergeCell ref="J195:M195"/>
-    <mergeCell ref="N195:Q195"/>
-    <mergeCell ref="R195:U195"/>
-    <mergeCell ref="V195:Y195"/>
-    <mergeCell ref="Z195:AC195"/>
-    <mergeCell ref="AD195:AG195"/>
-    <mergeCell ref="AT171:AW171"/>
-    <mergeCell ref="V171:Y171"/>
-    <mergeCell ref="Z171:AC171"/>
-    <mergeCell ref="AD171:AG171"/>
-    <mergeCell ref="AH171:AK171"/>
-    <mergeCell ref="AL171:AO171"/>
-    <mergeCell ref="AP171:AS171"/>
-    <mergeCell ref="BF144:BI144"/>
-    <mergeCell ref="BJ144:BM144"/>
-    <mergeCell ref="BN144:BQ144"/>
-    <mergeCell ref="BR144:BU144"/>
-    <mergeCell ref="BV144:BY144"/>
-    <mergeCell ref="B171:E171"/>
-    <mergeCell ref="F171:I171"/>
-    <mergeCell ref="J171:M171"/>
-    <mergeCell ref="N171:Q171"/>
-    <mergeCell ref="R171:U171"/>
-    <mergeCell ref="AH144:AK144"/>
-    <mergeCell ref="AL144:AO144"/>
-    <mergeCell ref="AP144:AS144"/>
-    <mergeCell ref="AT144:AW144"/>
-    <mergeCell ref="AX144:BA144"/>
-    <mergeCell ref="BB144:BE144"/>
-    <mergeCell ref="BR171:BU171"/>
-    <mergeCell ref="BV171:BY171"/>
-    <mergeCell ref="AX171:BA171"/>
-    <mergeCell ref="BB171:BE171"/>
-    <mergeCell ref="BF171:BI171"/>
-    <mergeCell ref="BJ171:BM171"/>
-    <mergeCell ref="BN171:BQ171"/>
-    <mergeCell ref="B144:E144"/>
-    <mergeCell ref="F144:I144"/>
-    <mergeCell ref="J144:M144"/>
-    <mergeCell ref="N144:Q144"/>
-    <mergeCell ref="R144:U144"/>
-    <mergeCell ref="V144:Y144"/>
-    <mergeCell ref="Z144:AC144"/>
-    <mergeCell ref="AD144:AG144"/>
-    <mergeCell ref="AT117:AW117"/>
-    <mergeCell ref="V117:Y117"/>
-    <mergeCell ref="Z117:AC117"/>
-    <mergeCell ref="AD117:AG117"/>
-    <mergeCell ref="AH117:AK117"/>
-    <mergeCell ref="AL117:AO117"/>
-    <mergeCell ref="AP117:AS117"/>
-    <mergeCell ref="B117:E117"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="J117:M117"/>
-    <mergeCell ref="N117:Q117"/>
-    <mergeCell ref="R117:U117"/>
-    <mergeCell ref="BR117:BU117"/>
-    <mergeCell ref="BV117:BY117"/>
-    <mergeCell ref="AX117:BA117"/>
-    <mergeCell ref="BB117:BE117"/>
-    <mergeCell ref="BF117:BI117"/>
-    <mergeCell ref="BJ117:BM117"/>
-    <mergeCell ref="BN117:BQ117"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="J90:M90"/>
-    <mergeCell ref="N90:Q90"/>
-    <mergeCell ref="R90:U90"/>
-    <mergeCell ref="AH63:AK63"/>
-    <mergeCell ref="AL63:AO63"/>
-    <mergeCell ref="AP63:AS63"/>
-    <mergeCell ref="AT63:AW63"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="N63:Q63"/>
-    <mergeCell ref="R63:U63"/>
-    <mergeCell ref="V63:Y63"/>
-    <mergeCell ref="Z63:AC63"/>
-    <mergeCell ref="AD63:AG63"/>
-    <mergeCell ref="AT90:AW90"/>
-    <mergeCell ref="V90:Y90"/>
-    <mergeCell ref="Z90:AC90"/>
-    <mergeCell ref="AD90:AG90"/>
-    <mergeCell ref="AH90:AK90"/>
-    <mergeCell ref="AL90:AO90"/>
-    <mergeCell ref="AP90:AS90"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="BJ36:BM36"/>
-    <mergeCell ref="BN36:BQ36"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="R36:U36"/>
-    <mergeCell ref="V36:Y36"/>
-    <mergeCell ref="Z36:AC36"/>
-    <mergeCell ref="AD36:AG36"/>
-    <mergeCell ref="AH36:AK36"/>
-    <mergeCell ref="AL36:AO36"/>
-    <mergeCell ref="AP36:AS36"/>
-    <mergeCell ref="AT36:AW36"/>
-    <mergeCell ref="AX36:BA36"/>
-    <mergeCell ref="BB36:BE36"/>
-    <mergeCell ref="BF36:BI36"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="BJ63:BM63"/>
-    <mergeCell ref="BN63:BQ63"/>
-    <mergeCell ref="BR63:BU63"/>
-    <mergeCell ref="BV63:BY63"/>
-    <mergeCell ref="AX63:BA63"/>
-    <mergeCell ref="BB63:BE63"/>
-    <mergeCell ref="BR90:BU90"/>
-    <mergeCell ref="BV90:BY90"/>
-    <mergeCell ref="AX90:BA90"/>
-    <mergeCell ref="BB90:BE90"/>
-    <mergeCell ref="BF90:BI90"/>
-    <mergeCell ref="BJ90:BM90"/>
-    <mergeCell ref="BN90:BQ90"/>
-    <mergeCell ref="EH291:EK291"/>
-    <mergeCell ref="EL291:EO291"/>
-    <mergeCell ref="EP291:ES291"/>
-    <mergeCell ref="CX267:DA267"/>
-    <mergeCell ref="DB267:DE267"/>
-    <mergeCell ref="BZ267:CC267"/>
-    <mergeCell ref="CD267:CG267"/>
-    <mergeCell ref="CH267:CK267"/>
-    <mergeCell ref="CL267:CO267"/>
-    <mergeCell ref="CP267:CS267"/>
-    <mergeCell ref="CD291:CG291"/>
-    <mergeCell ref="CH291:CK291"/>
-    <mergeCell ref="CL291:CO291"/>
-    <mergeCell ref="CP291:CS291"/>
-    <mergeCell ref="CT291:CW291"/>
-    <mergeCell ref="CX291:DA291"/>
-    <mergeCell ref="DB291:DE291"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="BZ291:CC291"/>
-    <mergeCell ref="BZ219:CC219"/>
-    <mergeCell ref="BZ171:CC171"/>
-    <mergeCell ref="BZ144:CC144"/>
-    <mergeCell ref="BZ63:CC63"/>
-    <mergeCell ref="BZ90:CC90"/>
-    <mergeCell ref="BZ36:CC36"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="BR36:BU36"/>
-    <mergeCell ref="BV36:BY36"/>
-    <mergeCell ref="BF63:BI63"/>
-    <mergeCell ref="DJ243:DM243"/>
-    <mergeCell ref="DN243:DQ243"/>
-    <mergeCell ref="CT267:CW267"/>
-    <mergeCell ref="EX291:FA291"/>
-    <mergeCell ref="DF291:DI291"/>
-    <mergeCell ref="DJ291:DM291"/>
-    <mergeCell ref="DN291:DQ291"/>
-    <mergeCell ref="DR291:DU291"/>
-    <mergeCell ref="DV291:DY291"/>
-    <mergeCell ref="DZ291:EC291"/>
-    <mergeCell ref="ET267:EW267"/>
-    <mergeCell ref="EX267:FA267"/>
-    <mergeCell ref="DV267:DY267"/>
-    <mergeCell ref="DZ267:EC267"/>
-    <mergeCell ref="ED267:EG267"/>
-    <mergeCell ref="EH267:EK267"/>
-    <mergeCell ref="EL267:EO267"/>
-    <mergeCell ref="EP267:ES267"/>
-    <mergeCell ref="DF267:DI267"/>
-    <mergeCell ref="DJ267:DM267"/>
-    <mergeCell ref="DN267:DQ267"/>
-    <mergeCell ref="DR267:DU267"/>
-    <mergeCell ref="ET291:EW291"/>
-    <mergeCell ref="ED291:EG291"/>
-    <mergeCell ref="ET219:EW219"/>
-    <mergeCell ref="BZ243:CC243"/>
-    <mergeCell ref="CD243:CG243"/>
-    <mergeCell ref="CH243:CK243"/>
-    <mergeCell ref="CL243:CO243"/>
-    <mergeCell ref="CP243:CS243"/>
-    <mergeCell ref="DF219:DI219"/>
-    <mergeCell ref="DJ219:DM219"/>
-    <mergeCell ref="DN219:DQ219"/>
-    <mergeCell ref="DR219:DU219"/>
-    <mergeCell ref="DV219:DY219"/>
-    <mergeCell ref="DZ219:EC219"/>
-    <mergeCell ref="EP243:ES243"/>
-    <mergeCell ref="ET243:EW243"/>
-    <mergeCell ref="DV243:DY243"/>
-    <mergeCell ref="DZ243:EC243"/>
-    <mergeCell ref="ED243:EG243"/>
-    <mergeCell ref="EH243:EK243"/>
-    <mergeCell ref="EL243:EO243"/>
-    <mergeCell ref="DR243:DU243"/>
-    <mergeCell ref="CT243:CW243"/>
-    <mergeCell ref="CX243:DA243"/>
-    <mergeCell ref="DB243:DE243"/>
-    <mergeCell ref="DF243:DI243"/>
-    <mergeCell ref="CD219:CG219"/>
-    <mergeCell ref="CH219:CK219"/>
-    <mergeCell ref="CL219:CO219"/>
-    <mergeCell ref="CP219:CS219"/>
-    <mergeCell ref="CT219:CW219"/>
-    <mergeCell ref="CX219:DA219"/>
-    <mergeCell ref="DB219:DE219"/>
-    <mergeCell ref="DV195:DY195"/>
-    <mergeCell ref="BZ195:CC195"/>
-    <mergeCell ref="CD195:CG195"/>
-    <mergeCell ref="ED219:EG219"/>
-    <mergeCell ref="CH195:CK195"/>
-    <mergeCell ref="CL195:CO195"/>
-    <mergeCell ref="CP195:CS195"/>
-    <mergeCell ref="CT195:CW195"/>
-    <mergeCell ref="ED171:EG171"/>
-    <mergeCell ref="EH171:EK171"/>
-    <mergeCell ref="EL171:EO171"/>
-    <mergeCell ref="EP171:ES171"/>
-    <mergeCell ref="DZ195:EC195"/>
-    <mergeCell ref="ED195:EG195"/>
-    <mergeCell ref="EH195:EK195"/>
-    <mergeCell ref="EL195:EO195"/>
-    <mergeCell ref="EP195:ES195"/>
-    <mergeCell ref="CX195:DA195"/>
-    <mergeCell ref="DB195:DE195"/>
-    <mergeCell ref="DF195:DI195"/>
-    <mergeCell ref="DJ195:DM195"/>
-    <mergeCell ref="DN195:DQ195"/>
-    <mergeCell ref="DR195:DU195"/>
-    <mergeCell ref="EH219:EK219"/>
-    <mergeCell ref="EL219:EO219"/>
-    <mergeCell ref="EP219:ES219"/>
-    <mergeCell ref="ET171:EW171"/>
-    <mergeCell ref="ET195:EW195"/>
-    <mergeCell ref="EX171:FA171"/>
-    <mergeCell ref="DF171:DI171"/>
-    <mergeCell ref="DJ171:DM171"/>
-    <mergeCell ref="DN171:DQ171"/>
-    <mergeCell ref="DR171:DU171"/>
-    <mergeCell ref="DV171:DY171"/>
-    <mergeCell ref="DZ171:EC171"/>
-    <mergeCell ref="CD171:CG171"/>
-    <mergeCell ref="CH171:CK171"/>
-    <mergeCell ref="CL171:CO171"/>
-    <mergeCell ref="CP171:CS171"/>
-    <mergeCell ref="CT171:CW171"/>
-    <mergeCell ref="CX171:DA171"/>
-    <mergeCell ref="DB171:DE171"/>
-    <mergeCell ref="DV144:DY144"/>
-    <mergeCell ref="CX144:DA144"/>
-    <mergeCell ref="DB144:DE144"/>
-    <mergeCell ref="DF144:DI144"/>
-    <mergeCell ref="DJ144:DM144"/>
-    <mergeCell ref="DN144:DQ144"/>
-    <mergeCell ref="DR144:DU144"/>
-    <mergeCell ref="CD144:CG144"/>
-    <mergeCell ref="CH144:CK144"/>
-    <mergeCell ref="CL144:CO144"/>
-    <mergeCell ref="CP144:CS144"/>
-    <mergeCell ref="CT144:CW144"/>
-    <mergeCell ref="BZ117:CC117"/>
-    <mergeCell ref="CD117:CG117"/>
-    <mergeCell ref="CH117:CK117"/>
-    <mergeCell ref="CL117:CO117"/>
-    <mergeCell ref="CP117:CS117"/>
-    <mergeCell ref="CT117:CW117"/>
-    <mergeCell ref="CX117:DA117"/>
-    <mergeCell ref="DB117:DE117"/>
-    <mergeCell ref="ED117:EG117"/>
-    <mergeCell ref="DF117:DI117"/>
-    <mergeCell ref="DJ117:DM117"/>
-    <mergeCell ref="DN117:DQ117"/>
-    <mergeCell ref="DR117:DU117"/>
-    <mergeCell ref="DV117:DY117"/>
-    <mergeCell ref="DZ117:EC117"/>
-    <mergeCell ref="CP63:CS63"/>
-    <mergeCell ref="CT63:CW63"/>
-    <mergeCell ref="CT90:CW90"/>
-    <mergeCell ref="CX90:DA90"/>
-    <mergeCell ref="DB90:DE90"/>
-    <mergeCell ref="CX63:DA63"/>
-    <mergeCell ref="DB63:DE63"/>
-    <mergeCell ref="ET144:EW144"/>
-    <mergeCell ref="EX144:FA144"/>
-    <mergeCell ref="DZ144:EC144"/>
-    <mergeCell ref="ED144:EG144"/>
-    <mergeCell ref="EH144:EK144"/>
-    <mergeCell ref="EL144:EO144"/>
-    <mergeCell ref="EP144:ES144"/>
-    <mergeCell ref="EH117:EK117"/>
-    <mergeCell ref="EL117:EO117"/>
-    <mergeCell ref="EP117:ES117"/>
-    <mergeCell ref="ET117:EW117"/>
-    <mergeCell ref="EX117:FA117"/>
-    <mergeCell ref="ET63:EW63"/>
-    <mergeCell ref="DV63:DY63"/>
-    <mergeCell ref="DZ63:EC63"/>
-    <mergeCell ref="ED63:EG63"/>
-    <mergeCell ref="EH63:EK63"/>
-    <mergeCell ref="EL63:EO63"/>
-    <mergeCell ref="EP63:ES63"/>
-    <mergeCell ref="CD63:CG63"/>
-    <mergeCell ref="EH90:EK90"/>
-    <mergeCell ref="EL90:EO90"/>
-    <mergeCell ref="EP90:ES90"/>
-    <mergeCell ref="ET90:EW90"/>
-    <mergeCell ref="DJ90:DM90"/>
-    <mergeCell ref="DN90:DQ90"/>
-    <mergeCell ref="DR90:DU90"/>
-    <mergeCell ref="DV90:DY90"/>
-    <mergeCell ref="DZ90:EC90"/>
-    <mergeCell ref="ED90:EG90"/>
-    <mergeCell ref="CD90:CG90"/>
-    <mergeCell ref="CH90:CK90"/>
-    <mergeCell ref="CL90:CO90"/>
-    <mergeCell ref="CP90:CS90"/>
-    <mergeCell ref="CH63:CK63"/>
-    <mergeCell ref="CL63:CO63"/>
-    <mergeCell ref="DF90:DI90"/>
-    <mergeCell ref="DF63:DI63"/>
-    <mergeCell ref="DJ63:DM63"/>
-    <mergeCell ref="DN63:DQ63"/>
-    <mergeCell ref="DR63:DU63"/>
-    <mergeCell ref="DV36:DY36"/>
-    <mergeCell ref="DZ36:EC36"/>
-    <mergeCell ref="ET9:EW9"/>
-    <mergeCell ref="EX9:FA9"/>
-    <mergeCell ref="DZ9:EC9"/>
-    <mergeCell ref="ED9:EG9"/>
-    <mergeCell ref="EH9:EK9"/>
-    <mergeCell ref="EL9:EO9"/>
-    <mergeCell ref="EP9:ES9"/>
-    <mergeCell ref="EH36:EK36"/>
-    <mergeCell ref="EL36:EO36"/>
-    <mergeCell ref="EP36:ES36"/>
-    <mergeCell ref="ET36:EW36"/>
-    <mergeCell ref="ED36:EG36"/>
-    <mergeCell ref="FB9:FE9"/>
-    <mergeCell ref="CD36:CG36"/>
-    <mergeCell ref="CH36:CK36"/>
-    <mergeCell ref="CL36:CO36"/>
-    <mergeCell ref="CP36:CS36"/>
-    <mergeCell ref="CT36:CW36"/>
-    <mergeCell ref="CX36:DA36"/>
-    <mergeCell ref="DB36:DE36"/>
-    <mergeCell ref="DV9:DY9"/>
-    <mergeCell ref="CX9:DA9"/>
-    <mergeCell ref="DB9:DE9"/>
-    <mergeCell ref="DF9:DI9"/>
-    <mergeCell ref="DJ9:DM9"/>
-    <mergeCell ref="DN9:DQ9"/>
-    <mergeCell ref="DR9:DU9"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CP9:CS9"/>
-    <mergeCell ref="CT9:CW9"/>
-    <mergeCell ref="DF36:DI36"/>
-    <mergeCell ref="DJ36:DM36"/>
-    <mergeCell ref="DN36:DQ36"/>
-    <mergeCell ref="DR36:DU36"/>
+    <mergeCell ref="FB36:FD36"/>
+    <mergeCell ref="EX63:FA63"/>
+    <mergeCell ref="EX90:FA90"/>
+    <mergeCell ref="FB117:FD117"/>
+    <mergeCell ref="FB144:FD144"/>
+    <mergeCell ref="FB171:FD171"/>
+    <mergeCell ref="FB195:FD195"/>
+    <mergeCell ref="EX195:FA195"/>
+    <mergeCell ref="EX36:FA36"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="EX66:EY73">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EX93:EY100">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Data/National Accounts/PSA-Quarter-Q1-1981-to-latest.xlsx
+++ b/Data/National Accounts/PSA-Quarter-Q1-1981-to-latest.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonny Gutierrez\Desktop\Web Release\Q3 2021\For Posting\Time Series Data (after presscon)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonny Gutierrez\Desktop\Web Release\Q4 2021\Time Series data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F458A6F-335F-4979-AB35-BB7528854507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17981963-4DD4-454B-B14A-451B4CEAB850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="324" windowWidth="20376" windowHeight="12216" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Q1 1981 to Q2 2020" sheetId="5" r:id="rId1"/>
+    <sheet name="Q1 1981 to Q4 2021" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="AFF_Cons">#REF!</definedName>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="82">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -338,13 +338,13 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of November 2021</t>
+    <t>As of January 2022</t>
   </si>
   <si>
-    <t>Q1 1981 to Q3 2021</t>
+    <t>Q1 1981 to Q4 2021</t>
   </si>
   <si>
-    <t>Q1 1982 to Q3 2021</t>
+    <t>Q1 1982 to Q4 2021</t>
   </si>
 </sst>
 </file>
@@ -790,11 +790,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FH313"/>
+  <dimension ref="A1:FI313"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="FA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FK274" sqref="FK274"/>
+      <selection pane="topRight" activeCell="FC285" sqref="FC285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -875,47 +875,49 @@
     <col min="159" max="159" width="14" style="2" customWidth="1"/>
     <col min="160" max="160" width="14.453125" style="2" customWidth="1"/>
     <col min="161" max="161" width="14.1796875" style="2" customWidth="1"/>
-    <col min="162" max="164" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="165" max="16384" width="9.26953125" style="2"/>
+    <col min="162" max="162" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="163" max="164" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="166" max="16384" width="9.26953125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="29">
         <v>1981</v>
@@ -1162,8 +1164,9 @@
       </c>
       <c r="FG9" s="29"/>
       <c r="FH9" s="29"/>
+      <c r="FI9" s="29"/>
     </row>
-    <row r="10" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1656,11 +1659,14 @@
       <c r="FH10" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="FI10" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="11" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:165" x14ac:dyDescent="0.3">
       <c r="FB11" s="2"/>
     </row>
-    <row r="12" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -2151,10 +2157,13 @@
         <v>3395451.2801445238</v>
       </c>
       <c r="FH12" s="7">
-        <v>3583418.7969846404</v>
+        <v>3581734.0674683698</v>
+      </c>
+      <c r="FI12" s="7">
+        <v>4234308.3718459224</v>
       </c>
     </row>
-    <row r="13" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -2645,10 +2654,13 @@
         <v>817408.4911648453</v>
       </c>
       <c r="FH13" s="7">
-        <v>746676.76641403791</v>
+        <v>747842.64722821419</v>
+      </c>
+      <c r="FI13" s="7">
+        <v>819987.41099178046</v>
       </c>
     </row>
-    <row r="14" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -3139,10 +3151,13 @@
         <v>1125662.0196367416</v>
       </c>
       <c r="FH14" s="7">
-        <v>964707.36067736696</v>
+        <v>959704.33971656649</v>
+      </c>
+      <c r="FI14" s="7">
+        <v>1178863.0129272959</v>
       </c>
     </row>
-    <row r="15" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -3633,10 +3648,13 @@
         <v>1165222.1432899851</v>
       </c>
       <c r="FH15" s="7">
-        <v>1282724.4438212959</v>
+        <v>1284249.3355207758</v>
+      </c>
+      <c r="FI15" s="7">
+        <v>1346673.4218146382</v>
       </c>
     </row>
-    <row r="16" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -4127,10 +4145,13 @@
         <v>1775657.428299173</v>
       </c>
       <c r="FH16" s="7">
-        <v>1939696.1704020649</v>
+        <v>1937206.9076430802</v>
+      </c>
+      <c r="FI16" s="7">
+        <v>1966335.1295479625</v>
       </c>
     </row>
-    <row r="17" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -4621,10 +4642,13 @@
         <v>30816.123339849524</v>
       </c>
       <c r="FH17" s="7">
-        <v>-27840.383711998351</v>
+        <v>-39150.602793686092</v>
+      </c>
+      <c r="FI17" s="7">
+        <v>53937.058083261363</v>
       </c>
     </row>
-    <row r="18" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:165" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4788,8 +4812,9 @@
       <c r="FF18" s="7"/>
       <c r="FG18" s="7"/>
       <c r="FH18" s="7"/>
+      <c r="FI18" s="7"/>
     </row>
-    <row r="19" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>10</v>
       </c>
@@ -5280,10 +5305,13 @@
         <v>4758902.629276773</v>
       </c>
       <c r="FH19" s="7">
-        <v>4609990.8137832778</v>
+        <v>4597172.8794971611</v>
+      </c>
+      <c r="FI19" s="7">
+        <v>5667434.1461149352</v>
       </c>
     </row>
-    <row r="20" spans="1:164" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:165" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -5441,7 +5469,7 @@
       <c r="EZ20" s="7"/>
       <c r="FA20" s="7"/>
     </row>
-    <row r="21" spans="1:164" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:165" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -5599,7 +5627,7 @@
       <c r="EZ21" s="7"/>
       <c r="FA21" s="7"/>
     </row>
-    <row r="22" spans="1:164" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:165" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -5757,7 +5785,7 @@
       <c r="EZ22" s="7"/>
       <c r="FA22" s="7"/>
     </row>
-    <row r="23" spans="1:164" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:165" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -5915,7 +5943,7 @@
       <c r="EZ23" s="7"/>
       <c r="FA23" s="7"/>
     </row>
-    <row r="24" spans="1:164" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:165" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -6080,50 +6108,51 @@
       <c r="FF24" s="9"/>
       <c r="FG24" s="9"/>
       <c r="FH24" s="9"/>
+      <c r="FI24" s="9"/>
     </row>
-    <row r="25" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="BY25" s="10"/>
     </row>
-    <row r="28" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="29">
         <v>1981</v>
@@ -6370,8 +6399,9 @@
       </c>
       <c r="FG36" s="29"/>
       <c r="FH36" s="29"/>
+      <c r="FI36" s="29"/>
     </row>
-    <row r="37" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>14</v>
       </c>
@@ -6864,11 +6894,14 @@
       <c r="FH37" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="FI37" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="38" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:165" x14ac:dyDescent="0.3">
       <c r="FB38" s="2"/>
     </row>
-    <row r="39" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>1</v>
       </c>
@@ -7359,10 +7392,13 @@
         <v>3130923.6869703522</v>
       </c>
       <c r="FH39" s="7">
-        <v>3246818.3372662989</v>
+        <v>3244665.8744557695</v>
+      </c>
+      <c r="FI39" s="7">
+        <v>3923937.9775495995</v>
       </c>
     </row>
-    <row r="40" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
@@ -7853,10 +7889,13 @@
         <v>813789.9172483572</v>
       </c>
       <c r="FH40" s="7">
-        <v>692311.25834554143</v>
+        <v>693392.47544823901</v>
+      </c>
+      <c r="FI40" s="7">
+        <v>680814.67417583161</v>
       </c>
     </row>
-    <row r="41" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -8347,10 +8386,13 @@
         <v>1135332.5997935922</v>
       </c>
       <c r="FH41" s="7">
-        <v>913667.8374508972</v>
+        <v>904430.34413007263</v>
+      </c>
+      <c r="FI41" s="7">
+        <v>1119260.4872666011</v>
       </c>
     </row>
-    <row r="42" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>4</v>
       </c>
@@ -8841,10 +8883,13 @@
         <v>1286311.1346979465</v>
       </c>
       <c r="FH42" s="7">
-        <v>1349616.2269866425</v>
+        <v>1350406.0385106029</v>
+      </c>
+      <c r="FI42" s="7">
+        <v>1264384.3573735328</v>
       </c>
     </row>
-    <row r="43" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>5</v>
       </c>
@@ -9335,10 +9380,13 @@
         <v>1756087.5704188191</v>
       </c>
       <c r="FH43" s="7">
-        <v>1735683.9313510933</v>
+        <v>1732859.8894288517</v>
+      </c>
+      <c r="FI43" s="7">
+        <v>1811818.2800981351</v>
       </c>
     </row>
-    <row r="44" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>6</v>
       </c>
@@ -9829,10 +9877,13 @@
         <v>26476.320933525451</v>
       </c>
       <c r="FH44" s="7">
-        <v>-37761.203566698357</v>
+        <v>-41308.560493206605</v>
+      </c>
+      <c r="FI44" s="7">
+        <v>18640.158528892323</v>
       </c>
     </row>
-    <row r="45" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:165" x14ac:dyDescent="0.3">
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -9996,8 +10047,9 @@
       <c r="FF45" s="7"/>
       <c r="FG45" s="7"/>
       <c r="FH45" s="7"/>
+      <c r="FI45" s="7"/>
     </row>
-    <row r="46" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>10</v>
       </c>
@@ -10488,10 +10540,13 @@
         <v>4636746.0892249551</v>
       </c>
       <c r="FH46" s="7">
-        <v>4428968.5251315888</v>
+        <v>4418726.2826226261</v>
+      </c>
+      <c r="FI46" s="7">
+        <v>5195219.3747963216</v>
       </c>
     </row>
-    <row r="47" spans="1:164" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:165" hidden="1" x14ac:dyDescent="0.3">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -10649,7 +10704,7 @@
       <c r="EZ47" s="7"/>
       <c r="FA47" s="7"/>
     </row>
-    <row r="48" spans="1:164" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:165" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -10807,7 +10862,7 @@
       <c r="EZ48" s="7"/>
       <c r="FA48" s="7"/>
     </row>
-    <row r="49" spans="1:164" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:165" hidden="1" x14ac:dyDescent="0.3">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -10965,7 +11020,7 @@
       <c r="EZ49" s="7"/>
       <c r="FA49" s="7"/>
     </row>
-    <row r="50" spans="1:164" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:165" hidden="1" x14ac:dyDescent="0.3">
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -11123,7 +11178,7 @@
       <c r="EZ50" s="7"/>
       <c r="FA50" s="7"/>
     </row>
-    <row r="51" spans="1:164" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:165" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -11288,36 +11343,37 @@
       <c r="FF51" s="9"/>
       <c r="FG51" s="9"/>
       <c r="FH51" s="9"/>
+      <c r="FI51" s="9"/>
     </row>
-    <row r="52" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>81</v>
       </c>
@@ -11326,7 +11382,7 @@
       <c r="FD60" s="28"/>
       <c r="FE60" s="28"/>
     </row>
-    <row r="61" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>19</v>
       </c>
@@ -11335,14 +11391,14 @@
       <c r="FD61" s="28"/>
       <c r="FE61" s="28"/>
     </row>
-    <row r="62" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="FB62" s="28"/>
       <c r="FC62" s="28"/>
       <c r="FD62" s="28"/>
       <c r="FE62" s="28"/>
     </row>
-    <row r="63" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="29" t="s">
         <v>55</v>
@@ -11583,9 +11639,9 @@
       </c>
       <c r="FC63" s="29"/>
       <c r="FD63" s="29"/>
-      <c r="FE63" s="28"/>
+      <c r="FE63" s="29"/>
     </row>
-    <row r="64" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>14</v>
       </c>
@@ -12066,7 +12122,9 @@
       <c r="FD64" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="FE64" s="28"/>
+      <c r="FE64" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="65" spans="1:161" x14ac:dyDescent="0.3">
       <c r="FB65" s="28"/>
@@ -12553,9 +12611,11 @@
         <v>11.584335359879219</v>
       </c>
       <c r="FD66" s="26">
-        <v>11.594803015704841</v>
-      </c>
-      <c r="FE66" s="28"/>
+        <v>11.54233718093802</v>
+      </c>
+      <c r="FE66" s="26">
+        <v>11.368632691792939</v>
+      </c>
     </row>
     <row r="67" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
@@ -13036,7 +13096,10 @@
         <v>-1.457461655925826</v>
       </c>
       <c r="FD67" s="25">
-        <v>16.751861962242472</v>
+        <v>16.93416140157666</v>
+      </c>
+      <c r="FE67" s="25">
+        <v>10.428180295683262</v>
       </c>
     </row>
     <row r="68" spans="1:161" x14ac:dyDescent="0.3">
@@ -13518,7 +13581,10 @@
         <v>115.66075094911974</v>
       </c>
       <c r="FD68" s="25">
-        <v>38.65108834178011</v>
+        <v>37.93203681435665</v>
+      </c>
+      <c r="FE68" s="25">
+        <v>25.124772932205431</v>
       </c>
     </row>
     <row r="69" spans="1:161" x14ac:dyDescent="0.3">
@@ -14000,7 +14066,10 @@
         <v>29.366073403019982</v>
       </c>
       <c r="FD69" s="25">
-        <v>14.614387591579288</v>
+        <v>14.75064018200996</v>
+      </c>
+      <c r="FE69" s="25">
+        <v>13.375202749161488</v>
       </c>
     </row>
     <row r="70" spans="1:161" x14ac:dyDescent="0.3">
@@ -14482,7 +14551,10 @@
         <v>54.729507857133029</v>
       </c>
       <c r="FD70" s="25">
-        <v>29.009897892539186</v>
+        <v>28.844336120925362</v>
+      </c>
+      <c r="FE70" s="25">
+        <v>30.883128638073345</v>
       </c>
     </row>
     <row r="71" spans="1:161" x14ac:dyDescent="0.3">
@@ -14645,6 +14717,7 @@
       <c r="FB71" s="26"/>
       <c r="FC71" s="25"/>
       <c r="FD71" s="25"/>
+      <c r="FE71" s="25"/>
     </row>
     <row r="72" spans="1:161" x14ac:dyDescent="0.3">
       <c r="B72" s="13"/>
@@ -14806,6 +14879,7 @@
       <c r="FB72" s="26"/>
       <c r="FC72" s="25"/>
       <c r="FD72" s="25"/>
+      <c r="FE72" s="25"/>
     </row>
     <row r="73" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
@@ -15286,7 +15360,10 @@
         <v>15.097704130874263</v>
       </c>
       <c r="FD73" s="25">
-        <v>9.6848415311552145</v>
+        <v>9.3798662833247874</v>
+      </c>
+      <c r="FE73" s="25">
+        <v>9.9374818372740066</v>
       </c>
     </row>
     <row r="74" spans="1:161" hidden="1" x14ac:dyDescent="0.3">
@@ -16070,6 +16147,7 @@
       <c r="FB78" s="9"/>
       <c r="FC78" s="9"/>
       <c r="FD78" s="9"/>
+      <c r="FE78" s="9"/>
     </row>
     <row r="79" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
@@ -16081,43 +16159,43 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
     </row>
-    <row r="90" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="29" t="s">
         <v>55</v>
@@ -16358,8 +16436,9 @@
       </c>
       <c r="FC90" s="29"/>
       <c r="FD90" s="29"/>
+      <c r="FE90" s="29"/>
     </row>
-    <row r="91" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>14</v>
       </c>
@@ -16840,8 +16919,11 @@
       <c r="FD91" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="FE91" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="93" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>1</v>
       </c>
@@ -17320,10 +17402,13 @@
         <v>7.279121571859875</v>
       </c>
       <c r="FD93" s="25">
-        <v>7.1264810914908168</v>
+        <v>7.0554620991666326</v>
+      </c>
+      <c r="FE93" s="25">
+        <v>7.504015973172244</v>
       </c>
     </row>
-    <row r="94" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>2</v>
       </c>
@@ -17802,10 +17887,13 @@
         <v>-4.1722904664369054</v>
       </c>
       <c r="FD94" s="25">
-        <v>13.617081338740107</v>
+        <v>13.794522814696435</v>
+      </c>
+      <c r="FE94" s="25">
+        <v>7.3661668156632203</v>
       </c>
     </row>
-    <row r="95" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>3</v>
       </c>
@@ -18284,10 +18372,13 @@
         <v>80.342624560388828</v>
       </c>
       <c r="FD95" s="25">
-        <v>22.030947456258417</v>
+        <v>20.797172975144917</v>
+      </c>
+      <c r="FE95" s="25">
+        <v>12.566766868276332</v>
       </c>
     </row>
-    <row r="96" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>4</v>
       </c>
@@ -18766,10 +18857,13 @@
         <v>27.777495857134397</v>
       </c>
       <c r="FD96" s="25">
-        <v>9.0448467843347515</v>
+        <v>9.108661130144057</v>
+      </c>
+      <c r="FE96" s="25">
+        <v>8.308794999856616</v>
       </c>
     </row>
-    <row r="97" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>5</v>
       </c>
@@ -19248,10 +19342,13 @@
         <v>39.842256725089385</v>
       </c>
       <c r="FD97" s="25">
-        <v>13.191599876750601</v>
+        <v>13.007431654919628</v>
+      </c>
+      <c r="FE97" s="25">
+        <v>13.699133571828497</v>
       </c>
     </row>
-    <row r="98" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:161" x14ac:dyDescent="0.3">
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
@@ -19411,8 +19508,9 @@
       <c r="FB98" s="26"/>
       <c r="FC98" s="25"/>
       <c r="FD98" s="25"/>
+      <c r="FE98" s="25"/>
     </row>
-    <row r="99" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:161" x14ac:dyDescent="0.3">
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
@@ -19572,8 +19670,9 @@
       <c r="FB99" s="26"/>
       <c r="FC99" s="25"/>
       <c r="FD99" s="25"/>
+      <c r="FE99" s="25"/>
     </row>
-    <row r="100" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
         <v>10</v>
       </c>
@@ -20052,10 +20151,13 @@
         <v>12.018991067786217</v>
       </c>
       <c r="FD100" s="25">
-        <v>7.138348738301886</v>
+        <v>6.8905851916519509</v>
+      </c>
+      <c r="FE100" s="25">
+        <v>7.7027121864861954</v>
       </c>
     </row>
-    <row r="101" spans="1:160" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:161" hidden="1" x14ac:dyDescent="0.3">
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
@@ -20209,7 +20311,7 @@
       <c r="EV101" s="13"/>
       <c r="EW101" s="13"/>
     </row>
-    <row r="102" spans="1:160" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:161" hidden="1" x14ac:dyDescent="0.3">
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
@@ -20363,7 +20465,7 @@
       <c r="EV102" s="13"/>
       <c r="EW102" s="13"/>
     </row>
-    <row r="103" spans="1:160" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:161" hidden="1" x14ac:dyDescent="0.3">
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
@@ -20517,7 +20619,7 @@
       <c r="EV103" s="13"/>
       <c r="EW103" s="13"/>
     </row>
-    <row r="104" spans="1:160" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:161" hidden="1" x14ac:dyDescent="0.3">
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
@@ -20671,7 +20773,7 @@
       <c r="EV104" s="13"/>
       <c r="EW104" s="13"/>
     </row>
-    <row r="105" spans="1:160" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:161" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -20832,54 +20934,55 @@
       <c r="FB105" s="9"/>
       <c r="FC105" s="9"/>
       <c r="FD105" s="9"/>
+      <c r="FE105" s="9"/>
     </row>
-    <row r="106" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="109" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="112" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
     </row>
-    <row r="113" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A114" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="115" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="116" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
     </row>
-    <row r="117" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A117" s="4"/>
       <c r="B117" s="29">
         <v>1981</v>
@@ -21126,8 +21229,9 @@
       </c>
       <c r="FG117" s="29"/>
       <c r="FH117" s="29"/>
+      <c r="FI117" s="29"/>
     </row>
-    <row r="118" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>14</v>
       </c>
@@ -21620,11 +21724,14 @@
       <c r="FH118" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="FI118" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="119" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:165" x14ac:dyDescent="0.3">
       <c r="FB119" s="2"/>
     </row>
-    <row r="120" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>1</v>
       </c>
@@ -22115,10 +22222,13 @@
         <v>71.349458996191785</v>
       </c>
       <c r="FH120" s="25">
-        <v>77.731582160005189</v>
+        <v>77.911667917525435</v>
+      </c>
+      <c r="FI120" s="25">
+        <v>74.712969973344457</v>
       </c>
     </row>
-    <row r="121" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>2</v>
       </c>
@@ -22609,10 +22719,13 @@
         <v>17.176407143448312</v>
       </c>
       <c r="FH121" s="25">
-        <v>16.196925255936971</v>
+        <v>16.267446685842565</v>
+      </c>
+      <c r="FI121" s="25">
+        <v>14.468406510799731</v>
       </c>
     </row>
-    <row r="122" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>3</v>
       </c>
@@ -23103,10 +23216,13 @@
         <v>23.653814909169771</v>
       </c>
       <c r="FH122" s="25">
-        <v>20.926448655667958</v>
+        <v>20.875968010616539</v>
+      </c>
+      <c r="FI122" s="25">
+        <v>20.80064774524843</v>
       </c>
     </row>
-    <row r="123" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>4</v>
       </c>
@@ -23597,10 +23713,13 @@
         <v>24.485101588789345</v>
       </c>
       <c r="FH123" s="25">
-        <v>27.824880691434682</v>
+        <v>27.935632815732763</v>
+      </c>
+      <c r="FI123" s="25">
+        <v>23.761606877034328</v>
       </c>
     </row>
-    <row r="124" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>5</v>
       </c>
@@ -24091,10 +24210,13 @@
         <v>37.312329472246965</v>
       </c>
       <c r="FH124" s="25">
-        <v>42.075922680857055</v>
+        <v>42.139091968518095</v>
+      </c>
+      <c r="FI124" s="25">
+        <v>34.695332647065669</v>
       </c>
     </row>
-    <row r="125" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:165" x14ac:dyDescent="0.3">
       <c r="B125" s="13">
         <v>10.790109715083961</v>
       </c>
@@ -24410,8 +24532,9 @@
       <c r="FF125" s="25"/>
       <c r="FG125" s="25"/>
       <c r="FH125" s="25"/>
+      <c r="FI125" s="25"/>
     </row>
-    <row r="126" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:165" x14ac:dyDescent="0.3">
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
@@ -24575,8 +24698,9 @@
       <c r="FF126" s="25"/>
       <c r="FG126" s="25"/>
       <c r="FH126" s="25"/>
+      <c r="FI126" s="25"/>
     </row>
-    <row r="127" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
         <v>10</v>
       </c>
@@ -25069,8 +25193,11 @@
       <c r="FH127" s="25">
         <v>100</v>
       </c>
+      <c r="FI127" s="25">
+        <v>100</v>
+      </c>
     </row>
-    <row r="128" spans="1:164" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:165" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="13">
         <v>0</v>
       </c>
@@ -25230,7 +25357,7 @@
       <c r="EZ128" s="13"/>
       <c r="FA128" s="13"/>
     </row>
-    <row r="129" spans="1:164" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:165" hidden="1" x14ac:dyDescent="0.3">
       <c r="B129" s="13">
         <v>0</v>
       </c>
@@ -25390,7 +25517,7 @@
       <c r="EZ129" s="13"/>
       <c r="FA129" s="13"/>
     </row>
-    <row r="130" spans="1:164" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:165" hidden="1" x14ac:dyDescent="0.3">
       <c r="B130" s="13">
         <v>0</v>
       </c>
@@ -25550,7 +25677,7 @@
       <c r="EZ130" s="13"/>
       <c r="FA130" s="13"/>
     </row>
-    <row r="131" spans="1:164" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:165" hidden="1" x14ac:dyDescent="0.3">
       <c r="B131" s="13">
         <v>0</v>
       </c>
@@ -25710,7 +25837,7 @@
       <c r="EZ131" s="13"/>
       <c r="FA131" s="13"/>
     </row>
-    <row r="132" spans="1:164" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:165" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -25875,34 +26002,35 @@
       <c r="FF132" s="9"/>
       <c r="FG132" s="9"/>
       <c r="FH132" s="9"/>
+      <c r="FI132" s="9"/>
     </row>
-    <row r="133" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="139" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="FC139" s="3"/>
       <c r="FD139" s="3"/>
       <c r="FE139" s="3"/>
     </row>
-    <row r="140" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>46</v>
       </c>
@@ -25910,7 +26038,7 @@
       <c r="FD140" s="3"/>
       <c r="FE140" s="3"/>
     </row>
-    <row r="141" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A141" s="11" t="s">
         <v>80</v>
       </c>
@@ -25918,7 +26046,7 @@
       <c r="FD141" s="3"/>
       <c r="FE141" s="3"/>
     </row>
-    <row r="142" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>54</v>
       </c>
@@ -25926,13 +26054,13 @@
       <c r="FD142" s="3"/>
       <c r="FE142" s="3"/>
     </row>
-    <row r="143" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="FC143" s="3"/>
       <c r="FD143" s="3"/>
       <c r="FE143" s="3"/>
     </row>
-    <row r="144" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A144" s="4"/>
       <c r="B144" s="29">
         <v>1981</v>
@@ -26179,8 +26307,9 @@
       </c>
       <c r="FG144" s="29"/>
       <c r="FH144" s="29"/>
+      <c r="FI144" s="29"/>
     </row>
-    <row r="145" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>14</v>
       </c>
@@ -26673,11 +26802,14 @@
       <c r="FH145" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="FI145" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="146" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:165" x14ac:dyDescent="0.3">
       <c r="FB146" s="2"/>
     </row>
-    <row r="147" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>1</v>
       </c>
@@ -27168,10 +27300,13 @@
         <v>67.524156525329488</v>
       </c>
       <c r="FH147" s="25">
-        <v>73.3086794101756</v>
+        <v>73.429890582178771</v>
+      </c>
+      <c r="FI147" s="25">
+        <v>75.529784104707559</v>
       </c>
     </row>
-    <row r="148" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>2</v>
       </c>
@@ -27662,10 +27797,13 @@
         <v>17.550883779024968</v>
       </c>
       <c r="FH148" s="25">
-        <v>15.631433242686507</v>
+        <v>15.692134590348353</v>
+      </c>
+      <c r="FI148" s="25">
+        <v>13.104637649733952</v>
       </c>
     </row>
-    <row r="149" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>3</v>
       </c>
@@ -28156,10 +28294,13 @@
         <v>24.485546069298916</v>
       </c>
       <c r="FH149" s="25">
-        <v>20.629359460705384</v>
+        <v>20.468123307091794</v>
+      </c>
+      <c r="FI149" s="25">
+        <v>21.544046680617441</v>
       </c>
     </row>
-    <row r="150" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>4</v>
       </c>
@@ -28650,10 +28791,13 @@
         <v>27.741677244029482</v>
       </c>
       <c r="FH150" s="25">
-        <v>30.472472751351155</v>
+        <v>30.560979615806904</v>
+      </c>
+      <c r="FI150" s="25">
+        <v>24.337458462436977</v>
       </c>
     </row>
-    <row r="151" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>5</v>
       </c>
@@ -29144,10 +29288,13 @@
         <v>37.873274417585243</v>
       </c>
       <c r="FH151" s="25">
-        <v>39.189348976001689</v>
+        <v>39.21627588121062</v>
+      </c>
+      <c r="FI151" s="25">
+        <v>34.87472134262218</v>
       </c>
     </row>
-    <row r="152" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:165" x14ac:dyDescent="0.3">
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
       <c r="D152" s="13"/>
@@ -29311,8 +29458,9 @@
       <c r="FF152" s="25"/>
       <c r="FG152" s="25"/>
       <c r="FH152" s="25"/>
+      <c r="FI152" s="25"/>
     </row>
-    <row r="153" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:165" x14ac:dyDescent="0.3">
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
       <c r="D153" s="13"/>
@@ -29476,8 +29624,9 @@
       <c r="FF153" s="25"/>
       <c r="FG153" s="25"/>
       <c r="FH153" s="25"/>
+      <c r="FI153" s="25"/>
     </row>
-    <row r="154" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A154" s="8" t="s">
         <v>10</v>
       </c>
@@ -29970,8 +30119,11 @@
       <c r="FH154" s="25">
         <v>100</v>
       </c>
+      <c r="FI154" s="25">
+        <v>100</v>
+      </c>
     </row>
-    <row r="155" spans="1:164" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:165" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
       <c r="D155" s="13"/>
@@ -30129,7 +30281,7 @@
       <c r="EZ155" s="13"/>
       <c r="FA155" s="13"/>
     </row>
-    <row r="156" spans="1:164" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:165" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
       <c r="D156" s="13"/>
@@ -30287,7 +30439,7 @@
       <c r="EZ156" s="13"/>
       <c r="FA156" s="13"/>
     </row>
-    <row r="157" spans="1:164" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:165" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
       <c r="D157" s="13"/>
@@ -30445,7 +30597,7 @@
       <c r="EZ157" s="13"/>
       <c r="FA157" s="13"/>
     </row>
-    <row r="158" spans="1:164" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:165" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
       <c r="D158" s="13"/>
@@ -30603,7 +30755,7 @@
       <c r="EZ158" s="13"/>
       <c r="FA158" s="13"/>
     </row>
-    <row r="159" spans="1:164" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:165" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
@@ -30768,31 +30920,32 @@
       <c r="FF159" s="9"/>
       <c r="FG159" s="9"/>
       <c r="FH159" s="9"/>
+      <c r="FI159" s="9"/>
     </row>
-    <row r="160" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="166" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
     </row>
-    <row r="167" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>47</v>
       </c>
@@ -30800,7 +30953,7 @@
       <c r="FD167" s="3"/>
       <c r="FE167" s="3"/>
     </row>
-    <row r="168" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A168" s="11" t="s">
         <v>80</v>
       </c>
@@ -30808,7 +30961,7 @@
       <c r="FD168" s="3"/>
       <c r="FE168" s="3"/>
     </row>
-    <row r="169" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>11</v>
       </c>
@@ -30816,13 +30969,13 @@
       <c r="FD169" s="3"/>
       <c r="FE169" s="3"/>
     </row>
-    <row r="170" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="FC170" s="3"/>
       <c r="FD170" s="3"/>
       <c r="FE170" s="3"/>
     </row>
-    <row r="171" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A171" s="4"/>
       <c r="B171" s="29">
         <v>1981</v>
@@ -31069,8 +31222,9 @@
       </c>
       <c r="FG171" s="29"/>
       <c r="FH171" s="29"/>
+      <c r="FI171" s="29"/>
     </row>
-    <row r="172" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>13</v>
       </c>
@@ -31563,11 +31717,14 @@
       <c r="FH172" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="FI172" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="173" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:165" x14ac:dyDescent="0.3">
       <c r="FB173" s="2"/>
     </row>
-    <row r="174" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="15" t="s">
         <v>74</v>
       </c>
@@ -32058,10 +32215,13 @@
         <v>453927.94203751889</v>
       </c>
       <c r="FH174" s="27">
-        <v>432887.5994120923</v>
+        <v>433478.54896234925</v>
+      </c>
+      <c r="FI174" s="27">
+        <v>579361.88978735299</v>
       </c>
     </row>
-    <row r="175" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="15" t="s">
         <v>75</v>
       </c>
@@ -32552,10 +32712,13 @@
         <v>1423866.952145309</v>
       </c>
       <c r="FH175" s="27">
-        <v>1161534.7294816896</v>
+        <v>1165893.9327303029</v>
+      </c>
+      <c r="FI175" s="27">
+        <v>1768824.9505838957</v>
       </c>
     </row>
-    <row r="176" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="15" t="s">
         <v>76</v>
       </c>
@@ -33046,10 +33209,13 @@
         <v>2881107.7350939452</v>
       </c>
       <c r="FH176" s="27">
-        <v>3015568.4848894961</v>
+        <v>2997800.3978045094</v>
+      </c>
+      <c r="FI176" s="27">
+        <v>3319247.3057436864</v>
       </c>
     </row>
-    <row r="177" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A177" s="16"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -33214,8 +33380,9 @@
       <c r="FF177" s="7"/>
       <c r="FG177" s="7"/>
       <c r="FH177" s="7"/>
+      <c r="FI177" s="7"/>
     </row>
-    <row r="178" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>10</v>
       </c>
@@ -33706,10 +33873,13 @@
         <v>4758902.629276773</v>
       </c>
       <c r="FH178" s="7">
-        <v>4609990.8137832778</v>
+        <v>4597172.8794971611</v>
+      </c>
+      <c r="FI178" s="7">
+        <v>5667434.1461149352</v>
       </c>
     </row>
-    <row r="179" spans="1:164" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:165" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
@@ -33873,7 +34043,7 @@
         <v>-24370.119758612476</v>
       </c>
     </row>
-    <row r="180" spans="1:164" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:165" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
@@ -34033,7 +34203,7 @@
       <c r="FB180" s="7"/>
       <c r="FC180" s="7"/>
     </row>
-    <row r="181" spans="1:164" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:165" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
@@ -34197,7 +34367,7 @@
         <v>4857262.3839106075</v>
       </c>
     </row>
-    <row r="182" spans="1:164" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:165" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
@@ -34355,7 +34525,7 @@
       <c r="EZ182" s="7"/>
       <c r="FA182" s="7"/>
     </row>
-    <row r="183" spans="1:164" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:165" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="9"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
@@ -34520,35 +34690,36 @@
       <c r="FF183" s="9"/>
       <c r="FG183" s="9"/>
       <c r="FH183" s="9"/>
+      <c r="FI183" s="9"/>
     </row>
-    <row r="184" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:165" x14ac:dyDescent="0.3">
       <c r="E185" s="10"/>
       <c r="I185" s="10"/>
     </row>
-    <row r="186" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:165" x14ac:dyDescent="0.3">
       <c r="FB186" s="17"/>
       <c r="FC186" s="17"/>
     </row>
-    <row r="187" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>8</v>
       </c>
       <c r="FB187" s="18"/>
       <c r="FC187" s="17"/>
     </row>
-    <row r="188" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>9</v>
       </c>
       <c r="FB188" s="18"/>
       <c r="FC188" s="17"/>
     </row>
-    <row r="189" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>79</v>
       </c>
@@ -34709,7 +34880,7 @@
       <c r="EZ189" s="2"/>
       <c r="FA189" s="2"/>
     </row>
-    <row r="190" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -34868,7 +35039,7 @@
       <c r="EZ190" s="2"/>
       <c r="FA190" s="2"/>
     </row>
-    <row r="191" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>48</v>
       </c>
@@ -35029,7 +35200,7 @@
       <c r="EZ191" s="2"/>
       <c r="FA191" s="2"/>
     </row>
-    <row r="192" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="11" t="s">
         <v>80</v>
       </c>
@@ -35190,7 +35361,7 @@
       <c r="EZ192" s="2"/>
       <c r="FA192" s="2"/>
     </row>
-    <row r="193" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>12</v>
       </c>
@@ -35351,7 +35522,7 @@
       <c r="EZ193" s="2"/>
       <c r="FA193" s="2"/>
     </row>
-    <row r="194" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -35510,7 +35681,7 @@
       <c r="EZ194" s="2"/>
       <c r="FA194" s="2"/>
     </row>
-    <row r="195" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="4"/>
       <c r="B195" s="29">
         <v>1981</v>
@@ -35757,8 +35928,9 @@
       </c>
       <c r="FG195" s="29"/>
       <c r="FH195" s="29"/>
+      <c r="FI195" s="29"/>
     </row>
-    <row r="196" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
         <v>13</v>
       </c>
@@ -36251,11 +36423,14 @@
       <c r="FH196" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="FI196" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="197" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:165" x14ac:dyDescent="0.3">
       <c r="FB197" s="2"/>
     </row>
-    <row r="198" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="15" t="s">
         <v>74</v>
       </c>
@@ -36746,10 +36921,13 @@
         <v>416272.20131800859</v>
       </c>
       <c r="FH198" s="27">
-        <v>398212.70314841636</v>
+        <v>398287.06609552173</v>
+      </c>
+      <c r="FI198" s="27">
+        <v>527005.15729839436</v>
       </c>
     </row>
-    <row r="199" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="15" t="s">
         <v>75</v>
       </c>
@@ -37240,10 +37418,13 @@
         <v>1428127.268469644</v>
       </c>
       <c r="FH199" s="27">
-        <v>1200899.5464549323</v>
+        <v>1203946.2384178629</v>
+      </c>
+      <c r="FI199" s="27">
+        <v>1621106.3313271452</v>
       </c>
     </row>
-    <row r="200" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="15" t="s">
         <v>76</v>
       </c>
@@ -37734,10 +37915,13 @@
         <v>2792346.6194373029</v>
       </c>
       <c r="FH200" s="27">
-        <v>2829856.2755282405</v>
+        <v>2816492.9781092419</v>
+      </c>
+      <c r="FI200" s="27">
+        <v>3047107.8861707821</v>
       </c>
     </row>
-    <row r="201" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="16"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -37902,8 +38086,9 @@
       <c r="FF201" s="27"/>
       <c r="FG201" s="27"/>
       <c r="FH201" s="27"/>
+      <c r="FI201" s="27"/>
     </row>
-    <row r="202" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>10</v>
       </c>
@@ -38394,10 +38579,13 @@
         <v>4636746.0892249551</v>
       </c>
       <c r="FH202" s="27">
-        <v>4428968.5251315888</v>
+        <v>4418726.2826226261</v>
+      </c>
+      <c r="FI202" s="27">
+        <v>5195219.3747963216</v>
       </c>
     </row>
-    <row r="203" spans="1:164" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:165" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
@@ -38562,7 +38750,7 @@
         <v>-24370.119758612476</v>
       </c>
     </row>
-    <row r="204" spans="1:164" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:165" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -38723,7 +38911,7 @@
       <c r="FB204" s="7"/>
       <c r="FC204" s="7"/>
     </row>
-    <row r="205" spans="1:164" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:165" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
@@ -38888,7 +39076,7 @@
         <v>4857262.3839106075</v>
       </c>
     </row>
-    <row r="206" spans="1:164" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:165" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
@@ -39048,7 +39236,7 @@
       <c r="FA206" s="7"/>
       <c r="FC206" s="2"/>
     </row>
-    <row r="207" spans="1:164" s="3" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:165" s="3" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="9"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
@@ -39213,8 +39401,9 @@
       <c r="FF207" s="9"/>
       <c r="FG207" s="9"/>
       <c r="FH207" s="9"/>
+      <c r="FI207" s="9"/>
     </row>
-    <row r="208" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>0</v>
       </c>
@@ -39526,6 +39715,7 @@
       </c>
       <c r="FC219" s="29"/>
       <c r="FD219" s="29"/>
+      <c r="FE219" s="29"/>
     </row>
     <row r="220" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
@@ -40007,6 +40197,9 @@
       </c>
       <c r="FD220" s="6" t="s">
         <v>17</v>
+      </c>
+      <c r="FE220" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="221" spans="1:161" x14ac:dyDescent="0.3">
@@ -40491,7 +40684,10 @@
         <v>7.0559783134587661</v>
       </c>
       <c r="FD222" s="25">
-        <v>5.5147554894543021</v>
+        <v>5.6587972623917722</v>
+      </c>
+      <c r="FE222" s="25">
+        <v>5.311763741282391</v>
       </c>
     </row>
     <row r="223" spans="1:161" x14ac:dyDescent="0.3">
@@ -40973,7 +41169,10 @@
         <v>24.342620228389052</v>
       </c>
       <c r="FD223" s="25">
-        <v>10.472214199528125</v>
+        <v>10.886812939279082</v>
+      </c>
+      <c r="FE223" s="25">
+        <v>11.871943877190731</v>
       </c>
     </row>
     <row r="224" spans="1:161" x14ac:dyDescent="0.3">
@@ -41455,10 +41654,13 @@
         <v>12.300345967588314</v>
       </c>
       <c r="FD224" s="25">
-        <v>10.006944438672477</v>
+        <v>9.3587704779304488</v>
+      </c>
+      <c r="FE224" s="25">
+        <v>9.7675624792767479</v>
       </c>
     </row>
-    <row r="225" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A225" s="16"/>
       <c r="B225" s="13"/>
       <c r="C225" s="13"/>
@@ -41619,8 +41821,9 @@
       <c r="FB225" s="25"/>
       <c r="FC225" s="25"/>
       <c r="FD225" s="25"/>
+      <c r="FE225" s="25"/>
     </row>
-    <row r="226" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>10</v>
       </c>
@@ -42099,10 +42302,13 @@
         <v>15.097704130874263</v>
       </c>
       <c r="FD226" s="25">
-        <v>9.6848415311552145</v>
+        <v>9.3798662833247874</v>
+      </c>
+      <c r="FE226" s="25">
+        <v>9.9374818372740066</v>
       </c>
     </row>
-    <row r="227" spans="1:160" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:161" hidden="1" x14ac:dyDescent="0.3">
       <c r="B227" s="13"/>
       <c r="C227" s="13"/>
       <c r="D227" s="13"/>
@@ -42263,7 +42469,7 @@
       </c>
       <c r="FB227" s="2"/>
     </row>
-    <row r="228" spans="1:160" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:161" hidden="1" x14ac:dyDescent="0.3">
       <c r="B228" s="13"/>
       <c r="C228" s="13"/>
       <c r="D228" s="13"/>
@@ -42424,7 +42630,7 @@
       </c>
       <c r="FB228" s="2"/>
     </row>
-    <row r="229" spans="1:160" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:161" hidden="1" x14ac:dyDescent="0.3">
       <c r="B229" s="13"/>
       <c r="C229" s="13"/>
       <c r="D229" s="13"/>
@@ -42585,7 +42791,7 @@
       </c>
       <c r="FB229" s="2"/>
     </row>
-    <row r="230" spans="1:160" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:161" hidden="1" x14ac:dyDescent="0.3">
       <c r="B230" s="13"/>
       <c r="C230" s="13"/>
       <c r="D230" s="13"/>
@@ -42746,7 +42952,7 @@
       </c>
       <c r="FB230" s="2"/>
     </row>
-    <row r="231" spans="1:160" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:161" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="9"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
@@ -42907,64 +43113,65 @@
       <c r="FB231" s="9"/>
       <c r="FC231" s="9"/>
       <c r="FD231" s="9"/>
+      <c r="FE231" s="9"/>
     </row>
-    <row r="232" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>0</v>
       </c>
       <c r="FB232" s="2"/>
     </row>
-    <row r="233" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:161" x14ac:dyDescent="0.3">
       <c r="FB233" s="2"/>
     </row>
-    <row r="234" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:161" x14ac:dyDescent="0.3">
       <c r="FB234" s="2"/>
     </row>
-    <row r="235" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>8</v>
       </c>
       <c r="FB235" s="2"/>
     </row>
-    <row r="236" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>7</v>
       </c>
       <c r="FB236" s="2"/>
     </row>
-    <row r="237" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>79</v>
       </c>
       <c r="FB237" s="2"/>
     </row>
-    <row r="238" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="FB238" s="2"/>
     </row>
-    <row r="239" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>50</v>
       </c>
       <c r="FB239" s="2"/>
     </row>
-    <row r="240" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A240" s="11" t="s">
         <v>81</v>
       </c>
       <c r="FB240" s="2"/>
     </row>
-    <row r="241" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>20</v>
       </c>
       <c r="FB241" s="2"/>
     </row>
-    <row r="242" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="FB242" s="2"/>
     </row>
-    <row r="243" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A243" s="4"/>
       <c r="B243" s="29" t="s">
         <v>55</v>
@@ -43205,8 +43412,9 @@
       </c>
       <c r="FC243" s="29"/>
       <c r="FD243" s="29"/>
+      <c r="FE243" s="29"/>
     </row>
-    <row r="244" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="s">
         <v>13</v>
       </c>
@@ -43687,11 +43895,14 @@
       <c r="FD244" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="FE244" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="245" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:161" x14ac:dyDescent="0.3">
       <c r="FB245" s="2"/>
     </row>
-    <row r="246" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A246" s="15" t="s">
         <v>74</v>
       </c>
@@ -44170,10 +44381,13 @@
         <v>2.1693341252770892E-2</v>
       </c>
       <c r="FD246" s="25">
-        <v>-1.6729384729843986</v>
+        <v>-1.6545767029616201</v>
+      </c>
+      <c r="FE246" s="25">
+        <v>1.4171626471286345</v>
       </c>
     </row>
-    <row r="247" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A247" s="15" t="s">
         <v>75</v>
       </c>
@@ -44652,10 +44866,13 @@
         <v>20.979364241347056</v>
       </c>
       <c r="FD247" s="25">
-        <v>7.8629747023476</v>
+        <v>8.1366239506078131</v>
+      </c>
+      <c r="FE247" s="25">
+        <v>9.4635235403141422</v>
       </c>
     </row>
-    <row r="248" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A248" s="15" t="s">
         <v>76</v>
       </c>
@@ -45134,10 +45351,13 @@
         <v>9.8226497071709247</v>
       </c>
       <c r="FD248" s="25">
-        <v>8.194231876810008</v>
+        <v>7.6833113356881881</v>
+      </c>
+      <c r="FE248" s="25">
+        <v>7.9359850707707125</v>
       </c>
     </row>
-    <row r="249" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A249" s="16"/>
       <c r="B249" s="13"/>
       <c r="C249" s="13"/>
@@ -45298,8 +45518,9 @@
       <c r="FB249" s="26"/>
       <c r="FC249" s="25"/>
       <c r="FD249" s="25"/>
+      <c r="FE249" s="25"/>
     </row>
-    <row r="250" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>10</v>
       </c>
@@ -45778,10 +45999,13 @@
         <v>12.018991067786217</v>
       </c>
       <c r="FD250" s="25">
-        <v>7.138348738301886</v>
+        <v>6.8905851916519509</v>
+      </c>
+      <c r="FE250" s="25">
+        <v>7.7027121864861954</v>
       </c>
     </row>
-    <row r="251" spans="1:160" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:161" hidden="1" x14ac:dyDescent="0.3">
       <c r="B251" s="13"/>
       <c r="C251" s="13"/>
       <c r="D251" s="13"/>
@@ -45941,7 +46165,7 @@
         <v>-24370.119758612476</v>
       </c>
     </row>
-    <row r="252" spans="1:160" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:161" hidden="1" x14ac:dyDescent="0.3">
       <c r="B252" s="13"/>
       <c r="C252" s="13"/>
       <c r="D252" s="13"/>
@@ -46097,7 +46321,7 @@
       <c r="EX252" s="7"/>
       <c r="EY252" s="7"/>
     </row>
-    <row r="253" spans="1:160" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:161" hidden="1" x14ac:dyDescent="0.3">
       <c r="B253" s="13"/>
       <c r="C253" s="13"/>
       <c r="D253" s="13"/>
@@ -46257,7 +46481,7 @@
         <v>4857262.3839106075</v>
       </c>
     </row>
-    <row r="254" spans="1:160" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:161" hidden="1" x14ac:dyDescent="0.3">
       <c r="B254" s="13"/>
       <c r="C254" s="13"/>
       <c r="D254" s="13"/>
@@ -46412,7 +46636,7 @@
       <c r="EW254" s="13"/>
       <c r="EX254" s="3"/>
     </row>
-    <row r="255" spans="1:160" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:161" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="9"/>
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
@@ -46573,49 +46797,50 @@
       <c r="FB255" s="9"/>
       <c r="FC255" s="9"/>
       <c r="FD255" s="9"/>
+      <c r="FE255" s="9"/>
     </row>
-    <row r="256" spans="1:160" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="262" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
     </row>
-    <row r="263" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="264" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A264" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="265" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="266" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
     </row>
-    <row r="267" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A267" s="4"/>
       <c r="B267" s="29">
         <v>1981</v>
@@ -46862,8 +47087,9 @@
       </c>
       <c r="FG267" s="29"/>
       <c r="FH267" s="29"/>
+      <c r="FI267" s="29"/>
     </row>
-    <row r="268" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A268" s="5" t="s">
         <v>13</v>
       </c>
@@ -47356,11 +47582,14 @@
       <c r="FH268" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="FI268" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="269" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:165" x14ac:dyDescent="0.3">
       <c r="FB269" s="2"/>
     </row>
-    <row r="270" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A270" s="15" t="s">
         <v>74</v>
       </c>
@@ -47851,10 +48080,13 @@
         <v>9.5385003098183567</v>
       </c>
       <c r="FH270" s="25">
-        <v>9.3902052498198962</v>
+        <v>9.4292418476497062</v>
+      </c>
+      <c r="FI270" s="25">
+        <v>10.222648818681193</v>
       </c>
     </row>
-    <row r="271" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A271" s="15" t="s">
         <v>75</v>
       </c>
@@ -48345,10 +48577,13 @@
         <v>29.920069038304721</v>
       </c>
       <c r="FH271" s="25">
-        <v>25.196031324159058</v>
+        <v>25.361106995345985</v>
+      </c>
+      <c r="FI271" s="25">
+        <v>31.210330900738164</v>
       </c>
     </row>
-    <row r="272" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A272" s="15" t="s">
         <v>76</v>
       </c>
@@ -48839,10 +49074,13 @@
         <v>60.541430651876929</v>
       </c>
       <c r="FH272" s="26">
-        <v>65.413763426021049</v>
+        <v>65.209651157004316</v>
+      </c>
+      <c r="FI272" s="26">
+        <v>58.567020280580643</v>
       </c>
     </row>
-    <row r="273" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A273" s="16"/>
       <c r="B273" s="13"/>
       <c r="C273" s="13"/>
@@ -49007,8 +49245,9 @@
       <c r="FF273" s="26"/>
       <c r="FG273" s="26"/>
       <c r="FH273" s="26"/>
+      <c r="FI273" s="26"/>
     </row>
-    <row r="274" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A274" s="8" t="s">
         <v>10</v>
       </c>
@@ -49501,8 +49740,11 @@
       <c r="FH274" s="26">
         <v>100</v>
       </c>
+      <c r="FI274" s="26">
+        <v>100</v>
+      </c>
     </row>
-    <row r="275" spans="1:164" s="3" customFormat="1" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:165" s="3" customFormat="1" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2"/>
       <c r="B275" s="13"/>
       <c r="C275" s="13"/>
@@ -49667,7 +49909,7 @@
         <v>-24370.119758612476</v>
       </c>
     </row>
-    <row r="276" spans="1:164" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:165" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2"/>
       <c r="B276" s="13"/>
       <c r="C276" s="13"/>
@@ -49828,7 +50070,7 @@
       <c r="FB276" s="7"/>
       <c r="FC276" s="7"/>
     </row>
-    <row r="277" spans="1:164" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:165" hidden="1" x14ac:dyDescent="0.3">
       <c r="B277" s="13"/>
       <c r="C277" s="13"/>
       <c r="D277" s="13"/>
@@ -49992,7 +50234,7 @@
         <v>4857262.3839106075</v>
       </c>
     </row>
-    <row r="278" spans="1:164" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:165" hidden="1" x14ac:dyDescent="0.3">
       <c r="B278" s="13"/>
       <c r="C278" s="13"/>
       <c r="D278" s="13"/>
@@ -50150,7 +50392,7 @@
       <c r="EZ278" s="13"/>
       <c r="FA278" s="13"/>
     </row>
-    <row r="279" spans="1:164" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:165" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="9"/>
       <c r="B279" s="9"/>
       <c r="C279" s="9"/>
@@ -50315,23 +50557,24 @@
       <c r="FF279" s="9"/>
       <c r="FG279" s="9"/>
       <c r="FH279" s="9"/>
+      <c r="FI279" s="9"/>
     </row>
-    <row r="280" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>79</v>
       </c>
@@ -50339,13 +50582,13 @@
       <c r="FD285" s="3"/>
       <c r="FE285" s="3"/>
     </row>
-    <row r="286" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A286" s="1"/>
       <c r="FC286" s="3"/>
       <c r="FD286" s="3"/>
       <c r="FE286" s="3"/>
     </row>
-    <row r="287" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>52</v>
       </c>
@@ -50353,20 +50596,20 @@
       <c r="FD287" s="3"/>
       <c r="FE287" s="3"/>
     </row>
-    <row r="288" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A288" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="289" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="290" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
     </row>
-    <row r="291" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:165" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="4"/>
       <c r="B291" s="29">
         <v>1981</v>
@@ -50607,14 +50850,15 @@
       </c>
       <c r="FC291" s="29"/>
       <c r="FD291" s="29"/>
-      <c r="FE291" s="24"/>
-      <c r="FF291" s="29">
+      <c r="FE291" s="29">
         <v>2021</v>
       </c>
+      <c r="FF291" s="29"/>
       <c r="FG291" s="29"/>
       <c r="FH291" s="29"/>
+      <c r="FI291" s="29"/>
     </row>
-    <row r="292" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A292" s="5" t="s">
         <v>13</v>
       </c>
@@ -51107,11 +51351,14 @@
       <c r="FH292" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="FI292" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="293" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:165" x14ac:dyDescent="0.3">
       <c r="FB293" s="2"/>
     </row>
-    <row r="294" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A294" s="15" t="s">
         <v>74</v>
       </c>
@@ -51602,10 +51849,13 @@
         <v>8.9776794611496538</v>
       </c>
       <c r="FH294" s="26">
-        <v>8.991093544440691</v>
+        <v>9.0136170611393531</v>
+      </c>
+      <c r="FI294" s="26">
+        <v>10.144040497212989</v>
       </c>
     </row>
-    <row r="295" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A295" s="15" t="s">
         <v>75</v>
       </c>
@@ -52096,10 +52346,13 @@
         <v>30.800204302503857</v>
       </c>
       <c r="FH295" s="26">
-        <v>27.114655244005203</v>
+        <v>27.246454326727164</v>
+      </c>
+      <c r="FI295" s="26">
+        <v>31.203809009329863</v>
       </c>
     </row>
-    <row r="296" spans="1:164" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296" s="15" t="s">
         <v>76</v>
       </c>
@@ -52590,10 +52843,13 @@
         <v>60.222116236346501</v>
       </c>
       <c r="FH296" s="26">
-        <v>63.894251211554106</v>
+        <v>63.73992861213349</v>
+      </c>
+      <c r="FI296" s="26">
+        <v>58.652150493457142</v>
       </c>
     </row>
-    <row r="297" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A297" s="16"/>
       <c r="B297" s="13"/>
       <c r="C297" s="13"/>
@@ -52758,8 +53014,9 @@
       <c r="FF297" s="25"/>
       <c r="FG297" s="25"/>
       <c r="FH297" s="25"/>
+      <c r="FI297" s="25"/>
     </row>
-    <row r="298" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A298" s="8" t="s">
         <v>10</v>
       </c>
@@ -53252,8 +53509,11 @@
       <c r="FH298" s="25">
         <v>100</v>
       </c>
+      <c r="FI298" s="25">
+        <v>100</v>
+      </c>
     </row>
-    <row r="299" spans="1:164" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:165" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B299" s="13"/>
       <c r="C299" s="13"/>
       <c r="D299" s="13"/>
@@ -53417,7 +53677,7 @@
         <v>-0.58654919688841323</v>
       </c>
     </row>
-    <row r="300" spans="1:164" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:165" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B300" s="13"/>
       <c r="C300" s="13"/>
       <c r="D300" s="13"/>
@@ -53581,7 +53841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:164" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:165" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B301" s="13"/>
       <c r="C301" s="13"/>
       <c r="D301" s="13"/>
@@ -53745,7 +54005,7 @@
         <v>116.90641566717015</v>
       </c>
     </row>
-    <row r="302" spans="1:164" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:165" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B302" s="13"/>
       <c r="C302" s="13"/>
       <c r="D302" s="13"/>
@@ -53909,7 +54169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:164" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:165" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="9"/>
       <c r="B303" s="9"/>
       <c r="C303" s="9"/>
@@ -54074,8 +54334,9 @@
       <c r="FF303" s="9"/>
       <c r="FG303" s="9"/>
       <c r="FH303" s="9"/>
+      <c r="FI303" s="9"/>
     </row>
-    <row r="304" spans="1:164" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>0</v>
       </c>
@@ -54416,19 +54677,13 @@
     </row>
   </sheetData>
   <mergeCells count="488">
-    <mergeCell ref="FF36:FH36"/>
-    <mergeCell ref="FF9:FH9"/>
-    <mergeCell ref="FB63:FD63"/>
-    <mergeCell ref="FB90:FD90"/>
-    <mergeCell ref="FF117:FH117"/>
-    <mergeCell ref="FF144:FH144"/>
-    <mergeCell ref="FF171:FH171"/>
-    <mergeCell ref="FF195:FH195"/>
-    <mergeCell ref="FF291:FH291"/>
-    <mergeCell ref="FF267:FH267"/>
-    <mergeCell ref="FB243:FD243"/>
-    <mergeCell ref="FB219:FD219"/>
-    <mergeCell ref="FB9:FE9"/>
+    <mergeCell ref="FB267:FD267"/>
+    <mergeCell ref="FB291:FD291"/>
+    <mergeCell ref="FB36:FD36"/>
+    <mergeCell ref="FE291:FI291"/>
+    <mergeCell ref="FF267:FI267"/>
+    <mergeCell ref="FB243:FE243"/>
+    <mergeCell ref="FB219:FE219"/>
     <mergeCell ref="CD36:CG36"/>
     <mergeCell ref="CH36:CK36"/>
     <mergeCell ref="CL36:CO36"/>
@@ -54852,8 +55107,6 @@
     <mergeCell ref="AT243:AW243"/>
     <mergeCell ref="AX243:BA243"/>
     <mergeCell ref="BB243:BE243"/>
-    <mergeCell ref="AD267:AG267"/>
-    <mergeCell ref="BR267:BU267"/>
     <mergeCell ref="BV267:BY267"/>
     <mergeCell ref="B291:E291"/>
     <mergeCell ref="F291:I291"/>
@@ -54871,8 +55124,6 @@
     <mergeCell ref="AT291:AW291"/>
     <mergeCell ref="AX291:BA291"/>
     <mergeCell ref="BB291:BE291"/>
-    <mergeCell ref="FB267:FD267"/>
-    <mergeCell ref="FB291:FD291"/>
     <mergeCell ref="EX219:EZ219"/>
     <mergeCell ref="EX243:EZ243"/>
     <mergeCell ref="BF291:BI291"/>
@@ -54895,7 +55146,8 @@
     <mergeCell ref="R267:U267"/>
     <mergeCell ref="V267:Y267"/>
     <mergeCell ref="Z267:AC267"/>
-    <mergeCell ref="FB36:FD36"/>
+    <mergeCell ref="AD267:AG267"/>
+    <mergeCell ref="BR267:BU267"/>
     <mergeCell ref="EX63:FA63"/>
     <mergeCell ref="EX90:FA90"/>
     <mergeCell ref="FB117:FD117"/>
@@ -54904,6 +55156,15 @@
     <mergeCell ref="FB195:FD195"/>
     <mergeCell ref="EX195:FA195"/>
     <mergeCell ref="EX36:FA36"/>
+    <mergeCell ref="FF9:FI9"/>
+    <mergeCell ref="FF36:FI36"/>
+    <mergeCell ref="FB63:FE63"/>
+    <mergeCell ref="FB90:FE90"/>
+    <mergeCell ref="FF117:FI117"/>
+    <mergeCell ref="FF144:FI144"/>
+    <mergeCell ref="FF171:FI171"/>
+    <mergeCell ref="FF195:FI195"/>
+    <mergeCell ref="FB9:FE9"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="EX66:EY73">

--- a/Data/National Accounts/PSA-Quarter-Q1-1981-to-latest.xlsx
+++ b/Data/National Accounts/PSA-Quarter-Q1-1981-to-latest.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonny Gutierrez\Desktop\Web Release\Q4 2021\Time Series data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msi-pc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17981963-4DD4-454B-B14A-451B4CEAB850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="324" windowWidth="20376" windowHeight="12216" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7725" tabRatio="721"/>
   </bookViews>
   <sheets>
     <sheet name="Q1 1981 to Q4 2021" sheetId="5" r:id="rId1"/>
@@ -89,17 +88,27 @@
     <definedName name="VAL_Cons">#REF!</definedName>
     <definedName name="VAL_Curr">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="83">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -338,25 +347,28 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2022</t>
+    <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 1981 to Q4 2021</t>
+    <t>As of May 2022</t>
   </si>
   <si>
-    <t>Q1 1982 to Q4 2021</t>
+    <t>Q1 1981 to Q1 2022</t>
+  </si>
+  <si>
+    <t>Q1 1982 to Q1 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -428,9 +440,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -444,18 +456,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -467,26 +479,33 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -494,7 +513,14 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -789,384 +815,388 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FI313"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:FJ313"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="FA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FC285" sqref="FC285"/>
+      <selection pane="topRight" activeCell="FG30" sqref="FG30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.54296875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="25" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="47" max="48" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="50" max="51" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="55" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="55" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="63" max="64" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="65" max="66" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="67" max="68" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="70" max="73" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="75" max="79" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="70" max="73" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="75" max="79" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="81" max="88" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="90" max="96" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="98" max="105" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="108" max="111" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="113" max="114" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="115" max="116" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="119" max="129" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="131" max="157" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="13.7265625" style="3" customWidth="1"/>
+    <col min="81" max="88" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="90" max="96" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="98" max="105" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="108" max="111" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="113" max="114" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="115" max="116" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="119" max="129" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="131" max="157" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="13.7109375" style="3" customWidth="1"/>
     <col min="159" max="159" width="14" style="2" customWidth="1"/>
-    <col min="160" max="160" width="14.453125" style="2" customWidth="1"/>
-    <col min="161" max="161" width="14.1796875" style="2" customWidth="1"/>
+    <col min="160" max="160" width="14.42578125" style="2" customWidth="1"/>
+    <col min="161" max="161" width="14.140625" style="2" customWidth="1"/>
     <col min="162" max="162" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="163" max="164" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="166" max="16384" width="9.26953125" style="2"/>
+    <col min="163" max="164" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="167" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="29">
+      <c r="B9" s="30">
         <v>1981</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30">
         <v>1982</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29">
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30">
         <v>1983</v>
       </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29">
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30">
         <v>1984</v>
       </c>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29">
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30">
         <v>1985</v>
       </c>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29">
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30">
         <v>1986</v>
       </c>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29">
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30">
         <v>1987</v>
       </c>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29">
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30">
         <v>1988</v>
       </c>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="29">
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30">
         <v>1989</v>
       </c>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="29"/>
-      <c r="AL9" s="29">
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30">
         <v>1990</v>
       </c>
-      <c r="AM9" s="29"/>
-      <c r="AN9" s="29"/>
-      <c r="AO9" s="29"/>
-      <c r="AP9" s="29">
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="30">
         <v>1991</v>
       </c>
-      <c r="AQ9" s="29"/>
-      <c r="AR9" s="29"/>
-      <c r="AS9" s="29"/>
-      <c r="AT9" s="29">
+      <c r="AQ9" s="30"/>
+      <c r="AR9" s="30"/>
+      <c r="AS9" s="30"/>
+      <c r="AT9" s="30">
         <v>1992</v>
       </c>
-      <c r="AU9" s="29"/>
-      <c r="AV9" s="29"/>
-      <c r="AW9" s="29"/>
-      <c r="AX9" s="29">
+      <c r="AU9" s="30"/>
+      <c r="AV9" s="30"/>
+      <c r="AW9" s="30"/>
+      <c r="AX9" s="30">
         <v>1993</v>
       </c>
-      <c r="AY9" s="29"/>
-      <c r="AZ9" s="29"/>
-      <c r="BA9" s="29"/>
-      <c r="BB9" s="29">
+      <c r="AY9" s="30"/>
+      <c r="AZ9" s="30"/>
+      <c r="BA9" s="30"/>
+      <c r="BB9" s="30">
         <v>1994</v>
       </c>
-      <c r="BC9" s="29"/>
-      <c r="BD9" s="29"/>
-      <c r="BE9" s="29"/>
-      <c r="BF9" s="29">
+      <c r="BC9" s="30"/>
+      <c r="BD9" s="30"/>
+      <c r="BE9" s="30"/>
+      <c r="BF9" s="30">
         <v>1995</v>
       </c>
-      <c r="BG9" s="29"/>
-      <c r="BH9" s="29"/>
-      <c r="BI9" s="29"/>
-      <c r="BJ9" s="29">
+      <c r="BG9" s="30"/>
+      <c r="BH9" s="30"/>
+      <c r="BI9" s="30"/>
+      <c r="BJ9" s="30">
         <v>1996</v>
       </c>
-      <c r="BK9" s="29"/>
-      <c r="BL9" s="29"/>
-      <c r="BM9" s="29"/>
-      <c r="BN9" s="29">
+      <c r="BK9" s="30"/>
+      <c r="BL9" s="30"/>
+      <c r="BM9" s="30"/>
+      <c r="BN9" s="30">
         <v>1997</v>
       </c>
-      <c r="BO9" s="29"/>
-      <c r="BP9" s="29"/>
-      <c r="BQ9" s="29"/>
-      <c r="BR9" s="29">
+      <c r="BO9" s="30"/>
+      <c r="BP9" s="30"/>
+      <c r="BQ9" s="30"/>
+      <c r="BR9" s="30">
         <v>1998</v>
       </c>
-      <c r="BS9" s="29"/>
-      <c r="BT9" s="29"/>
-      <c r="BU9" s="29"/>
-      <c r="BV9" s="29">
+      <c r="BS9" s="30"/>
+      <c r="BT9" s="30"/>
+      <c r="BU9" s="30"/>
+      <c r="BV9" s="30">
         <v>1999</v>
       </c>
-      <c r="BW9" s="29"/>
-      <c r="BX9" s="29"/>
-      <c r="BY9" s="29"/>
-      <c r="BZ9" s="29">
+      <c r="BW9" s="30"/>
+      <c r="BX9" s="30"/>
+      <c r="BY9" s="30"/>
+      <c r="BZ9" s="30">
         <v>2000</v>
       </c>
-      <c r="CA9" s="29"/>
-      <c r="CB9" s="29"/>
-      <c r="CC9" s="29"/>
-      <c r="CD9" s="29">
+      <c r="CA9" s="30"/>
+      <c r="CB9" s="30"/>
+      <c r="CC9" s="30"/>
+      <c r="CD9" s="30">
         <v>2001</v>
       </c>
-      <c r="CE9" s="29"/>
-      <c r="CF9" s="29"/>
-      <c r="CG9" s="29"/>
-      <c r="CH9" s="29">
+      <c r="CE9" s="30"/>
+      <c r="CF9" s="30"/>
+      <c r="CG9" s="30"/>
+      <c r="CH9" s="30">
         <v>2002</v>
       </c>
-      <c r="CI9" s="29"/>
-      <c r="CJ9" s="29"/>
-      <c r="CK9" s="29"/>
-      <c r="CL9" s="29">
+      <c r="CI9" s="30"/>
+      <c r="CJ9" s="30"/>
+      <c r="CK9" s="30"/>
+      <c r="CL9" s="30">
         <v>2003</v>
       </c>
-      <c r="CM9" s="29"/>
-      <c r="CN9" s="29"/>
-      <c r="CO9" s="29"/>
-      <c r="CP9" s="29">
+      <c r="CM9" s="30"/>
+      <c r="CN9" s="30"/>
+      <c r="CO9" s="30"/>
+      <c r="CP9" s="30">
         <v>2004</v>
       </c>
-      <c r="CQ9" s="29"/>
-      <c r="CR9" s="29"/>
-      <c r="CS9" s="29"/>
-      <c r="CT9" s="29">
+      <c r="CQ9" s="30"/>
+      <c r="CR9" s="30"/>
+      <c r="CS9" s="30"/>
+      <c r="CT9" s="30">
         <v>2005</v>
       </c>
-      <c r="CU9" s="29"/>
-      <c r="CV9" s="29"/>
-      <c r="CW9" s="29"/>
-      <c r="CX9" s="29">
+      <c r="CU9" s="30"/>
+      <c r="CV9" s="30"/>
+      <c r="CW9" s="30"/>
+      <c r="CX9" s="30">
         <v>2006</v>
       </c>
-      <c r="CY9" s="29"/>
-      <c r="CZ9" s="29"/>
-      <c r="DA9" s="29"/>
-      <c r="DB9" s="29">
+      <c r="CY9" s="30"/>
+      <c r="CZ9" s="30"/>
+      <c r="DA9" s="30"/>
+      <c r="DB9" s="30">
         <v>2007</v>
       </c>
-      <c r="DC9" s="29"/>
-      <c r="DD9" s="29"/>
-      <c r="DE9" s="29"/>
-      <c r="DF9" s="29">
+      <c r="DC9" s="30"/>
+      <c r="DD9" s="30"/>
+      <c r="DE9" s="30"/>
+      <c r="DF9" s="30">
         <v>2008</v>
       </c>
-      <c r="DG9" s="29"/>
-      <c r="DH9" s="29"/>
-      <c r="DI9" s="29"/>
-      <c r="DJ9" s="29">
+      <c r="DG9" s="30"/>
+      <c r="DH9" s="30"/>
+      <c r="DI9" s="30"/>
+      <c r="DJ9" s="30">
         <v>2009</v>
       </c>
-      <c r="DK9" s="29"/>
-      <c r="DL9" s="29"/>
-      <c r="DM9" s="29"/>
-      <c r="DN9" s="29">
+      <c r="DK9" s="30"/>
+      <c r="DL9" s="30"/>
+      <c r="DM9" s="30"/>
+      <c r="DN9" s="30">
         <v>2010</v>
       </c>
-      <c r="DO9" s="29"/>
-      <c r="DP9" s="29"/>
-      <c r="DQ9" s="29"/>
-      <c r="DR9" s="29">
+      <c r="DO9" s="30"/>
+      <c r="DP9" s="30"/>
+      <c r="DQ9" s="30"/>
+      <c r="DR9" s="30">
         <v>2011</v>
       </c>
-      <c r="DS9" s="29"/>
-      <c r="DT9" s="29"/>
-      <c r="DU9" s="29"/>
-      <c r="DV9" s="29">
+      <c r="DS9" s="30"/>
+      <c r="DT9" s="30"/>
+      <c r="DU9" s="30"/>
+      <c r="DV9" s="30">
         <v>2012</v>
       </c>
-      <c r="DW9" s="29"/>
-      <c r="DX9" s="29"/>
-      <c r="DY9" s="29"/>
-      <c r="DZ9" s="29">
+      <c r="DW9" s="30"/>
+      <c r="DX9" s="30"/>
+      <c r="DY9" s="30"/>
+      <c r="DZ9" s="30">
         <v>2013</v>
       </c>
-      <c r="EA9" s="29"/>
-      <c r="EB9" s="29"/>
-      <c r="EC9" s="29"/>
-      <c r="ED9" s="29">
+      <c r="EA9" s="30"/>
+      <c r="EB9" s="30"/>
+      <c r="EC9" s="30"/>
+      <c r="ED9" s="30">
         <v>2014</v>
       </c>
-      <c r="EE9" s="29"/>
-      <c r="EF9" s="29"/>
-      <c r="EG9" s="29"/>
-      <c r="EH9" s="29">
+      <c r="EE9" s="30"/>
+      <c r="EF9" s="30"/>
+      <c r="EG9" s="30"/>
+      <c r="EH9" s="30">
         <v>2015</v>
       </c>
-      <c r="EI9" s="29"/>
-      <c r="EJ9" s="29"/>
-      <c r="EK9" s="29"/>
-      <c r="EL9" s="29">
+      <c r="EI9" s="30"/>
+      <c r="EJ9" s="30"/>
+      <c r="EK9" s="30"/>
+      <c r="EL9" s="30">
         <v>2016</v>
       </c>
-      <c r="EM9" s="29"/>
-      <c r="EN9" s="29"/>
-      <c r="EO9" s="29"/>
-      <c r="EP9" s="29">
+      <c r="EM9" s="30"/>
+      <c r="EN9" s="30"/>
+      <c r="EO9" s="30"/>
+      <c r="EP9" s="30">
         <v>2017</v>
       </c>
-      <c r="EQ9" s="29"/>
-      <c r="ER9" s="29"/>
-      <c r="ES9" s="29"/>
-      <c r="ET9" s="29">
+      <c r="EQ9" s="30"/>
+      <c r="ER9" s="30"/>
+      <c r="ES9" s="30"/>
+      <c r="ET9" s="30">
         <v>2018</v>
       </c>
-      <c r="EU9" s="29"/>
-      <c r="EV9" s="29"/>
-      <c r="EW9" s="29"/>
-      <c r="EX9" s="29">
+      <c r="EU9" s="30"/>
+      <c r="EV9" s="30"/>
+      <c r="EW9" s="30"/>
+      <c r="EX9" s="30">
         <v>2019</v>
       </c>
-      <c r="EY9" s="29"/>
-      <c r="EZ9" s="29"/>
-      <c r="FA9" s="29"/>
-      <c r="FB9" s="29">
+      <c r="EY9" s="30"/>
+      <c r="EZ9" s="30"/>
+      <c r="FA9" s="30"/>
+      <c r="FB9" s="30">
         <v>2020</v>
       </c>
-      <c r="FC9" s="29"/>
-      <c r="FD9" s="29"/>
-      <c r="FE9" s="29"/>
-      <c r="FF9" s="29">
+      <c r="FC9" s="30"/>
+      <c r="FD9" s="30"/>
+      <c r="FE9" s="30"/>
+      <c r="FF9" s="30">
         <v>2021</v>
       </c>
-      <c r="FG9" s="29"/>
-      <c r="FH9" s="29"/>
-      <c r="FI9" s="29"/>
+      <c r="FG9" s="30"/>
+      <c r="FH9" s="30"/>
+      <c r="FI9" s="30"/>
+      <c r="FJ9" s="29">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="10" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1662,11 +1692,14 @@
       <c r="FI10" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="FJ10" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="11" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:166" x14ac:dyDescent="0.2">
       <c r="FB11" s="2"/>
     </row>
-    <row r="12" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -2139,31 +2172,34 @@
         <v>3985148.1660785396</v>
       </c>
       <c r="FB12" s="20">
-        <v>3422379.3362499233</v>
+        <v>3422615.4261275791</v>
       </c>
       <c r="FC12" s="20">
-        <v>3042946.1888118908</v>
+        <v>3042127.6382782664</v>
       </c>
       <c r="FD12" s="20">
-        <v>3211098.2771127275</v>
+        <v>3210324.7745829187</v>
       </c>
       <c r="FE12" s="7">
-        <v>3802065.5093828412</v>
+        <v>3801007.5529332561</v>
       </c>
       <c r="FF12" s="7">
-        <v>3397984.9737919262</v>
+        <v>3397554.7518358915</v>
       </c>
       <c r="FG12" s="7">
-        <v>3395451.2801445238</v>
+        <v>3396198.6721503939</v>
       </c>
       <c r="FH12" s="7">
-        <v>3581734.0674683698</v>
+        <v>3582435.6457165424</v>
       </c>
       <c r="FI12" s="7">
-        <v>4234308.3718459224</v>
+        <v>4233960.1057822816</v>
+      </c>
+      <c r="FJ12" s="7">
+        <v>3857398.5631033424</v>
       </c>
     </row>
-    <row r="13" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -2636,31 +2672,34 @@
         <v>691649.46049971122</v>
       </c>
       <c r="FB13" s="20">
-        <v>529190.9027829332</v>
+        <v>528976.18293794303</v>
       </c>
       <c r="FC13" s="20">
-        <v>829498.10802595376</v>
+        <v>829161.53817141114</v>
       </c>
       <c r="FD13" s="20">
-        <v>639541.63459552615</v>
+        <v>639282.13980844093</v>
       </c>
       <c r="FE13" s="7">
-        <v>742552.67885079375</v>
+        <v>742251.38720866351</v>
       </c>
       <c r="FF13" s="7">
-        <v>633733.89712513145</v>
+        <v>633476.75883450673</v>
       </c>
       <c r="FG13" s="7">
-        <v>817408.4911648453</v>
+        <v>817076.82668687799</v>
       </c>
       <c r="FH13" s="7">
-        <v>747842.64722821419</v>
+        <v>747539.20917505526</v>
       </c>
       <c r="FI13" s="7">
-        <v>819987.41099178046</v>
+        <v>823007.42462604912</v>
+      </c>
+      <c r="FJ13" s="7">
+        <v>677924.11662480747</v>
       </c>
     </row>
-    <row r="14" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -3133,31 +3172,34 @@
         <v>1455380.2056696825</v>
       </c>
       <c r="FB14" s="20">
-        <v>958387.27665259363</v>
+        <v>956210.7612511717</v>
       </c>
       <c r="FC14" s="20">
-        <v>521959.61234611302</v>
+        <v>518470.00555968226</v>
       </c>
       <c r="FD14" s="20">
-        <v>695780.59012369765</v>
+        <v>709963.02538032457</v>
       </c>
       <c r="FE14" s="7">
-        <v>942149.97182534146</v>
+        <v>944922.06976751459</v>
       </c>
       <c r="FF14" s="7">
-        <v>830974.51053644891</v>
+        <v>817104.7219841046</v>
       </c>
       <c r="FG14" s="7">
-        <v>1125662.0196367416</v>
+        <v>1141175.2480481684</v>
       </c>
       <c r="FH14" s="7">
-        <v>959704.33971656649</v>
+        <v>958628.76826727984</v>
       </c>
       <c r="FI14" s="7">
-        <v>1178863.0129272959</v>
+        <v>1194978.4992109176</v>
+      </c>
+      <c r="FJ14" s="7">
+        <v>1135062.8605458662</v>
       </c>
     </row>
-    <row r="15" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -3630,31 +3672,34 @@
         <v>1341770.3314644769</v>
       </c>
       <c r="FB15" s="20">
-        <v>1310705.0051456732</v>
+        <v>1321643.2431486752</v>
       </c>
       <c r="FC15" s="20">
-        <v>900716.94427944487</v>
+        <v>904783.13611554401</v>
       </c>
       <c r="FD15" s="20">
-        <v>1119165.2904801085</v>
+        <v>1116141.6019494543</v>
       </c>
       <c r="FE15" s="7">
-        <v>1187802.4375348676</v>
+        <v>1181738.2592543538</v>
       </c>
       <c r="FF15" s="7">
-        <v>1187294.6712282272</v>
+        <v>1203921.4402977147</v>
       </c>
       <c r="FG15" s="7">
-        <v>1165222.1432899851</v>
+        <v>1179210.7618120471</v>
       </c>
       <c r="FH15" s="7">
-        <v>1284249.3355207758</v>
+        <v>1281309.8389567914</v>
       </c>
       <c r="FI15" s="7">
-        <v>1346673.4218146382</v>
+        <v>1332281.49251774</v>
+      </c>
+      <c r="FJ15" s="7">
+        <v>1446433.1670965096</v>
       </c>
     </row>
-    <row r="16" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -4127,31 +4172,34 @@
         <v>1941897.659047609</v>
       </c>
       <c r="FB16" s="20">
-        <v>1763884.6447184607</v>
+        <v>1766672.7015503403</v>
       </c>
       <c r="FC16" s="20">
-        <v>1147588.1057792138</v>
+        <v>1149514.9402660923</v>
       </c>
       <c r="FD16" s="20">
-        <v>1503525.0799266312</v>
+        <v>1506042.2379375221</v>
       </c>
       <c r="FE16" s="7">
-        <v>1502359.5095937857</v>
+        <v>1495815.2927085266</v>
       </c>
       <c r="FF16" s="7">
-        <v>1643640.0144370203</v>
+        <v>1639008.4545212369</v>
       </c>
       <c r="FG16" s="7">
-        <v>1775657.428299173</v>
+        <v>1785323.1076342422</v>
       </c>
       <c r="FH16" s="7">
-        <v>1937206.9076430802</v>
+        <v>1936244.4295311081</v>
       </c>
       <c r="FI16" s="7">
-        <v>1966335.1295479625</v>
+        <v>1968716.1190903916</v>
+      </c>
+      <c r="FJ16" s="7">
+        <v>2229743.9851154983</v>
       </c>
     </row>
-    <row r="17" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -4624,31 +4672,34 @@
         <v>-32130.043855524622</v>
       </c>
       <c r="FB17" s="20">
-        <v>-10944.099905408919</v>
+        <v>-13632.401924049482</v>
       </c>
       <c r="FC17" s="20">
-        <v>-12869.363030083477</v>
+        <v>-6654.5549918264151</v>
       </c>
       <c r="FD17" s="20">
-        <v>40881.781244234182</v>
+        <v>35438.221724200994</v>
       </c>
       <c r="FE17" s="7">
-        <v>-17068.318308741786</v>
+        <v>-15151.264808321372</v>
       </c>
       <c r="FF17" s="7">
-        <v>-42648.049403163604</v>
+        <v>-40971.497649311088</v>
       </c>
       <c r="FG17" s="7">
-        <v>30816.123339849524</v>
+        <v>23303.644646612927</v>
       </c>
       <c r="FH17" s="7">
-        <v>-39150.602793686092</v>
+        <v>-29343.969233660027</v>
       </c>
       <c r="FI17" s="7">
-        <v>53937.058083261363</v>
+        <v>47011.822236362845</v>
+      </c>
+      <c r="FJ17" s="7">
+        <v>43312.062557413243</v>
       </c>
     </row>
-    <row r="18" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:166" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4813,8 +4864,9 @@
       <c r="FG18" s="7"/>
       <c r="FH18" s="7"/>
       <c r="FI18" s="7"/>
+      <c r="FJ18" s="7"/>
     </row>
-    <row r="19" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>10</v>
       </c>
@@ -5287,31 +5339,34 @@
         <v>5499920.4608092764</v>
       </c>
       <c r="FB19" s="20">
-        <v>4445833.7762072533</v>
+        <v>4449140.509990979</v>
       </c>
       <c r="FC19" s="20">
-        <v>4134663.3846541047</v>
+        <v>4138372.8228669846</v>
       </c>
       <c r="FD19" s="20">
-        <v>4202942.4936296623</v>
+        <v>4205107.525507817</v>
       </c>
       <c r="FE19" s="7">
-        <v>5155142.7696913164</v>
+        <v>5158952.7116469406</v>
       </c>
       <c r="FF19" s="7">
-        <v>4363699.9888415495</v>
+        <v>4372077.720781669</v>
       </c>
       <c r="FG19" s="7">
-        <v>4758902.629276773</v>
+        <v>4771642.0457098577</v>
       </c>
       <c r="FH19" s="7">
-        <v>4597172.8794971611</v>
+        <v>4604325.0633508991</v>
       </c>
       <c r="FI19" s="7">
-        <v>5667434.1461149352</v>
+        <v>5662523.2252829596</v>
+      </c>
+      <c r="FJ19" s="7">
+        <v>4930386.7848124411</v>
       </c>
     </row>
-    <row r="20" spans="1:165" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:166" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -5469,7 +5524,7 @@
       <c r="EZ20" s="7"/>
       <c r="FA20" s="7"/>
     </row>
-    <row r="21" spans="1:165" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:166" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -5627,7 +5682,7 @@
       <c r="EZ21" s="7"/>
       <c r="FA21" s="7"/>
     </row>
-    <row r="22" spans="1:165" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:166" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -5785,7 +5840,7 @@
       <c r="EZ22" s="7"/>
       <c r="FA22" s="7"/>
     </row>
-    <row r="23" spans="1:165" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:166" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -5943,7 +5998,7 @@
       <c r="EZ23" s="7"/>
       <c r="FA23" s="7"/>
     </row>
-    <row r="24" spans="1:165" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:166" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -6109,299 +6164,303 @@
       <c r="FG24" s="9"/>
       <c r="FH24" s="9"/>
       <c r="FI24" s="9"/>
+      <c r="FJ24" s="9"/>
     </row>
-    <row r="25" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="BY25" s="10"/>
     </row>
-    <row r="28" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="29">
+      <c r="B36" s="30">
         <v>1981</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30">
         <v>1982</v>
       </c>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29">
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30">
         <v>1983</v>
       </c>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29">
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30">
         <v>1984</v>
       </c>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29">
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30">
         <v>1985</v>
       </c>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="29">
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="30"/>
+      <c r="V36" s="30">
         <v>1986</v>
       </c>
-      <c r="W36" s="29"/>
-      <c r="X36" s="29"/>
-      <c r="Y36" s="29"/>
-      <c r="Z36" s="29">
+      <c r="W36" s="30"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="30">
         <v>1987</v>
       </c>
-      <c r="AA36" s="29"/>
-      <c r="AB36" s="29"/>
-      <c r="AC36" s="29"/>
-      <c r="AD36" s="29">
+      <c r="AA36" s="30"/>
+      <c r="AB36" s="30"/>
+      <c r="AC36" s="30"/>
+      <c r="AD36" s="30">
         <v>1988</v>
       </c>
-      <c r="AE36" s="29"/>
-      <c r="AF36" s="29"/>
-      <c r="AG36" s="29"/>
-      <c r="AH36" s="29">
+      <c r="AE36" s="30"/>
+      <c r="AF36" s="30"/>
+      <c r="AG36" s="30"/>
+      <c r="AH36" s="30">
         <v>1989</v>
       </c>
-      <c r="AI36" s="29"/>
-      <c r="AJ36" s="29"/>
-      <c r="AK36" s="29"/>
-      <c r="AL36" s="29">
+      <c r="AI36" s="30"/>
+      <c r="AJ36" s="30"/>
+      <c r="AK36" s="30"/>
+      <c r="AL36" s="30">
         <v>1990</v>
       </c>
-      <c r="AM36" s="29"/>
-      <c r="AN36" s="29"/>
-      <c r="AO36" s="29"/>
-      <c r="AP36" s="29">
+      <c r="AM36" s="30"/>
+      <c r="AN36" s="30"/>
+      <c r="AO36" s="30"/>
+      <c r="AP36" s="30">
         <v>1991</v>
       </c>
-      <c r="AQ36" s="29"/>
-      <c r="AR36" s="29"/>
-      <c r="AS36" s="29"/>
-      <c r="AT36" s="29">
+      <c r="AQ36" s="30"/>
+      <c r="AR36" s="30"/>
+      <c r="AS36" s="30"/>
+      <c r="AT36" s="30">
         <v>1992</v>
       </c>
-      <c r="AU36" s="29"/>
-      <c r="AV36" s="29"/>
-      <c r="AW36" s="29"/>
-      <c r="AX36" s="29">
+      <c r="AU36" s="30"/>
+      <c r="AV36" s="30"/>
+      <c r="AW36" s="30"/>
+      <c r="AX36" s="30">
         <v>1993</v>
       </c>
-      <c r="AY36" s="29"/>
-      <c r="AZ36" s="29"/>
-      <c r="BA36" s="29"/>
-      <c r="BB36" s="29">
+      <c r="AY36" s="30"/>
+      <c r="AZ36" s="30"/>
+      <c r="BA36" s="30"/>
+      <c r="BB36" s="30">
         <v>1994</v>
       </c>
-      <c r="BC36" s="29"/>
-      <c r="BD36" s="29"/>
-      <c r="BE36" s="29"/>
-      <c r="BF36" s="29">
+      <c r="BC36" s="30"/>
+      <c r="BD36" s="30"/>
+      <c r="BE36" s="30"/>
+      <c r="BF36" s="30">
         <v>1995</v>
       </c>
-      <c r="BG36" s="29"/>
-      <c r="BH36" s="29"/>
-      <c r="BI36" s="29"/>
-      <c r="BJ36" s="29">
+      <c r="BG36" s="30"/>
+      <c r="BH36" s="30"/>
+      <c r="BI36" s="30"/>
+      <c r="BJ36" s="30">
         <v>1996</v>
       </c>
-      <c r="BK36" s="29"/>
-      <c r="BL36" s="29"/>
-      <c r="BM36" s="29"/>
-      <c r="BN36" s="29">
+      <c r="BK36" s="30"/>
+      <c r="BL36" s="30"/>
+      <c r="BM36" s="30"/>
+      <c r="BN36" s="30">
         <v>1997</v>
       </c>
-      <c r="BO36" s="29"/>
-      <c r="BP36" s="29"/>
-      <c r="BQ36" s="29"/>
-      <c r="BR36" s="29">
+      <c r="BO36" s="30"/>
+      <c r="BP36" s="30"/>
+      <c r="BQ36" s="30"/>
+      <c r="BR36" s="30">
         <v>1998</v>
       </c>
-      <c r="BS36" s="29"/>
-      <c r="BT36" s="29"/>
-      <c r="BU36" s="29"/>
-      <c r="BV36" s="29">
+      <c r="BS36" s="30"/>
+      <c r="BT36" s="30"/>
+      <c r="BU36" s="30"/>
+      <c r="BV36" s="30">
         <v>1999</v>
       </c>
-      <c r="BW36" s="29"/>
-      <c r="BX36" s="29"/>
-      <c r="BY36" s="29"/>
-      <c r="BZ36" s="29">
+      <c r="BW36" s="30"/>
+      <c r="BX36" s="30"/>
+      <c r="BY36" s="30"/>
+      <c r="BZ36" s="30">
         <v>2000</v>
       </c>
-      <c r="CA36" s="29"/>
-      <c r="CB36" s="29"/>
-      <c r="CC36" s="29"/>
-      <c r="CD36" s="29">
+      <c r="CA36" s="30"/>
+      <c r="CB36" s="30"/>
+      <c r="CC36" s="30"/>
+      <c r="CD36" s="30">
         <v>2001</v>
       </c>
-      <c r="CE36" s="29"/>
-      <c r="CF36" s="29"/>
-      <c r="CG36" s="29"/>
-      <c r="CH36" s="29">
+      <c r="CE36" s="30"/>
+      <c r="CF36" s="30"/>
+      <c r="CG36" s="30"/>
+      <c r="CH36" s="30">
         <v>2002</v>
       </c>
-      <c r="CI36" s="29"/>
-      <c r="CJ36" s="29"/>
-      <c r="CK36" s="29"/>
-      <c r="CL36" s="29">
+      <c r="CI36" s="30"/>
+      <c r="CJ36" s="30"/>
+      <c r="CK36" s="30"/>
+      <c r="CL36" s="30">
         <v>2003</v>
       </c>
-      <c r="CM36" s="29"/>
-      <c r="CN36" s="29"/>
-      <c r="CO36" s="29"/>
-      <c r="CP36" s="29">
+      <c r="CM36" s="30"/>
+      <c r="CN36" s="30"/>
+      <c r="CO36" s="30"/>
+      <c r="CP36" s="30">
         <v>2004</v>
       </c>
-      <c r="CQ36" s="29"/>
-      <c r="CR36" s="29"/>
-      <c r="CS36" s="29"/>
-      <c r="CT36" s="29">
+      <c r="CQ36" s="30"/>
+      <c r="CR36" s="30"/>
+      <c r="CS36" s="30"/>
+      <c r="CT36" s="30">
         <v>2005</v>
       </c>
-      <c r="CU36" s="29"/>
-      <c r="CV36" s="29"/>
-      <c r="CW36" s="29"/>
-      <c r="CX36" s="29">
+      <c r="CU36" s="30"/>
+      <c r="CV36" s="30"/>
+      <c r="CW36" s="30"/>
+      <c r="CX36" s="30">
         <v>2006</v>
       </c>
-      <c r="CY36" s="29"/>
-      <c r="CZ36" s="29"/>
-      <c r="DA36" s="29"/>
-      <c r="DB36" s="29">
+      <c r="CY36" s="30"/>
+      <c r="CZ36" s="30"/>
+      <c r="DA36" s="30"/>
+      <c r="DB36" s="30">
         <v>2007</v>
       </c>
-      <c r="DC36" s="29"/>
-      <c r="DD36" s="29"/>
-      <c r="DE36" s="29"/>
-      <c r="DF36" s="29">
+      <c r="DC36" s="30"/>
+      <c r="DD36" s="30"/>
+      <c r="DE36" s="30"/>
+      <c r="DF36" s="30">
         <v>2008</v>
       </c>
-      <c r="DG36" s="29"/>
-      <c r="DH36" s="29"/>
-      <c r="DI36" s="29"/>
-      <c r="DJ36" s="29">
+      <c r="DG36" s="30"/>
+      <c r="DH36" s="30"/>
+      <c r="DI36" s="30"/>
+      <c r="DJ36" s="30">
         <v>2009</v>
       </c>
-      <c r="DK36" s="29"/>
-      <c r="DL36" s="29"/>
-      <c r="DM36" s="29"/>
-      <c r="DN36" s="29">
+      <c r="DK36" s="30"/>
+      <c r="DL36" s="30"/>
+      <c r="DM36" s="30"/>
+      <c r="DN36" s="30">
         <v>2010</v>
       </c>
-      <c r="DO36" s="29"/>
-      <c r="DP36" s="29"/>
-      <c r="DQ36" s="29"/>
-      <c r="DR36" s="29">
+      <c r="DO36" s="30"/>
+      <c r="DP36" s="30"/>
+      <c r="DQ36" s="30"/>
+      <c r="DR36" s="30">
         <v>2011</v>
       </c>
-      <c r="DS36" s="29"/>
-      <c r="DT36" s="29"/>
-      <c r="DU36" s="29"/>
-      <c r="DV36" s="29">
+      <c r="DS36" s="30"/>
+      <c r="DT36" s="30"/>
+      <c r="DU36" s="30"/>
+      <c r="DV36" s="30">
         <v>2012</v>
       </c>
-      <c r="DW36" s="29"/>
-      <c r="DX36" s="29"/>
-      <c r="DY36" s="29"/>
-      <c r="DZ36" s="29">
+      <c r="DW36" s="30"/>
+      <c r="DX36" s="30"/>
+      <c r="DY36" s="30"/>
+      <c r="DZ36" s="30">
         <v>2013</v>
       </c>
-      <c r="EA36" s="29"/>
-      <c r="EB36" s="29"/>
-      <c r="EC36" s="29"/>
-      <c r="ED36" s="29">
+      <c r="EA36" s="30"/>
+      <c r="EB36" s="30"/>
+      <c r="EC36" s="30"/>
+      <c r="ED36" s="30">
         <v>2014</v>
       </c>
-      <c r="EE36" s="29"/>
-      <c r="EF36" s="29"/>
-      <c r="EG36" s="29"/>
-      <c r="EH36" s="29">
+      <c r="EE36" s="30"/>
+      <c r="EF36" s="30"/>
+      <c r="EG36" s="30"/>
+      <c r="EH36" s="30">
         <v>2015</v>
       </c>
-      <c r="EI36" s="29"/>
-      <c r="EJ36" s="29"/>
-      <c r="EK36" s="29"/>
-      <c r="EL36" s="29">
+      <c r="EI36" s="30"/>
+      <c r="EJ36" s="30"/>
+      <c r="EK36" s="30"/>
+      <c r="EL36" s="30">
         <v>2016</v>
       </c>
-      <c r="EM36" s="29"/>
-      <c r="EN36" s="29"/>
-      <c r="EO36" s="29"/>
-      <c r="EP36" s="29">
+      <c r="EM36" s="30"/>
+      <c r="EN36" s="30"/>
+      <c r="EO36" s="30"/>
+      <c r="EP36" s="30">
         <v>2017</v>
       </c>
-      <c r="EQ36" s="29"/>
-      <c r="ER36" s="29"/>
-      <c r="ES36" s="29"/>
-      <c r="ET36" s="29">
+      <c r="EQ36" s="30"/>
+      <c r="ER36" s="30"/>
+      <c r="ES36" s="30"/>
+      <c r="ET36" s="30">
         <v>2018</v>
       </c>
-      <c r="EU36" s="29"/>
-      <c r="EV36" s="29"/>
-      <c r="EW36" s="29"/>
-      <c r="EX36" s="29">
+      <c r="EU36" s="30"/>
+      <c r="EV36" s="30"/>
+      <c r="EW36" s="30"/>
+      <c r="EX36" s="30">
         <v>2019</v>
       </c>
-      <c r="EY36" s="29"/>
-      <c r="EZ36" s="29"/>
-      <c r="FA36" s="29"/>
-      <c r="FB36" s="29">
+      <c r="EY36" s="30"/>
+      <c r="EZ36" s="30"/>
+      <c r="FA36" s="30"/>
+      <c r="FB36" s="30">
         <v>2020</v>
       </c>
-      <c r="FC36" s="29"/>
-      <c r="FD36" s="29"/>
+      <c r="FC36" s="30"/>
+      <c r="FD36" s="30"/>
       <c r="FE36" s="24"/>
-      <c r="FF36" s="29">
+      <c r="FF36" s="30">
         <v>2021</v>
       </c>
-      <c r="FG36" s="29"/>
-      <c r="FH36" s="29"/>
-      <c r="FI36" s="29"/>
+      <c r="FG36" s="30"/>
+      <c r="FH36" s="30"/>
+      <c r="FI36" s="30"/>
+      <c r="FJ36" s="29">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="37" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>14</v>
       </c>
@@ -6897,11 +6956,14 @@
       <c r="FI37" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="FJ37" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="38" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:166" x14ac:dyDescent="0.2">
       <c r="FB38" s="2"/>
     </row>
-    <row r="39" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>1</v>
       </c>
@@ -7374,31 +7436,34 @@
         <v>3935758.6177309696</v>
       </c>
       <c r="FB39" s="20">
-        <v>3314359.3830596441</v>
+        <v>3314612.1320124432</v>
       </c>
       <c r="FC39" s="20">
-        <v>2918483.7096872884</v>
+        <v>2917736.7328303363</v>
       </c>
       <c r="FD39" s="20">
-        <v>3030827.0225859196</v>
+        <v>3030086.4136792915</v>
       </c>
       <c r="FE39" s="7">
-        <v>3650038.5050999606</v>
+        <v>3648921.6749099772</v>
       </c>
       <c r="FF39" s="7">
-        <v>3156930.3384596184</v>
+        <v>3156671.4757222617</v>
       </c>
       <c r="FG39" s="7">
-        <v>3130923.6869703522</v>
+        <v>3131017.1444008318</v>
       </c>
       <c r="FH39" s="7">
-        <v>3244665.8744557695</v>
+        <v>3244927.2295096582</v>
       </c>
       <c r="FI39" s="7">
-        <v>3923937.9775495995</v>
+        <v>3923915.6638969723</v>
+      </c>
+      <c r="FJ39" s="7">
+        <v>3476449.937212511</v>
       </c>
     </row>
-    <row r="40" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
@@ -7871,31 +7936,34 @@
         <v>603521.69368044217</v>
       </c>
       <c r="FB40" s="20">
-        <v>560287.25313230231</v>
+        <v>560059.91590577434</v>
       </c>
       <c r="FC40" s="20">
-        <v>849221.92256231699</v>
+        <v>848877.34974631458</v>
       </c>
       <c r="FD40" s="20">
-        <v>609337.3022683725</v>
+        <v>609090.06292544026</v>
       </c>
       <c r="FE40" s="7">
-        <v>634105.41175854881</v>
+        <v>633848.12272541516</v>
       </c>
       <c r="FF40" s="7">
-        <v>650335.78746581683</v>
+        <v>650071.91293822788</v>
       </c>
       <c r="FG40" s="7">
-        <v>813789.9172483572</v>
+        <v>813459.72101110662</v>
       </c>
       <c r="FH40" s="7">
-        <v>693392.47544823901</v>
+        <v>693111.13061773905</v>
       </c>
       <c r="FI40" s="7">
-        <v>680814.67417583161</v>
+        <v>683319.69422897021</v>
+      </c>
+      <c r="FJ40" s="7">
+        <v>673240.99871708464</v>
       </c>
     </row>
-    <row r="41" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -8368,31 +8436,34 @@
         <v>1466281.9344291748</v>
       </c>
       <c r="FB41" s="20">
-        <v>994138.68564841279</v>
+        <v>991934.11747676076</v>
       </c>
       <c r="FC41" s="20">
-        <v>629542.01901027514</v>
+        <v>625145.32863611728</v>
       </c>
       <c r="FD41" s="20">
-        <v>748718.1378956337</v>
+        <v>757158.84215571161</v>
       </c>
       <c r="FE41" s="7">
-        <v>994308.10567415517</v>
+        <v>1001594.3526948787</v>
       </c>
       <c r="FF41" s="7">
-        <v>846959.89255285112</v>
+        <v>853723.25770205481</v>
       </c>
       <c r="FG41" s="7">
-        <v>1135332.5997935922</v>
+        <v>1148183.2001693947</v>
       </c>
       <c r="FH41" s="7">
-        <v>904430.34413007263</v>
+        <v>915019.60332796397</v>
       </c>
       <c r="FI41" s="7">
-        <v>1119260.4872666011</v>
+        <v>1144070.7093116241</v>
+      </c>
+      <c r="FJ41" s="7">
+        <v>1024126.261463858</v>
       </c>
     </row>
-    <row r="42" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>4</v>
       </c>
@@ -8865,31 +8936,34 @@
         <v>1300524.4656810896</v>
       </c>
       <c r="FB42" s="20">
-        <v>1331767.9650216978</v>
+        <v>1342199.6006125915</v>
       </c>
       <c r="FC42" s="20">
-        <v>1006680.5004037225</v>
+        <v>1010842.6051584053</v>
       </c>
       <c r="FD42" s="20">
-        <v>1237670.7994792897</v>
+        <v>1234792.549018193</v>
       </c>
       <c r="FE42" s="7">
-        <v>1167388.4446551239</v>
+        <v>1161833.5198654381</v>
       </c>
       <c r="FF42" s="7">
-        <v>1213942.2314788722</v>
+        <v>1229556.046653938</v>
       </c>
       <c r="FG42" s="7">
-        <v>1286311.1346979465</v>
+        <v>1299666.0381077742</v>
       </c>
       <c r="FH42" s="7">
-        <v>1350406.0385106029</v>
+        <v>1347753.4495069475</v>
       </c>
       <c r="FI42" s="7">
-        <v>1264384.3573735328</v>
+        <v>1251030.6402114162</v>
+      </c>
+      <c r="FJ42" s="7">
+        <v>1356492.2496092932</v>
       </c>
     </row>
-    <row r="43" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>5</v>
       </c>
@@ -9362,31 +9436,34 @@
         <v>1998007.4729427341</v>
       </c>
       <c r="FB43" s="20">
-        <v>1766954.5377355535</v>
+        <v>1769934.7588123144</v>
       </c>
       <c r="FC43" s="20">
-        <v>1255763.1802746472</v>
+        <v>1257461.0203456134</v>
       </c>
       <c r="FD43" s="20">
-        <v>1533403.4797997412</v>
+        <v>1536230.0120293899</v>
       </c>
       <c r="FE43" s="7">
-        <v>1593519.8652622395</v>
+        <v>1587264.2497924436</v>
       </c>
       <c r="FF43" s="7">
-        <v>1642896.4427498858</v>
+        <v>1636845.1980508598</v>
       </c>
       <c r="FG43" s="7">
-        <v>1756087.5704188191</v>
+        <v>1764818.9462005871</v>
       </c>
       <c r="FH43" s="7">
-        <v>1732859.8894288517</v>
+        <v>1731629.9084263681</v>
       </c>
       <c r="FI43" s="7">
-        <v>1811818.2800981351</v>
+        <v>1814149.0295484206</v>
+      </c>
+      <c r="FJ43" s="7">
+        <v>1892215.2104558966</v>
       </c>
     </row>
-    <row r="44" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>6</v>
       </c>
@@ -9859,31 +9936,34 @@
         <v>-49983.132429804653</v>
       </c>
       <c r="FB44" s="20">
-        <v>-3158.7964416909963</v>
+        <v>-5065.5198112502694</v>
       </c>
       <c r="FC44" s="20">
-        <v>-8914.9700930914842</v>
+        <v>-2197.6285180007108</v>
       </c>
       <c r="FD44" s="20">
-        <v>40728.121503756382</v>
+        <v>40600.95417114906</v>
       </c>
       <c r="FE44" s="7">
-        <v>-28654.354968972504</v>
+        <v>-33337.805841903202</v>
       </c>
       <c r="FF44" s="7">
-        <v>32449.720151822083</v>
+        <v>12144.919370766729</v>
       </c>
       <c r="FG44" s="7">
-        <v>26476.320933525451</v>
+        <v>18025.805311984383</v>
       </c>
       <c r="FH44" s="7">
-        <v>-41308.560493206605</v>
+        <v>-43484.280526422895</v>
       </c>
       <c r="FI44" s="7">
-        <v>18640.158528892323</v>
+        <v>13313.555843672715</v>
+      </c>
+      <c r="FJ44" s="7">
+        <v>-19961.258224580437</v>
       </c>
     </row>
-    <row r="45" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:166" x14ac:dyDescent="0.2">
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -10048,8 +10128,9 @@
       <c r="FG45" s="7"/>
       <c r="FH45" s="7"/>
       <c r="FI45" s="7"/>
+      <c r="FJ45" s="7"/>
     </row>
-    <row r="46" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>10</v>
       </c>
@@ -10522,31 +10603,34 @@
         <v>5258096.106149137</v>
       </c>
       <c r="FB46" s="20">
-        <v>4430439.9526848122</v>
+        <v>4433805.4873840045</v>
       </c>
       <c r="FC46" s="20">
-        <v>4139250.0012958646</v>
+        <v>4142943.3675075597</v>
       </c>
       <c r="FD46" s="20">
-        <v>4133877.9039332308</v>
+        <v>4135498.8099203957</v>
       </c>
       <c r="FE46" s="7">
-        <v>4823666.2469565766</v>
+        <v>4825595.6145613622</v>
       </c>
       <c r="FF46" s="7">
-        <v>4257721.5273590954</v>
+        <v>4265322.4143363889</v>
       </c>
       <c r="FG46" s="7">
-        <v>4636746.0892249551</v>
+        <v>4645532.9628005046</v>
       </c>
       <c r="FH46" s="7">
-        <v>4418726.2826226261</v>
+        <v>4425697.2240095185</v>
       </c>
       <c r="FI46" s="7">
-        <v>5195219.3747963216</v>
+        <v>5201501.2339442354</v>
+      </c>
+      <c r="FJ46" s="7">
+        <v>4618132.9783222703</v>
       </c>
     </row>
-    <row r="47" spans="1:165" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:166" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -10704,7 +10788,7 @@
       <c r="EZ47" s="7"/>
       <c r="FA47" s="7"/>
     </row>
-    <row r="48" spans="1:165" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:166" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -10862,7 +10946,7 @@
       <c r="EZ48" s="7"/>
       <c r="FA48" s="7"/>
     </row>
-    <row r="49" spans="1:165" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:166" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -11020,7 +11104,7 @@
       <c r="EZ49" s="7"/>
       <c r="FA49" s="7"/>
     </row>
-    <row r="50" spans="1:165" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:166" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -11178,7 +11262,7 @@
       <c r="EZ50" s="7"/>
       <c r="FA50" s="7"/>
     </row>
-    <row r="51" spans="1:165" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:166" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -11344,45 +11428,46 @@
       <c r="FG51" s="9"/>
       <c r="FH51" s="9"/>
       <c r="FI51" s="9"/>
+      <c r="FJ51" s="9"/>
     </row>
-    <row r="52" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="FB60" s="28"/>
       <c r="FC60" s="28"/>
       <c r="FD60" s="28"/>
       <c r="FE60" s="28"/>
     </row>
-    <row r="61" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>19</v>
       </c>
@@ -11391,257 +11476,261 @@
       <c r="FD61" s="28"/>
       <c r="FE61" s="28"/>
     </row>
-    <row r="62" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="FB62" s="28"/>
       <c r="FC62" s="28"/>
       <c r="FD62" s="28"/>
       <c r="FE62" s="28"/>
+      <c r="FF62" s="9"/>
     </row>
-    <row r="63" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
-      <c r="B63" s="29" t="s">
+      <c r="B63" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29" t="s">
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="29" t="s">
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="29" t="s">
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="O63" s="29"/>
-      <c r="P63" s="29"/>
-      <c r="Q63" s="29"/>
-      <c r="R63" s="29" t="s">
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="30"/>
+      <c r="R63" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="S63" s="29"/>
-      <c r="T63" s="29"/>
-      <c r="U63" s="29"/>
-      <c r="V63" s="29" t="s">
+      <c r="S63" s="30"/>
+      <c r="T63" s="30"/>
+      <c r="U63" s="30"/>
+      <c r="V63" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="W63" s="29"/>
-      <c r="X63" s="29"/>
-      <c r="Y63" s="29"/>
-      <c r="Z63" s="29" t="s">
+      <c r="W63" s="30"/>
+      <c r="X63" s="30"/>
+      <c r="Y63" s="30"/>
+      <c r="Z63" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="AA63" s="29"/>
-      <c r="AB63" s="29"/>
-      <c r="AC63" s="29"/>
-      <c r="AD63" s="29" t="s">
+      <c r="AA63" s="30"/>
+      <c r="AB63" s="30"/>
+      <c r="AC63" s="30"/>
+      <c r="AD63" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="AE63" s="29"/>
-      <c r="AF63" s="29"/>
-      <c r="AG63" s="29"/>
-      <c r="AH63" s="29" t="s">
+      <c r="AE63" s="30"/>
+      <c r="AF63" s="30"/>
+      <c r="AG63" s="30"/>
+      <c r="AH63" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="AI63" s="29"/>
-      <c r="AJ63" s="29"/>
-      <c r="AK63" s="29"/>
-      <c r="AL63" s="29" t="s">
+      <c r="AI63" s="30"/>
+      <c r="AJ63" s="30"/>
+      <c r="AK63" s="30"/>
+      <c r="AL63" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="AM63" s="29"/>
-      <c r="AN63" s="29"/>
-      <c r="AO63" s="29"/>
-      <c r="AP63" s="29" t="s">
+      <c r="AM63" s="30"/>
+      <c r="AN63" s="30"/>
+      <c r="AO63" s="30"/>
+      <c r="AP63" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="AQ63" s="29"/>
-      <c r="AR63" s="29"/>
-      <c r="AS63" s="29"/>
-      <c r="AT63" s="29" t="s">
+      <c r="AQ63" s="30"/>
+      <c r="AR63" s="30"/>
+      <c r="AS63" s="30"/>
+      <c r="AT63" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="AU63" s="29"/>
-      <c r="AV63" s="29"/>
-      <c r="AW63" s="29"/>
-      <c r="AX63" s="29" t="s">
+      <c r="AU63" s="30"/>
+      <c r="AV63" s="30"/>
+      <c r="AW63" s="30"/>
+      <c r="AX63" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="AY63" s="29"/>
-      <c r="AZ63" s="29"/>
-      <c r="BA63" s="29"/>
-      <c r="BB63" s="29" t="s">
+      <c r="AY63" s="30"/>
+      <c r="AZ63" s="30"/>
+      <c r="BA63" s="30"/>
+      <c r="BB63" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="BC63" s="29"/>
-      <c r="BD63" s="29"/>
-      <c r="BE63" s="29"/>
-      <c r="BF63" s="29" t="s">
+      <c r="BC63" s="30"/>
+      <c r="BD63" s="30"/>
+      <c r="BE63" s="30"/>
+      <c r="BF63" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="BG63" s="29"/>
-      <c r="BH63" s="29"/>
-      <c r="BI63" s="29"/>
-      <c r="BJ63" s="29" t="s">
+      <c r="BG63" s="30"/>
+      <c r="BH63" s="30"/>
+      <c r="BI63" s="30"/>
+      <c r="BJ63" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="BK63" s="29"/>
-      <c r="BL63" s="29"/>
-      <c r="BM63" s="29"/>
-      <c r="BN63" s="29" t="s">
+      <c r="BK63" s="30"/>
+      <c r="BL63" s="30"/>
+      <c r="BM63" s="30"/>
+      <c r="BN63" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="BO63" s="29"/>
-      <c r="BP63" s="29"/>
-      <c r="BQ63" s="29"/>
-      <c r="BR63" s="29" t="s">
+      <c r="BO63" s="30"/>
+      <c r="BP63" s="30"/>
+      <c r="BQ63" s="30"/>
+      <c r="BR63" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="BS63" s="29"/>
-      <c r="BT63" s="29"/>
-      <c r="BU63" s="29"/>
-      <c r="BV63" s="29" t="s">
+      <c r="BS63" s="30"/>
+      <c r="BT63" s="30"/>
+      <c r="BU63" s="30"/>
+      <c r="BV63" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="BW63" s="29"/>
-      <c r="BX63" s="29"/>
-      <c r="BY63" s="29"/>
-      <c r="BZ63" s="29" t="s">
+      <c r="BW63" s="30"/>
+      <c r="BX63" s="30"/>
+      <c r="BY63" s="30"/>
+      <c r="BZ63" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="CA63" s="29"/>
-      <c r="CB63" s="29"/>
-      <c r="CC63" s="29"/>
-      <c r="CD63" s="29" t="s">
+      <c r="CA63" s="30"/>
+      <c r="CB63" s="30"/>
+      <c r="CC63" s="30"/>
+      <c r="CD63" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="CE63" s="29"/>
-      <c r="CF63" s="29"/>
-      <c r="CG63" s="29"/>
-      <c r="CH63" s="29" t="s">
+      <c r="CE63" s="30"/>
+      <c r="CF63" s="30"/>
+      <c r="CG63" s="30"/>
+      <c r="CH63" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="CI63" s="29"/>
-      <c r="CJ63" s="29"/>
-      <c r="CK63" s="29"/>
-      <c r="CL63" s="29" t="s">
+      <c r="CI63" s="30"/>
+      <c r="CJ63" s="30"/>
+      <c r="CK63" s="30"/>
+      <c r="CL63" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="CM63" s="29"/>
-      <c r="CN63" s="29"/>
-      <c r="CO63" s="29"/>
-      <c r="CP63" s="29" t="s">
+      <c r="CM63" s="30"/>
+      <c r="CN63" s="30"/>
+      <c r="CO63" s="30"/>
+      <c r="CP63" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="CQ63" s="29"/>
-      <c r="CR63" s="29"/>
-      <c r="CS63" s="29"/>
-      <c r="CT63" s="29" t="s">
+      <c r="CQ63" s="30"/>
+      <c r="CR63" s="30"/>
+      <c r="CS63" s="30"/>
+      <c r="CT63" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="CU63" s="29"/>
-      <c r="CV63" s="29"/>
-      <c r="CW63" s="29"/>
-      <c r="CX63" s="29" t="s">
+      <c r="CU63" s="30"/>
+      <c r="CV63" s="30"/>
+      <c r="CW63" s="30"/>
+      <c r="CX63" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="CY63" s="29"/>
-      <c r="CZ63" s="29"/>
-      <c r="DA63" s="29"/>
-      <c r="DB63" s="29" t="s">
+      <c r="CY63" s="30"/>
+      <c r="CZ63" s="30"/>
+      <c r="DA63" s="30"/>
+      <c r="DB63" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="DC63" s="29"/>
-      <c r="DD63" s="29"/>
-      <c r="DE63" s="29"/>
-      <c r="DF63" s="29" t="s">
+      <c r="DC63" s="30"/>
+      <c r="DD63" s="30"/>
+      <c r="DE63" s="30"/>
+      <c r="DF63" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="DG63" s="29"/>
-      <c r="DH63" s="29"/>
-      <c r="DI63" s="29"/>
-      <c r="DJ63" s="29" t="s">
+      <c r="DG63" s="30"/>
+      <c r="DH63" s="30"/>
+      <c r="DI63" s="30"/>
+      <c r="DJ63" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="DK63" s="29"/>
-      <c r="DL63" s="29"/>
-      <c r="DM63" s="29"/>
-      <c r="DN63" s="29" t="s">
+      <c r="DK63" s="30"/>
+      <c r="DL63" s="30"/>
+      <c r="DM63" s="30"/>
+      <c r="DN63" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="DO63" s="29"/>
-      <c r="DP63" s="29"/>
-      <c r="DQ63" s="29"/>
-      <c r="DR63" s="29" t="s">
+      <c r="DO63" s="30"/>
+      <c r="DP63" s="30"/>
+      <c r="DQ63" s="30"/>
+      <c r="DR63" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="DS63" s="29"/>
-      <c r="DT63" s="29"/>
-      <c r="DU63" s="29"/>
-      <c r="DV63" s="29" t="s">
+      <c r="DS63" s="30"/>
+      <c r="DT63" s="30"/>
+      <c r="DU63" s="30"/>
+      <c r="DV63" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="DW63" s="29"/>
-      <c r="DX63" s="29"/>
-      <c r="DY63" s="29"/>
-      <c r="DZ63" s="29" t="s">
+      <c r="DW63" s="30"/>
+      <c r="DX63" s="30"/>
+      <c r="DY63" s="30"/>
+      <c r="DZ63" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="EA63" s="29"/>
-      <c r="EB63" s="29"/>
-      <c r="EC63" s="29"/>
-      <c r="ED63" s="29" t="s">
+      <c r="EA63" s="30"/>
+      <c r="EB63" s="30"/>
+      <c r="EC63" s="30"/>
+      <c r="ED63" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="EE63" s="29"/>
-      <c r="EF63" s="29"/>
-      <c r="EG63" s="29"/>
-      <c r="EH63" s="29" t="s">
+      <c r="EE63" s="30"/>
+      <c r="EF63" s="30"/>
+      <c r="EG63" s="30"/>
+      <c r="EH63" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="EI63" s="29"/>
-      <c r="EJ63" s="29"/>
-      <c r="EK63" s="29"/>
-      <c r="EL63" s="29" t="s">
+      <c r="EI63" s="30"/>
+      <c r="EJ63" s="30"/>
+      <c r="EK63" s="30"/>
+      <c r="EL63" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="EM63" s="29"/>
-      <c r="EN63" s="29"/>
-      <c r="EO63" s="29"/>
-      <c r="EP63" s="29" t="s">
+      <c r="EM63" s="30"/>
+      <c r="EN63" s="30"/>
+      <c r="EO63" s="30"/>
+      <c r="EP63" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="EQ63" s="29"/>
-      <c r="ER63" s="29"/>
-      <c r="ES63" s="29"/>
-      <c r="ET63" s="29" t="s">
+      <c r="EQ63" s="30"/>
+      <c r="ER63" s="30"/>
+      <c r="ES63" s="30"/>
+      <c r="ET63" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="EU63" s="29"/>
-      <c r="EV63" s="29"/>
-      <c r="EW63" s="29"/>
-      <c r="EX63" s="29" t="s">
+      <c r="EU63" s="30"/>
+      <c r="EV63" s="30"/>
+      <c r="EW63" s="30"/>
+      <c r="EX63" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="EY63" s="29"/>
-      <c r="EZ63" s="29"/>
-      <c r="FA63" s="29"/>
-      <c r="FB63" s="29" t="s">
+      <c r="EY63" s="30"/>
+      <c r="EZ63" s="30"/>
+      <c r="FA63" s="30"/>
+      <c r="FB63" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="FC63" s="29"/>
-      <c r="FD63" s="29"/>
-      <c r="FE63" s="29"/>
+      <c r="FC63" s="30"/>
+      <c r="FD63" s="30"/>
+      <c r="FE63" s="30"/>
+      <c r="FF63" s="32" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="64" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>14</v>
       </c>
@@ -12125,14 +12214,21 @@
       <c r="FE64" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="FF64" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="65" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:165" x14ac:dyDescent="0.2">
       <c r="FB65" s="28"/>
       <c r="FC65" s="28"/>
       <c r="FD65" s="28"/>
       <c r="FE65" s="28"/>
+      <c r="FF65" s="28"/>
+      <c r="FG65" s="10"/>
+      <c r="FH65" s="10"/>
+      <c r="FI65" s="10"/>
     </row>
-    <row r="66" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>1</v>
       </c>
@@ -12593,31 +12689,37 @@
         <v>6.7983819026266303</v>
       </c>
       <c r="EX66" s="21">
-        <v>2.4404670714954051</v>
+        <v>2.4475338384904575</v>
       </c>
       <c r="EY66" s="21">
-        <v>-13.051456400966742</v>
+        <v>-13.074845502299695</v>
       </c>
       <c r="EZ66" s="22">
-        <v>-7.264133752253187</v>
+        <v>-7.2864723482587692</v>
       </c>
       <c r="FA66" s="25">
-        <v>-4.5941242098372186</v>
+        <v>-4.6206716907713172</v>
       </c>
       <c r="FB66" s="26">
-        <v>-0.7127895554888255</v>
+        <v>-0.73220830188455466</v>
       </c>
       <c r="FC66" s="26">
-        <v>11.584335359879219</v>
+        <v>11.638927618188916</v>
       </c>
       <c r="FD66" s="26">
-        <v>11.54233718093802</v>
+        <v>11.591066239769091</v>
       </c>
       <c r="FE66" s="26">
-        <v>11.368632691792939</v>
-      </c>
+        <v>11.390468101409425</v>
+      </c>
+      <c r="FF66" s="31">
+        <v>13.534551901451238</v>
+      </c>
+      <c r="FG66" s="31"/>
+      <c r="FH66" s="31"/>
+      <c r="FI66" s="31"/>
     </row>
-    <row r="67" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>2</v>
       </c>
@@ -13078,16 +13180,16 @@
         <v>17.619048657768673</v>
       </c>
       <c r="EX67" s="21">
-        <v>9.9007827041732952</v>
+        <v>9.8561903294698681</v>
       </c>
       <c r="EY67" s="21">
-        <v>24.006683799366442</v>
+        <v>23.956367938335731</v>
       </c>
       <c r="EZ67" s="22">
-        <v>8.1478167682977727</v>
+        <v>8.1039356616302172</v>
       </c>
       <c r="FA67" s="25">
-        <v>7.3596845307022107</v>
+        <v>7.3161232096375528</v>
       </c>
       <c r="FB67" s="26">
         <v>19.755251610037661</v>
@@ -13099,10 +13201,16 @@
         <v>16.93416140157666</v>
       </c>
       <c r="FE67" s="25">
-        <v>10.428180295683262</v>
-      </c>
+        <v>10.879876927017889</v>
+      </c>
+      <c r="FF67" s="31">
+        <v>7.0164149150596415</v>
+      </c>
+      <c r="FG67" s="31"/>
+      <c r="FH67" s="31"/>
+      <c r="FI67" s="31"/>
     </row>
-    <row r="68" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>3</v>
       </c>
@@ -13563,31 +13671,37 @@
         <v>7.0079505719769202</v>
       </c>
       <c r="EX68" s="21">
-        <v>-18.676558505125072</v>
+        <v>-18.861245559327671</v>
       </c>
       <c r="EY68" s="21">
-        <v>-58.125800917692345</v>
+        <v>-58.405754549807995</v>
       </c>
       <c r="EZ68" s="22">
-        <v>-45.330600442424732</v>
+        <v>-44.21624739672373</v>
       </c>
       <c r="FA68" s="25">
-        <v>-35.264340675032187</v>
+        <v>-35.073868251992906</v>
       </c>
       <c r="FB68" s="26">
-        <v>-13.294496830254829</v>
+        <v>-14.547633733493143</v>
       </c>
       <c r="FC68" s="25">
-        <v>115.66075094911974</v>
+        <v>120.10439096014497</v>
       </c>
       <c r="FD68" s="25">
-        <v>37.93203681435665</v>
+        <v>35.025168071780342</v>
       </c>
       <c r="FE68" s="25">
-        <v>25.124772932205431</v>
-      </c>
+        <v>26.463180133460739</v>
+      </c>
+      <c r="FF68" s="31">
+        <v>38.912777029325127</v>
+      </c>
+      <c r="FG68" s="31"/>
+      <c r="FH68" s="31"/>
+      <c r="FI68" s="31"/>
     </row>
-    <row r="69" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>4</v>
       </c>
@@ -14048,31 +14162,37 @@
         <v>-1.6292652725595502</v>
       </c>
       <c r="EX69" s="21">
-        <v>-5.6621865177616399</v>
+        <v>-4.874908333501665</v>
       </c>
       <c r="EY69" s="21">
-        <v>-35.959393725200499</v>
+        <v>-35.670289149043398</v>
       </c>
       <c r="EZ69" s="22">
-        <v>-20.180341247362861</v>
+        <v>-20.395992848376622</v>
       </c>
       <c r="FA69" s="25">
-        <v>-11.474981248211151</v>
+        <v>-11.926934770979457</v>
       </c>
       <c r="FB69" s="26">
-        <v>-9.4155689825667537</v>
+        <v>-8.9072299549234515</v>
       </c>
       <c r="FC69" s="25">
-        <v>29.366073403019982</v>
+        <v>30.3307626703442</v>
       </c>
       <c r="FD69" s="25">
-        <v>14.75064018200996</v>
+        <v>14.798143597448046</v>
       </c>
       <c r="FE69" s="25">
-        <v>13.375202749161488</v>
-      </c>
+        <v>12.739135090572006</v>
+      </c>
+      <c r="FF69" s="31">
+        <v>20.143484340541761</v>
+      </c>
+      <c r="FG69" s="31"/>
+      <c r="FH69" s="31"/>
+      <c r="FI69" s="31"/>
     </row>
-    <row r="70" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>5</v>
       </c>
@@ -14533,31 +14653,37 @@
         <v>0.54493933217605672</v>
       </c>
       <c r="EX70" s="21">
-        <v>-11.984444016599582</v>
+        <v>-11.84532359684539</v>
       </c>
       <c r="EY70" s="21">
-        <v>-40.456527993530656</v>
+        <v>-40.356552736944451</v>
       </c>
       <c r="EZ70" s="22">
-        <v>-25.694897175121127</v>
+        <v>-25.570497730560589</v>
       </c>
       <c r="FA70" s="25">
-        <v>-22.634465179251094</v>
+        <v>-22.971466300539262</v>
       </c>
       <c r="FB70" s="26">
-        <v>-6.8170348124229463</v>
+        <v>-7.2262534490441794</v>
       </c>
       <c r="FC70" s="25">
-        <v>54.729507857133029</v>
+        <v>55.310996412188587</v>
       </c>
       <c r="FD70" s="25">
-        <v>28.844336120925362</v>
+        <v>28.565081427114194</v>
       </c>
       <c r="FE70" s="25">
-        <v>30.883128638073345</v>
-      </c>
+        <v>31.614921219689251</v>
+      </c>
+      <c r="FF70" s="31">
+        <v>36.042250359643106</v>
+      </c>
+      <c r="FG70" s="31"/>
+      <c r="FH70" s="31"/>
+      <c r="FI70" s="31"/>
     </row>
-    <row r="71" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:165" x14ac:dyDescent="0.2">
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
@@ -14718,8 +14844,12 @@
       <c r="FC71" s="25"/>
       <c r="FD71" s="25"/>
       <c r="FE71" s="25"/>
+      <c r="FF71" s="31"/>
+      <c r="FG71" s="31"/>
+      <c r="FH71" s="31"/>
+      <c r="FI71" s="31"/>
     </row>
-    <row r="72" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:165" x14ac:dyDescent="0.2">
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
@@ -14880,8 +15010,12 @@
       <c r="FC72" s="25"/>
       <c r="FD72" s="25"/>
       <c r="FE72" s="25"/>
+      <c r="FF72" s="31"/>
+      <c r="FG72" s="31"/>
+      <c r="FH72" s="31"/>
+      <c r="FI72" s="31"/>
     </row>
-    <row r="73" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>10</v>
       </c>
@@ -15342,31 +15476,37 @@
         <v>6.8973676805959059</v>
       </c>
       <c r="EX73" s="21">
-        <v>0.44636900920261269</v>
+        <v>0.52107927021884848</v>
       </c>
       <c r="EY73" s="21">
-        <v>-15.029054475562489</v>
+        <v>-14.952822278890139</v>
       </c>
       <c r="EZ73" s="22">
-        <v>-11.065633565315039</v>
+        <v>-11.019821437576809</v>
       </c>
       <c r="FA73" s="25">
-        <v>-6.2687759500294362</v>
+        <v>-6.1995032763103808</v>
       </c>
       <c r="FB73" s="26">
-        <v>-1.847432708916358</v>
+        <v>-1.7320826131756917</v>
       </c>
       <c r="FC73" s="25">
-        <v>15.097704130874263</v>
+        <v>15.302372452855906</v>
       </c>
       <c r="FD73" s="25">
-        <v>9.3798662833247874</v>
+        <v>9.4936344771557657</v>
       </c>
       <c r="FE73" s="25">
-        <v>9.9374818372740066</v>
-      </c>
+        <v>9.761099622005645</v>
+      </c>
+      <c r="FF73" s="31">
+        <v>12.769879670184679</v>
+      </c>
+      <c r="FG73" s="31"/>
+      <c r="FH73" s="31"/>
+      <c r="FI73" s="31"/>
     </row>
-    <row r="74" spans="1:161" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:165" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
@@ -15521,7 +15661,7 @@
       <c r="EW74" s="13"/>
       <c r="EX74" s="3"/>
     </row>
-    <row r="75" spans="1:161" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:165" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
@@ -15676,7 +15816,7 @@
       <c r="EW75" s="13"/>
       <c r="EX75" s="3"/>
     </row>
-    <row r="76" spans="1:161" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:165" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
@@ -15831,7 +15971,7 @@
       <c r="EW76" s="13"/>
       <c r="EX76" s="3"/>
     </row>
-    <row r="77" spans="1:161" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:165" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
@@ -15986,7 +16126,7 @@
       <c r="EW77" s="13"/>
       <c r="EX77" s="3"/>
     </row>
-    <row r="78" spans="1:161" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:165" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -16148,297 +16288,302 @@
       <c r="FC78" s="9"/>
       <c r="FD78" s="9"/>
       <c r="FE78" s="9"/>
+      <c r="FF78" s="9"/>
     </row>
-    <row r="79" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
+      <c r="FF89" s="9"/>
     </row>
-    <row r="90" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
-      <c r="B90" s="29" t="s">
+      <c r="B90" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29" t="s">
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="29"/>
-      <c r="J90" s="29" t="s">
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="K90" s="29"/>
-      <c r="L90" s="29"/>
-      <c r="M90" s="29"/>
-      <c r="N90" s="29" t="s">
+      <c r="K90" s="30"/>
+      <c r="L90" s="30"/>
+      <c r="M90" s="30"/>
+      <c r="N90" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="O90" s="29"/>
-      <c r="P90" s="29"/>
-      <c r="Q90" s="29"/>
-      <c r="R90" s="29" t="s">
+      <c r="O90" s="30"/>
+      <c r="P90" s="30"/>
+      <c r="Q90" s="30"/>
+      <c r="R90" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="S90" s="29"/>
-      <c r="T90" s="29"/>
-      <c r="U90" s="29"/>
-      <c r="V90" s="29" t="s">
+      <c r="S90" s="30"/>
+      <c r="T90" s="30"/>
+      <c r="U90" s="30"/>
+      <c r="V90" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="W90" s="29"/>
-      <c r="X90" s="29"/>
-      <c r="Y90" s="29"/>
-      <c r="Z90" s="29" t="s">
+      <c r="W90" s="30"/>
+      <c r="X90" s="30"/>
+      <c r="Y90" s="30"/>
+      <c r="Z90" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="AA90" s="29"/>
-      <c r="AB90" s="29"/>
-      <c r="AC90" s="29"/>
-      <c r="AD90" s="29" t="s">
+      <c r="AA90" s="30"/>
+      <c r="AB90" s="30"/>
+      <c r="AC90" s="30"/>
+      <c r="AD90" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="AE90" s="29"/>
-      <c r="AF90" s="29"/>
-      <c r="AG90" s="29"/>
-      <c r="AH90" s="29" t="s">
+      <c r="AE90" s="30"/>
+      <c r="AF90" s="30"/>
+      <c r="AG90" s="30"/>
+      <c r="AH90" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="AI90" s="29"/>
-      <c r="AJ90" s="29"/>
-      <c r="AK90" s="29"/>
-      <c r="AL90" s="29" t="s">
+      <c r="AI90" s="30"/>
+      <c r="AJ90" s="30"/>
+      <c r="AK90" s="30"/>
+      <c r="AL90" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="AM90" s="29"/>
-      <c r="AN90" s="29"/>
-      <c r="AO90" s="29"/>
-      <c r="AP90" s="29" t="s">
+      <c r="AM90" s="30"/>
+      <c r="AN90" s="30"/>
+      <c r="AO90" s="30"/>
+      <c r="AP90" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="AQ90" s="29"/>
-      <c r="AR90" s="29"/>
-      <c r="AS90" s="29"/>
-      <c r="AT90" s="29" t="s">
+      <c r="AQ90" s="30"/>
+      <c r="AR90" s="30"/>
+      <c r="AS90" s="30"/>
+      <c r="AT90" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="AU90" s="29"/>
-      <c r="AV90" s="29"/>
-      <c r="AW90" s="29"/>
-      <c r="AX90" s="29" t="s">
+      <c r="AU90" s="30"/>
+      <c r="AV90" s="30"/>
+      <c r="AW90" s="30"/>
+      <c r="AX90" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="AY90" s="29"/>
-      <c r="AZ90" s="29"/>
-      <c r="BA90" s="29"/>
-      <c r="BB90" s="29" t="s">
+      <c r="AY90" s="30"/>
+      <c r="AZ90" s="30"/>
+      <c r="BA90" s="30"/>
+      <c r="BB90" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="BC90" s="29"/>
-      <c r="BD90" s="29"/>
-      <c r="BE90" s="29"/>
-      <c r="BF90" s="29" t="s">
+      <c r="BC90" s="30"/>
+      <c r="BD90" s="30"/>
+      <c r="BE90" s="30"/>
+      <c r="BF90" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="BG90" s="29"/>
-      <c r="BH90" s="29"/>
-      <c r="BI90" s="29"/>
-      <c r="BJ90" s="29" t="s">
+      <c r="BG90" s="30"/>
+      <c r="BH90" s="30"/>
+      <c r="BI90" s="30"/>
+      <c r="BJ90" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="BK90" s="29"/>
-      <c r="BL90" s="29"/>
-      <c r="BM90" s="29"/>
-      <c r="BN90" s="29" t="s">
+      <c r="BK90" s="30"/>
+      <c r="BL90" s="30"/>
+      <c r="BM90" s="30"/>
+      <c r="BN90" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="BO90" s="29"/>
-      <c r="BP90" s="29"/>
-      <c r="BQ90" s="29"/>
-      <c r="BR90" s="29" t="s">
+      <c r="BO90" s="30"/>
+      <c r="BP90" s="30"/>
+      <c r="BQ90" s="30"/>
+      <c r="BR90" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="BS90" s="29"/>
-      <c r="BT90" s="29"/>
-      <c r="BU90" s="29"/>
-      <c r="BV90" s="29" t="s">
+      <c r="BS90" s="30"/>
+      <c r="BT90" s="30"/>
+      <c r="BU90" s="30"/>
+      <c r="BV90" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="BW90" s="29"/>
-      <c r="BX90" s="29"/>
-      <c r="BY90" s="29"/>
-      <c r="BZ90" s="29" t="s">
+      <c r="BW90" s="30"/>
+      <c r="BX90" s="30"/>
+      <c r="BY90" s="30"/>
+      <c r="BZ90" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="CA90" s="29"/>
-      <c r="CB90" s="29"/>
-      <c r="CC90" s="29"/>
-      <c r="CD90" s="29" t="s">
+      <c r="CA90" s="30"/>
+      <c r="CB90" s="30"/>
+      <c r="CC90" s="30"/>
+      <c r="CD90" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="CE90" s="29"/>
-      <c r="CF90" s="29"/>
-      <c r="CG90" s="29"/>
-      <c r="CH90" s="29" t="s">
+      <c r="CE90" s="30"/>
+      <c r="CF90" s="30"/>
+      <c r="CG90" s="30"/>
+      <c r="CH90" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="CI90" s="29"/>
-      <c r="CJ90" s="29"/>
-      <c r="CK90" s="29"/>
-      <c r="CL90" s="29" t="s">
+      <c r="CI90" s="30"/>
+      <c r="CJ90" s="30"/>
+      <c r="CK90" s="30"/>
+      <c r="CL90" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="CM90" s="29"/>
-      <c r="CN90" s="29"/>
-      <c r="CO90" s="29"/>
-      <c r="CP90" s="29" t="s">
+      <c r="CM90" s="30"/>
+      <c r="CN90" s="30"/>
+      <c r="CO90" s="30"/>
+      <c r="CP90" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="CQ90" s="29"/>
-      <c r="CR90" s="29"/>
-      <c r="CS90" s="29"/>
-      <c r="CT90" s="29" t="s">
+      <c r="CQ90" s="30"/>
+      <c r="CR90" s="30"/>
+      <c r="CS90" s="30"/>
+      <c r="CT90" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="CU90" s="29"/>
-      <c r="CV90" s="29"/>
-      <c r="CW90" s="29"/>
-      <c r="CX90" s="29" t="s">
+      <c r="CU90" s="30"/>
+      <c r="CV90" s="30"/>
+      <c r="CW90" s="30"/>
+      <c r="CX90" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="CY90" s="29"/>
-      <c r="CZ90" s="29"/>
-      <c r="DA90" s="29"/>
-      <c r="DB90" s="29" t="s">
+      <c r="CY90" s="30"/>
+      <c r="CZ90" s="30"/>
+      <c r="DA90" s="30"/>
+      <c r="DB90" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="DC90" s="29"/>
-      <c r="DD90" s="29"/>
-      <c r="DE90" s="29"/>
-      <c r="DF90" s="29" t="s">
+      <c r="DC90" s="30"/>
+      <c r="DD90" s="30"/>
+      <c r="DE90" s="30"/>
+      <c r="DF90" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="DG90" s="29"/>
-      <c r="DH90" s="29"/>
-      <c r="DI90" s="29"/>
-      <c r="DJ90" s="29" t="s">
+      <c r="DG90" s="30"/>
+      <c r="DH90" s="30"/>
+      <c r="DI90" s="30"/>
+      <c r="DJ90" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="DK90" s="29"/>
-      <c r="DL90" s="29"/>
-      <c r="DM90" s="29"/>
-      <c r="DN90" s="29" t="s">
+      <c r="DK90" s="30"/>
+      <c r="DL90" s="30"/>
+      <c r="DM90" s="30"/>
+      <c r="DN90" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="DO90" s="29"/>
-      <c r="DP90" s="29"/>
-      <c r="DQ90" s="29"/>
-      <c r="DR90" s="29" t="s">
+      <c r="DO90" s="30"/>
+      <c r="DP90" s="30"/>
+      <c r="DQ90" s="30"/>
+      <c r="DR90" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="DS90" s="29"/>
-      <c r="DT90" s="29"/>
-      <c r="DU90" s="29"/>
-      <c r="DV90" s="29" t="s">
+      <c r="DS90" s="30"/>
+      <c r="DT90" s="30"/>
+      <c r="DU90" s="30"/>
+      <c r="DV90" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="DW90" s="29"/>
-      <c r="DX90" s="29"/>
-      <c r="DY90" s="29"/>
-      <c r="DZ90" s="29" t="s">
+      <c r="DW90" s="30"/>
+      <c r="DX90" s="30"/>
+      <c r="DY90" s="30"/>
+      <c r="DZ90" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="EA90" s="29"/>
-      <c r="EB90" s="29"/>
-      <c r="EC90" s="29"/>
-      <c r="ED90" s="29" t="s">
+      <c r="EA90" s="30"/>
+      <c r="EB90" s="30"/>
+      <c r="EC90" s="30"/>
+      <c r="ED90" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="EE90" s="29"/>
-      <c r="EF90" s="29"/>
-      <c r="EG90" s="29"/>
-      <c r="EH90" s="29" t="s">
+      <c r="EE90" s="30"/>
+      <c r="EF90" s="30"/>
+      <c r="EG90" s="30"/>
+      <c r="EH90" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="EI90" s="29"/>
-      <c r="EJ90" s="29"/>
-      <c r="EK90" s="29"/>
-      <c r="EL90" s="29" t="s">
+      <c r="EI90" s="30"/>
+      <c r="EJ90" s="30"/>
+      <c r="EK90" s="30"/>
+      <c r="EL90" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="EM90" s="29"/>
-      <c r="EN90" s="29"/>
-      <c r="EO90" s="29"/>
-      <c r="EP90" s="29" t="s">
+      <c r="EM90" s="30"/>
+      <c r="EN90" s="30"/>
+      <c r="EO90" s="30"/>
+      <c r="EP90" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="EQ90" s="29"/>
-      <c r="ER90" s="29"/>
-      <c r="ES90" s="29"/>
-      <c r="ET90" s="29" t="s">
+      <c r="EQ90" s="30"/>
+      <c r="ER90" s="30"/>
+      <c r="ES90" s="30"/>
+      <c r="ET90" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="EU90" s="29"/>
-      <c r="EV90" s="29"/>
-      <c r="EW90" s="29"/>
-      <c r="EX90" s="29" t="s">
+      <c r="EU90" s="30"/>
+      <c r="EV90" s="30"/>
+      <c r="EW90" s="30"/>
+      <c r="EX90" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="EY90" s="29"/>
-      <c r="EZ90" s="29"/>
-      <c r="FA90" s="29"/>
-      <c r="FB90" s="29" t="s">
+      <c r="EY90" s="30"/>
+      <c r="EZ90" s="30"/>
+      <c r="FA90" s="30"/>
+      <c r="FB90" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="FC90" s="29"/>
-      <c r="FD90" s="29"/>
-      <c r="FE90" s="29"/>
+      <c r="FC90" s="30"/>
+      <c r="FD90" s="30"/>
+      <c r="FE90" s="30"/>
+      <c r="FF90" s="32" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="91" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>14</v>
       </c>
@@ -16922,8 +17067,14 @@
       <c r="FE91" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="FF91" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="93" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:162" x14ac:dyDescent="0.2">
+      <c r="FF92" s="28"/>
+    </row>
+    <row r="93" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>1</v>
       </c>
@@ -17384,31 +17535,34 @@
         <v>5.7234577532908588</v>
       </c>
       <c r="EX93" s="21">
-        <v>0.16959619429816541</v>
+        <v>0.17723500397880798</v>
       </c>
       <c r="EY93" s="21">
-        <v>-15.300898448308629</v>
+        <v>-15.322576920747494</v>
       </c>
       <c r="EZ93" s="22">
-        <v>-9.1816578891274077</v>
+        <v>-9.2038501398072583</v>
       </c>
       <c r="FA93" s="25">
-        <v>-7.2595944106890187</v>
+        <v>-7.2879709016900733</v>
       </c>
       <c r="FB93" s="26">
-        <v>-4.7499086974296461</v>
+        <v>-4.7649815423287123</v>
       </c>
       <c r="FC93" s="25">
-        <v>7.279121571859875</v>
+        <v>7.3097894395565959</v>
       </c>
       <c r="FD93" s="25">
-        <v>7.0554620991666326</v>
+        <v>7.0902537584561998</v>
       </c>
       <c r="FE93" s="25">
-        <v>7.504015973172244</v>
+        <v>7.5363083531733821</v>
+      </c>
+      <c r="FF93" s="31">
+        <v>10.130242058752174</v>
       </c>
     </row>
-    <row r="94" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>2</v>
       </c>
@@ -17869,31 +18023,34 @@
         <v>16.474169841801967</v>
       </c>
       <c r="EX94" s="21">
-        <v>7.0035990085973481</v>
+        <v>6.9601821696613655</v>
       </c>
       <c r="EY94" s="21">
-        <v>21.837610097471341</v>
+        <v>21.788174340702795</v>
       </c>
       <c r="EZ94" s="22">
-        <v>5.8393402037369952</v>
+        <v>5.7963957642107573</v>
       </c>
       <c r="FA94" s="25">
-        <v>5.0675424592608636</v>
+        <v>5.0249111775972892</v>
       </c>
       <c r="FB94" s="26">
-        <v>16.071851328063531</v>
+        <v>16.071851328063502</v>
       </c>
       <c r="FC94" s="25">
-        <v>-4.1722904664369054</v>
+        <v>-4.1722904664369338</v>
       </c>
       <c r="FD94" s="25">
         <v>13.794522814696435</v>
       </c>
       <c r="FE94" s="25">
-        <v>7.3661668156632203</v>
+        <v>7.8049566970140489</v>
+      </c>
+      <c r="FF94" s="31">
+        <v>3.564080422139142</v>
       </c>
     </row>
-    <row r="95" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>3</v>
       </c>
@@ -18354,31 +18511,34 @@
         <v>7.4172468158226792</v>
       </c>
       <c r="EX95" s="21">
-        <v>-12.080800432079059</v>
+        <v>-12.27576706182866</v>
       </c>
       <c r="EY95" s="21">
-        <v>-51.475394670607741</v>
+        <v>-51.814288118096691</v>
       </c>
       <c r="EZ95" s="22">
-        <v>-39.519974195411379</v>
+        <v>-38.838150174300814</v>
       </c>
       <c r="FA95" s="25">
-        <v>-32.188477377562421</v>
+        <v>-31.691557457208901</v>
       </c>
       <c r="FB95" s="26">
-        <v>-14.804654040755523</v>
+        <v>-13.933471723533501</v>
       </c>
       <c r="FC95" s="25">
-        <v>80.342624560388828</v>
+        <v>83.666604799621837</v>
       </c>
       <c r="FD95" s="25">
-        <v>20.797172975144917</v>
+        <v>20.84909432250781</v>
       </c>
       <c r="FE95" s="25">
-        <v>12.566766868276332</v>
+        <v>14.224956064638334</v>
+      </c>
+      <c r="FF95" s="31">
+        <v>19.959981437131361</v>
       </c>
     </row>
-    <row r="96" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>4</v>
       </c>
@@ -18839,31 +18999,34 @@
         <v>0.47499194031517789</v>
       </c>
       <c r="EX96" s="21">
-        <v>-4.3689039336676672</v>
+        <v>-3.6198329456855589</v>
       </c>
       <c r="EY96" s="21">
-        <v>-33.496716110206776</v>
+        <v>-33.221759325041361</v>
       </c>
       <c r="EZ96" s="22">
-        <v>-15.06387404412007</v>
+        <v>-15.26139623160249</v>
       </c>
       <c r="FA96" s="25">
-        <v>-10.237102379788126</v>
+        <v>-10.664231967602277</v>
       </c>
       <c r="FB96" s="26">
-        <v>-8.8473169979656205</v>
+        <v>-8.3924592070540029</v>
       </c>
       <c r="FC96" s="25">
-        <v>27.777495857134397</v>
+        <v>28.572542498256524</v>
       </c>
       <c r="FD96" s="25">
-        <v>9.108661130144057</v>
+        <v>9.1481682958462756</v>
       </c>
       <c r="FE96" s="25">
-        <v>8.308794999856616</v>
+        <v>7.6772720721905756</v>
+      </c>
+      <c r="FF96" s="31">
+        <v>10.32374272818177</v>
       </c>
     </row>
-    <row r="97" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>5</v>
       </c>
@@ -19324,31 +19487,34 @@
         <v>0.88569159784350404</v>
       </c>
       <c r="EX97" s="21">
-        <v>-7.3641163156562044</v>
+        <v>-7.2078726732055998</v>
       </c>
       <c r="EY97" s="21">
-        <v>-37.27125154038162</v>
+        <v>-37.18643986218526</v>
       </c>
       <c r="EZ97" s="22">
-        <v>-20.69876217420537</v>
+        <v>-20.552585706290387</v>
       </c>
       <c r="FA97" s="25">
-        <v>-20.244549290136106</v>
+        <v>-20.557641986460325</v>
       </c>
       <c r="FB97" s="26">
-        <v>-7.0210122748633097</v>
+        <v>-7.5194613868571025</v>
       </c>
       <c r="FC97" s="25">
-        <v>39.842256725089385</v>
+        <v>40.347805430622913</v>
       </c>
       <c r="FD97" s="25">
-        <v>13.007431654919628</v>
+        <v>12.719442718011422</v>
       </c>
       <c r="FE97" s="25">
-        <v>13.699133571828497</v>
+        <v>14.294077358930338</v>
+      </c>
+      <c r="FF97" s="31">
+        <v>15.601353916004328</v>
       </c>
     </row>
-    <row r="98" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:162" x14ac:dyDescent="0.2">
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
@@ -19509,8 +19675,9 @@
       <c r="FC98" s="25"/>
       <c r="FD98" s="25"/>
       <c r="FE98" s="25"/>
+      <c r="FF98" s="31"/>
     </row>
-    <row r="99" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:162" x14ac:dyDescent="0.2">
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
@@ -19671,8 +19838,9 @@
       <c r="FC99" s="25"/>
       <c r="FD99" s="25"/>
       <c r="FE99" s="25"/>
+      <c r="FF99" s="31"/>
     </row>
-    <row r="100" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>10</v>
       </c>
@@ -20133,31 +20301,34 @@
         <v>6.6120921015835563</v>
       </c>
       <c r="EX100" s="21">
-        <v>-0.73369042921997618</v>
+        <v>-0.65828387526842391</v>
       </c>
       <c r="EY100" s="21">
-        <v>-16.981292007377306</v>
+        <v>-16.907216150412253</v>
       </c>
       <c r="EZ100" s="22">
-        <v>-11.585096354754199</v>
+        <v>-11.550428604519766</v>
       </c>
       <c r="FA100" s="25">
-        <v>-8.2621133281400461</v>
+        <v>-8.2254200542660811</v>
       </c>
       <c r="FB100" s="26">
-        <v>-3.8984486229420838</v>
+        <v>-3.7999653689594481</v>
       </c>
       <c r="FC100" s="25">
-        <v>12.018991067786217</v>
+        <v>12.131220504597621</v>
       </c>
       <c r="FD100" s="25">
-        <v>6.8905851916519509</v>
+        <v>7.0172529948015807</v>
       </c>
       <c r="FE100" s="25">
-        <v>7.7027121864861954</v>
+        <v>7.789828435863285</v>
+      </c>
+      <c r="FF100" s="31">
+        <v>8.271603637746864</v>
       </c>
     </row>
-    <row r="101" spans="1:161" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:162" hidden="1" x14ac:dyDescent="0.2">
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
@@ -20311,7 +20482,7 @@
       <c r="EV101" s="13"/>
       <c r="EW101" s="13"/>
     </row>
-    <row r="102" spans="1:161" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:162" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
@@ -20465,7 +20636,7 @@
       <c r="EV102" s="13"/>
       <c r="EW102" s="13"/>
     </row>
-    <row r="103" spans="1:161" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:162" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
@@ -20619,7 +20790,7 @@
       <c r="EV103" s="13"/>
       <c r="EW103" s="13"/>
     </row>
-    <row r="104" spans="1:161" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:162" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
@@ -20773,7 +20944,7 @@
       <c r="EV104" s="13"/>
       <c r="EW104" s="13"/>
     </row>
-    <row r="105" spans="1:161" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:162" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -20935,303 +21106,307 @@
       <c r="FC105" s="9"/>
       <c r="FD105" s="9"/>
       <c r="FE105" s="9"/>
+      <c r="FF105" s="9"/>
     </row>
-    <row r="106" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="109" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="112" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
     </row>
-    <row r="113" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="115" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="116" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
     </row>
-    <row r="117" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
-      <c r="B117" s="29">
+      <c r="B117" s="30">
         <v>1981</v>
       </c>
-      <c r="C117" s="29"/>
-      <c r="D117" s="29"/>
-      <c r="E117" s="29"/>
-      <c r="F117" s="29">
+      <c r="C117" s="30"/>
+      <c r="D117" s="30"/>
+      <c r="E117" s="30"/>
+      <c r="F117" s="30">
         <v>1982</v>
       </c>
-      <c r="G117" s="29"/>
-      <c r="H117" s="29"/>
-      <c r="I117" s="29"/>
-      <c r="J117" s="29">
+      <c r="G117" s="30"/>
+      <c r="H117" s="30"/>
+      <c r="I117" s="30"/>
+      <c r="J117" s="30">
         <v>1983</v>
       </c>
-      <c r="K117" s="29"/>
-      <c r="L117" s="29"/>
-      <c r="M117" s="29"/>
-      <c r="N117" s="29">
+      <c r="K117" s="30"/>
+      <c r="L117" s="30"/>
+      <c r="M117" s="30"/>
+      <c r="N117" s="30">
         <v>1984</v>
       </c>
-      <c r="O117" s="29"/>
-      <c r="P117" s="29"/>
-      <c r="Q117" s="29"/>
-      <c r="R117" s="29">
+      <c r="O117" s="30"/>
+      <c r="P117" s="30"/>
+      <c r="Q117" s="30"/>
+      <c r="R117" s="30">
         <v>1985</v>
       </c>
-      <c r="S117" s="29"/>
-      <c r="T117" s="29"/>
-      <c r="U117" s="29"/>
-      <c r="V117" s="29">
+      <c r="S117" s="30"/>
+      <c r="T117" s="30"/>
+      <c r="U117" s="30"/>
+      <c r="V117" s="30">
         <v>1986</v>
       </c>
-      <c r="W117" s="29"/>
-      <c r="X117" s="29"/>
-      <c r="Y117" s="29"/>
-      <c r="Z117" s="29">
+      <c r="W117" s="30"/>
+      <c r="X117" s="30"/>
+      <c r="Y117" s="30"/>
+      <c r="Z117" s="30">
         <v>1987</v>
       </c>
-      <c r="AA117" s="29"/>
-      <c r="AB117" s="29"/>
-      <c r="AC117" s="29"/>
-      <c r="AD117" s="29">
+      <c r="AA117" s="30"/>
+      <c r="AB117" s="30"/>
+      <c r="AC117" s="30"/>
+      <c r="AD117" s="30">
         <v>1988</v>
       </c>
-      <c r="AE117" s="29"/>
-      <c r="AF117" s="29"/>
-      <c r="AG117" s="29"/>
-      <c r="AH117" s="29">
+      <c r="AE117" s="30"/>
+      <c r="AF117" s="30"/>
+      <c r="AG117" s="30"/>
+      <c r="AH117" s="30">
         <v>1989</v>
       </c>
-      <c r="AI117" s="29"/>
-      <c r="AJ117" s="29"/>
-      <c r="AK117" s="29"/>
-      <c r="AL117" s="29">
+      <c r="AI117" s="30"/>
+      <c r="AJ117" s="30"/>
+      <c r="AK117" s="30"/>
+      <c r="AL117" s="30">
         <v>1990</v>
       </c>
-      <c r="AM117" s="29"/>
-      <c r="AN117" s="29"/>
-      <c r="AO117" s="29"/>
-      <c r="AP117" s="29">
+      <c r="AM117" s="30"/>
+      <c r="AN117" s="30"/>
+      <c r="AO117" s="30"/>
+      <c r="AP117" s="30">
         <v>1991</v>
       </c>
-      <c r="AQ117" s="29"/>
-      <c r="AR117" s="29"/>
-      <c r="AS117" s="29"/>
-      <c r="AT117" s="29">
+      <c r="AQ117" s="30"/>
+      <c r="AR117" s="30"/>
+      <c r="AS117" s="30"/>
+      <c r="AT117" s="30">
         <v>1992</v>
       </c>
-      <c r="AU117" s="29"/>
-      <c r="AV117" s="29"/>
-      <c r="AW117" s="29"/>
-      <c r="AX117" s="29">
+      <c r="AU117" s="30"/>
+      <c r="AV117" s="30"/>
+      <c r="AW117" s="30"/>
+      <c r="AX117" s="30">
         <v>1993</v>
       </c>
-      <c r="AY117" s="29"/>
-      <c r="AZ117" s="29"/>
-      <c r="BA117" s="29"/>
-      <c r="BB117" s="29">
+      <c r="AY117" s="30"/>
+      <c r="AZ117" s="30"/>
+      <c r="BA117" s="30"/>
+      <c r="BB117" s="30">
         <v>1994</v>
       </c>
-      <c r="BC117" s="29"/>
-      <c r="BD117" s="29"/>
-      <c r="BE117" s="29"/>
-      <c r="BF117" s="29">
+      <c r="BC117" s="30"/>
+      <c r="BD117" s="30"/>
+      <c r="BE117" s="30"/>
+      <c r="BF117" s="30">
         <v>1995</v>
       </c>
-      <c r="BG117" s="29"/>
-      <c r="BH117" s="29"/>
-      <c r="BI117" s="29"/>
-      <c r="BJ117" s="29">
+      <c r="BG117" s="30"/>
+      <c r="BH117" s="30"/>
+      <c r="BI117" s="30"/>
+      <c r="BJ117" s="30">
         <v>1996</v>
       </c>
-      <c r="BK117" s="29"/>
-      <c r="BL117" s="29"/>
-      <c r="BM117" s="29"/>
-      <c r="BN117" s="29">
+      <c r="BK117" s="30"/>
+      <c r="BL117" s="30"/>
+      <c r="BM117" s="30"/>
+      <c r="BN117" s="30">
         <v>1997</v>
       </c>
-      <c r="BO117" s="29"/>
-      <c r="BP117" s="29"/>
-      <c r="BQ117" s="29"/>
-      <c r="BR117" s="29">
+      <c r="BO117" s="30"/>
+      <c r="BP117" s="30"/>
+      <c r="BQ117" s="30"/>
+      <c r="BR117" s="30">
         <v>1998</v>
       </c>
-      <c r="BS117" s="29"/>
-      <c r="BT117" s="29"/>
-      <c r="BU117" s="29"/>
-      <c r="BV117" s="29">
+      <c r="BS117" s="30"/>
+      <c r="BT117" s="30"/>
+      <c r="BU117" s="30"/>
+      <c r="BV117" s="30">
         <v>1999</v>
       </c>
-      <c r="BW117" s="29"/>
-      <c r="BX117" s="29"/>
-      <c r="BY117" s="29"/>
-      <c r="BZ117" s="29">
+      <c r="BW117" s="30"/>
+      <c r="BX117" s="30"/>
+      <c r="BY117" s="30"/>
+      <c r="BZ117" s="30">
         <v>2000</v>
       </c>
-      <c r="CA117" s="29"/>
-      <c r="CB117" s="29"/>
-      <c r="CC117" s="29"/>
-      <c r="CD117" s="29">
+      <c r="CA117" s="30"/>
+      <c r="CB117" s="30"/>
+      <c r="CC117" s="30"/>
+      <c r="CD117" s="30">
         <v>2001</v>
       </c>
-      <c r="CE117" s="29"/>
-      <c r="CF117" s="29"/>
-      <c r="CG117" s="29"/>
-      <c r="CH117" s="29">
+      <c r="CE117" s="30"/>
+      <c r="CF117" s="30"/>
+      <c r="CG117" s="30"/>
+      <c r="CH117" s="30">
         <v>2002</v>
       </c>
-      <c r="CI117" s="29"/>
-      <c r="CJ117" s="29"/>
-      <c r="CK117" s="29"/>
-      <c r="CL117" s="29">
+      <c r="CI117" s="30"/>
+      <c r="CJ117" s="30"/>
+      <c r="CK117" s="30"/>
+      <c r="CL117" s="30">
         <v>2003</v>
       </c>
-      <c r="CM117" s="29"/>
-      <c r="CN117" s="29"/>
-      <c r="CO117" s="29"/>
-      <c r="CP117" s="29">
+      <c r="CM117" s="30"/>
+      <c r="CN117" s="30"/>
+      <c r="CO117" s="30"/>
+      <c r="CP117" s="30">
         <v>2004</v>
       </c>
-      <c r="CQ117" s="29"/>
-      <c r="CR117" s="29"/>
-      <c r="CS117" s="29"/>
-      <c r="CT117" s="29">
+      <c r="CQ117" s="30"/>
+      <c r="CR117" s="30"/>
+      <c r="CS117" s="30"/>
+      <c r="CT117" s="30">
         <v>2005</v>
       </c>
-      <c r="CU117" s="29"/>
-      <c r="CV117" s="29"/>
-      <c r="CW117" s="29"/>
-      <c r="CX117" s="29">
+      <c r="CU117" s="30"/>
+      <c r="CV117" s="30"/>
+      <c r="CW117" s="30"/>
+      <c r="CX117" s="30">
         <v>2006</v>
       </c>
-      <c r="CY117" s="29"/>
-      <c r="CZ117" s="29"/>
-      <c r="DA117" s="29"/>
-      <c r="DB117" s="29">
+      <c r="CY117" s="30"/>
+      <c r="CZ117" s="30"/>
+      <c r="DA117" s="30"/>
+      <c r="DB117" s="30">
         <v>2007</v>
       </c>
-      <c r="DC117" s="29"/>
-      <c r="DD117" s="29"/>
-      <c r="DE117" s="29"/>
-      <c r="DF117" s="29">
+      <c r="DC117" s="30"/>
+      <c r="DD117" s="30"/>
+      <c r="DE117" s="30"/>
+      <c r="DF117" s="30">
         <v>2008</v>
       </c>
-      <c r="DG117" s="29"/>
-      <c r="DH117" s="29"/>
-      <c r="DI117" s="29"/>
-      <c r="DJ117" s="29">
+      <c r="DG117" s="30"/>
+      <c r="DH117" s="30"/>
+      <c r="DI117" s="30"/>
+      <c r="DJ117" s="30">
         <v>2009</v>
       </c>
-      <c r="DK117" s="29"/>
-      <c r="DL117" s="29"/>
-      <c r="DM117" s="29"/>
-      <c r="DN117" s="29">
+      <c r="DK117" s="30"/>
+      <c r="DL117" s="30"/>
+      <c r="DM117" s="30"/>
+      <c r="DN117" s="30">
         <v>2010</v>
       </c>
-      <c r="DO117" s="29"/>
-      <c r="DP117" s="29"/>
-      <c r="DQ117" s="29"/>
-      <c r="DR117" s="29">
+      <c r="DO117" s="30"/>
+      <c r="DP117" s="30"/>
+      <c r="DQ117" s="30"/>
+      <c r="DR117" s="30">
         <v>2011</v>
       </c>
-      <c r="DS117" s="29"/>
-      <c r="DT117" s="29"/>
-      <c r="DU117" s="29"/>
-      <c r="DV117" s="29">
+      <c r="DS117" s="30"/>
+      <c r="DT117" s="30"/>
+      <c r="DU117" s="30"/>
+      <c r="DV117" s="30">
         <v>2012</v>
       </c>
-      <c r="DW117" s="29"/>
-      <c r="DX117" s="29"/>
-      <c r="DY117" s="29"/>
-      <c r="DZ117" s="29">
+      <c r="DW117" s="30"/>
+      <c r="DX117" s="30"/>
+      <c r="DY117" s="30"/>
+      <c r="DZ117" s="30">
         <v>2013</v>
       </c>
-      <c r="EA117" s="29"/>
-      <c r="EB117" s="29"/>
-      <c r="EC117" s="29"/>
-      <c r="ED117" s="29">
+      <c r="EA117" s="30"/>
+      <c r="EB117" s="30"/>
+      <c r="EC117" s="30"/>
+      <c r="ED117" s="30">
         <v>2014</v>
       </c>
-      <c r="EE117" s="29"/>
-      <c r="EF117" s="29"/>
-      <c r="EG117" s="29"/>
-      <c r="EH117" s="29">
+      <c r="EE117" s="30"/>
+      <c r="EF117" s="30"/>
+      <c r="EG117" s="30"/>
+      <c r="EH117" s="30">
         <v>2015</v>
       </c>
-      <c r="EI117" s="29"/>
-      <c r="EJ117" s="29"/>
-      <c r="EK117" s="29"/>
-      <c r="EL117" s="29">
+      <c r="EI117" s="30"/>
+      <c r="EJ117" s="30"/>
+      <c r="EK117" s="30"/>
+      <c r="EL117" s="30">
         <v>2016</v>
       </c>
-      <c r="EM117" s="29"/>
-      <c r="EN117" s="29"/>
-      <c r="EO117" s="29"/>
-      <c r="EP117" s="29">
+      <c r="EM117" s="30"/>
+      <c r="EN117" s="30"/>
+      <c r="EO117" s="30"/>
+      <c r="EP117" s="30">
         <v>2017</v>
       </c>
-      <c r="EQ117" s="29"/>
-      <c r="ER117" s="29"/>
-      <c r="ES117" s="29"/>
-      <c r="ET117" s="29">
+      <c r="EQ117" s="30"/>
+      <c r="ER117" s="30"/>
+      <c r="ES117" s="30"/>
+      <c r="ET117" s="30">
         <v>2018</v>
       </c>
-      <c r="EU117" s="29"/>
-      <c r="EV117" s="29"/>
-      <c r="EW117" s="29"/>
-      <c r="EX117" s="29">
+      <c r="EU117" s="30"/>
+      <c r="EV117" s="30"/>
+      <c r="EW117" s="30"/>
+      <c r="EX117" s="30">
         <v>2019</v>
       </c>
-      <c r="EY117" s="29"/>
-      <c r="EZ117" s="29"/>
-      <c r="FA117" s="29"/>
-      <c r="FB117" s="29">
+      <c r="EY117" s="30"/>
+      <c r="EZ117" s="30"/>
+      <c r="FA117" s="30"/>
+      <c r="FB117" s="30">
         <v>2020</v>
       </c>
-      <c r="FC117" s="29"/>
-      <c r="FD117" s="29"/>
+      <c r="FC117" s="30"/>
+      <c r="FD117" s="30"/>
       <c r="FE117" s="24"/>
-      <c r="FF117" s="29">
+      <c r="FF117" s="30">
         <v>2021</v>
       </c>
-      <c r="FG117" s="29"/>
-      <c r="FH117" s="29"/>
-      <c r="FI117" s="29"/>
+      <c r="FG117" s="30"/>
+      <c r="FH117" s="30"/>
+      <c r="FI117" s="30"/>
+      <c r="FJ117" s="29">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="118" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>14</v>
       </c>
@@ -21727,11 +21902,14 @@
       <c r="FI118" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="FJ118" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="119" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:166" x14ac:dyDescent="0.2">
       <c r="FB119" s="2"/>
     </row>
-    <row r="120" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>1</v>
       </c>
@@ -22204,31 +22382,34 @@
         <v>72.45828725116057</v>
       </c>
       <c r="FB120" s="21">
-        <v>76.979471310093814</v>
+        <v>76.927564288917424</v>
       </c>
       <c r="FC120" s="21">
-        <v>73.595983656271841</v>
+        <v>73.510236232673194</v>
       </c>
       <c r="FD120" s="21">
-        <v>76.401194686335629</v>
+        <v>76.34346458703773</v>
       </c>
       <c r="FE120" s="25">
-        <v>73.752865424724291</v>
+        <v>73.677890947750612</v>
       </c>
       <c r="FF120" s="25">
-        <v>77.869353587115057</v>
+        <v>77.710300887067802</v>
       </c>
       <c r="FG120" s="25">
-        <v>71.349458996191785</v>
+        <v>71.174632120694952</v>
       </c>
       <c r="FH120" s="25">
-        <v>77.911667917525435</v>
+        <v>77.805880263139926</v>
       </c>
       <c r="FI120" s="25">
-        <v>74.712969973344457</v>
+        <v>74.771615715019138</v>
+      </c>
+      <c r="FJ120" s="25">
+        <v>78.237240432853454</v>
       </c>
     </row>
-    <row r="121" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>2</v>
       </c>
@@ -22701,31 +22882,34 @@
         <v>12.575626600933418</v>
       </c>
       <c r="FB121" s="21">
-        <v>11.903074415759797</v>
+        <v>11.889401599029641</v>
       </c>
       <c r="FC121" s="21">
-        <v>20.062046915467278</v>
+        <v>20.035931359054889</v>
       </c>
       <c r="FD121" s="21">
-        <v>15.216521176886669</v>
+        <v>15.202515891225396</v>
       </c>
       <c r="FE121" s="25">
-        <v>14.404114726298003</v>
+        <v>14.387636962303299</v>
       </c>
       <c r="FF121" s="25">
-        <v>14.522856721260794</v>
+        <v>14.489146792231534</v>
       </c>
       <c r="FG121" s="25">
-        <v>17.176407143448312</v>
+        <v>17.123598519329519</v>
       </c>
       <c r="FH121" s="25">
-        <v>16.267446685842565</v>
+        <v>16.23558716836159</v>
       </c>
       <c r="FI121" s="25">
-        <v>14.468406510799731</v>
+        <v>14.53428784099906</v>
+      </c>
+      <c r="FJ121" s="25">
+        <v>13.749917526005959</v>
       </c>
     </row>
-    <row r="122" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>3</v>
       </c>
@@ -23198,31 +23382,34 @@
         <v>26.461840967342514</v>
       </c>
       <c r="FB122" s="21">
-        <v>21.556975021909054</v>
+        <v>21.492033328772315</v>
       </c>
       <c r="FC122" s="21">
-        <v>12.623992905525943</v>
+        <v>12.52835420469672</v>
       </c>
       <c r="FD122" s="21">
-        <v>16.554606473400053</v>
+        <v>16.883350094468465</v>
       </c>
       <c r="FE122" s="25">
-        <v>18.275923944619603</v>
+        <v>18.316160712895126</v>
       </c>
       <c r="FF122" s="25">
-        <v>19.042888206369369</v>
+        <v>18.689162777234831</v>
       </c>
       <c r="FG122" s="25">
-        <v>23.653814909169771</v>
+        <v>23.915776521296042</v>
       </c>
       <c r="FH122" s="25">
-        <v>20.875968010616539</v>
+        <v>20.820180049790331</v>
       </c>
       <c r="FI122" s="25">
-        <v>20.80064774524843</v>
+        <v>21.103286497358319</v>
+      </c>
+      <c r="FJ122" s="25">
+        <v>23.021781253396036</v>
       </c>
     </row>
-    <row r="123" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>4</v>
       </c>
@@ -23695,31 +23882,34 @@
         <v>24.396177017931716</v>
       </c>
       <c r="FB123" s="21">
-        <v>29.481646663448522</v>
+        <v>29.705585610991527</v>
       </c>
       <c r="FC123" s="21">
-        <v>21.784529004766771</v>
+        <v>21.863258213858259</v>
       </c>
       <c r="FD123" s="21">
-        <v>26.628137124797941</v>
+        <v>26.542522282225516</v>
       </c>
       <c r="FE123" s="25">
-        <v>23.04111623286801</v>
+        <v>22.906553428691858</v>
       </c>
       <c r="FF123" s="25">
-        <v>27.208439495480153</v>
+        <v>27.536597407112644</v>
       </c>
       <c r="FG123" s="25">
-        <v>24.485101588789345</v>
+        <v>24.712892344308713</v>
       </c>
       <c r="FH123" s="25">
-        <v>27.935632815732763</v>
+        <v>27.828396590754391</v>
       </c>
       <c r="FI123" s="25">
-        <v>23.761606877034328</v>
+        <v>23.528053475686452</v>
+      </c>
+      <c r="FJ123" s="25">
+        <v>29.337113500954953</v>
       </c>
     </row>
-    <row r="124" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>5</v>
       </c>
@@ -24192,31 +24382,34 @@
         <v>35.30774077343424</v>
       </c>
       <c r="FB124" s="21">
-        <v>39.675002114524247</v>
+        <v>39.708179536769059</v>
       </c>
       <c r="FC124" s="21">
-        <v>27.755297082672136</v>
+        <v>27.776978766010036</v>
       </c>
       <c r="FD124" s="21">
-        <v>35.77315374182497</v>
+        <v>35.814595198862357</v>
       </c>
       <c r="FE124" s="25">
-        <v>29.142927300221892</v>
+        <v>28.994553280776316</v>
       </c>
       <c r="FF124" s="25">
-        <v>37.666201128399862</v>
+        <v>37.488090541725413</v>
       </c>
       <c r="FG124" s="25">
-        <v>37.312329472246965</v>
+        <v>37.415277393647131</v>
       </c>
       <c r="FH124" s="25">
-        <v>42.139091968518095</v>
+        <v>42.052730919088575</v>
       </c>
       <c r="FI124" s="25">
-        <v>34.695332647065669</v>
+        <v>34.767470980077327</v>
+      </c>
+      <c r="FJ124" s="25">
+        <v>45.224524615066706</v>
       </c>
     </row>
-    <row r="125" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:166" x14ac:dyDescent="0.2">
       <c r="B125" s="13">
         <v>10.790109715083961</v>
       </c>
@@ -24533,8 +24726,9 @@
       <c r="FG125" s="25"/>
       <c r="FH125" s="25"/>
       <c r="FI125" s="25"/>
+      <c r="FJ125" s="25"/>
     </row>
-    <row r="126" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:166" x14ac:dyDescent="0.2">
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
@@ -24699,8 +24893,9 @@
       <c r="FG126" s="25"/>
       <c r="FH126" s="25"/>
       <c r="FI126" s="25"/>
+      <c r="FJ126" s="25"/>
     </row>
-    <row r="127" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
         <v>10</v>
       </c>
@@ -25196,8 +25391,11 @@
       <c r="FI127" s="25">
         <v>100</v>
       </c>
+      <c r="FJ127" s="25">
+        <v>100</v>
+      </c>
     </row>
-    <row r="128" spans="1:165" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:166" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="13">
         <v>0</v>
       </c>
@@ -25357,7 +25555,7 @@
       <c r="EZ128" s="13"/>
       <c r="FA128" s="13"/>
     </row>
-    <row r="129" spans="1:165" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:166" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" s="13">
         <v>0</v>
       </c>
@@ -25517,7 +25715,7 @@
       <c r="EZ129" s="13"/>
       <c r="FA129" s="13"/>
     </row>
-    <row r="130" spans="1:165" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:166" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" s="13">
         <v>0</v>
       </c>
@@ -25677,7 +25875,7 @@
       <c r="EZ130" s="13"/>
       <c r="FA130" s="13"/>
     </row>
-    <row r="131" spans="1:165" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:166" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" s="13">
         <v>0</v>
       </c>
@@ -25837,7 +26035,7 @@
       <c r="EZ131" s="13"/>
       <c r="FA131" s="13"/>
     </row>
-    <row r="132" spans="1:165" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:166" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -26003,34 +26201,35 @@
       <c r="FG132" s="9"/>
       <c r="FH132" s="9"/>
       <c r="FI132" s="9"/>
+      <c r="FJ132" s="9"/>
     </row>
-    <row r="133" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="139" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="FC139" s="3"/>
       <c r="FD139" s="3"/>
       <c r="FE139" s="3"/>
     </row>
-    <row r="140" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>46</v>
       </c>
@@ -26038,15 +26237,15 @@
       <c r="FD140" s="3"/>
       <c r="FE140" s="3"/>
     </row>
-    <row r="141" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="FC141" s="3"/>
       <c r="FD141" s="3"/>
       <c r="FE141" s="3"/>
     </row>
-    <row r="142" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>54</v>
       </c>
@@ -26054,262 +26253,265 @@
       <c r="FD142" s="3"/>
       <c r="FE142" s="3"/>
     </row>
-    <row r="143" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="FC143" s="3"/>
       <c r="FD143" s="3"/>
       <c r="FE143" s="3"/>
     </row>
-    <row r="144" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
-      <c r="B144" s="29">
+      <c r="B144" s="30">
         <v>1981</v>
       </c>
-      <c r="C144" s="29"/>
-      <c r="D144" s="29"/>
-      <c r="E144" s="29"/>
-      <c r="F144" s="29">
+      <c r="C144" s="30"/>
+      <c r="D144" s="30"/>
+      <c r="E144" s="30"/>
+      <c r="F144" s="30">
         <v>1982</v>
       </c>
-      <c r="G144" s="29"/>
-      <c r="H144" s="29"/>
-      <c r="I144" s="29"/>
-      <c r="J144" s="29">
+      <c r="G144" s="30"/>
+      <c r="H144" s="30"/>
+      <c r="I144" s="30"/>
+      <c r="J144" s="30">
         <v>1983</v>
       </c>
-      <c r="K144" s="29"/>
-      <c r="L144" s="29"/>
-      <c r="M144" s="29"/>
-      <c r="N144" s="29">
+      <c r="K144" s="30"/>
+      <c r="L144" s="30"/>
+      <c r="M144" s="30"/>
+      <c r="N144" s="30">
         <v>1984</v>
       </c>
-      <c r="O144" s="29"/>
-      <c r="P144" s="29"/>
-      <c r="Q144" s="29"/>
-      <c r="R144" s="29">
+      <c r="O144" s="30"/>
+      <c r="P144" s="30"/>
+      <c r="Q144" s="30"/>
+      <c r="R144" s="30">
         <v>1985</v>
       </c>
-      <c r="S144" s="29"/>
-      <c r="T144" s="29"/>
-      <c r="U144" s="29"/>
-      <c r="V144" s="29">
+      <c r="S144" s="30"/>
+      <c r="T144" s="30"/>
+      <c r="U144" s="30"/>
+      <c r="V144" s="30">
         <v>1986</v>
       </c>
-      <c r="W144" s="29"/>
-      <c r="X144" s="29"/>
-      <c r="Y144" s="29"/>
-      <c r="Z144" s="29">
+      <c r="W144" s="30"/>
+      <c r="X144" s="30"/>
+      <c r="Y144" s="30"/>
+      <c r="Z144" s="30">
         <v>1987</v>
       </c>
-      <c r="AA144" s="29"/>
-      <c r="AB144" s="29"/>
-      <c r="AC144" s="29"/>
-      <c r="AD144" s="29">
+      <c r="AA144" s="30"/>
+      <c r="AB144" s="30"/>
+      <c r="AC144" s="30"/>
+      <c r="AD144" s="30">
         <v>1988</v>
       </c>
-      <c r="AE144" s="29"/>
-      <c r="AF144" s="29"/>
-      <c r="AG144" s="29"/>
-      <c r="AH144" s="29">
+      <c r="AE144" s="30"/>
+      <c r="AF144" s="30"/>
+      <c r="AG144" s="30"/>
+      <c r="AH144" s="30">
         <v>1989</v>
       </c>
-      <c r="AI144" s="29"/>
-      <c r="AJ144" s="29"/>
-      <c r="AK144" s="29"/>
-      <c r="AL144" s="29">
+      <c r="AI144" s="30"/>
+      <c r="AJ144" s="30"/>
+      <c r="AK144" s="30"/>
+      <c r="AL144" s="30">
         <v>1990</v>
       </c>
-      <c r="AM144" s="29"/>
-      <c r="AN144" s="29"/>
-      <c r="AO144" s="29"/>
-      <c r="AP144" s="29">
+      <c r="AM144" s="30"/>
+      <c r="AN144" s="30"/>
+      <c r="AO144" s="30"/>
+      <c r="AP144" s="30">
         <v>1991</v>
       </c>
-      <c r="AQ144" s="29"/>
-      <c r="AR144" s="29"/>
-      <c r="AS144" s="29"/>
-      <c r="AT144" s="29">
+      <c r="AQ144" s="30"/>
+      <c r="AR144" s="30"/>
+      <c r="AS144" s="30"/>
+      <c r="AT144" s="30">
         <v>1992</v>
       </c>
-      <c r="AU144" s="29"/>
-      <c r="AV144" s="29"/>
-      <c r="AW144" s="29"/>
-      <c r="AX144" s="29">
+      <c r="AU144" s="30"/>
+      <c r="AV144" s="30"/>
+      <c r="AW144" s="30"/>
+      <c r="AX144" s="30">
         <v>1993</v>
       </c>
-      <c r="AY144" s="29"/>
-      <c r="AZ144" s="29"/>
-      <c r="BA144" s="29"/>
-      <c r="BB144" s="29">
+      <c r="AY144" s="30"/>
+      <c r="AZ144" s="30"/>
+      <c r="BA144" s="30"/>
+      <c r="BB144" s="30">
         <v>1994</v>
       </c>
-      <c r="BC144" s="29"/>
-      <c r="BD144" s="29"/>
-      <c r="BE144" s="29"/>
-      <c r="BF144" s="29">
+      <c r="BC144" s="30"/>
+      <c r="BD144" s="30"/>
+      <c r="BE144" s="30"/>
+      <c r="BF144" s="30">
         <v>1995</v>
       </c>
-      <c r="BG144" s="29"/>
-      <c r="BH144" s="29"/>
-      <c r="BI144" s="29"/>
-      <c r="BJ144" s="29">
+      <c r="BG144" s="30"/>
+      <c r="BH144" s="30"/>
+      <c r="BI144" s="30"/>
+      <c r="BJ144" s="30">
         <v>1996</v>
       </c>
-      <c r="BK144" s="29"/>
-      <c r="BL144" s="29"/>
-      <c r="BM144" s="29"/>
-      <c r="BN144" s="29">
+      <c r="BK144" s="30"/>
+      <c r="BL144" s="30"/>
+      <c r="BM144" s="30"/>
+      <c r="BN144" s="30">
         <v>1997</v>
       </c>
-      <c r="BO144" s="29"/>
-      <c r="BP144" s="29"/>
-      <c r="BQ144" s="29"/>
-      <c r="BR144" s="29">
+      <c r="BO144" s="30"/>
+      <c r="BP144" s="30"/>
+      <c r="BQ144" s="30"/>
+      <c r="BR144" s="30">
         <v>1998</v>
       </c>
-      <c r="BS144" s="29"/>
-      <c r="BT144" s="29"/>
-      <c r="BU144" s="29"/>
-      <c r="BV144" s="29">
+      <c r="BS144" s="30"/>
+      <c r="BT144" s="30"/>
+      <c r="BU144" s="30"/>
+      <c r="BV144" s="30">
         <v>1999</v>
       </c>
-      <c r="BW144" s="29"/>
-      <c r="BX144" s="29"/>
-      <c r="BY144" s="29"/>
-      <c r="BZ144" s="29">
+      <c r="BW144" s="30"/>
+      <c r="BX144" s="30"/>
+      <c r="BY144" s="30"/>
+      <c r="BZ144" s="30">
         <v>2000</v>
       </c>
-      <c r="CA144" s="29"/>
-      <c r="CB144" s="29"/>
-      <c r="CC144" s="29"/>
-      <c r="CD144" s="29">
+      <c r="CA144" s="30"/>
+      <c r="CB144" s="30"/>
+      <c r="CC144" s="30"/>
+      <c r="CD144" s="30">
         <v>2001</v>
       </c>
-      <c r="CE144" s="29"/>
-      <c r="CF144" s="29"/>
-      <c r="CG144" s="29"/>
-      <c r="CH144" s="29">
+      <c r="CE144" s="30"/>
+      <c r="CF144" s="30"/>
+      <c r="CG144" s="30"/>
+      <c r="CH144" s="30">
         <v>2002</v>
       </c>
-      <c r="CI144" s="29"/>
-      <c r="CJ144" s="29"/>
-      <c r="CK144" s="29"/>
-      <c r="CL144" s="29">
+      <c r="CI144" s="30"/>
+      <c r="CJ144" s="30"/>
+      <c r="CK144" s="30"/>
+      <c r="CL144" s="30">
         <v>2003</v>
       </c>
-      <c r="CM144" s="29"/>
-      <c r="CN144" s="29"/>
-      <c r="CO144" s="29"/>
-      <c r="CP144" s="29">
+      <c r="CM144" s="30"/>
+      <c r="CN144" s="30"/>
+      <c r="CO144" s="30"/>
+      <c r="CP144" s="30">
         <v>2004</v>
       </c>
-      <c r="CQ144" s="29"/>
-      <c r="CR144" s="29"/>
-      <c r="CS144" s="29"/>
-      <c r="CT144" s="29">
+      <c r="CQ144" s="30"/>
+      <c r="CR144" s="30"/>
+      <c r="CS144" s="30"/>
+      <c r="CT144" s="30">
         <v>2005</v>
       </c>
-      <c r="CU144" s="29"/>
-      <c r="CV144" s="29"/>
-      <c r="CW144" s="29"/>
-      <c r="CX144" s="29">
+      <c r="CU144" s="30"/>
+      <c r="CV144" s="30"/>
+      <c r="CW144" s="30"/>
+      <c r="CX144" s="30">
         <v>2006</v>
       </c>
-      <c r="CY144" s="29"/>
-      <c r="CZ144" s="29"/>
-      <c r="DA144" s="29"/>
-      <c r="DB144" s="29">
+      <c r="CY144" s="30"/>
+      <c r="CZ144" s="30"/>
+      <c r="DA144" s="30"/>
+      <c r="DB144" s="30">
         <v>2007</v>
       </c>
-      <c r="DC144" s="29"/>
-      <c r="DD144" s="29"/>
-      <c r="DE144" s="29"/>
-      <c r="DF144" s="29">
+      <c r="DC144" s="30"/>
+      <c r="DD144" s="30"/>
+      <c r="DE144" s="30"/>
+      <c r="DF144" s="30">
         <v>2008</v>
       </c>
-      <c r="DG144" s="29"/>
-      <c r="DH144" s="29"/>
-      <c r="DI144" s="29"/>
-      <c r="DJ144" s="29">
+      <c r="DG144" s="30"/>
+      <c r="DH144" s="30"/>
+      <c r="DI144" s="30"/>
+      <c r="DJ144" s="30">
         <v>2009</v>
       </c>
-      <c r="DK144" s="29"/>
-      <c r="DL144" s="29"/>
-      <c r="DM144" s="29"/>
-      <c r="DN144" s="29">
+      <c r="DK144" s="30"/>
+      <c r="DL144" s="30"/>
+      <c r="DM144" s="30"/>
+      <c r="DN144" s="30">
         <v>2010</v>
       </c>
-      <c r="DO144" s="29"/>
-      <c r="DP144" s="29"/>
-      <c r="DQ144" s="29"/>
-      <c r="DR144" s="29">
+      <c r="DO144" s="30"/>
+      <c r="DP144" s="30"/>
+      <c r="DQ144" s="30"/>
+      <c r="DR144" s="30">
         <v>2011</v>
       </c>
-      <c r="DS144" s="29"/>
-      <c r="DT144" s="29"/>
-      <c r="DU144" s="29"/>
-      <c r="DV144" s="29">
+      <c r="DS144" s="30"/>
+      <c r="DT144" s="30"/>
+      <c r="DU144" s="30"/>
+      <c r="DV144" s="30">
         <v>2012</v>
       </c>
-      <c r="DW144" s="29"/>
-      <c r="DX144" s="29"/>
-      <c r="DY144" s="29"/>
-      <c r="DZ144" s="29">
+      <c r="DW144" s="30"/>
+      <c r="DX144" s="30"/>
+      <c r="DY144" s="30"/>
+      <c r="DZ144" s="30">
         <v>2013</v>
       </c>
-      <c r="EA144" s="29"/>
-      <c r="EB144" s="29"/>
-      <c r="EC144" s="29"/>
-      <c r="ED144" s="29">
+      <c r="EA144" s="30"/>
+      <c r="EB144" s="30"/>
+      <c r="EC144" s="30"/>
+      <c r="ED144" s="30">
         <v>2014</v>
       </c>
-      <c r="EE144" s="29"/>
-      <c r="EF144" s="29"/>
-      <c r="EG144" s="29"/>
-      <c r="EH144" s="29">
+      <c r="EE144" s="30"/>
+      <c r="EF144" s="30"/>
+      <c r="EG144" s="30"/>
+      <c r="EH144" s="30">
         <v>2015</v>
       </c>
-      <c r="EI144" s="29"/>
-      <c r="EJ144" s="29"/>
-      <c r="EK144" s="29"/>
-      <c r="EL144" s="29">
+      <c r="EI144" s="30"/>
+      <c r="EJ144" s="30"/>
+      <c r="EK144" s="30"/>
+      <c r="EL144" s="30">
         <v>2016</v>
       </c>
-      <c r="EM144" s="29"/>
-      <c r="EN144" s="29"/>
-      <c r="EO144" s="29"/>
-      <c r="EP144" s="29">
+      <c r="EM144" s="30"/>
+      <c r="EN144" s="30"/>
+      <c r="EO144" s="30"/>
+      <c r="EP144" s="30">
         <v>2017</v>
       </c>
-      <c r="EQ144" s="29"/>
-      <c r="ER144" s="29"/>
-      <c r="ES144" s="29"/>
-      <c r="ET144" s="29">
+      <c r="EQ144" s="30"/>
+      <c r="ER144" s="30"/>
+      <c r="ES144" s="30"/>
+      <c r="ET144" s="30">
         <v>2018</v>
       </c>
-      <c r="EU144" s="29"/>
-      <c r="EV144" s="29"/>
-      <c r="EW144" s="29"/>
-      <c r="EX144" s="29">
+      <c r="EU144" s="30"/>
+      <c r="EV144" s="30"/>
+      <c r="EW144" s="30"/>
+      <c r="EX144" s="30">
         <v>2019</v>
       </c>
-      <c r="EY144" s="29"/>
-      <c r="EZ144" s="29"/>
-      <c r="FA144" s="29"/>
-      <c r="FB144" s="29">
+      <c r="EY144" s="30"/>
+      <c r="EZ144" s="30"/>
+      <c r="FA144" s="30"/>
+      <c r="FB144" s="30">
         <v>2020</v>
       </c>
-      <c r="FC144" s="29"/>
-      <c r="FD144" s="29"/>
+      <c r="FC144" s="30"/>
+      <c r="FD144" s="30"/>
       <c r="FE144" s="24"/>
-      <c r="FF144" s="29">
+      <c r="FF144" s="30">
         <v>2021</v>
       </c>
-      <c r="FG144" s="29"/>
-      <c r="FH144" s="29"/>
-      <c r="FI144" s="29"/>
+      <c r="FG144" s="30"/>
+      <c r="FH144" s="30"/>
+      <c r="FI144" s="30"/>
+      <c r="FJ144" s="29">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="145" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
         <v>14</v>
       </c>
@@ -26805,11 +27007,14 @@
       <c r="FI145" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="FJ145" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="146" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:166" x14ac:dyDescent="0.2">
       <c r="FB146" s="2"/>
     </row>
-    <row r="147" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>1</v>
       </c>
@@ -27282,31 +27487,34 @@
         <v>74.851401310985054</v>
       </c>
       <c r="FB147" s="21">
-        <v>74.808809473902656</v>
+        <v>74.757725422188102</v>
       </c>
       <c r="FC147" s="21">
-        <v>70.507548680886771</v>
+        <v>70.426662254513957</v>
       </c>
       <c r="FD147" s="21">
-        <v>73.31680066559781</v>
+        <v>73.270155619694592</v>
       </c>
       <c r="FE147" s="25">
-        <v>75.669383374168987</v>
+        <v>75.615985390472005</v>
       </c>
       <c r="FF147" s="25">
-        <v>74.146003165635491</v>
+        <v>74.00780454748778</v>
       </c>
       <c r="FG147" s="25">
-        <v>67.524156525329488</v>
+        <v>67.398448562796005</v>
       </c>
       <c r="FH147" s="25">
-        <v>73.429890582178771</v>
+        <v>73.32013613371123</v>
       </c>
       <c r="FI147" s="25">
-        <v>75.529784104707559</v>
+        <v>75.438137710899184</v>
+      </c>
+      <c r="FJ147" s="25">
+        <v>75.278255380066526</v>
       </c>
     </row>
-    <row r="148" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>2</v>
       </c>
@@ -27779,31 +27987,34 @@
         <v>11.47795098257423</v>
       </c>
       <c r="FB148" s="21">
-        <v>12.646311858775395</v>
+        <v>12.63158515860415</v>
       </c>
       <c r="FC148" s="21">
-        <v>20.516323544034627</v>
+        <v>20.489716475584085</v>
       </c>
       <c r="FD148" s="21">
-        <v>14.740089485676652</v>
+        <v>14.728333652625683</v>
       </c>
       <c r="FE148" s="25">
-        <v>13.145714883541718</v>
+        <v>13.135127212333369</v>
       </c>
       <c r="FF148" s="25">
-        <v>15.274267781180976</v>
+        <v>15.240862232436136</v>
       </c>
       <c r="FG148" s="25">
-        <v>17.550883779024968</v>
+        <v>17.510579034202397</v>
       </c>
       <c r="FH148" s="25">
-        <v>15.692134590348353</v>
+        <v>15.661060744453865</v>
       </c>
       <c r="FI148" s="25">
-        <v>13.104637649733952</v>
+        <v>13.136970722408483</v>
+      </c>
+      <c r="FJ148" s="25">
+        <v>14.578207294534588</v>
       </c>
     </row>
-    <row r="149" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>3</v>
       </c>
@@ -28276,31 +28487,34 @@
         <v>27.886176000366664</v>
       </c>
       <c r="FB149" s="21">
-        <v>22.43882540482176</v>
+        <v>22.372071131654746</v>
       </c>
       <c r="FC149" s="21">
-        <v>15.209084225721714</v>
+        <v>15.089400775763236</v>
       </c>
       <c r="FD149" s="21">
-        <v>18.111762255562901</v>
+        <v>18.308767018368123</v>
       </c>
       <c r="FE149" s="25">
-        <v>20.613119871249378</v>
+        <v>20.755870004368816</v>
       </c>
       <c r="FF149" s="25">
-        <v>19.892327084110374</v>
+        <v>20.015444901247388</v>
       </c>
       <c r="FG149" s="25">
-        <v>24.485546069298916</v>
+        <v>24.715855196025259</v>
       </c>
       <c r="FH149" s="25">
-        <v>20.468123307091794</v>
+        <v>20.675151439731568</v>
       </c>
       <c r="FI149" s="25">
-        <v>21.544046680617441</v>
+        <v>21.995009860722252</v>
+      </c>
+      <c r="FJ149" s="25">
+        <v>22.176196880236105</v>
       </c>
     </row>
-    <row r="150" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>4</v>
       </c>
@@ -28773,31 +28987,34 @@
         <v>24.733752282697484</v>
       </c>
       <c r="FB150" s="21">
-        <v>30.059497008071549</v>
+        <v>30.271954970322895</v>
       </c>
       <c r="FC150" s="21">
-        <v>24.320359970732948</v>
+        <v>24.399141274444677</v>
       </c>
       <c r="FD150" s="21">
-        <v>29.93970379003434</v>
+        <v>29.858370314510175</v>
       </c>
       <c r="FE150" s="25">
-        <v>24.201269011753684</v>
+        <v>24.076479105699921</v>
       </c>
       <c r="FF150" s="25">
-        <v>28.511545991873145</v>
+        <v>28.826801990893248</v>
       </c>
       <c r="FG150" s="25">
-        <v>27.741677244029482</v>
+        <v>27.976683160252207</v>
       </c>
       <c r="FH150" s="25">
-        <v>30.560979615806904</v>
+        <v>30.452906769025027</v>
       </c>
       <c r="FI150" s="25">
-        <v>24.337458462436977</v>
+        <v>24.051337949270749</v>
+      </c>
+      <c r="FJ150" s="25">
+        <v>29.373174310413546</v>
       </c>
     </row>
-    <row r="151" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>5</v>
       </c>
@@ -29270,31 +29487,34 @@
         <v>37.998686836593627</v>
       </c>
       <c r="FB151" s="21">
-        <v>39.882146166201679</v>
+        <v>39.919089004885414</v>
       </c>
       <c r="FC151" s="21">
-        <v>30.337939962106869</v>
+        <v>30.351875678718628</v>
       </c>
       <c r="FD151" s="21">
-        <v>37.093584170465341</v>
+        <v>37.14739340135273</v>
       </c>
       <c r="FE151" s="25">
-        <v>33.035450291936094</v>
+        <v>32.892608013046761</v>
       </c>
       <c r="FF151" s="25">
-        <v>38.586282174468856</v>
+        <v>38.375649928576969</v>
       </c>
       <c r="FG151" s="25">
-        <v>37.873274417585243</v>
+        <v>37.98959043736258</v>
       </c>
       <c r="FH151" s="25">
-        <v>39.21627588121062</v>
+        <v>39.126714295596912</v>
       </c>
       <c r="FI151" s="25">
-        <v>34.87472134262218</v>
+        <v>34.877412269164708</v>
+      </c>
+      <c r="FJ151" s="25">
+        <v>40.973597324677357</v>
       </c>
     </row>
-    <row r="152" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:166" x14ac:dyDescent="0.2">
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
       <c r="D152" s="13"/>
@@ -29459,8 +29679,9 @@
       <c r="FG152" s="25"/>
       <c r="FH152" s="25"/>
       <c r="FI152" s="25"/>
+      <c r="FJ152" s="25"/>
     </row>
-    <row r="153" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:166" x14ac:dyDescent="0.2">
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
       <c r="D153" s="13"/>
@@ -29625,8 +29846,9 @@
       <c r="FG153" s="25"/>
       <c r="FH153" s="25"/>
       <c r="FI153" s="25"/>
+      <c r="FJ153" s="25"/>
     </row>
-    <row r="154" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="s">
         <v>10</v>
       </c>
@@ -30122,8 +30344,11 @@
       <c r="FI154" s="25">
         <v>100</v>
       </c>
+      <c r="FJ154" s="25">
+        <v>100</v>
+      </c>
     </row>
-    <row r="155" spans="1:165" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:166" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
       <c r="D155" s="13"/>
@@ -30281,7 +30506,7 @@
       <c r="EZ155" s="13"/>
       <c r="FA155" s="13"/>
     </row>
-    <row r="156" spans="1:165" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:166" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
       <c r="D156" s="13"/>
@@ -30439,7 +30664,7 @@
       <c r="EZ156" s="13"/>
       <c r="FA156" s="13"/>
     </row>
-    <row r="157" spans="1:165" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:166" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
       <c r="D157" s="13"/>
@@ -30597,7 +30822,7 @@
       <c r="EZ157" s="13"/>
       <c r="FA157" s="13"/>
     </row>
-    <row r="158" spans="1:165" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:166" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
       <c r="D158" s="13"/>
@@ -30755,7 +30980,7 @@
       <c r="EZ158" s="13"/>
       <c r="FA158" s="13"/>
     </row>
-    <row r="159" spans="1:165" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:166" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
@@ -30921,31 +31146,32 @@
       <c r="FG159" s="9"/>
       <c r="FH159" s="9"/>
       <c r="FI159" s="9"/>
+      <c r="FJ159" s="9"/>
     </row>
-    <row r="160" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="166" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
     </row>
-    <row r="167" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>47</v>
       </c>
@@ -30953,15 +31179,15 @@
       <c r="FD167" s="3"/>
       <c r="FE167" s="3"/>
     </row>
-    <row r="168" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A168" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="FC168" s="3"/>
       <c r="FD168" s="3"/>
       <c r="FE168" s="3"/>
     </row>
-    <row r="169" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>11</v>
       </c>
@@ -30969,262 +31195,265 @@
       <c r="FD169" s="3"/>
       <c r="FE169" s="3"/>
     </row>
-    <row r="170" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="FC170" s="3"/>
       <c r="FD170" s="3"/>
       <c r="FE170" s="3"/>
     </row>
-    <row r="171" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
-      <c r="B171" s="29">
+      <c r="B171" s="30">
         <v>1981</v>
       </c>
-      <c r="C171" s="29"/>
-      <c r="D171" s="29"/>
-      <c r="E171" s="29"/>
-      <c r="F171" s="29">
+      <c r="C171" s="30"/>
+      <c r="D171" s="30"/>
+      <c r="E171" s="30"/>
+      <c r="F171" s="30">
         <v>1982</v>
       </c>
-      <c r="G171" s="29"/>
-      <c r="H171" s="29"/>
-      <c r="I171" s="29"/>
-      <c r="J171" s="29">
+      <c r="G171" s="30"/>
+      <c r="H171" s="30"/>
+      <c r="I171" s="30"/>
+      <c r="J171" s="30">
         <v>1983</v>
       </c>
-      <c r="K171" s="29"/>
-      <c r="L171" s="29"/>
-      <c r="M171" s="29"/>
-      <c r="N171" s="29">
+      <c r="K171" s="30"/>
+      <c r="L171" s="30"/>
+      <c r="M171" s="30"/>
+      <c r="N171" s="30">
         <v>1984</v>
       </c>
-      <c r="O171" s="29"/>
-      <c r="P171" s="29"/>
-      <c r="Q171" s="29"/>
-      <c r="R171" s="29">
+      <c r="O171" s="30"/>
+      <c r="P171" s="30"/>
+      <c r="Q171" s="30"/>
+      <c r="R171" s="30">
         <v>1985</v>
       </c>
-      <c r="S171" s="29"/>
-      <c r="T171" s="29"/>
-      <c r="U171" s="29"/>
-      <c r="V171" s="29">
+      <c r="S171" s="30"/>
+      <c r="T171" s="30"/>
+      <c r="U171" s="30"/>
+      <c r="V171" s="30">
         <v>1986</v>
       </c>
-      <c r="W171" s="29"/>
-      <c r="X171" s="29"/>
-      <c r="Y171" s="29"/>
-      <c r="Z171" s="29">
+      <c r="W171" s="30"/>
+      <c r="X171" s="30"/>
+      <c r="Y171" s="30"/>
+      <c r="Z171" s="30">
         <v>1987</v>
       </c>
-      <c r="AA171" s="29"/>
-      <c r="AB171" s="29"/>
-      <c r="AC171" s="29"/>
-      <c r="AD171" s="29">
+      <c r="AA171" s="30"/>
+      <c r="AB171" s="30"/>
+      <c r="AC171" s="30"/>
+      <c r="AD171" s="30">
         <v>1988</v>
       </c>
-      <c r="AE171" s="29"/>
-      <c r="AF171" s="29"/>
-      <c r="AG171" s="29"/>
-      <c r="AH171" s="29">
+      <c r="AE171" s="30"/>
+      <c r="AF171" s="30"/>
+      <c r="AG171" s="30"/>
+      <c r="AH171" s="30">
         <v>1989</v>
       </c>
-      <c r="AI171" s="29"/>
-      <c r="AJ171" s="29"/>
-      <c r="AK171" s="29"/>
-      <c r="AL171" s="29">
+      <c r="AI171" s="30"/>
+      <c r="AJ171" s="30"/>
+      <c r="AK171" s="30"/>
+      <c r="AL171" s="30">
         <v>1990</v>
       </c>
-      <c r="AM171" s="29"/>
-      <c r="AN171" s="29"/>
-      <c r="AO171" s="29"/>
-      <c r="AP171" s="29">
+      <c r="AM171" s="30"/>
+      <c r="AN171" s="30"/>
+      <c r="AO171" s="30"/>
+      <c r="AP171" s="30">
         <v>1991</v>
       </c>
-      <c r="AQ171" s="29"/>
-      <c r="AR171" s="29"/>
-      <c r="AS171" s="29"/>
-      <c r="AT171" s="29">
+      <c r="AQ171" s="30"/>
+      <c r="AR171" s="30"/>
+      <c r="AS171" s="30"/>
+      <c r="AT171" s="30">
         <v>1992</v>
       </c>
-      <c r="AU171" s="29"/>
-      <c r="AV171" s="29"/>
-      <c r="AW171" s="29"/>
-      <c r="AX171" s="29">
+      <c r="AU171" s="30"/>
+      <c r="AV171" s="30"/>
+      <c r="AW171" s="30"/>
+      <c r="AX171" s="30">
         <v>1993</v>
       </c>
-      <c r="AY171" s="29"/>
-      <c r="AZ171" s="29"/>
-      <c r="BA171" s="29"/>
-      <c r="BB171" s="29">
+      <c r="AY171" s="30"/>
+      <c r="AZ171" s="30"/>
+      <c r="BA171" s="30"/>
+      <c r="BB171" s="30">
         <v>1994</v>
       </c>
-      <c r="BC171" s="29"/>
-      <c r="BD171" s="29"/>
-      <c r="BE171" s="29"/>
-      <c r="BF171" s="29">
+      <c r="BC171" s="30"/>
+      <c r="BD171" s="30"/>
+      <c r="BE171" s="30"/>
+      <c r="BF171" s="30">
         <v>1995</v>
       </c>
-      <c r="BG171" s="29"/>
-      <c r="BH171" s="29"/>
-      <c r="BI171" s="29"/>
-      <c r="BJ171" s="29">
+      <c r="BG171" s="30"/>
+      <c r="BH171" s="30"/>
+      <c r="BI171" s="30"/>
+      <c r="BJ171" s="30">
         <v>1996</v>
       </c>
-      <c r="BK171" s="29"/>
-      <c r="BL171" s="29"/>
-      <c r="BM171" s="29"/>
-      <c r="BN171" s="29">
+      <c r="BK171" s="30"/>
+      <c r="BL171" s="30"/>
+      <c r="BM171" s="30"/>
+      <c r="BN171" s="30">
         <v>1997</v>
       </c>
-      <c r="BO171" s="29"/>
-      <c r="BP171" s="29"/>
-      <c r="BQ171" s="29"/>
-      <c r="BR171" s="29">
+      <c r="BO171" s="30"/>
+      <c r="BP171" s="30"/>
+      <c r="BQ171" s="30"/>
+      <c r="BR171" s="30">
         <v>1998</v>
       </c>
-      <c r="BS171" s="29"/>
-      <c r="BT171" s="29"/>
-      <c r="BU171" s="29"/>
-      <c r="BV171" s="29">
+      <c r="BS171" s="30"/>
+      <c r="BT171" s="30"/>
+      <c r="BU171" s="30"/>
+      <c r="BV171" s="30">
         <v>1999</v>
       </c>
-      <c r="BW171" s="29"/>
-      <c r="BX171" s="29"/>
-      <c r="BY171" s="29"/>
-      <c r="BZ171" s="29">
+      <c r="BW171" s="30"/>
+      <c r="BX171" s="30"/>
+      <c r="BY171" s="30"/>
+      <c r="BZ171" s="30">
         <v>2000</v>
       </c>
-      <c r="CA171" s="29"/>
-      <c r="CB171" s="29"/>
-      <c r="CC171" s="29"/>
-      <c r="CD171" s="29">
+      <c r="CA171" s="30"/>
+      <c r="CB171" s="30"/>
+      <c r="CC171" s="30"/>
+      <c r="CD171" s="30">
         <v>2001</v>
       </c>
-      <c r="CE171" s="29"/>
-      <c r="CF171" s="29"/>
-      <c r="CG171" s="29"/>
-      <c r="CH171" s="29">
+      <c r="CE171" s="30"/>
+      <c r="CF171" s="30"/>
+      <c r="CG171" s="30"/>
+      <c r="CH171" s="30">
         <v>2002</v>
       </c>
-      <c r="CI171" s="29"/>
-      <c r="CJ171" s="29"/>
-      <c r="CK171" s="29"/>
-      <c r="CL171" s="29">
+      <c r="CI171" s="30"/>
+      <c r="CJ171" s="30"/>
+      <c r="CK171" s="30"/>
+      <c r="CL171" s="30">
         <v>2003</v>
       </c>
-      <c r="CM171" s="29"/>
-      <c r="CN171" s="29"/>
-      <c r="CO171" s="29"/>
-      <c r="CP171" s="29">
+      <c r="CM171" s="30"/>
+      <c r="CN171" s="30"/>
+      <c r="CO171" s="30"/>
+      <c r="CP171" s="30">
         <v>2004</v>
       </c>
-      <c r="CQ171" s="29"/>
-      <c r="CR171" s="29"/>
-      <c r="CS171" s="29"/>
-      <c r="CT171" s="29">
+      <c r="CQ171" s="30"/>
+      <c r="CR171" s="30"/>
+      <c r="CS171" s="30"/>
+      <c r="CT171" s="30">
         <v>2005</v>
       </c>
-      <c r="CU171" s="29"/>
-      <c r="CV171" s="29"/>
-      <c r="CW171" s="29"/>
-      <c r="CX171" s="29">
+      <c r="CU171" s="30"/>
+      <c r="CV171" s="30"/>
+      <c r="CW171" s="30"/>
+      <c r="CX171" s="30">
         <v>2006</v>
       </c>
-      <c r="CY171" s="29"/>
-      <c r="CZ171" s="29"/>
-      <c r="DA171" s="29"/>
-      <c r="DB171" s="29">
+      <c r="CY171" s="30"/>
+      <c r="CZ171" s="30"/>
+      <c r="DA171" s="30"/>
+      <c r="DB171" s="30">
         <v>2007</v>
       </c>
-      <c r="DC171" s="29"/>
-      <c r="DD171" s="29"/>
-      <c r="DE171" s="29"/>
-      <c r="DF171" s="29">
+      <c r="DC171" s="30"/>
+      <c r="DD171" s="30"/>
+      <c r="DE171" s="30"/>
+      <c r="DF171" s="30">
         <v>2008</v>
       </c>
-      <c r="DG171" s="29"/>
-      <c r="DH171" s="29"/>
-      <c r="DI171" s="29"/>
-      <c r="DJ171" s="29">
+      <c r="DG171" s="30"/>
+      <c r="DH171" s="30"/>
+      <c r="DI171" s="30"/>
+      <c r="DJ171" s="30">
         <v>2009</v>
       </c>
-      <c r="DK171" s="29"/>
-      <c r="DL171" s="29"/>
-      <c r="DM171" s="29"/>
-      <c r="DN171" s="29">
+      <c r="DK171" s="30"/>
+      <c r="DL171" s="30"/>
+      <c r="DM171" s="30"/>
+      <c r="DN171" s="30">
         <v>2010</v>
       </c>
-      <c r="DO171" s="29"/>
-      <c r="DP171" s="29"/>
-      <c r="DQ171" s="29"/>
-      <c r="DR171" s="29">
+      <c r="DO171" s="30"/>
+      <c r="DP171" s="30"/>
+      <c r="DQ171" s="30"/>
+      <c r="DR171" s="30">
         <v>2011</v>
       </c>
-      <c r="DS171" s="29"/>
-      <c r="DT171" s="29"/>
-      <c r="DU171" s="29"/>
-      <c r="DV171" s="29">
+      <c r="DS171" s="30"/>
+      <c r="DT171" s="30"/>
+      <c r="DU171" s="30"/>
+      <c r="DV171" s="30">
         <v>2012</v>
       </c>
-      <c r="DW171" s="29"/>
-      <c r="DX171" s="29"/>
-      <c r="DY171" s="29"/>
-      <c r="DZ171" s="29">
+      <c r="DW171" s="30"/>
+      <c r="DX171" s="30"/>
+      <c r="DY171" s="30"/>
+      <c r="DZ171" s="30">
         <v>2013</v>
       </c>
-      <c r="EA171" s="29"/>
-      <c r="EB171" s="29"/>
-      <c r="EC171" s="29"/>
-      <c r="ED171" s="29">
+      <c r="EA171" s="30"/>
+      <c r="EB171" s="30"/>
+      <c r="EC171" s="30"/>
+      <c r="ED171" s="30">
         <v>2014</v>
       </c>
-      <c r="EE171" s="29"/>
-      <c r="EF171" s="29"/>
-      <c r="EG171" s="29"/>
-      <c r="EH171" s="29">
+      <c r="EE171" s="30"/>
+      <c r="EF171" s="30"/>
+      <c r="EG171" s="30"/>
+      <c r="EH171" s="30">
         <v>2015</v>
       </c>
-      <c r="EI171" s="29"/>
-      <c r="EJ171" s="29"/>
-      <c r="EK171" s="29"/>
-      <c r="EL171" s="29">
+      <c r="EI171" s="30"/>
+      <c r="EJ171" s="30"/>
+      <c r="EK171" s="30"/>
+      <c r="EL171" s="30">
         <v>2016</v>
       </c>
-      <c r="EM171" s="29"/>
-      <c r="EN171" s="29"/>
-      <c r="EO171" s="29"/>
-      <c r="EP171" s="29">
+      <c r="EM171" s="30"/>
+      <c r="EN171" s="30"/>
+      <c r="EO171" s="30"/>
+      <c r="EP171" s="30">
         <v>2017</v>
       </c>
-      <c r="EQ171" s="29"/>
-      <c r="ER171" s="29"/>
-      <c r="ES171" s="29"/>
-      <c r="ET171" s="29">
+      <c r="EQ171" s="30"/>
+      <c r="ER171" s="30"/>
+      <c r="ES171" s="30"/>
+      <c r="ET171" s="30">
         <v>2018</v>
       </c>
-      <c r="EU171" s="29"/>
-      <c r="EV171" s="29"/>
-      <c r="EW171" s="29"/>
-      <c r="EX171" s="29">
+      <c r="EU171" s="30"/>
+      <c r="EV171" s="30"/>
+      <c r="EW171" s="30"/>
+      <c r="EX171" s="30">
         <v>2019</v>
       </c>
-      <c r="EY171" s="29"/>
-      <c r="EZ171" s="29"/>
-      <c r="FA171" s="29"/>
-      <c r="FB171" s="29">
+      <c r="EY171" s="30"/>
+      <c r="EZ171" s="30"/>
+      <c r="FA171" s="30"/>
+      <c r="FB171" s="30">
         <v>2020</v>
       </c>
-      <c r="FC171" s="29"/>
-      <c r="FD171" s="29"/>
+      <c r="FC171" s="30"/>
+      <c r="FD171" s="30"/>
       <c r="FE171" s="24"/>
-      <c r="FF171" s="29">
+      <c r="FF171" s="30">
         <v>2021</v>
       </c>
-      <c r="FG171" s="29"/>
-      <c r="FH171" s="29"/>
-      <c r="FI171" s="29"/>
+      <c r="FG171" s="30"/>
+      <c r="FH171" s="30"/>
+      <c r="FI171" s="30"/>
+      <c r="FJ171" s="29">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="172" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
         <v>13</v>
       </c>
@@ -31720,11 +31949,14 @@
       <c r="FI172" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="FJ172" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="173" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:166" x14ac:dyDescent="0.2">
       <c r="FB173" s="2"/>
     </row>
-    <row r="174" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="15" t="s">
         <v>74</v>
       </c>
@@ -32197,31 +32429,34 @@
         <v>513509.30675943289</v>
       </c>
       <c r="FB174" s="20">
-        <v>442597.91248025809</v>
+        <v>442374.58922007144</v>
       </c>
       <c r="FC174" s="20">
-        <v>424009.89574671176</v>
+        <v>423957.85082876333</v>
       </c>
       <c r="FD174" s="23">
-        <v>410262.619103882</v>
+        <v>410313.18461490097</v>
       </c>
       <c r="FE174" s="27">
-        <v>550139.7652124234</v>
+        <v>551777.97856436903</v>
       </c>
       <c r="FF174" s="27">
-        <v>487007.69756520254</v>
+        <v>486726.0078539747</v>
       </c>
       <c r="FG174" s="27">
-        <v>453927.94203751889</v>
+        <v>453932.50922569662</v>
       </c>
       <c r="FH174" s="27">
-        <v>433478.54896234925</v>
+        <v>433482.74402541609</v>
       </c>
       <c r="FI174" s="27">
-        <v>579361.88978735299</v>
+        <v>580203.38279120834</v>
+      </c>
+      <c r="FJ174" s="27">
+        <v>499949.48450260761</v>
       </c>
     </row>
-    <row r="175" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="15" t="s">
         <v>75</v>
       </c>
@@ -32694,31 +32929,34 @@
         <v>1763475.9607507058</v>
       </c>
       <c r="FB175" s="20">
-        <v>1316562.965703252</v>
+        <v>1317902.3582928812</v>
       </c>
       <c r="FC175" s="20">
-        <v>1145115.7692591567</v>
+        <v>1146187.2036990467</v>
       </c>
       <c r="FD175" s="23">
-        <v>1051427.0379190526</v>
+        <v>1053048.7925343153</v>
       </c>
       <c r="FE175" s="27">
-        <v>1581115.7733396073</v>
+        <v>1581093.7445763706</v>
       </c>
       <c r="FF175" s="27">
-        <v>1237359.9915332333</v>
+        <v>1241803.4393114215</v>
       </c>
       <c r="FG175" s="27">
-        <v>1423866.952145309</v>
+        <v>1432448.3831223424</v>
       </c>
       <c r="FH175" s="27">
-        <v>1165893.9327303029</v>
+        <v>1171955.4029090884</v>
       </c>
       <c r="FI175" s="27">
-        <v>1768824.9505838957</v>
+        <v>1760803.3065914132</v>
+      </c>
+      <c r="FJ175" s="27">
+        <v>1482187.9065805941</v>
       </c>
     </row>
-    <row r="176" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="15" t="s">
         <v>76</v>
       </c>
@@ -33191,31 +33429,34 @@
         <v>3222935.193299138</v>
       </c>
       <c r="FB176" s="20">
-        <v>2686672.8980237427</v>
+        <v>2688863.5624780268</v>
       </c>
       <c r="FC176" s="20">
-        <v>2565537.7196482364</v>
+        <v>2568227.7683391743</v>
       </c>
       <c r="FD176" s="23">
-        <v>2741252.8366067279</v>
+        <v>2741745.5483586006</v>
       </c>
       <c r="FE176" s="27">
-        <v>3023887.231139285</v>
+        <v>3026080.9885062007</v>
       </c>
       <c r="FF176" s="27">
-        <v>2639332.2997431136</v>
+        <v>2643548.2736162725</v>
       </c>
       <c r="FG176" s="27">
-        <v>2881107.7350939452</v>
+        <v>2885261.1533618188</v>
       </c>
       <c r="FH176" s="27">
-        <v>2997800.3978045094</v>
+        <v>2998886.9164163945</v>
       </c>
       <c r="FI176" s="27">
-        <v>3319247.3057436864</v>
+        <v>3321516.5359003381</v>
+      </c>
+      <c r="FJ176" s="27">
+        <v>2948249.3937292397</v>
       </c>
     </row>
-    <row r="177" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A177" s="16"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -33381,8 +33622,9 @@
       <c r="FG177" s="7"/>
       <c r="FH177" s="7"/>
       <c r="FI177" s="7"/>
+      <c r="FJ177" s="7"/>
     </row>
-    <row r="178" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>10</v>
       </c>
@@ -33855,31 +34097,34 @@
         <v>5499920.4608092764</v>
       </c>
       <c r="FB178" s="20">
-        <v>4445833.7762072533</v>
+        <v>4449140.509990979</v>
       </c>
       <c r="FC178" s="20">
-        <v>4134663.3846541047</v>
+        <v>4138372.8228669846</v>
       </c>
       <c r="FD178" s="20">
-        <v>4202942.4936296623</v>
+        <v>4205107.525507817</v>
       </c>
       <c r="FE178" s="7">
-        <v>5155142.7696913164</v>
+        <v>5158952.7116469406</v>
       </c>
       <c r="FF178" s="7">
-        <v>4363699.9888415495</v>
+        <v>4372077.720781669</v>
       </c>
       <c r="FG178" s="7">
-        <v>4758902.629276773</v>
+        <v>4771642.0457098577</v>
       </c>
       <c r="FH178" s="7">
-        <v>4597172.8794971611</v>
+        <v>4604325.0633508991</v>
       </c>
       <c r="FI178" s="7">
-        <v>5667434.1461149352</v>
+        <v>5662523.2252829596</v>
+      </c>
+      <c r="FJ178" s="7">
+        <v>4930386.7848124411</v>
       </c>
     </row>
-    <row r="179" spans="1:165" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:166" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
@@ -34043,7 +34288,7 @@
         <v>-24370.119758612476</v>
       </c>
     </row>
-    <row r="180" spans="1:165" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:166" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
@@ -34203,7 +34448,7 @@
       <c r="FB180" s="7"/>
       <c r="FC180" s="7"/>
     </row>
-    <row r="181" spans="1:165" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:166" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
@@ -34367,7 +34612,7 @@
         <v>4857262.3839106075</v>
       </c>
     </row>
-    <row r="182" spans="1:165" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:166" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
@@ -34525,7 +34770,7 @@
       <c r="EZ182" s="7"/>
       <c r="FA182" s="7"/>
     </row>
-    <row r="183" spans="1:165" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:166" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="9"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
@@ -34691,37 +34936,38 @@
       <c r="FG183" s="9"/>
       <c r="FH183" s="9"/>
       <c r="FI183" s="9"/>
+      <c r="FJ183" s="9"/>
     </row>
-    <row r="184" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:166" x14ac:dyDescent="0.2">
       <c r="E185" s="10"/>
       <c r="I185" s="10"/>
     </row>
-    <row r="186" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:166" x14ac:dyDescent="0.2">
       <c r="FB186" s="17"/>
       <c r="FC186" s="17"/>
     </row>
-    <row r="187" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>8</v>
       </c>
       <c r="FB187" s="18"/>
       <c r="FC187" s="17"/>
     </row>
-    <row r="188" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>9</v>
       </c>
       <c r="FB188" s="18"/>
       <c r="FC188" s="17"/>
     </row>
-    <row r="189" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -34880,7 +35126,7 @@
       <c r="EZ189" s="2"/>
       <c r="FA189" s="2"/>
     </row>
-    <row r="190" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -35039,7 +35285,7 @@
       <c r="EZ190" s="2"/>
       <c r="FA190" s="2"/>
     </row>
-    <row r="191" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>48</v>
       </c>
@@ -35200,9 +35446,9 @@
       <c r="EZ191" s="2"/>
       <c r="FA191" s="2"/>
     </row>
-    <row r="192" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -35361,7 +35607,7 @@
       <c r="EZ192" s="2"/>
       <c r="FA192" s="2"/>
     </row>
-    <row r="193" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>12</v>
       </c>
@@ -35522,7 +35768,7 @@
       <c r="EZ193" s="2"/>
       <c r="FA193" s="2"/>
     </row>
-    <row r="194" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -35681,256 +35927,259 @@
       <c r="EZ194" s="2"/>
       <c r="FA194" s="2"/>
     </row>
-    <row r="195" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
-      <c r="B195" s="29">
+      <c r="B195" s="30">
         <v>1981</v>
       </c>
-      <c r="C195" s="29"/>
-      <c r="D195" s="29"/>
-      <c r="E195" s="29"/>
-      <c r="F195" s="29">
+      <c r="C195" s="30"/>
+      <c r="D195" s="30"/>
+      <c r="E195" s="30"/>
+      <c r="F195" s="30">
         <v>1982</v>
       </c>
-      <c r="G195" s="29"/>
-      <c r="H195" s="29"/>
-      <c r="I195" s="29"/>
-      <c r="J195" s="29">
+      <c r="G195" s="30"/>
+      <c r="H195" s="30"/>
+      <c r="I195" s="30"/>
+      <c r="J195" s="30">
         <v>1983</v>
       </c>
-      <c r="K195" s="29"/>
-      <c r="L195" s="29"/>
-      <c r="M195" s="29"/>
-      <c r="N195" s="29">
+      <c r="K195" s="30"/>
+      <c r="L195" s="30"/>
+      <c r="M195" s="30"/>
+      <c r="N195" s="30">
         <v>1984</v>
       </c>
-      <c r="O195" s="29"/>
-      <c r="P195" s="29"/>
-      <c r="Q195" s="29"/>
-      <c r="R195" s="29">
+      <c r="O195" s="30"/>
+      <c r="P195" s="30"/>
+      <c r="Q195" s="30"/>
+      <c r="R195" s="30">
         <v>1985</v>
       </c>
-      <c r="S195" s="29"/>
-      <c r="T195" s="29"/>
-      <c r="U195" s="29"/>
-      <c r="V195" s="29">
+      <c r="S195" s="30"/>
+      <c r="T195" s="30"/>
+      <c r="U195" s="30"/>
+      <c r="V195" s="30">
         <v>1986</v>
       </c>
-      <c r="W195" s="29"/>
-      <c r="X195" s="29"/>
-      <c r="Y195" s="29"/>
-      <c r="Z195" s="29">
+      <c r="W195" s="30"/>
+      <c r="X195" s="30"/>
+      <c r="Y195" s="30"/>
+      <c r="Z195" s="30">
         <v>1987</v>
       </c>
-      <c r="AA195" s="29"/>
-      <c r="AB195" s="29"/>
-      <c r="AC195" s="29"/>
-      <c r="AD195" s="29">
+      <c r="AA195" s="30"/>
+      <c r="AB195" s="30"/>
+      <c r="AC195" s="30"/>
+      <c r="AD195" s="30">
         <v>1988</v>
       </c>
-      <c r="AE195" s="29"/>
-      <c r="AF195" s="29"/>
-      <c r="AG195" s="29"/>
-      <c r="AH195" s="29">
+      <c r="AE195" s="30"/>
+      <c r="AF195" s="30"/>
+      <c r="AG195" s="30"/>
+      <c r="AH195" s="30">
         <v>1989</v>
       </c>
-      <c r="AI195" s="29"/>
-      <c r="AJ195" s="29"/>
-      <c r="AK195" s="29"/>
-      <c r="AL195" s="29">
+      <c r="AI195" s="30"/>
+      <c r="AJ195" s="30"/>
+      <c r="AK195" s="30"/>
+      <c r="AL195" s="30">
         <v>1990</v>
       </c>
-      <c r="AM195" s="29"/>
-      <c r="AN195" s="29"/>
-      <c r="AO195" s="29"/>
-      <c r="AP195" s="29">
+      <c r="AM195" s="30"/>
+      <c r="AN195" s="30"/>
+      <c r="AO195" s="30"/>
+      <c r="AP195" s="30">
         <v>1991</v>
       </c>
-      <c r="AQ195" s="29"/>
-      <c r="AR195" s="29"/>
-      <c r="AS195" s="29"/>
-      <c r="AT195" s="29">
+      <c r="AQ195" s="30"/>
+      <c r="AR195" s="30"/>
+      <c r="AS195" s="30"/>
+      <c r="AT195" s="30">
         <v>1992</v>
       </c>
-      <c r="AU195" s="29"/>
-      <c r="AV195" s="29"/>
-      <c r="AW195" s="29"/>
-      <c r="AX195" s="29">
+      <c r="AU195" s="30"/>
+      <c r="AV195" s="30"/>
+      <c r="AW195" s="30"/>
+      <c r="AX195" s="30">
         <v>1993</v>
       </c>
-      <c r="AY195" s="29"/>
-      <c r="AZ195" s="29"/>
-      <c r="BA195" s="29"/>
-      <c r="BB195" s="29">
+      <c r="AY195" s="30"/>
+      <c r="AZ195" s="30"/>
+      <c r="BA195" s="30"/>
+      <c r="BB195" s="30">
         <v>1994</v>
       </c>
-      <c r="BC195" s="29"/>
-      <c r="BD195" s="29"/>
-      <c r="BE195" s="29"/>
-      <c r="BF195" s="29">
+      <c r="BC195" s="30"/>
+      <c r="BD195" s="30"/>
+      <c r="BE195" s="30"/>
+      <c r="BF195" s="30">
         <v>1995</v>
       </c>
-      <c r="BG195" s="29"/>
-      <c r="BH195" s="29"/>
-      <c r="BI195" s="29"/>
-      <c r="BJ195" s="29">
+      <c r="BG195" s="30"/>
+      <c r="BH195" s="30"/>
+      <c r="BI195" s="30"/>
+      <c r="BJ195" s="30">
         <v>1996</v>
       </c>
-      <c r="BK195" s="29"/>
-      <c r="BL195" s="29"/>
-      <c r="BM195" s="29"/>
-      <c r="BN195" s="29">
+      <c r="BK195" s="30"/>
+      <c r="BL195" s="30"/>
+      <c r="BM195" s="30"/>
+      <c r="BN195" s="30">
         <v>1997</v>
       </c>
-      <c r="BO195" s="29"/>
-      <c r="BP195" s="29"/>
-      <c r="BQ195" s="29"/>
-      <c r="BR195" s="29">
+      <c r="BO195" s="30"/>
+      <c r="BP195" s="30"/>
+      <c r="BQ195" s="30"/>
+      <c r="BR195" s="30">
         <v>1998</v>
       </c>
-      <c r="BS195" s="29"/>
-      <c r="BT195" s="29"/>
-      <c r="BU195" s="29"/>
-      <c r="BV195" s="29">
+      <c r="BS195" s="30"/>
+      <c r="BT195" s="30"/>
+      <c r="BU195" s="30"/>
+      <c r="BV195" s="30">
         <v>1999</v>
       </c>
-      <c r="BW195" s="29"/>
-      <c r="BX195" s="29"/>
-      <c r="BY195" s="29"/>
-      <c r="BZ195" s="29">
+      <c r="BW195" s="30"/>
+      <c r="BX195" s="30"/>
+      <c r="BY195" s="30"/>
+      <c r="BZ195" s="30">
         <v>2000</v>
       </c>
-      <c r="CA195" s="29"/>
-      <c r="CB195" s="29"/>
-      <c r="CC195" s="29"/>
-      <c r="CD195" s="29">
+      <c r="CA195" s="30"/>
+      <c r="CB195" s="30"/>
+      <c r="CC195" s="30"/>
+      <c r="CD195" s="30">
         <v>2001</v>
       </c>
-      <c r="CE195" s="29"/>
-      <c r="CF195" s="29"/>
-      <c r="CG195" s="29"/>
-      <c r="CH195" s="29">
+      <c r="CE195" s="30"/>
+      <c r="CF195" s="30"/>
+      <c r="CG195" s="30"/>
+      <c r="CH195" s="30">
         <v>2002</v>
       </c>
-      <c r="CI195" s="29"/>
-      <c r="CJ195" s="29"/>
-      <c r="CK195" s="29"/>
-      <c r="CL195" s="29">
+      <c r="CI195" s="30"/>
+      <c r="CJ195" s="30"/>
+      <c r="CK195" s="30"/>
+      <c r="CL195" s="30">
         <v>2003</v>
       </c>
-      <c r="CM195" s="29"/>
-      <c r="CN195" s="29"/>
-      <c r="CO195" s="29"/>
-      <c r="CP195" s="29">
+      <c r="CM195" s="30"/>
+      <c r="CN195" s="30"/>
+      <c r="CO195" s="30"/>
+      <c r="CP195" s="30">
         <v>2004</v>
       </c>
-      <c r="CQ195" s="29"/>
-      <c r="CR195" s="29"/>
-      <c r="CS195" s="29"/>
-      <c r="CT195" s="29">
+      <c r="CQ195" s="30"/>
+      <c r="CR195" s="30"/>
+      <c r="CS195" s="30"/>
+      <c r="CT195" s="30">
         <v>2005</v>
       </c>
-      <c r="CU195" s="29"/>
-      <c r="CV195" s="29"/>
-      <c r="CW195" s="29"/>
-      <c r="CX195" s="29">
+      <c r="CU195" s="30"/>
+      <c r="CV195" s="30"/>
+      <c r="CW195" s="30"/>
+      <c r="CX195" s="30">
         <v>2006</v>
       </c>
-      <c r="CY195" s="29"/>
-      <c r="CZ195" s="29"/>
-      <c r="DA195" s="29"/>
-      <c r="DB195" s="29">
+      <c r="CY195" s="30"/>
+      <c r="CZ195" s="30"/>
+      <c r="DA195" s="30"/>
+      <c r="DB195" s="30">
         <v>2007</v>
       </c>
-      <c r="DC195" s="29"/>
-      <c r="DD195" s="29"/>
-      <c r="DE195" s="29"/>
-      <c r="DF195" s="29">
+      <c r="DC195" s="30"/>
+      <c r="DD195" s="30"/>
+      <c r="DE195" s="30"/>
+      <c r="DF195" s="30">
         <v>2008</v>
       </c>
-      <c r="DG195" s="29"/>
-      <c r="DH195" s="29"/>
-      <c r="DI195" s="29"/>
-      <c r="DJ195" s="29">
+      <c r="DG195" s="30"/>
+      <c r="DH195" s="30"/>
+      <c r="DI195" s="30"/>
+      <c r="DJ195" s="30">
         <v>2009</v>
       </c>
-      <c r="DK195" s="29"/>
-      <c r="DL195" s="29"/>
-      <c r="DM195" s="29"/>
-      <c r="DN195" s="29">
+      <c r="DK195" s="30"/>
+      <c r="DL195" s="30"/>
+      <c r="DM195" s="30"/>
+      <c r="DN195" s="30">
         <v>2010</v>
       </c>
-      <c r="DO195" s="29"/>
-      <c r="DP195" s="29"/>
-      <c r="DQ195" s="29"/>
-      <c r="DR195" s="29">
+      <c r="DO195" s="30"/>
+      <c r="DP195" s="30"/>
+      <c r="DQ195" s="30"/>
+      <c r="DR195" s="30">
         <v>2011</v>
       </c>
-      <c r="DS195" s="29"/>
-      <c r="DT195" s="29"/>
-      <c r="DU195" s="29"/>
-      <c r="DV195" s="29">
+      <c r="DS195" s="30"/>
+      <c r="DT195" s="30"/>
+      <c r="DU195" s="30"/>
+      <c r="DV195" s="30">
         <v>2012</v>
       </c>
-      <c r="DW195" s="29"/>
-      <c r="DX195" s="29"/>
-      <c r="DY195" s="29"/>
-      <c r="DZ195" s="29">
+      <c r="DW195" s="30"/>
+      <c r="DX195" s="30"/>
+      <c r="DY195" s="30"/>
+      <c r="DZ195" s="30">
         <v>2013</v>
       </c>
-      <c r="EA195" s="29"/>
-      <c r="EB195" s="29"/>
-      <c r="EC195" s="29"/>
-      <c r="ED195" s="29">
+      <c r="EA195" s="30"/>
+      <c r="EB195" s="30"/>
+      <c r="EC195" s="30"/>
+      <c r="ED195" s="30">
         <v>2014</v>
       </c>
-      <c r="EE195" s="29"/>
-      <c r="EF195" s="29"/>
-      <c r="EG195" s="29"/>
-      <c r="EH195" s="29">
+      <c r="EE195" s="30"/>
+      <c r="EF195" s="30"/>
+      <c r="EG195" s="30"/>
+      <c r="EH195" s="30">
         <v>2015</v>
       </c>
-      <c r="EI195" s="29"/>
-      <c r="EJ195" s="29"/>
-      <c r="EK195" s="29"/>
-      <c r="EL195" s="29">
+      <c r="EI195" s="30"/>
+      <c r="EJ195" s="30"/>
+      <c r="EK195" s="30"/>
+      <c r="EL195" s="30">
         <v>2016</v>
       </c>
-      <c r="EM195" s="29"/>
-      <c r="EN195" s="29"/>
-      <c r="EO195" s="29"/>
-      <c r="EP195" s="29">
+      <c r="EM195" s="30"/>
+      <c r="EN195" s="30"/>
+      <c r="EO195" s="30"/>
+      <c r="EP195" s="30">
         <v>2017</v>
       </c>
-      <c r="EQ195" s="29"/>
-      <c r="ER195" s="29"/>
-      <c r="ES195" s="29"/>
-      <c r="ET195" s="29">
+      <c r="EQ195" s="30"/>
+      <c r="ER195" s="30"/>
+      <c r="ES195" s="30"/>
+      <c r="ET195" s="30">
         <v>2018</v>
       </c>
-      <c r="EU195" s="29"/>
-      <c r="EV195" s="29"/>
-      <c r="EW195" s="29"/>
-      <c r="EX195" s="29">
+      <c r="EU195" s="30"/>
+      <c r="EV195" s="30"/>
+      <c r="EW195" s="30"/>
+      <c r="EX195" s="30">
         <v>2019</v>
       </c>
-      <c r="EY195" s="29"/>
-      <c r="EZ195" s="29"/>
-      <c r="FA195" s="29"/>
-      <c r="FB195" s="29">
+      <c r="EY195" s="30"/>
+      <c r="EZ195" s="30"/>
+      <c r="FA195" s="30"/>
+      <c r="FB195" s="30">
         <v>2020</v>
       </c>
-      <c r="FC195" s="29"/>
-      <c r="FD195" s="29"/>
+      <c r="FC195" s="30"/>
+      <c r="FD195" s="30"/>
       <c r="FE195" s="24"/>
-      <c r="FF195" s="29">
+      <c r="FF195" s="30">
         <v>2021</v>
       </c>
-      <c r="FG195" s="29"/>
-      <c r="FH195" s="29"/>
-      <c r="FI195" s="29"/>
+      <c r="FG195" s="30"/>
+      <c r="FH195" s="30"/>
+      <c r="FI195" s="30"/>
+      <c r="FJ195" s="29">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="196" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
         <v>13</v>
       </c>
@@ -36426,11 +36675,14 @@
       <c r="FI196" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="FJ196" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="197" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:166" x14ac:dyDescent="0.2">
       <c r="FB197" s="2"/>
     </row>
-    <row r="198" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="15" t="s">
         <v>74</v>
       </c>
@@ -36903,31 +37155,34 @@
         <v>533055.1829496494</v>
       </c>
       <c r="FB198" s="20">
-        <v>439733.66842964303</v>
+        <v>439720.3594012137</v>
       </c>
       <c r="FC198" s="20">
-        <v>416181.91755440121</v>
+        <v>416015.36143610592</v>
       </c>
       <c r="FD198" s="23">
-        <v>404987.90156462311</v>
+        <v>404884.6419744076</v>
       </c>
       <c r="FE198" s="27">
-        <v>519640.99915914494</v>
+        <v>519770.20128042623</v>
       </c>
       <c r="FF198" s="27">
-        <v>434001.99609410099</v>
+        <v>434037.47739194386</v>
       </c>
       <c r="FG198" s="27">
-        <v>416272.20131800859</v>
+        <v>416058.17799369962</v>
       </c>
       <c r="FH198" s="27">
-        <v>398287.06609552173</v>
+        <v>398149.41229115875</v>
       </c>
       <c r="FI198" s="27">
-        <v>527005.15729839436</v>
+        <v>527113.01255792379</v>
+      </c>
+      <c r="FJ198" s="27">
+        <v>434737.44798320159</v>
       </c>
     </row>
-    <row r="199" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="15" t="s">
         <v>75</v>
       </c>
@@ -37400,31 +37655,34 @@
         <v>1655867.6573221141</v>
       </c>
       <c r="FB199" s="20">
-        <v>1337330.4680135516</v>
+        <v>1338590.1414216799</v>
       </c>
       <c r="FC199" s="20">
-        <v>1180471.7915533183</v>
+        <v>1181421.9688872998</v>
       </c>
       <c r="FD199" s="23">
-        <v>1113356.598748426</v>
+        <v>1114455.3133277884</v>
       </c>
       <c r="FE199" s="27">
-        <v>1480955.7365747602</v>
+        <v>1480848.2893545763</v>
       </c>
       <c r="FF199" s="27">
-        <v>1278648.7644676939</v>
+        <v>1282787.9427904617</v>
       </c>
       <c r="FG199" s="27">
-        <v>1428127.268469644</v>
+        <v>1433000.4730602135</v>
       </c>
       <c r="FH199" s="27">
-        <v>1203946.2384178629</v>
+        <v>1210961.7889561488</v>
       </c>
       <c r="FI199" s="27">
-        <v>1621106.3313271452</v>
+        <v>1622734.0636805661</v>
+      </c>
+      <c r="FJ199" s="27">
+        <v>1416525.8084929781</v>
       </c>
     </row>
-    <row r="200" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="15" t="s">
         <v>76</v>
       </c>
@@ -37897,31 +38155,34 @@
         <v>3069173.2658773731</v>
       </c>
       <c r="FB200" s="20">
-        <v>2653375.8162416182</v>
+        <v>2655494.9865611107</v>
       </c>
       <c r="FC200" s="20">
-        <v>2542596.2921881452</v>
+        <v>2545506.0371841541</v>
       </c>
       <c r="FD200" s="23">
-        <v>2615533.4036201816</v>
+        <v>2616158.8546181996</v>
       </c>
       <c r="FE200" s="27">
-        <v>2823069.5112226713</v>
+        <v>2824977.1239263597</v>
       </c>
       <c r="FF200" s="27">
-        <v>2545070.7667973004</v>
+        <v>2548496.994153983</v>
       </c>
       <c r="FG200" s="27">
-        <v>2792346.6194373029</v>
+        <v>2796474.3117465912</v>
       </c>
       <c r="FH200" s="27">
-        <v>2816492.9781092419</v>
+        <v>2816586.022762211</v>
       </c>
       <c r="FI200" s="27">
-        <v>3047107.8861707821</v>
+        <v>3051654.1577057461</v>
+      </c>
+      <c r="FJ200" s="27">
+        <v>2766869.7218460906</v>
       </c>
     </row>
-    <row r="201" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="16"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -38087,8 +38348,9 @@
       <c r="FG201" s="27"/>
       <c r="FH201" s="27"/>
       <c r="FI201" s="27"/>
+      <c r="FJ201" s="27"/>
     </row>
-    <row r="202" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>10</v>
       </c>
@@ -38561,31 +38823,34 @@
         <v>5258096.106149137</v>
       </c>
       <c r="FB202" s="20">
-        <v>4430439.9526848122</v>
+        <v>4433805.4873840045</v>
       </c>
       <c r="FC202" s="20">
-        <v>4139250.0012958646</v>
+        <v>4142943.3675075597</v>
       </c>
       <c r="FD202" s="23">
-        <v>4133877.9039332308</v>
+        <v>4135498.8099203957</v>
       </c>
       <c r="FE202" s="27">
-        <v>4823666.2469565766</v>
+        <v>4825595.6145613622</v>
       </c>
       <c r="FF202" s="27">
-        <v>4257721.5273590954</v>
+        <v>4265322.4143363889</v>
       </c>
       <c r="FG202" s="27">
-        <v>4636746.0892249551</v>
+        <v>4645532.9628005046</v>
       </c>
       <c r="FH202" s="27">
-        <v>4418726.2826226261</v>
+        <v>4425697.2240095185</v>
       </c>
       <c r="FI202" s="27">
-        <v>5195219.3747963216</v>
+        <v>5201501.2339442354</v>
+      </c>
+      <c r="FJ202" s="27">
+        <v>4618132.9783222703</v>
       </c>
     </row>
-    <row r="203" spans="1:165" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:166" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
@@ -38750,7 +39015,7 @@
         <v>-24370.119758612476</v>
       </c>
     </row>
-    <row r="204" spans="1:165" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:166" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -38911,7 +39176,7 @@
       <c r="FB204" s="7"/>
       <c r="FC204" s="7"/>
     </row>
-    <row r="205" spans="1:165" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:166" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
@@ -39076,7 +39341,7 @@
         <v>4857262.3839106075</v>
       </c>
     </row>
-    <row r="206" spans="1:165" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:166" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
@@ -39236,7 +39501,7 @@
       <c r="FA206" s="7"/>
       <c r="FC206" s="2"/>
     </row>
-    <row r="207" spans="1:165" s="3" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:166" s="3" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="9"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
@@ -39402,19 +39667,20 @@
       <c r="FG207" s="9"/>
       <c r="FH207" s="9"/>
       <c r="FI207" s="9"/>
+      <c r="FJ207" s="9"/>
     </row>
-    <row r="208" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:162" x14ac:dyDescent="0.2">
       <c r="FB210" s="20"/>
       <c r="FC210" s="20"/>
       <c r="FD210" s="20"/>
       <c r="FE210" s="20"/>
     </row>
-    <row r="211" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>8</v>
       </c>
@@ -39423,7 +39689,7 @@
       <c r="FD211" s="20"/>
       <c r="FE211" s="20"/>
     </row>
-    <row r="212" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>7</v>
       </c>
@@ -39432,19 +39698,19 @@
       <c r="FD212" s="20"/>
       <c r="FE212" s="20"/>
     </row>
-    <row r="213" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="FB213" s="20"/>
       <c r="FC213" s="20"/>
       <c r="FD213" s="20"/>
       <c r="FE213" s="20"/>
     </row>
-    <row r="214" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
     </row>
-    <row r="215" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>49</v>
       </c>
@@ -39452,15 +39718,15 @@
       <c r="FD215" s="3"/>
       <c r="FE215" s="3"/>
     </row>
-    <row r="216" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A216" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="FC216" s="3"/>
       <c r="FD216" s="3"/>
       <c r="FE216" s="3"/>
     </row>
-    <row r="217" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>19</v>
       </c>
@@ -39468,256 +39734,260 @@
       <c r="FD217" s="3"/>
       <c r="FE217" s="3"/>
     </row>
-    <row r="218" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="FC218" s="3"/>
       <c r="FD218" s="3"/>
       <c r="FE218" s="3"/>
+      <c r="FF218" s="9"/>
     </row>
-    <row r="219" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
-      <c r="B219" s="29" t="s">
+      <c r="B219" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C219" s="29"/>
-      <c r="D219" s="29"/>
-      <c r="E219" s="29"/>
-      <c r="F219" s="29" t="s">
+      <c r="C219" s="30"/>
+      <c r="D219" s="30"/>
+      <c r="E219" s="30"/>
+      <c r="F219" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G219" s="29"/>
-      <c r="H219" s="29"/>
-      <c r="I219" s="29"/>
-      <c r="J219" s="29" t="s">
+      <c r="G219" s="30"/>
+      <c r="H219" s="30"/>
+      <c r="I219" s="30"/>
+      <c r="J219" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="K219" s="29"/>
-      <c r="L219" s="29"/>
-      <c r="M219" s="29"/>
-      <c r="N219" s="29" t="s">
+      <c r="K219" s="30"/>
+      <c r="L219" s="30"/>
+      <c r="M219" s="30"/>
+      <c r="N219" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="O219" s="29"/>
-      <c r="P219" s="29"/>
-      <c r="Q219" s="29"/>
-      <c r="R219" s="29" t="s">
+      <c r="O219" s="30"/>
+      <c r="P219" s="30"/>
+      <c r="Q219" s="30"/>
+      <c r="R219" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="S219" s="29"/>
-      <c r="T219" s="29"/>
-      <c r="U219" s="29"/>
-      <c r="V219" s="29" t="s">
+      <c r="S219" s="30"/>
+      <c r="T219" s="30"/>
+      <c r="U219" s="30"/>
+      <c r="V219" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="W219" s="29"/>
-      <c r="X219" s="29"/>
-      <c r="Y219" s="29"/>
-      <c r="Z219" s="29" t="s">
+      <c r="W219" s="30"/>
+      <c r="X219" s="30"/>
+      <c r="Y219" s="30"/>
+      <c r="Z219" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="AA219" s="29"/>
-      <c r="AB219" s="29"/>
-      <c r="AC219" s="29"/>
-      <c r="AD219" s="29" t="s">
+      <c r="AA219" s="30"/>
+      <c r="AB219" s="30"/>
+      <c r="AC219" s="30"/>
+      <c r="AD219" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="AE219" s="29"/>
-      <c r="AF219" s="29"/>
-      <c r="AG219" s="29"/>
-      <c r="AH219" s="29" t="s">
+      <c r="AE219" s="30"/>
+      <c r="AF219" s="30"/>
+      <c r="AG219" s="30"/>
+      <c r="AH219" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="AI219" s="29"/>
-      <c r="AJ219" s="29"/>
-      <c r="AK219" s="29"/>
-      <c r="AL219" s="29" t="s">
+      <c r="AI219" s="30"/>
+      <c r="AJ219" s="30"/>
+      <c r="AK219" s="30"/>
+      <c r="AL219" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="AM219" s="29"/>
-      <c r="AN219" s="29"/>
-      <c r="AO219" s="29"/>
-      <c r="AP219" s="29" t="s">
+      <c r="AM219" s="30"/>
+      <c r="AN219" s="30"/>
+      <c r="AO219" s="30"/>
+      <c r="AP219" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="AQ219" s="29"/>
-      <c r="AR219" s="29"/>
-      <c r="AS219" s="29"/>
-      <c r="AT219" s="29" t="s">
+      <c r="AQ219" s="30"/>
+      <c r="AR219" s="30"/>
+      <c r="AS219" s="30"/>
+      <c r="AT219" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="AU219" s="29"/>
-      <c r="AV219" s="29"/>
-      <c r="AW219" s="29"/>
-      <c r="AX219" s="29" t="s">
+      <c r="AU219" s="30"/>
+      <c r="AV219" s="30"/>
+      <c r="AW219" s="30"/>
+      <c r="AX219" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="AY219" s="29"/>
-      <c r="AZ219" s="29"/>
-      <c r="BA219" s="29"/>
-      <c r="BB219" s="29" t="s">
+      <c r="AY219" s="30"/>
+      <c r="AZ219" s="30"/>
+      <c r="BA219" s="30"/>
+      <c r="BB219" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="BC219" s="29"/>
-      <c r="BD219" s="29"/>
-      <c r="BE219" s="29"/>
-      <c r="BF219" s="29" t="s">
+      <c r="BC219" s="30"/>
+      <c r="BD219" s="30"/>
+      <c r="BE219" s="30"/>
+      <c r="BF219" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="BG219" s="29"/>
-      <c r="BH219" s="29"/>
-      <c r="BI219" s="29"/>
-      <c r="BJ219" s="29" t="s">
+      <c r="BG219" s="30"/>
+      <c r="BH219" s="30"/>
+      <c r="BI219" s="30"/>
+      <c r="BJ219" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="BK219" s="29"/>
-      <c r="BL219" s="29"/>
-      <c r="BM219" s="29"/>
-      <c r="BN219" s="29" t="s">
+      <c r="BK219" s="30"/>
+      <c r="BL219" s="30"/>
+      <c r="BM219" s="30"/>
+      <c r="BN219" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="BO219" s="29"/>
-      <c r="BP219" s="29"/>
-      <c r="BQ219" s="29"/>
-      <c r="BR219" s="29" t="s">
+      <c r="BO219" s="30"/>
+      <c r="BP219" s="30"/>
+      <c r="BQ219" s="30"/>
+      <c r="BR219" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="BS219" s="29"/>
-      <c r="BT219" s="29"/>
-      <c r="BU219" s="29"/>
-      <c r="BV219" s="29" t="s">
+      <c r="BS219" s="30"/>
+      <c r="BT219" s="30"/>
+      <c r="BU219" s="30"/>
+      <c r="BV219" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="BW219" s="29"/>
-      <c r="BX219" s="29"/>
-      <c r="BY219" s="29"/>
-      <c r="BZ219" s="29" t="s">
+      <c r="BW219" s="30"/>
+      <c r="BX219" s="30"/>
+      <c r="BY219" s="30"/>
+      <c r="BZ219" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="CA219" s="29"/>
-      <c r="CB219" s="29"/>
-      <c r="CC219" s="29"/>
-      <c r="CD219" s="29" t="s">
+      <c r="CA219" s="30"/>
+      <c r="CB219" s="30"/>
+      <c r="CC219" s="30"/>
+      <c r="CD219" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="CE219" s="29"/>
-      <c r="CF219" s="29"/>
-      <c r="CG219" s="29"/>
-      <c r="CH219" s="29" t="s">
+      <c r="CE219" s="30"/>
+      <c r="CF219" s="30"/>
+      <c r="CG219" s="30"/>
+      <c r="CH219" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="CI219" s="29"/>
-      <c r="CJ219" s="29"/>
-      <c r="CK219" s="29"/>
-      <c r="CL219" s="29" t="s">
+      <c r="CI219" s="30"/>
+      <c r="CJ219" s="30"/>
+      <c r="CK219" s="30"/>
+      <c r="CL219" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="CM219" s="29"/>
-      <c r="CN219" s="29"/>
-      <c r="CO219" s="29"/>
-      <c r="CP219" s="29" t="s">
+      <c r="CM219" s="30"/>
+      <c r="CN219" s="30"/>
+      <c r="CO219" s="30"/>
+      <c r="CP219" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="CQ219" s="29"/>
-      <c r="CR219" s="29"/>
-      <c r="CS219" s="29"/>
-      <c r="CT219" s="29" t="s">
+      <c r="CQ219" s="30"/>
+      <c r="CR219" s="30"/>
+      <c r="CS219" s="30"/>
+      <c r="CT219" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="CU219" s="29"/>
-      <c r="CV219" s="29"/>
-      <c r="CW219" s="29"/>
-      <c r="CX219" s="29" t="s">
+      <c r="CU219" s="30"/>
+      <c r="CV219" s="30"/>
+      <c r="CW219" s="30"/>
+      <c r="CX219" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="CY219" s="29"/>
-      <c r="CZ219" s="29"/>
-      <c r="DA219" s="29"/>
-      <c r="DB219" s="29" t="s">
+      <c r="CY219" s="30"/>
+      <c r="CZ219" s="30"/>
+      <c r="DA219" s="30"/>
+      <c r="DB219" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="DC219" s="29"/>
-      <c r="DD219" s="29"/>
-      <c r="DE219" s="29"/>
-      <c r="DF219" s="29" t="s">
+      <c r="DC219" s="30"/>
+      <c r="DD219" s="30"/>
+      <c r="DE219" s="30"/>
+      <c r="DF219" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="DG219" s="29"/>
-      <c r="DH219" s="29"/>
-      <c r="DI219" s="29"/>
-      <c r="DJ219" s="29" t="s">
+      <c r="DG219" s="30"/>
+      <c r="DH219" s="30"/>
+      <c r="DI219" s="30"/>
+      <c r="DJ219" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="DK219" s="29"/>
-      <c r="DL219" s="29"/>
-      <c r="DM219" s="29"/>
-      <c r="DN219" s="29" t="s">
+      <c r="DK219" s="30"/>
+      <c r="DL219" s="30"/>
+      <c r="DM219" s="30"/>
+      <c r="DN219" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="DO219" s="29"/>
-      <c r="DP219" s="29"/>
-      <c r="DQ219" s="29"/>
-      <c r="DR219" s="29" t="s">
+      <c r="DO219" s="30"/>
+      <c r="DP219" s="30"/>
+      <c r="DQ219" s="30"/>
+      <c r="DR219" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="DS219" s="29"/>
-      <c r="DT219" s="29"/>
-      <c r="DU219" s="29"/>
-      <c r="DV219" s="29" t="s">
+      <c r="DS219" s="30"/>
+      <c r="DT219" s="30"/>
+      <c r="DU219" s="30"/>
+      <c r="DV219" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="DW219" s="29"/>
-      <c r="DX219" s="29"/>
-      <c r="DY219" s="29"/>
-      <c r="DZ219" s="29" t="s">
+      <c r="DW219" s="30"/>
+      <c r="DX219" s="30"/>
+      <c r="DY219" s="30"/>
+      <c r="DZ219" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="EA219" s="29"/>
-      <c r="EB219" s="29"/>
-      <c r="EC219" s="29"/>
-      <c r="ED219" s="29" t="s">
+      <c r="EA219" s="30"/>
+      <c r="EB219" s="30"/>
+      <c r="EC219" s="30"/>
+      <c r="ED219" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="EE219" s="29"/>
-      <c r="EF219" s="29"/>
-      <c r="EG219" s="29"/>
-      <c r="EH219" s="29" t="s">
+      <c r="EE219" s="30"/>
+      <c r="EF219" s="30"/>
+      <c r="EG219" s="30"/>
+      <c r="EH219" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="EI219" s="29"/>
-      <c r="EJ219" s="29"/>
-      <c r="EK219" s="29"/>
-      <c r="EL219" s="29" t="s">
+      <c r="EI219" s="30"/>
+      <c r="EJ219" s="30"/>
+      <c r="EK219" s="30"/>
+      <c r="EL219" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="EM219" s="29"/>
-      <c r="EN219" s="29"/>
-      <c r="EO219" s="29"/>
-      <c r="EP219" s="29" t="s">
+      <c r="EM219" s="30"/>
+      <c r="EN219" s="30"/>
+      <c r="EO219" s="30"/>
+      <c r="EP219" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="EQ219" s="29"/>
-      <c r="ER219" s="29"/>
-      <c r="ES219" s="29"/>
-      <c r="ET219" s="29" t="s">
+      <c r="EQ219" s="30"/>
+      <c r="ER219" s="30"/>
+      <c r="ES219" s="30"/>
+      <c r="ET219" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="EU219" s="29"/>
-      <c r="EV219" s="29"/>
-      <c r="EW219" s="29"/>
-      <c r="EX219" s="29" t="s">
+      <c r="EU219" s="30"/>
+      <c r="EV219" s="30"/>
+      <c r="EW219" s="30"/>
+      <c r="EX219" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="EY219" s="29"/>
-      <c r="EZ219" s="29"/>
+      <c r="EY219" s="30"/>
+      <c r="EZ219" s="30"/>
       <c r="FA219" s="24"/>
-      <c r="FB219" s="29" t="s">
+      <c r="FB219" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="FC219" s="29"/>
-      <c r="FD219" s="29"/>
-      <c r="FE219" s="29"/>
+      <c r="FC219" s="30"/>
+      <c r="FD219" s="30"/>
+      <c r="FE219" s="30"/>
+      <c r="FF219" s="32" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="220" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
         <v>13</v>
       </c>
@@ -40201,11 +40471,15 @@
       <c r="FE220" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="FF220" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="221" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:162" x14ac:dyDescent="0.2">
       <c r="FB221" s="2"/>
+      <c r="FF221" s="28"/>
     </row>
-    <row r="222" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A222" s="15" t="s">
         <v>74</v>
       </c>
@@ -40666,31 +40940,34 @@
         <v>-3.0453927486622803</v>
       </c>
       <c r="EX222" s="21">
-        <v>5.1501205632415576</v>
+        <v>5.0970645793088494</v>
       </c>
       <c r="EY222" s="21">
-        <v>7.1438845345076771</v>
+        <v>7.1307332030524009</v>
       </c>
       <c r="EZ222" s="21">
-        <v>4.8271391069982172</v>
+        <v>4.8400592162423379</v>
       </c>
       <c r="FA222" s="25">
-        <v>7.1333582411878353</v>
+        <v>7.4523813495096363</v>
       </c>
       <c r="FB222" s="25">
-        <v>10.033889413548764</v>
+        <v>10.025760908215148</v>
       </c>
       <c r="FC222" s="25">
-        <v>7.0559783134587661</v>
+        <v>7.0701977421430087</v>
       </c>
       <c r="FD222" s="25">
-        <v>5.6587972623917722</v>
+        <v>5.646798659970159</v>
       </c>
       <c r="FE222" s="25">
-        <v>5.311763741282391</v>
+        <v>5.151601791140223</v>
+      </c>
+      <c r="FF222" s="31">
+        <v>2.7168214632574461</v>
       </c>
     </row>
-    <row r="223" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A223" s="15" t="s">
         <v>75</v>
       </c>
@@ -41151,31 +41428,34 @@
         <v>7.3685605244935743</v>
       </c>
       <c r="EX223" s="21">
-        <v>-4.0243361028888387</v>
+        <v>-3.926696190209185</v>
       </c>
       <c r="EY223" s="21">
-        <v>-20.563813968448358</v>
+        <v>-20.489489024392455</v>
       </c>
       <c r="EZ223" s="21">
-        <v>-21.680462270724433</v>
+        <v>-21.559659716484362</v>
       </c>
       <c r="FA223" s="25">
-        <v>-10.340951136837063</v>
+        <v>-10.34220030403452</v>
       </c>
       <c r="FB223" s="25">
-        <v>-6.0158895725668486</v>
+        <v>-5.7742456034476533</v>
       </c>
       <c r="FC223" s="25">
-        <v>24.342620228389052</v>
+        <v>24.975080728475746</v>
       </c>
       <c r="FD223" s="25">
-        <v>10.886812939279082</v>
+        <v>11.291652506300977</v>
       </c>
       <c r="FE223" s="25">
-        <v>11.871943877190731</v>
+        <v>11.366154766692404</v>
+      </c>
+      <c r="FF223" s="31">
+        <v>19.357690569971808</v>
       </c>
     </row>
-    <row r="224" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A224" s="15" t="s">
         <v>76</v>
       </c>
@@ -41636,31 +41916,34 @@
         <v>8.4083751828692357</v>
       </c>
       <c r="EX224" s="21">
-        <v>2.0233725550820765</v>
+        <v>2.1065605665169755</v>
       </c>
       <c r="EY224" s="21">
-        <v>-15.291886884142386</v>
+        <v>-15.203067707151135</v>
       </c>
       <c r="EZ224" s="21">
-        <v>-8.3817538310549367</v>
+        <v>-8.3652864020127993</v>
       </c>
       <c r="FA224" s="25">
-        <v>-6.1759840090392544</v>
+        <v>-6.107916944846437</v>
       </c>
       <c r="FB224" s="25">
-        <v>-1.7620529211223186</v>
+        <v>-1.6852952114830373</v>
       </c>
       <c r="FC224" s="25">
-        <v>12.300345967588314</v>
+        <v>12.344441911694773</v>
       </c>
       <c r="FD224" s="25">
-        <v>9.3587704779304488</v>
+        <v>9.3787466240890467</v>
       </c>
       <c r="FE224" s="25">
-        <v>9.7675624792767479</v>
+        <v>9.7629755619983172</v>
+      </c>
+      <c r="FF224" s="31">
+        <v>11.526217363004605</v>
       </c>
     </row>
-    <row r="225" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A225" s="16"/>
       <c r="B225" s="13"/>
       <c r="C225" s="13"/>
@@ -41822,8 +42105,9 @@
       <c r="FC225" s="25"/>
       <c r="FD225" s="25"/>
       <c r="FE225" s="25"/>
+      <c r="FF225" s="31"/>
     </row>
-    <row r="226" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>10</v>
       </c>
@@ -42284,31 +42568,34 @@
         <v>6.8973676805959059</v>
       </c>
       <c r="EX226" s="21">
-        <v>0.44636900920261269</v>
+        <v>0.52107927021884848</v>
       </c>
       <c r="EY226" s="21">
-        <v>-15.029054475562489</v>
+        <v>-14.952822278890139</v>
       </c>
       <c r="EZ226" s="21">
-        <v>-11.065633565315039</v>
+        <v>-11.019821437576809</v>
       </c>
       <c r="FA226" s="25">
-        <v>-6.2687759500294362</v>
+        <v>-6.1995032763103808</v>
       </c>
       <c r="FB226" s="25">
-        <v>-1.847432708916358</v>
+        <v>-1.7320826131756917</v>
       </c>
       <c r="FC226" s="25">
-        <v>15.097704130874263</v>
+        <v>15.302372452855906</v>
       </c>
       <c r="FD226" s="25">
-        <v>9.3798662833247874</v>
+        <v>9.4936344771557657</v>
       </c>
       <c r="FE226" s="25">
-        <v>9.9374818372740066</v>
+        <v>9.761099622005645</v>
+      </c>
+      <c r="FF226" s="31">
+        <v>12.769879670184679</v>
       </c>
     </row>
-    <row r="227" spans="1:161" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:162" hidden="1" x14ac:dyDescent="0.2">
       <c r="B227" s="13"/>
       <c r="C227" s="13"/>
       <c r="D227" s="13"/>
@@ -42468,8 +42755,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="FB227" s="2"/>
+      <c r="FF227" s="31"/>
     </row>
-    <row r="228" spans="1:161" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:162" hidden="1" x14ac:dyDescent="0.2">
       <c r="B228" s="13"/>
       <c r="C228" s="13"/>
       <c r="D228" s="13"/>
@@ -42629,8 +42917,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="FB228" s="2"/>
+      <c r="FF228" s="31"/>
     </row>
-    <row r="229" spans="1:161" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:162" hidden="1" x14ac:dyDescent="0.2">
       <c r="B229" s="13"/>
       <c r="C229" s="13"/>
       <c r="D229" s="13"/>
@@ -42790,8 +43079,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="FB229" s="2"/>
+      <c r="FF229" s="31"/>
     </row>
-    <row r="230" spans="1:161" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:162" hidden="1" x14ac:dyDescent="0.2">
       <c r="B230" s="13"/>
       <c r="C230" s="13"/>
       <c r="D230" s="13"/>
@@ -42952,7 +43242,7 @@
       </c>
       <c r="FB230" s="2"/>
     </row>
-    <row r="231" spans="1:161" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:162" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="9"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
@@ -43114,307 +43404,312 @@
       <c r="FC231" s="9"/>
       <c r="FD231" s="9"/>
       <c r="FE231" s="9"/>
+      <c r="FF231" s="9"/>
     </row>
-    <row r="232" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>0</v>
       </c>
       <c r="FB232" s="2"/>
     </row>
-    <row r="233" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:162" x14ac:dyDescent="0.2">
       <c r="FB233" s="2"/>
     </row>
-    <row r="234" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:162" x14ac:dyDescent="0.2">
       <c r="FB234" s="2"/>
     </row>
-    <row r="235" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>8</v>
       </c>
       <c r="FB235" s="2"/>
     </row>
-    <row r="236" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>7</v>
       </c>
       <c r="FB236" s="2"/>
     </row>
-    <row r="237" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="FB237" s="2"/>
     </row>
-    <row r="238" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="FB238" s="2"/>
     </row>
-    <row r="239" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>50</v>
       </c>
       <c r="FB239" s="2"/>
     </row>
-    <row r="240" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A240" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="FB240" s="2"/>
     </row>
-    <row r="241" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>20</v>
       </c>
       <c r="FB241" s="2"/>
     </row>
-    <row r="242" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="FB242" s="2"/>
+      <c r="FF242" s="9"/>
     </row>
-    <row r="243" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
-      <c r="B243" s="29" t="s">
+      <c r="B243" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C243" s="29"/>
-      <c r="D243" s="29"/>
-      <c r="E243" s="29"/>
-      <c r="F243" s="29" t="s">
+      <c r="C243" s="30"/>
+      <c r="D243" s="30"/>
+      <c r="E243" s="30"/>
+      <c r="F243" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G243" s="29"/>
-      <c r="H243" s="29"/>
-      <c r="I243" s="29"/>
-      <c r="J243" s="29" t="s">
+      <c r="G243" s="30"/>
+      <c r="H243" s="30"/>
+      <c r="I243" s="30"/>
+      <c r="J243" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="K243" s="29"/>
-      <c r="L243" s="29"/>
-      <c r="M243" s="29"/>
-      <c r="N243" s="29" t="s">
+      <c r="K243" s="30"/>
+      <c r="L243" s="30"/>
+      <c r="M243" s="30"/>
+      <c r="N243" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="O243" s="29"/>
-      <c r="P243" s="29"/>
-      <c r="Q243" s="29"/>
-      <c r="R243" s="29" t="s">
+      <c r="O243" s="30"/>
+      <c r="P243" s="30"/>
+      <c r="Q243" s="30"/>
+      <c r="R243" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="S243" s="29"/>
-      <c r="T243" s="29"/>
-      <c r="U243" s="29"/>
-      <c r="V243" s="29" t="s">
+      <c r="S243" s="30"/>
+      <c r="T243" s="30"/>
+      <c r="U243" s="30"/>
+      <c r="V243" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="W243" s="29"/>
-      <c r="X243" s="29"/>
-      <c r="Y243" s="29"/>
-      <c r="Z243" s="29" t="s">
+      <c r="W243" s="30"/>
+      <c r="X243" s="30"/>
+      <c r="Y243" s="30"/>
+      <c r="Z243" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="AA243" s="29"/>
-      <c r="AB243" s="29"/>
-      <c r="AC243" s="29"/>
-      <c r="AD243" s="29" t="s">
+      <c r="AA243" s="30"/>
+      <c r="AB243" s="30"/>
+      <c r="AC243" s="30"/>
+      <c r="AD243" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="AE243" s="29"/>
-      <c r="AF243" s="29"/>
-      <c r="AG243" s="29"/>
-      <c r="AH243" s="29" t="s">
+      <c r="AE243" s="30"/>
+      <c r="AF243" s="30"/>
+      <c r="AG243" s="30"/>
+      <c r="AH243" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="AI243" s="29"/>
-      <c r="AJ243" s="29"/>
-      <c r="AK243" s="29"/>
-      <c r="AL243" s="29" t="s">
+      <c r="AI243" s="30"/>
+      <c r="AJ243" s="30"/>
+      <c r="AK243" s="30"/>
+      <c r="AL243" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="AM243" s="29"/>
-      <c r="AN243" s="29"/>
-      <c r="AO243" s="29"/>
-      <c r="AP243" s="29" t="s">
+      <c r="AM243" s="30"/>
+      <c r="AN243" s="30"/>
+      <c r="AO243" s="30"/>
+      <c r="AP243" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="AQ243" s="29"/>
-      <c r="AR243" s="29"/>
-      <c r="AS243" s="29"/>
-      <c r="AT243" s="29" t="s">
+      <c r="AQ243" s="30"/>
+      <c r="AR243" s="30"/>
+      <c r="AS243" s="30"/>
+      <c r="AT243" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="AU243" s="29"/>
-      <c r="AV243" s="29"/>
-      <c r="AW243" s="29"/>
-      <c r="AX243" s="29" t="s">
+      <c r="AU243" s="30"/>
+      <c r="AV243" s="30"/>
+      <c r="AW243" s="30"/>
+      <c r="AX243" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="AY243" s="29"/>
-      <c r="AZ243" s="29"/>
-      <c r="BA243" s="29"/>
-      <c r="BB243" s="29" t="s">
+      <c r="AY243" s="30"/>
+      <c r="AZ243" s="30"/>
+      <c r="BA243" s="30"/>
+      <c r="BB243" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="BC243" s="29"/>
-      <c r="BD243" s="29"/>
-      <c r="BE243" s="29"/>
-      <c r="BF243" s="29" t="s">
+      <c r="BC243" s="30"/>
+      <c r="BD243" s="30"/>
+      <c r="BE243" s="30"/>
+      <c r="BF243" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="BG243" s="29"/>
-      <c r="BH243" s="29"/>
-      <c r="BI243" s="29"/>
-      <c r="BJ243" s="29" t="s">
+      <c r="BG243" s="30"/>
+      <c r="BH243" s="30"/>
+      <c r="BI243" s="30"/>
+      <c r="BJ243" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="BK243" s="29"/>
-      <c r="BL243" s="29"/>
-      <c r="BM243" s="29"/>
-      <c r="BN243" s="29" t="s">
+      <c r="BK243" s="30"/>
+      <c r="BL243" s="30"/>
+      <c r="BM243" s="30"/>
+      <c r="BN243" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="BO243" s="29"/>
-      <c r="BP243" s="29"/>
-      <c r="BQ243" s="29"/>
-      <c r="BR243" s="29" t="s">
+      <c r="BO243" s="30"/>
+      <c r="BP243" s="30"/>
+      <c r="BQ243" s="30"/>
+      <c r="BR243" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="BS243" s="29"/>
-      <c r="BT243" s="29"/>
-      <c r="BU243" s="29"/>
-      <c r="BV243" s="29" t="s">
+      <c r="BS243" s="30"/>
+      <c r="BT243" s="30"/>
+      <c r="BU243" s="30"/>
+      <c r="BV243" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="BW243" s="29"/>
-      <c r="BX243" s="29"/>
-      <c r="BY243" s="29"/>
-      <c r="BZ243" s="29" t="s">
+      <c r="BW243" s="30"/>
+      <c r="BX243" s="30"/>
+      <c r="BY243" s="30"/>
+      <c r="BZ243" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="CA243" s="29"/>
-      <c r="CB243" s="29"/>
-      <c r="CC243" s="29"/>
-      <c r="CD243" s="29" t="s">
+      <c r="CA243" s="30"/>
+      <c r="CB243" s="30"/>
+      <c r="CC243" s="30"/>
+      <c r="CD243" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="CE243" s="29"/>
-      <c r="CF243" s="29"/>
-      <c r="CG243" s="29"/>
-      <c r="CH243" s="29" t="s">
+      <c r="CE243" s="30"/>
+      <c r="CF243" s="30"/>
+      <c r="CG243" s="30"/>
+      <c r="CH243" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="CI243" s="29"/>
-      <c r="CJ243" s="29"/>
-      <c r="CK243" s="29"/>
-      <c r="CL243" s="29" t="s">
+      <c r="CI243" s="30"/>
+      <c r="CJ243" s="30"/>
+      <c r="CK243" s="30"/>
+      <c r="CL243" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="CM243" s="29"/>
-      <c r="CN243" s="29"/>
-      <c r="CO243" s="29"/>
-      <c r="CP243" s="29" t="s">
+      <c r="CM243" s="30"/>
+      <c r="CN243" s="30"/>
+      <c r="CO243" s="30"/>
+      <c r="CP243" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="CQ243" s="29"/>
-      <c r="CR243" s="29"/>
-      <c r="CS243" s="29"/>
-      <c r="CT243" s="29" t="s">
+      <c r="CQ243" s="30"/>
+      <c r="CR243" s="30"/>
+      <c r="CS243" s="30"/>
+      <c r="CT243" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="CU243" s="29"/>
-      <c r="CV243" s="29"/>
-      <c r="CW243" s="29"/>
-      <c r="CX243" s="29" t="s">
+      <c r="CU243" s="30"/>
+      <c r="CV243" s="30"/>
+      <c r="CW243" s="30"/>
+      <c r="CX243" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="CY243" s="29"/>
-      <c r="CZ243" s="29"/>
-      <c r="DA243" s="29"/>
-      <c r="DB243" s="29" t="s">
+      <c r="CY243" s="30"/>
+      <c r="CZ243" s="30"/>
+      <c r="DA243" s="30"/>
+      <c r="DB243" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="DC243" s="29"/>
-      <c r="DD243" s="29"/>
-      <c r="DE243" s="29"/>
-      <c r="DF243" s="29" t="s">
+      <c r="DC243" s="30"/>
+      <c r="DD243" s="30"/>
+      <c r="DE243" s="30"/>
+      <c r="DF243" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="DG243" s="29"/>
-      <c r="DH243" s="29"/>
-      <c r="DI243" s="29"/>
-      <c r="DJ243" s="29" t="s">
+      <c r="DG243" s="30"/>
+      <c r="DH243" s="30"/>
+      <c r="DI243" s="30"/>
+      <c r="DJ243" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="DK243" s="29"/>
-      <c r="DL243" s="29"/>
-      <c r="DM243" s="29"/>
-      <c r="DN243" s="29" t="s">
+      <c r="DK243" s="30"/>
+      <c r="DL243" s="30"/>
+      <c r="DM243" s="30"/>
+      <c r="DN243" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="DO243" s="29"/>
-      <c r="DP243" s="29"/>
-      <c r="DQ243" s="29"/>
-      <c r="DR243" s="29" t="s">
+      <c r="DO243" s="30"/>
+      <c r="DP243" s="30"/>
+      <c r="DQ243" s="30"/>
+      <c r="DR243" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="DS243" s="29"/>
-      <c r="DT243" s="29"/>
-      <c r="DU243" s="29"/>
-      <c r="DV243" s="29" t="s">
+      <c r="DS243" s="30"/>
+      <c r="DT243" s="30"/>
+      <c r="DU243" s="30"/>
+      <c r="DV243" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="DW243" s="29"/>
-      <c r="DX243" s="29"/>
-      <c r="DY243" s="29"/>
-      <c r="DZ243" s="29" t="s">
+      <c r="DW243" s="30"/>
+      <c r="DX243" s="30"/>
+      <c r="DY243" s="30"/>
+      <c r="DZ243" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="EA243" s="29"/>
-      <c r="EB243" s="29"/>
-      <c r="EC243" s="29"/>
-      <c r="ED243" s="29" t="s">
+      <c r="EA243" s="30"/>
+      <c r="EB243" s="30"/>
+      <c r="EC243" s="30"/>
+      <c r="ED243" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="EE243" s="29"/>
-      <c r="EF243" s="29"/>
-      <c r="EG243" s="29"/>
-      <c r="EH243" s="29" t="s">
+      <c r="EE243" s="30"/>
+      <c r="EF243" s="30"/>
+      <c r="EG243" s="30"/>
+      <c r="EH243" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="EI243" s="29"/>
-      <c r="EJ243" s="29"/>
-      <c r="EK243" s="29"/>
-      <c r="EL243" s="29" t="s">
+      <c r="EI243" s="30"/>
+      <c r="EJ243" s="30"/>
+      <c r="EK243" s="30"/>
+      <c r="EL243" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="EM243" s="29"/>
-      <c r="EN243" s="29"/>
-      <c r="EO243" s="29"/>
-      <c r="EP243" s="29" t="s">
+      <c r="EM243" s="30"/>
+      <c r="EN243" s="30"/>
+      <c r="EO243" s="30"/>
+      <c r="EP243" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="EQ243" s="29"/>
-      <c r="ER243" s="29"/>
-      <c r="ES243" s="29"/>
-      <c r="ET243" s="29" t="s">
+      <c r="EQ243" s="30"/>
+      <c r="ER243" s="30"/>
+      <c r="ES243" s="30"/>
+      <c r="ET243" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="EU243" s="29"/>
-      <c r="EV243" s="29"/>
-      <c r="EW243" s="29"/>
-      <c r="EX243" s="29" t="s">
+      <c r="EU243" s="30"/>
+      <c r="EV243" s="30"/>
+      <c r="EW243" s="30"/>
+      <c r="EX243" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="EY243" s="29"/>
-      <c r="EZ243" s="29"/>
+      <c r="EY243" s="30"/>
+      <c r="EZ243" s="30"/>
       <c r="FA243" s="24"/>
-      <c r="FB243" s="29" t="s">
+      <c r="FB243" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="FC243" s="29"/>
-      <c r="FD243" s="29"/>
-      <c r="FE243" s="29"/>
+      <c r="FC243" s="30"/>
+      <c r="FD243" s="30"/>
+      <c r="FE243" s="30"/>
+      <c r="FF243" s="32" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="244" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
         <v>13</v>
       </c>
@@ -43898,11 +44193,15 @@
       <c r="FE244" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="FF244" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="245" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:162" x14ac:dyDescent="0.2">
       <c r="FB245" s="2"/>
+      <c r="FF245" s="28"/>
     </row>
-    <row r="246" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A246" s="15" t="s">
         <v>74</v>
       </c>
@@ -44363,31 +44662,34 @@
         <v>0.81787073987908343</v>
       </c>
       <c r="EX246" s="21">
-        <v>-0.26000041250098604</v>
+        <v>-0.26301915449268165</v>
       </c>
       <c r="EY246" s="21">
-        <v>1.5529596853123309</v>
+        <v>1.5123181628118374</v>
       </c>
       <c r="EZ246" s="21">
-        <v>1.221065085544069</v>
+        <v>1.1952567943296089</v>
       </c>
       <c r="FA246" s="25">
-        <v>-2.5164718812557823</v>
+        <v>-2.4922338426034969</v>
       </c>
       <c r="FB246" s="25">
-        <v>-1.3034417755662702</v>
+        <v>-1.2923854644821233</v>
       </c>
       <c r="FC246" s="25">
-        <v>2.1693341252770892E-2</v>
+        <v>1.0292061679123776E-2</v>
       </c>
       <c r="FD246" s="25">
-        <v>-1.6545767029616201</v>
+        <v>-1.6634934954323626</v>
       </c>
       <c r="FE246" s="25">
-        <v>1.4171626471286345</v>
+        <v>1.4127033945787701</v>
+      </c>
+      <c r="FF246" s="31">
+        <v>0.16126962018665836</v>
       </c>
     </row>
-    <row r="247" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A247" s="15" t="s">
         <v>75</v>
       </c>
@@ -44848,31 +45150,34 @@
         <v>7.1289109655068899</v>
       </c>
       <c r="EX247" s="21">
-        <v>-2.4988571864969344</v>
+        <v>-2.4070178096174715</v>
       </c>
       <c r="EY247" s="21">
-        <v>-21.784006043024036</v>
+        <v>-21.721048956590863</v>
       </c>
       <c r="EZ247" s="21">
-        <v>-17.59933907924794</v>
+        <v>-17.518022089161832</v>
       </c>
       <c r="FA247" s="25">
-        <v>-10.563158231511281</v>
+        <v>-10.569647108790136</v>
       </c>
       <c r="FB247" s="25">
-        <v>-4.3879732758218353</v>
+        <v>-4.1687292401505545</v>
       </c>
       <c r="FC247" s="25">
-        <v>20.979364241347056</v>
+        <v>21.294551040883249</v>
       </c>
       <c r="FD247" s="25">
-        <v>8.1366239506078131</v>
+        <v>8.6595195405538448</v>
       </c>
       <c r="FE247" s="25">
-        <v>9.4635235403141422</v>
+        <v>9.5813848958039074</v>
+      </c>
+      <c r="FF247" s="31">
+        <v>10.425563044472881</v>
       </c>
     </row>
-    <row r="248" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A248" s="15" t="s">
         <v>76</v>
       </c>
@@ -45333,31 +45638,34 @@
         <v>7.4046327211712395</v>
       </c>
       <c r="EX248" s="21">
-        <v>0.10090801412647465</v>
+        <v>0.18085555563918376</v>
       </c>
       <c r="EY248" s="21">
-        <v>-17.094497568158857</v>
+        <v>-16.999620582935592</v>
       </c>
       <c r="EZ248" s="21">
-        <v>-10.558396892535583</v>
+        <v>-10.537008773442764</v>
       </c>
       <c r="FA248" s="25">
-        <v>-8.0185683027689549</v>
+        <v>-7.9564143434308789</v>
       </c>
       <c r="FB248" s="26">
-        <v>-4.081783243118835</v>
+        <v>-4.0293050052295882</v>
       </c>
       <c r="FC248" s="25">
-        <v>9.8226497071709247</v>
+        <v>9.859268487143666</v>
       </c>
       <c r="FD248" s="25">
-        <v>7.6833113356881881</v>
+        <v>7.6611237803929839</v>
       </c>
       <c r="FE248" s="25">
-        <v>7.9359850707707125</v>
+        <v>8.024030773896456</v>
+      </c>
+      <c r="FF248" s="31">
+        <v>8.5686868845846931</v>
       </c>
     </row>
-    <row r="249" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A249" s="16"/>
       <c r="B249" s="13"/>
       <c r="C249" s="13"/>
@@ -45519,8 +45827,9 @@
       <c r="FC249" s="25"/>
       <c r="FD249" s="25"/>
       <c r="FE249" s="25"/>
+      <c r="FF249" s="31"/>
     </row>
-    <row r="250" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>10</v>
       </c>
@@ -45981,31 +46290,34 @@
         <v>6.6120921015835563</v>
       </c>
       <c r="EX250" s="21">
-        <v>-0.73369042921997618</v>
+        <v>-0.65828387526842391</v>
       </c>
       <c r="EY250" s="21">
-        <v>-16.981292007377306</v>
+        <v>-16.907216150412253</v>
       </c>
       <c r="EZ250" s="21">
-        <v>-11.585096354754199</v>
+        <v>-11.550428604519766</v>
       </c>
       <c r="FA250" s="25">
-        <v>-8.2621133281400461</v>
+        <v>-8.2254200542660811</v>
       </c>
       <c r="FB250" s="26">
-        <v>-3.8984486229420838</v>
+        <v>-3.7999653689594481</v>
       </c>
       <c r="FC250" s="25">
-        <v>12.018991067786217</v>
+        <v>12.131220504597621</v>
       </c>
       <c r="FD250" s="25">
-        <v>6.8905851916519509</v>
+        <v>7.0172529948015807</v>
       </c>
       <c r="FE250" s="25">
-        <v>7.7027121864861954</v>
+        <v>7.789828435863285</v>
+      </c>
+      <c r="FF250" s="31">
+        <v>8.271603637746864</v>
       </c>
     </row>
-    <row r="251" spans="1:161" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:162" hidden="1" x14ac:dyDescent="0.2">
       <c r="B251" s="13"/>
       <c r="C251" s="13"/>
       <c r="D251" s="13"/>
@@ -46164,8 +46476,9 @@
       <c r="EY251" s="7">
         <v>-24370.119758612476</v>
       </c>
+      <c r="FF251" s="31"/>
     </row>
-    <row r="252" spans="1:161" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:162" hidden="1" x14ac:dyDescent="0.2">
       <c r="B252" s="13"/>
       <c r="C252" s="13"/>
       <c r="D252" s="13"/>
@@ -46320,8 +46633,9 @@
       <c r="EW252" s="13"/>
       <c r="EX252" s="7"/>
       <c r="EY252" s="7"/>
+      <c r="FF252" s="31"/>
     </row>
-    <row r="253" spans="1:161" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:162" hidden="1" x14ac:dyDescent="0.2">
       <c r="B253" s="13"/>
       <c r="C253" s="13"/>
       <c r="D253" s="13"/>
@@ -46480,8 +46794,9 @@
       <c r="EY253" s="7">
         <v>4857262.3839106075</v>
       </c>
+      <c r="FF253" s="31"/>
     </row>
-    <row r="254" spans="1:161" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:162" hidden="1" x14ac:dyDescent="0.2">
       <c r="B254" s="13"/>
       <c r="C254" s="13"/>
       <c r="D254" s="13"/>
@@ -46636,7 +46951,7 @@
       <c r="EW254" s="13"/>
       <c r="EX254" s="3"/>
     </row>
-    <row r="255" spans="1:161" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:162" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="9"/>
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
@@ -46798,298 +47113,302 @@
       <c r="FC255" s="9"/>
       <c r="FD255" s="9"/>
       <c r="FE255" s="9"/>
+      <c r="FF255" s="9"/>
     </row>
-    <row r="256" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="262" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
     </row>
-    <row r="263" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="264" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A264" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="265" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="266" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
     </row>
-    <row r="267" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
-      <c r="B267" s="29">
+      <c r="B267" s="30">
         <v>1981</v>
       </c>
-      <c r="C267" s="29"/>
-      <c r="D267" s="29"/>
-      <c r="E267" s="29"/>
-      <c r="F267" s="29">
+      <c r="C267" s="30"/>
+      <c r="D267" s="30"/>
+      <c r="E267" s="30"/>
+      <c r="F267" s="30">
         <v>1982</v>
       </c>
-      <c r="G267" s="29"/>
-      <c r="H267" s="29"/>
-      <c r="I267" s="29"/>
-      <c r="J267" s="29">
+      <c r="G267" s="30"/>
+      <c r="H267" s="30"/>
+      <c r="I267" s="30"/>
+      <c r="J267" s="30">
         <v>1983</v>
       </c>
-      <c r="K267" s="29"/>
-      <c r="L267" s="29"/>
-      <c r="M267" s="29"/>
-      <c r="N267" s="29">
+      <c r="K267" s="30"/>
+      <c r="L267" s="30"/>
+      <c r="M267" s="30"/>
+      <c r="N267" s="30">
         <v>1984</v>
       </c>
-      <c r="O267" s="29"/>
-      <c r="P267" s="29"/>
-      <c r="Q267" s="29"/>
-      <c r="R267" s="29">
+      <c r="O267" s="30"/>
+      <c r="P267" s="30"/>
+      <c r="Q267" s="30"/>
+      <c r="R267" s="30">
         <v>1985</v>
       </c>
-      <c r="S267" s="29"/>
-      <c r="T267" s="29"/>
-      <c r="U267" s="29"/>
-      <c r="V267" s="29">
+      <c r="S267" s="30"/>
+      <c r="T267" s="30"/>
+      <c r="U267" s="30"/>
+      <c r="V267" s="30">
         <v>1986</v>
       </c>
-      <c r="W267" s="29"/>
-      <c r="X267" s="29"/>
-      <c r="Y267" s="29"/>
-      <c r="Z267" s="29">
+      <c r="W267" s="30"/>
+      <c r="X267" s="30"/>
+      <c r="Y267" s="30"/>
+      <c r="Z267" s="30">
         <v>1987</v>
       </c>
-      <c r="AA267" s="29"/>
-      <c r="AB267" s="29"/>
-      <c r="AC267" s="29"/>
-      <c r="AD267" s="29">
+      <c r="AA267" s="30"/>
+      <c r="AB267" s="30"/>
+      <c r="AC267" s="30"/>
+      <c r="AD267" s="30">
         <v>1988</v>
       </c>
-      <c r="AE267" s="29"/>
-      <c r="AF267" s="29"/>
-      <c r="AG267" s="29"/>
-      <c r="AH267" s="29">
+      <c r="AE267" s="30"/>
+      <c r="AF267" s="30"/>
+      <c r="AG267" s="30"/>
+      <c r="AH267" s="30">
         <v>1989</v>
       </c>
-      <c r="AI267" s="29"/>
-      <c r="AJ267" s="29"/>
-      <c r="AK267" s="29"/>
-      <c r="AL267" s="29">
+      <c r="AI267" s="30"/>
+      <c r="AJ267" s="30"/>
+      <c r="AK267" s="30"/>
+      <c r="AL267" s="30">
         <v>1990</v>
       </c>
-      <c r="AM267" s="29"/>
-      <c r="AN267" s="29"/>
-      <c r="AO267" s="29"/>
-      <c r="AP267" s="29">
+      <c r="AM267" s="30"/>
+      <c r="AN267" s="30"/>
+      <c r="AO267" s="30"/>
+      <c r="AP267" s="30">
         <v>1991</v>
       </c>
-      <c r="AQ267" s="29"/>
-      <c r="AR267" s="29"/>
-      <c r="AS267" s="29"/>
-      <c r="AT267" s="29">
+      <c r="AQ267" s="30"/>
+      <c r="AR267" s="30"/>
+      <c r="AS267" s="30"/>
+      <c r="AT267" s="30">
         <v>1992</v>
       </c>
-      <c r="AU267" s="29"/>
-      <c r="AV267" s="29"/>
-      <c r="AW267" s="29"/>
-      <c r="AX267" s="29">
+      <c r="AU267" s="30"/>
+      <c r="AV267" s="30"/>
+      <c r="AW267" s="30"/>
+      <c r="AX267" s="30">
         <v>1993</v>
       </c>
-      <c r="AY267" s="29"/>
-      <c r="AZ267" s="29"/>
-      <c r="BA267" s="29"/>
-      <c r="BB267" s="29">
+      <c r="AY267" s="30"/>
+      <c r="AZ267" s="30"/>
+      <c r="BA267" s="30"/>
+      <c r="BB267" s="30">
         <v>1994</v>
       </c>
-      <c r="BC267" s="29"/>
-      <c r="BD267" s="29"/>
-      <c r="BE267" s="29"/>
-      <c r="BF267" s="29">
+      <c r="BC267" s="30"/>
+      <c r="BD267" s="30"/>
+      <c r="BE267" s="30"/>
+      <c r="BF267" s="30">
         <v>1995</v>
       </c>
-      <c r="BG267" s="29"/>
-      <c r="BH267" s="29"/>
-      <c r="BI267" s="29"/>
-      <c r="BJ267" s="29">
+      <c r="BG267" s="30"/>
+      <c r="BH267" s="30"/>
+      <c r="BI267" s="30"/>
+      <c r="BJ267" s="30">
         <v>1996</v>
       </c>
-      <c r="BK267" s="29"/>
-      <c r="BL267" s="29"/>
-      <c r="BM267" s="29"/>
-      <c r="BN267" s="29">
+      <c r="BK267" s="30"/>
+      <c r="BL267" s="30"/>
+      <c r="BM267" s="30"/>
+      <c r="BN267" s="30">
         <v>1997</v>
       </c>
-      <c r="BO267" s="29"/>
-      <c r="BP267" s="29"/>
-      <c r="BQ267" s="29"/>
-      <c r="BR267" s="29">
+      <c r="BO267" s="30"/>
+      <c r="BP267" s="30"/>
+      <c r="BQ267" s="30"/>
+      <c r="BR267" s="30">
         <v>1998</v>
       </c>
-      <c r="BS267" s="29"/>
-      <c r="BT267" s="29"/>
-      <c r="BU267" s="29"/>
-      <c r="BV267" s="29">
+      <c r="BS267" s="30"/>
+      <c r="BT267" s="30"/>
+      <c r="BU267" s="30"/>
+      <c r="BV267" s="30">
         <v>1999</v>
       </c>
-      <c r="BW267" s="29"/>
-      <c r="BX267" s="29"/>
-      <c r="BY267" s="29"/>
-      <c r="BZ267" s="29">
+      <c r="BW267" s="30"/>
+      <c r="BX267" s="30"/>
+      <c r="BY267" s="30"/>
+      <c r="BZ267" s="30">
         <v>2000</v>
       </c>
-      <c r="CA267" s="29"/>
-      <c r="CB267" s="29"/>
-      <c r="CC267" s="29"/>
-      <c r="CD267" s="29">
+      <c r="CA267" s="30"/>
+      <c r="CB267" s="30"/>
+      <c r="CC267" s="30"/>
+      <c r="CD267" s="30">
         <v>2001</v>
       </c>
-      <c r="CE267" s="29"/>
-      <c r="CF267" s="29"/>
-      <c r="CG267" s="29"/>
-      <c r="CH267" s="29">
+      <c r="CE267" s="30"/>
+      <c r="CF267" s="30"/>
+      <c r="CG267" s="30"/>
+      <c r="CH267" s="30">
         <v>2002</v>
       </c>
-      <c r="CI267" s="29"/>
-      <c r="CJ267" s="29"/>
-      <c r="CK267" s="29"/>
-      <c r="CL267" s="29">
+      <c r="CI267" s="30"/>
+      <c r="CJ267" s="30"/>
+      <c r="CK267" s="30"/>
+      <c r="CL267" s="30">
         <v>2003</v>
       </c>
-      <c r="CM267" s="29"/>
-      <c r="CN267" s="29"/>
-      <c r="CO267" s="29"/>
-      <c r="CP267" s="29">
+      <c r="CM267" s="30"/>
+      <c r="CN267" s="30"/>
+      <c r="CO267" s="30"/>
+      <c r="CP267" s="30">
         <v>2004</v>
       </c>
-      <c r="CQ267" s="29"/>
-      <c r="CR267" s="29"/>
-      <c r="CS267" s="29"/>
-      <c r="CT267" s="29">
+      <c r="CQ267" s="30"/>
+      <c r="CR267" s="30"/>
+      <c r="CS267" s="30"/>
+      <c r="CT267" s="30">
         <v>2005</v>
       </c>
-      <c r="CU267" s="29"/>
-      <c r="CV267" s="29"/>
-      <c r="CW267" s="29"/>
-      <c r="CX267" s="29">
+      <c r="CU267" s="30"/>
+      <c r="CV267" s="30"/>
+      <c r="CW267" s="30"/>
+      <c r="CX267" s="30">
         <v>2006</v>
       </c>
-      <c r="CY267" s="29"/>
-      <c r="CZ267" s="29"/>
-      <c r="DA267" s="29"/>
-      <c r="DB267" s="29">
+      <c r="CY267" s="30"/>
+      <c r="CZ267" s="30"/>
+      <c r="DA267" s="30"/>
+      <c r="DB267" s="30">
         <v>2007</v>
       </c>
-      <c r="DC267" s="29"/>
-      <c r="DD267" s="29"/>
-      <c r="DE267" s="29"/>
-      <c r="DF267" s="29">
+      <c r="DC267" s="30"/>
+      <c r="DD267" s="30"/>
+      <c r="DE267" s="30"/>
+      <c r="DF267" s="30">
         <v>2008</v>
       </c>
-      <c r="DG267" s="29"/>
-      <c r="DH267" s="29"/>
-      <c r="DI267" s="29"/>
-      <c r="DJ267" s="29">
+      <c r="DG267" s="30"/>
+      <c r="DH267" s="30"/>
+      <c r="DI267" s="30"/>
+      <c r="DJ267" s="30">
         <v>2009</v>
       </c>
-      <c r="DK267" s="29"/>
-      <c r="DL267" s="29"/>
-      <c r="DM267" s="29"/>
-      <c r="DN267" s="29">
+      <c r="DK267" s="30"/>
+      <c r="DL267" s="30"/>
+      <c r="DM267" s="30"/>
+      <c r="DN267" s="30">
         <v>2010</v>
       </c>
-      <c r="DO267" s="29"/>
-      <c r="DP267" s="29"/>
-      <c r="DQ267" s="29"/>
-      <c r="DR267" s="29">
+      <c r="DO267" s="30"/>
+      <c r="DP267" s="30"/>
+      <c r="DQ267" s="30"/>
+      <c r="DR267" s="30">
         <v>2011</v>
       </c>
-      <c r="DS267" s="29"/>
-      <c r="DT267" s="29"/>
-      <c r="DU267" s="29"/>
-      <c r="DV267" s="29">
+      <c r="DS267" s="30"/>
+      <c r="DT267" s="30"/>
+      <c r="DU267" s="30"/>
+      <c r="DV267" s="30">
         <v>2012</v>
       </c>
-      <c r="DW267" s="29"/>
-      <c r="DX267" s="29"/>
-      <c r="DY267" s="29"/>
-      <c r="DZ267" s="29">
+      <c r="DW267" s="30"/>
+      <c r="DX267" s="30"/>
+      <c r="DY267" s="30"/>
+      <c r="DZ267" s="30">
         <v>2013</v>
       </c>
-      <c r="EA267" s="29"/>
-      <c r="EB267" s="29"/>
-      <c r="EC267" s="29"/>
-      <c r="ED267" s="29">
+      <c r="EA267" s="30"/>
+      <c r="EB267" s="30"/>
+      <c r="EC267" s="30"/>
+      <c r="ED267" s="30">
         <v>2014</v>
       </c>
-      <c r="EE267" s="29"/>
-      <c r="EF267" s="29"/>
-      <c r="EG267" s="29"/>
-      <c r="EH267" s="29">
+      <c r="EE267" s="30"/>
+      <c r="EF267" s="30"/>
+      <c r="EG267" s="30"/>
+      <c r="EH267" s="30">
         <v>2015</v>
       </c>
-      <c r="EI267" s="29"/>
-      <c r="EJ267" s="29"/>
-      <c r="EK267" s="29"/>
-      <c r="EL267" s="29">
+      <c r="EI267" s="30"/>
+      <c r="EJ267" s="30"/>
+      <c r="EK267" s="30"/>
+      <c r="EL267" s="30">
         <v>2016</v>
       </c>
-      <c r="EM267" s="29"/>
-      <c r="EN267" s="29"/>
-      <c r="EO267" s="29"/>
-      <c r="EP267" s="29">
+      <c r="EM267" s="30"/>
+      <c r="EN267" s="30"/>
+      <c r="EO267" s="30"/>
+      <c r="EP267" s="30">
         <v>2017</v>
       </c>
-      <c r="EQ267" s="29"/>
-      <c r="ER267" s="29"/>
-      <c r="ES267" s="29"/>
-      <c r="ET267" s="29">
+      <c r="EQ267" s="30"/>
+      <c r="ER267" s="30"/>
+      <c r="ES267" s="30"/>
+      <c r="ET267" s="30">
         <v>2018</v>
       </c>
-      <c r="EU267" s="29"/>
-      <c r="EV267" s="29"/>
-      <c r="EW267" s="29"/>
-      <c r="EX267" s="29">
+      <c r="EU267" s="30"/>
+      <c r="EV267" s="30"/>
+      <c r="EW267" s="30"/>
+      <c r="EX267" s="30">
         <v>2019</v>
       </c>
-      <c r="EY267" s="29"/>
-      <c r="EZ267" s="29"/>
-      <c r="FA267" s="29"/>
-      <c r="FB267" s="29">
+      <c r="EY267" s="30"/>
+      <c r="EZ267" s="30"/>
+      <c r="FA267" s="30"/>
+      <c r="FB267" s="30">
         <v>2020</v>
       </c>
-      <c r="FC267" s="29"/>
-      <c r="FD267" s="29"/>
+      <c r="FC267" s="30"/>
+      <c r="FD267" s="30"/>
       <c r="FE267" s="24"/>
-      <c r="FF267" s="29">
+      <c r="FF267" s="30">
         <v>2021</v>
       </c>
-      <c r="FG267" s="29"/>
-      <c r="FH267" s="29"/>
-      <c r="FI267" s="29"/>
+      <c r="FG267" s="30"/>
+      <c r="FH267" s="30"/>
+      <c r="FI267" s="30"/>
+      <c r="FJ267" s="29">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="268" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A268" s="5" t="s">
         <v>13</v>
       </c>
@@ -47585,11 +47904,14 @@
       <c r="FI268" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="FJ268" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="269" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:166" x14ac:dyDescent="0.2">
       <c r="FB269" s="2"/>
     </row>
-    <row r="270" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A270" s="15" t="s">
         <v>74</v>
       </c>
@@ -48062,31 +48384,34 @@
         <v>9.3366678739909172</v>
       </c>
       <c r="FB270" s="21">
-        <v>9.9553409947287541</v>
+        <v>9.9429224189857841</v>
       </c>
       <c r="FC270" s="21">
-        <v>10.255004006382574</v>
+        <v>10.24455429646509</v>
       </c>
       <c r="FD270" s="21">
-        <v>9.7613188789927765</v>
+        <v>9.7574956674942737</v>
       </c>
       <c r="FE270" s="25">
-        <v>10.671668851673047</v>
+        <v>10.695542475484714</v>
       </c>
       <c r="FF270" s="25">
-        <v>11.160430341465583</v>
+        <v>11.132601910081201</v>
       </c>
       <c r="FG270" s="25">
-        <v>9.5385003098183567</v>
+        <v>9.5131299640094209</v>
       </c>
       <c r="FH270" s="25">
-        <v>9.4292418476497062</v>
+        <v>9.4146859324901673</v>
       </c>
       <c r="FI270" s="25">
-        <v>10.222648818681193</v>
+        <v>10.246375329652007</v>
+      </c>
+      <c r="FJ270" s="25">
+        <v>10.140167624224768</v>
       </c>
     </row>
-    <row r="271" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A271" s="15" t="s">
         <v>75</v>
       </c>
@@ -48559,31 +48884,34 @@
         <v>32.063662980522849</v>
       </c>
       <c r="FB271" s="21">
-        <v>29.613409586950723</v>
+        <v>29.621504543032589</v>
       </c>
       <c r="FC271" s="21">
-        <v>27.695501730788518</v>
+        <v>27.696567050838851</v>
       </c>
       <c r="FD271" s="21">
-        <v>25.016450725002425</v>
+        <v>25.042137118887275</v>
       </c>
       <c r="FE271" s="25">
-        <v>30.670649562519927</v>
+        <v>30.64757195790661</v>
       </c>
       <c r="FF271" s="25">
-        <v>28.355753023748104</v>
+        <v>28.403050417168789</v>
       </c>
       <c r="FG271" s="25">
-        <v>29.920069038304721</v>
+        <v>30.02003019925278</v>
       </c>
       <c r="FH271" s="25">
-        <v>25.361106995345985</v>
+        <v>25.453359325941509</v>
       </c>
       <c r="FI271" s="25">
-        <v>31.210330900738164</v>
+        <v>31.095736591939982</v>
+      </c>
+      <c r="FJ271" s="25">
+        <v>30.062304871218714</v>
       </c>
     </row>
-    <row r="272" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" s="15" t="s">
         <v>76</v>
       </c>
@@ -49056,31 +49384,34 @@
         <v>58.599669145486232</v>
       </c>
       <c r="FB272" s="21">
-        <v>60.431249418320512</v>
+        <v>60.435573037981641</v>
       </c>
       <c r="FC272" s="21">
-        <v>62.049494262828908</v>
+        <v>62.058878652696059</v>
       </c>
       <c r="FD272" s="22">
-        <v>65.222230396004804</v>
+        <v>65.200367213618449</v>
       </c>
       <c r="FE272" s="26">
-        <v>58.657681585807019</v>
+        <v>58.656885566608665</v>
       </c>
       <c r="FF272" s="26">
-        <v>60.483816634786315</v>
+        <v>60.464347672750009</v>
       </c>
       <c r="FG272" s="26">
-        <v>60.541430651876929</v>
+        <v>60.466839836737797</v>
       </c>
       <c r="FH272" s="26">
-        <v>65.209651157004316</v>
+        <v>65.131954741568322</v>
       </c>
       <c r="FI272" s="26">
-        <v>58.567020280580643</v>
+        <v>58.657888078408014</v>
+      </c>
+      <c r="FJ272" s="26">
+        <v>59.797527504556527</v>
       </c>
     </row>
-    <row r="273" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A273" s="16"/>
       <c r="B273" s="13"/>
       <c r="C273" s="13"/>
@@ -49246,8 +49577,9 @@
       <c r="FG273" s="26"/>
       <c r="FH273" s="26"/>
       <c r="FI273" s="26"/>
+      <c r="FJ273" s="26"/>
     </row>
-    <row r="274" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" s="8" t="s">
         <v>10</v>
       </c>
@@ -49743,8 +50075,11 @@
       <c r="FI274" s="26">
         <v>100</v>
       </c>
+      <c r="FJ274" s="26">
+        <v>100</v>
+      </c>
     </row>
-    <row r="275" spans="1:165" s="3" customFormat="1" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:166" s="3" customFormat="1" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="2"/>
       <c r="B275" s="13"/>
       <c r="C275" s="13"/>
@@ -49909,7 +50244,7 @@
         <v>-24370.119758612476</v>
       </c>
     </row>
-    <row r="276" spans="1:165" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:166" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="2"/>
       <c r="B276" s="13"/>
       <c r="C276" s="13"/>
@@ -50070,7 +50405,7 @@
       <c r="FB276" s="7"/>
       <c r="FC276" s="7"/>
     </row>
-    <row r="277" spans="1:165" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:166" hidden="1" x14ac:dyDescent="0.2">
       <c r="B277" s="13"/>
       <c r="C277" s="13"/>
       <c r="D277" s="13"/>
@@ -50234,7 +50569,7 @@
         <v>4857262.3839106075</v>
       </c>
     </row>
-    <row r="278" spans="1:165" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:166" hidden="1" x14ac:dyDescent="0.2">
       <c r="B278" s="13"/>
       <c r="C278" s="13"/>
       <c r="D278" s="13"/>
@@ -50392,7 +50727,7 @@
       <c r="EZ278" s="13"/>
       <c r="FA278" s="13"/>
     </row>
-    <row r="279" spans="1:165" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:166" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="9"/>
       <c r="B279" s="9"/>
       <c r="C279" s="9"/>
@@ -50558,37 +50893,38 @@
       <c r="FG279" s="9"/>
       <c r="FH279" s="9"/>
       <c r="FI279" s="9"/>
+      <c r="FJ279" s="9"/>
     </row>
-    <row r="280" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="FC285" s="3"/>
       <c r="FD285" s="3"/>
       <c r="FE285" s="3"/>
     </row>
-    <row r="286" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="FC286" s="3"/>
       <c r="FD286" s="3"/>
       <c r="FE286" s="3"/>
     </row>
-    <row r="287" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>52</v>
       </c>
@@ -50596,269 +50932,273 @@
       <c r="FD287" s="3"/>
       <c r="FE287" s="3"/>
     </row>
-    <row r="288" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A288" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="289" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="290" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
+      <c r="FJ290" s="9"/>
     </row>
-    <row r="291" spans="1:165" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:166" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
-      <c r="B291" s="29">
+      <c r="B291" s="30">
         <v>1981</v>
       </c>
-      <c r="C291" s="29"/>
-      <c r="D291" s="29"/>
-      <c r="E291" s="29"/>
-      <c r="F291" s="29">
+      <c r="C291" s="30"/>
+      <c r="D291" s="30"/>
+      <c r="E291" s="30"/>
+      <c r="F291" s="30">
         <v>1982</v>
       </c>
-      <c r="G291" s="29"/>
-      <c r="H291" s="29"/>
-      <c r="I291" s="29"/>
-      <c r="J291" s="29">
+      <c r="G291" s="30"/>
+      <c r="H291" s="30"/>
+      <c r="I291" s="30"/>
+      <c r="J291" s="30">
         <v>1983</v>
       </c>
-      <c r="K291" s="29"/>
-      <c r="L291" s="29"/>
-      <c r="M291" s="29"/>
-      <c r="N291" s="29">
+      <c r="K291" s="30"/>
+      <c r="L291" s="30"/>
+      <c r="M291" s="30"/>
+      <c r="N291" s="30">
         <v>1984</v>
       </c>
-      <c r="O291" s="29"/>
-      <c r="P291" s="29"/>
-      <c r="Q291" s="29"/>
-      <c r="R291" s="29">
+      <c r="O291" s="30"/>
+      <c r="P291" s="30"/>
+      <c r="Q291" s="30"/>
+      <c r="R291" s="30">
         <v>1985</v>
       </c>
-      <c r="S291" s="29"/>
-      <c r="T291" s="29"/>
-      <c r="U291" s="29"/>
-      <c r="V291" s="29">
+      <c r="S291" s="30"/>
+      <c r="T291" s="30"/>
+      <c r="U291" s="30"/>
+      <c r="V291" s="30">
         <v>1986</v>
       </c>
-      <c r="W291" s="29"/>
-      <c r="X291" s="29"/>
-      <c r="Y291" s="29"/>
-      <c r="Z291" s="29">
+      <c r="W291" s="30"/>
+      <c r="X291" s="30"/>
+      <c r="Y291" s="30"/>
+      <c r="Z291" s="30">
         <v>1987</v>
       </c>
-      <c r="AA291" s="29"/>
-      <c r="AB291" s="29"/>
-      <c r="AC291" s="29"/>
-      <c r="AD291" s="29">
+      <c r="AA291" s="30"/>
+      <c r="AB291" s="30"/>
+      <c r="AC291" s="30"/>
+      <c r="AD291" s="30">
         <v>1988</v>
       </c>
-      <c r="AE291" s="29"/>
-      <c r="AF291" s="29"/>
-      <c r="AG291" s="29"/>
-      <c r="AH291" s="29">
+      <c r="AE291" s="30"/>
+      <c r="AF291" s="30"/>
+      <c r="AG291" s="30"/>
+      <c r="AH291" s="30">
         <v>1989</v>
       </c>
-      <c r="AI291" s="29"/>
-      <c r="AJ291" s="29"/>
-      <c r="AK291" s="29"/>
-      <c r="AL291" s="29">
+      <c r="AI291" s="30"/>
+      <c r="AJ291" s="30"/>
+      <c r="AK291" s="30"/>
+      <c r="AL291" s="30">
         <v>1990</v>
       </c>
-      <c r="AM291" s="29"/>
-      <c r="AN291" s="29"/>
-      <c r="AO291" s="29"/>
-      <c r="AP291" s="29">
+      <c r="AM291" s="30"/>
+      <c r="AN291" s="30"/>
+      <c r="AO291" s="30"/>
+      <c r="AP291" s="30">
         <v>1991</v>
       </c>
-      <c r="AQ291" s="29"/>
-      <c r="AR291" s="29"/>
-      <c r="AS291" s="29"/>
-      <c r="AT291" s="29">
+      <c r="AQ291" s="30"/>
+      <c r="AR291" s="30"/>
+      <c r="AS291" s="30"/>
+      <c r="AT291" s="30">
         <v>1992</v>
       </c>
-      <c r="AU291" s="29"/>
-      <c r="AV291" s="29"/>
-      <c r="AW291" s="29"/>
-      <c r="AX291" s="29">
+      <c r="AU291" s="30"/>
+      <c r="AV291" s="30"/>
+      <c r="AW291" s="30"/>
+      <c r="AX291" s="30">
         <v>1993</v>
       </c>
-      <c r="AY291" s="29"/>
-      <c r="AZ291" s="29"/>
-      <c r="BA291" s="29"/>
-      <c r="BB291" s="29">
+      <c r="AY291" s="30"/>
+      <c r="AZ291" s="30"/>
+      <c r="BA291" s="30"/>
+      <c r="BB291" s="30">
         <v>1994</v>
       </c>
-      <c r="BC291" s="29"/>
-      <c r="BD291" s="29"/>
-      <c r="BE291" s="29"/>
-      <c r="BF291" s="29">
+      <c r="BC291" s="30"/>
+      <c r="BD291" s="30"/>
+      <c r="BE291" s="30"/>
+      <c r="BF291" s="30">
         <v>1995</v>
       </c>
-      <c r="BG291" s="29"/>
-      <c r="BH291" s="29"/>
-      <c r="BI291" s="29"/>
-      <c r="BJ291" s="29">
+      <c r="BG291" s="30"/>
+      <c r="BH291" s="30"/>
+      <c r="BI291" s="30"/>
+      <c r="BJ291" s="30">
         <v>1996</v>
       </c>
-      <c r="BK291" s="29"/>
-      <c r="BL291" s="29"/>
-      <c r="BM291" s="29"/>
-      <c r="BN291" s="29">
+      <c r="BK291" s="30"/>
+      <c r="BL291" s="30"/>
+      <c r="BM291" s="30"/>
+      <c r="BN291" s="30">
         <v>1997</v>
       </c>
-      <c r="BO291" s="29"/>
-      <c r="BP291" s="29"/>
-      <c r="BQ291" s="29"/>
-      <c r="BR291" s="29">
+      <c r="BO291" s="30"/>
+      <c r="BP291" s="30"/>
+      <c r="BQ291" s="30"/>
+      <c r="BR291" s="30">
         <v>1998</v>
       </c>
-      <c r="BS291" s="29"/>
-      <c r="BT291" s="29"/>
-      <c r="BU291" s="29"/>
-      <c r="BV291" s="29">
+      <c r="BS291" s="30"/>
+      <c r="BT291" s="30"/>
+      <c r="BU291" s="30"/>
+      <c r="BV291" s="30">
         <v>1999</v>
       </c>
-      <c r="BW291" s="29"/>
-      <c r="BX291" s="29"/>
-      <c r="BY291" s="29"/>
-      <c r="BZ291" s="29">
+      <c r="BW291" s="30"/>
+      <c r="BX291" s="30"/>
+      <c r="BY291" s="30"/>
+      <c r="BZ291" s="30">
         <v>2000</v>
       </c>
-      <c r="CA291" s="29"/>
-      <c r="CB291" s="29"/>
-      <c r="CC291" s="29"/>
-      <c r="CD291" s="29">
+      <c r="CA291" s="30"/>
+      <c r="CB291" s="30"/>
+      <c r="CC291" s="30"/>
+      <c r="CD291" s="30">
         <v>2001</v>
       </c>
-      <c r="CE291" s="29"/>
-      <c r="CF291" s="29"/>
-      <c r="CG291" s="29"/>
-      <c r="CH291" s="29">
+      <c r="CE291" s="30"/>
+      <c r="CF291" s="30"/>
+      <c r="CG291" s="30"/>
+      <c r="CH291" s="30">
         <v>2002</v>
       </c>
-      <c r="CI291" s="29"/>
-      <c r="CJ291" s="29"/>
-      <c r="CK291" s="29"/>
-      <c r="CL291" s="29">
+      <c r="CI291" s="30"/>
+      <c r="CJ291" s="30"/>
+      <c r="CK291" s="30"/>
+      <c r="CL291" s="30">
         <v>2003</v>
       </c>
-      <c r="CM291" s="29"/>
-      <c r="CN291" s="29"/>
-      <c r="CO291" s="29"/>
-      <c r="CP291" s="29">
+      <c r="CM291" s="30"/>
+      <c r="CN291" s="30"/>
+      <c r="CO291" s="30"/>
+      <c r="CP291" s="30">
         <v>2004</v>
       </c>
-      <c r="CQ291" s="29"/>
-      <c r="CR291" s="29"/>
-      <c r="CS291" s="29"/>
-      <c r="CT291" s="29">
+      <c r="CQ291" s="30"/>
+      <c r="CR291" s="30"/>
+      <c r="CS291" s="30"/>
+      <c r="CT291" s="30">
         <v>2005</v>
       </c>
-      <c r="CU291" s="29"/>
-      <c r="CV291" s="29"/>
-      <c r="CW291" s="29"/>
-      <c r="CX291" s="29">
+      <c r="CU291" s="30"/>
+      <c r="CV291" s="30"/>
+      <c r="CW291" s="30"/>
+      <c r="CX291" s="30">
         <v>2006</v>
       </c>
-      <c r="CY291" s="29"/>
-      <c r="CZ291" s="29"/>
-      <c r="DA291" s="29"/>
-      <c r="DB291" s="29">
+      <c r="CY291" s="30"/>
+      <c r="CZ291" s="30"/>
+      <c r="DA291" s="30"/>
+      <c r="DB291" s="30">
         <v>2007</v>
       </c>
-      <c r="DC291" s="29"/>
-      <c r="DD291" s="29"/>
-      <c r="DE291" s="29"/>
-      <c r="DF291" s="29">
+      <c r="DC291" s="30"/>
+      <c r="DD291" s="30"/>
+      <c r="DE291" s="30"/>
+      <c r="DF291" s="30">
         <v>2008</v>
       </c>
-      <c r="DG291" s="29"/>
-      <c r="DH291" s="29"/>
-      <c r="DI291" s="29"/>
-      <c r="DJ291" s="29">
+      <c r="DG291" s="30"/>
+      <c r="DH291" s="30"/>
+      <c r="DI291" s="30"/>
+      <c r="DJ291" s="30">
         <v>2009</v>
       </c>
-      <c r="DK291" s="29"/>
-      <c r="DL291" s="29"/>
-      <c r="DM291" s="29"/>
-      <c r="DN291" s="29">
+      <c r="DK291" s="30"/>
+      <c r="DL291" s="30"/>
+      <c r="DM291" s="30"/>
+      <c r="DN291" s="30">
         <v>2010</v>
       </c>
-      <c r="DO291" s="29"/>
-      <c r="DP291" s="29"/>
-      <c r="DQ291" s="29"/>
-      <c r="DR291" s="29">
+      <c r="DO291" s="30"/>
+      <c r="DP291" s="30"/>
+      <c r="DQ291" s="30"/>
+      <c r="DR291" s="30">
         <v>2011</v>
       </c>
-      <c r="DS291" s="29"/>
-      <c r="DT291" s="29"/>
-      <c r="DU291" s="29"/>
-      <c r="DV291" s="29">
+      <c r="DS291" s="30"/>
+      <c r="DT291" s="30"/>
+      <c r="DU291" s="30"/>
+      <c r="DV291" s="30">
         <v>2012</v>
       </c>
-      <c r="DW291" s="29"/>
-      <c r="DX291" s="29"/>
-      <c r="DY291" s="29"/>
-      <c r="DZ291" s="29">
+      <c r="DW291" s="30"/>
+      <c r="DX291" s="30"/>
+      <c r="DY291" s="30"/>
+      <c r="DZ291" s="30">
         <v>2013</v>
       </c>
-      <c r="EA291" s="29"/>
-      <c r="EB291" s="29"/>
-      <c r="EC291" s="29"/>
-      <c r="ED291" s="29">
+      <c r="EA291" s="30"/>
+      <c r="EB291" s="30"/>
+      <c r="EC291" s="30"/>
+      <c r="ED291" s="30">
         <v>2014</v>
       </c>
-      <c r="EE291" s="29"/>
-      <c r="EF291" s="29"/>
-      <c r="EG291" s="29"/>
-      <c r="EH291" s="29">
+      <c r="EE291" s="30"/>
+      <c r="EF291" s="30"/>
+      <c r="EG291" s="30"/>
+      <c r="EH291" s="30">
         <v>2015</v>
       </c>
-      <c r="EI291" s="29"/>
-      <c r="EJ291" s="29"/>
-      <c r="EK291" s="29"/>
-      <c r="EL291" s="29">
+      <c r="EI291" s="30"/>
+      <c r="EJ291" s="30"/>
+      <c r="EK291" s="30"/>
+      <c r="EL291" s="30">
         <v>2016</v>
       </c>
-      <c r="EM291" s="29"/>
-      <c r="EN291" s="29"/>
-      <c r="EO291" s="29"/>
-      <c r="EP291" s="29">
+      <c r="EM291" s="30"/>
+      <c r="EN291" s="30"/>
+      <c r="EO291" s="30"/>
+      <c r="EP291" s="30">
         <v>2017</v>
       </c>
-      <c r="EQ291" s="29"/>
-      <c r="ER291" s="29"/>
-      <c r="ES291" s="29"/>
-      <c r="ET291" s="29">
+      <c r="EQ291" s="30"/>
+      <c r="ER291" s="30"/>
+      <c r="ES291" s="30"/>
+      <c r="ET291" s="30">
         <v>2018</v>
       </c>
-      <c r="EU291" s="29"/>
-      <c r="EV291" s="29"/>
-      <c r="EW291" s="29"/>
-      <c r="EX291" s="29">
+      <c r="EU291" s="30"/>
+      <c r="EV291" s="30"/>
+      <c r="EW291" s="30"/>
+      <c r="EX291" s="30">
         <v>2019</v>
       </c>
-      <c r="EY291" s="29"/>
-      <c r="EZ291" s="29"/>
-      <c r="FA291" s="29"/>
-      <c r="FB291" s="29">
+      <c r="EY291" s="30"/>
+      <c r="EZ291" s="30"/>
+      <c r="FA291" s="30"/>
+      <c r="FB291" s="30">
         <v>2020</v>
       </c>
-      <c r="FC291" s="29"/>
-      <c r="FD291" s="29"/>
-      <c r="FE291" s="29">
+      <c r="FC291" s="30"/>
+      <c r="FD291" s="30"/>
+      <c r="FE291" s="30">
         <v>2021</v>
       </c>
-      <c r="FF291" s="29"/>
-      <c r="FG291" s="29"/>
-      <c r="FH291" s="29"/>
-      <c r="FI291" s="29"/>
+      <c r="FF291" s="30"/>
+      <c r="FG291" s="30"/>
+      <c r="FH291" s="30"/>
+      <c r="FI291" s="30"/>
+      <c r="FJ291" s="32">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="292" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A292" s="5" t="s">
         <v>13</v>
       </c>
@@ -51354,11 +51694,14 @@
       <c r="FI292" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="FJ292" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="293" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:166" x14ac:dyDescent="0.2">
       <c r="FB293" s="2"/>
     </row>
-    <row r="294" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A294" s="15" t="s">
         <v>74</v>
       </c>
@@ -51831,31 +52174,34 @@
         <v>10.137798400570547</v>
       </c>
       <c r="FB294" s="21">
-        <v>9.9252822095730657</v>
+        <v>9.9174481301085144</v>
       </c>
       <c r="FC294" s="21">
-        <v>10.054524791305386</v>
+        <v>10.041541110574855</v>
       </c>
       <c r="FD294" s="22">
-        <v>9.7968036544884942</v>
+        <v>9.7904668961131005</v>
       </c>
       <c r="FE294" s="26">
-        <v>10.772739500520066</v>
+        <v>10.771109782013353</v>
       </c>
       <c r="FF294" s="26">
-        <v>10.19329219408335</v>
+        <v>10.175959405391694</v>
       </c>
       <c r="FG294" s="26">
-        <v>8.9776794611496538</v>
+        <v>8.9560913963009288</v>
       </c>
       <c r="FH294" s="26">
-        <v>9.0136170611393531</v>
+        <v>8.9963093302268433</v>
       </c>
       <c r="FI294" s="26">
-        <v>10.144040497212989</v>
+        <v>10.133863068570694</v>
+      </c>
+      <c r="FJ294" s="26">
+        <v>9.4137057123274559</v>
       </c>
     </row>
-    <row r="295" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="15" t="s">
         <v>75</v>
       </c>
@@ -52328,31 +52674,34 @@
         <v>31.491772380988657</v>
       </c>
       <c r="FB295" s="21">
-        <v>30.185048940865112</v>
+        <v>30.19054726759029</v>
       </c>
       <c r="FC295" s="21">
-        <v>28.518977862746898</v>
+        <v>28.516488498322296</v>
       </c>
       <c r="FD295" s="22">
-        <v>26.93249836162574</v>
+        <v>26.948510072216429</v>
       </c>
       <c r="FE295" s="26">
-        <v>30.701869921227409</v>
+        <v>30.687368102003354</v>
       </c>
       <c r="FF295" s="26">
-        <v>30.03129153119583</v>
+        <v>30.074817755366368</v>
       </c>
       <c r="FG295" s="26">
-        <v>30.800204302503857</v>
+        <v>30.846847596068848</v>
       </c>
       <c r="FH295" s="26">
-        <v>27.246454326727164</v>
+        <v>27.362056816418679</v>
       </c>
       <c r="FI295" s="26">
-        <v>31.203809009329863</v>
+        <v>31.197417643407277</v>
+      </c>
+      <c r="FJ295" s="26">
+        <v>30.673127325311238</v>
       </c>
     </row>
-    <row r="296" spans="1:165" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A296" s="15" t="s">
         <v>76</v>
       </c>
@@ -52825,31 +53174,34 @@
         <v>58.37042921844079</v>
       </c>
       <c r="FB296" s="21">
-        <v>59.889668849561836</v>
+        <v>59.892004602301185</v>
       </c>
       <c r="FC296" s="21">
-        <v>61.426497345947716</v>
+        <v>61.441970391102849</v>
       </c>
       <c r="FD296" s="22">
-        <v>63.270697983885761</v>
+        <v>63.261023031670469</v>
       </c>
       <c r="FE296" s="26">
-        <v>58.525390578252527</v>
+        <v>58.541522115983291</v>
       </c>
       <c r="FF296" s="26">
-        <v>59.775416274720818</v>
+        <v>59.749222839241931</v>
       </c>
       <c r="FG296" s="26">
-        <v>60.222116236346501</v>
+        <v>60.197061007630218</v>
       </c>
       <c r="FH296" s="26">
-        <v>63.73992861213349</v>
+        <v>63.64163385335447</v>
       </c>
       <c r="FI296" s="26">
-        <v>58.652150493457142</v>
+        <v>58.668719288022039</v>
+      </c>
+      <c r="FJ296" s="26">
+        <v>59.913166962361309</v>
       </c>
     </row>
-    <row r="297" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A297" s="16"/>
       <c r="B297" s="13"/>
       <c r="C297" s="13"/>
@@ -53015,8 +53367,9 @@
       <c r="FG297" s="25"/>
       <c r="FH297" s="25"/>
       <c r="FI297" s="25"/>
+      <c r="FJ297" s="25"/>
     </row>
-    <row r="298" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A298" s="8" t="s">
         <v>10</v>
       </c>
@@ -53512,8 +53865,11 @@
       <c r="FI298" s="25">
         <v>100</v>
       </c>
+      <c r="FJ298" s="25">
+        <v>100</v>
+      </c>
     </row>
-    <row r="299" spans="1:165" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:166" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B299" s="13"/>
       <c r="C299" s="13"/>
       <c r="D299" s="13"/>
@@ -53677,7 +54033,7 @@
         <v>-0.58654919688841323</v>
       </c>
     </row>
-    <row r="300" spans="1:165" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:166" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B300" s="13"/>
       <c r="C300" s="13"/>
       <c r="D300" s="13"/>
@@ -53841,7 +54197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:165" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:166" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B301" s="13"/>
       <c r="C301" s="13"/>
       <c r="D301" s="13"/>
@@ -54005,7 +54361,7 @@
         <v>116.90641566717015</v>
       </c>
     </row>
-    <row r="302" spans="1:165" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:166" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B302" s="13"/>
       <c r="C302" s="13"/>
       <c r="D302" s="13"/>
@@ -54169,7 +54525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:165" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:166" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="9"/>
       <c r="B303" s="9"/>
       <c r="C303" s="9"/>
@@ -54335,13 +54691,14 @@
       <c r="FG303" s="9"/>
       <c r="FH303" s="9"/>
       <c r="FI303" s="9"/>
+      <c r="FJ303" s="9"/>
     </row>
-    <row r="304" spans="1:165" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:161" x14ac:dyDescent="0.2">
       <c r="B305" s="10"/>
       <c r="C305" s="10"/>
       <c r="D305" s="10"/>
@@ -54499,7 +54856,7 @@
       <c r="EZ305" s="10"/>
       <c r="FA305" s="10"/>
     </row>
-    <row r="306" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:161" x14ac:dyDescent="0.2">
       <c r="B306" s="10"/>
       <c r="C306" s="10"/>
       <c r="D306" s="10"/>
@@ -54657,20 +55014,20 @@
       <c r="EZ306" s="10"/>
       <c r="FA306" s="10"/>
     </row>
-    <row r="307" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:161" x14ac:dyDescent="0.2">
       <c r="A307" s="19"/>
     </row>
-    <row r="311" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:161" x14ac:dyDescent="0.2">
       <c r="FC311" s="3"/>
       <c r="FD311" s="3"/>
       <c r="FE311" s="3"/>
     </row>
-    <row r="312" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:161" x14ac:dyDescent="0.2">
       <c r="FC312" s="3"/>
       <c r="FD312" s="3"/>
       <c r="FE312" s="3"/>
     </row>
-    <row r="313" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:161" x14ac:dyDescent="0.2">
       <c r="FC313" s="3"/>
       <c r="FD313" s="3"/>
       <c r="FE313" s="3"/>
@@ -54691,6 +55048,16 @@
     <mergeCell ref="CT36:CW36"/>
     <mergeCell ref="CX36:DA36"/>
     <mergeCell ref="DB36:DE36"/>
+    <mergeCell ref="DF36:DI36"/>
+    <mergeCell ref="DJ36:DM36"/>
+    <mergeCell ref="DN36:DQ36"/>
+    <mergeCell ref="DR36:DU36"/>
+    <mergeCell ref="DV36:DY36"/>
+    <mergeCell ref="DZ36:EC36"/>
+    <mergeCell ref="EL63:EO63"/>
+    <mergeCell ref="EP63:ES63"/>
+    <mergeCell ref="CD63:CG63"/>
+    <mergeCell ref="EH90:EK90"/>
     <mergeCell ref="DV9:DY9"/>
     <mergeCell ref="CX9:DA9"/>
     <mergeCell ref="DB9:DE9"/>
@@ -54703,12 +55070,6 @@
     <mergeCell ref="CL9:CO9"/>
     <mergeCell ref="CP9:CS9"/>
     <mergeCell ref="CT9:CW9"/>
-    <mergeCell ref="DF36:DI36"/>
-    <mergeCell ref="DJ36:DM36"/>
-    <mergeCell ref="DN36:DQ36"/>
-    <mergeCell ref="DR36:DU36"/>
-    <mergeCell ref="DV36:DY36"/>
-    <mergeCell ref="DZ36:EC36"/>
     <mergeCell ref="ET9:EW9"/>
     <mergeCell ref="EX9:FA9"/>
     <mergeCell ref="DZ9:EC9"/>
@@ -54721,10 +55082,9 @@
     <mergeCell ref="EP36:ES36"/>
     <mergeCell ref="ET36:EW36"/>
     <mergeCell ref="ED36:EG36"/>
-    <mergeCell ref="EL63:EO63"/>
-    <mergeCell ref="EP63:ES63"/>
-    <mergeCell ref="CD63:CG63"/>
-    <mergeCell ref="EH90:EK90"/>
+    <mergeCell ref="DF90:DI90"/>
+    <mergeCell ref="DF63:DI63"/>
+    <mergeCell ref="DJ63:DM63"/>
     <mergeCell ref="EL90:EO90"/>
     <mergeCell ref="EP90:ES90"/>
     <mergeCell ref="ET90:EW90"/>
@@ -54734,24 +55094,17 @@
     <mergeCell ref="DV90:DY90"/>
     <mergeCell ref="DZ90:EC90"/>
     <mergeCell ref="ED90:EG90"/>
+    <mergeCell ref="CT90:CW90"/>
+    <mergeCell ref="CX90:DA90"/>
+    <mergeCell ref="DB90:DE90"/>
+    <mergeCell ref="CX63:DA63"/>
+    <mergeCell ref="DB63:DE63"/>
     <mergeCell ref="CD90:CG90"/>
     <mergeCell ref="CH90:CK90"/>
     <mergeCell ref="CL90:CO90"/>
     <mergeCell ref="CP90:CS90"/>
     <mergeCell ref="CH63:CK63"/>
     <mergeCell ref="CL63:CO63"/>
-    <mergeCell ref="DF90:DI90"/>
-    <mergeCell ref="DF63:DI63"/>
-    <mergeCell ref="DJ63:DM63"/>
-    <mergeCell ref="DN63:DQ63"/>
-    <mergeCell ref="DR63:DU63"/>
-    <mergeCell ref="CP63:CS63"/>
-    <mergeCell ref="CT63:CW63"/>
-    <mergeCell ref="CT90:CW90"/>
-    <mergeCell ref="CX90:DA90"/>
-    <mergeCell ref="DB90:DE90"/>
-    <mergeCell ref="CX63:DA63"/>
-    <mergeCell ref="DB63:DE63"/>
     <mergeCell ref="ET144:EW144"/>
     <mergeCell ref="EX144:FA144"/>
     <mergeCell ref="DZ144:EC144"/>
@@ -54784,6 +55137,10 @@
     <mergeCell ref="DR117:DU117"/>
     <mergeCell ref="DV117:DY117"/>
     <mergeCell ref="DZ117:EC117"/>
+    <mergeCell ref="DN63:DQ63"/>
+    <mergeCell ref="DR63:DU63"/>
+    <mergeCell ref="CP63:CS63"/>
+    <mergeCell ref="CT63:CW63"/>
     <mergeCell ref="CD171:CG171"/>
     <mergeCell ref="CH171:CK171"/>
     <mergeCell ref="CL171:CO171"/>
@@ -55168,12 +55525,12 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="EX66:EY73">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EX93:EY100">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Data/National Accounts/PSA-Quarter-Q1-1981-to-latest.xlsx
+++ b/Data/National Accounts/PSA-Quarter-Q1-1981-to-latest.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msi-pc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2873D24F-C36E-4A25-8E1F-B20179319536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7725" tabRatio="721"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1 1981 to Q4 2021" sheetId="5" r:id="rId1"/>
@@ -93,22 +94,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="83">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -350,25 +341,25 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of May 2022</t>
+    <t>As of Aug 2022</t>
   </si>
   <si>
-    <t>Q1 1981 to Q1 2022</t>
+    <t>Q1 1981 to Q2 2022</t>
   </si>
   <si>
-    <t>Q1 1982 to Q1 2022</t>
+    <t>Q1 1982 to Q2 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -440,9 +431,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -456,18 +447,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -479,32 +470,29 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -513,14 +501,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -815,12 +796,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FJ313"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:FK313"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="FA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FG30" sqref="FG30"/>
+      <selection pane="topRight" activeCell="FM18" sqref="FM18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -904,47 +885,47 @@
     <col min="162" max="162" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="163" max="164" width="15.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="165" max="165" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="167" max="16384" width="9.28515625" style="2"/>
+    <col min="166" max="167" width="15" style="2" customWidth="1"/>
+    <col min="168" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="30">
         <v>1981</v>
@@ -1192,11 +1173,12 @@
       <c r="FG9" s="30"/>
       <c r="FH9" s="30"/>
       <c r="FI9" s="30"/>
-      <c r="FJ9" s="29">
+      <c r="FJ9" s="30">
         <v>2022</v>
       </c>
+      <c r="FK9" s="30"/>
     </row>
-    <row r="10" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1695,11 +1677,14 @@
       <c r="FJ10" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="FK10" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="11" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:167" x14ac:dyDescent="0.2">
       <c r="FB11" s="2"/>
     </row>
-    <row r="12" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -2196,10 +2181,13 @@
         <v>4233960.1057822816</v>
       </c>
       <c r="FJ12" s="7">
-        <v>3857398.5631033424</v>
+        <v>3853894.6766090612</v>
+      </c>
+      <c r="FK12" s="7">
+        <v>3881325.8414508533</v>
       </c>
     </row>
-    <row r="13" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -2698,8 +2686,11 @@
       <c r="FJ13" s="7">
         <v>677924.11662480747</v>
       </c>
+      <c r="FK13" s="7">
+        <v>945053.1809354315</v>
+      </c>
     </row>
-    <row r="14" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -3196,10 +3187,13 @@
         <v>1194978.4992109176</v>
       </c>
       <c r="FJ14" s="7">
-        <v>1135062.8605458662</v>
+        <v>1140287.0243345883</v>
+      </c>
+      <c r="FK14" s="7">
+        <v>1571109.9494016764</v>
       </c>
     </row>
-    <row r="15" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -3696,10 +3690,13 @@
         <v>1332281.49251774</v>
       </c>
       <c r="FJ15" s="7">
-        <v>1446433.1670965096</v>
+        <v>1450165.8216495654</v>
+      </c>
+      <c r="FK15" s="7">
+        <v>1395761.9411662547</v>
       </c>
     </row>
-    <row r="16" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -4196,10 +4193,13 @@
         <v>1968716.1190903916</v>
       </c>
       <c r="FJ16" s="7">
-        <v>2229743.9851154983</v>
+        <v>2211474.2058574748</v>
+      </c>
+      <c r="FK16" s="7">
+        <v>2443210.0715891444</v>
       </c>
     </row>
-    <row r="17" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -4696,10 +4696,13 @@
         <v>47011.822236362845</v>
       </c>
       <c r="FJ17" s="7">
-        <v>43312.062557413243</v>
+        <v>17864.843782270327</v>
+      </c>
+      <c r="FK17" s="7">
+        <v>44049.913187013008</v>
       </c>
     </row>
-    <row r="18" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:167" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4865,8 +4868,9 @@
       <c r="FH18" s="7"/>
       <c r="FI18" s="7"/>
       <c r="FJ18" s="7"/>
+      <c r="FK18" s="7"/>
     </row>
-    <row r="19" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>10</v>
       </c>
@@ -5363,10 +5367,13 @@
         <v>5662523.2252829596</v>
       </c>
       <c r="FJ19" s="7">
-        <v>4930386.7848124411</v>
+        <v>4928662.2771428172</v>
+      </c>
+      <c r="FK19" s="7">
+        <v>5394090.754552084</v>
       </c>
     </row>
-    <row r="20" spans="1:166" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:167" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -5524,7 +5531,7 @@
       <c r="EZ20" s="7"/>
       <c r="FA20" s="7"/>
     </row>
-    <row r="21" spans="1:166" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:167" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -5682,7 +5689,7 @@
       <c r="EZ21" s="7"/>
       <c r="FA21" s="7"/>
     </row>
-    <row r="22" spans="1:166" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:167" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -5840,7 +5847,7 @@
       <c r="EZ22" s="7"/>
       <c r="FA22" s="7"/>
     </row>
-    <row r="23" spans="1:166" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:167" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -5998,7 +6005,7 @@
       <c r="EZ23" s="7"/>
       <c r="FA23" s="7"/>
     </row>
-    <row r="24" spans="1:166" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:167" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -6165,50 +6172,51 @@
       <c r="FH24" s="9"/>
       <c r="FI24" s="9"/>
       <c r="FJ24" s="9"/>
+      <c r="FK24" s="9"/>
     </row>
-    <row r="25" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="BY25" s="10"/>
     </row>
-    <row r="28" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="30">
         <v>1981</v>
@@ -6456,11 +6464,12 @@
       <c r="FG36" s="30"/>
       <c r="FH36" s="30"/>
       <c r="FI36" s="30"/>
-      <c r="FJ36" s="29">
+      <c r="FJ36" s="30">
         <v>2022</v>
       </c>
+      <c r="FK36" s="30"/>
     </row>
-    <row r="37" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>14</v>
       </c>
@@ -6959,11 +6968,14 @@
       <c r="FJ37" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="FK37" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="38" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:167" x14ac:dyDescent="0.2">
       <c r="FB38" s="2"/>
     </row>
-    <row r="39" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>1</v>
       </c>
@@ -7460,10 +7472,13 @@
         <v>3923915.6638969723</v>
       </c>
       <c r="FJ39" s="7">
-        <v>3476449.937212511</v>
+        <v>3473351.0415488388</v>
+      </c>
+      <c r="FK39" s="7">
+        <v>3401517.1464006188</v>
       </c>
     </row>
-    <row r="40" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
@@ -7962,8 +7977,11 @@
       <c r="FJ40" s="7">
         <v>673240.99871708464</v>
       </c>
+      <c r="FK40" s="7">
+        <v>903919.54486972233</v>
+      </c>
     </row>
-    <row r="41" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -8460,10 +8478,13 @@
         <v>1144070.7093116241</v>
       </c>
       <c r="FJ41" s="7">
-        <v>1024126.261463858</v>
+        <v>1028032.7929143002</v>
+      </c>
+      <c r="FK41" s="7">
+        <v>1383303.3352756836</v>
       </c>
     </row>
-    <row r="42" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>4</v>
       </c>
@@ -8960,10 +8981,13 @@
         <v>1251030.6402114162</v>
       </c>
       <c r="FJ42" s="7">
-        <v>1356492.2496092932</v>
+        <v>1357669.1598509811</v>
+      </c>
+      <c r="FK42" s="7">
+        <v>1355709.9536050861</v>
       </c>
     </row>
-    <row r="43" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>5</v>
       </c>
@@ -9460,10 +9484,13 @@
         <v>1814149.0295484206</v>
       </c>
       <c r="FJ43" s="7">
-        <v>1892215.2104558966</v>
+        <v>1888313.4052073229</v>
+      </c>
+      <c r="FK43" s="7">
+        <v>2005023.8764786124</v>
       </c>
     </row>
-    <row r="44" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>6</v>
       </c>
@@ -9960,10 +9987,13 @@
         <v>13313.555843672715</v>
       </c>
       <c r="FJ44" s="7">
-        <v>-19961.258224580437</v>
+        <v>-30825.829976207577</v>
+      </c>
+      <c r="FK44" s="7">
+        <v>-49286.62427356001</v>
       </c>
     </row>
-    <row r="45" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:167" x14ac:dyDescent="0.2">
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -10129,8 +10159,9 @@
       <c r="FH45" s="7"/>
       <c r="FI45" s="7"/>
       <c r="FJ45" s="7"/>
+      <c r="FK45" s="7"/>
     </row>
-    <row r="46" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>10</v>
       </c>
@@ -10627,10 +10658,13 @@
         <v>5201501.2339442354</v>
       </c>
       <c r="FJ46" s="7">
-        <v>4618132.9783222703</v>
+        <v>4613154.7578476742</v>
+      </c>
+      <c r="FK46" s="7">
+        <v>4990139.4793989388</v>
       </c>
     </row>
-    <row r="47" spans="1:166" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:167" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -10788,7 +10822,7 @@
       <c r="EZ47" s="7"/>
       <c r="FA47" s="7"/>
     </row>
-    <row r="48" spans="1:166" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:167" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -10946,7 +10980,7 @@
       <c r="EZ48" s="7"/>
       <c r="FA48" s="7"/>
     </row>
-    <row r="49" spans="1:166" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:167" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -11104,7 +11138,7 @@
       <c r="EZ49" s="7"/>
       <c r="FA49" s="7"/>
     </row>
-    <row r="50" spans="1:166" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:167" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -11262,7 +11296,7 @@
       <c r="EZ50" s="7"/>
       <c r="FA50" s="7"/>
     </row>
-    <row r="51" spans="1:166" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:167" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -11429,36 +11463,37 @@
       <c r="FH51" s="9"/>
       <c r="FI51" s="9"/>
       <c r="FJ51" s="9"/>
+      <c r="FK51" s="9"/>
     </row>
-    <row r="52" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
         <v>82</v>
       </c>
@@ -11467,7 +11502,7 @@
       <c r="FD60" s="28"/>
       <c r="FE60" s="28"/>
     </row>
-    <row r="61" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>19</v>
       </c>
@@ -11476,15 +11511,16 @@
       <c r="FD61" s="28"/>
       <c r="FE61" s="28"/>
     </row>
-    <row r="62" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="FB62" s="28"/>
       <c r="FC62" s="28"/>
       <c r="FD62" s="28"/>
       <c r="FE62" s="28"/>
       <c r="FF62" s="9"/>
+      <c r="FG62" s="9"/>
     </row>
-    <row r="63" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="30" t="s">
         <v>55</v>
@@ -11726,11 +11762,12 @@
       <c r="FC63" s="30"/>
       <c r="FD63" s="30"/>
       <c r="FE63" s="30"/>
-      <c r="FF63" s="32" t="s">
+      <c r="FF63" s="31" t="s">
         <v>79</v>
       </c>
+      <c r="FG63" s="31"/>
     </row>
-    <row r="64" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>14</v>
       </c>
@@ -12216,6 +12253,9 @@
       </c>
       <c r="FF64" s="6" t="s">
         <v>15</v>
+      </c>
+      <c r="FG64" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:165" x14ac:dyDescent="0.2">
@@ -12712,12 +12752,14 @@
       <c r="FE66" s="26">
         <v>11.390468101409425</v>
       </c>
-      <c r="FF66" s="31">
-        <v>13.534551901451238</v>
-      </c>
-      <c r="FG66" s="31"/>
-      <c r="FH66" s="31"/>
-      <c r="FI66" s="31"/>
+      <c r="FF66" s="29">
+        <v>13.431422246443077</v>
+      </c>
+      <c r="FG66" s="29">
+        <v>14.284416670868325</v>
+      </c>
+      <c r="FH66" s="29"/>
+      <c r="FI66" s="29"/>
     </row>
     <row r="67" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
@@ -13203,12 +13245,14 @@
       <c r="FE67" s="25">
         <v>10.879876927017889</v>
       </c>
-      <c r="FF67" s="31">
+      <c r="FF67" s="29">
         <v>7.0164149150596415</v>
       </c>
-      <c r="FG67" s="31"/>
-      <c r="FH67" s="31"/>
-      <c r="FI67" s="31"/>
+      <c r="FG67" s="29">
+        <v>15.662707602108611</v>
+      </c>
+      <c r="FH67" s="29"/>
+      <c r="FI67" s="29"/>
     </row>
     <row r="68" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
@@ -13694,12 +13738,14 @@
       <c r="FE68" s="25">
         <v>26.463180133460739</v>
       </c>
-      <c r="FF68" s="31">
-        <v>38.912777029325127</v>
-      </c>
-      <c r="FG68" s="31"/>
-      <c r="FH68" s="31"/>
-      <c r="FI68" s="31"/>
+      <c r="FF68" s="29">
+        <v>39.552127610488924</v>
+      </c>
+      <c r="FG68" s="29">
+        <v>37.674730685655447</v>
+      </c>
+      <c r="FH68" s="29"/>
+      <c r="FI68" s="29"/>
     </row>
     <row r="69" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
@@ -14185,12 +14231,14 @@
       <c r="FE69" s="25">
         <v>12.739135090572006</v>
       </c>
-      <c r="FF69" s="31">
-        <v>20.143484340541761</v>
-      </c>
-      <c r="FG69" s="31"/>
-      <c r="FH69" s="31"/>
-      <c r="FI69" s="31"/>
+      <c r="FF69" s="29">
+        <v>20.453525712687508</v>
+      </c>
+      <c r="FG69" s="29">
+        <v>18.364077598939303</v>
+      </c>
+      <c r="FH69" s="29"/>
+      <c r="FI69" s="29"/>
     </row>
     <row r="70" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
@@ -14676,12 +14724,14 @@
       <c r="FE70" s="25">
         <v>31.614921219689251</v>
       </c>
-      <c r="FF70" s="31">
-        <v>36.042250359643106</v>
-      </c>
-      <c r="FG70" s="31"/>
-      <c r="FH70" s="31"/>
-      <c r="FI70" s="31"/>
+      <c r="FF70" s="29">
+        <v>34.927565489798411</v>
+      </c>
+      <c r="FG70" s="29">
+        <v>36.849742275877333</v>
+      </c>
+      <c r="FH70" s="29"/>
+      <c r="FI70" s="29"/>
     </row>
     <row r="71" spans="1:165" x14ac:dyDescent="0.2">
       <c r="B71" s="13"/>
@@ -14844,10 +14894,10 @@
       <c r="FC71" s="25"/>
       <c r="FD71" s="25"/>
       <c r="FE71" s="25"/>
-      <c r="FF71" s="31"/>
-      <c r="FG71" s="31"/>
-      <c r="FH71" s="31"/>
-      <c r="FI71" s="31"/>
+      <c r="FF71" s="29"/>
+      <c r="FG71" s="29"/>
+      <c r="FH71" s="29"/>
+      <c r="FI71" s="29"/>
     </row>
     <row r="72" spans="1:165" x14ac:dyDescent="0.2">
       <c r="B72" s="13"/>
@@ -15010,10 +15060,10 @@
       <c r="FC72" s="25"/>
       <c r="FD72" s="25"/>
       <c r="FE72" s="25"/>
-      <c r="FF72" s="31"/>
-      <c r="FG72" s="31"/>
-      <c r="FH72" s="31"/>
-      <c r="FI72" s="31"/>
+      <c r="FF72" s="29"/>
+      <c r="FG72" s="29"/>
+      <c r="FH72" s="29"/>
+      <c r="FI72" s="29"/>
     </row>
     <row r="73" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
@@ -15499,12 +15549,14 @@
       <c r="FE73" s="25">
         <v>9.761099622005645</v>
       </c>
-      <c r="FF73" s="31">
-        <v>12.769879670184679</v>
-      </c>
-      <c r="FG73" s="31"/>
-      <c r="FH73" s="31"/>
-      <c r="FI73" s="31"/>
+      <c r="FF73" s="29">
+        <v>12.730436005644435</v>
+      </c>
+      <c r="FG73" s="29">
+        <v>13.04474859764187</v>
+      </c>
+      <c r="FH73" s="29"/>
+      <c r="FI73" s="29"/>
     </row>
     <row r="74" spans="1:165" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="13"/>
@@ -16289,6 +16341,7 @@
       <c r="FD78" s="9"/>
       <c r="FE78" s="9"/>
       <c r="FF78" s="9"/>
+      <c r="FG78" s="9"/>
     </row>
     <row r="79" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
@@ -16300,44 +16353,45 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="FF89" s="9"/>
+      <c r="FG89" s="9"/>
     </row>
-    <row r="90" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="30" t="s">
         <v>55</v>
@@ -16579,11 +16633,12 @@
       <c r="FC90" s="30"/>
       <c r="FD90" s="30"/>
       <c r="FE90" s="30"/>
-      <c r="FF90" s="32" t="s">
+      <c r="FF90" s="31" t="s">
         <v>79</v>
       </c>
+      <c r="FG90" s="31"/>
     </row>
-    <row r="91" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>14</v>
       </c>
@@ -17070,11 +17125,15 @@
       <c r="FF91" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="FG91" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="92" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:163" x14ac:dyDescent="0.2">
       <c r="FF92" s="28"/>
+      <c r="FG92" s="28"/>
     </row>
-    <row r="93" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>1</v>
       </c>
@@ -17558,11 +17617,14 @@
       <c r="FE93" s="25">
         <v>7.5363083531733821</v>
       </c>
-      <c r="FF93" s="31">
-        <v>10.130242058752174</v>
+      <c r="FF93" s="29">
+        <v>10.032072335120617</v>
+      </c>
+      <c r="FG93" s="29">
+        <v>8.6393650856725515</v>
       </c>
     </row>
-    <row r="94" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>2</v>
       </c>
@@ -18046,11 +18108,14 @@
       <c r="FE94" s="25">
         <v>7.8049566970140489</v>
       </c>
-      <c r="FF94" s="31">
+      <c r="FF94" s="29">
         <v>3.564080422139142</v>
       </c>
+      <c r="FG94" s="29">
+        <v>11.120381442633303</v>
+      </c>
     </row>
-    <row r="95" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>3</v>
       </c>
@@ -18534,11 +18599,14 @@
       <c r="FE95" s="25">
         <v>14.224956064638334</v>
       </c>
-      <c r="FF95" s="31">
-        <v>19.959981437131361</v>
+      <c r="FF95" s="29">
+        <v>20.417569000220269</v>
+      </c>
+      <c r="FG95" s="29">
+        <v>20.477580151982806</v>
       </c>
     </row>
-    <row r="96" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>4</v>
       </c>
@@ -19022,11 +19090,14 @@
       <c r="FE96" s="25">
         <v>7.6772720721905756</v>
       </c>
-      <c r="FF96" s="31">
-        <v>10.32374272818177</v>
+      <c r="FF96" s="29">
+        <v>10.419461036012521</v>
+      </c>
+      <c r="FG96" s="29">
+        <v>4.3121781945543347</v>
       </c>
     </row>
-    <row r="97" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>5</v>
       </c>
@@ -19510,11 +19581,14 @@
       <c r="FE97" s="25">
         <v>14.294077358930338</v>
       </c>
-      <c r="FF97" s="31">
-        <v>15.601353916004328</v>
+      <c r="FF97" s="29">
+        <v>15.362980412314428</v>
+      </c>
+      <c r="FG97" s="29">
+        <v>13.610740682218619</v>
       </c>
     </row>
-    <row r="98" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:163" x14ac:dyDescent="0.2">
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
@@ -19675,9 +19749,10 @@
       <c r="FC98" s="25"/>
       <c r="FD98" s="25"/>
       <c r="FE98" s="25"/>
-      <c r="FF98" s="31"/>
+      <c r="FF98" s="29"/>
+      <c r="FG98" s="29"/>
     </row>
-    <row r="99" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:163" x14ac:dyDescent="0.2">
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
@@ -19838,9 +19913,10 @@
       <c r="FC99" s="25"/>
       <c r="FD99" s="25"/>
       <c r="FE99" s="25"/>
-      <c r="FF99" s="31"/>
+      <c r="FF99" s="29"/>
+      <c r="FG99" s="29"/>
     </row>
-    <row r="100" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>10</v>
       </c>
@@ -20324,11 +20400,14 @@
       <c r="FE100" s="25">
         <v>7.789828435863285</v>
       </c>
-      <c r="FF100" s="31">
-        <v>8.271603637746864</v>
+      <c r="FF100" s="29">
+        <v>8.1548898236196266</v>
+      </c>
+      <c r="FG100" s="29">
+        <v>7.4180189734504012</v>
       </c>
     </row>
-    <row r="101" spans="1:162" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:163" hidden="1" x14ac:dyDescent="0.2">
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
@@ -20482,7 +20561,7 @@
       <c r="EV101" s="13"/>
       <c r="EW101" s="13"/>
     </row>
-    <row r="102" spans="1:162" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:163" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
@@ -20636,7 +20715,7 @@
       <c r="EV102" s="13"/>
       <c r="EW102" s="13"/>
     </row>
-    <row r="103" spans="1:162" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:163" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
@@ -20790,7 +20869,7 @@
       <c r="EV103" s="13"/>
       <c r="EW103" s="13"/>
     </row>
-    <row r="104" spans="1:162" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:163" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
@@ -20944,7 +21023,7 @@
       <c r="EV104" s="13"/>
       <c r="EW104" s="13"/>
     </row>
-    <row r="105" spans="1:162" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:163" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -21107,54 +21186,55 @@
       <c r="FD105" s="9"/>
       <c r="FE105" s="9"/>
       <c r="FF105" s="9"/>
+      <c r="FG105" s="9"/>
     </row>
-    <row r="106" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="109" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
     </row>
-    <row r="113" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="115" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="116" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
     </row>
-    <row r="117" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="30">
         <v>1981</v>
@@ -21402,11 +21482,12 @@
       <c r="FG117" s="30"/>
       <c r="FH117" s="30"/>
       <c r="FI117" s="30"/>
-      <c r="FJ117" s="29">
+      <c r="FJ117" s="30">
         <v>2022</v>
       </c>
+      <c r="FK117" s="30"/>
     </row>
-    <row r="118" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>14</v>
       </c>
@@ -21905,11 +21986,14 @@
       <c r="FJ118" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="FK118" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="119" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:167" x14ac:dyDescent="0.2">
       <c r="FB119" s="2"/>
     </row>
-    <row r="120" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>1</v>
       </c>
@@ -22406,10 +22490,13 @@
         <v>74.771615715019138</v>
       </c>
       <c r="FJ120" s="25">
-        <v>78.237240432853454</v>
+        <v>78.193523108326929</v>
+      </c>
+      <c r="FK120" s="25">
+        <v>71.955145325936428</v>
       </c>
     </row>
-    <row r="121" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>2</v>
       </c>
@@ -22906,10 +22993,13 @@
         <v>14.53428784099906</v>
       </c>
       <c r="FJ121" s="25">
-        <v>13.749917526005959</v>
+        <v>13.754728534936364</v>
+      </c>
+      <c r="FK121" s="25">
+        <v>17.520157222751568</v>
       </c>
     </row>
-    <row r="122" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>3</v>
       </c>
@@ -23406,10 +23496,13 @@
         <v>21.103286497358319</v>
       </c>
       <c r="FJ122" s="25">
-        <v>23.021781253396036</v>
+        <v>23.135832000962772</v>
+      </c>
+      <c r="FK122" s="25">
+        <v>29.126501960980423</v>
       </c>
     </row>
-    <row r="123" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>4</v>
       </c>
@@ -23906,10 +23999,13 @@
         <v>23.528053475686452</v>
       </c>
       <c r="FJ123" s="25">
-        <v>29.337113500954953</v>
+        <v>29.423111994807595</v>
+      </c>
+      <c r="FK123" s="25">
+        <v>25.875759320296353</v>
       </c>
     </row>
-    <row r="124" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>5</v>
       </c>
@@ -24406,10 +24502,13 @@
         <v>34.767470980077327</v>
       </c>
       <c r="FJ124" s="25">
-        <v>45.224524615066706</v>
+        <v>44.869664048872167</v>
+      </c>
+      <c r="FK124" s="25">
+        <v>45.294196608155218</v>
       </c>
     </row>
-    <row r="125" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:167" x14ac:dyDescent="0.2">
       <c r="B125" s="13">
         <v>10.790109715083961</v>
       </c>
@@ -24727,8 +24826,9 @@
       <c r="FH125" s="25"/>
       <c r="FI125" s="25"/>
       <c r="FJ125" s="25"/>
+      <c r="FK125" s="25"/>
     </row>
-    <row r="126" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:167" x14ac:dyDescent="0.2">
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
@@ -24894,8 +24994,9 @@
       <c r="FH126" s="25"/>
       <c r="FI126" s="25"/>
       <c r="FJ126" s="25"/>
+      <c r="FK126" s="25"/>
     </row>
-    <row r="127" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
         <v>10</v>
       </c>
@@ -25394,8 +25495,11 @@
       <c r="FJ127" s="25">
         <v>100</v>
       </c>
+      <c r="FK127" s="25">
+        <v>100</v>
+      </c>
     </row>
-    <row r="128" spans="1:166" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:167" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="13">
         <v>0</v>
       </c>
@@ -25555,7 +25659,7 @@
       <c r="EZ128" s="13"/>
       <c r="FA128" s="13"/>
     </row>
-    <row r="129" spans="1:166" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:167" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" s="13">
         <v>0</v>
       </c>
@@ -25715,7 +25819,7 @@
       <c r="EZ129" s="13"/>
       <c r="FA129" s="13"/>
     </row>
-    <row r="130" spans="1:166" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:167" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" s="13">
         <v>0</v>
       </c>
@@ -25875,7 +25979,7 @@
       <c r="EZ130" s="13"/>
       <c r="FA130" s="13"/>
     </row>
-    <row r="131" spans="1:166" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:167" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" s="13">
         <v>0</v>
       </c>
@@ -26035,7 +26139,7 @@
       <c r="EZ131" s="13"/>
       <c r="FA131" s="13"/>
     </row>
-    <row r="132" spans="1:166" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:167" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -26202,34 +26306,35 @@
       <c r="FH132" s="9"/>
       <c r="FI132" s="9"/>
       <c r="FJ132" s="9"/>
+      <c r="FK132" s="9"/>
     </row>
-    <row r="133" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="139" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="FC139" s="3"/>
       <c r="FD139" s="3"/>
       <c r="FE139" s="3"/>
     </row>
-    <row r="140" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>46</v>
       </c>
@@ -26237,7 +26342,7 @@
       <c r="FD140" s="3"/>
       <c r="FE140" s="3"/>
     </row>
-    <row r="141" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
         <v>81</v>
       </c>
@@ -26245,7 +26350,7 @@
       <c r="FD141" s="3"/>
       <c r="FE141" s="3"/>
     </row>
-    <row r="142" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>54</v>
       </c>
@@ -26253,13 +26358,13 @@
       <c r="FD142" s="3"/>
       <c r="FE142" s="3"/>
     </row>
-    <row r="143" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="FC143" s="3"/>
       <c r="FD143" s="3"/>
       <c r="FE143" s="3"/>
     </row>
-    <row r="144" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144" s="30">
         <v>1981</v>
@@ -26507,11 +26612,12 @@
       <c r="FG144" s="30"/>
       <c r="FH144" s="30"/>
       <c r="FI144" s="30"/>
-      <c r="FJ144" s="29">
+      <c r="FJ144" s="30">
         <v>2022</v>
       </c>
+      <c r="FK144" s="30"/>
     </row>
-    <row r="145" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
         <v>14</v>
       </c>
@@ -27010,11 +27116,14 @@
       <c r="FJ145" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="FK145" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="146" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:167" x14ac:dyDescent="0.2">
       <c r="FB146" s="2"/>
     </row>
-    <row r="147" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>1</v>
       </c>
@@ -27511,10 +27620,13 @@
         <v>75.438137710899184</v>
       </c>
       <c r="FJ147" s="25">
-        <v>75.278255380066526</v>
+        <v>75.292315646687186</v>
+      </c>
+      <c r="FK147" s="25">
+        <v>68.164770953663421</v>
       </c>
     </row>
-    <row r="148" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>2</v>
       </c>
@@ -28011,10 +28123,13 @@
         <v>13.136970722408483</v>
       </c>
       <c r="FJ148" s="25">
-        <v>14.578207294534588</v>
+        <v>14.593939160003247</v>
+      </c>
+      <c r="FK148" s="25">
+        <v>18.114113815884746</v>
       </c>
     </row>
-    <row r="149" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>3</v>
       </c>
@@ -28511,10 +28626,13 @@
         <v>21.995009860722252</v>
       </c>
       <c r="FJ149" s="25">
-        <v>22.176196880236105</v>
+        <v>22.284810436187101</v>
+      </c>
+      <c r="FK149" s="25">
+        <v>27.720734880987781</v>
       </c>
     </row>
-    <row r="150" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>4</v>
       </c>
@@ -29011,10 +29129,13 @@
         <v>24.051337949270749</v>
       </c>
       <c r="FJ150" s="25">
-        <v>29.373174310413546</v>
+        <v>29.430384002214112</v>
+      </c>
+      <c r="FK150" s="25">
+        <v>27.16777675658038</v>
       </c>
     </row>
-    <row r="151" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>5</v>
       </c>
@@ -29511,10 +29632,13 @@
         <v>34.877412269164708</v>
       </c>
       <c r="FJ151" s="25">
-        <v>40.973597324677357</v>
+        <v>40.933233423288392</v>
+      </c>
+      <c r="FK151" s="25">
+        <v>40.179716113268185</v>
       </c>
     </row>
-    <row r="152" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:167" x14ac:dyDescent="0.2">
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
       <c r="D152" s="13"/>
@@ -29680,8 +29804,9 @@
       <c r="FH152" s="25"/>
       <c r="FI152" s="25"/>
       <c r="FJ152" s="25"/>
+      <c r="FK152" s="25"/>
     </row>
-    <row r="153" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:167" x14ac:dyDescent="0.2">
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
       <c r="D153" s="13"/>
@@ -29847,8 +29972,9 @@
       <c r="FH153" s="25"/>
       <c r="FI153" s="25"/>
       <c r="FJ153" s="25"/>
+      <c r="FK153" s="25"/>
     </row>
-    <row r="154" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="s">
         <v>10</v>
       </c>
@@ -30347,8 +30473,11 @@
       <c r="FJ154" s="25">
         <v>100</v>
       </c>
+      <c r="FK154" s="25">
+        <v>100</v>
+      </c>
     </row>
-    <row r="155" spans="1:166" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:167" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
       <c r="D155" s="13"/>
@@ -30506,7 +30635,7 @@
       <c r="EZ155" s="13"/>
       <c r="FA155" s="13"/>
     </row>
-    <row r="156" spans="1:166" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:167" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
       <c r="D156" s="13"/>
@@ -30664,7 +30793,7 @@
       <c r="EZ156" s="13"/>
       <c r="FA156" s="13"/>
     </row>
-    <row r="157" spans="1:166" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:167" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
       <c r="D157" s="13"/>
@@ -30822,7 +30951,7 @@
       <c r="EZ157" s="13"/>
       <c r="FA157" s="13"/>
     </row>
-    <row r="158" spans="1:166" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:167" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
       <c r="D158" s="13"/>
@@ -30980,7 +31109,7 @@
       <c r="EZ158" s="13"/>
       <c r="FA158" s="13"/>
     </row>
-    <row r="159" spans="1:166" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:167" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
@@ -31147,31 +31276,32 @@
       <c r="FH159" s="9"/>
       <c r="FI159" s="9"/>
       <c r="FJ159" s="9"/>
+      <c r="FK159" s="9"/>
     </row>
-    <row r="160" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="166" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
     </row>
-    <row r="167" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>47</v>
       </c>
@@ -31179,7 +31309,7 @@
       <c r="FD167" s="3"/>
       <c r="FE167" s="3"/>
     </row>
-    <row r="168" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A168" s="11" t="s">
         <v>81</v>
       </c>
@@ -31187,7 +31317,7 @@
       <c r="FD168" s="3"/>
       <c r="FE168" s="3"/>
     </row>
-    <row r="169" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>11</v>
       </c>
@@ -31195,13 +31325,13 @@
       <c r="FD169" s="3"/>
       <c r="FE169" s="3"/>
     </row>
-    <row r="170" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="FC170" s="3"/>
       <c r="FD170" s="3"/>
       <c r="FE170" s="3"/>
     </row>
-    <row r="171" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
       <c r="B171" s="30">
         <v>1981</v>
@@ -31449,11 +31579,12 @@
       <c r="FG171" s="30"/>
       <c r="FH171" s="30"/>
       <c r="FI171" s="30"/>
-      <c r="FJ171" s="29">
+      <c r="FJ171" s="30">
         <v>2022</v>
       </c>
+      <c r="FK171" s="30"/>
     </row>
-    <row r="172" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
         <v>13</v>
       </c>
@@ -31952,11 +32083,14 @@
       <c r="FJ172" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="FK172" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="173" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:167" x14ac:dyDescent="0.2">
       <c r="FB173" s="2"/>
     </row>
-    <row r="174" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:167" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="15" t="s">
         <v>74</v>
       </c>
@@ -32453,10 +32587,13 @@
         <v>580203.38279120834</v>
       </c>
       <c r="FJ174" s="27">
-        <v>499949.48450260761</v>
+        <v>499729.71965406463</v>
+      </c>
+      <c r="FK174" s="27">
+        <v>480455.61832376767</v>
       </c>
     </row>
-    <row r="175" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:167" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="15" t="s">
         <v>75</v>
       </c>
@@ -32953,10 +33090,13 @@
         <v>1760803.3065914132</v>
       </c>
       <c r="FJ175" s="27">
-        <v>1482187.9065805941</v>
+        <v>1487489.0816237414</v>
+      </c>
+      <c r="FK175" s="27">
+        <v>1649021.5654825498</v>
       </c>
     </row>
-    <row r="176" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:167" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="15" t="s">
         <v>76</v>
       </c>
@@ -33453,10 +33593,13 @@
         <v>3321516.5359003381</v>
       </c>
       <c r="FJ176" s="27">
-        <v>2948249.3937292397</v>
+        <v>2941443.4758650111</v>
+      </c>
+      <c r="FK176" s="27">
+        <v>3264613.5707457666</v>
       </c>
     </row>
-    <row r="177" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A177" s="16"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -33623,8 +33766,9 @@
       <c r="FH177" s="7"/>
       <c r="FI177" s="7"/>
       <c r="FJ177" s="7"/>
+      <c r="FK177" s="7"/>
     </row>
-    <row r="178" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>10</v>
       </c>
@@ -34121,10 +34265,13 @@
         <v>5662523.2252829596</v>
       </c>
       <c r="FJ178" s="7">
-        <v>4930386.7848124411</v>
+        <v>4928662.2771428172</v>
+      </c>
+      <c r="FK178" s="7">
+        <v>5394090.754552084</v>
       </c>
     </row>
-    <row r="179" spans="1:166" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:167" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
@@ -34288,7 +34435,7 @@
         <v>-24370.119758612476</v>
       </c>
     </row>
-    <row r="180" spans="1:166" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:167" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
@@ -34448,7 +34595,7 @@
       <c r="FB180" s="7"/>
       <c r="FC180" s="7"/>
     </row>
-    <row r="181" spans="1:166" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:167" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
@@ -34612,7 +34759,7 @@
         <v>4857262.3839106075</v>
       </c>
     </row>
-    <row r="182" spans="1:166" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:167" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
@@ -34770,7 +34917,7 @@
       <c r="EZ182" s="7"/>
       <c r="FA182" s="7"/>
     </row>
-    <row r="183" spans="1:166" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:167" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="9"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
@@ -34937,35 +35084,36 @@
       <c r="FH183" s="9"/>
       <c r="FI183" s="9"/>
       <c r="FJ183" s="9"/>
+      <c r="FK183" s="9"/>
     </row>
-    <row r="184" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:167" x14ac:dyDescent="0.2">
       <c r="E185" s="10"/>
       <c r="I185" s="10"/>
     </row>
-    <row r="186" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:167" x14ac:dyDescent="0.2">
       <c r="FB186" s="17"/>
       <c r="FC186" s="17"/>
     </row>
-    <row r="187" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>8</v>
       </c>
       <c r="FB187" s="18"/>
       <c r="FC187" s="17"/>
     </row>
-    <row r="188" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>9</v>
       </c>
       <c r="FB188" s="18"/>
       <c r="FC188" s="17"/>
     </row>
-    <row r="189" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:167" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>80</v>
       </c>
@@ -35126,7 +35274,7 @@
       <c r="EZ189" s="2"/>
       <c r="FA189" s="2"/>
     </row>
-    <row r="190" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:167" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -35285,7 +35433,7 @@
       <c r="EZ190" s="2"/>
       <c r="FA190" s="2"/>
     </row>
-    <row r="191" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:167" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>48</v>
       </c>
@@ -35446,7 +35594,7 @@
       <c r="EZ191" s="2"/>
       <c r="FA191" s="2"/>
     </row>
-    <row r="192" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:167" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="11" t="s">
         <v>81</v>
       </c>
@@ -35607,7 +35755,7 @@
       <c r="EZ192" s="2"/>
       <c r="FA192" s="2"/>
     </row>
-    <row r="193" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:167" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>12</v>
       </c>
@@ -35768,7 +35916,7 @@
       <c r="EZ193" s="2"/>
       <c r="FA193" s="2"/>
     </row>
-    <row r="194" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:167" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -35927,7 +36075,7 @@
       <c r="EZ194" s="2"/>
       <c r="FA194" s="2"/>
     </row>
-    <row r="195" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:167" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
       <c r="B195" s="30">
         <v>1981</v>
@@ -36175,11 +36323,12 @@
       <c r="FG195" s="30"/>
       <c r="FH195" s="30"/>
       <c r="FI195" s="30"/>
-      <c r="FJ195" s="29">
+      <c r="FJ195" s="30">
         <v>2022</v>
       </c>
+      <c r="FK195" s="30"/>
     </row>
-    <row r="196" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:167" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
         <v>13</v>
       </c>
@@ -36678,11 +36827,14 @@
       <c r="FJ196" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="FK196" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="197" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:167" x14ac:dyDescent="0.2">
       <c r="FB197" s="2"/>
     </row>
-    <row r="198" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:167" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="15" t="s">
         <v>74</v>
       </c>
@@ -37179,10 +37331,13 @@
         <v>527113.01255792379</v>
       </c>
       <c r="FJ198" s="27">
-        <v>434737.44798320159</v>
+        <v>434771.79709026119</v>
+      </c>
+      <c r="FK198" s="27">
+        <v>416884.86648751615</v>
       </c>
     </row>
-    <row r="199" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:167" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="15" t="s">
         <v>75</v>
       </c>
@@ -37679,10 +37834,13 @@
         <v>1622734.0636805661</v>
       </c>
       <c r="FJ199" s="27">
-        <v>1416525.8084929781</v>
+        <v>1417272.5289265472</v>
+      </c>
+      <c r="FK199" s="27">
+        <v>1522720.0033094487</v>
       </c>
     </row>
-    <row r="200" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:167" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="15" t="s">
         <v>76</v>
       </c>
@@ -38179,10 +38337,13 @@
         <v>3051654.1577057461</v>
       </c>
       <c r="FJ200" s="27">
-        <v>2766869.7218460906</v>
+        <v>2761110.4318308653</v>
+      </c>
+      <c r="FK200" s="27">
+        <v>3050534.609601974</v>
       </c>
     </row>
-    <row r="201" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:167" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="16"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -38349,8 +38510,9 @@
       <c r="FH201" s="27"/>
       <c r="FI201" s="27"/>
       <c r="FJ201" s="27"/>
+      <c r="FK201" s="7"/>
     </row>
-    <row r="202" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:167" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>10</v>
       </c>
@@ -38847,10 +39009,13 @@
         <v>5201501.2339442354</v>
       </c>
       <c r="FJ202" s="27">
-        <v>4618132.9783222703</v>
+        <v>4613154.7578476742</v>
+      </c>
+      <c r="FK202" s="7">
+        <v>4990139.4793989388</v>
       </c>
     </row>
-    <row r="203" spans="1:166" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:167" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
@@ -39014,8 +39179,9 @@
       <c r="FC203" s="7">
         <v>-24370.119758612476</v>
       </c>
+      <c r="FK203" s="2"/>
     </row>
-    <row r="204" spans="1:166" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:167" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -39175,8 +39341,9 @@
       <c r="FA204" s="7"/>
       <c r="FB204" s="7"/>
       <c r="FC204" s="7"/>
+      <c r="FK204" s="2"/>
     </row>
-    <row r="205" spans="1:166" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:167" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
@@ -39340,8 +39507,9 @@
       <c r="FC205" s="7">
         <v>4857262.3839106075</v>
       </c>
+      <c r="FK205" s="2"/>
     </row>
-    <row r="206" spans="1:166" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:167" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
@@ -39500,8 +39668,9 @@
       <c r="EZ206" s="7"/>
       <c r="FA206" s="7"/>
       <c r="FC206" s="2"/>
+      <c r="FK206" s="2"/>
     </row>
-    <row r="207" spans="1:166" s="3" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:167" s="3" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="9"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
@@ -39668,19 +39837,20 @@
       <c r="FH207" s="9"/>
       <c r="FI207" s="9"/>
       <c r="FJ207" s="9"/>
+      <c r="FK207" s="9"/>
     </row>
-    <row r="208" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:163" x14ac:dyDescent="0.2">
       <c r="FB210" s="20"/>
       <c r="FC210" s="20"/>
       <c r="FD210" s="20"/>
       <c r="FE210" s="20"/>
     </row>
-    <row r="211" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>8</v>
       </c>
@@ -39689,7 +39859,7 @@
       <c r="FD211" s="20"/>
       <c r="FE211" s="20"/>
     </row>
-    <row r="212" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>7</v>
       </c>
@@ -39698,7 +39868,7 @@
       <c r="FD212" s="20"/>
       <c r="FE212" s="20"/>
     </row>
-    <row r="213" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>80</v>
       </c>
@@ -39707,10 +39877,10 @@
       <c r="FD213" s="20"/>
       <c r="FE213" s="20"/>
     </row>
-    <row r="214" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
     </row>
-    <row r="215" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>49</v>
       </c>
@@ -39718,7 +39888,7 @@
       <c r="FD215" s="3"/>
       <c r="FE215" s="3"/>
     </row>
-    <row r="216" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A216" s="11" t="s">
         <v>82</v>
       </c>
@@ -39726,7 +39896,7 @@
       <c r="FD216" s="3"/>
       <c r="FE216" s="3"/>
     </row>
-    <row r="217" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>19</v>
       </c>
@@ -39734,14 +39904,15 @@
       <c r="FD217" s="3"/>
       <c r="FE217" s="3"/>
     </row>
-    <row r="218" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="FC218" s="3"/>
       <c r="FD218" s="3"/>
       <c r="FE218" s="3"/>
       <c r="FF218" s="9"/>
+      <c r="FG218" s="9"/>
     </row>
-    <row r="219" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
       <c r="B219" s="30" t="s">
         <v>55</v>
@@ -39983,11 +40154,12 @@
       <c r="FC219" s="30"/>
       <c r="FD219" s="30"/>
       <c r="FE219" s="30"/>
-      <c r="FF219" s="32" t="s">
+      <c r="FF219" s="31" t="s">
         <v>79</v>
       </c>
+      <c r="FG219" s="31"/>
     </row>
-    <row r="220" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
         <v>13</v>
       </c>
@@ -40474,12 +40646,15 @@
       <c r="FF220" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="FG220" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="221" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:163" x14ac:dyDescent="0.2">
       <c r="FB221" s="2"/>
       <c r="FF221" s="28"/>
     </row>
-    <row r="222" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A222" s="15" t="s">
         <v>74</v>
       </c>
@@ -40963,11 +41138,14 @@
       <c r="FE222" s="25">
         <v>5.151601791140223</v>
       </c>
-      <c r="FF222" s="31">
-        <v>2.7168214632574461</v>
+      <c r="FF222" s="29">
+        <v>2.6716698081174428</v>
+      </c>
+      <c r="FG222" s="29">
+        <v>5.8429631187493669</v>
       </c>
     </row>
-    <row r="223" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A223" s="15" t="s">
         <v>75</v>
       </c>
@@ -41451,11 +41629,14 @@
       <c r="FE223" s="25">
         <v>11.366154766692404</v>
       </c>
-      <c r="FF223" s="31">
-        <v>19.357690569971808</v>
+      <c r="FF223" s="29">
+        <v>19.78458381855927</v>
+      </c>
+      <c r="FG223" s="29">
+        <v>15.119091543678365</v>
       </c>
     </row>
-    <row r="224" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A224" s="15" t="s">
         <v>76</v>
       </c>
@@ -41939,11 +42120,14 @@
       <c r="FE224" s="25">
         <v>9.7629755619983172</v>
       </c>
-      <c r="FF224" s="31">
-        <v>11.526217363004605</v>
+      <c r="FF224" s="29">
+        <v>11.268763473013081</v>
+      </c>
+      <c r="FG224" s="29">
+        <v>13.147940419255917</v>
       </c>
     </row>
-    <row r="225" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A225" s="16"/>
       <c r="B225" s="13"/>
       <c r="C225" s="13"/>
@@ -42105,9 +42289,10 @@
       <c r="FC225" s="25"/>
       <c r="FD225" s="25"/>
       <c r="FE225" s="25"/>
-      <c r="FF225" s="31"/>
+      <c r="FF225" s="29"/>
+      <c r="FG225" s="29"/>
     </row>
-    <row r="226" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>10</v>
       </c>
@@ -42591,11 +42776,14 @@
       <c r="FE226" s="25">
         <v>9.761099622005645</v>
       </c>
-      <c r="FF226" s="31">
-        <v>12.769879670184679</v>
+      <c r="FF226" s="29">
+        <v>12.730436005644435</v>
+      </c>
+      <c r="FG226" s="29">
+        <v>13.04474859764187</v>
       </c>
     </row>
-    <row r="227" spans="1:162" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:163" hidden="1" x14ac:dyDescent="0.2">
       <c r="B227" s="13"/>
       <c r="C227" s="13"/>
       <c r="D227" s="13"/>
@@ -42755,9 +42943,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="FB227" s="2"/>
-      <c r="FF227" s="31"/>
+      <c r="FF227" s="29"/>
+      <c r="FG227" s="29"/>
     </row>
-    <row r="228" spans="1:162" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:163" hidden="1" x14ac:dyDescent="0.2">
       <c r="B228" s="13"/>
       <c r="C228" s="13"/>
       <c r="D228" s="13"/>
@@ -42917,9 +43106,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="FB228" s="2"/>
-      <c r="FF228" s="31"/>
+      <c r="FF228" s="29"/>
+      <c r="FG228" s="29"/>
     </row>
-    <row r="229" spans="1:162" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:163" hidden="1" x14ac:dyDescent="0.2">
       <c r="B229" s="13"/>
       <c r="C229" s="13"/>
       <c r="D229" s="13"/>
@@ -43079,9 +43269,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="FB229" s="2"/>
-      <c r="FF229" s="31"/>
+      <c r="FF229" s="29"/>
+      <c r="FG229" s="29"/>
     </row>
-    <row r="230" spans="1:162" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:163" hidden="1" x14ac:dyDescent="0.2">
       <c r="B230" s="13"/>
       <c r="C230" s="13"/>
       <c r="D230" s="13"/>
@@ -43242,7 +43433,7 @@
       </c>
       <c r="FB230" s="2"/>
     </row>
-    <row r="231" spans="1:162" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:163" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="9"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
@@ -43405,65 +43596,67 @@
       <c r="FD231" s="9"/>
       <c r="FE231" s="9"/>
       <c r="FF231" s="9"/>
+      <c r="FG231" s="9"/>
     </row>
-    <row r="232" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>0</v>
       </c>
       <c r="FB232" s="2"/>
     </row>
-    <row r="233" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:163" x14ac:dyDescent="0.2">
       <c r="FB233" s="2"/>
     </row>
-    <row r="234" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:163" x14ac:dyDescent="0.2">
       <c r="FB234" s="2"/>
     </row>
-    <row r="235" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>8</v>
       </c>
       <c r="FB235" s="2"/>
     </row>
-    <row r="236" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>7</v>
       </c>
       <c r="FB236" s="2"/>
     </row>
-    <row r="237" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>80</v>
       </c>
       <c r="FB237" s="2"/>
     </row>
-    <row r="238" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="FB238" s="2"/>
     </row>
-    <row r="239" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>50</v>
       </c>
       <c r="FB239" s="2"/>
     </row>
-    <row r="240" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A240" s="11" t="s">
         <v>82</v>
       </c>
       <c r="FB240" s="2"/>
     </row>
-    <row r="241" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>20</v>
       </c>
       <c r="FB241" s="2"/>
     </row>
-    <row r="242" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="FB242" s="2"/>
       <c r="FF242" s="9"/>
+      <c r="FG242" s="9"/>
     </row>
-    <row r="243" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
       <c r="B243" s="30" t="s">
         <v>55</v>
@@ -43705,11 +43898,12 @@
       <c r="FC243" s="30"/>
       <c r="FD243" s="30"/>
       <c r="FE243" s="30"/>
-      <c r="FF243" s="32" t="s">
+      <c r="FF243" s="31" t="s">
         <v>79</v>
       </c>
+      <c r="FG243" s="31"/>
     </row>
-    <row r="244" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
         <v>13</v>
       </c>
@@ -44196,12 +44390,15 @@
       <c r="FF244" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="FG244" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="245" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:163" x14ac:dyDescent="0.2">
       <c r="FB245" s="2"/>
       <c r="FF245" s="28"/>
     </row>
-    <row r="246" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A246" s="15" t="s">
         <v>74</v>
       </c>
@@ -44685,11 +44882,14 @@
       <c r="FE246" s="25">
         <v>1.4127033945787701</v>
       </c>
-      <c r="FF246" s="31">
-        <v>0.16126962018665836</v>
+      <c r="FF246" s="29">
+        <v>0.16918347759499852</v>
+      </c>
+      <c r="FG246" s="29">
+        <v>0.19869540788812401</v>
       </c>
     </row>
-    <row r="247" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A247" s="15" t="s">
         <v>75</v>
       </c>
@@ -45173,11 +45373,14 @@
       <c r="FE247" s="25">
         <v>9.5813848958039074</v>
       </c>
-      <c r="FF247" s="31">
-        <v>10.425563044472881</v>
+      <c r="FF247" s="29">
+        <v>10.483773790665651</v>
+      </c>
+      <c r="FG247" s="29">
+        <v>6.2609560803309989</v>
       </c>
     </row>
-    <row r="248" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A248" s="15" t="s">
         <v>76</v>
       </c>
@@ -45661,11 +45864,14 @@
       <c r="FE248" s="25">
         <v>8.024030773896456</v>
       </c>
-      <c r="FF248" s="31">
-        <v>8.5686868845846931</v>
+      <c r="FF248" s="29">
+        <v>8.3426991738502494</v>
+      </c>
+      <c r="FG248" s="29">
+        <v>9.0850216927865972</v>
       </c>
     </row>
-    <row r="249" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A249" s="16"/>
       <c r="B249" s="13"/>
       <c r="C249" s="13"/>
@@ -45827,9 +46033,10 @@
       <c r="FC249" s="25"/>
       <c r="FD249" s="25"/>
       <c r="FE249" s="25"/>
-      <c r="FF249" s="31"/>
+      <c r="FF249" s="29"/>
+      <c r="FG249" s="29"/>
     </row>
-    <row r="250" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>10</v>
       </c>
@@ -46313,11 +46520,14 @@
       <c r="FE250" s="25">
         <v>7.789828435863285</v>
       </c>
-      <c r="FF250" s="31">
-        <v>8.271603637746864</v>
+      <c r="FF250" s="29">
+        <v>8.1548898236196266</v>
+      </c>
+      <c r="FG250" s="29">
+        <v>7.4180189734504012</v>
       </c>
     </row>
-    <row r="251" spans="1:162" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:163" hidden="1" x14ac:dyDescent="0.2">
       <c r="B251" s="13"/>
       <c r="C251" s="13"/>
       <c r="D251" s="13"/>
@@ -46476,9 +46686,10 @@
       <c r="EY251" s="7">
         <v>-24370.119758612476</v>
       </c>
-      <c r="FF251" s="31"/>
+      <c r="FF251" s="29"/>
+      <c r="FG251" s="29"/>
     </row>
-    <row r="252" spans="1:162" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:163" hidden="1" x14ac:dyDescent="0.2">
       <c r="B252" s="13"/>
       <c r="C252" s="13"/>
       <c r="D252" s="13"/>
@@ -46633,9 +46844,10 @@
       <c r="EW252" s="13"/>
       <c r="EX252" s="7"/>
       <c r="EY252" s="7"/>
-      <c r="FF252" s="31"/>
+      <c r="FF252" s="29"/>
+      <c r="FG252" s="29"/>
     </row>
-    <row r="253" spans="1:162" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:163" hidden="1" x14ac:dyDescent="0.2">
       <c r="B253" s="13"/>
       <c r="C253" s="13"/>
       <c r="D253" s="13"/>
@@ -46794,9 +47006,10 @@
       <c r="EY253" s="7">
         <v>4857262.3839106075</v>
       </c>
-      <c r="FF253" s="31"/>
+      <c r="FF253" s="29"/>
+      <c r="FG253" s="29"/>
     </row>
-    <row r="254" spans="1:162" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:163" hidden="1" x14ac:dyDescent="0.2">
       <c r="B254" s="13"/>
       <c r="C254" s="13"/>
       <c r="D254" s="13"/>
@@ -46951,7 +47164,7 @@
       <c r="EW254" s="13"/>
       <c r="EX254" s="3"/>
     </row>
-    <row r="255" spans="1:162" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:163" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="9"/>
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
@@ -47114,49 +47327,50 @@
       <c r="FD255" s="9"/>
       <c r="FE255" s="9"/>
       <c r="FF255" s="9"/>
+      <c r="FG255" s="9"/>
     </row>
-    <row r="256" spans="1:162" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="262" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
     </row>
-    <row r="263" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="264" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A264" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="265" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="266" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
     </row>
-    <row r="267" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="B267" s="30">
         <v>1981</v>
@@ -47404,11 +47618,12 @@
       <c r="FG267" s="30"/>
       <c r="FH267" s="30"/>
       <c r="FI267" s="30"/>
-      <c r="FJ267" s="29">
+      <c r="FJ267" s="30">
         <v>2022</v>
       </c>
+      <c r="FK267" s="30"/>
     </row>
-    <row r="268" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A268" s="5" t="s">
         <v>13</v>
       </c>
@@ -47907,11 +48122,14 @@
       <c r="FJ268" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="FK268" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="269" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:167" x14ac:dyDescent="0.2">
       <c r="FB269" s="2"/>
     </row>
-    <row r="270" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A270" s="15" t="s">
         <v>74</v>
       </c>
@@ -48408,10 +48626,13 @@
         <v>10.246375329652007</v>
       </c>
       <c r="FJ270" s="25">
-        <v>10.140167624224768</v>
+        <v>10.139256689824601</v>
+      </c>
+      <c r="FK270" s="25">
+        <v>8.9070733175616343</v>
       </c>
     </row>
-    <row r="271" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A271" s="15" t="s">
         <v>75</v>
       </c>
@@ -48908,10 +49129,13 @@
         <v>31.095736591939982</v>
       </c>
       <c r="FJ271" s="25">
-        <v>30.062304871218714</v>
+        <v>30.180381571732482</v>
+      </c>
+      <c r="FK271" s="25">
+        <v>30.57089026711197</v>
       </c>
     </row>
-    <row r="272" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:167" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" s="15" t="s">
         <v>76</v>
       </c>
@@ -49408,10 +49632,13 @@
         <v>58.657888078408014</v>
       </c>
       <c r="FJ272" s="26">
-        <v>59.797527504556527</v>
+        <v>59.680361738442912</v>
+      </c>
+      <c r="FK272" s="26">
+        <v>60.522036415326397</v>
       </c>
     </row>
-    <row r="273" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:167" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A273" s="16"/>
       <c r="B273" s="13"/>
       <c r="C273" s="13"/>
@@ -49578,8 +49805,9 @@
       <c r="FH273" s="26"/>
       <c r="FI273" s="26"/>
       <c r="FJ273" s="26"/>
+      <c r="FK273" s="26"/>
     </row>
-    <row r="274" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:167" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" s="8" t="s">
         <v>10</v>
       </c>
@@ -50078,8 +50306,11 @@
       <c r="FJ274" s="26">
         <v>100</v>
       </c>
+      <c r="FK274" s="26">
+        <v>100</v>
+      </c>
     </row>
-    <row r="275" spans="1:166" s="3" customFormat="1" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:167" s="3" customFormat="1" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="2"/>
       <c r="B275" s="13"/>
       <c r="C275" s="13"/>
@@ -50244,7 +50475,7 @@
         <v>-24370.119758612476</v>
       </c>
     </row>
-    <row r="276" spans="1:166" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:167" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="2"/>
       <c r="B276" s="13"/>
       <c r="C276" s="13"/>
@@ -50405,7 +50636,7 @@
       <c r="FB276" s="7"/>
       <c r="FC276" s="7"/>
     </row>
-    <row r="277" spans="1:166" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:167" hidden="1" x14ac:dyDescent="0.2">
       <c r="B277" s="13"/>
       <c r="C277" s="13"/>
       <c r="D277" s="13"/>
@@ -50569,7 +50800,7 @@
         <v>4857262.3839106075</v>
       </c>
     </row>
-    <row r="278" spans="1:166" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:167" hidden="1" x14ac:dyDescent="0.2">
       <c r="B278" s="13"/>
       <c r="C278" s="13"/>
       <c r="D278" s="13"/>
@@ -50727,7 +50958,7 @@
       <c r="EZ278" s="13"/>
       <c r="FA278" s="13"/>
     </row>
-    <row r="279" spans="1:166" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:167" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="9"/>
       <c r="B279" s="9"/>
       <c r="C279" s="9"/>
@@ -50894,23 +51125,24 @@
       <c r="FH279" s="9"/>
       <c r="FI279" s="9"/>
       <c r="FJ279" s="9"/>
+      <c r="FK279" s="9"/>
     </row>
-    <row r="280" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>80</v>
       </c>
@@ -50918,13 +51150,13 @@
       <c r="FD285" s="3"/>
       <c r="FE285" s="3"/>
     </row>
-    <row r="286" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="FC286" s="3"/>
       <c r="FD286" s="3"/>
       <c r="FE286" s="3"/>
     </row>
-    <row r="287" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>52</v>
       </c>
@@ -50932,21 +51164,21 @@
       <c r="FD287" s="3"/>
       <c r="FE287" s="3"/>
     </row>
-    <row r="288" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A288" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="289" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="290" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
       <c r="FJ290" s="9"/>
     </row>
-    <row r="291" spans="1:166" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:167" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
       <c r="B291" s="30">
         <v>1981</v>
@@ -51194,11 +51426,12 @@
       <c r="FG291" s="30"/>
       <c r="FH291" s="30"/>
       <c r="FI291" s="30"/>
-      <c r="FJ291" s="32">
+      <c r="FJ291" s="30">
         <v>2022</v>
       </c>
+      <c r="FK291" s="30"/>
     </row>
-    <row r="292" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A292" s="5" t="s">
         <v>13</v>
       </c>
@@ -51697,11 +51930,14 @@
       <c r="FJ292" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="FK292" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="293" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:167" x14ac:dyDescent="0.2">
       <c r="FB293" s="2"/>
     </row>
-    <row r="294" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:167" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A294" s="15" t="s">
         <v>74</v>
       </c>
@@ -52198,10 +52434,13 @@
         <v>10.133863068570694</v>
       </c>
       <c r="FJ294" s="26">
-        <v>9.4137057123274559</v>
+        <v>9.4246089696134412</v>
+      </c>
+      <c r="FK294" s="26">
+        <v>8.3541726280109874</v>
       </c>
     </row>
-    <row r="295" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:167" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="15" t="s">
         <v>75</v>
       </c>
@@ -52698,10 +52937,13 @@
         <v>31.197417643407277</v>
       </c>
       <c r="FJ295" s="26">
-        <v>30.673127325311238</v>
+        <v>30.722414558400672</v>
+      </c>
+      <c r="FK295" s="26">
+        <v>30.514577991171905</v>
       </c>
     </row>
-    <row r="296" spans="1:166" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:167" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A296" s="15" t="s">
         <v>76</v>
       </c>
@@ -53198,10 +53440,13 @@
         <v>58.668719288022039</v>
       </c>
       <c r="FJ296" s="26">
-        <v>59.913166962361309</v>
+        <v>59.852976471985876</v>
+      </c>
+      <c r="FK296" s="26">
+        <v>61.13124938081711</v>
       </c>
     </row>
-    <row r="297" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A297" s="16"/>
       <c r="B297" s="13"/>
       <c r="C297" s="13"/>
@@ -53368,8 +53613,9 @@
       <c r="FH297" s="25"/>
       <c r="FI297" s="25"/>
       <c r="FJ297" s="25"/>
+      <c r="FK297" s="25"/>
     </row>
-    <row r="298" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A298" s="8" t="s">
         <v>10</v>
       </c>
@@ -53868,8 +54114,11 @@
       <c r="FJ298" s="25">
         <v>100</v>
       </c>
+      <c r="FK298" s="25">
+        <v>100</v>
+      </c>
     </row>
-    <row r="299" spans="1:166" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:167" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B299" s="13"/>
       <c r="C299" s="13"/>
       <c r="D299" s="13"/>
@@ -54033,7 +54282,7 @@
         <v>-0.58654919688841323</v>
       </c>
     </row>
-    <row r="300" spans="1:166" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:167" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B300" s="13"/>
       <c r="C300" s="13"/>
       <c r="D300" s="13"/>
@@ -54197,7 +54446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:166" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:167" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B301" s="13"/>
       <c r="C301" s="13"/>
       <c r="D301" s="13"/>
@@ -54361,7 +54610,7 @@
         <v>116.90641566717015</v>
       </c>
     </row>
-    <row r="302" spans="1:166" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:167" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B302" s="13"/>
       <c r="C302" s="13"/>
       <c r="D302" s="13"/>
@@ -54525,7 +54774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:166" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:167" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="9"/>
       <c r="B303" s="9"/>
       <c r="C303" s="9"/>
@@ -54692,8 +54941,9 @@
       <c r="FH303" s="9"/>
       <c r="FI303" s="9"/>
       <c r="FJ303" s="9"/>
+      <c r="FK303" s="9"/>
     </row>
-    <row r="304" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>0</v>
       </c>
@@ -55033,7 +55283,483 @@
       <c r="FE313" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="488">
+  <mergeCells count="500">
+    <mergeCell ref="FJ267:FK267"/>
+    <mergeCell ref="FJ291:FK291"/>
+    <mergeCell ref="FF219:FG219"/>
+    <mergeCell ref="FF243:FG243"/>
+    <mergeCell ref="FJ9:FK9"/>
+    <mergeCell ref="FJ36:FK36"/>
+    <mergeCell ref="FF63:FG63"/>
+    <mergeCell ref="FF90:FG90"/>
+    <mergeCell ref="FJ117:FK117"/>
+    <mergeCell ref="FJ144:FK144"/>
+    <mergeCell ref="FJ171:FK171"/>
+    <mergeCell ref="FJ195:FK195"/>
+    <mergeCell ref="EX63:FA63"/>
+    <mergeCell ref="EX90:FA90"/>
+    <mergeCell ref="FB117:FD117"/>
+    <mergeCell ref="FB144:FD144"/>
+    <mergeCell ref="FB171:FD171"/>
+    <mergeCell ref="FB195:FD195"/>
+    <mergeCell ref="EX195:FA195"/>
+    <mergeCell ref="EX36:FA36"/>
+    <mergeCell ref="FF9:FI9"/>
+    <mergeCell ref="FF36:FI36"/>
+    <mergeCell ref="FB63:FE63"/>
+    <mergeCell ref="FB90:FE90"/>
+    <mergeCell ref="FF117:FI117"/>
+    <mergeCell ref="FF144:FI144"/>
+    <mergeCell ref="FF171:FI171"/>
+    <mergeCell ref="FF195:FI195"/>
+    <mergeCell ref="FB9:FE9"/>
+    <mergeCell ref="EX219:EZ219"/>
+    <mergeCell ref="EX243:EZ243"/>
+    <mergeCell ref="BF291:BI291"/>
+    <mergeCell ref="BJ291:BM291"/>
+    <mergeCell ref="BN291:BQ291"/>
+    <mergeCell ref="B267:E267"/>
+    <mergeCell ref="F267:I267"/>
+    <mergeCell ref="J267:M267"/>
+    <mergeCell ref="V291:Y291"/>
+    <mergeCell ref="Z291:AC291"/>
+    <mergeCell ref="AD291:AG291"/>
+    <mergeCell ref="AH291:AK291"/>
+    <mergeCell ref="AL291:AO291"/>
+    <mergeCell ref="AP291:AS291"/>
+    <mergeCell ref="BF267:BI267"/>
+    <mergeCell ref="BJ267:BM267"/>
+    <mergeCell ref="BN267:BQ267"/>
+    <mergeCell ref="B243:E243"/>
+    <mergeCell ref="N267:Q267"/>
+    <mergeCell ref="R267:U267"/>
+    <mergeCell ref="V267:Y267"/>
+    <mergeCell ref="Z267:AC267"/>
+    <mergeCell ref="AD267:AG267"/>
+    <mergeCell ref="BR267:BU267"/>
+    <mergeCell ref="BV267:BY267"/>
+    <mergeCell ref="B291:E291"/>
+    <mergeCell ref="F291:I291"/>
+    <mergeCell ref="J291:M291"/>
+    <mergeCell ref="N291:Q291"/>
+    <mergeCell ref="R291:U291"/>
+    <mergeCell ref="AH267:AK267"/>
+    <mergeCell ref="AL267:AO267"/>
+    <mergeCell ref="AP267:AS267"/>
+    <mergeCell ref="AT267:AW267"/>
+    <mergeCell ref="AX267:BA267"/>
+    <mergeCell ref="BB267:BE267"/>
+    <mergeCell ref="BR291:BU291"/>
+    <mergeCell ref="BV291:BY291"/>
+    <mergeCell ref="AT291:AW291"/>
+    <mergeCell ref="AX291:BA291"/>
+    <mergeCell ref="BB291:BE291"/>
+    <mergeCell ref="BF243:BI243"/>
+    <mergeCell ref="BJ243:BM243"/>
+    <mergeCell ref="BN243:BQ243"/>
+    <mergeCell ref="BR243:BU243"/>
+    <mergeCell ref="BV243:BY243"/>
+    <mergeCell ref="AH243:AK243"/>
+    <mergeCell ref="AL243:AO243"/>
+    <mergeCell ref="AP243:AS243"/>
+    <mergeCell ref="AT243:AW243"/>
+    <mergeCell ref="AX243:BA243"/>
+    <mergeCell ref="BB243:BE243"/>
+    <mergeCell ref="F243:I243"/>
+    <mergeCell ref="J243:M243"/>
+    <mergeCell ref="N243:Q243"/>
+    <mergeCell ref="R243:U243"/>
+    <mergeCell ref="V243:Y243"/>
+    <mergeCell ref="Z243:AC243"/>
+    <mergeCell ref="AD243:AG243"/>
+    <mergeCell ref="AT219:AW219"/>
+    <mergeCell ref="V219:Y219"/>
+    <mergeCell ref="Z219:AC219"/>
+    <mergeCell ref="AD219:AG219"/>
+    <mergeCell ref="AH219:AK219"/>
+    <mergeCell ref="AL219:AO219"/>
+    <mergeCell ref="AP219:AS219"/>
+    <mergeCell ref="BF195:BI195"/>
+    <mergeCell ref="BJ195:BM195"/>
+    <mergeCell ref="BN195:BQ195"/>
+    <mergeCell ref="BR195:BU195"/>
+    <mergeCell ref="BV195:BY195"/>
+    <mergeCell ref="B219:E219"/>
+    <mergeCell ref="F219:I219"/>
+    <mergeCell ref="J219:M219"/>
+    <mergeCell ref="N219:Q219"/>
+    <mergeCell ref="R219:U219"/>
+    <mergeCell ref="AH195:AK195"/>
+    <mergeCell ref="AL195:AO195"/>
+    <mergeCell ref="AP195:AS195"/>
+    <mergeCell ref="AT195:AW195"/>
+    <mergeCell ref="AX195:BA195"/>
+    <mergeCell ref="BB195:BE195"/>
+    <mergeCell ref="BR219:BU219"/>
+    <mergeCell ref="BV219:BY219"/>
+    <mergeCell ref="AX219:BA219"/>
+    <mergeCell ref="BB219:BE219"/>
+    <mergeCell ref="BF219:BI219"/>
+    <mergeCell ref="BJ219:BM219"/>
+    <mergeCell ref="BN219:BQ219"/>
+    <mergeCell ref="B195:E195"/>
+    <mergeCell ref="F195:I195"/>
+    <mergeCell ref="J195:M195"/>
+    <mergeCell ref="N195:Q195"/>
+    <mergeCell ref="R195:U195"/>
+    <mergeCell ref="V195:Y195"/>
+    <mergeCell ref="Z195:AC195"/>
+    <mergeCell ref="AD195:AG195"/>
+    <mergeCell ref="AT171:AW171"/>
+    <mergeCell ref="V171:Y171"/>
+    <mergeCell ref="Z171:AC171"/>
+    <mergeCell ref="AD171:AG171"/>
+    <mergeCell ref="AH171:AK171"/>
+    <mergeCell ref="AL171:AO171"/>
+    <mergeCell ref="AP171:AS171"/>
+    <mergeCell ref="BF144:BI144"/>
+    <mergeCell ref="BJ144:BM144"/>
+    <mergeCell ref="BN144:BQ144"/>
+    <mergeCell ref="BR144:BU144"/>
+    <mergeCell ref="BV144:BY144"/>
+    <mergeCell ref="B171:E171"/>
+    <mergeCell ref="F171:I171"/>
+    <mergeCell ref="J171:M171"/>
+    <mergeCell ref="N171:Q171"/>
+    <mergeCell ref="R171:U171"/>
+    <mergeCell ref="AH144:AK144"/>
+    <mergeCell ref="AL144:AO144"/>
+    <mergeCell ref="AP144:AS144"/>
+    <mergeCell ref="AT144:AW144"/>
+    <mergeCell ref="AX144:BA144"/>
+    <mergeCell ref="BB144:BE144"/>
+    <mergeCell ref="BR171:BU171"/>
+    <mergeCell ref="BV171:BY171"/>
+    <mergeCell ref="AX171:BA171"/>
+    <mergeCell ref="BB171:BE171"/>
+    <mergeCell ref="BF171:BI171"/>
+    <mergeCell ref="BJ171:BM171"/>
+    <mergeCell ref="BN171:BQ171"/>
+    <mergeCell ref="B144:E144"/>
+    <mergeCell ref="F144:I144"/>
+    <mergeCell ref="J144:M144"/>
+    <mergeCell ref="N144:Q144"/>
+    <mergeCell ref="R144:U144"/>
+    <mergeCell ref="V144:Y144"/>
+    <mergeCell ref="Z144:AC144"/>
+    <mergeCell ref="AD144:AG144"/>
+    <mergeCell ref="AT117:AW117"/>
+    <mergeCell ref="V117:Y117"/>
+    <mergeCell ref="Z117:AC117"/>
+    <mergeCell ref="AD117:AG117"/>
+    <mergeCell ref="AH117:AK117"/>
+    <mergeCell ref="AL117:AO117"/>
+    <mergeCell ref="AP117:AS117"/>
+    <mergeCell ref="B117:E117"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="J117:M117"/>
+    <mergeCell ref="N117:Q117"/>
+    <mergeCell ref="R117:U117"/>
+    <mergeCell ref="BR117:BU117"/>
+    <mergeCell ref="BV117:BY117"/>
+    <mergeCell ref="AX117:BA117"/>
+    <mergeCell ref="BB117:BE117"/>
+    <mergeCell ref="BF117:BI117"/>
+    <mergeCell ref="BJ117:BM117"/>
+    <mergeCell ref="BN117:BQ117"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="J90:M90"/>
+    <mergeCell ref="N90:Q90"/>
+    <mergeCell ref="R90:U90"/>
+    <mergeCell ref="AH63:AK63"/>
+    <mergeCell ref="AL63:AO63"/>
+    <mergeCell ref="AP63:AS63"/>
+    <mergeCell ref="AT63:AW63"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="R63:U63"/>
+    <mergeCell ref="V63:Y63"/>
+    <mergeCell ref="Z63:AC63"/>
+    <mergeCell ref="AD63:AG63"/>
+    <mergeCell ref="AT90:AW90"/>
+    <mergeCell ref="V90:Y90"/>
+    <mergeCell ref="Z90:AC90"/>
+    <mergeCell ref="AD90:AG90"/>
+    <mergeCell ref="AH90:AK90"/>
+    <mergeCell ref="AL90:AO90"/>
+    <mergeCell ref="AP90:AS90"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="BJ36:BM36"/>
+    <mergeCell ref="BN36:BQ36"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="R36:U36"/>
+    <mergeCell ref="V36:Y36"/>
+    <mergeCell ref="Z36:AC36"/>
+    <mergeCell ref="AD36:AG36"/>
+    <mergeCell ref="AH36:AK36"/>
+    <mergeCell ref="AL36:AO36"/>
+    <mergeCell ref="AP36:AS36"/>
+    <mergeCell ref="AT36:AW36"/>
+    <mergeCell ref="AX36:BA36"/>
+    <mergeCell ref="BB36:BE36"/>
+    <mergeCell ref="BF36:BI36"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="BJ63:BM63"/>
+    <mergeCell ref="BN63:BQ63"/>
+    <mergeCell ref="BR63:BU63"/>
+    <mergeCell ref="BV63:BY63"/>
+    <mergeCell ref="AX63:BA63"/>
+    <mergeCell ref="BB63:BE63"/>
+    <mergeCell ref="BR90:BU90"/>
+    <mergeCell ref="BV90:BY90"/>
+    <mergeCell ref="AX90:BA90"/>
+    <mergeCell ref="BB90:BE90"/>
+    <mergeCell ref="BF90:BI90"/>
+    <mergeCell ref="BJ90:BM90"/>
+    <mergeCell ref="BN90:BQ90"/>
+    <mergeCell ref="EH291:EK291"/>
+    <mergeCell ref="EL291:EO291"/>
+    <mergeCell ref="EP291:ES291"/>
+    <mergeCell ref="CX267:DA267"/>
+    <mergeCell ref="DB267:DE267"/>
+    <mergeCell ref="BZ267:CC267"/>
+    <mergeCell ref="CD267:CG267"/>
+    <mergeCell ref="CH267:CK267"/>
+    <mergeCell ref="CL267:CO267"/>
+    <mergeCell ref="CP267:CS267"/>
+    <mergeCell ref="CD291:CG291"/>
+    <mergeCell ref="CH291:CK291"/>
+    <mergeCell ref="CL291:CO291"/>
+    <mergeCell ref="CP291:CS291"/>
+    <mergeCell ref="CT291:CW291"/>
+    <mergeCell ref="CX291:DA291"/>
+    <mergeCell ref="DB291:DE291"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="BZ291:CC291"/>
+    <mergeCell ref="BZ219:CC219"/>
+    <mergeCell ref="BZ171:CC171"/>
+    <mergeCell ref="BZ144:CC144"/>
+    <mergeCell ref="BZ63:CC63"/>
+    <mergeCell ref="BZ90:CC90"/>
+    <mergeCell ref="BZ36:CC36"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="BR36:BU36"/>
+    <mergeCell ref="BV36:BY36"/>
+    <mergeCell ref="BF63:BI63"/>
+    <mergeCell ref="DJ243:DM243"/>
+    <mergeCell ref="DN243:DQ243"/>
+    <mergeCell ref="CT267:CW267"/>
+    <mergeCell ref="EX291:FA291"/>
+    <mergeCell ref="DF291:DI291"/>
+    <mergeCell ref="DJ291:DM291"/>
+    <mergeCell ref="DN291:DQ291"/>
+    <mergeCell ref="DR291:DU291"/>
+    <mergeCell ref="DV291:DY291"/>
+    <mergeCell ref="DZ291:EC291"/>
+    <mergeCell ref="ET267:EW267"/>
+    <mergeCell ref="EX267:FA267"/>
+    <mergeCell ref="DV267:DY267"/>
+    <mergeCell ref="DZ267:EC267"/>
+    <mergeCell ref="ED267:EG267"/>
+    <mergeCell ref="EH267:EK267"/>
+    <mergeCell ref="EL267:EO267"/>
+    <mergeCell ref="EP267:ES267"/>
+    <mergeCell ref="DF267:DI267"/>
+    <mergeCell ref="DJ267:DM267"/>
+    <mergeCell ref="DN267:DQ267"/>
+    <mergeCell ref="DR267:DU267"/>
+    <mergeCell ref="ET291:EW291"/>
+    <mergeCell ref="ED291:EG291"/>
+    <mergeCell ref="ET219:EW219"/>
+    <mergeCell ref="BZ243:CC243"/>
+    <mergeCell ref="CD243:CG243"/>
+    <mergeCell ref="CH243:CK243"/>
+    <mergeCell ref="CL243:CO243"/>
+    <mergeCell ref="CP243:CS243"/>
+    <mergeCell ref="DF219:DI219"/>
+    <mergeCell ref="DJ219:DM219"/>
+    <mergeCell ref="DN219:DQ219"/>
+    <mergeCell ref="DR219:DU219"/>
+    <mergeCell ref="DV219:DY219"/>
+    <mergeCell ref="DZ219:EC219"/>
+    <mergeCell ref="EP243:ES243"/>
+    <mergeCell ref="ET243:EW243"/>
+    <mergeCell ref="DV243:DY243"/>
+    <mergeCell ref="DZ243:EC243"/>
+    <mergeCell ref="ED243:EG243"/>
+    <mergeCell ref="EH243:EK243"/>
+    <mergeCell ref="EL243:EO243"/>
+    <mergeCell ref="DR243:DU243"/>
+    <mergeCell ref="CT243:CW243"/>
+    <mergeCell ref="CX243:DA243"/>
+    <mergeCell ref="DB243:DE243"/>
+    <mergeCell ref="DF243:DI243"/>
+    <mergeCell ref="CD219:CG219"/>
+    <mergeCell ref="CH219:CK219"/>
+    <mergeCell ref="CL219:CO219"/>
+    <mergeCell ref="CP219:CS219"/>
+    <mergeCell ref="CT219:CW219"/>
+    <mergeCell ref="CX219:DA219"/>
+    <mergeCell ref="DB219:DE219"/>
+    <mergeCell ref="DV195:DY195"/>
+    <mergeCell ref="BZ195:CC195"/>
+    <mergeCell ref="CD195:CG195"/>
+    <mergeCell ref="ED219:EG219"/>
+    <mergeCell ref="CH195:CK195"/>
+    <mergeCell ref="CL195:CO195"/>
+    <mergeCell ref="CP195:CS195"/>
+    <mergeCell ref="CT195:CW195"/>
+    <mergeCell ref="ED171:EG171"/>
+    <mergeCell ref="EH171:EK171"/>
+    <mergeCell ref="EL171:EO171"/>
+    <mergeCell ref="EP171:ES171"/>
+    <mergeCell ref="DZ195:EC195"/>
+    <mergeCell ref="ED195:EG195"/>
+    <mergeCell ref="EH195:EK195"/>
+    <mergeCell ref="EL195:EO195"/>
+    <mergeCell ref="EP195:ES195"/>
+    <mergeCell ref="CX195:DA195"/>
+    <mergeCell ref="DB195:DE195"/>
+    <mergeCell ref="DF195:DI195"/>
+    <mergeCell ref="DJ195:DM195"/>
+    <mergeCell ref="DN195:DQ195"/>
+    <mergeCell ref="DR195:DU195"/>
+    <mergeCell ref="EH219:EK219"/>
+    <mergeCell ref="EL219:EO219"/>
+    <mergeCell ref="EP219:ES219"/>
+    <mergeCell ref="ET171:EW171"/>
+    <mergeCell ref="ET195:EW195"/>
+    <mergeCell ref="EX171:FA171"/>
+    <mergeCell ref="DF171:DI171"/>
+    <mergeCell ref="DJ171:DM171"/>
+    <mergeCell ref="DN171:DQ171"/>
+    <mergeCell ref="DR171:DU171"/>
+    <mergeCell ref="DV171:DY171"/>
+    <mergeCell ref="DZ171:EC171"/>
+    <mergeCell ref="CD171:CG171"/>
+    <mergeCell ref="CH171:CK171"/>
+    <mergeCell ref="CL171:CO171"/>
+    <mergeCell ref="CP171:CS171"/>
+    <mergeCell ref="CT171:CW171"/>
+    <mergeCell ref="CX171:DA171"/>
+    <mergeCell ref="DB171:DE171"/>
+    <mergeCell ref="DV144:DY144"/>
+    <mergeCell ref="CX144:DA144"/>
+    <mergeCell ref="DB144:DE144"/>
+    <mergeCell ref="DF144:DI144"/>
+    <mergeCell ref="DJ144:DM144"/>
+    <mergeCell ref="DN144:DQ144"/>
+    <mergeCell ref="DR144:DU144"/>
+    <mergeCell ref="CD144:CG144"/>
+    <mergeCell ref="CH144:CK144"/>
+    <mergeCell ref="CL144:CO144"/>
+    <mergeCell ref="CP144:CS144"/>
+    <mergeCell ref="CT144:CW144"/>
+    <mergeCell ref="BZ117:CC117"/>
+    <mergeCell ref="CD117:CG117"/>
+    <mergeCell ref="CH117:CK117"/>
+    <mergeCell ref="CL117:CO117"/>
+    <mergeCell ref="CP117:CS117"/>
+    <mergeCell ref="CT117:CW117"/>
+    <mergeCell ref="CX117:DA117"/>
+    <mergeCell ref="DB117:DE117"/>
+    <mergeCell ref="ED117:EG117"/>
+    <mergeCell ref="DF117:DI117"/>
+    <mergeCell ref="DJ117:DM117"/>
+    <mergeCell ref="DN117:DQ117"/>
+    <mergeCell ref="DR117:DU117"/>
+    <mergeCell ref="DV117:DY117"/>
+    <mergeCell ref="DZ117:EC117"/>
+    <mergeCell ref="ET144:EW144"/>
+    <mergeCell ref="EX144:FA144"/>
+    <mergeCell ref="DZ144:EC144"/>
+    <mergeCell ref="ED144:EG144"/>
+    <mergeCell ref="EH144:EK144"/>
+    <mergeCell ref="EL144:EO144"/>
+    <mergeCell ref="EP144:ES144"/>
+    <mergeCell ref="EH117:EK117"/>
+    <mergeCell ref="EL117:EO117"/>
+    <mergeCell ref="EP117:ES117"/>
+    <mergeCell ref="ET117:EW117"/>
+    <mergeCell ref="EX117:FA117"/>
+    <mergeCell ref="CT90:CW90"/>
+    <mergeCell ref="CX90:DA90"/>
+    <mergeCell ref="DB90:DE90"/>
+    <mergeCell ref="CX63:DA63"/>
+    <mergeCell ref="DB63:DE63"/>
+    <mergeCell ref="CD90:CG90"/>
+    <mergeCell ref="CH90:CK90"/>
+    <mergeCell ref="CL90:CO90"/>
+    <mergeCell ref="CP90:CS90"/>
+    <mergeCell ref="CH63:CK63"/>
+    <mergeCell ref="CL63:CO63"/>
+    <mergeCell ref="CP63:CS63"/>
+    <mergeCell ref="CT63:CW63"/>
+    <mergeCell ref="DF90:DI90"/>
+    <mergeCell ref="DF63:DI63"/>
+    <mergeCell ref="DJ63:DM63"/>
+    <mergeCell ref="EL90:EO90"/>
+    <mergeCell ref="EP90:ES90"/>
+    <mergeCell ref="ET90:EW90"/>
+    <mergeCell ref="DJ90:DM90"/>
+    <mergeCell ref="DN90:DQ90"/>
+    <mergeCell ref="DR90:DU90"/>
+    <mergeCell ref="DV90:DY90"/>
+    <mergeCell ref="DZ90:EC90"/>
+    <mergeCell ref="ED90:EG90"/>
+    <mergeCell ref="ET63:EW63"/>
+    <mergeCell ref="DV63:DY63"/>
+    <mergeCell ref="DZ63:EC63"/>
+    <mergeCell ref="ED63:EG63"/>
+    <mergeCell ref="EH63:EK63"/>
+    <mergeCell ref="DN63:DQ63"/>
+    <mergeCell ref="DR63:DU63"/>
+    <mergeCell ref="ET9:EW9"/>
+    <mergeCell ref="EX9:FA9"/>
+    <mergeCell ref="DZ9:EC9"/>
+    <mergeCell ref="ED9:EG9"/>
+    <mergeCell ref="EH9:EK9"/>
+    <mergeCell ref="EL9:EO9"/>
+    <mergeCell ref="EP9:ES9"/>
+    <mergeCell ref="EH36:EK36"/>
+    <mergeCell ref="EL36:EO36"/>
+    <mergeCell ref="EP36:ES36"/>
+    <mergeCell ref="ET36:EW36"/>
+    <mergeCell ref="ED36:EG36"/>
+    <mergeCell ref="DV9:DY9"/>
+    <mergeCell ref="CX9:DA9"/>
+    <mergeCell ref="DB9:DE9"/>
+    <mergeCell ref="DF9:DI9"/>
+    <mergeCell ref="DJ9:DM9"/>
+    <mergeCell ref="DN9:DQ9"/>
+    <mergeCell ref="DR9:DU9"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CP9:CS9"/>
+    <mergeCell ref="CT9:CW9"/>
     <mergeCell ref="FB267:FD267"/>
     <mergeCell ref="FB291:FD291"/>
     <mergeCell ref="FB36:FD36"/>
@@ -55058,479 +55784,15 @@
     <mergeCell ref="EP63:ES63"/>
     <mergeCell ref="CD63:CG63"/>
     <mergeCell ref="EH90:EK90"/>
-    <mergeCell ref="DV9:DY9"/>
-    <mergeCell ref="CX9:DA9"/>
-    <mergeCell ref="DB9:DE9"/>
-    <mergeCell ref="DF9:DI9"/>
-    <mergeCell ref="DJ9:DM9"/>
-    <mergeCell ref="DN9:DQ9"/>
-    <mergeCell ref="DR9:DU9"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CP9:CS9"/>
-    <mergeCell ref="CT9:CW9"/>
-    <mergeCell ref="ET9:EW9"/>
-    <mergeCell ref="EX9:FA9"/>
-    <mergeCell ref="DZ9:EC9"/>
-    <mergeCell ref="ED9:EG9"/>
-    <mergeCell ref="EH9:EK9"/>
-    <mergeCell ref="EL9:EO9"/>
-    <mergeCell ref="EP9:ES9"/>
-    <mergeCell ref="EH36:EK36"/>
-    <mergeCell ref="EL36:EO36"/>
-    <mergeCell ref="EP36:ES36"/>
-    <mergeCell ref="ET36:EW36"/>
-    <mergeCell ref="ED36:EG36"/>
-    <mergeCell ref="DF90:DI90"/>
-    <mergeCell ref="DF63:DI63"/>
-    <mergeCell ref="DJ63:DM63"/>
-    <mergeCell ref="EL90:EO90"/>
-    <mergeCell ref="EP90:ES90"/>
-    <mergeCell ref="ET90:EW90"/>
-    <mergeCell ref="DJ90:DM90"/>
-    <mergeCell ref="DN90:DQ90"/>
-    <mergeCell ref="DR90:DU90"/>
-    <mergeCell ref="DV90:DY90"/>
-    <mergeCell ref="DZ90:EC90"/>
-    <mergeCell ref="ED90:EG90"/>
-    <mergeCell ref="CT90:CW90"/>
-    <mergeCell ref="CX90:DA90"/>
-    <mergeCell ref="DB90:DE90"/>
-    <mergeCell ref="CX63:DA63"/>
-    <mergeCell ref="DB63:DE63"/>
-    <mergeCell ref="CD90:CG90"/>
-    <mergeCell ref="CH90:CK90"/>
-    <mergeCell ref="CL90:CO90"/>
-    <mergeCell ref="CP90:CS90"/>
-    <mergeCell ref="CH63:CK63"/>
-    <mergeCell ref="CL63:CO63"/>
-    <mergeCell ref="ET144:EW144"/>
-    <mergeCell ref="EX144:FA144"/>
-    <mergeCell ref="DZ144:EC144"/>
-    <mergeCell ref="ED144:EG144"/>
-    <mergeCell ref="EH144:EK144"/>
-    <mergeCell ref="EL144:EO144"/>
-    <mergeCell ref="EP144:ES144"/>
-    <mergeCell ref="EH117:EK117"/>
-    <mergeCell ref="EL117:EO117"/>
-    <mergeCell ref="EP117:ES117"/>
-    <mergeCell ref="ET117:EW117"/>
-    <mergeCell ref="EX117:FA117"/>
-    <mergeCell ref="ET63:EW63"/>
-    <mergeCell ref="DV63:DY63"/>
-    <mergeCell ref="DZ63:EC63"/>
-    <mergeCell ref="ED63:EG63"/>
-    <mergeCell ref="EH63:EK63"/>
-    <mergeCell ref="BZ117:CC117"/>
-    <mergeCell ref="CD117:CG117"/>
-    <mergeCell ref="CH117:CK117"/>
-    <mergeCell ref="CL117:CO117"/>
-    <mergeCell ref="CP117:CS117"/>
-    <mergeCell ref="CT117:CW117"/>
-    <mergeCell ref="CX117:DA117"/>
-    <mergeCell ref="DB117:DE117"/>
-    <mergeCell ref="ED117:EG117"/>
-    <mergeCell ref="DF117:DI117"/>
-    <mergeCell ref="DJ117:DM117"/>
-    <mergeCell ref="DN117:DQ117"/>
-    <mergeCell ref="DR117:DU117"/>
-    <mergeCell ref="DV117:DY117"/>
-    <mergeCell ref="DZ117:EC117"/>
-    <mergeCell ref="DN63:DQ63"/>
-    <mergeCell ref="DR63:DU63"/>
-    <mergeCell ref="CP63:CS63"/>
-    <mergeCell ref="CT63:CW63"/>
-    <mergeCell ref="CD171:CG171"/>
-    <mergeCell ref="CH171:CK171"/>
-    <mergeCell ref="CL171:CO171"/>
-    <mergeCell ref="CP171:CS171"/>
-    <mergeCell ref="CT171:CW171"/>
-    <mergeCell ref="CX171:DA171"/>
-    <mergeCell ref="DB171:DE171"/>
-    <mergeCell ref="DV144:DY144"/>
-    <mergeCell ref="CX144:DA144"/>
-    <mergeCell ref="DB144:DE144"/>
-    <mergeCell ref="DF144:DI144"/>
-    <mergeCell ref="DJ144:DM144"/>
-    <mergeCell ref="DN144:DQ144"/>
-    <mergeCell ref="DR144:DU144"/>
-    <mergeCell ref="CD144:CG144"/>
-    <mergeCell ref="CH144:CK144"/>
-    <mergeCell ref="CL144:CO144"/>
-    <mergeCell ref="CP144:CS144"/>
-    <mergeCell ref="CT144:CW144"/>
-    <mergeCell ref="ET171:EW171"/>
-    <mergeCell ref="ET195:EW195"/>
-    <mergeCell ref="EX171:FA171"/>
-    <mergeCell ref="DF171:DI171"/>
-    <mergeCell ref="DJ171:DM171"/>
-    <mergeCell ref="DN171:DQ171"/>
-    <mergeCell ref="DR171:DU171"/>
-    <mergeCell ref="DV171:DY171"/>
-    <mergeCell ref="DZ171:EC171"/>
-    <mergeCell ref="ED219:EG219"/>
-    <mergeCell ref="CH195:CK195"/>
-    <mergeCell ref="CL195:CO195"/>
-    <mergeCell ref="CP195:CS195"/>
-    <mergeCell ref="CT195:CW195"/>
-    <mergeCell ref="ED171:EG171"/>
-    <mergeCell ref="EH171:EK171"/>
-    <mergeCell ref="EL171:EO171"/>
-    <mergeCell ref="EP171:ES171"/>
-    <mergeCell ref="DZ195:EC195"/>
-    <mergeCell ref="ED195:EG195"/>
-    <mergeCell ref="EH195:EK195"/>
-    <mergeCell ref="EL195:EO195"/>
-    <mergeCell ref="EP195:ES195"/>
-    <mergeCell ref="CX195:DA195"/>
-    <mergeCell ref="DB195:DE195"/>
-    <mergeCell ref="DF195:DI195"/>
-    <mergeCell ref="DJ195:DM195"/>
-    <mergeCell ref="DN195:DQ195"/>
-    <mergeCell ref="DR195:DU195"/>
-    <mergeCell ref="EH219:EK219"/>
-    <mergeCell ref="EL219:EO219"/>
-    <mergeCell ref="EP219:ES219"/>
-    <mergeCell ref="CD219:CG219"/>
-    <mergeCell ref="CH219:CK219"/>
-    <mergeCell ref="CL219:CO219"/>
-    <mergeCell ref="CP219:CS219"/>
-    <mergeCell ref="CT219:CW219"/>
-    <mergeCell ref="CX219:DA219"/>
-    <mergeCell ref="DB219:DE219"/>
-    <mergeCell ref="DV195:DY195"/>
-    <mergeCell ref="BZ195:CC195"/>
-    <mergeCell ref="CD195:CG195"/>
-    <mergeCell ref="ET219:EW219"/>
-    <mergeCell ref="BZ243:CC243"/>
-    <mergeCell ref="CD243:CG243"/>
-    <mergeCell ref="CH243:CK243"/>
-    <mergeCell ref="CL243:CO243"/>
-    <mergeCell ref="CP243:CS243"/>
-    <mergeCell ref="DF219:DI219"/>
-    <mergeCell ref="DJ219:DM219"/>
-    <mergeCell ref="DN219:DQ219"/>
-    <mergeCell ref="DR219:DU219"/>
-    <mergeCell ref="DV219:DY219"/>
-    <mergeCell ref="DZ219:EC219"/>
-    <mergeCell ref="EP243:ES243"/>
-    <mergeCell ref="ET243:EW243"/>
-    <mergeCell ref="DV243:DY243"/>
-    <mergeCell ref="DZ243:EC243"/>
-    <mergeCell ref="ED243:EG243"/>
-    <mergeCell ref="EH243:EK243"/>
-    <mergeCell ref="EL243:EO243"/>
-    <mergeCell ref="DR243:DU243"/>
-    <mergeCell ref="CT243:CW243"/>
-    <mergeCell ref="CX243:DA243"/>
-    <mergeCell ref="DB243:DE243"/>
-    <mergeCell ref="DF243:DI243"/>
-    <mergeCell ref="DJ243:DM243"/>
-    <mergeCell ref="DN243:DQ243"/>
-    <mergeCell ref="CT267:CW267"/>
-    <mergeCell ref="EX291:FA291"/>
-    <mergeCell ref="DF291:DI291"/>
-    <mergeCell ref="DJ291:DM291"/>
-    <mergeCell ref="DN291:DQ291"/>
-    <mergeCell ref="DR291:DU291"/>
-    <mergeCell ref="DV291:DY291"/>
-    <mergeCell ref="DZ291:EC291"/>
-    <mergeCell ref="ET267:EW267"/>
-    <mergeCell ref="EX267:FA267"/>
-    <mergeCell ref="DV267:DY267"/>
-    <mergeCell ref="DZ267:EC267"/>
-    <mergeCell ref="ED267:EG267"/>
-    <mergeCell ref="EH267:EK267"/>
-    <mergeCell ref="EL267:EO267"/>
-    <mergeCell ref="EP267:ES267"/>
-    <mergeCell ref="DF267:DI267"/>
-    <mergeCell ref="DJ267:DM267"/>
-    <mergeCell ref="DN267:DQ267"/>
-    <mergeCell ref="DR267:DU267"/>
-    <mergeCell ref="ET291:EW291"/>
-    <mergeCell ref="ED291:EG291"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="BZ291:CC291"/>
-    <mergeCell ref="BZ219:CC219"/>
-    <mergeCell ref="BZ171:CC171"/>
-    <mergeCell ref="BZ144:CC144"/>
-    <mergeCell ref="BZ63:CC63"/>
-    <mergeCell ref="BZ90:CC90"/>
-    <mergeCell ref="BZ36:CC36"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="BR36:BU36"/>
-    <mergeCell ref="BV36:BY36"/>
-    <mergeCell ref="BF63:BI63"/>
-    <mergeCell ref="EH291:EK291"/>
-    <mergeCell ref="EL291:EO291"/>
-    <mergeCell ref="EP291:ES291"/>
-    <mergeCell ref="CX267:DA267"/>
-    <mergeCell ref="DB267:DE267"/>
-    <mergeCell ref="BZ267:CC267"/>
-    <mergeCell ref="CD267:CG267"/>
-    <mergeCell ref="CH267:CK267"/>
-    <mergeCell ref="CL267:CO267"/>
-    <mergeCell ref="CP267:CS267"/>
-    <mergeCell ref="CD291:CG291"/>
-    <mergeCell ref="CH291:CK291"/>
-    <mergeCell ref="CL291:CO291"/>
-    <mergeCell ref="CP291:CS291"/>
-    <mergeCell ref="CT291:CW291"/>
-    <mergeCell ref="CX291:DA291"/>
-    <mergeCell ref="DB291:DE291"/>
-    <mergeCell ref="BJ63:BM63"/>
-    <mergeCell ref="BN63:BQ63"/>
-    <mergeCell ref="BR63:BU63"/>
-    <mergeCell ref="BV63:BY63"/>
-    <mergeCell ref="AX63:BA63"/>
-    <mergeCell ref="BB63:BE63"/>
-    <mergeCell ref="BR90:BU90"/>
-    <mergeCell ref="BV90:BY90"/>
-    <mergeCell ref="AX90:BA90"/>
-    <mergeCell ref="BB90:BE90"/>
-    <mergeCell ref="BF90:BI90"/>
-    <mergeCell ref="BJ90:BM90"/>
-    <mergeCell ref="BN90:BQ90"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="BJ36:BM36"/>
-    <mergeCell ref="BN36:BQ36"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="R36:U36"/>
-    <mergeCell ref="V36:Y36"/>
-    <mergeCell ref="Z36:AC36"/>
-    <mergeCell ref="AD36:AG36"/>
-    <mergeCell ref="AH36:AK36"/>
-    <mergeCell ref="AL36:AO36"/>
-    <mergeCell ref="AP36:AS36"/>
-    <mergeCell ref="AT36:AW36"/>
-    <mergeCell ref="AX36:BA36"/>
-    <mergeCell ref="BB36:BE36"/>
-    <mergeCell ref="BF36:BI36"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="J90:M90"/>
-    <mergeCell ref="N90:Q90"/>
-    <mergeCell ref="R90:U90"/>
-    <mergeCell ref="AH63:AK63"/>
-    <mergeCell ref="AL63:AO63"/>
-    <mergeCell ref="AP63:AS63"/>
-    <mergeCell ref="AT63:AW63"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="N63:Q63"/>
-    <mergeCell ref="R63:U63"/>
-    <mergeCell ref="V63:Y63"/>
-    <mergeCell ref="Z63:AC63"/>
-    <mergeCell ref="AD63:AG63"/>
-    <mergeCell ref="AT90:AW90"/>
-    <mergeCell ref="V90:Y90"/>
-    <mergeCell ref="Z90:AC90"/>
-    <mergeCell ref="AD90:AG90"/>
-    <mergeCell ref="AH90:AK90"/>
-    <mergeCell ref="AL90:AO90"/>
-    <mergeCell ref="AP90:AS90"/>
-    <mergeCell ref="B117:E117"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="J117:M117"/>
-    <mergeCell ref="N117:Q117"/>
-    <mergeCell ref="R117:U117"/>
-    <mergeCell ref="BR117:BU117"/>
-    <mergeCell ref="BV117:BY117"/>
-    <mergeCell ref="AX117:BA117"/>
-    <mergeCell ref="BB117:BE117"/>
-    <mergeCell ref="BF117:BI117"/>
-    <mergeCell ref="BJ117:BM117"/>
-    <mergeCell ref="BN117:BQ117"/>
-    <mergeCell ref="F144:I144"/>
-    <mergeCell ref="J144:M144"/>
-    <mergeCell ref="N144:Q144"/>
-    <mergeCell ref="R144:U144"/>
-    <mergeCell ref="V144:Y144"/>
-    <mergeCell ref="Z144:AC144"/>
-    <mergeCell ref="AD144:AG144"/>
-    <mergeCell ref="AT117:AW117"/>
-    <mergeCell ref="V117:Y117"/>
-    <mergeCell ref="Z117:AC117"/>
-    <mergeCell ref="AD117:AG117"/>
-    <mergeCell ref="AH117:AK117"/>
-    <mergeCell ref="AL117:AO117"/>
-    <mergeCell ref="AP117:AS117"/>
-    <mergeCell ref="BF144:BI144"/>
-    <mergeCell ref="BJ144:BM144"/>
-    <mergeCell ref="BN144:BQ144"/>
-    <mergeCell ref="BR144:BU144"/>
-    <mergeCell ref="BV144:BY144"/>
-    <mergeCell ref="B171:E171"/>
-    <mergeCell ref="F171:I171"/>
-    <mergeCell ref="J171:M171"/>
-    <mergeCell ref="N171:Q171"/>
-    <mergeCell ref="R171:U171"/>
-    <mergeCell ref="AH144:AK144"/>
-    <mergeCell ref="AL144:AO144"/>
-    <mergeCell ref="AP144:AS144"/>
-    <mergeCell ref="AT144:AW144"/>
-    <mergeCell ref="AX144:BA144"/>
-    <mergeCell ref="BB144:BE144"/>
-    <mergeCell ref="BR171:BU171"/>
-    <mergeCell ref="BV171:BY171"/>
-    <mergeCell ref="AX171:BA171"/>
-    <mergeCell ref="BB171:BE171"/>
-    <mergeCell ref="BF171:BI171"/>
-    <mergeCell ref="BJ171:BM171"/>
-    <mergeCell ref="BN171:BQ171"/>
-    <mergeCell ref="B144:E144"/>
-    <mergeCell ref="F195:I195"/>
-    <mergeCell ref="J195:M195"/>
-    <mergeCell ref="N195:Q195"/>
-    <mergeCell ref="R195:U195"/>
-    <mergeCell ref="V195:Y195"/>
-    <mergeCell ref="Z195:AC195"/>
-    <mergeCell ref="AD195:AG195"/>
-    <mergeCell ref="AT171:AW171"/>
-    <mergeCell ref="V171:Y171"/>
-    <mergeCell ref="Z171:AC171"/>
-    <mergeCell ref="AD171:AG171"/>
-    <mergeCell ref="AH171:AK171"/>
-    <mergeCell ref="AL171:AO171"/>
-    <mergeCell ref="AP171:AS171"/>
-    <mergeCell ref="BF195:BI195"/>
-    <mergeCell ref="BJ195:BM195"/>
-    <mergeCell ref="BN195:BQ195"/>
-    <mergeCell ref="BR195:BU195"/>
-    <mergeCell ref="BV195:BY195"/>
-    <mergeCell ref="B219:E219"/>
-    <mergeCell ref="F219:I219"/>
-    <mergeCell ref="J219:M219"/>
-    <mergeCell ref="N219:Q219"/>
-    <mergeCell ref="R219:U219"/>
-    <mergeCell ref="AH195:AK195"/>
-    <mergeCell ref="AL195:AO195"/>
-    <mergeCell ref="AP195:AS195"/>
-    <mergeCell ref="AT195:AW195"/>
-    <mergeCell ref="AX195:BA195"/>
-    <mergeCell ref="BB195:BE195"/>
-    <mergeCell ref="BR219:BU219"/>
-    <mergeCell ref="BV219:BY219"/>
-    <mergeCell ref="AX219:BA219"/>
-    <mergeCell ref="BB219:BE219"/>
-    <mergeCell ref="BF219:BI219"/>
-    <mergeCell ref="BJ219:BM219"/>
-    <mergeCell ref="BN219:BQ219"/>
-    <mergeCell ref="B195:E195"/>
-    <mergeCell ref="F243:I243"/>
-    <mergeCell ref="J243:M243"/>
-    <mergeCell ref="N243:Q243"/>
-    <mergeCell ref="R243:U243"/>
-    <mergeCell ref="V243:Y243"/>
-    <mergeCell ref="Z243:AC243"/>
-    <mergeCell ref="AD243:AG243"/>
-    <mergeCell ref="AT219:AW219"/>
-    <mergeCell ref="V219:Y219"/>
-    <mergeCell ref="Z219:AC219"/>
-    <mergeCell ref="AD219:AG219"/>
-    <mergeCell ref="AH219:AK219"/>
-    <mergeCell ref="AL219:AO219"/>
-    <mergeCell ref="AP219:AS219"/>
-    <mergeCell ref="BF243:BI243"/>
-    <mergeCell ref="BJ243:BM243"/>
-    <mergeCell ref="BN243:BQ243"/>
-    <mergeCell ref="BR243:BU243"/>
-    <mergeCell ref="BV243:BY243"/>
-    <mergeCell ref="AH243:AK243"/>
-    <mergeCell ref="AL243:AO243"/>
-    <mergeCell ref="AP243:AS243"/>
-    <mergeCell ref="AT243:AW243"/>
-    <mergeCell ref="AX243:BA243"/>
-    <mergeCell ref="BB243:BE243"/>
-    <mergeCell ref="BV267:BY267"/>
-    <mergeCell ref="B291:E291"/>
-    <mergeCell ref="F291:I291"/>
-    <mergeCell ref="J291:M291"/>
-    <mergeCell ref="N291:Q291"/>
-    <mergeCell ref="R291:U291"/>
-    <mergeCell ref="AH267:AK267"/>
-    <mergeCell ref="AL267:AO267"/>
-    <mergeCell ref="AP267:AS267"/>
-    <mergeCell ref="AT267:AW267"/>
-    <mergeCell ref="AX267:BA267"/>
-    <mergeCell ref="BB267:BE267"/>
-    <mergeCell ref="BR291:BU291"/>
-    <mergeCell ref="BV291:BY291"/>
-    <mergeCell ref="AT291:AW291"/>
-    <mergeCell ref="AX291:BA291"/>
-    <mergeCell ref="BB291:BE291"/>
-    <mergeCell ref="EX219:EZ219"/>
-    <mergeCell ref="EX243:EZ243"/>
-    <mergeCell ref="BF291:BI291"/>
-    <mergeCell ref="BJ291:BM291"/>
-    <mergeCell ref="BN291:BQ291"/>
-    <mergeCell ref="B267:E267"/>
-    <mergeCell ref="F267:I267"/>
-    <mergeCell ref="J267:M267"/>
-    <mergeCell ref="V291:Y291"/>
-    <mergeCell ref="Z291:AC291"/>
-    <mergeCell ref="AD291:AG291"/>
-    <mergeCell ref="AH291:AK291"/>
-    <mergeCell ref="AL291:AO291"/>
-    <mergeCell ref="AP291:AS291"/>
-    <mergeCell ref="BF267:BI267"/>
-    <mergeCell ref="BJ267:BM267"/>
-    <mergeCell ref="BN267:BQ267"/>
-    <mergeCell ref="B243:E243"/>
-    <mergeCell ref="N267:Q267"/>
-    <mergeCell ref="R267:U267"/>
-    <mergeCell ref="V267:Y267"/>
-    <mergeCell ref="Z267:AC267"/>
-    <mergeCell ref="AD267:AG267"/>
-    <mergeCell ref="BR267:BU267"/>
-    <mergeCell ref="EX63:FA63"/>
-    <mergeCell ref="EX90:FA90"/>
-    <mergeCell ref="FB117:FD117"/>
-    <mergeCell ref="FB144:FD144"/>
-    <mergeCell ref="FB171:FD171"/>
-    <mergeCell ref="FB195:FD195"/>
-    <mergeCell ref="EX195:FA195"/>
-    <mergeCell ref="EX36:FA36"/>
-    <mergeCell ref="FF9:FI9"/>
-    <mergeCell ref="FF36:FI36"/>
-    <mergeCell ref="FB63:FE63"/>
-    <mergeCell ref="FB90:FE90"/>
-    <mergeCell ref="FF117:FI117"/>
-    <mergeCell ref="FF144:FI144"/>
-    <mergeCell ref="FF171:FI171"/>
-    <mergeCell ref="FF195:FI195"/>
-    <mergeCell ref="FB9:FE9"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="EX66:EY73">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EX93:EY100">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Data/National Accounts/PSA-Quarter-Q1-1981-to-latest.xlsx
+++ b/Data/National Accounts/PSA-Quarter-Q1-1981-to-latest.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\long series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64725DB3-FC5F-43E3-A08A-F51364B0CC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB409B1-3496-431E-807C-5CEFFC5A8B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Q1 1981 to Q3 2022" sheetId="5" r:id="rId1"/>
+    <sheet name="Q1 1981 to Q4 2022" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="AFF_Cons">#REF!</definedName>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="83">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -341,13 +341,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of Nov 2022</t>
+    <t>Q1 1982 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 1981 to Q3 2022</t>
+    <t>Q1 1981 to Q4 2022</t>
   </si>
   <si>
-    <t>Q1 1982 to Q3 2022</t>
+    <t>As of Jan 2023</t>
   </si>
 </sst>
 </file>
@@ -788,11 +788,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FL313"/>
+  <dimension ref="A1:FM313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="FA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FN297" sqref="FN297"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="EV1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="FI68" sqref="FI68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -876,47 +876,47 @@
     <col min="162" max="162" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="163" max="164" width="15.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="165" max="165" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="166" max="168" width="15" style="2" customWidth="1"/>
-    <col min="169" max="16384" width="9.28515625" style="2"/>
+    <col min="166" max="169" width="15" style="2" customWidth="1"/>
+    <col min="170" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="26">
         <v>1981</v>
@@ -1169,8 +1169,9 @@
       </c>
       <c r="FK9" s="26"/>
       <c r="FL9" s="26"/>
+      <c r="FM9" s="26"/>
     </row>
-    <row r="10" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1675,11 +1676,14 @@
       <c r="FL10" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="FM10" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="11" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:169" x14ac:dyDescent="0.2">
       <c r="FB11" s="2"/>
     </row>
-    <row r="12" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -2182,10 +2186,13 @@
         <v>3878436.9127315367</v>
       </c>
       <c r="FL12" s="7">
-        <v>4128617.261434318</v>
+        <v>4129828.1168899718</v>
+      </c>
+      <c r="FM12" s="7">
+        <v>4864894.9612725647</v>
       </c>
     </row>
-    <row r="13" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -2690,8 +2697,11 @@
       <c r="FL13" s="7">
         <v>788001.74498933437</v>
       </c>
+      <c r="FM13" s="7">
+        <v>892095.23495033279</v>
+      </c>
     </row>
-    <row r="14" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -3194,10 +3204,13 @@
         <v>1581070.2088354321</v>
       </c>
       <c r="FL14" s="7">
-        <v>1348009.9293698084</v>
+        <v>1349069.1796366668</v>
+      </c>
+      <c r="FM14" s="7">
+        <v>1387760.8892729436</v>
       </c>
     </row>
-    <row r="15" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -3700,10 +3713,13 @@
         <v>1395743.5524730254</v>
       </c>
       <c r="FL15" s="7">
-        <v>1646085.8401918849</v>
+        <v>1650809.8375919163</v>
+      </c>
+      <c r="FM15" s="7">
+        <v>1715103.4923716746</v>
       </c>
     </row>
-    <row r="16" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -4206,10 +4222,13 @@
         <v>2449622.7104449756</v>
       </c>
       <c r="FL16" s="7">
-        <v>2721406.4826280084</v>
+        <v>2725698.6297343825</v>
+      </c>
+      <c r="FM16" s="7">
+        <v>2360764.2722973926</v>
       </c>
     </row>
-    <row r="17" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -4712,10 +4731,13 @@
         <v>46509.057342000306</v>
       </c>
       <c r="FL17" s="7">
-        <v>50618.146137461998</v>
+        <v>51033.014703080058</v>
+      </c>
+      <c r="FM17" s="7">
+        <v>-44661.835651195608</v>
       </c>
     </row>
-    <row r="18" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4883,8 +4905,9 @@
       <c r="FJ18" s="7"/>
       <c r="FK18" s="7"/>
       <c r="FL18" s="7"/>
+      <c r="FM18" s="7"/>
     </row>
-    <row r="19" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>10</v>
       </c>
@@ -5387,10 +5410,13 @@
         <v>5397143.9817564022</v>
       </c>
       <c r="FL19" s="7">
-        <v>5239926.4394947989</v>
+        <v>5243043.2640765868</v>
+      </c>
+      <c r="FM19" s="7">
+        <v>6454428.4699189272</v>
       </c>
     </row>
-    <row r="20" spans="1:168" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -5548,7 +5574,7 @@
       <c r="EZ20" s="7"/>
       <c r="FA20" s="7"/>
     </row>
-    <row r="21" spans="1:168" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -5706,7 +5732,7 @@
       <c r="EZ21" s="7"/>
       <c r="FA21" s="7"/>
     </row>
-    <row r="22" spans="1:168" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -5864,7 +5890,7 @@
       <c r="EZ22" s="7"/>
       <c r="FA22" s="7"/>
     </row>
-    <row r="23" spans="1:168" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -6022,7 +6048,7 @@
       <c r="EZ23" s="7"/>
       <c r="FA23" s="7"/>
     </row>
-    <row r="24" spans="1:168" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:169" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -6191,50 +6217,51 @@
       <c r="FJ24" s="9"/>
       <c r="FK24" s="9"/>
       <c r="FL24" s="9"/>
+      <c r="FM24" s="9"/>
     </row>
-    <row r="25" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="BY25" s="10"/>
     </row>
-    <row r="28" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="26">
         <v>1981</v>
@@ -6487,8 +6514,9 @@
       </c>
       <c r="FK36" s="26"/>
       <c r="FL36" s="26"/>
+      <c r="FM36" s="26"/>
     </row>
-    <row r="37" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>14</v>
       </c>
@@ -6993,11 +7021,14 @@
       <c r="FL37" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="FM37" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="38" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:169" x14ac:dyDescent="0.2">
       <c r="FB38" s="2"/>
     </row>
-    <row r="39" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>1</v>
       </c>
@@ -7500,10 +7531,13 @@
         <v>3399066.6751907454</v>
       </c>
       <c r="FL39" s="7">
-        <v>3504489.2019144772</v>
+        <v>3506111.1909831027</v>
+      </c>
+      <c r="FM39" s="7">
+        <v>4199818.540686938</v>
       </c>
     </row>
-    <row r="40" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
@@ -8008,8 +8042,11 @@
       <c r="FL40" s="7">
         <v>698563.02808648802</v>
       </c>
+      <c r="FM40" s="7">
+        <v>705805.82833058783</v>
+      </c>
     </row>
-    <row r="41" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -8512,10 +8549,13 @@
         <v>1389982.8184715228</v>
       </c>
       <c r="FL41" s="7">
-        <v>1113416.1756849908</v>
+        <v>1114213.6644705017</v>
+      </c>
+      <c r="FM41" s="7">
+        <v>1212023.5863245514</v>
       </c>
     </row>
-    <row r="42" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>4</v>
       </c>
@@ -9018,10 +9058,13 @@
         <v>1356221.1885019138</v>
       </c>
       <c r="FL42" s="7">
-        <v>1524033.6375888349</v>
+        <v>1528226.3108561584</v>
+      </c>
+      <c r="FM42" s="7">
+        <v>1433335.8836456779</v>
       </c>
     </row>
-    <row r="43" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>5</v>
       </c>
@@ -9524,10 +9567,13 @@
         <v>2009130.1625547383</v>
       </c>
       <c r="FL43" s="7">
-        <v>2031544.7667595982</v>
+        <v>2040132.3277379042</v>
+      </c>
+      <c r="FM43" s="7">
+        <v>1920922.3223296348</v>
       </c>
     </row>
-    <row r="44" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>6</v>
       </c>
@@ -10030,10 +10076,13 @@
         <v>-47345.117982433178</v>
       </c>
       <c r="FL44" s="7">
-        <v>-47030.954801170155</v>
+        <v>-43341.180722936988</v>
+      </c>
+      <c r="FM44" s="7">
+        <v>-52723.530432631262</v>
       </c>
     </row>
-    <row r="45" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -10201,8 +10250,9 @@
       <c r="FJ45" s="7"/>
       <c r="FK45" s="7"/>
       <c r="FL45" s="7"/>
+      <c r="FM45" s="7"/>
     </row>
-    <row r="46" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>10</v>
       </c>
@@ -10705,10 +10755,13 @@
         <v>4992670.7267452404</v>
       </c>
       <c r="FL46" s="7">
-        <v>4761926.3217140213</v>
+        <v>4763640.6859354088</v>
+      </c>
+      <c r="FM46" s="7">
+        <v>5577337.9862254886</v>
       </c>
     </row>
-    <row r="47" spans="1:168" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -10866,7 +10919,7 @@
       <c r="EZ47" s="7"/>
       <c r="FA47" s="7"/>
     </row>
-    <row r="48" spans="1:168" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -11024,7 +11077,7 @@
       <c r="EZ48" s="7"/>
       <c r="FA48" s="7"/>
     </row>
-    <row r="49" spans="1:168" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -11182,7 +11235,7 @@
       <c r="EZ49" s="7"/>
       <c r="FA49" s="7"/>
     </row>
-    <row r="50" spans="1:168" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -11340,7 +11393,7 @@
       <c r="EZ50" s="7"/>
       <c r="FA50" s="7"/>
     </row>
-    <row r="51" spans="1:168" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:169" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -11509,45 +11562,46 @@
       <c r="FJ51" s="9"/>
       <c r="FK51" s="9"/>
       <c r="FL51" s="9"/>
+      <c r="FM51" s="9"/>
     </row>
-    <row r="52" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="FB60" s="24"/>
       <c r="FC60" s="24"/>
       <c r="FD60" s="24"/>
       <c r="FE60" s="24"/>
     </row>
-    <row r="61" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>19</v>
       </c>
@@ -11556,7 +11610,7 @@
       <c r="FD61" s="24"/>
       <c r="FE61" s="24"/>
     </row>
-    <row r="62" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="FB62" s="24"/>
       <c r="FC62" s="24"/>
@@ -11566,7 +11620,7 @@
       <c r="FG62" s="24"/>
       <c r="FH62" s="24"/>
     </row>
-    <row r="63" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="26" t="s">
         <v>55</v>
@@ -11813,8 +11867,9 @@
       </c>
       <c r="FG63" s="26"/>
       <c r="FH63" s="26"/>
+      <c r="FI63" s="26"/>
     </row>
-    <row r="64" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>14</v>
       </c>
@@ -12307,8 +12362,11 @@
       <c r="FH64" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="FI64" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="65" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:165" x14ac:dyDescent="0.2">
       <c r="FB65" s="24"/>
       <c r="FC65" s="24"/>
       <c r="FD65" s="24"/>
@@ -12316,8 +12374,9 @@
       <c r="FF65" s="24"/>
       <c r="FG65" s="10"/>
       <c r="FH65" s="10"/>
+      <c r="FI65" s="10"/>
     </row>
-    <row r="66" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>1</v>
       </c>
@@ -12808,10 +12867,13 @@
         <v>14.1993530748247</v>
       </c>
       <c r="FH66" s="25">
-        <v>15.24609706166909</v>
+        <v>15.27989684414672</v>
+      </c>
+      <c r="FI66" s="25">
+        <v>14.901766661160096</v>
       </c>
     </row>
-    <row r="67" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>2</v>
       </c>
@@ -13304,8 +13366,11 @@
       <c r="FH67" s="25">
         <v>5.4127643497029965</v>
       </c>
+      <c r="FI67" s="25">
+        <v>8.3945549283076275</v>
+      </c>
     </row>
-    <row r="68" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>3</v>
       </c>
@@ -13796,10 +13861,13 @@
         <v>38.547537859732472</v>
       </c>
       <c r="FH68" s="25">
-        <v>40.618555794683118</v>
+        <v>40.729052193489622</v>
+      </c>
+      <c r="FI68" s="25">
+        <v>16.132707842804408</v>
       </c>
     </row>
-    <row r="69" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>4</v>
       </c>
@@ -14290,10 +14358,13 @@
         <v>18.362518192103394</v>
       </c>
       <c r="FH69" s="25">
-        <v>28.468992443863897</v>
+        <v>28.837677461055165</v>
+      </c>
+      <c r="FI69" s="25">
+        <v>28.734317935354568</v>
       </c>
     </row>
-    <row r="70" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>5</v>
       </c>
@@ -14784,10 +14855,13 @@
         <v>37.20892873509078</v>
       </c>
       <c r="FH70" s="25">
-        <v>40.550771437831315</v>
+        <v>40.772445263765235</v>
+      </c>
+      <c r="FI70" s="25">
+        <v>19.913899693579978</v>
       </c>
     </row>
-    <row r="71" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:165" x14ac:dyDescent="0.2">
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
@@ -14951,8 +15025,9 @@
       <c r="FF71" s="25"/>
       <c r="FG71" s="25"/>
       <c r="FH71" s="25"/>
+      <c r="FI71" s="25"/>
     </row>
-    <row r="72" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:165" x14ac:dyDescent="0.2">
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
@@ -15116,8 +15191,9 @@
       <c r="FF72" s="25"/>
       <c r="FG72" s="25"/>
       <c r="FH72" s="25"/>
+      <c r="FI72" s="25"/>
     </row>
-    <row r="73" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>10</v>
       </c>
@@ -15608,10 +15684,13 @@
         <v>13.108735526566335</v>
       </c>
       <c r="FH73" s="25">
-        <v>13.80444185409722</v>
+        <v>13.872135262770669</v>
+      </c>
+      <c r="FI73" s="25">
+        <v>13.985024222066585</v>
       </c>
     </row>
-    <row r="74" spans="1:164" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:165" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
@@ -15766,7 +15845,7 @@
       <c r="EW74" s="13"/>
       <c r="EX74" s="3"/>
     </row>
-    <row r="75" spans="1:164" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:165" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
@@ -15921,7 +16000,7 @@
       <c r="EW75" s="13"/>
       <c r="EX75" s="3"/>
     </row>
-    <row r="76" spans="1:164" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:165" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
@@ -16076,7 +16155,7 @@
       <c r="EW76" s="13"/>
       <c r="EX76" s="3"/>
     </row>
-    <row r="77" spans="1:164" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:165" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
@@ -16231,7 +16310,7 @@
       <c r="EW77" s="13"/>
       <c r="EX77" s="3"/>
     </row>
-    <row r="78" spans="1:164" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:165" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -16396,56 +16475,57 @@
       <c r="FF78" s="9"/>
       <c r="FG78" s="9"/>
       <c r="FH78" s="9"/>
+      <c r="FI78" s="9"/>
     </row>
-    <row r="79" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="88" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="FF89" s="9"/>
       <c r="FG89" s="9"/>
     </row>
-    <row r="90" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="26" t="s">
         <v>55</v>
@@ -16692,8 +16772,9 @@
       </c>
       <c r="FG90" s="26"/>
       <c r="FH90" s="26"/>
+      <c r="FI90" s="26"/>
     </row>
-    <row r="91" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>14</v>
       </c>
@@ -17186,13 +17267,17 @@
       <c r="FH91" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="FI91" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="92" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:165" x14ac:dyDescent="0.2">
       <c r="FF92" s="24"/>
       <c r="FG92" s="24"/>
       <c r="FH92" s="24"/>
+      <c r="FI92" s="24"/>
     </row>
-    <row r="93" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>1</v>
       </c>
@@ -17683,10 +17768,13 @@
         <v>8.5611007039442057</v>
       </c>
       <c r="FH93" s="25">
-        <v>7.9990074983604842</v>
+        <v>8.0489928741148447</v>
+      </c>
+      <c r="FI93" s="25">
+        <v>7.0313151561457659</v>
       </c>
     </row>
-    <row r="94" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>2</v>
       </c>
@@ -18179,8 +18267,11 @@
       <c r="FH94" s="25">
         <v>0.78658345363606941</v>
       </c>
+      <c r="FI94" s="25">
+        <v>3.2907194526260639</v>
+      </c>
     </row>
-    <row r="95" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>3</v>
       </c>
@@ -18671,10 +18762,13 @@
         <v>21.059323831463004</v>
       </c>
       <c r="FH95" s="25">
-        <v>21.682220974878618</v>
+        <v>21.769376351944885</v>
+      </c>
+      <c r="FI95" s="25">
+        <v>5.9395696839239918</v>
       </c>
     </row>
-    <row r="96" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>4</v>
       </c>
@@ -19165,10 +19259,13 @@
         <v>4.3515140609875544</v>
       </c>
       <c r="FH96" s="25">
-        <v>13.079557551596423</v>
+        <v>13.390643623671224</v>
+      </c>
+      <c r="FI96" s="25">
+        <v>14.572404350020832</v>
       </c>
     </row>
-    <row r="97" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>5</v>
       </c>
@@ -19659,10 +19756,13 @@
         <v>13.843415319181588</v>
       </c>
       <c r="FH97" s="25">
-        <v>17.319801238925223</v>
+        <v>17.815724815696328</v>
+      </c>
+      <c r="FI97" s="25">
+        <v>5.8855855303018956</v>
       </c>
     </row>
-    <row r="98" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:165" x14ac:dyDescent="0.2">
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
@@ -19826,8 +19926,9 @@
       <c r="FF98" s="25"/>
       <c r="FG98" s="25"/>
       <c r="FH98" s="25"/>
+      <c r="FI98" s="25"/>
     </row>
-    <row r="99" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:165" x14ac:dyDescent="0.2">
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
@@ -19991,8 +20092,9 @@
       <c r="FF99" s="25"/>
       <c r="FG99" s="25"/>
       <c r="FH99" s="25"/>
+      <c r="FI99" s="25"/>
     </row>
-    <row r="100" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>10</v>
       </c>
@@ -20483,10 +20585,13 @@
         <v>7.4725067441017075</v>
       </c>
       <c r="FH100" s="25">
-        <v>7.5972006372340957</v>
+        <v>7.6359372279816</v>
+      </c>
+      <c r="FI100" s="25">
+        <v>7.2255438454690335</v>
       </c>
     </row>
-    <row r="101" spans="1:164" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:165" hidden="1" x14ac:dyDescent="0.2">
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
@@ -20640,7 +20745,7 @@
       <c r="EV101" s="13"/>
       <c r="EW101" s="13"/>
     </row>
-    <row r="102" spans="1:164" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:165" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
@@ -20794,7 +20899,7 @@
       <c r="EV102" s="13"/>
       <c r="EW102" s="13"/>
     </row>
-    <row r="103" spans="1:164" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:165" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
@@ -20948,7 +21053,7 @@
       <c r="EV103" s="13"/>
       <c r="EW103" s="13"/>
     </row>
-    <row r="104" spans="1:164" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:165" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
@@ -21102,7 +21207,7 @@
       <c r="EV104" s="13"/>
       <c r="EW104" s="13"/>
     </row>
-    <row r="105" spans="1:164" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:165" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -21267,54 +21372,55 @@
       <c r="FF105" s="9"/>
       <c r="FG105" s="9"/>
       <c r="FH105" s="9"/>
+      <c r="FI105" s="9"/>
     </row>
-    <row r="106" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="109" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="112" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
     </row>
-    <row r="113" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="115" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="116" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
     </row>
-    <row r="117" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="26">
         <v>1981</v>
@@ -21567,8 +21673,9 @@
       </c>
       <c r="FK117" s="26"/>
       <c r="FL117" s="26"/>
+      <c r="FM117" s="26"/>
     </row>
-    <row r="118" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>14</v>
       </c>
@@ -22073,11 +22180,14 @@
       <c r="FL118" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="FM118" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="119" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:169" x14ac:dyDescent="0.2">
       <c r="FB119" s="2"/>
     </row>
-    <row r="120" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>1</v>
       </c>
@@ -22580,10 +22690,13 @@
         <v>71.86091247225481</v>
       </c>
       <c r="FL120" s="21">
-        <v>78.791511848635295</v>
+        <v>78.767767284814198</v>
+      </c>
+      <c r="FM120" s="21">
+        <v>75.372978164458175</v>
       </c>
     </row>
-    <row r="121" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>2</v>
       </c>
@@ -23086,10 +23199,13 @@
         <v>17.509389484766871</v>
       </c>
       <c r="FL121" s="21">
-        <v>15.038412353462515</v>
+        <v>15.029472489545029</v>
+      </c>
+      <c r="FM121" s="21">
+        <v>13.82144428601187</v>
       </c>
     </row>
-    <row r="122" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>3</v>
       </c>
@@ -23592,10 +23708,13 @@
         <v>29.294571613798258</v>
       </c>
       <c r="FL122" s="21">
-        <v>25.725741476244373</v>
+        <v>25.73065129711965</v>
+      </c>
+      <c r="FM122" s="21">
+        <v>21.500910510367387</v>
       </c>
     </row>
-    <row r="123" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>4</v>
       </c>
@@ -24098,10 +24217,13 @@
         <v>25.860780390350197</v>
       </c>
       <c r="FL123" s="21">
-        <v>31.414292914207216</v>
+        <v>31.485718397608142</v>
+      </c>
+      <c r="FM123" s="21">
+        <v>26.572507548344053</v>
       </c>
     </row>
-    <row r="124" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>5</v>
       </c>
@@ -24604,10 +24726,13 @@
         <v>45.38738856560559</v>
       </c>
       <c r="FL124" s="21">
-        <v>51.935967308930188</v>
+        <v>51.986956667130165</v>
+      </c>
+      <c r="FM124" s="21">
+        <v>36.575884035276104</v>
       </c>
     </row>
-    <row r="125" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B125" s="13">
         <v>10.790109715083961</v>
       </c>
@@ -24927,8 +25052,9 @@
       <c r="FJ125" s="21"/>
       <c r="FK125" s="21"/>
       <c r="FL125" s="21"/>
+      <c r="FM125" s="21"/>
     </row>
-    <row r="126" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
@@ -25096,8 +25222,9 @@
       <c r="FJ126" s="21"/>
       <c r="FK126" s="21"/>
       <c r="FL126" s="21"/>
+      <c r="FM126" s="21"/>
     </row>
-    <row r="127" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
         <v>10</v>
       </c>
@@ -25602,8 +25729,11 @@
       <c r="FL127" s="21">
         <v>100</v>
       </c>
+      <c r="FM127" s="21">
+        <v>100</v>
+      </c>
     </row>
-    <row r="128" spans="1:168" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:169" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="13">
         <v>0</v>
       </c>
@@ -25763,7 +25893,7 @@
       <c r="EZ128" s="13"/>
       <c r="FA128" s="13"/>
     </row>
-    <row r="129" spans="1:168" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" s="13">
         <v>0</v>
       </c>
@@ -25923,7 +26053,7 @@
       <c r="EZ129" s="13"/>
       <c r="FA129" s="13"/>
     </row>
-    <row r="130" spans="1:168" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" s="13">
         <v>0</v>
       </c>
@@ -26083,7 +26213,7 @@
       <c r="EZ130" s="13"/>
       <c r="FA130" s="13"/>
     </row>
-    <row r="131" spans="1:168" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" s="13">
         <v>0</v>
       </c>
@@ -26243,7 +26373,7 @@
       <c r="EZ131" s="13"/>
       <c r="FA131" s="13"/>
     </row>
-    <row r="132" spans="1:168" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:169" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -26412,34 +26542,35 @@
       <c r="FJ132" s="9"/>
       <c r="FK132" s="9"/>
       <c r="FL132" s="9"/>
+      <c r="FM132" s="9"/>
     </row>
-    <row r="133" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="139" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="FC139" s="3"/>
       <c r="FD139" s="3"/>
       <c r="FE139" s="3"/>
     </row>
-    <row r="140" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>46</v>
       </c>
@@ -26447,7 +26578,7 @@
       <c r="FD140" s="3"/>
       <c r="FE140" s="3"/>
     </row>
-    <row r="141" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
         <v>81</v>
       </c>
@@ -26455,7 +26586,7 @@
       <c r="FD141" s="3"/>
       <c r="FE141" s="3"/>
     </row>
-    <row r="142" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>54</v>
       </c>
@@ -26463,13 +26594,13 @@
       <c r="FD142" s="3"/>
       <c r="FE142" s="3"/>
     </row>
-    <row r="143" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="FC143" s="3"/>
       <c r="FD143" s="3"/>
       <c r="FE143" s="3"/>
     </row>
-    <row r="144" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144" s="26">
         <v>1981</v>
@@ -26722,8 +26853,9 @@
       </c>
       <c r="FK144" s="26"/>
       <c r="FL144" s="26"/>
+      <c r="FM144" s="26"/>
     </row>
-    <row r="145" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
         <v>14</v>
       </c>
@@ -27228,11 +27360,14 @@
       <c r="FL145" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="FM145" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="146" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:169" x14ac:dyDescent="0.2">
       <c r="FB146" s="2"/>
     </row>
-    <row r="147" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>1</v>
       </c>
@@ -27735,10 +27870,13 @@
         <v>68.081130545667335</v>
       </c>
       <c r="FL147" s="21">
-        <v>73.59394003922894</v>
+        <v>73.601504020545732</v>
+      </c>
+      <c r="FM147" s="21">
+        <v>75.301488829605631</v>
       </c>
     </row>
-    <row r="148" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>2</v>
       </c>
@@ -28241,10 +28379,13 @@
         <v>18.104044400049435</v>
       </c>
       <c r="FL148" s="21">
-        <v>14.669757171611284</v>
+        <v>14.664477741761397</v>
+      </c>
+      <c r="FM148" s="21">
+        <v>12.654887153580018</v>
       </c>
     </row>
-    <row r="149" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>3</v>
       </c>
@@ -28747,10 +28888,13 @@
         <v>27.840466446655959</v>
       </c>
       <c r="FL149" s="21">
-        <v>23.381633827636055</v>
+        <v>23.389960283112956</v>
+      </c>
+      <c r="FM149" s="21">
+        <v>21.731219971210653</v>
       </c>
     </row>
-    <row r="150" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>4</v>
       </c>
@@ -29253,10 +29397,13 @@
         <v>27.164242601395117</v>
       </c>
       <c r="FL150" s="21">
-        <v>32.004561486794906</v>
+        <v>32.081057569439018</v>
+      </c>
+      <c r="FM150" s="21">
+        <v>25.699283191831455</v>
       </c>
     </row>
-    <row r="151" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>5</v>
       </c>
@@ -29759,10 +29906,13 @@
         <v>40.24159157526708</v>
       </c>
       <c r="FL151" s="21">
-        <v>42.66224694607115</v>
+        <v>42.827166493924913</v>
+      </c>
+      <c r="FM151" s="21">
+        <v>34.441562033245823</v>
       </c>
     </row>
-    <row r="152" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
       <c r="D152" s="13"/>
@@ -29930,8 +30080,9 @@
       <c r="FJ152" s="21"/>
       <c r="FK152" s="21"/>
       <c r="FL152" s="21"/>
+      <c r="FM152" s="21"/>
     </row>
-    <row r="153" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
       <c r="D153" s="13"/>
@@ -30099,8 +30250,9 @@
       <c r="FJ153" s="21"/>
       <c r="FK153" s="21"/>
       <c r="FL153" s="21"/>
+      <c r="FM153" s="21"/>
     </row>
-    <row r="154" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="s">
         <v>10</v>
       </c>
@@ -30605,8 +30757,11 @@
       <c r="FL154" s="21">
         <v>100</v>
       </c>
+      <c r="FM154" s="21">
+        <v>100</v>
+      </c>
     </row>
-    <row r="155" spans="1:168" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:169" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
       <c r="D155" s="13"/>
@@ -30764,7 +30919,7 @@
       <c r="EZ155" s="13"/>
       <c r="FA155" s="13"/>
     </row>
-    <row r="156" spans="1:168" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:169" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
       <c r="D156" s="13"/>
@@ -30922,7 +31077,7 @@
       <c r="EZ156" s="13"/>
       <c r="FA156" s="13"/>
     </row>
-    <row r="157" spans="1:168" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:169" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
       <c r="D157" s="13"/>
@@ -31080,7 +31235,7 @@
       <c r="EZ157" s="13"/>
       <c r="FA157" s="13"/>
     </row>
-    <row r="158" spans="1:168" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:169" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
       <c r="D158" s="13"/>
@@ -31238,7 +31393,7 @@
       <c r="EZ158" s="13"/>
       <c r="FA158" s="13"/>
     </row>
-    <row r="159" spans="1:168" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:169" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
@@ -31407,31 +31562,32 @@
       <c r="FJ159" s="9"/>
       <c r="FK159" s="9"/>
       <c r="FL159" s="9"/>
+      <c r="FM159" s="9"/>
     </row>
-    <row r="160" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="166" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
     </row>
-    <row r="167" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>47</v>
       </c>
@@ -31439,7 +31595,7 @@
       <c r="FD167" s="3"/>
       <c r="FE167" s="3"/>
     </row>
-    <row r="168" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A168" s="11" t="s">
         <v>81</v>
       </c>
@@ -31447,7 +31603,7 @@
       <c r="FD168" s="3"/>
       <c r="FE168" s="3"/>
     </row>
-    <row r="169" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>11</v>
       </c>
@@ -31455,13 +31611,13 @@
       <c r="FD169" s="3"/>
       <c r="FE169" s="3"/>
     </row>
-    <row r="170" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="FC170" s="3"/>
       <c r="FD170" s="3"/>
       <c r="FE170" s="3"/>
     </row>
-    <row r="171" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
       <c r="B171" s="26">
         <v>1981</v>
@@ -31714,8 +31870,9 @@
       </c>
       <c r="FK171" s="26"/>
       <c r="FL171" s="26"/>
+      <c r="FM171" s="26"/>
     </row>
-    <row r="172" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
         <v>13</v>
       </c>
@@ -32220,11 +32377,14 @@
       <c r="FL172" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="FM172" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="173" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:169" x14ac:dyDescent="0.2">
       <c r="FB173" s="2"/>
     </row>
-    <row r="174" spans="1:168" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="15" t="s">
         <v>74</v>
       </c>
@@ -32727,10 +32887,13 @@
         <v>480604.20061940385</v>
       </c>
       <c r="FL174" s="23">
-        <v>485274.66105399857</v>
+        <v>484670.13793258084</v>
+      </c>
+      <c r="FM174" s="23">
+        <v>638368.1169404937</v>
       </c>
     </row>
-    <row r="175" spans="1:168" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="15" t="s">
         <v>75</v>
       </c>
@@ -33233,10 +33396,13 @@
         <v>1650999.0140415796</v>
       </c>
       <c r="FL175" s="23">
-        <v>1335537.4512915984</v>
+        <v>1335779.8303350164</v>
+      </c>
+      <c r="FM175" s="23">
+        <v>1966707.34561019</v>
       </c>
     </row>
-    <row r="176" spans="1:168" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="15" t="s">
         <v>76</v>
       </c>
@@ -33739,10 +33905,13 @@
         <v>3265540.7670954191</v>
       </c>
       <c r="FL176" s="23">
-        <v>3419114.3271492021</v>
+        <v>3422593.2958089891</v>
+      </c>
+      <c r="FM176" s="23">
+        <v>3849353.0073682438</v>
       </c>
     </row>
-    <row r="177" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A177" s="16"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -33911,8 +34080,9 @@
       <c r="FJ177" s="7"/>
       <c r="FK177" s="7"/>
       <c r="FL177" s="7"/>
+      <c r="FM177" s="7"/>
     </row>
-    <row r="178" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>10</v>
       </c>
@@ -34415,10 +34585,13 @@
         <v>5397143.9817564022</v>
       </c>
       <c r="FL178" s="7">
-        <v>5239926.4394947989</v>
+        <v>5243043.2640765868</v>
+      </c>
+      <c r="FM178" s="7">
+        <v>6454428.4699189272</v>
       </c>
     </row>
-    <row r="179" spans="1:168" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:169" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
@@ -34582,7 +34755,7 @@
         <v>-24370.119758612476</v>
       </c>
     </row>
-    <row r="180" spans="1:168" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:169" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
@@ -34742,7 +34915,7 @@
       <c r="FB180" s="7"/>
       <c r="FC180" s="7"/>
     </row>
-    <row r="181" spans="1:168" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:169" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
@@ -34906,7 +35079,7 @@
         <v>4857262.3839106075</v>
       </c>
     </row>
-    <row r="182" spans="1:168" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:169" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
@@ -35064,7 +35237,7 @@
       <c r="EZ182" s="7"/>
       <c r="FA182" s="7"/>
     </row>
-    <row r="183" spans="1:168" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:169" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="9"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
@@ -35233,32 +35406,33 @@
       <c r="FJ183" s="9"/>
       <c r="FK183" s="9"/>
       <c r="FL183" s="9"/>
+      <c r="FM183" s="9"/>
     </row>
-    <row r="184" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:169" x14ac:dyDescent="0.2">
       <c r="E185" s="10"/>
       <c r="I185" s="10"/>
     </row>
-    <row r="186" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:169" x14ac:dyDescent="0.2">
       <c r="FB186" s="2"/>
     </row>
-    <row r="187" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:168" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -35417,7 +35591,7 @@
       <c r="EZ189" s="2"/>
       <c r="FA189" s="2"/>
     </row>
-    <row r="190" spans="1:168" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -35576,7 +35750,7 @@
       <c r="EZ190" s="2"/>
       <c r="FA190" s="2"/>
     </row>
-    <row r="191" spans="1:168" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>48</v>
       </c>
@@ -35737,7 +35911,7 @@
       <c r="EZ191" s="2"/>
       <c r="FA191" s="2"/>
     </row>
-    <row r="192" spans="1:168" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="11" t="s">
         <v>81</v>
       </c>
@@ -35898,7 +36072,7 @@
       <c r="EZ192" s="2"/>
       <c r="FA192" s="2"/>
     </row>
-    <row r="193" spans="1:168" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>12</v>
       </c>
@@ -36059,7 +36233,7 @@
       <c r="EZ193" s="2"/>
       <c r="FA193" s="2"/>
     </row>
-    <row r="194" spans="1:168" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -36218,7 +36392,7 @@
       <c r="EZ194" s="2"/>
       <c r="FA194" s="2"/>
     </row>
-    <row r="195" spans="1:168" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
       <c r="B195" s="26">
         <v>1981</v>
@@ -36471,8 +36645,9 @@
       </c>
       <c r="FK195" s="26"/>
       <c r="FL195" s="26"/>
+      <c r="FM195" s="26"/>
     </row>
-    <row r="196" spans="1:168" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
         <v>13</v>
       </c>
@@ -36977,11 +37152,14 @@
       <c r="FL196" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="FM196" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="197" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:169" x14ac:dyDescent="0.2">
       <c r="FB197" s="2"/>
     </row>
-    <row r="198" spans="1:168" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="15" t="s">
         <v>74</v>
       </c>
@@ -37484,10 +37662,13 @@
         <v>417014.24985301855</v>
       </c>
       <c r="FL198" s="23">
-        <v>407065.80342226691</v>
+        <v>406550.84347903717</v>
+      </c>
+      <c r="FM198" s="23">
+        <v>525392.57335057622</v>
       </c>
     </row>
-    <row r="199" spans="1:168" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="15" t="s">
         <v>75</v>
       </c>
@@ -37990,10 +38171,13 @@
         <v>1524772.7042912773</v>
       </c>
       <c r="FL199" s="23">
-        <v>1280709.9370032621</v>
+        <v>1281080.761859051</v>
+      </c>
+      <c r="FM199" s="23">
+        <v>1700271.903247681</v>
       </c>
     </row>
-    <row r="200" spans="1:168" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="15" t="s">
         <v>76</v>
       </c>
@@ -38496,10 +38680,13 @@
         <v>3050883.7726009442</v>
       </c>
       <c r="FL200" s="23">
-        <v>3074150.5812884928</v>
+        <v>3076009.0805973206</v>
+      </c>
+      <c r="FM200" s="23">
+        <v>3351673.5096272314</v>
       </c>
     </row>
-    <row r="201" spans="1:168" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="16"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -38668,8 +38855,9 @@
       <c r="FJ201" s="23"/>
       <c r="FK201" s="7"/>
       <c r="FL201" s="7"/>
+      <c r="FM201" s="7"/>
     </row>
-    <row r="202" spans="1:168" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>10</v>
       </c>
@@ -39172,10 +39360,13 @@
         <v>4992670.7267452404</v>
       </c>
       <c r="FL202" s="7">
-        <v>4761926.3217140213</v>
+        <v>4763640.6859354088</v>
+      </c>
+      <c r="FM202" s="7">
+        <v>5577337.9862254886</v>
       </c>
     </row>
-    <row r="203" spans="1:168" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:169" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
@@ -39341,8 +39532,9 @@
       </c>
       <c r="FK203" s="2"/>
       <c r="FL203" s="2"/>
+      <c r="FM203" s="2"/>
     </row>
-    <row r="204" spans="1:168" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:169" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -39504,8 +39696,9 @@
       <c r="FC204" s="7"/>
       <c r="FK204" s="2"/>
       <c r="FL204" s="2"/>
+      <c r="FM204" s="2"/>
     </row>
-    <row r="205" spans="1:168" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:169" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
@@ -39671,8 +39864,9 @@
       </c>
       <c r="FK205" s="2"/>
       <c r="FL205" s="2"/>
+      <c r="FM205" s="2"/>
     </row>
-    <row r="206" spans="1:168" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:169" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
@@ -39833,8 +40027,9 @@
       <c r="FC206" s="2"/>
       <c r="FK206" s="2"/>
       <c r="FL206" s="2"/>
+      <c r="FM206" s="2"/>
     </row>
-    <row r="207" spans="1:168" s="3" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:169" s="3" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="9"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
@@ -40003,19 +40198,20 @@
       <c r="FJ207" s="9"/>
       <c r="FK207" s="9"/>
       <c r="FL207" s="9"/>
+      <c r="FM207" s="9"/>
     </row>
-    <row r="208" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:165" x14ac:dyDescent="0.2">
       <c r="FB210" s="17"/>
       <c r="FC210" s="17"/>
       <c r="FD210" s="17"/>
       <c r="FE210" s="17"/>
     </row>
-    <row r="211" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>8</v>
       </c>
@@ -40024,7 +40220,7 @@
       <c r="FD211" s="17"/>
       <c r="FE211" s="17"/>
     </row>
-    <row r="212" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>7</v>
       </c>
@@ -40033,19 +40229,19 @@
       <c r="FD212" s="17"/>
       <c r="FE212" s="17"/>
     </row>
-    <row r="213" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="FB213" s="17"/>
       <c r="FC213" s="17"/>
       <c r="FD213" s="17"/>
       <c r="FE213" s="17"/>
     </row>
-    <row r="214" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
     </row>
-    <row r="215" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>49</v>
       </c>
@@ -40053,15 +40249,15 @@
       <c r="FD215" s="3"/>
       <c r="FE215" s="3"/>
     </row>
-    <row r="216" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A216" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="FC216" s="3"/>
       <c r="FD216" s="3"/>
       <c r="FE216" s="3"/>
     </row>
-    <row r="217" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>19</v>
       </c>
@@ -40069,7 +40265,7 @@
       <c r="FD217" s="3"/>
       <c r="FE217" s="3"/>
     </row>
-    <row r="218" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="FC218" s="3"/>
       <c r="FD218" s="3"/>
@@ -40077,7 +40273,7 @@
       <c r="FF218" s="9"/>
       <c r="FG218" s="9"/>
     </row>
-    <row r="219" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
       <c r="B219" s="26" t="s">
         <v>55</v>
@@ -40324,8 +40520,9 @@
       </c>
       <c r="FG219" s="26"/>
       <c r="FH219" s="26"/>
+      <c r="FI219" s="26"/>
     </row>
-    <row r="220" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
         <v>13</v>
       </c>
@@ -40818,12 +41015,15 @@
       <c r="FH220" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="FI220" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="221" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:165" x14ac:dyDescent="0.2">
       <c r="FB221" s="2"/>
       <c r="FF221" s="24"/>
     </row>
-    <row r="222" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A222" s="15" t="s">
         <v>74</v>
       </c>
@@ -41314,10 +41514,13 @@
         <v>5.87569536255576</v>
       </c>
       <c r="FH222" s="25">
-        <v>11.947861302997055</v>
+        <v>11.808404051295639</v>
+      </c>
+      <c r="FI222" s="25">
+        <v>10.024887112768937</v>
       </c>
     </row>
-    <row r="223" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A223" s="15" t="s">
         <v>75</v>
       </c>
@@ -41808,10 +42011,13 @@
         <v>15.257138302104622</v>
       </c>
       <c r="FH223" s="25">
-        <v>13.958043793855808</v>
+        <v>13.97872538658676</v>
+      </c>
+      <c r="FI223" s="25">
+        <v>11.693755812928842</v>
       </c>
     </row>
-    <row r="224" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A224" s="15" t="s">
         <v>76</v>
       </c>
@@ -42302,10 +42508,13 @@
         <v>13.180076031956773</v>
       </c>
       <c r="FH224" s="25">
-        <v>14.01277948936368</v>
+        <v>14.128788153803228</v>
+      </c>
+      <c r="FI224" s="25">
+        <v>15.891429886403657</v>
       </c>
     </row>
-    <row r="225" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A225" s="16"/>
       <c r="B225" s="13"/>
       <c r="C225" s="13"/>
@@ -42470,8 +42679,9 @@
       <c r="FF225" s="25"/>
       <c r="FG225" s="25"/>
       <c r="FH225" s="25"/>
+      <c r="FI225" s="25"/>
     </row>
-    <row r="226" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>10</v>
       </c>
@@ -42962,10 +43172,13 @@
         <v>13.108735526566335</v>
       </c>
       <c r="FH226" s="25">
-        <v>13.80444185409722</v>
+        <v>13.872135262770669</v>
+      </c>
+      <c r="FI226" s="25">
+        <v>13.985024222066585</v>
       </c>
     </row>
-    <row r="227" spans="1:164" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:165" hidden="1" x14ac:dyDescent="0.2">
       <c r="B227" s="13"/>
       <c r="C227" s="13"/>
       <c r="D227" s="13"/>
@@ -43128,8 +43341,9 @@
       <c r="FF227" s="25"/>
       <c r="FG227" s="25"/>
       <c r="FH227" s="25"/>
+      <c r="FI227" s="25"/>
     </row>
-    <row r="228" spans="1:164" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:165" hidden="1" x14ac:dyDescent="0.2">
       <c r="B228" s="13"/>
       <c r="C228" s="13"/>
       <c r="D228" s="13"/>
@@ -43292,8 +43506,9 @@
       <c r="FF228" s="25"/>
       <c r="FG228" s="25"/>
       <c r="FH228" s="25"/>
+      <c r="FI228" s="25"/>
     </row>
-    <row r="229" spans="1:164" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:165" hidden="1" x14ac:dyDescent="0.2">
       <c r="B229" s="13"/>
       <c r="C229" s="13"/>
       <c r="D229" s="13"/>
@@ -43456,8 +43671,9 @@
       <c r="FF229" s="25"/>
       <c r="FG229" s="25"/>
       <c r="FH229" s="25"/>
+      <c r="FI229" s="25"/>
     </row>
-    <row r="230" spans="1:164" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:165" hidden="1" x14ac:dyDescent="0.2">
       <c r="B230" s="13"/>
       <c r="C230" s="13"/>
       <c r="D230" s="13"/>
@@ -43618,7 +43834,7 @@
       </c>
       <c r="FB230" s="2"/>
     </row>
-    <row r="231" spans="1:164" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:165" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="9"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
@@ -43783,66 +43999,67 @@
       <c r="FF231" s="9"/>
       <c r="FG231" s="9"/>
       <c r="FH231" s="9"/>
+      <c r="FI231" s="9"/>
     </row>
-    <row r="232" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>0</v>
       </c>
       <c r="FB232" s="2"/>
     </row>
-    <row r="233" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:165" x14ac:dyDescent="0.2">
       <c r="FB233" s="2"/>
     </row>
-    <row r="234" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:165" x14ac:dyDescent="0.2">
       <c r="FB234" s="2"/>
     </row>
-    <row r="235" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>8</v>
       </c>
       <c r="FB235" s="2"/>
     </row>
-    <row r="236" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>7</v>
       </c>
       <c r="FB236" s="2"/>
     </row>
-    <row r="237" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="FB237" s="2"/>
     </row>
-    <row r="238" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="FB238" s="2"/>
     </row>
-    <row r="239" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>50</v>
       </c>
       <c r="FB239" s="2"/>
     </row>
-    <row r="240" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A240" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="FB240" s="2"/>
     </row>
-    <row r="241" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>20</v>
       </c>
       <c r="FB241" s="2"/>
     </row>
-    <row r="242" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="FB242" s="2"/>
       <c r="FF242" s="9"/>
       <c r="FG242" s="9"/>
     </row>
-    <row r="243" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
       <c r="B243" s="26" t="s">
         <v>55</v>
@@ -44089,8 +44306,9 @@
       </c>
       <c r="FG243" s="26"/>
       <c r="FH243" s="26"/>
+      <c r="FI243" s="26"/>
     </row>
-    <row r="244" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
         <v>13</v>
       </c>
@@ -44583,12 +44801,15 @@
       <c r="FH244" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="FI244" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="245" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:165" x14ac:dyDescent="0.2">
       <c r="FB245" s="2"/>
       <c r="FF245" s="24"/>
     </row>
-    <row r="246" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A246" s="15" t="s">
         <v>74</v>
       </c>
@@ -45079,10 +45300,13 @@
         <v>0.22979282943775559</v>
       </c>
       <c r="FH246" s="25">
-        <v>2.2394585690328199</v>
+        <v>2.1101202032503892</v>
+      </c>
+      <c r="FI246" s="25">
+        <v>-0.32638906009904645</v>
       </c>
     </row>
-    <row r="247" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A247" s="15" t="s">
         <v>75</v>
       </c>
@@ -45573,10 +45797,13 @@
         <v>6.4042010422426188</v>
       </c>
       <c r="FH247" s="25">
-        <v>5.7597315359749075</v>
+        <v>5.790353877585602</v>
+      </c>
+      <c r="FI247" s="25">
+        <v>4.7782222178321234</v>
       </c>
     </row>
-    <row r="248" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A248" s="15" t="s">
         <v>76</v>
       </c>
@@ -46067,10 +46294,13 @@
         <v>9.0975075217285593</v>
       </c>
       <c r="FH248" s="25">
-        <v>9.1445656708077223</v>
+        <v>9.2105497839790615</v>
+      </c>
+      <c r="FI248" s="25">
+        <v>9.8313680521072513</v>
       </c>
     </row>
-    <row r="249" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A249" s="16"/>
       <c r="B249" s="13"/>
       <c r="C249" s="13"/>
@@ -46235,8 +46465,9 @@
       <c r="FF249" s="25"/>
       <c r="FG249" s="25"/>
       <c r="FH249" s="25"/>
+      <c r="FI249" s="25"/>
     </row>
-    <row r="250" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>10</v>
       </c>
@@ -46727,10 +46958,13 @@
         <v>7.4725067441017075</v>
       </c>
       <c r="FH250" s="25">
-        <v>7.5972006372340957</v>
+        <v>7.6359372279816</v>
+      </c>
+      <c r="FI250" s="25">
+        <v>7.2255438454690335</v>
       </c>
     </row>
-    <row r="251" spans="1:164" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:165" hidden="1" x14ac:dyDescent="0.2">
       <c r="B251" s="13"/>
       <c r="C251" s="13"/>
       <c r="D251" s="13"/>
@@ -46892,8 +47126,9 @@
       <c r="FF251" s="25"/>
       <c r="FG251" s="25"/>
       <c r="FH251" s="25"/>
+      <c r="FI251" s="25"/>
     </row>
-    <row r="252" spans="1:164" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:165" hidden="1" x14ac:dyDescent="0.2">
       <c r="B252" s="13"/>
       <c r="C252" s="13"/>
       <c r="D252" s="13"/>
@@ -47051,8 +47286,9 @@
       <c r="FF252" s="25"/>
       <c r="FG252" s="25"/>
       <c r="FH252" s="25"/>
+      <c r="FI252" s="25"/>
     </row>
-    <row r="253" spans="1:164" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:165" hidden="1" x14ac:dyDescent="0.2">
       <c r="B253" s="13"/>
       <c r="C253" s="13"/>
       <c r="D253" s="13"/>
@@ -47214,8 +47450,9 @@
       <c r="FF253" s="25"/>
       <c r="FG253" s="25"/>
       <c r="FH253" s="25"/>
+      <c r="FI253" s="25"/>
     </row>
-    <row r="254" spans="1:164" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:165" hidden="1" x14ac:dyDescent="0.2">
       <c r="B254" s="13"/>
       <c r="C254" s="13"/>
       <c r="D254" s="13"/>
@@ -47370,7 +47607,7 @@
       <c r="EW254" s="13"/>
       <c r="EX254" s="3"/>
     </row>
-    <row r="255" spans="1:164" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:165" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="9"/>
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
@@ -47535,49 +47772,50 @@
       <c r="FF255" s="9"/>
       <c r="FG255" s="9"/>
       <c r="FH255" s="9"/>
+      <c r="FI255" s="9"/>
     </row>
-    <row r="256" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="262" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
     </row>
-    <row r="263" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="264" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A264" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="265" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="266" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
     </row>
-    <row r="267" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="B267" s="26">
         <v>1981</v>
@@ -47830,8 +48068,9 @@
       </c>
       <c r="FK267" s="26"/>
       <c r="FL267" s="26"/>
+      <c r="FM267" s="26"/>
     </row>
-    <row r="268" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A268" s="5" t="s">
         <v>13</v>
       </c>
@@ -48336,11 +48575,14 @@
       <c r="FL268" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="FM268" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="269" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:169" x14ac:dyDescent="0.2">
       <c r="FB269" s="2"/>
     </row>
-    <row r="270" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A270" s="15" t="s">
         <v>74</v>
       </c>
@@ -48843,10 +49085,13 @@
         <v>8.9047874624793675</v>
       </c>
       <c r="FL270" s="21">
-        <v>9.261096823733002</v>
+        <v>9.2440613880370428</v>
+      </c>
+      <c r="FM270" s="21">
+        <v>9.890389519624069</v>
       </c>
     </row>
-    <row r="271" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A271" s="15" t="s">
         <v>75</v>
       </c>
@@ -49349,10 +49594,13 @@
         <v>30.590234754202207</v>
       </c>
       <c r="FL271" s="21">
-        <v>25.487713743942606</v>
+        <v>25.477184967884792</v>
+      </c>
+      <c r="FM271" s="21">
+        <v>30.470666067121101</v>
       </c>
     </row>
-    <row r="272" spans="1:168" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" s="15" t="s">
         <v>76</v>
       </c>
@@ -49855,10 +50103,13 @@
         <v>60.504977783318438</v>
       </c>
       <c r="FL272" s="22">
-        <v>65.251189432324395</v>
+        <v>65.278753644078165</v>
+      </c>
+      <c r="FM272" s="22">
+        <v>59.638944413254833</v>
       </c>
     </row>
-    <row r="273" spans="1:168" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A273" s="16"/>
       <c r="B273" s="13"/>
       <c r="C273" s="13"/>
@@ -50027,8 +50278,9 @@
       <c r="FJ273" s="22"/>
       <c r="FK273" s="22"/>
       <c r="FL273" s="22"/>
+      <c r="FM273" s="22"/>
     </row>
-    <row r="274" spans="1:168" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" s="8" t="s">
         <v>10</v>
       </c>
@@ -50533,8 +50785,11 @@
       <c r="FL274" s="22">
         <v>100</v>
       </c>
+      <c r="FM274" s="22">
+        <v>100</v>
+      </c>
     </row>
-    <row r="275" spans="1:168" s="3" customFormat="1" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:169" s="3" customFormat="1" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="2"/>
       <c r="B275" s="13"/>
       <c r="C275" s="13"/>
@@ -50699,7 +50954,7 @@
         <v>-24370.119758612476</v>
       </c>
     </row>
-    <row r="276" spans="1:168" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:169" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="2"/>
       <c r="B276" s="13"/>
       <c r="C276" s="13"/>
@@ -50860,7 +51115,7 @@
       <c r="FB276" s="7"/>
       <c r="FC276" s="7"/>
     </row>
-    <row r="277" spans="1:168" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
       <c r="B277" s="13"/>
       <c r="C277" s="13"/>
       <c r="D277" s="13"/>
@@ -51024,7 +51279,7 @@
         <v>4857262.3839106075</v>
       </c>
     </row>
-    <row r="278" spans="1:168" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
       <c r="B278" s="13"/>
       <c r="C278" s="13"/>
       <c r="D278" s="13"/>
@@ -51182,7 +51437,7 @@
       <c r="EZ278" s="13"/>
       <c r="FA278" s="13"/>
     </row>
-    <row r="279" spans="1:168" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:169" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="9"/>
       <c r="B279" s="9"/>
       <c r="C279" s="9"/>
@@ -51351,37 +51606,38 @@
       <c r="FJ279" s="9"/>
       <c r="FK279" s="9"/>
       <c r="FL279" s="9"/>
+      <c r="FM279" s="9"/>
     </row>
-    <row r="280" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="FC285" s="3"/>
       <c r="FD285" s="3"/>
       <c r="FE285" s="3"/>
     </row>
-    <row r="286" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="FC286" s="3"/>
       <c r="FD286" s="3"/>
       <c r="FE286" s="3"/>
     </row>
-    <row r="287" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>52</v>
       </c>
@@ -51389,21 +51645,21 @@
       <c r="FD287" s="3"/>
       <c r="FE287" s="3"/>
     </row>
-    <row r="288" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A288" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="289" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="290" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
       <c r="FJ290" s="9"/>
     </row>
-    <row r="291" spans="1:168" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:169" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
       <c r="B291" s="26">
         <v>1981</v>
@@ -51656,8 +51912,9 @@
       </c>
       <c r="FK291" s="26"/>
       <c r="FL291" s="26"/>
+      <c r="FM291" s="26"/>
     </row>
-    <row r="292" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A292" s="5" t="s">
         <v>13</v>
       </c>
@@ -52162,11 +52419,14 @@
       <c r="FL292" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="FM292" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="293" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:169" x14ac:dyDescent="0.2">
       <c r="FB293" s="2"/>
     </row>
-    <row r="294" spans="1:168" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A294" s="15" t="s">
         <v>74</v>
       </c>
@@ -52669,10 +52929,13 @@
         <v>8.3525285899411461</v>
       </c>
       <c r="FL294" s="22">
-        <v>8.548343168731483</v>
+        <v>8.5344565277430249</v>
+      </c>
+      <c r="FM294" s="22">
+        <v>9.4201315152166369</v>
       </c>
     </row>
-    <row r="295" spans="1:168" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="15" t="s">
         <v>75</v>
       </c>
@@ -53175,10 +53438,13 @@
         <v>30.540221611716184</v>
       </c>
       <c r="FL295" s="22">
-        <v>26.894786909308579</v>
+        <v>26.892892355240527</v>
+      </c>
+      <c r="FM295" s="22">
+        <v>30.485366091258793</v>
       </c>
     </row>
-    <row r="296" spans="1:168" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A296" s="15" t="s">
         <v>76</v>
       </c>
@@ -53681,10 +53947,13 @@
         <v>61.107249798342664</v>
       </c>
       <c r="FL296" s="22">
-        <v>64.556869921959944</v>
+        <v>64.572651117016449</v>
+      </c>
+      <c r="FM296" s="22">
+        <v>60.094502393524571</v>
       </c>
     </row>
-    <row r="297" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A297" s="16"/>
       <c r="B297" s="13"/>
       <c r="C297" s="13"/>
@@ -53853,8 +54122,9 @@
       <c r="FJ297" s="21"/>
       <c r="FK297" s="21"/>
       <c r="FL297" s="21"/>
+      <c r="FM297" s="21"/>
     </row>
-    <row r="298" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A298" s="8" t="s">
         <v>10</v>
       </c>
@@ -54359,8 +54629,11 @@
       <c r="FL298" s="21">
         <v>100</v>
       </c>
+      <c r="FM298" s="21">
+        <v>100</v>
+      </c>
     </row>
-    <row r="299" spans="1:168" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:169" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B299" s="13"/>
       <c r="C299" s="13"/>
       <c r="D299" s="13"/>
@@ -54524,7 +54797,7 @@
         <v>-0.58654919688841323</v>
       </c>
     </row>
-    <row r="300" spans="1:168" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:169" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B300" s="13"/>
       <c r="C300" s="13"/>
       <c r="D300" s="13"/>
@@ -54688,7 +54961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:168" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:169" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B301" s="13"/>
       <c r="C301" s="13"/>
       <c r="D301" s="13"/>
@@ -54852,7 +55125,7 @@
         <v>116.90641566717015</v>
       </c>
     </row>
-    <row r="302" spans="1:168" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:169" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B302" s="13"/>
       <c r="C302" s="13"/>
       <c r="D302" s="13"/>
@@ -55016,7 +55289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:168" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:169" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="9"/>
       <c r="B303" s="9"/>
       <c r="C303" s="9"/>
@@ -55185,8 +55458,9 @@
       <c r="FJ303" s="9"/>
       <c r="FK303" s="9"/>
       <c r="FL303" s="9"/>
+      <c r="FM303" s="9"/>
     </row>
-    <row r="304" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>0</v>
       </c>
@@ -55527,35 +55801,453 @@
     </row>
   </sheetData>
   <mergeCells count="500">
-    <mergeCell ref="FJ9:FL9"/>
-    <mergeCell ref="FJ36:FL36"/>
-    <mergeCell ref="FJ117:FL117"/>
-    <mergeCell ref="FJ144:FL144"/>
-    <mergeCell ref="FJ171:FL171"/>
-    <mergeCell ref="FJ195:FL195"/>
-    <mergeCell ref="FJ267:FL267"/>
-    <mergeCell ref="FJ291:FL291"/>
-    <mergeCell ref="FF219:FH219"/>
-    <mergeCell ref="FF243:FH243"/>
-    <mergeCell ref="EX63:FA63"/>
-    <mergeCell ref="EX90:FA90"/>
-    <mergeCell ref="FB117:FD117"/>
-    <mergeCell ref="FB144:FD144"/>
-    <mergeCell ref="FB171:FD171"/>
-    <mergeCell ref="FB195:FD195"/>
-    <mergeCell ref="EX195:FA195"/>
-    <mergeCell ref="EX36:FA36"/>
-    <mergeCell ref="FF9:FI9"/>
-    <mergeCell ref="FF36:FI36"/>
-    <mergeCell ref="FB63:FE63"/>
-    <mergeCell ref="FB90:FE90"/>
-    <mergeCell ref="FF117:FI117"/>
-    <mergeCell ref="FF144:FI144"/>
-    <mergeCell ref="FF171:FI171"/>
-    <mergeCell ref="FF195:FI195"/>
-    <mergeCell ref="FB9:FE9"/>
-    <mergeCell ref="FF63:FH63"/>
-    <mergeCell ref="FF90:FH90"/>
+    <mergeCell ref="FB267:FD267"/>
+    <mergeCell ref="FB291:FD291"/>
+    <mergeCell ref="FB36:FD36"/>
+    <mergeCell ref="FE291:FI291"/>
+    <mergeCell ref="FF267:FI267"/>
+    <mergeCell ref="FB243:FE243"/>
+    <mergeCell ref="FB219:FE219"/>
+    <mergeCell ref="CD36:CG36"/>
+    <mergeCell ref="CH36:CK36"/>
+    <mergeCell ref="CL36:CO36"/>
+    <mergeCell ref="CP36:CS36"/>
+    <mergeCell ref="CT36:CW36"/>
+    <mergeCell ref="CX36:DA36"/>
+    <mergeCell ref="DB36:DE36"/>
+    <mergeCell ref="DF36:DI36"/>
+    <mergeCell ref="DJ36:DM36"/>
+    <mergeCell ref="DN36:DQ36"/>
+    <mergeCell ref="DR36:DU36"/>
+    <mergeCell ref="DV36:DY36"/>
+    <mergeCell ref="DZ36:EC36"/>
+    <mergeCell ref="EL63:EO63"/>
+    <mergeCell ref="EP63:ES63"/>
+    <mergeCell ref="CD63:CG63"/>
+    <mergeCell ref="EH90:EK90"/>
+    <mergeCell ref="DV9:DY9"/>
+    <mergeCell ref="CX9:DA9"/>
+    <mergeCell ref="DB9:DE9"/>
+    <mergeCell ref="DF9:DI9"/>
+    <mergeCell ref="DJ9:DM9"/>
+    <mergeCell ref="DN9:DQ9"/>
+    <mergeCell ref="DR9:DU9"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CP9:CS9"/>
+    <mergeCell ref="CT9:CW9"/>
+    <mergeCell ref="ET9:EW9"/>
+    <mergeCell ref="EX9:FA9"/>
+    <mergeCell ref="DZ9:EC9"/>
+    <mergeCell ref="ED9:EG9"/>
+    <mergeCell ref="EH9:EK9"/>
+    <mergeCell ref="EL9:EO9"/>
+    <mergeCell ref="EP9:ES9"/>
+    <mergeCell ref="EH36:EK36"/>
+    <mergeCell ref="EL36:EO36"/>
+    <mergeCell ref="EP36:ES36"/>
+    <mergeCell ref="ET36:EW36"/>
+    <mergeCell ref="ED36:EG36"/>
+    <mergeCell ref="DF90:DI90"/>
+    <mergeCell ref="DF63:DI63"/>
+    <mergeCell ref="DJ63:DM63"/>
+    <mergeCell ref="EL90:EO90"/>
+    <mergeCell ref="EP90:ES90"/>
+    <mergeCell ref="ET90:EW90"/>
+    <mergeCell ref="DJ90:DM90"/>
+    <mergeCell ref="DN90:DQ90"/>
+    <mergeCell ref="DR90:DU90"/>
+    <mergeCell ref="DV90:DY90"/>
+    <mergeCell ref="DZ90:EC90"/>
+    <mergeCell ref="ED90:EG90"/>
+    <mergeCell ref="ET63:EW63"/>
+    <mergeCell ref="DV63:DY63"/>
+    <mergeCell ref="DZ63:EC63"/>
+    <mergeCell ref="ED63:EG63"/>
+    <mergeCell ref="EH63:EK63"/>
+    <mergeCell ref="DN63:DQ63"/>
+    <mergeCell ref="DR63:DU63"/>
+    <mergeCell ref="CT90:CW90"/>
+    <mergeCell ref="CX90:DA90"/>
+    <mergeCell ref="DB90:DE90"/>
+    <mergeCell ref="CX63:DA63"/>
+    <mergeCell ref="DB63:DE63"/>
+    <mergeCell ref="CD90:CG90"/>
+    <mergeCell ref="CH90:CK90"/>
+    <mergeCell ref="CL90:CO90"/>
+    <mergeCell ref="CP90:CS90"/>
+    <mergeCell ref="CH63:CK63"/>
+    <mergeCell ref="CL63:CO63"/>
+    <mergeCell ref="CP63:CS63"/>
+    <mergeCell ref="CT63:CW63"/>
+    <mergeCell ref="ET144:EW144"/>
+    <mergeCell ref="EX144:FA144"/>
+    <mergeCell ref="DZ144:EC144"/>
+    <mergeCell ref="ED144:EG144"/>
+    <mergeCell ref="EH144:EK144"/>
+    <mergeCell ref="EL144:EO144"/>
+    <mergeCell ref="EP144:ES144"/>
+    <mergeCell ref="EH117:EK117"/>
+    <mergeCell ref="EL117:EO117"/>
+    <mergeCell ref="EP117:ES117"/>
+    <mergeCell ref="ET117:EW117"/>
+    <mergeCell ref="EX117:FA117"/>
+    <mergeCell ref="BZ117:CC117"/>
+    <mergeCell ref="CD117:CG117"/>
+    <mergeCell ref="CH117:CK117"/>
+    <mergeCell ref="CL117:CO117"/>
+    <mergeCell ref="CP117:CS117"/>
+    <mergeCell ref="CT117:CW117"/>
+    <mergeCell ref="CX117:DA117"/>
+    <mergeCell ref="DB117:DE117"/>
+    <mergeCell ref="ED117:EG117"/>
+    <mergeCell ref="DF117:DI117"/>
+    <mergeCell ref="DJ117:DM117"/>
+    <mergeCell ref="DN117:DQ117"/>
+    <mergeCell ref="DR117:DU117"/>
+    <mergeCell ref="DV117:DY117"/>
+    <mergeCell ref="DZ117:EC117"/>
+    <mergeCell ref="CD171:CG171"/>
+    <mergeCell ref="CH171:CK171"/>
+    <mergeCell ref="CL171:CO171"/>
+    <mergeCell ref="CP171:CS171"/>
+    <mergeCell ref="CT171:CW171"/>
+    <mergeCell ref="CX171:DA171"/>
+    <mergeCell ref="DB171:DE171"/>
+    <mergeCell ref="DV144:DY144"/>
+    <mergeCell ref="CX144:DA144"/>
+    <mergeCell ref="DB144:DE144"/>
+    <mergeCell ref="DF144:DI144"/>
+    <mergeCell ref="DJ144:DM144"/>
+    <mergeCell ref="DN144:DQ144"/>
+    <mergeCell ref="DR144:DU144"/>
+    <mergeCell ref="CD144:CG144"/>
+    <mergeCell ref="CH144:CK144"/>
+    <mergeCell ref="CL144:CO144"/>
+    <mergeCell ref="CP144:CS144"/>
+    <mergeCell ref="CT144:CW144"/>
+    <mergeCell ref="ET171:EW171"/>
+    <mergeCell ref="ET195:EW195"/>
+    <mergeCell ref="EX171:FA171"/>
+    <mergeCell ref="DF171:DI171"/>
+    <mergeCell ref="DJ171:DM171"/>
+    <mergeCell ref="DN171:DQ171"/>
+    <mergeCell ref="DR171:DU171"/>
+    <mergeCell ref="DV171:DY171"/>
+    <mergeCell ref="DZ171:EC171"/>
+    <mergeCell ref="ED219:EG219"/>
+    <mergeCell ref="CH195:CK195"/>
+    <mergeCell ref="CL195:CO195"/>
+    <mergeCell ref="CP195:CS195"/>
+    <mergeCell ref="CT195:CW195"/>
+    <mergeCell ref="ED171:EG171"/>
+    <mergeCell ref="EH171:EK171"/>
+    <mergeCell ref="EL171:EO171"/>
+    <mergeCell ref="EP171:ES171"/>
+    <mergeCell ref="DZ195:EC195"/>
+    <mergeCell ref="ED195:EG195"/>
+    <mergeCell ref="EH195:EK195"/>
+    <mergeCell ref="EL195:EO195"/>
+    <mergeCell ref="EP195:ES195"/>
+    <mergeCell ref="CX195:DA195"/>
+    <mergeCell ref="DB195:DE195"/>
+    <mergeCell ref="DF195:DI195"/>
+    <mergeCell ref="DJ195:DM195"/>
+    <mergeCell ref="DN195:DQ195"/>
+    <mergeCell ref="DR195:DU195"/>
+    <mergeCell ref="EH219:EK219"/>
+    <mergeCell ref="EL219:EO219"/>
+    <mergeCell ref="EP219:ES219"/>
+    <mergeCell ref="CD219:CG219"/>
+    <mergeCell ref="CH219:CK219"/>
+    <mergeCell ref="CL219:CO219"/>
+    <mergeCell ref="CP219:CS219"/>
+    <mergeCell ref="CT219:CW219"/>
+    <mergeCell ref="CX219:DA219"/>
+    <mergeCell ref="DB219:DE219"/>
+    <mergeCell ref="DV195:DY195"/>
+    <mergeCell ref="BZ195:CC195"/>
+    <mergeCell ref="CD195:CG195"/>
+    <mergeCell ref="ET219:EW219"/>
+    <mergeCell ref="BZ243:CC243"/>
+    <mergeCell ref="CD243:CG243"/>
+    <mergeCell ref="CH243:CK243"/>
+    <mergeCell ref="CL243:CO243"/>
+    <mergeCell ref="CP243:CS243"/>
+    <mergeCell ref="DF219:DI219"/>
+    <mergeCell ref="DJ219:DM219"/>
+    <mergeCell ref="DN219:DQ219"/>
+    <mergeCell ref="DR219:DU219"/>
+    <mergeCell ref="DV219:DY219"/>
+    <mergeCell ref="DZ219:EC219"/>
+    <mergeCell ref="EP243:ES243"/>
+    <mergeCell ref="ET243:EW243"/>
+    <mergeCell ref="DV243:DY243"/>
+    <mergeCell ref="DZ243:EC243"/>
+    <mergeCell ref="ED243:EG243"/>
+    <mergeCell ref="EH243:EK243"/>
+    <mergeCell ref="EL243:EO243"/>
+    <mergeCell ref="DR243:DU243"/>
+    <mergeCell ref="CT243:CW243"/>
+    <mergeCell ref="CX243:DA243"/>
+    <mergeCell ref="DB243:DE243"/>
+    <mergeCell ref="DF243:DI243"/>
+    <mergeCell ref="DJ243:DM243"/>
+    <mergeCell ref="DN243:DQ243"/>
+    <mergeCell ref="CT267:CW267"/>
+    <mergeCell ref="EX291:FA291"/>
+    <mergeCell ref="DF291:DI291"/>
+    <mergeCell ref="DJ291:DM291"/>
+    <mergeCell ref="DN291:DQ291"/>
+    <mergeCell ref="DR291:DU291"/>
+    <mergeCell ref="DV291:DY291"/>
+    <mergeCell ref="DZ291:EC291"/>
+    <mergeCell ref="ET267:EW267"/>
+    <mergeCell ref="EX267:FA267"/>
+    <mergeCell ref="DV267:DY267"/>
+    <mergeCell ref="DZ267:EC267"/>
+    <mergeCell ref="ED267:EG267"/>
+    <mergeCell ref="EH267:EK267"/>
+    <mergeCell ref="EL267:EO267"/>
+    <mergeCell ref="EP267:ES267"/>
+    <mergeCell ref="DF267:DI267"/>
+    <mergeCell ref="DJ267:DM267"/>
+    <mergeCell ref="DN267:DQ267"/>
+    <mergeCell ref="DR267:DU267"/>
+    <mergeCell ref="ET291:EW291"/>
+    <mergeCell ref="ED291:EG291"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="BZ291:CC291"/>
+    <mergeCell ref="BZ219:CC219"/>
+    <mergeCell ref="BZ171:CC171"/>
+    <mergeCell ref="BZ144:CC144"/>
+    <mergeCell ref="BZ63:CC63"/>
+    <mergeCell ref="BZ90:CC90"/>
+    <mergeCell ref="BZ36:CC36"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="BR36:BU36"/>
+    <mergeCell ref="BV36:BY36"/>
+    <mergeCell ref="BF63:BI63"/>
+    <mergeCell ref="EH291:EK291"/>
+    <mergeCell ref="EL291:EO291"/>
+    <mergeCell ref="EP291:ES291"/>
+    <mergeCell ref="CX267:DA267"/>
+    <mergeCell ref="DB267:DE267"/>
+    <mergeCell ref="BZ267:CC267"/>
+    <mergeCell ref="CD267:CG267"/>
+    <mergeCell ref="CH267:CK267"/>
+    <mergeCell ref="CL267:CO267"/>
+    <mergeCell ref="CP267:CS267"/>
+    <mergeCell ref="CD291:CG291"/>
+    <mergeCell ref="CH291:CK291"/>
+    <mergeCell ref="CL291:CO291"/>
+    <mergeCell ref="CP291:CS291"/>
+    <mergeCell ref="CT291:CW291"/>
+    <mergeCell ref="CX291:DA291"/>
+    <mergeCell ref="DB291:DE291"/>
+    <mergeCell ref="BJ63:BM63"/>
+    <mergeCell ref="BN63:BQ63"/>
+    <mergeCell ref="BR63:BU63"/>
+    <mergeCell ref="BV63:BY63"/>
+    <mergeCell ref="AX63:BA63"/>
+    <mergeCell ref="BB63:BE63"/>
+    <mergeCell ref="BR90:BU90"/>
+    <mergeCell ref="BV90:BY90"/>
+    <mergeCell ref="AX90:BA90"/>
+    <mergeCell ref="BB90:BE90"/>
+    <mergeCell ref="BF90:BI90"/>
+    <mergeCell ref="BJ90:BM90"/>
+    <mergeCell ref="BN90:BQ90"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="BJ36:BM36"/>
+    <mergeCell ref="BN36:BQ36"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="R36:U36"/>
+    <mergeCell ref="V36:Y36"/>
+    <mergeCell ref="Z36:AC36"/>
+    <mergeCell ref="AD36:AG36"/>
+    <mergeCell ref="AH36:AK36"/>
+    <mergeCell ref="AL36:AO36"/>
+    <mergeCell ref="AP36:AS36"/>
+    <mergeCell ref="AT36:AW36"/>
+    <mergeCell ref="AX36:BA36"/>
+    <mergeCell ref="BB36:BE36"/>
+    <mergeCell ref="BF36:BI36"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="J90:M90"/>
+    <mergeCell ref="N90:Q90"/>
+    <mergeCell ref="R90:U90"/>
+    <mergeCell ref="AH63:AK63"/>
+    <mergeCell ref="AL63:AO63"/>
+    <mergeCell ref="AP63:AS63"/>
+    <mergeCell ref="AT63:AW63"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="R63:U63"/>
+    <mergeCell ref="V63:Y63"/>
+    <mergeCell ref="Z63:AC63"/>
+    <mergeCell ref="AD63:AG63"/>
+    <mergeCell ref="AT90:AW90"/>
+    <mergeCell ref="V90:Y90"/>
+    <mergeCell ref="Z90:AC90"/>
+    <mergeCell ref="AD90:AG90"/>
+    <mergeCell ref="AH90:AK90"/>
+    <mergeCell ref="AL90:AO90"/>
+    <mergeCell ref="AP90:AS90"/>
+    <mergeCell ref="B117:E117"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="J117:M117"/>
+    <mergeCell ref="N117:Q117"/>
+    <mergeCell ref="R117:U117"/>
+    <mergeCell ref="BR117:BU117"/>
+    <mergeCell ref="BV117:BY117"/>
+    <mergeCell ref="AX117:BA117"/>
+    <mergeCell ref="BB117:BE117"/>
+    <mergeCell ref="BF117:BI117"/>
+    <mergeCell ref="BJ117:BM117"/>
+    <mergeCell ref="BN117:BQ117"/>
+    <mergeCell ref="F144:I144"/>
+    <mergeCell ref="J144:M144"/>
+    <mergeCell ref="N144:Q144"/>
+    <mergeCell ref="R144:U144"/>
+    <mergeCell ref="V144:Y144"/>
+    <mergeCell ref="Z144:AC144"/>
+    <mergeCell ref="AD144:AG144"/>
+    <mergeCell ref="AT117:AW117"/>
+    <mergeCell ref="V117:Y117"/>
+    <mergeCell ref="Z117:AC117"/>
+    <mergeCell ref="AD117:AG117"/>
+    <mergeCell ref="AH117:AK117"/>
+    <mergeCell ref="AL117:AO117"/>
+    <mergeCell ref="AP117:AS117"/>
+    <mergeCell ref="BF144:BI144"/>
+    <mergeCell ref="BJ144:BM144"/>
+    <mergeCell ref="BN144:BQ144"/>
+    <mergeCell ref="BR144:BU144"/>
+    <mergeCell ref="BV144:BY144"/>
+    <mergeCell ref="B171:E171"/>
+    <mergeCell ref="F171:I171"/>
+    <mergeCell ref="J171:M171"/>
+    <mergeCell ref="N171:Q171"/>
+    <mergeCell ref="R171:U171"/>
+    <mergeCell ref="AH144:AK144"/>
+    <mergeCell ref="AL144:AO144"/>
+    <mergeCell ref="AP144:AS144"/>
+    <mergeCell ref="AT144:AW144"/>
+    <mergeCell ref="AX144:BA144"/>
+    <mergeCell ref="BB144:BE144"/>
+    <mergeCell ref="BR171:BU171"/>
+    <mergeCell ref="BV171:BY171"/>
+    <mergeCell ref="AX171:BA171"/>
+    <mergeCell ref="BB171:BE171"/>
+    <mergeCell ref="BF171:BI171"/>
+    <mergeCell ref="BJ171:BM171"/>
+    <mergeCell ref="BN171:BQ171"/>
+    <mergeCell ref="B144:E144"/>
+    <mergeCell ref="F195:I195"/>
+    <mergeCell ref="J195:M195"/>
+    <mergeCell ref="N195:Q195"/>
+    <mergeCell ref="R195:U195"/>
+    <mergeCell ref="V195:Y195"/>
+    <mergeCell ref="Z195:AC195"/>
+    <mergeCell ref="AD195:AG195"/>
+    <mergeCell ref="AT171:AW171"/>
+    <mergeCell ref="V171:Y171"/>
+    <mergeCell ref="Z171:AC171"/>
+    <mergeCell ref="AD171:AG171"/>
+    <mergeCell ref="AH171:AK171"/>
+    <mergeCell ref="AL171:AO171"/>
+    <mergeCell ref="AP171:AS171"/>
+    <mergeCell ref="BF195:BI195"/>
+    <mergeCell ref="BJ195:BM195"/>
+    <mergeCell ref="BN195:BQ195"/>
+    <mergeCell ref="BR195:BU195"/>
+    <mergeCell ref="BV195:BY195"/>
+    <mergeCell ref="B219:E219"/>
+    <mergeCell ref="F219:I219"/>
+    <mergeCell ref="J219:M219"/>
+    <mergeCell ref="N219:Q219"/>
+    <mergeCell ref="R219:U219"/>
+    <mergeCell ref="AH195:AK195"/>
+    <mergeCell ref="AL195:AO195"/>
+    <mergeCell ref="AP195:AS195"/>
+    <mergeCell ref="AT195:AW195"/>
+    <mergeCell ref="AX195:BA195"/>
+    <mergeCell ref="BB195:BE195"/>
+    <mergeCell ref="BR219:BU219"/>
+    <mergeCell ref="BV219:BY219"/>
+    <mergeCell ref="AX219:BA219"/>
+    <mergeCell ref="BB219:BE219"/>
+    <mergeCell ref="BF219:BI219"/>
+    <mergeCell ref="BJ219:BM219"/>
+    <mergeCell ref="BN219:BQ219"/>
+    <mergeCell ref="B195:E195"/>
+    <mergeCell ref="F243:I243"/>
+    <mergeCell ref="J243:M243"/>
+    <mergeCell ref="N243:Q243"/>
+    <mergeCell ref="R243:U243"/>
+    <mergeCell ref="V243:Y243"/>
+    <mergeCell ref="Z243:AC243"/>
+    <mergeCell ref="AD243:AG243"/>
+    <mergeCell ref="AT219:AW219"/>
+    <mergeCell ref="V219:Y219"/>
+    <mergeCell ref="Z219:AC219"/>
+    <mergeCell ref="AD219:AG219"/>
+    <mergeCell ref="AH219:AK219"/>
+    <mergeCell ref="AL219:AO219"/>
+    <mergeCell ref="AP219:AS219"/>
+    <mergeCell ref="BF243:BI243"/>
+    <mergeCell ref="BJ243:BM243"/>
+    <mergeCell ref="BN243:BQ243"/>
+    <mergeCell ref="BR243:BU243"/>
+    <mergeCell ref="BV243:BY243"/>
+    <mergeCell ref="AH243:AK243"/>
+    <mergeCell ref="AL243:AO243"/>
+    <mergeCell ref="AP243:AS243"/>
+    <mergeCell ref="AT243:AW243"/>
+    <mergeCell ref="AX243:BA243"/>
+    <mergeCell ref="BB243:BE243"/>
+    <mergeCell ref="BV267:BY267"/>
+    <mergeCell ref="B291:E291"/>
+    <mergeCell ref="F291:I291"/>
+    <mergeCell ref="J291:M291"/>
+    <mergeCell ref="N291:Q291"/>
+    <mergeCell ref="R291:U291"/>
+    <mergeCell ref="AH267:AK267"/>
+    <mergeCell ref="AL267:AO267"/>
+    <mergeCell ref="AP267:AS267"/>
+    <mergeCell ref="AT267:AW267"/>
+    <mergeCell ref="AX267:BA267"/>
+    <mergeCell ref="BB267:BE267"/>
+    <mergeCell ref="BR291:BU291"/>
+    <mergeCell ref="BV291:BY291"/>
+    <mergeCell ref="AT291:AW291"/>
+    <mergeCell ref="AX291:BA291"/>
+    <mergeCell ref="BB291:BE291"/>
     <mergeCell ref="EX219:EZ219"/>
     <mergeCell ref="EX243:EZ243"/>
     <mergeCell ref="BF291:BI291"/>
@@ -55580,453 +56272,35 @@
     <mergeCell ref="Z267:AC267"/>
     <mergeCell ref="AD267:AG267"/>
     <mergeCell ref="BR267:BU267"/>
-    <mergeCell ref="BV267:BY267"/>
-    <mergeCell ref="B291:E291"/>
-    <mergeCell ref="F291:I291"/>
-    <mergeCell ref="J291:M291"/>
-    <mergeCell ref="N291:Q291"/>
-    <mergeCell ref="R291:U291"/>
-    <mergeCell ref="AH267:AK267"/>
-    <mergeCell ref="AL267:AO267"/>
-    <mergeCell ref="AP267:AS267"/>
-    <mergeCell ref="AT267:AW267"/>
-    <mergeCell ref="AX267:BA267"/>
-    <mergeCell ref="BB267:BE267"/>
-    <mergeCell ref="BR291:BU291"/>
-    <mergeCell ref="BV291:BY291"/>
-    <mergeCell ref="AT291:AW291"/>
-    <mergeCell ref="AX291:BA291"/>
-    <mergeCell ref="BB291:BE291"/>
-    <mergeCell ref="BF243:BI243"/>
-    <mergeCell ref="BJ243:BM243"/>
-    <mergeCell ref="BN243:BQ243"/>
-    <mergeCell ref="BR243:BU243"/>
-    <mergeCell ref="BV243:BY243"/>
-    <mergeCell ref="AH243:AK243"/>
-    <mergeCell ref="AL243:AO243"/>
-    <mergeCell ref="AP243:AS243"/>
-    <mergeCell ref="AT243:AW243"/>
-    <mergeCell ref="AX243:BA243"/>
-    <mergeCell ref="BB243:BE243"/>
-    <mergeCell ref="F243:I243"/>
-    <mergeCell ref="J243:M243"/>
-    <mergeCell ref="N243:Q243"/>
-    <mergeCell ref="R243:U243"/>
-    <mergeCell ref="V243:Y243"/>
-    <mergeCell ref="Z243:AC243"/>
-    <mergeCell ref="AD243:AG243"/>
-    <mergeCell ref="AT219:AW219"/>
-    <mergeCell ref="V219:Y219"/>
-    <mergeCell ref="Z219:AC219"/>
-    <mergeCell ref="AD219:AG219"/>
-    <mergeCell ref="AH219:AK219"/>
-    <mergeCell ref="AL219:AO219"/>
-    <mergeCell ref="AP219:AS219"/>
-    <mergeCell ref="BF195:BI195"/>
-    <mergeCell ref="BJ195:BM195"/>
-    <mergeCell ref="BN195:BQ195"/>
-    <mergeCell ref="BR195:BU195"/>
-    <mergeCell ref="BV195:BY195"/>
-    <mergeCell ref="B219:E219"/>
-    <mergeCell ref="F219:I219"/>
-    <mergeCell ref="J219:M219"/>
-    <mergeCell ref="N219:Q219"/>
-    <mergeCell ref="R219:U219"/>
-    <mergeCell ref="AH195:AK195"/>
-    <mergeCell ref="AL195:AO195"/>
-    <mergeCell ref="AP195:AS195"/>
-    <mergeCell ref="AT195:AW195"/>
-    <mergeCell ref="AX195:BA195"/>
-    <mergeCell ref="BB195:BE195"/>
-    <mergeCell ref="BR219:BU219"/>
-    <mergeCell ref="BV219:BY219"/>
-    <mergeCell ref="AX219:BA219"/>
-    <mergeCell ref="BB219:BE219"/>
-    <mergeCell ref="BF219:BI219"/>
-    <mergeCell ref="BJ219:BM219"/>
-    <mergeCell ref="BN219:BQ219"/>
-    <mergeCell ref="B195:E195"/>
-    <mergeCell ref="F195:I195"/>
-    <mergeCell ref="J195:M195"/>
-    <mergeCell ref="N195:Q195"/>
-    <mergeCell ref="R195:U195"/>
-    <mergeCell ref="V195:Y195"/>
-    <mergeCell ref="Z195:AC195"/>
-    <mergeCell ref="AD195:AG195"/>
-    <mergeCell ref="AT171:AW171"/>
-    <mergeCell ref="V171:Y171"/>
-    <mergeCell ref="Z171:AC171"/>
-    <mergeCell ref="AD171:AG171"/>
-    <mergeCell ref="AH171:AK171"/>
-    <mergeCell ref="AL171:AO171"/>
-    <mergeCell ref="AP171:AS171"/>
-    <mergeCell ref="BF144:BI144"/>
-    <mergeCell ref="BJ144:BM144"/>
-    <mergeCell ref="BN144:BQ144"/>
-    <mergeCell ref="BR144:BU144"/>
-    <mergeCell ref="BV144:BY144"/>
-    <mergeCell ref="B171:E171"/>
-    <mergeCell ref="F171:I171"/>
-    <mergeCell ref="J171:M171"/>
-    <mergeCell ref="N171:Q171"/>
-    <mergeCell ref="R171:U171"/>
-    <mergeCell ref="AH144:AK144"/>
-    <mergeCell ref="AL144:AO144"/>
-    <mergeCell ref="AP144:AS144"/>
-    <mergeCell ref="AT144:AW144"/>
-    <mergeCell ref="AX144:BA144"/>
-    <mergeCell ref="BB144:BE144"/>
-    <mergeCell ref="BR171:BU171"/>
-    <mergeCell ref="BV171:BY171"/>
-    <mergeCell ref="AX171:BA171"/>
-    <mergeCell ref="BB171:BE171"/>
-    <mergeCell ref="BF171:BI171"/>
-    <mergeCell ref="BJ171:BM171"/>
-    <mergeCell ref="BN171:BQ171"/>
-    <mergeCell ref="B144:E144"/>
-    <mergeCell ref="F144:I144"/>
-    <mergeCell ref="J144:M144"/>
-    <mergeCell ref="N144:Q144"/>
-    <mergeCell ref="R144:U144"/>
-    <mergeCell ref="V144:Y144"/>
-    <mergeCell ref="Z144:AC144"/>
-    <mergeCell ref="AD144:AG144"/>
-    <mergeCell ref="AT117:AW117"/>
-    <mergeCell ref="V117:Y117"/>
-    <mergeCell ref="Z117:AC117"/>
-    <mergeCell ref="AD117:AG117"/>
-    <mergeCell ref="AH117:AK117"/>
-    <mergeCell ref="AL117:AO117"/>
-    <mergeCell ref="AP117:AS117"/>
-    <mergeCell ref="B117:E117"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="J117:M117"/>
-    <mergeCell ref="N117:Q117"/>
-    <mergeCell ref="R117:U117"/>
-    <mergeCell ref="BR117:BU117"/>
-    <mergeCell ref="BV117:BY117"/>
-    <mergeCell ref="AX117:BA117"/>
-    <mergeCell ref="BB117:BE117"/>
-    <mergeCell ref="BF117:BI117"/>
-    <mergeCell ref="BJ117:BM117"/>
-    <mergeCell ref="BN117:BQ117"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="J90:M90"/>
-    <mergeCell ref="N90:Q90"/>
-    <mergeCell ref="R90:U90"/>
-    <mergeCell ref="AH63:AK63"/>
-    <mergeCell ref="AL63:AO63"/>
-    <mergeCell ref="AP63:AS63"/>
-    <mergeCell ref="AT63:AW63"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="N63:Q63"/>
-    <mergeCell ref="R63:U63"/>
-    <mergeCell ref="V63:Y63"/>
-    <mergeCell ref="Z63:AC63"/>
-    <mergeCell ref="AD63:AG63"/>
-    <mergeCell ref="AT90:AW90"/>
-    <mergeCell ref="V90:Y90"/>
-    <mergeCell ref="Z90:AC90"/>
-    <mergeCell ref="AD90:AG90"/>
-    <mergeCell ref="AH90:AK90"/>
-    <mergeCell ref="AL90:AO90"/>
-    <mergeCell ref="AP90:AS90"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="BJ36:BM36"/>
-    <mergeCell ref="BN36:BQ36"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="R36:U36"/>
-    <mergeCell ref="V36:Y36"/>
-    <mergeCell ref="Z36:AC36"/>
-    <mergeCell ref="AD36:AG36"/>
-    <mergeCell ref="AH36:AK36"/>
-    <mergeCell ref="AL36:AO36"/>
-    <mergeCell ref="AP36:AS36"/>
-    <mergeCell ref="AT36:AW36"/>
-    <mergeCell ref="AX36:BA36"/>
-    <mergeCell ref="BB36:BE36"/>
-    <mergeCell ref="BF36:BI36"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="BJ63:BM63"/>
-    <mergeCell ref="BN63:BQ63"/>
-    <mergeCell ref="BR63:BU63"/>
-    <mergeCell ref="BV63:BY63"/>
-    <mergeCell ref="AX63:BA63"/>
-    <mergeCell ref="BB63:BE63"/>
-    <mergeCell ref="BR90:BU90"/>
-    <mergeCell ref="BV90:BY90"/>
-    <mergeCell ref="AX90:BA90"/>
-    <mergeCell ref="BB90:BE90"/>
-    <mergeCell ref="BF90:BI90"/>
-    <mergeCell ref="BJ90:BM90"/>
-    <mergeCell ref="BN90:BQ90"/>
-    <mergeCell ref="EH291:EK291"/>
-    <mergeCell ref="EL291:EO291"/>
-    <mergeCell ref="EP291:ES291"/>
-    <mergeCell ref="CX267:DA267"/>
-    <mergeCell ref="DB267:DE267"/>
-    <mergeCell ref="BZ267:CC267"/>
-    <mergeCell ref="CD267:CG267"/>
-    <mergeCell ref="CH267:CK267"/>
-    <mergeCell ref="CL267:CO267"/>
-    <mergeCell ref="CP267:CS267"/>
-    <mergeCell ref="CD291:CG291"/>
-    <mergeCell ref="CH291:CK291"/>
-    <mergeCell ref="CL291:CO291"/>
-    <mergeCell ref="CP291:CS291"/>
-    <mergeCell ref="CT291:CW291"/>
-    <mergeCell ref="CX291:DA291"/>
-    <mergeCell ref="DB291:DE291"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="BZ291:CC291"/>
-    <mergeCell ref="BZ219:CC219"/>
-    <mergeCell ref="BZ171:CC171"/>
-    <mergeCell ref="BZ144:CC144"/>
-    <mergeCell ref="BZ63:CC63"/>
-    <mergeCell ref="BZ90:CC90"/>
-    <mergeCell ref="BZ36:CC36"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="BR36:BU36"/>
-    <mergeCell ref="BV36:BY36"/>
-    <mergeCell ref="BF63:BI63"/>
-    <mergeCell ref="DJ243:DM243"/>
-    <mergeCell ref="DN243:DQ243"/>
-    <mergeCell ref="CT267:CW267"/>
-    <mergeCell ref="EX291:FA291"/>
-    <mergeCell ref="DF291:DI291"/>
-    <mergeCell ref="DJ291:DM291"/>
-    <mergeCell ref="DN291:DQ291"/>
-    <mergeCell ref="DR291:DU291"/>
-    <mergeCell ref="DV291:DY291"/>
-    <mergeCell ref="DZ291:EC291"/>
-    <mergeCell ref="ET267:EW267"/>
-    <mergeCell ref="EX267:FA267"/>
-    <mergeCell ref="DV267:DY267"/>
-    <mergeCell ref="DZ267:EC267"/>
-    <mergeCell ref="ED267:EG267"/>
-    <mergeCell ref="EH267:EK267"/>
-    <mergeCell ref="EL267:EO267"/>
-    <mergeCell ref="EP267:ES267"/>
-    <mergeCell ref="DF267:DI267"/>
-    <mergeCell ref="DJ267:DM267"/>
-    <mergeCell ref="DN267:DQ267"/>
-    <mergeCell ref="DR267:DU267"/>
-    <mergeCell ref="ET291:EW291"/>
-    <mergeCell ref="ED291:EG291"/>
-    <mergeCell ref="ET219:EW219"/>
-    <mergeCell ref="BZ243:CC243"/>
-    <mergeCell ref="CD243:CG243"/>
-    <mergeCell ref="CH243:CK243"/>
-    <mergeCell ref="CL243:CO243"/>
-    <mergeCell ref="CP243:CS243"/>
-    <mergeCell ref="DF219:DI219"/>
-    <mergeCell ref="DJ219:DM219"/>
-    <mergeCell ref="DN219:DQ219"/>
-    <mergeCell ref="DR219:DU219"/>
-    <mergeCell ref="DV219:DY219"/>
-    <mergeCell ref="DZ219:EC219"/>
-    <mergeCell ref="EP243:ES243"/>
-    <mergeCell ref="ET243:EW243"/>
-    <mergeCell ref="DV243:DY243"/>
-    <mergeCell ref="DZ243:EC243"/>
-    <mergeCell ref="ED243:EG243"/>
-    <mergeCell ref="EH243:EK243"/>
-    <mergeCell ref="EL243:EO243"/>
-    <mergeCell ref="DR243:DU243"/>
-    <mergeCell ref="CT243:CW243"/>
-    <mergeCell ref="CX243:DA243"/>
-    <mergeCell ref="DB243:DE243"/>
-    <mergeCell ref="DF243:DI243"/>
-    <mergeCell ref="CD219:CG219"/>
-    <mergeCell ref="CH219:CK219"/>
-    <mergeCell ref="CL219:CO219"/>
-    <mergeCell ref="CP219:CS219"/>
-    <mergeCell ref="CT219:CW219"/>
-    <mergeCell ref="CX219:DA219"/>
-    <mergeCell ref="DB219:DE219"/>
-    <mergeCell ref="DV195:DY195"/>
-    <mergeCell ref="BZ195:CC195"/>
-    <mergeCell ref="CD195:CG195"/>
-    <mergeCell ref="ED219:EG219"/>
-    <mergeCell ref="CH195:CK195"/>
-    <mergeCell ref="CL195:CO195"/>
-    <mergeCell ref="CP195:CS195"/>
-    <mergeCell ref="CT195:CW195"/>
-    <mergeCell ref="ED171:EG171"/>
-    <mergeCell ref="EH171:EK171"/>
-    <mergeCell ref="EL171:EO171"/>
-    <mergeCell ref="EP171:ES171"/>
-    <mergeCell ref="DZ195:EC195"/>
-    <mergeCell ref="ED195:EG195"/>
-    <mergeCell ref="EH195:EK195"/>
-    <mergeCell ref="EL195:EO195"/>
-    <mergeCell ref="EP195:ES195"/>
-    <mergeCell ref="CX195:DA195"/>
-    <mergeCell ref="DB195:DE195"/>
-    <mergeCell ref="DF195:DI195"/>
-    <mergeCell ref="DJ195:DM195"/>
-    <mergeCell ref="DN195:DQ195"/>
-    <mergeCell ref="DR195:DU195"/>
-    <mergeCell ref="EH219:EK219"/>
-    <mergeCell ref="EL219:EO219"/>
-    <mergeCell ref="EP219:ES219"/>
-    <mergeCell ref="ET171:EW171"/>
-    <mergeCell ref="ET195:EW195"/>
-    <mergeCell ref="EX171:FA171"/>
-    <mergeCell ref="DF171:DI171"/>
-    <mergeCell ref="DJ171:DM171"/>
-    <mergeCell ref="DN171:DQ171"/>
-    <mergeCell ref="DR171:DU171"/>
-    <mergeCell ref="DV171:DY171"/>
-    <mergeCell ref="DZ171:EC171"/>
-    <mergeCell ref="CD171:CG171"/>
-    <mergeCell ref="CH171:CK171"/>
-    <mergeCell ref="CL171:CO171"/>
-    <mergeCell ref="CP171:CS171"/>
-    <mergeCell ref="CT171:CW171"/>
-    <mergeCell ref="CX171:DA171"/>
-    <mergeCell ref="DB171:DE171"/>
-    <mergeCell ref="DV144:DY144"/>
-    <mergeCell ref="CX144:DA144"/>
-    <mergeCell ref="DB144:DE144"/>
-    <mergeCell ref="DF144:DI144"/>
-    <mergeCell ref="DJ144:DM144"/>
-    <mergeCell ref="DN144:DQ144"/>
-    <mergeCell ref="DR144:DU144"/>
-    <mergeCell ref="CD144:CG144"/>
-    <mergeCell ref="CH144:CK144"/>
-    <mergeCell ref="CL144:CO144"/>
-    <mergeCell ref="CP144:CS144"/>
-    <mergeCell ref="CT144:CW144"/>
-    <mergeCell ref="BZ117:CC117"/>
-    <mergeCell ref="CD117:CG117"/>
-    <mergeCell ref="CH117:CK117"/>
-    <mergeCell ref="CL117:CO117"/>
-    <mergeCell ref="CP117:CS117"/>
-    <mergeCell ref="CT117:CW117"/>
-    <mergeCell ref="CX117:DA117"/>
-    <mergeCell ref="DB117:DE117"/>
-    <mergeCell ref="ED117:EG117"/>
-    <mergeCell ref="DF117:DI117"/>
-    <mergeCell ref="DJ117:DM117"/>
-    <mergeCell ref="DN117:DQ117"/>
-    <mergeCell ref="DR117:DU117"/>
-    <mergeCell ref="DV117:DY117"/>
-    <mergeCell ref="DZ117:EC117"/>
-    <mergeCell ref="ET144:EW144"/>
-    <mergeCell ref="EX144:FA144"/>
-    <mergeCell ref="DZ144:EC144"/>
-    <mergeCell ref="ED144:EG144"/>
-    <mergeCell ref="EH144:EK144"/>
-    <mergeCell ref="EL144:EO144"/>
-    <mergeCell ref="EP144:ES144"/>
-    <mergeCell ref="EH117:EK117"/>
-    <mergeCell ref="EL117:EO117"/>
-    <mergeCell ref="EP117:ES117"/>
-    <mergeCell ref="ET117:EW117"/>
-    <mergeCell ref="EX117:FA117"/>
-    <mergeCell ref="CT90:CW90"/>
-    <mergeCell ref="CX90:DA90"/>
-    <mergeCell ref="DB90:DE90"/>
-    <mergeCell ref="CX63:DA63"/>
-    <mergeCell ref="DB63:DE63"/>
-    <mergeCell ref="CD90:CG90"/>
-    <mergeCell ref="CH90:CK90"/>
-    <mergeCell ref="CL90:CO90"/>
-    <mergeCell ref="CP90:CS90"/>
-    <mergeCell ref="CH63:CK63"/>
-    <mergeCell ref="CL63:CO63"/>
-    <mergeCell ref="CP63:CS63"/>
-    <mergeCell ref="CT63:CW63"/>
-    <mergeCell ref="DF90:DI90"/>
-    <mergeCell ref="DF63:DI63"/>
-    <mergeCell ref="DJ63:DM63"/>
-    <mergeCell ref="EL90:EO90"/>
-    <mergeCell ref="EP90:ES90"/>
-    <mergeCell ref="ET90:EW90"/>
-    <mergeCell ref="DJ90:DM90"/>
-    <mergeCell ref="DN90:DQ90"/>
-    <mergeCell ref="DR90:DU90"/>
-    <mergeCell ref="DV90:DY90"/>
-    <mergeCell ref="DZ90:EC90"/>
-    <mergeCell ref="ED90:EG90"/>
-    <mergeCell ref="ET63:EW63"/>
-    <mergeCell ref="DV63:DY63"/>
-    <mergeCell ref="DZ63:EC63"/>
-    <mergeCell ref="ED63:EG63"/>
-    <mergeCell ref="EH63:EK63"/>
-    <mergeCell ref="DN63:DQ63"/>
-    <mergeCell ref="DR63:DU63"/>
-    <mergeCell ref="ET9:EW9"/>
-    <mergeCell ref="EX9:FA9"/>
-    <mergeCell ref="DZ9:EC9"/>
-    <mergeCell ref="ED9:EG9"/>
-    <mergeCell ref="EH9:EK9"/>
-    <mergeCell ref="EL9:EO9"/>
-    <mergeCell ref="EP9:ES9"/>
-    <mergeCell ref="EH36:EK36"/>
-    <mergeCell ref="EL36:EO36"/>
-    <mergeCell ref="EP36:ES36"/>
-    <mergeCell ref="ET36:EW36"/>
-    <mergeCell ref="ED36:EG36"/>
-    <mergeCell ref="DV9:DY9"/>
-    <mergeCell ref="CX9:DA9"/>
-    <mergeCell ref="DB9:DE9"/>
-    <mergeCell ref="DF9:DI9"/>
-    <mergeCell ref="DJ9:DM9"/>
-    <mergeCell ref="DN9:DQ9"/>
-    <mergeCell ref="DR9:DU9"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CP9:CS9"/>
-    <mergeCell ref="CT9:CW9"/>
-    <mergeCell ref="FB267:FD267"/>
-    <mergeCell ref="FB291:FD291"/>
-    <mergeCell ref="FB36:FD36"/>
-    <mergeCell ref="FE291:FI291"/>
-    <mergeCell ref="FF267:FI267"/>
-    <mergeCell ref="FB243:FE243"/>
-    <mergeCell ref="FB219:FE219"/>
-    <mergeCell ref="CD36:CG36"/>
-    <mergeCell ref="CH36:CK36"/>
-    <mergeCell ref="CL36:CO36"/>
-    <mergeCell ref="CP36:CS36"/>
-    <mergeCell ref="CT36:CW36"/>
-    <mergeCell ref="CX36:DA36"/>
-    <mergeCell ref="DB36:DE36"/>
-    <mergeCell ref="DF36:DI36"/>
-    <mergeCell ref="DJ36:DM36"/>
-    <mergeCell ref="DN36:DQ36"/>
-    <mergeCell ref="DR36:DU36"/>
-    <mergeCell ref="DV36:DY36"/>
-    <mergeCell ref="DZ36:EC36"/>
-    <mergeCell ref="EL63:EO63"/>
-    <mergeCell ref="EP63:ES63"/>
-    <mergeCell ref="CD63:CG63"/>
-    <mergeCell ref="EH90:EK90"/>
+    <mergeCell ref="EX63:FA63"/>
+    <mergeCell ref="EX90:FA90"/>
+    <mergeCell ref="FB117:FD117"/>
+    <mergeCell ref="FB144:FD144"/>
+    <mergeCell ref="FB171:FD171"/>
+    <mergeCell ref="FB195:FD195"/>
+    <mergeCell ref="EX195:FA195"/>
+    <mergeCell ref="EX36:FA36"/>
+    <mergeCell ref="FF9:FI9"/>
+    <mergeCell ref="FF36:FI36"/>
+    <mergeCell ref="FB63:FE63"/>
+    <mergeCell ref="FB90:FE90"/>
+    <mergeCell ref="FF117:FI117"/>
+    <mergeCell ref="FF144:FI144"/>
+    <mergeCell ref="FF171:FI171"/>
+    <mergeCell ref="FF195:FI195"/>
+    <mergeCell ref="FB9:FE9"/>
+    <mergeCell ref="FF63:FI63"/>
+    <mergeCell ref="FF90:FI90"/>
+    <mergeCell ref="FJ9:FM9"/>
+    <mergeCell ref="FJ36:FM36"/>
+    <mergeCell ref="FJ117:FM117"/>
+    <mergeCell ref="FJ144:FM144"/>
+    <mergeCell ref="FJ171:FM171"/>
+    <mergeCell ref="FJ195:FM195"/>
+    <mergeCell ref="FJ267:FM267"/>
+    <mergeCell ref="FJ291:FM291"/>
+    <mergeCell ref="FF219:FI219"/>
+    <mergeCell ref="FF243:FI243"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="EX66:EY73">

--- a/Data/National Accounts/PSA-Quarter-Q1-1981-to-latest.xlsx
+++ b/Data/National Accounts/PSA-Quarter-Q1-1981-to-latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\long series\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\EIAD\2023\3 NAP\Post Estimation and Consolidation\GDP Longer Series\As of April 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB409B1-3496-431E-807C-5CEFFC5A8B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DEDCE5-EBE6-48A8-8C10-B00D0BB22C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11295" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1 1981 to Q4 2022" sheetId="5" r:id="rId1"/>
@@ -355,11 +355,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -431,7 +431,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -447,43 +447,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -791,8 +791,8 @@
   <dimension ref="A1:FM313"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="EV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FI68" sqref="FI68"/>
+      <pane xSplit="1" topLeftCell="EZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="FF5" sqref="FF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2168,28 +2168,28 @@
         <v>3801007.5529332561</v>
       </c>
       <c r="FF12" s="7">
-        <v>3397554.7518358915</v>
+        <v>3397749.5102690379</v>
       </c>
       <c r="FG12" s="7">
-        <v>3396198.6721503939</v>
+        <v>3395239.9625219679</v>
       </c>
       <c r="FH12" s="7">
-        <v>3582435.6457165424</v>
+        <v>3583126.8104622592</v>
       </c>
       <c r="FI12" s="7">
-        <v>4233960.1057822816</v>
+        <v>4232430.2197240982</v>
       </c>
       <c r="FJ12" s="7">
-        <v>3853894.6766090612</v>
+        <v>3852962.0714052701</v>
       </c>
       <c r="FK12" s="7">
-        <v>3878436.9127315367</v>
+        <v>3877423.6981095998</v>
       </c>
       <c r="FL12" s="7">
-        <v>4129828.1168899718</v>
+        <v>4130910.5601173565</v>
       </c>
       <c r="FM12" s="7">
-        <v>4864894.9612725647</v>
+        <v>4863462.9003062602</v>
       </c>
     </row>
     <row r="13" spans="1:169" x14ac:dyDescent="0.2">
@@ -2674,31 +2674,31 @@
         <v>639282.13980844093</v>
       </c>
       <c r="FE13" s="7">
-        <v>742251.38720866351</v>
+        <v>742251.38720866397</v>
       </c>
       <c r="FF13" s="7">
-        <v>633476.75883450673</v>
+        <v>634088.45054610213</v>
       </c>
       <c r="FG13" s="7">
-        <v>817076.82668687799</v>
+        <v>817865.80452331912</v>
       </c>
       <c r="FH13" s="7">
-        <v>747539.20917505526</v>
+        <v>748261.04076866619</v>
       </c>
       <c r="FI13" s="7">
-        <v>823007.42462604912</v>
+        <v>823802.12910921185</v>
       </c>
       <c r="FJ13" s="7">
-        <v>677924.11662480747</v>
+        <v>678578.72716488945</v>
       </c>
       <c r="FK13" s="7">
-        <v>945006.9608193835</v>
+        <v>944925.85318471678</v>
       </c>
       <c r="FL13" s="7">
-        <v>788001.74498933437</v>
+        <v>788762.64762610907</v>
       </c>
       <c r="FM13" s="7">
-        <v>892095.23495033279</v>
+        <v>893893.76560860558</v>
       </c>
     </row>
     <row r="14" spans="1:169" x14ac:dyDescent="0.2">
@@ -3186,28 +3186,28 @@
         <v>944922.06976751459</v>
       </c>
       <c r="FF14" s="7">
-        <v>817104.7219841046</v>
+        <v>815357.20766118285</v>
       </c>
       <c r="FG14" s="7">
-        <v>1141175.2480481684</v>
+        <v>1141001.7922460805</v>
       </c>
       <c r="FH14" s="7">
-        <v>958628.76826727984</v>
+        <v>952963.90772448306</v>
       </c>
       <c r="FI14" s="7">
-        <v>1194978.4992109176</v>
+        <v>1194224.0797501232</v>
       </c>
       <c r="FJ14" s="7">
-        <v>1140287.0243345883</v>
+        <v>1143194.0021163137</v>
       </c>
       <c r="FK14" s="7">
-        <v>1581070.2088354321</v>
+        <v>1569232.8367804806</v>
       </c>
       <c r="FL14" s="7">
-        <v>1349069.1796366668</v>
+        <v>1345017.9254787946</v>
       </c>
       <c r="FM14" s="7">
-        <v>1387760.8892729436</v>
+        <v>1382210.1711891973</v>
       </c>
     </row>
     <row r="15" spans="1:169" x14ac:dyDescent="0.2">
@@ -3695,28 +3695,28 @@
         <v>1181738.2592543538</v>
       </c>
       <c r="FF15" s="7">
-        <v>1203921.4402977147</v>
+        <v>1205533.1213810132</v>
       </c>
       <c r="FG15" s="7">
-        <v>1179210.7618120471</v>
+        <v>1177328.5060345186</v>
       </c>
       <c r="FH15" s="7">
-        <v>1281309.8389567914</v>
+        <v>1282622.8069156522</v>
       </c>
       <c r="FI15" s="7">
-        <v>1332281.49251774</v>
+        <v>1333143.7856143503</v>
       </c>
       <c r="FJ15" s="7">
-        <v>1450165.8216495654</v>
+        <v>1459117.195500249</v>
       </c>
       <c r="FK15" s="7">
-        <v>1395743.5524730254</v>
+        <v>1405049.2244289001</v>
       </c>
       <c r="FL15" s="7">
-        <v>1650809.8375919163</v>
+        <v>1662579.6590555809</v>
       </c>
       <c r="FM15" s="7">
-        <v>1715103.4923716746</v>
+        <v>1724935.7799161663</v>
       </c>
     </row>
     <row r="16" spans="1:169" x14ac:dyDescent="0.2">
@@ -4204,28 +4204,28 @@
         <v>1495815.2927085266</v>
       </c>
       <c r="FF16" s="7">
-        <v>1639008.4545212369</v>
+        <v>1638317.74428242</v>
       </c>
       <c r="FG16" s="7">
-        <v>1785323.1076342422</v>
+        <v>1784038.1166096875</v>
       </c>
       <c r="FH16" s="7">
-        <v>1936244.4295311081</v>
+        <v>1931192.4699373539</v>
       </c>
       <c r="FI16" s="7">
-        <v>1968716.1190903916</v>
+        <v>1970576.3182393832</v>
       </c>
       <c r="FJ16" s="7">
-        <v>2211474.2058574748</v>
+        <v>2202523.5502758152</v>
       </c>
       <c r="FK16" s="7">
-        <v>2449622.7104449756</v>
+        <v>2434883.7266038884</v>
       </c>
       <c r="FL16" s="7">
-        <v>2725698.6297343825</v>
+        <v>2711232.9226393667</v>
       </c>
       <c r="FM16" s="7">
-        <v>2360764.2722973926</v>
+        <v>2349101.8178434232</v>
       </c>
     </row>
     <row r="17" spans="1:169" x14ac:dyDescent="0.2">
@@ -4713,28 +4713,28 @@
         <v>-15151.264808321372</v>
       </c>
       <c r="FF17" s="7">
-        <v>-40971.497649311088</v>
+        <v>-40338.535180045292</v>
       </c>
       <c r="FG17" s="7">
-        <v>23303.644646612927</v>
+        <v>20590.8378501283</v>
       </c>
       <c r="FH17" s="7">
-        <v>-29343.969233660027</v>
+        <v>-31686.814570493996</v>
       </c>
       <c r="FI17" s="7">
-        <v>47011.822236362845</v>
+        <v>51434.511900411919</v>
       </c>
       <c r="FJ17" s="7">
-        <v>17864.843782270327</v>
+        <v>-3679.5861000306904</v>
       </c>
       <c r="FK17" s="7">
-        <v>46509.057342000306</v>
+        <v>34944.869884027168</v>
       </c>
       <c r="FL17" s="7">
-        <v>51033.014703080058</v>
+        <v>32569.090671206824</v>
       </c>
       <c r="FM17" s="7">
-        <v>-44661.835651195608</v>
+        <v>-63834.374455199577</v>
       </c>
     </row>
     <row r="18" spans="1:169" x14ac:dyDescent="0.2">
@@ -5392,28 +5392,28 @@
         <v>5158952.7116469406</v>
       </c>
       <c r="FF19" s="7">
-        <v>4372077.720781669</v>
+        <v>4374072.0103948703</v>
       </c>
       <c r="FG19" s="7">
-        <v>4771642.0457098577</v>
+        <v>4767988.7865663273</v>
       </c>
       <c r="FH19" s="7">
-        <v>4604325.0633508991</v>
+        <v>4604095.2813632116</v>
       </c>
       <c r="FI19" s="7">
-        <v>5662523.2252829596</v>
+        <v>5664458.4078588132</v>
       </c>
       <c r="FJ19" s="7">
-        <v>4928662.2771428172</v>
+        <v>4927648.8598108757</v>
       </c>
       <c r="FK19" s="7">
-        <v>5397143.9817564022</v>
+        <v>5396692.7557838354</v>
       </c>
       <c r="FL19" s="7">
-        <v>5243043.2640765868</v>
+        <v>5248606.9603096815</v>
       </c>
       <c r="FM19" s="7">
-        <v>6454428.4699189272</v>
+        <v>6451566.4247216079</v>
       </c>
     </row>
     <row r="20" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
@@ -7513,28 +7513,28 @@
         <v>3648921.6749099772</v>
       </c>
       <c r="FF39" s="7">
-        <v>3156671.4757222617</v>
+        <v>3156809.3523885403</v>
       </c>
       <c r="FG39" s="7">
-        <v>3131017.1444008318</v>
+        <v>3130131.1633264814</v>
       </c>
       <c r="FH39" s="7">
-        <v>3244927.2295096582</v>
+        <v>3245552.8170434618</v>
       </c>
       <c r="FI39" s="7">
-        <v>3923915.6638969723</v>
+        <v>3922623.7313984605</v>
       </c>
       <c r="FJ39" s="7">
-        <v>3473351.0415488388</v>
+        <v>3471756.5527950469</v>
       </c>
       <c r="FK39" s="7">
-        <v>3399066.6751907454</v>
+        <v>3396881.5167516316</v>
       </c>
       <c r="FL39" s="7">
-        <v>3506111.1909831027</v>
+        <v>3505506.6774791162</v>
       </c>
       <c r="FM39" s="7">
-        <v>4199818.540686938</v>
+        <v>4196072.3544278946</v>
       </c>
     </row>
     <row r="40" spans="1:169" x14ac:dyDescent="0.2">
@@ -8022,28 +8022,28 @@
         <v>633848.12272541516</v>
       </c>
       <c r="FF40" s="7">
-        <v>650071.91293822788</v>
+        <v>650699.62910230132</v>
       </c>
       <c r="FG40" s="7">
-        <v>813459.72101110662</v>
+        <v>814245.20613288856</v>
       </c>
       <c r="FH40" s="7">
-        <v>693111.13061773905</v>
+        <v>693780.40589564107</v>
       </c>
       <c r="FI40" s="7">
-        <v>683319.69422897021</v>
+        <v>683979.51479460346</v>
       </c>
       <c r="FJ40" s="7">
-        <v>673240.99871708464</v>
+        <v>673673.95267614687</v>
       </c>
       <c r="FK40" s="7">
-        <v>903875.32511822914</v>
+        <v>902853.26519316039</v>
       </c>
       <c r="FL40" s="7">
-        <v>698563.02808648802</v>
+        <v>698456.45447260572</v>
       </c>
       <c r="FM40" s="7">
-        <v>705805.82833058783</v>
+        <v>706679.81996972463</v>
       </c>
     </row>
     <row r="41" spans="1:169" x14ac:dyDescent="0.2">
@@ -8531,28 +8531,28 @@
         <v>1001594.3526948787</v>
       </c>
       <c r="FF41" s="7">
-        <v>853723.25770205481</v>
+        <v>852222.65993094945</v>
       </c>
       <c r="FG41" s="7">
-        <v>1148183.2001693947</v>
+        <v>1148344.7037426997</v>
       </c>
       <c r="FH41" s="7">
-        <v>915019.60332796397</v>
+        <v>908515.56276514183</v>
       </c>
       <c r="FI41" s="7">
-        <v>1144070.7093116241</v>
+        <v>1142714.7712063345</v>
       </c>
       <c r="FJ41" s="7">
-        <v>1028032.7929143002</v>
+        <v>1002854.6517261066</v>
       </c>
       <c r="FK41" s="7">
-        <v>1389982.8184715228</v>
+        <v>1346434.0356230165</v>
       </c>
       <c r="FL41" s="7">
-        <v>1114213.6644705017</v>
+        <v>1073473.5734095084</v>
       </c>
       <c r="FM41" s="7">
-        <v>1212023.5863245514</v>
+        <v>1186523.731379749</v>
       </c>
     </row>
     <row r="42" spans="1:169" x14ac:dyDescent="0.2">
@@ -9040,28 +9040,28 @@
         <v>1161833.5198654381</v>
       </c>
       <c r="FF42" s="7">
-        <v>1229556.046653938</v>
+        <v>1230985.4238615134</v>
       </c>
       <c r="FG42" s="7">
-        <v>1299666.0381077742</v>
+        <v>1297945.4611262158</v>
       </c>
       <c r="FH42" s="7">
-        <v>1347753.4495069475</v>
+        <v>1348936.459172816</v>
       </c>
       <c r="FI42" s="7">
-        <v>1251030.6402114162</v>
+        <v>1251806.2666707835</v>
       </c>
       <c r="FJ42" s="7">
-        <v>1357669.1598509811</v>
+        <v>1361296.3158354701</v>
       </c>
       <c r="FK42" s="7">
-        <v>1356221.1885019138</v>
+        <v>1361019.9311544611</v>
       </c>
       <c r="FL42" s="7">
-        <v>1528226.3108561584</v>
+        <v>1531733.6130032481</v>
       </c>
       <c r="FM42" s="7">
-        <v>1433335.8836456779</v>
+        <v>1434653.7293859078</v>
       </c>
     </row>
     <row r="43" spans="1:169" x14ac:dyDescent="0.2">
@@ -9549,28 +9549,28 @@
         <v>1587264.2497924436</v>
       </c>
       <c r="FF43" s="7">
-        <v>1636845.1980508598</v>
+        <v>1636542.7764389366</v>
       </c>
       <c r="FG43" s="7">
-        <v>1764818.9462005871</v>
+        <v>1762962.0825797399</v>
       </c>
       <c r="FH43" s="7">
-        <v>1731629.9084263681</v>
+        <v>1729904.3039298884</v>
       </c>
       <c r="FI43" s="7">
-        <v>1814149.0295484206</v>
+        <v>1809799.7456785247</v>
       </c>
       <c r="FJ43" s="7">
-        <v>1888313.4052073229</v>
+        <v>1900923.9186982862</v>
       </c>
       <c r="FK43" s="7">
-        <v>2009130.1625547383</v>
+        <v>2017924.1091510789</v>
       </c>
       <c r="FL43" s="7">
-        <v>2040132.3277379042</v>
+        <v>2050518.0553988991</v>
       </c>
       <c r="FM43" s="7">
-        <v>1920922.3223296348</v>
+        <v>1936873.8530644656</v>
       </c>
     </row>
     <row r="44" spans="1:169" x14ac:dyDescent="0.2">
@@ -10058,28 +10058,28 @@
         <v>-33337.805841903202</v>
       </c>
       <c r="FF44" s="7">
-        <v>12144.919370766729</v>
+        <v>12622.735289840028</v>
       </c>
       <c r="FG44" s="7">
-        <v>18025.805311984383</v>
+        <v>14120.180318489671</v>
       </c>
       <c r="FH44" s="7">
-        <v>-43484.280526422895</v>
+        <v>-40250.789648882113</v>
       </c>
       <c r="FI44" s="7">
-        <v>13313.555843672715</v>
+        <v>13507.874040552415</v>
       </c>
       <c r="FJ44" s="7">
-        <v>-30825.829976207577</v>
+        <v>1508.1951552340761</v>
       </c>
       <c r="FK44" s="7">
-        <v>-47345.117982433178</v>
+        <v>1500.8285894710571</v>
       </c>
       <c r="FL44" s="7">
-        <v>-43341.180722936988</v>
+        <v>8902.4729879861698</v>
       </c>
       <c r="FM44" s="7">
-        <v>-52723.530432631262</v>
+        <v>-11911.49673268944</v>
       </c>
     </row>
     <row r="45" spans="1:169" x14ac:dyDescent="0.2">
@@ -10737,28 +10737,28 @@
         <v>4825595.6145613622</v>
       </c>
       <c r="FF46" s="7">
-        <v>4265322.4143363889</v>
+        <v>4266797.0241342075</v>
       </c>
       <c r="FG46" s="7">
-        <v>4645532.9628005046</v>
+        <v>4641824.6320670359</v>
       </c>
       <c r="FH46" s="7">
-        <v>4425697.2240095185</v>
+        <v>4426630.1512982901</v>
       </c>
       <c r="FI46" s="7">
-        <v>5201501.2339442354</v>
+        <v>5204832.4124322105</v>
       </c>
       <c r="FJ46" s="7">
-        <v>4613154.7578476742</v>
+        <v>4610165.7494897181</v>
       </c>
       <c r="FK46" s="7">
-        <v>4992670.7267452404</v>
+        <v>4990765.4681606628</v>
       </c>
       <c r="FL46" s="7">
-        <v>4763640.6859354088</v>
+        <v>4767554.7359535657</v>
       </c>
       <c r="FM46" s="7">
-        <v>5577337.9862254886</v>
+        <v>5575144.2853661217</v>
       </c>
     </row>
     <row r="47" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
@@ -12849,28 +12849,28 @@
         <v>-4.6206716907713172</v>
       </c>
       <c r="FB66" s="22">
-        <v>-0.73220830188455466</v>
+        <v>-0.7265179625125171</v>
       </c>
       <c r="FC66" s="22">
-        <v>11.638927618188916</v>
+        <v>11.607413173615242</v>
       </c>
       <c r="FD66" s="22">
-        <v>11.591066239769091</v>
+        <v>11.612595673525732</v>
       </c>
       <c r="FE66" s="22">
-        <v>11.390468101409425</v>
+        <v>11.350218613954382</v>
       </c>
       <c r="FF66" s="25">
-        <v>13.431422246443077</v>
+        <v>13.397472643596615</v>
       </c>
       <c r="FG66" s="25">
-        <v>14.1993530748247</v>
+        <v>14.2017571927219</v>
       </c>
       <c r="FH66" s="25">
-        <v>15.27989684414672</v>
+        <v>15.287869467964143</v>
       </c>
       <c r="FI66" s="25">
-        <v>14.901766661160096</v>
+        <v>14.90946448783501</v>
       </c>
     </row>
     <row r="67" spans="1:165" x14ac:dyDescent="0.2">
@@ -13346,28 +13346,28 @@
         <v>7.3161232096375528</v>
       </c>
       <c r="FB67" s="22">
-        <v>19.755251610037661</v>
+        <v>19.87088851985051</v>
       </c>
       <c r="FC67" s="21">
-        <v>-1.457461655925826</v>
+        <v>-1.3623079614863798</v>
       </c>
       <c r="FD67" s="21">
-        <v>16.93416140157666</v>
+        <v>17.047074237500269</v>
       </c>
       <c r="FE67" s="21">
-        <v>10.879876927017889</v>
+        <v>10.98694368322171</v>
       </c>
       <c r="FF67" s="25">
         <v>7.0164149150596415</v>
       </c>
       <c r="FG67" s="25">
-        <v>15.657050837097259</v>
+        <v>15.535561941662635</v>
       </c>
       <c r="FH67" s="25">
         <v>5.4127643497029965</v>
       </c>
       <c r="FI67" s="25">
-        <v>8.3945549283076275</v>
+        <v>8.5083097048055407</v>
       </c>
     </row>
     <row r="68" spans="1:165" x14ac:dyDescent="0.2">
@@ -13843,28 +13843,28 @@
         <v>-35.073868251992906</v>
       </c>
       <c r="FB68" s="22">
-        <v>-14.547633733493143</v>
+        <v>-14.730387828483174</v>
       </c>
       <c r="FC68" s="21">
-        <v>120.10439096014497</v>
+        <v>120.07093563963886</v>
       </c>
       <c r="FD68" s="21">
-        <v>35.025168071780342</v>
+        <v>34.227258837033645</v>
       </c>
       <c r="FE68" s="21">
-        <v>26.463180133460739</v>
+        <v>26.38334080226808</v>
       </c>
       <c r="FF68" s="25">
-        <v>39.552127610488924</v>
+        <v>40.207750832977439</v>
       </c>
       <c r="FG68" s="25">
-        <v>38.547537859732472</v>
+        <v>37.531145651526145</v>
       </c>
       <c r="FH68" s="25">
-        <v>40.729052193489622</v>
+        <v>41.140489642516513</v>
       </c>
       <c r="FI68" s="25">
-        <v>16.132707842804408</v>
+        <v>15.741274575405299</v>
       </c>
     </row>
     <row r="69" spans="1:165" x14ac:dyDescent="0.2">
@@ -14340,28 +14340,28 @@
         <v>-11.926934770979457</v>
       </c>
       <c r="FB69" s="22">
-        <v>-8.9072299549234515</v>
+        <v>-8.7852847104973506</v>
       </c>
       <c r="FC69" s="21">
-        <v>30.3307626703442</v>
+        <v>30.122728755652844</v>
       </c>
       <c r="FD69" s="21">
-        <v>14.798143597448046</v>
+        <v>14.915778130249933</v>
       </c>
       <c r="FE69" s="21">
-        <v>12.739135090572006</v>
+        <v>12.812103287197417</v>
       </c>
       <c r="FF69" s="25">
-        <v>20.453525712687508</v>
+        <v>21.035015100102726</v>
       </c>
       <c r="FG69" s="25">
-        <v>18.362518192103394</v>
+        <v>19.342156180469217</v>
       </c>
       <c r="FH69" s="25">
-        <v>28.837677461055165</v>
+        <v>29.623428656599202</v>
       </c>
       <c r="FI69" s="25">
-        <v>28.734317935354568</v>
+        <v>29.388577476004741</v>
       </c>
     </row>
     <row r="70" spans="1:165" x14ac:dyDescent="0.2">
@@ -14837,28 +14837,28 @@
         <v>-22.971466300539262</v>
       </c>
       <c r="FB70" s="22">
-        <v>-7.2262534490441794</v>
+        <v>-7.2653501214618075</v>
       </c>
       <c r="FC70" s="21">
-        <v>55.310996412188587</v>
+        <v>55.199210912101279</v>
       </c>
       <c r="FD70" s="21">
-        <v>28.565081427114194</v>
+        <v>28.22963535086916</v>
       </c>
       <c r="FE70" s="21">
-        <v>31.614921219689251</v>
+        <v>31.739281437027529</v>
       </c>
       <c r="FF70" s="25">
-        <v>34.927565489798411</v>
+        <v>34.438118488456979</v>
       </c>
       <c r="FG70" s="25">
-        <v>37.20892873509078</v>
+        <v>36.481597782845654</v>
       </c>
       <c r="FH70" s="25">
-        <v>40.772445263765235</v>
+        <v>40.39164738081837</v>
       </c>
       <c r="FI70" s="25">
-        <v>19.913899693579978</v>
+        <v>19.208872861226439</v>
       </c>
     </row>
     <row r="71" spans="1:165" x14ac:dyDescent="0.2">
@@ -15666,28 +15666,28 @@
         <v>-6.1995032763103808</v>
       </c>
       <c r="FB73" s="22">
-        <v>-1.7320826131756917</v>
+        <v>-1.6872584587412973</v>
       </c>
       <c r="FC73" s="21">
-        <v>15.302372452855906</v>
+        <v>15.214094781899263</v>
       </c>
       <c r="FD73" s="21">
-        <v>9.4936344771557657</v>
+        <v>9.4881701225276487</v>
       </c>
       <c r="FE73" s="21">
-        <v>9.761099622005645</v>
+        <v>9.7986107736679742</v>
       </c>
       <c r="FF73" s="25">
-        <v>12.730436005644435</v>
+        <v>12.655869590176934</v>
       </c>
       <c r="FG73" s="25">
-        <v>13.108735526566335</v>
+        <v>13.185936405489528</v>
       </c>
       <c r="FH73" s="25">
-        <v>13.872135262770669</v>
+        <v>13.99866074786442</v>
       </c>
       <c r="FI73" s="25">
-        <v>13.985024222066585</v>
+        <v>13.895556471396617</v>
       </c>
     </row>
     <row r="74" spans="1:165" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -17750,28 +17750,28 @@
         <v>-7.2879709016900733</v>
       </c>
       <c r="FB93" s="22">
-        <v>-4.7649815423287123</v>
+        <v>-4.7608218801785966</v>
       </c>
       <c r="FC93" s="21">
-        <v>7.3097894395565959</v>
+        <v>7.2794240860145436</v>
       </c>
       <c r="FD93" s="21">
-        <v>7.0902537584561998</v>
+        <v>7.1108996229100683</v>
       </c>
       <c r="FE93" s="21">
-        <v>7.5363083531733821</v>
+        <v>7.5009024822445696</v>
       </c>
       <c r="FF93" s="25">
-        <v>10.032072335120617</v>
+        <v>9.9767570749309726</v>
       </c>
       <c r="FG93" s="25">
-        <v>8.5611007039442057</v>
+        <v>8.5220183917681851</v>
       </c>
       <c r="FH93" s="25">
-        <v>8.0489928741148447</v>
+        <v>8.0095402875760158</v>
       </c>
       <c r="FI93" s="25">
-        <v>7.0313151561457659</v>
+        <v>6.971064311894807</v>
       </c>
     </row>
     <row r="94" spans="1:165" x14ac:dyDescent="0.2">
@@ -18247,28 +18247,28 @@
         <v>5.0249111775972892</v>
       </c>
       <c r="FB94" s="22">
-        <v>16.071851328063502</v>
+        <v>16.183931508459608</v>
       </c>
       <c r="FC94" s="21">
-        <v>-4.1722904664369338</v>
+        <v>-4.0797582387815794</v>
       </c>
       <c r="FD94" s="21">
-        <v>13.794522814696435</v>
+        <v>13.90440398312127</v>
       </c>
       <c r="FE94" s="21">
-        <v>7.8049566970140489</v>
+        <v>7.9090542784340414</v>
       </c>
       <c r="FF94" s="25">
-        <v>3.564080422139142</v>
+        <v>3.5307110295330375</v>
       </c>
       <c r="FG94" s="25">
-        <v>11.114945432668577</v>
+        <v>10.882232820393241</v>
       </c>
       <c r="FH94" s="25">
-        <v>0.78658345363606941</v>
+        <v>0.67399548001476717</v>
       </c>
       <c r="FI94" s="25">
-        <v>3.2907194526260639</v>
+        <v>3.3188574634341279</v>
       </c>
     </row>
     <row r="95" spans="1:165" x14ac:dyDescent="0.2">
@@ -18744,28 +18744,28 @@
         <v>-31.691557457208901</v>
       </c>
       <c r="FB95" s="22">
-        <v>-13.933471723533501</v>
+        <v>-14.084751707220562</v>
       </c>
       <c r="FC95" s="21">
-        <v>83.666604799621837</v>
+        <v>83.69243936414739</v>
       </c>
       <c r="FD95" s="21">
-        <v>20.84909432250781</v>
+        <v>19.99008823280748</v>
       </c>
       <c r="FE95" s="21">
-        <v>14.224956064638334</v>
+        <v>14.089578094341149</v>
       </c>
       <c r="FF95" s="25">
-        <v>20.417569000220269</v>
+        <v>17.675192045158951</v>
       </c>
       <c r="FG95" s="25">
-        <v>21.059323831463004</v>
+        <v>17.249988721566041</v>
       </c>
       <c r="FH95" s="25">
-        <v>21.769376351944885</v>
+        <v>18.15687230962817</v>
       </c>
       <c r="FI95" s="25">
-        <v>5.9395696839239918</v>
+        <v>3.8337616067714464</v>
       </c>
     </row>
     <row r="96" spans="1:165" x14ac:dyDescent="0.2">
@@ -19241,28 +19241,28 @@
         <v>-10.664231967602277</v>
       </c>
       <c r="FB96" s="22">
-        <v>-8.3924592070540029</v>
+        <v>-8.2859640771997647</v>
       </c>
       <c r="FC96" s="21">
-        <v>28.572542498256524</v>
+        <v>28.402330343290174</v>
       </c>
       <c r="FD96" s="21">
-        <v>9.1481682958462756</v>
+        <v>9.2439746454075191</v>
       </c>
       <c r="FE96" s="21">
-        <v>7.6772720721905756</v>
+        <v>7.7440309017565454</v>
       </c>
       <c r="FF96" s="25">
-        <v>10.419461036012521</v>
+        <v>10.585900486553342</v>
       </c>
       <c r="FG96" s="25">
-        <v>4.3515140609875544</v>
+        <v>4.8595624328865199</v>
       </c>
       <c r="FH96" s="25">
-        <v>13.390643623671224</v>
+        <v>13.551205661868266</v>
       </c>
       <c r="FI96" s="25">
-        <v>14.572404350020832</v>
+        <v>14.606690155131801</v>
       </c>
     </row>
     <row r="97" spans="1:165" x14ac:dyDescent="0.2">
@@ -19738,28 +19738,28 @@
         <v>-20.557641986460325</v>
       </c>
       <c r="FB97" s="22">
-        <v>-7.5194613868571025</v>
+        <v>-7.5365479834346161</v>
       </c>
       <c r="FC97" s="21">
-        <v>40.347805430622913</v>
+        <v>40.20013774225697</v>
       </c>
       <c r="FD97" s="21">
-        <v>12.719442718011422</v>
+        <v>12.607115495982995</v>
       </c>
       <c r="FE97" s="21">
-        <v>14.294077358930338</v>
+        <v>14.020066029659574</v>
       </c>
       <c r="FF97" s="25">
-        <v>15.362980412314428</v>
+        <v>16.154856815575229</v>
       </c>
       <c r="FG97" s="25">
-        <v>13.843415319181588</v>
+        <v>14.462138981358777</v>
       </c>
       <c r="FH97" s="25">
-        <v>17.815724815696328</v>
+        <v>18.533611988863228</v>
       </c>
       <c r="FI97" s="25">
-        <v>5.8855855303018956</v>
+        <v>7.0214457532868551</v>
       </c>
     </row>
     <row r="98" spans="1:165" x14ac:dyDescent="0.2">
@@ -20567,28 +20567,28 @@
         <v>-8.2254200542660811</v>
       </c>
       <c r="FB100" s="22">
-        <v>-3.7999653689594481</v>
+        <v>-3.7667070358635328</v>
       </c>
       <c r="FC100" s="21">
-        <v>12.131220504597621</v>
+        <v>12.041710936049043</v>
       </c>
       <c r="FD100" s="21">
-        <v>7.0172529948015807</v>
+        <v>7.0398119975156845</v>
       </c>
       <c r="FE100" s="21">
-        <v>7.789828435863285</v>
+        <v>7.8588598830472165</v>
       </c>
       <c r="FF100" s="25">
-        <v>8.1548898236196266</v>
+        <v>8.0474586302868403</v>
       </c>
       <c r="FG100" s="25">
-        <v>7.4725067441017075</v>
+        <v>7.5173205313066944</v>
       </c>
       <c r="FH100" s="25">
-        <v>7.6359372279816</v>
+        <v>7.7016731238611698</v>
       </c>
       <c r="FI100" s="25">
-        <v>7.2255438454690335</v>
+        <v>7.1147703439862369</v>
       </c>
     </row>
     <row r="101" spans="1:165" hidden="1" x14ac:dyDescent="0.2">
@@ -22672,28 +22672,28 @@
         <v>73.677890947750612</v>
       </c>
       <c r="FF120" s="21">
-        <v>77.710300887067802</v>
+        <v>77.679322658483287</v>
       </c>
       <c r="FG120" s="21">
-        <v>71.174632120694952</v>
+        <v>71.209059301648523</v>
       </c>
       <c r="FH120" s="21">
-        <v>77.805880263139926</v>
+        <v>77.8247753682748</v>
       </c>
       <c r="FI120" s="21">
-        <v>74.771615715019138</v>
+        <v>74.719062529474428</v>
       </c>
       <c r="FJ120" s="21">
-        <v>78.193523108326929</v>
+        <v>78.190678374618344</v>
       </c>
       <c r="FK120" s="21">
-        <v>71.86091247225481</v>
+        <v>71.848146143840069</v>
       </c>
       <c r="FL120" s="21">
-        <v>78.767767284814198</v>
+        <v>78.704894295868982</v>
       </c>
       <c r="FM120" s="21">
-        <v>75.372978164458175</v>
+        <v>75.384218035329681</v>
       </c>
     </row>
     <row r="121" spans="1:169" x14ac:dyDescent="0.2">
@@ -23178,31 +23178,31 @@
         <v>15.202515891225396</v>
       </c>
       <c r="FE121" s="21">
-        <v>14.387636962303299</v>
+        <v>14.387636962303308</v>
       </c>
       <c r="FF121" s="21">
-        <v>14.489146792231534</v>
+        <v>14.496525183838017</v>
       </c>
       <c r="FG121" s="21">
-        <v>17.123598519329519</v>
+        <v>17.1532661072449</v>
       </c>
       <c r="FH121" s="21">
-        <v>16.23558716836159</v>
+        <v>16.252075490216964</v>
       </c>
       <c r="FI121" s="21">
-        <v>14.53428784099906</v>
+        <v>14.543352069922113</v>
       </c>
       <c r="FJ121" s="21">
-        <v>13.754728534936364</v>
+        <v>13.77084176389414</v>
       </c>
       <c r="FK121" s="21">
-        <v>17.509389484766871</v>
+        <v>17.509350558673269</v>
       </c>
       <c r="FL121" s="21">
-        <v>15.029472489545029</v>
+        <v>15.028037983998138</v>
       </c>
       <c r="FM121" s="21">
-        <v>13.82144428601187</v>
+        <v>13.85545318394793</v>
       </c>
     </row>
     <row r="122" spans="1:169" x14ac:dyDescent="0.2">
@@ -23690,28 +23690,28 @@
         <v>18.316160712895126</v>
       </c>
       <c r="FF122" s="21">
-        <v>18.689162777234831</v>
+        <v>18.640690087486153</v>
       </c>
       <c r="FG122" s="21">
-        <v>23.915776521296042</v>
+        <v>23.930462996490693</v>
       </c>
       <c r="FH122" s="21">
-        <v>20.820180049790331</v>
+        <v>20.698179544240951</v>
       </c>
       <c r="FI122" s="21">
-        <v>21.103286497358319</v>
+        <v>21.082758381512143</v>
       </c>
       <c r="FJ122" s="21">
-        <v>23.135832000962772</v>
+        <v>23.199583303104713</v>
       </c>
       <c r="FK122" s="21">
-        <v>29.294571613798258</v>
+        <v>29.077676047032242</v>
       </c>
       <c r="FL122" s="21">
-        <v>25.73065129711965</v>
+        <v>25.626188732551526</v>
       </c>
       <c r="FM122" s="21">
-        <v>21.500910510367387</v>
+        <v>21.424411998499128</v>
       </c>
     </row>
     <row r="123" spans="1:169" x14ac:dyDescent="0.2">
@@ -24199,28 +24199,28 @@
         <v>22.906553428691858</v>
       </c>
       <c r="FF123" s="21">
-        <v>27.536597407112644</v>
+        <v>27.560888767173804</v>
       </c>
       <c r="FG123" s="21">
-        <v>24.712892344308713</v>
+        <v>24.692350564070288</v>
       </c>
       <c r="FH123" s="21">
-        <v>27.828396590754391</v>
+        <v>27.858302848499793</v>
       </c>
       <c r="FI123" s="21">
-        <v>23.528053475686452</v>
+        <v>23.535238316248559</v>
       </c>
       <c r="FJ123" s="21">
-        <v>29.423111994807595</v>
+        <v>29.610819216453876</v>
       </c>
       <c r="FK123" s="21">
-        <v>25.860780390350197</v>
+        <v>26.035375516292952</v>
       </c>
       <c r="FL123" s="21">
-        <v>31.485718397608142</v>
+        <v>31.676589076456285</v>
       </c>
       <c r="FM123" s="21">
-        <v>26.572507548344053</v>
+        <v>26.736697204363036</v>
       </c>
     </row>
     <row r="124" spans="1:169" x14ac:dyDescent="0.2">
@@ -24708,28 +24708,28 @@
         <v>28.994553280776316</v>
       </c>
       <c r="FF124" s="21">
-        <v>37.488090541725413</v>
+        <v>37.455207422031457</v>
       </c>
       <c r="FG124" s="21">
-        <v>37.415277393647131</v>
+        <v>37.416994805779829</v>
       </c>
       <c r="FH124" s="21">
-        <v>42.052730919088575</v>
+        <v>41.945102173592581</v>
       </c>
       <c r="FI124" s="21">
-        <v>34.767470980077327</v>
+        <v>34.788433003681781</v>
       </c>
       <c r="FJ124" s="21">
-        <v>44.869664048872167</v>
+        <v>44.697250411636446</v>
       </c>
       <c r="FK124" s="21">
-        <v>45.38738856560559</v>
+        <v>45.118072063567702</v>
       </c>
       <c r="FL124" s="21">
-        <v>51.986956667130165</v>
+        <v>51.65623837223653</v>
       </c>
       <c r="FM124" s="21">
-        <v>36.575884035276104</v>
+        <v>36.411340489992547</v>
       </c>
     </row>
     <row r="125" spans="1:169" x14ac:dyDescent="0.2">
@@ -27852,28 +27852,28 @@
         <v>75.615985390472005</v>
       </c>
       <c r="FF147" s="21">
-        <v>74.00780454748778</v>
+        <v>73.985458753550631</v>
       </c>
       <c r="FG147" s="21">
-        <v>67.398448562796005</v>
+        <v>67.433205935929834</v>
       </c>
       <c r="FH147" s="21">
-        <v>73.32013613371123</v>
+        <v>73.318816031910202</v>
       </c>
       <c r="FI147" s="21">
-        <v>75.438137710899184</v>
+        <v>75.365034271399793</v>
       </c>
       <c r="FJ147" s="21">
-        <v>75.292315646687186</v>
+        <v>75.306545175286217</v>
       </c>
       <c r="FK147" s="21">
-        <v>68.081130545667335</v>
+        <v>68.063336945455504</v>
       </c>
       <c r="FL147" s="21">
-        <v>73.601504020545732</v>
+        <v>73.528399182143318</v>
       </c>
       <c r="FM147" s="21">
-        <v>75.301488829605631</v>
+        <v>75.263923939007739</v>
       </c>
     </row>
     <row r="148" spans="1:169" x14ac:dyDescent="0.2">
@@ -28361,28 +28361,28 @@
         <v>13.135127212333369</v>
       </c>
       <c r="FF148" s="21">
-        <v>15.240862232436136</v>
+        <v>15.250306621612433</v>
       </c>
       <c r="FG148" s="21">
-        <v>17.510579034202397</v>
+        <v>17.541490053455544</v>
       </c>
       <c r="FH148" s="21">
-        <v>15.661060744453865</v>
+        <v>15.672879418041322</v>
       </c>
       <c r="FI148" s="21">
-        <v>13.136970722408483</v>
+        <v>13.14123992082544</v>
       </c>
       <c r="FJ148" s="21">
-        <v>14.593939160003247</v>
+        <v>14.612792452217436</v>
       </c>
       <c r="FK148" s="21">
-        <v>18.104044400049435</v>
+        <v>18.090476720516087</v>
       </c>
       <c r="FL148" s="21">
-        <v>14.664477741761397</v>
+        <v>14.65020315771805</v>
       </c>
       <c r="FM148" s="21">
-        <v>12.654887153580018</v>
+        <v>12.675543157235378</v>
       </c>
     </row>
     <row r="149" spans="1:169" x14ac:dyDescent="0.2">
@@ -28870,28 +28870,28 @@
         <v>20.755870004368816</v>
       </c>
       <c r="FF149" s="21">
-        <v>20.015444901247388</v>
+        <v>19.973358355472211</v>
       </c>
       <c r="FG149" s="21">
-        <v>24.715855196025259</v>
+        <v>24.739079882717029</v>
       </c>
       <c r="FH149" s="21">
-        <v>20.675151439731568</v>
+        <v>20.523864242389497</v>
       </c>
       <c r="FI149" s="21">
-        <v>21.995009860722252</v>
+        <v>21.95488116921608</v>
       </c>
       <c r="FJ149" s="21">
-        <v>22.284810436187101</v>
+        <v>21.753114881761221</v>
       </c>
       <c r="FK149" s="21">
-        <v>27.840466446655959</v>
+        <v>26.978507489738689</v>
       </c>
       <c r="FL149" s="21">
-        <v>23.389960283112956</v>
+        <v>22.516229657818528</v>
       </c>
       <c r="FM149" s="21">
-        <v>21.731219971210653</v>
+        <v>21.282386080916101</v>
       </c>
     </row>
     <row r="150" spans="1:169" x14ac:dyDescent="0.2">
@@ -29379,28 +29379,28 @@
         <v>24.076479105699921</v>
       </c>
       <c r="FF150" s="21">
-        <v>28.826801990893248</v>
+        <v>28.850339420851579</v>
       </c>
       <c r="FG150" s="21">
-        <v>27.976683160252207</v>
+        <v>27.961966769697455</v>
       </c>
       <c r="FH150" s="21">
-        <v>30.452906769025027</v>
+        <v>30.473213552236462</v>
       </c>
       <c r="FI150" s="21">
-        <v>24.051337949270749</v>
+        <v>24.050846741592132</v>
       </c>
       <c r="FJ150" s="21">
-        <v>29.430384002214112</v>
+        <v>29.528142583293171</v>
       </c>
       <c r="FK150" s="21">
-        <v>27.164242601395117</v>
+        <v>27.270765172943751</v>
       </c>
       <c r="FL150" s="21">
-        <v>32.081057569439018</v>
+        <v>32.128285837013756</v>
       </c>
       <c r="FM150" s="21">
-        <v>25.699283191831455</v>
+        <v>25.733033190757926</v>
       </c>
     </row>
     <row r="151" spans="1:169" x14ac:dyDescent="0.2">
@@ -29888,28 +29888,28 @@
         <v>32.892608013046761</v>
       </c>
       <c r="FF151" s="21">
-        <v>38.375649928576969</v>
+        <v>38.355299471294018</v>
       </c>
       <c r="FG151" s="21">
-        <v>37.98959043736258</v>
+        <v>37.979937251414022</v>
       </c>
       <c r="FH151" s="21">
-        <v>39.126714295596912</v>
+        <v>39.079485857261496</v>
       </c>
       <c r="FI151" s="21">
-        <v>34.877412269164708</v>
+        <v>34.771527731722067</v>
       </c>
       <c r="FJ151" s="21">
-        <v>40.933233423288392</v>
+        <v>41.233309646376433</v>
       </c>
       <c r="FK151" s="21">
-        <v>40.24159157526708</v>
+        <v>40.433158440818914</v>
       </c>
       <c r="FL151" s="21">
-        <v>42.827166493924913</v>
+        <v>43.009848212865286</v>
       </c>
       <c r="FM151" s="21">
-        <v>34.441562033245823</v>
+        <v>34.741232763221127</v>
       </c>
     </row>
     <row r="152" spans="1:169" x14ac:dyDescent="0.2">
@@ -32869,28 +32869,28 @@
         <v>551777.97856436903</v>
       </c>
       <c r="FF174" s="23">
-        <v>486726.0078539747</v>
+        <v>486937.95203945873</v>
       </c>
       <c r="FG174" s="23">
-        <v>453932.50922569662</v>
+        <v>453832.27108071535</v>
       </c>
       <c r="FH174" s="23">
-        <v>433482.74402541609</v>
+        <v>433483.76262903411</v>
       </c>
       <c r="FI174" s="23">
-        <v>580203.38279120834</v>
+        <v>580232.62426747358</v>
       </c>
       <c r="FJ174" s="23">
-        <v>499729.71965406463</v>
+        <v>499972.54053691495</v>
       </c>
       <c r="FK174" s="23">
-        <v>480604.20061940385</v>
+        <v>480440.82975776243</v>
       </c>
       <c r="FL174" s="23">
-        <v>484670.13793258084</v>
+        <v>484670.50493542448</v>
       </c>
       <c r="FM174" s="23">
-        <v>638368.1169404937</v>
+        <v>638114.16743970243</v>
       </c>
     </row>
     <row r="175" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -33378,28 +33378,28 @@
         <v>1581093.7445763706</v>
       </c>
       <c r="FF175" s="23">
-        <v>1241803.4393114215</v>
+        <v>1241934.5445208121</v>
       </c>
       <c r="FG175" s="23">
-        <v>1432448.3831223424</v>
+        <v>1432404.6652665765</v>
       </c>
       <c r="FH175" s="23">
-        <v>1171955.4029090884</v>
+        <v>1171903.2197927525</v>
       </c>
       <c r="FI175" s="23">
-        <v>1760803.3065914132</v>
+        <v>1761447.0441819783</v>
       </c>
       <c r="FJ175" s="23">
-        <v>1487489.0816237414</v>
+        <v>1482238.1536128661</v>
       </c>
       <c r="FK175" s="23">
-        <v>1650999.0140415796</v>
+        <v>1651269.4868856184</v>
       </c>
       <c r="FL175" s="23">
-        <v>1335779.8303350164</v>
+        <v>1338522.7937881975</v>
       </c>
       <c r="FM175" s="23">
-        <v>1966707.34561019</v>
+        <v>1964906.4997604352</v>
       </c>
     </row>
     <row r="176" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -33887,28 +33887,28 @@
         <v>3026080.9885062007</v>
       </c>
       <c r="FF176" s="23">
-        <v>2643548.2736162725</v>
+        <v>2645199.5138345994</v>
       </c>
       <c r="FG176" s="23">
-        <v>2885261.1533618188</v>
+        <v>2881751.8502190355</v>
       </c>
       <c r="FH176" s="23">
-        <v>2998886.9164163945</v>
+        <v>2998708.298941425</v>
       </c>
       <c r="FI176" s="23">
-        <v>3321516.5359003381</v>
+        <v>3322778.7394093615</v>
       </c>
       <c r="FJ176" s="23">
-        <v>2941443.4758650111</v>
+        <v>2945438.1656610942</v>
       </c>
       <c r="FK176" s="23">
-        <v>3265540.7670954191</v>
+        <v>3264982.4391404544</v>
       </c>
       <c r="FL176" s="23">
-        <v>3422593.2958089891</v>
+        <v>3425413.6615860597</v>
       </c>
       <c r="FM176" s="23">
-        <v>3849353.0073682438</v>
+        <v>3848545.7575214705</v>
       </c>
     </row>
     <row r="177" spans="1:169" x14ac:dyDescent="0.2">
@@ -34567,28 +34567,28 @@
         <v>5158952.7116469406</v>
       </c>
       <c r="FF178" s="7">
-        <v>4372077.720781669</v>
+        <v>4374072.0103948703</v>
       </c>
       <c r="FG178" s="7">
-        <v>4771642.0457098577</v>
+        <v>4767988.7865663273</v>
       </c>
       <c r="FH178" s="7">
-        <v>4604325.0633508991</v>
+        <v>4604095.2813632116</v>
       </c>
       <c r="FI178" s="7">
-        <v>5662523.2252829596</v>
+        <v>5664458.4078588132</v>
       </c>
       <c r="FJ178" s="7">
-        <v>4928662.2771428172</v>
+        <v>4927648.8598108757</v>
       </c>
       <c r="FK178" s="7">
-        <v>5397143.9817564022</v>
+        <v>5396692.7557838354</v>
       </c>
       <c r="FL178" s="7">
-        <v>5243043.2640765868</v>
+        <v>5248606.9603096815</v>
       </c>
       <c r="FM178" s="7">
-        <v>6454428.4699189272</v>
+        <v>6451566.4247216079</v>
       </c>
     </row>
     <row r="179" spans="1:169" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -37644,28 +37644,28 @@
         <v>519770.20128042623</v>
       </c>
       <c r="FF198" s="23">
-        <v>434037.47739194386</v>
+        <v>434067.48907613708</v>
       </c>
       <c r="FG198" s="23">
-        <v>416058.17799369962</v>
+        <v>415895.21420718945</v>
       </c>
       <c r="FH198" s="23">
-        <v>398149.41229115875</v>
+        <v>398151.39848527644</v>
       </c>
       <c r="FI198" s="23">
-        <v>527113.01255792379</v>
+        <v>527096.21535019553</v>
       </c>
       <c r="FJ198" s="23">
-        <v>434771.79709026119</v>
+        <v>434860.85023226833</v>
       </c>
       <c r="FK198" s="23">
-        <v>417014.24985301855</v>
+        <v>416820.02168895892</v>
       </c>
       <c r="FL198" s="23">
-        <v>406550.84347903717</v>
+        <v>406552.10442807386</v>
       </c>
       <c r="FM198" s="23">
-        <v>525392.57335057622</v>
+        <v>525265.97987364046</v>
       </c>
     </row>
     <row r="199" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -38153,28 +38153,28 @@
         <v>1480848.2893545763</v>
       </c>
       <c r="FF199" s="23">
-        <v>1282787.9427904617</v>
+        <v>1282912.436781697</v>
       </c>
       <c r="FG199" s="23">
-        <v>1433000.4730602135</v>
+        <v>1432963.2450689988</v>
       </c>
       <c r="FH199" s="23">
-        <v>1210961.7889561488</v>
+        <v>1210911.8774945927</v>
       </c>
       <c r="FI199" s="23">
-        <v>1622734.0636805661</v>
+        <v>1624834.306873491</v>
       </c>
       <c r="FJ199" s="23">
-        <v>1417272.5289265472</v>
+        <v>1410718.173950545</v>
       </c>
       <c r="FK199" s="23">
-        <v>1524772.7042912773</v>
+        <v>1523677.9285157444</v>
       </c>
       <c r="FL199" s="23">
-        <v>1281080.761859051</v>
+        <v>1281159.9796641609</v>
       </c>
       <c r="FM199" s="23">
-        <v>1700271.903247681</v>
+        <v>1699147.1306209285</v>
       </c>
     </row>
     <row r="200" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -38662,28 +38662,28 @@
         <v>2824977.1239263597</v>
       </c>
       <c r="FF200" s="23">
-        <v>2548496.994153983</v>
+        <v>2549817.0982763739</v>
       </c>
       <c r="FG200" s="23">
-        <v>2796474.3117465912</v>
+        <v>2792966.1727908477</v>
       </c>
       <c r="FH200" s="23">
-        <v>2816586.022762211</v>
+        <v>2817566.8753184206</v>
       </c>
       <c r="FI200" s="23">
-        <v>3051654.1577057461</v>
+        <v>3052901.8902085237</v>
       </c>
       <c r="FJ200" s="23">
-        <v>2761110.4318308653</v>
+        <v>2764586.7253069049</v>
       </c>
       <c r="FK200" s="23">
-        <v>3050883.7726009442</v>
+        <v>3050267.5179559598</v>
       </c>
       <c r="FL200" s="23">
-        <v>3076009.0805973206</v>
+        <v>3079842.6518613314</v>
       </c>
       <c r="FM200" s="23">
-        <v>3351673.5096272314</v>
+        <v>3350731.1748715527</v>
       </c>
     </row>
     <row r="201" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -39342,28 +39342,28 @@
         <v>4825595.6145613622</v>
       </c>
       <c r="FF202" s="23">
-        <v>4265322.4143363889</v>
+        <v>4266797.0241342075</v>
       </c>
       <c r="FG202" s="23">
-        <v>4645532.9628005046</v>
+        <v>4641824.6320670359</v>
       </c>
       <c r="FH202" s="23">
-        <v>4425697.2240095185</v>
+        <v>4426630.1512982901</v>
       </c>
       <c r="FI202" s="23">
-        <v>5201501.2339442354</v>
+        <v>5204832.4124322105</v>
       </c>
       <c r="FJ202" s="23">
-        <v>4613154.7578476742</v>
+        <v>4610165.7494897181</v>
       </c>
       <c r="FK202" s="7">
-        <v>4992670.7267452404</v>
+        <v>4990765.4681606628</v>
       </c>
       <c r="FL202" s="7">
-        <v>4763640.6859354088</v>
+        <v>4767554.7359535657</v>
       </c>
       <c r="FM202" s="7">
-        <v>5577337.9862254886</v>
+        <v>5575144.2853661217</v>
       </c>
     </row>
     <row r="203" spans="1:169" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -41496,28 +41496,28 @@
         <v>7.4523813495096363</v>
       </c>
       <c r="FB222" s="21">
-        <v>10.025760908215148</v>
+        <v>10.073671477820341</v>
       </c>
       <c r="FC222" s="21">
-        <v>7.0701977421430087</v>
+        <v>7.0465543198581457</v>
       </c>
       <c r="FD222" s="21">
-        <v>5.646798659970159</v>
+        <v>5.6470469102473118</v>
       </c>
       <c r="FE222" s="21">
-        <v>5.151601791140223</v>
+        <v>5.1569012915554566</v>
       </c>
       <c r="FF222" s="25">
-        <v>2.6716698081174428</v>
+        <v>2.6768479316231293</v>
       </c>
       <c r="FG222" s="25">
-        <v>5.87569536255576</v>
+        <v>5.8630821060132803</v>
       </c>
       <c r="FH222" s="25">
-        <v>11.808404051295639</v>
+        <v>11.808225986585526</v>
       </c>
       <c r="FI222" s="25">
-        <v>10.024887112768937</v>
+        <v>9.9755754418846294</v>
       </c>
     </row>
     <row r="223" spans="1:165" x14ac:dyDescent="0.2">
@@ -41993,28 +41993,28 @@
         <v>-10.34220030403452</v>
       </c>
       <c r="FB223" s="21">
-        <v>-5.7742456034476533</v>
+        <v>-5.7642975819902489</v>
       </c>
       <c r="FC223" s="21">
-        <v>24.975080728475746</v>
+        <v>24.971266529920328</v>
       </c>
       <c r="FD223" s="21">
-        <v>11.291652506300977</v>
+        <v>11.286697074348922</v>
       </c>
       <c r="FE223" s="21">
-        <v>11.366154766692404</v>
+        <v>11.406869467688054</v>
       </c>
       <c r="FF223" s="25">
-        <v>19.78458381855927</v>
+        <v>19.349136405958717</v>
       </c>
       <c r="FG223" s="25">
-        <v>15.257138302104622</v>
+        <v>15.279538452097285</v>
       </c>
       <c r="FH223" s="25">
-        <v>13.97872538658676</v>
+        <v>14.217861268860659</v>
       </c>
       <c r="FI223" s="25">
-        <v>11.693755812928842</v>
+        <v>11.55069953709247</v>
       </c>
     </row>
     <row r="224" spans="1:165" x14ac:dyDescent="0.2">
@@ -42490,28 +42490,28 @@
         <v>-6.107916944846437</v>
       </c>
       <c r="FB224" s="21">
-        <v>-1.6852952114830373</v>
+        <v>-1.6238848728786763</v>
       </c>
       <c r="FC224" s="21">
-        <v>12.344441911694773</v>
+        <v>12.207798924415954</v>
       </c>
       <c r="FD224" s="21">
-        <v>9.3787466240890467</v>
+        <v>9.3722318884281748</v>
       </c>
       <c r="FE224" s="21">
-        <v>9.7629755619983172</v>
+        <v>9.8046863924029708</v>
       </c>
       <c r="FF224" s="25">
-        <v>11.268763473013081</v>
+        <v>11.350321601687256</v>
       </c>
       <c r="FG224" s="25">
-        <v>13.180076031956773</v>
+        <v>13.298528424378048</v>
       </c>
       <c r="FH224" s="25">
-        <v>14.128788153803228</v>
+        <v>14.229638901365178</v>
       </c>
       <c r="FI224" s="25">
-        <v>15.891429886403657</v>
+        <v>15.823112501483209</v>
       </c>
     </row>
     <row r="225" spans="1:165" x14ac:dyDescent="0.2">
@@ -43154,28 +43154,28 @@
         <v>-6.1995032763103808</v>
       </c>
       <c r="FB226" s="21">
-        <v>-1.7320826131756917</v>
+        <v>-1.6872584587412973</v>
       </c>
       <c r="FC226" s="21">
-        <v>15.302372452855906</v>
+        <v>15.214094781899263</v>
       </c>
       <c r="FD226" s="21">
-        <v>9.4936344771557657</v>
+        <v>9.4881701225276487</v>
       </c>
       <c r="FE226" s="21">
-        <v>9.761099622005645</v>
+        <v>9.7986107736679742</v>
       </c>
       <c r="FF226" s="25">
-        <v>12.730436005644435</v>
+        <v>12.655869590176934</v>
       </c>
       <c r="FG226" s="25">
-        <v>13.108735526566335</v>
+        <v>13.185936405489528</v>
       </c>
       <c r="FH226" s="25">
-        <v>13.872135262770669</v>
+        <v>13.99866074786442</v>
       </c>
       <c r="FI226" s="25">
-        <v>13.985024222066585</v>
+        <v>13.895556471396617</v>
       </c>
     </row>
     <row r="227" spans="1:165" hidden="1" x14ac:dyDescent="0.2">
@@ -45282,28 +45282,28 @@
         <v>-2.4922338426034969</v>
       </c>
       <c r="FB246" s="21">
-        <v>-1.2923854644821233</v>
+        <v>-1.2855602894472327</v>
       </c>
       <c r="FC246" s="21">
-        <v>1.0292061679123776E-2</v>
+        <v>-2.8880478956764932E-2</v>
       </c>
       <c r="FD246" s="21">
-        <v>-1.6634934954323626</v>
+        <v>-1.6630029374037747</v>
       </c>
       <c r="FE246" s="21">
-        <v>1.4127033945787701</v>
+        <v>1.409471734185999</v>
       </c>
       <c r="FF246" s="25">
-        <v>0.16918347759499852</v>
+        <v>0.1827736875249002</v>
       </c>
       <c r="FG246" s="25">
-        <v>0.22979282943775559</v>
+        <v>0.22236550221728635</v>
       </c>
       <c r="FH246" s="25">
-        <v>2.1101202032503892</v>
+        <v>2.1099275237402253</v>
       </c>
       <c r="FI246" s="25">
-        <v>-0.32638906009904645</v>
+        <v>-0.34722986491927088</v>
       </c>
     </row>
     <row r="247" spans="1:165" x14ac:dyDescent="0.2">
@@ -45779,28 +45779,28 @@
         <v>-10.569647108790136</v>
       </c>
       <c r="FB247" s="21">
-        <v>-4.1687292401505545</v>
+        <v>-4.1594288585488357</v>
       </c>
       <c r="FC247" s="21">
-        <v>21.294551040883249</v>
+        <v>21.291399923653742</v>
       </c>
       <c r="FD247" s="21">
-        <v>8.6595195405538448</v>
+        <v>8.6550409884792003</v>
       </c>
       <c r="FE247" s="21">
-        <v>9.5813848958039074</v>
+        <v>9.7232119288648278</v>
       </c>
       <c r="FF247" s="25">
-        <v>10.483773790665651</v>
+        <v>9.9621559121728041</v>
       </c>
       <c r="FG247" s="25">
-        <v>6.4042010422426188</v>
+        <v>6.3305659624492137</v>
       </c>
       <c r="FH247" s="25">
-        <v>5.790353877585602</v>
+        <v>5.8012563486381339</v>
       </c>
       <c r="FI247" s="25">
-        <v>4.7782222178321234</v>
+        <v>4.5735631893710149</v>
       </c>
     </row>
     <row r="248" spans="1:165" x14ac:dyDescent="0.2">
@@ -46276,28 +46276,28 @@
         <v>-7.9564143434308789</v>
       </c>
       <c r="FB248" s="22">
-        <v>-4.0293050052295882</v>
+        <v>-3.9795928374766163</v>
       </c>
       <c r="FC248" s="21">
-        <v>9.859268487143666</v>
+        <v>9.721451530338328</v>
       </c>
       <c r="FD248" s="21">
-        <v>7.6611237803929839</v>
+        <v>7.6986158674838663</v>
       </c>
       <c r="FE248" s="21">
-        <v>8.024030773896456</v>
+        <v>8.0681986537780404</v>
       </c>
       <c r="FF248" s="25">
-        <v>8.3426991738502494</v>
+        <v>8.4229424602929868</v>
       </c>
       <c r="FG248" s="25">
-        <v>9.0975075217285593</v>
+        <v>9.212476243777985</v>
       </c>
       <c r="FH248" s="25">
-        <v>9.2105497839790615</v>
+        <v>9.3085909988656539</v>
       </c>
       <c r="FI248" s="25">
-        <v>9.8313680521072513</v>
+        <v>9.7556127046941015</v>
       </c>
     </row>
     <row r="249" spans="1:165" x14ac:dyDescent="0.2">
@@ -46940,28 +46940,28 @@
         <v>-8.2254200542660811</v>
       </c>
       <c r="FB250" s="22">
-        <v>-3.7999653689594481</v>
+        <v>-3.7667070358635328</v>
       </c>
       <c r="FC250" s="21">
-        <v>12.131220504597621</v>
+        <v>12.041710936049043</v>
       </c>
       <c r="FD250" s="21">
-        <v>7.0172529948015807</v>
+        <v>7.0398119975156845</v>
       </c>
       <c r="FE250" s="21">
-        <v>7.789828435863285</v>
+        <v>7.8588598830472165</v>
       </c>
       <c r="FF250" s="25">
-        <v>8.1548898236196266</v>
+        <v>8.0474586302868403</v>
       </c>
       <c r="FG250" s="25">
-        <v>7.4725067441017075</v>
+        <v>7.5173205313066944</v>
       </c>
       <c r="FH250" s="25">
-        <v>7.6359372279816</v>
+        <v>7.7016731238611698</v>
       </c>
       <c r="FI250" s="25">
-        <v>7.2255438454690335</v>
+        <v>7.1147703439862369</v>
       </c>
     </row>
     <row r="251" spans="1:165" hidden="1" x14ac:dyDescent="0.2">
@@ -49067,28 +49067,28 @@
         <v>10.695542475484714</v>
       </c>
       <c r="FF270" s="21">
-        <v>11.132601910081201</v>
+        <v>11.132371640939224</v>
       </c>
       <c r="FG270" s="21">
-        <v>9.5131299640094209</v>
+        <v>9.5183166613011938</v>
       </c>
       <c r="FH270" s="21">
-        <v>9.4146859324901673</v>
+        <v>9.4151779261328681</v>
       </c>
       <c r="FI270" s="21">
-        <v>10.246375329652007</v>
+        <v>10.243391026800808</v>
       </c>
       <c r="FJ270" s="21">
-        <v>10.139256689824601</v>
+        <v>10.146269646252838</v>
       </c>
       <c r="FK270" s="21">
-        <v>8.9047874624793675</v>
+        <v>8.9025047654020355</v>
       </c>
       <c r="FL270" s="21">
-        <v>9.2440613880370428</v>
+        <v>9.2342693709118517</v>
       </c>
       <c r="FM270" s="21">
-        <v>9.890389519624069</v>
+        <v>9.8908408505960281</v>
       </c>
     </row>
     <row r="271" spans="1:169" x14ac:dyDescent="0.2">
@@ -49576,28 +49576,28 @@
         <v>30.64757195790661</v>
       </c>
       <c r="FF271" s="21">
-        <v>28.403050417168789</v>
+        <v>28.393097817534475</v>
       </c>
       <c r="FG271" s="21">
-        <v>30.02003019925278</v>
+        <v>30.042114807449543</v>
       </c>
       <c r="FH271" s="21">
-        <v>25.453359325941509</v>
+        <v>25.453496250098617</v>
       </c>
       <c r="FI271" s="21">
-        <v>31.095736591939982</v>
+        <v>31.096477674514556</v>
       </c>
       <c r="FJ271" s="21">
-        <v>30.180381571732482</v>
+        <v>30.080027935873556</v>
       </c>
       <c r="FK271" s="21">
-        <v>30.590234754202207</v>
+        <v>30.597804277738284</v>
       </c>
       <c r="FL271" s="21">
-        <v>25.477184967884792</v>
+        <v>25.502439102607543</v>
       </c>
       <c r="FM271" s="21">
-        <v>30.470666067121101</v>
+        <v>30.456270158378214</v>
       </c>
     </row>
     <row r="272" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -50085,28 +50085,28 @@
         <v>58.656885566608665</v>
       </c>
       <c r="FF272" s="22">
-        <v>60.464347672750009</v>
+        <v>60.474530541526306</v>
       </c>
       <c r="FG272" s="22">
-        <v>60.466839836737797</v>
+        <v>60.439568531249265</v>
       </c>
       <c r="FH272" s="22">
-        <v>65.131954741568322</v>
+        <v>65.13132582376852</v>
       </c>
       <c r="FI272" s="22">
-        <v>58.657888078408014</v>
+        <v>58.660131298684647</v>
       </c>
       <c r="FJ272" s="22">
-        <v>59.680361738442912</v>
+        <v>59.773702417873601</v>
       </c>
       <c r="FK272" s="22">
-        <v>60.504977783318438</v>
+        <v>60.499690956859673</v>
       </c>
       <c r="FL272" s="22">
-        <v>65.278753644078165</v>
+        <v>65.2632915264806</v>
       </c>
       <c r="FM272" s="22">
-        <v>59.638944413254833</v>
+        <v>59.652888991025762</v>
       </c>
     </row>
     <row r="273" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -52911,28 +52911,28 @@
         <v>10.771109782013353</v>
       </c>
       <c r="FF294" s="22">
-        <v>10.175959405391694</v>
+        <v>10.17314595986003</v>
       </c>
       <c r="FG294" s="22">
-        <v>8.9560913963009288</v>
+        <v>8.9597356034105164</v>
       </c>
       <c r="FH294" s="22">
-        <v>8.9963093302268433</v>
+        <v>8.9944581967956427</v>
       </c>
       <c r="FI294" s="22">
-        <v>10.133863068570694</v>
+        <v>10.127054505946797</v>
       </c>
       <c r="FJ294" s="22">
-        <v>9.4246089696134412</v>
+        <v>9.4326510989415393</v>
       </c>
       <c r="FK294" s="22">
-        <v>8.3525285899411461</v>
+        <v>8.351825473429372</v>
       </c>
       <c r="FL294" s="22">
-        <v>8.5344565277430249</v>
+        <v>8.5274763887269511</v>
       </c>
       <c r="FM294" s="22">
-        <v>9.4201315152166369</v>
+        <v>9.4215674606374069</v>
       </c>
     </row>
     <row r="295" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -53420,28 +53420,28 @@
         <v>30.687368102003354</v>
       </c>
       <c r="FF295" s="22">
-        <v>30.074817755366368</v>
+        <v>30.067341603670911</v>
       </c>
       <c r="FG295" s="22">
-        <v>30.846847596068848</v>
+        <v>30.870688977986887</v>
       </c>
       <c r="FH295" s="22">
-        <v>27.362056816418679</v>
+        <v>27.355162643064801</v>
       </c>
       <c r="FI295" s="22">
-        <v>31.197417643407277</v>
+        <v>31.217802575015252</v>
       </c>
       <c r="FJ295" s="22">
-        <v>30.722414558400672</v>
+        <v>30.600161699320509</v>
       </c>
       <c r="FK295" s="22">
-        <v>30.540221611716184</v>
+        <v>30.529944519258144</v>
       </c>
       <c r="FL295" s="22">
-        <v>26.892892355240527</v>
+        <v>26.872475527182683</v>
       </c>
       <c r="FM295" s="22">
-        <v>30.485366091258793</v>
+        <v>30.477186663687306</v>
       </c>
     </row>
     <row r="296" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -53929,28 +53929,28 @@
         <v>58.541522115983291</v>
       </c>
       <c r="FF296" s="22">
-        <v>59.749222839241931</v>
+        <v>59.759512436469073</v>
       </c>
       <c r="FG296" s="22">
-        <v>60.197061007630218</v>
+        <v>60.169575418602591</v>
       </c>
       <c r="FH296" s="22">
-        <v>63.64163385335447</v>
+        <v>63.650379160139551</v>
       </c>
       <c r="FI296" s="22">
-        <v>58.668719288022039</v>
+        <v>58.655142919037949</v>
       </c>
       <c r="FJ296" s="22">
-        <v>59.852976471985876</v>
+        <v>59.967187201737957</v>
       </c>
       <c r="FK296" s="22">
-        <v>61.107249798342664</v>
+        <v>61.118230007312491</v>
       </c>
       <c r="FL296" s="22">
-        <v>64.572651117016449</v>
+        <v>64.600048084090375</v>
       </c>
       <c r="FM296" s="22">
-        <v>60.094502393524571</v>
+        <v>60.101245875675289</v>
       </c>
     </row>
     <row r="297" spans="1:169" x14ac:dyDescent="0.2">
@@ -55801,6 +55801,482 @@
     </row>
   </sheetData>
   <mergeCells count="500">
+    <mergeCell ref="FJ9:FM9"/>
+    <mergeCell ref="FJ36:FM36"/>
+    <mergeCell ref="FJ117:FM117"/>
+    <mergeCell ref="FJ144:FM144"/>
+    <mergeCell ref="FJ171:FM171"/>
+    <mergeCell ref="FJ195:FM195"/>
+    <mergeCell ref="FJ267:FM267"/>
+    <mergeCell ref="FJ291:FM291"/>
+    <mergeCell ref="FF219:FI219"/>
+    <mergeCell ref="FF243:FI243"/>
+    <mergeCell ref="EX63:FA63"/>
+    <mergeCell ref="EX90:FA90"/>
+    <mergeCell ref="FB117:FD117"/>
+    <mergeCell ref="FB144:FD144"/>
+    <mergeCell ref="FB171:FD171"/>
+    <mergeCell ref="FB195:FD195"/>
+    <mergeCell ref="EX195:FA195"/>
+    <mergeCell ref="EX36:FA36"/>
+    <mergeCell ref="FF9:FI9"/>
+    <mergeCell ref="FF36:FI36"/>
+    <mergeCell ref="FB63:FE63"/>
+    <mergeCell ref="FB90:FE90"/>
+    <mergeCell ref="FF117:FI117"/>
+    <mergeCell ref="FF144:FI144"/>
+    <mergeCell ref="FF171:FI171"/>
+    <mergeCell ref="FF195:FI195"/>
+    <mergeCell ref="FB9:FE9"/>
+    <mergeCell ref="FF63:FI63"/>
+    <mergeCell ref="FF90:FI90"/>
+    <mergeCell ref="EX219:EZ219"/>
+    <mergeCell ref="EX243:EZ243"/>
+    <mergeCell ref="BF291:BI291"/>
+    <mergeCell ref="BJ291:BM291"/>
+    <mergeCell ref="BN291:BQ291"/>
+    <mergeCell ref="B267:E267"/>
+    <mergeCell ref="F267:I267"/>
+    <mergeCell ref="J267:M267"/>
+    <mergeCell ref="V291:Y291"/>
+    <mergeCell ref="Z291:AC291"/>
+    <mergeCell ref="AD291:AG291"/>
+    <mergeCell ref="AH291:AK291"/>
+    <mergeCell ref="AL291:AO291"/>
+    <mergeCell ref="AP291:AS291"/>
+    <mergeCell ref="BF267:BI267"/>
+    <mergeCell ref="BJ267:BM267"/>
+    <mergeCell ref="BN267:BQ267"/>
+    <mergeCell ref="B243:E243"/>
+    <mergeCell ref="N267:Q267"/>
+    <mergeCell ref="R267:U267"/>
+    <mergeCell ref="V267:Y267"/>
+    <mergeCell ref="Z267:AC267"/>
+    <mergeCell ref="AD267:AG267"/>
+    <mergeCell ref="BR267:BU267"/>
+    <mergeCell ref="BV267:BY267"/>
+    <mergeCell ref="B291:E291"/>
+    <mergeCell ref="F291:I291"/>
+    <mergeCell ref="J291:M291"/>
+    <mergeCell ref="N291:Q291"/>
+    <mergeCell ref="R291:U291"/>
+    <mergeCell ref="AH267:AK267"/>
+    <mergeCell ref="AL267:AO267"/>
+    <mergeCell ref="AP267:AS267"/>
+    <mergeCell ref="AT267:AW267"/>
+    <mergeCell ref="AX267:BA267"/>
+    <mergeCell ref="BB267:BE267"/>
+    <mergeCell ref="BR291:BU291"/>
+    <mergeCell ref="BV291:BY291"/>
+    <mergeCell ref="AT291:AW291"/>
+    <mergeCell ref="AX291:BA291"/>
+    <mergeCell ref="BB291:BE291"/>
+    <mergeCell ref="BF243:BI243"/>
+    <mergeCell ref="BJ243:BM243"/>
+    <mergeCell ref="BN243:BQ243"/>
+    <mergeCell ref="BR243:BU243"/>
+    <mergeCell ref="BV243:BY243"/>
+    <mergeCell ref="AH243:AK243"/>
+    <mergeCell ref="AL243:AO243"/>
+    <mergeCell ref="AP243:AS243"/>
+    <mergeCell ref="AT243:AW243"/>
+    <mergeCell ref="AX243:BA243"/>
+    <mergeCell ref="BB243:BE243"/>
+    <mergeCell ref="F243:I243"/>
+    <mergeCell ref="J243:M243"/>
+    <mergeCell ref="N243:Q243"/>
+    <mergeCell ref="R243:U243"/>
+    <mergeCell ref="V243:Y243"/>
+    <mergeCell ref="Z243:AC243"/>
+    <mergeCell ref="AD243:AG243"/>
+    <mergeCell ref="AT219:AW219"/>
+    <mergeCell ref="V219:Y219"/>
+    <mergeCell ref="Z219:AC219"/>
+    <mergeCell ref="AD219:AG219"/>
+    <mergeCell ref="AH219:AK219"/>
+    <mergeCell ref="AL219:AO219"/>
+    <mergeCell ref="AP219:AS219"/>
+    <mergeCell ref="BF195:BI195"/>
+    <mergeCell ref="BJ195:BM195"/>
+    <mergeCell ref="BN195:BQ195"/>
+    <mergeCell ref="BR195:BU195"/>
+    <mergeCell ref="BV195:BY195"/>
+    <mergeCell ref="B219:E219"/>
+    <mergeCell ref="F219:I219"/>
+    <mergeCell ref="J219:M219"/>
+    <mergeCell ref="N219:Q219"/>
+    <mergeCell ref="R219:U219"/>
+    <mergeCell ref="AH195:AK195"/>
+    <mergeCell ref="AL195:AO195"/>
+    <mergeCell ref="AP195:AS195"/>
+    <mergeCell ref="AT195:AW195"/>
+    <mergeCell ref="AX195:BA195"/>
+    <mergeCell ref="BB195:BE195"/>
+    <mergeCell ref="BR219:BU219"/>
+    <mergeCell ref="BV219:BY219"/>
+    <mergeCell ref="AX219:BA219"/>
+    <mergeCell ref="BB219:BE219"/>
+    <mergeCell ref="BF219:BI219"/>
+    <mergeCell ref="BJ219:BM219"/>
+    <mergeCell ref="BN219:BQ219"/>
+    <mergeCell ref="B195:E195"/>
+    <mergeCell ref="F195:I195"/>
+    <mergeCell ref="J195:M195"/>
+    <mergeCell ref="N195:Q195"/>
+    <mergeCell ref="R195:U195"/>
+    <mergeCell ref="V195:Y195"/>
+    <mergeCell ref="Z195:AC195"/>
+    <mergeCell ref="AD195:AG195"/>
+    <mergeCell ref="AT171:AW171"/>
+    <mergeCell ref="V171:Y171"/>
+    <mergeCell ref="Z171:AC171"/>
+    <mergeCell ref="AD171:AG171"/>
+    <mergeCell ref="AH171:AK171"/>
+    <mergeCell ref="AL171:AO171"/>
+    <mergeCell ref="AP171:AS171"/>
+    <mergeCell ref="BF144:BI144"/>
+    <mergeCell ref="BJ144:BM144"/>
+    <mergeCell ref="BN144:BQ144"/>
+    <mergeCell ref="BR144:BU144"/>
+    <mergeCell ref="BV144:BY144"/>
+    <mergeCell ref="B171:E171"/>
+    <mergeCell ref="F171:I171"/>
+    <mergeCell ref="J171:M171"/>
+    <mergeCell ref="N171:Q171"/>
+    <mergeCell ref="R171:U171"/>
+    <mergeCell ref="AH144:AK144"/>
+    <mergeCell ref="AL144:AO144"/>
+    <mergeCell ref="AP144:AS144"/>
+    <mergeCell ref="AT144:AW144"/>
+    <mergeCell ref="AX144:BA144"/>
+    <mergeCell ref="BB144:BE144"/>
+    <mergeCell ref="BR171:BU171"/>
+    <mergeCell ref="BV171:BY171"/>
+    <mergeCell ref="AX171:BA171"/>
+    <mergeCell ref="BB171:BE171"/>
+    <mergeCell ref="BF171:BI171"/>
+    <mergeCell ref="BJ171:BM171"/>
+    <mergeCell ref="BN171:BQ171"/>
+    <mergeCell ref="B144:E144"/>
+    <mergeCell ref="F144:I144"/>
+    <mergeCell ref="J144:M144"/>
+    <mergeCell ref="N144:Q144"/>
+    <mergeCell ref="R144:U144"/>
+    <mergeCell ref="V144:Y144"/>
+    <mergeCell ref="Z144:AC144"/>
+    <mergeCell ref="AD144:AG144"/>
+    <mergeCell ref="AT117:AW117"/>
+    <mergeCell ref="V117:Y117"/>
+    <mergeCell ref="Z117:AC117"/>
+    <mergeCell ref="AD117:AG117"/>
+    <mergeCell ref="AH117:AK117"/>
+    <mergeCell ref="AL117:AO117"/>
+    <mergeCell ref="AP117:AS117"/>
+    <mergeCell ref="B117:E117"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="J117:M117"/>
+    <mergeCell ref="N117:Q117"/>
+    <mergeCell ref="R117:U117"/>
+    <mergeCell ref="BR117:BU117"/>
+    <mergeCell ref="BV117:BY117"/>
+    <mergeCell ref="AX117:BA117"/>
+    <mergeCell ref="BB117:BE117"/>
+    <mergeCell ref="BF117:BI117"/>
+    <mergeCell ref="BJ117:BM117"/>
+    <mergeCell ref="BN117:BQ117"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="J90:M90"/>
+    <mergeCell ref="N90:Q90"/>
+    <mergeCell ref="R90:U90"/>
+    <mergeCell ref="AH63:AK63"/>
+    <mergeCell ref="AL63:AO63"/>
+    <mergeCell ref="AP63:AS63"/>
+    <mergeCell ref="AT63:AW63"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="R63:U63"/>
+    <mergeCell ref="V63:Y63"/>
+    <mergeCell ref="Z63:AC63"/>
+    <mergeCell ref="AD63:AG63"/>
+    <mergeCell ref="AT90:AW90"/>
+    <mergeCell ref="V90:Y90"/>
+    <mergeCell ref="Z90:AC90"/>
+    <mergeCell ref="AD90:AG90"/>
+    <mergeCell ref="AH90:AK90"/>
+    <mergeCell ref="AL90:AO90"/>
+    <mergeCell ref="AP90:AS90"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="BJ36:BM36"/>
+    <mergeCell ref="BN36:BQ36"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="R36:U36"/>
+    <mergeCell ref="V36:Y36"/>
+    <mergeCell ref="Z36:AC36"/>
+    <mergeCell ref="AD36:AG36"/>
+    <mergeCell ref="AH36:AK36"/>
+    <mergeCell ref="AL36:AO36"/>
+    <mergeCell ref="AP36:AS36"/>
+    <mergeCell ref="AT36:AW36"/>
+    <mergeCell ref="AX36:BA36"/>
+    <mergeCell ref="BB36:BE36"/>
+    <mergeCell ref="BF36:BI36"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="BJ63:BM63"/>
+    <mergeCell ref="BN63:BQ63"/>
+    <mergeCell ref="BR63:BU63"/>
+    <mergeCell ref="BV63:BY63"/>
+    <mergeCell ref="AX63:BA63"/>
+    <mergeCell ref="BB63:BE63"/>
+    <mergeCell ref="BR90:BU90"/>
+    <mergeCell ref="BV90:BY90"/>
+    <mergeCell ref="AX90:BA90"/>
+    <mergeCell ref="BB90:BE90"/>
+    <mergeCell ref="BF90:BI90"/>
+    <mergeCell ref="BJ90:BM90"/>
+    <mergeCell ref="BN90:BQ90"/>
+    <mergeCell ref="EH291:EK291"/>
+    <mergeCell ref="EL291:EO291"/>
+    <mergeCell ref="EP291:ES291"/>
+    <mergeCell ref="CX267:DA267"/>
+    <mergeCell ref="DB267:DE267"/>
+    <mergeCell ref="BZ267:CC267"/>
+    <mergeCell ref="CD267:CG267"/>
+    <mergeCell ref="CH267:CK267"/>
+    <mergeCell ref="CL267:CO267"/>
+    <mergeCell ref="CP267:CS267"/>
+    <mergeCell ref="CD291:CG291"/>
+    <mergeCell ref="CH291:CK291"/>
+    <mergeCell ref="CL291:CO291"/>
+    <mergeCell ref="CP291:CS291"/>
+    <mergeCell ref="CT291:CW291"/>
+    <mergeCell ref="CX291:DA291"/>
+    <mergeCell ref="DB291:DE291"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="BZ291:CC291"/>
+    <mergeCell ref="BZ219:CC219"/>
+    <mergeCell ref="BZ171:CC171"/>
+    <mergeCell ref="BZ144:CC144"/>
+    <mergeCell ref="BZ63:CC63"/>
+    <mergeCell ref="BZ90:CC90"/>
+    <mergeCell ref="BZ36:CC36"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="BR36:BU36"/>
+    <mergeCell ref="BV36:BY36"/>
+    <mergeCell ref="BF63:BI63"/>
+    <mergeCell ref="DJ243:DM243"/>
+    <mergeCell ref="DN243:DQ243"/>
+    <mergeCell ref="CT267:CW267"/>
+    <mergeCell ref="EX291:FA291"/>
+    <mergeCell ref="DF291:DI291"/>
+    <mergeCell ref="DJ291:DM291"/>
+    <mergeCell ref="DN291:DQ291"/>
+    <mergeCell ref="DR291:DU291"/>
+    <mergeCell ref="DV291:DY291"/>
+    <mergeCell ref="DZ291:EC291"/>
+    <mergeCell ref="ET267:EW267"/>
+    <mergeCell ref="EX267:FA267"/>
+    <mergeCell ref="DV267:DY267"/>
+    <mergeCell ref="DZ267:EC267"/>
+    <mergeCell ref="ED267:EG267"/>
+    <mergeCell ref="EH267:EK267"/>
+    <mergeCell ref="EL267:EO267"/>
+    <mergeCell ref="EP267:ES267"/>
+    <mergeCell ref="DF267:DI267"/>
+    <mergeCell ref="DJ267:DM267"/>
+    <mergeCell ref="DN267:DQ267"/>
+    <mergeCell ref="DR267:DU267"/>
+    <mergeCell ref="ET291:EW291"/>
+    <mergeCell ref="ED291:EG291"/>
+    <mergeCell ref="ET219:EW219"/>
+    <mergeCell ref="BZ243:CC243"/>
+    <mergeCell ref="CD243:CG243"/>
+    <mergeCell ref="CH243:CK243"/>
+    <mergeCell ref="CL243:CO243"/>
+    <mergeCell ref="CP243:CS243"/>
+    <mergeCell ref="DF219:DI219"/>
+    <mergeCell ref="DJ219:DM219"/>
+    <mergeCell ref="DN219:DQ219"/>
+    <mergeCell ref="DR219:DU219"/>
+    <mergeCell ref="DV219:DY219"/>
+    <mergeCell ref="DZ219:EC219"/>
+    <mergeCell ref="EP243:ES243"/>
+    <mergeCell ref="ET243:EW243"/>
+    <mergeCell ref="DV243:DY243"/>
+    <mergeCell ref="DZ243:EC243"/>
+    <mergeCell ref="ED243:EG243"/>
+    <mergeCell ref="EH243:EK243"/>
+    <mergeCell ref="EL243:EO243"/>
+    <mergeCell ref="DR243:DU243"/>
+    <mergeCell ref="CT243:CW243"/>
+    <mergeCell ref="CX243:DA243"/>
+    <mergeCell ref="DB243:DE243"/>
+    <mergeCell ref="DF243:DI243"/>
+    <mergeCell ref="CD219:CG219"/>
+    <mergeCell ref="CH219:CK219"/>
+    <mergeCell ref="CL219:CO219"/>
+    <mergeCell ref="CP219:CS219"/>
+    <mergeCell ref="CT219:CW219"/>
+    <mergeCell ref="CX219:DA219"/>
+    <mergeCell ref="DB219:DE219"/>
+    <mergeCell ref="DV195:DY195"/>
+    <mergeCell ref="BZ195:CC195"/>
+    <mergeCell ref="CD195:CG195"/>
+    <mergeCell ref="ED219:EG219"/>
+    <mergeCell ref="CH195:CK195"/>
+    <mergeCell ref="CL195:CO195"/>
+    <mergeCell ref="CP195:CS195"/>
+    <mergeCell ref="CT195:CW195"/>
+    <mergeCell ref="ED171:EG171"/>
+    <mergeCell ref="EH171:EK171"/>
+    <mergeCell ref="EL171:EO171"/>
+    <mergeCell ref="EP171:ES171"/>
+    <mergeCell ref="DZ195:EC195"/>
+    <mergeCell ref="ED195:EG195"/>
+    <mergeCell ref="EH195:EK195"/>
+    <mergeCell ref="EL195:EO195"/>
+    <mergeCell ref="EP195:ES195"/>
+    <mergeCell ref="CX195:DA195"/>
+    <mergeCell ref="DB195:DE195"/>
+    <mergeCell ref="DF195:DI195"/>
+    <mergeCell ref="DJ195:DM195"/>
+    <mergeCell ref="DN195:DQ195"/>
+    <mergeCell ref="DR195:DU195"/>
+    <mergeCell ref="EH219:EK219"/>
+    <mergeCell ref="EL219:EO219"/>
+    <mergeCell ref="EP219:ES219"/>
+    <mergeCell ref="ET171:EW171"/>
+    <mergeCell ref="ET195:EW195"/>
+    <mergeCell ref="EX171:FA171"/>
+    <mergeCell ref="DF171:DI171"/>
+    <mergeCell ref="DJ171:DM171"/>
+    <mergeCell ref="DN171:DQ171"/>
+    <mergeCell ref="DR171:DU171"/>
+    <mergeCell ref="DV171:DY171"/>
+    <mergeCell ref="DZ171:EC171"/>
+    <mergeCell ref="CD171:CG171"/>
+    <mergeCell ref="CH171:CK171"/>
+    <mergeCell ref="CL171:CO171"/>
+    <mergeCell ref="CP171:CS171"/>
+    <mergeCell ref="CT171:CW171"/>
+    <mergeCell ref="CX171:DA171"/>
+    <mergeCell ref="DB171:DE171"/>
+    <mergeCell ref="DV144:DY144"/>
+    <mergeCell ref="CX144:DA144"/>
+    <mergeCell ref="DB144:DE144"/>
+    <mergeCell ref="DF144:DI144"/>
+    <mergeCell ref="DJ144:DM144"/>
+    <mergeCell ref="DN144:DQ144"/>
+    <mergeCell ref="DR144:DU144"/>
+    <mergeCell ref="CD144:CG144"/>
+    <mergeCell ref="CH144:CK144"/>
+    <mergeCell ref="CL144:CO144"/>
+    <mergeCell ref="CP144:CS144"/>
+    <mergeCell ref="CT144:CW144"/>
+    <mergeCell ref="BZ117:CC117"/>
+    <mergeCell ref="CD117:CG117"/>
+    <mergeCell ref="CH117:CK117"/>
+    <mergeCell ref="CL117:CO117"/>
+    <mergeCell ref="CP117:CS117"/>
+    <mergeCell ref="CT117:CW117"/>
+    <mergeCell ref="CX117:DA117"/>
+    <mergeCell ref="DB117:DE117"/>
+    <mergeCell ref="ED117:EG117"/>
+    <mergeCell ref="DF117:DI117"/>
+    <mergeCell ref="DJ117:DM117"/>
+    <mergeCell ref="DN117:DQ117"/>
+    <mergeCell ref="DR117:DU117"/>
+    <mergeCell ref="DV117:DY117"/>
+    <mergeCell ref="DZ117:EC117"/>
+    <mergeCell ref="ET144:EW144"/>
+    <mergeCell ref="EX144:FA144"/>
+    <mergeCell ref="DZ144:EC144"/>
+    <mergeCell ref="ED144:EG144"/>
+    <mergeCell ref="EH144:EK144"/>
+    <mergeCell ref="EL144:EO144"/>
+    <mergeCell ref="EP144:ES144"/>
+    <mergeCell ref="EH117:EK117"/>
+    <mergeCell ref="EL117:EO117"/>
+    <mergeCell ref="EP117:ES117"/>
+    <mergeCell ref="ET117:EW117"/>
+    <mergeCell ref="EX117:FA117"/>
+    <mergeCell ref="CT90:CW90"/>
+    <mergeCell ref="CX90:DA90"/>
+    <mergeCell ref="DB90:DE90"/>
+    <mergeCell ref="CX63:DA63"/>
+    <mergeCell ref="DB63:DE63"/>
+    <mergeCell ref="CD90:CG90"/>
+    <mergeCell ref="CH90:CK90"/>
+    <mergeCell ref="CL90:CO90"/>
+    <mergeCell ref="CP90:CS90"/>
+    <mergeCell ref="CH63:CK63"/>
+    <mergeCell ref="CL63:CO63"/>
+    <mergeCell ref="CP63:CS63"/>
+    <mergeCell ref="CT63:CW63"/>
+    <mergeCell ref="DF90:DI90"/>
+    <mergeCell ref="DF63:DI63"/>
+    <mergeCell ref="DJ63:DM63"/>
+    <mergeCell ref="EL90:EO90"/>
+    <mergeCell ref="EP90:ES90"/>
+    <mergeCell ref="ET90:EW90"/>
+    <mergeCell ref="DJ90:DM90"/>
+    <mergeCell ref="DN90:DQ90"/>
+    <mergeCell ref="DR90:DU90"/>
+    <mergeCell ref="DV90:DY90"/>
+    <mergeCell ref="DZ90:EC90"/>
+    <mergeCell ref="ED90:EG90"/>
+    <mergeCell ref="ET63:EW63"/>
+    <mergeCell ref="DV63:DY63"/>
+    <mergeCell ref="DZ63:EC63"/>
+    <mergeCell ref="ED63:EG63"/>
+    <mergeCell ref="EH63:EK63"/>
+    <mergeCell ref="DN63:DQ63"/>
+    <mergeCell ref="DR63:DU63"/>
+    <mergeCell ref="ET9:EW9"/>
+    <mergeCell ref="EX9:FA9"/>
+    <mergeCell ref="DZ9:EC9"/>
+    <mergeCell ref="ED9:EG9"/>
+    <mergeCell ref="EH9:EK9"/>
+    <mergeCell ref="EL9:EO9"/>
+    <mergeCell ref="EP9:ES9"/>
+    <mergeCell ref="EH36:EK36"/>
+    <mergeCell ref="EL36:EO36"/>
+    <mergeCell ref="EP36:ES36"/>
+    <mergeCell ref="ET36:EW36"/>
+    <mergeCell ref="ED36:EG36"/>
+    <mergeCell ref="DV9:DY9"/>
+    <mergeCell ref="CX9:DA9"/>
+    <mergeCell ref="DB9:DE9"/>
+    <mergeCell ref="DF9:DI9"/>
+    <mergeCell ref="DJ9:DM9"/>
+    <mergeCell ref="DN9:DQ9"/>
+    <mergeCell ref="DR9:DU9"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CP9:CS9"/>
+    <mergeCell ref="CT9:CW9"/>
     <mergeCell ref="FB267:FD267"/>
     <mergeCell ref="FB291:FD291"/>
     <mergeCell ref="FB36:FD36"/>
@@ -55825,482 +56301,6 @@
     <mergeCell ref="EP63:ES63"/>
     <mergeCell ref="CD63:CG63"/>
     <mergeCell ref="EH90:EK90"/>
-    <mergeCell ref="DV9:DY9"/>
-    <mergeCell ref="CX9:DA9"/>
-    <mergeCell ref="DB9:DE9"/>
-    <mergeCell ref="DF9:DI9"/>
-    <mergeCell ref="DJ9:DM9"/>
-    <mergeCell ref="DN9:DQ9"/>
-    <mergeCell ref="DR9:DU9"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CP9:CS9"/>
-    <mergeCell ref="CT9:CW9"/>
-    <mergeCell ref="ET9:EW9"/>
-    <mergeCell ref="EX9:FA9"/>
-    <mergeCell ref="DZ9:EC9"/>
-    <mergeCell ref="ED9:EG9"/>
-    <mergeCell ref="EH9:EK9"/>
-    <mergeCell ref="EL9:EO9"/>
-    <mergeCell ref="EP9:ES9"/>
-    <mergeCell ref="EH36:EK36"/>
-    <mergeCell ref="EL36:EO36"/>
-    <mergeCell ref="EP36:ES36"/>
-    <mergeCell ref="ET36:EW36"/>
-    <mergeCell ref="ED36:EG36"/>
-    <mergeCell ref="DF90:DI90"/>
-    <mergeCell ref="DF63:DI63"/>
-    <mergeCell ref="DJ63:DM63"/>
-    <mergeCell ref="EL90:EO90"/>
-    <mergeCell ref="EP90:ES90"/>
-    <mergeCell ref="ET90:EW90"/>
-    <mergeCell ref="DJ90:DM90"/>
-    <mergeCell ref="DN90:DQ90"/>
-    <mergeCell ref="DR90:DU90"/>
-    <mergeCell ref="DV90:DY90"/>
-    <mergeCell ref="DZ90:EC90"/>
-    <mergeCell ref="ED90:EG90"/>
-    <mergeCell ref="ET63:EW63"/>
-    <mergeCell ref="DV63:DY63"/>
-    <mergeCell ref="DZ63:EC63"/>
-    <mergeCell ref="ED63:EG63"/>
-    <mergeCell ref="EH63:EK63"/>
-    <mergeCell ref="DN63:DQ63"/>
-    <mergeCell ref="DR63:DU63"/>
-    <mergeCell ref="CT90:CW90"/>
-    <mergeCell ref="CX90:DA90"/>
-    <mergeCell ref="DB90:DE90"/>
-    <mergeCell ref="CX63:DA63"/>
-    <mergeCell ref="DB63:DE63"/>
-    <mergeCell ref="CD90:CG90"/>
-    <mergeCell ref="CH90:CK90"/>
-    <mergeCell ref="CL90:CO90"/>
-    <mergeCell ref="CP90:CS90"/>
-    <mergeCell ref="CH63:CK63"/>
-    <mergeCell ref="CL63:CO63"/>
-    <mergeCell ref="CP63:CS63"/>
-    <mergeCell ref="CT63:CW63"/>
-    <mergeCell ref="ET144:EW144"/>
-    <mergeCell ref="EX144:FA144"/>
-    <mergeCell ref="DZ144:EC144"/>
-    <mergeCell ref="ED144:EG144"/>
-    <mergeCell ref="EH144:EK144"/>
-    <mergeCell ref="EL144:EO144"/>
-    <mergeCell ref="EP144:ES144"/>
-    <mergeCell ref="EH117:EK117"/>
-    <mergeCell ref="EL117:EO117"/>
-    <mergeCell ref="EP117:ES117"/>
-    <mergeCell ref="ET117:EW117"/>
-    <mergeCell ref="EX117:FA117"/>
-    <mergeCell ref="BZ117:CC117"/>
-    <mergeCell ref="CD117:CG117"/>
-    <mergeCell ref="CH117:CK117"/>
-    <mergeCell ref="CL117:CO117"/>
-    <mergeCell ref="CP117:CS117"/>
-    <mergeCell ref="CT117:CW117"/>
-    <mergeCell ref="CX117:DA117"/>
-    <mergeCell ref="DB117:DE117"/>
-    <mergeCell ref="ED117:EG117"/>
-    <mergeCell ref="DF117:DI117"/>
-    <mergeCell ref="DJ117:DM117"/>
-    <mergeCell ref="DN117:DQ117"/>
-    <mergeCell ref="DR117:DU117"/>
-    <mergeCell ref="DV117:DY117"/>
-    <mergeCell ref="DZ117:EC117"/>
-    <mergeCell ref="CD171:CG171"/>
-    <mergeCell ref="CH171:CK171"/>
-    <mergeCell ref="CL171:CO171"/>
-    <mergeCell ref="CP171:CS171"/>
-    <mergeCell ref="CT171:CW171"/>
-    <mergeCell ref="CX171:DA171"/>
-    <mergeCell ref="DB171:DE171"/>
-    <mergeCell ref="DV144:DY144"/>
-    <mergeCell ref="CX144:DA144"/>
-    <mergeCell ref="DB144:DE144"/>
-    <mergeCell ref="DF144:DI144"/>
-    <mergeCell ref="DJ144:DM144"/>
-    <mergeCell ref="DN144:DQ144"/>
-    <mergeCell ref="DR144:DU144"/>
-    <mergeCell ref="CD144:CG144"/>
-    <mergeCell ref="CH144:CK144"/>
-    <mergeCell ref="CL144:CO144"/>
-    <mergeCell ref="CP144:CS144"/>
-    <mergeCell ref="CT144:CW144"/>
-    <mergeCell ref="ET171:EW171"/>
-    <mergeCell ref="ET195:EW195"/>
-    <mergeCell ref="EX171:FA171"/>
-    <mergeCell ref="DF171:DI171"/>
-    <mergeCell ref="DJ171:DM171"/>
-    <mergeCell ref="DN171:DQ171"/>
-    <mergeCell ref="DR171:DU171"/>
-    <mergeCell ref="DV171:DY171"/>
-    <mergeCell ref="DZ171:EC171"/>
-    <mergeCell ref="ED219:EG219"/>
-    <mergeCell ref="CH195:CK195"/>
-    <mergeCell ref="CL195:CO195"/>
-    <mergeCell ref="CP195:CS195"/>
-    <mergeCell ref="CT195:CW195"/>
-    <mergeCell ref="ED171:EG171"/>
-    <mergeCell ref="EH171:EK171"/>
-    <mergeCell ref="EL171:EO171"/>
-    <mergeCell ref="EP171:ES171"/>
-    <mergeCell ref="DZ195:EC195"/>
-    <mergeCell ref="ED195:EG195"/>
-    <mergeCell ref="EH195:EK195"/>
-    <mergeCell ref="EL195:EO195"/>
-    <mergeCell ref="EP195:ES195"/>
-    <mergeCell ref="CX195:DA195"/>
-    <mergeCell ref="DB195:DE195"/>
-    <mergeCell ref="DF195:DI195"/>
-    <mergeCell ref="DJ195:DM195"/>
-    <mergeCell ref="DN195:DQ195"/>
-    <mergeCell ref="DR195:DU195"/>
-    <mergeCell ref="EH219:EK219"/>
-    <mergeCell ref="EL219:EO219"/>
-    <mergeCell ref="EP219:ES219"/>
-    <mergeCell ref="CD219:CG219"/>
-    <mergeCell ref="CH219:CK219"/>
-    <mergeCell ref="CL219:CO219"/>
-    <mergeCell ref="CP219:CS219"/>
-    <mergeCell ref="CT219:CW219"/>
-    <mergeCell ref="CX219:DA219"/>
-    <mergeCell ref="DB219:DE219"/>
-    <mergeCell ref="DV195:DY195"/>
-    <mergeCell ref="BZ195:CC195"/>
-    <mergeCell ref="CD195:CG195"/>
-    <mergeCell ref="ET219:EW219"/>
-    <mergeCell ref="BZ243:CC243"/>
-    <mergeCell ref="CD243:CG243"/>
-    <mergeCell ref="CH243:CK243"/>
-    <mergeCell ref="CL243:CO243"/>
-    <mergeCell ref="CP243:CS243"/>
-    <mergeCell ref="DF219:DI219"/>
-    <mergeCell ref="DJ219:DM219"/>
-    <mergeCell ref="DN219:DQ219"/>
-    <mergeCell ref="DR219:DU219"/>
-    <mergeCell ref="DV219:DY219"/>
-    <mergeCell ref="DZ219:EC219"/>
-    <mergeCell ref="EP243:ES243"/>
-    <mergeCell ref="ET243:EW243"/>
-    <mergeCell ref="DV243:DY243"/>
-    <mergeCell ref="DZ243:EC243"/>
-    <mergeCell ref="ED243:EG243"/>
-    <mergeCell ref="EH243:EK243"/>
-    <mergeCell ref="EL243:EO243"/>
-    <mergeCell ref="DR243:DU243"/>
-    <mergeCell ref="CT243:CW243"/>
-    <mergeCell ref="CX243:DA243"/>
-    <mergeCell ref="DB243:DE243"/>
-    <mergeCell ref="DF243:DI243"/>
-    <mergeCell ref="DJ243:DM243"/>
-    <mergeCell ref="DN243:DQ243"/>
-    <mergeCell ref="CT267:CW267"/>
-    <mergeCell ref="EX291:FA291"/>
-    <mergeCell ref="DF291:DI291"/>
-    <mergeCell ref="DJ291:DM291"/>
-    <mergeCell ref="DN291:DQ291"/>
-    <mergeCell ref="DR291:DU291"/>
-    <mergeCell ref="DV291:DY291"/>
-    <mergeCell ref="DZ291:EC291"/>
-    <mergeCell ref="ET267:EW267"/>
-    <mergeCell ref="EX267:FA267"/>
-    <mergeCell ref="DV267:DY267"/>
-    <mergeCell ref="DZ267:EC267"/>
-    <mergeCell ref="ED267:EG267"/>
-    <mergeCell ref="EH267:EK267"/>
-    <mergeCell ref="EL267:EO267"/>
-    <mergeCell ref="EP267:ES267"/>
-    <mergeCell ref="DF267:DI267"/>
-    <mergeCell ref="DJ267:DM267"/>
-    <mergeCell ref="DN267:DQ267"/>
-    <mergeCell ref="DR267:DU267"/>
-    <mergeCell ref="ET291:EW291"/>
-    <mergeCell ref="ED291:EG291"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="BZ291:CC291"/>
-    <mergeCell ref="BZ219:CC219"/>
-    <mergeCell ref="BZ171:CC171"/>
-    <mergeCell ref="BZ144:CC144"/>
-    <mergeCell ref="BZ63:CC63"/>
-    <mergeCell ref="BZ90:CC90"/>
-    <mergeCell ref="BZ36:CC36"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="BR36:BU36"/>
-    <mergeCell ref="BV36:BY36"/>
-    <mergeCell ref="BF63:BI63"/>
-    <mergeCell ref="EH291:EK291"/>
-    <mergeCell ref="EL291:EO291"/>
-    <mergeCell ref="EP291:ES291"/>
-    <mergeCell ref="CX267:DA267"/>
-    <mergeCell ref="DB267:DE267"/>
-    <mergeCell ref="BZ267:CC267"/>
-    <mergeCell ref="CD267:CG267"/>
-    <mergeCell ref="CH267:CK267"/>
-    <mergeCell ref="CL267:CO267"/>
-    <mergeCell ref="CP267:CS267"/>
-    <mergeCell ref="CD291:CG291"/>
-    <mergeCell ref="CH291:CK291"/>
-    <mergeCell ref="CL291:CO291"/>
-    <mergeCell ref="CP291:CS291"/>
-    <mergeCell ref="CT291:CW291"/>
-    <mergeCell ref="CX291:DA291"/>
-    <mergeCell ref="DB291:DE291"/>
-    <mergeCell ref="BJ63:BM63"/>
-    <mergeCell ref="BN63:BQ63"/>
-    <mergeCell ref="BR63:BU63"/>
-    <mergeCell ref="BV63:BY63"/>
-    <mergeCell ref="AX63:BA63"/>
-    <mergeCell ref="BB63:BE63"/>
-    <mergeCell ref="BR90:BU90"/>
-    <mergeCell ref="BV90:BY90"/>
-    <mergeCell ref="AX90:BA90"/>
-    <mergeCell ref="BB90:BE90"/>
-    <mergeCell ref="BF90:BI90"/>
-    <mergeCell ref="BJ90:BM90"/>
-    <mergeCell ref="BN90:BQ90"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="BJ36:BM36"/>
-    <mergeCell ref="BN36:BQ36"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="R36:U36"/>
-    <mergeCell ref="V36:Y36"/>
-    <mergeCell ref="Z36:AC36"/>
-    <mergeCell ref="AD36:AG36"/>
-    <mergeCell ref="AH36:AK36"/>
-    <mergeCell ref="AL36:AO36"/>
-    <mergeCell ref="AP36:AS36"/>
-    <mergeCell ref="AT36:AW36"/>
-    <mergeCell ref="AX36:BA36"/>
-    <mergeCell ref="BB36:BE36"/>
-    <mergeCell ref="BF36:BI36"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="J90:M90"/>
-    <mergeCell ref="N90:Q90"/>
-    <mergeCell ref="R90:U90"/>
-    <mergeCell ref="AH63:AK63"/>
-    <mergeCell ref="AL63:AO63"/>
-    <mergeCell ref="AP63:AS63"/>
-    <mergeCell ref="AT63:AW63"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="N63:Q63"/>
-    <mergeCell ref="R63:U63"/>
-    <mergeCell ref="V63:Y63"/>
-    <mergeCell ref="Z63:AC63"/>
-    <mergeCell ref="AD63:AG63"/>
-    <mergeCell ref="AT90:AW90"/>
-    <mergeCell ref="V90:Y90"/>
-    <mergeCell ref="Z90:AC90"/>
-    <mergeCell ref="AD90:AG90"/>
-    <mergeCell ref="AH90:AK90"/>
-    <mergeCell ref="AL90:AO90"/>
-    <mergeCell ref="AP90:AS90"/>
-    <mergeCell ref="B117:E117"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="J117:M117"/>
-    <mergeCell ref="N117:Q117"/>
-    <mergeCell ref="R117:U117"/>
-    <mergeCell ref="BR117:BU117"/>
-    <mergeCell ref="BV117:BY117"/>
-    <mergeCell ref="AX117:BA117"/>
-    <mergeCell ref="BB117:BE117"/>
-    <mergeCell ref="BF117:BI117"/>
-    <mergeCell ref="BJ117:BM117"/>
-    <mergeCell ref="BN117:BQ117"/>
-    <mergeCell ref="F144:I144"/>
-    <mergeCell ref="J144:M144"/>
-    <mergeCell ref="N144:Q144"/>
-    <mergeCell ref="R144:U144"/>
-    <mergeCell ref="V144:Y144"/>
-    <mergeCell ref="Z144:AC144"/>
-    <mergeCell ref="AD144:AG144"/>
-    <mergeCell ref="AT117:AW117"/>
-    <mergeCell ref="V117:Y117"/>
-    <mergeCell ref="Z117:AC117"/>
-    <mergeCell ref="AD117:AG117"/>
-    <mergeCell ref="AH117:AK117"/>
-    <mergeCell ref="AL117:AO117"/>
-    <mergeCell ref="AP117:AS117"/>
-    <mergeCell ref="BF144:BI144"/>
-    <mergeCell ref="BJ144:BM144"/>
-    <mergeCell ref="BN144:BQ144"/>
-    <mergeCell ref="BR144:BU144"/>
-    <mergeCell ref="BV144:BY144"/>
-    <mergeCell ref="B171:E171"/>
-    <mergeCell ref="F171:I171"/>
-    <mergeCell ref="J171:M171"/>
-    <mergeCell ref="N171:Q171"/>
-    <mergeCell ref="R171:U171"/>
-    <mergeCell ref="AH144:AK144"/>
-    <mergeCell ref="AL144:AO144"/>
-    <mergeCell ref="AP144:AS144"/>
-    <mergeCell ref="AT144:AW144"/>
-    <mergeCell ref="AX144:BA144"/>
-    <mergeCell ref="BB144:BE144"/>
-    <mergeCell ref="BR171:BU171"/>
-    <mergeCell ref="BV171:BY171"/>
-    <mergeCell ref="AX171:BA171"/>
-    <mergeCell ref="BB171:BE171"/>
-    <mergeCell ref="BF171:BI171"/>
-    <mergeCell ref="BJ171:BM171"/>
-    <mergeCell ref="BN171:BQ171"/>
-    <mergeCell ref="B144:E144"/>
-    <mergeCell ref="F195:I195"/>
-    <mergeCell ref="J195:M195"/>
-    <mergeCell ref="N195:Q195"/>
-    <mergeCell ref="R195:U195"/>
-    <mergeCell ref="V195:Y195"/>
-    <mergeCell ref="Z195:AC195"/>
-    <mergeCell ref="AD195:AG195"/>
-    <mergeCell ref="AT171:AW171"/>
-    <mergeCell ref="V171:Y171"/>
-    <mergeCell ref="Z171:AC171"/>
-    <mergeCell ref="AD171:AG171"/>
-    <mergeCell ref="AH171:AK171"/>
-    <mergeCell ref="AL171:AO171"/>
-    <mergeCell ref="AP171:AS171"/>
-    <mergeCell ref="BF195:BI195"/>
-    <mergeCell ref="BJ195:BM195"/>
-    <mergeCell ref="BN195:BQ195"/>
-    <mergeCell ref="BR195:BU195"/>
-    <mergeCell ref="BV195:BY195"/>
-    <mergeCell ref="B219:E219"/>
-    <mergeCell ref="F219:I219"/>
-    <mergeCell ref="J219:M219"/>
-    <mergeCell ref="N219:Q219"/>
-    <mergeCell ref="R219:U219"/>
-    <mergeCell ref="AH195:AK195"/>
-    <mergeCell ref="AL195:AO195"/>
-    <mergeCell ref="AP195:AS195"/>
-    <mergeCell ref="AT195:AW195"/>
-    <mergeCell ref="AX195:BA195"/>
-    <mergeCell ref="BB195:BE195"/>
-    <mergeCell ref="BR219:BU219"/>
-    <mergeCell ref="BV219:BY219"/>
-    <mergeCell ref="AX219:BA219"/>
-    <mergeCell ref="BB219:BE219"/>
-    <mergeCell ref="BF219:BI219"/>
-    <mergeCell ref="BJ219:BM219"/>
-    <mergeCell ref="BN219:BQ219"/>
-    <mergeCell ref="B195:E195"/>
-    <mergeCell ref="F243:I243"/>
-    <mergeCell ref="J243:M243"/>
-    <mergeCell ref="N243:Q243"/>
-    <mergeCell ref="R243:U243"/>
-    <mergeCell ref="V243:Y243"/>
-    <mergeCell ref="Z243:AC243"/>
-    <mergeCell ref="AD243:AG243"/>
-    <mergeCell ref="AT219:AW219"/>
-    <mergeCell ref="V219:Y219"/>
-    <mergeCell ref="Z219:AC219"/>
-    <mergeCell ref="AD219:AG219"/>
-    <mergeCell ref="AH219:AK219"/>
-    <mergeCell ref="AL219:AO219"/>
-    <mergeCell ref="AP219:AS219"/>
-    <mergeCell ref="BF243:BI243"/>
-    <mergeCell ref="BJ243:BM243"/>
-    <mergeCell ref="BN243:BQ243"/>
-    <mergeCell ref="BR243:BU243"/>
-    <mergeCell ref="BV243:BY243"/>
-    <mergeCell ref="AH243:AK243"/>
-    <mergeCell ref="AL243:AO243"/>
-    <mergeCell ref="AP243:AS243"/>
-    <mergeCell ref="AT243:AW243"/>
-    <mergeCell ref="AX243:BA243"/>
-    <mergeCell ref="BB243:BE243"/>
-    <mergeCell ref="BV267:BY267"/>
-    <mergeCell ref="B291:E291"/>
-    <mergeCell ref="F291:I291"/>
-    <mergeCell ref="J291:M291"/>
-    <mergeCell ref="N291:Q291"/>
-    <mergeCell ref="R291:U291"/>
-    <mergeCell ref="AH267:AK267"/>
-    <mergeCell ref="AL267:AO267"/>
-    <mergeCell ref="AP267:AS267"/>
-    <mergeCell ref="AT267:AW267"/>
-    <mergeCell ref="AX267:BA267"/>
-    <mergeCell ref="BB267:BE267"/>
-    <mergeCell ref="BR291:BU291"/>
-    <mergeCell ref="BV291:BY291"/>
-    <mergeCell ref="AT291:AW291"/>
-    <mergeCell ref="AX291:BA291"/>
-    <mergeCell ref="BB291:BE291"/>
-    <mergeCell ref="EX219:EZ219"/>
-    <mergeCell ref="EX243:EZ243"/>
-    <mergeCell ref="BF291:BI291"/>
-    <mergeCell ref="BJ291:BM291"/>
-    <mergeCell ref="BN291:BQ291"/>
-    <mergeCell ref="B267:E267"/>
-    <mergeCell ref="F267:I267"/>
-    <mergeCell ref="J267:M267"/>
-    <mergeCell ref="V291:Y291"/>
-    <mergeCell ref="Z291:AC291"/>
-    <mergeCell ref="AD291:AG291"/>
-    <mergeCell ref="AH291:AK291"/>
-    <mergeCell ref="AL291:AO291"/>
-    <mergeCell ref="AP291:AS291"/>
-    <mergeCell ref="BF267:BI267"/>
-    <mergeCell ref="BJ267:BM267"/>
-    <mergeCell ref="BN267:BQ267"/>
-    <mergeCell ref="B243:E243"/>
-    <mergeCell ref="N267:Q267"/>
-    <mergeCell ref="R267:U267"/>
-    <mergeCell ref="V267:Y267"/>
-    <mergeCell ref="Z267:AC267"/>
-    <mergeCell ref="AD267:AG267"/>
-    <mergeCell ref="BR267:BU267"/>
-    <mergeCell ref="EX63:FA63"/>
-    <mergeCell ref="EX90:FA90"/>
-    <mergeCell ref="FB117:FD117"/>
-    <mergeCell ref="FB144:FD144"/>
-    <mergeCell ref="FB171:FD171"/>
-    <mergeCell ref="FB195:FD195"/>
-    <mergeCell ref="EX195:FA195"/>
-    <mergeCell ref="EX36:FA36"/>
-    <mergeCell ref="FF9:FI9"/>
-    <mergeCell ref="FF36:FI36"/>
-    <mergeCell ref="FB63:FE63"/>
-    <mergeCell ref="FB90:FE90"/>
-    <mergeCell ref="FF117:FI117"/>
-    <mergeCell ref="FF144:FI144"/>
-    <mergeCell ref="FF171:FI171"/>
-    <mergeCell ref="FF195:FI195"/>
-    <mergeCell ref="FB9:FE9"/>
-    <mergeCell ref="FF63:FI63"/>
-    <mergeCell ref="FF90:FI90"/>
-    <mergeCell ref="FJ9:FM9"/>
-    <mergeCell ref="FJ36:FM36"/>
-    <mergeCell ref="FJ117:FM117"/>
-    <mergeCell ref="FJ144:FM144"/>
-    <mergeCell ref="FJ171:FM171"/>
-    <mergeCell ref="FJ195:FM195"/>
-    <mergeCell ref="FJ267:FM267"/>
-    <mergeCell ref="FJ291:FM291"/>
-    <mergeCell ref="FF219:FI219"/>
-    <mergeCell ref="FF243:FI243"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="EX66:EY73">

--- a/Data/National Accounts/PSA-Quarter-Q1-1981-to-latest.xlsx
+++ b/Data/National Accounts/PSA-Quarter-Q1-1981-to-latest.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\EIAD\2023\3 NAP\Post Estimation and Consolidation\GDP Longer Series\As of April 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DEDCE5-EBE6-48A8-8C10-B00D0BB22C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40481A4F-9549-4787-8E47-F09FFC831448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11295" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Q1 1981 to Q4 2022" sheetId="5" r:id="rId1"/>
+    <sheet name="Q1 1981 to Q1 2023" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="AFF_Cons">#REF!</definedName>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="84">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -341,13 +341,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 1982 to Q3 2022</t>
+    <t>As of May 2023</t>
   </si>
   <si>
-    <t>Q1 1981 to Q4 2022</t>
+    <t>Q1 1981 to Q1 2023</t>
   </si>
   <si>
-    <t>As of Jan 2023</t>
+    <t>Q1 1982 to Q1 2023</t>
+  </si>
+  <si>
+    <t>2022 - 2023</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -487,6 +490,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -788,390 +795,393 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FM313"/>
+  <dimension ref="A1:FN313"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="EZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FF5" sqref="FF5"/>
+      <pane xSplit="1" topLeftCell="FD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="FM298" sqref="FM298:FN298"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.54296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="25" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="13.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="47" max="48" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="50" max="51" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="55" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="55" width="13.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="13.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="63" max="64" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="13.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="65" max="66" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="67" max="68" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="70" max="73" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="75" max="79" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="70" max="73" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="75" max="79" width="13.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="81" max="88" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="90" max="96" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="98" max="105" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="108" max="111" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="113" max="114" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="115" max="116" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="119" max="129" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="131" max="157" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="13.7109375" style="3" customWidth="1"/>
+    <col min="81" max="88" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="90" max="96" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="98" max="105" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="108" max="111" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="113" max="114" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="115" max="116" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="119" max="129" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="131" max="157" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="13.7265625" style="3" customWidth="1"/>
     <col min="159" max="159" width="14" style="2" customWidth="1"/>
-    <col min="160" max="160" width="14.42578125" style="2" customWidth="1"/>
-    <col min="161" max="161" width="14.140625" style="2" customWidth="1"/>
+    <col min="160" max="160" width="14.453125" style="2" customWidth="1"/>
+    <col min="161" max="161" width="14.1796875" style="2" customWidth="1"/>
     <col min="162" max="162" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="163" max="164" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="166" max="169" width="15" style="2" customWidth="1"/>
-    <col min="170" max="16384" width="9.28515625" style="2"/>
+    <col min="163" max="164" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="166" max="170" width="15" style="2" customWidth="1"/>
+    <col min="171" max="16384" width="9.26953125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="26">
+      <c r="B9" s="27">
         <v>1981</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26">
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27">
         <v>1982</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26">
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27">
         <v>1983</v>
       </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26">
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27">
         <v>1984</v>
       </c>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26">
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27">
         <v>1985</v>
       </c>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26">
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27">
         <v>1986</v>
       </c>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26">
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27">
         <v>1987</v>
       </c>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26">
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27">
         <v>1988</v>
       </c>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="26">
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27">
         <v>1989</v>
       </c>
-      <c r="AI9" s="26"/>
-      <c r="AJ9" s="26"/>
-      <c r="AK9" s="26"/>
-      <c r="AL9" s="26">
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="27">
         <v>1990</v>
       </c>
-      <c r="AM9" s="26"/>
-      <c r="AN9" s="26"/>
-      <c r="AO9" s="26"/>
-      <c r="AP9" s="26">
+      <c r="AM9" s="27"/>
+      <c r="AN9" s="27"/>
+      <c r="AO9" s="27"/>
+      <c r="AP9" s="27">
         <v>1991</v>
       </c>
-      <c r="AQ9" s="26"/>
-      <c r="AR9" s="26"/>
-      <c r="AS9" s="26"/>
-      <c r="AT9" s="26">
+      <c r="AQ9" s="27"/>
+      <c r="AR9" s="27"/>
+      <c r="AS9" s="27"/>
+      <c r="AT9" s="27">
         <v>1992</v>
       </c>
-      <c r="AU9" s="26"/>
-      <c r="AV9" s="26"/>
-      <c r="AW9" s="26"/>
-      <c r="AX9" s="26">
+      <c r="AU9" s="27"/>
+      <c r="AV9" s="27"/>
+      <c r="AW9" s="27"/>
+      <c r="AX9" s="27">
         <v>1993</v>
       </c>
-      <c r="AY9" s="26"/>
-      <c r="AZ9" s="26"/>
-      <c r="BA9" s="26"/>
-      <c r="BB9" s="26">
+      <c r="AY9" s="27"/>
+      <c r="AZ9" s="27"/>
+      <c r="BA9" s="27"/>
+      <c r="BB9" s="27">
         <v>1994</v>
       </c>
-      <c r="BC9" s="26"/>
-      <c r="BD9" s="26"/>
-      <c r="BE9" s="26"/>
-      <c r="BF9" s="26">
+      <c r="BC9" s="27"/>
+      <c r="BD9" s="27"/>
+      <c r="BE9" s="27"/>
+      <c r="BF9" s="27">
         <v>1995</v>
       </c>
-      <c r="BG9" s="26"/>
-      <c r="BH9" s="26"/>
-      <c r="BI9" s="26"/>
-      <c r="BJ9" s="26">
+      <c r="BG9" s="27"/>
+      <c r="BH9" s="27"/>
+      <c r="BI9" s="27"/>
+      <c r="BJ9" s="27">
         <v>1996</v>
       </c>
-      <c r="BK9" s="26"/>
-      <c r="BL9" s="26"/>
-      <c r="BM9" s="26"/>
-      <c r="BN9" s="26">
+      <c r="BK9" s="27"/>
+      <c r="BL9" s="27"/>
+      <c r="BM9" s="27"/>
+      <c r="BN9" s="27">
         <v>1997</v>
       </c>
-      <c r="BO9" s="26"/>
-      <c r="BP9" s="26"/>
-      <c r="BQ9" s="26"/>
-      <c r="BR9" s="26">
+      <c r="BO9" s="27"/>
+      <c r="BP9" s="27"/>
+      <c r="BQ9" s="27"/>
+      <c r="BR9" s="27">
         <v>1998</v>
       </c>
-      <c r="BS9" s="26"/>
-      <c r="BT9" s="26"/>
-      <c r="BU9" s="26"/>
-      <c r="BV9" s="26">
+      <c r="BS9" s="27"/>
+      <c r="BT9" s="27"/>
+      <c r="BU9" s="27"/>
+      <c r="BV9" s="27">
         <v>1999</v>
       </c>
-      <c r="BW9" s="26"/>
-      <c r="BX9" s="26"/>
-      <c r="BY9" s="26"/>
-      <c r="BZ9" s="26">
+      <c r="BW9" s="27"/>
+      <c r="BX9" s="27"/>
+      <c r="BY9" s="27"/>
+      <c r="BZ9" s="27">
         <v>2000</v>
       </c>
-      <c r="CA9" s="26"/>
-      <c r="CB9" s="26"/>
-      <c r="CC9" s="26"/>
-      <c r="CD9" s="26">
+      <c r="CA9" s="27"/>
+      <c r="CB9" s="27"/>
+      <c r="CC9" s="27"/>
+      <c r="CD9" s="27">
         <v>2001</v>
       </c>
-      <c r="CE9" s="26"/>
-      <c r="CF9" s="26"/>
-      <c r="CG9" s="26"/>
-      <c r="CH9" s="26">
+      <c r="CE9" s="27"/>
+      <c r="CF9" s="27"/>
+      <c r="CG9" s="27"/>
+      <c r="CH9" s="27">
         <v>2002</v>
       </c>
-      <c r="CI9" s="26"/>
-      <c r="CJ9" s="26"/>
-      <c r="CK9" s="26"/>
-      <c r="CL9" s="26">
+      <c r="CI9" s="27"/>
+      <c r="CJ9" s="27"/>
+      <c r="CK9" s="27"/>
+      <c r="CL9" s="27">
         <v>2003</v>
       </c>
-      <c r="CM9" s="26"/>
-      <c r="CN9" s="26"/>
-      <c r="CO9" s="26"/>
-      <c r="CP9" s="26">
+      <c r="CM9" s="27"/>
+      <c r="CN9" s="27"/>
+      <c r="CO9" s="27"/>
+      <c r="CP9" s="27">
         <v>2004</v>
       </c>
-      <c r="CQ9" s="26"/>
-      <c r="CR9" s="26"/>
-      <c r="CS9" s="26"/>
-      <c r="CT9" s="26">
+      <c r="CQ9" s="27"/>
+      <c r="CR9" s="27"/>
+      <c r="CS9" s="27"/>
+      <c r="CT9" s="27">
         <v>2005</v>
       </c>
-      <c r="CU9" s="26"/>
-      <c r="CV9" s="26"/>
-      <c r="CW9" s="26"/>
-      <c r="CX9" s="26">
+      <c r="CU9" s="27"/>
+      <c r="CV9" s="27"/>
+      <c r="CW9" s="27"/>
+      <c r="CX9" s="27">
         <v>2006</v>
       </c>
-      <c r="CY9" s="26"/>
-      <c r="CZ9" s="26"/>
-      <c r="DA9" s="26"/>
-      <c r="DB9" s="26">
+      <c r="CY9" s="27"/>
+      <c r="CZ9" s="27"/>
+      <c r="DA9" s="27"/>
+      <c r="DB9" s="27">
         <v>2007</v>
       </c>
-      <c r="DC9" s="26"/>
-      <c r="DD9" s="26"/>
-      <c r="DE9" s="26"/>
-      <c r="DF9" s="26">
+      <c r="DC9" s="27"/>
+      <c r="DD9" s="27"/>
+      <c r="DE9" s="27"/>
+      <c r="DF9" s="27">
         <v>2008</v>
       </c>
-      <c r="DG9" s="26"/>
-      <c r="DH9" s="26"/>
-      <c r="DI9" s="26"/>
-      <c r="DJ9" s="26">
+      <c r="DG9" s="27"/>
+      <c r="DH9" s="27"/>
+      <c r="DI9" s="27"/>
+      <c r="DJ9" s="27">
         <v>2009</v>
       </c>
-      <c r="DK9" s="26"/>
-      <c r="DL9" s="26"/>
-      <c r="DM9" s="26"/>
-      <c r="DN9" s="26">
+      <c r="DK9" s="27"/>
+      <c r="DL9" s="27"/>
+      <c r="DM9" s="27"/>
+      <c r="DN9" s="27">
         <v>2010</v>
       </c>
-      <c r="DO9" s="26"/>
-      <c r="DP9" s="26"/>
-      <c r="DQ9" s="26"/>
-      <c r="DR9" s="26">
+      <c r="DO9" s="27"/>
+      <c r="DP9" s="27"/>
+      <c r="DQ9" s="27"/>
+      <c r="DR9" s="27">
         <v>2011</v>
       </c>
-      <c r="DS9" s="26"/>
-      <c r="DT9" s="26"/>
-      <c r="DU9" s="26"/>
-      <c r="DV9" s="26">
+      <c r="DS9" s="27"/>
+      <c r="DT9" s="27"/>
+      <c r="DU9" s="27"/>
+      <c r="DV9" s="27">
         <v>2012</v>
       </c>
-      <c r="DW9" s="26"/>
-      <c r="DX9" s="26"/>
-      <c r="DY9" s="26"/>
-      <c r="DZ9" s="26">
+      <c r="DW9" s="27"/>
+      <c r="DX9" s="27"/>
+      <c r="DY9" s="27"/>
+      <c r="DZ9" s="27">
         <v>2013</v>
       </c>
-      <c r="EA9" s="26"/>
-      <c r="EB9" s="26"/>
-      <c r="EC9" s="26"/>
-      <c r="ED9" s="26">
+      <c r="EA9" s="27"/>
+      <c r="EB9" s="27"/>
+      <c r="EC9" s="27"/>
+      <c r="ED9" s="27">
         <v>2014</v>
       </c>
-      <c r="EE9" s="26"/>
-      <c r="EF9" s="26"/>
-      <c r="EG9" s="26"/>
-      <c r="EH9" s="26">
+      <c r="EE9" s="27"/>
+      <c r="EF9" s="27"/>
+      <c r="EG9" s="27"/>
+      <c r="EH9" s="27">
         <v>2015</v>
       </c>
-      <c r="EI9" s="26"/>
-      <c r="EJ9" s="26"/>
-      <c r="EK9" s="26"/>
-      <c r="EL9" s="26">
+      <c r="EI9" s="27"/>
+      <c r="EJ9" s="27"/>
+      <c r="EK9" s="27"/>
+      <c r="EL9" s="27">
         <v>2016</v>
       </c>
-      <c r="EM9" s="26"/>
-      <c r="EN9" s="26"/>
-      <c r="EO9" s="26"/>
-      <c r="EP9" s="26">
+      <c r="EM9" s="27"/>
+      <c r="EN9" s="27"/>
+      <c r="EO9" s="27"/>
+      <c r="EP9" s="27">
         <v>2017</v>
       </c>
-      <c r="EQ9" s="26"/>
-      <c r="ER9" s="26"/>
-      <c r="ES9" s="26"/>
-      <c r="ET9" s="26">
+      <c r="EQ9" s="27"/>
+      <c r="ER9" s="27"/>
+      <c r="ES9" s="27"/>
+      <c r="ET9" s="27">
         <v>2018</v>
       </c>
-      <c r="EU9" s="26"/>
-      <c r="EV9" s="26"/>
-      <c r="EW9" s="26"/>
-      <c r="EX9" s="26">
+      <c r="EU9" s="27"/>
+      <c r="EV9" s="27"/>
+      <c r="EW9" s="27"/>
+      <c r="EX9" s="27">
         <v>2019</v>
       </c>
-      <c r="EY9" s="26"/>
-      <c r="EZ9" s="26"/>
-      <c r="FA9" s="26"/>
-      <c r="FB9" s="26">
+      <c r="EY9" s="27"/>
+      <c r="EZ9" s="27"/>
+      <c r="FA9" s="27"/>
+      <c r="FB9" s="27">
         <v>2020</v>
       </c>
-      <c r="FC9" s="26"/>
-      <c r="FD9" s="26"/>
-      <c r="FE9" s="26"/>
-      <c r="FF9" s="26">
+      <c r="FC9" s="27"/>
+      <c r="FD9" s="27"/>
+      <c r="FE9" s="27"/>
+      <c r="FF9" s="27">
         <v>2021</v>
       </c>
-      <c r="FG9" s="26"/>
-      <c r="FH9" s="26"/>
-      <c r="FI9" s="26"/>
-      <c r="FJ9" s="26">
+      <c r="FG9" s="27"/>
+      <c r="FH9" s="27"/>
+      <c r="FI9" s="27"/>
+      <c r="FJ9" s="27">
         <v>2022</v>
       </c>
-      <c r="FK9" s="26"/>
-      <c r="FL9" s="26"/>
-      <c r="FM9" s="26"/>
+      <c r="FK9" s="27"/>
+      <c r="FL9" s="27"/>
+      <c r="FM9" s="27"/>
+      <c r="FN9" s="26">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="10" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1679,11 +1689,14 @@
       <c r="FM10" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="FN10" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="11" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:170" x14ac:dyDescent="0.3">
       <c r="FB11" s="2"/>
     </row>
-    <row r="12" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -2191,8 +2204,11 @@
       <c r="FM12" s="7">
         <v>4863462.9003062602</v>
       </c>
+      <c r="FN12" s="7">
+        <v>4416389.9756394727</v>
+      </c>
     </row>
-    <row r="13" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -2700,8 +2716,11 @@
       <c r="FM13" s="7">
         <v>893893.76560860558</v>
       </c>
+      <c r="FN13" s="7">
+        <v>757695.0732526622</v>
+      </c>
     </row>
-    <row r="14" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -3209,8 +3228,11 @@
       <c r="FM14" s="7">
         <v>1382210.1711891973</v>
       </c>
+      <c r="FN14" s="7">
+        <v>1328594.7937777925</v>
+      </c>
     </row>
-    <row r="15" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -3718,8 +3740,11 @@
       <c r="FM15" s="7">
         <v>1724935.7799161663</v>
       </c>
+      <c r="FN15" s="7">
+        <v>1551171.4257361628</v>
+      </c>
     </row>
-    <row r="16" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -4227,8 +4252,11 @@
       <c r="FM16" s="7">
         <v>2349101.8178434232</v>
       </c>
+      <c r="FN16" s="7">
+        <v>2418319.3692767159</v>
+      </c>
     </row>
-    <row r="17" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -4736,8 +4764,11 @@
       <c r="FM17" s="7">
         <v>-63834.374455199577</v>
       </c>
+      <c r="FN17" s="7">
+        <v>-34042.662273668684</v>
+      </c>
     </row>
-    <row r="18" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:170" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4906,8 +4937,9 @@
       <c r="FK18" s="7"/>
       <c r="FL18" s="7"/>
       <c r="FM18" s="7"/>
+      <c r="FN18" s="7"/>
     </row>
-    <row r="19" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>10</v>
       </c>
@@ -5415,8 +5447,11 @@
       <c r="FM19" s="7">
         <v>6451566.4247216079</v>
       </c>
+      <c r="FN19" s="7">
+        <v>5601489.2368557053</v>
+      </c>
     </row>
-    <row r="20" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:170" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -5574,7 +5609,7 @@
       <c r="EZ20" s="7"/>
       <c r="FA20" s="7"/>
     </row>
-    <row r="21" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:170" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -5732,7 +5767,7 @@
       <c r="EZ21" s="7"/>
       <c r="FA21" s="7"/>
     </row>
-    <row r="22" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:170" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -5890,7 +5925,7 @@
       <c r="EZ22" s="7"/>
       <c r="FA22" s="7"/>
     </row>
-    <row r="23" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:170" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -6048,7 +6083,7 @@
       <c r="EZ23" s="7"/>
       <c r="FA23" s="7"/>
     </row>
-    <row r="24" spans="1:169" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:170" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -6218,305 +6253,309 @@
       <c r="FK24" s="9"/>
       <c r="FL24" s="9"/>
       <c r="FM24" s="9"/>
+      <c r="FN24" s="9"/>
     </row>
-    <row r="25" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="BY25" s="10"/>
     </row>
-    <row r="28" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
-      <c r="B36" s="26">
+      <c r="B36" s="27">
         <v>1981</v>
       </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26">
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27">
         <v>1982</v>
       </c>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26">
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27">
         <v>1983</v>
       </c>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26">
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27">
         <v>1984</v>
       </c>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26">
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27">
         <v>1985</v>
       </c>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="26">
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="27">
         <v>1986</v>
       </c>
-      <c r="W36" s="26"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="26"/>
-      <c r="Z36" s="26">
+      <c r="W36" s="27"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="27">
         <v>1987</v>
       </c>
-      <c r="AA36" s="26"/>
-      <c r="AB36" s="26"/>
-      <c r="AC36" s="26"/>
-      <c r="AD36" s="26">
+      <c r="AA36" s="27"/>
+      <c r="AB36" s="27"/>
+      <c r="AC36" s="27"/>
+      <c r="AD36" s="27">
         <v>1988</v>
       </c>
-      <c r="AE36" s="26"/>
-      <c r="AF36" s="26"/>
-      <c r="AG36" s="26"/>
-      <c r="AH36" s="26">
+      <c r="AE36" s="27"/>
+      <c r="AF36" s="27"/>
+      <c r="AG36" s="27"/>
+      <c r="AH36" s="27">
         <v>1989</v>
       </c>
-      <c r="AI36" s="26"/>
-      <c r="AJ36" s="26"/>
-      <c r="AK36" s="26"/>
-      <c r="AL36" s="26">
+      <c r="AI36" s="27"/>
+      <c r="AJ36" s="27"/>
+      <c r="AK36" s="27"/>
+      <c r="AL36" s="27">
         <v>1990</v>
       </c>
-      <c r="AM36" s="26"/>
-      <c r="AN36" s="26"/>
-      <c r="AO36" s="26"/>
-      <c r="AP36" s="26">
+      <c r="AM36" s="27"/>
+      <c r="AN36" s="27"/>
+      <c r="AO36" s="27"/>
+      <c r="AP36" s="27">
         <v>1991</v>
       </c>
-      <c r="AQ36" s="26"/>
-      <c r="AR36" s="26"/>
-      <c r="AS36" s="26"/>
-      <c r="AT36" s="26">
+      <c r="AQ36" s="27"/>
+      <c r="AR36" s="27"/>
+      <c r="AS36" s="27"/>
+      <c r="AT36" s="27">
         <v>1992</v>
       </c>
-      <c r="AU36" s="26"/>
-      <c r="AV36" s="26"/>
-      <c r="AW36" s="26"/>
-      <c r="AX36" s="26">
+      <c r="AU36" s="27"/>
+      <c r="AV36" s="27"/>
+      <c r="AW36" s="27"/>
+      <c r="AX36" s="27">
         <v>1993</v>
       </c>
-      <c r="AY36" s="26"/>
-      <c r="AZ36" s="26"/>
-      <c r="BA36" s="26"/>
-      <c r="BB36" s="26">
+      <c r="AY36" s="27"/>
+      <c r="AZ36" s="27"/>
+      <c r="BA36" s="27"/>
+      <c r="BB36" s="27">
         <v>1994</v>
       </c>
-      <c r="BC36" s="26"/>
-      <c r="BD36" s="26"/>
-      <c r="BE36" s="26"/>
-      <c r="BF36" s="26">
+      <c r="BC36" s="27"/>
+      <c r="BD36" s="27"/>
+      <c r="BE36" s="27"/>
+      <c r="BF36" s="27">
         <v>1995</v>
       </c>
-      <c r="BG36" s="26"/>
-      <c r="BH36" s="26"/>
-      <c r="BI36" s="26"/>
-      <c r="BJ36" s="26">
+      <c r="BG36" s="27"/>
+      <c r="BH36" s="27"/>
+      <c r="BI36" s="27"/>
+      <c r="BJ36" s="27">
         <v>1996</v>
       </c>
-      <c r="BK36" s="26"/>
-      <c r="BL36" s="26"/>
-      <c r="BM36" s="26"/>
-      <c r="BN36" s="26">
+      <c r="BK36" s="27"/>
+      <c r="BL36" s="27"/>
+      <c r="BM36" s="27"/>
+      <c r="BN36" s="27">
         <v>1997</v>
       </c>
-      <c r="BO36" s="26"/>
-      <c r="BP36" s="26"/>
-      <c r="BQ36" s="26"/>
-      <c r="BR36" s="26">
+      <c r="BO36" s="27"/>
+      <c r="BP36" s="27"/>
+      <c r="BQ36" s="27"/>
+      <c r="BR36" s="27">
         <v>1998</v>
       </c>
-      <c r="BS36" s="26"/>
-      <c r="BT36" s="26"/>
-      <c r="BU36" s="26"/>
-      <c r="BV36" s="26">
+      <c r="BS36" s="27"/>
+      <c r="BT36" s="27"/>
+      <c r="BU36" s="27"/>
+      <c r="BV36" s="27">
         <v>1999</v>
       </c>
-      <c r="BW36" s="26"/>
-      <c r="BX36" s="26"/>
-      <c r="BY36" s="26"/>
-      <c r="BZ36" s="26">
+      <c r="BW36" s="27"/>
+      <c r="BX36" s="27"/>
+      <c r="BY36" s="27"/>
+      <c r="BZ36" s="27">
         <v>2000</v>
       </c>
-      <c r="CA36" s="26"/>
-      <c r="CB36" s="26"/>
-      <c r="CC36" s="26"/>
-      <c r="CD36" s="26">
+      <c r="CA36" s="27"/>
+      <c r="CB36" s="27"/>
+      <c r="CC36" s="27"/>
+      <c r="CD36" s="27">
         <v>2001</v>
       </c>
-      <c r="CE36" s="26"/>
-      <c r="CF36" s="26"/>
-      <c r="CG36" s="26"/>
-      <c r="CH36" s="26">
+      <c r="CE36" s="27"/>
+      <c r="CF36" s="27"/>
+      <c r="CG36" s="27"/>
+      <c r="CH36" s="27">
         <v>2002</v>
       </c>
-      <c r="CI36" s="26"/>
-      <c r="CJ36" s="26"/>
-      <c r="CK36" s="26"/>
-      <c r="CL36" s="26">
+      <c r="CI36" s="27"/>
+      <c r="CJ36" s="27"/>
+      <c r="CK36" s="27"/>
+      <c r="CL36" s="27">
         <v>2003</v>
       </c>
-      <c r="CM36" s="26"/>
-      <c r="CN36" s="26"/>
-      <c r="CO36" s="26"/>
-      <c r="CP36" s="26">
+      <c r="CM36" s="27"/>
+      <c r="CN36" s="27"/>
+      <c r="CO36" s="27"/>
+      <c r="CP36" s="27">
         <v>2004</v>
       </c>
-      <c r="CQ36" s="26"/>
-      <c r="CR36" s="26"/>
-      <c r="CS36" s="26"/>
-      <c r="CT36" s="26">
+      <c r="CQ36" s="27"/>
+      <c r="CR36" s="27"/>
+      <c r="CS36" s="27"/>
+      <c r="CT36" s="27">
         <v>2005</v>
       </c>
-      <c r="CU36" s="26"/>
-      <c r="CV36" s="26"/>
-      <c r="CW36" s="26"/>
-      <c r="CX36" s="26">
+      <c r="CU36" s="27"/>
+      <c r="CV36" s="27"/>
+      <c r="CW36" s="27"/>
+      <c r="CX36" s="27">
         <v>2006</v>
       </c>
-      <c r="CY36" s="26"/>
-      <c r="CZ36" s="26"/>
-      <c r="DA36" s="26"/>
-      <c r="DB36" s="26">
+      <c r="CY36" s="27"/>
+      <c r="CZ36" s="27"/>
+      <c r="DA36" s="27"/>
+      <c r="DB36" s="27">
         <v>2007</v>
       </c>
-      <c r="DC36" s="26"/>
-      <c r="DD36" s="26"/>
-      <c r="DE36" s="26"/>
-      <c r="DF36" s="26">
+      <c r="DC36" s="27"/>
+      <c r="DD36" s="27"/>
+      <c r="DE36" s="27"/>
+      <c r="DF36" s="27">
         <v>2008</v>
       </c>
-      <c r="DG36" s="26"/>
-      <c r="DH36" s="26"/>
-      <c r="DI36" s="26"/>
-      <c r="DJ36" s="26">
+      <c r="DG36" s="27"/>
+      <c r="DH36" s="27"/>
+      <c r="DI36" s="27"/>
+      <c r="DJ36" s="27">
         <v>2009</v>
       </c>
-      <c r="DK36" s="26"/>
-      <c r="DL36" s="26"/>
-      <c r="DM36" s="26"/>
-      <c r="DN36" s="26">
+      <c r="DK36" s="27"/>
+      <c r="DL36" s="27"/>
+      <c r="DM36" s="27"/>
+      <c r="DN36" s="27">
         <v>2010</v>
       </c>
-      <c r="DO36" s="26"/>
-      <c r="DP36" s="26"/>
-      <c r="DQ36" s="26"/>
-      <c r="DR36" s="26">
+      <c r="DO36" s="27"/>
+      <c r="DP36" s="27"/>
+      <c r="DQ36" s="27"/>
+      <c r="DR36" s="27">
         <v>2011</v>
       </c>
-      <c r="DS36" s="26"/>
-      <c r="DT36" s="26"/>
-      <c r="DU36" s="26"/>
-      <c r="DV36" s="26">
+      <c r="DS36" s="27"/>
+      <c r="DT36" s="27"/>
+      <c r="DU36" s="27"/>
+      <c r="DV36" s="27">
         <v>2012</v>
       </c>
-      <c r="DW36" s="26"/>
-      <c r="DX36" s="26"/>
-      <c r="DY36" s="26"/>
-      <c r="DZ36" s="26">
+      <c r="DW36" s="27"/>
+      <c r="DX36" s="27"/>
+      <c r="DY36" s="27"/>
+      <c r="DZ36" s="27">
         <v>2013</v>
       </c>
-      <c r="EA36" s="26"/>
-      <c r="EB36" s="26"/>
-      <c r="EC36" s="26"/>
-      <c r="ED36" s="26">
+      <c r="EA36" s="27"/>
+      <c r="EB36" s="27"/>
+      <c r="EC36" s="27"/>
+      <c r="ED36" s="27">
         <v>2014</v>
       </c>
-      <c r="EE36" s="26"/>
-      <c r="EF36" s="26"/>
-      <c r="EG36" s="26"/>
-      <c r="EH36" s="26">
+      <c r="EE36" s="27"/>
+      <c r="EF36" s="27"/>
+      <c r="EG36" s="27"/>
+      <c r="EH36" s="27">
         <v>2015</v>
       </c>
-      <c r="EI36" s="26"/>
-      <c r="EJ36" s="26"/>
-      <c r="EK36" s="26"/>
-      <c r="EL36" s="26">
+      <c r="EI36" s="27"/>
+      <c r="EJ36" s="27"/>
+      <c r="EK36" s="27"/>
+      <c r="EL36" s="27">
         <v>2016</v>
       </c>
-      <c r="EM36" s="26"/>
-      <c r="EN36" s="26"/>
-      <c r="EO36" s="26"/>
-      <c r="EP36" s="26">
+      <c r="EM36" s="27"/>
+      <c r="EN36" s="27"/>
+      <c r="EO36" s="27"/>
+      <c r="EP36" s="27">
         <v>2017</v>
       </c>
-      <c r="EQ36" s="26"/>
-      <c r="ER36" s="26"/>
-      <c r="ES36" s="26"/>
-      <c r="ET36" s="26">
+      <c r="EQ36" s="27"/>
+      <c r="ER36" s="27"/>
+      <c r="ES36" s="27"/>
+      <c r="ET36" s="27">
         <v>2018</v>
       </c>
-      <c r="EU36" s="26"/>
-      <c r="EV36" s="26"/>
-      <c r="EW36" s="26"/>
-      <c r="EX36" s="26">
+      <c r="EU36" s="27"/>
+      <c r="EV36" s="27"/>
+      <c r="EW36" s="27"/>
+      <c r="EX36" s="27">
         <v>2019</v>
       </c>
-      <c r="EY36" s="26"/>
-      <c r="EZ36" s="26"/>
-      <c r="FA36" s="26"/>
-      <c r="FB36" s="26">
+      <c r="EY36" s="27"/>
+      <c r="EZ36" s="27"/>
+      <c r="FA36" s="27"/>
+      <c r="FB36" s="27">
         <v>2020</v>
       </c>
-      <c r="FC36" s="26"/>
-      <c r="FD36" s="26"/>
+      <c r="FC36" s="27"/>
+      <c r="FD36" s="27"/>
       <c r="FE36" s="4"/>
-      <c r="FF36" s="26">
+      <c r="FF36" s="27">
         <v>2021</v>
       </c>
-      <c r="FG36" s="26"/>
-      <c r="FH36" s="26"/>
-      <c r="FI36" s="26"/>
-      <c r="FJ36" s="26">
+      <c r="FG36" s="27"/>
+      <c r="FH36" s="27"/>
+      <c r="FI36" s="27"/>
+      <c r="FJ36" s="27">
         <v>2022</v>
       </c>
-      <c r="FK36" s="26"/>
-      <c r="FL36" s="26"/>
-      <c r="FM36" s="26"/>
+      <c r="FK36" s="27"/>
+      <c r="FL36" s="27"/>
+      <c r="FM36" s="27"/>
+      <c r="FN36" s="26">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="37" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>14</v>
       </c>
@@ -7024,11 +7063,14 @@
       <c r="FM37" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="FN37" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="38" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:170" x14ac:dyDescent="0.3">
       <c r="FB38" s="2"/>
     </row>
-    <row r="39" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>1</v>
       </c>
@@ -7536,8 +7578,11 @@
       <c r="FM39" s="7">
         <v>4196072.3544278946</v>
       </c>
+      <c r="FN39" s="7">
+        <v>3691935.3735019211</v>
+      </c>
     </row>
-    <row r="40" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
@@ -8045,8 +8090,11 @@
       <c r="FM40" s="7">
         <v>706679.81996972463</v>
       </c>
+      <c r="FN40" s="7">
+        <v>715278.76999649883</v>
+      </c>
     </row>
-    <row r="41" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -8554,8 +8602,11 @@
       <c r="FM41" s="7">
         <v>1186523.731379749</v>
       </c>
+      <c r="FN41" s="7">
+        <v>1124997.121473785</v>
+      </c>
     </row>
-    <row r="42" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>4</v>
       </c>
@@ -9063,8 +9114,11 @@
       <c r="FM42" s="7">
         <v>1434653.7293859078</v>
       </c>
+      <c r="FN42" s="7">
+        <v>1366929.0330105736</v>
+      </c>
     </row>
-    <row r="43" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>5</v>
       </c>
@@ -9572,8 +9626,11 @@
       <c r="FM43" s="7">
         <v>1936873.8530644656</v>
       </c>
+      <c r="FN43" s="7">
+        <v>1981153.9592611007</v>
+      </c>
     </row>
-    <row r="44" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>6</v>
       </c>
@@ -10081,8 +10138,11 @@
       <c r="FM44" s="7">
         <v>-11911.49673268944</v>
       </c>
+      <c r="FN44" s="7">
+        <v>-10806.457204483449</v>
+      </c>
     </row>
-    <row r="45" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:170" x14ac:dyDescent="0.3">
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -10251,8 +10311,9 @@
       <c r="FK45" s="7"/>
       <c r="FL45" s="7"/>
       <c r="FM45" s="7"/>
+      <c r="FN45" s="7"/>
     </row>
-    <row r="46" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>10</v>
       </c>
@@ -10760,8 +10821,11 @@
       <c r="FM46" s="7">
         <v>5575144.2853661217</v>
       </c>
+      <c r="FN46" s="7">
+        <v>4907179.8815171942</v>
+      </c>
     </row>
-    <row r="47" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:170" hidden="1" x14ac:dyDescent="0.3">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -10919,7 +10983,7 @@
       <c r="EZ47" s="7"/>
       <c r="FA47" s="7"/>
     </row>
-    <row r="48" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:170" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -11077,7 +11141,7 @@
       <c r="EZ48" s="7"/>
       <c r="FA48" s="7"/>
     </row>
-    <row r="49" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:170" hidden="1" x14ac:dyDescent="0.3">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -11235,7 +11299,7 @@
       <c r="EZ49" s="7"/>
       <c r="FA49" s="7"/>
     </row>
-    <row r="50" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:170" hidden="1" x14ac:dyDescent="0.3">
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -11393,7 +11457,7 @@
       <c r="EZ50" s="7"/>
       <c r="FA50" s="7"/>
     </row>
-    <row r="51" spans="1:169" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:170" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -11563,45 +11627,46 @@
       <c r="FK51" s="9"/>
       <c r="FL51" s="9"/>
       <c r="FM51" s="9"/>
+      <c r="FN51" s="9"/>
     </row>
-    <row r="52" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="FB60" s="24"/>
       <c r="FC60" s="24"/>
       <c r="FD60" s="24"/>
       <c r="FE60" s="24"/>
     </row>
-    <row r="61" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>19</v>
       </c>
@@ -11610,7 +11675,7 @@
       <c r="FD61" s="24"/>
       <c r="FE61" s="24"/>
     </row>
-    <row r="62" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="FB62" s="24"/>
       <c r="FC62" s="24"/>
@@ -11620,256 +11685,259 @@
       <c r="FG62" s="24"/>
       <c r="FH62" s="24"/>
     </row>
-    <row r="63" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26" t="s">
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26" t="s">
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="K63" s="26"/>
-      <c r="L63" s="26"/>
-      <c r="M63" s="26"/>
-      <c r="N63" s="26" t="s">
+      <c r="K63" s="27"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="27"/>
+      <c r="N63" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="O63" s="26"/>
-      <c r="P63" s="26"/>
-      <c r="Q63" s="26"/>
-      <c r="R63" s="26" t="s">
+      <c r="O63" s="27"/>
+      <c r="P63" s="27"/>
+      <c r="Q63" s="27"/>
+      <c r="R63" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="S63" s="26"/>
-      <c r="T63" s="26"/>
-      <c r="U63" s="26"/>
-      <c r="V63" s="26" t="s">
+      <c r="S63" s="27"/>
+      <c r="T63" s="27"/>
+      <c r="U63" s="27"/>
+      <c r="V63" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="W63" s="26"/>
-      <c r="X63" s="26"/>
-      <c r="Y63" s="26"/>
-      <c r="Z63" s="26" t="s">
+      <c r="W63" s="27"/>
+      <c r="X63" s="27"/>
+      <c r="Y63" s="27"/>
+      <c r="Z63" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="AA63" s="26"/>
-      <c r="AB63" s="26"/>
-      <c r="AC63" s="26"/>
-      <c r="AD63" s="26" t="s">
+      <c r="AA63" s="27"/>
+      <c r="AB63" s="27"/>
+      <c r="AC63" s="27"/>
+      <c r="AD63" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="AE63" s="26"/>
-      <c r="AF63" s="26"/>
-      <c r="AG63" s="26"/>
-      <c r="AH63" s="26" t="s">
+      <c r="AE63" s="27"/>
+      <c r="AF63" s="27"/>
+      <c r="AG63" s="27"/>
+      <c r="AH63" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="AI63" s="26"/>
-      <c r="AJ63" s="26"/>
-      <c r="AK63" s="26"/>
-      <c r="AL63" s="26" t="s">
+      <c r="AI63" s="27"/>
+      <c r="AJ63" s="27"/>
+      <c r="AK63" s="27"/>
+      <c r="AL63" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="AM63" s="26"/>
-      <c r="AN63" s="26"/>
-      <c r="AO63" s="26"/>
-      <c r="AP63" s="26" t="s">
+      <c r="AM63" s="27"/>
+      <c r="AN63" s="27"/>
+      <c r="AO63" s="27"/>
+      <c r="AP63" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="AQ63" s="26"/>
-      <c r="AR63" s="26"/>
-      <c r="AS63" s="26"/>
-      <c r="AT63" s="26" t="s">
+      <c r="AQ63" s="27"/>
+      <c r="AR63" s="27"/>
+      <c r="AS63" s="27"/>
+      <c r="AT63" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AU63" s="26"/>
-      <c r="AV63" s="26"/>
-      <c r="AW63" s="26"/>
-      <c r="AX63" s="26" t="s">
+      <c r="AU63" s="27"/>
+      <c r="AV63" s="27"/>
+      <c r="AW63" s="27"/>
+      <c r="AX63" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="AY63" s="26"/>
-      <c r="AZ63" s="26"/>
-      <c r="BA63" s="26"/>
-      <c r="BB63" s="26" t="s">
+      <c r="AY63" s="27"/>
+      <c r="AZ63" s="27"/>
+      <c r="BA63" s="27"/>
+      <c r="BB63" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="BC63" s="26"/>
-      <c r="BD63" s="26"/>
-      <c r="BE63" s="26"/>
-      <c r="BF63" s="26" t="s">
+      <c r="BC63" s="27"/>
+      <c r="BD63" s="27"/>
+      <c r="BE63" s="27"/>
+      <c r="BF63" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="BG63" s="26"/>
-      <c r="BH63" s="26"/>
-      <c r="BI63" s="26"/>
-      <c r="BJ63" s="26" t="s">
+      <c r="BG63" s="27"/>
+      <c r="BH63" s="27"/>
+      <c r="BI63" s="27"/>
+      <c r="BJ63" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="BK63" s="26"/>
-      <c r="BL63" s="26"/>
-      <c r="BM63" s="26"/>
-      <c r="BN63" s="26" t="s">
+      <c r="BK63" s="27"/>
+      <c r="BL63" s="27"/>
+      <c r="BM63" s="27"/>
+      <c r="BN63" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="BO63" s="26"/>
-      <c r="BP63" s="26"/>
-      <c r="BQ63" s="26"/>
-      <c r="BR63" s="26" t="s">
+      <c r="BO63" s="27"/>
+      <c r="BP63" s="27"/>
+      <c r="BQ63" s="27"/>
+      <c r="BR63" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="BS63" s="26"/>
-      <c r="BT63" s="26"/>
-      <c r="BU63" s="26"/>
-      <c r="BV63" s="26" t="s">
+      <c r="BS63" s="27"/>
+      <c r="BT63" s="27"/>
+      <c r="BU63" s="27"/>
+      <c r="BV63" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="BW63" s="26"/>
-      <c r="BX63" s="26"/>
-      <c r="BY63" s="26"/>
-      <c r="BZ63" s="26" t="s">
+      <c r="BW63" s="27"/>
+      <c r="BX63" s="27"/>
+      <c r="BY63" s="27"/>
+      <c r="BZ63" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="CA63" s="26"/>
-      <c r="CB63" s="26"/>
-      <c r="CC63" s="26"/>
-      <c r="CD63" s="26" t="s">
+      <c r="CA63" s="27"/>
+      <c r="CB63" s="27"/>
+      <c r="CC63" s="27"/>
+      <c r="CD63" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="CE63" s="26"/>
-      <c r="CF63" s="26"/>
-      <c r="CG63" s="26"/>
-      <c r="CH63" s="26" t="s">
+      <c r="CE63" s="27"/>
+      <c r="CF63" s="27"/>
+      <c r="CG63" s="27"/>
+      <c r="CH63" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="CI63" s="26"/>
-      <c r="CJ63" s="26"/>
-      <c r="CK63" s="26"/>
-      <c r="CL63" s="26" t="s">
+      <c r="CI63" s="27"/>
+      <c r="CJ63" s="27"/>
+      <c r="CK63" s="27"/>
+      <c r="CL63" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="CM63" s="26"/>
-      <c r="CN63" s="26"/>
-      <c r="CO63" s="26"/>
-      <c r="CP63" s="26" t="s">
+      <c r="CM63" s="27"/>
+      <c r="CN63" s="27"/>
+      <c r="CO63" s="27"/>
+      <c r="CP63" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="CQ63" s="26"/>
-      <c r="CR63" s="26"/>
-      <c r="CS63" s="26"/>
-      <c r="CT63" s="26" t="s">
+      <c r="CQ63" s="27"/>
+      <c r="CR63" s="27"/>
+      <c r="CS63" s="27"/>
+      <c r="CT63" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="CU63" s="26"/>
-      <c r="CV63" s="26"/>
-      <c r="CW63" s="26"/>
-      <c r="CX63" s="26" t="s">
+      <c r="CU63" s="27"/>
+      <c r="CV63" s="27"/>
+      <c r="CW63" s="27"/>
+      <c r="CX63" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="CY63" s="26"/>
-      <c r="CZ63" s="26"/>
-      <c r="DA63" s="26"/>
-      <c r="DB63" s="26" t="s">
+      <c r="CY63" s="27"/>
+      <c r="CZ63" s="27"/>
+      <c r="DA63" s="27"/>
+      <c r="DB63" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="DC63" s="26"/>
-      <c r="DD63" s="26"/>
-      <c r="DE63" s="26"/>
-      <c r="DF63" s="26" t="s">
+      <c r="DC63" s="27"/>
+      <c r="DD63" s="27"/>
+      <c r="DE63" s="27"/>
+      <c r="DF63" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="DG63" s="26"/>
-      <c r="DH63" s="26"/>
-      <c r="DI63" s="26"/>
-      <c r="DJ63" s="26" t="s">
+      <c r="DG63" s="27"/>
+      <c r="DH63" s="27"/>
+      <c r="DI63" s="27"/>
+      <c r="DJ63" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="DK63" s="26"/>
-      <c r="DL63" s="26"/>
-      <c r="DM63" s="26"/>
-      <c r="DN63" s="26" t="s">
+      <c r="DK63" s="27"/>
+      <c r="DL63" s="27"/>
+      <c r="DM63" s="27"/>
+      <c r="DN63" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="DO63" s="26"/>
-      <c r="DP63" s="26"/>
-      <c r="DQ63" s="26"/>
-      <c r="DR63" s="26" t="s">
+      <c r="DO63" s="27"/>
+      <c r="DP63" s="27"/>
+      <c r="DQ63" s="27"/>
+      <c r="DR63" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="DS63" s="26"/>
-      <c r="DT63" s="26"/>
-      <c r="DU63" s="26"/>
-      <c r="DV63" s="26" t="s">
+      <c r="DS63" s="27"/>
+      <c r="DT63" s="27"/>
+      <c r="DU63" s="27"/>
+      <c r="DV63" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="DW63" s="26"/>
-      <c r="DX63" s="26"/>
-      <c r="DY63" s="26"/>
-      <c r="DZ63" s="26" t="s">
+      <c r="DW63" s="27"/>
+      <c r="DX63" s="27"/>
+      <c r="DY63" s="27"/>
+      <c r="DZ63" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="EA63" s="26"/>
-      <c r="EB63" s="26"/>
-      <c r="EC63" s="26"/>
-      <c r="ED63" s="26" t="s">
+      <c r="EA63" s="27"/>
+      <c r="EB63" s="27"/>
+      <c r="EC63" s="27"/>
+      <c r="ED63" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="EE63" s="26"/>
-      <c r="EF63" s="26"/>
-      <c r="EG63" s="26"/>
-      <c r="EH63" s="26" t="s">
+      <c r="EE63" s="27"/>
+      <c r="EF63" s="27"/>
+      <c r="EG63" s="27"/>
+      <c r="EH63" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="EI63" s="26"/>
-      <c r="EJ63" s="26"/>
-      <c r="EK63" s="26"/>
-      <c r="EL63" s="26" t="s">
+      <c r="EI63" s="27"/>
+      <c r="EJ63" s="27"/>
+      <c r="EK63" s="27"/>
+      <c r="EL63" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="EM63" s="26"/>
-      <c r="EN63" s="26"/>
-      <c r="EO63" s="26"/>
-      <c r="EP63" s="26" t="s">
+      <c r="EM63" s="27"/>
+      <c r="EN63" s="27"/>
+      <c r="EO63" s="27"/>
+      <c r="EP63" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="EQ63" s="26"/>
-      <c r="ER63" s="26"/>
-      <c r="ES63" s="26"/>
-      <c r="ET63" s="26" t="s">
+      <c r="EQ63" s="27"/>
+      <c r="ER63" s="27"/>
+      <c r="ES63" s="27"/>
+      <c r="ET63" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="EU63" s="26"/>
-      <c r="EV63" s="26"/>
-      <c r="EW63" s="26"/>
-      <c r="EX63" s="26" t="s">
+      <c r="EU63" s="27"/>
+      <c r="EV63" s="27"/>
+      <c r="EW63" s="27"/>
+      <c r="EX63" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="EY63" s="26"/>
-      <c r="EZ63" s="26"/>
-      <c r="FA63" s="26"/>
-      <c r="FB63" s="26" t="s">
+      <c r="EY63" s="27"/>
+      <c r="EZ63" s="27"/>
+      <c r="FA63" s="27"/>
+      <c r="FB63" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="FC63" s="26"/>
-      <c r="FD63" s="26"/>
-      <c r="FE63" s="26"/>
-      <c r="FF63" s="26" t="s">
+      <c r="FC63" s="27"/>
+      <c r="FD63" s="27"/>
+      <c r="FE63" s="27"/>
+      <c r="FF63" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="FG63" s="26"/>
-      <c r="FH63" s="26"/>
-      <c r="FI63" s="26"/>
+      <c r="FG63" s="27"/>
+      <c r="FH63" s="27"/>
+      <c r="FI63" s="27"/>
+      <c r="FJ63" s="28" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="64" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>14</v>
       </c>
@@ -12365,8 +12433,11 @@
       <c r="FI64" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="FJ64" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="65" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:166" x14ac:dyDescent="0.3">
       <c r="FB65" s="24"/>
       <c r="FC65" s="24"/>
       <c r="FD65" s="24"/>
@@ -12375,8 +12446,9 @@
       <c r="FG65" s="10"/>
       <c r="FH65" s="10"/>
       <c r="FI65" s="10"/>
+      <c r="FJ65" s="24"/>
     </row>
-    <row r="66" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>1</v>
       </c>
@@ -12872,8 +12944,11 @@
       <c r="FI66" s="25">
         <v>14.90946448783501</v>
       </c>
+      <c r="FJ66" s="25">
+        <v>14.623240348397886</v>
+      </c>
     </row>
-    <row r="67" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>2</v>
       </c>
@@ -13369,8 +13444,11 @@
       <c r="FI67" s="25">
         <v>8.5083097048055407</v>
       </c>
+      <c r="FJ67" s="25">
+        <v>11.659125598929677</v>
+      </c>
     </row>
-    <row r="68" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>3</v>
       </c>
@@ -13866,8 +13944,11 @@
       <c r="FI68" s="25">
         <v>15.741274575405299</v>
       </c>
+      <c r="FJ68" s="25">
+        <v>16.217789047026088</v>
+      </c>
     </row>
-    <row r="69" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>4</v>
       </c>
@@ -14363,8 +14444,11 @@
       <c r="FI69" s="25">
         <v>29.388577476004741</v>
       </c>
+      <c r="FJ69" s="25">
+        <v>6.3088990054944531</v>
+      </c>
     </row>
-    <row r="70" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>5</v>
       </c>
@@ -14860,8 +14944,11 @@
       <c r="FI70" s="25">
         <v>19.208872861226439</v>
       </c>
+      <c r="FJ70" s="25">
+        <v>9.7976622757961991</v>
+      </c>
     </row>
-    <row r="71" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:166" x14ac:dyDescent="0.3">
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
@@ -15026,8 +15113,9 @@
       <c r="FG71" s="25"/>
       <c r="FH71" s="25"/>
       <c r="FI71" s="25"/>
+      <c r="FJ71" s="25"/>
     </row>
-    <row r="72" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:166" x14ac:dyDescent="0.3">
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
@@ -15192,8 +15280,9 @@
       <c r="FG72" s="25"/>
       <c r="FH72" s="25"/>
       <c r="FI72" s="25"/>
+      <c r="FJ72" s="25"/>
     </row>
-    <row r="73" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>10</v>
       </c>
@@ -15689,8 +15778,11 @@
       <c r="FI73" s="25">
         <v>13.895556471396617</v>
       </c>
+      <c r="FJ73" s="25">
+        <v>13.674683326983072</v>
+      </c>
     </row>
-    <row r="74" spans="1:165" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:166" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
@@ -15845,7 +15937,7 @@
       <c r="EW74" s="13"/>
       <c r="EX74" s="3"/>
     </row>
-    <row r="75" spans="1:165" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:166" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
@@ -16000,7 +16092,7 @@
       <c r="EW75" s="13"/>
       <c r="EX75" s="3"/>
     </row>
-    <row r="76" spans="1:165" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:166" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
@@ -16155,7 +16247,7 @@
       <c r="EW76" s="13"/>
       <c r="EX76" s="3"/>
     </row>
-    <row r="77" spans="1:165" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:166" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
@@ -16310,7 +16402,7 @@
       <c r="EW77" s="13"/>
       <c r="EX77" s="3"/>
     </row>
-    <row r="78" spans="1:165" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:166" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -16476,305 +16568,309 @@
       <c r="FG78" s="9"/>
       <c r="FH78" s="9"/>
       <c r="FI78" s="9"/>
+      <c r="FJ78" s="9"/>
     </row>
-    <row r="79" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="FF89" s="9"/>
       <c r="FG89" s="9"/>
     </row>
-    <row r="90" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
-      <c r="B90" s="26" t="s">
+      <c r="B90" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26" t="s">
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="G90" s="26"/>
-      <c r="H90" s="26"/>
-      <c r="I90" s="26"/>
-      <c r="J90" s="26" t="s">
+      <c r="G90" s="27"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="27"/>
+      <c r="J90" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="K90" s="26"/>
-      <c r="L90" s="26"/>
-      <c r="M90" s="26"/>
-      <c r="N90" s="26" t="s">
+      <c r="K90" s="27"/>
+      <c r="L90" s="27"/>
+      <c r="M90" s="27"/>
+      <c r="N90" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="O90" s="26"/>
-      <c r="P90" s="26"/>
-      <c r="Q90" s="26"/>
-      <c r="R90" s="26" t="s">
+      <c r="O90" s="27"/>
+      <c r="P90" s="27"/>
+      <c r="Q90" s="27"/>
+      <c r="R90" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="S90" s="26"/>
-      <c r="T90" s="26"/>
-      <c r="U90" s="26"/>
-      <c r="V90" s="26" t="s">
+      <c r="S90" s="27"/>
+      <c r="T90" s="27"/>
+      <c r="U90" s="27"/>
+      <c r="V90" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="W90" s="26"/>
-      <c r="X90" s="26"/>
-      <c r="Y90" s="26"/>
-      <c r="Z90" s="26" t="s">
+      <c r="W90" s="27"/>
+      <c r="X90" s="27"/>
+      <c r="Y90" s="27"/>
+      <c r="Z90" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="AA90" s="26"/>
-      <c r="AB90" s="26"/>
-      <c r="AC90" s="26"/>
-      <c r="AD90" s="26" t="s">
+      <c r="AA90" s="27"/>
+      <c r="AB90" s="27"/>
+      <c r="AC90" s="27"/>
+      <c r="AD90" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="AE90" s="26"/>
-      <c r="AF90" s="26"/>
-      <c r="AG90" s="26"/>
-      <c r="AH90" s="26" t="s">
+      <c r="AE90" s="27"/>
+      <c r="AF90" s="27"/>
+      <c r="AG90" s="27"/>
+      <c r="AH90" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="AI90" s="26"/>
-      <c r="AJ90" s="26"/>
-      <c r="AK90" s="26"/>
-      <c r="AL90" s="26" t="s">
+      <c r="AI90" s="27"/>
+      <c r="AJ90" s="27"/>
+      <c r="AK90" s="27"/>
+      <c r="AL90" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="AM90" s="26"/>
-      <c r="AN90" s="26"/>
-      <c r="AO90" s="26"/>
-      <c r="AP90" s="26" t="s">
+      <c r="AM90" s="27"/>
+      <c r="AN90" s="27"/>
+      <c r="AO90" s="27"/>
+      <c r="AP90" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="AQ90" s="26"/>
-      <c r="AR90" s="26"/>
-      <c r="AS90" s="26"/>
-      <c r="AT90" s="26" t="s">
+      <c r="AQ90" s="27"/>
+      <c r="AR90" s="27"/>
+      <c r="AS90" s="27"/>
+      <c r="AT90" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AU90" s="26"/>
-      <c r="AV90" s="26"/>
-      <c r="AW90" s="26"/>
-      <c r="AX90" s="26" t="s">
+      <c r="AU90" s="27"/>
+      <c r="AV90" s="27"/>
+      <c r="AW90" s="27"/>
+      <c r="AX90" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="AY90" s="26"/>
-      <c r="AZ90" s="26"/>
-      <c r="BA90" s="26"/>
-      <c r="BB90" s="26" t="s">
+      <c r="AY90" s="27"/>
+      <c r="AZ90" s="27"/>
+      <c r="BA90" s="27"/>
+      <c r="BB90" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="BC90" s="26"/>
-      <c r="BD90" s="26"/>
-      <c r="BE90" s="26"/>
-      <c r="BF90" s="26" t="s">
+      <c r="BC90" s="27"/>
+      <c r="BD90" s="27"/>
+      <c r="BE90" s="27"/>
+      <c r="BF90" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="BG90" s="26"/>
-      <c r="BH90" s="26"/>
-      <c r="BI90" s="26"/>
-      <c r="BJ90" s="26" t="s">
+      <c r="BG90" s="27"/>
+      <c r="BH90" s="27"/>
+      <c r="BI90" s="27"/>
+      <c r="BJ90" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="BK90" s="26"/>
-      <c r="BL90" s="26"/>
-      <c r="BM90" s="26"/>
-      <c r="BN90" s="26" t="s">
+      <c r="BK90" s="27"/>
+      <c r="BL90" s="27"/>
+      <c r="BM90" s="27"/>
+      <c r="BN90" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="BO90" s="26"/>
-      <c r="BP90" s="26"/>
-      <c r="BQ90" s="26"/>
-      <c r="BR90" s="26" t="s">
+      <c r="BO90" s="27"/>
+      <c r="BP90" s="27"/>
+      <c r="BQ90" s="27"/>
+      <c r="BR90" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="BS90" s="26"/>
-      <c r="BT90" s="26"/>
-      <c r="BU90" s="26"/>
-      <c r="BV90" s="26" t="s">
+      <c r="BS90" s="27"/>
+      <c r="BT90" s="27"/>
+      <c r="BU90" s="27"/>
+      <c r="BV90" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="BW90" s="26"/>
-      <c r="BX90" s="26"/>
-      <c r="BY90" s="26"/>
-      <c r="BZ90" s="26" t="s">
+      <c r="BW90" s="27"/>
+      <c r="BX90" s="27"/>
+      <c r="BY90" s="27"/>
+      <c r="BZ90" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="CA90" s="26"/>
-      <c r="CB90" s="26"/>
-      <c r="CC90" s="26"/>
-      <c r="CD90" s="26" t="s">
+      <c r="CA90" s="27"/>
+      <c r="CB90" s="27"/>
+      <c r="CC90" s="27"/>
+      <c r="CD90" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="CE90" s="26"/>
-      <c r="CF90" s="26"/>
-      <c r="CG90" s="26"/>
-      <c r="CH90" s="26" t="s">
+      <c r="CE90" s="27"/>
+      <c r="CF90" s="27"/>
+      <c r="CG90" s="27"/>
+      <c r="CH90" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="CI90" s="26"/>
-      <c r="CJ90" s="26"/>
-      <c r="CK90" s="26"/>
-      <c r="CL90" s="26" t="s">
+      <c r="CI90" s="27"/>
+      <c r="CJ90" s="27"/>
+      <c r="CK90" s="27"/>
+      <c r="CL90" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="CM90" s="26"/>
-      <c r="CN90" s="26"/>
-      <c r="CO90" s="26"/>
-      <c r="CP90" s="26" t="s">
+      <c r="CM90" s="27"/>
+      <c r="CN90" s="27"/>
+      <c r="CO90" s="27"/>
+      <c r="CP90" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="CQ90" s="26"/>
-      <c r="CR90" s="26"/>
-      <c r="CS90" s="26"/>
-      <c r="CT90" s="26" t="s">
+      <c r="CQ90" s="27"/>
+      <c r="CR90" s="27"/>
+      <c r="CS90" s="27"/>
+      <c r="CT90" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="CU90" s="26"/>
-      <c r="CV90" s="26"/>
-      <c r="CW90" s="26"/>
-      <c r="CX90" s="26" t="s">
+      <c r="CU90" s="27"/>
+      <c r="CV90" s="27"/>
+      <c r="CW90" s="27"/>
+      <c r="CX90" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="CY90" s="26"/>
-      <c r="CZ90" s="26"/>
-      <c r="DA90" s="26"/>
-      <c r="DB90" s="26" t="s">
+      <c r="CY90" s="27"/>
+      <c r="CZ90" s="27"/>
+      <c r="DA90" s="27"/>
+      <c r="DB90" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="DC90" s="26"/>
-      <c r="DD90" s="26"/>
-      <c r="DE90" s="26"/>
-      <c r="DF90" s="26" t="s">
+      <c r="DC90" s="27"/>
+      <c r="DD90" s="27"/>
+      <c r="DE90" s="27"/>
+      <c r="DF90" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="DG90" s="26"/>
-      <c r="DH90" s="26"/>
-      <c r="DI90" s="26"/>
-      <c r="DJ90" s="26" t="s">
+      <c r="DG90" s="27"/>
+      <c r="DH90" s="27"/>
+      <c r="DI90" s="27"/>
+      <c r="DJ90" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="DK90" s="26"/>
-      <c r="DL90" s="26"/>
-      <c r="DM90" s="26"/>
-      <c r="DN90" s="26" t="s">
+      <c r="DK90" s="27"/>
+      <c r="DL90" s="27"/>
+      <c r="DM90" s="27"/>
+      <c r="DN90" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="DO90" s="26"/>
-      <c r="DP90" s="26"/>
-      <c r="DQ90" s="26"/>
-      <c r="DR90" s="26" t="s">
+      <c r="DO90" s="27"/>
+      <c r="DP90" s="27"/>
+      <c r="DQ90" s="27"/>
+      <c r="DR90" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="DS90" s="26"/>
-      <c r="DT90" s="26"/>
-      <c r="DU90" s="26"/>
-      <c r="DV90" s="26" t="s">
+      <c r="DS90" s="27"/>
+      <c r="DT90" s="27"/>
+      <c r="DU90" s="27"/>
+      <c r="DV90" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="DW90" s="26"/>
-      <c r="DX90" s="26"/>
-      <c r="DY90" s="26"/>
-      <c r="DZ90" s="26" t="s">
+      <c r="DW90" s="27"/>
+      <c r="DX90" s="27"/>
+      <c r="DY90" s="27"/>
+      <c r="DZ90" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="EA90" s="26"/>
-      <c r="EB90" s="26"/>
-      <c r="EC90" s="26"/>
-      <c r="ED90" s="26" t="s">
+      <c r="EA90" s="27"/>
+      <c r="EB90" s="27"/>
+      <c r="EC90" s="27"/>
+      <c r="ED90" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="EE90" s="26"/>
-      <c r="EF90" s="26"/>
-      <c r="EG90" s="26"/>
-      <c r="EH90" s="26" t="s">
+      <c r="EE90" s="27"/>
+      <c r="EF90" s="27"/>
+      <c r="EG90" s="27"/>
+      <c r="EH90" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="EI90" s="26"/>
-      <c r="EJ90" s="26"/>
-      <c r="EK90" s="26"/>
-      <c r="EL90" s="26" t="s">
+      <c r="EI90" s="27"/>
+      <c r="EJ90" s="27"/>
+      <c r="EK90" s="27"/>
+      <c r="EL90" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="EM90" s="26"/>
-      <c r="EN90" s="26"/>
-      <c r="EO90" s="26"/>
-      <c r="EP90" s="26" t="s">
+      <c r="EM90" s="27"/>
+      <c r="EN90" s="27"/>
+      <c r="EO90" s="27"/>
+      <c r="EP90" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="EQ90" s="26"/>
-      <c r="ER90" s="26"/>
-      <c r="ES90" s="26"/>
-      <c r="ET90" s="26" t="s">
+      <c r="EQ90" s="27"/>
+      <c r="ER90" s="27"/>
+      <c r="ES90" s="27"/>
+      <c r="ET90" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="EU90" s="26"/>
-      <c r="EV90" s="26"/>
-      <c r="EW90" s="26"/>
-      <c r="EX90" s="26" t="s">
+      <c r="EU90" s="27"/>
+      <c r="EV90" s="27"/>
+      <c r="EW90" s="27"/>
+      <c r="EX90" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="EY90" s="26"/>
-      <c r="EZ90" s="26"/>
-      <c r="FA90" s="26"/>
-      <c r="FB90" s="26" t="s">
+      <c r="EY90" s="27"/>
+      <c r="EZ90" s="27"/>
+      <c r="FA90" s="27"/>
+      <c r="FB90" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="FC90" s="26"/>
-      <c r="FD90" s="26"/>
-      <c r="FE90" s="26"/>
-      <c r="FF90" s="26" t="s">
+      <c r="FC90" s="27"/>
+      <c r="FD90" s="27"/>
+      <c r="FE90" s="27"/>
+      <c r="FF90" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="FG90" s="26"/>
-      <c r="FH90" s="26"/>
-      <c r="FI90" s="26"/>
+      <c r="FG90" s="27"/>
+      <c r="FH90" s="27"/>
+      <c r="FI90" s="27"/>
+      <c r="FJ90" s="28" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="91" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>14</v>
       </c>
@@ -17270,14 +17366,18 @@
       <c r="FI91" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="FJ91" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="92" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:166" x14ac:dyDescent="0.3">
       <c r="FF92" s="24"/>
       <c r="FG92" s="24"/>
       <c r="FH92" s="24"/>
       <c r="FI92" s="24"/>
+      <c r="FJ92" s="24"/>
     </row>
-    <row r="93" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>1</v>
       </c>
@@ -17773,8 +17873,11 @@
       <c r="FI93" s="25">
         <v>6.971064311894807</v>
       </c>
+      <c r="FJ93" s="25">
+        <v>6.3420005797817822</v>
+      </c>
     </row>
-    <row r="94" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>2</v>
       </c>
@@ -18270,8 +18373,11 @@
       <c r="FI94" s="25">
         <v>3.3188574634341279</v>
       </c>
+      <c r="FJ94" s="25">
+        <v>6.1758091069245182</v>
+      </c>
     </row>
-    <row r="95" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>3</v>
       </c>
@@ -18767,8 +18873,11 @@
       <c r="FI95" s="25">
         <v>3.8337616067714464</v>
       </c>
+      <c r="FJ95" s="25">
+        <v>12.179478804575282</v>
+      </c>
     </row>
-    <row r="96" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>4</v>
       </c>
@@ -19264,8 +19373,11 @@
       <c r="FI96" s="25">
         <v>14.606690155131801</v>
       </c>
+      <c r="FJ96" s="25">
+        <v>0.41377598026089402</v>
+      </c>
     </row>
-    <row r="97" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>5</v>
       </c>
@@ -19761,8 +19873,11 @@
       <c r="FI97" s="25">
         <v>7.0214457532868551</v>
       </c>
+      <c r="FJ97" s="25">
+        <v>4.220581359076931</v>
+      </c>
     </row>
-    <row r="98" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:166" x14ac:dyDescent="0.3">
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
@@ -19927,8 +20042,9 @@
       <c r="FG98" s="25"/>
       <c r="FH98" s="25"/>
       <c r="FI98" s="25"/>
+      <c r="FJ98" s="25"/>
     </row>
-    <row r="99" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:166" x14ac:dyDescent="0.3">
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
@@ -20093,8 +20209,9 @@
       <c r="FG99" s="25"/>
       <c r="FH99" s="25"/>
       <c r="FI99" s="25"/>
+      <c r="FJ99" s="25"/>
     </row>
-    <row r="100" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
         <v>10</v>
       </c>
@@ -20590,8 +20707,11 @@
       <c r="FI100" s="25">
         <v>7.1147703439862369</v>
       </c>
+      <c r="FJ100" s="25">
+        <v>6.4425911814635128</v>
+      </c>
     </row>
-    <row r="101" spans="1:165" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
@@ -20745,7 +20865,7 @@
       <c r="EV101" s="13"/>
       <c r="EW101" s="13"/>
     </row>
-    <row r="102" spans="1:165" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
@@ -20899,7 +21019,7 @@
       <c r="EV102" s="13"/>
       <c r="EW102" s="13"/>
     </row>
-    <row r="103" spans="1:165" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
@@ -21053,7 +21173,7 @@
       <c r="EV103" s="13"/>
       <c r="EW103" s="13"/>
     </row>
-    <row r="104" spans="1:165" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
@@ -21207,7 +21327,7 @@
       <c r="EV104" s="13"/>
       <c r="EW104" s="13"/>
     </row>
-    <row r="105" spans="1:165" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:166" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -21373,309 +21493,313 @@
       <c r="FG105" s="9"/>
       <c r="FH105" s="9"/>
       <c r="FI105" s="9"/>
+      <c r="FJ105" s="9"/>
     </row>
-    <row r="106" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="109" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="112" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
     </row>
-    <row r="113" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A114" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="115" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="116" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
     </row>
-    <row r="117" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A117" s="4"/>
-      <c r="B117" s="26">
+      <c r="B117" s="27">
         <v>1981</v>
       </c>
-      <c r="C117" s="26"/>
-      <c r="D117" s="26"/>
-      <c r="E117" s="26"/>
-      <c r="F117" s="26">
+      <c r="C117" s="27"/>
+      <c r="D117" s="27"/>
+      <c r="E117" s="27"/>
+      <c r="F117" s="27">
         <v>1982</v>
       </c>
-      <c r="G117" s="26"/>
-      <c r="H117" s="26"/>
-      <c r="I117" s="26"/>
-      <c r="J117" s="26">
+      <c r="G117" s="27"/>
+      <c r="H117" s="27"/>
+      <c r="I117" s="27"/>
+      <c r="J117" s="27">
         <v>1983</v>
       </c>
-      <c r="K117" s="26"/>
-      <c r="L117" s="26"/>
-      <c r="M117" s="26"/>
-      <c r="N117" s="26">
+      <c r="K117" s="27"/>
+      <c r="L117" s="27"/>
+      <c r="M117" s="27"/>
+      <c r="N117" s="27">
         <v>1984</v>
       </c>
-      <c r="O117" s="26"/>
-      <c r="P117" s="26"/>
-      <c r="Q117" s="26"/>
-      <c r="R117" s="26">
+      <c r="O117" s="27"/>
+      <c r="P117" s="27"/>
+      <c r="Q117" s="27"/>
+      <c r="R117" s="27">
         <v>1985</v>
       </c>
-      <c r="S117" s="26"/>
-      <c r="T117" s="26"/>
-      <c r="U117" s="26"/>
-      <c r="V117" s="26">
+      <c r="S117" s="27"/>
+      <c r="T117" s="27"/>
+      <c r="U117" s="27"/>
+      <c r="V117" s="27">
         <v>1986</v>
       </c>
-      <c r="W117" s="26"/>
-      <c r="X117" s="26"/>
-      <c r="Y117" s="26"/>
-      <c r="Z117" s="26">
+      <c r="W117" s="27"/>
+      <c r="X117" s="27"/>
+      <c r="Y117" s="27"/>
+      <c r="Z117" s="27">
         <v>1987</v>
       </c>
-      <c r="AA117" s="26"/>
-      <c r="AB117" s="26"/>
-      <c r="AC117" s="26"/>
-      <c r="AD117" s="26">
+      <c r="AA117" s="27"/>
+      <c r="AB117" s="27"/>
+      <c r="AC117" s="27"/>
+      <c r="AD117" s="27">
         <v>1988</v>
       </c>
-      <c r="AE117" s="26"/>
-      <c r="AF117" s="26"/>
-      <c r="AG117" s="26"/>
-      <c r="AH117" s="26">
+      <c r="AE117" s="27"/>
+      <c r="AF117" s="27"/>
+      <c r="AG117" s="27"/>
+      <c r="AH117" s="27">
         <v>1989</v>
       </c>
-      <c r="AI117" s="26"/>
-      <c r="AJ117" s="26"/>
-      <c r="AK117" s="26"/>
-      <c r="AL117" s="26">
+      <c r="AI117" s="27"/>
+      <c r="AJ117" s="27"/>
+      <c r="AK117" s="27"/>
+      <c r="AL117" s="27">
         <v>1990</v>
       </c>
-      <c r="AM117" s="26"/>
-      <c r="AN117" s="26"/>
-      <c r="AO117" s="26"/>
-      <c r="AP117" s="26">
+      <c r="AM117" s="27"/>
+      <c r="AN117" s="27"/>
+      <c r="AO117" s="27"/>
+      <c r="AP117" s="27">
         <v>1991</v>
       </c>
-      <c r="AQ117" s="26"/>
-      <c r="AR117" s="26"/>
-      <c r="AS117" s="26"/>
-      <c r="AT117" s="26">
+      <c r="AQ117" s="27"/>
+      <c r="AR117" s="27"/>
+      <c r="AS117" s="27"/>
+      <c r="AT117" s="27">
         <v>1992</v>
       </c>
-      <c r="AU117" s="26"/>
-      <c r="AV117" s="26"/>
-      <c r="AW117" s="26"/>
-      <c r="AX117" s="26">
+      <c r="AU117" s="27"/>
+      <c r="AV117" s="27"/>
+      <c r="AW117" s="27"/>
+      <c r="AX117" s="27">
         <v>1993</v>
       </c>
-      <c r="AY117" s="26"/>
-      <c r="AZ117" s="26"/>
-      <c r="BA117" s="26"/>
-      <c r="BB117" s="26">
+      <c r="AY117" s="27"/>
+      <c r="AZ117" s="27"/>
+      <c r="BA117" s="27"/>
+      <c r="BB117" s="27">
         <v>1994</v>
       </c>
-      <c r="BC117" s="26"/>
-      <c r="BD117" s="26"/>
-      <c r="BE117" s="26"/>
-      <c r="BF117" s="26">
+      <c r="BC117" s="27"/>
+      <c r="BD117" s="27"/>
+      <c r="BE117" s="27"/>
+      <c r="BF117" s="27">
         <v>1995</v>
       </c>
-      <c r="BG117" s="26"/>
-      <c r="BH117" s="26"/>
-      <c r="BI117" s="26"/>
-      <c r="BJ117" s="26">
+      <c r="BG117" s="27"/>
+      <c r="BH117" s="27"/>
+      <c r="BI117" s="27"/>
+      <c r="BJ117" s="27">
         <v>1996</v>
       </c>
-      <c r="BK117" s="26"/>
-      <c r="BL117" s="26"/>
-      <c r="BM117" s="26"/>
-      <c r="BN117" s="26">
+      <c r="BK117" s="27"/>
+      <c r="BL117" s="27"/>
+      <c r="BM117" s="27"/>
+      <c r="BN117" s="27">
         <v>1997</v>
       </c>
-      <c r="BO117" s="26"/>
-      <c r="BP117" s="26"/>
-      <c r="BQ117" s="26"/>
-      <c r="BR117" s="26">
+      <c r="BO117" s="27"/>
+      <c r="BP117" s="27"/>
+      <c r="BQ117" s="27"/>
+      <c r="BR117" s="27">
         <v>1998</v>
       </c>
-      <c r="BS117" s="26"/>
-      <c r="BT117" s="26"/>
-      <c r="BU117" s="26"/>
-      <c r="BV117" s="26">
+      <c r="BS117" s="27"/>
+      <c r="BT117" s="27"/>
+      <c r="BU117" s="27"/>
+      <c r="BV117" s="27">
         <v>1999</v>
       </c>
-      <c r="BW117" s="26"/>
-      <c r="BX117" s="26"/>
-      <c r="BY117" s="26"/>
-      <c r="BZ117" s="26">
+      <c r="BW117" s="27"/>
+      <c r="BX117" s="27"/>
+      <c r="BY117" s="27"/>
+      <c r="BZ117" s="27">
         <v>2000</v>
       </c>
-      <c r="CA117" s="26"/>
-      <c r="CB117" s="26"/>
-      <c r="CC117" s="26"/>
-      <c r="CD117" s="26">
+      <c r="CA117" s="27"/>
+      <c r="CB117" s="27"/>
+      <c r="CC117" s="27"/>
+      <c r="CD117" s="27">
         <v>2001</v>
       </c>
-      <c r="CE117" s="26"/>
-      <c r="CF117" s="26"/>
-      <c r="CG117" s="26"/>
-      <c r="CH117" s="26">
+      <c r="CE117" s="27"/>
+      <c r="CF117" s="27"/>
+      <c r="CG117" s="27"/>
+      <c r="CH117" s="27">
         <v>2002</v>
       </c>
-      <c r="CI117" s="26"/>
-      <c r="CJ117" s="26"/>
-      <c r="CK117" s="26"/>
-      <c r="CL117" s="26">
+      <c r="CI117" s="27"/>
+      <c r="CJ117" s="27"/>
+      <c r="CK117" s="27"/>
+      <c r="CL117" s="27">
         <v>2003</v>
       </c>
-      <c r="CM117" s="26"/>
-      <c r="CN117" s="26"/>
-      <c r="CO117" s="26"/>
-      <c r="CP117" s="26">
+      <c r="CM117" s="27"/>
+      <c r="CN117" s="27"/>
+      <c r="CO117" s="27"/>
+      <c r="CP117" s="27">
         <v>2004</v>
       </c>
-      <c r="CQ117" s="26"/>
-      <c r="CR117" s="26"/>
-      <c r="CS117" s="26"/>
-      <c r="CT117" s="26">
+      <c r="CQ117" s="27"/>
+      <c r="CR117" s="27"/>
+      <c r="CS117" s="27"/>
+      <c r="CT117" s="27">
         <v>2005</v>
       </c>
-      <c r="CU117" s="26"/>
-      <c r="CV117" s="26"/>
-      <c r="CW117" s="26"/>
-      <c r="CX117" s="26">
+      <c r="CU117" s="27"/>
+      <c r="CV117" s="27"/>
+      <c r="CW117" s="27"/>
+      <c r="CX117" s="27">
         <v>2006</v>
       </c>
-      <c r="CY117" s="26"/>
-      <c r="CZ117" s="26"/>
-      <c r="DA117" s="26"/>
-      <c r="DB117" s="26">
+      <c r="CY117" s="27"/>
+      <c r="CZ117" s="27"/>
+      <c r="DA117" s="27"/>
+      <c r="DB117" s="27">
         <v>2007</v>
       </c>
-      <c r="DC117" s="26"/>
-      <c r="DD117" s="26"/>
-      <c r="DE117" s="26"/>
-      <c r="DF117" s="26">
+      <c r="DC117" s="27"/>
+      <c r="DD117" s="27"/>
+      <c r="DE117" s="27"/>
+      <c r="DF117" s="27">
         <v>2008</v>
       </c>
-      <c r="DG117" s="26"/>
-      <c r="DH117" s="26"/>
-      <c r="DI117" s="26"/>
-      <c r="DJ117" s="26">
+      <c r="DG117" s="27"/>
+      <c r="DH117" s="27"/>
+      <c r="DI117" s="27"/>
+      <c r="DJ117" s="27">
         <v>2009</v>
       </c>
-      <c r="DK117" s="26"/>
-      <c r="DL117" s="26"/>
-      <c r="DM117" s="26"/>
-      <c r="DN117" s="26">
+      <c r="DK117" s="27"/>
+      <c r="DL117" s="27"/>
+      <c r="DM117" s="27"/>
+      <c r="DN117" s="27">
         <v>2010</v>
       </c>
-      <c r="DO117" s="26"/>
-      <c r="DP117" s="26"/>
-      <c r="DQ117" s="26"/>
-      <c r="DR117" s="26">
+      <c r="DO117" s="27"/>
+      <c r="DP117" s="27"/>
+      <c r="DQ117" s="27"/>
+      <c r="DR117" s="27">
         <v>2011</v>
       </c>
-      <c r="DS117" s="26"/>
-      <c r="DT117" s="26"/>
-      <c r="DU117" s="26"/>
-      <c r="DV117" s="26">
+      <c r="DS117" s="27"/>
+      <c r="DT117" s="27"/>
+      <c r="DU117" s="27"/>
+      <c r="DV117" s="27">
         <v>2012</v>
       </c>
-      <c r="DW117" s="26"/>
-      <c r="DX117" s="26"/>
-      <c r="DY117" s="26"/>
-      <c r="DZ117" s="26">
+      <c r="DW117" s="27"/>
+      <c r="DX117" s="27"/>
+      <c r="DY117" s="27"/>
+      <c r="DZ117" s="27">
         <v>2013</v>
       </c>
-      <c r="EA117" s="26"/>
-      <c r="EB117" s="26"/>
-      <c r="EC117" s="26"/>
-      <c r="ED117" s="26">
+      <c r="EA117" s="27"/>
+      <c r="EB117" s="27"/>
+      <c r="EC117" s="27"/>
+      <c r="ED117" s="27">
         <v>2014</v>
       </c>
-      <c r="EE117" s="26"/>
-      <c r="EF117" s="26"/>
-      <c r="EG117" s="26"/>
-      <c r="EH117" s="26">
+      <c r="EE117" s="27"/>
+      <c r="EF117" s="27"/>
+      <c r="EG117" s="27"/>
+      <c r="EH117" s="27">
         <v>2015</v>
       </c>
-      <c r="EI117" s="26"/>
-      <c r="EJ117" s="26"/>
-      <c r="EK117" s="26"/>
-      <c r="EL117" s="26">
+      <c r="EI117" s="27"/>
+      <c r="EJ117" s="27"/>
+      <c r="EK117" s="27"/>
+      <c r="EL117" s="27">
         <v>2016</v>
       </c>
-      <c r="EM117" s="26"/>
-      <c r="EN117" s="26"/>
-      <c r="EO117" s="26"/>
-      <c r="EP117" s="26">
+      <c r="EM117" s="27"/>
+      <c r="EN117" s="27"/>
+      <c r="EO117" s="27"/>
+      <c r="EP117" s="27">
         <v>2017</v>
       </c>
-      <c r="EQ117" s="26"/>
-      <c r="ER117" s="26"/>
-      <c r="ES117" s="26"/>
-      <c r="ET117" s="26">
+      <c r="EQ117" s="27"/>
+      <c r="ER117" s="27"/>
+      <c r="ES117" s="27"/>
+      <c r="ET117" s="27">
         <v>2018</v>
       </c>
-      <c r="EU117" s="26"/>
-      <c r="EV117" s="26"/>
-      <c r="EW117" s="26"/>
-      <c r="EX117" s="26">
+      <c r="EU117" s="27"/>
+      <c r="EV117" s="27"/>
+      <c r="EW117" s="27"/>
+      <c r="EX117" s="27">
         <v>2019</v>
       </c>
-      <c r="EY117" s="26"/>
-      <c r="EZ117" s="26"/>
-      <c r="FA117" s="26"/>
-      <c r="FB117" s="26">
+      <c r="EY117" s="27"/>
+      <c r="EZ117" s="27"/>
+      <c r="FA117" s="27"/>
+      <c r="FB117" s="27">
         <v>2020</v>
       </c>
-      <c r="FC117" s="26"/>
-      <c r="FD117" s="26"/>
+      <c r="FC117" s="27"/>
+      <c r="FD117" s="27"/>
       <c r="FE117" s="4"/>
-      <c r="FF117" s="26">
+      <c r="FF117" s="27">
         <v>2021</v>
       </c>
-      <c r="FG117" s="26"/>
-      <c r="FH117" s="26"/>
-      <c r="FI117" s="26"/>
-      <c r="FJ117" s="26">
+      <c r="FG117" s="27"/>
+      <c r="FH117" s="27"/>
+      <c r="FI117" s="27"/>
+      <c r="FJ117" s="27">
         <v>2022</v>
       </c>
-      <c r="FK117" s="26"/>
-      <c r="FL117" s="26"/>
-      <c r="FM117" s="26"/>
+      <c r="FK117" s="27"/>
+      <c r="FL117" s="27"/>
+      <c r="FM117" s="27"/>
+      <c r="FN117" s="26">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="118" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>14</v>
       </c>
@@ -22183,11 +22307,14 @@
       <c r="FM118" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="FN118" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="119" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:170" x14ac:dyDescent="0.3">
       <c r="FB119" s="2"/>
     </row>
-    <row r="120" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>1</v>
       </c>
@@ -22695,8 +22822,11 @@
       <c r="FM120" s="21">
         <v>75.384218035329681</v>
       </c>
+      <c r="FN120" s="21">
+        <v>78.843139545485101</v>
+      </c>
     </row>
-    <row r="121" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>2</v>
       </c>
@@ -23204,8 +23334,11 @@
       <c r="FM121" s="21">
         <v>13.85545318394793</v>
       </c>
+      <c r="FN121" s="21">
+        <v>13.526671947654775</v>
+      </c>
     </row>
-    <row r="122" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>3</v>
       </c>
@@ -23713,8 +23846,11 @@
       <c r="FM122" s="21">
         <v>21.424411998499128</v>
       </c>
+      <c r="FN122" s="21">
+        <v>23.718599422384592</v>
+      </c>
     </row>
-    <row r="123" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>4</v>
       </c>
@@ -24222,8 +24358,11 @@
       <c r="FM123" s="21">
         <v>26.736697204363036</v>
       </c>
+      <c r="FN123" s="21">
+        <v>27.692125435679404</v>
+      </c>
     </row>
-    <row r="124" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>5</v>
       </c>
@@ -24731,8 +24870,11 @@
       <c r="FM124" s="21">
         <v>36.411340489992547</v>
       </c>
+      <c r="FN124" s="21">
+        <v>43.172793287989883</v>
+      </c>
     </row>
-    <row r="125" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:170" x14ac:dyDescent="0.3">
       <c r="B125" s="13">
         <v>10.790109715083961</v>
       </c>
@@ -25053,8 +25195,9 @@
       <c r="FK125" s="21"/>
       <c r="FL125" s="21"/>
       <c r="FM125" s="21"/>
+      <c r="FN125" s="21"/>
     </row>
-    <row r="126" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:170" x14ac:dyDescent="0.3">
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
@@ -25223,8 +25366,9 @@
       <c r="FK126" s="21"/>
       <c r="FL126" s="21"/>
       <c r="FM126" s="21"/>
+      <c r="FN126" s="21"/>
     </row>
-    <row r="127" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
         <v>10</v>
       </c>
@@ -25732,8 +25876,11 @@
       <c r="FM127" s="21">
         <v>100</v>
       </c>
+      <c r="FN127" s="21">
+        <v>100</v>
+      </c>
     </row>
-    <row r="128" spans="1:169" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:170" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="13">
         <v>0</v>
       </c>
@@ -25893,7 +26040,7 @@
       <c r="EZ128" s="13"/>
       <c r="FA128" s="13"/>
     </row>
-    <row r="129" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:170" hidden="1" x14ac:dyDescent="0.3">
       <c r="B129" s="13">
         <v>0</v>
       </c>
@@ -26053,7 +26200,7 @@
       <c r="EZ129" s="13"/>
       <c r="FA129" s="13"/>
     </row>
-    <row r="130" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:170" hidden="1" x14ac:dyDescent="0.3">
       <c r="B130" s="13">
         <v>0</v>
       </c>
@@ -26213,7 +26360,7 @@
       <c r="EZ130" s="13"/>
       <c r="FA130" s="13"/>
     </row>
-    <row r="131" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:170" hidden="1" x14ac:dyDescent="0.3">
       <c r="B131" s="13">
         <v>0</v>
       </c>
@@ -26373,7 +26520,7 @@
       <c r="EZ131" s="13"/>
       <c r="FA131" s="13"/>
     </row>
-    <row r="132" spans="1:169" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:170" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -26543,34 +26690,35 @@
       <c r="FK132" s="9"/>
       <c r="FL132" s="9"/>
       <c r="FM132" s="9"/>
+      <c r="FN132" s="9"/>
     </row>
-    <row r="133" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="139" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="FC139" s="3"/>
       <c r="FD139" s="3"/>
       <c r="FE139" s="3"/>
     </row>
-    <row r="140" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>46</v>
       </c>
@@ -26578,7 +26726,7 @@
       <c r="FD140" s="3"/>
       <c r="FE140" s="3"/>
     </row>
-    <row r="141" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A141" s="11" t="s">
         <v>81</v>
       </c>
@@ -26586,7 +26734,7 @@
       <c r="FD141" s="3"/>
       <c r="FE141" s="3"/>
     </row>
-    <row r="142" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>54</v>
       </c>
@@ -26594,268 +26742,271 @@
       <c r="FD142" s="3"/>
       <c r="FE142" s="3"/>
     </row>
-    <row r="143" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="FC143" s="3"/>
       <c r="FD143" s="3"/>
       <c r="FE143" s="3"/>
     </row>
-    <row r="144" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A144" s="4"/>
-      <c r="B144" s="26">
+      <c r="B144" s="27">
         <v>1981</v>
       </c>
-      <c r="C144" s="26"/>
-      <c r="D144" s="26"/>
-      <c r="E144" s="26"/>
-      <c r="F144" s="26">
+      <c r="C144" s="27"/>
+      <c r="D144" s="27"/>
+      <c r="E144" s="27"/>
+      <c r="F144" s="27">
         <v>1982</v>
       </c>
-      <c r="G144" s="26"/>
-      <c r="H144" s="26"/>
-      <c r="I144" s="26"/>
-      <c r="J144" s="26">
+      <c r="G144" s="27"/>
+      <c r="H144" s="27"/>
+      <c r="I144" s="27"/>
+      <c r="J144" s="27">
         <v>1983</v>
       </c>
-      <c r="K144" s="26"/>
-      <c r="L144" s="26"/>
-      <c r="M144" s="26"/>
-      <c r="N144" s="26">
+      <c r="K144" s="27"/>
+      <c r="L144" s="27"/>
+      <c r="M144" s="27"/>
+      <c r="N144" s="27">
         <v>1984</v>
       </c>
-      <c r="O144" s="26"/>
-      <c r="P144" s="26"/>
-      <c r="Q144" s="26"/>
-      <c r="R144" s="26">
+      <c r="O144" s="27"/>
+      <c r="P144" s="27"/>
+      <c r="Q144" s="27"/>
+      <c r="R144" s="27">
         <v>1985</v>
       </c>
-      <c r="S144" s="26"/>
-      <c r="T144" s="26"/>
-      <c r="U144" s="26"/>
-      <c r="V144" s="26">
+      <c r="S144" s="27"/>
+      <c r="T144" s="27"/>
+      <c r="U144" s="27"/>
+      <c r="V144" s="27">
         <v>1986</v>
       </c>
-      <c r="W144" s="26"/>
-      <c r="X144" s="26"/>
-      <c r="Y144" s="26"/>
-      <c r="Z144" s="26">
+      <c r="W144" s="27"/>
+      <c r="X144" s="27"/>
+      <c r="Y144" s="27"/>
+      <c r="Z144" s="27">
         <v>1987</v>
       </c>
-      <c r="AA144" s="26"/>
-      <c r="AB144" s="26"/>
-      <c r="AC144" s="26"/>
-      <c r="AD144" s="26">
+      <c r="AA144" s="27"/>
+      <c r="AB144" s="27"/>
+      <c r="AC144" s="27"/>
+      <c r="AD144" s="27">
         <v>1988</v>
       </c>
-      <c r="AE144" s="26"/>
-      <c r="AF144" s="26"/>
-      <c r="AG144" s="26"/>
-      <c r="AH144" s="26">
+      <c r="AE144" s="27"/>
+      <c r="AF144" s="27"/>
+      <c r="AG144" s="27"/>
+      <c r="AH144" s="27">
         <v>1989</v>
       </c>
-      <c r="AI144" s="26"/>
-      <c r="AJ144" s="26"/>
-      <c r="AK144" s="26"/>
-      <c r="AL144" s="26">
+      <c r="AI144" s="27"/>
+      <c r="AJ144" s="27"/>
+      <c r="AK144" s="27"/>
+      <c r="AL144" s="27">
         <v>1990</v>
       </c>
-      <c r="AM144" s="26"/>
-      <c r="AN144" s="26"/>
-      <c r="AO144" s="26"/>
-      <c r="AP144" s="26">
+      <c r="AM144" s="27"/>
+      <c r="AN144" s="27"/>
+      <c r="AO144" s="27"/>
+      <c r="AP144" s="27">
         <v>1991</v>
       </c>
-      <c r="AQ144" s="26"/>
-      <c r="AR144" s="26"/>
-      <c r="AS144" s="26"/>
-      <c r="AT144" s="26">
+      <c r="AQ144" s="27"/>
+      <c r="AR144" s="27"/>
+      <c r="AS144" s="27"/>
+      <c r="AT144" s="27">
         <v>1992</v>
       </c>
-      <c r="AU144" s="26"/>
-      <c r="AV144" s="26"/>
-      <c r="AW144" s="26"/>
-      <c r="AX144" s="26">
+      <c r="AU144" s="27"/>
+      <c r="AV144" s="27"/>
+      <c r="AW144" s="27"/>
+      <c r="AX144" s="27">
         <v>1993</v>
       </c>
-      <c r="AY144" s="26"/>
-      <c r="AZ144" s="26"/>
-      <c r="BA144" s="26"/>
-      <c r="BB144" s="26">
+      <c r="AY144" s="27"/>
+      <c r="AZ144" s="27"/>
+      <c r="BA144" s="27"/>
+      <c r="BB144" s="27">
         <v>1994</v>
       </c>
-      <c r="BC144" s="26"/>
-      <c r="BD144" s="26"/>
-      <c r="BE144" s="26"/>
-      <c r="BF144" s="26">
+      <c r="BC144" s="27"/>
+      <c r="BD144" s="27"/>
+      <c r="BE144" s="27"/>
+      <c r="BF144" s="27">
         <v>1995</v>
       </c>
-      <c r="BG144" s="26"/>
-      <c r="BH144" s="26"/>
-      <c r="BI144" s="26"/>
-      <c r="BJ144" s="26">
+      <c r="BG144" s="27"/>
+      <c r="BH144" s="27"/>
+      <c r="BI144" s="27"/>
+      <c r="BJ144" s="27">
         <v>1996</v>
       </c>
-      <c r="BK144" s="26"/>
-      <c r="BL144" s="26"/>
-      <c r="BM144" s="26"/>
-      <c r="BN144" s="26">
+      <c r="BK144" s="27"/>
+      <c r="BL144" s="27"/>
+      <c r="BM144" s="27"/>
+      <c r="BN144" s="27">
         <v>1997</v>
       </c>
-      <c r="BO144" s="26"/>
-      <c r="BP144" s="26"/>
-      <c r="BQ144" s="26"/>
-      <c r="BR144" s="26">
+      <c r="BO144" s="27"/>
+      <c r="BP144" s="27"/>
+      <c r="BQ144" s="27"/>
+      <c r="BR144" s="27">
         <v>1998</v>
       </c>
-      <c r="BS144" s="26"/>
-      <c r="BT144" s="26"/>
-      <c r="BU144" s="26"/>
-      <c r="BV144" s="26">
+      <c r="BS144" s="27"/>
+      <c r="BT144" s="27"/>
+      <c r="BU144" s="27"/>
+      <c r="BV144" s="27">
         <v>1999</v>
       </c>
-      <c r="BW144" s="26"/>
-      <c r="BX144" s="26"/>
-      <c r="BY144" s="26"/>
-      <c r="BZ144" s="26">
+      <c r="BW144" s="27"/>
+      <c r="BX144" s="27"/>
+      <c r="BY144" s="27"/>
+      <c r="BZ144" s="27">
         <v>2000</v>
       </c>
-      <c r="CA144" s="26"/>
-      <c r="CB144" s="26"/>
-      <c r="CC144" s="26"/>
-      <c r="CD144" s="26">
+      <c r="CA144" s="27"/>
+      <c r="CB144" s="27"/>
+      <c r="CC144" s="27"/>
+      <c r="CD144" s="27">
         <v>2001</v>
       </c>
-      <c r="CE144" s="26"/>
-      <c r="CF144" s="26"/>
-      <c r="CG144" s="26"/>
-      <c r="CH144" s="26">
+      <c r="CE144" s="27"/>
+      <c r="CF144" s="27"/>
+      <c r="CG144" s="27"/>
+      <c r="CH144" s="27">
         <v>2002</v>
       </c>
-      <c r="CI144" s="26"/>
-      <c r="CJ144" s="26"/>
-      <c r="CK144" s="26"/>
-      <c r="CL144" s="26">
+      <c r="CI144" s="27"/>
+      <c r="CJ144" s="27"/>
+      <c r="CK144" s="27"/>
+      <c r="CL144" s="27">
         <v>2003</v>
       </c>
-      <c r="CM144" s="26"/>
-      <c r="CN144" s="26"/>
-      <c r="CO144" s="26"/>
-      <c r="CP144" s="26">
+      <c r="CM144" s="27"/>
+      <c r="CN144" s="27"/>
+      <c r="CO144" s="27"/>
+      <c r="CP144" s="27">
         <v>2004</v>
       </c>
-      <c r="CQ144" s="26"/>
-      <c r="CR144" s="26"/>
-      <c r="CS144" s="26"/>
-      <c r="CT144" s="26">
+      <c r="CQ144" s="27"/>
+      <c r="CR144" s="27"/>
+      <c r="CS144" s="27"/>
+      <c r="CT144" s="27">
         <v>2005</v>
       </c>
-      <c r="CU144" s="26"/>
-      <c r="CV144" s="26"/>
-      <c r="CW144" s="26"/>
-      <c r="CX144" s="26">
+      <c r="CU144" s="27"/>
+      <c r="CV144" s="27"/>
+      <c r="CW144" s="27"/>
+      <c r="CX144" s="27">
         <v>2006</v>
       </c>
-      <c r="CY144" s="26"/>
-      <c r="CZ144" s="26"/>
-      <c r="DA144" s="26"/>
-      <c r="DB144" s="26">
+      <c r="CY144" s="27"/>
+      <c r="CZ144" s="27"/>
+      <c r="DA144" s="27"/>
+      <c r="DB144" s="27">
         <v>2007</v>
       </c>
-      <c r="DC144" s="26"/>
-      <c r="DD144" s="26"/>
-      <c r="DE144" s="26"/>
-      <c r="DF144" s="26">
+      <c r="DC144" s="27"/>
+      <c r="DD144" s="27"/>
+      <c r="DE144" s="27"/>
+      <c r="DF144" s="27">
         <v>2008</v>
       </c>
-      <c r="DG144" s="26"/>
-      <c r="DH144" s="26"/>
-      <c r="DI144" s="26"/>
-      <c r="DJ144" s="26">
+      <c r="DG144" s="27"/>
+      <c r="DH144" s="27"/>
+      <c r="DI144" s="27"/>
+      <c r="DJ144" s="27">
         <v>2009</v>
       </c>
-      <c r="DK144" s="26"/>
-      <c r="DL144" s="26"/>
-      <c r="DM144" s="26"/>
-      <c r="DN144" s="26">
+      <c r="DK144" s="27"/>
+      <c r="DL144" s="27"/>
+      <c r="DM144" s="27"/>
+      <c r="DN144" s="27">
         <v>2010</v>
       </c>
-      <c r="DO144" s="26"/>
-      <c r="DP144" s="26"/>
-      <c r="DQ144" s="26"/>
-      <c r="DR144" s="26">
+      <c r="DO144" s="27"/>
+      <c r="DP144" s="27"/>
+      <c r="DQ144" s="27"/>
+      <c r="DR144" s="27">
         <v>2011</v>
       </c>
-      <c r="DS144" s="26"/>
-      <c r="DT144" s="26"/>
-      <c r="DU144" s="26"/>
-      <c r="DV144" s="26">
+      <c r="DS144" s="27"/>
+      <c r="DT144" s="27"/>
+      <c r="DU144" s="27"/>
+      <c r="DV144" s="27">
         <v>2012</v>
       </c>
-      <c r="DW144" s="26"/>
-      <c r="DX144" s="26"/>
-      <c r="DY144" s="26"/>
-      <c r="DZ144" s="26">
+      <c r="DW144" s="27"/>
+      <c r="DX144" s="27"/>
+      <c r="DY144" s="27"/>
+      <c r="DZ144" s="27">
         <v>2013</v>
       </c>
-      <c r="EA144" s="26"/>
-      <c r="EB144" s="26"/>
-      <c r="EC144" s="26"/>
-      <c r="ED144" s="26">
+      <c r="EA144" s="27"/>
+      <c r="EB144" s="27"/>
+      <c r="EC144" s="27"/>
+      <c r="ED144" s="27">
         <v>2014</v>
       </c>
-      <c r="EE144" s="26"/>
-      <c r="EF144" s="26"/>
-      <c r="EG144" s="26"/>
-      <c r="EH144" s="26">
+      <c r="EE144" s="27"/>
+      <c r="EF144" s="27"/>
+      <c r="EG144" s="27"/>
+      <c r="EH144" s="27">
         <v>2015</v>
       </c>
-      <c r="EI144" s="26"/>
-      <c r="EJ144" s="26"/>
-      <c r="EK144" s="26"/>
-      <c r="EL144" s="26">
+      <c r="EI144" s="27"/>
+      <c r="EJ144" s="27"/>
+      <c r="EK144" s="27"/>
+      <c r="EL144" s="27">
         <v>2016</v>
       </c>
-      <c r="EM144" s="26"/>
-      <c r="EN144" s="26"/>
-      <c r="EO144" s="26"/>
-      <c r="EP144" s="26">
+      <c r="EM144" s="27"/>
+      <c r="EN144" s="27"/>
+      <c r="EO144" s="27"/>
+      <c r="EP144" s="27">
         <v>2017</v>
       </c>
-      <c r="EQ144" s="26"/>
-      <c r="ER144" s="26"/>
-      <c r="ES144" s="26"/>
-      <c r="ET144" s="26">
+      <c r="EQ144" s="27"/>
+      <c r="ER144" s="27"/>
+      <c r="ES144" s="27"/>
+      <c r="ET144" s="27">
         <v>2018</v>
       </c>
-      <c r="EU144" s="26"/>
-      <c r="EV144" s="26"/>
-      <c r="EW144" s="26"/>
-      <c r="EX144" s="26">
+      <c r="EU144" s="27"/>
+      <c r="EV144" s="27"/>
+      <c r="EW144" s="27"/>
+      <c r="EX144" s="27">
         <v>2019</v>
       </c>
-      <c r="EY144" s="26"/>
-      <c r="EZ144" s="26"/>
-      <c r="FA144" s="26"/>
-      <c r="FB144" s="26">
+      <c r="EY144" s="27"/>
+      <c r="EZ144" s="27"/>
+      <c r="FA144" s="27"/>
+      <c r="FB144" s="27">
         <v>2020</v>
       </c>
-      <c r="FC144" s="26"/>
-      <c r="FD144" s="26"/>
+      <c r="FC144" s="27"/>
+      <c r="FD144" s="27"/>
       <c r="FE144" s="4"/>
-      <c r="FF144" s="26">
+      <c r="FF144" s="27">
         <v>2021</v>
       </c>
-      <c r="FG144" s="26"/>
-      <c r="FH144" s="26"/>
-      <c r="FI144" s="26"/>
-      <c r="FJ144" s="26">
+      <c r="FG144" s="27"/>
+      <c r="FH144" s="27"/>
+      <c r="FI144" s="27"/>
+      <c r="FJ144" s="27">
         <v>2022</v>
       </c>
-      <c r="FK144" s="26"/>
-      <c r="FL144" s="26"/>
-      <c r="FM144" s="26"/>
+      <c r="FK144" s="27"/>
+      <c r="FL144" s="27"/>
+      <c r="FM144" s="27"/>
+      <c r="FN144" s="26">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="145" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>14</v>
       </c>
@@ -27363,11 +27514,14 @@
       <c r="FM145" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="FN145" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="146" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:170" x14ac:dyDescent="0.3">
       <c r="FB146" s="2"/>
     </row>
-    <row r="147" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>1</v>
       </c>
@@ -27875,8 +28029,11 @@
       <c r="FM147" s="21">
         <v>75.263923939007739</v>
       </c>
+      <c r="FN147" s="21">
+        <v>75.235378825372393</v>
+      </c>
     </row>
-    <row r="148" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>2</v>
       </c>
@@ -28384,8 +28541,11 @@
       <c r="FM148" s="21">
         <v>12.675543157235378</v>
       </c>
+      <c r="FN148" s="21">
+        <v>14.576167722943753</v>
+      </c>
     </row>
-    <row r="149" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>3</v>
       </c>
@@ -28893,8 +29053,11 @@
       <c r="FM149" s="21">
         <v>21.282386080916101</v>
       </c>
+      <c r="FN149" s="21">
+        <v>22.925532559160235</v>
+      </c>
     </row>
-    <row r="150" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>4</v>
       </c>
@@ -29402,8 +29565,11 @@
       <c r="FM150" s="21">
         <v>25.733033190757926</v>
       </c>
+      <c r="FN150" s="21">
+        <v>27.855694431726203</v>
+      </c>
     </row>
-    <row r="151" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>5</v>
       </c>
@@ -29911,8 +30077,11 @@
       <c r="FM151" s="21">
         <v>34.741232763221127</v>
       </c>
+      <c r="FN151" s="21">
+        <v>40.372556276632167</v>
+      </c>
     </row>
-    <row r="152" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:170" x14ac:dyDescent="0.3">
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
       <c r="D152" s="13"/>
@@ -30081,8 +30250,9 @@
       <c r="FK152" s="21"/>
       <c r="FL152" s="21"/>
       <c r="FM152" s="21"/>
+      <c r="FN152" s="21"/>
     </row>
-    <row r="153" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:170" x14ac:dyDescent="0.3">
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
       <c r="D153" s="13"/>
@@ -30251,8 +30421,9 @@
       <c r="FK153" s="21"/>
       <c r="FL153" s="21"/>
       <c r="FM153" s="21"/>
+      <c r="FN153" s="21"/>
     </row>
-    <row r="154" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A154" s="8" t="s">
         <v>10</v>
       </c>
@@ -30760,8 +30931,11 @@
       <c r="FM154" s="21">
         <v>100</v>
       </c>
+      <c r="FN154" s="21">
+        <v>100</v>
+      </c>
     </row>
-    <row r="155" spans="1:169" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:170" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
       <c r="D155" s="13"/>
@@ -30919,7 +31093,7 @@
       <c r="EZ155" s="13"/>
       <c r="FA155" s="13"/>
     </row>
-    <row r="156" spans="1:169" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:170" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
       <c r="D156" s="13"/>
@@ -31077,7 +31251,7 @@
       <c r="EZ156" s="13"/>
       <c r="FA156" s="13"/>
     </row>
-    <row r="157" spans="1:169" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:170" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
       <c r="D157" s="13"/>
@@ -31235,7 +31409,7 @@
       <c r="EZ157" s="13"/>
       <c r="FA157" s="13"/>
     </row>
-    <row r="158" spans="1:169" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:170" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
       <c r="D158" s="13"/>
@@ -31393,7 +31567,7 @@
       <c r="EZ158" s="13"/>
       <c r="FA158" s="13"/>
     </row>
-    <row r="159" spans="1:169" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:170" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
@@ -31563,31 +31737,32 @@
       <c r="FK159" s="9"/>
       <c r="FL159" s="9"/>
       <c r="FM159" s="9"/>
+      <c r="FN159" s="9"/>
     </row>
-    <row r="160" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="166" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
     </row>
-    <row r="167" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>47</v>
       </c>
@@ -31595,7 +31770,7 @@
       <c r="FD167" s="3"/>
       <c r="FE167" s="3"/>
     </row>
-    <row r="168" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A168" s="11" t="s">
         <v>81</v>
       </c>
@@ -31603,7 +31778,7 @@
       <c r="FD168" s="3"/>
       <c r="FE168" s="3"/>
     </row>
-    <row r="169" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>11</v>
       </c>
@@ -31611,268 +31786,271 @@
       <c r="FD169" s="3"/>
       <c r="FE169" s="3"/>
     </row>
-    <row r="170" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="FC170" s="3"/>
       <c r="FD170" s="3"/>
       <c r="FE170" s="3"/>
     </row>
-    <row r="171" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A171" s="4"/>
-      <c r="B171" s="26">
+      <c r="B171" s="27">
         <v>1981</v>
       </c>
-      <c r="C171" s="26"/>
-      <c r="D171" s="26"/>
-      <c r="E171" s="26"/>
-      <c r="F171" s="26">
+      <c r="C171" s="27"/>
+      <c r="D171" s="27"/>
+      <c r="E171" s="27"/>
+      <c r="F171" s="27">
         <v>1982</v>
       </c>
-      <c r="G171" s="26"/>
-      <c r="H171" s="26"/>
-      <c r="I171" s="26"/>
-      <c r="J171" s="26">
+      <c r="G171" s="27"/>
+      <c r="H171" s="27"/>
+      <c r="I171" s="27"/>
+      <c r="J171" s="27">
         <v>1983</v>
       </c>
-      <c r="K171" s="26"/>
-      <c r="L171" s="26"/>
-      <c r="M171" s="26"/>
-      <c r="N171" s="26">
+      <c r="K171" s="27"/>
+      <c r="L171" s="27"/>
+      <c r="M171" s="27"/>
+      <c r="N171" s="27">
         <v>1984</v>
       </c>
-      <c r="O171" s="26"/>
-      <c r="P171" s="26"/>
-      <c r="Q171" s="26"/>
-      <c r="R171" s="26">
+      <c r="O171" s="27"/>
+      <c r="P171" s="27"/>
+      <c r="Q171" s="27"/>
+      <c r="R171" s="27">
         <v>1985</v>
       </c>
-      <c r="S171" s="26"/>
-      <c r="T171" s="26"/>
-      <c r="U171" s="26"/>
-      <c r="V171" s="26">
+      <c r="S171" s="27"/>
+      <c r="T171" s="27"/>
+      <c r="U171" s="27"/>
+      <c r="V171" s="27">
         <v>1986</v>
       </c>
-      <c r="W171" s="26"/>
-      <c r="X171" s="26"/>
-      <c r="Y171" s="26"/>
-      <c r="Z171" s="26">
+      <c r="W171" s="27"/>
+      <c r="X171" s="27"/>
+      <c r="Y171" s="27"/>
+      <c r="Z171" s="27">
         <v>1987</v>
       </c>
-      <c r="AA171" s="26"/>
-      <c r="AB171" s="26"/>
-      <c r="AC171" s="26"/>
-      <c r="AD171" s="26">
+      <c r="AA171" s="27"/>
+      <c r="AB171" s="27"/>
+      <c r="AC171" s="27"/>
+      <c r="AD171" s="27">
         <v>1988</v>
       </c>
-      <c r="AE171" s="26"/>
-      <c r="AF171" s="26"/>
-      <c r="AG171" s="26"/>
-      <c r="AH171" s="26">
+      <c r="AE171" s="27"/>
+      <c r="AF171" s="27"/>
+      <c r="AG171" s="27"/>
+      <c r="AH171" s="27">
         <v>1989</v>
       </c>
-      <c r="AI171" s="26"/>
-      <c r="AJ171" s="26"/>
-      <c r="AK171" s="26"/>
-      <c r="AL171" s="26">
+      <c r="AI171" s="27"/>
+      <c r="AJ171" s="27"/>
+      <c r="AK171" s="27"/>
+      <c r="AL171" s="27">
         <v>1990</v>
       </c>
-      <c r="AM171" s="26"/>
-      <c r="AN171" s="26"/>
-      <c r="AO171" s="26"/>
-      <c r="AP171" s="26">
+      <c r="AM171" s="27"/>
+      <c r="AN171" s="27"/>
+      <c r="AO171" s="27"/>
+      <c r="AP171" s="27">
         <v>1991</v>
       </c>
-      <c r="AQ171" s="26"/>
-      <c r="AR171" s="26"/>
-      <c r="AS171" s="26"/>
-      <c r="AT171" s="26">
+      <c r="AQ171" s="27"/>
+      <c r="AR171" s="27"/>
+      <c r="AS171" s="27"/>
+      <c r="AT171" s="27">
         <v>1992</v>
       </c>
-      <c r="AU171" s="26"/>
-      <c r="AV171" s="26"/>
-      <c r="AW171" s="26"/>
-      <c r="AX171" s="26">
+      <c r="AU171" s="27"/>
+      <c r="AV171" s="27"/>
+      <c r="AW171" s="27"/>
+      <c r="AX171" s="27">
         <v>1993</v>
       </c>
-      <c r="AY171" s="26"/>
-      <c r="AZ171" s="26"/>
-      <c r="BA171" s="26"/>
-      <c r="BB171" s="26">
+      <c r="AY171" s="27"/>
+      <c r="AZ171" s="27"/>
+      <c r="BA171" s="27"/>
+      <c r="BB171" s="27">
         <v>1994</v>
       </c>
-      <c r="BC171" s="26"/>
-      <c r="BD171" s="26"/>
-      <c r="BE171" s="26"/>
-      <c r="BF171" s="26">
+      <c r="BC171" s="27"/>
+      <c r="BD171" s="27"/>
+      <c r="BE171" s="27"/>
+      <c r="BF171" s="27">
         <v>1995</v>
       </c>
-      <c r="BG171" s="26"/>
-      <c r="BH171" s="26"/>
-      <c r="BI171" s="26"/>
-      <c r="BJ171" s="26">
+      <c r="BG171" s="27"/>
+      <c r="BH171" s="27"/>
+      <c r="BI171" s="27"/>
+      <c r="BJ171" s="27">
         <v>1996</v>
       </c>
-      <c r="BK171" s="26"/>
-      <c r="BL171" s="26"/>
-      <c r="BM171" s="26"/>
-      <c r="BN171" s="26">
+      <c r="BK171" s="27"/>
+      <c r="BL171" s="27"/>
+      <c r="BM171" s="27"/>
+      <c r="BN171" s="27">
         <v>1997</v>
       </c>
-      <c r="BO171" s="26"/>
-      <c r="BP171" s="26"/>
-      <c r="BQ171" s="26"/>
-      <c r="BR171" s="26">
+      <c r="BO171" s="27"/>
+      <c r="BP171" s="27"/>
+      <c r="BQ171" s="27"/>
+      <c r="BR171" s="27">
         <v>1998</v>
       </c>
-      <c r="BS171" s="26"/>
-      <c r="BT171" s="26"/>
-      <c r="BU171" s="26"/>
-      <c r="BV171" s="26">
+      <c r="BS171" s="27"/>
+      <c r="BT171" s="27"/>
+      <c r="BU171" s="27"/>
+      <c r="BV171" s="27">
         <v>1999</v>
       </c>
-      <c r="BW171" s="26"/>
-      <c r="BX171" s="26"/>
-      <c r="BY171" s="26"/>
-      <c r="BZ171" s="26">
+      <c r="BW171" s="27"/>
+      <c r="BX171" s="27"/>
+      <c r="BY171" s="27"/>
+      <c r="BZ171" s="27">
         <v>2000</v>
       </c>
-      <c r="CA171" s="26"/>
-      <c r="CB171" s="26"/>
-      <c r="CC171" s="26"/>
-      <c r="CD171" s="26">
+      <c r="CA171" s="27"/>
+      <c r="CB171" s="27"/>
+      <c r="CC171" s="27"/>
+      <c r="CD171" s="27">
         <v>2001</v>
       </c>
-      <c r="CE171" s="26"/>
-      <c r="CF171" s="26"/>
-      <c r="CG171" s="26"/>
-      <c r="CH171" s="26">
+      <c r="CE171" s="27"/>
+      <c r="CF171" s="27"/>
+      <c r="CG171" s="27"/>
+      <c r="CH171" s="27">
         <v>2002</v>
       </c>
-      <c r="CI171" s="26"/>
-      <c r="CJ171" s="26"/>
-      <c r="CK171" s="26"/>
-      <c r="CL171" s="26">
+      <c r="CI171" s="27"/>
+      <c r="CJ171" s="27"/>
+      <c r="CK171" s="27"/>
+      <c r="CL171" s="27">
         <v>2003</v>
       </c>
-      <c r="CM171" s="26"/>
-      <c r="CN171" s="26"/>
-      <c r="CO171" s="26"/>
-      <c r="CP171" s="26">
+      <c r="CM171" s="27"/>
+      <c r="CN171" s="27"/>
+      <c r="CO171" s="27"/>
+      <c r="CP171" s="27">
         <v>2004</v>
       </c>
-      <c r="CQ171" s="26"/>
-      <c r="CR171" s="26"/>
-      <c r="CS171" s="26"/>
-      <c r="CT171" s="26">
+      <c r="CQ171" s="27"/>
+      <c r="CR171" s="27"/>
+      <c r="CS171" s="27"/>
+      <c r="CT171" s="27">
         <v>2005</v>
       </c>
-      <c r="CU171" s="26"/>
-      <c r="CV171" s="26"/>
-      <c r="CW171" s="26"/>
-      <c r="CX171" s="26">
+      <c r="CU171" s="27"/>
+      <c r="CV171" s="27"/>
+      <c r="CW171" s="27"/>
+      <c r="CX171" s="27">
         <v>2006</v>
       </c>
-      <c r="CY171" s="26"/>
-      <c r="CZ171" s="26"/>
-      <c r="DA171" s="26"/>
-      <c r="DB171" s="26">
+      <c r="CY171" s="27"/>
+      <c r="CZ171" s="27"/>
+      <c r="DA171" s="27"/>
+      <c r="DB171" s="27">
         <v>2007</v>
       </c>
-      <c r="DC171" s="26"/>
-      <c r="DD171" s="26"/>
-      <c r="DE171" s="26"/>
-      <c r="DF171" s="26">
+      <c r="DC171" s="27"/>
+      <c r="DD171" s="27"/>
+      <c r="DE171" s="27"/>
+      <c r="DF171" s="27">
         <v>2008</v>
       </c>
-      <c r="DG171" s="26"/>
-      <c r="DH171" s="26"/>
-      <c r="DI171" s="26"/>
-      <c r="DJ171" s="26">
+      <c r="DG171" s="27"/>
+      <c r="DH171" s="27"/>
+      <c r="DI171" s="27"/>
+      <c r="DJ171" s="27">
         <v>2009</v>
       </c>
-      <c r="DK171" s="26"/>
-      <c r="DL171" s="26"/>
-      <c r="DM171" s="26"/>
-      <c r="DN171" s="26">
+      <c r="DK171" s="27"/>
+      <c r="DL171" s="27"/>
+      <c r="DM171" s="27"/>
+      <c r="DN171" s="27">
         <v>2010</v>
       </c>
-      <c r="DO171" s="26"/>
-      <c r="DP171" s="26"/>
-      <c r="DQ171" s="26"/>
-      <c r="DR171" s="26">
+      <c r="DO171" s="27"/>
+      <c r="DP171" s="27"/>
+      <c r="DQ171" s="27"/>
+      <c r="DR171" s="27">
         <v>2011</v>
       </c>
-      <c r="DS171" s="26"/>
-      <c r="DT171" s="26"/>
-      <c r="DU171" s="26"/>
-      <c r="DV171" s="26">
+      <c r="DS171" s="27"/>
+      <c r="DT171" s="27"/>
+      <c r="DU171" s="27"/>
+      <c r="DV171" s="27">
         <v>2012</v>
       </c>
-      <c r="DW171" s="26"/>
-      <c r="DX171" s="26"/>
-      <c r="DY171" s="26"/>
-      <c r="DZ171" s="26">
+      <c r="DW171" s="27"/>
+      <c r="DX171" s="27"/>
+      <c r="DY171" s="27"/>
+      <c r="DZ171" s="27">
         <v>2013</v>
       </c>
-      <c r="EA171" s="26"/>
-      <c r="EB171" s="26"/>
-      <c r="EC171" s="26"/>
-      <c r="ED171" s="26">
+      <c r="EA171" s="27"/>
+      <c r="EB171" s="27"/>
+      <c r="EC171" s="27"/>
+      <c r="ED171" s="27">
         <v>2014</v>
       </c>
-      <c r="EE171" s="26"/>
-      <c r="EF171" s="26"/>
-      <c r="EG171" s="26"/>
-      <c r="EH171" s="26">
+      <c r="EE171" s="27"/>
+      <c r="EF171" s="27"/>
+      <c r="EG171" s="27"/>
+      <c r="EH171" s="27">
         <v>2015</v>
       </c>
-      <c r="EI171" s="26"/>
-      <c r="EJ171" s="26"/>
-      <c r="EK171" s="26"/>
-      <c r="EL171" s="26">
+      <c r="EI171" s="27"/>
+      <c r="EJ171" s="27"/>
+      <c r="EK171" s="27"/>
+      <c r="EL171" s="27">
         <v>2016</v>
       </c>
-      <c r="EM171" s="26"/>
-      <c r="EN171" s="26"/>
-      <c r="EO171" s="26"/>
-      <c r="EP171" s="26">
+      <c r="EM171" s="27"/>
+      <c r="EN171" s="27"/>
+      <c r="EO171" s="27"/>
+      <c r="EP171" s="27">
         <v>2017</v>
       </c>
-      <c r="EQ171" s="26"/>
-      <c r="ER171" s="26"/>
-      <c r="ES171" s="26"/>
-      <c r="ET171" s="26">
+      <c r="EQ171" s="27"/>
+      <c r="ER171" s="27"/>
+      <c r="ES171" s="27"/>
+      <c r="ET171" s="27">
         <v>2018</v>
       </c>
-      <c r="EU171" s="26"/>
-      <c r="EV171" s="26"/>
-      <c r="EW171" s="26"/>
-      <c r="EX171" s="26">
+      <c r="EU171" s="27"/>
+      <c r="EV171" s="27"/>
+      <c r="EW171" s="27"/>
+      <c r="EX171" s="27">
         <v>2019</v>
       </c>
-      <c r="EY171" s="26"/>
-      <c r="EZ171" s="26"/>
-      <c r="FA171" s="26"/>
-      <c r="FB171" s="26">
+      <c r="EY171" s="27"/>
+      <c r="EZ171" s="27"/>
+      <c r="FA171" s="27"/>
+      <c r="FB171" s="27">
         <v>2020</v>
       </c>
-      <c r="FC171" s="26"/>
-      <c r="FD171" s="26"/>
+      <c r="FC171" s="27"/>
+      <c r="FD171" s="27"/>
       <c r="FE171" s="4"/>
-      <c r="FF171" s="26">
+      <c r="FF171" s="27">
         <v>2021</v>
       </c>
-      <c r="FG171" s="26"/>
-      <c r="FH171" s="26"/>
-      <c r="FI171" s="26"/>
-      <c r="FJ171" s="26">
+      <c r="FG171" s="27"/>
+      <c r="FH171" s="27"/>
+      <c r="FI171" s="27"/>
+      <c r="FJ171" s="27">
         <v>2022</v>
       </c>
-      <c r="FK171" s="26"/>
-      <c r="FL171" s="26"/>
-      <c r="FM171" s="26"/>
+      <c r="FK171" s="27"/>
+      <c r="FL171" s="27"/>
+      <c r="FM171" s="27"/>
+      <c r="FN171" s="26">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="172" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>13</v>
       </c>
@@ -32380,11 +32558,14 @@
       <c r="FM172" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="FN172" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="173" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:170" x14ac:dyDescent="0.3">
       <c r="FB173" s="2"/>
     </row>
-    <row r="174" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="15" t="s">
         <v>74</v>
       </c>
@@ -32892,8 +33073,11 @@
       <c r="FM174" s="23">
         <v>638114.16743970243</v>
       </c>
+      <c r="FN174" s="23">
+        <v>566842.30459694762</v>
+      </c>
     </row>
-    <row r="175" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="15" t="s">
         <v>75</v>
       </c>
@@ -33401,8 +33585,11 @@
       <c r="FM175" s="23">
         <v>1964906.4997604352</v>
       </c>
+      <c r="FN175" s="23">
+        <v>1640647.0019936732</v>
+      </c>
     </row>
-    <row r="176" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="15" t="s">
         <v>76</v>
       </c>
@@ -33910,8 +34097,11 @@
       <c r="FM176" s="23">
         <v>3848545.7575214705</v>
       </c>
+      <c r="FN176" s="23">
+        <v>3393999.9302650844</v>
+      </c>
     </row>
-    <row r="177" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A177" s="16"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -34081,8 +34271,9 @@
       <c r="FK177" s="7"/>
       <c r="FL177" s="7"/>
       <c r="FM177" s="7"/>
+      <c r="FN177" s="7"/>
     </row>
-    <row r="178" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>10</v>
       </c>
@@ -34590,8 +34781,11 @@
       <c r="FM178" s="7">
         <v>6451566.4247216079</v>
       </c>
+      <c r="FN178" s="7">
+        <v>5601489.2368557053</v>
+      </c>
     </row>
-    <row r="179" spans="1:169" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:170" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
@@ -34755,7 +34949,7 @@
         <v>-24370.119758612476</v>
       </c>
     </row>
-    <row r="180" spans="1:169" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:170" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
@@ -34915,7 +35109,7 @@
       <c r="FB180" s="7"/>
       <c r="FC180" s="7"/>
     </row>
-    <row r="181" spans="1:169" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:170" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
@@ -35079,7 +35273,7 @@
         <v>4857262.3839106075</v>
       </c>
     </row>
-    <row r="182" spans="1:169" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:170" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
@@ -35237,7 +35431,7 @@
       <c r="EZ182" s="7"/>
       <c r="FA182" s="7"/>
     </row>
-    <row r="183" spans="1:169" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:170" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="9"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
@@ -35407,32 +35601,33 @@
       <c r="FK183" s="9"/>
       <c r="FL183" s="9"/>
       <c r="FM183" s="9"/>
+      <c r="FN183" s="9"/>
     </row>
-    <row r="184" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:170" x14ac:dyDescent="0.3">
       <c r="E185" s="10"/>
       <c r="I185" s="10"/>
     </row>
-    <row r="186" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:170" x14ac:dyDescent="0.3">
       <c r="FB186" s="2"/>
     </row>
-    <row r="187" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -35591,7 +35786,7 @@
       <c r="EZ189" s="2"/>
       <c r="FA189" s="2"/>
     </row>
-    <row r="190" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -35750,7 +35945,7 @@
       <c r="EZ190" s="2"/>
       <c r="FA190" s="2"/>
     </row>
-    <row r="191" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>48</v>
       </c>
@@ -35911,7 +36106,7 @@
       <c r="EZ191" s="2"/>
       <c r="FA191" s="2"/>
     </row>
-    <row r="192" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="11" t="s">
         <v>81</v>
       </c>
@@ -36072,7 +36267,7 @@
       <c r="EZ192" s="2"/>
       <c r="FA192" s="2"/>
     </row>
-    <row r="193" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>12</v>
       </c>
@@ -36233,7 +36428,7 @@
       <c r="EZ193" s="2"/>
       <c r="FA193" s="2"/>
     </row>
-    <row r="194" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -36392,262 +36587,265 @@
       <c r="EZ194" s="2"/>
       <c r="FA194" s="2"/>
     </row>
-    <row r="195" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="4"/>
-      <c r="B195" s="26">
+      <c r="B195" s="27">
         <v>1981</v>
       </c>
-      <c r="C195" s="26"/>
-      <c r="D195" s="26"/>
-      <c r="E195" s="26"/>
-      <c r="F195" s="26">
+      <c r="C195" s="27"/>
+      <c r="D195" s="27"/>
+      <c r="E195" s="27"/>
+      <c r="F195" s="27">
         <v>1982</v>
       </c>
-      <c r="G195" s="26"/>
-      <c r="H195" s="26"/>
-      <c r="I195" s="26"/>
-      <c r="J195" s="26">
+      <c r="G195" s="27"/>
+      <c r="H195" s="27"/>
+      <c r="I195" s="27"/>
+      <c r="J195" s="27">
         <v>1983</v>
       </c>
-      <c r="K195" s="26"/>
-      <c r="L195" s="26"/>
-      <c r="M195" s="26"/>
-      <c r="N195" s="26">
+      <c r="K195" s="27"/>
+      <c r="L195" s="27"/>
+      <c r="M195" s="27"/>
+      <c r="N195" s="27">
         <v>1984</v>
       </c>
-      <c r="O195" s="26"/>
-      <c r="P195" s="26"/>
-      <c r="Q195" s="26"/>
-      <c r="R195" s="26">
+      <c r="O195" s="27"/>
+      <c r="P195" s="27"/>
+      <c r="Q195" s="27"/>
+      <c r="R195" s="27">
         <v>1985</v>
       </c>
-      <c r="S195" s="26"/>
-      <c r="T195" s="26"/>
-      <c r="U195" s="26"/>
-      <c r="V195" s="26">
+      <c r="S195" s="27"/>
+      <c r="T195" s="27"/>
+      <c r="U195" s="27"/>
+      <c r="V195" s="27">
         <v>1986</v>
       </c>
-      <c r="W195" s="26"/>
-      <c r="X195" s="26"/>
-      <c r="Y195" s="26"/>
-      <c r="Z195" s="26">
+      <c r="W195" s="27"/>
+      <c r="X195" s="27"/>
+      <c r="Y195" s="27"/>
+      <c r="Z195" s="27">
         <v>1987</v>
       </c>
-      <c r="AA195" s="26"/>
-      <c r="AB195" s="26"/>
-      <c r="AC195" s="26"/>
-      <c r="AD195" s="26">
+      <c r="AA195" s="27"/>
+      <c r="AB195" s="27"/>
+      <c r="AC195" s="27"/>
+      <c r="AD195" s="27">
         <v>1988</v>
       </c>
-      <c r="AE195" s="26"/>
-      <c r="AF195" s="26"/>
-      <c r="AG195" s="26"/>
-      <c r="AH195" s="26">
+      <c r="AE195" s="27"/>
+      <c r="AF195" s="27"/>
+      <c r="AG195" s="27"/>
+      <c r="AH195" s="27">
         <v>1989</v>
       </c>
-      <c r="AI195" s="26"/>
-      <c r="AJ195" s="26"/>
-      <c r="AK195" s="26"/>
-      <c r="AL195" s="26">
+      <c r="AI195" s="27"/>
+      <c r="AJ195" s="27"/>
+      <c r="AK195" s="27"/>
+      <c r="AL195" s="27">
         <v>1990</v>
       </c>
-      <c r="AM195" s="26"/>
-      <c r="AN195" s="26"/>
-      <c r="AO195" s="26"/>
-      <c r="AP195" s="26">
+      <c r="AM195" s="27"/>
+      <c r="AN195" s="27"/>
+      <c r="AO195" s="27"/>
+      <c r="AP195" s="27">
         <v>1991</v>
       </c>
-      <c r="AQ195" s="26"/>
-      <c r="AR195" s="26"/>
-      <c r="AS195" s="26"/>
-      <c r="AT195" s="26">
+      <c r="AQ195" s="27"/>
+      <c r="AR195" s="27"/>
+      <c r="AS195" s="27"/>
+      <c r="AT195" s="27">
         <v>1992</v>
       </c>
-      <c r="AU195" s="26"/>
-      <c r="AV195" s="26"/>
-      <c r="AW195" s="26"/>
-      <c r="AX195" s="26">
+      <c r="AU195" s="27"/>
+      <c r="AV195" s="27"/>
+      <c r="AW195" s="27"/>
+      <c r="AX195" s="27">
         <v>1993</v>
       </c>
-      <c r="AY195" s="26"/>
-      <c r="AZ195" s="26"/>
-      <c r="BA195" s="26"/>
-      <c r="BB195" s="26">
+      <c r="AY195" s="27"/>
+      <c r="AZ195" s="27"/>
+      <c r="BA195" s="27"/>
+      <c r="BB195" s="27">
         <v>1994</v>
       </c>
-      <c r="BC195" s="26"/>
-      <c r="BD195" s="26"/>
-      <c r="BE195" s="26"/>
-      <c r="BF195" s="26">
+      <c r="BC195" s="27"/>
+      <c r="BD195" s="27"/>
+      <c r="BE195" s="27"/>
+      <c r="BF195" s="27">
         <v>1995</v>
       </c>
-      <c r="BG195" s="26"/>
-      <c r="BH195" s="26"/>
-      <c r="BI195" s="26"/>
-      <c r="BJ195" s="26">
+      <c r="BG195" s="27"/>
+      <c r="BH195" s="27"/>
+      <c r="BI195" s="27"/>
+      <c r="BJ195" s="27">
         <v>1996</v>
       </c>
-      <c r="BK195" s="26"/>
-      <c r="BL195" s="26"/>
-      <c r="BM195" s="26"/>
-      <c r="BN195" s="26">
+      <c r="BK195" s="27"/>
+      <c r="BL195" s="27"/>
+      <c r="BM195" s="27"/>
+      <c r="BN195" s="27">
         <v>1997</v>
       </c>
-      <c r="BO195" s="26"/>
-      <c r="BP195" s="26"/>
-      <c r="BQ195" s="26"/>
-      <c r="BR195" s="26">
+      <c r="BO195" s="27"/>
+      <c r="BP195" s="27"/>
+      <c r="BQ195" s="27"/>
+      <c r="BR195" s="27">
         <v>1998</v>
       </c>
-      <c r="BS195" s="26"/>
-      <c r="BT195" s="26"/>
-      <c r="BU195" s="26"/>
-      <c r="BV195" s="26">
+      <c r="BS195" s="27"/>
+      <c r="BT195" s="27"/>
+      <c r="BU195" s="27"/>
+      <c r="BV195" s="27">
         <v>1999</v>
       </c>
-      <c r="BW195" s="26"/>
-      <c r="BX195" s="26"/>
-      <c r="BY195" s="26"/>
-      <c r="BZ195" s="26">
+      <c r="BW195" s="27"/>
+      <c r="BX195" s="27"/>
+      <c r="BY195" s="27"/>
+      <c r="BZ195" s="27">
         <v>2000</v>
       </c>
-      <c r="CA195" s="26"/>
-      <c r="CB195" s="26"/>
-      <c r="CC195" s="26"/>
-      <c r="CD195" s="26">
+      <c r="CA195" s="27"/>
+      <c r="CB195" s="27"/>
+      <c r="CC195" s="27"/>
+      <c r="CD195" s="27">
         <v>2001</v>
       </c>
-      <c r="CE195" s="26"/>
-      <c r="CF195" s="26"/>
-      <c r="CG195" s="26"/>
-      <c r="CH195" s="26">
+      <c r="CE195" s="27"/>
+      <c r="CF195" s="27"/>
+      <c r="CG195" s="27"/>
+      <c r="CH195" s="27">
         <v>2002</v>
       </c>
-      <c r="CI195" s="26"/>
-      <c r="CJ195" s="26"/>
-      <c r="CK195" s="26"/>
-      <c r="CL195" s="26">
+      <c r="CI195" s="27"/>
+      <c r="CJ195" s="27"/>
+      <c r="CK195" s="27"/>
+      <c r="CL195" s="27">
         <v>2003</v>
       </c>
-      <c r="CM195" s="26"/>
-      <c r="CN195" s="26"/>
-      <c r="CO195" s="26"/>
-      <c r="CP195" s="26">
+      <c r="CM195" s="27"/>
+      <c r="CN195" s="27"/>
+      <c r="CO195" s="27"/>
+      <c r="CP195" s="27">
         <v>2004</v>
       </c>
-      <c r="CQ195" s="26"/>
-      <c r="CR195" s="26"/>
-      <c r="CS195" s="26"/>
-      <c r="CT195" s="26">
+      <c r="CQ195" s="27"/>
+      <c r="CR195" s="27"/>
+      <c r="CS195" s="27"/>
+      <c r="CT195" s="27">
         <v>2005</v>
       </c>
-      <c r="CU195" s="26"/>
-      <c r="CV195" s="26"/>
-      <c r="CW195" s="26"/>
-      <c r="CX195" s="26">
+      <c r="CU195" s="27"/>
+      <c r="CV195" s="27"/>
+      <c r="CW195" s="27"/>
+      <c r="CX195" s="27">
         <v>2006</v>
       </c>
-      <c r="CY195" s="26"/>
-      <c r="CZ195" s="26"/>
-      <c r="DA195" s="26"/>
-      <c r="DB195" s="26">
+      <c r="CY195" s="27"/>
+      <c r="CZ195" s="27"/>
+      <c r="DA195" s="27"/>
+      <c r="DB195" s="27">
         <v>2007</v>
       </c>
-      <c r="DC195" s="26"/>
-      <c r="DD195" s="26"/>
-      <c r="DE195" s="26"/>
-      <c r="DF195" s="26">
+      <c r="DC195" s="27"/>
+      <c r="DD195" s="27"/>
+      <c r="DE195" s="27"/>
+      <c r="DF195" s="27">
         <v>2008</v>
       </c>
-      <c r="DG195" s="26"/>
-      <c r="DH195" s="26"/>
-      <c r="DI195" s="26"/>
-      <c r="DJ195" s="26">
+      <c r="DG195" s="27"/>
+      <c r="DH195" s="27"/>
+      <c r="DI195" s="27"/>
+      <c r="DJ195" s="27">
         <v>2009</v>
       </c>
-      <c r="DK195" s="26"/>
-      <c r="DL195" s="26"/>
-      <c r="DM195" s="26"/>
-      <c r="DN195" s="26">
+      <c r="DK195" s="27"/>
+      <c r="DL195" s="27"/>
+      <c r="DM195" s="27"/>
+      <c r="DN195" s="27">
         <v>2010</v>
       </c>
-      <c r="DO195" s="26"/>
-      <c r="DP195" s="26"/>
-      <c r="DQ195" s="26"/>
-      <c r="DR195" s="26">
+      <c r="DO195" s="27"/>
+      <c r="DP195" s="27"/>
+      <c r="DQ195" s="27"/>
+      <c r="DR195" s="27">
         <v>2011</v>
       </c>
-      <c r="DS195" s="26"/>
-      <c r="DT195" s="26"/>
-      <c r="DU195" s="26"/>
-      <c r="DV195" s="26">
+      <c r="DS195" s="27"/>
+      <c r="DT195" s="27"/>
+      <c r="DU195" s="27"/>
+      <c r="DV195" s="27">
         <v>2012</v>
       </c>
-      <c r="DW195" s="26"/>
-      <c r="DX195" s="26"/>
-      <c r="DY195" s="26"/>
-      <c r="DZ195" s="26">
+      <c r="DW195" s="27"/>
+      <c r="DX195" s="27"/>
+      <c r="DY195" s="27"/>
+      <c r="DZ195" s="27">
         <v>2013</v>
       </c>
-      <c r="EA195" s="26"/>
-      <c r="EB195" s="26"/>
-      <c r="EC195" s="26"/>
-      <c r="ED195" s="26">
+      <c r="EA195" s="27"/>
+      <c r="EB195" s="27"/>
+      <c r="EC195" s="27"/>
+      <c r="ED195" s="27">
         <v>2014</v>
       </c>
-      <c r="EE195" s="26"/>
-      <c r="EF195" s="26"/>
-      <c r="EG195" s="26"/>
-      <c r="EH195" s="26">
+      <c r="EE195" s="27"/>
+      <c r="EF195" s="27"/>
+      <c r="EG195" s="27"/>
+      <c r="EH195" s="27">
         <v>2015</v>
       </c>
-      <c r="EI195" s="26"/>
-      <c r="EJ195" s="26"/>
-      <c r="EK195" s="26"/>
-      <c r="EL195" s="26">
+      <c r="EI195" s="27"/>
+      <c r="EJ195" s="27"/>
+      <c r="EK195" s="27"/>
+      <c r="EL195" s="27">
         <v>2016</v>
       </c>
-      <c r="EM195" s="26"/>
-      <c r="EN195" s="26"/>
-      <c r="EO195" s="26"/>
-      <c r="EP195" s="26">
+      <c r="EM195" s="27"/>
+      <c r="EN195" s="27"/>
+      <c r="EO195" s="27"/>
+      <c r="EP195" s="27">
         <v>2017</v>
       </c>
-      <c r="EQ195" s="26"/>
-      <c r="ER195" s="26"/>
-      <c r="ES195" s="26"/>
-      <c r="ET195" s="26">
+      <c r="EQ195" s="27"/>
+      <c r="ER195" s="27"/>
+      <c r="ES195" s="27"/>
+      <c r="ET195" s="27">
         <v>2018</v>
       </c>
-      <c r="EU195" s="26"/>
-      <c r="EV195" s="26"/>
-      <c r="EW195" s="26"/>
-      <c r="EX195" s="26">
+      <c r="EU195" s="27"/>
+      <c r="EV195" s="27"/>
+      <c r="EW195" s="27"/>
+      <c r="EX195" s="27">
         <v>2019</v>
       </c>
-      <c r="EY195" s="26"/>
-      <c r="EZ195" s="26"/>
-      <c r="FA195" s="26"/>
-      <c r="FB195" s="26">
+      <c r="EY195" s="27"/>
+      <c r="EZ195" s="27"/>
+      <c r="FA195" s="27"/>
+      <c r="FB195" s="27">
         <v>2020</v>
       </c>
-      <c r="FC195" s="26"/>
-      <c r="FD195" s="26"/>
+      <c r="FC195" s="27"/>
+      <c r="FD195" s="27"/>
       <c r="FE195" s="4"/>
-      <c r="FF195" s="26">
+      <c r="FF195" s="27">
         <v>2021</v>
       </c>
-      <c r="FG195" s="26"/>
-      <c r="FH195" s="26"/>
-      <c r="FI195" s="26"/>
-      <c r="FJ195" s="26">
+      <c r="FG195" s="27"/>
+      <c r="FH195" s="27"/>
+      <c r="FI195" s="27"/>
+      <c r="FJ195" s="27">
         <v>2022</v>
       </c>
-      <c r="FK195" s="26"/>
-      <c r="FL195" s="26"/>
-      <c r="FM195" s="26"/>
+      <c r="FK195" s="27"/>
+      <c r="FL195" s="27"/>
+      <c r="FM195" s="27"/>
+      <c r="FN195" s="26">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="196" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
         <v>13</v>
       </c>
@@ -37155,11 +37353,14 @@
       <c r="FM196" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="FN196" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="197" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:170" x14ac:dyDescent="0.3">
       <c r="FB197" s="2"/>
     </row>
-    <row r="198" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="15" t="s">
         <v>74</v>
       </c>
@@ -37667,8 +37868,11 @@
       <c r="FM198" s="23">
         <v>525265.97987364046</v>
       </c>
+      <c r="FN198" s="23">
+        <v>444619.83648915356</v>
+      </c>
     </row>
-    <row r="199" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="15" t="s">
         <v>75</v>
       </c>
@@ -38176,8 +38380,11 @@
       <c r="FM199" s="23">
         <v>1699147.1306209285</v>
       </c>
+      <c r="FN199" s="23">
+        <v>1466352.3933233069</v>
+      </c>
     </row>
-    <row r="200" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="15" t="s">
         <v>76</v>
       </c>
@@ -38685,8 +38892,11 @@
       <c r="FM200" s="23">
         <v>3350731.1748715527</v>
       </c>
+      <c r="FN200" s="23">
+        <v>2996207.6517047342</v>
+      </c>
     </row>
-    <row r="201" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="16"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -38856,8 +39066,9 @@
       <c r="FK201" s="7"/>
       <c r="FL201" s="7"/>
       <c r="FM201" s="7"/>
+      <c r="FN201" s="23"/>
     </row>
-    <row r="202" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>10</v>
       </c>
@@ -39365,8 +39576,11 @@
       <c r="FM202" s="7">
         <v>5575144.2853661217</v>
       </c>
+      <c r="FN202" s="23">
+        <v>4907179.8815171942</v>
+      </c>
     </row>
-    <row r="203" spans="1:169" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:170" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
@@ -39534,7 +39748,7 @@
       <c r="FL203" s="2"/>
       <c r="FM203" s="2"/>
     </row>
-    <row r="204" spans="1:169" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:170" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -39698,7 +39912,7 @@
       <c r="FL204" s="2"/>
       <c r="FM204" s="2"/>
     </row>
-    <row r="205" spans="1:169" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:170" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
@@ -39866,7 +40080,7 @@
       <c r="FL205" s="2"/>
       <c r="FM205" s="2"/>
     </row>
-    <row r="206" spans="1:169" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:170" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
@@ -40029,7 +40243,7 @@
       <c r="FL206" s="2"/>
       <c r="FM206" s="2"/>
     </row>
-    <row r="207" spans="1:169" s="3" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:170" s="3" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="9"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
@@ -40199,19 +40413,20 @@
       <c r="FK207" s="9"/>
       <c r="FL207" s="9"/>
       <c r="FM207" s="9"/>
+      <c r="FN207" s="9"/>
     </row>
-    <row r="208" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:166" x14ac:dyDescent="0.3">
       <c r="FB210" s="17"/>
       <c r="FC210" s="17"/>
       <c r="FD210" s="17"/>
       <c r="FE210" s="17"/>
     </row>
-    <row r="211" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>8</v>
       </c>
@@ -40220,7 +40435,7 @@
       <c r="FD211" s="17"/>
       <c r="FE211" s="17"/>
     </row>
-    <row r="212" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>7</v>
       </c>
@@ -40229,19 +40444,19 @@
       <c r="FD212" s="17"/>
       <c r="FE212" s="17"/>
     </row>
-    <row r="213" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="FB213" s="17"/>
       <c r="FC213" s="17"/>
       <c r="FD213" s="17"/>
       <c r="FE213" s="17"/>
     </row>
-    <row r="214" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
     </row>
-    <row r="215" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>49</v>
       </c>
@@ -40249,15 +40464,15 @@
       <c r="FD215" s="3"/>
       <c r="FE215" s="3"/>
     </row>
-    <row r="216" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A216" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="FC216" s="3"/>
       <c r="FD216" s="3"/>
       <c r="FE216" s="3"/>
     </row>
-    <row r="217" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>19</v>
       </c>
@@ -40265,7 +40480,7 @@
       <c r="FD217" s="3"/>
       <c r="FE217" s="3"/>
     </row>
-    <row r="218" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="FC218" s="3"/>
       <c r="FD218" s="3"/>
@@ -40273,256 +40488,259 @@
       <c r="FF218" s="9"/>
       <c r="FG218" s="9"/>
     </row>
-    <row r="219" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A219" s="4"/>
-      <c r="B219" s="26" t="s">
+      <c r="B219" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C219" s="26"/>
-      <c r="D219" s="26"/>
-      <c r="E219" s="26"/>
-      <c r="F219" s="26" t="s">
+      <c r="C219" s="27"/>
+      <c r="D219" s="27"/>
+      <c r="E219" s="27"/>
+      <c r="F219" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="G219" s="26"/>
-      <c r="H219" s="26"/>
-      <c r="I219" s="26"/>
-      <c r="J219" s="26" t="s">
+      <c r="G219" s="27"/>
+      <c r="H219" s="27"/>
+      <c r="I219" s="27"/>
+      <c r="J219" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="K219" s="26"/>
-      <c r="L219" s="26"/>
-      <c r="M219" s="26"/>
-      <c r="N219" s="26" t="s">
+      <c r="K219" s="27"/>
+      <c r="L219" s="27"/>
+      <c r="M219" s="27"/>
+      <c r="N219" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="O219" s="26"/>
-      <c r="P219" s="26"/>
-      <c r="Q219" s="26"/>
-      <c r="R219" s="26" t="s">
+      <c r="O219" s="27"/>
+      <c r="P219" s="27"/>
+      <c r="Q219" s="27"/>
+      <c r="R219" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="S219" s="26"/>
-      <c r="T219" s="26"/>
-      <c r="U219" s="26"/>
-      <c r="V219" s="26" t="s">
+      <c r="S219" s="27"/>
+      <c r="T219" s="27"/>
+      <c r="U219" s="27"/>
+      <c r="V219" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="W219" s="26"/>
-      <c r="X219" s="26"/>
-      <c r="Y219" s="26"/>
-      <c r="Z219" s="26" t="s">
+      <c r="W219" s="27"/>
+      <c r="X219" s="27"/>
+      <c r="Y219" s="27"/>
+      <c r="Z219" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="AA219" s="26"/>
-      <c r="AB219" s="26"/>
-      <c r="AC219" s="26"/>
-      <c r="AD219" s="26" t="s">
+      <c r="AA219" s="27"/>
+      <c r="AB219" s="27"/>
+      <c r="AC219" s="27"/>
+      <c r="AD219" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="AE219" s="26"/>
-      <c r="AF219" s="26"/>
-      <c r="AG219" s="26"/>
-      <c r="AH219" s="26" t="s">
+      <c r="AE219" s="27"/>
+      <c r="AF219" s="27"/>
+      <c r="AG219" s="27"/>
+      <c r="AH219" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="AI219" s="26"/>
-      <c r="AJ219" s="26"/>
-      <c r="AK219" s="26"/>
-      <c r="AL219" s="26" t="s">
+      <c r="AI219" s="27"/>
+      <c r="AJ219" s="27"/>
+      <c r="AK219" s="27"/>
+      <c r="AL219" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="AM219" s="26"/>
-      <c r="AN219" s="26"/>
-      <c r="AO219" s="26"/>
-      <c r="AP219" s="26" t="s">
+      <c r="AM219" s="27"/>
+      <c r="AN219" s="27"/>
+      <c r="AO219" s="27"/>
+      <c r="AP219" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="AQ219" s="26"/>
-      <c r="AR219" s="26"/>
-      <c r="AS219" s="26"/>
-      <c r="AT219" s="26" t="s">
+      <c r="AQ219" s="27"/>
+      <c r="AR219" s="27"/>
+      <c r="AS219" s="27"/>
+      <c r="AT219" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AU219" s="26"/>
-      <c r="AV219" s="26"/>
-      <c r="AW219" s="26"/>
-      <c r="AX219" s="26" t="s">
+      <c r="AU219" s="27"/>
+      <c r="AV219" s="27"/>
+      <c r="AW219" s="27"/>
+      <c r="AX219" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="AY219" s="26"/>
-      <c r="AZ219" s="26"/>
-      <c r="BA219" s="26"/>
-      <c r="BB219" s="26" t="s">
+      <c r="AY219" s="27"/>
+      <c r="AZ219" s="27"/>
+      <c r="BA219" s="27"/>
+      <c r="BB219" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="BC219" s="26"/>
-      <c r="BD219" s="26"/>
-      <c r="BE219" s="26"/>
-      <c r="BF219" s="26" t="s">
+      <c r="BC219" s="27"/>
+      <c r="BD219" s="27"/>
+      <c r="BE219" s="27"/>
+      <c r="BF219" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="BG219" s="26"/>
-      <c r="BH219" s="26"/>
-      <c r="BI219" s="26"/>
-      <c r="BJ219" s="26" t="s">
+      <c r="BG219" s="27"/>
+      <c r="BH219" s="27"/>
+      <c r="BI219" s="27"/>
+      <c r="BJ219" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="BK219" s="26"/>
-      <c r="BL219" s="26"/>
-      <c r="BM219" s="26"/>
-      <c r="BN219" s="26" t="s">
+      <c r="BK219" s="27"/>
+      <c r="BL219" s="27"/>
+      <c r="BM219" s="27"/>
+      <c r="BN219" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="BO219" s="26"/>
-      <c r="BP219" s="26"/>
-      <c r="BQ219" s="26"/>
-      <c r="BR219" s="26" t="s">
+      <c r="BO219" s="27"/>
+      <c r="BP219" s="27"/>
+      <c r="BQ219" s="27"/>
+      <c r="BR219" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="BS219" s="26"/>
-      <c r="BT219" s="26"/>
-      <c r="BU219" s="26"/>
-      <c r="BV219" s="26" t="s">
+      <c r="BS219" s="27"/>
+      <c r="BT219" s="27"/>
+      <c r="BU219" s="27"/>
+      <c r="BV219" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="BW219" s="26"/>
-      <c r="BX219" s="26"/>
-      <c r="BY219" s="26"/>
-      <c r="BZ219" s="26" t="s">
+      <c r="BW219" s="27"/>
+      <c r="BX219" s="27"/>
+      <c r="BY219" s="27"/>
+      <c r="BZ219" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="CA219" s="26"/>
-      <c r="CB219" s="26"/>
-      <c r="CC219" s="26"/>
-      <c r="CD219" s="26" t="s">
+      <c r="CA219" s="27"/>
+      <c r="CB219" s="27"/>
+      <c r="CC219" s="27"/>
+      <c r="CD219" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="CE219" s="26"/>
-      <c r="CF219" s="26"/>
-      <c r="CG219" s="26"/>
-      <c r="CH219" s="26" t="s">
+      <c r="CE219" s="27"/>
+      <c r="CF219" s="27"/>
+      <c r="CG219" s="27"/>
+      <c r="CH219" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="CI219" s="26"/>
-      <c r="CJ219" s="26"/>
-      <c r="CK219" s="26"/>
-      <c r="CL219" s="26" t="s">
+      <c r="CI219" s="27"/>
+      <c r="CJ219" s="27"/>
+      <c r="CK219" s="27"/>
+      <c r="CL219" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="CM219" s="26"/>
-      <c r="CN219" s="26"/>
-      <c r="CO219" s="26"/>
-      <c r="CP219" s="26" t="s">
+      <c r="CM219" s="27"/>
+      <c r="CN219" s="27"/>
+      <c r="CO219" s="27"/>
+      <c r="CP219" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="CQ219" s="26"/>
-      <c r="CR219" s="26"/>
-      <c r="CS219" s="26"/>
-      <c r="CT219" s="26" t="s">
+      <c r="CQ219" s="27"/>
+      <c r="CR219" s="27"/>
+      <c r="CS219" s="27"/>
+      <c r="CT219" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="CU219" s="26"/>
-      <c r="CV219" s="26"/>
-      <c r="CW219" s="26"/>
-      <c r="CX219" s="26" t="s">
+      <c r="CU219" s="27"/>
+      <c r="CV219" s="27"/>
+      <c r="CW219" s="27"/>
+      <c r="CX219" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="CY219" s="26"/>
-      <c r="CZ219" s="26"/>
-      <c r="DA219" s="26"/>
-      <c r="DB219" s="26" t="s">
+      <c r="CY219" s="27"/>
+      <c r="CZ219" s="27"/>
+      <c r="DA219" s="27"/>
+      <c r="DB219" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="DC219" s="26"/>
-      <c r="DD219" s="26"/>
-      <c r="DE219" s="26"/>
-      <c r="DF219" s="26" t="s">
+      <c r="DC219" s="27"/>
+      <c r="DD219" s="27"/>
+      <c r="DE219" s="27"/>
+      <c r="DF219" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="DG219" s="26"/>
-      <c r="DH219" s="26"/>
-      <c r="DI219" s="26"/>
-      <c r="DJ219" s="26" t="s">
+      <c r="DG219" s="27"/>
+      <c r="DH219" s="27"/>
+      <c r="DI219" s="27"/>
+      <c r="DJ219" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="DK219" s="26"/>
-      <c r="DL219" s="26"/>
-      <c r="DM219" s="26"/>
-      <c r="DN219" s="26" t="s">
+      <c r="DK219" s="27"/>
+      <c r="DL219" s="27"/>
+      <c r="DM219" s="27"/>
+      <c r="DN219" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="DO219" s="26"/>
-      <c r="DP219" s="26"/>
-      <c r="DQ219" s="26"/>
-      <c r="DR219" s="26" t="s">
+      <c r="DO219" s="27"/>
+      <c r="DP219" s="27"/>
+      <c r="DQ219" s="27"/>
+      <c r="DR219" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="DS219" s="26"/>
-      <c r="DT219" s="26"/>
-      <c r="DU219" s="26"/>
-      <c r="DV219" s="26" t="s">
+      <c r="DS219" s="27"/>
+      <c r="DT219" s="27"/>
+      <c r="DU219" s="27"/>
+      <c r="DV219" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="DW219" s="26"/>
-      <c r="DX219" s="26"/>
-      <c r="DY219" s="26"/>
-      <c r="DZ219" s="26" t="s">
+      <c r="DW219" s="27"/>
+      <c r="DX219" s="27"/>
+      <c r="DY219" s="27"/>
+      <c r="DZ219" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="EA219" s="26"/>
-      <c r="EB219" s="26"/>
-      <c r="EC219" s="26"/>
-      <c r="ED219" s="26" t="s">
+      <c r="EA219" s="27"/>
+      <c r="EB219" s="27"/>
+      <c r="EC219" s="27"/>
+      <c r="ED219" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="EE219" s="26"/>
-      <c r="EF219" s="26"/>
-      <c r="EG219" s="26"/>
-      <c r="EH219" s="26" t="s">
+      <c r="EE219" s="27"/>
+      <c r="EF219" s="27"/>
+      <c r="EG219" s="27"/>
+      <c r="EH219" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="EI219" s="26"/>
-      <c r="EJ219" s="26"/>
-      <c r="EK219" s="26"/>
-      <c r="EL219" s="26" t="s">
+      <c r="EI219" s="27"/>
+      <c r="EJ219" s="27"/>
+      <c r="EK219" s="27"/>
+      <c r="EL219" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="EM219" s="26"/>
-      <c r="EN219" s="26"/>
-      <c r="EO219" s="26"/>
-      <c r="EP219" s="26" t="s">
+      <c r="EM219" s="27"/>
+      <c r="EN219" s="27"/>
+      <c r="EO219" s="27"/>
+      <c r="EP219" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="EQ219" s="26"/>
-      <c r="ER219" s="26"/>
-      <c r="ES219" s="26"/>
-      <c r="ET219" s="26" t="s">
+      <c r="EQ219" s="27"/>
+      <c r="ER219" s="27"/>
+      <c r="ES219" s="27"/>
+      <c r="ET219" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="EU219" s="26"/>
-      <c r="EV219" s="26"/>
-      <c r="EW219" s="26"/>
-      <c r="EX219" s="26" t="s">
+      <c r="EU219" s="27"/>
+      <c r="EV219" s="27"/>
+      <c r="EW219" s="27"/>
+      <c r="EX219" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="EY219" s="26"/>
-      <c r="EZ219" s="26"/>
+      <c r="EY219" s="27"/>
+      <c r="EZ219" s="27"/>
       <c r="FA219" s="4"/>
-      <c r="FB219" s="26" t="s">
+      <c r="FB219" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="FC219" s="26"/>
-      <c r="FD219" s="26"/>
-      <c r="FE219" s="26"/>
-      <c r="FF219" s="26" t="s">
+      <c r="FC219" s="27"/>
+      <c r="FD219" s="27"/>
+      <c r="FE219" s="27"/>
+      <c r="FF219" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="FG219" s="26"/>
-      <c r="FH219" s="26"/>
-      <c r="FI219" s="26"/>
+      <c r="FG219" s="27"/>
+      <c r="FH219" s="27"/>
+      <c r="FI219" s="27"/>
+      <c r="FJ219" s="28" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="220" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
         <v>13</v>
       </c>
@@ -41018,12 +41236,16 @@
       <c r="FI220" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="FJ220" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="221" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:166" x14ac:dyDescent="0.3">
       <c r="FB221" s="2"/>
       <c r="FF221" s="24"/>
+      <c r="FJ221" s="24"/>
     </row>
-    <row r="222" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A222" s="15" t="s">
         <v>74</v>
       </c>
@@ -41519,8 +41741,11 @@
       <c r="FI222" s="25">
         <v>9.9755754418846294</v>
       </c>
+      <c r="FJ222" s="25">
+        <v>13.374687335472871</v>
+      </c>
     </row>
-    <row r="223" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A223" s="15" t="s">
         <v>75</v>
       </c>
@@ -42016,8 +42241,11 @@
       <c r="FI223" s="25">
         <v>11.55069953709247</v>
       </c>
+      <c r="FJ223" s="25">
+        <v>10.687138770156139</v>
+      </c>
     </row>
-    <row r="224" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A224" s="15" t="s">
         <v>76</v>
       </c>
@@ -42513,8 +42741,11 @@
       <c r="FI224" s="25">
         <v>15.823112501483209</v>
       </c>
+      <c r="FJ224" s="25">
+        <v>15.229033487563015</v>
+      </c>
     </row>
-    <row r="225" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A225" s="16"/>
       <c r="B225" s="13"/>
       <c r="C225" s="13"/>
@@ -42680,8 +42911,9 @@
       <c r="FG225" s="25"/>
       <c r="FH225" s="25"/>
       <c r="FI225" s="25"/>
+      <c r="FJ225" s="25"/>
     </row>
-    <row r="226" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>10</v>
       </c>
@@ -43177,8 +43409,11 @@
       <c r="FI226" s="25">
         <v>13.895556471396617</v>
       </c>
+      <c r="FJ226" s="25">
+        <v>13.674683326983072</v>
+      </c>
     </row>
-    <row r="227" spans="1:165" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="B227" s="13"/>
       <c r="C227" s="13"/>
       <c r="D227" s="13"/>
@@ -43342,8 +43577,9 @@
       <c r="FG227" s="25"/>
       <c r="FH227" s="25"/>
       <c r="FI227" s="25"/>
+      <c r="FJ227" s="25"/>
     </row>
-    <row r="228" spans="1:165" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="B228" s="13"/>
       <c r="C228" s="13"/>
       <c r="D228" s="13"/>
@@ -43507,8 +43743,9 @@
       <c r="FG228" s="25"/>
       <c r="FH228" s="25"/>
       <c r="FI228" s="25"/>
+      <c r="FJ228" s="25"/>
     </row>
-    <row r="229" spans="1:165" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="B229" s="13"/>
       <c r="C229" s="13"/>
       <c r="D229" s="13"/>
@@ -43672,8 +43909,11 @@
       <c r="FG229" s="25"/>
       <c r="FH229" s="25"/>
       <c r="FI229" s="25"/>
+      <c r="FJ229" s="25">
+        <v>12.655869590176934</v>
+      </c>
     </row>
-    <row r="230" spans="1:165" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="B230" s="13"/>
       <c r="C230" s="13"/>
       <c r="D230" s="13"/>
@@ -43834,7 +44074,7 @@
       </c>
       <c r="FB230" s="2"/>
     </row>
-    <row r="231" spans="1:165" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:166" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="9"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
@@ -44000,315 +44240,319 @@
       <c r="FG231" s="9"/>
       <c r="FH231" s="9"/>
       <c r="FI231" s="9"/>
+      <c r="FJ231" s="9"/>
     </row>
-    <row r="232" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>0</v>
       </c>
       <c r="FB232" s="2"/>
     </row>
-    <row r="233" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:166" x14ac:dyDescent="0.3">
       <c r="FB233" s="2"/>
     </row>
-    <row r="234" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:166" x14ac:dyDescent="0.3">
       <c r="FB234" s="2"/>
     </row>
-    <row r="235" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>8</v>
       </c>
       <c r="FB235" s="2"/>
     </row>
-    <row r="236" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>7</v>
       </c>
       <c r="FB236" s="2"/>
     </row>
-    <row r="237" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="FB237" s="2"/>
     </row>
-    <row r="238" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="FB238" s="2"/>
     </row>
-    <row r="239" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>50</v>
       </c>
       <c r="FB239" s="2"/>
     </row>
-    <row r="240" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A240" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="FB240" s="2"/>
     </row>
-    <row r="241" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>20</v>
       </c>
       <c r="FB241" s="2"/>
     </row>
-    <row r="242" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="FB242" s="2"/>
       <c r="FF242" s="9"/>
       <c r="FG242" s="9"/>
     </row>
-    <row r="243" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A243" s="4"/>
-      <c r="B243" s="26" t="s">
+      <c r="B243" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C243" s="26"/>
-      <c r="D243" s="26"/>
-      <c r="E243" s="26"/>
-      <c r="F243" s="26" t="s">
+      <c r="C243" s="27"/>
+      <c r="D243" s="27"/>
+      <c r="E243" s="27"/>
+      <c r="F243" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="G243" s="26"/>
-      <c r="H243" s="26"/>
-      <c r="I243" s="26"/>
-      <c r="J243" s="26" t="s">
+      <c r="G243" s="27"/>
+      <c r="H243" s="27"/>
+      <c r="I243" s="27"/>
+      <c r="J243" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="K243" s="26"/>
-      <c r="L243" s="26"/>
-      <c r="M243" s="26"/>
-      <c r="N243" s="26" t="s">
+      <c r="K243" s="27"/>
+      <c r="L243" s="27"/>
+      <c r="M243" s="27"/>
+      <c r="N243" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="O243" s="26"/>
-      <c r="P243" s="26"/>
-      <c r="Q243" s="26"/>
-      <c r="R243" s="26" t="s">
+      <c r="O243" s="27"/>
+      <c r="P243" s="27"/>
+      <c r="Q243" s="27"/>
+      <c r="R243" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="S243" s="26"/>
-      <c r="T243" s="26"/>
-      <c r="U243" s="26"/>
-      <c r="V243" s="26" t="s">
+      <c r="S243" s="27"/>
+      <c r="T243" s="27"/>
+      <c r="U243" s="27"/>
+      <c r="V243" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="W243" s="26"/>
-      <c r="X243" s="26"/>
-      <c r="Y243" s="26"/>
-      <c r="Z243" s="26" t="s">
+      <c r="W243" s="27"/>
+      <c r="X243" s="27"/>
+      <c r="Y243" s="27"/>
+      <c r="Z243" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="AA243" s="26"/>
-      <c r="AB243" s="26"/>
-      <c r="AC243" s="26"/>
-      <c r="AD243" s="26" t="s">
+      <c r="AA243" s="27"/>
+      <c r="AB243" s="27"/>
+      <c r="AC243" s="27"/>
+      <c r="AD243" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="AE243" s="26"/>
-      <c r="AF243" s="26"/>
-      <c r="AG243" s="26"/>
-      <c r="AH243" s="26" t="s">
+      <c r="AE243" s="27"/>
+      <c r="AF243" s="27"/>
+      <c r="AG243" s="27"/>
+      <c r="AH243" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="AI243" s="26"/>
-      <c r="AJ243" s="26"/>
-      <c r="AK243" s="26"/>
-      <c r="AL243" s="26" t="s">
+      <c r="AI243" s="27"/>
+      <c r="AJ243" s="27"/>
+      <c r="AK243" s="27"/>
+      <c r="AL243" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="AM243" s="26"/>
-      <c r="AN243" s="26"/>
-      <c r="AO243" s="26"/>
-      <c r="AP243" s="26" t="s">
+      <c r="AM243" s="27"/>
+      <c r="AN243" s="27"/>
+      <c r="AO243" s="27"/>
+      <c r="AP243" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="AQ243" s="26"/>
-      <c r="AR243" s="26"/>
-      <c r="AS243" s="26"/>
-      <c r="AT243" s="26" t="s">
+      <c r="AQ243" s="27"/>
+      <c r="AR243" s="27"/>
+      <c r="AS243" s="27"/>
+      <c r="AT243" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AU243" s="26"/>
-      <c r="AV243" s="26"/>
-      <c r="AW243" s="26"/>
-      <c r="AX243" s="26" t="s">
+      <c r="AU243" s="27"/>
+      <c r="AV243" s="27"/>
+      <c r="AW243" s="27"/>
+      <c r="AX243" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="AY243" s="26"/>
-      <c r="AZ243" s="26"/>
-      <c r="BA243" s="26"/>
-      <c r="BB243" s="26" t="s">
+      <c r="AY243" s="27"/>
+      <c r="AZ243" s="27"/>
+      <c r="BA243" s="27"/>
+      <c r="BB243" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="BC243" s="26"/>
-      <c r="BD243" s="26"/>
-      <c r="BE243" s="26"/>
-      <c r="BF243" s="26" t="s">
+      <c r="BC243" s="27"/>
+      <c r="BD243" s="27"/>
+      <c r="BE243" s="27"/>
+      <c r="BF243" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="BG243" s="26"/>
-      <c r="BH243" s="26"/>
-      <c r="BI243" s="26"/>
-      <c r="BJ243" s="26" t="s">
+      <c r="BG243" s="27"/>
+      <c r="BH243" s="27"/>
+      <c r="BI243" s="27"/>
+      <c r="BJ243" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="BK243" s="26"/>
-      <c r="BL243" s="26"/>
-      <c r="BM243" s="26"/>
-      <c r="BN243" s="26" t="s">
+      <c r="BK243" s="27"/>
+      <c r="BL243" s="27"/>
+      <c r="BM243" s="27"/>
+      <c r="BN243" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="BO243" s="26"/>
-      <c r="BP243" s="26"/>
-      <c r="BQ243" s="26"/>
-      <c r="BR243" s="26" t="s">
+      <c r="BO243" s="27"/>
+      <c r="BP243" s="27"/>
+      <c r="BQ243" s="27"/>
+      <c r="BR243" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="BS243" s="26"/>
-      <c r="BT243" s="26"/>
-      <c r="BU243" s="26"/>
-      <c r="BV243" s="26" t="s">
+      <c r="BS243" s="27"/>
+      <c r="BT243" s="27"/>
+      <c r="BU243" s="27"/>
+      <c r="BV243" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="BW243" s="26"/>
-      <c r="BX243" s="26"/>
-      <c r="BY243" s="26"/>
-      <c r="BZ243" s="26" t="s">
+      <c r="BW243" s="27"/>
+      <c r="BX243" s="27"/>
+      <c r="BY243" s="27"/>
+      <c r="BZ243" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="CA243" s="26"/>
-      <c r="CB243" s="26"/>
-      <c r="CC243" s="26"/>
-      <c r="CD243" s="26" t="s">
+      <c r="CA243" s="27"/>
+      <c r="CB243" s="27"/>
+      <c r="CC243" s="27"/>
+      <c r="CD243" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="CE243" s="26"/>
-      <c r="CF243" s="26"/>
-      <c r="CG243" s="26"/>
-      <c r="CH243" s="26" t="s">
+      <c r="CE243" s="27"/>
+      <c r="CF243" s="27"/>
+      <c r="CG243" s="27"/>
+      <c r="CH243" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="CI243" s="26"/>
-      <c r="CJ243" s="26"/>
-      <c r="CK243" s="26"/>
-      <c r="CL243" s="26" t="s">
+      <c r="CI243" s="27"/>
+      <c r="CJ243" s="27"/>
+      <c r="CK243" s="27"/>
+      <c r="CL243" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="CM243" s="26"/>
-      <c r="CN243" s="26"/>
-      <c r="CO243" s="26"/>
-      <c r="CP243" s="26" t="s">
+      <c r="CM243" s="27"/>
+      <c r="CN243" s="27"/>
+      <c r="CO243" s="27"/>
+      <c r="CP243" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="CQ243" s="26"/>
-      <c r="CR243" s="26"/>
-      <c r="CS243" s="26"/>
-      <c r="CT243" s="26" t="s">
+      <c r="CQ243" s="27"/>
+      <c r="CR243" s="27"/>
+      <c r="CS243" s="27"/>
+      <c r="CT243" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="CU243" s="26"/>
-      <c r="CV243" s="26"/>
-      <c r="CW243" s="26"/>
-      <c r="CX243" s="26" t="s">
+      <c r="CU243" s="27"/>
+      <c r="CV243" s="27"/>
+      <c r="CW243" s="27"/>
+      <c r="CX243" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="CY243" s="26"/>
-      <c r="CZ243" s="26"/>
-      <c r="DA243" s="26"/>
-      <c r="DB243" s="26" t="s">
+      <c r="CY243" s="27"/>
+      <c r="CZ243" s="27"/>
+      <c r="DA243" s="27"/>
+      <c r="DB243" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="DC243" s="26"/>
-      <c r="DD243" s="26"/>
-      <c r="DE243" s="26"/>
-      <c r="DF243" s="26" t="s">
+      <c r="DC243" s="27"/>
+      <c r="DD243" s="27"/>
+      <c r="DE243" s="27"/>
+      <c r="DF243" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="DG243" s="26"/>
-      <c r="DH243" s="26"/>
-      <c r="DI243" s="26"/>
-      <c r="DJ243" s="26" t="s">
+      <c r="DG243" s="27"/>
+      <c r="DH243" s="27"/>
+      <c r="DI243" s="27"/>
+      <c r="DJ243" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="DK243" s="26"/>
-      <c r="DL243" s="26"/>
-      <c r="DM243" s="26"/>
-      <c r="DN243" s="26" t="s">
+      <c r="DK243" s="27"/>
+      <c r="DL243" s="27"/>
+      <c r="DM243" s="27"/>
+      <c r="DN243" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="DO243" s="26"/>
-      <c r="DP243" s="26"/>
-      <c r="DQ243" s="26"/>
-      <c r="DR243" s="26" t="s">
+      <c r="DO243" s="27"/>
+      <c r="DP243" s="27"/>
+      <c r="DQ243" s="27"/>
+      <c r="DR243" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="DS243" s="26"/>
-      <c r="DT243" s="26"/>
-      <c r="DU243" s="26"/>
-      <c r="DV243" s="26" t="s">
+      <c r="DS243" s="27"/>
+      <c r="DT243" s="27"/>
+      <c r="DU243" s="27"/>
+      <c r="DV243" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="DW243" s="26"/>
-      <c r="DX243" s="26"/>
-      <c r="DY243" s="26"/>
-      <c r="DZ243" s="26" t="s">
+      <c r="DW243" s="27"/>
+      <c r="DX243" s="27"/>
+      <c r="DY243" s="27"/>
+      <c r="DZ243" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="EA243" s="26"/>
-      <c r="EB243" s="26"/>
-      <c r="EC243" s="26"/>
-      <c r="ED243" s="26" t="s">
+      <c r="EA243" s="27"/>
+      <c r="EB243" s="27"/>
+      <c r="EC243" s="27"/>
+      <c r="ED243" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="EE243" s="26"/>
-      <c r="EF243" s="26"/>
-      <c r="EG243" s="26"/>
-      <c r="EH243" s="26" t="s">
+      <c r="EE243" s="27"/>
+      <c r="EF243" s="27"/>
+      <c r="EG243" s="27"/>
+      <c r="EH243" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="EI243" s="26"/>
-      <c r="EJ243" s="26"/>
-      <c r="EK243" s="26"/>
-      <c r="EL243" s="26" t="s">
+      <c r="EI243" s="27"/>
+      <c r="EJ243" s="27"/>
+      <c r="EK243" s="27"/>
+      <c r="EL243" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="EM243" s="26"/>
-      <c r="EN243" s="26"/>
-      <c r="EO243" s="26"/>
-      <c r="EP243" s="26" t="s">
+      <c r="EM243" s="27"/>
+      <c r="EN243" s="27"/>
+      <c r="EO243" s="27"/>
+      <c r="EP243" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="EQ243" s="26"/>
-      <c r="ER243" s="26"/>
-      <c r="ES243" s="26"/>
-      <c r="ET243" s="26" t="s">
+      <c r="EQ243" s="27"/>
+      <c r="ER243" s="27"/>
+      <c r="ES243" s="27"/>
+      <c r="ET243" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="EU243" s="26"/>
-      <c r="EV243" s="26"/>
-      <c r="EW243" s="26"/>
-      <c r="EX243" s="26" t="s">
+      <c r="EU243" s="27"/>
+      <c r="EV243" s="27"/>
+      <c r="EW243" s="27"/>
+      <c r="EX243" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="EY243" s="26"/>
-      <c r="EZ243" s="26"/>
+      <c r="EY243" s="27"/>
+      <c r="EZ243" s="27"/>
       <c r="FA243" s="4"/>
-      <c r="FB243" s="26" t="s">
+      <c r="FB243" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="FC243" s="26"/>
-      <c r="FD243" s="26"/>
-      <c r="FE243" s="26"/>
-      <c r="FF243" s="26" t="s">
+      <c r="FC243" s="27"/>
+      <c r="FD243" s="27"/>
+      <c r="FE243" s="27"/>
+      <c r="FF243" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="FG243" s="26"/>
-      <c r="FH243" s="26"/>
-      <c r="FI243" s="26"/>
+      <c r="FG243" s="27"/>
+      <c r="FH243" s="27"/>
+      <c r="FI243" s="27"/>
+      <c r="FJ243" s="28" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="244" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="s">
         <v>13</v>
       </c>
@@ -44804,12 +45048,16 @@
       <c r="FI244" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="FJ244" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="245" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:166" x14ac:dyDescent="0.3">
       <c r="FB245" s="2"/>
       <c r="FF245" s="24"/>
+      <c r="FJ245" s="24"/>
     </row>
-    <row r="246" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A246" s="15" t="s">
         <v>74</v>
       </c>
@@ -45305,8 +45553,11 @@
       <c r="FI246" s="25">
         <v>-0.34722986491927088</v>
       </c>
+      <c r="FJ246" s="25">
+        <v>2.2441629895339616</v>
+      </c>
     </row>
-    <row r="247" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A247" s="15" t="s">
         <v>75</v>
       </c>
@@ -45802,8 +46053,11 @@
       <c r="FI247" s="25">
         <v>4.5735631893710149</v>
       </c>
+      <c r="FJ247" s="25">
+        <v>3.9436806301973917</v>
+      </c>
     </row>
-    <row r="248" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A248" s="15" t="s">
         <v>76</v>
       </c>
@@ -46299,8 +46553,11 @@
       <c r="FI248" s="25">
         <v>9.7556127046941015</v>
       </c>
+      <c r="FJ248" s="25">
+        <v>8.3781392812741728</v>
+      </c>
     </row>
-    <row r="249" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A249" s="16"/>
       <c r="B249" s="13"/>
       <c r="C249" s="13"/>
@@ -46466,8 +46723,9 @@
       <c r="FG249" s="25"/>
       <c r="FH249" s="25"/>
       <c r="FI249" s="25"/>
+      <c r="FJ249" s="25"/>
     </row>
-    <row r="250" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>10</v>
       </c>
@@ -46963,8 +47221,11 @@
       <c r="FI250" s="25">
         <v>7.1147703439862369</v>
       </c>
+      <c r="FJ250" s="25">
+        <v>6.4425911814635128</v>
+      </c>
     </row>
-    <row r="251" spans="1:165" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="B251" s="13"/>
       <c r="C251" s="13"/>
       <c r="D251" s="13"/>
@@ -47127,8 +47388,9 @@
       <c r="FG251" s="25"/>
       <c r="FH251" s="25"/>
       <c r="FI251" s="25"/>
+      <c r="FJ251" s="25"/>
     </row>
-    <row r="252" spans="1:165" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="B252" s="13"/>
       <c r="C252" s="13"/>
       <c r="D252" s="13"/>
@@ -47287,8 +47549,9 @@
       <c r="FG252" s="25"/>
       <c r="FH252" s="25"/>
       <c r="FI252" s="25"/>
+      <c r="FJ252" s="25"/>
     </row>
-    <row r="253" spans="1:165" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="B253" s="13"/>
       <c r="C253" s="13"/>
       <c r="D253" s="13"/>
@@ -47451,8 +47714,11 @@
       <c r="FG253" s="25"/>
       <c r="FH253" s="25"/>
       <c r="FI253" s="25"/>
+      <c r="FJ253" s="25">
+        <v>12.655869590176934</v>
+      </c>
     </row>
-    <row r="254" spans="1:165" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="B254" s="13"/>
       <c r="C254" s="13"/>
       <c r="D254" s="13"/>
@@ -47607,7 +47873,7 @@
       <c r="EW254" s="13"/>
       <c r="EX254" s="3"/>
     </row>
-    <row r="255" spans="1:165" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:166" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="9"/>
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
@@ -47773,304 +48039,308 @@
       <c r="FG255" s="9"/>
       <c r="FH255" s="9"/>
       <c r="FI255" s="9"/>
+      <c r="FJ255" s="9"/>
     </row>
-    <row r="256" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="262" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
     </row>
-    <row r="263" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="264" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A264" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="265" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="266" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
     </row>
-    <row r="267" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A267" s="4"/>
-      <c r="B267" s="26">
+      <c r="B267" s="27">
         <v>1981</v>
       </c>
-      <c r="C267" s="26"/>
-      <c r="D267" s="26"/>
-      <c r="E267" s="26"/>
-      <c r="F267" s="26">
+      <c r="C267" s="27"/>
+      <c r="D267" s="27"/>
+      <c r="E267" s="27"/>
+      <c r="F267" s="27">
         <v>1982</v>
       </c>
-      <c r="G267" s="26"/>
-      <c r="H267" s="26"/>
-      <c r="I267" s="26"/>
-      <c r="J267" s="26">
+      <c r="G267" s="27"/>
+      <c r="H267" s="27"/>
+      <c r="I267" s="27"/>
+      <c r="J267" s="27">
         <v>1983</v>
       </c>
-      <c r="K267" s="26"/>
-      <c r="L267" s="26"/>
-      <c r="M267" s="26"/>
-      <c r="N267" s="26">
+      <c r="K267" s="27"/>
+      <c r="L267" s="27"/>
+      <c r="M267" s="27"/>
+      <c r="N267" s="27">
         <v>1984</v>
       </c>
-      <c r="O267" s="26"/>
-      <c r="P267" s="26"/>
-      <c r="Q267" s="26"/>
-      <c r="R267" s="26">
+      <c r="O267" s="27"/>
+      <c r="P267" s="27"/>
+      <c r="Q267" s="27"/>
+      <c r="R267" s="27">
         <v>1985</v>
       </c>
-      <c r="S267" s="26"/>
-      <c r="T267" s="26"/>
-      <c r="U267" s="26"/>
-      <c r="V267" s="26">
+      <c r="S267" s="27"/>
+      <c r="T267" s="27"/>
+      <c r="U267" s="27"/>
+      <c r="V267" s="27">
         <v>1986</v>
       </c>
-      <c r="W267" s="26"/>
-      <c r="X267" s="26"/>
-      <c r="Y267" s="26"/>
-      <c r="Z267" s="26">
+      <c r="W267" s="27"/>
+      <c r="X267" s="27"/>
+      <c r="Y267" s="27"/>
+      <c r="Z267" s="27">
         <v>1987</v>
       </c>
-      <c r="AA267" s="26"/>
-      <c r="AB267" s="26"/>
-      <c r="AC267" s="26"/>
-      <c r="AD267" s="26">
+      <c r="AA267" s="27"/>
+      <c r="AB267" s="27"/>
+      <c r="AC267" s="27"/>
+      <c r="AD267" s="27">
         <v>1988</v>
       </c>
-      <c r="AE267" s="26"/>
-      <c r="AF267" s="26"/>
-      <c r="AG267" s="26"/>
-      <c r="AH267" s="26">
+      <c r="AE267" s="27"/>
+      <c r="AF267" s="27"/>
+      <c r="AG267" s="27"/>
+      <c r="AH267" s="27">
         <v>1989</v>
       </c>
-      <c r="AI267" s="26"/>
-      <c r="AJ267" s="26"/>
-      <c r="AK267" s="26"/>
-      <c r="AL267" s="26">
+      <c r="AI267" s="27"/>
+      <c r="AJ267" s="27"/>
+      <c r="AK267" s="27"/>
+      <c r="AL267" s="27">
         <v>1990</v>
       </c>
-      <c r="AM267" s="26"/>
-      <c r="AN267" s="26"/>
-      <c r="AO267" s="26"/>
-      <c r="AP267" s="26">
+      <c r="AM267" s="27"/>
+      <c r="AN267" s="27"/>
+      <c r="AO267" s="27"/>
+      <c r="AP267" s="27">
         <v>1991</v>
       </c>
-      <c r="AQ267" s="26"/>
-      <c r="AR267" s="26"/>
-      <c r="AS267" s="26"/>
-      <c r="AT267" s="26">
+      <c r="AQ267" s="27"/>
+      <c r="AR267" s="27"/>
+      <c r="AS267" s="27"/>
+      <c r="AT267" s="27">
         <v>1992</v>
       </c>
-      <c r="AU267" s="26"/>
-      <c r="AV267" s="26"/>
-      <c r="AW267" s="26"/>
-      <c r="AX267" s="26">
+      <c r="AU267" s="27"/>
+      <c r="AV267" s="27"/>
+      <c r="AW267" s="27"/>
+      <c r="AX267" s="27">
         <v>1993</v>
       </c>
-      <c r="AY267" s="26"/>
-      <c r="AZ267" s="26"/>
-      <c r="BA267" s="26"/>
-      <c r="BB267" s="26">
+      <c r="AY267" s="27"/>
+      <c r="AZ267" s="27"/>
+      <c r="BA267" s="27"/>
+      <c r="BB267" s="27">
         <v>1994</v>
       </c>
-      <c r="BC267" s="26"/>
-      <c r="BD267" s="26"/>
-      <c r="BE267" s="26"/>
-      <c r="BF267" s="26">
+      <c r="BC267" s="27"/>
+      <c r="BD267" s="27"/>
+      <c r="BE267" s="27"/>
+      <c r="BF267" s="27">
         <v>1995</v>
       </c>
-      <c r="BG267" s="26"/>
-      <c r="BH267" s="26"/>
-      <c r="BI267" s="26"/>
-      <c r="BJ267" s="26">
+      <c r="BG267" s="27"/>
+      <c r="BH267" s="27"/>
+      <c r="BI267" s="27"/>
+      <c r="BJ267" s="27">
         <v>1996</v>
       </c>
-      <c r="BK267" s="26"/>
-      <c r="BL267" s="26"/>
-      <c r="BM267" s="26"/>
-      <c r="BN267" s="26">
+      <c r="BK267" s="27"/>
+      <c r="BL267" s="27"/>
+      <c r="BM267" s="27"/>
+      <c r="BN267" s="27">
         <v>1997</v>
       </c>
-      <c r="BO267" s="26"/>
-      <c r="BP267" s="26"/>
-      <c r="BQ267" s="26"/>
-      <c r="BR267" s="26">
+      <c r="BO267" s="27"/>
+      <c r="BP267" s="27"/>
+      <c r="BQ267" s="27"/>
+      <c r="BR267" s="27">
         <v>1998</v>
       </c>
-      <c r="BS267" s="26"/>
-      <c r="BT267" s="26"/>
-      <c r="BU267" s="26"/>
-      <c r="BV267" s="26">
+      <c r="BS267" s="27"/>
+      <c r="BT267" s="27"/>
+      <c r="BU267" s="27"/>
+      <c r="BV267" s="27">
         <v>1999</v>
       </c>
-      <c r="BW267" s="26"/>
-      <c r="BX267" s="26"/>
-      <c r="BY267" s="26"/>
-      <c r="BZ267" s="26">
+      <c r="BW267" s="27"/>
+      <c r="BX267" s="27"/>
+      <c r="BY267" s="27"/>
+      <c r="BZ267" s="27">
         <v>2000</v>
       </c>
-      <c r="CA267" s="26"/>
-      <c r="CB267" s="26"/>
-      <c r="CC267" s="26"/>
-      <c r="CD267" s="26">
+      <c r="CA267" s="27"/>
+      <c r="CB267" s="27"/>
+      <c r="CC267" s="27"/>
+      <c r="CD267" s="27">
         <v>2001</v>
       </c>
-      <c r="CE267" s="26"/>
-      <c r="CF267" s="26"/>
-      <c r="CG267" s="26"/>
-      <c r="CH267" s="26">
+      <c r="CE267" s="27"/>
+      <c r="CF267" s="27"/>
+      <c r="CG267" s="27"/>
+      <c r="CH267" s="27">
         <v>2002</v>
       </c>
-      <c r="CI267" s="26"/>
-      <c r="CJ267" s="26"/>
-      <c r="CK267" s="26"/>
-      <c r="CL267" s="26">
+      <c r="CI267" s="27"/>
+      <c r="CJ267" s="27"/>
+      <c r="CK267" s="27"/>
+      <c r="CL267" s="27">
         <v>2003</v>
       </c>
-      <c r="CM267" s="26"/>
-      <c r="CN267" s="26"/>
-      <c r="CO267" s="26"/>
-      <c r="CP267" s="26">
+      <c r="CM267" s="27"/>
+      <c r="CN267" s="27"/>
+      <c r="CO267" s="27"/>
+      <c r="CP267" s="27">
         <v>2004</v>
       </c>
-      <c r="CQ267" s="26"/>
-      <c r="CR267" s="26"/>
-      <c r="CS267" s="26"/>
-      <c r="CT267" s="26">
+      <c r="CQ267" s="27"/>
+      <c r="CR267" s="27"/>
+      <c r="CS267" s="27"/>
+      <c r="CT267" s="27">
         <v>2005</v>
       </c>
-      <c r="CU267" s="26"/>
-      <c r="CV267" s="26"/>
-      <c r="CW267" s="26"/>
-      <c r="CX267" s="26">
+      <c r="CU267" s="27"/>
+      <c r="CV267" s="27"/>
+      <c r="CW267" s="27"/>
+      <c r="CX267" s="27">
         <v>2006</v>
       </c>
-      <c r="CY267" s="26"/>
-      <c r="CZ267" s="26"/>
-      <c r="DA267" s="26"/>
-      <c r="DB267" s="26">
+      <c r="CY267" s="27"/>
+      <c r="CZ267" s="27"/>
+      <c r="DA267" s="27"/>
+      <c r="DB267" s="27">
         <v>2007</v>
       </c>
-      <c r="DC267" s="26"/>
-      <c r="DD267" s="26"/>
-      <c r="DE267" s="26"/>
-      <c r="DF267" s="26">
+      <c r="DC267" s="27"/>
+      <c r="DD267" s="27"/>
+      <c r="DE267" s="27"/>
+      <c r="DF267" s="27">
         <v>2008</v>
       </c>
-      <c r="DG267" s="26"/>
-      <c r="DH267" s="26"/>
-      <c r="DI267" s="26"/>
-      <c r="DJ267" s="26">
+      <c r="DG267" s="27"/>
+      <c r="DH267" s="27"/>
+      <c r="DI267" s="27"/>
+      <c r="DJ267" s="27">
         <v>2009</v>
       </c>
-      <c r="DK267" s="26"/>
-      <c r="DL267" s="26"/>
-      <c r="DM267" s="26"/>
-      <c r="DN267" s="26">
+      <c r="DK267" s="27"/>
+      <c r="DL267" s="27"/>
+      <c r="DM267" s="27"/>
+      <c r="DN267" s="27">
         <v>2010</v>
       </c>
-      <c r="DO267" s="26"/>
-      <c r="DP267" s="26"/>
-      <c r="DQ267" s="26"/>
-      <c r="DR267" s="26">
+      <c r="DO267" s="27"/>
+      <c r="DP267" s="27"/>
+      <c r="DQ267" s="27"/>
+      <c r="DR267" s="27">
         <v>2011</v>
       </c>
-      <c r="DS267" s="26"/>
-      <c r="DT267" s="26"/>
-      <c r="DU267" s="26"/>
-      <c r="DV267" s="26">
+      <c r="DS267" s="27"/>
+      <c r="DT267" s="27"/>
+      <c r="DU267" s="27"/>
+      <c r="DV267" s="27">
         <v>2012</v>
       </c>
-      <c r="DW267" s="26"/>
-      <c r="DX267" s="26"/>
-      <c r="DY267" s="26"/>
-      <c r="DZ267" s="26">
+      <c r="DW267" s="27"/>
+      <c r="DX267" s="27"/>
+      <c r="DY267" s="27"/>
+      <c r="DZ267" s="27">
         <v>2013</v>
       </c>
-      <c r="EA267" s="26"/>
-      <c r="EB267" s="26"/>
-      <c r="EC267" s="26"/>
-      <c r="ED267" s="26">
+      <c r="EA267" s="27"/>
+      <c r="EB267" s="27"/>
+      <c r="EC267" s="27"/>
+      <c r="ED267" s="27">
         <v>2014</v>
       </c>
-      <c r="EE267" s="26"/>
-      <c r="EF267" s="26"/>
-      <c r="EG267" s="26"/>
-      <c r="EH267" s="26">
+      <c r="EE267" s="27"/>
+      <c r="EF267" s="27"/>
+      <c r="EG267" s="27"/>
+      <c r="EH267" s="27">
         <v>2015</v>
       </c>
-      <c r="EI267" s="26"/>
-      <c r="EJ267" s="26"/>
-      <c r="EK267" s="26"/>
-      <c r="EL267" s="26">
+      <c r="EI267" s="27"/>
+      <c r="EJ267" s="27"/>
+      <c r="EK267" s="27"/>
+      <c r="EL267" s="27">
         <v>2016</v>
       </c>
-      <c r="EM267" s="26"/>
-      <c r="EN267" s="26"/>
-      <c r="EO267" s="26"/>
-      <c r="EP267" s="26">
+      <c r="EM267" s="27"/>
+      <c r="EN267" s="27"/>
+      <c r="EO267" s="27"/>
+      <c r="EP267" s="27">
         <v>2017</v>
       </c>
-      <c r="EQ267" s="26"/>
-      <c r="ER267" s="26"/>
-      <c r="ES267" s="26"/>
-      <c r="ET267" s="26">
+      <c r="EQ267" s="27"/>
+      <c r="ER267" s="27"/>
+      <c r="ES267" s="27"/>
+      <c r="ET267" s="27">
         <v>2018</v>
       </c>
-      <c r="EU267" s="26"/>
-      <c r="EV267" s="26"/>
-      <c r="EW267" s="26"/>
-      <c r="EX267" s="26">
+      <c r="EU267" s="27"/>
+      <c r="EV267" s="27"/>
+      <c r="EW267" s="27"/>
+      <c r="EX267" s="27">
         <v>2019</v>
       </c>
-      <c r="EY267" s="26"/>
-      <c r="EZ267" s="26"/>
-      <c r="FA267" s="26"/>
-      <c r="FB267" s="26">
+      <c r="EY267" s="27"/>
+      <c r="EZ267" s="27"/>
+      <c r="FA267" s="27"/>
+      <c r="FB267" s="27">
         <v>2020</v>
       </c>
-      <c r="FC267" s="26"/>
-      <c r="FD267" s="26"/>
+      <c r="FC267" s="27"/>
+      <c r="FD267" s="27"/>
       <c r="FE267" s="4"/>
-      <c r="FF267" s="26">
+      <c r="FF267" s="27">
         <v>2021</v>
       </c>
-      <c r="FG267" s="26"/>
-      <c r="FH267" s="26"/>
-      <c r="FI267" s="26"/>
-      <c r="FJ267" s="26">
+      <c r="FG267" s="27"/>
+      <c r="FH267" s="27"/>
+      <c r="FI267" s="27"/>
+      <c r="FJ267" s="27">
         <v>2022</v>
       </c>
-      <c r="FK267" s="26"/>
-      <c r="FL267" s="26"/>
-      <c r="FM267" s="26"/>
+      <c r="FK267" s="27"/>
+      <c r="FL267" s="27"/>
+      <c r="FM267" s="27"/>
+      <c r="FN267" s="26">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="268" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A268" s="5" t="s">
         <v>13</v>
       </c>
@@ -48578,11 +48848,14 @@
       <c r="FM268" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="FN268" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="269" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:170" x14ac:dyDescent="0.3">
       <c r="FB269" s="2"/>
     </row>
-    <row r="270" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A270" s="15" t="s">
         <v>74</v>
       </c>
@@ -49090,8 +49363,11 @@
       <c r="FM270" s="21">
         <v>9.8908408505960281</v>
       </c>
+      <c r="FN270" s="21">
+        <v>10.11949288177396</v>
+      </c>
     </row>
-    <row r="271" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A271" s="15" t="s">
         <v>75</v>
       </c>
@@ -49599,8 +49875,11 @@
       <c r="FM271" s="21">
         <v>30.456270158378214</v>
       </c>
+      <c r="FN271" s="21">
+        <v>29.289478790726385</v>
+      </c>
     </row>
-    <row r="272" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A272" s="15" t="s">
         <v>76</v>
       </c>
@@ -50108,8 +50387,11 @@
       <c r="FM272" s="22">
         <v>59.652888991025762</v>
       </c>
+      <c r="FN272" s="22">
+        <v>60.59102832749965</v>
+      </c>
     </row>
-    <row r="273" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A273" s="16"/>
       <c r="B273" s="13"/>
       <c r="C273" s="13"/>
@@ -50279,8 +50561,9 @@
       <c r="FK273" s="22"/>
       <c r="FL273" s="22"/>
       <c r="FM273" s="22"/>
+      <c r="FN273" s="22"/>
     </row>
-    <row r="274" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A274" s="8" t="s">
         <v>10</v>
       </c>
@@ -50788,8 +51071,11 @@
       <c r="FM274" s="22">
         <v>100</v>
       </c>
+      <c r="FN274" s="22">
+        <v>100</v>
+      </c>
     </row>
-    <row r="275" spans="1:169" s="3" customFormat="1" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:170" s="3" customFormat="1" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2"/>
       <c r="B275" s="13"/>
       <c r="C275" s="13"/>
@@ -50954,7 +51240,7 @@
         <v>-24370.119758612476</v>
       </c>
     </row>
-    <row r="276" spans="1:169" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:170" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2"/>
       <c r="B276" s="13"/>
       <c r="C276" s="13"/>
@@ -51115,7 +51401,7 @@
       <c r="FB276" s="7"/>
       <c r="FC276" s="7"/>
     </row>
-    <row r="277" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:170" hidden="1" x14ac:dyDescent="0.3">
       <c r="B277" s="13"/>
       <c r="C277" s="13"/>
       <c r="D277" s="13"/>
@@ -51279,7 +51565,7 @@
         <v>4857262.3839106075</v>
       </c>
     </row>
-    <row r="278" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:170" hidden="1" x14ac:dyDescent="0.3">
       <c r="B278" s="13"/>
       <c r="C278" s="13"/>
       <c r="D278" s="13"/>
@@ -51437,7 +51723,7 @@
       <c r="EZ278" s="13"/>
       <c r="FA278" s="13"/>
     </row>
-    <row r="279" spans="1:169" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:170" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="9"/>
       <c r="B279" s="9"/>
       <c r="C279" s="9"/>
@@ -51607,37 +51893,38 @@
       <c r="FK279" s="9"/>
       <c r="FL279" s="9"/>
       <c r="FM279" s="9"/>
+      <c r="FN279" s="9"/>
     </row>
-    <row r="280" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="FC285" s="3"/>
       <c r="FD285" s="3"/>
       <c r="FE285" s="3"/>
     </row>
-    <row r="286" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A286" s="1"/>
       <c r="FC286" s="3"/>
       <c r="FD286" s="3"/>
       <c r="FE286" s="3"/>
     </row>
-    <row r="287" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>52</v>
       </c>
@@ -51645,276 +51932,280 @@
       <c r="FD287" s="3"/>
       <c r="FE287" s="3"/>
     </row>
-    <row r="288" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A288" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="289" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="290" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
       <c r="FJ290" s="9"/>
+      <c r="FN290" s="9"/>
     </row>
-    <row r="291" spans="1:169" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:170" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="4"/>
-      <c r="B291" s="26">
+      <c r="B291" s="27">
         <v>1981</v>
       </c>
-      <c r="C291" s="26"/>
-      <c r="D291" s="26"/>
-      <c r="E291" s="26"/>
-      <c r="F291" s="26">
+      <c r="C291" s="27"/>
+      <c r="D291" s="27"/>
+      <c r="E291" s="27"/>
+      <c r="F291" s="27">
         <v>1982</v>
       </c>
-      <c r="G291" s="26"/>
-      <c r="H291" s="26"/>
-      <c r="I291" s="26"/>
-      <c r="J291" s="26">
+      <c r="G291" s="27"/>
+      <c r="H291" s="27"/>
+      <c r="I291" s="27"/>
+      <c r="J291" s="27">
         <v>1983</v>
       </c>
-      <c r="K291" s="26"/>
-      <c r="L291" s="26"/>
-      <c r="M291" s="26"/>
-      <c r="N291" s="26">
+      <c r="K291" s="27"/>
+      <c r="L291" s="27"/>
+      <c r="M291" s="27"/>
+      <c r="N291" s="27">
         <v>1984</v>
       </c>
-      <c r="O291" s="26"/>
-      <c r="P291" s="26"/>
-      <c r="Q291" s="26"/>
-      <c r="R291" s="26">
+      <c r="O291" s="27"/>
+      <c r="P291" s="27"/>
+      <c r="Q291" s="27"/>
+      <c r="R291" s="27">
         <v>1985</v>
       </c>
-      <c r="S291" s="26"/>
-      <c r="T291" s="26"/>
-      <c r="U291" s="26"/>
-      <c r="V291" s="26">
+      <c r="S291" s="27"/>
+      <c r="T291" s="27"/>
+      <c r="U291" s="27"/>
+      <c r="V291" s="27">
         <v>1986</v>
       </c>
-      <c r="W291" s="26"/>
-      <c r="X291" s="26"/>
-      <c r="Y291" s="26"/>
-      <c r="Z291" s="26">
+      <c r="W291" s="27"/>
+      <c r="X291" s="27"/>
+      <c r="Y291" s="27"/>
+      <c r="Z291" s="27">
         <v>1987</v>
       </c>
-      <c r="AA291" s="26"/>
-      <c r="AB291" s="26"/>
-      <c r="AC291" s="26"/>
-      <c r="AD291" s="26">
+      <c r="AA291" s="27"/>
+      <c r="AB291" s="27"/>
+      <c r="AC291" s="27"/>
+      <c r="AD291" s="27">
         <v>1988</v>
       </c>
-      <c r="AE291" s="26"/>
-      <c r="AF291" s="26"/>
-      <c r="AG291" s="26"/>
-      <c r="AH291" s="26">
+      <c r="AE291" s="27"/>
+      <c r="AF291" s="27"/>
+      <c r="AG291" s="27"/>
+      <c r="AH291" s="27">
         <v>1989</v>
       </c>
-      <c r="AI291" s="26"/>
-      <c r="AJ291" s="26"/>
-      <c r="AK291" s="26"/>
-      <c r="AL291" s="26">
+      <c r="AI291" s="27"/>
+      <c r="AJ291" s="27"/>
+      <c r="AK291" s="27"/>
+      <c r="AL291" s="27">
         <v>1990</v>
       </c>
-      <c r="AM291" s="26"/>
-      <c r="AN291" s="26"/>
-      <c r="AO291" s="26"/>
-      <c r="AP291" s="26">
+      <c r="AM291" s="27"/>
+      <c r="AN291" s="27"/>
+      <c r="AO291" s="27"/>
+      <c r="AP291" s="27">
         <v>1991</v>
       </c>
-      <c r="AQ291" s="26"/>
-      <c r="AR291" s="26"/>
-      <c r="AS291" s="26"/>
-      <c r="AT291" s="26">
+      <c r="AQ291" s="27"/>
+      <c r="AR291" s="27"/>
+      <c r="AS291" s="27"/>
+      <c r="AT291" s="27">
         <v>1992</v>
       </c>
-      <c r="AU291" s="26"/>
-      <c r="AV291" s="26"/>
-      <c r="AW291" s="26"/>
-      <c r="AX291" s="26">
+      <c r="AU291" s="27"/>
+      <c r="AV291" s="27"/>
+      <c r="AW291" s="27"/>
+      <c r="AX291" s="27">
         <v>1993</v>
       </c>
-      <c r="AY291" s="26"/>
-      <c r="AZ291" s="26"/>
-      <c r="BA291" s="26"/>
-      <c r="BB291" s="26">
+      <c r="AY291" s="27"/>
+      <c r="AZ291" s="27"/>
+      <c r="BA291" s="27"/>
+      <c r="BB291" s="27">
         <v>1994</v>
       </c>
-      <c r="BC291" s="26"/>
-      <c r="BD291" s="26"/>
-      <c r="BE291" s="26"/>
-      <c r="BF291" s="26">
+      <c r="BC291" s="27"/>
+      <c r="BD291" s="27"/>
+      <c r="BE291" s="27"/>
+      <c r="BF291" s="27">
         <v>1995</v>
       </c>
-      <c r="BG291" s="26"/>
-      <c r="BH291" s="26"/>
-      <c r="BI291" s="26"/>
-      <c r="BJ291" s="26">
+      <c r="BG291" s="27"/>
+      <c r="BH291" s="27"/>
+      <c r="BI291" s="27"/>
+      <c r="BJ291" s="27">
         <v>1996</v>
       </c>
-      <c r="BK291" s="26"/>
-      <c r="BL291" s="26"/>
-      <c r="BM291" s="26"/>
-      <c r="BN291" s="26">
+      <c r="BK291" s="27"/>
+      <c r="BL291" s="27"/>
+      <c r="BM291" s="27"/>
+      <c r="BN291" s="27">
         <v>1997</v>
       </c>
-      <c r="BO291" s="26"/>
-      <c r="BP291" s="26"/>
-      <c r="BQ291" s="26"/>
-      <c r="BR291" s="26">
+      <c r="BO291" s="27"/>
+      <c r="BP291" s="27"/>
+      <c r="BQ291" s="27"/>
+      <c r="BR291" s="27">
         <v>1998</v>
       </c>
-      <c r="BS291" s="26"/>
-      <c r="BT291" s="26"/>
-      <c r="BU291" s="26"/>
-      <c r="BV291" s="26">
+      <c r="BS291" s="27"/>
+      <c r="BT291" s="27"/>
+      <c r="BU291" s="27"/>
+      <c r="BV291" s="27">
         <v>1999</v>
       </c>
-      <c r="BW291" s="26"/>
-      <c r="BX291" s="26"/>
-      <c r="BY291" s="26"/>
-      <c r="BZ291" s="26">
+      <c r="BW291" s="27"/>
+      <c r="BX291" s="27"/>
+      <c r="BY291" s="27"/>
+      <c r="BZ291" s="27">
         <v>2000</v>
       </c>
-      <c r="CA291" s="26"/>
-      <c r="CB291" s="26"/>
-      <c r="CC291" s="26"/>
-      <c r="CD291" s="26">
+      <c r="CA291" s="27"/>
+      <c r="CB291" s="27"/>
+      <c r="CC291" s="27"/>
+      <c r="CD291" s="27">
         <v>2001</v>
       </c>
-      <c r="CE291" s="26"/>
-      <c r="CF291" s="26"/>
-      <c r="CG291" s="26"/>
-      <c r="CH291" s="26">
+      <c r="CE291" s="27"/>
+      <c r="CF291" s="27"/>
+      <c r="CG291" s="27"/>
+      <c r="CH291" s="27">
         <v>2002</v>
       </c>
-      <c r="CI291" s="26"/>
-      <c r="CJ291" s="26"/>
-      <c r="CK291" s="26"/>
-      <c r="CL291" s="26">
+      <c r="CI291" s="27"/>
+      <c r="CJ291" s="27"/>
+      <c r="CK291" s="27"/>
+      <c r="CL291" s="27">
         <v>2003</v>
       </c>
-      <c r="CM291" s="26"/>
-      <c r="CN291" s="26"/>
-      <c r="CO291" s="26"/>
-      <c r="CP291" s="26">
+      <c r="CM291" s="27"/>
+      <c r="CN291" s="27"/>
+      <c r="CO291" s="27"/>
+      <c r="CP291" s="27">
         <v>2004</v>
       </c>
-      <c r="CQ291" s="26"/>
-      <c r="CR291" s="26"/>
-      <c r="CS291" s="26"/>
-      <c r="CT291" s="26">
+      <c r="CQ291" s="27"/>
+      <c r="CR291" s="27"/>
+      <c r="CS291" s="27"/>
+      <c r="CT291" s="27">
         <v>2005</v>
       </c>
-      <c r="CU291" s="26"/>
-      <c r="CV291" s="26"/>
-      <c r="CW291" s="26"/>
-      <c r="CX291" s="26">
+      <c r="CU291" s="27"/>
+      <c r="CV291" s="27"/>
+      <c r="CW291" s="27"/>
+      <c r="CX291" s="27">
         <v>2006</v>
       </c>
-      <c r="CY291" s="26"/>
-      <c r="CZ291" s="26"/>
-      <c r="DA291" s="26"/>
-      <c r="DB291" s="26">
+      <c r="CY291" s="27"/>
+      <c r="CZ291" s="27"/>
+      <c r="DA291" s="27"/>
+      <c r="DB291" s="27">
         <v>2007</v>
       </c>
-      <c r="DC291" s="26"/>
-      <c r="DD291" s="26"/>
-      <c r="DE291" s="26"/>
-      <c r="DF291" s="26">
+      <c r="DC291" s="27"/>
+      <c r="DD291" s="27"/>
+      <c r="DE291" s="27"/>
+      <c r="DF291" s="27">
         <v>2008</v>
       </c>
-      <c r="DG291" s="26"/>
-      <c r="DH291" s="26"/>
-      <c r="DI291" s="26"/>
-      <c r="DJ291" s="26">
+      <c r="DG291" s="27"/>
+      <c r="DH291" s="27"/>
+      <c r="DI291" s="27"/>
+      <c r="DJ291" s="27">
         <v>2009</v>
       </c>
-      <c r="DK291" s="26"/>
-      <c r="DL291" s="26"/>
-      <c r="DM291" s="26"/>
-      <c r="DN291" s="26">
+      <c r="DK291" s="27"/>
+      <c r="DL291" s="27"/>
+      <c r="DM291" s="27"/>
+      <c r="DN291" s="27">
         <v>2010</v>
       </c>
-      <c r="DO291" s="26"/>
-      <c r="DP291" s="26"/>
-      <c r="DQ291" s="26"/>
-      <c r="DR291" s="26">
+      <c r="DO291" s="27"/>
+      <c r="DP291" s="27"/>
+      <c r="DQ291" s="27"/>
+      <c r="DR291" s="27">
         <v>2011</v>
       </c>
-      <c r="DS291" s="26"/>
-      <c r="DT291" s="26"/>
-      <c r="DU291" s="26"/>
-      <c r="DV291" s="26">
+      <c r="DS291" s="27"/>
+      <c r="DT291" s="27"/>
+      <c r="DU291" s="27"/>
+      <c r="DV291" s="27">
         <v>2012</v>
       </c>
-      <c r="DW291" s="26"/>
-      <c r="DX291" s="26"/>
-      <c r="DY291" s="26"/>
-      <c r="DZ291" s="26">
+      <c r="DW291" s="27"/>
+      <c r="DX291" s="27"/>
+      <c r="DY291" s="27"/>
+      <c r="DZ291" s="27">
         <v>2013</v>
       </c>
-      <c r="EA291" s="26"/>
-      <c r="EB291" s="26"/>
-      <c r="EC291" s="26"/>
-      <c r="ED291" s="26">
+      <c r="EA291" s="27"/>
+      <c r="EB291" s="27"/>
+      <c r="EC291" s="27"/>
+      <c r="ED291" s="27">
         <v>2014</v>
       </c>
-      <c r="EE291" s="26"/>
-      <c r="EF291" s="26"/>
-      <c r="EG291" s="26"/>
-      <c r="EH291" s="26">
+      <c r="EE291" s="27"/>
+      <c r="EF291" s="27"/>
+      <c r="EG291" s="27"/>
+      <c r="EH291" s="27">
         <v>2015</v>
       </c>
-      <c r="EI291" s="26"/>
-      <c r="EJ291" s="26"/>
-      <c r="EK291" s="26"/>
-      <c r="EL291" s="26">
+      <c r="EI291" s="27"/>
+      <c r="EJ291" s="27"/>
+      <c r="EK291" s="27"/>
+      <c r="EL291" s="27">
         <v>2016</v>
       </c>
-      <c r="EM291" s="26"/>
-      <c r="EN291" s="26"/>
-      <c r="EO291" s="26"/>
-      <c r="EP291" s="26">
+      <c r="EM291" s="27"/>
+      <c r="EN291" s="27"/>
+      <c r="EO291" s="27"/>
+      <c r="EP291" s="27">
         <v>2017</v>
       </c>
-      <c r="EQ291" s="26"/>
-      <c r="ER291" s="26"/>
-      <c r="ES291" s="26"/>
-      <c r="ET291" s="26">
+      <c r="EQ291" s="27"/>
+      <c r="ER291" s="27"/>
+      <c r="ES291" s="27"/>
+      <c r="ET291" s="27">
         <v>2018</v>
       </c>
-      <c r="EU291" s="26"/>
-      <c r="EV291" s="26"/>
-      <c r="EW291" s="26"/>
-      <c r="EX291" s="26">
+      <c r="EU291" s="27"/>
+      <c r="EV291" s="27"/>
+      <c r="EW291" s="27"/>
+      <c r="EX291" s="27">
         <v>2019</v>
       </c>
-      <c r="EY291" s="26"/>
-      <c r="EZ291" s="26"/>
-      <c r="FA291" s="26"/>
-      <c r="FB291" s="26">
+      <c r="EY291" s="27"/>
+      <c r="EZ291" s="27"/>
+      <c r="FA291" s="27"/>
+      <c r="FB291" s="27">
         <v>2020</v>
       </c>
-      <c r="FC291" s="26"/>
-      <c r="FD291" s="26"/>
-      <c r="FE291" s="26">
+      <c r="FC291" s="27"/>
+      <c r="FD291" s="27"/>
+      <c r="FE291" s="27">
         <v>2021</v>
       </c>
-      <c r="FF291" s="26"/>
-      <c r="FG291" s="26"/>
-      <c r="FH291" s="26"/>
-      <c r="FI291" s="26"/>
-      <c r="FJ291" s="26">
+      <c r="FF291" s="27"/>
+      <c r="FG291" s="27"/>
+      <c r="FH291" s="27"/>
+      <c r="FI291" s="27"/>
+      <c r="FJ291" s="27">
         <v>2022</v>
       </c>
-      <c r="FK291" s="26"/>
-      <c r="FL291" s="26"/>
-      <c r="FM291" s="26"/>
+      <c r="FK291" s="27"/>
+      <c r="FL291" s="27"/>
+      <c r="FM291" s="27"/>
+      <c r="FN291" s="26">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="292" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A292" s="5" t="s">
         <v>13</v>
       </c>
@@ -52422,11 +52713,14 @@
       <c r="FM292" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="FN292" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="293" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:170" x14ac:dyDescent="0.3">
       <c r="FB293" s="2"/>
     </row>
-    <row r="294" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A294" s="15" t="s">
         <v>74</v>
       </c>
@@ -52934,8 +53228,11 @@
       <c r="FM294" s="22">
         <v>9.4215674606374069</v>
       </c>
+      <c r="FN294" s="22">
+        <v>9.06059788359922</v>
+      </c>
     </row>
-    <row r="295" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A295" s="15" t="s">
         <v>75</v>
       </c>
@@ -53443,8 +53740,11 @@
       <c r="FM295" s="22">
         <v>30.477186663687306</v>
       </c>
+      <c r="FN295" s="22">
+        <v>29.88177382382694</v>
+      </c>
     </row>
-    <row r="296" spans="1:169" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296" s="15" t="s">
         <v>76</v>
       </c>
@@ -53952,8 +54252,11 @@
       <c r="FM296" s="22">
         <v>60.101245875675289</v>
       </c>
+      <c r="FN296" s="22">
+        <v>61.057628292573852</v>
+      </c>
     </row>
-    <row r="297" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A297" s="16"/>
       <c r="B297" s="13"/>
       <c r="C297" s="13"/>
@@ -54123,8 +54426,9 @@
       <c r="FK297" s="21"/>
       <c r="FL297" s="21"/>
       <c r="FM297" s="21"/>
+      <c r="FN297" s="21"/>
     </row>
-    <row r="298" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A298" s="8" t="s">
         <v>10</v>
       </c>
@@ -54632,8 +54936,11 @@
       <c r="FM298" s="21">
         <v>100</v>
       </c>
+      <c r="FN298" s="21">
+        <v>100</v>
+      </c>
     </row>
-    <row r="299" spans="1:169" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:170" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B299" s="13"/>
       <c r="C299" s="13"/>
       <c r="D299" s="13"/>
@@ -54797,7 +55104,7 @@
         <v>-0.58654919688841323</v>
       </c>
     </row>
-    <row r="300" spans="1:169" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:170" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B300" s="13"/>
       <c r="C300" s="13"/>
       <c r="D300" s="13"/>
@@ -54961,7 +55268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:169" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:170" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B301" s="13"/>
       <c r="C301" s="13"/>
       <c r="D301" s="13"/>
@@ -55125,7 +55432,7 @@
         <v>116.90641566717015</v>
       </c>
     </row>
-    <row r="302" spans="1:169" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:170" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B302" s="13"/>
       <c r="C302" s="13"/>
       <c r="D302" s="13"/>
@@ -55289,7 +55596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:169" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:170" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="9"/>
       <c r="B303" s="9"/>
       <c r="C303" s="9"/>
@@ -55459,13 +55766,14 @@
       <c r="FK303" s="9"/>
       <c r="FL303" s="9"/>
       <c r="FM303" s="9"/>
+      <c r="FN303" s="9"/>
     </row>
-    <row r="304" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:170" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:161" x14ac:dyDescent="0.3">
       <c r="B305" s="10"/>
       <c r="C305" s="10"/>
       <c r="D305" s="10"/>
@@ -55623,7 +55931,7 @@
       <c r="EZ305" s="10"/>
       <c r="FA305" s="10"/>
     </row>
-    <row r="306" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:161" x14ac:dyDescent="0.3">
       <c r="B306" s="10"/>
       <c r="C306" s="10"/>
       <c r="D306" s="10"/>
@@ -55781,55 +56089,473 @@
       <c r="EZ306" s="10"/>
       <c r="FA306" s="10"/>
     </row>
-    <row r="307" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:161" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
     </row>
-    <row r="311" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:161" x14ac:dyDescent="0.3">
       <c r="FC311" s="3"/>
       <c r="FD311" s="3"/>
       <c r="FE311" s="3"/>
     </row>
-    <row r="312" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:161" x14ac:dyDescent="0.3">
       <c r="FC312" s="3"/>
       <c r="FD312" s="3"/>
       <c r="FE312" s="3"/>
     </row>
-    <row r="313" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:161" x14ac:dyDescent="0.3">
       <c r="FC313" s="3"/>
       <c r="FD313" s="3"/>
       <c r="FE313" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="500">
-    <mergeCell ref="FJ9:FM9"/>
-    <mergeCell ref="FJ36:FM36"/>
-    <mergeCell ref="FJ117:FM117"/>
-    <mergeCell ref="FJ144:FM144"/>
-    <mergeCell ref="FJ171:FM171"/>
-    <mergeCell ref="FJ195:FM195"/>
-    <mergeCell ref="FJ267:FM267"/>
-    <mergeCell ref="FJ291:FM291"/>
-    <mergeCell ref="FF219:FI219"/>
-    <mergeCell ref="FF243:FI243"/>
-    <mergeCell ref="EX63:FA63"/>
-    <mergeCell ref="EX90:FA90"/>
-    <mergeCell ref="FB117:FD117"/>
-    <mergeCell ref="FB144:FD144"/>
-    <mergeCell ref="FB171:FD171"/>
-    <mergeCell ref="FB195:FD195"/>
-    <mergeCell ref="EX195:FA195"/>
-    <mergeCell ref="EX36:FA36"/>
-    <mergeCell ref="FF9:FI9"/>
-    <mergeCell ref="FF36:FI36"/>
-    <mergeCell ref="FB63:FE63"/>
-    <mergeCell ref="FB90:FE90"/>
-    <mergeCell ref="FF117:FI117"/>
-    <mergeCell ref="FF144:FI144"/>
-    <mergeCell ref="FF171:FI171"/>
-    <mergeCell ref="FF195:FI195"/>
-    <mergeCell ref="FB9:FE9"/>
-    <mergeCell ref="FF63:FI63"/>
-    <mergeCell ref="FF90:FI90"/>
+    <mergeCell ref="FB267:FD267"/>
+    <mergeCell ref="FB291:FD291"/>
+    <mergeCell ref="FB36:FD36"/>
+    <mergeCell ref="FE291:FI291"/>
+    <mergeCell ref="FF267:FI267"/>
+    <mergeCell ref="FB243:FE243"/>
+    <mergeCell ref="FB219:FE219"/>
+    <mergeCell ref="CD36:CG36"/>
+    <mergeCell ref="CH36:CK36"/>
+    <mergeCell ref="CL36:CO36"/>
+    <mergeCell ref="CP36:CS36"/>
+    <mergeCell ref="CT36:CW36"/>
+    <mergeCell ref="CX36:DA36"/>
+    <mergeCell ref="DB36:DE36"/>
+    <mergeCell ref="DF36:DI36"/>
+    <mergeCell ref="DJ36:DM36"/>
+    <mergeCell ref="DN36:DQ36"/>
+    <mergeCell ref="DR36:DU36"/>
+    <mergeCell ref="DV36:DY36"/>
+    <mergeCell ref="DZ36:EC36"/>
+    <mergeCell ref="EL63:EO63"/>
+    <mergeCell ref="EP63:ES63"/>
+    <mergeCell ref="CD63:CG63"/>
+    <mergeCell ref="EH90:EK90"/>
+    <mergeCell ref="DV9:DY9"/>
+    <mergeCell ref="CX9:DA9"/>
+    <mergeCell ref="DB9:DE9"/>
+    <mergeCell ref="DF9:DI9"/>
+    <mergeCell ref="DJ9:DM9"/>
+    <mergeCell ref="DN9:DQ9"/>
+    <mergeCell ref="DR9:DU9"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CP9:CS9"/>
+    <mergeCell ref="CT9:CW9"/>
+    <mergeCell ref="ET9:EW9"/>
+    <mergeCell ref="EX9:FA9"/>
+    <mergeCell ref="DZ9:EC9"/>
+    <mergeCell ref="ED9:EG9"/>
+    <mergeCell ref="EH9:EK9"/>
+    <mergeCell ref="EL9:EO9"/>
+    <mergeCell ref="EP9:ES9"/>
+    <mergeCell ref="EH36:EK36"/>
+    <mergeCell ref="EL36:EO36"/>
+    <mergeCell ref="EP36:ES36"/>
+    <mergeCell ref="ET36:EW36"/>
+    <mergeCell ref="ED36:EG36"/>
+    <mergeCell ref="DF90:DI90"/>
+    <mergeCell ref="DF63:DI63"/>
+    <mergeCell ref="DJ63:DM63"/>
+    <mergeCell ref="EL90:EO90"/>
+    <mergeCell ref="EP90:ES90"/>
+    <mergeCell ref="ET90:EW90"/>
+    <mergeCell ref="DJ90:DM90"/>
+    <mergeCell ref="DN90:DQ90"/>
+    <mergeCell ref="DR90:DU90"/>
+    <mergeCell ref="DV90:DY90"/>
+    <mergeCell ref="DZ90:EC90"/>
+    <mergeCell ref="ED90:EG90"/>
+    <mergeCell ref="ET63:EW63"/>
+    <mergeCell ref="DV63:DY63"/>
+    <mergeCell ref="DZ63:EC63"/>
+    <mergeCell ref="ED63:EG63"/>
+    <mergeCell ref="EH63:EK63"/>
+    <mergeCell ref="DN63:DQ63"/>
+    <mergeCell ref="DR63:DU63"/>
+    <mergeCell ref="CT90:CW90"/>
+    <mergeCell ref="CX90:DA90"/>
+    <mergeCell ref="DB90:DE90"/>
+    <mergeCell ref="CX63:DA63"/>
+    <mergeCell ref="DB63:DE63"/>
+    <mergeCell ref="CD90:CG90"/>
+    <mergeCell ref="CH90:CK90"/>
+    <mergeCell ref="CL90:CO90"/>
+    <mergeCell ref="CP90:CS90"/>
+    <mergeCell ref="CH63:CK63"/>
+    <mergeCell ref="CL63:CO63"/>
+    <mergeCell ref="CP63:CS63"/>
+    <mergeCell ref="CT63:CW63"/>
+    <mergeCell ref="ET144:EW144"/>
+    <mergeCell ref="EX144:FA144"/>
+    <mergeCell ref="DZ144:EC144"/>
+    <mergeCell ref="ED144:EG144"/>
+    <mergeCell ref="EH144:EK144"/>
+    <mergeCell ref="EL144:EO144"/>
+    <mergeCell ref="EP144:ES144"/>
+    <mergeCell ref="EH117:EK117"/>
+    <mergeCell ref="EL117:EO117"/>
+    <mergeCell ref="EP117:ES117"/>
+    <mergeCell ref="ET117:EW117"/>
+    <mergeCell ref="EX117:FA117"/>
+    <mergeCell ref="BZ117:CC117"/>
+    <mergeCell ref="CD117:CG117"/>
+    <mergeCell ref="CH117:CK117"/>
+    <mergeCell ref="CL117:CO117"/>
+    <mergeCell ref="CP117:CS117"/>
+    <mergeCell ref="CT117:CW117"/>
+    <mergeCell ref="CX117:DA117"/>
+    <mergeCell ref="DB117:DE117"/>
+    <mergeCell ref="ED117:EG117"/>
+    <mergeCell ref="DF117:DI117"/>
+    <mergeCell ref="DJ117:DM117"/>
+    <mergeCell ref="DN117:DQ117"/>
+    <mergeCell ref="DR117:DU117"/>
+    <mergeCell ref="DV117:DY117"/>
+    <mergeCell ref="DZ117:EC117"/>
+    <mergeCell ref="CD171:CG171"/>
+    <mergeCell ref="CH171:CK171"/>
+    <mergeCell ref="CL171:CO171"/>
+    <mergeCell ref="CP171:CS171"/>
+    <mergeCell ref="CT171:CW171"/>
+    <mergeCell ref="CX171:DA171"/>
+    <mergeCell ref="DB171:DE171"/>
+    <mergeCell ref="DV144:DY144"/>
+    <mergeCell ref="CX144:DA144"/>
+    <mergeCell ref="DB144:DE144"/>
+    <mergeCell ref="DF144:DI144"/>
+    <mergeCell ref="DJ144:DM144"/>
+    <mergeCell ref="DN144:DQ144"/>
+    <mergeCell ref="DR144:DU144"/>
+    <mergeCell ref="CD144:CG144"/>
+    <mergeCell ref="CH144:CK144"/>
+    <mergeCell ref="CL144:CO144"/>
+    <mergeCell ref="CP144:CS144"/>
+    <mergeCell ref="CT144:CW144"/>
+    <mergeCell ref="ET171:EW171"/>
+    <mergeCell ref="ET195:EW195"/>
+    <mergeCell ref="EX171:FA171"/>
+    <mergeCell ref="DF171:DI171"/>
+    <mergeCell ref="DJ171:DM171"/>
+    <mergeCell ref="DN171:DQ171"/>
+    <mergeCell ref="DR171:DU171"/>
+    <mergeCell ref="DV171:DY171"/>
+    <mergeCell ref="DZ171:EC171"/>
+    <mergeCell ref="ED219:EG219"/>
+    <mergeCell ref="CH195:CK195"/>
+    <mergeCell ref="CL195:CO195"/>
+    <mergeCell ref="CP195:CS195"/>
+    <mergeCell ref="CT195:CW195"/>
+    <mergeCell ref="ED171:EG171"/>
+    <mergeCell ref="EH171:EK171"/>
+    <mergeCell ref="EL171:EO171"/>
+    <mergeCell ref="EP171:ES171"/>
+    <mergeCell ref="DZ195:EC195"/>
+    <mergeCell ref="ED195:EG195"/>
+    <mergeCell ref="EH195:EK195"/>
+    <mergeCell ref="EL195:EO195"/>
+    <mergeCell ref="EP195:ES195"/>
+    <mergeCell ref="CX195:DA195"/>
+    <mergeCell ref="DB195:DE195"/>
+    <mergeCell ref="DF195:DI195"/>
+    <mergeCell ref="DJ195:DM195"/>
+    <mergeCell ref="DN195:DQ195"/>
+    <mergeCell ref="DR195:DU195"/>
+    <mergeCell ref="EH219:EK219"/>
+    <mergeCell ref="EL219:EO219"/>
+    <mergeCell ref="EP219:ES219"/>
+    <mergeCell ref="CD219:CG219"/>
+    <mergeCell ref="CH219:CK219"/>
+    <mergeCell ref="CL219:CO219"/>
+    <mergeCell ref="CP219:CS219"/>
+    <mergeCell ref="CT219:CW219"/>
+    <mergeCell ref="CX219:DA219"/>
+    <mergeCell ref="DB219:DE219"/>
+    <mergeCell ref="DV195:DY195"/>
+    <mergeCell ref="BZ195:CC195"/>
+    <mergeCell ref="CD195:CG195"/>
+    <mergeCell ref="ET219:EW219"/>
+    <mergeCell ref="BZ243:CC243"/>
+    <mergeCell ref="CD243:CG243"/>
+    <mergeCell ref="CH243:CK243"/>
+    <mergeCell ref="CL243:CO243"/>
+    <mergeCell ref="CP243:CS243"/>
+    <mergeCell ref="DF219:DI219"/>
+    <mergeCell ref="DJ219:DM219"/>
+    <mergeCell ref="DN219:DQ219"/>
+    <mergeCell ref="DR219:DU219"/>
+    <mergeCell ref="DV219:DY219"/>
+    <mergeCell ref="DZ219:EC219"/>
+    <mergeCell ref="EP243:ES243"/>
+    <mergeCell ref="ET243:EW243"/>
+    <mergeCell ref="DV243:DY243"/>
+    <mergeCell ref="DZ243:EC243"/>
+    <mergeCell ref="ED243:EG243"/>
+    <mergeCell ref="EH243:EK243"/>
+    <mergeCell ref="EL243:EO243"/>
+    <mergeCell ref="DR243:DU243"/>
+    <mergeCell ref="CT243:CW243"/>
+    <mergeCell ref="CX243:DA243"/>
+    <mergeCell ref="DB243:DE243"/>
+    <mergeCell ref="DF243:DI243"/>
+    <mergeCell ref="DJ243:DM243"/>
+    <mergeCell ref="DN243:DQ243"/>
+    <mergeCell ref="CT267:CW267"/>
+    <mergeCell ref="EX291:FA291"/>
+    <mergeCell ref="DF291:DI291"/>
+    <mergeCell ref="DJ291:DM291"/>
+    <mergeCell ref="DN291:DQ291"/>
+    <mergeCell ref="DR291:DU291"/>
+    <mergeCell ref="DV291:DY291"/>
+    <mergeCell ref="DZ291:EC291"/>
+    <mergeCell ref="ET267:EW267"/>
+    <mergeCell ref="EX267:FA267"/>
+    <mergeCell ref="DV267:DY267"/>
+    <mergeCell ref="DZ267:EC267"/>
+    <mergeCell ref="ED267:EG267"/>
+    <mergeCell ref="EH267:EK267"/>
+    <mergeCell ref="EL267:EO267"/>
+    <mergeCell ref="EP267:ES267"/>
+    <mergeCell ref="DF267:DI267"/>
+    <mergeCell ref="DJ267:DM267"/>
+    <mergeCell ref="DN267:DQ267"/>
+    <mergeCell ref="DR267:DU267"/>
+    <mergeCell ref="ET291:EW291"/>
+    <mergeCell ref="ED291:EG291"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="BZ291:CC291"/>
+    <mergeCell ref="BZ219:CC219"/>
+    <mergeCell ref="BZ171:CC171"/>
+    <mergeCell ref="BZ144:CC144"/>
+    <mergeCell ref="BZ63:CC63"/>
+    <mergeCell ref="BZ90:CC90"/>
+    <mergeCell ref="BZ36:CC36"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="BR36:BU36"/>
+    <mergeCell ref="BV36:BY36"/>
+    <mergeCell ref="BF63:BI63"/>
+    <mergeCell ref="EH291:EK291"/>
+    <mergeCell ref="EL291:EO291"/>
+    <mergeCell ref="EP291:ES291"/>
+    <mergeCell ref="CX267:DA267"/>
+    <mergeCell ref="DB267:DE267"/>
+    <mergeCell ref="BZ267:CC267"/>
+    <mergeCell ref="CD267:CG267"/>
+    <mergeCell ref="CH267:CK267"/>
+    <mergeCell ref="CL267:CO267"/>
+    <mergeCell ref="CP267:CS267"/>
+    <mergeCell ref="CD291:CG291"/>
+    <mergeCell ref="CH291:CK291"/>
+    <mergeCell ref="CL291:CO291"/>
+    <mergeCell ref="CP291:CS291"/>
+    <mergeCell ref="CT291:CW291"/>
+    <mergeCell ref="CX291:DA291"/>
+    <mergeCell ref="DB291:DE291"/>
+    <mergeCell ref="BJ63:BM63"/>
+    <mergeCell ref="BN63:BQ63"/>
+    <mergeCell ref="BR63:BU63"/>
+    <mergeCell ref="BV63:BY63"/>
+    <mergeCell ref="AX63:BA63"/>
+    <mergeCell ref="BB63:BE63"/>
+    <mergeCell ref="BR90:BU90"/>
+    <mergeCell ref="BV90:BY90"/>
+    <mergeCell ref="AX90:BA90"/>
+    <mergeCell ref="BB90:BE90"/>
+    <mergeCell ref="BF90:BI90"/>
+    <mergeCell ref="BJ90:BM90"/>
+    <mergeCell ref="BN90:BQ90"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="BJ36:BM36"/>
+    <mergeCell ref="BN36:BQ36"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="R36:U36"/>
+    <mergeCell ref="V36:Y36"/>
+    <mergeCell ref="Z36:AC36"/>
+    <mergeCell ref="AD36:AG36"/>
+    <mergeCell ref="AH36:AK36"/>
+    <mergeCell ref="AL36:AO36"/>
+    <mergeCell ref="AP36:AS36"/>
+    <mergeCell ref="AT36:AW36"/>
+    <mergeCell ref="AX36:BA36"/>
+    <mergeCell ref="BB36:BE36"/>
+    <mergeCell ref="BF36:BI36"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="J90:M90"/>
+    <mergeCell ref="N90:Q90"/>
+    <mergeCell ref="R90:U90"/>
+    <mergeCell ref="AH63:AK63"/>
+    <mergeCell ref="AL63:AO63"/>
+    <mergeCell ref="AP63:AS63"/>
+    <mergeCell ref="AT63:AW63"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="R63:U63"/>
+    <mergeCell ref="V63:Y63"/>
+    <mergeCell ref="Z63:AC63"/>
+    <mergeCell ref="AD63:AG63"/>
+    <mergeCell ref="AT90:AW90"/>
+    <mergeCell ref="V90:Y90"/>
+    <mergeCell ref="Z90:AC90"/>
+    <mergeCell ref="AD90:AG90"/>
+    <mergeCell ref="AH90:AK90"/>
+    <mergeCell ref="AL90:AO90"/>
+    <mergeCell ref="AP90:AS90"/>
+    <mergeCell ref="B117:E117"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="J117:M117"/>
+    <mergeCell ref="N117:Q117"/>
+    <mergeCell ref="R117:U117"/>
+    <mergeCell ref="BR117:BU117"/>
+    <mergeCell ref="BV117:BY117"/>
+    <mergeCell ref="AX117:BA117"/>
+    <mergeCell ref="BB117:BE117"/>
+    <mergeCell ref="BF117:BI117"/>
+    <mergeCell ref="BJ117:BM117"/>
+    <mergeCell ref="BN117:BQ117"/>
+    <mergeCell ref="F144:I144"/>
+    <mergeCell ref="J144:M144"/>
+    <mergeCell ref="N144:Q144"/>
+    <mergeCell ref="R144:U144"/>
+    <mergeCell ref="V144:Y144"/>
+    <mergeCell ref="Z144:AC144"/>
+    <mergeCell ref="AD144:AG144"/>
+    <mergeCell ref="AT117:AW117"/>
+    <mergeCell ref="V117:Y117"/>
+    <mergeCell ref="Z117:AC117"/>
+    <mergeCell ref="AD117:AG117"/>
+    <mergeCell ref="AH117:AK117"/>
+    <mergeCell ref="AL117:AO117"/>
+    <mergeCell ref="AP117:AS117"/>
+    <mergeCell ref="BF144:BI144"/>
+    <mergeCell ref="BJ144:BM144"/>
+    <mergeCell ref="BN144:BQ144"/>
+    <mergeCell ref="BR144:BU144"/>
+    <mergeCell ref="BV144:BY144"/>
+    <mergeCell ref="B171:E171"/>
+    <mergeCell ref="F171:I171"/>
+    <mergeCell ref="J171:M171"/>
+    <mergeCell ref="N171:Q171"/>
+    <mergeCell ref="R171:U171"/>
+    <mergeCell ref="AH144:AK144"/>
+    <mergeCell ref="AL144:AO144"/>
+    <mergeCell ref="AP144:AS144"/>
+    <mergeCell ref="AT144:AW144"/>
+    <mergeCell ref="AX144:BA144"/>
+    <mergeCell ref="BB144:BE144"/>
+    <mergeCell ref="BR171:BU171"/>
+    <mergeCell ref="BV171:BY171"/>
+    <mergeCell ref="AX171:BA171"/>
+    <mergeCell ref="BB171:BE171"/>
+    <mergeCell ref="BF171:BI171"/>
+    <mergeCell ref="BJ171:BM171"/>
+    <mergeCell ref="BN171:BQ171"/>
+    <mergeCell ref="B144:E144"/>
+    <mergeCell ref="F195:I195"/>
+    <mergeCell ref="J195:M195"/>
+    <mergeCell ref="N195:Q195"/>
+    <mergeCell ref="R195:U195"/>
+    <mergeCell ref="V195:Y195"/>
+    <mergeCell ref="Z195:AC195"/>
+    <mergeCell ref="AD195:AG195"/>
+    <mergeCell ref="AT171:AW171"/>
+    <mergeCell ref="V171:Y171"/>
+    <mergeCell ref="Z171:AC171"/>
+    <mergeCell ref="AD171:AG171"/>
+    <mergeCell ref="AH171:AK171"/>
+    <mergeCell ref="AL171:AO171"/>
+    <mergeCell ref="AP171:AS171"/>
+    <mergeCell ref="BF195:BI195"/>
+    <mergeCell ref="BJ195:BM195"/>
+    <mergeCell ref="BN195:BQ195"/>
+    <mergeCell ref="BR195:BU195"/>
+    <mergeCell ref="BV195:BY195"/>
+    <mergeCell ref="B219:E219"/>
+    <mergeCell ref="F219:I219"/>
+    <mergeCell ref="J219:M219"/>
+    <mergeCell ref="N219:Q219"/>
+    <mergeCell ref="R219:U219"/>
+    <mergeCell ref="AH195:AK195"/>
+    <mergeCell ref="AL195:AO195"/>
+    <mergeCell ref="AP195:AS195"/>
+    <mergeCell ref="AT195:AW195"/>
+    <mergeCell ref="AX195:BA195"/>
+    <mergeCell ref="BB195:BE195"/>
+    <mergeCell ref="BR219:BU219"/>
+    <mergeCell ref="BV219:BY219"/>
+    <mergeCell ref="AX219:BA219"/>
+    <mergeCell ref="BB219:BE219"/>
+    <mergeCell ref="BF219:BI219"/>
+    <mergeCell ref="BJ219:BM219"/>
+    <mergeCell ref="BN219:BQ219"/>
+    <mergeCell ref="B195:E195"/>
+    <mergeCell ref="F243:I243"/>
+    <mergeCell ref="J243:M243"/>
+    <mergeCell ref="N243:Q243"/>
+    <mergeCell ref="R243:U243"/>
+    <mergeCell ref="V243:Y243"/>
+    <mergeCell ref="Z243:AC243"/>
+    <mergeCell ref="AD243:AG243"/>
+    <mergeCell ref="AT219:AW219"/>
+    <mergeCell ref="V219:Y219"/>
+    <mergeCell ref="Z219:AC219"/>
+    <mergeCell ref="AD219:AG219"/>
+    <mergeCell ref="AH219:AK219"/>
+    <mergeCell ref="AL219:AO219"/>
+    <mergeCell ref="AP219:AS219"/>
+    <mergeCell ref="BF243:BI243"/>
+    <mergeCell ref="BJ243:BM243"/>
+    <mergeCell ref="BN243:BQ243"/>
+    <mergeCell ref="BR243:BU243"/>
+    <mergeCell ref="BV243:BY243"/>
+    <mergeCell ref="AH243:AK243"/>
+    <mergeCell ref="AL243:AO243"/>
+    <mergeCell ref="AP243:AS243"/>
+    <mergeCell ref="AT243:AW243"/>
+    <mergeCell ref="AX243:BA243"/>
+    <mergeCell ref="BB243:BE243"/>
+    <mergeCell ref="BV267:BY267"/>
+    <mergeCell ref="B291:E291"/>
+    <mergeCell ref="F291:I291"/>
+    <mergeCell ref="J291:M291"/>
+    <mergeCell ref="N291:Q291"/>
+    <mergeCell ref="R291:U291"/>
+    <mergeCell ref="AH267:AK267"/>
+    <mergeCell ref="AL267:AO267"/>
+    <mergeCell ref="AP267:AS267"/>
+    <mergeCell ref="AT267:AW267"/>
+    <mergeCell ref="AX267:BA267"/>
+    <mergeCell ref="BB267:BE267"/>
+    <mergeCell ref="BR291:BU291"/>
+    <mergeCell ref="BV291:BY291"/>
+    <mergeCell ref="AT291:AW291"/>
+    <mergeCell ref="AX291:BA291"/>
+    <mergeCell ref="BB291:BE291"/>
     <mergeCell ref="EX219:EZ219"/>
     <mergeCell ref="EX243:EZ243"/>
     <mergeCell ref="BF291:BI291"/>
@@ -55854,453 +56580,35 @@
     <mergeCell ref="Z267:AC267"/>
     <mergeCell ref="AD267:AG267"/>
     <mergeCell ref="BR267:BU267"/>
-    <mergeCell ref="BV267:BY267"/>
-    <mergeCell ref="B291:E291"/>
-    <mergeCell ref="F291:I291"/>
-    <mergeCell ref="J291:M291"/>
-    <mergeCell ref="N291:Q291"/>
-    <mergeCell ref="R291:U291"/>
-    <mergeCell ref="AH267:AK267"/>
-    <mergeCell ref="AL267:AO267"/>
-    <mergeCell ref="AP267:AS267"/>
-    <mergeCell ref="AT267:AW267"/>
-    <mergeCell ref="AX267:BA267"/>
-    <mergeCell ref="BB267:BE267"/>
-    <mergeCell ref="BR291:BU291"/>
-    <mergeCell ref="BV291:BY291"/>
-    <mergeCell ref="AT291:AW291"/>
-    <mergeCell ref="AX291:BA291"/>
-    <mergeCell ref="BB291:BE291"/>
-    <mergeCell ref="BF243:BI243"/>
-    <mergeCell ref="BJ243:BM243"/>
-    <mergeCell ref="BN243:BQ243"/>
-    <mergeCell ref="BR243:BU243"/>
-    <mergeCell ref="BV243:BY243"/>
-    <mergeCell ref="AH243:AK243"/>
-    <mergeCell ref="AL243:AO243"/>
-    <mergeCell ref="AP243:AS243"/>
-    <mergeCell ref="AT243:AW243"/>
-    <mergeCell ref="AX243:BA243"/>
-    <mergeCell ref="BB243:BE243"/>
-    <mergeCell ref="F243:I243"/>
-    <mergeCell ref="J243:M243"/>
-    <mergeCell ref="N243:Q243"/>
-    <mergeCell ref="R243:U243"/>
-    <mergeCell ref="V243:Y243"/>
-    <mergeCell ref="Z243:AC243"/>
-    <mergeCell ref="AD243:AG243"/>
-    <mergeCell ref="AT219:AW219"/>
-    <mergeCell ref="V219:Y219"/>
-    <mergeCell ref="Z219:AC219"/>
-    <mergeCell ref="AD219:AG219"/>
-    <mergeCell ref="AH219:AK219"/>
-    <mergeCell ref="AL219:AO219"/>
-    <mergeCell ref="AP219:AS219"/>
-    <mergeCell ref="BF195:BI195"/>
-    <mergeCell ref="BJ195:BM195"/>
-    <mergeCell ref="BN195:BQ195"/>
-    <mergeCell ref="BR195:BU195"/>
-    <mergeCell ref="BV195:BY195"/>
-    <mergeCell ref="B219:E219"/>
-    <mergeCell ref="F219:I219"/>
-    <mergeCell ref="J219:M219"/>
-    <mergeCell ref="N219:Q219"/>
-    <mergeCell ref="R219:U219"/>
-    <mergeCell ref="AH195:AK195"/>
-    <mergeCell ref="AL195:AO195"/>
-    <mergeCell ref="AP195:AS195"/>
-    <mergeCell ref="AT195:AW195"/>
-    <mergeCell ref="AX195:BA195"/>
-    <mergeCell ref="BB195:BE195"/>
-    <mergeCell ref="BR219:BU219"/>
-    <mergeCell ref="BV219:BY219"/>
-    <mergeCell ref="AX219:BA219"/>
-    <mergeCell ref="BB219:BE219"/>
-    <mergeCell ref="BF219:BI219"/>
-    <mergeCell ref="BJ219:BM219"/>
-    <mergeCell ref="BN219:BQ219"/>
-    <mergeCell ref="B195:E195"/>
-    <mergeCell ref="F195:I195"/>
-    <mergeCell ref="J195:M195"/>
-    <mergeCell ref="N195:Q195"/>
-    <mergeCell ref="R195:U195"/>
-    <mergeCell ref="V195:Y195"/>
-    <mergeCell ref="Z195:AC195"/>
-    <mergeCell ref="AD195:AG195"/>
-    <mergeCell ref="AT171:AW171"/>
-    <mergeCell ref="V171:Y171"/>
-    <mergeCell ref="Z171:AC171"/>
-    <mergeCell ref="AD171:AG171"/>
-    <mergeCell ref="AH171:AK171"/>
-    <mergeCell ref="AL171:AO171"/>
-    <mergeCell ref="AP171:AS171"/>
-    <mergeCell ref="BF144:BI144"/>
-    <mergeCell ref="BJ144:BM144"/>
-    <mergeCell ref="BN144:BQ144"/>
-    <mergeCell ref="BR144:BU144"/>
-    <mergeCell ref="BV144:BY144"/>
-    <mergeCell ref="B171:E171"/>
-    <mergeCell ref="F171:I171"/>
-    <mergeCell ref="J171:M171"/>
-    <mergeCell ref="N171:Q171"/>
-    <mergeCell ref="R171:U171"/>
-    <mergeCell ref="AH144:AK144"/>
-    <mergeCell ref="AL144:AO144"/>
-    <mergeCell ref="AP144:AS144"/>
-    <mergeCell ref="AT144:AW144"/>
-    <mergeCell ref="AX144:BA144"/>
-    <mergeCell ref="BB144:BE144"/>
-    <mergeCell ref="BR171:BU171"/>
-    <mergeCell ref="BV171:BY171"/>
-    <mergeCell ref="AX171:BA171"/>
-    <mergeCell ref="BB171:BE171"/>
-    <mergeCell ref="BF171:BI171"/>
-    <mergeCell ref="BJ171:BM171"/>
-    <mergeCell ref="BN171:BQ171"/>
-    <mergeCell ref="B144:E144"/>
-    <mergeCell ref="F144:I144"/>
-    <mergeCell ref="J144:M144"/>
-    <mergeCell ref="N144:Q144"/>
-    <mergeCell ref="R144:U144"/>
-    <mergeCell ref="V144:Y144"/>
-    <mergeCell ref="Z144:AC144"/>
-    <mergeCell ref="AD144:AG144"/>
-    <mergeCell ref="AT117:AW117"/>
-    <mergeCell ref="V117:Y117"/>
-    <mergeCell ref="Z117:AC117"/>
-    <mergeCell ref="AD117:AG117"/>
-    <mergeCell ref="AH117:AK117"/>
-    <mergeCell ref="AL117:AO117"/>
-    <mergeCell ref="AP117:AS117"/>
-    <mergeCell ref="B117:E117"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="J117:M117"/>
-    <mergeCell ref="N117:Q117"/>
-    <mergeCell ref="R117:U117"/>
-    <mergeCell ref="BR117:BU117"/>
-    <mergeCell ref="BV117:BY117"/>
-    <mergeCell ref="AX117:BA117"/>
-    <mergeCell ref="BB117:BE117"/>
-    <mergeCell ref="BF117:BI117"/>
-    <mergeCell ref="BJ117:BM117"/>
-    <mergeCell ref="BN117:BQ117"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="J90:M90"/>
-    <mergeCell ref="N90:Q90"/>
-    <mergeCell ref="R90:U90"/>
-    <mergeCell ref="AH63:AK63"/>
-    <mergeCell ref="AL63:AO63"/>
-    <mergeCell ref="AP63:AS63"/>
-    <mergeCell ref="AT63:AW63"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="N63:Q63"/>
-    <mergeCell ref="R63:U63"/>
-    <mergeCell ref="V63:Y63"/>
-    <mergeCell ref="Z63:AC63"/>
-    <mergeCell ref="AD63:AG63"/>
-    <mergeCell ref="AT90:AW90"/>
-    <mergeCell ref="V90:Y90"/>
-    <mergeCell ref="Z90:AC90"/>
-    <mergeCell ref="AD90:AG90"/>
-    <mergeCell ref="AH90:AK90"/>
-    <mergeCell ref="AL90:AO90"/>
-    <mergeCell ref="AP90:AS90"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="BJ36:BM36"/>
-    <mergeCell ref="BN36:BQ36"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="R36:U36"/>
-    <mergeCell ref="V36:Y36"/>
-    <mergeCell ref="Z36:AC36"/>
-    <mergeCell ref="AD36:AG36"/>
-    <mergeCell ref="AH36:AK36"/>
-    <mergeCell ref="AL36:AO36"/>
-    <mergeCell ref="AP36:AS36"/>
-    <mergeCell ref="AT36:AW36"/>
-    <mergeCell ref="AX36:BA36"/>
-    <mergeCell ref="BB36:BE36"/>
-    <mergeCell ref="BF36:BI36"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="BJ63:BM63"/>
-    <mergeCell ref="BN63:BQ63"/>
-    <mergeCell ref="BR63:BU63"/>
-    <mergeCell ref="BV63:BY63"/>
-    <mergeCell ref="AX63:BA63"/>
-    <mergeCell ref="BB63:BE63"/>
-    <mergeCell ref="BR90:BU90"/>
-    <mergeCell ref="BV90:BY90"/>
-    <mergeCell ref="AX90:BA90"/>
-    <mergeCell ref="BB90:BE90"/>
-    <mergeCell ref="BF90:BI90"/>
-    <mergeCell ref="BJ90:BM90"/>
-    <mergeCell ref="BN90:BQ90"/>
-    <mergeCell ref="EH291:EK291"/>
-    <mergeCell ref="EL291:EO291"/>
-    <mergeCell ref="EP291:ES291"/>
-    <mergeCell ref="CX267:DA267"/>
-    <mergeCell ref="DB267:DE267"/>
-    <mergeCell ref="BZ267:CC267"/>
-    <mergeCell ref="CD267:CG267"/>
-    <mergeCell ref="CH267:CK267"/>
-    <mergeCell ref="CL267:CO267"/>
-    <mergeCell ref="CP267:CS267"/>
-    <mergeCell ref="CD291:CG291"/>
-    <mergeCell ref="CH291:CK291"/>
-    <mergeCell ref="CL291:CO291"/>
-    <mergeCell ref="CP291:CS291"/>
-    <mergeCell ref="CT291:CW291"/>
-    <mergeCell ref="CX291:DA291"/>
-    <mergeCell ref="DB291:DE291"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="BZ291:CC291"/>
-    <mergeCell ref="BZ219:CC219"/>
-    <mergeCell ref="BZ171:CC171"/>
-    <mergeCell ref="BZ144:CC144"/>
-    <mergeCell ref="BZ63:CC63"/>
-    <mergeCell ref="BZ90:CC90"/>
-    <mergeCell ref="BZ36:CC36"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="BR36:BU36"/>
-    <mergeCell ref="BV36:BY36"/>
-    <mergeCell ref="BF63:BI63"/>
-    <mergeCell ref="DJ243:DM243"/>
-    <mergeCell ref="DN243:DQ243"/>
-    <mergeCell ref="CT267:CW267"/>
-    <mergeCell ref="EX291:FA291"/>
-    <mergeCell ref="DF291:DI291"/>
-    <mergeCell ref="DJ291:DM291"/>
-    <mergeCell ref="DN291:DQ291"/>
-    <mergeCell ref="DR291:DU291"/>
-    <mergeCell ref="DV291:DY291"/>
-    <mergeCell ref="DZ291:EC291"/>
-    <mergeCell ref="ET267:EW267"/>
-    <mergeCell ref="EX267:FA267"/>
-    <mergeCell ref="DV267:DY267"/>
-    <mergeCell ref="DZ267:EC267"/>
-    <mergeCell ref="ED267:EG267"/>
-    <mergeCell ref="EH267:EK267"/>
-    <mergeCell ref="EL267:EO267"/>
-    <mergeCell ref="EP267:ES267"/>
-    <mergeCell ref="DF267:DI267"/>
-    <mergeCell ref="DJ267:DM267"/>
-    <mergeCell ref="DN267:DQ267"/>
-    <mergeCell ref="DR267:DU267"/>
-    <mergeCell ref="ET291:EW291"/>
-    <mergeCell ref="ED291:EG291"/>
-    <mergeCell ref="ET219:EW219"/>
-    <mergeCell ref="BZ243:CC243"/>
-    <mergeCell ref="CD243:CG243"/>
-    <mergeCell ref="CH243:CK243"/>
-    <mergeCell ref="CL243:CO243"/>
-    <mergeCell ref="CP243:CS243"/>
-    <mergeCell ref="DF219:DI219"/>
-    <mergeCell ref="DJ219:DM219"/>
-    <mergeCell ref="DN219:DQ219"/>
-    <mergeCell ref="DR219:DU219"/>
-    <mergeCell ref="DV219:DY219"/>
-    <mergeCell ref="DZ219:EC219"/>
-    <mergeCell ref="EP243:ES243"/>
-    <mergeCell ref="ET243:EW243"/>
-    <mergeCell ref="DV243:DY243"/>
-    <mergeCell ref="DZ243:EC243"/>
-    <mergeCell ref="ED243:EG243"/>
-    <mergeCell ref="EH243:EK243"/>
-    <mergeCell ref="EL243:EO243"/>
-    <mergeCell ref="DR243:DU243"/>
-    <mergeCell ref="CT243:CW243"/>
-    <mergeCell ref="CX243:DA243"/>
-    <mergeCell ref="DB243:DE243"/>
-    <mergeCell ref="DF243:DI243"/>
-    <mergeCell ref="CD219:CG219"/>
-    <mergeCell ref="CH219:CK219"/>
-    <mergeCell ref="CL219:CO219"/>
-    <mergeCell ref="CP219:CS219"/>
-    <mergeCell ref="CT219:CW219"/>
-    <mergeCell ref="CX219:DA219"/>
-    <mergeCell ref="DB219:DE219"/>
-    <mergeCell ref="DV195:DY195"/>
-    <mergeCell ref="BZ195:CC195"/>
-    <mergeCell ref="CD195:CG195"/>
-    <mergeCell ref="ED219:EG219"/>
-    <mergeCell ref="CH195:CK195"/>
-    <mergeCell ref="CL195:CO195"/>
-    <mergeCell ref="CP195:CS195"/>
-    <mergeCell ref="CT195:CW195"/>
-    <mergeCell ref="ED171:EG171"/>
-    <mergeCell ref="EH171:EK171"/>
-    <mergeCell ref="EL171:EO171"/>
-    <mergeCell ref="EP171:ES171"/>
-    <mergeCell ref="DZ195:EC195"/>
-    <mergeCell ref="ED195:EG195"/>
-    <mergeCell ref="EH195:EK195"/>
-    <mergeCell ref="EL195:EO195"/>
-    <mergeCell ref="EP195:ES195"/>
-    <mergeCell ref="CX195:DA195"/>
-    <mergeCell ref="DB195:DE195"/>
-    <mergeCell ref="DF195:DI195"/>
-    <mergeCell ref="DJ195:DM195"/>
-    <mergeCell ref="DN195:DQ195"/>
-    <mergeCell ref="DR195:DU195"/>
-    <mergeCell ref="EH219:EK219"/>
-    <mergeCell ref="EL219:EO219"/>
-    <mergeCell ref="EP219:ES219"/>
-    <mergeCell ref="ET171:EW171"/>
-    <mergeCell ref="ET195:EW195"/>
-    <mergeCell ref="EX171:FA171"/>
-    <mergeCell ref="DF171:DI171"/>
-    <mergeCell ref="DJ171:DM171"/>
-    <mergeCell ref="DN171:DQ171"/>
-    <mergeCell ref="DR171:DU171"/>
-    <mergeCell ref="DV171:DY171"/>
-    <mergeCell ref="DZ171:EC171"/>
-    <mergeCell ref="CD171:CG171"/>
-    <mergeCell ref="CH171:CK171"/>
-    <mergeCell ref="CL171:CO171"/>
-    <mergeCell ref="CP171:CS171"/>
-    <mergeCell ref="CT171:CW171"/>
-    <mergeCell ref="CX171:DA171"/>
-    <mergeCell ref="DB171:DE171"/>
-    <mergeCell ref="DV144:DY144"/>
-    <mergeCell ref="CX144:DA144"/>
-    <mergeCell ref="DB144:DE144"/>
-    <mergeCell ref="DF144:DI144"/>
-    <mergeCell ref="DJ144:DM144"/>
-    <mergeCell ref="DN144:DQ144"/>
-    <mergeCell ref="DR144:DU144"/>
-    <mergeCell ref="CD144:CG144"/>
-    <mergeCell ref="CH144:CK144"/>
-    <mergeCell ref="CL144:CO144"/>
-    <mergeCell ref="CP144:CS144"/>
-    <mergeCell ref="CT144:CW144"/>
-    <mergeCell ref="BZ117:CC117"/>
-    <mergeCell ref="CD117:CG117"/>
-    <mergeCell ref="CH117:CK117"/>
-    <mergeCell ref="CL117:CO117"/>
-    <mergeCell ref="CP117:CS117"/>
-    <mergeCell ref="CT117:CW117"/>
-    <mergeCell ref="CX117:DA117"/>
-    <mergeCell ref="DB117:DE117"/>
-    <mergeCell ref="ED117:EG117"/>
-    <mergeCell ref="DF117:DI117"/>
-    <mergeCell ref="DJ117:DM117"/>
-    <mergeCell ref="DN117:DQ117"/>
-    <mergeCell ref="DR117:DU117"/>
-    <mergeCell ref="DV117:DY117"/>
-    <mergeCell ref="DZ117:EC117"/>
-    <mergeCell ref="ET144:EW144"/>
-    <mergeCell ref="EX144:FA144"/>
-    <mergeCell ref="DZ144:EC144"/>
-    <mergeCell ref="ED144:EG144"/>
-    <mergeCell ref="EH144:EK144"/>
-    <mergeCell ref="EL144:EO144"/>
-    <mergeCell ref="EP144:ES144"/>
-    <mergeCell ref="EH117:EK117"/>
-    <mergeCell ref="EL117:EO117"/>
-    <mergeCell ref="EP117:ES117"/>
-    <mergeCell ref="ET117:EW117"/>
-    <mergeCell ref="EX117:FA117"/>
-    <mergeCell ref="CT90:CW90"/>
-    <mergeCell ref="CX90:DA90"/>
-    <mergeCell ref="DB90:DE90"/>
-    <mergeCell ref="CX63:DA63"/>
-    <mergeCell ref="DB63:DE63"/>
-    <mergeCell ref="CD90:CG90"/>
-    <mergeCell ref="CH90:CK90"/>
-    <mergeCell ref="CL90:CO90"/>
-    <mergeCell ref="CP90:CS90"/>
-    <mergeCell ref="CH63:CK63"/>
-    <mergeCell ref="CL63:CO63"/>
-    <mergeCell ref="CP63:CS63"/>
-    <mergeCell ref="CT63:CW63"/>
-    <mergeCell ref="DF90:DI90"/>
-    <mergeCell ref="DF63:DI63"/>
-    <mergeCell ref="DJ63:DM63"/>
-    <mergeCell ref="EL90:EO90"/>
-    <mergeCell ref="EP90:ES90"/>
-    <mergeCell ref="ET90:EW90"/>
-    <mergeCell ref="DJ90:DM90"/>
-    <mergeCell ref="DN90:DQ90"/>
-    <mergeCell ref="DR90:DU90"/>
-    <mergeCell ref="DV90:DY90"/>
-    <mergeCell ref="DZ90:EC90"/>
-    <mergeCell ref="ED90:EG90"/>
-    <mergeCell ref="ET63:EW63"/>
-    <mergeCell ref="DV63:DY63"/>
-    <mergeCell ref="DZ63:EC63"/>
-    <mergeCell ref="ED63:EG63"/>
-    <mergeCell ref="EH63:EK63"/>
-    <mergeCell ref="DN63:DQ63"/>
-    <mergeCell ref="DR63:DU63"/>
-    <mergeCell ref="ET9:EW9"/>
-    <mergeCell ref="EX9:FA9"/>
-    <mergeCell ref="DZ9:EC9"/>
-    <mergeCell ref="ED9:EG9"/>
-    <mergeCell ref="EH9:EK9"/>
-    <mergeCell ref="EL9:EO9"/>
-    <mergeCell ref="EP9:ES9"/>
-    <mergeCell ref="EH36:EK36"/>
-    <mergeCell ref="EL36:EO36"/>
-    <mergeCell ref="EP36:ES36"/>
-    <mergeCell ref="ET36:EW36"/>
-    <mergeCell ref="ED36:EG36"/>
-    <mergeCell ref="DV9:DY9"/>
-    <mergeCell ref="CX9:DA9"/>
-    <mergeCell ref="DB9:DE9"/>
-    <mergeCell ref="DF9:DI9"/>
-    <mergeCell ref="DJ9:DM9"/>
-    <mergeCell ref="DN9:DQ9"/>
-    <mergeCell ref="DR9:DU9"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CP9:CS9"/>
-    <mergeCell ref="CT9:CW9"/>
-    <mergeCell ref="FB267:FD267"/>
-    <mergeCell ref="FB291:FD291"/>
-    <mergeCell ref="FB36:FD36"/>
-    <mergeCell ref="FE291:FI291"/>
-    <mergeCell ref="FF267:FI267"/>
-    <mergeCell ref="FB243:FE243"/>
-    <mergeCell ref="FB219:FE219"/>
-    <mergeCell ref="CD36:CG36"/>
-    <mergeCell ref="CH36:CK36"/>
-    <mergeCell ref="CL36:CO36"/>
-    <mergeCell ref="CP36:CS36"/>
-    <mergeCell ref="CT36:CW36"/>
-    <mergeCell ref="CX36:DA36"/>
-    <mergeCell ref="DB36:DE36"/>
-    <mergeCell ref="DF36:DI36"/>
-    <mergeCell ref="DJ36:DM36"/>
-    <mergeCell ref="DN36:DQ36"/>
-    <mergeCell ref="DR36:DU36"/>
-    <mergeCell ref="DV36:DY36"/>
-    <mergeCell ref="DZ36:EC36"/>
-    <mergeCell ref="EL63:EO63"/>
-    <mergeCell ref="EP63:ES63"/>
-    <mergeCell ref="CD63:CG63"/>
-    <mergeCell ref="EH90:EK90"/>
+    <mergeCell ref="EX63:FA63"/>
+    <mergeCell ref="EX90:FA90"/>
+    <mergeCell ref="FB117:FD117"/>
+    <mergeCell ref="FB144:FD144"/>
+    <mergeCell ref="FB171:FD171"/>
+    <mergeCell ref="FB195:FD195"/>
+    <mergeCell ref="EX195:FA195"/>
+    <mergeCell ref="EX36:FA36"/>
+    <mergeCell ref="FF9:FI9"/>
+    <mergeCell ref="FF36:FI36"/>
+    <mergeCell ref="FB63:FE63"/>
+    <mergeCell ref="FB90:FE90"/>
+    <mergeCell ref="FF117:FI117"/>
+    <mergeCell ref="FF144:FI144"/>
+    <mergeCell ref="FF171:FI171"/>
+    <mergeCell ref="FF195:FI195"/>
+    <mergeCell ref="FB9:FE9"/>
+    <mergeCell ref="FF63:FI63"/>
+    <mergeCell ref="FF90:FI90"/>
+    <mergeCell ref="FJ9:FM9"/>
+    <mergeCell ref="FJ36:FM36"/>
+    <mergeCell ref="FJ117:FM117"/>
+    <mergeCell ref="FJ144:FM144"/>
+    <mergeCell ref="FJ171:FM171"/>
+    <mergeCell ref="FJ195:FM195"/>
+    <mergeCell ref="FJ267:FM267"/>
+    <mergeCell ref="FJ291:FM291"/>
+    <mergeCell ref="FF219:FI219"/>
+    <mergeCell ref="FF243:FI243"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="EX66:EY73">

--- a/Data/National Accounts/PSA-Quarter-Q1-1981-to-latest.xlsx
+++ b/Data/National Accounts/PSA-Quarter-Q1-1981-to-latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40481A4F-9549-4787-8E47-F09FFC831448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD5F042-A6C0-4FBE-9899-9451BD361690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1 1981 to Q1 2023" sheetId="5" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2352" uniqueCount="84">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -341,16 +341,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of May 2023</t>
-  </si>
-  <si>
-    <t>Q1 1981 to Q1 2023</t>
-  </si>
-  <si>
     <t>Q1 1982 to Q1 2023</t>
   </si>
   <si>
     <t>2022 - 2023</t>
+  </si>
+  <si>
+    <t>As of August 2023</t>
+  </si>
+  <si>
+    <t>Q1 1981 to Q2 2023</t>
   </si>
 </sst>
 </file>
@@ -358,11 +358,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -434,9 +434,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -450,50 +450,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -795,393 +791,394 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FN313"/>
+  <dimension ref="A1:FO313"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="FD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FM298" sqref="FM298:FN298"/>
+      <selection pane="topRight" activeCell="FO298" sqref="FO298"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.54296875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="25" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="47" max="48" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="50" max="51" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="55" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="55" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="63" max="64" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="65" max="66" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="67" max="68" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="70" max="73" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="75" max="79" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="70" max="73" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="75" max="79" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="81" max="88" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="90" max="96" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="98" max="105" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="108" max="111" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="113" max="114" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="115" max="116" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="119" max="129" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="131" max="157" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="13.7265625" style="3" customWidth="1"/>
+    <col min="81" max="88" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="90" max="96" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="98" max="105" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="108" max="111" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="113" max="114" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="115" max="116" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="119" max="129" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="131" max="157" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="13.7109375" style="3" customWidth="1"/>
     <col min="159" max="159" width="14" style="2" customWidth="1"/>
-    <col min="160" max="160" width="14.453125" style="2" customWidth="1"/>
-    <col min="161" max="161" width="14.1796875" style="2" customWidth="1"/>
+    <col min="160" max="160" width="14.42578125" style="2" customWidth="1"/>
+    <col min="161" max="161" width="14.140625" style="2" customWidth="1"/>
     <col min="162" max="162" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="163" max="164" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="166" max="170" width="15" style="2" customWidth="1"/>
-    <col min="171" max="16384" width="9.26953125" style="2"/>
+    <col min="163" max="164" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="166" max="171" width="15" style="2" customWidth="1"/>
+    <col min="172" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="27">
+      <c r="B9" s="26">
         <v>1981</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26">
         <v>1982</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27">
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26">
         <v>1983</v>
       </c>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27">
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26">
         <v>1984</v>
       </c>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27">
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26">
         <v>1985</v>
       </c>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27">
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26">
         <v>1986</v>
       </c>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27">
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26">
         <v>1987</v>
       </c>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27">
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26">
         <v>1988</v>
       </c>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="27"/>
-      <c r="AH9" s="27">
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="26">
         <v>1989</v>
       </c>
-      <c r="AI9" s="27"/>
-      <c r="AJ9" s="27"/>
-      <c r="AK9" s="27"/>
-      <c r="AL9" s="27">
+      <c r="AI9" s="26"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="26"/>
+      <c r="AL9" s="26">
         <v>1990</v>
       </c>
-      <c r="AM9" s="27"/>
-      <c r="AN9" s="27"/>
-      <c r="AO9" s="27"/>
-      <c r="AP9" s="27">
+      <c r="AM9" s="26"/>
+      <c r="AN9" s="26"/>
+      <c r="AO9" s="26"/>
+      <c r="AP9" s="26">
         <v>1991</v>
       </c>
-      <c r="AQ9" s="27"/>
-      <c r="AR9" s="27"/>
-      <c r="AS9" s="27"/>
-      <c r="AT9" s="27">
+      <c r="AQ9" s="26"/>
+      <c r="AR9" s="26"/>
+      <c r="AS9" s="26"/>
+      <c r="AT9" s="26">
         <v>1992</v>
       </c>
-      <c r="AU9" s="27"/>
-      <c r="AV9" s="27"/>
-      <c r="AW9" s="27"/>
-      <c r="AX9" s="27">
+      <c r="AU9" s="26"/>
+      <c r="AV9" s="26"/>
+      <c r="AW9" s="26"/>
+      <c r="AX9" s="26">
         <v>1993</v>
       </c>
-      <c r="AY9" s="27"/>
-      <c r="AZ9" s="27"/>
-      <c r="BA9" s="27"/>
-      <c r="BB9" s="27">
+      <c r="AY9" s="26"/>
+      <c r="AZ9" s="26"/>
+      <c r="BA9" s="26"/>
+      <c r="BB9" s="26">
         <v>1994</v>
       </c>
-      <c r="BC9" s="27"/>
-      <c r="BD9" s="27"/>
-      <c r="BE9" s="27"/>
-      <c r="BF9" s="27">
+      <c r="BC9" s="26"/>
+      <c r="BD9" s="26"/>
+      <c r="BE9" s="26"/>
+      <c r="BF9" s="26">
         <v>1995</v>
       </c>
-      <c r="BG9" s="27"/>
-      <c r="BH9" s="27"/>
-      <c r="BI9" s="27"/>
-      <c r="BJ9" s="27">
+      <c r="BG9" s="26"/>
+      <c r="BH9" s="26"/>
+      <c r="BI9" s="26"/>
+      <c r="BJ9" s="26">
         <v>1996</v>
       </c>
-      <c r="BK9" s="27"/>
-      <c r="BL9" s="27"/>
-      <c r="BM9" s="27"/>
-      <c r="BN9" s="27">
+      <c r="BK9" s="26"/>
+      <c r="BL9" s="26"/>
+      <c r="BM9" s="26"/>
+      <c r="BN9" s="26">
         <v>1997</v>
       </c>
-      <c r="BO9" s="27"/>
-      <c r="BP9" s="27"/>
-      <c r="BQ9" s="27"/>
-      <c r="BR9" s="27">
+      <c r="BO9" s="26"/>
+      <c r="BP9" s="26"/>
+      <c r="BQ9" s="26"/>
+      <c r="BR9" s="26">
         <v>1998</v>
       </c>
-      <c r="BS9" s="27"/>
-      <c r="BT9" s="27"/>
-      <c r="BU9" s="27"/>
-      <c r="BV9" s="27">
+      <c r="BS9" s="26"/>
+      <c r="BT9" s="26"/>
+      <c r="BU9" s="26"/>
+      <c r="BV9" s="26">
         <v>1999</v>
       </c>
-      <c r="BW9" s="27"/>
-      <c r="BX9" s="27"/>
-      <c r="BY9" s="27"/>
-      <c r="BZ9" s="27">
+      <c r="BW9" s="26"/>
+      <c r="BX9" s="26"/>
+      <c r="BY9" s="26"/>
+      <c r="BZ9" s="26">
         <v>2000</v>
       </c>
-      <c r="CA9" s="27"/>
-      <c r="CB9" s="27"/>
-      <c r="CC9" s="27"/>
-      <c r="CD9" s="27">
+      <c r="CA9" s="26"/>
+      <c r="CB9" s="26"/>
+      <c r="CC9" s="26"/>
+      <c r="CD9" s="26">
         <v>2001</v>
       </c>
-      <c r="CE9" s="27"/>
-      <c r="CF9" s="27"/>
-      <c r="CG9" s="27"/>
-      <c r="CH9" s="27">
+      <c r="CE9" s="26"/>
+      <c r="CF9" s="26"/>
+      <c r="CG9" s="26"/>
+      <c r="CH9" s="26">
         <v>2002</v>
       </c>
-      <c r="CI9" s="27"/>
-      <c r="CJ9" s="27"/>
-      <c r="CK9" s="27"/>
-      <c r="CL9" s="27">
+      <c r="CI9" s="26"/>
+      <c r="CJ9" s="26"/>
+      <c r="CK9" s="26"/>
+      <c r="CL9" s="26">
         <v>2003</v>
       </c>
-      <c r="CM9" s="27"/>
-      <c r="CN9" s="27"/>
-      <c r="CO9" s="27"/>
-      <c r="CP9" s="27">
+      <c r="CM9" s="26"/>
+      <c r="CN9" s="26"/>
+      <c r="CO9" s="26"/>
+      <c r="CP9" s="26">
         <v>2004</v>
       </c>
-      <c r="CQ9" s="27"/>
-      <c r="CR9" s="27"/>
-      <c r="CS9" s="27"/>
-      <c r="CT9" s="27">
+      <c r="CQ9" s="26"/>
+      <c r="CR9" s="26"/>
+      <c r="CS9" s="26"/>
+      <c r="CT9" s="26">
         <v>2005</v>
       </c>
-      <c r="CU9" s="27"/>
-      <c r="CV9" s="27"/>
-      <c r="CW9" s="27"/>
-      <c r="CX9" s="27">
+      <c r="CU9" s="26"/>
+      <c r="CV9" s="26"/>
+      <c r="CW9" s="26"/>
+      <c r="CX9" s="26">
         <v>2006</v>
       </c>
-      <c r="CY9" s="27"/>
-      <c r="CZ9" s="27"/>
-      <c r="DA9" s="27"/>
-      <c r="DB9" s="27">
+      <c r="CY9" s="26"/>
+      <c r="CZ9" s="26"/>
+      <c r="DA9" s="26"/>
+      <c r="DB9" s="26">
         <v>2007</v>
       </c>
-      <c r="DC9" s="27"/>
-      <c r="DD9" s="27"/>
-      <c r="DE9" s="27"/>
-      <c r="DF9" s="27">
+      <c r="DC9" s="26"/>
+      <c r="DD9" s="26"/>
+      <c r="DE9" s="26"/>
+      <c r="DF9" s="26">
         <v>2008</v>
       </c>
-      <c r="DG9" s="27"/>
-      <c r="DH9" s="27"/>
-      <c r="DI9" s="27"/>
-      <c r="DJ9" s="27">
+      <c r="DG9" s="26"/>
+      <c r="DH9" s="26"/>
+      <c r="DI9" s="26"/>
+      <c r="DJ9" s="26">
         <v>2009</v>
       </c>
-      <c r="DK9" s="27"/>
-      <c r="DL9" s="27"/>
-      <c r="DM9" s="27"/>
-      <c r="DN9" s="27">
+      <c r="DK9" s="26"/>
+      <c r="DL9" s="26"/>
+      <c r="DM9" s="26"/>
+      <c r="DN9" s="26">
         <v>2010</v>
       </c>
-      <c r="DO9" s="27"/>
-      <c r="DP9" s="27"/>
-      <c r="DQ9" s="27"/>
-      <c r="DR9" s="27">
+      <c r="DO9" s="26"/>
+      <c r="DP9" s="26"/>
+      <c r="DQ9" s="26"/>
+      <c r="DR9" s="26">
         <v>2011</v>
       </c>
-      <c r="DS9" s="27"/>
-      <c r="DT9" s="27"/>
-      <c r="DU9" s="27"/>
-      <c r="DV9" s="27">
+      <c r="DS9" s="26"/>
+      <c r="DT9" s="26"/>
+      <c r="DU9" s="26"/>
+      <c r="DV9" s="26">
         <v>2012</v>
       </c>
-      <c r="DW9" s="27"/>
-      <c r="DX9" s="27"/>
-      <c r="DY9" s="27"/>
-      <c r="DZ9" s="27">
+      <c r="DW9" s="26"/>
+      <c r="DX9" s="26"/>
+      <c r="DY9" s="26"/>
+      <c r="DZ9" s="26">
         <v>2013</v>
       </c>
-      <c r="EA9" s="27"/>
-      <c r="EB9" s="27"/>
-      <c r="EC9" s="27"/>
-      <c r="ED9" s="27">
+      <c r="EA9" s="26"/>
+      <c r="EB9" s="26"/>
+      <c r="EC9" s="26"/>
+      <c r="ED9" s="26">
         <v>2014</v>
       </c>
-      <c r="EE9" s="27"/>
-      <c r="EF9" s="27"/>
-      <c r="EG9" s="27"/>
-      <c r="EH9" s="27">
+      <c r="EE9" s="26"/>
+      <c r="EF9" s="26"/>
+      <c r="EG9" s="26"/>
+      <c r="EH9" s="26">
         <v>2015</v>
       </c>
-      <c r="EI9" s="27"/>
-      <c r="EJ9" s="27"/>
-      <c r="EK9" s="27"/>
-      <c r="EL9" s="27">
+      <c r="EI9" s="26"/>
+      <c r="EJ9" s="26"/>
+      <c r="EK9" s="26"/>
+      <c r="EL9" s="26">
         <v>2016</v>
       </c>
-      <c r="EM9" s="27"/>
-      <c r="EN9" s="27"/>
-      <c r="EO9" s="27"/>
-      <c r="EP9" s="27">
+      <c r="EM9" s="26"/>
+      <c r="EN9" s="26"/>
+      <c r="EO9" s="26"/>
+      <c r="EP9" s="26">
         <v>2017</v>
       </c>
-      <c r="EQ9" s="27"/>
-      <c r="ER9" s="27"/>
-      <c r="ES9" s="27"/>
-      <c r="ET9" s="27">
+      <c r="EQ9" s="26"/>
+      <c r="ER9" s="26"/>
+      <c r="ES9" s="26"/>
+      <c r="ET9" s="26">
         <v>2018</v>
       </c>
-      <c r="EU9" s="27"/>
-      <c r="EV9" s="27"/>
-      <c r="EW9" s="27"/>
-      <c r="EX9" s="27">
+      <c r="EU9" s="26"/>
+      <c r="EV9" s="26"/>
+      <c r="EW9" s="26"/>
+      <c r="EX9" s="26">
         <v>2019</v>
       </c>
-      <c r="EY9" s="27"/>
-      <c r="EZ9" s="27"/>
-      <c r="FA9" s="27"/>
-      <c r="FB9" s="27">
+      <c r="EY9" s="26"/>
+      <c r="EZ9" s="26"/>
+      <c r="FA9" s="26"/>
+      <c r="FB9" s="26">
         <v>2020</v>
       </c>
-      <c r="FC9" s="27"/>
-      <c r="FD9" s="27"/>
-      <c r="FE9" s="27"/>
-      <c r="FF9" s="27">
+      <c r="FC9" s="26"/>
+      <c r="FD9" s="26"/>
+      <c r="FE9" s="26"/>
+      <c r="FF9" s="26">
         <v>2021</v>
       </c>
-      <c r="FG9" s="27"/>
-      <c r="FH9" s="27"/>
-      <c r="FI9" s="27"/>
-      <c r="FJ9" s="27">
+      <c r="FG9" s="26"/>
+      <c r="FH9" s="26"/>
+      <c r="FI9" s="26"/>
+      <c r="FJ9" s="26">
         <v>2022</v>
       </c>
-      <c r="FK9" s="27"/>
-      <c r="FL9" s="27"/>
-      <c r="FM9" s="27"/>
+      <c r="FK9" s="26"/>
+      <c r="FL9" s="26"/>
+      <c r="FM9" s="26"/>
       <c r="FN9" s="26">
         <v>2023</v>
       </c>
+      <c r="FO9" s="26"/>
     </row>
-    <row r="10" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1692,11 +1689,14 @@
       <c r="FN10" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="FO10" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="11" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:171" x14ac:dyDescent="0.2">
       <c r="FB11" s="2"/>
     </row>
-    <row r="12" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -2205,10 +2205,13 @@
         <v>4863462.9003062602</v>
       </c>
       <c r="FN12" s="7">
-        <v>4416389.9756394727</v>
+        <v>4419477.8037074124</v>
+      </c>
+      <c r="FO12" s="7">
+        <v>4326169.4092836166</v>
       </c>
     </row>
-    <row r="13" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -2719,8 +2722,11 @@
       <c r="FN13" s="7">
         <v>757695.0732526622</v>
       </c>
+      <c r="FO13" s="7">
+        <v>916235.10787620337</v>
+      </c>
     </row>
-    <row r="14" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -3229,10 +3235,13 @@
         <v>1382210.1711891973</v>
       </c>
       <c r="FN14" s="7">
-        <v>1328594.7937777925</v>
+        <v>1333144.2336738438</v>
+      </c>
+      <c r="FO14" s="7">
+        <v>1548725.4487805215</v>
       </c>
     </row>
-    <row r="15" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -3741,10 +3750,13 @@
         <v>1724935.7799161663</v>
       </c>
       <c r="FN15" s="7">
-        <v>1551171.4257361628</v>
+        <v>1558531.2475780006</v>
+      </c>
+      <c r="FO15" s="7">
+        <v>1515804.1589589324</v>
       </c>
     </row>
-    <row r="16" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -4253,10 +4265,13 @@
         <v>2349101.8178434232</v>
       </c>
       <c r="FN16" s="7">
-        <v>2418319.3692767159</v>
+        <v>2429472.659951176</v>
+      </c>
+      <c r="FO16" s="7">
+        <v>2426799.4573579947</v>
       </c>
     </row>
-    <row r="17" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -4765,10 +4780,13 @@
         <v>-63834.374455199577</v>
       </c>
       <c r="FN17" s="7">
-        <v>-34042.662273668684</v>
+        <v>-38472.471465931274</v>
+      </c>
+      <c r="FO17" s="7">
+        <v>5441.8995294682682</v>
       </c>
     </row>
-    <row r="18" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:171" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4938,8 +4956,9 @@
       <c r="FL18" s="7"/>
       <c r="FM18" s="7"/>
       <c r="FN18" s="7"/>
+      <c r="FO18" s="7"/>
     </row>
-    <row r="19" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>10</v>
       </c>
@@ -5448,10 +5467,13 @@
         <v>6451566.4247216079</v>
       </c>
       <c r="FN19" s="7">
-        <v>5601489.2368557053</v>
+        <v>5600903.2267948119</v>
+      </c>
+      <c r="FO19" s="7">
+        <v>5885576.5670707468</v>
       </c>
     </row>
-    <row r="20" spans="1:170" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -5609,7 +5631,7 @@
       <c r="EZ20" s="7"/>
       <c r="FA20" s="7"/>
     </row>
-    <row r="21" spans="1:170" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -5767,7 +5789,7 @@
       <c r="EZ21" s="7"/>
       <c r="FA21" s="7"/>
     </row>
-    <row r="22" spans="1:170" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -5925,7 +5947,7 @@
       <c r="EZ22" s="7"/>
       <c r="FA22" s="7"/>
     </row>
-    <row r="23" spans="1:170" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -6083,7 +6105,7 @@
       <c r="EZ23" s="7"/>
       <c r="FA23" s="7"/>
     </row>
-    <row r="24" spans="1:170" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:171" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -6254,308 +6276,310 @@
       <c r="FL24" s="9"/>
       <c r="FM24" s="9"/>
       <c r="FN24" s="9"/>
+      <c r="FO24" s="9"/>
     </row>
-    <row r="25" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="BY25" s="10"/>
     </row>
-    <row r="28" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="27">
+      <c r="B36" s="26">
         <v>1981</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27">
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26">
         <v>1982</v>
       </c>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27">
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26">
         <v>1983</v>
       </c>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27">
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26">
         <v>1984</v>
       </c>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27">
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26">
         <v>1985</v>
       </c>
-      <c r="S36" s="27"/>
-      <c r="T36" s="27"/>
-      <c r="U36" s="27"/>
-      <c r="V36" s="27">
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26">
         <v>1986</v>
       </c>
-      <c r="W36" s="27"/>
-      <c r="X36" s="27"/>
-      <c r="Y36" s="27"/>
-      <c r="Z36" s="27">
+      <c r="W36" s="26"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="26">
         <v>1987</v>
       </c>
-      <c r="AA36" s="27"/>
-      <c r="AB36" s="27"/>
-      <c r="AC36" s="27"/>
-      <c r="AD36" s="27">
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="26"/>
+      <c r="AD36" s="26">
         <v>1988</v>
       </c>
-      <c r="AE36" s="27"/>
-      <c r="AF36" s="27"/>
-      <c r="AG36" s="27"/>
-      <c r="AH36" s="27">
+      <c r="AE36" s="26"/>
+      <c r="AF36" s="26"/>
+      <c r="AG36" s="26"/>
+      <c r="AH36" s="26">
         <v>1989</v>
       </c>
-      <c r="AI36" s="27"/>
-      <c r="AJ36" s="27"/>
-      <c r="AK36" s="27"/>
-      <c r="AL36" s="27">
+      <c r="AI36" s="26"/>
+      <c r="AJ36" s="26"/>
+      <c r="AK36" s="26"/>
+      <c r="AL36" s="26">
         <v>1990</v>
       </c>
-      <c r="AM36" s="27"/>
-      <c r="AN36" s="27"/>
-      <c r="AO36" s="27"/>
-      <c r="AP36" s="27">
+      <c r="AM36" s="26"/>
+      <c r="AN36" s="26"/>
+      <c r="AO36" s="26"/>
+      <c r="AP36" s="26">
         <v>1991</v>
       </c>
-      <c r="AQ36" s="27"/>
-      <c r="AR36" s="27"/>
-      <c r="AS36" s="27"/>
-      <c r="AT36" s="27">
+      <c r="AQ36" s="26"/>
+      <c r="AR36" s="26"/>
+      <c r="AS36" s="26"/>
+      <c r="AT36" s="26">
         <v>1992</v>
       </c>
-      <c r="AU36" s="27"/>
-      <c r="AV36" s="27"/>
-      <c r="AW36" s="27"/>
-      <c r="AX36" s="27">
+      <c r="AU36" s="26"/>
+      <c r="AV36" s="26"/>
+      <c r="AW36" s="26"/>
+      <c r="AX36" s="26">
         <v>1993</v>
       </c>
-      <c r="AY36" s="27"/>
-      <c r="AZ36" s="27"/>
-      <c r="BA36" s="27"/>
-      <c r="BB36" s="27">
+      <c r="AY36" s="26"/>
+      <c r="AZ36" s="26"/>
+      <c r="BA36" s="26"/>
+      <c r="BB36" s="26">
         <v>1994</v>
       </c>
-      <c r="BC36" s="27"/>
-      <c r="BD36" s="27"/>
-      <c r="BE36" s="27"/>
-      <c r="BF36" s="27">
+      <c r="BC36" s="26"/>
+      <c r="BD36" s="26"/>
+      <c r="BE36" s="26"/>
+      <c r="BF36" s="26">
         <v>1995</v>
       </c>
-      <c r="BG36" s="27"/>
-      <c r="BH36" s="27"/>
-      <c r="BI36" s="27"/>
-      <c r="BJ36" s="27">
+      <c r="BG36" s="26"/>
+      <c r="BH36" s="26"/>
+      <c r="BI36" s="26"/>
+      <c r="BJ36" s="26">
         <v>1996</v>
       </c>
-      <c r="BK36" s="27"/>
-      <c r="BL36" s="27"/>
-      <c r="BM36" s="27"/>
-      <c r="BN36" s="27">
+      <c r="BK36" s="26"/>
+      <c r="BL36" s="26"/>
+      <c r="BM36" s="26"/>
+      <c r="BN36" s="26">
         <v>1997</v>
       </c>
-      <c r="BO36" s="27"/>
-      <c r="BP36" s="27"/>
-      <c r="BQ36" s="27"/>
-      <c r="BR36" s="27">
+      <c r="BO36" s="26"/>
+      <c r="BP36" s="26"/>
+      <c r="BQ36" s="26"/>
+      <c r="BR36" s="26">
         <v>1998</v>
       </c>
-      <c r="BS36" s="27"/>
-      <c r="BT36" s="27"/>
-      <c r="BU36" s="27"/>
-      <c r="BV36" s="27">
+      <c r="BS36" s="26"/>
+      <c r="BT36" s="26"/>
+      <c r="BU36" s="26"/>
+      <c r="BV36" s="26">
         <v>1999</v>
       </c>
-      <c r="BW36" s="27"/>
-      <c r="BX36" s="27"/>
-      <c r="BY36" s="27"/>
-      <c r="BZ36" s="27">
+      <c r="BW36" s="26"/>
+      <c r="BX36" s="26"/>
+      <c r="BY36" s="26"/>
+      <c r="BZ36" s="26">
         <v>2000</v>
       </c>
-      <c r="CA36" s="27"/>
-      <c r="CB36" s="27"/>
-      <c r="CC36" s="27"/>
-      <c r="CD36" s="27">
+      <c r="CA36" s="26"/>
+      <c r="CB36" s="26"/>
+      <c r="CC36" s="26"/>
+      <c r="CD36" s="26">
         <v>2001</v>
       </c>
-      <c r="CE36" s="27"/>
-      <c r="CF36" s="27"/>
-      <c r="CG36" s="27"/>
-      <c r="CH36" s="27">
+      <c r="CE36" s="26"/>
+      <c r="CF36" s="26"/>
+      <c r="CG36" s="26"/>
+      <c r="CH36" s="26">
         <v>2002</v>
       </c>
-      <c r="CI36" s="27"/>
-      <c r="CJ36" s="27"/>
-      <c r="CK36" s="27"/>
-      <c r="CL36" s="27">
+      <c r="CI36" s="26"/>
+      <c r="CJ36" s="26"/>
+      <c r="CK36" s="26"/>
+      <c r="CL36" s="26">
         <v>2003</v>
       </c>
-      <c r="CM36" s="27"/>
-      <c r="CN36" s="27"/>
-      <c r="CO36" s="27"/>
-      <c r="CP36" s="27">
+      <c r="CM36" s="26"/>
+      <c r="CN36" s="26"/>
+      <c r="CO36" s="26"/>
+      <c r="CP36" s="26">
         <v>2004</v>
       </c>
-      <c r="CQ36" s="27"/>
-      <c r="CR36" s="27"/>
-      <c r="CS36" s="27"/>
-      <c r="CT36" s="27">
+      <c r="CQ36" s="26"/>
+      <c r="CR36" s="26"/>
+      <c r="CS36" s="26"/>
+      <c r="CT36" s="26">
         <v>2005</v>
       </c>
-      <c r="CU36" s="27"/>
-      <c r="CV36" s="27"/>
-      <c r="CW36" s="27"/>
-      <c r="CX36" s="27">
+      <c r="CU36" s="26"/>
+      <c r="CV36" s="26"/>
+      <c r="CW36" s="26"/>
+      <c r="CX36" s="26">
         <v>2006</v>
       </c>
-      <c r="CY36" s="27"/>
-      <c r="CZ36" s="27"/>
-      <c r="DA36" s="27"/>
-      <c r="DB36" s="27">
+      <c r="CY36" s="26"/>
+      <c r="CZ36" s="26"/>
+      <c r="DA36" s="26"/>
+      <c r="DB36" s="26">
         <v>2007</v>
       </c>
-      <c r="DC36" s="27"/>
-      <c r="DD36" s="27"/>
-      <c r="DE36" s="27"/>
-      <c r="DF36" s="27">
+      <c r="DC36" s="26"/>
+      <c r="DD36" s="26"/>
+      <c r="DE36" s="26"/>
+      <c r="DF36" s="26">
         <v>2008</v>
       </c>
-      <c r="DG36" s="27"/>
-      <c r="DH36" s="27"/>
-      <c r="DI36" s="27"/>
-      <c r="DJ36" s="27">
+      <c r="DG36" s="26"/>
+      <c r="DH36" s="26"/>
+      <c r="DI36" s="26"/>
+      <c r="DJ36" s="26">
         <v>2009</v>
       </c>
-      <c r="DK36" s="27"/>
-      <c r="DL36" s="27"/>
-      <c r="DM36" s="27"/>
-      <c r="DN36" s="27">
+      <c r="DK36" s="26"/>
+      <c r="DL36" s="26"/>
+      <c r="DM36" s="26"/>
+      <c r="DN36" s="26">
         <v>2010</v>
       </c>
-      <c r="DO36" s="27"/>
-      <c r="DP36" s="27"/>
-      <c r="DQ36" s="27"/>
-      <c r="DR36" s="27">
+      <c r="DO36" s="26"/>
+      <c r="DP36" s="26"/>
+      <c r="DQ36" s="26"/>
+      <c r="DR36" s="26">
         <v>2011</v>
       </c>
-      <c r="DS36" s="27"/>
-      <c r="DT36" s="27"/>
-      <c r="DU36" s="27"/>
-      <c r="DV36" s="27">
+      <c r="DS36" s="26"/>
+      <c r="DT36" s="26"/>
+      <c r="DU36" s="26"/>
+      <c r="DV36" s="26">
         <v>2012</v>
       </c>
-      <c r="DW36" s="27"/>
-      <c r="DX36" s="27"/>
-      <c r="DY36" s="27"/>
-      <c r="DZ36" s="27">
+      <c r="DW36" s="26"/>
+      <c r="DX36" s="26"/>
+      <c r="DY36" s="26"/>
+      <c r="DZ36" s="26">
         <v>2013</v>
       </c>
-      <c r="EA36" s="27"/>
-      <c r="EB36" s="27"/>
-      <c r="EC36" s="27"/>
-      <c r="ED36" s="27">
+      <c r="EA36" s="26"/>
+      <c r="EB36" s="26"/>
+      <c r="EC36" s="26"/>
+      <c r="ED36" s="26">
         <v>2014</v>
       </c>
-      <c r="EE36" s="27"/>
-      <c r="EF36" s="27"/>
-      <c r="EG36" s="27"/>
-      <c r="EH36" s="27">
+      <c r="EE36" s="26"/>
+      <c r="EF36" s="26"/>
+      <c r="EG36" s="26"/>
+      <c r="EH36" s="26">
         <v>2015</v>
       </c>
-      <c r="EI36" s="27"/>
-      <c r="EJ36" s="27"/>
-      <c r="EK36" s="27"/>
-      <c r="EL36" s="27">
+      <c r="EI36" s="26"/>
+      <c r="EJ36" s="26"/>
+      <c r="EK36" s="26"/>
+      <c r="EL36" s="26">
         <v>2016</v>
       </c>
-      <c r="EM36" s="27"/>
-      <c r="EN36" s="27"/>
-      <c r="EO36" s="27"/>
-      <c r="EP36" s="27">
+      <c r="EM36" s="26"/>
+      <c r="EN36" s="26"/>
+      <c r="EO36" s="26"/>
+      <c r="EP36" s="26">
         <v>2017</v>
       </c>
-      <c r="EQ36" s="27"/>
-      <c r="ER36" s="27"/>
-      <c r="ES36" s="27"/>
-      <c r="ET36" s="27">
+      <c r="EQ36" s="26"/>
+      <c r="ER36" s="26"/>
+      <c r="ES36" s="26"/>
+      <c r="ET36" s="26">
         <v>2018</v>
       </c>
-      <c r="EU36" s="27"/>
-      <c r="EV36" s="27"/>
-      <c r="EW36" s="27"/>
-      <c r="EX36" s="27">
+      <c r="EU36" s="26"/>
+      <c r="EV36" s="26"/>
+      <c r="EW36" s="26"/>
+      <c r="EX36" s="26">
         <v>2019</v>
       </c>
-      <c r="EY36" s="27"/>
-      <c r="EZ36" s="27"/>
-      <c r="FA36" s="27"/>
-      <c r="FB36" s="27">
+      <c r="EY36" s="26"/>
+      <c r="EZ36" s="26"/>
+      <c r="FA36" s="26"/>
+      <c r="FB36" s="26">
         <v>2020</v>
       </c>
-      <c r="FC36" s="27"/>
-      <c r="FD36" s="27"/>
+      <c r="FC36" s="26"/>
+      <c r="FD36" s="26"/>
       <c r="FE36" s="4"/>
-      <c r="FF36" s="27">
+      <c r="FF36" s="26">
         <v>2021</v>
       </c>
-      <c r="FG36" s="27"/>
-      <c r="FH36" s="27"/>
-      <c r="FI36" s="27"/>
-      <c r="FJ36" s="27">
+      <c r="FG36" s="26"/>
+      <c r="FH36" s="26"/>
+      <c r="FI36" s="26"/>
+      <c r="FJ36" s="26">
         <v>2022</v>
       </c>
-      <c r="FK36" s="27"/>
-      <c r="FL36" s="27"/>
-      <c r="FM36" s="27"/>
+      <c r="FK36" s="26"/>
+      <c r="FL36" s="26"/>
+      <c r="FM36" s="26"/>
       <c r="FN36" s="26">
         <v>2023</v>
       </c>
+      <c r="FO36" s="26"/>
     </row>
-    <row r="37" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>14</v>
       </c>
@@ -7066,11 +7090,14 @@
       <c r="FN37" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="FO37" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="38" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:171" x14ac:dyDescent="0.2">
       <c r="FB38" s="2"/>
     </row>
-    <row r="39" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>1</v>
       </c>
@@ -7579,10 +7606,13 @@
         <v>4196072.3544278946</v>
       </c>
       <c r="FN39" s="7">
-        <v>3691935.3735019211</v>
+        <v>3694991.2989011863</v>
+      </c>
+      <c r="FO39" s="7">
+        <v>3583956.0481204381</v>
       </c>
     </row>
-    <row r="40" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
@@ -8093,8 +8123,11 @@
       <c r="FN40" s="7">
         <v>715278.76999649883</v>
       </c>
+      <c r="FO40" s="7">
+        <v>838499.71569579933</v>
+      </c>
     </row>
-    <row r="41" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -8603,10 +8636,13 @@
         <v>1186523.731379749</v>
       </c>
       <c r="FN41" s="7">
-        <v>1124997.121473785</v>
+        <v>1129136.2549309686</v>
+      </c>
+      <c r="FO41" s="7">
+        <v>1345905.033561409</v>
       </c>
     </row>
-    <row r="42" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>4</v>
       </c>
@@ -9115,10 +9151,13 @@
         <v>1434653.7293859078</v>
       </c>
       <c r="FN42" s="7">
-        <v>1366929.0330105736</v>
+        <v>1374568.45598352</v>
+      </c>
+      <c r="FO42" s="7">
+        <v>1416844.837922476</v>
       </c>
     </row>
-    <row r="43" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>5</v>
       </c>
@@ -9627,10 +9666,13 @@
         <v>1936873.8530644656</v>
       </c>
       <c r="FN43" s="7">
-        <v>1981153.9592611007</v>
+        <v>1989382.7128441148</v>
+      </c>
+      <c r="FO43" s="7">
+        <v>2026420.0921890307</v>
       </c>
     </row>
-    <row r="44" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>6</v>
       </c>
@@ -10139,10 +10181,13 @@
         <v>-11911.49673268944</v>
       </c>
       <c r="FN44" s="7">
-        <v>-10806.457204483449</v>
+        <v>-17098.883423657157</v>
+      </c>
+      <c r="FO44" s="7">
+        <v>48301.263281146064</v>
       </c>
     </row>
-    <row r="45" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:171" x14ac:dyDescent="0.2">
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -10312,8 +10357,9 @@
       <c r="FL45" s="7"/>
       <c r="FM45" s="7"/>
       <c r="FN45" s="7"/>
+      <c r="FO45" s="7"/>
     </row>
-    <row r="46" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>10</v>
       </c>
@@ -10822,10 +10868,13 @@
         <v>5575144.2853661217</v>
       </c>
       <c r="FN46" s="7">
-        <v>4907179.8815171942</v>
+        <v>4907493.183544402</v>
+      </c>
+      <c r="FO46" s="7">
+        <v>5207086.8063922375</v>
       </c>
     </row>
-    <row r="47" spans="1:170" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -10983,7 +11032,7 @@
       <c r="EZ47" s="7"/>
       <c r="FA47" s="7"/>
     </row>
-    <row r="48" spans="1:170" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -11141,7 +11190,7 @@
       <c r="EZ48" s="7"/>
       <c r="FA48" s="7"/>
     </row>
-    <row r="49" spans="1:170" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -11299,7 +11348,7 @@
       <c r="EZ49" s="7"/>
       <c r="FA49" s="7"/>
     </row>
-    <row r="50" spans="1:170" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -11457,7 +11506,7 @@
       <c r="EZ50" s="7"/>
       <c r="FA50" s="7"/>
     </row>
-    <row r="51" spans="1:170" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:171" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -11628,45 +11677,46 @@
       <c r="FL51" s="9"/>
       <c r="FM51" s="9"/>
       <c r="FN51" s="9"/>
+      <c r="FO51" s="9"/>
     </row>
-    <row r="52" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="FB60" s="24"/>
       <c r="FC60" s="24"/>
       <c r="FD60" s="24"/>
       <c r="FE60" s="24"/>
     </row>
-    <row r="61" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>19</v>
       </c>
@@ -11675,7 +11725,7 @@
       <c r="FD61" s="24"/>
       <c r="FE61" s="24"/>
     </row>
-    <row r="62" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="FB62" s="24"/>
       <c r="FC62" s="24"/>
@@ -11685,259 +11735,260 @@
       <c r="FG62" s="24"/>
       <c r="FH62" s="24"/>
     </row>
-    <row r="63" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
-      <c r="B63" s="27" t="s">
+      <c r="B63" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27" t="s">
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27" t="s">
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="K63" s="27"/>
-      <c r="L63" s="27"/>
-      <c r="M63" s="27"/>
-      <c r="N63" s="27" t="s">
+      <c r="K63" s="26"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="26"/>
+      <c r="N63" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="O63" s="27"/>
-      <c r="P63" s="27"/>
-      <c r="Q63" s="27"/>
-      <c r="R63" s="27" t="s">
+      <c r="O63" s="26"/>
+      <c r="P63" s="26"/>
+      <c r="Q63" s="26"/>
+      <c r="R63" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="S63" s="27"/>
-      <c r="T63" s="27"/>
-      <c r="U63" s="27"/>
-      <c r="V63" s="27" t="s">
+      <c r="S63" s="26"/>
+      <c r="T63" s="26"/>
+      <c r="U63" s="26"/>
+      <c r="V63" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="W63" s="27"/>
-      <c r="X63" s="27"/>
-      <c r="Y63" s="27"/>
-      <c r="Z63" s="27" t="s">
+      <c r="W63" s="26"/>
+      <c r="X63" s="26"/>
+      <c r="Y63" s="26"/>
+      <c r="Z63" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="AA63" s="27"/>
-      <c r="AB63" s="27"/>
-      <c r="AC63" s="27"/>
-      <c r="AD63" s="27" t="s">
+      <c r="AA63" s="26"/>
+      <c r="AB63" s="26"/>
+      <c r="AC63" s="26"/>
+      <c r="AD63" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="AE63" s="27"/>
-      <c r="AF63" s="27"/>
-      <c r="AG63" s="27"/>
-      <c r="AH63" s="27" t="s">
+      <c r="AE63" s="26"/>
+      <c r="AF63" s="26"/>
+      <c r="AG63" s="26"/>
+      <c r="AH63" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="AI63" s="27"/>
-      <c r="AJ63" s="27"/>
-      <c r="AK63" s="27"/>
-      <c r="AL63" s="27" t="s">
+      <c r="AI63" s="26"/>
+      <c r="AJ63" s="26"/>
+      <c r="AK63" s="26"/>
+      <c r="AL63" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="AM63" s="27"/>
-      <c r="AN63" s="27"/>
-      <c r="AO63" s="27"/>
-      <c r="AP63" s="27" t="s">
+      <c r="AM63" s="26"/>
+      <c r="AN63" s="26"/>
+      <c r="AO63" s="26"/>
+      <c r="AP63" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="AQ63" s="27"/>
-      <c r="AR63" s="27"/>
-      <c r="AS63" s="27"/>
-      <c r="AT63" s="27" t="s">
+      <c r="AQ63" s="26"/>
+      <c r="AR63" s="26"/>
+      <c r="AS63" s="26"/>
+      <c r="AT63" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="AU63" s="27"/>
-      <c r="AV63" s="27"/>
-      <c r="AW63" s="27"/>
-      <c r="AX63" s="27" t="s">
+      <c r="AU63" s="26"/>
+      <c r="AV63" s="26"/>
+      <c r="AW63" s="26"/>
+      <c r="AX63" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="AY63" s="27"/>
-      <c r="AZ63" s="27"/>
-      <c r="BA63" s="27"/>
-      <c r="BB63" s="27" t="s">
+      <c r="AY63" s="26"/>
+      <c r="AZ63" s="26"/>
+      <c r="BA63" s="26"/>
+      <c r="BB63" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="BC63" s="27"/>
-      <c r="BD63" s="27"/>
-      <c r="BE63" s="27"/>
-      <c r="BF63" s="27" t="s">
+      <c r="BC63" s="26"/>
+      <c r="BD63" s="26"/>
+      <c r="BE63" s="26"/>
+      <c r="BF63" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="BG63" s="27"/>
-      <c r="BH63" s="27"/>
-      <c r="BI63" s="27"/>
-      <c r="BJ63" s="27" t="s">
+      <c r="BG63" s="26"/>
+      <c r="BH63" s="26"/>
+      <c r="BI63" s="26"/>
+      <c r="BJ63" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="BK63" s="27"/>
-      <c r="BL63" s="27"/>
-      <c r="BM63" s="27"/>
-      <c r="BN63" s="27" t="s">
+      <c r="BK63" s="26"/>
+      <c r="BL63" s="26"/>
+      <c r="BM63" s="26"/>
+      <c r="BN63" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="BO63" s="27"/>
-      <c r="BP63" s="27"/>
-      <c r="BQ63" s="27"/>
-      <c r="BR63" s="27" t="s">
+      <c r="BO63" s="26"/>
+      <c r="BP63" s="26"/>
+      <c r="BQ63" s="26"/>
+      <c r="BR63" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="BS63" s="27"/>
-      <c r="BT63" s="27"/>
-      <c r="BU63" s="27"/>
-      <c r="BV63" s="27" t="s">
+      <c r="BS63" s="26"/>
+      <c r="BT63" s="26"/>
+      <c r="BU63" s="26"/>
+      <c r="BV63" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="BW63" s="27"/>
-      <c r="BX63" s="27"/>
-      <c r="BY63" s="27"/>
-      <c r="BZ63" s="27" t="s">
+      <c r="BW63" s="26"/>
+      <c r="BX63" s="26"/>
+      <c r="BY63" s="26"/>
+      <c r="BZ63" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="CA63" s="27"/>
-      <c r="CB63" s="27"/>
-      <c r="CC63" s="27"/>
-      <c r="CD63" s="27" t="s">
+      <c r="CA63" s="26"/>
+      <c r="CB63" s="26"/>
+      <c r="CC63" s="26"/>
+      <c r="CD63" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="CE63" s="27"/>
-      <c r="CF63" s="27"/>
-      <c r="CG63" s="27"/>
-      <c r="CH63" s="27" t="s">
+      <c r="CE63" s="26"/>
+      <c r="CF63" s="26"/>
+      <c r="CG63" s="26"/>
+      <c r="CH63" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="CI63" s="27"/>
-      <c r="CJ63" s="27"/>
-      <c r="CK63" s="27"/>
-      <c r="CL63" s="27" t="s">
+      <c r="CI63" s="26"/>
+      <c r="CJ63" s="26"/>
+      <c r="CK63" s="26"/>
+      <c r="CL63" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="CM63" s="27"/>
-      <c r="CN63" s="27"/>
-      <c r="CO63" s="27"/>
-      <c r="CP63" s="27" t="s">
+      <c r="CM63" s="26"/>
+      <c r="CN63" s="26"/>
+      <c r="CO63" s="26"/>
+      <c r="CP63" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="CQ63" s="27"/>
-      <c r="CR63" s="27"/>
-      <c r="CS63" s="27"/>
-      <c r="CT63" s="27" t="s">
+      <c r="CQ63" s="26"/>
+      <c r="CR63" s="26"/>
+      <c r="CS63" s="26"/>
+      <c r="CT63" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="CU63" s="27"/>
-      <c r="CV63" s="27"/>
-      <c r="CW63" s="27"/>
-      <c r="CX63" s="27" t="s">
+      <c r="CU63" s="26"/>
+      <c r="CV63" s="26"/>
+      <c r="CW63" s="26"/>
+      <c r="CX63" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="CY63" s="27"/>
-      <c r="CZ63" s="27"/>
-      <c r="DA63" s="27"/>
-      <c r="DB63" s="27" t="s">
+      <c r="CY63" s="26"/>
+      <c r="CZ63" s="26"/>
+      <c r="DA63" s="26"/>
+      <c r="DB63" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="DC63" s="27"/>
-      <c r="DD63" s="27"/>
-      <c r="DE63" s="27"/>
-      <c r="DF63" s="27" t="s">
+      <c r="DC63" s="26"/>
+      <c r="DD63" s="26"/>
+      <c r="DE63" s="26"/>
+      <c r="DF63" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="DG63" s="27"/>
-      <c r="DH63" s="27"/>
-      <c r="DI63" s="27"/>
-      <c r="DJ63" s="27" t="s">
+      <c r="DG63" s="26"/>
+      <c r="DH63" s="26"/>
+      <c r="DI63" s="26"/>
+      <c r="DJ63" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="DK63" s="27"/>
-      <c r="DL63" s="27"/>
-      <c r="DM63" s="27"/>
-      <c r="DN63" s="27" t="s">
+      <c r="DK63" s="26"/>
+      <c r="DL63" s="26"/>
+      <c r="DM63" s="26"/>
+      <c r="DN63" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="DO63" s="27"/>
-      <c r="DP63" s="27"/>
-      <c r="DQ63" s="27"/>
-      <c r="DR63" s="27" t="s">
+      <c r="DO63" s="26"/>
+      <c r="DP63" s="26"/>
+      <c r="DQ63" s="26"/>
+      <c r="DR63" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="DS63" s="27"/>
-      <c r="DT63" s="27"/>
-      <c r="DU63" s="27"/>
-      <c r="DV63" s="27" t="s">
+      <c r="DS63" s="26"/>
+      <c r="DT63" s="26"/>
+      <c r="DU63" s="26"/>
+      <c r="DV63" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="DW63" s="27"/>
-      <c r="DX63" s="27"/>
-      <c r="DY63" s="27"/>
-      <c r="DZ63" s="27" t="s">
+      <c r="DW63" s="26"/>
+      <c r="DX63" s="26"/>
+      <c r="DY63" s="26"/>
+      <c r="DZ63" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="EA63" s="27"/>
-      <c r="EB63" s="27"/>
-      <c r="EC63" s="27"/>
-      <c r="ED63" s="27" t="s">
+      <c r="EA63" s="26"/>
+      <c r="EB63" s="26"/>
+      <c r="EC63" s="26"/>
+      <c r="ED63" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="EE63" s="27"/>
-      <c r="EF63" s="27"/>
-      <c r="EG63" s="27"/>
-      <c r="EH63" s="27" t="s">
+      <c r="EE63" s="26"/>
+      <c r="EF63" s="26"/>
+      <c r="EG63" s="26"/>
+      <c r="EH63" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="EI63" s="27"/>
-      <c r="EJ63" s="27"/>
-      <c r="EK63" s="27"/>
-      <c r="EL63" s="27" t="s">
+      <c r="EI63" s="26"/>
+      <c r="EJ63" s="26"/>
+      <c r="EK63" s="26"/>
+      <c r="EL63" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="EM63" s="27"/>
-      <c r="EN63" s="27"/>
-      <c r="EO63" s="27"/>
-      <c r="EP63" s="27" t="s">
+      <c r="EM63" s="26"/>
+      <c r="EN63" s="26"/>
+      <c r="EO63" s="26"/>
+      <c r="EP63" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="EQ63" s="27"/>
-      <c r="ER63" s="27"/>
-      <c r="ES63" s="27"/>
-      <c r="ET63" s="27" t="s">
+      <c r="EQ63" s="26"/>
+      <c r="ER63" s="26"/>
+      <c r="ES63" s="26"/>
+      <c r="ET63" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="EU63" s="27"/>
-      <c r="EV63" s="27"/>
-      <c r="EW63" s="27"/>
-      <c r="EX63" s="27" t="s">
+      <c r="EU63" s="26"/>
+      <c r="EV63" s="26"/>
+      <c r="EW63" s="26"/>
+      <c r="EX63" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="EY63" s="27"/>
-      <c r="EZ63" s="27"/>
-      <c r="FA63" s="27"/>
-      <c r="FB63" s="27" t="s">
+      <c r="EY63" s="26"/>
+      <c r="EZ63" s="26"/>
+      <c r="FA63" s="26"/>
+      <c r="FB63" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="FC63" s="27"/>
-      <c r="FD63" s="27"/>
-      <c r="FE63" s="27"/>
-      <c r="FF63" s="27" t="s">
+      <c r="FC63" s="26"/>
+      <c r="FD63" s="26"/>
+      <c r="FE63" s="26"/>
+      <c r="FF63" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="FG63" s="27"/>
-      <c r="FH63" s="27"/>
-      <c r="FI63" s="27"/>
-      <c r="FJ63" s="28" t="s">
-        <v>83</v>
-      </c>
+      <c r="FG63" s="26"/>
+      <c r="FH63" s="26"/>
+      <c r="FI63" s="26"/>
+      <c r="FJ63" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="FK63" s="26"/>
     </row>
-    <row r="64" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>14</v>
       </c>
@@ -12436,8 +12487,11 @@
       <c r="FJ64" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="FK64" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="65" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:167" x14ac:dyDescent="0.2">
       <c r="FB65" s="24"/>
       <c r="FC65" s="24"/>
       <c r="FD65" s="24"/>
@@ -12447,8 +12501,9 @@
       <c r="FH65" s="10"/>
       <c r="FI65" s="10"/>
       <c r="FJ65" s="24"/>
+      <c r="FK65" s="24"/>
     </row>
-    <row r="66" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>1</v>
       </c>
@@ -12945,10 +13000,13 @@
         <v>14.90946448783501</v>
       </c>
       <c r="FJ66" s="25">
-        <v>14.623240348397886</v>
+        <v>14.703382016307259</v>
+      </c>
+      <c r="FK66" s="25">
+        <v>11.573295727077706</v>
       </c>
     </row>
-    <row r="67" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>2</v>
       </c>
@@ -13447,8 +13505,11 @@
       <c r="FJ67" s="25">
         <v>11.659125598929677</v>
       </c>
+      <c r="FK67" s="25">
+        <v>-3.0362959391804054</v>
+      </c>
     </row>
-    <row r="68" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>3</v>
       </c>
@@ -13945,10 +14006,13 @@
         <v>15.741274575405299</v>
       </c>
       <c r="FJ68" s="25">
-        <v>16.217789047026088</v>
+        <v>16.615747738869246</v>
+      </c>
+      <c r="FK68" s="25">
+        <v>-1.3068416311012925</v>
       </c>
     </row>
-    <row r="69" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>4</v>
       </c>
@@ -14445,10 +14509,13 @@
         <v>29.388577476004741</v>
       </c>
       <c r="FJ69" s="25">
-        <v>6.3088990054944531</v>
+        <v>6.8133013841748351</v>
+      </c>
+      <c r="FK69" s="25">
+        <v>7.8826373200590325</v>
       </c>
     </row>
-    <row r="70" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>5</v>
       </c>
@@ -14945,10 +15012,13 @@
         <v>19.208872861226439</v>
       </c>
       <c r="FJ70" s="25">
-        <v>9.7976622757961991</v>
+        <v>10.304049173364831</v>
+      </c>
+      <c r="FK70" s="25">
+        <v>-0.33201869795932737</v>
       </c>
     </row>
-    <row r="71" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:167" x14ac:dyDescent="0.2">
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
@@ -15114,8 +15184,9 @@
       <c r="FH71" s="25"/>
       <c r="FI71" s="25"/>
       <c r="FJ71" s="25"/>
+      <c r="FK71" s="25"/>
     </row>
-    <row r="72" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:167" x14ac:dyDescent="0.2">
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
@@ -15281,8 +15352,9 @@
       <c r="FH72" s="25"/>
       <c r="FI72" s="25"/>
       <c r="FJ72" s="25"/>
+      <c r="FK72" s="25"/>
     </row>
-    <row r="73" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>10</v>
       </c>
@@ -15779,10 +15851,13 @@
         <v>13.895556471396617</v>
       </c>
       <c r="FJ73" s="25">
-        <v>13.674683326983072</v>
+        <v>13.662791041685068</v>
+      </c>
+      <c r="FK73" s="25">
+        <v>9.0589520917780106</v>
       </c>
     </row>
-    <row r="74" spans="1:166" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:167" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
@@ -15937,7 +16012,7 @@
       <c r="EW74" s="13"/>
       <c r="EX74" s="3"/>
     </row>
-    <row r="75" spans="1:166" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:167" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
@@ -16092,7 +16167,7 @@
       <c r="EW75" s="13"/>
       <c r="EX75" s="3"/>
     </row>
-    <row r="76" spans="1:166" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:167" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
@@ -16247,7 +16322,7 @@
       <c r="EW76" s="13"/>
       <c r="EX76" s="3"/>
     </row>
-    <row r="77" spans="1:166" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:167" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
@@ -16402,7 +16477,7 @@
       <c r="EW77" s="13"/>
       <c r="EX77" s="3"/>
     </row>
-    <row r="78" spans="1:166" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:167" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -16569,308 +16644,310 @@
       <c r="FH78" s="9"/>
       <c r="FI78" s="9"/>
       <c r="FJ78" s="9"/>
+      <c r="FK78" s="9"/>
     </row>
-    <row r="79" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="88" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="FF89" s="9"/>
       <c r="FG89" s="9"/>
     </row>
-    <row r="90" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
-      <c r="B90" s="27" t="s">
+      <c r="B90" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27" t="s">
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="G90" s="27"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="27"/>
-      <c r="J90" s="27" t="s">
+      <c r="G90" s="26"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="26"/>
+      <c r="J90" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="K90" s="27"/>
-      <c r="L90" s="27"/>
-      <c r="M90" s="27"/>
-      <c r="N90" s="27" t="s">
+      <c r="K90" s="26"/>
+      <c r="L90" s="26"/>
+      <c r="M90" s="26"/>
+      <c r="N90" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="O90" s="27"/>
-      <c r="P90" s="27"/>
-      <c r="Q90" s="27"/>
-      <c r="R90" s="27" t="s">
+      <c r="O90" s="26"/>
+      <c r="P90" s="26"/>
+      <c r="Q90" s="26"/>
+      <c r="R90" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="S90" s="27"/>
-      <c r="T90" s="27"/>
-      <c r="U90" s="27"/>
-      <c r="V90" s="27" t="s">
+      <c r="S90" s="26"/>
+      <c r="T90" s="26"/>
+      <c r="U90" s="26"/>
+      <c r="V90" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="W90" s="27"/>
-      <c r="X90" s="27"/>
-      <c r="Y90" s="27"/>
-      <c r="Z90" s="27" t="s">
+      <c r="W90" s="26"/>
+      <c r="X90" s="26"/>
+      <c r="Y90" s="26"/>
+      <c r="Z90" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="AA90" s="27"/>
-      <c r="AB90" s="27"/>
-      <c r="AC90" s="27"/>
-      <c r="AD90" s="27" t="s">
+      <c r="AA90" s="26"/>
+      <c r="AB90" s="26"/>
+      <c r="AC90" s="26"/>
+      <c r="AD90" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="AE90" s="27"/>
-      <c r="AF90" s="27"/>
-      <c r="AG90" s="27"/>
-      <c r="AH90" s="27" t="s">
+      <c r="AE90" s="26"/>
+      <c r="AF90" s="26"/>
+      <c r="AG90" s="26"/>
+      <c r="AH90" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="AI90" s="27"/>
-      <c r="AJ90" s="27"/>
-      <c r="AK90" s="27"/>
-      <c r="AL90" s="27" t="s">
+      <c r="AI90" s="26"/>
+      <c r="AJ90" s="26"/>
+      <c r="AK90" s="26"/>
+      <c r="AL90" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="AM90" s="27"/>
-      <c r="AN90" s="27"/>
-      <c r="AO90" s="27"/>
-      <c r="AP90" s="27" t="s">
+      <c r="AM90" s="26"/>
+      <c r="AN90" s="26"/>
+      <c r="AO90" s="26"/>
+      <c r="AP90" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="AQ90" s="27"/>
-      <c r="AR90" s="27"/>
-      <c r="AS90" s="27"/>
-      <c r="AT90" s="27" t="s">
+      <c r="AQ90" s="26"/>
+      <c r="AR90" s="26"/>
+      <c r="AS90" s="26"/>
+      <c r="AT90" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="AU90" s="27"/>
-      <c r="AV90" s="27"/>
-      <c r="AW90" s="27"/>
-      <c r="AX90" s="27" t="s">
+      <c r="AU90" s="26"/>
+      <c r="AV90" s="26"/>
+      <c r="AW90" s="26"/>
+      <c r="AX90" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="AY90" s="27"/>
-      <c r="AZ90" s="27"/>
-      <c r="BA90" s="27"/>
-      <c r="BB90" s="27" t="s">
+      <c r="AY90" s="26"/>
+      <c r="AZ90" s="26"/>
+      <c r="BA90" s="26"/>
+      <c r="BB90" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="BC90" s="27"/>
-      <c r="BD90" s="27"/>
-      <c r="BE90" s="27"/>
-      <c r="BF90" s="27" t="s">
+      <c r="BC90" s="26"/>
+      <c r="BD90" s="26"/>
+      <c r="BE90" s="26"/>
+      <c r="BF90" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="BG90" s="27"/>
-      <c r="BH90" s="27"/>
-      <c r="BI90" s="27"/>
-      <c r="BJ90" s="27" t="s">
+      <c r="BG90" s="26"/>
+      <c r="BH90" s="26"/>
+      <c r="BI90" s="26"/>
+      <c r="BJ90" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="BK90" s="27"/>
-      <c r="BL90" s="27"/>
-      <c r="BM90" s="27"/>
-      <c r="BN90" s="27" t="s">
+      <c r="BK90" s="26"/>
+      <c r="BL90" s="26"/>
+      <c r="BM90" s="26"/>
+      <c r="BN90" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="BO90" s="27"/>
-      <c r="BP90" s="27"/>
-      <c r="BQ90" s="27"/>
-      <c r="BR90" s="27" t="s">
+      <c r="BO90" s="26"/>
+      <c r="BP90" s="26"/>
+      <c r="BQ90" s="26"/>
+      <c r="BR90" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="BS90" s="27"/>
-      <c r="BT90" s="27"/>
-      <c r="BU90" s="27"/>
-      <c r="BV90" s="27" t="s">
+      <c r="BS90" s="26"/>
+      <c r="BT90" s="26"/>
+      <c r="BU90" s="26"/>
+      <c r="BV90" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="BW90" s="27"/>
-      <c r="BX90" s="27"/>
-      <c r="BY90" s="27"/>
-      <c r="BZ90" s="27" t="s">
+      <c r="BW90" s="26"/>
+      <c r="BX90" s="26"/>
+      <c r="BY90" s="26"/>
+      <c r="BZ90" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="CA90" s="27"/>
-      <c r="CB90" s="27"/>
-      <c r="CC90" s="27"/>
-      <c r="CD90" s="27" t="s">
+      <c r="CA90" s="26"/>
+      <c r="CB90" s="26"/>
+      <c r="CC90" s="26"/>
+      <c r="CD90" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="CE90" s="27"/>
-      <c r="CF90" s="27"/>
-      <c r="CG90" s="27"/>
-      <c r="CH90" s="27" t="s">
+      <c r="CE90" s="26"/>
+      <c r="CF90" s="26"/>
+      <c r="CG90" s="26"/>
+      <c r="CH90" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="CI90" s="27"/>
-      <c r="CJ90" s="27"/>
-      <c r="CK90" s="27"/>
-      <c r="CL90" s="27" t="s">
+      <c r="CI90" s="26"/>
+      <c r="CJ90" s="26"/>
+      <c r="CK90" s="26"/>
+      <c r="CL90" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="CM90" s="27"/>
-      <c r="CN90" s="27"/>
-      <c r="CO90" s="27"/>
-      <c r="CP90" s="27" t="s">
+      <c r="CM90" s="26"/>
+      <c r="CN90" s="26"/>
+      <c r="CO90" s="26"/>
+      <c r="CP90" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="CQ90" s="27"/>
-      <c r="CR90" s="27"/>
-      <c r="CS90" s="27"/>
-      <c r="CT90" s="27" t="s">
+      <c r="CQ90" s="26"/>
+      <c r="CR90" s="26"/>
+      <c r="CS90" s="26"/>
+      <c r="CT90" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="CU90" s="27"/>
-      <c r="CV90" s="27"/>
-      <c r="CW90" s="27"/>
-      <c r="CX90" s="27" t="s">
+      <c r="CU90" s="26"/>
+      <c r="CV90" s="26"/>
+      <c r="CW90" s="26"/>
+      <c r="CX90" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="CY90" s="27"/>
-      <c r="CZ90" s="27"/>
-      <c r="DA90" s="27"/>
-      <c r="DB90" s="27" t="s">
+      <c r="CY90" s="26"/>
+      <c r="CZ90" s="26"/>
+      <c r="DA90" s="26"/>
+      <c r="DB90" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="DC90" s="27"/>
-      <c r="DD90" s="27"/>
-      <c r="DE90" s="27"/>
-      <c r="DF90" s="27" t="s">
+      <c r="DC90" s="26"/>
+      <c r="DD90" s="26"/>
+      <c r="DE90" s="26"/>
+      <c r="DF90" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="DG90" s="27"/>
-      <c r="DH90" s="27"/>
-      <c r="DI90" s="27"/>
-      <c r="DJ90" s="27" t="s">
+      <c r="DG90" s="26"/>
+      <c r="DH90" s="26"/>
+      <c r="DI90" s="26"/>
+      <c r="DJ90" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="DK90" s="27"/>
-      <c r="DL90" s="27"/>
-      <c r="DM90" s="27"/>
-      <c r="DN90" s="27" t="s">
+      <c r="DK90" s="26"/>
+      <c r="DL90" s="26"/>
+      <c r="DM90" s="26"/>
+      <c r="DN90" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="DO90" s="27"/>
-      <c r="DP90" s="27"/>
-      <c r="DQ90" s="27"/>
-      <c r="DR90" s="27" t="s">
+      <c r="DO90" s="26"/>
+      <c r="DP90" s="26"/>
+      <c r="DQ90" s="26"/>
+      <c r="DR90" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="DS90" s="27"/>
-      <c r="DT90" s="27"/>
-      <c r="DU90" s="27"/>
-      <c r="DV90" s="27" t="s">
+      <c r="DS90" s="26"/>
+      <c r="DT90" s="26"/>
+      <c r="DU90" s="26"/>
+      <c r="DV90" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="DW90" s="27"/>
-      <c r="DX90" s="27"/>
-      <c r="DY90" s="27"/>
-      <c r="DZ90" s="27" t="s">
+      <c r="DW90" s="26"/>
+      <c r="DX90" s="26"/>
+      <c r="DY90" s="26"/>
+      <c r="DZ90" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="EA90" s="27"/>
-      <c r="EB90" s="27"/>
-      <c r="EC90" s="27"/>
-      <c r="ED90" s="27" t="s">
+      <c r="EA90" s="26"/>
+      <c r="EB90" s="26"/>
+      <c r="EC90" s="26"/>
+      <c r="ED90" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="EE90" s="27"/>
-      <c r="EF90" s="27"/>
-      <c r="EG90" s="27"/>
-      <c r="EH90" s="27" t="s">
+      <c r="EE90" s="26"/>
+      <c r="EF90" s="26"/>
+      <c r="EG90" s="26"/>
+      <c r="EH90" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="EI90" s="27"/>
-      <c r="EJ90" s="27"/>
-      <c r="EK90" s="27"/>
-      <c r="EL90" s="27" t="s">
+      <c r="EI90" s="26"/>
+      <c r="EJ90" s="26"/>
+      <c r="EK90" s="26"/>
+      <c r="EL90" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="EM90" s="27"/>
-      <c r="EN90" s="27"/>
-      <c r="EO90" s="27"/>
-      <c r="EP90" s="27" t="s">
+      <c r="EM90" s="26"/>
+      <c r="EN90" s="26"/>
+      <c r="EO90" s="26"/>
+      <c r="EP90" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="EQ90" s="27"/>
-      <c r="ER90" s="27"/>
-      <c r="ES90" s="27"/>
-      <c r="ET90" s="27" t="s">
+      <c r="EQ90" s="26"/>
+      <c r="ER90" s="26"/>
+      <c r="ES90" s="26"/>
+      <c r="ET90" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="EU90" s="27"/>
-      <c r="EV90" s="27"/>
-      <c r="EW90" s="27"/>
-      <c r="EX90" s="27" t="s">
+      <c r="EU90" s="26"/>
+      <c r="EV90" s="26"/>
+      <c r="EW90" s="26"/>
+      <c r="EX90" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="EY90" s="27"/>
-      <c r="EZ90" s="27"/>
-      <c r="FA90" s="27"/>
-      <c r="FB90" s="27" t="s">
+      <c r="EY90" s="26"/>
+      <c r="EZ90" s="26"/>
+      <c r="FA90" s="26"/>
+      <c r="FB90" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="FC90" s="27"/>
-      <c r="FD90" s="27"/>
-      <c r="FE90" s="27"/>
-      <c r="FF90" s="27" t="s">
+      <c r="FC90" s="26"/>
+      <c r="FD90" s="26"/>
+      <c r="FE90" s="26"/>
+      <c r="FF90" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="FG90" s="27"/>
-      <c r="FH90" s="27"/>
-      <c r="FI90" s="27"/>
-      <c r="FJ90" s="28" t="s">
-        <v>83</v>
-      </c>
+      <c r="FG90" s="26"/>
+      <c r="FH90" s="26"/>
+      <c r="FI90" s="26"/>
+      <c r="FJ90" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="FK90" s="26"/>
     </row>
-    <row r="91" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>14</v>
       </c>
@@ -17369,15 +17446,19 @@
       <c r="FJ91" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="FK91" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="92" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:167" x14ac:dyDescent="0.2">
       <c r="FF92" s="24"/>
       <c r="FG92" s="24"/>
       <c r="FH92" s="24"/>
       <c r="FI92" s="24"/>
       <c r="FJ92" s="24"/>
+      <c r="FK92" s="24"/>
     </row>
-    <row r="93" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>1</v>
       </c>
@@ -17874,10 +17955,13 @@
         <v>6.971064311894807</v>
       </c>
       <c r="FJ93" s="25">
-        <v>6.3420005797817822</v>
+        <v>6.4300230362182873</v>
+      </c>
+      <c r="FK93" s="25">
+        <v>5.5072433479429037</v>
       </c>
     </row>
-    <row r="94" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>2</v>
       </c>
@@ -18376,8 +18460,11 @@
       <c r="FJ94" s="25">
         <v>6.1758091069245182</v>
       </c>
+      <c r="FK94" s="25">
+        <v>-7.1277971712926131</v>
+      </c>
     </row>
-    <row r="95" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>3</v>
       </c>
@@ -18874,10 +18961,13 @@
         <v>3.8337616067714464</v>
       </c>
       <c r="FJ95" s="25">
-        <v>12.179478804575282</v>
+        <v>12.592213935240466</v>
+      </c>
+      <c r="FK95" s="25">
+        <v>-3.9289118338643902E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>4</v>
       </c>
@@ -19374,10 +19464,13 @@
         <v>14.606690155131801</v>
       </c>
       <c r="FJ96" s="25">
-        <v>0.41377598026089402</v>
+        <v>0.97496334880655411</v>
+      </c>
+      <c r="FK96" s="25">
+        <v>4.1016964917378118</v>
       </c>
     </row>
-    <row r="97" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>5</v>
       </c>
@@ -19874,10 +19967,13 @@
         <v>7.0214457532868551</v>
       </c>
       <c r="FJ97" s="25">
-        <v>4.220581359076931</v>
+        <v>4.6534631541910159</v>
+      </c>
+      <c r="FK97" s="25">
+        <v>0.42102589485023145</v>
       </c>
     </row>
-    <row r="98" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:167" x14ac:dyDescent="0.2">
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
@@ -20043,8 +20139,9 @@
       <c r="FH98" s="25"/>
       <c r="FI98" s="25"/>
       <c r="FJ98" s="25"/>
+      <c r="FK98" s="25"/>
     </row>
-    <row r="99" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:167" x14ac:dyDescent="0.2">
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
@@ -20210,8 +20307,9 @@
       <c r="FH99" s="25"/>
       <c r="FI99" s="25"/>
       <c r="FJ99" s="25"/>
+      <c r="FK99" s="25"/>
     </row>
-    <row r="100" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>10</v>
       </c>
@@ -20708,10 +20806,13 @@
         <v>7.1147703439862369</v>
       </c>
       <c r="FJ100" s="25">
-        <v>6.4425911814635128</v>
+        <v>6.4493870765404324</v>
+      </c>
+      <c r="FK100" s="25">
+        <v>4.3344320547945756</v>
       </c>
     </row>
-    <row r="101" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:167" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
@@ -20865,7 +20966,7 @@
       <c r="EV101" s="13"/>
       <c r="EW101" s="13"/>
     </row>
-    <row r="102" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:167" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
@@ -21019,7 +21120,7 @@
       <c r="EV102" s="13"/>
       <c r="EW102" s="13"/>
     </row>
-    <row r="103" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:167" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
@@ -21173,7 +21274,7 @@
       <c r="EV103" s="13"/>
       <c r="EW103" s="13"/>
     </row>
-    <row r="104" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:167" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
@@ -21327,7 +21428,7 @@
       <c r="EV104" s="13"/>
       <c r="EW104" s="13"/>
     </row>
-    <row r="105" spans="1:166" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:167" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -21494,312 +21595,314 @@
       <c r="FH105" s="9"/>
       <c r="FI105" s="9"/>
       <c r="FJ105" s="9"/>
+      <c r="FK105" s="9"/>
     </row>
-    <row r="106" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="109" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="112" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
     </row>
-    <row r="113" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="115" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="116" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
     </row>
-    <row r="117" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
-      <c r="B117" s="27">
+      <c r="B117" s="26">
         <v>1981</v>
       </c>
-      <c r="C117" s="27"/>
-      <c r="D117" s="27"/>
-      <c r="E117" s="27"/>
-      <c r="F117" s="27">
+      <c r="C117" s="26"/>
+      <c r="D117" s="26"/>
+      <c r="E117" s="26"/>
+      <c r="F117" s="26">
         <v>1982</v>
       </c>
-      <c r="G117" s="27"/>
-      <c r="H117" s="27"/>
-      <c r="I117" s="27"/>
-      <c r="J117" s="27">
+      <c r="G117" s="26"/>
+      <c r="H117" s="26"/>
+      <c r="I117" s="26"/>
+      <c r="J117" s="26">
         <v>1983</v>
       </c>
-      <c r="K117" s="27"/>
-      <c r="L117" s="27"/>
-      <c r="M117" s="27"/>
-      <c r="N117" s="27">
+      <c r="K117" s="26"/>
+      <c r="L117" s="26"/>
+      <c r="M117" s="26"/>
+      <c r="N117" s="26">
         <v>1984</v>
       </c>
-      <c r="O117" s="27"/>
-      <c r="P117" s="27"/>
-      <c r="Q117" s="27"/>
-      <c r="R117" s="27">
+      <c r="O117" s="26"/>
+      <c r="P117" s="26"/>
+      <c r="Q117" s="26"/>
+      <c r="R117" s="26">
         <v>1985</v>
       </c>
-      <c r="S117" s="27"/>
-      <c r="T117" s="27"/>
-      <c r="U117" s="27"/>
-      <c r="V117" s="27">
+      <c r="S117" s="26"/>
+      <c r="T117" s="26"/>
+      <c r="U117" s="26"/>
+      <c r="V117" s="26">
         <v>1986</v>
       </c>
-      <c r="W117" s="27"/>
-      <c r="X117" s="27"/>
-      <c r="Y117" s="27"/>
-      <c r="Z117" s="27">
+      <c r="W117" s="26"/>
+      <c r="X117" s="26"/>
+      <c r="Y117" s="26"/>
+      <c r="Z117" s="26">
         <v>1987</v>
       </c>
-      <c r="AA117" s="27"/>
-      <c r="AB117" s="27"/>
-      <c r="AC117" s="27"/>
-      <c r="AD117" s="27">
+      <c r="AA117" s="26"/>
+      <c r="AB117" s="26"/>
+      <c r="AC117" s="26"/>
+      <c r="AD117" s="26">
         <v>1988</v>
       </c>
-      <c r="AE117" s="27"/>
-      <c r="AF117" s="27"/>
-      <c r="AG117" s="27"/>
-      <c r="AH117" s="27">
+      <c r="AE117" s="26"/>
+      <c r="AF117" s="26"/>
+      <c r="AG117" s="26"/>
+      <c r="AH117" s="26">
         <v>1989</v>
       </c>
-      <c r="AI117" s="27"/>
-      <c r="AJ117" s="27"/>
-      <c r="AK117" s="27"/>
-      <c r="AL117" s="27">
+      <c r="AI117" s="26"/>
+      <c r="AJ117" s="26"/>
+      <c r="AK117" s="26"/>
+      <c r="AL117" s="26">
         <v>1990</v>
       </c>
-      <c r="AM117" s="27"/>
-      <c r="AN117" s="27"/>
-      <c r="AO117" s="27"/>
-      <c r="AP117" s="27">
+      <c r="AM117" s="26"/>
+      <c r="AN117" s="26"/>
+      <c r="AO117" s="26"/>
+      <c r="AP117" s="26">
         <v>1991</v>
       </c>
-      <c r="AQ117" s="27"/>
-      <c r="AR117" s="27"/>
-      <c r="AS117" s="27"/>
-      <c r="AT117" s="27">
+      <c r="AQ117" s="26"/>
+      <c r="AR117" s="26"/>
+      <c r="AS117" s="26"/>
+      <c r="AT117" s="26">
         <v>1992</v>
       </c>
-      <c r="AU117" s="27"/>
-      <c r="AV117" s="27"/>
-      <c r="AW117" s="27"/>
-      <c r="AX117" s="27">
+      <c r="AU117" s="26"/>
+      <c r="AV117" s="26"/>
+      <c r="AW117" s="26"/>
+      <c r="AX117" s="26">
         <v>1993</v>
       </c>
-      <c r="AY117" s="27"/>
-      <c r="AZ117" s="27"/>
-      <c r="BA117" s="27"/>
-      <c r="BB117" s="27">
+      <c r="AY117" s="26"/>
+      <c r="AZ117" s="26"/>
+      <c r="BA117" s="26"/>
+      <c r="BB117" s="26">
         <v>1994</v>
       </c>
-      <c r="BC117" s="27"/>
-      <c r="BD117" s="27"/>
-      <c r="BE117" s="27"/>
-      <c r="BF117" s="27">
+      <c r="BC117" s="26"/>
+      <c r="BD117" s="26"/>
+      <c r="BE117" s="26"/>
+      <c r="BF117" s="26">
         <v>1995</v>
       </c>
-      <c r="BG117" s="27"/>
-      <c r="BH117" s="27"/>
-      <c r="BI117" s="27"/>
-      <c r="BJ117" s="27">
+      <c r="BG117" s="26"/>
+      <c r="BH117" s="26"/>
+      <c r="BI117" s="26"/>
+      <c r="BJ117" s="26">
         <v>1996</v>
       </c>
-      <c r="BK117" s="27"/>
-      <c r="BL117" s="27"/>
-      <c r="BM117" s="27"/>
-      <c r="BN117" s="27">
+      <c r="BK117" s="26"/>
+      <c r="BL117" s="26"/>
+      <c r="BM117" s="26"/>
+      <c r="BN117" s="26">
         <v>1997</v>
       </c>
-      <c r="BO117" s="27"/>
-      <c r="BP117" s="27"/>
-      <c r="BQ117" s="27"/>
-      <c r="BR117" s="27">
+      <c r="BO117" s="26"/>
+      <c r="BP117" s="26"/>
+      <c r="BQ117" s="26"/>
+      <c r="BR117" s="26">
         <v>1998</v>
       </c>
-      <c r="BS117" s="27"/>
-      <c r="BT117" s="27"/>
-      <c r="BU117" s="27"/>
-      <c r="BV117" s="27">
+      <c r="BS117" s="26"/>
+      <c r="BT117" s="26"/>
+      <c r="BU117" s="26"/>
+      <c r="BV117" s="26">
         <v>1999</v>
       </c>
-      <c r="BW117" s="27"/>
-      <c r="BX117" s="27"/>
-      <c r="BY117" s="27"/>
-      <c r="BZ117" s="27">
+      <c r="BW117" s="26"/>
+      <c r="BX117" s="26"/>
+      <c r="BY117" s="26"/>
+      <c r="BZ117" s="26">
         <v>2000</v>
       </c>
-      <c r="CA117" s="27"/>
-      <c r="CB117" s="27"/>
-      <c r="CC117" s="27"/>
-      <c r="CD117" s="27">
+      <c r="CA117" s="26"/>
+      <c r="CB117" s="26"/>
+      <c r="CC117" s="26"/>
+      <c r="CD117" s="26">
         <v>2001</v>
       </c>
-      <c r="CE117" s="27"/>
-      <c r="CF117" s="27"/>
-      <c r="CG117" s="27"/>
-      <c r="CH117" s="27">
+      <c r="CE117" s="26"/>
+      <c r="CF117" s="26"/>
+      <c r="CG117" s="26"/>
+      <c r="CH117" s="26">
         <v>2002</v>
       </c>
-      <c r="CI117" s="27"/>
-      <c r="CJ117" s="27"/>
-      <c r="CK117" s="27"/>
-      <c r="CL117" s="27">
+      <c r="CI117" s="26"/>
+      <c r="CJ117" s="26"/>
+      <c r="CK117" s="26"/>
+      <c r="CL117" s="26">
         <v>2003</v>
       </c>
-      <c r="CM117" s="27"/>
-      <c r="CN117" s="27"/>
-      <c r="CO117" s="27"/>
-      <c r="CP117" s="27">
+      <c r="CM117" s="26"/>
+      <c r="CN117" s="26"/>
+      <c r="CO117" s="26"/>
+      <c r="CP117" s="26">
         <v>2004</v>
       </c>
-      <c r="CQ117" s="27"/>
-      <c r="CR117" s="27"/>
-      <c r="CS117" s="27"/>
-      <c r="CT117" s="27">
+      <c r="CQ117" s="26"/>
+      <c r="CR117" s="26"/>
+      <c r="CS117" s="26"/>
+      <c r="CT117" s="26">
         <v>2005</v>
       </c>
-      <c r="CU117" s="27"/>
-      <c r="CV117" s="27"/>
-      <c r="CW117" s="27"/>
-      <c r="CX117" s="27">
+      <c r="CU117" s="26"/>
+      <c r="CV117" s="26"/>
+      <c r="CW117" s="26"/>
+      <c r="CX117" s="26">
         <v>2006</v>
       </c>
-      <c r="CY117" s="27"/>
-      <c r="CZ117" s="27"/>
-      <c r="DA117" s="27"/>
-      <c r="DB117" s="27">
+      <c r="CY117" s="26"/>
+      <c r="CZ117" s="26"/>
+      <c r="DA117" s="26"/>
+      <c r="DB117" s="26">
         <v>2007</v>
       </c>
-      <c r="DC117" s="27"/>
-      <c r="DD117" s="27"/>
-      <c r="DE117" s="27"/>
-      <c r="DF117" s="27">
+      <c r="DC117" s="26"/>
+      <c r="DD117" s="26"/>
+      <c r="DE117" s="26"/>
+      <c r="DF117" s="26">
         <v>2008</v>
       </c>
-      <c r="DG117" s="27"/>
-      <c r="DH117" s="27"/>
-      <c r="DI117" s="27"/>
-      <c r="DJ117" s="27">
+      <c r="DG117" s="26"/>
+      <c r="DH117" s="26"/>
+      <c r="DI117" s="26"/>
+      <c r="DJ117" s="26">
         <v>2009</v>
       </c>
-      <c r="DK117" s="27"/>
-      <c r="DL117" s="27"/>
-      <c r="DM117" s="27"/>
-      <c r="DN117" s="27">
+      <c r="DK117" s="26"/>
+      <c r="DL117" s="26"/>
+      <c r="DM117" s="26"/>
+      <c r="DN117" s="26">
         <v>2010</v>
       </c>
-      <c r="DO117" s="27"/>
-      <c r="DP117" s="27"/>
-      <c r="DQ117" s="27"/>
-      <c r="DR117" s="27">
+      <c r="DO117" s="26"/>
+      <c r="DP117" s="26"/>
+      <c r="DQ117" s="26"/>
+      <c r="DR117" s="26">
         <v>2011</v>
       </c>
-      <c r="DS117" s="27"/>
-      <c r="DT117" s="27"/>
-      <c r="DU117" s="27"/>
-      <c r="DV117" s="27">
+      <c r="DS117" s="26"/>
+      <c r="DT117" s="26"/>
+      <c r="DU117" s="26"/>
+      <c r="DV117" s="26">
         <v>2012</v>
       </c>
-      <c r="DW117" s="27"/>
-      <c r="DX117" s="27"/>
-      <c r="DY117" s="27"/>
-      <c r="DZ117" s="27">
+      <c r="DW117" s="26"/>
+      <c r="DX117" s="26"/>
+      <c r="DY117" s="26"/>
+      <c r="DZ117" s="26">
         <v>2013</v>
       </c>
-      <c r="EA117" s="27"/>
-      <c r="EB117" s="27"/>
-      <c r="EC117" s="27"/>
-      <c r="ED117" s="27">
+      <c r="EA117" s="26"/>
+      <c r="EB117" s="26"/>
+      <c r="EC117" s="26"/>
+      <c r="ED117" s="26">
         <v>2014</v>
       </c>
-      <c r="EE117" s="27"/>
-      <c r="EF117" s="27"/>
-      <c r="EG117" s="27"/>
-      <c r="EH117" s="27">
+      <c r="EE117" s="26"/>
+      <c r="EF117" s="26"/>
+      <c r="EG117" s="26"/>
+      <c r="EH117" s="26">
         <v>2015</v>
       </c>
-      <c r="EI117" s="27"/>
-      <c r="EJ117" s="27"/>
-      <c r="EK117" s="27"/>
-      <c r="EL117" s="27">
+      <c r="EI117" s="26"/>
+      <c r="EJ117" s="26"/>
+      <c r="EK117" s="26"/>
+      <c r="EL117" s="26">
         <v>2016</v>
       </c>
-      <c r="EM117" s="27"/>
-      <c r="EN117" s="27"/>
-      <c r="EO117" s="27"/>
-      <c r="EP117" s="27">
+      <c r="EM117" s="26"/>
+      <c r="EN117" s="26"/>
+      <c r="EO117" s="26"/>
+      <c r="EP117" s="26">
         <v>2017</v>
       </c>
-      <c r="EQ117" s="27"/>
-      <c r="ER117" s="27"/>
-      <c r="ES117" s="27"/>
-      <c r="ET117" s="27">
+      <c r="EQ117" s="26"/>
+      <c r="ER117" s="26"/>
+      <c r="ES117" s="26"/>
+      <c r="ET117" s="26">
         <v>2018</v>
       </c>
-      <c r="EU117" s="27"/>
-      <c r="EV117" s="27"/>
-      <c r="EW117" s="27"/>
-      <c r="EX117" s="27">
+      <c r="EU117" s="26"/>
+      <c r="EV117" s="26"/>
+      <c r="EW117" s="26"/>
+      <c r="EX117" s="26">
         <v>2019</v>
       </c>
-      <c r="EY117" s="27"/>
-      <c r="EZ117" s="27"/>
-      <c r="FA117" s="27"/>
-      <c r="FB117" s="27">
+      <c r="EY117" s="26"/>
+      <c r="EZ117" s="26"/>
+      <c r="FA117" s="26"/>
+      <c r="FB117" s="26">
         <v>2020</v>
       </c>
-      <c r="FC117" s="27"/>
-      <c r="FD117" s="27"/>
+      <c r="FC117" s="26"/>
+      <c r="FD117" s="26"/>
       <c r="FE117" s="4"/>
-      <c r="FF117" s="27">
+      <c r="FF117" s="26">
         <v>2021</v>
       </c>
-      <c r="FG117" s="27"/>
-      <c r="FH117" s="27"/>
-      <c r="FI117" s="27"/>
-      <c r="FJ117" s="27">
+      <c r="FG117" s="26"/>
+      <c r="FH117" s="26"/>
+      <c r="FI117" s="26"/>
+      <c r="FJ117" s="26">
         <v>2022</v>
       </c>
-      <c r="FK117" s="27"/>
-      <c r="FL117" s="27"/>
-      <c r="FM117" s="27"/>
+      <c r="FK117" s="26"/>
+      <c r="FL117" s="26"/>
+      <c r="FM117" s="26"/>
       <c r="FN117" s="26">
         <v>2023</v>
       </c>
+      <c r="FO117" s="26"/>
     </row>
-    <row r="118" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>14</v>
       </c>
@@ -22310,11 +22413,14 @@
       <c r="FN118" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="FO118" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="119" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:171" x14ac:dyDescent="0.2">
       <c r="FB119" s="2"/>
     </row>
-    <row r="120" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>1</v>
       </c>
@@ -22823,10 +22929,13 @@
         <v>75.384218035329681</v>
       </c>
       <c r="FN120" s="21">
-        <v>78.843139545485101</v>
+        <v>78.906519622845096</v>
+      </c>
+      <c r="FO120" s="21">
+        <v>73.504598232365751</v>
       </c>
     </row>
-    <row r="121" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>2</v>
       </c>
@@ -23335,10 +23444,13 @@
         <v>13.85545318394793</v>
       </c>
       <c r="FN121" s="21">
-        <v>13.526671947654775</v>
+        <v>13.528087213287968</v>
+      </c>
+      <c r="FO121" s="21">
+        <v>15.56746560740461</v>
       </c>
     </row>
-    <row r="122" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>3</v>
       </c>
@@ -23847,10 +23959,13 @@
         <v>21.424411998499128</v>
       </c>
       <c r="FN122" s="21">
-        <v>23.718599422384592</v>
+        <v>23.802307943762717</v>
+      </c>
+      <c r="FO122" s="21">
+        <v>26.313912173796126</v>
       </c>
     </row>
-    <row r="123" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>4</v>
       </c>
@@ -24359,10 +24474,13 @@
         <v>26.736697204363036</v>
       </c>
       <c r="FN123" s="21">
-        <v>27.692125435679404</v>
+        <v>27.826426997023656</v>
+      </c>
+      <c r="FO123" s="21">
+        <v>25.754556782757966</v>
       </c>
     </row>
-    <row r="124" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>5</v>
       </c>
@@ -24871,10 +24989,13 @@
         <v>36.411340489992547</v>
       </c>
       <c r="FN124" s="21">
-        <v>43.172793287989883</v>
+        <v>43.376444147946344</v>
+      </c>
+      <c r="FO124" s="21">
+        <v>41.232994417840246</v>
       </c>
     </row>
-    <row r="125" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:171" x14ac:dyDescent="0.2">
       <c r="B125" s="13">
         <v>10.790109715083961</v>
       </c>
@@ -25196,8 +25317,9 @@
       <c r="FL125" s="21"/>
       <c r="FM125" s="21"/>
       <c r="FN125" s="21"/>
+      <c r="FO125" s="21"/>
     </row>
-    <row r="126" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:171" x14ac:dyDescent="0.2">
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
@@ -25367,8 +25489,9 @@
       <c r="FL126" s="21"/>
       <c r="FM126" s="21"/>
       <c r="FN126" s="21"/>
+      <c r="FO126" s="21"/>
     </row>
-    <row r="127" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
         <v>10</v>
       </c>
@@ -25879,8 +26002,11 @@
       <c r="FN127" s="21">
         <v>100</v>
       </c>
+      <c r="FO127" s="21">
+        <v>100</v>
+      </c>
     </row>
-    <row r="128" spans="1:170" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:171" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="13">
         <v>0</v>
       </c>
@@ -26040,7 +26166,7 @@
       <c r="EZ128" s="13"/>
       <c r="FA128" s="13"/>
     </row>
-    <row r="129" spans="1:170" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" s="13">
         <v>0</v>
       </c>
@@ -26200,7 +26326,7 @@
       <c r="EZ129" s="13"/>
       <c r="FA129" s="13"/>
     </row>
-    <row r="130" spans="1:170" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" s="13">
         <v>0</v>
       </c>
@@ -26360,7 +26486,7 @@
       <c r="EZ130" s="13"/>
       <c r="FA130" s="13"/>
     </row>
-    <row r="131" spans="1:170" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" s="13">
         <v>0</v>
       </c>
@@ -26520,7 +26646,7 @@
       <c r="EZ131" s="13"/>
       <c r="FA131" s="13"/>
     </row>
-    <row r="132" spans="1:170" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:171" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -26691,34 +26817,35 @@
       <c r="FL132" s="9"/>
       <c r="FM132" s="9"/>
       <c r="FN132" s="9"/>
+      <c r="FO132" s="9"/>
     </row>
-    <row r="133" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="139" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="FC139" s="3"/>
       <c r="FD139" s="3"/>
       <c r="FE139" s="3"/>
     </row>
-    <row r="140" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>46</v>
       </c>
@@ -26726,15 +26853,15 @@
       <c r="FD140" s="3"/>
       <c r="FE140" s="3"/>
     </row>
-    <row r="141" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="FC141" s="3"/>
       <c r="FD141" s="3"/>
       <c r="FE141" s="3"/>
     </row>
-    <row r="142" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>54</v>
       </c>
@@ -26742,271 +26869,272 @@
       <c r="FD142" s="3"/>
       <c r="FE142" s="3"/>
     </row>
-    <row r="143" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="FC143" s="3"/>
       <c r="FD143" s="3"/>
       <c r="FE143" s="3"/>
     </row>
-    <row r="144" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
-      <c r="B144" s="27">
+      <c r="B144" s="26">
         <v>1981</v>
       </c>
-      <c r="C144" s="27"/>
-      <c r="D144" s="27"/>
-      <c r="E144" s="27"/>
-      <c r="F144" s="27">
+      <c r="C144" s="26"/>
+      <c r="D144" s="26"/>
+      <c r="E144" s="26"/>
+      <c r="F144" s="26">
         <v>1982</v>
       </c>
-      <c r="G144" s="27"/>
-      <c r="H144" s="27"/>
-      <c r="I144" s="27"/>
-      <c r="J144" s="27">
+      <c r="G144" s="26"/>
+      <c r="H144" s="26"/>
+      <c r="I144" s="26"/>
+      <c r="J144" s="26">
         <v>1983</v>
       </c>
-      <c r="K144" s="27"/>
-      <c r="L144" s="27"/>
-      <c r="M144" s="27"/>
-      <c r="N144" s="27">
+      <c r="K144" s="26"/>
+      <c r="L144" s="26"/>
+      <c r="M144" s="26"/>
+      <c r="N144" s="26">
         <v>1984</v>
       </c>
-      <c r="O144" s="27"/>
-      <c r="P144" s="27"/>
-      <c r="Q144" s="27"/>
-      <c r="R144" s="27">
+      <c r="O144" s="26"/>
+      <c r="P144" s="26"/>
+      <c r="Q144" s="26"/>
+      <c r="R144" s="26">
         <v>1985</v>
       </c>
-      <c r="S144" s="27"/>
-      <c r="T144" s="27"/>
-      <c r="U144" s="27"/>
-      <c r="V144" s="27">
+      <c r="S144" s="26"/>
+      <c r="T144" s="26"/>
+      <c r="U144" s="26"/>
+      <c r="V144" s="26">
         <v>1986</v>
       </c>
-      <c r="W144" s="27"/>
-      <c r="X144" s="27"/>
-      <c r="Y144" s="27"/>
-      <c r="Z144" s="27">
+      <c r="W144" s="26"/>
+      <c r="X144" s="26"/>
+      <c r="Y144" s="26"/>
+      <c r="Z144" s="26">
         <v>1987</v>
       </c>
-      <c r="AA144" s="27"/>
-      <c r="AB144" s="27"/>
-      <c r="AC144" s="27"/>
-      <c r="AD144" s="27">
+      <c r="AA144" s="26"/>
+      <c r="AB144" s="26"/>
+      <c r="AC144" s="26"/>
+      <c r="AD144" s="26">
         <v>1988</v>
       </c>
-      <c r="AE144" s="27"/>
-      <c r="AF144" s="27"/>
-      <c r="AG144" s="27"/>
-      <c r="AH144" s="27">
+      <c r="AE144" s="26"/>
+      <c r="AF144" s="26"/>
+      <c r="AG144" s="26"/>
+      <c r="AH144" s="26">
         <v>1989</v>
       </c>
-      <c r="AI144" s="27"/>
-      <c r="AJ144" s="27"/>
-      <c r="AK144" s="27"/>
-      <c r="AL144" s="27">
+      <c r="AI144" s="26"/>
+      <c r="AJ144" s="26"/>
+      <c r="AK144" s="26"/>
+      <c r="AL144" s="26">
         <v>1990</v>
       </c>
-      <c r="AM144" s="27"/>
-      <c r="AN144" s="27"/>
-      <c r="AO144" s="27"/>
-      <c r="AP144" s="27">
+      <c r="AM144" s="26"/>
+      <c r="AN144" s="26"/>
+      <c r="AO144" s="26"/>
+      <c r="AP144" s="26">
         <v>1991</v>
       </c>
-      <c r="AQ144" s="27"/>
-      <c r="AR144" s="27"/>
-      <c r="AS144" s="27"/>
-      <c r="AT144" s="27">
+      <c r="AQ144" s="26"/>
+      <c r="AR144" s="26"/>
+      <c r="AS144" s="26"/>
+      <c r="AT144" s="26">
         <v>1992</v>
       </c>
-      <c r="AU144" s="27"/>
-      <c r="AV144" s="27"/>
-      <c r="AW144" s="27"/>
-      <c r="AX144" s="27">
+      <c r="AU144" s="26"/>
+      <c r="AV144" s="26"/>
+      <c r="AW144" s="26"/>
+      <c r="AX144" s="26">
         <v>1993</v>
       </c>
-      <c r="AY144" s="27"/>
-      <c r="AZ144" s="27"/>
-      <c r="BA144" s="27"/>
-      <c r="BB144" s="27">
+      <c r="AY144" s="26"/>
+      <c r="AZ144" s="26"/>
+      <c r="BA144" s="26"/>
+      <c r="BB144" s="26">
         <v>1994</v>
       </c>
-      <c r="BC144" s="27"/>
-      <c r="BD144" s="27"/>
-      <c r="BE144" s="27"/>
-      <c r="BF144" s="27">
+      <c r="BC144" s="26"/>
+      <c r="BD144" s="26"/>
+      <c r="BE144" s="26"/>
+      <c r="BF144" s="26">
         <v>1995</v>
       </c>
-      <c r="BG144" s="27"/>
-      <c r="BH144" s="27"/>
-      <c r="BI144" s="27"/>
-      <c r="BJ144" s="27">
+      <c r="BG144" s="26"/>
+      <c r="BH144" s="26"/>
+      <c r="BI144" s="26"/>
+      <c r="BJ144" s="26">
         <v>1996</v>
       </c>
-      <c r="BK144" s="27"/>
-      <c r="BL144" s="27"/>
-      <c r="BM144" s="27"/>
-      <c r="BN144" s="27">
+      <c r="BK144" s="26"/>
+      <c r="BL144" s="26"/>
+      <c r="BM144" s="26"/>
+      <c r="BN144" s="26">
         <v>1997</v>
       </c>
-      <c r="BO144" s="27"/>
-      <c r="BP144" s="27"/>
-      <c r="BQ144" s="27"/>
-      <c r="BR144" s="27">
+      <c r="BO144" s="26"/>
+      <c r="BP144" s="26"/>
+      <c r="BQ144" s="26"/>
+      <c r="BR144" s="26">
         <v>1998</v>
       </c>
-      <c r="BS144" s="27"/>
-      <c r="BT144" s="27"/>
-      <c r="BU144" s="27"/>
-      <c r="BV144" s="27">
+      <c r="BS144" s="26"/>
+      <c r="BT144" s="26"/>
+      <c r="BU144" s="26"/>
+      <c r="BV144" s="26">
         <v>1999</v>
       </c>
-      <c r="BW144" s="27"/>
-      <c r="BX144" s="27"/>
-      <c r="BY144" s="27"/>
-      <c r="BZ144" s="27">
+      <c r="BW144" s="26"/>
+      <c r="BX144" s="26"/>
+      <c r="BY144" s="26"/>
+      <c r="BZ144" s="26">
         <v>2000</v>
       </c>
-      <c r="CA144" s="27"/>
-      <c r="CB144" s="27"/>
-      <c r="CC144" s="27"/>
-      <c r="CD144" s="27">
+      <c r="CA144" s="26"/>
+      <c r="CB144" s="26"/>
+      <c r="CC144" s="26"/>
+      <c r="CD144" s="26">
         <v>2001</v>
       </c>
-      <c r="CE144" s="27"/>
-      <c r="CF144" s="27"/>
-      <c r="CG144" s="27"/>
-      <c r="CH144" s="27">
+      <c r="CE144" s="26"/>
+      <c r="CF144" s="26"/>
+      <c r="CG144" s="26"/>
+      <c r="CH144" s="26">
         <v>2002</v>
       </c>
-      <c r="CI144" s="27"/>
-      <c r="CJ144" s="27"/>
-      <c r="CK144" s="27"/>
-      <c r="CL144" s="27">
+      <c r="CI144" s="26"/>
+      <c r="CJ144" s="26"/>
+      <c r="CK144" s="26"/>
+      <c r="CL144" s="26">
         <v>2003</v>
       </c>
-      <c r="CM144" s="27"/>
-      <c r="CN144" s="27"/>
-      <c r="CO144" s="27"/>
-      <c r="CP144" s="27">
+      <c r="CM144" s="26"/>
+      <c r="CN144" s="26"/>
+      <c r="CO144" s="26"/>
+      <c r="CP144" s="26">
         <v>2004</v>
       </c>
-      <c r="CQ144" s="27"/>
-      <c r="CR144" s="27"/>
-      <c r="CS144" s="27"/>
-      <c r="CT144" s="27">
+      <c r="CQ144" s="26"/>
+      <c r="CR144" s="26"/>
+      <c r="CS144" s="26"/>
+      <c r="CT144" s="26">
         <v>2005</v>
       </c>
-      <c r="CU144" s="27"/>
-      <c r="CV144" s="27"/>
-      <c r="CW144" s="27"/>
-      <c r="CX144" s="27">
+      <c r="CU144" s="26"/>
+      <c r="CV144" s="26"/>
+      <c r="CW144" s="26"/>
+      <c r="CX144" s="26">
         <v>2006</v>
       </c>
-      <c r="CY144" s="27"/>
-      <c r="CZ144" s="27"/>
-      <c r="DA144" s="27"/>
-      <c r="DB144" s="27">
+      <c r="CY144" s="26"/>
+      <c r="CZ144" s="26"/>
+      <c r="DA144" s="26"/>
+      <c r="DB144" s="26">
         <v>2007</v>
       </c>
-      <c r="DC144" s="27"/>
-      <c r="DD144" s="27"/>
-      <c r="DE144" s="27"/>
-      <c r="DF144" s="27">
+      <c r="DC144" s="26"/>
+      <c r="DD144" s="26"/>
+      <c r="DE144" s="26"/>
+      <c r="DF144" s="26">
         <v>2008</v>
       </c>
-      <c r="DG144" s="27"/>
-      <c r="DH144" s="27"/>
-      <c r="DI144" s="27"/>
-      <c r="DJ144" s="27">
+      <c r="DG144" s="26"/>
+      <c r="DH144" s="26"/>
+      <c r="DI144" s="26"/>
+      <c r="DJ144" s="26">
         <v>2009</v>
       </c>
-      <c r="DK144" s="27"/>
-      <c r="DL144" s="27"/>
-      <c r="DM144" s="27"/>
-      <c r="DN144" s="27">
+      <c r="DK144" s="26"/>
+      <c r="DL144" s="26"/>
+      <c r="DM144" s="26"/>
+      <c r="DN144" s="26">
         <v>2010</v>
       </c>
-      <c r="DO144" s="27"/>
-      <c r="DP144" s="27"/>
-      <c r="DQ144" s="27"/>
-      <c r="DR144" s="27">
+      <c r="DO144" s="26"/>
+      <c r="DP144" s="26"/>
+      <c r="DQ144" s="26"/>
+      <c r="DR144" s="26">
         <v>2011</v>
       </c>
-      <c r="DS144" s="27"/>
-      <c r="DT144" s="27"/>
-      <c r="DU144" s="27"/>
-      <c r="DV144" s="27">
+      <c r="DS144" s="26"/>
+      <c r="DT144" s="26"/>
+      <c r="DU144" s="26"/>
+      <c r="DV144" s="26">
         <v>2012</v>
       </c>
-      <c r="DW144" s="27"/>
-      <c r="DX144" s="27"/>
-      <c r="DY144" s="27"/>
-      <c r="DZ144" s="27">
+      <c r="DW144" s="26"/>
+      <c r="DX144" s="26"/>
+      <c r="DY144" s="26"/>
+      <c r="DZ144" s="26">
         <v>2013</v>
       </c>
-      <c r="EA144" s="27"/>
-      <c r="EB144" s="27"/>
-      <c r="EC144" s="27"/>
-      <c r="ED144" s="27">
+      <c r="EA144" s="26"/>
+      <c r="EB144" s="26"/>
+      <c r="EC144" s="26"/>
+      <c r="ED144" s="26">
         <v>2014</v>
       </c>
-      <c r="EE144" s="27"/>
-      <c r="EF144" s="27"/>
-      <c r="EG144" s="27"/>
-      <c r="EH144" s="27">
+      <c r="EE144" s="26"/>
+      <c r="EF144" s="26"/>
+      <c r="EG144" s="26"/>
+      <c r="EH144" s="26">
         <v>2015</v>
       </c>
-      <c r="EI144" s="27"/>
-      <c r="EJ144" s="27"/>
-      <c r="EK144" s="27"/>
-      <c r="EL144" s="27">
+      <c r="EI144" s="26"/>
+      <c r="EJ144" s="26"/>
+      <c r="EK144" s="26"/>
+      <c r="EL144" s="26">
         <v>2016</v>
       </c>
-      <c r="EM144" s="27"/>
-      <c r="EN144" s="27"/>
-      <c r="EO144" s="27"/>
-      <c r="EP144" s="27">
+      <c r="EM144" s="26"/>
+      <c r="EN144" s="26"/>
+      <c r="EO144" s="26"/>
+      <c r="EP144" s="26">
         <v>2017</v>
       </c>
-      <c r="EQ144" s="27"/>
-      <c r="ER144" s="27"/>
-      <c r="ES144" s="27"/>
-      <c r="ET144" s="27">
+      <c r="EQ144" s="26"/>
+      <c r="ER144" s="26"/>
+      <c r="ES144" s="26"/>
+      <c r="ET144" s="26">
         <v>2018</v>
       </c>
-      <c r="EU144" s="27"/>
-      <c r="EV144" s="27"/>
-      <c r="EW144" s="27"/>
-      <c r="EX144" s="27">
+      <c r="EU144" s="26"/>
+      <c r="EV144" s="26"/>
+      <c r="EW144" s="26"/>
+      <c r="EX144" s="26">
         <v>2019</v>
       </c>
-      <c r="EY144" s="27"/>
-      <c r="EZ144" s="27"/>
-      <c r="FA144" s="27"/>
-      <c r="FB144" s="27">
+      <c r="EY144" s="26"/>
+      <c r="EZ144" s="26"/>
+      <c r="FA144" s="26"/>
+      <c r="FB144" s="26">
         <v>2020</v>
       </c>
-      <c r="FC144" s="27"/>
-      <c r="FD144" s="27"/>
+      <c r="FC144" s="26"/>
+      <c r="FD144" s="26"/>
       <c r="FE144" s="4"/>
-      <c r="FF144" s="27">
+      <c r="FF144" s="26">
         <v>2021</v>
       </c>
-      <c r="FG144" s="27"/>
-      <c r="FH144" s="27"/>
-      <c r="FI144" s="27"/>
-      <c r="FJ144" s="27">
+      <c r="FG144" s="26"/>
+      <c r="FH144" s="26"/>
+      <c r="FI144" s="26"/>
+      <c r="FJ144" s="26">
         <v>2022</v>
       </c>
-      <c r="FK144" s="27"/>
-      <c r="FL144" s="27"/>
-      <c r="FM144" s="27"/>
+      <c r="FK144" s="26"/>
+      <c r="FL144" s="26"/>
+      <c r="FM144" s="26"/>
       <c r="FN144" s="26">
         <v>2023</v>
       </c>
+      <c r="FO144" s="26"/>
     </row>
-    <row r="145" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
         <v>14</v>
       </c>
@@ -27517,11 +27645,14 @@
       <c r="FN145" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="FO145" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="146" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:171" x14ac:dyDescent="0.2">
       <c r="FB146" s="2"/>
     </row>
-    <row r="147" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>1</v>
       </c>
@@ -28030,10 +28161,13 @@
         <v>75.263923939007739</v>
       </c>
       <c r="FN147" s="21">
-        <v>75.235378825372393</v>
+        <v>75.292846280277573</v>
+      </c>
+      <c r="FO147" s="21">
+        <v>68.8284290502083</v>
       </c>
     </row>
-    <row r="148" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>2</v>
       </c>
@@ -28542,10 +28676,13 @@
         <v>12.675543157235378</v>
       </c>
       <c r="FN148" s="21">
-        <v>14.576167722943753</v>
+        <v>14.575237157637655</v>
+      </c>
+      <c r="FO148" s="21">
+        <v>16.10304853505523</v>
       </c>
     </row>
-    <row r="149" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>3</v>
       </c>
@@ -29054,10 +29191,13 @@
         <v>21.282386080916101</v>
       </c>
       <c r="FN149" s="21">
-        <v>22.925532559160235</v>
+        <v>23.008412089437851</v>
+      </c>
+      <c r="FO149" s="21">
+        <v>25.847562823595936</v>
       </c>
     </row>
-    <row r="150" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>4</v>
       </c>
@@ -29566,10 +29706,13 @@
         <v>25.733033190757926</v>
       </c>
       <c r="FN150" s="21">
-        <v>27.855694431726203</v>
+        <v>28.009584620365128</v>
+      </c>
+      <c r="FO150" s="21">
+        <v>27.209933127735692</v>
       </c>
     </row>
-    <row r="151" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>5</v>
       </c>
@@ -30078,10 +30221,13 @@
         <v>34.741232763221127</v>
       </c>
       <c r="FN151" s="21">
-        <v>40.372556276632167</v>
+        <v>40.537656160477788</v>
+      </c>
+      <c r="FO151" s="21">
+        <v>38.916579798542834</v>
       </c>
     </row>
-    <row r="152" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:171" x14ac:dyDescent="0.2">
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
       <c r="D152" s="13"/>
@@ -30251,8 +30397,9 @@
       <c r="FL152" s="21"/>
       <c r="FM152" s="21"/>
       <c r="FN152" s="21"/>
+      <c r="FO152" s="21"/>
     </row>
-    <row r="153" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:171" x14ac:dyDescent="0.2">
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
       <c r="D153" s="13"/>
@@ -30422,8 +30569,9 @@
       <c r="FL153" s="21"/>
       <c r="FM153" s="21"/>
       <c r="FN153" s="21"/>
+      <c r="FO153" s="21"/>
     </row>
-    <row r="154" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="s">
         <v>10</v>
       </c>
@@ -30934,8 +31082,11 @@
       <c r="FN154" s="21">
         <v>100</v>
       </c>
+      <c r="FO154" s="21">
+        <v>100</v>
+      </c>
     </row>
-    <row r="155" spans="1:170" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:171" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
       <c r="D155" s="13"/>
@@ -31093,7 +31244,7 @@
       <c r="EZ155" s="13"/>
       <c r="FA155" s="13"/>
     </row>
-    <row r="156" spans="1:170" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:171" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
       <c r="D156" s="13"/>
@@ -31251,7 +31402,7 @@
       <c r="EZ156" s="13"/>
       <c r="FA156" s="13"/>
     </row>
-    <row r="157" spans="1:170" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:171" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
       <c r="D157" s="13"/>
@@ -31409,7 +31560,7 @@
       <c r="EZ157" s="13"/>
       <c r="FA157" s="13"/>
     </row>
-    <row r="158" spans="1:170" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:171" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
       <c r="D158" s="13"/>
@@ -31567,7 +31718,7 @@
       <c r="EZ158" s="13"/>
       <c r="FA158" s="13"/>
     </row>
-    <row r="159" spans="1:170" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:171" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
@@ -31738,31 +31889,32 @@
       <c r="FL159" s="9"/>
       <c r="FM159" s="9"/>
       <c r="FN159" s="9"/>
+      <c r="FO159" s="9"/>
     </row>
-    <row r="160" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="166" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
     </row>
-    <row r="167" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>47</v>
       </c>
@@ -31770,15 +31922,15 @@
       <c r="FD167" s="3"/>
       <c r="FE167" s="3"/>
     </row>
-    <row r="168" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A168" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="FC168" s="3"/>
       <c r="FD168" s="3"/>
       <c r="FE168" s="3"/>
     </row>
-    <row r="169" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>11</v>
       </c>
@@ -31786,271 +31938,272 @@
       <c r="FD169" s="3"/>
       <c r="FE169" s="3"/>
     </row>
-    <row r="170" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="FC170" s="3"/>
       <c r="FD170" s="3"/>
       <c r="FE170" s="3"/>
     </row>
-    <row r="171" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
-      <c r="B171" s="27">
+      <c r="B171" s="26">
         <v>1981</v>
       </c>
-      <c r="C171" s="27"/>
-      <c r="D171" s="27"/>
-      <c r="E171" s="27"/>
-      <c r="F171" s="27">
+      <c r="C171" s="26"/>
+      <c r="D171" s="26"/>
+      <c r="E171" s="26"/>
+      <c r="F171" s="26">
         <v>1982</v>
       </c>
-      <c r="G171" s="27"/>
-      <c r="H171" s="27"/>
-      <c r="I171" s="27"/>
-      <c r="J171" s="27">
+      <c r="G171" s="26"/>
+      <c r="H171" s="26"/>
+      <c r="I171" s="26"/>
+      <c r="J171" s="26">
         <v>1983</v>
       </c>
-      <c r="K171" s="27"/>
-      <c r="L171" s="27"/>
-      <c r="M171" s="27"/>
-      <c r="N171" s="27">
+      <c r="K171" s="26"/>
+      <c r="L171" s="26"/>
+      <c r="M171" s="26"/>
+      <c r="N171" s="26">
         <v>1984</v>
       </c>
-      <c r="O171" s="27"/>
-      <c r="P171" s="27"/>
-      <c r="Q171" s="27"/>
-      <c r="R171" s="27">
+      <c r="O171" s="26"/>
+      <c r="P171" s="26"/>
+      <c r="Q171" s="26"/>
+      <c r="R171" s="26">
         <v>1985</v>
       </c>
-      <c r="S171" s="27"/>
-      <c r="T171" s="27"/>
-      <c r="U171" s="27"/>
-      <c r="V171" s="27">
+      <c r="S171" s="26"/>
+      <c r="T171" s="26"/>
+      <c r="U171" s="26"/>
+      <c r="V171" s="26">
         <v>1986</v>
       </c>
-      <c r="W171" s="27"/>
-      <c r="X171" s="27"/>
-      <c r="Y171" s="27"/>
-      <c r="Z171" s="27">
+      <c r="W171" s="26"/>
+      <c r="X171" s="26"/>
+      <c r="Y171" s="26"/>
+      <c r="Z171" s="26">
         <v>1987</v>
       </c>
-      <c r="AA171" s="27"/>
-      <c r="AB171" s="27"/>
-      <c r="AC171" s="27"/>
-      <c r="AD171" s="27">
+      <c r="AA171" s="26"/>
+      <c r="AB171" s="26"/>
+      <c r="AC171" s="26"/>
+      <c r="AD171" s="26">
         <v>1988</v>
       </c>
-      <c r="AE171" s="27"/>
-      <c r="AF171" s="27"/>
-      <c r="AG171" s="27"/>
-      <c r="AH171" s="27">
+      <c r="AE171" s="26"/>
+      <c r="AF171" s="26"/>
+      <c r="AG171" s="26"/>
+      <c r="AH171" s="26">
         <v>1989</v>
       </c>
-      <c r="AI171" s="27"/>
-      <c r="AJ171" s="27"/>
-      <c r="AK171" s="27"/>
-      <c r="AL171" s="27">
+      <c r="AI171" s="26"/>
+      <c r="AJ171" s="26"/>
+      <c r="AK171" s="26"/>
+      <c r="AL171" s="26">
         <v>1990</v>
       </c>
-      <c r="AM171" s="27"/>
-      <c r="AN171" s="27"/>
-      <c r="AO171" s="27"/>
-      <c r="AP171" s="27">
+      <c r="AM171" s="26"/>
+      <c r="AN171" s="26"/>
+      <c r="AO171" s="26"/>
+      <c r="AP171" s="26">
         <v>1991</v>
       </c>
-      <c r="AQ171" s="27"/>
-      <c r="AR171" s="27"/>
-      <c r="AS171" s="27"/>
-      <c r="AT171" s="27">
+      <c r="AQ171" s="26"/>
+      <c r="AR171" s="26"/>
+      <c r="AS171" s="26"/>
+      <c r="AT171" s="26">
         <v>1992</v>
       </c>
-      <c r="AU171" s="27"/>
-      <c r="AV171" s="27"/>
-      <c r="AW171" s="27"/>
-      <c r="AX171" s="27">
+      <c r="AU171" s="26"/>
+      <c r="AV171" s="26"/>
+      <c r="AW171" s="26"/>
+      <c r="AX171" s="26">
         <v>1993</v>
       </c>
-      <c r="AY171" s="27"/>
-      <c r="AZ171" s="27"/>
-      <c r="BA171" s="27"/>
-      <c r="BB171" s="27">
+      <c r="AY171" s="26"/>
+      <c r="AZ171" s="26"/>
+      <c r="BA171" s="26"/>
+      <c r="BB171" s="26">
         <v>1994</v>
       </c>
-      <c r="BC171" s="27"/>
-      <c r="BD171" s="27"/>
-      <c r="BE171" s="27"/>
-      <c r="BF171" s="27">
+      <c r="BC171" s="26"/>
+      <c r="BD171" s="26"/>
+      <c r="BE171" s="26"/>
+      <c r="BF171" s="26">
         <v>1995</v>
       </c>
-      <c r="BG171" s="27"/>
-      <c r="BH171" s="27"/>
-      <c r="BI171" s="27"/>
-      <c r="BJ171" s="27">
+      <c r="BG171" s="26"/>
+      <c r="BH171" s="26"/>
+      <c r="BI171" s="26"/>
+      <c r="BJ171" s="26">
         <v>1996</v>
       </c>
-      <c r="BK171" s="27"/>
-      <c r="BL171" s="27"/>
-      <c r="BM171" s="27"/>
-      <c r="BN171" s="27">
+      <c r="BK171" s="26"/>
+      <c r="BL171" s="26"/>
+      <c r="BM171" s="26"/>
+      <c r="BN171" s="26">
         <v>1997</v>
       </c>
-      <c r="BO171" s="27"/>
-      <c r="BP171" s="27"/>
-      <c r="BQ171" s="27"/>
-      <c r="BR171" s="27">
+      <c r="BO171" s="26"/>
+      <c r="BP171" s="26"/>
+      <c r="BQ171" s="26"/>
+      <c r="BR171" s="26">
         <v>1998</v>
       </c>
-      <c r="BS171" s="27"/>
-      <c r="BT171" s="27"/>
-      <c r="BU171" s="27"/>
-      <c r="BV171" s="27">
+      <c r="BS171" s="26"/>
+      <c r="BT171" s="26"/>
+      <c r="BU171" s="26"/>
+      <c r="BV171" s="26">
         <v>1999</v>
       </c>
-      <c r="BW171" s="27"/>
-      <c r="BX171" s="27"/>
-      <c r="BY171" s="27"/>
-      <c r="BZ171" s="27">
+      <c r="BW171" s="26"/>
+      <c r="BX171" s="26"/>
+      <c r="BY171" s="26"/>
+      <c r="BZ171" s="26">
         <v>2000</v>
       </c>
-      <c r="CA171" s="27"/>
-      <c r="CB171" s="27"/>
-      <c r="CC171" s="27"/>
-      <c r="CD171" s="27">
+      <c r="CA171" s="26"/>
+      <c r="CB171" s="26"/>
+      <c r="CC171" s="26"/>
+      <c r="CD171" s="26">
         <v>2001</v>
       </c>
-      <c r="CE171" s="27"/>
-      <c r="CF171" s="27"/>
-      <c r="CG171" s="27"/>
-      <c r="CH171" s="27">
+      <c r="CE171" s="26"/>
+      <c r="CF171" s="26"/>
+      <c r="CG171" s="26"/>
+      <c r="CH171" s="26">
         <v>2002</v>
       </c>
-      <c r="CI171" s="27"/>
-      <c r="CJ171" s="27"/>
-      <c r="CK171" s="27"/>
-      <c r="CL171" s="27">
+      <c r="CI171" s="26"/>
+      <c r="CJ171" s="26"/>
+      <c r="CK171" s="26"/>
+      <c r="CL171" s="26">
         <v>2003</v>
       </c>
-      <c r="CM171" s="27"/>
-      <c r="CN171" s="27"/>
-      <c r="CO171" s="27"/>
-      <c r="CP171" s="27">
+      <c r="CM171" s="26"/>
+      <c r="CN171" s="26"/>
+      <c r="CO171" s="26"/>
+      <c r="CP171" s="26">
         <v>2004</v>
       </c>
-      <c r="CQ171" s="27"/>
-      <c r="CR171" s="27"/>
-      <c r="CS171" s="27"/>
-      <c r="CT171" s="27">
+      <c r="CQ171" s="26"/>
+      <c r="CR171" s="26"/>
+      <c r="CS171" s="26"/>
+      <c r="CT171" s="26">
         <v>2005</v>
       </c>
-      <c r="CU171" s="27"/>
-      <c r="CV171" s="27"/>
-      <c r="CW171" s="27"/>
-      <c r="CX171" s="27">
+      <c r="CU171" s="26"/>
+      <c r="CV171" s="26"/>
+      <c r="CW171" s="26"/>
+      <c r="CX171" s="26">
         <v>2006</v>
       </c>
-      <c r="CY171" s="27"/>
-      <c r="CZ171" s="27"/>
-      <c r="DA171" s="27"/>
-      <c r="DB171" s="27">
+      <c r="CY171" s="26"/>
+      <c r="CZ171" s="26"/>
+      <c r="DA171" s="26"/>
+      <c r="DB171" s="26">
         <v>2007</v>
       </c>
-      <c r="DC171" s="27"/>
-      <c r="DD171" s="27"/>
-      <c r="DE171" s="27"/>
-      <c r="DF171" s="27">
+      <c r="DC171" s="26"/>
+      <c r="DD171" s="26"/>
+      <c r="DE171" s="26"/>
+      <c r="DF171" s="26">
         <v>2008</v>
       </c>
-      <c r="DG171" s="27"/>
-      <c r="DH171" s="27"/>
-      <c r="DI171" s="27"/>
-      <c r="DJ171" s="27">
+      <c r="DG171" s="26"/>
+      <c r="DH171" s="26"/>
+      <c r="DI171" s="26"/>
+      <c r="DJ171" s="26">
         <v>2009</v>
       </c>
-      <c r="DK171" s="27"/>
-      <c r="DL171" s="27"/>
-      <c r="DM171" s="27"/>
-      <c r="DN171" s="27">
+      <c r="DK171" s="26"/>
+      <c r="DL171" s="26"/>
+      <c r="DM171" s="26"/>
+      <c r="DN171" s="26">
         <v>2010</v>
       </c>
-      <c r="DO171" s="27"/>
-      <c r="DP171" s="27"/>
-      <c r="DQ171" s="27"/>
-      <c r="DR171" s="27">
+      <c r="DO171" s="26"/>
+      <c r="DP171" s="26"/>
+      <c r="DQ171" s="26"/>
+      <c r="DR171" s="26">
         <v>2011</v>
       </c>
-      <c r="DS171" s="27"/>
-      <c r="DT171" s="27"/>
-      <c r="DU171" s="27"/>
-      <c r="DV171" s="27">
+      <c r="DS171" s="26"/>
+      <c r="DT171" s="26"/>
+      <c r="DU171" s="26"/>
+      <c r="DV171" s="26">
         <v>2012</v>
       </c>
-      <c r="DW171" s="27"/>
-      <c r="DX171" s="27"/>
-      <c r="DY171" s="27"/>
-      <c r="DZ171" s="27">
+      <c r="DW171" s="26"/>
+      <c r="DX171" s="26"/>
+      <c r="DY171" s="26"/>
+      <c r="DZ171" s="26">
         <v>2013</v>
       </c>
-      <c r="EA171" s="27"/>
-      <c r="EB171" s="27"/>
-      <c r="EC171" s="27"/>
-      <c r="ED171" s="27">
+      <c r="EA171" s="26"/>
+      <c r="EB171" s="26"/>
+      <c r="EC171" s="26"/>
+      <c r="ED171" s="26">
         <v>2014</v>
       </c>
-      <c r="EE171" s="27"/>
-      <c r="EF171" s="27"/>
-      <c r="EG171" s="27"/>
-      <c r="EH171" s="27">
+      <c r="EE171" s="26"/>
+      <c r="EF171" s="26"/>
+      <c r="EG171" s="26"/>
+      <c r="EH171" s="26">
         <v>2015</v>
       </c>
-      <c r="EI171" s="27"/>
-      <c r="EJ171" s="27"/>
-      <c r="EK171" s="27"/>
-      <c r="EL171" s="27">
+      <c r="EI171" s="26"/>
+      <c r="EJ171" s="26"/>
+      <c r="EK171" s="26"/>
+      <c r="EL171" s="26">
         <v>2016</v>
       </c>
-      <c r="EM171" s="27"/>
-      <c r="EN171" s="27"/>
-      <c r="EO171" s="27"/>
-      <c r="EP171" s="27">
+      <c r="EM171" s="26"/>
+      <c r="EN171" s="26"/>
+      <c r="EO171" s="26"/>
+      <c r="EP171" s="26">
         <v>2017</v>
       </c>
-      <c r="EQ171" s="27"/>
-      <c r="ER171" s="27"/>
-      <c r="ES171" s="27"/>
-      <c r="ET171" s="27">
+      <c r="EQ171" s="26"/>
+      <c r="ER171" s="26"/>
+      <c r="ES171" s="26"/>
+      <c r="ET171" s="26">
         <v>2018</v>
       </c>
-      <c r="EU171" s="27"/>
-      <c r="EV171" s="27"/>
-      <c r="EW171" s="27"/>
-      <c r="EX171" s="27">
+      <c r="EU171" s="26"/>
+      <c r="EV171" s="26"/>
+      <c r="EW171" s="26"/>
+      <c r="EX171" s="26">
         <v>2019</v>
       </c>
-      <c r="EY171" s="27"/>
-      <c r="EZ171" s="27"/>
-      <c r="FA171" s="27"/>
-      <c r="FB171" s="27">
+      <c r="EY171" s="26"/>
+      <c r="EZ171" s="26"/>
+      <c r="FA171" s="26"/>
+      <c r="FB171" s="26">
         <v>2020</v>
       </c>
-      <c r="FC171" s="27"/>
-      <c r="FD171" s="27"/>
+      <c r="FC171" s="26"/>
+      <c r="FD171" s="26"/>
       <c r="FE171" s="4"/>
-      <c r="FF171" s="27">
+      <c r="FF171" s="26">
         <v>2021</v>
       </c>
-      <c r="FG171" s="27"/>
-      <c r="FH171" s="27"/>
-      <c r="FI171" s="27"/>
-      <c r="FJ171" s="27">
+      <c r="FG171" s="26"/>
+      <c r="FH171" s="26"/>
+      <c r="FI171" s="26"/>
+      <c r="FJ171" s="26">
         <v>2022</v>
       </c>
-      <c r="FK171" s="27"/>
-      <c r="FL171" s="27"/>
-      <c r="FM171" s="27"/>
+      <c r="FK171" s="26"/>
+      <c r="FL171" s="26"/>
+      <c r="FM171" s="26"/>
       <c r="FN171" s="26">
         <v>2023</v>
       </c>
+      <c r="FO171" s="26"/>
     </row>
-    <row r="172" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
         <v>13</v>
       </c>
@@ -32561,11 +32714,14 @@
       <c r="FN172" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="FO172" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="173" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:171" x14ac:dyDescent="0.2">
       <c r="FB173" s="2"/>
     </row>
-    <row r="174" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="15" t="s">
         <v>74</v>
       </c>
@@ -33074,10 +33230,13 @@
         <v>638114.16743970243</v>
       </c>
       <c r="FN174" s="23">
-        <v>566842.30459694762</v>
+        <v>566965.91241227987</v>
+      </c>
+      <c r="FO174" s="23">
+        <v>502821.82494731643</v>
       </c>
     </row>
-    <row r="175" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="15" t="s">
         <v>75</v>
       </c>
@@ -33586,10 +33745,13 @@
         <v>1964906.4997604352</v>
       </c>
       <c r="FN175" s="23">
-        <v>1640647.0019936732</v>
+        <v>1641550.3232921851</v>
+      </c>
+      <c r="FO175" s="23">
+        <v>1732053.5851382003</v>
       </c>
     </row>
-    <row r="176" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="15" t="s">
         <v>76</v>
       </c>
@@ -34098,10 +34260,13 @@
         <v>3848545.7575214705</v>
       </c>
       <c r="FN176" s="23">
-        <v>3393999.9302650844</v>
+        <v>3392386.9910903471</v>
+      </c>
+      <c r="FO176" s="23">
+        <v>3650701.1569852298</v>
       </c>
     </row>
-    <row r="177" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A177" s="16"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -34272,8 +34437,9 @@
       <c r="FL177" s="7"/>
       <c r="FM177" s="7"/>
       <c r="FN177" s="7"/>
+      <c r="FO177" s="7"/>
     </row>
-    <row r="178" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>10</v>
       </c>
@@ -34782,10 +34948,13 @@
         <v>6451566.4247216079</v>
       </c>
       <c r="FN178" s="7">
-        <v>5601489.2368557053</v>
+        <v>5600903.2267948119</v>
+      </c>
+      <c r="FO178" s="7">
+        <v>5885576.5670707468</v>
       </c>
     </row>
-    <row r="179" spans="1:170" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:171" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
@@ -34949,7 +35118,7 @@
         <v>-24370.119758612476</v>
       </c>
     </row>
-    <row r="180" spans="1:170" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:171" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
@@ -35109,7 +35278,7 @@
       <c r="FB180" s="7"/>
       <c r="FC180" s="7"/>
     </row>
-    <row r="181" spans="1:170" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:171" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
@@ -35273,7 +35442,7 @@
         <v>4857262.3839106075</v>
       </c>
     </row>
-    <row r="182" spans="1:170" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:171" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
@@ -35431,7 +35600,7 @@
       <c r="EZ182" s="7"/>
       <c r="FA182" s="7"/>
     </row>
-    <row r="183" spans="1:170" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:171" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="9"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
@@ -35602,32 +35771,33 @@
       <c r="FL183" s="9"/>
       <c r="FM183" s="9"/>
       <c r="FN183" s="9"/>
+      <c r="FO183" s="9"/>
     </row>
-    <row r="184" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:171" x14ac:dyDescent="0.2">
       <c r="E185" s="10"/>
       <c r="I185" s="10"/>
     </row>
-    <row r="186" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:171" x14ac:dyDescent="0.2">
       <c r="FB186" s="2"/>
     </row>
-    <row r="187" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -35786,7 +35956,7 @@
       <c r="EZ189" s="2"/>
       <c r="FA189" s="2"/>
     </row>
-    <row r="190" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -35945,7 +36115,7 @@
       <c r="EZ190" s="2"/>
       <c r="FA190" s="2"/>
     </row>
-    <row r="191" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>48</v>
       </c>
@@ -36106,9 +36276,9 @@
       <c r="EZ191" s="2"/>
       <c r="FA191" s="2"/>
     </row>
-    <row r="192" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -36267,7 +36437,7 @@
       <c r="EZ192" s="2"/>
       <c r="FA192" s="2"/>
     </row>
-    <row r="193" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>12</v>
       </c>
@@ -36428,7 +36598,7 @@
       <c r="EZ193" s="2"/>
       <c r="FA193" s="2"/>
     </row>
-    <row r="194" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -36587,265 +36757,266 @@
       <c r="EZ194" s="2"/>
       <c r="FA194" s="2"/>
     </row>
-    <row r="195" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
-      <c r="B195" s="27">
+      <c r="B195" s="26">
         <v>1981</v>
       </c>
-      <c r="C195" s="27"/>
-      <c r="D195" s="27"/>
-      <c r="E195" s="27"/>
-      <c r="F195" s="27">
+      <c r="C195" s="26"/>
+      <c r="D195" s="26"/>
+      <c r="E195" s="26"/>
+      <c r="F195" s="26">
         <v>1982</v>
       </c>
-      <c r="G195" s="27"/>
-      <c r="H195" s="27"/>
-      <c r="I195" s="27"/>
-      <c r="J195" s="27">
+      <c r="G195" s="26"/>
+      <c r="H195" s="26"/>
+      <c r="I195" s="26"/>
+      <c r="J195" s="26">
         <v>1983</v>
       </c>
-      <c r="K195" s="27"/>
-      <c r="L195" s="27"/>
-      <c r="M195" s="27"/>
-      <c r="N195" s="27">
+      <c r="K195" s="26"/>
+      <c r="L195" s="26"/>
+      <c r="M195" s="26"/>
+      <c r="N195" s="26">
         <v>1984</v>
       </c>
-      <c r="O195" s="27"/>
-      <c r="P195" s="27"/>
-      <c r="Q195" s="27"/>
-      <c r="R195" s="27">
+      <c r="O195" s="26"/>
+      <c r="P195" s="26"/>
+      <c r="Q195" s="26"/>
+      <c r="R195" s="26">
         <v>1985</v>
       </c>
-      <c r="S195" s="27"/>
-      <c r="T195" s="27"/>
-      <c r="U195" s="27"/>
-      <c r="V195" s="27">
+      <c r="S195" s="26"/>
+      <c r="T195" s="26"/>
+      <c r="U195" s="26"/>
+      <c r="V195" s="26">
         <v>1986</v>
       </c>
-      <c r="W195" s="27"/>
-      <c r="X195" s="27"/>
-      <c r="Y195" s="27"/>
-      <c r="Z195" s="27">
+      <c r="W195" s="26"/>
+      <c r="X195" s="26"/>
+      <c r="Y195" s="26"/>
+      <c r="Z195" s="26">
         <v>1987</v>
       </c>
-      <c r="AA195" s="27"/>
-      <c r="AB195" s="27"/>
-      <c r="AC195" s="27"/>
-      <c r="AD195" s="27">
+      <c r="AA195" s="26"/>
+      <c r="AB195" s="26"/>
+      <c r="AC195" s="26"/>
+      <c r="AD195" s="26">
         <v>1988</v>
       </c>
-      <c r="AE195" s="27"/>
-      <c r="AF195" s="27"/>
-      <c r="AG195" s="27"/>
-      <c r="AH195" s="27">
+      <c r="AE195" s="26"/>
+      <c r="AF195" s="26"/>
+      <c r="AG195" s="26"/>
+      <c r="AH195" s="26">
         <v>1989</v>
       </c>
-      <c r="AI195" s="27"/>
-      <c r="AJ195" s="27"/>
-      <c r="AK195" s="27"/>
-      <c r="AL195" s="27">
+      <c r="AI195" s="26"/>
+      <c r="AJ195" s="26"/>
+      <c r="AK195" s="26"/>
+      <c r="AL195" s="26">
         <v>1990</v>
       </c>
-      <c r="AM195" s="27"/>
-      <c r="AN195" s="27"/>
-      <c r="AO195" s="27"/>
-      <c r="AP195" s="27">
+      <c r="AM195" s="26"/>
+      <c r="AN195" s="26"/>
+      <c r="AO195" s="26"/>
+      <c r="AP195" s="26">
         <v>1991</v>
       </c>
-      <c r="AQ195" s="27"/>
-      <c r="AR195" s="27"/>
-      <c r="AS195" s="27"/>
-      <c r="AT195" s="27">
+      <c r="AQ195" s="26"/>
+      <c r="AR195" s="26"/>
+      <c r="AS195" s="26"/>
+      <c r="AT195" s="26">
         <v>1992</v>
       </c>
-      <c r="AU195" s="27"/>
-      <c r="AV195" s="27"/>
-      <c r="AW195" s="27"/>
-      <c r="AX195" s="27">
+      <c r="AU195" s="26"/>
+      <c r="AV195" s="26"/>
+      <c r="AW195" s="26"/>
+      <c r="AX195" s="26">
         <v>1993</v>
       </c>
-      <c r="AY195" s="27"/>
-      <c r="AZ195" s="27"/>
-      <c r="BA195" s="27"/>
-      <c r="BB195" s="27">
+      <c r="AY195" s="26"/>
+      <c r="AZ195" s="26"/>
+      <c r="BA195" s="26"/>
+      <c r="BB195" s="26">
         <v>1994</v>
       </c>
-      <c r="BC195" s="27"/>
-      <c r="BD195" s="27"/>
-      <c r="BE195" s="27"/>
-      <c r="BF195" s="27">
+      <c r="BC195" s="26"/>
+      <c r="BD195" s="26"/>
+      <c r="BE195" s="26"/>
+      <c r="BF195" s="26">
         <v>1995</v>
       </c>
-      <c r="BG195" s="27"/>
-      <c r="BH195" s="27"/>
-      <c r="BI195" s="27"/>
-      <c r="BJ195" s="27">
+      <c r="BG195" s="26"/>
+      <c r="BH195" s="26"/>
+      <c r="BI195" s="26"/>
+      <c r="BJ195" s="26">
         <v>1996</v>
       </c>
-      <c r="BK195" s="27"/>
-      <c r="BL195" s="27"/>
-      <c r="BM195" s="27"/>
-      <c r="BN195" s="27">
+      <c r="BK195" s="26"/>
+      <c r="BL195" s="26"/>
+      <c r="BM195" s="26"/>
+      <c r="BN195" s="26">
         <v>1997</v>
       </c>
-      <c r="BO195" s="27"/>
-      <c r="BP195" s="27"/>
-      <c r="BQ195" s="27"/>
-      <c r="BR195" s="27">
+      <c r="BO195" s="26"/>
+      <c r="BP195" s="26"/>
+      <c r="BQ195" s="26"/>
+      <c r="BR195" s="26">
         <v>1998</v>
       </c>
-      <c r="BS195" s="27"/>
-      <c r="BT195" s="27"/>
-      <c r="BU195" s="27"/>
-      <c r="BV195" s="27">
+      <c r="BS195" s="26"/>
+      <c r="BT195" s="26"/>
+      <c r="BU195" s="26"/>
+      <c r="BV195" s="26">
         <v>1999</v>
       </c>
-      <c r="BW195" s="27"/>
-      <c r="BX195" s="27"/>
-      <c r="BY195" s="27"/>
-      <c r="BZ195" s="27">
+      <c r="BW195" s="26"/>
+      <c r="BX195" s="26"/>
+      <c r="BY195" s="26"/>
+      <c r="BZ195" s="26">
         <v>2000</v>
       </c>
-      <c r="CA195" s="27"/>
-      <c r="CB195" s="27"/>
-      <c r="CC195" s="27"/>
-      <c r="CD195" s="27">
+      <c r="CA195" s="26"/>
+      <c r="CB195" s="26"/>
+      <c r="CC195" s="26"/>
+      <c r="CD195" s="26">
         <v>2001</v>
       </c>
-      <c r="CE195" s="27"/>
-      <c r="CF195" s="27"/>
-      <c r="CG195" s="27"/>
-      <c r="CH195" s="27">
+      <c r="CE195" s="26"/>
+      <c r="CF195" s="26"/>
+      <c r="CG195" s="26"/>
+      <c r="CH195" s="26">
         <v>2002</v>
       </c>
-      <c r="CI195" s="27"/>
-      <c r="CJ195" s="27"/>
-      <c r="CK195" s="27"/>
-      <c r="CL195" s="27">
+      <c r="CI195" s="26"/>
+      <c r="CJ195" s="26"/>
+      <c r="CK195" s="26"/>
+      <c r="CL195" s="26">
         <v>2003</v>
       </c>
-      <c r="CM195" s="27"/>
-      <c r="CN195" s="27"/>
-      <c r="CO195" s="27"/>
-      <c r="CP195" s="27">
+      <c r="CM195" s="26"/>
+      <c r="CN195" s="26"/>
+      <c r="CO195" s="26"/>
+      <c r="CP195" s="26">
         <v>2004</v>
       </c>
-      <c r="CQ195" s="27"/>
-      <c r="CR195" s="27"/>
-      <c r="CS195" s="27"/>
-      <c r="CT195" s="27">
+      <c r="CQ195" s="26"/>
+      <c r="CR195" s="26"/>
+      <c r="CS195" s="26"/>
+      <c r="CT195" s="26">
         <v>2005</v>
       </c>
-      <c r="CU195" s="27"/>
-      <c r="CV195" s="27"/>
-      <c r="CW195" s="27"/>
-      <c r="CX195" s="27">
+      <c r="CU195" s="26"/>
+      <c r="CV195" s="26"/>
+      <c r="CW195" s="26"/>
+      <c r="CX195" s="26">
         <v>2006</v>
       </c>
-      <c r="CY195" s="27"/>
-      <c r="CZ195" s="27"/>
-      <c r="DA195" s="27"/>
-      <c r="DB195" s="27">
+      <c r="CY195" s="26"/>
+      <c r="CZ195" s="26"/>
+      <c r="DA195" s="26"/>
+      <c r="DB195" s="26">
         <v>2007</v>
       </c>
-      <c r="DC195" s="27"/>
-      <c r="DD195" s="27"/>
-      <c r="DE195" s="27"/>
-      <c r="DF195" s="27">
+      <c r="DC195" s="26"/>
+      <c r="DD195" s="26"/>
+      <c r="DE195" s="26"/>
+      <c r="DF195" s="26">
         <v>2008</v>
       </c>
-      <c r="DG195" s="27"/>
-      <c r="DH195" s="27"/>
-      <c r="DI195" s="27"/>
-      <c r="DJ195" s="27">
+      <c r="DG195" s="26"/>
+      <c r="DH195" s="26"/>
+      <c r="DI195" s="26"/>
+      <c r="DJ195" s="26">
         <v>2009</v>
       </c>
-      <c r="DK195" s="27"/>
-      <c r="DL195" s="27"/>
-      <c r="DM195" s="27"/>
-      <c r="DN195" s="27">
+      <c r="DK195" s="26"/>
+      <c r="DL195" s="26"/>
+      <c r="DM195" s="26"/>
+      <c r="DN195" s="26">
         <v>2010</v>
       </c>
-      <c r="DO195" s="27"/>
-      <c r="DP195" s="27"/>
-      <c r="DQ195" s="27"/>
-      <c r="DR195" s="27">
+      <c r="DO195" s="26"/>
+      <c r="DP195" s="26"/>
+      <c r="DQ195" s="26"/>
+      <c r="DR195" s="26">
         <v>2011</v>
       </c>
-      <c r="DS195" s="27"/>
-      <c r="DT195" s="27"/>
-      <c r="DU195" s="27"/>
-      <c r="DV195" s="27">
+      <c r="DS195" s="26"/>
+      <c r="DT195" s="26"/>
+      <c r="DU195" s="26"/>
+      <c r="DV195" s="26">
         <v>2012</v>
       </c>
-      <c r="DW195" s="27"/>
-      <c r="DX195" s="27"/>
-      <c r="DY195" s="27"/>
-      <c r="DZ195" s="27">
+      <c r="DW195" s="26"/>
+      <c r="DX195" s="26"/>
+      <c r="DY195" s="26"/>
+      <c r="DZ195" s="26">
         <v>2013</v>
       </c>
-      <c r="EA195" s="27"/>
-      <c r="EB195" s="27"/>
-      <c r="EC195" s="27"/>
-      <c r="ED195" s="27">
+      <c r="EA195" s="26"/>
+      <c r="EB195" s="26"/>
+      <c r="EC195" s="26"/>
+      <c r="ED195" s="26">
         <v>2014</v>
       </c>
-      <c r="EE195" s="27"/>
-      <c r="EF195" s="27"/>
-      <c r="EG195" s="27"/>
-      <c r="EH195" s="27">
+      <c r="EE195" s="26"/>
+      <c r="EF195" s="26"/>
+      <c r="EG195" s="26"/>
+      <c r="EH195" s="26">
         <v>2015</v>
       </c>
-      <c r="EI195" s="27"/>
-      <c r="EJ195" s="27"/>
-      <c r="EK195" s="27"/>
-      <c r="EL195" s="27">
+      <c r="EI195" s="26"/>
+      <c r="EJ195" s="26"/>
+      <c r="EK195" s="26"/>
+      <c r="EL195" s="26">
         <v>2016</v>
       </c>
-      <c r="EM195" s="27"/>
-      <c r="EN195" s="27"/>
-      <c r="EO195" s="27"/>
-      <c r="EP195" s="27">
+      <c r="EM195" s="26"/>
+      <c r="EN195" s="26"/>
+      <c r="EO195" s="26"/>
+      <c r="EP195" s="26">
         <v>2017</v>
       </c>
-      <c r="EQ195" s="27"/>
-      <c r="ER195" s="27"/>
-      <c r="ES195" s="27"/>
-      <c r="ET195" s="27">
+      <c r="EQ195" s="26"/>
+      <c r="ER195" s="26"/>
+      <c r="ES195" s="26"/>
+      <c r="ET195" s="26">
         <v>2018</v>
       </c>
-      <c r="EU195" s="27"/>
-      <c r="EV195" s="27"/>
-      <c r="EW195" s="27"/>
-      <c r="EX195" s="27">
+      <c r="EU195" s="26"/>
+      <c r="EV195" s="26"/>
+      <c r="EW195" s="26"/>
+      <c r="EX195" s="26">
         <v>2019</v>
       </c>
-      <c r="EY195" s="27"/>
-      <c r="EZ195" s="27"/>
-      <c r="FA195" s="27"/>
-      <c r="FB195" s="27">
+      <c r="EY195" s="26"/>
+      <c r="EZ195" s="26"/>
+      <c r="FA195" s="26"/>
+      <c r="FB195" s="26">
         <v>2020</v>
       </c>
-      <c r="FC195" s="27"/>
-      <c r="FD195" s="27"/>
+      <c r="FC195" s="26"/>
+      <c r="FD195" s="26"/>
       <c r="FE195" s="4"/>
-      <c r="FF195" s="27">
+      <c r="FF195" s="26">
         <v>2021</v>
       </c>
-      <c r="FG195" s="27"/>
-      <c r="FH195" s="27"/>
-      <c r="FI195" s="27"/>
-      <c r="FJ195" s="27">
+      <c r="FG195" s="26"/>
+      <c r="FH195" s="26"/>
+      <c r="FI195" s="26"/>
+      <c r="FJ195" s="26">
         <v>2022</v>
       </c>
-      <c r="FK195" s="27"/>
-      <c r="FL195" s="27"/>
-      <c r="FM195" s="27"/>
+      <c r="FK195" s="26"/>
+      <c r="FL195" s="26"/>
+      <c r="FM195" s="26"/>
       <c r="FN195" s="26">
         <v>2023</v>
       </c>
+      <c r="FO195" s="26"/>
     </row>
-    <row r="196" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
         <v>13</v>
       </c>
@@ -37356,11 +37527,14 @@
       <c r="FN196" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="FO196" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="197" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:171" x14ac:dyDescent="0.2">
       <c r="FB197" s="2"/>
     </row>
-    <row r="198" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="15" t="s">
         <v>74</v>
       </c>
@@ -37869,10 +38043,13 @@
         <v>525265.97987364046</v>
       </c>
       <c r="FN198" s="23">
-        <v>444619.83648915356</v>
+        <v>444602.58331337787</v>
+      </c>
+      <c r="FO198" s="23">
+        <v>417469.30685746111</v>
       </c>
     </row>
-    <row r="199" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="15" t="s">
         <v>75</v>
       </c>
@@ -38381,10 +38558,13 @@
         <v>1699147.1306209285</v>
       </c>
       <c r="FN199" s="23">
-        <v>1466352.3933233069</v>
+        <v>1466659.4272180551</v>
+      </c>
+      <c r="FO199" s="23">
+        <v>1555126.495663017</v>
       </c>
     </row>
-    <row r="200" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="15" t="s">
         <v>76</v>
       </c>
@@ -38893,10 +39073,13 @@
         <v>3350731.1748715527</v>
       </c>
       <c r="FN200" s="23">
-        <v>2996207.6517047342</v>
+        <v>2996231.1730129691</v>
+      </c>
+      <c r="FO200" s="23">
+        <v>3234491.0038717599</v>
       </c>
     </row>
-    <row r="201" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="16"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -39067,8 +39250,9 @@
       <c r="FL201" s="7"/>
       <c r="FM201" s="7"/>
       <c r="FN201" s="23"/>
+      <c r="FO201" s="23"/>
     </row>
-    <row r="202" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>10</v>
       </c>
@@ -39577,10 +39761,13 @@
         <v>5575144.2853661217</v>
       </c>
       <c r="FN202" s="23">
-        <v>4907179.8815171942</v>
+        <v>4907493.183544402</v>
+      </c>
+      <c r="FO202" s="23">
+        <v>5207086.8063922375</v>
       </c>
     </row>
-    <row r="203" spans="1:170" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:171" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
@@ -39748,7 +39935,7 @@
       <c r="FL203" s="2"/>
       <c r="FM203" s="2"/>
     </row>
-    <row r="204" spans="1:170" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:171" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -39912,7 +40099,7 @@
       <c r="FL204" s="2"/>
       <c r="FM204" s="2"/>
     </row>
-    <row r="205" spans="1:170" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:171" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
@@ -40080,7 +40267,7 @@
       <c r="FL205" s="2"/>
       <c r="FM205" s="2"/>
     </row>
-    <row r="206" spans="1:170" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:171" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
@@ -40243,7 +40430,7 @@
       <c r="FL206" s="2"/>
       <c r="FM206" s="2"/>
     </row>
-    <row r="207" spans="1:170" s="3" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:171" s="3" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="9"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
@@ -40414,19 +40601,20 @@
       <c r="FL207" s="9"/>
       <c r="FM207" s="9"/>
       <c r="FN207" s="9"/>
+      <c r="FO207" s="9"/>
     </row>
-    <row r="208" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:167" x14ac:dyDescent="0.2">
       <c r="FB210" s="17"/>
       <c r="FC210" s="17"/>
       <c r="FD210" s="17"/>
       <c r="FE210" s="17"/>
     </row>
-    <row r="211" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>8</v>
       </c>
@@ -40435,7 +40623,7 @@
       <c r="FD211" s="17"/>
       <c r="FE211" s="17"/>
     </row>
-    <row r="212" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>7</v>
       </c>
@@ -40444,19 +40632,19 @@
       <c r="FD212" s="17"/>
       <c r="FE212" s="17"/>
     </row>
-    <row r="213" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="FB213" s="17"/>
       <c r="FC213" s="17"/>
       <c r="FD213" s="17"/>
       <c r="FE213" s="17"/>
     </row>
-    <row r="214" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
     </row>
-    <row r="215" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>49</v>
       </c>
@@ -40464,15 +40652,15 @@
       <c r="FD215" s="3"/>
       <c r="FE215" s="3"/>
     </row>
-    <row r="216" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A216" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="FC216" s="3"/>
       <c r="FD216" s="3"/>
       <c r="FE216" s="3"/>
     </row>
-    <row r="217" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>19</v>
       </c>
@@ -40480,7 +40668,7 @@
       <c r="FD217" s="3"/>
       <c r="FE217" s="3"/>
     </row>
-    <row r="218" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="FC218" s="3"/>
       <c r="FD218" s="3"/>
@@ -40488,259 +40676,260 @@
       <c r="FF218" s="9"/>
       <c r="FG218" s="9"/>
     </row>
-    <row r="219" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
-      <c r="B219" s="27" t="s">
+      <c r="B219" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C219" s="27"/>
-      <c r="D219" s="27"/>
-      <c r="E219" s="27"/>
-      <c r="F219" s="27" t="s">
+      <c r="C219" s="26"/>
+      <c r="D219" s="26"/>
+      <c r="E219" s="26"/>
+      <c r="F219" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="G219" s="27"/>
-      <c r="H219" s="27"/>
-      <c r="I219" s="27"/>
-      <c r="J219" s="27" t="s">
+      <c r="G219" s="26"/>
+      <c r="H219" s="26"/>
+      <c r="I219" s="26"/>
+      <c r="J219" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="K219" s="27"/>
-      <c r="L219" s="27"/>
-      <c r="M219" s="27"/>
-      <c r="N219" s="27" t="s">
+      <c r="K219" s="26"/>
+      <c r="L219" s="26"/>
+      <c r="M219" s="26"/>
+      <c r="N219" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="O219" s="27"/>
-      <c r="P219" s="27"/>
-      <c r="Q219" s="27"/>
-      <c r="R219" s="27" t="s">
+      <c r="O219" s="26"/>
+      <c r="P219" s="26"/>
+      <c r="Q219" s="26"/>
+      <c r="R219" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="S219" s="27"/>
-      <c r="T219" s="27"/>
-      <c r="U219" s="27"/>
-      <c r="V219" s="27" t="s">
+      <c r="S219" s="26"/>
+      <c r="T219" s="26"/>
+      <c r="U219" s="26"/>
+      <c r="V219" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="W219" s="27"/>
-      <c r="X219" s="27"/>
-      <c r="Y219" s="27"/>
-      <c r="Z219" s="27" t="s">
+      <c r="W219" s="26"/>
+      <c r="X219" s="26"/>
+      <c r="Y219" s="26"/>
+      <c r="Z219" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="AA219" s="27"/>
-      <c r="AB219" s="27"/>
-      <c r="AC219" s="27"/>
-      <c r="AD219" s="27" t="s">
+      <c r="AA219" s="26"/>
+      <c r="AB219" s="26"/>
+      <c r="AC219" s="26"/>
+      <c r="AD219" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="AE219" s="27"/>
-      <c r="AF219" s="27"/>
-      <c r="AG219" s="27"/>
-      <c r="AH219" s="27" t="s">
+      <c r="AE219" s="26"/>
+      <c r="AF219" s="26"/>
+      <c r="AG219" s="26"/>
+      <c r="AH219" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="AI219" s="27"/>
-      <c r="AJ219" s="27"/>
-      <c r="AK219" s="27"/>
-      <c r="AL219" s="27" t="s">
+      <c r="AI219" s="26"/>
+      <c r="AJ219" s="26"/>
+      <c r="AK219" s="26"/>
+      <c r="AL219" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="AM219" s="27"/>
-      <c r="AN219" s="27"/>
-      <c r="AO219" s="27"/>
-      <c r="AP219" s="27" t="s">
+      <c r="AM219" s="26"/>
+      <c r="AN219" s="26"/>
+      <c r="AO219" s="26"/>
+      <c r="AP219" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="AQ219" s="27"/>
-      <c r="AR219" s="27"/>
-      <c r="AS219" s="27"/>
-      <c r="AT219" s="27" t="s">
+      <c r="AQ219" s="26"/>
+      <c r="AR219" s="26"/>
+      <c r="AS219" s="26"/>
+      <c r="AT219" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="AU219" s="27"/>
-      <c r="AV219" s="27"/>
-      <c r="AW219" s="27"/>
-      <c r="AX219" s="27" t="s">
+      <c r="AU219" s="26"/>
+      <c r="AV219" s="26"/>
+      <c r="AW219" s="26"/>
+      <c r="AX219" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="AY219" s="27"/>
-      <c r="AZ219" s="27"/>
-      <c r="BA219" s="27"/>
-      <c r="BB219" s="27" t="s">
+      <c r="AY219" s="26"/>
+      <c r="AZ219" s="26"/>
+      <c r="BA219" s="26"/>
+      <c r="BB219" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="BC219" s="27"/>
-      <c r="BD219" s="27"/>
-      <c r="BE219" s="27"/>
-      <c r="BF219" s="27" t="s">
+      <c r="BC219" s="26"/>
+      <c r="BD219" s="26"/>
+      <c r="BE219" s="26"/>
+      <c r="BF219" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="BG219" s="27"/>
-      <c r="BH219" s="27"/>
-      <c r="BI219" s="27"/>
-      <c r="BJ219" s="27" t="s">
+      <c r="BG219" s="26"/>
+      <c r="BH219" s="26"/>
+      <c r="BI219" s="26"/>
+      <c r="BJ219" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="BK219" s="27"/>
-      <c r="BL219" s="27"/>
-      <c r="BM219" s="27"/>
-      <c r="BN219" s="27" t="s">
+      <c r="BK219" s="26"/>
+      <c r="BL219" s="26"/>
+      <c r="BM219" s="26"/>
+      <c r="BN219" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="BO219" s="27"/>
-      <c r="BP219" s="27"/>
-      <c r="BQ219" s="27"/>
-      <c r="BR219" s="27" t="s">
+      <c r="BO219" s="26"/>
+      <c r="BP219" s="26"/>
+      <c r="BQ219" s="26"/>
+      <c r="BR219" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="BS219" s="27"/>
-      <c r="BT219" s="27"/>
-      <c r="BU219" s="27"/>
-      <c r="BV219" s="27" t="s">
+      <c r="BS219" s="26"/>
+      <c r="BT219" s="26"/>
+      <c r="BU219" s="26"/>
+      <c r="BV219" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="BW219" s="27"/>
-      <c r="BX219" s="27"/>
-      <c r="BY219" s="27"/>
-      <c r="BZ219" s="27" t="s">
+      <c r="BW219" s="26"/>
+      <c r="BX219" s="26"/>
+      <c r="BY219" s="26"/>
+      <c r="BZ219" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="CA219" s="27"/>
-      <c r="CB219" s="27"/>
-      <c r="CC219" s="27"/>
-      <c r="CD219" s="27" t="s">
+      <c r="CA219" s="26"/>
+      <c r="CB219" s="26"/>
+      <c r="CC219" s="26"/>
+      <c r="CD219" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="CE219" s="27"/>
-      <c r="CF219" s="27"/>
-      <c r="CG219" s="27"/>
-      <c r="CH219" s="27" t="s">
+      <c r="CE219" s="26"/>
+      <c r="CF219" s="26"/>
+      <c r="CG219" s="26"/>
+      <c r="CH219" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="CI219" s="27"/>
-      <c r="CJ219" s="27"/>
-      <c r="CK219" s="27"/>
-      <c r="CL219" s="27" t="s">
+      <c r="CI219" s="26"/>
+      <c r="CJ219" s="26"/>
+      <c r="CK219" s="26"/>
+      <c r="CL219" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="CM219" s="27"/>
-      <c r="CN219" s="27"/>
-      <c r="CO219" s="27"/>
-      <c r="CP219" s="27" t="s">
+      <c r="CM219" s="26"/>
+      <c r="CN219" s="26"/>
+      <c r="CO219" s="26"/>
+      <c r="CP219" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="CQ219" s="27"/>
-      <c r="CR219" s="27"/>
-      <c r="CS219" s="27"/>
-      <c r="CT219" s="27" t="s">
+      <c r="CQ219" s="26"/>
+      <c r="CR219" s="26"/>
+      <c r="CS219" s="26"/>
+      <c r="CT219" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="CU219" s="27"/>
-      <c r="CV219" s="27"/>
-      <c r="CW219" s="27"/>
-      <c r="CX219" s="27" t="s">
+      <c r="CU219" s="26"/>
+      <c r="CV219" s="26"/>
+      <c r="CW219" s="26"/>
+      <c r="CX219" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="CY219" s="27"/>
-      <c r="CZ219" s="27"/>
-      <c r="DA219" s="27"/>
-      <c r="DB219" s="27" t="s">
+      <c r="CY219" s="26"/>
+      <c r="CZ219" s="26"/>
+      <c r="DA219" s="26"/>
+      <c r="DB219" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="DC219" s="27"/>
-      <c r="DD219" s="27"/>
-      <c r="DE219" s="27"/>
-      <c r="DF219" s="27" t="s">
+      <c r="DC219" s="26"/>
+      <c r="DD219" s="26"/>
+      <c r="DE219" s="26"/>
+      <c r="DF219" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="DG219" s="27"/>
-      <c r="DH219" s="27"/>
-      <c r="DI219" s="27"/>
-      <c r="DJ219" s="27" t="s">
+      <c r="DG219" s="26"/>
+      <c r="DH219" s="26"/>
+      <c r="DI219" s="26"/>
+      <c r="DJ219" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="DK219" s="27"/>
-      <c r="DL219" s="27"/>
-      <c r="DM219" s="27"/>
-      <c r="DN219" s="27" t="s">
+      <c r="DK219" s="26"/>
+      <c r="DL219" s="26"/>
+      <c r="DM219" s="26"/>
+      <c r="DN219" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="DO219" s="27"/>
-      <c r="DP219" s="27"/>
-      <c r="DQ219" s="27"/>
-      <c r="DR219" s="27" t="s">
+      <c r="DO219" s="26"/>
+      <c r="DP219" s="26"/>
+      <c r="DQ219" s="26"/>
+      <c r="DR219" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="DS219" s="27"/>
-      <c r="DT219" s="27"/>
-      <c r="DU219" s="27"/>
-      <c r="DV219" s="27" t="s">
+      <c r="DS219" s="26"/>
+      <c r="DT219" s="26"/>
+      <c r="DU219" s="26"/>
+      <c r="DV219" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="DW219" s="27"/>
-      <c r="DX219" s="27"/>
-      <c r="DY219" s="27"/>
-      <c r="DZ219" s="27" t="s">
+      <c r="DW219" s="26"/>
+      <c r="DX219" s="26"/>
+      <c r="DY219" s="26"/>
+      <c r="DZ219" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="EA219" s="27"/>
-      <c r="EB219" s="27"/>
-      <c r="EC219" s="27"/>
-      <c r="ED219" s="27" t="s">
+      <c r="EA219" s="26"/>
+      <c r="EB219" s="26"/>
+      <c r="EC219" s="26"/>
+      <c r="ED219" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="EE219" s="27"/>
-      <c r="EF219" s="27"/>
-      <c r="EG219" s="27"/>
-      <c r="EH219" s="27" t="s">
+      <c r="EE219" s="26"/>
+      <c r="EF219" s="26"/>
+      <c r="EG219" s="26"/>
+      <c r="EH219" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="EI219" s="27"/>
-      <c r="EJ219" s="27"/>
-      <c r="EK219" s="27"/>
-      <c r="EL219" s="27" t="s">
+      <c r="EI219" s="26"/>
+      <c r="EJ219" s="26"/>
+      <c r="EK219" s="26"/>
+      <c r="EL219" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="EM219" s="27"/>
-      <c r="EN219" s="27"/>
-      <c r="EO219" s="27"/>
-      <c r="EP219" s="27" t="s">
+      <c r="EM219" s="26"/>
+      <c r="EN219" s="26"/>
+      <c r="EO219" s="26"/>
+      <c r="EP219" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="EQ219" s="27"/>
-      <c r="ER219" s="27"/>
-      <c r="ES219" s="27"/>
-      <c r="ET219" s="27" t="s">
+      <c r="EQ219" s="26"/>
+      <c r="ER219" s="26"/>
+      <c r="ES219" s="26"/>
+      <c r="ET219" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="EU219" s="27"/>
-      <c r="EV219" s="27"/>
-      <c r="EW219" s="27"/>
-      <c r="EX219" s="27" t="s">
+      <c r="EU219" s="26"/>
+      <c r="EV219" s="26"/>
+      <c r="EW219" s="26"/>
+      <c r="EX219" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="EY219" s="27"/>
-      <c r="EZ219" s="27"/>
+      <c r="EY219" s="26"/>
+      <c r="EZ219" s="26"/>
       <c r="FA219" s="4"/>
-      <c r="FB219" s="27" t="s">
+      <c r="FB219" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="FC219" s="27"/>
-      <c r="FD219" s="27"/>
-      <c r="FE219" s="27"/>
-      <c r="FF219" s="27" t="s">
+      <c r="FC219" s="26"/>
+      <c r="FD219" s="26"/>
+      <c r="FE219" s="26"/>
+      <c r="FF219" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="FG219" s="27"/>
-      <c r="FH219" s="27"/>
-      <c r="FI219" s="27"/>
-      <c r="FJ219" s="28" t="s">
-        <v>83</v>
-      </c>
+      <c r="FG219" s="26"/>
+      <c r="FH219" s="26"/>
+      <c r="FI219" s="26"/>
+      <c r="FJ219" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="FK219" s="26"/>
     </row>
-    <row r="220" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
         <v>13</v>
       </c>
@@ -41239,13 +41428,17 @@
       <c r="FJ220" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="FK220" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="221" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:167" x14ac:dyDescent="0.2">
       <c r="FB221" s="2"/>
       <c r="FF221" s="24"/>
       <c r="FJ221" s="24"/>
+      <c r="FK221" s="24"/>
     </row>
-    <row r="222" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A222" s="15" t="s">
         <v>74</v>
       </c>
@@ -41742,10 +41935,13 @@
         <v>9.9755754418846294</v>
       </c>
       <c r="FJ222" s="25">
-        <v>13.374687335472871</v>
+        <v>13.399410256295567</v>
+      </c>
+      <c r="FK222" s="25">
+        <v>4.658429051677075</v>
       </c>
     </row>
-    <row r="223" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A223" s="15" t="s">
         <v>75</v>
       </c>
@@ -42242,10 +42438,13 @@
         <v>11.55069953709247</v>
       </c>
       <c r="FJ223" s="25">
-        <v>10.687138770156139</v>
+        <v>10.748081830912611</v>
+      </c>
+      <c r="FK223" s="25">
+        <v>4.8922419322932456</v>
       </c>
     </row>
-    <row r="224" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A224" s="15" t="s">
         <v>76</v>
       </c>
@@ -42742,10 +42941,13 @@
         <v>15.823112501483209</v>
       </c>
       <c r="FJ224" s="25">
-        <v>15.229033487563015</v>
+        <v>15.174272902413378</v>
+      </c>
+      <c r="FK224" s="25">
+        <v>11.81380681319439</v>
       </c>
     </row>
-    <row r="225" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A225" s="16"/>
       <c r="B225" s="13"/>
       <c r="C225" s="13"/>
@@ -42912,8 +43114,9 @@
       <c r="FH225" s="25"/>
       <c r="FI225" s="25"/>
       <c r="FJ225" s="25"/>
+      <c r="FK225" s="25"/>
     </row>
-    <row r="226" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>10</v>
       </c>
@@ -43410,10 +43613,13 @@
         <v>13.895556471396617</v>
       </c>
       <c r="FJ226" s="25">
-        <v>13.674683326983072</v>
+        <v>13.662791041685068</v>
+      </c>
+      <c r="FK226" s="25">
+        <v>9.0589520917780106</v>
       </c>
     </row>
-    <row r="227" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:167" hidden="1" x14ac:dyDescent="0.2">
       <c r="B227" s="13"/>
       <c r="C227" s="13"/>
       <c r="D227" s="13"/>
@@ -43578,8 +43784,9 @@
       <c r="FH227" s="25"/>
       <c r="FI227" s="25"/>
       <c r="FJ227" s="25"/>
+      <c r="FK227" s="25"/>
     </row>
-    <row r="228" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:167" hidden="1" x14ac:dyDescent="0.2">
       <c r="B228" s="13"/>
       <c r="C228" s="13"/>
       <c r="D228" s="13"/>
@@ -43744,8 +43951,9 @@
       <c r="FH228" s="25"/>
       <c r="FI228" s="25"/>
       <c r="FJ228" s="25"/>
+      <c r="FK228" s="25"/>
     </row>
-    <row r="229" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:167" hidden="1" x14ac:dyDescent="0.2">
       <c r="B229" s="13"/>
       <c r="C229" s="13"/>
       <c r="D229" s="13"/>
@@ -43912,8 +44120,9 @@
       <c r="FJ229" s="25">
         <v>12.655869590176934</v>
       </c>
+      <c r="FK229" s="25"/>
     </row>
-    <row r="230" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:167" hidden="1" x14ac:dyDescent="0.2">
       <c r="B230" s="13"/>
       <c r="C230" s="13"/>
       <c r="D230" s="13"/>
@@ -44074,7 +44283,7 @@
       </c>
       <c r="FB230" s="2"/>
     </row>
-    <row r="231" spans="1:166" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:167" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="9"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
@@ -44241,318 +44450,320 @@
       <c r="FH231" s="9"/>
       <c r="FI231" s="9"/>
       <c r="FJ231" s="9"/>
+      <c r="FK231" s="9"/>
     </row>
-    <row r="232" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>0</v>
       </c>
       <c r="FB232" s="2"/>
     </row>
-    <row r="233" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:167" x14ac:dyDescent="0.2">
       <c r="FB233" s="2"/>
     </row>
-    <row r="234" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:167" x14ac:dyDescent="0.2">
       <c r="FB234" s="2"/>
     </row>
-    <row r="235" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>8</v>
       </c>
       <c r="FB235" s="2"/>
     </row>
-    <row r="236" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>7</v>
       </c>
       <c r="FB236" s="2"/>
     </row>
-    <row r="237" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="FB237" s="2"/>
     </row>
-    <row r="238" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="FB238" s="2"/>
     </row>
-    <row r="239" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>50</v>
       </c>
       <c r="FB239" s="2"/>
     </row>
-    <row r="240" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A240" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="FB240" s="2"/>
     </row>
-    <row r="241" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>20</v>
       </c>
       <c r="FB241" s="2"/>
     </row>
-    <row r="242" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="FB242" s="2"/>
       <c r="FF242" s="9"/>
       <c r="FG242" s="9"/>
     </row>
-    <row r="243" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
-      <c r="B243" s="27" t="s">
+      <c r="B243" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C243" s="27"/>
-      <c r="D243" s="27"/>
-      <c r="E243" s="27"/>
-      <c r="F243" s="27" t="s">
+      <c r="C243" s="26"/>
+      <c r="D243" s="26"/>
+      <c r="E243" s="26"/>
+      <c r="F243" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="G243" s="27"/>
-      <c r="H243" s="27"/>
-      <c r="I243" s="27"/>
-      <c r="J243" s="27" t="s">
+      <c r="G243" s="26"/>
+      <c r="H243" s="26"/>
+      <c r="I243" s="26"/>
+      <c r="J243" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="K243" s="27"/>
-      <c r="L243" s="27"/>
-      <c r="M243" s="27"/>
-      <c r="N243" s="27" t="s">
+      <c r="K243" s="26"/>
+      <c r="L243" s="26"/>
+      <c r="M243" s="26"/>
+      <c r="N243" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="O243" s="27"/>
-      <c r="P243" s="27"/>
-      <c r="Q243" s="27"/>
-      <c r="R243" s="27" t="s">
+      <c r="O243" s="26"/>
+      <c r="P243" s="26"/>
+      <c r="Q243" s="26"/>
+      <c r="R243" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="S243" s="27"/>
-      <c r="T243" s="27"/>
-      <c r="U243" s="27"/>
-      <c r="V243" s="27" t="s">
+      <c r="S243" s="26"/>
+      <c r="T243" s="26"/>
+      <c r="U243" s="26"/>
+      <c r="V243" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="W243" s="27"/>
-      <c r="X243" s="27"/>
-      <c r="Y243" s="27"/>
-      <c r="Z243" s="27" t="s">
+      <c r="W243" s="26"/>
+      <c r="X243" s="26"/>
+      <c r="Y243" s="26"/>
+      <c r="Z243" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="AA243" s="27"/>
-      <c r="AB243" s="27"/>
-      <c r="AC243" s="27"/>
-      <c r="AD243" s="27" t="s">
+      <c r="AA243" s="26"/>
+      <c r="AB243" s="26"/>
+      <c r="AC243" s="26"/>
+      <c r="AD243" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="AE243" s="27"/>
-      <c r="AF243" s="27"/>
-      <c r="AG243" s="27"/>
-      <c r="AH243" s="27" t="s">
+      <c r="AE243" s="26"/>
+      <c r="AF243" s="26"/>
+      <c r="AG243" s="26"/>
+      <c r="AH243" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="AI243" s="27"/>
-      <c r="AJ243" s="27"/>
-      <c r="AK243" s="27"/>
-      <c r="AL243" s="27" t="s">
+      <c r="AI243" s="26"/>
+      <c r="AJ243" s="26"/>
+      <c r="AK243" s="26"/>
+      <c r="AL243" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="AM243" s="27"/>
-      <c r="AN243" s="27"/>
-      <c r="AO243" s="27"/>
-      <c r="AP243" s="27" t="s">
+      <c r="AM243" s="26"/>
+      <c r="AN243" s="26"/>
+      <c r="AO243" s="26"/>
+      <c r="AP243" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="AQ243" s="27"/>
-      <c r="AR243" s="27"/>
-      <c r="AS243" s="27"/>
-      <c r="AT243" s="27" t="s">
+      <c r="AQ243" s="26"/>
+      <c r="AR243" s="26"/>
+      <c r="AS243" s="26"/>
+      <c r="AT243" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="AU243" s="27"/>
-      <c r="AV243" s="27"/>
-      <c r="AW243" s="27"/>
-      <c r="AX243" s="27" t="s">
+      <c r="AU243" s="26"/>
+      <c r="AV243" s="26"/>
+      <c r="AW243" s="26"/>
+      <c r="AX243" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="AY243" s="27"/>
-      <c r="AZ243" s="27"/>
-      <c r="BA243" s="27"/>
-      <c r="BB243" s="27" t="s">
+      <c r="AY243" s="26"/>
+      <c r="AZ243" s="26"/>
+      <c r="BA243" s="26"/>
+      <c r="BB243" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="BC243" s="27"/>
-      <c r="BD243" s="27"/>
-      <c r="BE243" s="27"/>
-      <c r="BF243" s="27" t="s">
+      <c r="BC243" s="26"/>
+      <c r="BD243" s="26"/>
+      <c r="BE243" s="26"/>
+      <c r="BF243" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="BG243" s="27"/>
-      <c r="BH243" s="27"/>
-      <c r="BI243" s="27"/>
-      <c r="BJ243" s="27" t="s">
+      <c r="BG243" s="26"/>
+      <c r="BH243" s="26"/>
+      <c r="BI243" s="26"/>
+      <c r="BJ243" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="BK243" s="27"/>
-      <c r="BL243" s="27"/>
-      <c r="BM243" s="27"/>
-      <c r="BN243" s="27" t="s">
+      <c r="BK243" s="26"/>
+      <c r="BL243" s="26"/>
+      <c r="BM243" s="26"/>
+      <c r="BN243" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="BO243" s="27"/>
-      <c r="BP243" s="27"/>
-      <c r="BQ243" s="27"/>
-      <c r="BR243" s="27" t="s">
+      <c r="BO243" s="26"/>
+      <c r="BP243" s="26"/>
+      <c r="BQ243" s="26"/>
+      <c r="BR243" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="BS243" s="27"/>
-      <c r="BT243" s="27"/>
-      <c r="BU243" s="27"/>
-      <c r="BV243" s="27" t="s">
+      <c r="BS243" s="26"/>
+      <c r="BT243" s="26"/>
+      <c r="BU243" s="26"/>
+      <c r="BV243" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="BW243" s="27"/>
-      <c r="BX243" s="27"/>
-      <c r="BY243" s="27"/>
-      <c r="BZ243" s="27" t="s">
+      <c r="BW243" s="26"/>
+      <c r="BX243" s="26"/>
+      <c r="BY243" s="26"/>
+      <c r="BZ243" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="CA243" s="27"/>
-      <c r="CB243" s="27"/>
-      <c r="CC243" s="27"/>
-      <c r="CD243" s="27" t="s">
+      <c r="CA243" s="26"/>
+      <c r="CB243" s="26"/>
+      <c r="CC243" s="26"/>
+      <c r="CD243" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="CE243" s="27"/>
-      <c r="CF243" s="27"/>
-      <c r="CG243" s="27"/>
-      <c r="CH243" s="27" t="s">
+      <c r="CE243" s="26"/>
+      <c r="CF243" s="26"/>
+      <c r="CG243" s="26"/>
+      <c r="CH243" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="CI243" s="27"/>
-      <c r="CJ243" s="27"/>
-      <c r="CK243" s="27"/>
-      <c r="CL243" s="27" t="s">
+      <c r="CI243" s="26"/>
+      <c r="CJ243" s="26"/>
+      <c r="CK243" s="26"/>
+      <c r="CL243" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="CM243" s="27"/>
-      <c r="CN243" s="27"/>
-      <c r="CO243" s="27"/>
-      <c r="CP243" s="27" t="s">
+      <c r="CM243" s="26"/>
+      <c r="CN243" s="26"/>
+      <c r="CO243" s="26"/>
+      <c r="CP243" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="CQ243" s="27"/>
-      <c r="CR243" s="27"/>
-      <c r="CS243" s="27"/>
-      <c r="CT243" s="27" t="s">
+      <c r="CQ243" s="26"/>
+      <c r="CR243" s="26"/>
+      <c r="CS243" s="26"/>
+      <c r="CT243" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="CU243" s="27"/>
-      <c r="CV243" s="27"/>
-      <c r="CW243" s="27"/>
-      <c r="CX243" s="27" t="s">
+      <c r="CU243" s="26"/>
+      <c r="CV243" s="26"/>
+      <c r="CW243" s="26"/>
+      <c r="CX243" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="CY243" s="27"/>
-      <c r="CZ243" s="27"/>
-      <c r="DA243" s="27"/>
-      <c r="DB243" s="27" t="s">
+      <c r="CY243" s="26"/>
+      <c r="CZ243" s="26"/>
+      <c r="DA243" s="26"/>
+      <c r="DB243" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="DC243" s="27"/>
-      <c r="DD243" s="27"/>
-      <c r="DE243" s="27"/>
-      <c r="DF243" s="27" t="s">
+      <c r="DC243" s="26"/>
+      <c r="DD243" s="26"/>
+      <c r="DE243" s="26"/>
+      <c r="DF243" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="DG243" s="27"/>
-      <c r="DH243" s="27"/>
-      <c r="DI243" s="27"/>
-      <c r="DJ243" s="27" t="s">
+      <c r="DG243" s="26"/>
+      <c r="DH243" s="26"/>
+      <c r="DI243" s="26"/>
+      <c r="DJ243" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="DK243" s="27"/>
-      <c r="DL243" s="27"/>
-      <c r="DM243" s="27"/>
-      <c r="DN243" s="27" t="s">
+      <c r="DK243" s="26"/>
+      <c r="DL243" s="26"/>
+      <c r="DM243" s="26"/>
+      <c r="DN243" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="DO243" s="27"/>
-      <c r="DP243" s="27"/>
-      <c r="DQ243" s="27"/>
-      <c r="DR243" s="27" t="s">
+      <c r="DO243" s="26"/>
+      <c r="DP243" s="26"/>
+      <c r="DQ243" s="26"/>
+      <c r="DR243" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="DS243" s="27"/>
-      <c r="DT243" s="27"/>
-      <c r="DU243" s="27"/>
-      <c r="DV243" s="27" t="s">
+      <c r="DS243" s="26"/>
+      <c r="DT243" s="26"/>
+      <c r="DU243" s="26"/>
+      <c r="DV243" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="DW243" s="27"/>
-      <c r="DX243" s="27"/>
-      <c r="DY243" s="27"/>
-      <c r="DZ243" s="27" t="s">
+      <c r="DW243" s="26"/>
+      <c r="DX243" s="26"/>
+      <c r="DY243" s="26"/>
+      <c r="DZ243" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="EA243" s="27"/>
-      <c r="EB243" s="27"/>
-      <c r="EC243" s="27"/>
-      <c r="ED243" s="27" t="s">
+      <c r="EA243" s="26"/>
+      <c r="EB243" s="26"/>
+      <c r="EC243" s="26"/>
+      <c r="ED243" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="EE243" s="27"/>
-      <c r="EF243" s="27"/>
-      <c r="EG243" s="27"/>
-      <c r="EH243" s="27" t="s">
+      <c r="EE243" s="26"/>
+      <c r="EF243" s="26"/>
+      <c r="EG243" s="26"/>
+      <c r="EH243" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="EI243" s="27"/>
-      <c r="EJ243" s="27"/>
-      <c r="EK243" s="27"/>
-      <c r="EL243" s="27" t="s">
+      <c r="EI243" s="26"/>
+      <c r="EJ243" s="26"/>
+      <c r="EK243" s="26"/>
+      <c r="EL243" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="EM243" s="27"/>
-      <c r="EN243" s="27"/>
-      <c r="EO243" s="27"/>
-      <c r="EP243" s="27" t="s">
+      <c r="EM243" s="26"/>
+      <c r="EN243" s="26"/>
+      <c r="EO243" s="26"/>
+      <c r="EP243" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="EQ243" s="27"/>
-      <c r="ER243" s="27"/>
-      <c r="ES243" s="27"/>
-      <c r="ET243" s="27" t="s">
+      <c r="EQ243" s="26"/>
+      <c r="ER243" s="26"/>
+      <c r="ES243" s="26"/>
+      <c r="ET243" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="EU243" s="27"/>
-      <c r="EV243" s="27"/>
-      <c r="EW243" s="27"/>
-      <c r="EX243" s="27" t="s">
+      <c r="EU243" s="26"/>
+      <c r="EV243" s="26"/>
+      <c r="EW243" s="26"/>
+      <c r="EX243" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="EY243" s="27"/>
-      <c r="EZ243" s="27"/>
+      <c r="EY243" s="26"/>
+      <c r="EZ243" s="26"/>
       <c r="FA243" s="4"/>
-      <c r="FB243" s="27" t="s">
+      <c r="FB243" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="FC243" s="27"/>
-      <c r="FD243" s="27"/>
-      <c r="FE243" s="27"/>
-      <c r="FF243" s="27" t="s">
+      <c r="FC243" s="26"/>
+      <c r="FD243" s="26"/>
+      <c r="FE243" s="26"/>
+      <c r="FF243" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="FG243" s="27"/>
-      <c r="FH243" s="27"/>
-      <c r="FI243" s="27"/>
-      <c r="FJ243" s="28" t="s">
-        <v>83</v>
-      </c>
+      <c r="FG243" s="26"/>
+      <c r="FH243" s="26"/>
+      <c r="FI243" s="26"/>
+      <c r="FJ243" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="FK243" s="26"/>
     </row>
-    <row r="244" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
         <v>13</v>
       </c>
@@ -45051,13 +45262,17 @@
       <c r="FJ244" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="FK244" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="245" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:167" x14ac:dyDescent="0.2">
       <c r="FB245" s="2"/>
       <c r="FF245" s="24"/>
       <c r="FJ245" s="24"/>
+      <c r="FK245" s="24"/>
     </row>
-    <row r="246" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A246" s="15" t="s">
         <v>74</v>
       </c>
@@ -45554,10 +45769,13 @@
         <v>-0.34722986491927088</v>
       </c>
       <c r="FJ246" s="25">
-        <v>2.2441629895339616</v>
+        <v>2.2401954730820677</v>
+      </c>
+      <c r="FK246" s="25">
+        <v>0.15577110856415288</v>
       </c>
     </row>
-    <row r="247" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A247" s="15" t="s">
         <v>75</v>
       </c>
@@ -46054,10 +46272,13 @@
         <v>4.5735631893710149</v>
       </c>
       <c r="FJ247" s="25">
-        <v>3.9436806301973917</v>
+        <v>3.9654449981921829</v>
+      </c>
+      <c r="FK247" s="25">
+        <v>2.063990464041666</v>
       </c>
     </row>
-    <row r="248" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A248" s="15" t="s">
         <v>76</v>
       </c>
@@ -46554,10 +46775,13 @@
         <v>9.7556127046941015</v>
       </c>
       <c r="FJ248" s="25">
-        <v>8.3781392812741728</v>
+        <v>8.3789900886668249</v>
+      </c>
+      <c r="FK248" s="25">
+        <v>6.0395845554966883</v>
       </c>
     </row>
-    <row r="249" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A249" s="16"/>
       <c r="B249" s="13"/>
       <c r="C249" s="13"/>
@@ -46724,8 +46948,9 @@
       <c r="FH249" s="25"/>
       <c r="FI249" s="25"/>
       <c r="FJ249" s="25"/>
+      <c r="FK249" s="25"/>
     </row>
-    <row r="250" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>10</v>
       </c>
@@ -47222,10 +47447,13 @@
         <v>7.1147703439862369</v>
       </c>
       <c r="FJ250" s="25">
-        <v>6.4425911814635128</v>
+        <v>6.4493870765404324</v>
+      </c>
+      <c r="FK250" s="25">
+        <v>4.3344320547945756</v>
       </c>
     </row>
-    <row r="251" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:167" hidden="1" x14ac:dyDescent="0.2">
       <c r="B251" s="13"/>
       <c r="C251" s="13"/>
       <c r="D251" s="13"/>
@@ -47389,8 +47617,9 @@
       <c r="FH251" s="25"/>
       <c r="FI251" s="25"/>
       <c r="FJ251" s="25"/>
+      <c r="FK251" s="25"/>
     </row>
-    <row r="252" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:167" hidden="1" x14ac:dyDescent="0.2">
       <c r="B252" s="13"/>
       <c r="C252" s="13"/>
       <c r="D252" s="13"/>
@@ -47550,8 +47779,9 @@
       <c r="FH252" s="25"/>
       <c r="FI252" s="25"/>
       <c r="FJ252" s="25"/>
+      <c r="FK252" s="25"/>
     </row>
-    <row r="253" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:167" hidden="1" x14ac:dyDescent="0.2">
       <c r="B253" s="13"/>
       <c r="C253" s="13"/>
       <c r="D253" s="13"/>
@@ -47717,8 +47947,9 @@
       <c r="FJ253" s="25">
         <v>12.655869590176934</v>
       </c>
+      <c r="FK253" s="25"/>
     </row>
-    <row r="254" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:167" hidden="1" x14ac:dyDescent="0.2">
       <c r="B254" s="13"/>
       <c r="C254" s="13"/>
       <c r="D254" s="13"/>
@@ -47873,7 +48104,7 @@
       <c r="EW254" s="13"/>
       <c r="EX254" s="3"/>
     </row>
-    <row r="255" spans="1:166" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:167" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="9"/>
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
@@ -48040,307 +48271,309 @@
       <c r="FH255" s="9"/>
       <c r="FI255" s="9"/>
       <c r="FJ255" s="9"/>
+      <c r="FK255" s="9"/>
     </row>
-    <row r="256" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="262" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
     </row>
-    <row r="263" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="264" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A264" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="265" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="266" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
     </row>
-    <row r="267" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
-      <c r="B267" s="27">
+      <c r="B267" s="26">
         <v>1981</v>
       </c>
-      <c r="C267" s="27"/>
-      <c r="D267" s="27"/>
-      <c r="E267" s="27"/>
-      <c r="F267" s="27">
+      <c r="C267" s="26"/>
+      <c r="D267" s="26"/>
+      <c r="E267" s="26"/>
+      <c r="F267" s="26">
         <v>1982</v>
       </c>
-      <c r="G267" s="27"/>
-      <c r="H267" s="27"/>
-      <c r="I267" s="27"/>
-      <c r="J267" s="27">
+      <c r="G267" s="26"/>
+      <c r="H267" s="26"/>
+      <c r="I267" s="26"/>
+      <c r="J267" s="26">
         <v>1983</v>
       </c>
-      <c r="K267" s="27"/>
-      <c r="L267" s="27"/>
-      <c r="M267" s="27"/>
-      <c r="N267" s="27">
+      <c r="K267" s="26"/>
+      <c r="L267" s="26"/>
+      <c r="M267" s="26"/>
+      <c r="N267" s="26">
         <v>1984</v>
       </c>
-      <c r="O267" s="27"/>
-      <c r="P267" s="27"/>
-      <c r="Q267" s="27"/>
-      <c r="R267" s="27">
+      <c r="O267" s="26"/>
+      <c r="P267" s="26"/>
+      <c r="Q267" s="26"/>
+      <c r="R267" s="26">
         <v>1985</v>
       </c>
-      <c r="S267" s="27"/>
-      <c r="T267" s="27"/>
-      <c r="U267" s="27"/>
-      <c r="V267" s="27">
+      <c r="S267" s="26"/>
+      <c r="T267" s="26"/>
+      <c r="U267" s="26"/>
+      <c r="V267" s="26">
         <v>1986</v>
       </c>
-      <c r="W267" s="27"/>
-      <c r="X267" s="27"/>
-      <c r="Y267" s="27"/>
-      <c r="Z267" s="27">
+      <c r="W267" s="26"/>
+      <c r="X267" s="26"/>
+      <c r="Y267" s="26"/>
+      <c r="Z267" s="26">
         <v>1987</v>
       </c>
-      <c r="AA267" s="27"/>
-      <c r="AB267" s="27"/>
-      <c r="AC267" s="27"/>
-      <c r="AD267" s="27">
+      <c r="AA267" s="26"/>
+      <c r="AB267" s="26"/>
+      <c r="AC267" s="26"/>
+      <c r="AD267" s="26">
         <v>1988</v>
       </c>
-      <c r="AE267" s="27"/>
-      <c r="AF267" s="27"/>
-      <c r="AG267" s="27"/>
-      <c r="AH267" s="27">
+      <c r="AE267" s="26"/>
+      <c r="AF267" s="26"/>
+      <c r="AG267" s="26"/>
+      <c r="AH267" s="26">
         <v>1989</v>
       </c>
-      <c r="AI267" s="27"/>
-      <c r="AJ267" s="27"/>
-      <c r="AK267" s="27"/>
-      <c r="AL267" s="27">
+      <c r="AI267" s="26"/>
+      <c r="AJ267" s="26"/>
+      <c r="AK267" s="26"/>
+      <c r="AL267" s="26">
         <v>1990</v>
       </c>
-      <c r="AM267" s="27"/>
-      <c r="AN267" s="27"/>
-      <c r="AO267" s="27"/>
-      <c r="AP267" s="27">
+      <c r="AM267" s="26"/>
+      <c r="AN267" s="26"/>
+      <c r="AO267" s="26"/>
+      <c r="AP267" s="26">
         <v>1991</v>
       </c>
-      <c r="AQ267" s="27"/>
-      <c r="AR267" s="27"/>
-      <c r="AS267" s="27"/>
-      <c r="AT267" s="27">
+      <c r="AQ267" s="26"/>
+      <c r="AR267" s="26"/>
+      <c r="AS267" s="26"/>
+      <c r="AT267" s="26">
         <v>1992</v>
       </c>
-      <c r="AU267" s="27"/>
-      <c r="AV267" s="27"/>
-      <c r="AW267" s="27"/>
-      <c r="AX267" s="27">
+      <c r="AU267" s="26"/>
+      <c r="AV267" s="26"/>
+      <c r="AW267" s="26"/>
+      <c r="AX267" s="26">
         <v>1993</v>
       </c>
-      <c r="AY267" s="27"/>
-      <c r="AZ267" s="27"/>
-      <c r="BA267" s="27"/>
-      <c r="BB267" s="27">
+      <c r="AY267" s="26"/>
+      <c r="AZ267" s="26"/>
+      <c r="BA267" s="26"/>
+      <c r="BB267" s="26">
         <v>1994</v>
       </c>
-      <c r="BC267" s="27"/>
-      <c r="BD267" s="27"/>
-      <c r="BE267" s="27"/>
-      <c r="BF267" s="27">
+      <c r="BC267" s="26"/>
+      <c r="BD267" s="26"/>
+      <c r="BE267" s="26"/>
+      <c r="BF267" s="26">
         <v>1995</v>
       </c>
-      <c r="BG267" s="27"/>
-      <c r="BH267" s="27"/>
-      <c r="BI267" s="27"/>
-      <c r="BJ267" s="27">
+      <c r="BG267" s="26"/>
+      <c r="BH267" s="26"/>
+      <c r="BI267" s="26"/>
+      <c r="BJ267" s="26">
         <v>1996</v>
       </c>
-      <c r="BK267" s="27"/>
-      <c r="BL267" s="27"/>
-      <c r="BM267" s="27"/>
-      <c r="BN267" s="27">
+      <c r="BK267" s="26"/>
+      <c r="BL267" s="26"/>
+      <c r="BM267" s="26"/>
+      <c r="BN267" s="26">
         <v>1997</v>
       </c>
-      <c r="BO267" s="27"/>
-      <c r="BP267" s="27"/>
-      <c r="BQ267" s="27"/>
-      <c r="BR267" s="27">
+      <c r="BO267" s="26"/>
+      <c r="BP267" s="26"/>
+      <c r="BQ267" s="26"/>
+      <c r="BR267" s="26">
         <v>1998</v>
       </c>
-      <c r="BS267" s="27"/>
-      <c r="BT267" s="27"/>
-      <c r="BU267" s="27"/>
-      <c r="BV267" s="27">
+      <c r="BS267" s="26"/>
+      <c r="BT267" s="26"/>
+      <c r="BU267" s="26"/>
+      <c r="BV267" s="26">
         <v>1999</v>
       </c>
-      <c r="BW267" s="27"/>
-      <c r="BX267" s="27"/>
-      <c r="BY267" s="27"/>
-      <c r="BZ267" s="27">
+      <c r="BW267" s="26"/>
+      <c r="BX267" s="26"/>
+      <c r="BY267" s="26"/>
+      <c r="BZ267" s="26">
         <v>2000</v>
       </c>
-      <c r="CA267" s="27"/>
-      <c r="CB267" s="27"/>
-      <c r="CC267" s="27"/>
-      <c r="CD267" s="27">
+      <c r="CA267" s="26"/>
+      <c r="CB267" s="26"/>
+      <c r="CC267" s="26"/>
+      <c r="CD267" s="26">
         <v>2001</v>
       </c>
-      <c r="CE267" s="27"/>
-      <c r="CF267" s="27"/>
-      <c r="CG267" s="27"/>
-      <c r="CH267" s="27">
+      <c r="CE267" s="26"/>
+      <c r="CF267" s="26"/>
+      <c r="CG267" s="26"/>
+      <c r="CH267" s="26">
         <v>2002</v>
       </c>
-      <c r="CI267" s="27"/>
-      <c r="CJ267" s="27"/>
-      <c r="CK267" s="27"/>
-      <c r="CL267" s="27">
+      <c r="CI267" s="26"/>
+      <c r="CJ267" s="26"/>
+      <c r="CK267" s="26"/>
+      <c r="CL267" s="26">
         <v>2003</v>
       </c>
-      <c r="CM267" s="27"/>
-      <c r="CN267" s="27"/>
-      <c r="CO267" s="27"/>
-      <c r="CP267" s="27">
+      <c r="CM267" s="26"/>
+      <c r="CN267" s="26"/>
+      <c r="CO267" s="26"/>
+      <c r="CP267" s="26">
         <v>2004</v>
       </c>
-      <c r="CQ267" s="27"/>
-      <c r="CR267" s="27"/>
-      <c r="CS267" s="27"/>
-      <c r="CT267" s="27">
+      <c r="CQ267" s="26"/>
+      <c r="CR267" s="26"/>
+      <c r="CS267" s="26"/>
+      <c r="CT267" s="26">
         <v>2005</v>
       </c>
-      <c r="CU267" s="27"/>
-      <c r="CV267" s="27"/>
-      <c r="CW267" s="27"/>
-      <c r="CX267" s="27">
+      <c r="CU267" s="26"/>
+      <c r="CV267" s="26"/>
+      <c r="CW267" s="26"/>
+      <c r="CX267" s="26">
         <v>2006</v>
       </c>
-      <c r="CY267" s="27"/>
-      <c r="CZ267" s="27"/>
-      <c r="DA267" s="27"/>
-      <c r="DB267" s="27">
+      <c r="CY267" s="26"/>
+      <c r="CZ267" s="26"/>
+      <c r="DA267" s="26"/>
+      <c r="DB267" s="26">
         <v>2007</v>
       </c>
-      <c r="DC267" s="27"/>
-      <c r="DD267" s="27"/>
-      <c r="DE267" s="27"/>
-      <c r="DF267" s="27">
+      <c r="DC267" s="26"/>
+      <c r="DD267" s="26"/>
+      <c r="DE267" s="26"/>
+      <c r="DF267" s="26">
         <v>2008</v>
       </c>
-      <c r="DG267" s="27"/>
-      <c r="DH267" s="27"/>
-      <c r="DI267" s="27"/>
-      <c r="DJ267" s="27">
+      <c r="DG267" s="26"/>
+      <c r="DH267" s="26"/>
+      <c r="DI267" s="26"/>
+      <c r="DJ267" s="26">
         <v>2009</v>
       </c>
-      <c r="DK267" s="27"/>
-      <c r="DL267" s="27"/>
-      <c r="DM267" s="27"/>
-      <c r="DN267" s="27">
+      <c r="DK267" s="26"/>
+      <c r="DL267" s="26"/>
+      <c r="DM267" s="26"/>
+      <c r="DN267" s="26">
         <v>2010</v>
       </c>
-      <c r="DO267" s="27"/>
-      <c r="DP267" s="27"/>
-      <c r="DQ267" s="27"/>
-      <c r="DR267" s="27">
+      <c r="DO267" s="26"/>
+      <c r="DP267" s="26"/>
+      <c r="DQ267" s="26"/>
+      <c r="DR267" s="26">
         <v>2011</v>
       </c>
-      <c r="DS267" s="27"/>
-      <c r="DT267" s="27"/>
-      <c r="DU267" s="27"/>
-      <c r="DV267" s="27">
+      <c r="DS267" s="26"/>
+      <c r="DT267" s="26"/>
+      <c r="DU267" s="26"/>
+      <c r="DV267" s="26">
         <v>2012</v>
       </c>
-      <c r="DW267" s="27"/>
-      <c r="DX267" s="27"/>
-      <c r="DY267" s="27"/>
-      <c r="DZ267" s="27">
+      <c r="DW267" s="26"/>
+      <c r="DX267" s="26"/>
+      <c r="DY267" s="26"/>
+      <c r="DZ267" s="26">
         <v>2013</v>
       </c>
-      <c r="EA267" s="27"/>
-      <c r="EB267" s="27"/>
-      <c r="EC267" s="27"/>
-      <c r="ED267" s="27">
+      <c r="EA267" s="26"/>
+      <c r="EB267" s="26"/>
+      <c r="EC267" s="26"/>
+      <c r="ED267" s="26">
         <v>2014</v>
       </c>
-      <c r="EE267" s="27"/>
-      <c r="EF267" s="27"/>
-      <c r="EG267" s="27"/>
-      <c r="EH267" s="27">
+      <c r="EE267" s="26"/>
+      <c r="EF267" s="26"/>
+      <c r="EG267" s="26"/>
+      <c r="EH267" s="26">
         <v>2015</v>
       </c>
-      <c r="EI267" s="27"/>
-      <c r="EJ267" s="27"/>
-      <c r="EK267" s="27"/>
-      <c r="EL267" s="27">
+      <c r="EI267" s="26"/>
+      <c r="EJ267" s="26"/>
+      <c r="EK267" s="26"/>
+      <c r="EL267" s="26">
         <v>2016</v>
       </c>
-      <c r="EM267" s="27"/>
-      <c r="EN267" s="27"/>
-      <c r="EO267" s="27"/>
-      <c r="EP267" s="27">
+      <c r="EM267" s="26"/>
+      <c r="EN267" s="26"/>
+      <c r="EO267" s="26"/>
+      <c r="EP267" s="26">
         <v>2017</v>
       </c>
-      <c r="EQ267" s="27"/>
-      <c r="ER267" s="27"/>
-      <c r="ES267" s="27"/>
-      <c r="ET267" s="27">
+      <c r="EQ267" s="26"/>
+      <c r="ER267" s="26"/>
+      <c r="ES267" s="26"/>
+      <c r="ET267" s="26">
         <v>2018</v>
       </c>
-      <c r="EU267" s="27"/>
-      <c r="EV267" s="27"/>
-      <c r="EW267" s="27"/>
-      <c r="EX267" s="27">
+      <c r="EU267" s="26"/>
+      <c r="EV267" s="26"/>
+      <c r="EW267" s="26"/>
+      <c r="EX267" s="26">
         <v>2019</v>
       </c>
-      <c r="EY267" s="27"/>
-      <c r="EZ267" s="27"/>
-      <c r="FA267" s="27"/>
-      <c r="FB267" s="27">
+      <c r="EY267" s="26"/>
+      <c r="EZ267" s="26"/>
+      <c r="FA267" s="26"/>
+      <c r="FB267" s="26">
         <v>2020</v>
       </c>
-      <c r="FC267" s="27"/>
-      <c r="FD267" s="27"/>
+      <c r="FC267" s="26"/>
+      <c r="FD267" s="26"/>
       <c r="FE267" s="4"/>
-      <c r="FF267" s="27">
+      <c r="FF267" s="26">
         <v>2021</v>
       </c>
-      <c r="FG267" s="27"/>
-      <c r="FH267" s="27"/>
-      <c r="FI267" s="27"/>
-      <c r="FJ267" s="27">
+      <c r="FG267" s="26"/>
+      <c r="FH267" s="26"/>
+      <c r="FI267" s="26"/>
+      <c r="FJ267" s="26">
         <v>2022</v>
       </c>
-      <c r="FK267" s="27"/>
-      <c r="FL267" s="27"/>
-      <c r="FM267" s="27"/>
+      <c r="FK267" s="26"/>
+      <c r="FL267" s="26"/>
+      <c r="FM267" s="26"/>
       <c r="FN267" s="26">
         <v>2023</v>
       </c>
+      <c r="FO267" s="26"/>
     </row>
-    <row r="268" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A268" s="5" t="s">
         <v>13</v>
       </c>
@@ -48851,11 +49084,14 @@
       <c r="FN268" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="FO268" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="269" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:171" x14ac:dyDescent="0.2">
       <c r="FB269" s="2"/>
     </row>
-    <row r="270" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A270" s="15" t="s">
         <v>74</v>
       </c>
@@ -49364,10 +49600,13 @@
         <v>9.8908408505960281</v>
       </c>
       <c r="FN270" s="21">
-        <v>10.11949288177396</v>
+        <v>10.122758588291719</v>
+      </c>
+      <c r="FO270" s="21">
+        <v>8.5432891615166096</v>
       </c>
     </row>
-    <row r="271" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A271" s="15" t="s">
         <v>75</v>
       </c>
@@ -49876,10 +50115,13 @@
         <v>30.456270158378214</v>
       </c>
       <c r="FN271" s="21">
-        <v>29.289478790726385</v>
+        <v>29.308671419977077</v>
+      </c>
+      <c r="FO271" s="21">
+        <v>29.428783491304472</v>
       </c>
     </row>
-    <row r="272" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" s="15" t="s">
         <v>76</v>
       </c>
@@ -50388,10 +50630,13 @@
         <v>59.652888991025762</v>
       </c>
       <c r="FN272" s="22">
-        <v>60.59102832749965</v>
+        <v>60.568569991731202</v>
+      </c>
+      <c r="FO272" s="22">
+        <v>62.02792734717891</v>
       </c>
     </row>
-    <row r="273" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A273" s="16"/>
       <c r="B273" s="13"/>
       <c r="C273" s="13"/>
@@ -50562,8 +50807,9 @@
       <c r="FL273" s="22"/>
       <c r="FM273" s="22"/>
       <c r="FN273" s="22"/>
+      <c r="FO273" s="22"/>
     </row>
-    <row r="274" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" s="8" t="s">
         <v>10</v>
       </c>
@@ -51074,8 +51320,11 @@
       <c r="FN274" s="22">
         <v>100</v>
       </c>
+      <c r="FO274" s="22">
+        <v>100</v>
+      </c>
     </row>
-    <row r="275" spans="1:170" s="3" customFormat="1" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:171" s="3" customFormat="1" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="2"/>
       <c r="B275" s="13"/>
       <c r="C275" s="13"/>
@@ -51240,7 +51489,7 @@
         <v>-24370.119758612476</v>
       </c>
     </row>
-    <row r="276" spans="1:170" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:171" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="2"/>
       <c r="B276" s="13"/>
       <c r="C276" s="13"/>
@@ -51401,7 +51650,7 @@
       <c r="FB276" s="7"/>
       <c r="FC276" s="7"/>
     </row>
-    <row r="277" spans="1:170" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
       <c r="B277" s="13"/>
       <c r="C277" s="13"/>
       <c r="D277" s="13"/>
@@ -51565,7 +51814,7 @@
         <v>4857262.3839106075</v>
       </c>
     </row>
-    <row r="278" spans="1:170" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
       <c r="B278" s="13"/>
       <c r="C278" s="13"/>
       <c r="D278" s="13"/>
@@ -51723,7 +51972,7 @@
       <c r="EZ278" s="13"/>
       <c r="FA278" s="13"/>
     </row>
-    <row r="279" spans="1:170" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:171" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="9"/>
       <c r="B279" s="9"/>
       <c r="C279" s="9"/>
@@ -51894,37 +52143,38 @@
       <c r="FL279" s="9"/>
       <c r="FM279" s="9"/>
       <c r="FN279" s="9"/>
+      <c r="FO279" s="9"/>
     </row>
-    <row r="280" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="FC285" s="3"/>
       <c r="FD285" s="3"/>
       <c r="FE285" s="3"/>
     </row>
-    <row r="286" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="FC286" s="3"/>
       <c r="FD286" s="3"/>
       <c r="FE286" s="3"/>
     </row>
-    <row r="287" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>52</v>
       </c>
@@ -51932,280 +52182,282 @@
       <c r="FD287" s="3"/>
       <c r="FE287" s="3"/>
     </row>
-    <row r="288" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A288" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="289" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="290" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
       <c r="FJ290" s="9"/>
       <c r="FN290" s="9"/>
+      <c r="FO290" s="9"/>
     </row>
-    <row r="291" spans="1:170" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:171" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
-      <c r="B291" s="27">
+      <c r="B291" s="26">
         <v>1981</v>
       </c>
-      <c r="C291" s="27"/>
-      <c r="D291" s="27"/>
-      <c r="E291" s="27"/>
-      <c r="F291" s="27">
+      <c r="C291" s="26"/>
+      <c r="D291" s="26"/>
+      <c r="E291" s="26"/>
+      <c r="F291" s="26">
         <v>1982</v>
       </c>
-      <c r="G291" s="27"/>
-      <c r="H291" s="27"/>
-      <c r="I291" s="27"/>
-      <c r="J291" s="27">
+      <c r="G291" s="26"/>
+      <c r="H291" s="26"/>
+      <c r="I291" s="26"/>
+      <c r="J291" s="26">
         <v>1983</v>
       </c>
-      <c r="K291" s="27"/>
-      <c r="L291" s="27"/>
-      <c r="M291" s="27"/>
-      <c r="N291" s="27">
+      <c r="K291" s="26"/>
+      <c r="L291" s="26"/>
+      <c r="M291" s="26"/>
+      <c r="N291" s="26">
         <v>1984</v>
       </c>
-      <c r="O291" s="27"/>
-      <c r="P291" s="27"/>
-      <c r="Q291" s="27"/>
-      <c r="R291" s="27">
+      <c r="O291" s="26"/>
+      <c r="P291" s="26"/>
+      <c r="Q291" s="26"/>
+      <c r="R291" s="26">
         <v>1985</v>
       </c>
-      <c r="S291" s="27"/>
-      <c r="T291" s="27"/>
-      <c r="U291" s="27"/>
-      <c r="V291" s="27">
+      <c r="S291" s="26"/>
+      <c r="T291" s="26"/>
+      <c r="U291" s="26"/>
+      <c r="V291" s="26">
         <v>1986</v>
       </c>
-      <c r="W291" s="27"/>
-      <c r="X291" s="27"/>
-      <c r="Y291" s="27"/>
-      <c r="Z291" s="27">
+      <c r="W291" s="26"/>
+      <c r="X291" s="26"/>
+      <c r="Y291" s="26"/>
+      <c r="Z291" s="26">
         <v>1987</v>
       </c>
-      <c r="AA291" s="27"/>
-      <c r="AB291" s="27"/>
-      <c r="AC291" s="27"/>
-      <c r="AD291" s="27">
+      <c r="AA291" s="26"/>
+      <c r="AB291" s="26"/>
+      <c r="AC291" s="26"/>
+      <c r="AD291" s="26">
         <v>1988</v>
       </c>
-      <c r="AE291" s="27"/>
-      <c r="AF291" s="27"/>
-      <c r="AG291" s="27"/>
-      <c r="AH291" s="27">
+      <c r="AE291" s="26"/>
+      <c r="AF291" s="26"/>
+      <c r="AG291" s="26"/>
+      <c r="AH291" s="26">
         <v>1989</v>
       </c>
-      <c r="AI291" s="27"/>
-      <c r="AJ291" s="27"/>
-      <c r="AK291" s="27"/>
-      <c r="AL291" s="27">
+      <c r="AI291" s="26"/>
+      <c r="AJ291" s="26"/>
+      <c r="AK291" s="26"/>
+      <c r="AL291" s="26">
         <v>1990</v>
       </c>
-      <c r="AM291" s="27"/>
-      <c r="AN291" s="27"/>
-      <c r="AO291" s="27"/>
-      <c r="AP291" s="27">
+      <c r="AM291" s="26"/>
+      <c r="AN291" s="26"/>
+      <c r="AO291" s="26"/>
+      <c r="AP291" s="26">
         <v>1991</v>
       </c>
-      <c r="AQ291" s="27"/>
-      <c r="AR291" s="27"/>
-      <c r="AS291" s="27"/>
-      <c r="AT291" s="27">
+      <c r="AQ291" s="26"/>
+      <c r="AR291" s="26"/>
+      <c r="AS291" s="26"/>
+      <c r="AT291" s="26">
         <v>1992</v>
       </c>
-      <c r="AU291" s="27"/>
-      <c r="AV291" s="27"/>
-      <c r="AW291" s="27"/>
-      <c r="AX291" s="27">
+      <c r="AU291" s="26"/>
+      <c r="AV291" s="26"/>
+      <c r="AW291" s="26"/>
+      <c r="AX291" s="26">
         <v>1993</v>
       </c>
-      <c r="AY291" s="27"/>
-      <c r="AZ291" s="27"/>
-      <c r="BA291" s="27"/>
-      <c r="BB291" s="27">
+      <c r="AY291" s="26"/>
+      <c r="AZ291" s="26"/>
+      <c r="BA291" s="26"/>
+      <c r="BB291" s="26">
         <v>1994</v>
       </c>
-      <c r="BC291" s="27"/>
-      <c r="BD291" s="27"/>
-      <c r="BE291" s="27"/>
-      <c r="BF291" s="27">
+      <c r="BC291" s="26"/>
+      <c r="BD291" s="26"/>
+      <c r="BE291" s="26"/>
+      <c r="BF291" s="26">
         <v>1995</v>
       </c>
-      <c r="BG291" s="27"/>
-      <c r="BH291" s="27"/>
-      <c r="BI291" s="27"/>
-      <c r="BJ291" s="27">
+      <c r="BG291" s="26"/>
+      <c r="BH291" s="26"/>
+      <c r="BI291" s="26"/>
+      <c r="BJ291" s="26">
         <v>1996</v>
       </c>
-      <c r="BK291" s="27"/>
-      <c r="BL291" s="27"/>
-      <c r="BM291" s="27"/>
-      <c r="BN291" s="27">
+      <c r="BK291" s="26"/>
+      <c r="BL291" s="26"/>
+      <c r="BM291" s="26"/>
+      <c r="BN291" s="26">
         <v>1997</v>
       </c>
-      <c r="BO291" s="27"/>
-      <c r="BP291" s="27"/>
-      <c r="BQ291" s="27"/>
-      <c r="BR291" s="27">
+      <c r="BO291" s="26"/>
+      <c r="BP291" s="26"/>
+      <c r="BQ291" s="26"/>
+      <c r="BR291" s="26">
         <v>1998</v>
       </c>
-      <c r="BS291" s="27"/>
-      <c r="BT291" s="27"/>
-      <c r="BU291" s="27"/>
-      <c r="BV291" s="27">
+      <c r="BS291" s="26"/>
+      <c r="BT291" s="26"/>
+      <c r="BU291" s="26"/>
+      <c r="BV291" s="26">
         <v>1999</v>
       </c>
-      <c r="BW291" s="27"/>
-      <c r="BX291" s="27"/>
-      <c r="BY291" s="27"/>
-      <c r="BZ291" s="27">
+      <c r="BW291" s="26"/>
+      <c r="BX291" s="26"/>
+      <c r="BY291" s="26"/>
+      <c r="BZ291" s="26">
         <v>2000</v>
       </c>
-      <c r="CA291" s="27"/>
-      <c r="CB291" s="27"/>
-      <c r="CC291" s="27"/>
-      <c r="CD291" s="27">
+      <c r="CA291" s="26"/>
+      <c r="CB291" s="26"/>
+      <c r="CC291" s="26"/>
+      <c r="CD291" s="26">
         <v>2001</v>
       </c>
-      <c r="CE291" s="27"/>
-      <c r="CF291" s="27"/>
-      <c r="CG291" s="27"/>
-      <c r="CH291" s="27">
+      <c r="CE291" s="26"/>
+      <c r="CF291" s="26"/>
+      <c r="CG291" s="26"/>
+      <c r="CH291" s="26">
         <v>2002</v>
       </c>
-      <c r="CI291" s="27"/>
-      <c r="CJ291" s="27"/>
-      <c r="CK291" s="27"/>
-      <c r="CL291" s="27">
+      <c r="CI291" s="26"/>
+      <c r="CJ291" s="26"/>
+      <c r="CK291" s="26"/>
+      <c r="CL291" s="26">
         <v>2003</v>
       </c>
-      <c r="CM291" s="27"/>
-      <c r="CN291" s="27"/>
-      <c r="CO291" s="27"/>
-      <c r="CP291" s="27">
+      <c r="CM291" s="26"/>
+      <c r="CN291" s="26"/>
+      <c r="CO291" s="26"/>
+      <c r="CP291" s="26">
         <v>2004</v>
       </c>
-      <c r="CQ291" s="27"/>
-      <c r="CR291" s="27"/>
-      <c r="CS291" s="27"/>
-      <c r="CT291" s="27">
+      <c r="CQ291" s="26"/>
+      <c r="CR291" s="26"/>
+      <c r="CS291" s="26"/>
+      <c r="CT291" s="26">
         <v>2005</v>
       </c>
-      <c r="CU291" s="27"/>
-      <c r="CV291" s="27"/>
-      <c r="CW291" s="27"/>
-      <c r="CX291" s="27">
+      <c r="CU291" s="26"/>
+      <c r="CV291" s="26"/>
+      <c r="CW291" s="26"/>
+      <c r="CX291" s="26">
         <v>2006</v>
       </c>
-      <c r="CY291" s="27"/>
-      <c r="CZ291" s="27"/>
-      <c r="DA291" s="27"/>
-      <c r="DB291" s="27">
+      <c r="CY291" s="26"/>
+      <c r="CZ291" s="26"/>
+      <c r="DA291" s="26"/>
+      <c r="DB291" s="26">
         <v>2007</v>
       </c>
-      <c r="DC291" s="27"/>
-      <c r="DD291" s="27"/>
-      <c r="DE291" s="27"/>
-      <c r="DF291" s="27">
+      <c r="DC291" s="26"/>
+      <c r="DD291" s="26"/>
+      <c r="DE291" s="26"/>
+      <c r="DF291" s="26">
         <v>2008</v>
       </c>
-      <c r="DG291" s="27"/>
-      <c r="DH291" s="27"/>
-      <c r="DI291" s="27"/>
-      <c r="DJ291" s="27">
+      <c r="DG291" s="26"/>
+      <c r="DH291" s="26"/>
+      <c r="DI291" s="26"/>
+      <c r="DJ291" s="26">
         <v>2009</v>
       </c>
-      <c r="DK291" s="27"/>
-      <c r="DL291" s="27"/>
-      <c r="DM291" s="27"/>
-      <c r="DN291" s="27">
+      <c r="DK291" s="26"/>
+      <c r="DL291" s="26"/>
+      <c r="DM291" s="26"/>
+      <c r="DN291" s="26">
         <v>2010</v>
       </c>
-      <c r="DO291" s="27"/>
-      <c r="DP291" s="27"/>
-      <c r="DQ291" s="27"/>
-      <c r="DR291" s="27">
+      <c r="DO291" s="26"/>
+      <c r="DP291" s="26"/>
+      <c r="DQ291" s="26"/>
+      <c r="DR291" s="26">
         <v>2011</v>
       </c>
-      <c r="DS291" s="27"/>
-      <c r="DT291" s="27"/>
-      <c r="DU291" s="27"/>
-      <c r="DV291" s="27">
+      <c r="DS291" s="26"/>
+      <c r="DT291" s="26"/>
+      <c r="DU291" s="26"/>
+      <c r="DV291" s="26">
         <v>2012</v>
       </c>
-      <c r="DW291" s="27"/>
-      <c r="DX291" s="27"/>
-      <c r="DY291" s="27"/>
-      <c r="DZ291" s="27">
+      <c r="DW291" s="26"/>
+      <c r="DX291" s="26"/>
+      <c r="DY291" s="26"/>
+      <c r="DZ291" s="26">
         <v>2013</v>
       </c>
-      <c r="EA291" s="27"/>
-      <c r="EB291" s="27"/>
-      <c r="EC291" s="27"/>
-      <c r="ED291" s="27">
+      <c r="EA291" s="26"/>
+      <c r="EB291" s="26"/>
+      <c r="EC291" s="26"/>
+      <c r="ED291" s="26">
         <v>2014</v>
       </c>
-      <c r="EE291" s="27"/>
-      <c r="EF291" s="27"/>
-      <c r="EG291" s="27"/>
-      <c r="EH291" s="27">
+      <c r="EE291" s="26"/>
+      <c r="EF291" s="26"/>
+      <c r="EG291" s="26"/>
+      <c r="EH291" s="26">
         <v>2015</v>
       </c>
-      <c r="EI291" s="27"/>
-      <c r="EJ291" s="27"/>
-      <c r="EK291" s="27"/>
-      <c r="EL291" s="27">
+      <c r="EI291" s="26"/>
+      <c r="EJ291" s="26"/>
+      <c r="EK291" s="26"/>
+      <c r="EL291" s="26">
         <v>2016</v>
       </c>
-      <c r="EM291" s="27"/>
-      <c r="EN291" s="27"/>
-      <c r="EO291" s="27"/>
-      <c r="EP291" s="27">
+      <c r="EM291" s="26"/>
+      <c r="EN291" s="26"/>
+      <c r="EO291" s="26"/>
+      <c r="EP291" s="26">
         <v>2017</v>
       </c>
-      <c r="EQ291" s="27"/>
-      <c r="ER291" s="27"/>
-      <c r="ES291" s="27"/>
-      <c r="ET291" s="27">
+      <c r="EQ291" s="26"/>
+      <c r="ER291" s="26"/>
+      <c r="ES291" s="26"/>
+      <c r="ET291" s="26">
         <v>2018</v>
       </c>
-      <c r="EU291" s="27"/>
-      <c r="EV291" s="27"/>
-      <c r="EW291" s="27"/>
-      <c r="EX291" s="27">
+      <c r="EU291" s="26"/>
+      <c r="EV291" s="26"/>
+      <c r="EW291" s="26"/>
+      <c r="EX291" s="26">
         <v>2019</v>
       </c>
-      <c r="EY291" s="27"/>
-      <c r="EZ291" s="27"/>
-      <c r="FA291" s="27"/>
-      <c r="FB291" s="27">
+      <c r="EY291" s="26"/>
+      <c r="EZ291" s="26"/>
+      <c r="FA291" s="26"/>
+      <c r="FB291" s="26">
         <v>2020</v>
       </c>
-      <c r="FC291" s="27"/>
-      <c r="FD291" s="27"/>
-      <c r="FE291" s="27">
+      <c r="FC291" s="26"/>
+      <c r="FD291" s="26"/>
+      <c r="FE291" s="26">
         <v>2021</v>
       </c>
-      <c r="FF291" s="27"/>
-      <c r="FG291" s="27"/>
-      <c r="FH291" s="27"/>
-      <c r="FI291" s="27"/>
-      <c r="FJ291" s="27">
+      <c r="FF291" s="26"/>
+      <c r="FG291" s="26"/>
+      <c r="FH291" s="26"/>
+      <c r="FI291" s="26"/>
+      <c r="FJ291" s="26">
         <v>2022</v>
       </c>
-      <c r="FK291" s="27"/>
-      <c r="FL291" s="27"/>
-      <c r="FM291" s="27"/>
+      <c r="FK291" s="26"/>
+      <c r="FL291" s="26"/>
+      <c r="FM291" s="26"/>
       <c r="FN291" s="26">
         <v>2023</v>
       </c>
+      <c r="FO291" s="26"/>
     </row>
-    <row r="292" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A292" s="5" t="s">
         <v>13</v>
       </c>
@@ -52716,11 +52968,14 @@
       <c r="FN292" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="FO292" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="293" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:171" x14ac:dyDescent="0.2">
       <c r="FB293" s="2"/>
     </row>
-    <row r="294" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A294" s="15" t="s">
         <v>74</v>
       </c>
@@ -53229,10 +53484,13 @@
         <v>9.4215674606374069</v>
       </c>
       <c r="FN294" s="22">
-        <v>9.06059788359922</v>
+        <v>9.0596678728806062</v>
+      </c>
+      <c r="FO294" s="22">
+        <v>8.0173295045700872</v>
       </c>
     </row>
-    <row r="295" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="15" t="s">
         <v>75</v>
       </c>
@@ -53741,10 +53999,13 @@
         <v>30.477186663687306</v>
       </c>
       <c r="FN295" s="22">
-        <v>29.88177382382694</v>
+        <v>29.886122555116231</v>
+      </c>
+      <c r="FO295" s="22">
+        <v>29.865576539917456</v>
       </c>
     </row>
-    <row r="296" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A296" s="15" t="s">
         <v>76</v>
       </c>
@@ -54253,10 +54514,13 @@
         <v>60.101245875675289</v>
       </c>
       <c r="FN296" s="22">
-        <v>61.057628292573852</v>
+        <v>61.05420957200316</v>
+      </c>
+      <c r="FO296" s="22">
+        <v>62.117093955512473</v>
       </c>
     </row>
-    <row r="297" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A297" s="16"/>
       <c r="B297" s="13"/>
       <c r="C297" s="13"/>
@@ -54427,8 +54691,9 @@
       <c r="FL297" s="21"/>
       <c r="FM297" s="21"/>
       <c r="FN297" s="21"/>
+      <c r="FO297" s="21"/>
     </row>
-    <row r="298" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A298" s="8" t="s">
         <v>10</v>
       </c>
@@ -54939,8 +55204,11 @@
       <c r="FN298" s="21">
         <v>100</v>
       </c>
+      <c r="FO298" s="21">
+        <v>100</v>
+      </c>
     </row>
-    <row r="299" spans="1:170" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:171" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B299" s="13"/>
       <c r="C299" s="13"/>
       <c r="D299" s="13"/>
@@ -55104,7 +55372,7 @@
         <v>-0.58654919688841323</v>
       </c>
     </row>
-    <row r="300" spans="1:170" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:171" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B300" s="13"/>
       <c r="C300" s="13"/>
       <c r="D300" s="13"/>
@@ -55268,7 +55536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:170" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:171" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B301" s="13"/>
       <c r="C301" s="13"/>
       <c r="D301" s="13"/>
@@ -55432,7 +55700,7 @@
         <v>116.90641566717015</v>
       </c>
     </row>
-    <row r="302" spans="1:170" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:171" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B302" s="13"/>
       <c r="C302" s="13"/>
       <c r="D302" s="13"/>
@@ -55596,7 +55864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:170" ht="7.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:171" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="9"/>
       <c r="B303" s="9"/>
       <c r="C303" s="9"/>
@@ -55767,13 +56035,14 @@
       <c r="FL303" s="9"/>
       <c r="FM303" s="9"/>
       <c r="FN303" s="9"/>
+      <c r="FO303" s="9"/>
     </row>
-    <row r="304" spans="1:170" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:161" x14ac:dyDescent="0.2">
       <c r="B305" s="10"/>
       <c r="C305" s="10"/>
       <c r="D305" s="10"/>
@@ -55931,7 +56200,7 @@
       <c r="EZ305" s="10"/>
       <c r="FA305" s="10"/>
     </row>
-    <row r="306" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:161" x14ac:dyDescent="0.2">
       <c r="B306" s="10"/>
       <c r="C306" s="10"/>
       <c r="D306" s="10"/>
@@ -56089,26 +56358,514 @@
       <c r="EZ306" s="10"/>
       <c r="FA306" s="10"/>
     </row>
-    <row r="307" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:161" x14ac:dyDescent="0.2">
       <c r="A307" s="1"/>
     </row>
-    <row r="311" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:161" x14ac:dyDescent="0.2">
       <c r="FC311" s="3"/>
       <c r="FD311" s="3"/>
       <c r="FE311" s="3"/>
     </row>
-    <row r="312" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:161" x14ac:dyDescent="0.2">
       <c r="FC312" s="3"/>
       <c r="FD312" s="3"/>
       <c r="FE312" s="3"/>
     </row>
-    <row r="313" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:161" x14ac:dyDescent="0.2">
       <c r="FC313" s="3"/>
       <c r="FD313" s="3"/>
       <c r="FE313" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="500">
+  <mergeCells count="512">
+    <mergeCell ref="FN267:FO267"/>
+    <mergeCell ref="FN291:FO291"/>
+    <mergeCell ref="FN9:FO9"/>
+    <mergeCell ref="FN36:FO36"/>
+    <mergeCell ref="FJ63:FK63"/>
+    <mergeCell ref="FJ90:FK90"/>
+    <mergeCell ref="FN117:FO117"/>
+    <mergeCell ref="FN144:FO144"/>
+    <mergeCell ref="FN171:FO171"/>
+    <mergeCell ref="FN195:FO195"/>
+    <mergeCell ref="FJ9:FM9"/>
+    <mergeCell ref="FJ36:FM36"/>
+    <mergeCell ref="FJ117:FM117"/>
+    <mergeCell ref="FJ144:FM144"/>
+    <mergeCell ref="FJ171:FM171"/>
+    <mergeCell ref="FJ195:FM195"/>
+    <mergeCell ref="FJ267:FM267"/>
+    <mergeCell ref="FJ291:FM291"/>
+    <mergeCell ref="FF219:FI219"/>
+    <mergeCell ref="FF243:FI243"/>
+    <mergeCell ref="FJ219:FK219"/>
+    <mergeCell ref="FJ243:FK243"/>
+    <mergeCell ref="EX63:FA63"/>
+    <mergeCell ref="EX90:FA90"/>
+    <mergeCell ref="FB117:FD117"/>
+    <mergeCell ref="FB144:FD144"/>
+    <mergeCell ref="FB171:FD171"/>
+    <mergeCell ref="FB195:FD195"/>
+    <mergeCell ref="EX195:FA195"/>
+    <mergeCell ref="EX36:FA36"/>
+    <mergeCell ref="FF9:FI9"/>
+    <mergeCell ref="FF36:FI36"/>
+    <mergeCell ref="FB63:FE63"/>
+    <mergeCell ref="FB90:FE90"/>
+    <mergeCell ref="FF117:FI117"/>
+    <mergeCell ref="FF144:FI144"/>
+    <mergeCell ref="FF171:FI171"/>
+    <mergeCell ref="FF195:FI195"/>
+    <mergeCell ref="FB9:FE9"/>
+    <mergeCell ref="FF63:FI63"/>
+    <mergeCell ref="FF90:FI90"/>
+    <mergeCell ref="EX219:EZ219"/>
+    <mergeCell ref="EX243:EZ243"/>
+    <mergeCell ref="BF291:BI291"/>
+    <mergeCell ref="BJ291:BM291"/>
+    <mergeCell ref="BN291:BQ291"/>
+    <mergeCell ref="B267:E267"/>
+    <mergeCell ref="F267:I267"/>
+    <mergeCell ref="J267:M267"/>
+    <mergeCell ref="V291:Y291"/>
+    <mergeCell ref="Z291:AC291"/>
+    <mergeCell ref="AD291:AG291"/>
+    <mergeCell ref="AH291:AK291"/>
+    <mergeCell ref="AL291:AO291"/>
+    <mergeCell ref="AP291:AS291"/>
+    <mergeCell ref="BF267:BI267"/>
+    <mergeCell ref="BJ267:BM267"/>
+    <mergeCell ref="BN267:BQ267"/>
+    <mergeCell ref="B243:E243"/>
+    <mergeCell ref="N267:Q267"/>
+    <mergeCell ref="R267:U267"/>
+    <mergeCell ref="V267:Y267"/>
+    <mergeCell ref="Z267:AC267"/>
+    <mergeCell ref="AD267:AG267"/>
+    <mergeCell ref="BR267:BU267"/>
+    <mergeCell ref="BV267:BY267"/>
+    <mergeCell ref="B291:E291"/>
+    <mergeCell ref="F291:I291"/>
+    <mergeCell ref="J291:M291"/>
+    <mergeCell ref="N291:Q291"/>
+    <mergeCell ref="R291:U291"/>
+    <mergeCell ref="AH267:AK267"/>
+    <mergeCell ref="AL267:AO267"/>
+    <mergeCell ref="AP267:AS267"/>
+    <mergeCell ref="AT267:AW267"/>
+    <mergeCell ref="AX267:BA267"/>
+    <mergeCell ref="BB267:BE267"/>
+    <mergeCell ref="BR291:BU291"/>
+    <mergeCell ref="BV291:BY291"/>
+    <mergeCell ref="AT291:AW291"/>
+    <mergeCell ref="AX291:BA291"/>
+    <mergeCell ref="BB291:BE291"/>
+    <mergeCell ref="BF243:BI243"/>
+    <mergeCell ref="BJ243:BM243"/>
+    <mergeCell ref="BN243:BQ243"/>
+    <mergeCell ref="BR243:BU243"/>
+    <mergeCell ref="BV243:BY243"/>
+    <mergeCell ref="AH243:AK243"/>
+    <mergeCell ref="AL243:AO243"/>
+    <mergeCell ref="AP243:AS243"/>
+    <mergeCell ref="AT243:AW243"/>
+    <mergeCell ref="AX243:BA243"/>
+    <mergeCell ref="BB243:BE243"/>
+    <mergeCell ref="F243:I243"/>
+    <mergeCell ref="J243:M243"/>
+    <mergeCell ref="N243:Q243"/>
+    <mergeCell ref="R243:U243"/>
+    <mergeCell ref="V243:Y243"/>
+    <mergeCell ref="Z243:AC243"/>
+    <mergeCell ref="AD243:AG243"/>
+    <mergeCell ref="AT219:AW219"/>
+    <mergeCell ref="V219:Y219"/>
+    <mergeCell ref="Z219:AC219"/>
+    <mergeCell ref="AD219:AG219"/>
+    <mergeCell ref="AH219:AK219"/>
+    <mergeCell ref="AL219:AO219"/>
+    <mergeCell ref="AP219:AS219"/>
+    <mergeCell ref="BF195:BI195"/>
+    <mergeCell ref="BJ195:BM195"/>
+    <mergeCell ref="BN195:BQ195"/>
+    <mergeCell ref="BR195:BU195"/>
+    <mergeCell ref="BV195:BY195"/>
+    <mergeCell ref="B219:E219"/>
+    <mergeCell ref="F219:I219"/>
+    <mergeCell ref="J219:M219"/>
+    <mergeCell ref="N219:Q219"/>
+    <mergeCell ref="R219:U219"/>
+    <mergeCell ref="AH195:AK195"/>
+    <mergeCell ref="AL195:AO195"/>
+    <mergeCell ref="AP195:AS195"/>
+    <mergeCell ref="AT195:AW195"/>
+    <mergeCell ref="AX195:BA195"/>
+    <mergeCell ref="BB195:BE195"/>
+    <mergeCell ref="BR219:BU219"/>
+    <mergeCell ref="BV219:BY219"/>
+    <mergeCell ref="AX219:BA219"/>
+    <mergeCell ref="BB219:BE219"/>
+    <mergeCell ref="BF219:BI219"/>
+    <mergeCell ref="BJ219:BM219"/>
+    <mergeCell ref="BN219:BQ219"/>
+    <mergeCell ref="B195:E195"/>
+    <mergeCell ref="F195:I195"/>
+    <mergeCell ref="J195:M195"/>
+    <mergeCell ref="N195:Q195"/>
+    <mergeCell ref="R195:U195"/>
+    <mergeCell ref="V195:Y195"/>
+    <mergeCell ref="Z195:AC195"/>
+    <mergeCell ref="AD195:AG195"/>
+    <mergeCell ref="AT171:AW171"/>
+    <mergeCell ref="V171:Y171"/>
+    <mergeCell ref="Z171:AC171"/>
+    <mergeCell ref="AD171:AG171"/>
+    <mergeCell ref="AH171:AK171"/>
+    <mergeCell ref="AL171:AO171"/>
+    <mergeCell ref="AP171:AS171"/>
+    <mergeCell ref="BF144:BI144"/>
+    <mergeCell ref="BJ144:BM144"/>
+    <mergeCell ref="BN144:BQ144"/>
+    <mergeCell ref="BR144:BU144"/>
+    <mergeCell ref="BV144:BY144"/>
+    <mergeCell ref="B171:E171"/>
+    <mergeCell ref="F171:I171"/>
+    <mergeCell ref="J171:M171"/>
+    <mergeCell ref="N171:Q171"/>
+    <mergeCell ref="R171:U171"/>
+    <mergeCell ref="AH144:AK144"/>
+    <mergeCell ref="AL144:AO144"/>
+    <mergeCell ref="AP144:AS144"/>
+    <mergeCell ref="AT144:AW144"/>
+    <mergeCell ref="AX144:BA144"/>
+    <mergeCell ref="BB144:BE144"/>
+    <mergeCell ref="BR171:BU171"/>
+    <mergeCell ref="BV171:BY171"/>
+    <mergeCell ref="AX171:BA171"/>
+    <mergeCell ref="BB171:BE171"/>
+    <mergeCell ref="BF171:BI171"/>
+    <mergeCell ref="BJ171:BM171"/>
+    <mergeCell ref="BN171:BQ171"/>
+    <mergeCell ref="B144:E144"/>
+    <mergeCell ref="F144:I144"/>
+    <mergeCell ref="J144:M144"/>
+    <mergeCell ref="N144:Q144"/>
+    <mergeCell ref="R144:U144"/>
+    <mergeCell ref="V144:Y144"/>
+    <mergeCell ref="Z144:AC144"/>
+    <mergeCell ref="AD144:AG144"/>
+    <mergeCell ref="AT117:AW117"/>
+    <mergeCell ref="V117:Y117"/>
+    <mergeCell ref="Z117:AC117"/>
+    <mergeCell ref="AD117:AG117"/>
+    <mergeCell ref="AH117:AK117"/>
+    <mergeCell ref="AL117:AO117"/>
+    <mergeCell ref="AP117:AS117"/>
+    <mergeCell ref="B117:E117"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="J117:M117"/>
+    <mergeCell ref="N117:Q117"/>
+    <mergeCell ref="R117:U117"/>
+    <mergeCell ref="BR117:BU117"/>
+    <mergeCell ref="BV117:BY117"/>
+    <mergeCell ref="AX117:BA117"/>
+    <mergeCell ref="BB117:BE117"/>
+    <mergeCell ref="BF117:BI117"/>
+    <mergeCell ref="BJ117:BM117"/>
+    <mergeCell ref="BN117:BQ117"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="J90:M90"/>
+    <mergeCell ref="N90:Q90"/>
+    <mergeCell ref="R90:U90"/>
+    <mergeCell ref="AH63:AK63"/>
+    <mergeCell ref="AL63:AO63"/>
+    <mergeCell ref="AP63:AS63"/>
+    <mergeCell ref="AT63:AW63"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="R63:U63"/>
+    <mergeCell ref="V63:Y63"/>
+    <mergeCell ref="Z63:AC63"/>
+    <mergeCell ref="AD63:AG63"/>
+    <mergeCell ref="AT90:AW90"/>
+    <mergeCell ref="V90:Y90"/>
+    <mergeCell ref="Z90:AC90"/>
+    <mergeCell ref="AD90:AG90"/>
+    <mergeCell ref="AH90:AK90"/>
+    <mergeCell ref="AL90:AO90"/>
+    <mergeCell ref="AP90:AS90"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="BJ36:BM36"/>
+    <mergeCell ref="BN36:BQ36"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="R36:U36"/>
+    <mergeCell ref="V36:Y36"/>
+    <mergeCell ref="Z36:AC36"/>
+    <mergeCell ref="AD36:AG36"/>
+    <mergeCell ref="AH36:AK36"/>
+    <mergeCell ref="AL36:AO36"/>
+    <mergeCell ref="AP36:AS36"/>
+    <mergeCell ref="AT36:AW36"/>
+    <mergeCell ref="AX36:BA36"/>
+    <mergeCell ref="BB36:BE36"/>
+    <mergeCell ref="BF36:BI36"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="BJ63:BM63"/>
+    <mergeCell ref="BN63:BQ63"/>
+    <mergeCell ref="BR63:BU63"/>
+    <mergeCell ref="BV63:BY63"/>
+    <mergeCell ref="AX63:BA63"/>
+    <mergeCell ref="BB63:BE63"/>
+    <mergeCell ref="BR90:BU90"/>
+    <mergeCell ref="BV90:BY90"/>
+    <mergeCell ref="AX90:BA90"/>
+    <mergeCell ref="BB90:BE90"/>
+    <mergeCell ref="BF90:BI90"/>
+    <mergeCell ref="BJ90:BM90"/>
+    <mergeCell ref="BN90:BQ90"/>
+    <mergeCell ref="EH291:EK291"/>
+    <mergeCell ref="EL291:EO291"/>
+    <mergeCell ref="EP291:ES291"/>
+    <mergeCell ref="CX267:DA267"/>
+    <mergeCell ref="DB267:DE267"/>
+    <mergeCell ref="BZ267:CC267"/>
+    <mergeCell ref="CD267:CG267"/>
+    <mergeCell ref="CH267:CK267"/>
+    <mergeCell ref="CL267:CO267"/>
+    <mergeCell ref="CP267:CS267"/>
+    <mergeCell ref="CD291:CG291"/>
+    <mergeCell ref="CH291:CK291"/>
+    <mergeCell ref="CL291:CO291"/>
+    <mergeCell ref="CP291:CS291"/>
+    <mergeCell ref="CT291:CW291"/>
+    <mergeCell ref="CX291:DA291"/>
+    <mergeCell ref="DB291:DE291"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="BZ291:CC291"/>
+    <mergeCell ref="BZ219:CC219"/>
+    <mergeCell ref="BZ171:CC171"/>
+    <mergeCell ref="BZ144:CC144"/>
+    <mergeCell ref="BZ63:CC63"/>
+    <mergeCell ref="BZ90:CC90"/>
+    <mergeCell ref="BZ36:CC36"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="BR36:BU36"/>
+    <mergeCell ref="BV36:BY36"/>
+    <mergeCell ref="BF63:BI63"/>
+    <mergeCell ref="DJ243:DM243"/>
+    <mergeCell ref="DN243:DQ243"/>
+    <mergeCell ref="CT267:CW267"/>
+    <mergeCell ref="EX291:FA291"/>
+    <mergeCell ref="DF291:DI291"/>
+    <mergeCell ref="DJ291:DM291"/>
+    <mergeCell ref="DN291:DQ291"/>
+    <mergeCell ref="DR291:DU291"/>
+    <mergeCell ref="DV291:DY291"/>
+    <mergeCell ref="DZ291:EC291"/>
+    <mergeCell ref="ET267:EW267"/>
+    <mergeCell ref="EX267:FA267"/>
+    <mergeCell ref="DV267:DY267"/>
+    <mergeCell ref="DZ267:EC267"/>
+    <mergeCell ref="ED267:EG267"/>
+    <mergeCell ref="EH267:EK267"/>
+    <mergeCell ref="EL267:EO267"/>
+    <mergeCell ref="EP267:ES267"/>
+    <mergeCell ref="DF267:DI267"/>
+    <mergeCell ref="DJ267:DM267"/>
+    <mergeCell ref="DN267:DQ267"/>
+    <mergeCell ref="DR267:DU267"/>
+    <mergeCell ref="ET291:EW291"/>
+    <mergeCell ref="ED291:EG291"/>
+    <mergeCell ref="ET219:EW219"/>
+    <mergeCell ref="BZ243:CC243"/>
+    <mergeCell ref="CD243:CG243"/>
+    <mergeCell ref="CH243:CK243"/>
+    <mergeCell ref="CL243:CO243"/>
+    <mergeCell ref="CP243:CS243"/>
+    <mergeCell ref="DF219:DI219"/>
+    <mergeCell ref="DJ219:DM219"/>
+    <mergeCell ref="DN219:DQ219"/>
+    <mergeCell ref="DR219:DU219"/>
+    <mergeCell ref="DV219:DY219"/>
+    <mergeCell ref="DZ219:EC219"/>
+    <mergeCell ref="EP243:ES243"/>
+    <mergeCell ref="ET243:EW243"/>
+    <mergeCell ref="DV243:DY243"/>
+    <mergeCell ref="DZ243:EC243"/>
+    <mergeCell ref="ED243:EG243"/>
+    <mergeCell ref="EH243:EK243"/>
+    <mergeCell ref="EL243:EO243"/>
+    <mergeCell ref="DR243:DU243"/>
+    <mergeCell ref="CT243:CW243"/>
+    <mergeCell ref="CX243:DA243"/>
+    <mergeCell ref="DB243:DE243"/>
+    <mergeCell ref="DF243:DI243"/>
+    <mergeCell ref="CD219:CG219"/>
+    <mergeCell ref="CH219:CK219"/>
+    <mergeCell ref="CL219:CO219"/>
+    <mergeCell ref="CP219:CS219"/>
+    <mergeCell ref="CT219:CW219"/>
+    <mergeCell ref="CX219:DA219"/>
+    <mergeCell ref="DB219:DE219"/>
+    <mergeCell ref="DV195:DY195"/>
+    <mergeCell ref="BZ195:CC195"/>
+    <mergeCell ref="CD195:CG195"/>
+    <mergeCell ref="ED219:EG219"/>
+    <mergeCell ref="CH195:CK195"/>
+    <mergeCell ref="CL195:CO195"/>
+    <mergeCell ref="CP195:CS195"/>
+    <mergeCell ref="CT195:CW195"/>
+    <mergeCell ref="ED171:EG171"/>
+    <mergeCell ref="EH171:EK171"/>
+    <mergeCell ref="EL171:EO171"/>
+    <mergeCell ref="EP171:ES171"/>
+    <mergeCell ref="DZ195:EC195"/>
+    <mergeCell ref="ED195:EG195"/>
+    <mergeCell ref="EH195:EK195"/>
+    <mergeCell ref="EL195:EO195"/>
+    <mergeCell ref="EP195:ES195"/>
+    <mergeCell ref="CX195:DA195"/>
+    <mergeCell ref="DB195:DE195"/>
+    <mergeCell ref="DF195:DI195"/>
+    <mergeCell ref="DJ195:DM195"/>
+    <mergeCell ref="DN195:DQ195"/>
+    <mergeCell ref="DR195:DU195"/>
+    <mergeCell ref="EH219:EK219"/>
+    <mergeCell ref="EL219:EO219"/>
+    <mergeCell ref="EP219:ES219"/>
+    <mergeCell ref="ET171:EW171"/>
+    <mergeCell ref="ET195:EW195"/>
+    <mergeCell ref="EX171:FA171"/>
+    <mergeCell ref="DF171:DI171"/>
+    <mergeCell ref="DJ171:DM171"/>
+    <mergeCell ref="DN171:DQ171"/>
+    <mergeCell ref="DR171:DU171"/>
+    <mergeCell ref="DV171:DY171"/>
+    <mergeCell ref="DZ171:EC171"/>
+    <mergeCell ref="CD171:CG171"/>
+    <mergeCell ref="CH171:CK171"/>
+    <mergeCell ref="CL171:CO171"/>
+    <mergeCell ref="CP171:CS171"/>
+    <mergeCell ref="CT171:CW171"/>
+    <mergeCell ref="CX171:DA171"/>
+    <mergeCell ref="DB171:DE171"/>
+    <mergeCell ref="DV144:DY144"/>
+    <mergeCell ref="CX144:DA144"/>
+    <mergeCell ref="DB144:DE144"/>
+    <mergeCell ref="DF144:DI144"/>
+    <mergeCell ref="DJ144:DM144"/>
+    <mergeCell ref="DN144:DQ144"/>
+    <mergeCell ref="DR144:DU144"/>
+    <mergeCell ref="CD144:CG144"/>
+    <mergeCell ref="CH144:CK144"/>
+    <mergeCell ref="CL144:CO144"/>
+    <mergeCell ref="CP144:CS144"/>
+    <mergeCell ref="CT144:CW144"/>
+    <mergeCell ref="BZ117:CC117"/>
+    <mergeCell ref="CD117:CG117"/>
+    <mergeCell ref="CH117:CK117"/>
+    <mergeCell ref="CL117:CO117"/>
+    <mergeCell ref="CP117:CS117"/>
+    <mergeCell ref="CT117:CW117"/>
+    <mergeCell ref="CX117:DA117"/>
+    <mergeCell ref="DB117:DE117"/>
+    <mergeCell ref="ED117:EG117"/>
+    <mergeCell ref="DF117:DI117"/>
+    <mergeCell ref="DJ117:DM117"/>
+    <mergeCell ref="DN117:DQ117"/>
+    <mergeCell ref="DR117:DU117"/>
+    <mergeCell ref="DV117:DY117"/>
+    <mergeCell ref="DZ117:EC117"/>
+    <mergeCell ref="ET144:EW144"/>
+    <mergeCell ref="EX144:FA144"/>
+    <mergeCell ref="DZ144:EC144"/>
+    <mergeCell ref="ED144:EG144"/>
+    <mergeCell ref="EH144:EK144"/>
+    <mergeCell ref="EL144:EO144"/>
+    <mergeCell ref="EP144:ES144"/>
+    <mergeCell ref="EH117:EK117"/>
+    <mergeCell ref="EL117:EO117"/>
+    <mergeCell ref="EP117:ES117"/>
+    <mergeCell ref="ET117:EW117"/>
+    <mergeCell ref="EX117:FA117"/>
+    <mergeCell ref="CT90:CW90"/>
+    <mergeCell ref="CX90:DA90"/>
+    <mergeCell ref="DB90:DE90"/>
+    <mergeCell ref="CX63:DA63"/>
+    <mergeCell ref="DB63:DE63"/>
+    <mergeCell ref="CD90:CG90"/>
+    <mergeCell ref="CH90:CK90"/>
+    <mergeCell ref="CL90:CO90"/>
+    <mergeCell ref="CP90:CS90"/>
+    <mergeCell ref="CH63:CK63"/>
+    <mergeCell ref="CL63:CO63"/>
+    <mergeCell ref="CP63:CS63"/>
+    <mergeCell ref="CT63:CW63"/>
+    <mergeCell ref="DF90:DI90"/>
+    <mergeCell ref="DF63:DI63"/>
+    <mergeCell ref="DJ63:DM63"/>
+    <mergeCell ref="EL90:EO90"/>
+    <mergeCell ref="EP90:ES90"/>
+    <mergeCell ref="ET90:EW90"/>
+    <mergeCell ref="DJ90:DM90"/>
+    <mergeCell ref="DN90:DQ90"/>
+    <mergeCell ref="DR90:DU90"/>
+    <mergeCell ref="DV90:DY90"/>
+    <mergeCell ref="DZ90:EC90"/>
+    <mergeCell ref="ED90:EG90"/>
+    <mergeCell ref="ET63:EW63"/>
+    <mergeCell ref="DV63:DY63"/>
+    <mergeCell ref="DZ63:EC63"/>
+    <mergeCell ref="ED63:EG63"/>
+    <mergeCell ref="EH63:EK63"/>
+    <mergeCell ref="DN63:DQ63"/>
+    <mergeCell ref="DR63:DU63"/>
+    <mergeCell ref="ET9:EW9"/>
+    <mergeCell ref="EX9:FA9"/>
+    <mergeCell ref="DZ9:EC9"/>
+    <mergeCell ref="ED9:EG9"/>
+    <mergeCell ref="EH9:EK9"/>
+    <mergeCell ref="EL9:EO9"/>
+    <mergeCell ref="EP9:ES9"/>
+    <mergeCell ref="EH36:EK36"/>
+    <mergeCell ref="EL36:EO36"/>
+    <mergeCell ref="EP36:ES36"/>
+    <mergeCell ref="ET36:EW36"/>
+    <mergeCell ref="ED36:EG36"/>
+    <mergeCell ref="DV9:DY9"/>
+    <mergeCell ref="CX9:DA9"/>
+    <mergeCell ref="DB9:DE9"/>
+    <mergeCell ref="DF9:DI9"/>
+    <mergeCell ref="DJ9:DM9"/>
+    <mergeCell ref="DN9:DQ9"/>
+    <mergeCell ref="DR9:DU9"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CP9:CS9"/>
+    <mergeCell ref="CT9:CW9"/>
     <mergeCell ref="FB267:FD267"/>
     <mergeCell ref="FB291:FD291"/>
     <mergeCell ref="FB36:FD36"/>
@@ -56133,482 +56890,6 @@
     <mergeCell ref="EP63:ES63"/>
     <mergeCell ref="CD63:CG63"/>
     <mergeCell ref="EH90:EK90"/>
-    <mergeCell ref="DV9:DY9"/>
-    <mergeCell ref="CX9:DA9"/>
-    <mergeCell ref="DB9:DE9"/>
-    <mergeCell ref="DF9:DI9"/>
-    <mergeCell ref="DJ9:DM9"/>
-    <mergeCell ref="DN9:DQ9"/>
-    <mergeCell ref="DR9:DU9"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CP9:CS9"/>
-    <mergeCell ref="CT9:CW9"/>
-    <mergeCell ref="ET9:EW9"/>
-    <mergeCell ref="EX9:FA9"/>
-    <mergeCell ref="DZ9:EC9"/>
-    <mergeCell ref="ED9:EG9"/>
-    <mergeCell ref="EH9:EK9"/>
-    <mergeCell ref="EL9:EO9"/>
-    <mergeCell ref="EP9:ES9"/>
-    <mergeCell ref="EH36:EK36"/>
-    <mergeCell ref="EL36:EO36"/>
-    <mergeCell ref="EP36:ES36"/>
-    <mergeCell ref="ET36:EW36"/>
-    <mergeCell ref="ED36:EG36"/>
-    <mergeCell ref="DF90:DI90"/>
-    <mergeCell ref="DF63:DI63"/>
-    <mergeCell ref="DJ63:DM63"/>
-    <mergeCell ref="EL90:EO90"/>
-    <mergeCell ref="EP90:ES90"/>
-    <mergeCell ref="ET90:EW90"/>
-    <mergeCell ref="DJ90:DM90"/>
-    <mergeCell ref="DN90:DQ90"/>
-    <mergeCell ref="DR90:DU90"/>
-    <mergeCell ref="DV90:DY90"/>
-    <mergeCell ref="DZ90:EC90"/>
-    <mergeCell ref="ED90:EG90"/>
-    <mergeCell ref="ET63:EW63"/>
-    <mergeCell ref="DV63:DY63"/>
-    <mergeCell ref="DZ63:EC63"/>
-    <mergeCell ref="ED63:EG63"/>
-    <mergeCell ref="EH63:EK63"/>
-    <mergeCell ref="DN63:DQ63"/>
-    <mergeCell ref="DR63:DU63"/>
-    <mergeCell ref="CT90:CW90"/>
-    <mergeCell ref="CX90:DA90"/>
-    <mergeCell ref="DB90:DE90"/>
-    <mergeCell ref="CX63:DA63"/>
-    <mergeCell ref="DB63:DE63"/>
-    <mergeCell ref="CD90:CG90"/>
-    <mergeCell ref="CH90:CK90"/>
-    <mergeCell ref="CL90:CO90"/>
-    <mergeCell ref="CP90:CS90"/>
-    <mergeCell ref="CH63:CK63"/>
-    <mergeCell ref="CL63:CO63"/>
-    <mergeCell ref="CP63:CS63"/>
-    <mergeCell ref="CT63:CW63"/>
-    <mergeCell ref="ET144:EW144"/>
-    <mergeCell ref="EX144:FA144"/>
-    <mergeCell ref="DZ144:EC144"/>
-    <mergeCell ref="ED144:EG144"/>
-    <mergeCell ref="EH144:EK144"/>
-    <mergeCell ref="EL144:EO144"/>
-    <mergeCell ref="EP144:ES144"/>
-    <mergeCell ref="EH117:EK117"/>
-    <mergeCell ref="EL117:EO117"/>
-    <mergeCell ref="EP117:ES117"/>
-    <mergeCell ref="ET117:EW117"/>
-    <mergeCell ref="EX117:FA117"/>
-    <mergeCell ref="BZ117:CC117"/>
-    <mergeCell ref="CD117:CG117"/>
-    <mergeCell ref="CH117:CK117"/>
-    <mergeCell ref="CL117:CO117"/>
-    <mergeCell ref="CP117:CS117"/>
-    <mergeCell ref="CT117:CW117"/>
-    <mergeCell ref="CX117:DA117"/>
-    <mergeCell ref="DB117:DE117"/>
-    <mergeCell ref="ED117:EG117"/>
-    <mergeCell ref="DF117:DI117"/>
-    <mergeCell ref="DJ117:DM117"/>
-    <mergeCell ref="DN117:DQ117"/>
-    <mergeCell ref="DR117:DU117"/>
-    <mergeCell ref="DV117:DY117"/>
-    <mergeCell ref="DZ117:EC117"/>
-    <mergeCell ref="CD171:CG171"/>
-    <mergeCell ref="CH171:CK171"/>
-    <mergeCell ref="CL171:CO171"/>
-    <mergeCell ref="CP171:CS171"/>
-    <mergeCell ref="CT171:CW171"/>
-    <mergeCell ref="CX171:DA171"/>
-    <mergeCell ref="DB171:DE171"/>
-    <mergeCell ref="DV144:DY144"/>
-    <mergeCell ref="CX144:DA144"/>
-    <mergeCell ref="DB144:DE144"/>
-    <mergeCell ref="DF144:DI144"/>
-    <mergeCell ref="DJ144:DM144"/>
-    <mergeCell ref="DN144:DQ144"/>
-    <mergeCell ref="DR144:DU144"/>
-    <mergeCell ref="CD144:CG144"/>
-    <mergeCell ref="CH144:CK144"/>
-    <mergeCell ref="CL144:CO144"/>
-    <mergeCell ref="CP144:CS144"/>
-    <mergeCell ref="CT144:CW144"/>
-    <mergeCell ref="ET171:EW171"/>
-    <mergeCell ref="ET195:EW195"/>
-    <mergeCell ref="EX171:FA171"/>
-    <mergeCell ref="DF171:DI171"/>
-    <mergeCell ref="DJ171:DM171"/>
-    <mergeCell ref="DN171:DQ171"/>
-    <mergeCell ref="DR171:DU171"/>
-    <mergeCell ref="DV171:DY171"/>
-    <mergeCell ref="DZ171:EC171"/>
-    <mergeCell ref="ED219:EG219"/>
-    <mergeCell ref="CH195:CK195"/>
-    <mergeCell ref="CL195:CO195"/>
-    <mergeCell ref="CP195:CS195"/>
-    <mergeCell ref="CT195:CW195"/>
-    <mergeCell ref="ED171:EG171"/>
-    <mergeCell ref="EH171:EK171"/>
-    <mergeCell ref="EL171:EO171"/>
-    <mergeCell ref="EP171:ES171"/>
-    <mergeCell ref="DZ195:EC195"/>
-    <mergeCell ref="ED195:EG195"/>
-    <mergeCell ref="EH195:EK195"/>
-    <mergeCell ref="EL195:EO195"/>
-    <mergeCell ref="EP195:ES195"/>
-    <mergeCell ref="CX195:DA195"/>
-    <mergeCell ref="DB195:DE195"/>
-    <mergeCell ref="DF195:DI195"/>
-    <mergeCell ref="DJ195:DM195"/>
-    <mergeCell ref="DN195:DQ195"/>
-    <mergeCell ref="DR195:DU195"/>
-    <mergeCell ref="EH219:EK219"/>
-    <mergeCell ref="EL219:EO219"/>
-    <mergeCell ref="EP219:ES219"/>
-    <mergeCell ref="CD219:CG219"/>
-    <mergeCell ref="CH219:CK219"/>
-    <mergeCell ref="CL219:CO219"/>
-    <mergeCell ref="CP219:CS219"/>
-    <mergeCell ref="CT219:CW219"/>
-    <mergeCell ref="CX219:DA219"/>
-    <mergeCell ref="DB219:DE219"/>
-    <mergeCell ref="DV195:DY195"/>
-    <mergeCell ref="BZ195:CC195"/>
-    <mergeCell ref="CD195:CG195"/>
-    <mergeCell ref="ET219:EW219"/>
-    <mergeCell ref="BZ243:CC243"/>
-    <mergeCell ref="CD243:CG243"/>
-    <mergeCell ref="CH243:CK243"/>
-    <mergeCell ref="CL243:CO243"/>
-    <mergeCell ref="CP243:CS243"/>
-    <mergeCell ref="DF219:DI219"/>
-    <mergeCell ref="DJ219:DM219"/>
-    <mergeCell ref="DN219:DQ219"/>
-    <mergeCell ref="DR219:DU219"/>
-    <mergeCell ref="DV219:DY219"/>
-    <mergeCell ref="DZ219:EC219"/>
-    <mergeCell ref="EP243:ES243"/>
-    <mergeCell ref="ET243:EW243"/>
-    <mergeCell ref="DV243:DY243"/>
-    <mergeCell ref="DZ243:EC243"/>
-    <mergeCell ref="ED243:EG243"/>
-    <mergeCell ref="EH243:EK243"/>
-    <mergeCell ref="EL243:EO243"/>
-    <mergeCell ref="DR243:DU243"/>
-    <mergeCell ref="CT243:CW243"/>
-    <mergeCell ref="CX243:DA243"/>
-    <mergeCell ref="DB243:DE243"/>
-    <mergeCell ref="DF243:DI243"/>
-    <mergeCell ref="DJ243:DM243"/>
-    <mergeCell ref="DN243:DQ243"/>
-    <mergeCell ref="CT267:CW267"/>
-    <mergeCell ref="EX291:FA291"/>
-    <mergeCell ref="DF291:DI291"/>
-    <mergeCell ref="DJ291:DM291"/>
-    <mergeCell ref="DN291:DQ291"/>
-    <mergeCell ref="DR291:DU291"/>
-    <mergeCell ref="DV291:DY291"/>
-    <mergeCell ref="DZ291:EC291"/>
-    <mergeCell ref="ET267:EW267"/>
-    <mergeCell ref="EX267:FA267"/>
-    <mergeCell ref="DV267:DY267"/>
-    <mergeCell ref="DZ267:EC267"/>
-    <mergeCell ref="ED267:EG267"/>
-    <mergeCell ref="EH267:EK267"/>
-    <mergeCell ref="EL267:EO267"/>
-    <mergeCell ref="EP267:ES267"/>
-    <mergeCell ref="DF267:DI267"/>
-    <mergeCell ref="DJ267:DM267"/>
-    <mergeCell ref="DN267:DQ267"/>
-    <mergeCell ref="DR267:DU267"/>
-    <mergeCell ref="ET291:EW291"/>
-    <mergeCell ref="ED291:EG291"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="BZ291:CC291"/>
-    <mergeCell ref="BZ219:CC219"/>
-    <mergeCell ref="BZ171:CC171"/>
-    <mergeCell ref="BZ144:CC144"/>
-    <mergeCell ref="BZ63:CC63"/>
-    <mergeCell ref="BZ90:CC90"/>
-    <mergeCell ref="BZ36:CC36"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="BR36:BU36"/>
-    <mergeCell ref="BV36:BY36"/>
-    <mergeCell ref="BF63:BI63"/>
-    <mergeCell ref="EH291:EK291"/>
-    <mergeCell ref="EL291:EO291"/>
-    <mergeCell ref="EP291:ES291"/>
-    <mergeCell ref="CX267:DA267"/>
-    <mergeCell ref="DB267:DE267"/>
-    <mergeCell ref="BZ267:CC267"/>
-    <mergeCell ref="CD267:CG267"/>
-    <mergeCell ref="CH267:CK267"/>
-    <mergeCell ref="CL267:CO267"/>
-    <mergeCell ref="CP267:CS267"/>
-    <mergeCell ref="CD291:CG291"/>
-    <mergeCell ref="CH291:CK291"/>
-    <mergeCell ref="CL291:CO291"/>
-    <mergeCell ref="CP291:CS291"/>
-    <mergeCell ref="CT291:CW291"/>
-    <mergeCell ref="CX291:DA291"/>
-    <mergeCell ref="DB291:DE291"/>
-    <mergeCell ref="BJ63:BM63"/>
-    <mergeCell ref="BN63:BQ63"/>
-    <mergeCell ref="BR63:BU63"/>
-    <mergeCell ref="BV63:BY63"/>
-    <mergeCell ref="AX63:BA63"/>
-    <mergeCell ref="BB63:BE63"/>
-    <mergeCell ref="BR90:BU90"/>
-    <mergeCell ref="BV90:BY90"/>
-    <mergeCell ref="AX90:BA90"/>
-    <mergeCell ref="BB90:BE90"/>
-    <mergeCell ref="BF90:BI90"/>
-    <mergeCell ref="BJ90:BM90"/>
-    <mergeCell ref="BN90:BQ90"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="BJ36:BM36"/>
-    <mergeCell ref="BN36:BQ36"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="R36:U36"/>
-    <mergeCell ref="V36:Y36"/>
-    <mergeCell ref="Z36:AC36"/>
-    <mergeCell ref="AD36:AG36"/>
-    <mergeCell ref="AH36:AK36"/>
-    <mergeCell ref="AL36:AO36"/>
-    <mergeCell ref="AP36:AS36"/>
-    <mergeCell ref="AT36:AW36"/>
-    <mergeCell ref="AX36:BA36"/>
-    <mergeCell ref="BB36:BE36"/>
-    <mergeCell ref="BF36:BI36"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="J90:M90"/>
-    <mergeCell ref="N90:Q90"/>
-    <mergeCell ref="R90:U90"/>
-    <mergeCell ref="AH63:AK63"/>
-    <mergeCell ref="AL63:AO63"/>
-    <mergeCell ref="AP63:AS63"/>
-    <mergeCell ref="AT63:AW63"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="N63:Q63"/>
-    <mergeCell ref="R63:U63"/>
-    <mergeCell ref="V63:Y63"/>
-    <mergeCell ref="Z63:AC63"/>
-    <mergeCell ref="AD63:AG63"/>
-    <mergeCell ref="AT90:AW90"/>
-    <mergeCell ref="V90:Y90"/>
-    <mergeCell ref="Z90:AC90"/>
-    <mergeCell ref="AD90:AG90"/>
-    <mergeCell ref="AH90:AK90"/>
-    <mergeCell ref="AL90:AO90"/>
-    <mergeCell ref="AP90:AS90"/>
-    <mergeCell ref="B117:E117"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="J117:M117"/>
-    <mergeCell ref="N117:Q117"/>
-    <mergeCell ref="R117:U117"/>
-    <mergeCell ref="BR117:BU117"/>
-    <mergeCell ref="BV117:BY117"/>
-    <mergeCell ref="AX117:BA117"/>
-    <mergeCell ref="BB117:BE117"/>
-    <mergeCell ref="BF117:BI117"/>
-    <mergeCell ref="BJ117:BM117"/>
-    <mergeCell ref="BN117:BQ117"/>
-    <mergeCell ref="F144:I144"/>
-    <mergeCell ref="J144:M144"/>
-    <mergeCell ref="N144:Q144"/>
-    <mergeCell ref="R144:U144"/>
-    <mergeCell ref="V144:Y144"/>
-    <mergeCell ref="Z144:AC144"/>
-    <mergeCell ref="AD144:AG144"/>
-    <mergeCell ref="AT117:AW117"/>
-    <mergeCell ref="V117:Y117"/>
-    <mergeCell ref="Z117:AC117"/>
-    <mergeCell ref="AD117:AG117"/>
-    <mergeCell ref="AH117:AK117"/>
-    <mergeCell ref="AL117:AO117"/>
-    <mergeCell ref="AP117:AS117"/>
-    <mergeCell ref="BF144:BI144"/>
-    <mergeCell ref="BJ144:BM144"/>
-    <mergeCell ref="BN144:BQ144"/>
-    <mergeCell ref="BR144:BU144"/>
-    <mergeCell ref="BV144:BY144"/>
-    <mergeCell ref="B171:E171"/>
-    <mergeCell ref="F171:I171"/>
-    <mergeCell ref="J171:M171"/>
-    <mergeCell ref="N171:Q171"/>
-    <mergeCell ref="R171:U171"/>
-    <mergeCell ref="AH144:AK144"/>
-    <mergeCell ref="AL144:AO144"/>
-    <mergeCell ref="AP144:AS144"/>
-    <mergeCell ref="AT144:AW144"/>
-    <mergeCell ref="AX144:BA144"/>
-    <mergeCell ref="BB144:BE144"/>
-    <mergeCell ref="BR171:BU171"/>
-    <mergeCell ref="BV171:BY171"/>
-    <mergeCell ref="AX171:BA171"/>
-    <mergeCell ref="BB171:BE171"/>
-    <mergeCell ref="BF171:BI171"/>
-    <mergeCell ref="BJ171:BM171"/>
-    <mergeCell ref="BN171:BQ171"/>
-    <mergeCell ref="B144:E144"/>
-    <mergeCell ref="F195:I195"/>
-    <mergeCell ref="J195:M195"/>
-    <mergeCell ref="N195:Q195"/>
-    <mergeCell ref="R195:U195"/>
-    <mergeCell ref="V195:Y195"/>
-    <mergeCell ref="Z195:AC195"/>
-    <mergeCell ref="AD195:AG195"/>
-    <mergeCell ref="AT171:AW171"/>
-    <mergeCell ref="V171:Y171"/>
-    <mergeCell ref="Z171:AC171"/>
-    <mergeCell ref="AD171:AG171"/>
-    <mergeCell ref="AH171:AK171"/>
-    <mergeCell ref="AL171:AO171"/>
-    <mergeCell ref="AP171:AS171"/>
-    <mergeCell ref="BF195:BI195"/>
-    <mergeCell ref="BJ195:BM195"/>
-    <mergeCell ref="BN195:BQ195"/>
-    <mergeCell ref="BR195:BU195"/>
-    <mergeCell ref="BV195:BY195"/>
-    <mergeCell ref="B219:E219"/>
-    <mergeCell ref="F219:I219"/>
-    <mergeCell ref="J219:M219"/>
-    <mergeCell ref="N219:Q219"/>
-    <mergeCell ref="R219:U219"/>
-    <mergeCell ref="AH195:AK195"/>
-    <mergeCell ref="AL195:AO195"/>
-    <mergeCell ref="AP195:AS195"/>
-    <mergeCell ref="AT195:AW195"/>
-    <mergeCell ref="AX195:BA195"/>
-    <mergeCell ref="BB195:BE195"/>
-    <mergeCell ref="BR219:BU219"/>
-    <mergeCell ref="BV219:BY219"/>
-    <mergeCell ref="AX219:BA219"/>
-    <mergeCell ref="BB219:BE219"/>
-    <mergeCell ref="BF219:BI219"/>
-    <mergeCell ref="BJ219:BM219"/>
-    <mergeCell ref="BN219:BQ219"/>
-    <mergeCell ref="B195:E195"/>
-    <mergeCell ref="F243:I243"/>
-    <mergeCell ref="J243:M243"/>
-    <mergeCell ref="N243:Q243"/>
-    <mergeCell ref="R243:U243"/>
-    <mergeCell ref="V243:Y243"/>
-    <mergeCell ref="Z243:AC243"/>
-    <mergeCell ref="AD243:AG243"/>
-    <mergeCell ref="AT219:AW219"/>
-    <mergeCell ref="V219:Y219"/>
-    <mergeCell ref="Z219:AC219"/>
-    <mergeCell ref="AD219:AG219"/>
-    <mergeCell ref="AH219:AK219"/>
-    <mergeCell ref="AL219:AO219"/>
-    <mergeCell ref="AP219:AS219"/>
-    <mergeCell ref="BF243:BI243"/>
-    <mergeCell ref="BJ243:BM243"/>
-    <mergeCell ref="BN243:BQ243"/>
-    <mergeCell ref="BR243:BU243"/>
-    <mergeCell ref="BV243:BY243"/>
-    <mergeCell ref="AH243:AK243"/>
-    <mergeCell ref="AL243:AO243"/>
-    <mergeCell ref="AP243:AS243"/>
-    <mergeCell ref="AT243:AW243"/>
-    <mergeCell ref="AX243:BA243"/>
-    <mergeCell ref="BB243:BE243"/>
-    <mergeCell ref="BV267:BY267"/>
-    <mergeCell ref="B291:E291"/>
-    <mergeCell ref="F291:I291"/>
-    <mergeCell ref="J291:M291"/>
-    <mergeCell ref="N291:Q291"/>
-    <mergeCell ref="R291:U291"/>
-    <mergeCell ref="AH267:AK267"/>
-    <mergeCell ref="AL267:AO267"/>
-    <mergeCell ref="AP267:AS267"/>
-    <mergeCell ref="AT267:AW267"/>
-    <mergeCell ref="AX267:BA267"/>
-    <mergeCell ref="BB267:BE267"/>
-    <mergeCell ref="BR291:BU291"/>
-    <mergeCell ref="BV291:BY291"/>
-    <mergeCell ref="AT291:AW291"/>
-    <mergeCell ref="AX291:BA291"/>
-    <mergeCell ref="BB291:BE291"/>
-    <mergeCell ref="EX219:EZ219"/>
-    <mergeCell ref="EX243:EZ243"/>
-    <mergeCell ref="BF291:BI291"/>
-    <mergeCell ref="BJ291:BM291"/>
-    <mergeCell ref="BN291:BQ291"/>
-    <mergeCell ref="B267:E267"/>
-    <mergeCell ref="F267:I267"/>
-    <mergeCell ref="J267:M267"/>
-    <mergeCell ref="V291:Y291"/>
-    <mergeCell ref="Z291:AC291"/>
-    <mergeCell ref="AD291:AG291"/>
-    <mergeCell ref="AH291:AK291"/>
-    <mergeCell ref="AL291:AO291"/>
-    <mergeCell ref="AP291:AS291"/>
-    <mergeCell ref="BF267:BI267"/>
-    <mergeCell ref="BJ267:BM267"/>
-    <mergeCell ref="BN267:BQ267"/>
-    <mergeCell ref="B243:E243"/>
-    <mergeCell ref="N267:Q267"/>
-    <mergeCell ref="R267:U267"/>
-    <mergeCell ref="V267:Y267"/>
-    <mergeCell ref="Z267:AC267"/>
-    <mergeCell ref="AD267:AG267"/>
-    <mergeCell ref="BR267:BU267"/>
-    <mergeCell ref="EX63:FA63"/>
-    <mergeCell ref="EX90:FA90"/>
-    <mergeCell ref="FB117:FD117"/>
-    <mergeCell ref="FB144:FD144"/>
-    <mergeCell ref="FB171:FD171"/>
-    <mergeCell ref="FB195:FD195"/>
-    <mergeCell ref="EX195:FA195"/>
-    <mergeCell ref="EX36:FA36"/>
-    <mergeCell ref="FF9:FI9"/>
-    <mergeCell ref="FF36:FI36"/>
-    <mergeCell ref="FB63:FE63"/>
-    <mergeCell ref="FB90:FE90"/>
-    <mergeCell ref="FF117:FI117"/>
-    <mergeCell ref="FF144:FI144"/>
-    <mergeCell ref="FF171:FI171"/>
-    <mergeCell ref="FF195:FI195"/>
-    <mergeCell ref="FB9:FE9"/>
-    <mergeCell ref="FF63:FI63"/>
-    <mergeCell ref="FF90:FI90"/>
-    <mergeCell ref="FJ9:FM9"/>
-    <mergeCell ref="FJ36:FM36"/>
-    <mergeCell ref="FJ117:FM117"/>
-    <mergeCell ref="FJ144:FM144"/>
-    <mergeCell ref="FJ171:FM171"/>
-    <mergeCell ref="FJ195:FM195"/>
-    <mergeCell ref="FJ267:FM267"/>
-    <mergeCell ref="FJ291:FM291"/>
-    <mergeCell ref="FF219:FI219"/>
-    <mergeCell ref="FF243:FI243"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="EX66:EY73">

--- a/Data/National Accounts/PSA-Quarter-Q1-1981-to-latest.xlsx
+++ b/Data/National Accounts/PSA-Quarter-Q1-1981-to-latest.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rice\Downloads\for dissemination\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD5F042-A6C0-4FBE-9899-9451BD361690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB635C4-1B26-462C-89DC-FBA7F09D110D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="990" yWindow="420" windowWidth="25785" windowHeight="14895" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Q1 1981 to Q1 2023" sheetId="5" r:id="rId1"/>
+    <sheet name="Q1 1981 to Q3 2023" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="AFF_Cons">#REF!</definedName>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2352" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="84">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -341,28 +341,29 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 1982 to Q1 2023</t>
-  </si>
-  <si>
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of August 2023</t>
+    <t>As of November 2023</t>
   </si>
   <si>
-    <t>Q1 1981 to Q2 2023</t>
+    <t>Q1 1981 to Q3 2023</t>
+  </si>
+  <si>
+    <t>Q1 1982 to Q3 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="#,##0;\-#,##0;\-;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -436,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -487,6 +488,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,7 +508,105 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -791,11 +902,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FO313"/>
+  <dimension ref="A1:FQ313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="FD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FO298" sqref="FO298"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="FK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="FP145" sqref="FP145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -879,306 +990,310 @@
     <col min="162" max="162" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="163" max="164" width="15.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="165" max="165" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="166" max="171" width="15" style="2" customWidth="1"/>
-    <col min="172" max="16384" width="9.28515625" style="2"/>
+    <col min="166" max="172" width="15" style="2" customWidth="1"/>
+    <col min="173" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
+      <c r="FN8" s="9"/>
+      <c r="FO8" s="9"/>
+      <c r="FP8" s="9"/>
     </row>
-    <row r="9" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="26">
+      <c r="B9" s="30">
         <v>1981</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30">
         <v>1982</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26">
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30">
         <v>1983</v>
       </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26">
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30">
         <v>1984</v>
       </c>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26">
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30">
         <v>1985</v>
       </c>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26">
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30">
         <v>1986</v>
       </c>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26">
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30">
         <v>1987</v>
       </c>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26">
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30">
         <v>1988</v>
       </c>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="26">
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30">
         <v>1989</v>
       </c>
-      <c r="AI9" s="26"/>
-      <c r="AJ9" s="26"/>
-      <c r="AK9" s="26"/>
-      <c r="AL9" s="26">
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30">
         <v>1990</v>
       </c>
-      <c r="AM9" s="26"/>
-      <c r="AN9" s="26"/>
-      <c r="AO9" s="26"/>
-      <c r="AP9" s="26">
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="30">
         <v>1991</v>
       </c>
-      <c r="AQ9" s="26"/>
-      <c r="AR9" s="26"/>
-      <c r="AS9" s="26"/>
-      <c r="AT9" s="26">
+      <c r="AQ9" s="30"/>
+      <c r="AR9" s="30"/>
+      <c r="AS9" s="30"/>
+      <c r="AT9" s="30">
         <v>1992</v>
       </c>
-      <c r="AU9" s="26"/>
-      <c r="AV9" s="26"/>
-      <c r="AW9" s="26"/>
-      <c r="AX9" s="26">
+      <c r="AU9" s="30"/>
+      <c r="AV9" s="30"/>
+      <c r="AW9" s="30"/>
+      <c r="AX9" s="30">
         <v>1993</v>
       </c>
-      <c r="AY9" s="26"/>
-      <c r="AZ9" s="26"/>
-      <c r="BA9" s="26"/>
-      <c r="BB9" s="26">
+      <c r="AY9" s="30"/>
+      <c r="AZ9" s="30"/>
+      <c r="BA9" s="30"/>
+      <c r="BB9" s="30">
         <v>1994</v>
       </c>
-      <c r="BC9" s="26"/>
-      <c r="BD9" s="26"/>
-      <c r="BE9" s="26"/>
-      <c r="BF9" s="26">
+      <c r="BC9" s="30"/>
+      <c r="BD9" s="30"/>
+      <c r="BE9" s="30"/>
+      <c r="BF9" s="30">
         <v>1995</v>
       </c>
-      <c r="BG9" s="26"/>
-      <c r="BH9" s="26"/>
-      <c r="BI9" s="26"/>
-      <c r="BJ9" s="26">
+      <c r="BG9" s="30"/>
+      <c r="BH9" s="30"/>
+      <c r="BI9" s="30"/>
+      <c r="BJ9" s="30">
         <v>1996</v>
       </c>
-      <c r="BK9" s="26"/>
-      <c r="BL9" s="26"/>
-      <c r="BM9" s="26"/>
-      <c r="BN9" s="26">
+      <c r="BK9" s="30"/>
+      <c r="BL9" s="30"/>
+      <c r="BM9" s="30"/>
+      <c r="BN9" s="30">
         <v>1997</v>
       </c>
-      <c r="BO9" s="26"/>
-      <c r="BP9" s="26"/>
-      <c r="BQ9" s="26"/>
-      <c r="BR9" s="26">
+      <c r="BO9" s="30"/>
+      <c r="BP9" s="30"/>
+      <c r="BQ9" s="30"/>
+      <c r="BR9" s="30">
         <v>1998</v>
       </c>
-      <c r="BS9" s="26"/>
-      <c r="BT9" s="26"/>
-      <c r="BU9" s="26"/>
-      <c r="BV9" s="26">
+      <c r="BS9" s="30"/>
+      <c r="BT9" s="30"/>
+      <c r="BU9" s="30"/>
+      <c r="BV9" s="30">
         <v>1999</v>
       </c>
-      <c r="BW9" s="26"/>
-      <c r="BX9" s="26"/>
-      <c r="BY9" s="26"/>
-      <c r="BZ9" s="26">
+      <c r="BW9" s="30"/>
+      <c r="BX9" s="30"/>
+      <c r="BY9" s="30"/>
+      <c r="BZ9" s="30">
         <v>2000</v>
       </c>
-      <c r="CA9" s="26"/>
-      <c r="CB9" s="26"/>
-      <c r="CC9" s="26"/>
-      <c r="CD9" s="26">
+      <c r="CA9" s="30"/>
+      <c r="CB9" s="30"/>
+      <c r="CC9" s="30"/>
+      <c r="CD9" s="30">
         <v>2001</v>
       </c>
-      <c r="CE9" s="26"/>
-      <c r="CF9" s="26"/>
-      <c r="CG9" s="26"/>
-      <c r="CH9" s="26">
+      <c r="CE9" s="30"/>
+      <c r="CF9" s="30"/>
+      <c r="CG9" s="30"/>
+      <c r="CH9" s="30">
         <v>2002</v>
       </c>
-      <c r="CI9" s="26"/>
-      <c r="CJ9" s="26"/>
-      <c r="CK9" s="26"/>
-      <c r="CL9" s="26">
+      <c r="CI9" s="30"/>
+      <c r="CJ9" s="30"/>
+      <c r="CK9" s="30"/>
+      <c r="CL9" s="30">
         <v>2003</v>
       </c>
-      <c r="CM9" s="26"/>
-      <c r="CN9" s="26"/>
-      <c r="CO9" s="26"/>
-      <c r="CP9" s="26">
+      <c r="CM9" s="30"/>
+      <c r="CN9" s="30"/>
+      <c r="CO9" s="30"/>
+      <c r="CP9" s="30">
         <v>2004</v>
       </c>
-      <c r="CQ9" s="26"/>
-      <c r="CR9" s="26"/>
-      <c r="CS9" s="26"/>
-      <c r="CT9" s="26">
+      <c r="CQ9" s="30"/>
+      <c r="CR9" s="30"/>
+      <c r="CS9" s="30"/>
+      <c r="CT9" s="30">
         <v>2005</v>
       </c>
-      <c r="CU9" s="26"/>
-      <c r="CV9" s="26"/>
-      <c r="CW9" s="26"/>
-      <c r="CX9" s="26">
+      <c r="CU9" s="30"/>
+      <c r="CV9" s="30"/>
+      <c r="CW9" s="30"/>
+      <c r="CX9" s="30">
         <v>2006</v>
       </c>
-      <c r="CY9" s="26"/>
-      <c r="CZ9" s="26"/>
-      <c r="DA9" s="26"/>
-      <c r="DB9" s="26">
+      <c r="CY9" s="30"/>
+      <c r="CZ9" s="30"/>
+      <c r="DA9" s="30"/>
+      <c r="DB9" s="30">
         <v>2007</v>
       </c>
-      <c r="DC9" s="26"/>
-      <c r="DD9" s="26"/>
-      <c r="DE9" s="26"/>
-      <c r="DF9" s="26">
+      <c r="DC9" s="30"/>
+      <c r="DD9" s="30"/>
+      <c r="DE9" s="30"/>
+      <c r="DF9" s="30">
         <v>2008</v>
       </c>
-      <c r="DG9" s="26"/>
-      <c r="DH9" s="26"/>
-      <c r="DI9" s="26"/>
-      <c r="DJ9" s="26">
+      <c r="DG9" s="30"/>
+      <c r="DH9" s="30"/>
+      <c r="DI9" s="30"/>
+      <c r="DJ9" s="30">
         <v>2009</v>
       </c>
-      <c r="DK9" s="26"/>
-      <c r="DL9" s="26"/>
-      <c r="DM9" s="26"/>
-      <c r="DN9" s="26">
+      <c r="DK9" s="30"/>
+      <c r="DL9" s="30"/>
+      <c r="DM9" s="30"/>
+      <c r="DN9" s="30">
         <v>2010</v>
       </c>
-      <c r="DO9" s="26"/>
-      <c r="DP9" s="26"/>
-      <c r="DQ9" s="26"/>
-      <c r="DR9" s="26">
+      <c r="DO9" s="30"/>
+      <c r="DP9" s="30"/>
+      <c r="DQ9" s="30"/>
+      <c r="DR9" s="30">
         <v>2011</v>
       </c>
-      <c r="DS9" s="26"/>
-      <c r="DT9" s="26"/>
-      <c r="DU9" s="26"/>
-      <c r="DV9" s="26">
+      <c r="DS9" s="30"/>
+      <c r="DT9" s="30"/>
+      <c r="DU9" s="30"/>
+      <c r="DV9" s="30">
         <v>2012</v>
       </c>
-      <c r="DW9" s="26"/>
-      <c r="DX9" s="26"/>
-      <c r="DY9" s="26"/>
-      <c r="DZ9" s="26">
+      <c r="DW9" s="30"/>
+      <c r="DX9" s="30"/>
+      <c r="DY9" s="30"/>
+      <c r="DZ9" s="30">
         <v>2013</v>
       </c>
-      <c r="EA9" s="26"/>
-      <c r="EB9" s="26"/>
-      <c r="EC9" s="26"/>
-      <c r="ED9" s="26">
+      <c r="EA9" s="30"/>
+      <c r="EB9" s="30"/>
+      <c r="EC9" s="30"/>
+      <c r="ED9" s="30">
         <v>2014</v>
       </c>
-      <c r="EE9" s="26"/>
-      <c r="EF9" s="26"/>
-      <c r="EG9" s="26"/>
-      <c r="EH9" s="26">
+      <c r="EE9" s="30"/>
+      <c r="EF9" s="30"/>
+      <c r="EG9" s="30"/>
+      <c r="EH9" s="30">
         <v>2015</v>
       </c>
-      <c r="EI9" s="26"/>
-      <c r="EJ9" s="26"/>
-      <c r="EK9" s="26"/>
-      <c r="EL9" s="26">
+      <c r="EI9" s="30"/>
+      <c r="EJ9" s="30"/>
+      <c r="EK9" s="30"/>
+      <c r="EL9" s="30">
         <v>2016</v>
       </c>
-      <c r="EM9" s="26"/>
-      <c r="EN9" s="26"/>
-      <c r="EO9" s="26"/>
-      <c r="EP9" s="26">
+      <c r="EM9" s="30"/>
+      <c r="EN9" s="30"/>
+      <c r="EO9" s="30"/>
+      <c r="EP9" s="30">
         <v>2017</v>
       </c>
-      <c r="EQ9" s="26"/>
-      <c r="ER9" s="26"/>
-      <c r="ES9" s="26"/>
-      <c r="ET9" s="26">
+      <c r="EQ9" s="30"/>
+      <c r="ER9" s="30"/>
+      <c r="ES9" s="30"/>
+      <c r="ET9" s="30">
         <v>2018</v>
       </c>
-      <c r="EU9" s="26"/>
-      <c r="EV9" s="26"/>
-      <c r="EW9" s="26"/>
-      <c r="EX9" s="26">
+      <c r="EU9" s="30"/>
+      <c r="EV9" s="30"/>
+      <c r="EW9" s="30"/>
+      <c r="EX9" s="30">
         <v>2019</v>
       </c>
-      <c r="EY9" s="26"/>
-      <c r="EZ9" s="26"/>
-      <c r="FA9" s="26"/>
-      <c r="FB9" s="26">
+      <c r="EY9" s="30"/>
+      <c r="EZ9" s="30"/>
+      <c r="FA9" s="30"/>
+      <c r="FB9" s="30">
         <v>2020</v>
       </c>
-      <c r="FC9" s="26"/>
-      <c r="FD9" s="26"/>
-      <c r="FE9" s="26"/>
-      <c r="FF9" s="26">
+      <c r="FC9" s="30"/>
+      <c r="FD9" s="30"/>
+      <c r="FE9" s="30"/>
+      <c r="FF9" s="30">
         <v>2021</v>
       </c>
-      <c r="FG9" s="26"/>
-      <c r="FH9" s="26"/>
-      <c r="FI9" s="26"/>
-      <c r="FJ9" s="26">
+      <c r="FG9" s="30"/>
+      <c r="FH9" s="30"/>
+      <c r="FI9" s="30"/>
+      <c r="FJ9" s="30">
         <v>2022</v>
       </c>
-      <c r="FK9" s="26"/>
-      <c r="FL9" s="26"/>
-      <c r="FM9" s="26"/>
-      <c r="FN9" s="26">
+      <c r="FK9" s="30"/>
+      <c r="FL9" s="30"/>
+      <c r="FM9" s="30"/>
+      <c r="FN9" s="29">
         <v>2023</v>
       </c>
-      <c r="FO9" s="26"/>
+      <c r="FO9" s="29"/>
+      <c r="FP9" s="29"/>
     </row>
-    <row r="10" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1692,11 +1807,14 @@
       <c r="FO10" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="FP10" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="11" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:172" x14ac:dyDescent="0.2">
       <c r="FB11" s="2"/>
     </row>
-    <row r="12" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -2207,11 +2325,14 @@
       <c r="FN12" s="7">
         <v>4419477.8037074124</v>
       </c>
-      <c r="FO12" s="7">
-        <v>4326169.4092836166</v>
+      <c r="FO12" s="27">
+        <v>4327166.7867095843</v>
+      </c>
+      <c r="FP12" s="27">
+        <v>4531144.7420702763</v>
       </c>
     </row>
-    <row r="13" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -2722,11 +2843,14 @@
       <c r="FN13" s="7">
         <v>757695.0732526622</v>
       </c>
-      <c r="FO13" s="7">
+      <c r="FO13" s="27">
         <v>916235.10787620337</v>
       </c>
+      <c r="FP13" s="27">
+        <v>870711.42696436576</v>
+      </c>
     </row>
-    <row r="14" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -3237,11 +3361,14 @@
       <c r="FN14" s="7">
         <v>1333144.2336738438</v>
       </c>
-      <c r="FO14" s="7">
-        <v>1548725.4487805215</v>
+      <c r="FO14" s="27">
+        <v>1554447.8581496018</v>
+      </c>
+      <c r="FP14" s="27">
+        <v>1269409.1748115048</v>
       </c>
     </row>
-    <row r="15" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -3752,11 +3879,14 @@
       <c r="FN15" s="7">
         <v>1558531.2475780006</v>
       </c>
-      <c r="FO15" s="7">
-        <v>1515804.1589589324</v>
+      <c r="FO15" s="27">
+        <v>1520507.5453396603</v>
+      </c>
+      <c r="FP15" s="27">
+        <v>1737962.9322753754</v>
       </c>
     </row>
-    <row r="16" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -4267,11 +4397,14 @@
       <c r="FN16" s="7">
         <v>2429472.659951176</v>
       </c>
-      <c r="FO16" s="7">
-        <v>2426799.4573579947</v>
+      <c r="FO16" s="27">
+        <v>2422504.4438815913</v>
+      </c>
+      <c r="FP16" s="27">
+        <v>2624152.376408427</v>
       </c>
     </row>
-    <row r="17" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -4782,11 +4915,14 @@
       <c r="FN17" s="7">
         <v>-38472.471465931274</v>
       </c>
-      <c r="FO17" s="7">
-        <v>5441.8995294682682</v>
+      <c r="FO17" s="27">
+        <v>-8450.7875785529595</v>
+      </c>
+      <c r="FP17" s="27">
+        <v>-39361.366005143151</v>
       </c>
     </row>
-    <row r="18" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4957,8 +5093,9 @@
       <c r="FM18" s="7"/>
       <c r="FN18" s="7"/>
       <c r="FO18" s="7"/>
+      <c r="FP18" s="7"/>
     </row>
-    <row r="19" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>10</v>
       </c>
@@ -5469,11 +5606,14 @@
       <c r="FN19" s="7">
         <v>5600903.2267948119</v>
       </c>
-      <c r="FO19" s="7">
-        <v>5885576.5670707468</v>
+      <c r="FO19" s="27">
+        <v>5887402.0666149054</v>
+      </c>
+      <c r="FP19" s="27">
+        <v>5745714.5337079531</v>
       </c>
     </row>
-    <row r="20" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:172" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -5631,7 +5771,7 @@
       <c r="EZ20" s="7"/>
       <c r="FA20" s="7"/>
     </row>
-    <row r="21" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:172" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -5789,7 +5929,7 @@
       <c r="EZ21" s="7"/>
       <c r="FA21" s="7"/>
     </row>
-    <row r="22" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:172" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -5947,7 +6087,7 @@
       <c r="EZ22" s="7"/>
       <c r="FA22" s="7"/>
     </row>
-    <row r="23" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:172" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -6105,7 +6245,7 @@
       <c r="EZ23" s="7"/>
       <c r="FA23" s="7"/>
     </row>
-    <row r="24" spans="1:171" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:172" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -6277,309 +6417,314 @@
       <c r="FM24" s="9"/>
       <c r="FN24" s="9"/>
       <c r="FO24" s="9"/>
+      <c r="FP24" s="9"/>
     </row>
-    <row r="25" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="BY25" s="10"/>
     </row>
-    <row r="28" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
+      <c r="FN35" s="9"/>
+      <c r="FO35" s="9"/>
+      <c r="FP35" s="9"/>
     </row>
-    <row r="36" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="26">
+      <c r="B36" s="30">
         <v>1981</v>
       </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30">
         <v>1982</v>
       </c>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26">
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30">
         <v>1983</v>
       </c>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26">
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30">
         <v>1984</v>
       </c>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26">
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30">
         <v>1985</v>
       </c>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="26">
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="30"/>
+      <c r="V36" s="30">
         <v>1986</v>
       </c>
-      <c r="W36" s="26"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="26"/>
-      <c r="Z36" s="26">
+      <c r="W36" s="30"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="30">
         <v>1987</v>
       </c>
-      <c r="AA36" s="26"/>
-      <c r="AB36" s="26"/>
-      <c r="AC36" s="26"/>
-      <c r="AD36" s="26">
+      <c r="AA36" s="30"/>
+      <c r="AB36" s="30"/>
+      <c r="AC36" s="30"/>
+      <c r="AD36" s="30">
         <v>1988</v>
       </c>
-      <c r="AE36" s="26"/>
-      <c r="AF36" s="26"/>
-      <c r="AG36" s="26"/>
-      <c r="AH36" s="26">
+      <c r="AE36" s="30"/>
+      <c r="AF36" s="30"/>
+      <c r="AG36" s="30"/>
+      <c r="AH36" s="30">
         <v>1989</v>
       </c>
-      <c r="AI36" s="26"/>
-      <c r="AJ36" s="26"/>
-      <c r="AK36" s="26"/>
-      <c r="AL36" s="26">
+      <c r="AI36" s="30"/>
+      <c r="AJ36" s="30"/>
+      <c r="AK36" s="30"/>
+      <c r="AL36" s="30">
         <v>1990</v>
       </c>
-      <c r="AM36" s="26"/>
-      <c r="AN36" s="26"/>
-      <c r="AO36" s="26"/>
-      <c r="AP36" s="26">
+      <c r="AM36" s="30"/>
+      <c r="AN36" s="30"/>
+      <c r="AO36" s="30"/>
+      <c r="AP36" s="30">
         <v>1991</v>
       </c>
-      <c r="AQ36" s="26"/>
-      <c r="AR36" s="26"/>
-      <c r="AS36" s="26"/>
-      <c r="AT36" s="26">
+      <c r="AQ36" s="30"/>
+      <c r="AR36" s="30"/>
+      <c r="AS36" s="30"/>
+      <c r="AT36" s="30">
         <v>1992</v>
       </c>
-      <c r="AU36" s="26"/>
-      <c r="AV36" s="26"/>
-      <c r="AW36" s="26"/>
-      <c r="AX36" s="26">
+      <c r="AU36" s="30"/>
+      <c r="AV36" s="30"/>
+      <c r="AW36" s="30"/>
+      <c r="AX36" s="30">
         <v>1993</v>
       </c>
-      <c r="AY36" s="26"/>
-      <c r="AZ36" s="26"/>
-      <c r="BA36" s="26"/>
-      <c r="BB36" s="26">
+      <c r="AY36" s="30"/>
+      <c r="AZ36" s="30"/>
+      <c r="BA36" s="30"/>
+      <c r="BB36" s="30">
         <v>1994</v>
       </c>
-      <c r="BC36" s="26"/>
-      <c r="BD36" s="26"/>
-      <c r="BE36" s="26"/>
-      <c r="BF36" s="26">
+      <c r="BC36" s="30"/>
+      <c r="BD36" s="30"/>
+      <c r="BE36" s="30"/>
+      <c r="BF36" s="30">
         <v>1995</v>
       </c>
-      <c r="BG36" s="26"/>
-      <c r="BH36" s="26"/>
-      <c r="BI36" s="26"/>
-      <c r="BJ36" s="26">
+      <c r="BG36" s="30"/>
+      <c r="BH36" s="30"/>
+      <c r="BI36" s="30"/>
+      <c r="BJ36" s="30">
         <v>1996</v>
       </c>
-      <c r="BK36" s="26"/>
-      <c r="BL36" s="26"/>
-      <c r="BM36" s="26"/>
-      <c r="BN36" s="26">
+      <c r="BK36" s="30"/>
+      <c r="BL36" s="30"/>
+      <c r="BM36" s="30"/>
+      <c r="BN36" s="30">
         <v>1997</v>
       </c>
-      <c r="BO36" s="26"/>
-      <c r="BP36" s="26"/>
-      <c r="BQ36" s="26"/>
-      <c r="BR36" s="26">
+      <c r="BO36" s="30"/>
+      <c r="BP36" s="30"/>
+      <c r="BQ36" s="30"/>
+      <c r="BR36" s="30">
         <v>1998</v>
       </c>
-      <c r="BS36" s="26"/>
-      <c r="BT36" s="26"/>
-      <c r="BU36" s="26"/>
-      <c r="BV36" s="26">
+      <c r="BS36" s="30"/>
+      <c r="BT36" s="30"/>
+      <c r="BU36" s="30"/>
+      <c r="BV36" s="30">
         <v>1999</v>
       </c>
-      <c r="BW36" s="26"/>
-      <c r="BX36" s="26"/>
-      <c r="BY36" s="26"/>
-      <c r="BZ36" s="26">
+      <c r="BW36" s="30"/>
+      <c r="BX36" s="30"/>
+      <c r="BY36" s="30"/>
+      <c r="BZ36" s="30">
         <v>2000</v>
       </c>
-      <c r="CA36" s="26"/>
-      <c r="CB36" s="26"/>
-      <c r="CC36" s="26"/>
-      <c r="CD36" s="26">
+      <c r="CA36" s="30"/>
+      <c r="CB36" s="30"/>
+      <c r="CC36" s="30"/>
+      <c r="CD36" s="30">
         <v>2001</v>
       </c>
-      <c r="CE36" s="26"/>
-      <c r="CF36" s="26"/>
-      <c r="CG36" s="26"/>
-      <c r="CH36" s="26">
+      <c r="CE36" s="30"/>
+      <c r="CF36" s="30"/>
+      <c r="CG36" s="30"/>
+      <c r="CH36" s="30">
         <v>2002</v>
       </c>
-      <c r="CI36" s="26"/>
-      <c r="CJ36" s="26"/>
-      <c r="CK36" s="26"/>
-      <c r="CL36" s="26">
+      <c r="CI36" s="30"/>
+      <c r="CJ36" s="30"/>
+      <c r="CK36" s="30"/>
+      <c r="CL36" s="30">
         <v>2003</v>
       </c>
-      <c r="CM36" s="26"/>
-      <c r="CN36" s="26"/>
-      <c r="CO36" s="26"/>
-      <c r="CP36" s="26">
+      <c r="CM36" s="30"/>
+      <c r="CN36" s="30"/>
+      <c r="CO36" s="30"/>
+      <c r="CP36" s="30">
         <v>2004</v>
       </c>
-      <c r="CQ36" s="26"/>
-      <c r="CR36" s="26"/>
-      <c r="CS36" s="26"/>
-      <c r="CT36" s="26">
+      <c r="CQ36" s="30"/>
+      <c r="CR36" s="30"/>
+      <c r="CS36" s="30"/>
+      <c r="CT36" s="30">
         <v>2005</v>
       </c>
-      <c r="CU36" s="26"/>
-      <c r="CV36" s="26"/>
-      <c r="CW36" s="26"/>
-      <c r="CX36" s="26">
+      <c r="CU36" s="30"/>
+      <c r="CV36" s="30"/>
+      <c r="CW36" s="30"/>
+      <c r="CX36" s="30">
         <v>2006</v>
       </c>
-      <c r="CY36" s="26"/>
-      <c r="CZ36" s="26"/>
-      <c r="DA36" s="26"/>
-      <c r="DB36" s="26">
+      <c r="CY36" s="30"/>
+      <c r="CZ36" s="30"/>
+      <c r="DA36" s="30"/>
+      <c r="DB36" s="30">
         <v>2007</v>
       </c>
-      <c r="DC36" s="26"/>
-      <c r="DD36" s="26"/>
-      <c r="DE36" s="26"/>
-      <c r="DF36" s="26">
+      <c r="DC36" s="30"/>
+      <c r="DD36" s="30"/>
+      <c r="DE36" s="30"/>
+      <c r="DF36" s="30">
         <v>2008</v>
       </c>
-      <c r="DG36" s="26"/>
-      <c r="DH36" s="26"/>
-      <c r="DI36" s="26"/>
-      <c r="DJ36" s="26">
+      <c r="DG36" s="30"/>
+      <c r="DH36" s="30"/>
+      <c r="DI36" s="30"/>
+      <c r="DJ36" s="30">
         <v>2009</v>
       </c>
-      <c r="DK36" s="26"/>
-      <c r="DL36" s="26"/>
-      <c r="DM36" s="26"/>
-      <c r="DN36" s="26">
+      <c r="DK36" s="30"/>
+      <c r="DL36" s="30"/>
+      <c r="DM36" s="30"/>
+      <c r="DN36" s="30">
         <v>2010</v>
       </c>
-      <c r="DO36" s="26"/>
-      <c r="DP36" s="26"/>
-      <c r="DQ36" s="26"/>
-      <c r="DR36" s="26">
+      <c r="DO36" s="30"/>
+      <c r="DP36" s="30"/>
+      <c r="DQ36" s="30"/>
+      <c r="DR36" s="30">
         <v>2011</v>
       </c>
-      <c r="DS36" s="26"/>
-      <c r="DT36" s="26"/>
-      <c r="DU36" s="26"/>
-      <c r="DV36" s="26">
+      <c r="DS36" s="30"/>
+      <c r="DT36" s="30"/>
+      <c r="DU36" s="30"/>
+      <c r="DV36" s="30">
         <v>2012</v>
       </c>
-      <c r="DW36" s="26"/>
-      <c r="DX36" s="26"/>
-      <c r="DY36" s="26"/>
-      <c r="DZ36" s="26">
+      <c r="DW36" s="30"/>
+      <c r="DX36" s="30"/>
+      <c r="DY36" s="30"/>
+      <c r="DZ36" s="30">
         <v>2013</v>
       </c>
-      <c r="EA36" s="26"/>
-      <c r="EB36" s="26"/>
-      <c r="EC36" s="26"/>
-      <c r="ED36" s="26">
+      <c r="EA36" s="30"/>
+      <c r="EB36" s="30"/>
+      <c r="EC36" s="30"/>
+      <c r="ED36" s="30">
         <v>2014</v>
       </c>
-      <c r="EE36" s="26"/>
-      <c r="EF36" s="26"/>
-      <c r="EG36" s="26"/>
-      <c r="EH36" s="26">
+      <c r="EE36" s="30"/>
+      <c r="EF36" s="30"/>
+      <c r="EG36" s="30"/>
+      <c r="EH36" s="30">
         <v>2015</v>
       </c>
-      <c r="EI36" s="26"/>
-      <c r="EJ36" s="26"/>
-      <c r="EK36" s="26"/>
-      <c r="EL36" s="26">
+      <c r="EI36" s="30"/>
+      <c r="EJ36" s="30"/>
+      <c r="EK36" s="30"/>
+      <c r="EL36" s="30">
         <v>2016</v>
       </c>
-      <c r="EM36" s="26"/>
-      <c r="EN36" s="26"/>
-      <c r="EO36" s="26"/>
-      <c r="EP36" s="26">
+      <c r="EM36" s="30"/>
+      <c r="EN36" s="30"/>
+      <c r="EO36" s="30"/>
+      <c r="EP36" s="30">
         <v>2017</v>
       </c>
-      <c r="EQ36" s="26"/>
-      <c r="ER36" s="26"/>
-      <c r="ES36" s="26"/>
-      <c r="ET36" s="26">
+      <c r="EQ36" s="30"/>
+      <c r="ER36" s="30"/>
+      <c r="ES36" s="30"/>
+      <c r="ET36" s="30">
         <v>2018</v>
       </c>
-      <c r="EU36" s="26"/>
-      <c r="EV36" s="26"/>
-      <c r="EW36" s="26"/>
-      <c r="EX36" s="26">
+      <c r="EU36" s="30"/>
+      <c r="EV36" s="30"/>
+      <c r="EW36" s="30"/>
+      <c r="EX36" s="30">
         <v>2019</v>
       </c>
-      <c r="EY36" s="26"/>
-      <c r="EZ36" s="26"/>
-      <c r="FA36" s="26"/>
-      <c r="FB36" s="26">
+      <c r="EY36" s="30"/>
+      <c r="EZ36" s="30"/>
+      <c r="FA36" s="30"/>
+      <c r="FB36" s="30">
         <v>2020</v>
       </c>
-      <c r="FC36" s="26"/>
-      <c r="FD36" s="26"/>
+      <c r="FC36" s="30"/>
+      <c r="FD36" s="30"/>
       <c r="FE36" s="4"/>
-      <c r="FF36" s="26">
+      <c r="FF36" s="30">
         <v>2021</v>
       </c>
-      <c r="FG36" s="26"/>
-      <c r="FH36" s="26"/>
-      <c r="FI36" s="26"/>
-      <c r="FJ36" s="26">
+      <c r="FG36" s="30"/>
+      <c r="FH36" s="30"/>
+      <c r="FI36" s="30"/>
+      <c r="FJ36" s="30">
         <v>2022</v>
       </c>
-      <c r="FK36" s="26"/>
-      <c r="FL36" s="26"/>
-      <c r="FM36" s="26"/>
-      <c r="FN36" s="26">
+      <c r="FK36" s="30"/>
+      <c r="FL36" s="30"/>
+      <c r="FM36" s="30"/>
+      <c r="FN36" s="29">
         <v>2023</v>
       </c>
-      <c r="FO36" s="26"/>
+      <c r="FO36" s="29"/>
+      <c r="FP36" s="29"/>
     </row>
-    <row r="37" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>14</v>
       </c>
@@ -7093,11 +7238,14 @@
       <c r="FO37" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="FP37" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="38" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:172" x14ac:dyDescent="0.2">
       <c r="FB38" s="2"/>
     </row>
-    <row r="39" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>1</v>
       </c>
@@ -7608,11 +7756,14 @@
       <c r="FN39" s="7">
         <v>3694991.2989011863</v>
       </c>
-      <c r="FO39" s="7">
-        <v>3583956.0481204381</v>
+      <c r="FO39" s="27">
+        <v>3584448.8582870937</v>
+      </c>
+      <c r="FP39" s="27">
+        <v>3682450.9313545339</v>
       </c>
     </row>
-    <row r="40" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
@@ -8123,11 +8274,14 @@
       <c r="FN40" s="7">
         <v>715278.76999649883</v>
       </c>
-      <c r="FO40" s="7">
+      <c r="FO40" s="27">
         <v>838499.71569579933</v>
       </c>
+      <c r="FP40" s="27">
+        <v>745138.46225521085</v>
+      </c>
     </row>
-    <row r="41" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -8638,11 +8792,14 @@
       <c r="FN41" s="7">
         <v>1129136.2549309686</v>
       </c>
-      <c r="FO41" s="7">
-        <v>1345905.033561409</v>
+      <c r="FO41" s="27">
+        <v>1349910.9875128435</v>
+      </c>
+      <c r="FP41" s="27">
+        <v>1056561.3682577559</v>
       </c>
     </row>
-    <row r="42" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>4</v>
       </c>
@@ -9153,11 +9310,14 @@
       <c r="FN42" s="7">
         <v>1374568.45598352</v>
       </c>
-      <c r="FO42" s="7">
-        <v>1416844.837922476</v>
+      <c r="FO42" s="27">
+        <v>1421446.1554796449</v>
+      </c>
+      <c r="FP42" s="27">
+        <v>1571141.4357630904</v>
       </c>
     </row>
-    <row r="43" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>5</v>
       </c>
@@ -9668,11 +9828,14 @@
       <c r="FN43" s="7">
         <v>1989382.7128441148</v>
       </c>
-      <c r="FO43" s="7">
-        <v>2026420.0921890307</v>
+      <c r="FO43" s="27">
+        <v>2022465.8437100695</v>
+      </c>
+      <c r="FP43" s="27">
+        <v>2023099.9947561221</v>
       </c>
     </row>
-    <row r="44" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>6</v>
       </c>
@@ -10183,11 +10346,14 @@
       <c r="FN44" s="7">
         <v>-17098.883423657157</v>
       </c>
-      <c r="FO44" s="7">
-        <v>48301.263281146064</v>
+      <c r="FO44" s="27">
+        <v>35883.662818530574</v>
+      </c>
+      <c r="FP44" s="27">
+        <v>18394.850712469779</v>
       </c>
     </row>
-    <row r="45" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -10358,8 +10524,9 @@
       <c r="FM45" s="7"/>
       <c r="FN45" s="7"/>
       <c r="FO45" s="7"/>
+      <c r="FP45" s="7"/>
     </row>
-    <row r="46" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>10</v>
       </c>
@@ -10870,11 +11037,14 @@
       <c r="FN46" s="7">
         <v>4907493.183544402</v>
       </c>
-      <c r="FO46" s="7">
-        <v>5207086.8063922375</v>
+      <c r="FO46" s="27">
+        <v>5207723.5360838426</v>
+      </c>
+      <c r="FP46" s="27">
+        <v>5050587.0535869393</v>
       </c>
     </row>
-    <row r="47" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:172" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -11032,7 +11202,7 @@
       <c r="EZ47" s="7"/>
       <c r="FA47" s="7"/>
     </row>
-    <row r="48" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:172" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -11190,7 +11360,7 @@
       <c r="EZ48" s="7"/>
       <c r="FA48" s="7"/>
     </row>
-    <row r="49" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:172" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -11348,7 +11518,7 @@
       <c r="EZ49" s="7"/>
       <c r="FA49" s="7"/>
     </row>
-    <row r="50" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:172" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -11506,7 +11676,7 @@
       <c r="EZ50" s="7"/>
       <c r="FA50" s="7"/>
     </row>
-    <row r="51" spans="1:171" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:172" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -11678,45 +11848,46 @@
       <c r="FM51" s="9"/>
       <c r="FN51" s="9"/>
       <c r="FO51" s="9"/>
+      <c r="FP51" s="9"/>
     </row>
-    <row r="52" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="FB60" s="24"/>
       <c r="FC60" s="24"/>
       <c r="FD60" s="24"/>
       <c r="FE60" s="24"/>
     </row>
-    <row r="61" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>19</v>
       </c>
@@ -11725,7 +11896,7 @@
       <c r="FD61" s="24"/>
       <c r="FE61" s="24"/>
     </row>
-    <row r="62" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="FB62" s="24"/>
       <c r="FC62" s="24"/>
@@ -11734,261 +11905,263 @@
       <c r="FF62" s="24"/>
       <c r="FG62" s="24"/>
       <c r="FH62" s="24"/>
+      <c r="FL62" s="9"/>
     </row>
-    <row r="63" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26" t="s">
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26" t="s">
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="K63" s="26"/>
-      <c r="L63" s="26"/>
-      <c r="M63" s="26"/>
-      <c r="N63" s="26" t="s">
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="O63" s="26"/>
-      <c r="P63" s="26"/>
-      <c r="Q63" s="26"/>
-      <c r="R63" s="26" t="s">
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="30"/>
+      <c r="R63" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="S63" s="26"/>
-      <c r="T63" s="26"/>
-      <c r="U63" s="26"/>
-      <c r="V63" s="26" t="s">
+      <c r="S63" s="30"/>
+      <c r="T63" s="30"/>
+      <c r="U63" s="30"/>
+      <c r="V63" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="W63" s="26"/>
-      <c r="X63" s="26"/>
-      <c r="Y63" s="26"/>
-      <c r="Z63" s="26" t="s">
+      <c r="W63" s="30"/>
+      <c r="X63" s="30"/>
+      <c r="Y63" s="30"/>
+      <c r="Z63" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="AA63" s="26"/>
-      <c r="AB63" s="26"/>
-      <c r="AC63" s="26"/>
-      <c r="AD63" s="26" t="s">
+      <c r="AA63" s="30"/>
+      <c r="AB63" s="30"/>
+      <c r="AC63" s="30"/>
+      <c r="AD63" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="AE63" s="26"/>
-      <c r="AF63" s="26"/>
-      <c r="AG63" s="26"/>
-      <c r="AH63" s="26" t="s">
+      <c r="AE63" s="30"/>
+      <c r="AF63" s="30"/>
+      <c r="AG63" s="30"/>
+      <c r="AH63" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="AI63" s="26"/>
-      <c r="AJ63" s="26"/>
-      <c r="AK63" s="26"/>
-      <c r="AL63" s="26" t="s">
+      <c r="AI63" s="30"/>
+      <c r="AJ63" s="30"/>
+      <c r="AK63" s="30"/>
+      <c r="AL63" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="AM63" s="26"/>
-      <c r="AN63" s="26"/>
-      <c r="AO63" s="26"/>
-      <c r="AP63" s="26" t="s">
+      <c r="AM63" s="30"/>
+      <c r="AN63" s="30"/>
+      <c r="AO63" s="30"/>
+      <c r="AP63" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="AQ63" s="26"/>
-      <c r="AR63" s="26"/>
-      <c r="AS63" s="26"/>
-      <c r="AT63" s="26" t="s">
+      <c r="AQ63" s="30"/>
+      <c r="AR63" s="30"/>
+      <c r="AS63" s="30"/>
+      <c r="AT63" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="AU63" s="26"/>
-      <c r="AV63" s="26"/>
-      <c r="AW63" s="26"/>
-      <c r="AX63" s="26" t="s">
+      <c r="AU63" s="30"/>
+      <c r="AV63" s="30"/>
+      <c r="AW63" s="30"/>
+      <c r="AX63" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="AY63" s="26"/>
-      <c r="AZ63" s="26"/>
-      <c r="BA63" s="26"/>
-      <c r="BB63" s="26" t="s">
+      <c r="AY63" s="30"/>
+      <c r="AZ63" s="30"/>
+      <c r="BA63" s="30"/>
+      <c r="BB63" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="BC63" s="26"/>
-      <c r="BD63" s="26"/>
-      <c r="BE63" s="26"/>
-      <c r="BF63" s="26" t="s">
+      <c r="BC63" s="30"/>
+      <c r="BD63" s="30"/>
+      <c r="BE63" s="30"/>
+      <c r="BF63" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="BG63" s="26"/>
-      <c r="BH63" s="26"/>
-      <c r="BI63" s="26"/>
-      <c r="BJ63" s="26" t="s">
+      <c r="BG63" s="30"/>
+      <c r="BH63" s="30"/>
+      <c r="BI63" s="30"/>
+      <c r="BJ63" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="BK63" s="26"/>
-      <c r="BL63" s="26"/>
-      <c r="BM63" s="26"/>
-      <c r="BN63" s="26" t="s">
+      <c r="BK63" s="30"/>
+      <c r="BL63" s="30"/>
+      <c r="BM63" s="30"/>
+      <c r="BN63" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="BO63" s="26"/>
-      <c r="BP63" s="26"/>
-      <c r="BQ63" s="26"/>
-      <c r="BR63" s="26" t="s">
+      <c r="BO63" s="30"/>
+      <c r="BP63" s="30"/>
+      <c r="BQ63" s="30"/>
+      <c r="BR63" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="BS63" s="26"/>
-      <c r="BT63" s="26"/>
-      <c r="BU63" s="26"/>
-      <c r="BV63" s="26" t="s">
+      <c r="BS63" s="30"/>
+      <c r="BT63" s="30"/>
+      <c r="BU63" s="30"/>
+      <c r="BV63" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="BW63" s="26"/>
-      <c r="BX63" s="26"/>
-      <c r="BY63" s="26"/>
-      <c r="BZ63" s="26" t="s">
+      <c r="BW63" s="30"/>
+      <c r="BX63" s="30"/>
+      <c r="BY63" s="30"/>
+      <c r="BZ63" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="CA63" s="26"/>
-      <c r="CB63" s="26"/>
-      <c r="CC63" s="26"/>
-      <c r="CD63" s="26" t="s">
+      <c r="CA63" s="30"/>
+      <c r="CB63" s="30"/>
+      <c r="CC63" s="30"/>
+      <c r="CD63" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="CE63" s="26"/>
-      <c r="CF63" s="26"/>
-      <c r="CG63" s="26"/>
-      <c r="CH63" s="26" t="s">
+      <c r="CE63" s="30"/>
+      <c r="CF63" s="30"/>
+      <c r="CG63" s="30"/>
+      <c r="CH63" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="CI63" s="26"/>
-      <c r="CJ63" s="26"/>
-      <c r="CK63" s="26"/>
-      <c r="CL63" s="26" t="s">
+      <c r="CI63" s="30"/>
+      <c r="CJ63" s="30"/>
+      <c r="CK63" s="30"/>
+      <c r="CL63" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="CM63" s="26"/>
-      <c r="CN63" s="26"/>
-      <c r="CO63" s="26"/>
-      <c r="CP63" s="26" t="s">
+      <c r="CM63" s="30"/>
+      <c r="CN63" s="30"/>
+      <c r="CO63" s="30"/>
+      <c r="CP63" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="CQ63" s="26"/>
-      <c r="CR63" s="26"/>
-      <c r="CS63" s="26"/>
-      <c r="CT63" s="26" t="s">
+      <c r="CQ63" s="30"/>
+      <c r="CR63" s="30"/>
+      <c r="CS63" s="30"/>
+      <c r="CT63" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="CU63" s="26"/>
-      <c r="CV63" s="26"/>
-      <c r="CW63" s="26"/>
-      <c r="CX63" s="26" t="s">
+      <c r="CU63" s="30"/>
+      <c r="CV63" s="30"/>
+      <c r="CW63" s="30"/>
+      <c r="CX63" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="CY63" s="26"/>
-      <c r="CZ63" s="26"/>
-      <c r="DA63" s="26"/>
-      <c r="DB63" s="26" t="s">
+      <c r="CY63" s="30"/>
+      <c r="CZ63" s="30"/>
+      <c r="DA63" s="30"/>
+      <c r="DB63" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="DC63" s="26"/>
-      <c r="DD63" s="26"/>
-      <c r="DE63" s="26"/>
-      <c r="DF63" s="26" t="s">
+      <c r="DC63" s="30"/>
+      <c r="DD63" s="30"/>
+      <c r="DE63" s="30"/>
+      <c r="DF63" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="DG63" s="26"/>
-      <c r="DH63" s="26"/>
-      <c r="DI63" s="26"/>
-      <c r="DJ63" s="26" t="s">
+      <c r="DG63" s="30"/>
+      <c r="DH63" s="30"/>
+      <c r="DI63" s="30"/>
+      <c r="DJ63" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="DK63" s="26"/>
-      <c r="DL63" s="26"/>
-      <c r="DM63" s="26"/>
-      <c r="DN63" s="26" t="s">
+      <c r="DK63" s="30"/>
+      <c r="DL63" s="30"/>
+      <c r="DM63" s="30"/>
+      <c r="DN63" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="DO63" s="26"/>
-      <c r="DP63" s="26"/>
-      <c r="DQ63" s="26"/>
-      <c r="DR63" s="26" t="s">
+      <c r="DO63" s="30"/>
+      <c r="DP63" s="30"/>
+      <c r="DQ63" s="30"/>
+      <c r="DR63" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="DS63" s="26"/>
-      <c r="DT63" s="26"/>
-      <c r="DU63" s="26"/>
-      <c r="DV63" s="26" t="s">
+      <c r="DS63" s="30"/>
+      <c r="DT63" s="30"/>
+      <c r="DU63" s="30"/>
+      <c r="DV63" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="DW63" s="26"/>
-      <c r="DX63" s="26"/>
-      <c r="DY63" s="26"/>
-      <c r="DZ63" s="26" t="s">
+      <c r="DW63" s="30"/>
+      <c r="DX63" s="30"/>
+      <c r="DY63" s="30"/>
+      <c r="DZ63" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="EA63" s="26"/>
-      <c r="EB63" s="26"/>
-      <c r="EC63" s="26"/>
-      <c r="ED63" s="26" t="s">
+      <c r="EA63" s="30"/>
+      <c r="EB63" s="30"/>
+      <c r="EC63" s="30"/>
+      <c r="ED63" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="EE63" s="26"/>
-      <c r="EF63" s="26"/>
-      <c r="EG63" s="26"/>
-      <c r="EH63" s="26" t="s">
+      <c r="EE63" s="30"/>
+      <c r="EF63" s="30"/>
+      <c r="EG63" s="30"/>
+      <c r="EH63" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="EI63" s="26"/>
-      <c r="EJ63" s="26"/>
-      <c r="EK63" s="26"/>
-      <c r="EL63" s="26" t="s">
+      <c r="EI63" s="30"/>
+      <c r="EJ63" s="30"/>
+      <c r="EK63" s="30"/>
+      <c r="EL63" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="EM63" s="26"/>
-      <c r="EN63" s="26"/>
-      <c r="EO63" s="26"/>
-      <c r="EP63" s="26" t="s">
+      <c r="EM63" s="30"/>
+      <c r="EN63" s="30"/>
+      <c r="EO63" s="30"/>
+      <c r="EP63" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="EQ63" s="26"/>
-      <c r="ER63" s="26"/>
-      <c r="ES63" s="26"/>
-      <c r="ET63" s="26" t="s">
+      <c r="EQ63" s="30"/>
+      <c r="ER63" s="30"/>
+      <c r="ES63" s="30"/>
+      <c r="ET63" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="EU63" s="26"/>
-      <c r="EV63" s="26"/>
-      <c r="EW63" s="26"/>
-      <c r="EX63" s="26" t="s">
+      <c r="EU63" s="30"/>
+      <c r="EV63" s="30"/>
+      <c r="EW63" s="30"/>
+      <c r="EX63" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="EY63" s="26"/>
-      <c r="EZ63" s="26"/>
-      <c r="FA63" s="26"/>
-      <c r="FB63" s="26" t="s">
+      <c r="EY63" s="30"/>
+      <c r="EZ63" s="30"/>
+      <c r="FA63" s="30"/>
+      <c r="FB63" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="FC63" s="26"/>
-      <c r="FD63" s="26"/>
-      <c r="FE63" s="26"/>
-      <c r="FF63" s="26" t="s">
+      <c r="FC63" s="30"/>
+      <c r="FD63" s="30"/>
+      <c r="FE63" s="30"/>
+      <c r="FF63" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="FG63" s="26"/>
-      <c r="FH63" s="26"/>
-      <c r="FI63" s="26"/>
-      <c r="FJ63" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="FK63" s="26"/>
+      <c r="FG63" s="30"/>
+      <c r="FH63" s="30"/>
+      <c r="FI63" s="30"/>
+      <c r="FJ63" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="FK63" s="30"/>
+      <c r="FL63" s="30"/>
     </row>
-    <row r="64" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>14</v>
       </c>
@@ -12490,8 +12663,11 @@
       <c r="FK64" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="FL64" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="65" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:168" x14ac:dyDescent="0.2">
       <c r="FB65" s="24"/>
       <c r="FC65" s="24"/>
       <c r="FD65" s="24"/>
@@ -12503,7 +12679,7 @@
       <c r="FJ65" s="24"/>
       <c r="FK65" s="24"/>
     </row>
-    <row r="66" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>1</v>
       </c>
@@ -13002,11 +13178,14 @@
       <c r="FJ66" s="25">
         <v>14.703382016307259</v>
       </c>
-      <c r="FK66" s="25">
-        <v>11.573295727077706</v>
+      <c r="FK66" s="13">
+        <v>11.59901841058155</v>
+      </c>
+      <c r="FL66" s="13">
+        <v>9.688764162968198</v>
       </c>
     </row>
-    <row r="67" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>2</v>
       </c>
@@ -13505,11 +13684,14 @@
       <c r="FJ67" s="25">
         <v>11.659125598929677</v>
       </c>
-      <c r="FK67" s="25">
+      <c r="FK67" s="13">
         <v>-3.0362959391804054</v>
       </c>
+      <c r="FL67" s="13">
+        <v>10.389536013767</v>
+      </c>
     </row>
-    <row r="68" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>3</v>
       </c>
@@ -14008,11 +14190,14 @@
       <c r="FJ68" s="25">
         <v>16.615747738869246</v>
       </c>
-      <c r="FK68" s="25">
-        <v>-1.3068416311012925</v>
+      <c r="FK68" s="13">
+        <v>-0.94217876941782197</v>
+      </c>
+      <c r="FL68" s="13">
+        <v>-5.6213935320136983</v>
       </c>
     </row>
-    <row r="69" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>4</v>
       </c>
@@ -14511,11 +14696,14 @@
       <c r="FJ69" s="25">
         <v>6.8133013841748351</v>
       </c>
-      <c r="FK69" s="25">
-        <v>7.8826373200590325</v>
+      <c r="FK69" s="13">
+        <v>8.2173861885650012</v>
+      </c>
+      <c r="FL69" s="13">
+        <v>4.5341149706243442</v>
       </c>
     </row>
-    <row r="70" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>5</v>
       </c>
@@ -15014,11 +15202,14 @@
       <c r="FJ70" s="25">
         <v>10.304049173364831</v>
       </c>
-      <c r="FK70" s="25">
-        <v>-0.33201869795932737</v>
+      <c r="FK70" s="13">
+        <v>-0.50841371138339753</v>
+      </c>
+      <c r="FL70" s="13">
+        <v>-3.2118430513217362</v>
       </c>
     </row>
-    <row r="71" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:168" x14ac:dyDescent="0.2">
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
@@ -15186,7 +15377,7 @@
       <c r="FJ71" s="25"/>
       <c r="FK71" s="25"/>
     </row>
-    <row r="72" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:168" x14ac:dyDescent="0.2">
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
@@ -15354,7 +15545,7 @@
       <c r="FJ72" s="25"/>
       <c r="FK72" s="25"/>
     </row>
-    <row r="73" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>10</v>
       </c>
@@ -15853,11 +16044,14 @@
       <c r="FJ73" s="25">
         <v>13.662791041685068</v>
       </c>
-      <c r="FK73" s="25">
-        <v>9.0589520917780106</v>
+      <c r="FK73" s="13">
+        <v>9.0927783558765505</v>
+      </c>
+      <c r="FL73" s="13">
+        <v>9.4712287880847725</v>
       </c>
     </row>
-    <row r="74" spans="1:167" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:168" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
@@ -16012,7 +16206,7 @@
       <c r="EW74" s="13"/>
       <c r="EX74" s="3"/>
     </row>
-    <row r="75" spans="1:167" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:168" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
@@ -16167,7 +16361,7 @@
       <c r="EW75" s="13"/>
       <c r="EX75" s="3"/>
     </row>
-    <row r="76" spans="1:167" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:168" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
@@ -16322,7 +16516,7 @@
       <c r="EW76" s="13"/>
       <c r="EX76" s="3"/>
     </row>
-    <row r="77" spans="1:167" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:168" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
@@ -16477,7 +16671,7 @@
       <c r="EW77" s="13"/>
       <c r="EX77" s="3"/>
     </row>
-    <row r="78" spans="1:167" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:168" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -16645,309 +16839,311 @@
       <c r="FI78" s="9"/>
       <c r="FJ78" s="9"/>
       <c r="FK78" s="9"/>
+      <c r="FL78" s="9"/>
     </row>
-    <row r="79" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="88" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="FF89" s="9"/>
       <c r="FG89" s="9"/>
     </row>
-    <row r="90" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
-      <c r="B90" s="26" t="s">
+      <c r="B90" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26" t="s">
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G90" s="26"/>
-      <c r="H90" s="26"/>
-      <c r="I90" s="26"/>
-      <c r="J90" s="26" t="s">
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="K90" s="26"/>
-      <c r="L90" s="26"/>
-      <c r="M90" s="26"/>
-      <c r="N90" s="26" t="s">
+      <c r="K90" s="30"/>
+      <c r="L90" s="30"/>
+      <c r="M90" s="30"/>
+      <c r="N90" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="O90" s="26"/>
-      <c r="P90" s="26"/>
-      <c r="Q90" s="26"/>
-      <c r="R90" s="26" t="s">
+      <c r="O90" s="30"/>
+      <c r="P90" s="30"/>
+      <c r="Q90" s="30"/>
+      <c r="R90" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="S90" s="26"/>
-      <c r="T90" s="26"/>
-      <c r="U90" s="26"/>
-      <c r="V90" s="26" t="s">
+      <c r="S90" s="30"/>
+      <c r="T90" s="30"/>
+      <c r="U90" s="30"/>
+      <c r="V90" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="W90" s="26"/>
-      <c r="X90" s="26"/>
-      <c r="Y90" s="26"/>
-      <c r="Z90" s="26" t="s">
+      <c r="W90" s="30"/>
+      <c r="X90" s="30"/>
+      <c r="Y90" s="30"/>
+      <c r="Z90" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="AA90" s="26"/>
-      <c r="AB90" s="26"/>
-      <c r="AC90" s="26"/>
-      <c r="AD90" s="26" t="s">
+      <c r="AA90" s="30"/>
+      <c r="AB90" s="30"/>
+      <c r="AC90" s="30"/>
+      <c r="AD90" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="AE90" s="26"/>
-      <c r="AF90" s="26"/>
-      <c r="AG90" s="26"/>
-      <c r="AH90" s="26" t="s">
+      <c r="AE90" s="30"/>
+      <c r="AF90" s="30"/>
+      <c r="AG90" s="30"/>
+      <c r="AH90" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="AI90" s="26"/>
-      <c r="AJ90" s="26"/>
-      <c r="AK90" s="26"/>
-      <c r="AL90" s="26" t="s">
+      <c r="AI90" s="30"/>
+      <c r="AJ90" s="30"/>
+      <c r="AK90" s="30"/>
+      <c r="AL90" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="AM90" s="26"/>
-      <c r="AN90" s="26"/>
-      <c r="AO90" s="26"/>
-      <c r="AP90" s="26" t="s">
+      <c r="AM90" s="30"/>
+      <c r="AN90" s="30"/>
+      <c r="AO90" s="30"/>
+      <c r="AP90" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="AQ90" s="26"/>
-      <c r="AR90" s="26"/>
-      <c r="AS90" s="26"/>
-      <c r="AT90" s="26" t="s">
+      <c r="AQ90" s="30"/>
+      <c r="AR90" s="30"/>
+      <c r="AS90" s="30"/>
+      <c r="AT90" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="AU90" s="26"/>
-      <c r="AV90" s="26"/>
-      <c r="AW90" s="26"/>
-      <c r="AX90" s="26" t="s">
+      <c r="AU90" s="30"/>
+      <c r="AV90" s="30"/>
+      <c r="AW90" s="30"/>
+      <c r="AX90" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="AY90" s="26"/>
-      <c r="AZ90" s="26"/>
-      <c r="BA90" s="26"/>
-      <c r="BB90" s="26" t="s">
+      <c r="AY90" s="30"/>
+      <c r="AZ90" s="30"/>
+      <c r="BA90" s="30"/>
+      <c r="BB90" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="BC90" s="26"/>
-      <c r="BD90" s="26"/>
-      <c r="BE90" s="26"/>
-      <c r="BF90" s="26" t="s">
+      <c r="BC90" s="30"/>
+      <c r="BD90" s="30"/>
+      <c r="BE90" s="30"/>
+      <c r="BF90" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="BG90" s="26"/>
-      <c r="BH90" s="26"/>
-      <c r="BI90" s="26"/>
-      <c r="BJ90" s="26" t="s">
+      <c r="BG90" s="30"/>
+      <c r="BH90" s="30"/>
+      <c r="BI90" s="30"/>
+      <c r="BJ90" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="BK90" s="26"/>
-      <c r="BL90" s="26"/>
-      <c r="BM90" s="26"/>
-      <c r="BN90" s="26" t="s">
+      <c r="BK90" s="30"/>
+      <c r="BL90" s="30"/>
+      <c r="BM90" s="30"/>
+      <c r="BN90" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="BO90" s="26"/>
-      <c r="BP90" s="26"/>
-      <c r="BQ90" s="26"/>
-      <c r="BR90" s="26" t="s">
+      <c r="BO90" s="30"/>
+      <c r="BP90" s="30"/>
+      <c r="BQ90" s="30"/>
+      <c r="BR90" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="BS90" s="26"/>
-      <c r="BT90" s="26"/>
-      <c r="BU90" s="26"/>
-      <c r="BV90" s="26" t="s">
+      <c r="BS90" s="30"/>
+      <c r="BT90" s="30"/>
+      <c r="BU90" s="30"/>
+      <c r="BV90" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="BW90" s="26"/>
-      <c r="BX90" s="26"/>
-      <c r="BY90" s="26"/>
-      <c r="BZ90" s="26" t="s">
+      <c r="BW90" s="30"/>
+      <c r="BX90" s="30"/>
+      <c r="BY90" s="30"/>
+      <c r="BZ90" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="CA90" s="26"/>
-      <c r="CB90" s="26"/>
-      <c r="CC90" s="26"/>
-      <c r="CD90" s="26" t="s">
+      <c r="CA90" s="30"/>
+      <c r="CB90" s="30"/>
+      <c r="CC90" s="30"/>
+      <c r="CD90" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="CE90" s="26"/>
-      <c r="CF90" s="26"/>
-      <c r="CG90" s="26"/>
-      <c r="CH90" s="26" t="s">
+      <c r="CE90" s="30"/>
+      <c r="CF90" s="30"/>
+      <c r="CG90" s="30"/>
+      <c r="CH90" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="CI90" s="26"/>
-      <c r="CJ90" s="26"/>
-      <c r="CK90" s="26"/>
-      <c r="CL90" s="26" t="s">
+      <c r="CI90" s="30"/>
+      <c r="CJ90" s="30"/>
+      <c r="CK90" s="30"/>
+      <c r="CL90" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="CM90" s="26"/>
-      <c r="CN90" s="26"/>
-      <c r="CO90" s="26"/>
-      <c r="CP90" s="26" t="s">
+      <c r="CM90" s="30"/>
+      <c r="CN90" s="30"/>
+      <c r="CO90" s="30"/>
+      <c r="CP90" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="CQ90" s="26"/>
-      <c r="CR90" s="26"/>
-      <c r="CS90" s="26"/>
-      <c r="CT90" s="26" t="s">
+      <c r="CQ90" s="30"/>
+      <c r="CR90" s="30"/>
+      <c r="CS90" s="30"/>
+      <c r="CT90" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="CU90" s="26"/>
-      <c r="CV90" s="26"/>
-      <c r="CW90" s="26"/>
-      <c r="CX90" s="26" t="s">
+      <c r="CU90" s="30"/>
+      <c r="CV90" s="30"/>
+      <c r="CW90" s="30"/>
+      <c r="CX90" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="CY90" s="26"/>
-      <c r="CZ90" s="26"/>
-      <c r="DA90" s="26"/>
-      <c r="DB90" s="26" t="s">
+      <c r="CY90" s="30"/>
+      <c r="CZ90" s="30"/>
+      <c r="DA90" s="30"/>
+      <c r="DB90" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="DC90" s="26"/>
-      <c r="DD90" s="26"/>
-      <c r="DE90" s="26"/>
-      <c r="DF90" s="26" t="s">
+      <c r="DC90" s="30"/>
+      <c r="DD90" s="30"/>
+      <c r="DE90" s="30"/>
+      <c r="DF90" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="DG90" s="26"/>
-      <c r="DH90" s="26"/>
-      <c r="DI90" s="26"/>
-      <c r="DJ90" s="26" t="s">
+      <c r="DG90" s="30"/>
+      <c r="DH90" s="30"/>
+      <c r="DI90" s="30"/>
+      <c r="DJ90" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="DK90" s="26"/>
-      <c r="DL90" s="26"/>
-      <c r="DM90" s="26"/>
-      <c r="DN90" s="26" t="s">
+      <c r="DK90" s="30"/>
+      <c r="DL90" s="30"/>
+      <c r="DM90" s="30"/>
+      <c r="DN90" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="DO90" s="26"/>
-      <c r="DP90" s="26"/>
-      <c r="DQ90" s="26"/>
-      <c r="DR90" s="26" t="s">
+      <c r="DO90" s="30"/>
+      <c r="DP90" s="30"/>
+      <c r="DQ90" s="30"/>
+      <c r="DR90" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="DS90" s="26"/>
-      <c r="DT90" s="26"/>
-      <c r="DU90" s="26"/>
-      <c r="DV90" s="26" t="s">
+      <c r="DS90" s="30"/>
+      <c r="DT90" s="30"/>
+      <c r="DU90" s="30"/>
+      <c r="DV90" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="DW90" s="26"/>
-      <c r="DX90" s="26"/>
-      <c r="DY90" s="26"/>
-      <c r="DZ90" s="26" t="s">
+      <c r="DW90" s="30"/>
+      <c r="DX90" s="30"/>
+      <c r="DY90" s="30"/>
+      <c r="DZ90" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="EA90" s="26"/>
-      <c r="EB90" s="26"/>
-      <c r="EC90" s="26"/>
-      <c r="ED90" s="26" t="s">
+      <c r="EA90" s="30"/>
+      <c r="EB90" s="30"/>
+      <c r="EC90" s="30"/>
+      <c r="ED90" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="EE90" s="26"/>
-      <c r="EF90" s="26"/>
-      <c r="EG90" s="26"/>
-      <c r="EH90" s="26" t="s">
+      <c r="EE90" s="30"/>
+      <c r="EF90" s="30"/>
+      <c r="EG90" s="30"/>
+      <c r="EH90" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="EI90" s="26"/>
-      <c r="EJ90" s="26"/>
-      <c r="EK90" s="26"/>
-      <c r="EL90" s="26" t="s">
+      <c r="EI90" s="30"/>
+      <c r="EJ90" s="30"/>
+      <c r="EK90" s="30"/>
+      <c r="EL90" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="EM90" s="26"/>
-      <c r="EN90" s="26"/>
-      <c r="EO90" s="26"/>
-      <c r="EP90" s="26" t="s">
+      <c r="EM90" s="30"/>
+      <c r="EN90" s="30"/>
+      <c r="EO90" s="30"/>
+      <c r="EP90" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="EQ90" s="26"/>
-      <c r="ER90" s="26"/>
-      <c r="ES90" s="26"/>
-      <c r="ET90" s="26" t="s">
+      <c r="EQ90" s="30"/>
+      <c r="ER90" s="30"/>
+      <c r="ES90" s="30"/>
+      <c r="ET90" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="EU90" s="26"/>
-      <c r="EV90" s="26"/>
-      <c r="EW90" s="26"/>
-      <c r="EX90" s="26" t="s">
+      <c r="EU90" s="30"/>
+      <c r="EV90" s="30"/>
+      <c r="EW90" s="30"/>
+      <c r="EX90" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="EY90" s="26"/>
-      <c r="EZ90" s="26"/>
-      <c r="FA90" s="26"/>
-      <c r="FB90" s="26" t="s">
+      <c r="EY90" s="30"/>
+      <c r="EZ90" s="30"/>
+      <c r="FA90" s="30"/>
+      <c r="FB90" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="FC90" s="26"/>
-      <c r="FD90" s="26"/>
-      <c r="FE90" s="26"/>
-      <c r="FF90" s="26" t="s">
+      <c r="FC90" s="30"/>
+      <c r="FD90" s="30"/>
+      <c r="FE90" s="30"/>
+      <c r="FF90" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="FG90" s="26"/>
-      <c r="FH90" s="26"/>
-      <c r="FI90" s="26"/>
-      <c r="FJ90" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="FK90" s="26"/>
+      <c r="FG90" s="30"/>
+      <c r="FH90" s="30"/>
+      <c r="FI90" s="30"/>
+      <c r="FJ90" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="FK90" s="30"/>
+      <c r="FL90" s="30"/>
     </row>
-    <row r="91" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>14</v>
       </c>
@@ -17449,8 +17645,11 @@
       <c r="FK91" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="FL91" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="92" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:168" x14ac:dyDescent="0.2">
       <c r="FF92" s="24"/>
       <c r="FG92" s="24"/>
       <c r="FH92" s="24"/>
@@ -17458,7 +17657,7 @@
       <c r="FJ92" s="24"/>
       <c r="FK92" s="24"/>
     </row>
-    <row r="93" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>1</v>
       </c>
@@ -17957,11 +18156,14 @@
       <c r="FJ93" s="25">
         <v>6.4300230362182873</v>
       </c>
-      <c r="FK93" s="25">
-        <v>5.5072433479429037</v>
+      <c r="FK93" s="13">
+        <v>5.5217510711067916</v>
+      </c>
+      <c r="FL93" s="13">
+        <v>5.0476085243877549</v>
       </c>
     </row>
-    <row r="94" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>2</v>
       </c>
@@ -18460,11 +18662,14 @@
       <c r="FJ94" s="25">
         <v>6.1758091069245182</v>
       </c>
-      <c r="FK94" s="25">
+      <c r="FK94" s="13">
         <v>-7.1277971712926131</v>
       </c>
+      <c r="FL94" s="13">
+        <v>6.6835960185741357</v>
+      </c>
     </row>
-    <row r="95" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>3</v>
       </c>
@@ -18963,11 +19168,14 @@
       <c r="FJ95" s="25">
         <v>12.592213935240466</v>
       </c>
-      <c r="FK95" s="25">
-        <v>-3.9289118338643902E-2</v>
+      <c r="FK95" s="13">
+        <v>0.25823410563280902</v>
+      </c>
+      <c r="FL95" s="13">
+        <v>-1.5754654395484522</v>
       </c>
     </row>
-    <row r="96" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>4</v>
       </c>
@@ -19466,11 +19674,14 @@
       <c r="FJ96" s="25">
         <v>0.97496334880655411</v>
       </c>
-      <c r="FK96" s="25">
-        <v>4.1016964917378118</v>
+      <c r="FK96" s="13">
+        <v>4.4397751231995812</v>
+      </c>
+      <c r="FL96" s="13">
+        <v>2.5727595467841127</v>
       </c>
     </row>
-    <row r="97" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>5</v>
       </c>
@@ -19969,11 +20180,14 @@
       <c r="FJ97" s="25">
         <v>4.6534631541910159</v>
       </c>
-      <c r="FK97" s="25">
-        <v>0.42102589485023145</v>
+      <c r="FK97" s="13">
+        <v>0.22506964153876652</v>
+      </c>
+      <c r="FL97" s="13">
+        <v>-1.3371284671494124</v>
       </c>
     </row>
-    <row r="98" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:168" x14ac:dyDescent="0.2">
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
@@ -20141,7 +20355,7 @@
       <c r="FJ98" s="25"/>
       <c r="FK98" s="25"/>
     </row>
-    <row r="99" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:168" x14ac:dyDescent="0.2">
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
@@ -20309,7 +20523,7 @@
       <c r="FJ99" s="25"/>
       <c r="FK99" s="25"/>
     </row>
-    <row r="100" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>10</v>
       </c>
@@ -20808,11 +21022,14 @@
       <c r="FJ100" s="25">
         <v>6.4493870765404324</v>
       </c>
-      <c r="FK100" s="25">
-        <v>4.3344320547945756</v>
+      <c r="FK100" s="13">
+        <v>4.3471902117480141</v>
+      </c>
+      <c r="FL100" s="13">
+        <v>5.936634885362551</v>
       </c>
     </row>
-    <row r="101" spans="1:167" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:168" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
@@ -20966,7 +21183,7 @@
       <c r="EV101" s="13"/>
       <c r="EW101" s="13"/>
     </row>
-    <row r="102" spans="1:167" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:168" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
@@ -21120,7 +21337,7 @@
       <c r="EV102" s="13"/>
       <c r="EW102" s="13"/>
     </row>
-    <row r="103" spans="1:167" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:168" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
@@ -21274,7 +21491,7 @@
       <c r="EV103" s="13"/>
       <c r="EW103" s="13"/>
     </row>
-    <row r="104" spans="1:167" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:168" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
@@ -21428,7 +21645,7 @@
       <c r="EV104" s="13"/>
       <c r="EW104" s="13"/>
     </row>
-    <row r="105" spans="1:167" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:168" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -21597,312 +21814,315 @@
       <c r="FJ105" s="9"/>
       <c r="FK105" s="9"/>
     </row>
-    <row r="106" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="FL106" s="4"/>
     </row>
-    <row r="107" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="109" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="112" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
     </row>
-    <row r="113" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="115" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="116" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
+      <c r="FP116" s="9"/>
     </row>
-    <row r="117" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
-      <c r="B117" s="26">
+      <c r="B117" s="30">
         <v>1981</v>
       </c>
-      <c r="C117" s="26"/>
-      <c r="D117" s="26"/>
-      <c r="E117" s="26"/>
-      <c r="F117" s="26">
+      <c r="C117" s="30"/>
+      <c r="D117" s="30"/>
+      <c r="E117" s="30"/>
+      <c r="F117" s="30">
         <v>1982</v>
       </c>
-      <c r="G117" s="26"/>
-      <c r="H117" s="26"/>
-      <c r="I117" s="26"/>
-      <c r="J117" s="26">
+      <c r="G117" s="30"/>
+      <c r="H117" s="30"/>
+      <c r="I117" s="30"/>
+      <c r="J117" s="30">
         <v>1983</v>
       </c>
-      <c r="K117" s="26"/>
-      <c r="L117" s="26"/>
-      <c r="M117" s="26"/>
-      <c r="N117" s="26">
+      <c r="K117" s="30"/>
+      <c r="L117" s="30"/>
+      <c r="M117" s="30"/>
+      <c r="N117" s="30">
         <v>1984</v>
       </c>
-      <c r="O117" s="26"/>
-      <c r="P117" s="26"/>
-      <c r="Q117" s="26"/>
-      <c r="R117" s="26">
+      <c r="O117" s="30"/>
+      <c r="P117" s="30"/>
+      <c r="Q117" s="30"/>
+      <c r="R117" s="30">
         <v>1985</v>
       </c>
-      <c r="S117" s="26"/>
-      <c r="T117" s="26"/>
-      <c r="U117" s="26"/>
-      <c r="V117" s="26">
+      <c r="S117" s="30"/>
+      <c r="T117" s="30"/>
+      <c r="U117" s="30"/>
+      <c r="V117" s="30">
         <v>1986</v>
       </c>
-      <c r="W117" s="26"/>
-      <c r="X117" s="26"/>
-      <c r="Y117" s="26"/>
-      <c r="Z117" s="26">
+      <c r="W117" s="30"/>
+      <c r="X117" s="30"/>
+      <c r="Y117" s="30"/>
+      <c r="Z117" s="30">
         <v>1987</v>
       </c>
-      <c r="AA117" s="26"/>
-      <c r="AB117" s="26"/>
-      <c r="AC117" s="26"/>
-      <c r="AD117" s="26">
+      <c r="AA117" s="30"/>
+      <c r="AB117" s="30"/>
+      <c r="AC117" s="30"/>
+      <c r="AD117" s="30">
         <v>1988</v>
       </c>
-      <c r="AE117" s="26"/>
-      <c r="AF117" s="26"/>
-      <c r="AG117" s="26"/>
-      <c r="AH117" s="26">
+      <c r="AE117" s="30"/>
+      <c r="AF117" s="30"/>
+      <c r="AG117" s="30"/>
+      <c r="AH117" s="30">
         <v>1989</v>
       </c>
-      <c r="AI117" s="26"/>
-      <c r="AJ117" s="26"/>
-      <c r="AK117" s="26"/>
-      <c r="AL117" s="26">
+      <c r="AI117" s="30"/>
+      <c r="AJ117" s="30"/>
+      <c r="AK117" s="30"/>
+      <c r="AL117" s="30">
         <v>1990</v>
       </c>
-      <c r="AM117" s="26"/>
-      <c r="AN117" s="26"/>
-      <c r="AO117" s="26"/>
-      <c r="AP117" s="26">
+      <c r="AM117" s="30"/>
+      <c r="AN117" s="30"/>
+      <c r="AO117" s="30"/>
+      <c r="AP117" s="30">
         <v>1991</v>
       </c>
-      <c r="AQ117" s="26"/>
-      <c r="AR117" s="26"/>
-      <c r="AS117" s="26"/>
-      <c r="AT117" s="26">
+      <c r="AQ117" s="30"/>
+      <c r="AR117" s="30"/>
+      <c r="AS117" s="30"/>
+      <c r="AT117" s="30">
         <v>1992</v>
       </c>
-      <c r="AU117" s="26"/>
-      <c r="AV117" s="26"/>
-      <c r="AW117" s="26"/>
-      <c r="AX117" s="26">
+      <c r="AU117" s="30"/>
+      <c r="AV117" s="30"/>
+      <c r="AW117" s="30"/>
+      <c r="AX117" s="30">
         <v>1993</v>
       </c>
-      <c r="AY117" s="26"/>
-      <c r="AZ117" s="26"/>
-      <c r="BA117" s="26"/>
-      <c r="BB117" s="26">
+      <c r="AY117" s="30"/>
+      <c r="AZ117" s="30"/>
+      <c r="BA117" s="30"/>
+      <c r="BB117" s="30">
         <v>1994</v>
       </c>
-      <c r="BC117" s="26"/>
-      <c r="BD117" s="26"/>
-      <c r="BE117" s="26"/>
-      <c r="BF117" s="26">
+      <c r="BC117" s="30"/>
+      <c r="BD117" s="30"/>
+      <c r="BE117" s="30"/>
+      <c r="BF117" s="30">
         <v>1995</v>
       </c>
-      <c r="BG117" s="26"/>
-      <c r="BH117" s="26"/>
-      <c r="BI117" s="26"/>
-      <c r="BJ117" s="26">
+      <c r="BG117" s="30"/>
+      <c r="BH117" s="30"/>
+      <c r="BI117" s="30"/>
+      <c r="BJ117" s="30">
         <v>1996</v>
       </c>
-      <c r="BK117" s="26"/>
-      <c r="BL117" s="26"/>
-      <c r="BM117" s="26"/>
-      <c r="BN117" s="26">
+      <c r="BK117" s="30"/>
+      <c r="BL117" s="30"/>
+      <c r="BM117" s="30"/>
+      <c r="BN117" s="30">
         <v>1997</v>
       </c>
-      <c r="BO117" s="26"/>
-      <c r="BP117" s="26"/>
-      <c r="BQ117" s="26"/>
-      <c r="BR117" s="26">
+      <c r="BO117" s="30"/>
+      <c r="BP117" s="30"/>
+      <c r="BQ117" s="30"/>
+      <c r="BR117" s="30">
         <v>1998</v>
       </c>
-      <c r="BS117" s="26"/>
-      <c r="BT117" s="26"/>
-      <c r="BU117" s="26"/>
-      <c r="BV117" s="26">
+      <c r="BS117" s="30"/>
+      <c r="BT117" s="30"/>
+      <c r="BU117" s="30"/>
+      <c r="BV117" s="30">
         <v>1999</v>
       </c>
-      <c r="BW117" s="26"/>
-      <c r="BX117" s="26"/>
-      <c r="BY117" s="26"/>
-      <c r="BZ117" s="26">
+      <c r="BW117" s="30"/>
+      <c r="BX117" s="30"/>
+      <c r="BY117" s="30"/>
+      <c r="BZ117" s="30">
         <v>2000</v>
       </c>
-      <c r="CA117" s="26"/>
-      <c r="CB117" s="26"/>
-      <c r="CC117" s="26"/>
-      <c r="CD117" s="26">
+      <c r="CA117" s="30"/>
+      <c r="CB117" s="30"/>
+      <c r="CC117" s="30"/>
+      <c r="CD117" s="30">
         <v>2001</v>
       </c>
-      <c r="CE117" s="26"/>
-      <c r="CF117" s="26"/>
-      <c r="CG117" s="26"/>
-      <c r="CH117" s="26">
+      <c r="CE117" s="30"/>
+      <c r="CF117" s="30"/>
+      <c r="CG117" s="30"/>
+      <c r="CH117" s="30">
         <v>2002</v>
       </c>
-      <c r="CI117" s="26"/>
-      <c r="CJ117" s="26"/>
-      <c r="CK117" s="26"/>
-      <c r="CL117" s="26">
+      <c r="CI117" s="30"/>
+      <c r="CJ117" s="30"/>
+      <c r="CK117" s="30"/>
+      <c r="CL117" s="30">
         <v>2003</v>
       </c>
-      <c r="CM117" s="26"/>
-      <c r="CN117" s="26"/>
-      <c r="CO117" s="26"/>
-      <c r="CP117" s="26">
+      <c r="CM117" s="30"/>
+      <c r="CN117" s="30"/>
+      <c r="CO117" s="30"/>
+      <c r="CP117" s="30">
         <v>2004</v>
       </c>
-      <c r="CQ117" s="26"/>
-      <c r="CR117" s="26"/>
-      <c r="CS117" s="26"/>
-      <c r="CT117" s="26">
+      <c r="CQ117" s="30"/>
+      <c r="CR117" s="30"/>
+      <c r="CS117" s="30"/>
+      <c r="CT117" s="30">
         <v>2005</v>
       </c>
-      <c r="CU117" s="26"/>
-      <c r="CV117" s="26"/>
-      <c r="CW117" s="26"/>
-      <c r="CX117" s="26">
+      <c r="CU117" s="30"/>
+      <c r="CV117" s="30"/>
+      <c r="CW117" s="30"/>
+      <c r="CX117" s="30">
         <v>2006</v>
       </c>
-      <c r="CY117" s="26"/>
-      <c r="CZ117" s="26"/>
-      <c r="DA117" s="26"/>
-      <c r="DB117" s="26">
+      <c r="CY117" s="30"/>
+      <c r="CZ117" s="30"/>
+      <c r="DA117" s="30"/>
+      <c r="DB117" s="30">
         <v>2007</v>
       </c>
-      <c r="DC117" s="26"/>
-      <c r="DD117" s="26"/>
-      <c r="DE117" s="26"/>
-      <c r="DF117" s="26">
+      <c r="DC117" s="30"/>
+      <c r="DD117" s="30"/>
+      <c r="DE117" s="30"/>
+      <c r="DF117" s="30">
         <v>2008</v>
       </c>
-      <c r="DG117" s="26"/>
-      <c r="DH117" s="26"/>
-      <c r="DI117" s="26"/>
-      <c r="DJ117" s="26">
+      <c r="DG117" s="30"/>
+      <c r="DH117" s="30"/>
+      <c r="DI117" s="30"/>
+      <c r="DJ117" s="30">
         <v>2009</v>
       </c>
-      <c r="DK117" s="26"/>
-      <c r="DL117" s="26"/>
-      <c r="DM117" s="26"/>
-      <c r="DN117" s="26">
+      <c r="DK117" s="30"/>
+      <c r="DL117" s="30"/>
+      <c r="DM117" s="30"/>
+      <c r="DN117" s="30">
         <v>2010</v>
       </c>
-      <c r="DO117" s="26"/>
-      <c r="DP117" s="26"/>
-      <c r="DQ117" s="26"/>
-      <c r="DR117" s="26">
+      <c r="DO117" s="30"/>
+      <c r="DP117" s="30"/>
+      <c r="DQ117" s="30"/>
+      <c r="DR117" s="30">
         <v>2011</v>
       </c>
-      <c r="DS117" s="26"/>
-      <c r="DT117" s="26"/>
-      <c r="DU117" s="26"/>
-      <c r="DV117" s="26">
+      <c r="DS117" s="30"/>
+      <c r="DT117" s="30"/>
+      <c r="DU117" s="30"/>
+      <c r="DV117" s="30">
         <v>2012</v>
       </c>
-      <c r="DW117" s="26"/>
-      <c r="DX117" s="26"/>
-      <c r="DY117" s="26"/>
-      <c r="DZ117" s="26">
+      <c r="DW117" s="30"/>
+      <c r="DX117" s="30"/>
+      <c r="DY117" s="30"/>
+      <c r="DZ117" s="30">
         <v>2013</v>
       </c>
-      <c r="EA117" s="26"/>
-      <c r="EB117" s="26"/>
-      <c r="EC117" s="26"/>
-      <c r="ED117" s="26">
+      <c r="EA117" s="30"/>
+      <c r="EB117" s="30"/>
+      <c r="EC117" s="30"/>
+      <c r="ED117" s="30">
         <v>2014</v>
       </c>
-      <c r="EE117" s="26"/>
-      <c r="EF117" s="26"/>
-      <c r="EG117" s="26"/>
-      <c r="EH117" s="26">
+      <c r="EE117" s="30"/>
+      <c r="EF117" s="30"/>
+      <c r="EG117" s="30"/>
+      <c r="EH117" s="30">
         <v>2015</v>
       </c>
-      <c r="EI117" s="26"/>
-      <c r="EJ117" s="26"/>
-      <c r="EK117" s="26"/>
-      <c r="EL117" s="26">
+      <c r="EI117" s="30"/>
+      <c r="EJ117" s="30"/>
+      <c r="EK117" s="30"/>
+      <c r="EL117" s="30">
         <v>2016</v>
       </c>
-      <c r="EM117" s="26"/>
-      <c r="EN117" s="26"/>
-      <c r="EO117" s="26"/>
-      <c r="EP117" s="26">
+      <c r="EM117" s="30"/>
+      <c r="EN117" s="30"/>
+      <c r="EO117" s="30"/>
+      <c r="EP117" s="30">
         <v>2017</v>
       </c>
-      <c r="EQ117" s="26"/>
-      <c r="ER117" s="26"/>
-      <c r="ES117" s="26"/>
-      <c r="ET117" s="26">
+      <c r="EQ117" s="30"/>
+      <c r="ER117" s="30"/>
+      <c r="ES117" s="30"/>
+      <c r="ET117" s="30">
         <v>2018</v>
       </c>
-      <c r="EU117" s="26"/>
-      <c r="EV117" s="26"/>
-      <c r="EW117" s="26"/>
-      <c r="EX117" s="26">
+      <c r="EU117" s="30"/>
+      <c r="EV117" s="30"/>
+      <c r="EW117" s="30"/>
+      <c r="EX117" s="30">
         <v>2019</v>
       </c>
-      <c r="EY117" s="26"/>
-      <c r="EZ117" s="26"/>
-      <c r="FA117" s="26"/>
-      <c r="FB117" s="26">
+      <c r="EY117" s="30"/>
+      <c r="EZ117" s="30"/>
+      <c r="FA117" s="30"/>
+      <c r="FB117" s="30">
         <v>2020</v>
       </c>
-      <c r="FC117" s="26"/>
-      <c r="FD117" s="26"/>
+      <c r="FC117" s="30"/>
+      <c r="FD117" s="30"/>
       <c r="FE117" s="4"/>
-      <c r="FF117" s="26">
+      <c r="FF117" s="30">
         <v>2021</v>
       </c>
-      <c r="FG117" s="26"/>
-      <c r="FH117" s="26"/>
-      <c r="FI117" s="26"/>
-      <c r="FJ117" s="26">
+      <c r="FG117" s="30"/>
+      <c r="FH117" s="30"/>
+      <c r="FI117" s="30"/>
+      <c r="FJ117" s="30">
         <v>2022</v>
       </c>
-      <c r="FK117" s="26"/>
-      <c r="FL117" s="26"/>
-      <c r="FM117" s="26"/>
-      <c r="FN117" s="26">
+      <c r="FK117" s="30"/>
+      <c r="FL117" s="30"/>
+      <c r="FM117" s="30"/>
+      <c r="FN117" s="30">
         <v>2023</v>
       </c>
-      <c r="FO117" s="26"/>
+      <c r="FO117" s="30"/>
+      <c r="FP117" s="30"/>
     </row>
-    <row r="118" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>14</v>
       </c>
@@ -22416,11 +22636,14 @@
       <c r="FO118" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="FP118" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="119" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:172" x14ac:dyDescent="0.2">
       <c r="FB119" s="2"/>
     </row>
-    <row r="120" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>1</v>
       </c>
@@ -22931,11 +23154,14 @@
       <c r="FN120" s="21">
         <v>78.906519622845096</v>
       </c>
-      <c r="FO120" s="21">
-        <v>73.504598232365751</v>
+      <c r="FO120" s="13">
+        <v>73.498747626685983</v>
+      </c>
+      <c r="FP120" s="13">
+        <v>78.861292455233354</v>
       </c>
     </row>
-    <row r="121" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>2</v>
       </c>
@@ -23446,11 +23672,14 @@
       <c r="FN121" s="21">
         <v>13.528087213287968</v>
       </c>
-      <c r="FO121" s="21">
-        <v>15.56746560740461</v>
+      <c r="FO121" s="13">
+        <v>15.562638622420661</v>
+      </c>
+      <c r="FP121" s="13">
+        <v>15.154101754555125</v>
       </c>
     </row>
-    <row r="122" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>3</v>
       </c>
@@ -23961,11 +24190,14 @@
       <c r="FN122" s="21">
         <v>23.802307943762717</v>
       </c>
-      <c r="FO122" s="21">
-        <v>26.313912173796126</v>
+      <c r="FO122" s="13">
+        <v>26.402950580940477</v>
+      </c>
+      <c r="FP122" s="13">
+        <v>22.093147290286648</v>
       </c>
     </row>
-    <row r="123" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>4</v>
       </c>
@@ -24476,11 +24708,14 @@
       <c r="FN123" s="21">
         <v>27.826426997023656</v>
       </c>
-      <c r="FO123" s="21">
-        <v>25.754556782757966</v>
+      <c r="FO123" s="13">
+        <v>25.82646009454405</v>
+      </c>
+      <c r="FP123" s="13">
+        <v>30.24798607865738</v>
       </c>
     </row>
-    <row r="124" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>5</v>
       </c>
@@ -24991,11 +25226,14 @@
       <c r="FN124" s="21">
         <v>43.376444147946344</v>
       </c>
-      <c r="FO124" s="21">
-        <v>41.232994417840246</v>
+      <c r="FO124" s="13">
+        <v>41.147256743660193</v>
+      </c>
+      <c r="FP124" s="13">
+        <v>45.671471511741643</v>
       </c>
     </row>
-    <row r="125" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B125" s="13">
         <v>10.790109715083961</v>
       </c>
@@ -25318,8 +25556,9 @@
       <c r="FM125" s="21"/>
       <c r="FN125" s="21"/>
       <c r="FO125" s="21"/>
+      <c r="FP125" s="21"/>
     </row>
-    <row r="126" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:172" x14ac:dyDescent="0.2">
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
@@ -25490,8 +25729,9 @@
       <c r="FM126" s="21"/>
       <c r="FN126" s="21"/>
       <c r="FO126" s="21"/>
+      <c r="FP126" s="21"/>
     </row>
-    <row r="127" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
         <v>10</v>
       </c>
@@ -26002,11 +26242,14 @@
       <c r="FN127" s="21">
         <v>100</v>
       </c>
-      <c r="FO127" s="21">
+      <c r="FO127" s="13">
+        <v>100</v>
+      </c>
+      <c r="FP127" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:171" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:172" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="13">
         <v>0</v>
       </c>
@@ -26166,7 +26409,7 @@
       <c r="EZ128" s="13"/>
       <c r="FA128" s="13"/>
     </row>
-    <row r="129" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:172" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" s="13">
         <v>0</v>
       </c>
@@ -26326,7 +26569,7 @@
       <c r="EZ129" s="13"/>
       <c r="FA129" s="13"/>
     </row>
-    <row r="130" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:172" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" s="13">
         <v>0</v>
       </c>
@@ -26486,7 +26729,7 @@
       <c r="EZ130" s="13"/>
       <c r="FA130" s="13"/>
     </row>
-    <row r="131" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:172" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" s="13">
         <v>0</v>
       </c>
@@ -26646,7 +26889,7 @@
       <c r="EZ131" s="13"/>
       <c r="FA131" s="13"/>
     </row>
-    <row r="132" spans="1:171" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:172" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -26818,34 +27061,35 @@
       <c r="FM132" s="9"/>
       <c r="FN132" s="9"/>
       <c r="FO132" s="9"/>
+      <c r="FP132" s="9"/>
     </row>
-    <row r="133" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="139" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="FC139" s="3"/>
       <c r="FD139" s="3"/>
       <c r="FE139" s="3"/>
     </row>
-    <row r="140" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>46</v>
       </c>
@@ -26853,15 +27097,15 @@
       <c r="FD140" s="3"/>
       <c r="FE140" s="3"/>
     </row>
-    <row r="141" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="FC141" s="3"/>
       <c r="FD141" s="3"/>
       <c r="FE141" s="3"/>
     </row>
-    <row r="142" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>54</v>
       </c>
@@ -26869,272 +27113,273 @@
       <c r="FD142" s="3"/>
       <c r="FE142" s="3"/>
     </row>
-    <row r="143" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="FC143" s="3"/>
       <c r="FD143" s="3"/>
       <c r="FE143" s="3"/>
+      <c r="FP143" s="9"/>
     </row>
-    <row r="144" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
-      <c r="B144" s="26">
+      <c r="B144" s="30">
         <v>1981</v>
       </c>
-      <c r="C144" s="26"/>
-      <c r="D144" s="26"/>
-      <c r="E144" s="26"/>
-      <c r="F144" s="26">
+      <c r="C144" s="30"/>
+      <c r="D144" s="30"/>
+      <c r="E144" s="30"/>
+      <c r="F144" s="30">
         <v>1982</v>
       </c>
-      <c r="G144" s="26"/>
-      <c r="H144" s="26"/>
-      <c r="I144" s="26"/>
-      <c r="J144" s="26">
+      <c r="G144" s="30"/>
+      <c r="H144" s="30"/>
+      <c r="I144" s="30"/>
+      <c r="J144" s="30">
         <v>1983</v>
       </c>
-      <c r="K144" s="26"/>
-      <c r="L144" s="26"/>
-      <c r="M144" s="26"/>
-      <c r="N144" s="26">
+      <c r="K144" s="30"/>
+      <c r="L144" s="30"/>
+      <c r="M144" s="30"/>
+      <c r="N144" s="30">
         <v>1984</v>
       </c>
-      <c r="O144" s="26"/>
-      <c r="P144" s="26"/>
-      <c r="Q144" s="26"/>
-      <c r="R144" s="26">
+      <c r="O144" s="30"/>
+      <c r="P144" s="30"/>
+      <c r="Q144" s="30"/>
+      <c r="R144" s="30">
         <v>1985</v>
       </c>
-      <c r="S144" s="26"/>
-      <c r="T144" s="26"/>
-      <c r="U144" s="26"/>
-      <c r="V144" s="26">
+      <c r="S144" s="30"/>
+      <c r="T144" s="30"/>
+      <c r="U144" s="30"/>
+      <c r="V144" s="30">
         <v>1986</v>
       </c>
-      <c r="W144" s="26"/>
-      <c r="X144" s="26"/>
-      <c r="Y144" s="26"/>
-      <c r="Z144" s="26">
+      <c r="W144" s="30"/>
+      <c r="X144" s="30"/>
+      <c r="Y144" s="30"/>
+      <c r="Z144" s="30">
         <v>1987</v>
       </c>
-      <c r="AA144" s="26"/>
-      <c r="AB144" s="26"/>
-      <c r="AC144" s="26"/>
-      <c r="AD144" s="26">
+      <c r="AA144" s="30"/>
+      <c r="AB144" s="30"/>
+      <c r="AC144" s="30"/>
+      <c r="AD144" s="30">
         <v>1988</v>
       </c>
-      <c r="AE144" s="26"/>
-      <c r="AF144" s="26"/>
-      <c r="AG144" s="26"/>
-      <c r="AH144" s="26">
+      <c r="AE144" s="30"/>
+      <c r="AF144" s="30"/>
+      <c r="AG144" s="30"/>
+      <c r="AH144" s="30">
         <v>1989</v>
       </c>
-      <c r="AI144" s="26"/>
-      <c r="AJ144" s="26"/>
-      <c r="AK144" s="26"/>
-      <c r="AL144" s="26">
+      <c r="AI144" s="30"/>
+      <c r="AJ144" s="30"/>
+      <c r="AK144" s="30"/>
+      <c r="AL144" s="30">
         <v>1990</v>
       </c>
-      <c r="AM144" s="26"/>
-      <c r="AN144" s="26"/>
-      <c r="AO144" s="26"/>
-      <c r="AP144" s="26">
+      <c r="AM144" s="30"/>
+      <c r="AN144" s="30"/>
+      <c r="AO144" s="30"/>
+      <c r="AP144" s="30">
         <v>1991</v>
       </c>
-      <c r="AQ144" s="26"/>
-      <c r="AR144" s="26"/>
-      <c r="AS144" s="26"/>
-      <c r="AT144" s="26">
+      <c r="AQ144" s="30"/>
+      <c r="AR144" s="30"/>
+      <c r="AS144" s="30"/>
+      <c r="AT144" s="30">
         <v>1992</v>
       </c>
-      <c r="AU144" s="26"/>
-      <c r="AV144" s="26"/>
-      <c r="AW144" s="26"/>
-      <c r="AX144" s="26">
+      <c r="AU144" s="30"/>
+      <c r="AV144" s="30"/>
+      <c r="AW144" s="30"/>
+      <c r="AX144" s="30">
         <v>1993</v>
       </c>
-      <c r="AY144" s="26"/>
-      <c r="AZ144" s="26"/>
-      <c r="BA144" s="26"/>
-      <c r="BB144" s="26">
+      <c r="AY144" s="30"/>
+      <c r="AZ144" s="30"/>
+      <c r="BA144" s="30"/>
+      <c r="BB144" s="30">
         <v>1994</v>
       </c>
-      <c r="BC144" s="26"/>
-      <c r="BD144" s="26"/>
-      <c r="BE144" s="26"/>
-      <c r="BF144" s="26">
+      <c r="BC144" s="30"/>
+      <c r="BD144" s="30"/>
+      <c r="BE144" s="30"/>
+      <c r="BF144" s="30">
         <v>1995</v>
       </c>
-      <c r="BG144" s="26"/>
-      <c r="BH144" s="26"/>
-      <c r="BI144" s="26"/>
-      <c r="BJ144" s="26">
+      <c r="BG144" s="30"/>
+      <c r="BH144" s="30"/>
+      <c r="BI144" s="30"/>
+      <c r="BJ144" s="30">
         <v>1996</v>
       </c>
-      <c r="BK144" s="26"/>
-      <c r="BL144" s="26"/>
-      <c r="BM144" s="26"/>
-      <c r="BN144" s="26">
+      <c r="BK144" s="30"/>
+      <c r="BL144" s="30"/>
+      <c r="BM144" s="30"/>
+      <c r="BN144" s="30">
         <v>1997</v>
       </c>
-      <c r="BO144" s="26"/>
-      <c r="BP144" s="26"/>
-      <c r="BQ144" s="26"/>
-      <c r="BR144" s="26">
+      <c r="BO144" s="30"/>
+      <c r="BP144" s="30"/>
+      <c r="BQ144" s="30"/>
+      <c r="BR144" s="30">
         <v>1998</v>
       </c>
-      <c r="BS144" s="26"/>
-      <c r="BT144" s="26"/>
-      <c r="BU144" s="26"/>
-      <c r="BV144" s="26">
+      <c r="BS144" s="30"/>
+      <c r="BT144" s="30"/>
+      <c r="BU144" s="30"/>
+      <c r="BV144" s="30">
         <v>1999</v>
       </c>
-      <c r="BW144" s="26"/>
-      <c r="BX144" s="26"/>
-      <c r="BY144" s="26"/>
-      <c r="BZ144" s="26">
+      <c r="BW144" s="30"/>
+      <c r="BX144" s="30"/>
+      <c r="BY144" s="30"/>
+      <c r="BZ144" s="30">
         <v>2000</v>
       </c>
-      <c r="CA144" s="26"/>
-      <c r="CB144" s="26"/>
-      <c r="CC144" s="26"/>
-      <c r="CD144" s="26">
+      <c r="CA144" s="30"/>
+      <c r="CB144" s="30"/>
+      <c r="CC144" s="30"/>
+      <c r="CD144" s="30">
         <v>2001</v>
       </c>
-      <c r="CE144" s="26"/>
-      <c r="CF144" s="26"/>
-      <c r="CG144" s="26"/>
-      <c r="CH144" s="26">
+      <c r="CE144" s="30"/>
+      <c r="CF144" s="30"/>
+      <c r="CG144" s="30"/>
+      <c r="CH144" s="30">
         <v>2002</v>
       </c>
-      <c r="CI144" s="26"/>
-      <c r="CJ144" s="26"/>
-      <c r="CK144" s="26"/>
-      <c r="CL144" s="26">
+      <c r="CI144" s="30"/>
+      <c r="CJ144" s="30"/>
+      <c r="CK144" s="30"/>
+      <c r="CL144" s="30">
         <v>2003</v>
       </c>
-      <c r="CM144" s="26"/>
-      <c r="CN144" s="26"/>
-      <c r="CO144" s="26"/>
-      <c r="CP144" s="26">
+      <c r="CM144" s="30"/>
+      <c r="CN144" s="30"/>
+      <c r="CO144" s="30"/>
+      <c r="CP144" s="30">
         <v>2004</v>
       </c>
-      <c r="CQ144" s="26"/>
-      <c r="CR144" s="26"/>
-      <c r="CS144" s="26"/>
-      <c r="CT144" s="26">
+      <c r="CQ144" s="30"/>
+      <c r="CR144" s="30"/>
+      <c r="CS144" s="30"/>
+      <c r="CT144" s="30">
         <v>2005</v>
       </c>
-      <c r="CU144" s="26"/>
-      <c r="CV144" s="26"/>
-      <c r="CW144" s="26"/>
-      <c r="CX144" s="26">
+      <c r="CU144" s="30"/>
+      <c r="CV144" s="30"/>
+      <c r="CW144" s="30"/>
+      <c r="CX144" s="30">
         <v>2006</v>
       </c>
-      <c r="CY144" s="26"/>
-      <c r="CZ144" s="26"/>
-      <c r="DA144" s="26"/>
-      <c r="DB144" s="26">
+      <c r="CY144" s="30"/>
+      <c r="CZ144" s="30"/>
+      <c r="DA144" s="30"/>
+      <c r="DB144" s="30">
         <v>2007</v>
       </c>
-      <c r="DC144" s="26"/>
-      <c r="DD144" s="26"/>
-      <c r="DE144" s="26"/>
-      <c r="DF144" s="26">
+      <c r="DC144" s="30"/>
+      <c r="DD144" s="30"/>
+      <c r="DE144" s="30"/>
+      <c r="DF144" s="30">
         <v>2008</v>
       </c>
-      <c r="DG144" s="26"/>
-      <c r="DH144" s="26"/>
-      <c r="DI144" s="26"/>
-      <c r="DJ144" s="26">
+      <c r="DG144" s="30"/>
+      <c r="DH144" s="30"/>
+      <c r="DI144" s="30"/>
+      <c r="DJ144" s="30">
         <v>2009</v>
       </c>
-      <c r="DK144" s="26"/>
-      <c r="DL144" s="26"/>
-      <c r="DM144" s="26"/>
-      <c r="DN144" s="26">
+      <c r="DK144" s="30"/>
+      <c r="DL144" s="30"/>
+      <c r="DM144" s="30"/>
+      <c r="DN144" s="30">
         <v>2010</v>
       </c>
-      <c r="DO144" s="26"/>
-      <c r="DP144" s="26"/>
-      <c r="DQ144" s="26"/>
-      <c r="DR144" s="26">
+      <c r="DO144" s="30"/>
+      <c r="DP144" s="30"/>
+      <c r="DQ144" s="30"/>
+      <c r="DR144" s="30">
         <v>2011</v>
       </c>
-      <c r="DS144" s="26"/>
-      <c r="DT144" s="26"/>
-      <c r="DU144" s="26"/>
-      <c r="DV144" s="26">
+      <c r="DS144" s="30"/>
+      <c r="DT144" s="30"/>
+      <c r="DU144" s="30"/>
+      <c r="DV144" s="30">
         <v>2012</v>
       </c>
-      <c r="DW144" s="26"/>
-      <c r="DX144" s="26"/>
-      <c r="DY144" s="26"/>
-      <c r="DZ144" s="26">
+      <c r="DW144" s="30"/>
+      <c r="DX144" s="30"/>
+      <c r="DY144" s="30"/>
+      <c r="DZ144" s="30">
         <v>2013</v>
       </c>
-      <c r="EA144" s="26"/>
-      <c r="EB144" s="26"/>
-      <c r="EC144" s="26"/>
-      <c r="ED144" s="26">
+      <c r="EA144" s="30"/>
+      <c r="EB144" s="30"/>
+      <c r="EC144" s="30"/>
+      <c r="ED144" s="30">
         <v>2014</v>
       </c>
-      <c r="EE144" s="26"/>
-      <c r="EF144" s="26"/>
-      <c r="EG144" s="26"/>
-      <c r="EH144" s="26">
+      <c r="EE144" s="30"/>
+      <c r="EF144" s="30"/>
+      <c r="EG144" s="30"/>
+      <c r="EH144" s="30">
         <v>2015</v>
       </c>
-      <c r="EI144" s="26"/>
-      <c r="EJ144" s="26"/>
-      <c r="EK144" s="26"/>
-      <c r="EL144" s="26">
+      <c r="EI144" s="30"/>
+      <c r="EJ144" s="30"/>
+      <c r="EK144" s="30"/>
+      <c r="EL144" s="30">
         <v>2016</v>
       </c>
-      <c r="EM144" s="26"/>
-      <c r="EN144" s="26"/>
-      <c r="EO144" s="26"/>
-      <c r="EP144" s="26">
+      <c r="EM144" s="30"/>
+      <c r="EN144" s="30"/>
+      <c r="EO144" s="30"/>
+      <c r="EP144" s="30">
         <v>2017</v>
       </c>
-      <c r="EQ144" s="26"/>
-      <c r="ER144" s="26"/>
-      <c r="ES144" s="26"/>
-      <c r="ET144" s="26">
+      <c r="EQ144" s="30"/>
+      <c r="ER144" s="30"/>
+      <c r="ES144" s="30"/>
+      <c r="ET144" s="30">
         <v>2018</v>
       </c>
-      <c r="EU144" s="26"/>
-      <c r="EV144" s="26"/>
-      <c r="EW144" s="26"/>
-      <c r="EX144" s="26">
+      <c r="EU144" s="30"/>
+      <c r="EV144" s="30"/>
+      <c r="EW144" s="30"/>
+      <c r="EX144" s="30">
         <v>2019</v>
       </c>
-      <c r="EY144" s="26"/>
-      <c r="EZ144" s="26"/>
-      <c r="FA144" s="26"/>
-      <c r="FB144" s="26">
+      <c r="EY144" s="30"/>
+      <c r="EZ144" s="30"/>
+      <c r="FA144" s="30"/>
+      <c r="FB144" s="30">
         <v>2020</v>
       </c>
-      <c r="FC144" s="26"/>
-      <c r="FD144" s="26"/>
+      <c r="FC144" s="30"/>
+      <c r="FD144" s="30"/>
       <c r="FE144" s="4"/>
-      <c r="FF144" s="26">
+      <c r="FF144" s="30">
         <v>2021</v>
       </c>
-      <c r="FG144" s="26"/>
-      <c r="FH144" s="26"/>
-      <c r="FI144" s="26"/>
-      <c r="FJ144" s="26">
+      <c r="FG144" s="30"/>
+      <c r="FH144" s="30"/>
+      <c r="FI144" s="30"/>
+      <c r="FJ144" s="30">
         <v>2022</v>
       </c>
-      <c r="FK144" s="26"/>
-      <c r="FL144" s="26"/>
-      <c r="FM144" s="26"/>
-      <c r="FN144" s="26">
+      <c r="FK144" s="30"/>
+      <c r="FL144" s="30"/>
+      <c r="FM144" s="30"/>
+      <c r="FN144" s="30">
         <v>2023</v>
       </c>
-      <c r="FO144" s="26"/>
+      <c r="FO144" s="30"/>
     </row>
-    <row r="145" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
         <v>14</v>
       </c>
@@ -27648,11 +27893,14 @@
       <c r="FO145" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="FP145" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="146" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:173" x14ac:dyDescent="0.2">
       <c r="FB146" s="2"/>
     </row>
-    <row r="147" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>1</v>
       </c>
@@ -28163,11 +28411,14 @@
       <c r="FN147" s="21">
         <v>75.292846280277573</v>
       </c>
-      <c r="FO147" s="21">
-        <v>68.8284290502083</v>
+      <c r="FO147" s="13">
+        <v>68.829476708023634</v>
+      </c>
+      <c r="FP147" s="13">
+        <v>72.911344607737192</v>
       </c>
     </row>
-    <row r="148" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>2</v>
       </c>
@@ -28678,11 +28929,14 @@
       <c r="FN148" s="21">
         <v>14.575237157637655</v>
       </c>
-      <c r="FO148" s="21">
-        <v>16.10304853505523</v>
+      <c r="FO148" s="13">
+        <v>16.101079673026248</v>
+      </c>
+      <c r="FP148" s="13">
+        <v>14.753502005791816</v>
       </c>
     </row>
-    <row r="149" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>3</v>
       </c>
@@ -29193,11 +29447,14 @@
       <c r="FN149" s="21">
         <v>23.008412089437851</v>
       </c>
-      <c r="FO149" s="21">
-        <v>25.847562823595936</v>
+      <c r="FO149" s="13">
+        <v>25.921325856863042</v>
+      </c>
+      <c r="FP149" s="13">
+        <v>20.919575428511493</v>
       </c>
     </row>
-    <row r="150" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>4</v>
       </c>
@@ -29708,11 +29965,14 @@
       <c r="FN150" s="21">
         <v>28.009584620365128</v>
       </c>
-      <c r="FO150" s="21">
-        <v>27.209933127735692</v>
+      <c r="FO150" s="13">
+        <v>27.294961908606975</v>
+      </c>
+      <c r="FP150" s="13">
+        <v>31.108095338090685</v>
       </c>
     </row>
-    <row r="151" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>5</v>
       </c>
@@ -30223,11 +30483,15 @@
       <c r="FN151" s="21">
         <v>40.537656160477788</v>
       </c>
-      <c r="FO151" s="21">
-        <v>38.916579798542834</v>
-      </c>
+      <c r="FO151" s="13">
+        <v>38.835891146997106</v>
+      </c>
+      <c r="FP151" s="13">
+        <v>40.056729510667708</v>
+      </c>
+      <c r="FQ151" s="13"/>
     </row>
-    <row r="152" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:173" x14ac:dyDescent="0.2">
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
       <c r="D152" s="13"/>
@@ -30398,8 +30662,9 @@
       <c r="FM152" s="21"/>
       <c r="FN152" s="21"/>
       <c r="FO152" s="21"/>
+      <c r="FP152" s="21"/>
     </row>
-    <row r="153" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:173" x14ac:dyDescent="0.2">
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
       <c r="D153" s="13"/>
@@ -30570,8 +30835,9 @@
       <c r="FM153" s="21"/>
       <c r="FN153" s="21"/>
       <c r="FO153" s="21"/>
+      <c r="FP153" s="21"/>
     </row>
-    <row r="154" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="s">
         <v>10</v>
       </c>
@@ -31085,8 +31351,11 @@
       <c r="FO154" s="21">
         <v>100</v>
       </c>
+      <c r="FP154" s="21">
+        <v>100</v>
+      </c>
     </row>
-    <row r="155" spans="1:171" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:173" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
       <c r="D155" s="13"/>
@@ -31244,7 +31513,7 @@
       <c r="EZ155" s="13"/>
       <c r="FA155" s="13"/>
     </row>
-    <row r="156" spans="1:171" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:173" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
       <c r="D156" s="13"/>
@@ -31402,7 +31671,7 @@
       <c r="EZ156" s="13"/>
       <c r="FA156" s="13"/>
     </row>
-    <row r="157" spans="1:171" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:173" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
       <c r="D157" s="13"/>
@@ -31560,7 +31829,7 @@
       <c r="EZ157" s="13"/>
       <c r="FA157" s="13"/>
     </row>
-    <row r="158" spans="1:171" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:173" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
       <c r="D158" s="13"/>
@@ -31718,7 +31987,7 @@
       <c r="EZ158" s="13"/>
       <c r="FA158" s="13"/>
     </row>
-    <row r="159" spans="1:171" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:173" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
@@ -31890,31 +32159,32 @@
       <c r="FM159" s="9"/>
       <c r="FN159" s="9"/>
       <c r="FO159" s="9"/>
+      <c r="FP159" s="9"/>
     </row>
-    <row r="160" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="166" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
     </row>
-    <row r="167" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>47</v>
       </c>
@@ -31922,15 +32192,15 @@
       <c r="FD167" s="3"/>
       <c r="FE167" s="3"/>
     </row>
-    <row r="168" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A168" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="FC168" s="3"/>
       <c r="FD168" s="3"/>
       <c r="FE168" s="3"/>
     </row>
-    <row r="169" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>11</v>
       </c>
@@ -31938,272 +32208,274 @@
       <c r="FD169" s="3"/>
       <c r="FE169" s="3"/>
     </row>
-    <row r="170" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="FC170" s="3"/>
       <c r="FD170" s="3"/>
       <c r="FE170" s="3"/>
+      <c r="FP170" s="9"/>
     </row>
-    <row r="171" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
-      <c r="B171" s="26">
+      <c r="B171" s="30">
         <v>1981</v>
       </c>
-      <c r="C171" s="26"/>
-      <c r="D171" s="26"/>
-      <c r="E171" s="26"/>
-      <c r="F171" s="26">
+      <c r="C171" s="30"/>
+      <c r="D171" s="30"/>
+      <c r="E171" s="30"/>
+      <c r="F171" s="30">
         <v>1982</v>
       </c>
-      <c r="G171" s="26"/>
-      <c r="H171" s="26"/>
-      <c r="I171" s="26"/>
-      <c r="J171" s="26">
+      <c r="G171" s="30"/>
+      <c r="H171" s="30"/>
+      <c r="I171" s="30"/>
+      <c r="J171" s="30">
         <v>1983</v>
       </c>
-      <c r="K171" s="26"/>
-      <c r="L171" s="26"/>
-      <c r="M171" s="26"/>
-      <c r="N171" s="26">
+      <c r="K171" s="30"/>
+      <c r="L171" s="30"/>
+      <c r="M171" s="30"/>
+      <c r="N171" s="30">
         <v>1984</v>
       </c>
-      <c r="O171" s="26"/>
-      <c r="P171" s="26"/>
-      <c r="Q171" s="26"/>
-      <c r="R171" s="26">
+      <c r="O171" s="30"/>
+      <c r="P171" s="30"/>
+      <c r="Q171" s="30"/>
+      <c r="R171" s="30">
         <v>1985</v>
       </c>
-      <c r="S171" s="26"/>
-      <c r="T171" s="26"/>
-      <c r="U171" s="26"/>
-      <c r="V171" s="26">
+      <c r="S171" s="30"/>
+      <c r="T171" s="30"/>
+      <c r="U171" s="30"/>
+      <c r="V171" s="30">
         <v>1986</v>
       </c>
-      <c r="W171" s="26"/>
-      <c r="X171" s="26"/>
-      <c r="Y171" s="26"/>
-      <c r="Z171" s="26">
+      <c r="W171" s="30"/>
+      <c r="X171" s="30"/>
+      <c r="Y171" s="30"/>
+      <c r="Z171" s="30">
         <v>1987</v>
       </c>
-      <c r="AA171" s="26"/>
-      <c r="AB171" s="26"/>
-      <c r="AC171" s="26"/>
-      <c r="AD171" s="26">
+      <c r="AA171" s="30"/>
+      <c r="AB171" s="30"/>
+      <c r="AC171" s="30"/>
+      <c r="AD171" s="30">
         <v>1988</v>
       </c>
-      <c r="AE171" s="26"/>
-      <c r="AF171" s="26"/>
-      <c r="AG171" s="26"/>
-      <c r="AH171" s="26">
+      <c r="AE171" s="30"/>
+      <c r="AF171" s="30"/>
+      <c r="AG171" s="30"/>
+      <c r="AH171" s="30">
         <v>1989</v>
       </c>
-      <c r="AI171" s="26"/>
-      <c r="AJ171" s="26"/>
-      <c r="AK171" s="26"/>
-      <c r="AL171" s="26">
+      <c r="AI171" s="30"/>
+      <c r="AJ171" s="30"/>
+      <c r="AK171" s="30"/>
+      <c r="AL171" s="30">
         <v>1990</v>
       </c>
-      <c r="AM171" s="26"/>
-      <c r="AN171" s="26"/>
-      <c r="AO171" s="26"/>
-      <c r="AP171" s="26">
+      <c r="AM171" s="30"/>
+      <c r="AN171" s="30"/>
+      <c r="AO171" s="30"/>
+      <c r="AP171" s="30">
         <v>1991</v>
       </c>
-      <c r="AQ171" s="26"/>
-      <c r="AR171" s="26"/>
-      <c r="AS171" s="26"/>
-      <c r="AT171" s="26">
+      <c r="AQ171" s="30"/>
+      <c r="AR171" s="30"/>
+      <c r="AS171" s="30"/>
+      <c r="AT171" s="30">
         <v>1992</v>
       </c>
-      <c r="AU171" s="26"/>
-      <c r="AV171" s="26"/>
-      <c r="AW171" s="26"/>
-      <c r="AX171" s="26">
+      <c r="AU171" s="30"/>
+      <c r="AV171" s="30"/>
+      <c r="AW171" s="30"/>
+      <c r="AX171" s="30">
         <v>1993</v>
       </c>
-      <c r="AY171" s="26"/>
-      <c r="AZ171" s="26"/>
-      <c r="BA171" s="26"/>
-      <c r="BB171" s="26">
+      <c r="AY171" s="30"/>
+      <c r="AZ171" s="30"/>
+      <c r="BA171" s="30"/>
+      <c r="BB171" s="30">
         <v>1994</v>
       </c>
-      <c r="BC171" s="26"/>
-      <c r="BD171" s="26"/>
-      <c r="BE171" s="26"/>
-      <c r="BF171" s="26">
+      <c r="BC171" s="30"/>
+      <c r="BD171" s="30"/>
+      <c r="BE171" s="30"/>
+      <c r="BF171" s="30">
         <v>1995</v>
       </c>
-      <c r="BG171" s="26"/>
-      <c r="BH171" s="26"/>
-      <c r="BI171" s="26"/>
-      <c r="BJ171" s="26">
+      <c r="BG171" s="30"/>
+      <c r="BH171" s="30"/>
+      <c r="BI171" s="30"/>
+      <c r="BJ171" s="30">
         <v>1996</v>
       </c>
-      <c r="BK171" s="26"/>
-      <c r="BL171" s="26"/>
-      <c r="BM171" s="26"/>
-      <c r="BN171" s="26">
+      <c r="BK171" s="30"/>
+      <c r="BL171" s="30"/>
+      <c r="BM171" s="30"/>
+      <c r="BN171" s="30">
         <v>1997</v>
       </c>
-      <c r="BO171" s="26"/>
-      <c r="BP171" s="26"/>
-      <c r="BQ171" s="26"/>
-      <c r="BR171" s="26">
+      <c r="BO171" s="30"/>
+      <c r="BP171" s="30"/>
+      <c r="BQ171" s="30"/>
+      <c r="BR171" s="30">
         <v>1998</v>
       </c>
-      <c r="BS171" s="26"/>
-      <c r="BT171" s="26"/>
-      <c r="BU171" s="26"/>
-      <c r="BV171" s="26">
+      <c r="BS171" s="30"/>
+      <c r="BT171" s="30"/>
+      <c r="BU171" s="30"/>
+      <c r="BV171" s="30">
         <v>1999</v>
       </c>
-      <c r="BW171" s="26"/>
-      <c r="BX171" s="26"/>
-      <c r="BY171" s="26"/>
-      <c r="BZ171" s="26">
+      <c r="BW171" s="30"/>
+      <c r="BX171" s="30"/>
+      <c r="BY171" s="30"/>
+      <c r="BZ171" s="30">
         <v>2000</v>
       </c>
-      <c r="CA171" s="26"/>
-      <c r="CB171" s="26"/>
-      <c r="CC171" s="26"/>
-      <c r="CD171" s="26">
+      <c r="CA171" s="30"/>
+      <c r="CB171" s="30"/>
+      <c r="CC171" s="30"/>
+      <c r="CD171" s="30">
         <v>2001</v>
       </c>
-      <c r="CE171" s="26"/>
-      <c r="CF171" s="26"/>
-      <c r="CG171" s="26"/>
-      <c r="CH171" s="26">
+      <c r="CE171" s="30"/>
+      <c r="CF171" s="30"/>
+      <c r="CG171" s="30"/>
+      <c r="CH171" s="30">
         <v>2002</v>
       </c>
-      <c r="CI171" s="26"/>
-      <c r="CJ171" s="26"/>
-      <c r="CK171" s="26"/>
-      <c r="CL171" s="26">
+      <c r="CI171" s="30"/>
+      <c r="CJ171" s="30"/>
+      <c r="CK171" s="30"/>
+      <c r="CL171" s="30">
         <v>2003</v>
       </c>
-      <c r="CM171" s="26"/>
-      <c r="CN171" s="26"/>
-      <c r="CO171" s="26"/>
-      <c r="CP171" s="26">
+      <c r="CM171" s="30"/>
+      <c r="CN171" s="30"/>
+      <c r="CO171" s="30"/>
+      <c r="CP171" s="30">
         <v>2004</v>
       </c>
-      <c r="CQ171" s="26"/>
-      <c r="CR171" s="26"/>
-      <c r="CS171" s="26"/>
-      <c r="CT171" s="26">
+      <c r="CQ171" s="30"/>
+      <c r="CR171" s="30"/>
+      <c r="CS171" s="30"/>
+      <c r="CT171" s="30">
         <v>2005</v>
       </c>
-      <c r="CU171" s="26"/>
-      <c r="CV171" s="26"/>
-      <c r="CW171" s="26"/>
-      <c r="CX171" s="26">
+      <c r="CU171" s="30"/>
+      <c r="CV171" s="30"/>
+      <c r="CW171" s="30"/>
+      <c r="CX171" s="30">
         <v>2006</v>
       </c>
-      <c r="CY171" s="26"/>
-      <c r="CZ171" s="26"/>
-      <c r="DA171" s="26"/>
-      <c r="DB171" s="26">
+      <c r="CY171" s="30"/>
+      <c r="CZ171" s="30"/>
+      <c r="DA171" s="30"/>
+      <c r="DB171" s="30">
         <v>2007</v>
       </c>
-      <c r="DC171" s="26"/>
-      <c r="DD171" s="26"/>
-      <c r="DE171" s="26"/>
-      <c r="DF171" s="26">
+      <c r="DC171" s="30"/>
+      <c r="DD171" s="30"/>
+      <c r="DE171" s="30"/>
+      <c r="DF171" s="30">
         <v>2008</v>
       </c>
-      <c r="DG171" s="26"/>
-      <c r="DH171" s="26"/>
-      <c r="DI171" s="26"/>
-      <c r="DJ171" s="26">
+      <c r="DG171" s="30"/>
+      <c r="DH171" s="30"/>
+      <c r="DI171" s="30"/>
+      <c r="DJ171" s="30">
         <v>2009</v>
       </c>
-      <c r="DK171" s="26"/>
-      <c r="DL171" s="26"/>
-      <c r="DM171" s="26"/>
-      <c r="DN171" s="26">
+      <c r="DK171" s="30"/>
+      <c r="DL171" s="30"/>
+      <c r="DM171" s="30"/>
+      <c r="DN171" s="30">
         <v>2010</v>
       </c>
-      <c r="DO171" s="26"/>
-      <c r="DP171" s="26"/>
-      <c r="DQ171" s="26"/>
-      <c r="DR171" s="26">
+      <c r="DO171" s="30"/>
+      <c r="DP171" s="30"/>
+      <c r="DQ171" s="30"/>
+      <c r="DR171" s="30">
         <v>2011</v>
       </c>
-      <c r="DS171" s="26"/>
-      <c r="DT171" s="26"/>
-      <c r="DU171" s="26"/>
-      <c r="DV171" s="26">
+      <c r="DS171" s="30"/>
+      <c r="DT171" s="30"/>
+      <c r="DU171" s="30"/>
+      <c r="DV171" s="30">
         <v>2012</v>
       </c>
-      <c r="DW171" s="26"/>
-      <c r="DX171" s="26"/>
-      <c r="DY171" s="26"/>
-      <c r="DZ171" s="26">
+      <c r="DW171" s="30"/>
+      <c r="DX171" s="30"/>
+      <c r="DY171" s="30"/>
+      <c r="DZ171" s="30">
         <v>2013</v>
       </c>
-      <c r="EA171" s="26"/>
-      <c r="EB171" s="26"/>
-      <c r="EC171" s="26"/>
-      <c r="ED171" s="26">
+      <c r="EA171" s="30"/>
+      <c r="EB171" s="30"/>
+      <c r="EC171" s="30"/>
+      <c r="ED171" s="30">
         <v>2014</v>
       </c>
-      <c r="EE171" s="26"/>
-      <c r="EF171" s="26"/>
-      <c r="EG171" s="26"/>
-      <c r="EH171" s="26">
+      <c r="EE171" s="30"/>
+      <c r="EF171" s="30"/>
+      <c r="EG171" s="30"/>
+      <c r="EH171" s="30">
         <v>2015</v>
       </c>
-      <c r="EI171" s="26"/>
-      <c r="EJ171" s="26"/>
-      <c r="EK171" s="26"/>
-      <c r="EL171" s="26">
+      <c r="EI171" s="30"/>
+      <c r="EJ171" s="30"/>
+      <c r="EK171" s="30"/>
+      <c r="EL171" s="30">
         <v>2016</v>
       </c>
-      <c r="EM171" s="26"/>
-      <c r="EN171" s="26"/>
-      <c r="EO171" s="26"/>
-      <c r="EP171" s="26">
+      <c r="EM171" s="30"/>
+      <c r="EN171" s="30"/>
+      <c r="EO171" s="30"/>
+      <c r="EP171" s="30">
         <v>2017</v>
       </c>
-      <c r="EQ171" s="26"/>
-      <c r="ER171" s="26"/>
-      <c r="ES171" s="26"/>
-      <c r="ET171" s="26">
+      <c r="EQ171" s="30"/>
+      <c r="ER171" s="30"/>
+      <c r="ES171" s="30"/>
+      <c r="ET171" s="30">
         <v>2018</v>
       </c>
-      <c r="EU171" s="26"/>
-      <c r="EV171" s="26"/>
-      <c r="EW171" s="26"/>
-      <c r="EX171" s="26">
+      <c r="EU171" s="30"/>
+      <c r="EV171" s="30"/>
+      <c r="EW171" s="30"/>
+      <c r="EX171" s="30">
         <v>2019</v>
       </c>
-      <c r="EY171" s="26"/>
-      <c r="EZ171" s="26"/>
-      <c r="FA171" s="26"/>
-      <c r="FB171" s="26">
+      <c r="EY171" s="30"/>
+      <c r="EZ171" s="30"/>
+      <c r="FA171" s="30"/>
+      <c r="FB171" s="30">
         <v>2020</v>
       </c>
-      <c r="FC171" s="26"/>
-      <c r="FD171" s="26"/>
+      <c r="FC171" s="30"/>
+      <c r="FD171" s="30"/>
       <c r="FE171" s="4"/>
-      <c r="FF171" s="26">
+      <c r="FF171" s="30">
         <v>2021</v>
       </c>
-      <c r="FG171" s="26"/>
-      <c r="FH171" s="26"/>
-      <c r="FI171" s="26"/>
-      <c r="FJ171" s="26">
+      <c r="FG171" s="30"/>
+      <c r="FH171" s="30"/>
+      <c r="FI171" s="30"/>
+      <c r="FJ171" s="30">
         <v>2022</v>
       </c>
-      <c r="FK171" s="26"/>
-      <c r="FL171" s="26"/>
-      <c r="FM171" s="26"/>
-      <c r="FN171" s="26">
+      <c r="FK171" s="30"/>
+      <c r="FL171" s="30"/>
+      <c r="FM171" s="30"/>
+      <c r="FN171" s="30">
         <v>2023</v>
       </c>
-      <c r="FO171" s="26"/>
+      <c r="FO171" s="30"/>
+      <c r="FP171" s="30"/>
     </row>
-    <row r="172" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
         <v>13</v>
       </c>
@@ -32717,11 +32989,14 @@
       <c r="FO172" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="FP172" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="173" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:172" x14ac:dyDescent="0.2">
       <c r="FB173" s="2"/>
     </row>
-    <row r="174" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="15" t="s">
         <v>74</v>
       </c>
@@ -33232,11 +33507,14 @@
       <c r="FN174" s="23">
         <v>566965.91241227987</v>
       </c>
-      <c r="FO174" s="23">
-        <v>502821.82494731643</v>
+      <c r="FO174" s="27">
+        <v>503274.48194832471</v>
+      </c>
+      <c r="FP174" s="27">
+        <v>511098.93678850296</v>
       </c>
     </row>
-    <row r="175" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="15" t="s">
         <v>75</v>
       </c>
@@ -33747,11 +34025,14 @@
       <c r="FN175" s="23">
         <v>1641550.3232921851</v>
       </c>
-      <c r="FO175" s="23">
-        <v>1732053.5851382003</v>
+      <c r="FO175" s="27">
+        <v>1732463.9863531</v>
+      </c>
+      <c r="FP175" s="27">
+        <v>1418964.3666051482</v>
       </c>
     </row>
-    <row r="176" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="15" t="s">
         <v>76</v>
       </c>
@@ -34262,11 +34543,14 @@
       <c r="FN176" s="23">
         <v>3392386.9910903471</v>
       </c>
-      <c r="FO176" s="23">
-        <v>3650701.1569852298</v>
+      <c r="FO176" s="27">
+        <v>3651663.5983134755</v>
+      </c>
+      <c r="FP176" s="27">
+        <v>3815651.2303143018</v>
       </c>
     </row>
-    <row r="177" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A177" s="16"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -34438,8 +34722,9 @@
       <c r="FM177" s="7"/>
       <c r="FN177" s="7"/>
       <c r="FO177" s="7"/>
+      <c r="FP177" s="7"/>
     </row>
-    <row r="178" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>10</v>
       </c>
@@ -34950,11 +35235,14 @@
       <c r="FN178" s="7">
         <v>5600903.2267948119</v>
       </c>
-      <c r="FO178" s="7">
-        <v>5885576.5670707468</v>
+      <c r="FO178" s="27">
+        <v>5887402.0666149054</v>
+      </c>
+      <c r="FP178" s="27">
+        <v>5745714.5337079531</v>
       </c>
     </row>
-    <row r="179" spans="1:171" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:172" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
@@ -35118,7 +35406,7 @@
         <v>-24370.119758612476</v>
       </c>
     </row>
-    <row r="180" spans="1:171" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:172" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
@@ -35278,7 +35566,7 @@
       <c r="FB180" s="7"/>
       <c r="FC180" s="7"/>
     </row>
-    <row r="181" spans="1:171" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:172" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
@@ -35442,7 +35730,7 @@
         <v>4857262.3839106075</v>
       </c>
     </row>
-    <row r="182" spans="1:171" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:172" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
@@ -35600,7 +35888,7 @@
       <c r="EZ182" s="7"/>
       <c r="FA182" s="7"/>
     </row>
-    <row r="183" spans="1:171" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:172" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="9"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
@@ -35772,32 +36060,33 @@
       <c r="FM183" s="9"/>
       <c r="FN183" s="9"/>
       <c r="FO183" s="9"/>
+      <c r="FP183" s="9"/>
     </row>
-    <row r="184" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:172" x14ac:dyDescent="0.2">
       <c r="E185" s="10"/>
       <c r="I185" s="10"/>
     </row>
-    <row r="186" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:172" x14ac:dyDescent="0.2">
       <c r="FB186" s="2"/>
     </row>
-    <row r="187" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -35956,7 +36245,7 @@
       <c r="EZ189" s="2"/>
       <c r="FA189" s="2"/>
     </row>
-    <row r="190" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -36115,7 +36404,7 @@
       <c r="EZ190" s="2"/>
       <c r="FA190" s="2"/>
     </row>
-    <row r="191" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>48</v>
       </c>
@@ -36276,9 +36565,9 @@
       <c r="EZ191" s="2"/>
       <c r="FA191" s="2"/>
     </row>
-    <row r="192" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -36437,7 +36726,7 @@
       <c r="EZ192" s="2"/>
       <c r="FA192" s="2"/>
     </row>
-    <row r="193" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>12</v>
       </c>
@@ -36598,7 +36887,7 @@
       <c r="EZ193" s="2"/>
       <c r="FA193" s="2"/>
     </row>
-    <row r="194" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -36756,267 +37045,268 @@
       <c r="EY194" s="2"/>
       <c r="EZ194" s="2"/>
       <c r="FA194" s="2"/>
+      <c r="FP194" s="28"/>
     </row>
-    <row r="195" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
-      <c r="B195" s="26">
+      <c r="B195" s="30">
         <v>1981</v>
       </c>
-      <c r="C195" s="26"/>
-      <c r="D195" s="26"/>
-      <c r="E195" s="26"/>
-      <c r="F195" s="26">
+      <c r="C195" s="30"/>
+      <c r="D195" s="30"/>
+      <c r="E195" s="30"/>
+      <c r="F195" s="30">
         <v>1982</v>
       </c>
-      <c r="G195" s="26"/>
-      <c r="H195" s="26"/>
-      <c r="I195" s="26"/>
-      <c r="J195" s="26">
+      <c r="G195" s="30"/>
+      <c r="H195" s="30"/>
+      <c r="I195" s="30"/>
+      <c r="J195" s="30">
         <v>1983</v>
       </c>
-      <c r="K195" s="26"/>
-      <c r="L195" s="26"/>
-      <c r="M195" s="26"/>
-      <c r="N195" s="26">
+      <c r="K195" s="30"/>
+      <c r="L195" s="30"/>
+      <c r="M195" s="30"/>
+      <c r="N195" s="30">
         <v>1984</v>
       </c>
-      <c r="O195" s="26"/>
-      <c r="P195" s="26"/>
-      <c r="Q195" s="26"/>
-      <c r="R195" s="26">
+      <c r="O195" s="30"/>
+      <c r="P195" s="30"/>
+      <c r="Q195" s="30"/>
+      <c r="R195" s="30">
         <v>1985</v>
       </c>
-      <c r="S195" s="26"/>
-      <c r="T195" s="26"/>
-      <c r="U195" s="26"/>
-      <c r="V195" s="26">
+      <c r="S195" s="30"/>
+      <c r="T195" s="30"/>
+      <c r="U195" s="30"/>
+      <c r="V195" s="30">
         <v>1986</v>
       </c>
-      <c r="W195" s="26"/>
-      <c r="X195" s="26"/>
-      <c r="Y195" s="26"/>
-      <c r="Z195" s="26">
+      <c r="W195" s="30"/>
+      <c r="X195" s="30"/>
+      <c r="Y195" s="30"/>
+      <c r="Z195" s="30">
         <v>1987</v>
       </c>
-      <c r="AA195" s="26"/>
-      <c r="AB195" s="26"/>
-      <c r="AC195" s="26"/>
-      <c r="AD195" s="26">
+      <c r="AA195" s="30"/>
+      <c r="AB195" s="30"/>
+      <c r="AC195" s="30"/>
+      <c r="AD195" s="30">
         <v>1988</v>
       </c>
-      <c r="AE195" s="26"/>
-      <c r="AF195" s="26"/>
-      <c r="AG195" s="26"/>
-      <c r="AH195" s="26">
+      <c r="AE195" s="30"/>
+      <c r="AF195" s="30"/>
+      <c r="AG195" s="30"/>
+      <c r="AH195" s="30">
         <v>1989</v>
       </c>
-      <c r="AI195" s="26"/>
-      <c r="AJ195" s="26"/>
-      <c r="AK195" s="26"/>
-      <c r="AL195" s="26">
+      <c r="AI195" s="30"/>
+      <c r="AJ195" s="30"/>
+      <c r="AK195" s="30"/>
+      <c r="AL195" s="30">
         <v>1990</v>
       </c>
-      <c r="AM195" s="26"/>
-      <c r="AN195" s="26"/>
-      <c r="AO195" s="26"/>
-      <c r="AP195" s="26">
+      <c r="AM195" s="30"/>
+      <c r="AN195" s="30"/>
+      <c r="AO195" s="30"/>
+      <c r="AP195" s="30">
         <v>1991</v>
       </c>
-      <c r="AQ195" s="26"/>
-      <c r="AR195" s="26"/>
-      <c r="AS195" s="26"/>
-      <c r="AT195" s="26">
+      <c r="AQ195" s="30"/>
+      <c r="AR195" s="30"/>
+      <c r="AS195" s="30"/>
+      <c r="AT195" s="30">
         <v>1992</v>
       </c>
-      <c r="AU195" s="26"/>
-      <c r="AV195" s="26"/>
-      <c r="AW195" s="26"/>
-      <c r="AX195" s="26">
+      <c r="AU195" s="30"/>
+      <c r="AV195" s="30"/>
+      <c r="AW195" s="30"/>
+      <c r="AX195" s="30">
         <v>1993</v>
       </c>
-      <c r="AY195" s="26"/>
-      <c r="AZ195" s="26"/>
-      <c r="BA195" s="26"/>
-      <c r="BB195" s="26">
+      <c r="AY195" s="30"/>
+      <c r="AZ195" s="30"/>
+      <c r="BA195" s="30"/>
+      <c r="BB195" s="30">
         <v>1994</v>
       </c>
-      <c r="BC195" s="26"/>
-      <c r="BD195" s="26"/>
-      <c r="BE195" s="26"/>
-      <c r="BF195" s="26">
+      <c r="BC195" s="30"/>
+      <c r="BD195" s="30"/>
+      <c r="BE195" s="30"/>
+      <c r="BF195" s="30">
         <v>1995</v>
       </c>
-      <c r="BG195" s="26"/>
-      <c r="BH195" s="26"/>
-      <c r="BI195" s="26"/>
-      <c r="BJ195" s="26">
+      <c r="BG195" s="30"/>
+      <c r="BH195" s="30"/>
+      <c r="BI195" s="30"/>
+      <c r="BJ195" s="30">
         <v>1996</v>
       </c>
-      <c r="BK195" s="26"/>
-      <c r="BL195" s="26"/>
-      <c r="BM195" s="26"/>
-      <c r="BN195" s="26">
+      <c r="BK195" s="30"/>
+      <c r="BL195" s="30"/>
+      <c r="BM195" s="30"/>
+      <c r="BN195" s="30">
         <v>1997</v>
       </c>
-      <c r="BO195" s="26"/>
-      <c r="BP195" s="26"/>
-      <c r="BQ195" s="26"/>
-      <c r="BR195" s="26">
+      <c r="BO195" s="30"/>
+      <c r="BP195" s="30"/>
+      <c r="BQ195" s="30"/>
+      <c r="BR195" s="30">
         <v>1998</v>
       </c>
-      <c r="BS195" s="26"/>
-      <c r="BT195" s="26"/>
-      <c r="BU195" s="26"/>
-      <c r="BV195" s="26">
+      <c r="BS195" s="30"/>
+      <c r="BT195" s="30"/>
+      <c r="BU195" s="30"/>
+      <c r="BV195" s="30">
         <v>1999</v>
       </c>
-      <c r="BW195" s="26"/>
-      <c r="BX195" s="26"/>
-      <c r="BY195" s="26"/>
-      <c r="BZ195" s="26">
+      <c r="BW195" s="30"/>
+      <c r="BX195" s="30"/>
+      <c r="BY195" s="30"/>
+      <c r="BZ195" s="30">
         <v>2000</v>
       </c>
-      <c r="CA195" s="26"/>
-      <c r="CB195" s="26"/>
-      <c r="CC195" s="26"/>
-      <c r="CD195" s="26">
+      <c r="CA195" s="30"/>
+      <c r="CB195" s="30"/>
+      <c r="CC195" s="30"/>
+      <c r="CD195" s="30">
         <v>2001</v>
       </c>
-      <c r="CE195" s="26"/>
-      <c r="CF195" s="26"/>
-      <c r="CG195" s="26"/>
-      <c r="CH195" s="26">
+      <c r="CE195" s="30"/>
+      <c r="CF195" s="30"/>
+      <c r="CG195" s="30"/>
+      <c r="CH195" s="30">
         <v>2002</v>
       </c>
-      <c r="CI195" s="26"/>
-      <c r="CJ195" s="26"/>
-      <c r="CK195" s="26"/>
-      <c r="CL195" s="26">
+      <c r="CI195" s="30"/>
+      <c r="CJ195" s="30"/>
+      <c r="CK195" s="30"/>
+      <c r="CL195" s="30">
         <v>2003</v>
       </c>
-      <c r="CM195" s="26"/>
-      <c r="CN195" s="26"/>
-      <c r="CO195" s="26"/>
-      <c r="CP195" s="26">
+      <c r="CM195" s="30"/>
+      <c r="CN195" s="30"/>
+      <c r="CO195" s="30"/>
+      <c r="CP195" s="30">
         <v>2004</v>
       </c>
-      <c r="CQ195" s="26"/>
-      <c r="CR195" s="26"/>
-      <c r="CS195" s="26"/>
-      <c r="CT195" s="26">
+      <c r="CQ195" s="30"/>
+      <c r="CR195" s="30"/>
+      <c r="CS195" s="30"/>
+      <c r="CT195" s="30">
         <v>2005</v>
       </c>
-      <c r="CU195" s="26"/>
-      <c r="CV195" s="26"/>
-      <c r="CW195" s="26"/>
-      <c r="CX195" s="26">
+      <c r="CU195" s="30"/>
+      <c r="CV195" s="30"/>
+      <c r="CW195" s="30"/>
+      <c r="CX195" s="30">
         <v>2006</v>
       </c>
-      <c r="CY195" s="26"/>
-      <c r="CZ195" s="26"/>
-      <c r="DA195" s="26"/>
-      <c r="DB195" s="26">
+      <c r="CY195" s="30"/>
+      <c r="CZ195" s="30"/>
+      <c r="DA195" s="30"/>
+      <c r="DB195" s="30">
         <v>2007</v>
       </c>
-      <c r="DC195" s="26"/>
-      <c r="DD195" s="26"/>
-      <c r="DE195" s="26"/>
-      <c r="DF195" s="26">
+      <c r="DC195" s="30"/>
+      <c r="DD195" s="30"/>
+      <c r="DE195" s="30"/>
+      <c r="DF195" s="30">
         <v>2008</v>
       </c>
-      <c r="DG195" s="26"/>
-      <c r="DH195" s="26"/>
-      <c r="DI195" s="26"/>
-      <c r="DJ195" s="26">
+      <c r="DG195" s="30"/>
+      <c r="DH195" s="30"/>
+      <c r="DI195" s="30"/>
+      <c r="DJ195" s="30">
         <v>2009</v>
       </c>
-      <c r="DK195" s="26"/>
-      <c r="DL195" s="26"/>
-      <c r="DM195" s="26"/>
-      <c r="DN195" s="26">
+      <c r="DK195" s="30"/>
+      <c r="DL195" s="30"/>
+      <c r="DM195" s="30"/>
+      <c r="DN195" s="30">
         <v>2010</v>
       </c>
-      <c r="DO195" s="26"/>
-      <c r="DP195" s="26"/>
-      <c r="DQ195" s="26"/>
-      <c r="DR195" s="26">
+      <c r="DO195" s="30"/>
+      <c r="DP195" s="30"/>
+      <c r="DQ195" s="30"/>
+      <c r="DR195" s="30">
         <v>2011</v>
       </c>
-      <c r="DS195" s="26"/>
-      <c r="DT195" s="26"/>
-      <c r="DU195" s="26"/>
-      <c r="DV195" s="26">
+      <c r="DS195" s="30"/>
+      <c r="DT195" s="30"/>
+      <c r="DU195" s="30"/>
+      <c r="DV195" s="30">
         <v>2012</v>
       </c>
-      <c r="DW195" s="26"/>
-      <c r="DX195" s="26"/>
-      <c r="DY195" s="26"/>
-      <c r="DZ195" s="26">
+      <c r="DW195" s="30"/>
+      <c r="DX195" s="30"/>
+      <c r="DY195" s="30"/>
+      <c r="DZ195" s="30">
         <v>2013</v>
       </c>
-      <c r="EA195" s="26"/>
-      <c r="EB195" s="26"/>
-      <c r="EC195" s="26"/>
-      <c r="ED195" s="26">
+      <c r="EA195" s="30"/>
+      <c r="EB195" s="30"/>
+      <c r="EC195" s="30"/>
+      <c r="ED195" s="30">
         <v>2014</v>
       </c>
-      <c r="EE195" s="26"/>
-      <c r="EF195" s="26"/>
-      <c r="EG195" s="26"/>
-      <c r="EH195" s="26">
+      <c r="EE195" s="30"/>
+      <c r="EF195" s="30"/>
+      <c r="EG195" s="30"/>
+      <c r="EH195" s="30">
         <v>2015</v>
       </c>
-      <c r="EI195" s="26"/>
-      <c r="EJ195" s="26"/>
-      <c r="EK195" s="26"/>
-      <c r="EL195" s="26">
+      <c r="EI195" s="30"/>
+      <c r="EJ195" s="30"/>
+      <c r="EK195" s="30"/>
+      <c r="EL195" s="30">
         <v>2016</v>
       </c>
-      <c r="EM195" s="26"/>
-      <c r="EN195" s="26"/>
-      <c r="EO195" s="26"/>
-      <c r="EP195" s="26">
+      <c r="EM195" s="30"/>
+      <c r="EN195" s="30"/>
+      <c r="EO195" s="30"/>
+      <c r="EP195" s="30">
         <v>2017</v>
       </c>
-      <c r="EQ195" s="26"/>
-      <c r="ER195" s="26"/>
-      <c r="ES195" s="26"/>
-      <c r="ET195" s="26">
+      <c r="EQ195" s="30"/>
+      <c r="ER195" s="30"/>
+      <c r="ES195" s="30"/>
+      <c r="ET195" s="30">
         <v>2018</v>
       </c>
-      <c r="EU195" s="26"/>
-      <c r="EV195" s="26"/>
-      <c r="EW195" s="26"/>
-      <c r="EX195" s="26">
+      <c r="EU195" s="30"/>
+      <c r="EV195" s="30"/>
+      <c r="EW195" s="30"/>
+      <c r="EX195" s="30">
         <v>2019</v>
       </c>
-      <c r="EY195" s="26"/>
-      <c r="EZ195" s="26"/>
-      <c r="FA195" s="26"/>
-      <c r="FB195" s="26">
+      <c r="EY195" s="30"/>
+      <c r="EZ195" s="30"/>
+      <c r="FA195" s="30"/>
+      <c r="FB195" s="30">
         <v>2020</v>
       </c>
-      <c r="FC195" s="26"/>
-      <c r="FD195" s="26"/>
+      <c r="FC195" s="30"/>
+      <c r="FD195" s="30"/>
       <c r="FE195" s="4"/>
-      <c r="FF195" s="26">
+      <c r="FF195" s="30">
         <v>2021</v>
       </c>
-      <c r="FG195" s="26"/>
-      <c r="FH195" s="26"/>
-      <c r="FI195" s="26"/>
-      <c r="FJ195" s="26">
+      <c r="FG195" s="30"/>
+      <c r="FH195" s="30"/>
+      <c r="FI195" s="30"/>
+      <c r="FJ195" s="30">
         <v>2022</v>
       </c>
-      <c r="FK195" s="26"/>
-      <c r="FL195" s="26"/>
-      <c r="FM195" s="26"/>
-      <c r="FN195" s="26">
+      <c r="FK195" s="30"/>
+      <c r="FL195" s="30"/>
+      <c r="FM195" s="30"/>
+      <c r="FN195" s="30">
         <v>2023</v>
       </c>
-      <c r="FO195" s="26"/>
+      <c r="FO195" s="30"/>
     </row>
-    <row r="196" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
         <v>13</v>
       </c>
@@ -37530,11 +37820,14 @@
       <c r="FO196" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="FP196" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="197" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:172" x14ac:dyDescent="0.2">
       <c r="FB197" s="2"/>
     </row>
-    <row r="198" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="15" t="s">
         <v>74</v>
       </c>
@@ -38045,11 +38338,14 @@
       <c r="FN198" s="23">
         <v>444602.58331337787</v>
       </c>
-      <c r="FO198" s="23">
-        <v>417469.30685746111</v>
+      <c r="FO198" s="27">
+        <v>417669.76416018978</v>
+      </c>
+      <c r="FP198" s="27">
+        <v>410292.62907667737</v>
       </c>
     </row>
-    <row r="199" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="15" t="s">
         <v>75</v>
       </c>
@@ -38560,11 +38856,14 @@
       <c r="FN199" s="23">
         <v>1466659.4272180551</v>
       </c>
-      <c r="FO199" s="23">
-        <v>1555126.495663017</v>
+      <c r="FO199" s="27">
+        <v>1554913.8271811504</v>
+      </c>
+      <c r="FP199" s="27">
+        <v>1351011.0906849075</v>
       </c>
     </row>
-    <row r="200" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="15" t="s">
         <v>76</v>
       </c>
@@ -39075,11 +39374,14 @@
       <c r="FN200" s="23">
         <v>2996231.1730129691</v>
       </c>
-      <c r="FO200" s="23">
-        <v>3234491.0038717599</v>
+      <c r="FO200" s="27">
+        <v>3235139.9447425022</v>
+      </c>
+      <c r="FP200" s="27">
+        <v>3289283.3338253545</v>
       </c>
     </row>
-    <row r="201" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="16"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -39251,8 +39553,9 @@
       <c r="FM201" s="7"/>
       <c r="FN201" s="23"/>
       <c r="FO201" s="23"/>
+      <c r="FP201" s="23"/>
     </row>
-    <row r="202" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>10</v>
       </c>
@@ -39763,11 +40066,14 @@
       <c r="FN202" s="23">
         <v>4907493.183544402</v>
       </c>
-      <c r="FO202" s="23">
-        <v>5207086.8063922375</v>
+      <c r="FO202" s="27">
+        <v>5207723.5360838426</v>
+      </c>
+      <c r="FP202" s="27">
+        <v>5050587.0535869393</v>
       </c>
     </row>
-    <row r="203" spans="1:171" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:172" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
@@ -39935,7 +40241,7 @@
       <c r="FL203" s="2"/>
       <c r="FM203" s="2"/>
     </row>
-    <row r="204" spans="1:171" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:172" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -40099,7 +40405,7 @@
       <c r="FL204" s="2"/>
       <c r="FM204" s="2"/>
     </row>
-    <row r="205" spans="1:171" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:172" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
@@ -40267,7 +40573,7 @@
       <c r="FL205" s="2"/>
       <c r="FM205" s="2"/>
     </row>
-    <row r="206" spans="1:171" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:172" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
@@ -40430,7 +40736,7 @@
       <c r="FL206" s="2"/>
       <c r="FM206" s="2"/>
     </row>
-    <row r="207" spans="1:171" s="3" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:172" s="3" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="9"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
@@ -40602,19 +40908,20 @@
       <c r="FM207" s="9"/>
       <c r="FN207" s="9"/>
       <c r="FO207" s="9"/>
+      <c r="FP207" s="9"/>
     </row>
-    <row r="208" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:168" x14ac:dyDescent="0.2">
       <c r="FB210" s="17"/>
       <c r="FC210" s="17"/>
       <c r="FD210" s="17"/>
       <c r="FE210" s="17"/>
     </row>
-    <row r="211" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>8</v>
       </c>
@@ -40623,7 +40930,7 @@
       <c r="FD211" s="17"/>
       <c r="FE211" s="17"/>
     </row>
-    <row r="212" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>7</v>
       </c>
@@ -40632,19 +40939,19 @@
       <c r="FD212" s="17"/>
       <c r="FE212" s="17"/>
     </row>
-    <row r="213" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="FB213" s="17"/>
       <c r="FC213" s="17"/>
       <c r="FD213" s="17"/>
       <c r="FE213" s="17"/>
     </row>
-    <row r="214" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
     </row>
-    <row r="215" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>49</v>
       </c>
@@ -40652,15 +40959,15 @@
       <c r="FD215" s="3"/>
       <c r="FE215" s="3"/>
     </row>
-    <row r="216" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A216" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="FC216" s="3"/>
       <c r="FD216" s="3"/>
       <c r="FE216" s="3"/>
     </row>
-    <row r="217" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>19</v>
       </c>
@@ -40668,268 +40975,270 @@
       <c r="FD217" s="3"/>
       <c r="FE217" s="3"/>
     </row>
-    <row r="218" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="FC218" s="3"/>
       <c r="FD218" s="3"/>
       <c r="FE218" s="3"/>
       <c r="FF218" s="9"/>
       <c r="FG218" s="9"/>
+      <c r="FL218" s="9"/>
     </row>
-    <row r="219" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
-      <c r="B219" s="26" t="s">
+      <c r="B219" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C219" s="26"/>
-      <c r="D219" s="26"/>
-      <c r="E219" s="26"/>
-      <c r="F219" s="26" t="s">
+      <c r="C219" s="30"/>
+      <c r="D219" s="30"/>
+      <c r="E219" s="30"/>
+      <c r="F219" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G219" s="26"/>
-      <c r="H219" s="26"/>
-      <c r="I219" s="26"/>
-      <c r="J219" s="26" t="s">
+      <c r="G219" s="30"/>
+      <c r="H219" s="30"/>
+      <c r="I219" s="30"/>
+      <c r="J219" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="K219" s="26"/>
-      <c r="L219" s="26"/>
-      <c r="M219" s="26"/>
-      <c r="N219" s="26" t="s">
+      <c r="K219" s="30"/>
+      <c r="L219" s="30"/>
+      <c r="M219" s="30"/>
+      <c r="N219" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="O219" s="26"/>
-      <c r="P219" s="26"/>
-      <c r="Q219" s="26"/>
-      <c r="R219" s="26" t="s">
+      <c r="O219" s="30"/>
+      <c r="P219" s="30"/>
+      <c r="Q219" s="30"/>
+      <c r="R219" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="S219" s="26"/>
-      <c r="T219" s="26"/>
-      <c r="U219" s="26"/>
-      <c r="V219" s="26" t="s">
+      <c r="S219" s="30"/>
+      <c r="T219" s="30"/>
+      <c r="U219" s="30"/>
+      <c r="V219" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="W219" s="26"/>
-      <c r="X219" s="26"/>
-      <c r="Y219" s="26"/>
-      <c r="Z219" s="26" t="s">
+      <c r="W219" s="30"/>
+      <c r="X219" s="30"/>
+      <c r="Y219" s="30"/>
+      <c r="Z219" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="AA219" s="26"/>
-      <c r="AB219" s="26"/>
-      <c r="AC219" s="26"/>
-      <c r="AD219" s="26" t="s">
+      <c r="AA219" s="30"/>
+      <c r="AB219" s="30"/>
+      <c r="AC219" s="30"/>
+      <c r="AD219" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="AE219" s="26"/>
-      <c r="AF219" s="26"/>
-      <c r="AG219" s="26"/>
-      <c r="AH219" s="26" t="s">
+      <c r="AE219" s="30"/>
+      <c r="AF219" s="30"/>
+      <c r="AG219" s="30"/>
+      <c r="AH219" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="AI219" s="26"/>
-      <c r="AJ219" s="26"/>
-      <c r="AK219" s="26"/>
-      <c r="AL219" s="26" t="s">
+      <c r="AI219" s="30"/>
+      <c r="AJ219" s="30"/>
+      <c r="AK219" s="30"/>
+      <c r="AL219" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="AM219" s="26"/>
-      <c r="AN219" s="26"/>
-      <c r="AO219" s="26"/>
-      <c r="AP219" s="26" t="s">
+      <c r="AM219" s="30"/>
+      <c r="AN219" s="30"/>
+      <c r="AO219" s="30"/>
+      <c r="AP219" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="AQ219" s="26"/>
-      <c r="AR219" s="26"/>
-      <c r="AS219" s="26"/>
-      <c r="AT219" s="26" t="s">
+      <c r="AQ219" s="30"/>
+      <c r="AR219" s="30"/>
+      <c r="AS219" s="30"/>
+      <c r="AT219" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="AU219" s="26"/>
-      <c r="AV219" s="26"/>
-      <c r="AW219" s="26"/>
-      <c r="AX219" s="26" t="s">
+      <c r="AU219" s="30"/>
+      <c r="AV219" s="30"/>
+      <c r="AW219" s="30"/>
+      <c r="AX219" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="AY219" s="26"/>
-      <c r="AZ219" s="26"/>
-      <c r="BA219" s="26"/>
-      <c r="BB219" s="26" t="s">
+      <c r="AY219" s="30"/>
+      <c r="AZ219" s="30"/>
+      <c r="BA219" s="30"/>
+      <c r="BB219" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="BC219" s="26"/>
-      <c r="BD219" s="26"/>
-      <c r="BE219" s="26"/>
-      <c r="BF219" s="26" t="s">
+      <c r="BC219" s="30"/>
+      <c r="BD219" s="30"/>
+      <c r="BE219" s="30"/>
+      <c r="BF219" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="BG219" s="26"/>
-      <c r="BH219" s="26"/>
-      <c r="BI219" s="26"/>
-      <c r="BJ219" s="26" t="s">
+      <c r="BG219" s="30"/>
+      <c r="BH219" s="30"/>
+      <c r="BI219" s="30"/>
+      <c r="BJ219" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="BK219" s="26"/>
-      <c r="BL219" s="26"/>
-      <c r="BM219" s="26"/>
-      <c r="BN219" s="26" t="s">
+      <c r="BK219" s="30"/>
+      <c r="BL219" s="30"/>
+      <c r="BM219" s="30"/>
+      <c r="BN219" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="BO219" s="26"/>
-      <c r="BP219" s="26"/>
-      <c r="BQ219" s="26"/>
-      <c r="BR219" s="26" t="s">
+      <c r="BO219" s="30"/>
+      <c r="BP219" s="30"/>
+      <c r="BQ219" s="30"/>
+      <c r="BR219" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="BS219" s="26"/>
-      <c r="BT219" s="26"/>
-      <c r="BU219" s="26"/>
-      <c r="BV219" s="26" t="s">
+      <c r="BS219" s="30"/>
+      <c r="BT219" s="30"/>
+      <c r="BU219" s="30"/>
+      <c r="BV219" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="BW219" s="26"/>
-      <c r="BX219" s="26"/>
-      <c r="BY219" s="26"/>
-      <c r="BZ219" s="26" t="s">
+      <c r="BW219" s="30"/>
+      <c r="BX219" s="30"/>
+      <c r="BY219" s="30"/>
+      <c r="BZ219" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="CA219" s="26"/>
-      <c r="CB219" s="26"/>
-      <c r="CC219" s="26"/>
-      <c r="CD219" s="26" t="s">
+      <c r="CA219" s="30"/>
+      <c r="CB219" s="30"/>
+      <c r="CC219" s="30"/>
+      <c r="CD219" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="CE219" s="26"/>
-      <c r="CF219" s="26"/>
-      <c r="CG219" s="26"/>
-      <c r="CH219" s="26" t="s">
+      <c r="CE219" s="30"/>
+      <c r="CF219" s="30"/>
+      <c r="CG219" s="30"/>
+      <c r="CH219" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="CI219" s="26"/>
-      <c r="CJ219" s="26"/>
-      <c r="CK219" s="26"/>
-      <c r="CL219" s="26" t="s">
+      <c r="CI219" s="30"/>
+      <c r="CJ219" s="30"/>
+      <c r="CK219" s="30"/>
+      <c r="CL219" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="CM219" s="26"/>
-      <c r="CN219" s="26"/>
-      <c r="CO219" s="26"/>
-      <c r="CP219" s="26" t="s">
+      <c r="CM219" s="30"/>
+      <c r="CN219" s="30"/>
+      <c r="CO219" s="30"/>
+      <c r="CP219" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="CQ219" s="26"/>
-      <c r="CR219" s="26"/>
-      <c r="CS219" s="26"/>
-      <c r="CT219" s="26" t="s">
+      <c r="CQ219" s="30"/>
+      <c r="CR219" s="30"/>
+      <c r="CS219" s="30"/>
+      <c r="CT219" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="CU219" s="26"/>
-      <c r="CV219" s="26"/>
-      <c r="CW219" s="26"/>
-      <c r="CX219" s="26" t="s">
+      <c r="CU219" s="30"/>
+      <c r="CV219" s="30"/>
+      <c r="CW219" s="30"/>
+      <c r="CX219" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="CY219" s="26"/>
-      <c r="CZ219" s="26"/>
-      <c r="DA219" s="26"/>
-      <c r="DB219" s="26" t="s">
+      <c r="CY219" s="30"/>
+      <c r="CZ219" s="30"/>
+      <c r="DA219" s="30"/>
+      <c r="DB219" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="DC219" s="26"/>
-      <c r="DD219" s="26"/>
-      <c r="DE219" s="26"/>
-      <c r="DF219" s="26" t="s">
+      <c r="DC219" s="30"/>
+      <c r="DD219" s="30"/>
+      <c r="DE219" s="30"/>
+      <c r="DF219" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="DG219" s="26"/>
-      <c r="DH219" s="26"/>
-      <c r="DI219" s="26"/>
-      <c r="DJ219" s="26" t="s">
+      <c r="DG219" s="30"/>
+      <c r="DH219" s="30"/>
+      <c r="DI219" s="30"/>
+      <c r="DJ219" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="DK219" s="26"/>
-      <c r="DL219" s="26"/>
-      <c r="DM219" s="26"/>
-      <c r="DN219" s="26" t="s">
+      <c r="DK219" s="30"/>
+      <c r="DL219" s="30"/>
+      <c r="DM219" s="30"/>
+      <c r="DN219" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="DO219" s="26"/>
-      <c r="DP219" s="26"/>
-      <c r="DQ219" s="26"/>
-      <c r="DR219" s="26" t="s">
+      <c r="DO219" s="30"/>
+      <c r="DP219" s="30"/>
+      <c r="DQ219" s="30"/>
+      <c r="DR219" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="DS219" s="26"/>
-      <c r="DT219" s="26"/>
-      <c r="DU219" s="26"/>
-      <c r="DV219" s="26" t="s">
+      <c r="DS219" s="30"/>
+      <c r="DT219" s="30"/>
+      <c r="DU219" s="30"/>
+      <c r="DV219" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="DW219" s="26"/>
-      <c r="DX219" s="26"/>
-      <c r="DY219" s="26"/>
-      <c r="DZ219" s="26" t="s">
+      <c r="DW219" s="30"/>
+      <c r="DX219" s="30"/>
+      <c r="DY219" s="30"/>
+      <c r="DZ219" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="EA219" s="26"/>
-      <c r="EB219" s="26"/>
-      <c r="EC219" s="26"/>
-      <c r="ED219" s="26" t="s">
+      <c r="EA219" s="30"/>
+      <c r="EB219" s="30"/>
+      <c r="EC219" s="30"/>
+      <c r="ED219" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="EE219" s="26"/>
-      <c r="EF219" s="26"/>
-      <c r="EG219" s="26"/>
-      <c r="EH219" s="26" t="s">
+      <c r="EE219" s="30"/>
+      <c r="EF219" s="30"/>
+      <c r="EG219" s="30"/>
+      <c r="EH219" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="EI219" s="26"/>
-      <c r="EJ219" s="26"/>
-      <c r="EK219" s="26"/>
-      <c r="EL219" s="26" t="s">
+      <c r="EI219" s="30"/>
+      <c r="EJ219" s="30"/>
+      <c r="EK219" s="30"/>
+      <c r="EL219" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="EM219" s="26"/>
-      <c r="EN219" s="26"/>
-      <c r="EO219" s="26"/>
-      <c r="EP219" s="26" t="s">
+      <c r="EM219" s="30"/>
+      <c r="EN219" s="30"/>
+      <c r="EO219" s="30"/>
+      <c r="EP219" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="EQ219" s="26"/>
-      <c r="ER219" s="26"/>
-      <c r="ES219" s="26"/>
-      <c r="ET219" s="26" t="s">
+      <c r="EQ219" s="30"/>
+      <c r="ER219" s="30"/>
+      <c r="ES219" s="30"/>
+      <c r="ET219" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="EU219" s="26"/>
-      <c r="EV219" s="26"/>
-      <c r="EW219" s="26"/>
-      <c r="EX219" s="26" t="s">
+      <c r="EU219" s="30"/>
+      <c r="EV219" s="30"/>
+      <c r="EW219" s="30"/>
+      <c r="EX219" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="EY219" s="26"/>
-      <c r="EZ219" s="26"/>
+      <c r="EY219" s="30"/>
+      <c r="EZ219" s="30"/>
       <c r="FA219" s="4"/>
-      <c r="FB219" s="26" t="s">
+      <c r="FB219" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="FC219" s="26"/>
-      <c r="FD219" s="26"/>
-      <c r="FE219" s="26"/>
-      <c r="FF219" s="26" t="s">
+      <c r="FC219" s="30"/>
+      <c r="FD219" s="30"/>
+      <c r="FE219" s="30"/>
+      <c r="FF219" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="FG219" s="26"/>
-      <c r="FH219" s="26"/>
-      <c r="FI219" s="26"/>
-      <c r="FJ219" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="FK219" s="26"/>
+      <c r="FG219" s="30"/>
+      <c r="FH219" s="30"/>
+      <c r="FI219" s="30"/>
+      <c r="FJ219" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="FK219" s="30"/>
+      <c r="FL219" s="30"/>
     </row>
-    <row r="220" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
         <v>13</v>
       </c>
@@ -41431,14 +41740,18 @@
       <c r="FK220" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="FL220" s="26" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="221" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:168" x14ac:dyDescent="0.2">
       <c r="FB221" s="2"/>
       <c r="FF221" s="24"/>
       <c r="FJ221" s="24"/>
       <c r="FK221" s="24"/>
+      <c r="FL221" s="4"/>
     </row>
-    <row r="222" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A222" s="15" t="s">
         <v>74</v>
       </c>
@@ -41937,11 +42250,14 @@
       <c r="FJ222" s="25">
         <v>13.399410256295567</v>
       </c>
-      <c r="FK222" s="25">
-        <v>4.658429051677075</v>
+      <c r="FK222" s="13">
+        <v>4.7526460650888112</v>
+      </c>
+      <c r="FL222" s="13">
+        <v>5.4528657271190326</v>
       </c>
     </row>
-    <row r="223" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A223" s="15" t="s">
         <v>75</v>
       </c>
@@ -42440,11 +42756,14 @@
       <c r="FJ223" s="25">
         <v>10.748081830912611</v>
       </c>
-      <c r="FK223" s="25">
-        <v>4.8922419322932456</v>
+      <c r="FK223" s="13">
+        <v>4.9170956111242106</v>
+      </c>
+      <c r="FL223" s="13">
+        <v>6.0097275287550644</v>
       </c>
     </row>
-    <row r="224" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A224" s="15" t="s">
         <v>76</v>
       </c>
@@ -42943,11 +43262,14 @@
       <c r="FJ224" s="25">
         <v>15.174272902413378</v>
       </c>
-      <c r="FK224" s="25">
-        <v>11.81380681319439</v>
+      <c r="FK224" s="13">
+        <v>11.843284500936548</v>
+      </c>
+      <c r="FL224" s="13">
+        <v>11.392421683387326</v>
       </c>
     </row>
-    <row r="225" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A225" s="16"/>
       <c r="B225" s="13"/>
       <c r="C225" s="13"/>
@@ -43116,7 +43438,7 @@
       <c r="FJ225" s="25"/>
       <c r="FK225" s="25"/>
     </row>
-    <row r="226" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>10</v>
       </c>
@@ -43615,11 +43937,14 @@
       <c r="FJ226" s="25">
         <v>13.662791041685068</v>
       </c>
-      <c r="FK226" s="25">
-        <v>9.0589520917780106</v>
+      <c r="FK226" s="13">
+        <v>9.0927783558765469</v>
+      </c>
+      <c r="FL226" s="13">
+        <v>9.4712287880847725</v>
       </c>
     </row>
-    <row r="227" spans="1:167" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:168" hidden="1" x14ac:dyDescent="0.2">
       <c r="B227" s="13"/>
       <c r="C227" s="13"/>
       <c r="D227" s="13"/>
@@ -43786,7 +44111,7 @@
       <c r="FJ227" s="25"/>
       <c r="FK227" s="25"/>
     </row>
-    <row r="228" spans="1:167" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:168" hidden="1" x14ac:dyDescent="0.2">
       <c r="B228" s="13"/>
       <c r="C228" s="13"/>
       <c r="D228" s="13"/>
@@ -43953,7 +44278,7 @@
       <c r="FJ228" s="25"/>
       <c r="FK228" s="25"/>
     </row>
-    <row r="229" spans="1:167" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:168" hidden="1" x14ac:dyDescent="0.2">
       <c r="B229" s="13"/>
       <c r="C229" s="13"/>
       <c r="D229" s="13"/>
@@ -44122,7 +44447,7 @@
       </c>
       <c r="FK229" s="25"/>
     </row>
-    <row r="230" spans="1:167" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:168" hidden="1" x14ac:dyDescent="0.2">
       <c r="B230" s="13"/>
       <c r="C230" s="13"/>
       <c r="D230" s="13"/>
@@ -44283,7 +44608,7 @@
       </c>
       <c r="FB230" s="2"/>
     </row>
-    <row r="231" spans="1:167" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:168" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="9"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
@@ -44452,318 +44777,321 @@
       <c r="FJ231" s="9"/>
       <c r="FK231" s="9"/>
     </row>
-    <row r="232" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>0</v>
       </c>
       <c r="FB232" s="2"/>
+      <c r="FL232" s="4"/>
     </row>
-    <row r="233" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:168" x14ac:dyDescent="0.2">
       <c r="FB233" s="2"/>
     </row>
-    <row r="234" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:168" x14ac:dyDescent="0.2">
       <c r="FB234" s="2"/>
     </row>
-    <row r="235" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>8</v>
       </c>
       <c r="FB235" s="2"/>
     </row>
-    <row r="236" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>7</v>
       </c>
       <c r="FB236" s="2"/>
     </row>
-    <row r="237" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="FB237" s="2"/>
     </row>
-    <row r="238" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="FB238" s="2"/>
     </row>
-    <row r="239" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>50</v>
       </c>
       <c r="FB239" s="2"/>
     </row>
-    <row r="240" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A240" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="FB240" s="2"/>
     </row>
-    <row r="241" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>20</v>
       </c>
       <c r="FB241" s="2"/>
     </row>
-    <row r="242" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="FB242" s="2"/>
       <c r="FF242" s="9"/>
       <c r="FG242" s="9"/>
+      <c r="FL242" s="9"/>
     </row>
-    <row r="243" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
-      <c r="B243" s="26" t="s">
+      <c r="B243" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C243" s="26"/>
-      <c r="D243" s="26"/>
-      <c r="E243" s="26"/>
-      <c r="F243" s="26" t="s">
+      <c r="C243" s="30"/>
+      <c r="D243" s="30"/>
+      <c r="E243" s="30"/>
+      <c r="F243" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G243" s="26"/>
-      <c r="H243" s="26"/>
-      <c r="I243" s="26"/>
-      <c r="J243" s="26" t="s">
+      <c r="G243" s="30"/>
+      <c r="H243" s="30"/>
+      <c r="I243" s="30"/>
+      <c r="J243" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="K243" s="26"/>
-      <c r="L243" s="26"/>
-      <c r="M243" s="26"/>
-      <c r="N243" s="26" t="s">
+      <c r="K243" s="30"/>
+      <c r="L243" s="30"/>
+      <c r="M243" s="30"/>
+      <c r="N243" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="O243" s="26"/>
-      <c r="P243" s="26"/>
-      <c r="Q243" s="26"/>
-      <c r="R243" s="26" t="s">
+      <c r="O243" s="30"/>
+      <c r="P243" s="30"/>
+      <c r="Q243" s="30"/>
+      <c r="R243" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="S243" s="26"/>
-      <c r="T243" s="26"/>
-      <c r="U243" s="26"/>
-      <c r="V243" s="26" t="s">
+      <c r="S243" s="30"/>
+      <c r="T243" s="30"/>
+      <c r="U243" s="30"/>
+      <c r="V243" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="W243" s="26"/>
-      <c r="X243" s="26"/>
-      <c r="Y243" s="26"/>
-      <c r="Z243" s="26" t="s">
+      <c r="W243" s="30"/>
+      <c r="X243" s="30"/>
+      <c r="Y243" s="30"/>
+      <c r="Z243" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="AA243" s="26"/>
-      <c r="AB243" s="26"/>
-      <c r="AC243" s="26"/>
-      <c r="AD243" s="26" t="s">
+      <c r="AA243" s="30"/>
+      <c r="AB243" s="30"/>
+      <c r="AC243" s="30"/>
+      <c r="AD243" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="AE243" s="26"/>
-      <c r="AF243" s="26"/>
-      <c r="AG243" s="26"/>
-      <c r="AH243" s="26" t="s">
+      <c r="AE243" s="30"/>
+      <c r="AF243" s="30"/>
+      <c r="AG243" s="30"/>
+      <c r="AH243" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="AI243" s="26"/>
-      <c r="AJ243" s="26"/>
-      <c r="AK243" s="26"/>
-      <c r="AL243" s="26" t="s">
+      <c r="AI243" s="30"/>
+      <c r="AJ243" s="30"/>
+      <c r="AK243" s="30"/>
+      <c r="AL243" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="AM243" s="26"/>
-      <c r="AN243" s="26"/>
-      <c r="AO243" s="26"/>
-      <c r="AP243" s="26" t="s">
+      <c r="AM243" s="30"/>
+      <c r="AN243" s="30"/>
+      <c r="AO243" s="30"/>
+      <c r="AP243" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="AQ243" s="26"/>
-      <c r="AR243" s="26"/>
-      <c r="AS243" s="26"/>
-      <c r="AT243" s="26" t="s">
+      <c r="AQ243" s="30"/>
+      <c r="AR243" s="30"/>
+      <c r="AS243" s="30"/>
+      <c r="AT243" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="AU243" s="26"/>
-      <c r="AV243" s="26"/>
-      <c r="AW243" s="26"/>
-      <c r="AX243" s="26" t="s">
+      <c r="AU243" s="30"/>
+      <c r="AV243" s="30"/>
+      <c r="AW243" s="30"/>
+      <c r="AX243" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="AY243" s="26"/>
-      <c r="AZ243" s="26"/>
-      <c r="BA243" s="26"/>
-      <c r="BB243" s="26" t="s">
+      <c r="AY243" s="30"/>
+      <c r="AZ243" s="30"/>
+      <c r="BA243" s="30"/>
+      <c r="BB243" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="BC243" s="26"/>
-      <c r="BD243" s="26"/>
-      <c r="BE243" s="26"/>
-      <c r="BF243" s="26" t="s">
+      <c r="BC243" s="30"/>
+      <c r="BD243" s="30"/>
+      <c r="BE243" s="30"/>
+      <c r="BF243" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="BG243" s="26"/>
-      <c r="BH243" s="26"/>
-      <c r="BI243" s="26"/>
-      <c r="BJ243" s="26" t="s">
+      <c r="BG243" s="30"/>
+      <c r="BH243" s="30"/>
+      <c r="BI243" s="30"/>
+      <c r="BJ243" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="BK243" s="26"/>
-      <c r="BL243" s="26"/>
-      <c r="BM243" s="26"/>
-      <c r="BN243" s="26" t="s">
+      <c r="BK243" s="30"/>
+      <c r="BL243" s="30"/>
+      <c r="BM243" s="30"/>
+      <c r="BN243" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="BO243" s="26"/>
-      <c r="BP243" s="26"/>
-      <c r="BQ243" s="26"/>
-      <c r="BR243" s="26" t="s">
+      <c r="BO243" s="30"/>
+      <c r="BP243" s="30"/>
+      <c r="BQ243" s="30"/>
+      <c r="BR243" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="BS243" s="26"/>
-      <c r="BT243" s="26"/>
-      <c r="BU243" s="26"/>
-      <c r="BV243" s="26" t="s">
+      <c r="BS243" s="30"/>
+      <c r="BT243" s="30"/>
+      <c r="BU243" s="30"/>
+      <c r="BV243" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="BW243" s="26"/>
-      <c r="BX243" s="26"/>
-      <c r="BY243" s="26"/>
-      <c r="BZ243" s="26" t="s">
+      <c r="BW243" s="30"/>
+      <c r="BX243" s="30"/>
+      <c r="BY243" s="30"/>
+      <c r="BZ243" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="CA243" s="26"/>
-      <c r="CB243" s="26"/>
-      <c r="CC243" s="26"/>
-      <c r="CD243" s="26" t="s">
+      <c r="CA243" s="30"/>
+      <c r="CB243" s="30"/>
+      <c r="CC243" s="30"/>
+      <c r="CD243" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="CE243" s="26"/>
-      <c r="CF243" s="26"/>
-      <c r="CG243" s="26"/>
-      <c r="CH243" s="26" t="s">
+      <c r="CE243" s="30"/>
+      <c r="CF243" s="30"/>
+      <c r="CG243" s="30"/>
+      <c r="CH243" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="CI243" s="26"/>
-      <c r="CJ243" s="26"/>
-      <c r="CK243" s="26"/>
-      <c r="CL243" s="26" t="s">
+      <c r="CI243" s="30"/>
+      <c r="CJ243" s="30"/>
+      <c r="CK243" s="30"/>
+      <c r="CL243" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="CM243" s="26"/>
-      <c r="CN243" s="26"/>
-      <c r="CO243" s="26"/>
-      <c r="CP243" s="26" t="s">
+      <c r="CM243" s="30"/>
+      <c r="CN243" s="30"/>
+      <c r="CO243" s="30"/>
+      <c r="CP243" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="CQ243" s="26"/>
-      <c r="CR243" s="26"/>
-      <c r="CS243" s="26"/>
-      <c r="CT243" s="26" t="s">
+      <c r="CQ243" s="30"/>
+      <c r="CR243" s="30"/>
+      <c r="CS243" s="30"/>
+      <c r="CT243" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="CU243" s="26"/>
-      <c r="CV243" s="26"/>
-      <c r="CW243" s="26"/>
-      <c r="CX243" s="26" t="s">
+      <c r="CU243" s="30"/>
+      <c r="CV243" s="30"/>
+      <c r="CW243" s="30"/>
+      <c r="CX243" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="CY243" s="26"/>
-      <c r="CZ243" s="26"/>
-      <c r="DA243" s="26"/>
-      <c r="DB243" s="26" t="s">
+      <c r="CY243" s="30"/>
+      <c r="CZ243" s="30"/>
+      <c r="DA243" s="30"/>
+      <c r="DB243" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="DC243" s="26"/>
-      <c r="DD243" s="26"/>
-      <c r="DE243" s="26"/>
-      <c r="DF243" s="26" t="s">
+      <c r="DC243" s="30"/>
+      <c r="DD243" s="30"/>
+      <c r="DE243" s="30"/>
+      <c r="DF243" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="DG243" s="26"/>
-      <c r="DH243" s="26"/>
-      <c r="DI243" s="26"/>
-      <c r="DJ243" s="26" t="s">
+      <c r="DG243" s="30"/>
+      <c r="DH243" s="30"/>
+      <c r="DI243" s="30"/>
+      <c r="DJ243" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="DK243" s="26"/>
-      <c r="DL243" s="26"/>
-      <c r="DM243" s="26"/>
-      <c r="DN243" s="26" t="s">
+      <c r="DK243" s="30"/>
+      <c r="DL243" s="30"/>
+      <c r="DM243" s="30"/>
+      <c r="DN243" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="DO243" s="26"/>
-      <c r="DP243" s="26"/>
-      <c r="DQ243" s="26"/>
-      <c r="DR243" s="26" t="s">
+      <c r="DO243" s="30"/>
+      <c r="DP243" s="30"/>
+      <c r="DQ243" s="30"/>
+      <c r="DR243" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="DS243" s="26"/>
-      <c r="DT243" s="26"/>
-      <c r="DU243" s="26"/>
-      <c r="DV243" s="26" t="s">
+      <c r="DS243" s="30"/>
+      <c r="DT243" s="30"/>
+      <c r="DU243" s="30"/>
+      <c r="DV243" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="DW243" s="26"/>
-      <c r="DX243" s="26"/>
-      <c r="DY243" s="26"/>
-      <c r="DZ243" s="26" t="s">
+      <c r="DW243" s="30"/>
+      <c r="DX243" s="30"/>
+      <c r="DY243" s="30"/>
+      <c r="DZ243" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="EA243" s="26"/>
-      <c r="EB243" s="26"/>
-      <c r="EC243" s="26"/>
-      <c r="ED243" s="26" t="s">
+      <c r="EA243" s="30"/>
+      <c r="EB243" s="30"/>
+      <c r="EC243" s="30"/>
+      <c r="ED243" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="EE243" s="26"/>
-      <c r="EF243" s="26"/>
-      <c r="EG243" s="26"/>
-      <c r="EH243" s="26" t="s">
+      <c r="EE243" s="30"/>
+      <c r="EF243" s="30"/>
+      <c r="EG243" s="30"/>
+      <c r="EH243" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="EI243" s="26"/>
-      <c r="EJ243" s="26"/>
-      <c r="EK243" s="26"/>
-      <c r="EL243" s="26" t="s">
+      <c r="EI243" s="30"/>
+      <c r="EJ243" s="30"/>
+      <c r="EK243" s="30"/>
+      <c r="EL243" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="EM243" s="26"/>
-      <c r="EN243" s="26"/>
-      <c r="EO243" s="26"/>
-      <c r="EP243" s="26" t="s">
+      <c r="EM243" s="30"/>
+      <c r="EN243" s="30"/>
+      <c r="EO243" s="30"/>
+      <c r="EP243" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="EQ243" s="26"/>
-      <c r="ER243" s="26"/>
-      <c r="ES243" s="26"/>
-      <c r="ET243" s="26" t="s">
+      <c r="EQ243" s="30"/>
+      <c r="ER243" s="30"/>
+      <c r="ES243" s="30"/>
+      <c r="ET243" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="EU243" s="26"/>
-      <c r="EV243" s="26"/>
-      <c r="EW243" s="26"/>
-      <c r="EX243" s="26" t="s">
+      <c r="EU243" s="30"/>
+      <c r="EV243" s="30"/>
+      <c r="EW243" s="30"/>
+      <c r="EX243" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="EY243" s="26"/>
-      <c r="EZ243" s="26"/>
+      <c r="EY243" s="30"/>
+      <c r="EZ243" s="30"/>
       <c r="FA243" s="4"/>
-      <c r="FB243" s="26" t="s">
+      <c r="FB243" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="FC243" s="26"/>
-      <c r="FD243" s="26"/>
-      <c r="FE243" s="26"/>
-      <c r="FF243" s="26" t="s">
+      <c r="FC243" s="30"/>
+      <c r="FD243" s="30"/>
+      <c r="FE243" s="30"/>
+      <c r="FF243" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="FG243" s="26"/>
-      <c r="FH243" s="26"/>
-      <c r="FI243" s="26"/>
-      <c r="FJ243" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="FK243" s="26"/>
+      <c r="FG243" s="30"/>
+      <c r="FH243" s="30"/>
+      <c r="FI243" s="30"/>
+      <c r="FJ243" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="FK243" s="30"/>
+      <c r="FL243" s="30"/>
     </row>
-    <row r="244" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
         <v>13</v>
       </c>
@@ -45265,14 +45593,17 @@
       <c r="FK244" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="FL244" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="245" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:168" x14ac:dyDescent="0.2">
       <c r="FB245" s="2"/>
       <c r="FF245" s="24"/>
       <c r="FJ245" s="24"/>
       <c r="FK245" s="24"/>
     </row>
-    <row r="246" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A246" s="15" t="s">
         <v>74</v>
       </c>
@@ -45771,11 +46102,14 @@
       <c r="FJ246" s="25">
         <v>2.2401954730820677</v>
       </c>
-      <c r="FK246" s="25">
-        <v>0.15577110856415288</v>
+      <c r="FK246" s="13">
+        <v>0.20386316084042733</v>
+      </c>
+      <c r="FL246" s="13">
+        <v>0.92006033368478768</v>
       </c>
     </row>
-    <row r="247" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A247" s="15" t="s">
         <v>75</v>
       </c>
@@ -46274,11 +46608,14 @@
       <c r="FJ247" s="25">
         <v>3.9654449981921829</v>
       </c>
-      <c r="FK247" s="25">
-        <v>2.063990464041666</v>
+      <c r="FK247" s="13">
+        <v>2.050032889551261</v>
+      </c>
+      <c r="FL247" s="13">
+        <v>5.4521770996200729</v>
       </c>
     </row>
-    <row r="248" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A248" s="15" t="s">
         <v>76</v>
       </c>
@@ -46777,11 +47114,14 @@
       <c r="FJ248" s="25">
         <v>8.3789900886668249</v>
       </c>
-      <c r="FK248" s="25">
-        <v>6.0395845554966883</v>
+      <c r="FK248" s="13">
+        <v>6.0608594393198842</v>
+      </c>
+      <c r="FL248" s="13">
+        <v>6.80036955256287</v>
       </c>
     </row>
-    <row r="249" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A249" s="16"/>
       <c r="B249" s="13"/>
       <c r="C249" s="13"/>
@@ -46950,7 +47290,7 @@
       <c r="FJ249" s="25"/>
       <c r="FK249" s="25"/>
     </row>
-    <row r="250" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>10</v>
       </c>
@@ -47449,11 +47789,14 @@
       <c r="FJ250" s="25">
         <v>6.4493870765404324</v>
       </c>
-      <c r="FK250" s="25">
-        <v>4.3344320547945756</v>
+      <c r="FK250" s="13">
+        <v>4.3471902117480141</v>
+      </c>
+      <c r="FL250" s="13">
+        <v>5.936634885362551</v>
       </c>
     </row>
-    <row r="251" spans="1:167" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:168" hidden="1" x14ac:dyDescent="0.2">
       <c r="B251" s="13"/>
       <c r="C251" s="13"/>
       <c r="D251" s="13"/>
@@ -47619,7 +47962,7 @@
       <c r="FJ251" s="25"/>
       <c r="FK251" s="25"/>
     </row>
-    <row r="252" spans="1:167" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:168" hidden="1" x14ac:dyDescent="0.2">
       <c r="B252" s="13"/>
       <c r="C252" s="13"/>
       <c r="D252" s="13"/>
@@ -47781,7 +48124,7 @@
       <c r="FJ252" s="25"/>
       <c r="FK252" s="25"/>
     </row>
-    <row r="253" spans="1:167" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:168" hidden="1" x14ac:dyDescent="0.2">
       <c r="B253" s="13"/>
       <c r="C253" s="13"/>
       <c r="D253" s="13"/>
@@ -47949,7 +48292,7 @@
       </c>
       <c r="FK253" s="25"/>
     </row>
-    <row r="254" spans="1:167" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:168" hidden="1" x14ac:dyDescent="0.2">
       <c r="B254" s="13"/>
       <c r="C254" s="13"/>
       <c r="D254" s="13"/>
@@ -48104,7 +48447,7 @@
       <c r="EW254" s="13"/>
       <c r="EX254" s="3"/>
     </row>
-    <row r="255" spans="1:167" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:168" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="9"/>
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
@@ -48273,307 +48616,309 @@
       <c r="FJ255" s="9"/>
       <c r="FK255" s="9"/>
     </row>
-    <row r="256" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:168" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="FL256" s="4"/>
     </row>
-    <row r="259" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="262" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
     </row>
-    <row r="263" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="264" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A264" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="265" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="266" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
     </row>
-    <row r="267" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
-      <c r="B267" s="26">
+      <c r="B267" s="30">
         <v>1981</v>
       </c>
-      <c r="C267" s="26"/>
-      <c r="D267" s="26"/>
-      <c r="E267" s="26"/>
-      <c r="F267" s="26">
+      <c r="C267" s="30"/>
+      <c r="D267" s="30"/>
+      <c r="E267" s="30"/>
+      <c r="F267" s="30">
         <v>1982</v>
       </c>
-      <c r="G267" s="26"/>
-      <c r="H267" s="26"/>
-      <c r="I267" s="26"/>
-      <c r="J267" s="26">
+      <c r="G267" s="30"/>
+      <c r="H267" s="30"/>
+      <c r="I267" s="30"/>
+      <c r="J267" s="30">
         <v>1983</v>
       </c>
-      <c r="K267" s="26"/>
-      <c r="L267" s="26"/>
-      <c r="M267" s="26"/>
-      <c r="N267" s="26">
+      <c r="K267" s="30"/>
+      <c r="L267" s="30"/>
+      <c r="M267" s="30"/>
+      <c r="N267" s="30">
         <v>1984</v>
       </c>
-      <c r="O267" s="26"/>
-      <c r="P267" s="26"/>
-      <c r="Q267" s="26"/>
-      <c r="R267" s="26">
+      <c r="O267" s="30"/>
+      <c r="P267" s="30"/>
+      <c r="Q267" s="30"/>
+      <c r="R267" s="30">
         <v>1985</v>
       </c>
-      <c r="S267" s="26"/>
-      <c r="T267" s="26"/>
-      <c r="U267" s="26"/>
-      <c r="V267" s="26">
+      <c r="S267" s="30"/>
+      <c r="T267" s="30"/>
+      <c r="U267" s="30"/>
+      <c r="V267" s="30">
         <v>1986</v>
       </c>
-      <c r="W267" s="26"/>
-      <c r="X267" s="26"/>
-      <c r="Y267" s="26"/>
-      <c r="Z267" s="26">
+      <c r="W267" s="30"/>
+      <c r="X267" s="30"/>
+      <c r="Y267" s="30"/>
+      <c r="Z267" s="30">
         <v>1987</v>
       </c>
-      <c r="AA267" s="26"/>
-      <c r="AB267" s="26"/>
-      <c r="AC267" s="26"/>
-      <c r="AD267" s="26">
+      <c r="AA267" s="30"/>
+      <c r="AB267" s="30"/>
+      <c r="AC267" s="30"/>
+      <c r="AD267" s="30">
         <v>1988</v>
       </c>
-      <c r="AE267" s="26"/>
-      <c r="AF267" s="26"/>
-      <c r="AG267" s="26"/>
-      <c r="AH267" s="26">
+      <c r="AE267" s="30"/>
+      <c r="AF267" s="30"/>
+      <c r="AG267" s="30"/>
+      <c r="AH267" s="30">
         <v>1989</v>
       </c>
-      <c r="AI267" s="26"/>
-      <c r="AJ267" s="26"/>
-      <c r="AK267" s="26"/>
-      <c r="AL267" s="26">
+      <c r="AI267" s="30"/>
+      <c r="AJ267" s="30"/>
+      <c r="AK267" s="30"/>
+      <c r="AL267" s="30">
         <v>1990</v>
       </c>
-      <c r="AM267" s="26"/>
-      <c r="AN267" s="26"/>
-      <c r="AO267" s="26"/>
-      <c r="AP267" s="26">
+      <c r="AM267" s="30"/>
+      <c r="AN267" s="30"/>
+      <c r="AO267" s="30"/>
+      <c r="AP267" s="30">
         <v>1991</v>
       </c>
-      <c r="AQ267" s="26"/>
-      <c r="AR267" s="26"/>
-      <c r="AS267" s="26"/>
-      <c r="AT267" s="26">
+      <c r="AQ267" s="30"/>
+      <c r="AR267" s="30"/>
+      <c r="AS267" s="30"/>
+      <c r="AT267" s="30">
         <v>1992</v>
       </c>
-      <c r="AU267" s="26"/>
-      <c r="AV267" s="26"/>
-      <c r="AW267" s="26"/>
-      <c r="AX267" s="26">
+      <c r="AU267" s="30"/>
+      <c r="AV267" s="30"/>
+      <c r="AW267" s="30"/>
+      <c r="AX267" s="30">
         <v>1993</v>
       </c>
-      <c r="AY267" s="26"/>
-      <c r="AZ267" s="26"/>
-      <c r="BA267" s="26"/>
-      <c r="BB267" s="26">
+      <c r="AY267" s="30"/>
+      <c r="AZ267" s="30"/>
+      <c r="BA267" s="30"/>
+      <c r="BB267" s="30">
         <v>1994</v>
       </c>
-      <c r="BC267" s="26"/>
-      <c r="BD267" s="26"/>
-      <c r="BE267" s="26"/>
-      <c r="BF267" s="26">
+      <c r="BC267" s="30"/>
+      <c r="BD267" s="30"/>
+      <c r="BE267" s="30"/>
+      <c r="BF267" s="30">
         <v>1995</v>
       </c>
-      <c r="BG267" s="26"/>
-      <c r="BH267" s="26"/>
-      <c r="BI267" s="26"/>
-      <c r="BJ267" s="26">
+      <c r="BG267" s="30"/>
+      <c r="BH267" s="30"/>
+      <c r="BI267" s="30"/>
+      <c r="BJ267" s="30">
         <v>1996</v>
       </c>
-      <c r="BK267" s="26"/>
-      <c r="BL267" s="26"/>
-      <c r="BM267" s="26"/>
-      <c r="BN267" s="26">
+      <c r="BK267" s="30"/>
+      <c r="BL267" s="30"/>
+      <c r="BM267" s="30"/>
+      <c r="BN267" s="30">
         <v>1997</v>
       </c>
-      <c r="BO267" s="26"/>
-      <c r="BP267" s="26"/>
-      <c r="BQ267" s="26"/>
-      <c r="BR267" s="26">
+      <c r="BO267" s="30"/>
+      <c r="BP267" s="30"/>
+      <c r="BQ267" s="30"/>
+      <c r="BR267" s="30">
         <v>1998</v>
       </c>
-      <c r="BS267" s="26"/>
-      <c r="BT267" s="26"/>
-      <c r="BU267" s="26"/>
-      <c r="BV267" s="26">
+      <c r="BS267" s="30"/>
+      <c r="BT267" s="30"/>
+      <c r="BU267" s="30"/>
+      <c r="BV267" s="30">
         <v>1999</v>
       </c>
-      <c r="BW267" s="26"/>
-      <c r="BX267" s="26"/>
-      <c r="BY267" s="26"/>
-      <c r="BZ267" s="26">
+      <c r="BW267" s="30"/>
+      <c r="BX267" s="30"/>
+      <c r="BY267" s="30"/>
+      <c r="BZ267" s="30">
         <v>2000</v>
       </c>
-      <c r="CA267" s="26"/>
-      <c r="CB267" s="26"/>
-      <c r="CC267" s="26"/>
-      <c r="CD267" s="26">
+      <c r="CA267" s="30"/>
+      <c r="CB267" s="30"/>
+      <c r="CC267" s="30"/>
+      <c r="CD267" s="30">
         <v>2001</v>
       </c>
-      <c r="CE267" s="26"/>
-      <c r="CF267" s="26"/>
-      <c r="CG267" s="26"/>
-      <c r="CH267" s="26">
+      <c r="CE267" s="30"/>
+      <c r="CF267" s="30"/>
+      <c r="CG267" s="30"/>
+      <c r="CH267" s="30">
         <v>2002</v>
       </c>
-      <c r="CI267" s="26"/>
-      <c r="CJ267" s="26"/>
-      <c r="CK267" s="26"/>
-      <c r="CL267" s="26">
+      <c r="CI267" s="30"/>
+      <c r="CJ267" s="30"/>
+      <c r="CK267" s="30"/>
+      <c r="CL267" s="30">
         <v>2003</v>
       </c>
-      <c r="CM267" s="26"/>
-      <c r="CN267" s="26"/>
-      <c r="CO267" s="26"/>
-      <c r="CP267" s="26">
+      <c r="CM267" s="30"/>
+      <c r="CN267" s="30"/>
+      <c r="CO267" s="30"/>
+      <c r="CP267" s="30">
         <v>2004</v>
       </c>
-      <c r="CQ267" s="26"/>
-      <c r="CR267" s="26"/>
-      <c r="CS267" s="26"/>
-      <c r="CT267" s="26">
+      <c r="CQ267" s="30"/>
+      <c r="CR267" s="30"/>
+      <c r="CS267" s="30"/>
+      <c r="CT267" s="30">
         <v>2005</v>
       </c>
-      <c r="CU267" s="26"/>
-      <c r="CV267" s="26"/>
-      <c r="CW267" s="26"/>
-      <c r="CX267" s="26">
+      <c r="CU267" s="30"/>
+      <c r="CV267" s="30"/>
+      <c r="CW267" s="30"/>
+      <c r="CX267" s="30">
         <v>2006</v>
       </c>
-      <c r="CY267" s="26"/>
-      <c r="CZ267" s="26"/>
-      <c r="DA267" s="26"/>
-      <c r="DB267" s="26">
+      <c r="CY267" s="30"/>
+      <c r="CZ267" s="30"/>
+      <c r="DA267" s="30"/>
+      <c r="DB267" s="30">
         <v>2007</v>
       </c>
-      <c r="DC267" s="26"/>
-      <c r="DD267" s="26"/>
-      <c r="DE267" s="26"/>
-      <c r="DF267" s="26">
+      <c r="DC267" s="30"/>
+      <c r="DD267" s="30"/>
+      <c r="DE267" s="30"/>
+      <c r="DF267" s="30">
         <v>2008</v>
       </c>
-      <c r="DG267" s="26"/>
-      <c r="DH267" s="26"/>
-      <c r="DI267" s="26"/>
-      <c r="DJ267" s="26">
+      <c r="DG267" s="30"/>
+      <c r="DH267" s="30"/>
+      <c r="DI267" s="30"/>
+      <c r="DJ267" s="30">
         <v>2009</v>
       </c>
-      <c r="DK267" s="26"/>
-      <c r="DL267" s="26"/>
-      <c r="DM267" s="26"/>
-      <c r="DN267" s="26">
+      <c r="DK267" s="30"/>
+      <c r="DL267" s="30"/>
+      <c r="DM267" s="30"/>
+      <c r="DN267" s="30">
         <v>2010</v>
       </c>
-      <c r="DO267" s="26"/>
-      <c r="DP267" s="26"/>
-      <c r="DQ267" s="26"/>
-      <c r="DR267" s="26">
+      <c r="DO267" s="30"/>
+      <c r="DP267" s="30"/>
+      <c r="DQ267" s="30"/>
+      <c r="DR267" s="30">
         <v>2011</v>
       </c>
-      <c r="DS267" s="26"/>
-      <c r="DT267" s="26"/>
-      <c r="DU267" s="26"/>
-      <c r="DV267" s="26">
+      <c r="DS267" s="30"/>
+      <c r="DT267" s="30"/>
+      <c r="DU267" s="30"/>
+      <c r="DV267" s="30">
         <v>2012</v>
       </c>
-      <c r="DW267" s="26"/>
-      <c r="DX267" s="26"/>
-      <c r="DY267" s="26"/>
-      <c r="DZ267" s="26">
+      <c r="DW267" s="30"/>
+      <c r="DX267" s="30"/>
+      <c r="DY267" s="30"/>
+      <c r="DZ267" s="30">
         <v>2013</v>
       </c>
-      <c r="EA267" s="26"/>
-      <c r="EB267" s="26"/>
-      <c r="EC267" s="26"/>
-      <c r="ED267" s="26">
+      <c r="EA267" s="30"/>
+      <c r="EB267" s="30"/>
+      <c r="EC267" s="30"/>
+      <c r="ED267" s="30">
         <v>2014</v>
       </c>
-      <c r="EE267" s="26"/>
-      <c r="EF267" s="26"/>
-      <c r="EG267" s="26"/>
-      <c r="EH267" s="26">
+      <c r="EE267" s="30"/>
+      <c r="EF267" s="30"/>
+      <c r="EG267" s="30"/>
+      <c r="EH267" s="30">
         <v>2015</v>
       </c>
-      <c r="EI267" s="26"/>
-      <c r="EJ267" s="26"/>
-      <c r="EK267" s="26"/>
-      <c r="EL267" s="26">
+      <c r="EI267" s="30"/>
+      <c r="EJ267" s="30"/>
+      <c r="EK267" s="30"/>
+      <c r="EL267" s="30">
         <v>2016</v>
       </c>
-      <c r="EM267" s="26"/>
-      <c r="EN267" s="26"/>
-      <c r="EO267" s="26"/>
-      <c r="EP267" s="26">
+      <c r="EM267" s="30"/>
+      <c r="EN267" s="30"/>
+      <c r="EO267" s="30"/>
+      <c r="EP267" s="30">
         <v>2017</v>
       </c>
-      <c r="EQ267" s="26"/>
-      <c r="ER267" s="26"/>
-      <c r="ES267" s="26"/>
-      <c r="ET267" s="26">
+      <c r="EQ267" s="30"/>
+      <c r="ER267" s="30"/>
+      <c r="ES267" s="30"/>
+      <c r="ET267" s="30">
         <v>2018</v>
       </c>
-      <c r="EU267" s="26"/>
-      <c r="EV267" s="26"/>
-      <c r="EW267" s="26"/>
-      <c r="EX267" s="26">
+      <c r="EU267" s="30"/>
+      <c r="EV267" s="30"/>
+      <c r="EW267" s="30"/>
+      <c r="EX267" s="30">
         <v>2019</v>
       </c>
-      <c r="EY267" s="26"/>
-      <c r="EZ267" s="26"/>
-      <c r="FA267" s="26"/>
-      <c r="FB267" s="26">
+      <c r="EY267" s="30"/>
+      <c r="EZ267" s="30"/>
+      <c r="FA267" s="30"/>
+      <c r="FB267" s="30">
         <v>2020</v>
       </c>
-      <c r="FC267" s="26"/>
-      <c r="FD267" s="26"/>
+      <c r="FC267" s="30"/>
+      <c r="FD267" s="30"/>
       <c r="FE267" s="4"/>
-      <c r="FF267" s="26">
+      <c r="FF267" s="30">
         <v>2021</v>
       </c>
-      <c r="FG267" s="26"/>
-      <c r="FH267" s="26"/>
-      <c r="FI267" s="26"/>
-      <c r="FJ267" s="26">
+      <c r="FG267" s="30"/>
+      <c r="FH267" s="30"/>
+      <c r="FI267" s="30"/>
+      <c r="FJ267" s="30">
         <v>2022</v>
       </c>
-      <c r="FK267" s="26"/>
-      <c r="FL267" s="26"/>
-      <c r="FM267" s="26"/>
-      <c r="FN267" s="26">
+      <c r="FK267" s="30"/>
+      <c r="FL267" s="30"/>
+      <c r="FM267" s="30"/>
+      <c r="FN267" s="30">
         <v>2023</v>
       </c>
-      <c r="FO267" s="26"/>
+      <c r="FO267" s="30"/>
+      <c r="FP267" s="30"/>
     </row>
-    <row r="268" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A268" s="5" t="s">
         <v>13</v>
       </c>
@@ -49087,11 +49432,14 @@
       <c r="FO268" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="FP268" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="269" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:172" x14ac:dyDescent="0.2">
       <c r="FB269" s="2"/>
     </row>
-    <row r="270" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A270" s="15" t="s">
         <v>74</v>
       </c>
@@ -49602,11 +49950,14 @@
       <c r="FN270" s="21">
         <v>10.122758588291719</v>
       </c>
-      <c r="FO270" s="21">
-        <v>8.5432891615166096</v>
+      <c r="FO270" s="13">
+        <v>8.5483287238388623</v>
+      </c>
+      <c r="FP270" s="13">
+        <v>8.8953068202410179</v>
       </c>
     </row>
-    <row r="271" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A271" s="15" t="s">
         <v>75</v>
       </c>
@@ -50117,11 +50468,14 @@
       <c r="FN271" s="21">
         <v>29.308671419977077</v>
       </c>
-      <c r="FO271" s="21">
-        <v>29.428783491304472</v>
+      <c r="FO271" s="13">
+        <v>29.426629381696429</v>
+      </c>
+      <c r="FP271" s="13">
+        <v>24.696047084842384</v>
       </c>
     </row>
-    <row r="272" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" s="15" t="s">
         <v>76</v>
       </c>
@@ -50632,11 +50986,14 @@
       <c r="FN272" s="22">
         <v>60.568569991731202</v>
       </c>
-      <c r="FO272" s="22">
-        <v>62.02792734717891</v>
+      <c r="FO272" s="13">
+        <v>62.025041894464692</v>
+      </c>
+      <c r="FP272" s="13">
+        <v>66.408646094916591</v>
       </c>
     </row>
-    <row r="273" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A273" s="16"/>
       <c r="B273" s="13"/>
       <c r="C273" s="13"/>
@@ -50808,8 +51165,9 @@
       <c r="FM273" s="22"/>
       <c r="FN273" s="22"/>
       <c r="FO273" s="22"/>
+      <c r="FP273" s="22"/>
     </row>
-    <row r="274" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" s="8" t="s">
         <v>10</v>
       </c>
@@ -51323,8 +51681,11 @@
       <c r="FO274" s="22">
         <v>100</v>
       </c>
+      <c r="FP274" s="22">
+        <v>100</v>
+      </c>
     </row>
-    <row r="275" spans="1:171" s="3" customFormat="1" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:172" s="3" customFormat="1" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="2"/>
       <c r="B275" s="13"/>
       <c r="C275" s="13"/>
@@ -51489,7 +51850,7 @@
         <v>-24370.119758612476</v>
       </c>
     </row>
-    <row r="276" spans="1:171" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:172" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="2"/>
       <c r="B276" s="13"/>
       <c r="C276" s="13"/>
@@ -51650,7 +52011,7 @@
       <c r="FB276" s="7"/>
       <c r="FC276" s="7"/>
     </row>
-    <row r="277" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:172" hidden="1" x14ac:dyDescent="0.2">
       <c r="B277" s="13"/>
       <c r="C277" s="13"/>
       <c r="D277" s="13"/>
@@ -51814,7 +52175,7 @@
         <v>4857262.3839106075</v>
       </c>
     </row>
-    <row r="278" spans="1:171" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:172" hidden="1" x14ac:dyDescent="0.2">
       <c r="B278" s="13"/>
       <c r="C278" s="13"/>
       <c r="D278" s="13"/>
@@ -51972,7 +52333,7 @@
       <c r="EZ278" s="13"/>
       <c r="FA278" s="13"/>
     </row>
-    <row r="279" spans="1:171" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:172" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="9"/>
       <c r="B279" s="9"/>
       <c r="C279" s="9"/>
@@ -52144,37 +52505,38 @@
       <c r="FM279" s="9"/>
       <c r="FN279" s="9"/>
       <c r="FO279" s="9"/>
+      <c r="FP279" s="9"/>
     </row>
-    <row r="280" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="FC285" s="3"/>
       <c r="FD285" s="3"/>
       <c r="FE285" s="3"/>
     </row>
-    <row r="286" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="FC286" s="3"/>
       <c r="FD286" s="3"/>
       <c r="FE286" s="3"/>
     </row>
-    <row r="287" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>52</v>
       </c>
@@ -52182,282 +52544,284 @@
       <c r="FD287" s="3"/>
       <c r="FE287" s="3"/>
     </row>
-    <row r="288" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A288" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="289" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="290" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
       <c r="FJ290" s="9"/>
       <c r="FN290" s="9"/>
       <c r="FO290" s="9"/>
+      <c r="FP290" s="9"/>
     </row>
-    <row r="291" spans="1:171" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:172" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
-      <c r="B291" s="26">
+      <c r="B291" s="30">
         <v>1981</v>
       </c>
-      <c r="C291" s="26"/>
-      <c r="D291" s="26"/>
-      <c r="E291" s="26"/>
-      <c r="F291" s="26">
+      <c r="C291" s="30"/>
+      <c r="D291" s="30"/>
+      <c r="E291" s="30"/>
+      <c r="F291" s="30">
         <v>1982</v>
       </c>
-      <c r="G291" s="26"/>
-      <c r="H291" s="26"/>
-      <c r="I291" s="26"/>
-      <c r="J291" s="26">
+      <c r="G291" s="30"/>
+      <c r="H291" s="30"/>
+      <c r="I291" s="30"/>
+      <c r="J291" s="30">
         <v>1983</v>
       </c>
-      <c r="K291" s="26"/>
-      <c r="L291" s="26"/>
-      <c r="M291" s="26"/>
-      <c r="N291" s="26">
+      <c r="K291" s="30"/>
+      <c r="L291" s="30"/>
+      <c r="M291" s="30"/>
+      <c r="N291" s="30">
         <v>1984</v>
       </c>
-      <c r="O291" s="26"/>
-      <c r="P291" s="26"/>
-      <c r="Q291" s="26"/>
-      <c r="R291" s="26">
+      <c r="O291" s="30"/>
+      <c r="P291" s="30"/>
+      <c r="Q291" s="30"/>
+      <c r="R291" s="30">
         <v>1985</v>
       </c>
-      <c r="S291" s="26"/>
-      <c r="T291" s="26"/>
-      <c r="U291" s="26"/>
-      <c r="V291" s="26">
+      <c r="S291" s="30"/>
+      <c r="T291" s="30"/>
+      <c r="U291" s="30"/>
+      <c r="V291" s="30">
         <v>1986</v>
       </c>
-      <c r="W291" s="26"/>
-      <c r="X291" s="26"/>
-      <c r="Y291" s="26"/>
-      <c r="Z291" s="26">
+      <c r="W291" s="30"/>
+      <c r="X291" s="30"/>
+      <c r="Y291" s="30"/>
+      <c r="Z291" s="30">
         <v>1987</v>
       </c>
-      <c r="AA291" s="26"/>
-      <c r="AB291" s="26"/>
-      <c r="AC291" s="26"/>
-      <c r="AD291" s="26">
+      <c r="AA291" s="30"/>
+      <c r="AB291" s="30"/>
+      <c r="AC291" s="30"/>
+      <c r="AD291" s="30">
         <v>1988</v>
       </c>
-      <c r="AE291" s="26"/>
-      <c r="AF291" s="26"/>
-      <c r="AG291" s="26"/>
-      <c r="AH291" s="26">
+      <c r="AE291" s="30"/>
+      <c r="AF291" s="30"/>
+      <c r="AG291" s="30"/>
+      <c r="AH291" s="30">
         <v>1989</v>
       </c>
-      <c r="AI291" s="26"/>
-      <c r="AJ291" s="26"/>
-      <c r="AK291" s="26"/>
-      <c r="AL291" s="26">
+      <c r="AI291" s="30"/>
+      <c r="AJ291" s="30"/>
+      <c r="AK291" s="30"/>
+      <c r="AL291" s="30">
         <v>1990</v>
       </c>
-      <c r="AM291" s="26"/>
-      <c r="AN291" s="26"/>
-      <c r="AO291" s="26"/>
-      <c r="AP291" s="26">
+      <c r="AM291" s="30"/>
+      <c r="AN291" s="30"/>
+      <c r="AO291" s="30"/>
+      <c r="AP291" s="30">
         <v>1991</v>
       </c>
-      <c r="AQ291" s="26"/>
-      <c r="AR291" s="26"/>
-      <c r="AS291" s="26"/>
-      <c r="AT291" s="26">
+      <c r="AQ291" s="30"/>
+      <c r="AR291" s="30"/>
+      <c r="AS291" s="30"/>
+      <c r="AT291" s="30">
         <v>1992</v>
       </c>
-      <c r="AU291" s="26"/>
-      <c r="AV291" s="26"/>
-      <c r="AW291" s="26"/>
-      <c r="AX291" s="26">
+      <c r="AU291" s="30"/>
+      <c r="AV291" s="30"/>
+      <c r="AW291" s="30"/>
+      <c r="AX291" s="30">
         <v>1993</v>
       </c>
-      <c r="AY291" s="26"/>
-      <c r="AZ291" s="26"/>
-      <c r="BA291" s="26"/>
-      <c r="BB291" s="26">
+      <c r="AY291" s="30"/>
+      <c r="AZ291" s="30"/>
+      <c r="BA291" s="30"/>
+      <c r="BB291" s="30">
         <v>1994</v>
       </c>
-      <c r="BC291" s="26"/>
-      <c r="BD291" s="26"/>
-      <c r="BE291" s="26"/>
-      <c r="BF291" s="26">
+      <c r="BC291" s="30"/>
+      <c r="BD291" s="30"/>
+      <c r="BE291" s="30"/>
+      <c r="BF291" s="30">
         <v>1995</v>
       </c>
-      <c r="BG291" s="26"/>
-      <c r="BH291" s="26"/>
-      <c r="BI291" s="26"/>
-      <c r="BJ291" s="26">
+      <c r="BG291" s="30"/>
+      <c r="BH291" s="30"/>
+      <c r="BI291" s="30"/>
+      <c r="BJ291" s="30">
         <v>1996</v>
       </c>
-      <c r="BK291" s="26"/>
-      <c r="BL291" s="26"/>
-      <c r="BM291" s="26"/>
-      <c r="BN291" s="26">
+      <c r="BK291" s="30"/>
+      <c r="BL291" s="30"/>
+      <c r="BM291" s="30"/>
+      <c r="BN291" s="30">
         <v>1997</v>
       </c>
-      <c r="BO291" s="26"/>
-      <c r="BP291" s="26"/>
-      <c r="BQ291" s="26"/>
-      <c r="BR291" s="26">
+      <c r="BO291" s="30"/>
+      <c r="BP291" s="30"/>
+      <c r="BQ291" s="30"/>
+      <c r="BR291" s="30">
         <v>1998</v>
       </c>
-      <c r="BS291" s="26"/>
-      <c r="BT291" s="26"/>
-      <c r="BU291" s="26"/>
-      <c r="BV291" s="26">
+      <c r="BS291" s="30"/>
+      <c r="BT291" s="30"/>
+      <c r="BU291" s="30"/>
+      <c r="BV291" s="30">
         <v>1999</v>
       </c>
-      <c r="BW291" s="26"/>
-      <c r="BX291" s="26"/>
-      <c r="BY291" s="26"/>
-      <c r="BZ291" s="26">
+      <c r="BW291" s="30"/>
+      <c r="BX291" s="30"/>
+      <c r="BY291" s="30"/>
+      <c r="BZ291" s="30">
         <v>2000</v>
       </c>
-      <c r="CA291" s="26"/>
-      <c r="CB291" s="26"/>
-      <c r="CC291" s="26"/>
-      <c r="CD291" s="26">
+      <c r="CA291" s="30"/>
+      <c r="CB291" s="30"/>
+      <c r="CC291" s="30"/>
+      <c r="CD291" s="30">
         <v>2001</v>
       </c>
-      <c r="CE291" s="26"/>
-      <c r="CF291" s="26"/>
-      <c r="CG291" s="26"/>
-      <c r="CH291" s="26">
+      <c r="CE291" s="30"/>
+      <c r="CF291" s="30"/>
+      <c r="CG291" s="30"/>
+      <c r="CH291" s="30">
         <v>2002</v>
       </c>
-      <c r="CI291" s="26"/>
-      <c r="CJ291" s="26"/>
-      <c r="CK291" s="26"/>
-      <c r="CL291" s="26">
+      <c r="CI291" s="30"/>
+      <c r="CJ291" s="30"/>
+      <c r="CK291" s="30"/>
+      <c r="CL291" s="30">
         <v>2003</v>
       </c>
-      <c r="CM291" s="26"/>
-      <c r="CN291" s="26"/>
-      <c r="CO291" s="26"/>
-      <c r="CP291" s="26">
+      <c r="CM291" s="30"/>
+      <c r="CN291" s="30"/>
+      <c r="CO291" s="30"/>
+      <c r="CP291" s="30">
         <v>2004</v>
       </c>
-      <c r="CQ291" s="26"/>
-      <c r="CR291" s="26"/>
-      <c r="CS291" s="26"/>
-      <c r="CT291" s="26">
+      <c r="CQ291" s="30"/>
+      <c r="CR291" s="30"/>
+      <c r="CS291" s="30"/>
+      <c r="CT291" s="30">
         <v>2005</v>
       </c>
-      <c r="CU291" s="26"/>
-      <c r="CV291" s="26"/>
-      <c r="CW291" s="26"/>
-      <c r="CX291" s="26">
+      <c r="CU291" s="30"/>
+      <c r="CV291" s="30"/>
+      <c r="CW291" s="30"/>
+      <c r="CX291" s="30">
         <v>2006</v>
       </c>
-      <c r="CY291" s="26"/>
-      <c r="CZ291" s="26"/>
-      <c r="DA291" s="26"/>
-      <c r="DB291" s="26">
+      <c r="CY291" s="30"/>
+      <c r="CZ291" s="30"/>
+      <c r="DA291" s="30"/>
+      <c r="DB291" s="30">
         <v>2007</v>
       </c>
-      <c r="DC291" s="26"/>
-      <c r="DD291" s="26"/>
-      <c r="DE291" s="26"/>
-      <c r="DF291" s="26">
+      <c r="DC291" s="30"/>
+      <c r="DD291" s="30"/>
+      <c r="DE291" s="30"/>
+      <c r="DF291" s="30">
         <v>2008</v>
       </c>
-      <c r="DG291" s="26"/>
-      <c r="DH291" s="26"/>
-      <c r="DI291" s="26"/>
-      <c r="DJ291" s="26">
+      <c r="DG291" s="30"/>
+      <c r="DH291" s="30"/>
+      <c r="DI291" s="30"/>
+      <c r="DJ291" s="30">
         <v>2009</v>
       </c>
-      <c r="DK291" s="26"/>
-      <c r="DL291" s="26"/>
-      <c r="DM291" s="26"/>
-      <c r="DN291" s="26">
+      <c r="DK291" s="30"/>
+      <c r="DL291" s="30"/>
+      <c r="DM291" s="30"/>
+      <c r="DN291" s="30">
         <v>2010</v>
       </c>
-      <c r="DO291" s="26"/>
-      <c r="DP291" s="26"/>
-      <c r="DQ291" s="26"/>
-      <c r="DR291" s="26">
+      <c r="DO291" s="30"/>
+      <c r="DP291" s="30"/>
+      <c r="DQ291" s="30"/>
+      <c r="DR291" s="30">
         <v>2011</v>
       </c>
-      <c r="DS291" s="26"/>
-      <c r="DT291" s="26"/>
-      <c r="DU291" s="26"/>
-      <c r="DV291" s="26">
+      <c r="DS291" s="30"/>
+      <c r="DT291" s="30"/>
+      <c r="DU291" s="30"/>
+      <c r="DV291" s="30">
         <v>2012</v>
       </c>
-      <c r="DW291" s="26"/>
-      <c r="DX291" s="26"/>
-      <c r="DY291" s="26"/>
-      <c r="DZ291" s="26">
+      <c r="DW291" s="30"/>
+      <c r="DX291" s="30"/>
+      <c r="DY291" s="30"/>
+      <c r="DZ291" s="30">
         <v>2013</v>
       </c>
-      <c r="EA291" s="26"/>
-      <c r="EB291" s="26"/>
-      <c r="EC291" s="26"/>
-      <c r="ED291" s="26">
+      <c r="EA291" s="30"/>
+      <c r="EB291" s="30"/>
+      <c r="EC291" s="30"/>
+      <c r="ED291" s="30">
         <v>2014</v>
       </c>
-      <c r="EE291" s="26"/>
-      <c r="EF291" s="26"/>
-      <c r="EG291" s="26"/>
-      <c r="EH291" s="26">
+      <c r="EE291" s="30"/>
+      <c r="EF291" s="30"/>
+      <c r="EG291" s="30"/>
+      <c r="EH291" s="30">
         <v>2015</v>
       </c>
-      <c r="EI291" s="26"/>
-      <c r="EJ291" s="26"/>
-      <c r="EK291" s="26"/>
-      <c r="EL291" s="26">
+      <c r="EI291" s="30"/>
+      <c r="EJ291" s="30"/>
+      <c r="EK291" s="30"/>
+      <c r="EL291" s="30">
         <v>2016</v>
       </c>
-      <c r="EM291" s="26"/>
-      <c r="EN291" s="26"/>
-      <c r="EO291" s="26"/>
-      <c r="EP291" s="26">
+      <c r="EM291" s="30"/>
+      <c r="EN291" s="30"/>
+      <c r="EO291" s="30"/>
+      <c r="EP291" s="30">
         <v>2017</v>
       </c>
-      <c r="EQ291" s="26"/>
-      <c r="ER291" s="26"/>
-      <c r="ES291" s="26"/>
-      <c r="ET291" s="26">
+      <c r="EQ291" s="30"/>
+      <c r="ER291" s="30"/>
+      <c r="ES291" s="30"/>
+      <c r="ET291" s="30">
         <v>2018</v>
       </c>
-      <c r="EU291" s="26"/>
-      <c r="EV291" s="26"/>
-      <c r="EW291" s="26"/>
-      <c r="EX291" s="26">
+      <c r="EU291" s="30"/>
+      <c r="EV291" s="30"/>
+      <c r="EW291" s="30"/>
+      <c r="EX291" s="30">
         <v>2019</v>
       </c>
-      <c r="EY291" s="26"/>
-      <c r="EZ291" s="26"/>
-      <c r="FA291" s="26"/>
-      <c r="FB291" s="26">
+      <c r="EY291" s="30"/>
+      <c r="EZ291" s="30"/>
+      <c r="FA291" s="30"/>
+      <c r="FB291" s="30">
         <v>2020</v>
       </c>
-      <c r="FC291" s="26"/>
-      <c r="FD291" s="26"/>
-      <c r="FE291" s="26">
+      <c r="FC291" s="30"/>
+      <c r="FD291" s="30"/>
+      <c r="FE291" s="30">
         <v>2021</v>
       </c>
-      <c r="FF291" s="26"/>
-      <c r="FG291" s="26"/>
-      <c r="FH291" s="26"/>
-      <c r="FI291" s="26"/>
-      <c r="FJ291" s="26">
+      <c r="FF291" s="30"/>
+      <c r="FG291" s="30"/>
+      <c r="FH291" s="30"/>
+      <c r="FI291" s="30"/>
+      <c r="FJ291" s="30">
         <v>2022</v>
       </c>
-      <c r="FK291" s="26"/>
-      <c r="FL291" s="26"/>
-      <c r="FM291" s="26"/>
-      <c r="FN291" s="26">
+      <c r="FK291" s="30"/>
+      <c r="FL291" s="30"/>
+      <c r="FM291" s="30"/>
+      <c r="FN291" s="30">
         <v>2023</v>
       </c>
-      <c r="FO291" s="26"/>
+      <c r="FO291" s="30"/>
+      <c r="FP291" s="30"/>
     </row>
-    <row r="292" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A292" s="5" t="s">
         <v>13</v>
       </c>
@@ -52971,11 +53335,14 @@
       <c r="FO292" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="FP292" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="293" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:172" x14ac:dyDescent="0.2">
       <c r="FB293" s="2"/>
     </row>
-    <row r="294" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A294" s="15" t="s">
         <v>74</v>
       </c>
@@ -53486,11 +53853,14 @@
       <c r="FN294" s="22">
         <v>9.0596678728806062</v>
       </c>
-      <c r="FO294" s="22">
-        <v>8.0173295045700872</v>
+      <c r="FO294" s="13">
+        <v>8.0201984853111732</v>
+      </c>
+      <c r="FP294" s="13">
+        <v>8.1236621549822914</v>
       </c>
     </row>
-    <row r="295" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="15" t="s">
         <v>75</v>
       </c>
@@ -54001,11 +54371,14 @@
       <c r="FN295" s="22">
         <v>29.886122555116231</v>
       </c>
-      <c r="FO295" s="22">
-        <v>29.865576539917456</v>
+      <c r="FO295" s="13">
+        <v>29.857841269938657</v>
+      </c>
+      <c r="FP295" s="13">
+        <v>26.749585272971704</v>
       </c>
     </row>
-    <row r="296" spans="1:171" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A296" s="15" t="s">
         <v>76</v>
       </c>
@@ -54516,11 +54889,14 @@
       <c r="FN296" s="22">
         <v>61.05420957200316</v>
       </c>
-      <c r="FO296" s="22">
-        <v>62.117093955512473</v>
+      <c r="FO296" s="13">
+        <v>62.121960244750163</v>
+      </c>
+      <c r="FP296" s="13">
+        <v>65.126752572046001</v>
       </c>
     </row>
-    <row r="297" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A297" s="16"/>
       <c r="B297" s="13"/>
       <c r="C297" s="13"/>
@@ -54692,8 +55068,9 @@
       <c r="FM297" s="21"/>
       <c r="FN297" s="21"/>
       <c r="FO297" s="21"/>
+      <c r="FP297" s="21"/>
     </row>
-    <row r="298" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A298" s="8" t="s">
         <v>10</v>
       </c>
@@ -55207,8 +55584,11 @@
       <c r="FO298" s="21">
         <v>100</v>
       </c>
+      <c r="FP298" s="21">
+        <v>100</v>
+      </c>
     </row>
-    <row r="299" spans="1:171" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:172" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B299" s="13"/>
       <c r="C299" s="13"/>
       <c r="D299" s="13"/>
@@ -55372,7 +55752,7 @@
         <v>-0.58654919688841323</v>
       </c>
     </row>
-    <row r="300" spans="1:171" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:172" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B300" s="13"/>
       <c r="C300" s="13"/>
       <c r="D300" s="13"/>
@@ -55536,7 +55916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:171" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:172" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B301" s="13"/>
       <c r="C301" s="13"/>
       <c r="D301" s="13"/>
@@ -55700,7 +56080,7 @@
         <v>116.90641566717015</v>
       </c>
     </row>
-    <row r="302" spans="1:171" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:172" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B302" s="13"/>
       <c r="C302" s="13"/>
       <c r="D302" s="13"/>
@@ -55864,7 +56244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:171" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:172" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="9"/>
       <c r="B303" s="9"/>
       <c r="C303" s="9"/>
@@ -56036,8 +56416,9 @@
       <c r="FM303" s="9"/>
       <c r="FN303" s="9"/>
       <c r="FO303" s="9"/>
+      <c r="FP303" s="9"/>
     </row>
-    <row r="304" spans="1:171" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:172" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>0</v>
       </c>
@@ -56378,15 +56759,12 @@
     </row>
   </sheetData>
   <mergeCells count="512">
-    <mergeCell ref="FN267:FO267"/>
-    <mergeCell ref="FN291:FO291"/>
-    <mergeCell ref="FN9:FO9"/>
-    <mergeCell ref="FN36:FO36"/>
-    <mergeCell ref="FJ63:FK63"/>
-    <mergeCell ref="FJ90:FK90"/>
-    <mergeCell ref="FN117:FO117"/>
+    <mergeCell ref="FJ267:FM267"/>
+    <mergeCell ref="FJ291:FM291"/>
+    <mergeCell ref="FN267:FP267"/>
+    <mergeCell ref="FN291:FP291"/>
+    <mergeCell ref="FJ243:FL243"/>
     <mergeCell ref="FN144:FO144"/>
-    <mergeCell ref="FN171:FO171"/>
     <mergeCell ref="FN195:FO195"/>
     <mergeCell ref="FJ9:FM9"/>
     <mergeCell ref="FJ36:FM36"/>
@@ -56394,12 +56772,9 @@
     <mergeCell ref="FJ144:FM144"/>
     <mergeCell ref="FJ171:FM171"/>
     <mergeCell ref="FJ195:FM195"/>
-    <mergeCell ref="FJ267:FM267"/>
-    <mergeCell ref="FJ291:FM291"/>
+    <mergeCell ref="FF90:FI90"/>
     <mergeCell ref="FF219:FI219"/>
     <mergeCell ref="FF243:FI243"/>
-    <mergeCell ref="FJ219:FK219"/>
-    <mergeCell ref="FJ243:FK243"/>
     <mergeCell ref="EX63:FA63"/>
     <mergeCell ref="EX90:FA90"/>
     <mergeCell ref="FB117:FD117"/>
@@ -56407,18 +56782,6 @@
     <mergeCell ref="FB171:FD171"/>
     <mergeCell ref="FB195:FD195"/>
     <mergeCell ref="EX195:FA195"/>
-    <mergeCell ref="EX36:FA36"/>
-    <mergeCell ref="FF9:FI9"/>
-    <mergeCell ref="FF36:FI36"/>
-    <mergeCell ref="FB63:FE63"/>
-    <mergeCell ref="FB90:FE90"/>
-    <mergeCell ref="FF117:FI117"/>
-    <mergeCell ref="FF144:FI144"/>
-    <mergeCell ref="FF171:FI171"/>
-    <mergeCell ref="FF195:FI195"/>
-    <mergeCell ref="FB9:FE9"/>
-    <mergeCell ref="FF63:FI63"/>
-    <mergeCell ref="FF90:FI90"/>
     <mergeCell ref="EX219:EZ219"/>
     <mergeCell ref="EX243:EZ243"/>
     <mergeCell ref="BF291:BI291"/>
@@ -56823,10 +57186,6 @@
     <mergeCell ref="CL63:CO63"/>
     <mergeCell ref="CP63:CS63"/>
     <mergeCell ref="CT63:CW63"/>
-    <mergeCell ref="DF90:DI90"/>
-    <mergeCell ref="DF63:DI63"/>
-    <mergeCell ref="DJ63:DM63"/>
-    <mergeCell ref="EL90:EO90"/>
     <mergeCell ref="EP90:ES90"/>
     <mergeCell ref="ET90:EW90"/>
     <mergeCell ref="DJ90:DM90"/>
@@ -56854,6 +57213,15 @@
     <mergeCell ref="EP36:ES36"/>
     <mergeCell ref="ET36:EW36"/>
     <mergeCell ref="ED36:EG36"/>
+    <mergeCell ref="EX36:FA36"/>
+    <mergeCell ref="DN36:DQ36"/>
+    <mergeCell ref="DR36:DU36"/>
+    <mergeCell ref="DV36:DY36"/>
+    <mergeCell ref="DZ36:EC36"/>
+    <mergeCell ref="EL63:EO63"/>
+    <mergeCell ref="EP63:ES63"/>
+    <mergeCell ref="CD63:CG63"/>
+    <mergeCell ref="EH90:EK90"/>
     <mergeCell ref="DV9:DY9"/>
     <mergeCell ref="CX9:DA9"/>
     <mergeCell ref="DB9:DE9"/>
@@ -56866,13 +57234,10 @@
     <mergeCell ref="CL9:CO9"/>
     <mergeCell ref="CP9:CS9"/>
     <mergeCell ref="CT9:CW9"/>
-    <mergeCell ref="FB267:FD267"/>
-    <mergeCell ref="FB291:FD291"/>
-    <mergeCell ref="FB36:FD36"/>
-    <mergeCell ref="FE291:FI291"/>
-    <mergeCell ref="FF267:FI267"/>
-    <mergeCell ref="FB243:FE243"/>
-    <mergeCell ref="FB219:FE219"/>
+    <mergeCell ref="DF90:DI90"/>
+    <mergeCell ref="DF63:DI63"/>
+    <mergeCell ref="DJ63:DM63"/>
+    <mergeCell ref="EL90:EO90"/>
     <mergeCell ref="CD36:CG36"/>
     <mergeCell ref="CH36:CK36"/>
     <mergeCell ref="CL36:CO36"/>
@@ -56882,23 +57247,109 @@
     <mergeCell ref="DB36:DE36"/>
     <mergeCell ref="DF36:DI36"/>
     <mergeCell ref="DJ36:DM36"/>
-    <mergeCell ref="DN36:DQ36"/>
-    <mergeCell ref="DR36:DU36"/>
-    <mergeCell ref="DV36:DY36"/>
-    <mergeCell ref="DZ36:EC36"/>
-    <mergeCell ref="EL63:EO63"/>
-    <mergeCell ref="EP63:ES63"/>
-    <mergeCell ref="CD63:CG63"/>
-    <mergeCell ref="EH90:EK90"/>
+    <mergeCell ref="FN9:FP9"/>
+    <mergeCell ref="FN36:FP36"/>
+    <mergeCell ref="FJ63:FL63"/>
+    <mergeCell ref="FJ90:FL90"/>
+    <mergeCell ref="FN117:FP117"/>
+    <mergeCell ref="FN171:FP171"/>
+    <mergeCell ref="FJ219:FL219"/>
+    <mergeCell ref="FB267:FD267"/>
+    <mergeCell ref="FB291:FD291"/>
+    <mergeCell ref="FB36:FD36"/>
+    <mergeCell ref="FE291:FI291"/>
+    <mergeCell ref="FF267:FI267"/>
+    <mergeCell ref="FB243:FE243"/>
+    <mergeCell ref="FB219:FE219"/>
+    <mergeCell ref="FF9:FI9"/>
+    <mergeCell ref="FF36:FI36"/>
+    <mergeCell ref="FB63:FE63"/>
+    <mergeCell ref="FB90:FE90"/>
+    <mergeCell ref="FF117:FI117"/>
+    <mergeCell ref="FF144:FI144"/>
+    <mergeCell ref="FF171:FI171"/>
+    <mergeCell ref="FF195:FI195"/>
+    <mergeCell ref="FB9:FE9"/>
+    <mergeCell ref="FF63:FI63"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="EX66:EY73">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="15" priority="35" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EX93:EY100">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="34" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="FK66:FL70">
+    <cfRule type="cellIs" dxfId="13" priority="30" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="FK73:FL73">
+    <cfRule type="cellIs" dxfId="12" priority="29" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="FK93:FL97">
+    <cfRule type="cellIs" dxfId="11" priority="25" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="FK100:FL100">
+    <cfRule type="cellIs" dxfId="10" priority="24" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="FK222:FL224">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="FK226:FL226">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="FK246:FL248">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="FK250:FL250">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="FO120:FP124">
+    <cfRule type="cellIs" dxfId="5" priority="20" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="FO127:FP127">
+    <cfRule type="cellIs" dxfId="4" priority="19" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="FO147:FP150">
+    <cfRule type="cellIs" dxfId="3" priority="16" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="FO270:FP272">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="FO294:FP296">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="FO151:FQ151">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Data/National Accounts/PSA-Quarter-Q1-1981-to-latest.xlsx
+++ b/Data/National Accounts/PSA-Quarter-Q1-1981-to-latest.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rice\Downloads\for dissemination\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rice\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB635C4-1B26-462C-89DC-FBA7F09D110D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6260F6-4A6E-405A-9171-F16B2DA088B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="420" windowWidth="25785" windowHeight="14895" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="721" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Q1 1981 to Q3 2023" sheetId="5" r:id="rId1"/>
+    <sheet name="Q1 1981 to Q4 2023" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="AFF_Cons">#REF!</definedName>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="85">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -344,13 +344,16 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of November 2023</t>
+    <t>As of January 2023</t>
   </si>
   <si>
-    <t>Q1 1981 to Q3 2023</t>
+    <t>Q1 1981 to Q4 2023</t>
   </si>
   <si>
-    <t>Q1 1982 to Q3 2023</t>
+    <t>As of January 2024</t>
+  </si>
+  <si>
+    <t>Q1 1982 to Q4 2023</t>
   </si>
 </sst>
 </file>
@@ -406,7 +409,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -432,12 +435,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -497,18 +511,285 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{EBC8978A-E69D-4FF4-B0D2-6466C5361FC7}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{615DD287-F4E0-4CDD-9CC4-94A5A163DEE0}"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="53">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -902,11 +1183,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FQ313"/>
+  <dimension ref="A1:FS313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="FK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FP145" sqref="FP145"/>
+    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="FJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="FZ316" sqref="FZ316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -991,309 +1272,311 @@
     <col min="163" max="164" width="15.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="165" max="165" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="166" max="172" width="15" style="2" customWidth="1"/>
-    <col min="173" max="16384" width="9.28515625" style="2"/>
+    <col min="173" max="173" width="14.140625" style="2" customWidth="1"/>
+    <col min="174" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="FN8" s="9"/>
-      <c r="FO8" s="9"/>
-      <c r="FP8" s="9"/>
+      <c r="FN8" s="31"/>
+      <c r="FO8" s="31"/>
+      <c r="FP8" s="31"/>
     </row>
-    <row r="9" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="30">
+      <c r="B9" s="29">
         <v>1981</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30">
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29">
         <v>1982</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30">
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29">
         <v>1983</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30">
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29">
         <v>1984</v>
       </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30">
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29">
         <v>1985</v>
       </c>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30">
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29">
         <v>1986</v>
       </c>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30">
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29">
         <v>1987</v>
       </c>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30">
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29">
         <v>1988</v>
       </c>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="30"/>
-      <c r="AH9" s="30">
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="29">
         <v>1989</v>
       </c>
-      <c r="AI9" s="30"/>
-      <c r="AJ9" s="30"/>
-      <c r="AK9" s="30"/>
-      <c r="AL9" s="30">
+      <c r="AI9" s="29"/>
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="29"/>
+      <c r="AL9" s="29">
         <v>1990</v>
       </c>
-      <c r="AM9" s="30"/>
-      <c r="AN9" s="30"/>
-      <c r="AO9" s="30"/>
-      <c r="AP9" s="30">
+      <c r="AM9" s="29"/>
+      <c r="AN9" s="29"/>
+      <c r="AO9" s="29"/>
+      <c r="AP9" s="29">
         <v>1991</v>
       </c>
-      <c r="AQ9" s="30"/>
-      <c r="AR9" s="30"/>
-      <c r="AS9" s="30"/>
-      <c r="AT9" s="30">
+      <c r="AQ9" s="29"/>
+      <c r="AR9" s="29"/>
+      <c r="AS9" s="29"/>
+      <c r="AT9" s="29">
         <v>1992</v>
       </c>
-      <c r="AU9" s="30"/>
-      <c r="AV9" s="30"/>
-      <c r="AW9" s="30"/>
-      <c r="AX9" s="30">
+      <c r="AU9" s="29"/>
+      <c r="AV9" s="29"/>
+      <c r="AW9" s="29"/>
+      <c r="AX9" s="29">
         <v>1993</v>
       </c>
-      <c r="AY9" s="30"/>
-      <c r="AZ9" s="30"/>
-      <c r="BA9" s="30"/>
-      <c r="BB9" s="30">
+      <c r="AY9" s="29"/>
+      <c r="AZ9" s="29"/>
+      <c r="BA9" s="29"/>
+      <c r="BB9" s="29">
         <v>1994</v>
       </c>
-      <c r="BC9" s="30"/>
-      <c r="BD9" s="30"/>
-      <c r="BE9" s="30"/>
-      <c r="BF9" s="30">
+      <c r="BC9" s="29"/>
+      <c r="BD9" s="29"/>
+      <c r="BE9" s="29"/>
+      <c r="BF9" s="29">
         <v>1995</v>
       </c>
-      <c r="BG9" s="30"/>
-      <c r="BH9" s="30"/>
-      <c r="BI9" s="30"/>
-      <c r="BJ9" s="30">
+      <c r="BG9" s="29"/>
+      <c r="BH9" s="29"/>
+      <c r="BI9" s="29"/>
+      <c r="BJ9" s="29">
         <v>1996</v>
       </c>
-      <c r="BK9" s="30"/>
-      <c r="BL9" s="30"/>
-      <c r="BM9" s="30"/>
-      <c r="BN9" s="30">
+      <c r="BK9" s="29"/>
+      <c r="BL9" s="29"/>
+      <c r="BM9" s="29"/>
+      <c r="BN9" s="29">
         <v>1997</v>
       </c>
-      <c r="BO9" s="30"/>
-      <c r="BP9" s="30"/>
-      <c r="BQ9" s="30"/>
-      <c r="BR9" s="30">
+      <c r="BO9" s="29"/>
+      <c r="BP9" s="29"/>
+      <c r="BQ9" s="29"/>
+      <c r="BR9" s="29">
         <v>1998</v>
       </c>
-      <c r="BS9" s="30"/>
-      <c r="BT9" s="30"/>
-      <c r="BU9" s="30"/>
-      <c r="BV9" s="30">
+      <c r="BS9" s="29"/>
+      <c r="BT9" s="29"/>
+      <c r="BU9" s="29"/>
+      <c r="BV9" s="29">
         <v>1999</v>
       </c>
-      <c r="BW9" s="30"/>
-      <c r="BX9" s="30"/>
-      <c r="BY9" s="30"/>
-      <c r="BZ9" s="30">
+      <c r="BW9" s="29"/>
+      <c r="BX9" s="29"/>
+      <c r="BY9" s="29"/>
+      <c r="BZ9" s="29">
         <v>2000</v>
       </c>
-      <c r="CA9" s="30"/>
-      <c r="CB9" s="30"/>
-      <c r="CC9" s="30"/>
-      <c r="CD9" s="30">
+      <c r="CA9" s="29"/>
+      <c r="CB9" s="29"/>
+      <c r="CC9" s="29"/>
+      <c r="CD9" s="29">
         <v>2001</v>
       </c>
-      <c r="CE9" s="30"/>
-      <c r="CF9" s="30"/>
-      <c r="CG9" s="30"/>
-      <c r="CH9" s="30">
+      <c r="CE9" s="29"/>
+      <c r="CF9" s="29"/>
+      <c r="CG9" s="29"/>
+      <c r="CH9" s="29">
         <v>2002</v>
       </c>
-      <c r="CI9" s="30"/>
-      <c r="CJ9" s="30"/>
-      <c r="CK9" s="30"/>
-      <c r="CL9" s="30">
+      <c r="CI9" s="29"/>
+      <c r="CJ9" s="29"/>
+      <c r="CK9" s="29"/>
+      <c r="CL9" s="29">
         <v>2003</v>
       </c>
-      <c r="CM9" s="30"/>
-      <c r="CN9" s="30"/>
-      <c r="CO9" s="30"/>
-      <c r="CP9" s="30">
+      <c r="CM9" s="29"/>
+      <c r="CN9" s="29"/>
+      <c r="CO9" s="29"/>
+      <c r="CP9" s="29">
         <v>2004</v>
       </c>
-      <c r="CQ9" s="30"/>
-      <c r="CR9" s="30"/>
-      <c r="CS9" s="30"/>
-      <c r="CT9" s="30">
+      <c r="CQ9" s="29"/>
+      <c r="CR9" s="29"/>
+      <c r="CS9" s="29"/>
+      <c r="CT9" s="29">
         <v>2005</v>
       </c>
-      <c r="CU9" s="30"/>
-      <c r="CV9" s="30"/>
-      <c r="CW9" s="30"/>
-      <c r="CX9" s="30">
+      <c r="CU9" s="29"/>
+      <c r="CV9" s="29"/>
+      <c r="CW9" s="29"/>
+      <c r="CX9" s="29">
         <v>2006</v>
       </c>
-      <c r="CY9" s="30"/>
-      <c r="CZ9" s="30"/>
-      <c r="DA9" s="30"/>
-      <c r="DB9" s="30">
+      <c r="CY9" s="29"/>
+      <c r="CZ9" s="29"/>
+      <c r="DA9" s="29"/>
+      <c r="DB9" s="29">
         <v>2007</v>
       </c>
-      <c r="DC9" s="30"/>
-      <c r="DD9" s="30"/>
-      <c r="DE9" s="30"/>
-      <c r="DF9" s="30">
+      <c r="DC9" s="29"/>
+      <c r="DD9" s="29"/>
+      <c r="DE9" s="29"/>
+      <c r="DF9" s="29">
         <v>2008</v>
       </c>
-      <c r="DG9" s="30"/>
-      <c r="DH9" s="30"/>
-      <c r="DI9" s="30"/>
-      <c r="DJ9" s="30">
+      <c r="DG9" s="29"/>
+      <c r="DH9" s="29"/>
+      <c r="DI9" s="29"/>
+      <c r="DJ9" s="29">
         <v>2009</v>
       </c>
-      <c r="DK9" s="30"/>
-      <c r="DL9" s="30"/>
-      <c r="DM9" s="30"/>
-      <c r="DN9" s="30">
+      <c r="DK9" s="29"/>
+      <c r="DL9" s="29"/>
+      <c r="DM9" s="29"/>
+      <c r="DN9" s="29">
         <v>2010</v>
       </c>
-      <c r="DO9" s="30"/>
-      <c r="DP9" s="30"/>
-      <c r="DQ9" s="30"/>
-      <c r="DR9" s="30">
+      <c r="DO9" s="29"/>
+      <c r="DP9" s="29"/>
+      <c r="DQ9" s="29"/>
+      <c r="DR9" s="29">
         <v>2011</v>
       </c>
-      <c r="DS9" s="30"/>
-      <c r="DT9" s="30"/>
-      <c r="DU9" s="30"/>
-      <c r="DV9" s="30">
+      <c r="DS9" s="29"/>
+      <c r="DT9" s="29"/>
+      <c r="DU9" s="29"/>
+      <c r="DV9" s="29">
         <v>2012</v>
       </c>
-      <c r="DW9" s="30"/>
-      <c r="DX9" s="30"/>
-      <c r="DY9" s="30"/>
-      <c r="DZ9" s="30">
+      <c r="DW9" s="29"/>
+      <c r="DX9" s="29"/>
+      <c r="DY9" s="29"/>
+      <c r="DZ9" s="29">
         <v>2013</v>
       </c>
-      <c r="EA9" s="30"/>
-      <c r="EB9" s="30"/>
-      <c r="EC9" s="30"/>
-      <c r="ED9" s="30">
+      <c r="EA9" s="29"/>
+      <c r="EB9" s="29"/>
+      <c r="EC9" s="29"/>
+      <c r="ED9" s="29">
         <v>2014</v>
       </c>
-      <c r="EE9" s="30"/>
-      <c r="EF9" s="30"/>
-      <c r="EG9" s="30"/>
-      <c r="EH9" s="30">
+      <c r="EE9" s="29"/>
+      <c r="EF9" s="29"/>
+      <c r="EG9" s="29"/>
+      <c r="EH9" s="29">
         <v>2015</v>
       </c>
-      <c r="EI9" s="30"/>
-      <c r="EJ9" s="30"/>
-      <c r="EK9" s="30"/>
-      <c r="EL9" s="30">
+      <c r="EI9" s="29"/>
+      <c r="EJ9" s="29"/>
+      <c r="EK9" s="29"/>
+      <c r="EL9" s="29">
         <v>2016</v>
       </c>
-      <c r="EM9" s="30"/>
-      <c r="EN9" s="30"/>
-      <c r="EO9" s="30"/>
-      <c r="EP9" s="30">
+      <c r="EM9" s="29"/>
+      <c r="EN9" s="29"/>
+      <c r="EO9" s="29"/>
+      <c r="EP9" s="29">
         <v>2017</v>
       </c>
-      <c r="EQ9" s="30"/>
-      <c r="ER9" s="30"/>
-      <c r="ES9" s="30"/>
-      <c r="ET9" s="30">
+      <c r="EQ9" s="29"/>
+      <c r="ER9" s="29"/>
+      <c r="ES9" s="29"/>
+      <c r="ET9" s="29">
         <v>2018</v>
       </c>
-      <c r="EU9" s="30"/>
-      <c r="EV9" s="30"/>
-      <c r="EW9" s="30"/>
-      <c r="EX9" s="30">
+      <c r="EU9" s="29"/>
+      <c r="EV9" s="29"/>
+      <c r="EW9" s="29"/>
+      <c r="EX9" s="29">
         <v>2019</v>
       </c>
-      <c r="EY9" s="30"/>
-      <c r="EZ9" s="30"/>
-      <c r="FA9" s="30"/>
-      <c r="FB9" s="30">
+      <c r="EY9" s="29"/>
+      <c r="EZ9" s="29"/>
+      <c r="FA9" s="29"/>
+      <c r="FB9" s="29">
         <v>2020</v>
       </c>
-      <c r="FC9" s="30"/>
-      <c r="FD9" s="30"/>
-      <c r="FE9" s="30"/>
-      <c r="FF9" s="30">
+      <c r="FC9" s="29"/>
+      <c r="FD9" s="29"/>
+      <c r="FE9" s="29"/>
+      <c r="FF9" s="29">
         <v>2021</v>
       </c>
-      <c r="FG9" s="30"/>
-      <c r="FH9" s="30"/>
-      <c r="FI9" s="30"/>
-      <c r="FJ9" s="30">
+      <c r="FG9" s="29"/>
+      <c r="FH9" s="29"/>
+      <c r="FI9" s="29"/>
+      <c r="FJ9" s="29">
         <v>2022</v>
       </c>
-      <c r="FK9" s="30"/>
-      <c r="FL9" s="30"/>
-      <c r="FM9" s="30"/>
+      <c r="FK9" s="29"/>
+      <c r="FL9" s="29"/>
+      <c r="FM9" s="29"/>
       <c r="FN9" s="29">
         <v>2023</v>
       </c>
       <c r="FO9" s="29"/>
       <c r="FP9" s="29"/>
+      <c r="FQ9" s="29"/>
     </row>
-    <row r="10" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1810,11 +2093,14 @@
       <c r="FP10" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="FQ10" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="11" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:173" x14ac:dyDescent="0.2">
       <c r="FB11" s="2"/>
     </row>
-    <row r="12" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -2328,11 +2614,14 @@
       <c r="FO12" s="27">
         <v>4327166.7867095843</v>
       </c>
-      <c r="FP12" s="27">
-        <v>4531144.7420702763</v>
+      <c r="FP12" s="33">
+        <v>4535008.0750114648</v>
+      </c>
+      <c r="FQ12" s="33">
+        <v>5330110.7194304056</v>
       </c>
     </row>
-    <row r="13" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -2846,11 +3135,14 @@
       <c r="FO13" s="27">
         <v>916235.10787620337</v>
       </c>
-      <c r="FP13" s="27">
-        <v>870711.42696436576</v>
+      <c r="FP13" s="33">
+        <v>870626.08452308027</v>
+      </c>
+      <c r="FQ13" s="33">
+        <v>905265.71360668843</v>
       </c>
     </row>
-    <row r="14" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -3364,11 +3656,14 @@
       <c r="FO14" s="27">
         <v>1554447.8581496018</v>
       </c>
-      <c r="FP14" s="27">
-        <v>1269409.1748115048</v>
+      <c r="FP14" s="33">
+        <v>1272675.0505224685</v>
+      </c>
+      <c r="FQ14" s="33">
+        <v>1535324.4000279044</v>
       </c>
     </row>
-    <row r="15" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -3882,11 +4177,14 @@
       <c r="FO15" s="27">
         <v>1520507.5453396603</v>
       </c>
-      <c r="FP15" s="27">
-        <v>1737962.9322753754</v>
+      <c r="FP15" s="33">
+        <v>1738527.0042472342</v>
+      </c>
+      <c r="FQ15" s="33">
+        <v>1666136.9684109543</v>
       </c>
     </row>
-    <row r="16" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -4400,11 +4698,14 @@
       <c r="FO16" s="27">
         <v>2422504.4438815913</v>
       </c>
-      <c r="FP16" s="27">
-        <v>2624152.376408427</v>
+      <c r="FP16" s="33">
+        <v>2632541.8742433381</v>
+      </c>
+      <c r="FQ16" s="33">
+        <v>2409076.040426203</v>
       </c>
     </row>
-    <row r="17" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -4918,11 +5219,14 @@
       <c r="FO17" s="27">
         <v>-8450.7875785529595</v>
       </c>
-      <c r="FP17" s="27">
-        <v>-39361.366005143151</v>
+      <c r="FP17" s="33">
+        <v>-33737.529313588515</v>
+      </c>
+      <c r="FQ17" s="33">
+        <v>22802.082770377398</v>
       </c>
     </row>
-    <row r="18" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:173" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -5095,7 +5399,7 @@
       <c r="FO18" s="7"/>
       <c r="FP18" s="7"/>
     </row>
-    <row r="19" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>10</v>
       </c>
@@ -5609,11 +5913,14 @@
       <c r="FO19" s="27">
         <v>5887402.0666149054</v>
       </c>
-      <c r="FP19" s="27">
-        <v>5745714.5337079531</v>
+      <c r="FP19" s="33">
+        <v>5750556.8107473198</v>
+      </c>
+      <c r="FQ19" s="33">
+        <v>7050563.8438201277</v>
       </c>
     </row>
-    <row r="20" spans="1:172" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:173" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -5771,7 +6078,7 @@
       <c r="EZ20" s="7"/>
       <c r="FA20" s="7"/>
     </row>
-    <row r="21" spans="1:172" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:173" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -5929,7 +6236,7 @@
       <c r="EZ21" s="7"/>
       <c r="FA21" s="7"/>
     </row>
-    <row r="22" spans="1:172" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:173" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -6087,7 +6394,7 @@
       <c r="EZ22" s="7"/>
       <c r="FA22" s="7"/>
     </row>
-    <row r="23" spans="1:172" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:173" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -6245,7 +6552,7 @@
       <c r="EZ23" s="7"/>
       <c r="FA23" s="7"/>
     </row>
-    <row r="24" spans="1:172" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:173" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -6418,313 +6725,317 @@
       <c r="FN24" s="9"/>
       <c r="FO24" s="9"/>
       <c r="FP24" s="9"/>
+      <c r="FQ24" s="9"/>
     </row>
-    <row r="25" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="BY25" s="10"/>
+      <c r="FQ25" s="31"/>
     </row>
-    <row r="28" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="FN35" s="9"/>
       <c r="FO35" s="9"/>
       <c r="FP35" s="9"/>
+      <c r="FQ35" s="31"/>
     </row>
-    <row r="36" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="30">
+      <c r="B36" s="29">
         <v>1981</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30">
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29">
         <v>1982</v>
       </c>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30">
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29">
         <v>1983</v>
       </c>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30">
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29">
         <v>1984</v>
       </c>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30">
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29">
         <v>1985</v>
       </c>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30">
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29">
         <v>1986</v>
       </c>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="30">
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29">
         <v>1987</v>
       </c>
-      <c r="AA36" s="30"/>
-      <c r="AB36" s="30"/>
-      <c r="AC36" s="30"/>
-      <c r="AD36" s="30">
+      <c r="AA36" s="29"/>
+      <c r="AB36" s="29"/>
+      <c r="AC36" s="29"/>
+      <c r="AD36" s="29">
         <v>1988</v>
       </c>
-      <c r="AE36" s="30"/>
-      <c r="AF36" s="30"/>
-      <c r="AG36" s="30"/>
-      <c r="AH36" s="30">
+      <c r="AE36" s="29"/>
+      <c r="AF36" s="29"/>
+      <c r="AG36" s="29"/>
+      <c r="AH36" s="29">
         <v>1989</v>
       </c>
-      <c r="AI36" s="30"/>
-      <c r="AJ36" s="30"/>
-      <c r="AK36" s="30"/>
-      <c r="AL36" s="30">
+      <c r="AI36" s="29"/>
+      <c r="AJ36" s="29"/>
+      <c r="AK36" s="29"/>
+      <c r="AL36" s="29">
         <v>1990</v>
       </c>
-      <c r="AM36" s="30"/>
-      <c r="AN36" s="30"/>
-      <c r="AO36" s="30"/>
-      <c r="AP36" s="30">
+      <c r="AM36" s="29"/>
+      <c r="AN36" s="29"/>
+      <c r="AO36" s="29"/>
+      <c r="AP36" s="29">
         <v>1991</v>
       </c>
-      <c r="AQ36" s="30"/>
-      <c r="AR36" s="30"/>
-      <c r="AS36" s="30"/>
-      <c r="AT36" s="30">
+      <c r="AQ36" s="29"/>
+      <c r="AR36" s="29"/>
+      <c r="AS36" s="29"/>
+      <c r="AT36" s="29">
         <v>1992</v>
       </c>
-      <c r="AU36" s="30"/>
-      <c r="AV36" s="30"/>
-      <c r="AW36" s="30"/>
-      <c r="AX36" s="30">
+      <c r="AU36" s="29"/>
+      <c r="AV36" s="29"/>
+      <c r="AW36" s="29"/>
+      <c r="AX36" s="29">
         <v>1993</v>
       </c>
-      <c r="AY36" s="30"/>
-      <c r="AZ36" s="30"/>
-      <c r="BA36" s="30"/>
-      <c r="BB36" s="30">
+      <c r="AY36" s="29"/>
+      <c r="AZ36" s="29"/>
+      <c r="BA36" s="29"/>
+      <c r="BB36" s="29">
         <v>1994</v>
       </c>
-      <c r="BC36" s="30"/>
-      <c r="BD36" s="30"/>
-      <c r="BE36" s="30"/>
-      <c r="BF36" s="30">
+      <c r="BC36" s="29"/>
+      <c r="BD36" s="29"/>
+      <c r="BE36" s="29"/>
+      <c r="BF36" s="29">
         <v>1995</v>
       </c>
-      <c r="BG36" s="30"/>
-      <c r="BH36" s="30"/>
-      <c r="BI36" s="30"/>
-      <c r="BJ36" s="30">
+      <c r="BG36" s="29"/>
+      <c r="BH36" s="29"/>
+      <c r="BI36" s="29"/>
+      <c r="BJ36" s="29">
         <v>1996</v>
       </c>
-      <c r="BK36" s="30"/>
-      <c r="BL36" s="30"/>
-      <c r="BM36" s="30"/>
-      <c r="BN36" s="30">
+      <c r="BK36" s="29"/>
+      <c r="BL36" s="29"/>
+      <c r="BM36" s="29"/>
+      <c r="BN36" s="29">
         <v>1997</v>
       </c>
-      <c r="BO36" s="30"/>
-      <c r="BP36" s="30"/>
-      <c r="BQ36" s="30"/>
-      <c r="BR36" s="30">
+      <c r="BO36" s="29"/>
+      <c r="BP36" s="29"/>
+      <c r="BQ36" s="29"/>
+      <c r="BR36" s="29">
         <v>1998</v>
       </c>
-      <c r="BS36" s="30"/>
-      <c r="BT36" s="30"/>
-      <c r="BU36" s="30"/>
-      <c r="BV36" s="30">
+      <c r="BS36" s="29"/>
+      <c r="BT36" s="29"/>
+      <c r="BU36" s="29"/>
+      <c r="BV36" s="29">
         <v>1999</v>
       </c>
-      <c r="BW36" s="30"/>
-      <c r="BX36" s="30"/>
-      <c r="BY36" s="30"/>
-      <c r="BZ36" s="30">
+      <c r="BW36" s="29"/>
+      <c r="BX36" s="29"/>
+      <c r="BY36" s="29"/>
+      <c r="BZ36" s="29">
         <v>2000</v>
       </c>
-      <c r="CA36" s="30"/>
-      <c r="CB36" s="30"/>
-      <c r="CC36" s="30"/>
-      <c r="CD36" s="30">
+      <c r="CA36" s="29"/>
+      <c r="CB36" s="29"/>
+      <c r="CC36" s="29"/>
+      <c r="CD36" s="29">
         <v>2001</v>
       </c>
-      <c r="CE36" s="30"/>
-      <c r="CF36" s="30"/>
-      <c r="CG36" s="30"/>
-      <c r="CH36" s="30">
+      <c r="CE36" s="29"/>
+      <c r="CF36" s="29"/>
+      <c r="CG36" s="29"/>
+      <c r="CH36" s="29">
         <v>2002</v>
       </c>
-      <c r="CI36" s="30"/>
-      <c r="CJ36" s="30"/>
-      <c r="CK36" s="30"/>
-      <c r="CL36" s="30">
+      <c r="CI36" s="29"/>
+      <c r="CJ36" s="29"/>
+      <c r="CK36" s="29"/>
+      <c r="CL36" s="29">
         <v>2003</v>
       </c>
-      <c r="CM36" s="30"/>
-      <c r="CN36" s="30"/>
-      <c r="CO36" s="30"/>
-      <c r="CP36" s="30">
+      <c r="CM36" s="29"/>
+      <c r="CN36" s="29"/>
+      <c r="CO36" s="29"/>
+      <c r="CP36" s="29">
         <v>2004</v>
       </c>
-      <c r="CQ36" s="30"/>
-      <c r="CR36" s="30"/>
-      <c r="CS36" s="30"/>
-      <c r="CT36" s="30">
+      <c r="CQ36" s="29"/>
+      <c r="CR36" s="29"/>
+      <c r="CS36" s="29"/>
+      <c r="CT36" s="29">
         <v>2005</v>
       </c>
-      <c r="CU36" s="30"/>
-      <c r="CV36" s="30"/>
-      <c r="CW36" s="30"/>
-      <c r="CX36" s="30">
+      <c r="CU36" s="29"/>
+      <c r="CV36" s="29"/>
+      <c r="CW36" s="29"/>
+      <c r="CX36" s="29">
         <v>2006</v>
       </c>
-      <c r="CY36" s="30"/>
-      <c r="CZ36" s="30"/>
-      <c r="DA36" s="30"/>
-      <c r="DB36" s="30">
+      <c r="CY36" s="29"/>
+      <c r="CZ36" s="29"/>
+      <c r="DA36" s="29"/>
+      <c r="DB36" s="29">
         <v>2007</v>
       </c>
-      <c r="DC36" s="30"/>
-      <c r="DD36" s="30"/>
-      <c r="DE36" s="30"/>
-      <c r="DF36" s="30">
+      <c r="DC36" s="29"/>
+      <c r="DD36" s="29"/>
+      <c r="DE36" s="29"/>
+      <c r="DF36" s="29">
         <v>2008</v>
       </c>
-      <c r="DG36" s="30"/>
-      <c r="DH36" s="30"/>
-      <c r="DI36" s="30"/>
-      <c r="DJ36" s="30">
+      <c r="DG36" s="29"/>
+      <c r="DH36" s="29"/>
+      <c r="DI36" s="29"/>
+      <c r="DJ36" s="29">
         <v>2009</v>
       </c>
-      <c r="DK36" s="30"/>
-      <c r="DL36" s="30"/>
-      <c r="DM36" s="30"/>
-      <c r="DN36" s="30">
+      <c r="DK36" s="29"/>
+      <c r="DL36" s="29"/>
+      <c r="DM36" s="29"/>
+      <c r="DN36" s="29">
         <v>2010</v>
       </c>
-      <c r="DO36" s="30"/>
-      <c r="DP36" s="30"/>
-      <c r="DQ36" s="30"/>
-      <c r="DR36" s="30">
+      <c r="DO36" s="29"/>
+      <c r="DP36" s="29"/>
+      <c r="DQ36" s="29"/>
+      <c r="DR36" s="29">
         <v>2011</v>
       </c>
-      <c r="DS36" s="30"/>
-      <c r="DT36" s="30"/>
-      <c r="DU36" s="30"/>
-      <c r="DV36" s="30">
+      <c r="DS36" s="29"/>
+      <c r="DT36" s="29"/>
+      <c r="DU36" s="29"/>
+      <c r="DV36" s="29">
         <v>2012</v>
       </c>
-      <c r="DW36" s="30"/>
-      <c r="DX36" s="30"/>
-      <c r="DY36" s="30"/>
-      <c r="DZ36" s="30">
+      <c r="DW36" s="29"/>
+      <c r="DX36" s="29"/>
+      <c r="DY36" s="29"/>
+      <c r="DZ36" s="29">
         <v>2013</v>
       </c>
-      <c r="EA36" s="30"/>
-      <c r="EB36" s="30"/>
-      <c r="EC36" s="30"/>
-      <c r="ED36" s="30">
+      <c r="EA36" s="29"/>
+      <c r="EB36" s="29"/>
+      <c r="EC36" s="29"/>
+      <c r="ED36" s="29">
         <v>2014</v>
       </c>
-      <c r="EE36" s="30"/>
-      <c r="EF36" s="30"/>
-      <c r="EG36" s="30"/>
-      <c r="EH36" s="30">
+      <c r="EE36" s="29"/>
+      <c r="EF36" s="29"/>
+      <c r="EG36" s="29"/>
+      <c r="EH36" s="29">
         <v>2015</v>
       </c>
-      <c r="EI36" s="30"/>
-      <c r="EJ36" s="30"/>
-      <c r="EK36" s="30"/>
-      <c r="EL36" s="30">
+      <c r="EI36" s="29"/>
+      <c r="EJ36" s="29"/>
+      <c r="EK36" s="29"/>
+      <c r="EL36" s="29">
         <v>2016</v>
       </c>
-      <c r="EM36" s="30"/>
-      <c r="EN36" s="30"/>
-      <c r="EO36" s="30"/>
-      <c r="EP36" s="30">
+      <c r="EM36" s="29"/>
+      <c r="EN36" s="29"/>
+      <c r="EO36" s="29"/>
+      <c r="EP36" s="29">
         <v>2017</v>
       </c>
-      <c r="EQ36" s="30"/>
-      <c r="ER36" s="30"/>
-      <c r="ES36" s="30"/>
-      <c r="ET36" s="30">
+      <c r="EQ36" s="29"/>
+      <c r="ER36" s="29"/>
+      <c r="ES36" s="29"/>
+      <c r="ET36" s="29">
         <v>2018</v>
       </c>
-      <c r="EU36" s="30"/>
-      <c r="EV36" s="30"/>
-      <c r="EW36" s="30"/>
-      <c r="EX36" s="30">
+      <c r="EU36" s="29"/>
+      <c r="EV36" s="29"/>
+      <c r="EW36" s="29"/>
+      <c r="EX36" s="29">
         <v>2019</v>
       </c>
-      <c r="EY36" s="30"/>
-      <c r="EZ36" s="30"/>
-      <c r="FA36" s="30"/>
-      <c r="FB36" s="30">
+      <c r="EY36" s="29"/>
+      <c r="EZ36" s="29"/>
+      <c r="FA36" s="29"/>
+      <c r="FB36" s="29">
         <v>2020</v>
       </c>
-      <c r="FC36" s="30"/>
-      <c r="FD36" s="30"/>
+      <c r="FC36" s="29"/>
+      <c r="FD36" s="29"/>
       <c r="FE36" s="4"/>
-      <c r="FF36" s="30">
+      <c r="FF36" s="29">
         <v>2021</v>
       </c>
-      <c r="FG36" s="30"/>
-      <c r="FH36" s="30"/>
-      <c r="FI36" s="30"/>
-      <c r="FJ36" s="30">
+      <c r="FG36" s="29"/>
+      <c r="FH36" s="29"/>
+      <c r="FI36" s="29"/>
+      <c r="FJ36" s="29">
         <v>2022</v>
       </c>
-      <c r="FK36" s="30"/>
-      <c r="FL36" s="30"/>
-      <c r="FM36" s="30"/>
+      <c r="FK36" s="29"/>
+      <c r="FL36" s="29"/>
+      <c r="FM36" s="29"/>
       <c r="FN36" s="29">
         <v>2023</v>
       </c>
       <c r="FO36" s="29"/>
       <c r="FP36" s="29"/>
+      <c r="FQ36" s="29"/>
     </row>
-    <row r="37" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>14</v>
       </c>
@@ -7241,11 +7552,15 @@
       <c r="FP37" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="FQ37" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="38" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:173" x14ac:dyDescent="0.2">
       <c r="FB38" s="2"/>
+      <c r="FQ38" s="4"/>
     </row>
-    <row r="39" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>1</v>
       </c>
@@ -7759,11 +8074,14 @@
       <c r="FO39" s="27">
         <v>3584448.8582870937</v>
       </c>
-      <c r="FP39" s="27">
-        <v>3682450.9313545339</v>
+      <c r="FP39" s="33">
+        <v>3685546.1240548398</v>
+      </c>
+      <c r="FQ39" s="33">
+        <v>4418973.9622244854</v>
       </c>
     </row>
-    <row r="40" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
@@ -8277,11 +8595,14 @@
       <c r="FO40" s="27">
         <v>838499.71569579933</v>
       </c>
-      <c r="FP40" s="27">
-        <v>745138.46225521085</v>
+      <c r="FP40" s="33">
+        <v>745065.44810597284</v>
+      </c>
+      <c r="FQ40" s="33">
+        <v>693660.3345391202</v>
       </c>
     </row>
-    <row r="41" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -8795,11 +9116,14 @@
       <c r="FO41" s="27">
         <v>1349910.9875128435</v>
       </c>
-      <c r="FP41" s="27">
-        <v>1056561.3682577559</v>
+      <c r="FP41" s="33">
+        <v>1058321.3062686536</v>
+      </c>
+      <c r="FQ41" s="33">
+        <v>1318885.0547788271</v>
       </c>
     </row>
-    <row r="42" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>4</v>
       </c>
@@ -9313,11 +9637,14 @@
       <c r="FO42" s="27">
         <v>1421446.1554796449</v>
       </c>
-      <c r="FP42" s="27">
-        <v>1571141.4357630904</v>
+      <c r="FP42" s="33">
+        <v>1571844.4221821106</v>
+      </c>
+      <c r="FQ42" s="33">
+        <v>1396886.1160944293</v>
       </c>
     </row>
-    <row r="43" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>5</v>
       </c>
@@ -9831,11 +10158,14 @@
       <c r="FO43" s="27">
         <v>2022465.8437100695</v>
       </c>
-      <c r="FP43" s="27">
-        <v>2023099.9947561221</v>
+      <c r="FP43" s="33">
+        <v>2028477.5291814646</v>
+      </c>
+      <c r="FQ43" s="33">
+        <v>1993235.8139863331</v>
       </c>
     </row>
-    <row r="44" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>6</v>
       </c>
@@ -10349,11 +10679,14 @@
       <c r="FO44" s="27">
         <v>35883.662818530574</v>
       </c>
-      <c r="FP44" s="27">
-        <v>18394.850712469779</v>
+      <c r="FP44" s="33">
+        <v>20759.743804358877</v>
+      </c>
+      <c r="FQ44" s="33">
+        <v>50661.553408377804</v>
       </c>
     </row>
-    <row r="45" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:173" x14ac:dyDescent="0.2">
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -10526,7 +10859,7 @@
       <c r="FO45" s="7"/>
       <c r="FP45" s="7"/>
     </row>
-    <row r="46" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>10</v>
       </c>
@@ -11040,11 +11373,14 @@
       <c r="FO46" s="27">
         <v>5207723.5360838426</v>
       </c>
-      <c r="FP46" s="27">
-        <v>5050587.0535869393</v>
+      <c r="FP46" s="33">
+        <v>5053059.5152344722</v>
+      </c>
+      <c r="FQ46" s="33">
+        <v>5885831.2070589066</v>
       </c>
     </row>
-    <row r="47" spans="1:172" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:173" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -11202,7 +11538,7 @@
       <c r="EZ47" s="7"/>
       <c r="FA47" s="7"/>
     </row>
-    <row r="48" spans="1:172" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:173" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -11360,7 +11696,7 @@
       <c r="EZ48" s="7"/>
       <c r="FA48" s="7"/>
     </row>
-    <row r="49" spans="1:172" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:173" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -11518,7 +11854,7 @@
       <c r="EZ49" s="7"/>
       <c r="FA49" s="7"/>
     </row>
-    <row r="50" spans="1:172" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:173" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -11676,7 +12012,7 @@
       <c r="EZ50" s="7"/>
       <c r="FA50" s="7"/>
     </row>
-    <row r="51" spans="1:172" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:173" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -11849,45 +12185,46 @@
       <c r="FN51" s="9"/>
       <c r="FO51" s="9"/>
       <c r="FP51" s="9"/>
+      <c r="FQ51" s="9"/>
     </row>
-    <row r="52" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="FB60" s="24"/>
       <c r="FC60" s="24"/>
       <c r="FD60" s="24"/>
       <c r="FE60" s="24"/>
     </row>
-    <row r="61" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>19</v>
       </c>
@@ -11896,7 +12233,7 @@
       <c r="FD61" s="24"/>
       <c r="FE61" s="24"/>
     </row>
-    <row r="62" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="FB62" s="24"/>
       <c r="FC62" s="24"/>
@@ -11907,261 +12244,262 @@
       <c r="FH62" s="24"/>
       <c r="FL62" s="9"/>
     </row>
-    <row r="63" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30" t="s">
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30" t="s">
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="30" t="s">
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="O63" s="30"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="30"/>
-      <c r="R63" s="30" t="s">
+      <c r="O63" s="29"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="S63" s="30"/>
-      <c r="T63" s="30"/>
-      <c r="U63" s="30"/>
-      <c r="V63" s="30" t="s">
+      <c r="S63" s="29"/>
+      <c r="T63" s="29"/>
+      <c r="U63" s="29"/>
+      <c r="V63" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="W63" s="30"/>
-      <c r="X63" s="30"/>
-      <c r="Y63" s="30"/>
-      <c r="Z63" s="30" t="s">
+      <c r="W63" s="29"/>
+      <c r="X63" s="29"/>
+      <c r="Y63" s="29"/>
+      <c r="Z63" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AA63" s="30"/>
-      <c r="AB63" s="30"/>
-      <c r="AC63" s="30"/>
-      <c r="AD63" s="30" t="s">
+      <c r="AA63" s="29"/>
+      <c r="AB63" s="29"/>
+      <c r="AC63" s="29"/>
+      <c r="AD63" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AE63" s="30"/>
-      <c r="AF63" s="30"/>
-      <c r="AG63" s="30"/>
-      <c r="AH63" s="30" t="s">
+      <c r="AE63" s="29"/>
+      <c r="AF63" s="29"/>
+      <c r="AG63" s="29"/>
+      <c r="AH63" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AI63" s="30"/>
-      <c r="AJ63" s="30"/>
-      <c r="AK63" s="30"/>
-      <c r="AL63" s="30" t="s">
+      <c r="AI63" s="29"/>
+      <c r="AJ63" s="29"/>
+      <c r="AK63" s="29"/>
+      <c r="AL63" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="AM63" s="30"/>
-      <c r="AN63" s="30"/>
-      <c r="AO63" s="30"/>
-      <c r="AP63" s="30" t="s">
+      <c r="AM63" s="29"/>
+      <c r="AN63" s="29"/>
+      <c r="AO63" s="29"/>
+      <c r="AP63" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AQ63" s="30"/>
-      <c r="AR63" s="30"/>
-      <c r="AS63" s="30"/>
-      <c r="AT63" s="30" t="s">
+      <c r="AQ63" s="29"/>
+      <c r="AR63" s="29"/>
+      <c r="AS63" s="29"/>
+      <c r="AT63" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AU63" s="30"/>
-      <c r="AV63" s="30"/>
-      <c r="AW63" s="30"/>
-      <c r="AX63" s="30" t="s">
+      <c r="AU63" s="29"/>
+      <c r="AV63" s="29"/>
+      <c r="AW63" s="29"/>
+      <c r="AX63" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="AY63" s="30"/>
-      <c r="AZ63" s="30"/>
-      <c r="BA63" s="30"/>
-      <c r="BB63" s="30" t="s">
+      <c r="AY63" s="29"/>
+      <c r="AZ63" s="29"/>
+      <c r="BA63" s="29"/>
+      <c r="BB63" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="BC63" s="30"/>
-      <c r="BD63" s="30"/>
-      <c r="BE63" s="30"/>
-      <c r="BF63" s="30" t="s">
+      <c r="BC63" s="29"/>
+      <c r="BD63" s="29"/>
+      <c r="BE63" s="29"/>
+      <c r="BF63" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="BG63" s="30"/>
-      <c r="BH63" s="30"/>
-      <c r="BI63" s="30"/>
-      <c r="BJ63" s="30" t="s">
+      <c r="BG63" s="29"/>
+      <c r="BH63" s="29"/>
+      <c r="BI63" s="29"/>
+      <c r="BJ63" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="BK63" s="30"/>
-      <c r="BL63" s="30"/>
-      <c r="BM63" s="30"/>
-      <c r="BN63" s="30" t="s">
+      <c r="BK63" s="29"/>
+      <c r="BL63" s="29"/>
+      <c r="BM63" s="29"/>
+      <c r="BN63" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="BO63" s="30"/>
-      <c r="BP63" s="30"/>
-      <c r="BQ63" s="30"/>
-      <c r="BR63" s="30" t="s">
+      <c r="BO63" s="29"/>
+      <c r="BP63" s="29"/>
+      <c r="BQ63" s="29"/>
+      <c r="BR63" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="BS63" s="30"/>
-      <c r="BT63" s="30"/>
-      <c r="BU63" s="30"/>
-      <c r="BV63" s="30" t="s">
+      <c r="BS63" s="29"/>
+      <c r="BT63" s="29"/>
+      <c r="BU63" s="29"/>
+      <c r="BV63" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="BW63" s="30"/>
-      <c r="BX63" s="30"/>
-      <c r="BY63" s="30"/>
-      <c r="BZ63" s="30" t="s">
+      <c r="BW63" s="29"/>
+      <c r="BX63" s="29"/>
+      <c r="BY63" s="29"/>
+      <c r="BZ63" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="CA63" s="30"/>
-      <c r="CB63" s="30"/>
-      <c r="CC63" s="30"/>
-      <c r="CD63" s="30" t="s">
+      <c r="CA63" s="29"/>
+      <c r="CB63" s="29"/>
+      <c r="CC63" s="29"/>
+      <c r="CD63" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="CE63" s="30"/>
-      <c r="CF63" s="30"/>
-      <c r="CG63" s="30"/>
-      <c r="CH63" s="30" t="s">
+      <c r="CE63" s="29"/>
+      <c r="CF63" s="29"/>
+      <c r="CG63" s="29"/>
+      <c r="CH63" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="CI63" s="30"/>
-      <c r="CJ63" s="30"/>
-      <c r="CK63" s="30"/>
-      <c r="CL63" s="30" t="s">
+      <c r="CI63" s="29"/>
+      <c r="CJ63" s="29"/>
+      <c r="CK63" s="29"/>
+      <c r="CL63" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="CM63" s="30"/>
-      <c r="CN63" s="30"/>
-      <c r="CO63" s="30"/>
-      <c r="CP63" s="30" t="s">
+      <c r="CM63" s="29"/>
+      <c r="CN63" s="29"/>
+      <c r="CO63" s="29"/>
+      <c r="CP63" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="CQ63" s="30"/>
-      <c r="CR63" s="30"/>
-      <c r="CS63" s="30"/>
-      <c r="CT63" s="30" t="s">
+      <c r="CQ63" s="29"/>
+      <c r="CR63" s="29"/>
+      <c r="CS63" s="29"/>
+      <c r="CT63" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="CU63" s="30"/>
-      <c r="CV63" s="30"/>
-      <c r="CW63" s="30"/>
-      <c r="CX63" s="30" t="s">
+      <c r="CU63" s="29"/>
+      <c r="CV63" s="29"/>
+      <c r="CW63" s="29"/>
+      <c r="CX63" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="CY63" s="30"/>
-      <c r="CZ63" s="30"/>
-      <c r="DA63" s="30"/>
-      <c r="DB63" s="30" t="s">
+      <c r="CY63" s="29"/>
+      <c r="CZ63" s="29"/>
+      <c r="DA63" s="29"/>
+      <c r="DB63" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="DC63" s="30"/>
-      <c r="DD63" s="30"/>
-      <c r="DE63" s="30"/>
-      <c r="DF63" s="30" t="s">
+      <c r="DC63" s="29"/>
+      <c r="DD63" s="29"/>
+      <c r="DE63" s="29"/>
+      <c r="DF63" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="DG63" s="30"/>
-      <c r="DH63" s="30"/>
-      <c r="DI63" s="30"/>
-      <c r="DJ63" s="30" t="s">
+      <c r="DG63" s="29"/>
+      <c r="DH63" s="29"/>
+      <c r="DI63" s="29"/>
+      <c r="DJ63" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="DK63" s="30"/>
-      <c r="DL63" s="30"/>
-      <c r="DM63" s="30"/>
-      <c r="DN63" s="30" t="s">
+      <c r="DK63" s="29"/>
+      <c r="DL63" s="29"/>
+      <c r="DM63" s="29"/>
+      <c r="DN63" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="DO63" s="30"/>
-      <c r="DP63" s="30"/>
-      <c r="DQ63" s="30"/>
-      <c r="DR63" s="30" t="s">
+      <c r="DO63" s="29"/>
+      <c r="DP63" s="29"/>
+      <c r="DQ63" s="29"/>
+      <c r="DR63" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="DS63" s="30"/>
-      <c r="DT63" s="30"/>
-      <c r="DU63" s="30"/>
-      <c r="DV63" s="30" t="s">
+      <c r="DS63" s="29"/>
+      <c r="DT63" s="29"/>
+      <c r="DU63" s="29"/>
+      <c r="DV63" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="DW63" s="30"/>
-      <c r="DX63" s="30"/>
-      <c r="DY63" s="30"/>
-      <c r="DZ63" s="30" t="s">
+      <c r="DW63" s="29"/>
+      <c r="DX63" s="29"/>
+      <c r="DY63" s="29"/>
+      <c r="DZ63" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="EA63" s="30"/>
-      <c r="EB63" s="30"/>
-      <c r="EC63" s="30"/>
-      <c r="ED63" s="30" t="s">
+      <c r="EA63" s="29"/>
+      <c r="EB63" s="29"/>
+      <c r="EC63" s="29"/>
+      <c r="ED63" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="EE63" s="30"/>
-      <c r="EF63" s="30"/>
-      <c r="EG63" s="30"/>
-      <c r="EH63" s="30" t="s">
+      <c r="EE63" s="29"/>
+      <c r="EF63" s="29"/>
+      <c r="EG63" s="29"/>
+      <c r="EH63" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="EI63" s="30"/>
-      <c r="EJ63" s="30"/>
-      <c r="EK63" s="30"/>
-      <c r="EL63" s="30" t="s">
+      <c r="EI63" s="29"/>
+      <c r="EJ63" s="29"/>
+      <c r="EK63" s="29"/>
+      <c r="EL63" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="EM63" s="30"/>
-      <c r="EN63" s="30"/>
-      <c r="EO63" s="30"/>
-      <c r="EP63" s="30" t="s">
+      <c r="EM63" s="29"/>
+      <c r="EN63" s="29"/>
+      <c r="EO63" s="29"/>
+      <c r="EP63" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="EQ63" s="30"/>
-      <c r="ER63" s="30"/>
-      <c r="ES63" s="30"/>
-      <c r="ET63" s="30" t="s">
+      <c r="EQ63" s="29"/>
+      <c r="ER63" s="29"/>
+      <c r="ES63" s="29"/>
+      <c r="ET63" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="EU63" s="30"/>
-      <c r="EV63" s="30"/>
-      <c r="EW63" s="30"/>
-      <c r="EX63" s="30" t="s">
+      <c r="EU63" s="29"/>
+      <c r="EV63" s="29"/>
+      <c r="EW63" s="29"/>
+      <c r="EX63" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="EY63" s="30"/>
-      <c r="EZ63" s="30"/>
-      <c r="FA63" s="30"/>
-      <c r="FB63" s="30" t="s">
+      <c r="EY63" s="29"/>
+      <c r="EZ63" s="29"/>
+      <c r="FA63" s="29"/>
+      <c r="FB63" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="FC63" s="30"/>
-      <c r="FD63" s="30"/>
-      <c r="FE63" s="30"/>
-      <c r="FF63" s="30" t="s">
+      <c r="FC63" s="29"/>
+      <c r="FD63" s="29"/>
+      <c r="FE63" s="29"/>
+      <c r="FF63" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="FG63" s="30"/>
-      <c r="FH63" s="30"/>
-      <c r="FI63" s="30"/>
-      <c r="FJ63" s="30" t="s">
+      <c r="FG63" s="29"/>
+      <c r="FH63" s="29"/>
+      <c r="FI63" s="29"/>
+      <c r="FJ63" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="FK63" s="30"/>
-      <c r="FL63" s="30"/>
+      <c r="FK63" s="29"/>
+      <c r="FL63" s="29"/>
+      <c r="FM63" s="29"/>
     </row>
-    <row r="64" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>14</v>
       </c>
@@ -12666,8 +13004,11 @@
       <c r="FL64" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="FM64" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="65" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:169" x14ac:dyDescent="0.2">
       <c r="FB65" s="24"/>
       <c r="FC65" s="24"/>
       <c r="FD65" s="24"/>
@@ -12678,8 +13019,9 @@
       <c r="FI65" s="10"/>
       <c r="FJ65" s="24"/>
       <c r="FK65" s="24"/>
+      <c r="FM65" s="4"/>
     </row>
-    <row r="66" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>1</v>
       </c>
@@ -13181,11 +13523,14 @@
       <c r="FK66" s="13">
         <v>11.59901841058155</v>
       </c>
-      <c r="FL66" s="13">
-        <v>9.688764162968198</v>
+      <c r="FL66" s="34">
+        <v>9.7822867141095458</v>
+      </c>
+      <c r="FM66" s="34">
+        <v>9.5949702648036919</v>
       </c>
     </row>
-    <row r="67" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>2</v>
       </c>
@@ -13687,11 +14032,14 @@
       <c r="FK67" s="13">
         <v>-3.0362959391804054</v>
       </c>
-      <c r="FL67" s="13">
-        <v>10.389536013767</v>
+      <c r="FL67" s="34">
+        <v>10.378716226402275</v>
+      </c>
+      <c r="FM67" s="34">
+        <v>1.2721811512288923</v>
       </c>
     </row>
-    <row r="68" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>3</v>
       </c>
@@ -14193,11 +14541,14 @@
       <c r="FK68" s="13">
         <v>-0.94217876941782197</v>
       </c>
-      <c r="FL68" s="13">
-        <v>-5.6213935320136983</v>
+      <c r="FL68" s="34">
+        <v>-5.3785807301098885</v>
+      </c>
+      <c r="FM68" s="34">
+        <v>11.077492557226208</v>
       </c>
     </row>
-    <row r="69" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>4</v>
       </c>
@@ -14699,11 +15050,14 @@
       <c r="FK69" s="13">
         <v>8.2173861885650012</v>
       </c>
-      <c r="FL69" s="13">
-        <v>4.5341149706243442</v>
+      <c r="FL69" s="34">
+        <v>4.5680424861443782</v>
+      </c>
+      <c r="FM69" s="34">
+        <v>-3.4087536585315519</v>
       </c>
     </row>
-    <row r="70" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>5</v>
       </c>
@@ -15205,11 +15559,14 @@
       <c r="FK70" s="13">
         <v>-0.50841371138339753</v>
       </c>
-      <c r="FL70" s="13">
-        <v>-3.2118430513217362</v>
+      <c r="FL70" s="34">
+        <v>-2.9024082637438369</v>
+      </c>
+      <c r="FM70" s="34">
+        <v>2.5530703746948973</v>
       </c>
     </row>
-    <row r="71" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
@@ -15377,7 +15734,7 @@
       <c r="FJ71" s="25"/>
       <c r="FK71" s="25"/>
     </row>
-    <row r="72" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
@@ -15545,7 +15902,7 @@
       <c r="FJ72" s="25"/>
       <c r="FK72" s="25"/>
     </row>
-    <row r="73" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>10</v>
       </c>
@@ -16047,11 +16404,14 @@
       <c r="FK73" s="13">
         <v>9.0927783558765505</v>
       </c>
-      <c r="FL73" s="13">
-        <v>9.4712287880847725</v>
+      <c r="FL73" s="34">
+        <v>9.5634871163609034</v>
+      </c>
+      <c r="FM73" s="34">
+        <v>9.284526883319927</v>
       </c>
     </row>
-    <row r="74" spans="1:168" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:169" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
@@ -16206,7 +16566,7 @@
       <c r="EW74" s="13"/>
       <c r="EX74" s="3"/>
     </row>
-    <row r="75" spans="1:168" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:169" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
@@ -16361,7 +16721,7 @@
       <c r="EW75" s="13"/>
       <c r="EX75" s="3"/>
     </row>
-    <row r="76" spans="1:168" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:169" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
@@ -16516,7 +16876,7 @@
       <c r="EW76" s="13"/>
       <c r="EX76" s="3"/>
     </row>
-    <row r="77" spans="1:168" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:169" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
@@ -16671,7 +17031,7 @@
       <c r="EW77" s="13"/>
       <c r="EX77" s="3"/>
     </row>
-    <row r="78" spans="1:168" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:169" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -16840,310 +17200,314 @@
       <c r="FJ78" s="9"/>
       <c r="FK78" s="9"/>
       <c r="FL78" s="9"/>
+      <c r="FM78" s="31"/>
     </row>
-    <row r="79" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="FM79" s="4"/>
     </row>
-    <row r="80" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="FF89" s="9"/>
       <c r="FG89" s="9"/>
+      <c r="FM89" s="31"/>
     </row>
-    <row r="90" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
-      <c r="B90" s="30" t="s">
+      <c r="B90" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="30" t="s">
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="G90" s="30"/>
-      <c r="H90" s="30"/>
-      <c r="I90" s="30"/>
-      <c r="J90" s="30" t="s">
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
+      <c r="J90" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="K90" s="30"/>
-      <c r="L90" s="30"/>
-      <c r="M90" s="30"/>
-      <c r="N90" s="30" t="s">
+      <c r="K90" s="29"/>
+      <c r="L90" s="29"/>
+      <c r="M90" s="29"/>
+      <c r="N90" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="O90" s="30"/>
-      <c r="P90" s="30"/>
-      <c r="Q90" s="30"/>
-      <c r="R90" s="30" t="s">
+      <c r="O90" s="29"/>
+      <c r="P90" s="29"/>
+      <c r="Q90" s="29"/>
+      <c r="R90" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="S90" s="30"/>
-      <c r="T90" s="30"/>
-      <c r="U90" s="30"/>
-      <c r="V90" s="30" t="s">
+      <c r="S90" s="29"/>
+      <c r="T90" s="29"/>
+      <c r="U90" s="29"/>
+      <c r="V90" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="W90" s="30"/>
-      <c r="X90" s="30"/>
-      <c r="Y90" s="30"/>
-      <c r="Z90" s="30" t="s">
+      <c r="W90" s="29"/>
+      <c r="X90" s="29"/>
+      <c r="Y90" s="29"/>
+      <c r="Z90" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AA90" s="30"/>
-      <c r="AB90" s="30"/>
-      <c r="AC90" s="30"/>
-      <c r="AD90" s="30" t="s">
+      <c r="AA90" s="29"/>
+      <c r="AB90" s="29"/>
+      <c r="AC90" s="29"/>
+      <c r="AD90" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AE90" s="30"/>
-      <c r="AF90" s="30"/>
-      <c r="AG90" s="30"/>
-      <c r="AH90" s="30" t="s">
+      <c r="AE90" s="29"/>
+      <c r="AF90" s="29"/>
+      <c r="AG90" s="29"/>
+      <c r="AH90" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AI90" s="30"/>
-      <c r="AJ90" s="30"/>
-      <c r="AK90" s="30"/>
-      <c r="AL90" s="30" t="s">
+      <c r="AI90" s="29"/>
+      <c r="AJ90" s="29"/>
+      <c r="AK90" s="29"/>
+      <c r="AL90" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="AM90" s="30"/>
-      <c r="AN90" s="30"/>
-      <c r="AO90" s="30"/>
-      <c r="AP90" s="30" t="s">
+      <c r="AM90" s="29"/>
+      <c r="AN90" s="29"/>
+      <c r="AO90" s="29"/>
+      <c r="AP90" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AQ90" s="30"/>
-      <c r="AR90" s="30"/>
-      <c r="AS90" s="30"/>
-      <c r="AT90" s="30" t="s">
+      <c r="AQ90" s="29"/>
+      <c r="AR90" s="29"/>
+      <c r="AS90" s="29"/>
+      <c r="AT90" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AU90" s="30"/>
-      <c r="AV90" s="30"/>
-      <c r="AW90" s="30"/>
-      <c r="AX90" s="30" t="s">
+      <c r="AU90" s="29"/>
+      <c r="AV90" s="29"/>
+      <c r="AW90" s="29"/>
+      <c r="AX90" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="AY90" s="30"/>
-      <c r="AZ90" s="30"/>
-      <c r="BA90" s="30"/>
-      <c r="BB90" s="30" t="s">
+      <c r="AY90" s="29"/>
+      <c r="AZ90" s="29"/>
+      <c r="BA90" s="29"/>
+      <c r="BB90" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="BC90" s="30"/>
-      <c r="BD90" s="30"/>
-      <c r="BE90" s="30"/>
-      <c r="BF90" s="30" t="s">
+      <c r="BC90" s="29"/>
+      <c r="BD90" s="29"/>
+      <c r="BE90" s="29"/>
+      <c r="BF90" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="BG90" s="30"/>
-      <c r="BH90" s="30"/>
-      <c r="BI90" s="30"/>
-      <c r="BJ90" s="30" t="s">
+      <c r="BG90" s="29"/>
+      <c r="BH90" s="29"/>
+      <c r="BI90" s="29"/>
+      <c r="BJ90" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="BK90" s="30"/>
-      <c r="BL90" s="30"/>
-      <c r="BM90" s="30"/>
-      <c r="BN90" s="30" t="s">
+      <c r="BK90" s="29"/>
+      <c r="BL90" s="29"/>
+      <c r="BM90" s="29"/>
+      <c r="BN90" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="BO90" s="30"/>
-      <c r="BP90" s="30"/>
-      <c r="BQ90" s="30"/>
-      <c r="BR90" s="30" t="s">
+      <c r="BO90" s="29"/>
+      <c r="BP90" s="29"/>
+      <c r="BQ90" s="29"/>
+      <c r="BR90" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="BS90" s="30"/>
-      <c r="BT90" s="30"/>
-      <c r="BU90" s="30"/>
-      <c r="BV90" s="30" t="s">
+      <c r="BS90" s="29"/>
+      <c r="BT90" s="29"/>
+      <c r="BU90" s="29"/>
+      <c r="BV90" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="BW90" s="30"/>
-      <c r="BX90" s="30"/>
-      <c r="BY90" s="30"/>
-      <c r="BZ90" s="30" t="s">
+      <c r="BW90" s="29"/>
+      <c r="BX90" s="29"/>
+      <c r="BY90" s="29"/>
+      <c r="BZ90" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="CA90" s="30"/>
-      <c r="CB90" s="30"/>
-      <c r="CC90" s="30"/>
-      <c r="CD90" s="30" t="s">
+      <c r="CA90" s="29"/>
+      <c r="CB90" s="29"/>
+      <c r="CC90" s="29"/>
+      <c r="CD90" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="CE90" s="30"/>
-      <c r="CF90" s="30"/>
-      <c r="CG90" s="30"/>
-      <c r="CH90" s="30" t="s">
+      <c r="CE90" s="29"/>
+      <c r="CF90" s="29"/>
+      <c r="CG90" s="29"/>
+      <c r="CH90" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="CI90" s="30"/>
-      <c r="CJ90" s="30"/>
-      <c r="CK90" s="30"/>
-      <c r="CL90" s="30" t="s">
+      <c r="CI90" s="29"/>
+      <c r="CJ90" s="29"/>
+      <c r="CK90" s="29"/>
+      <c r="CL90" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="CM90" s="30"/>
-      <c r="CN90" s="30"/>
-      <c r="CO90" s="30"/>
-      <c r="CP90" s="30" t="s">
+      <c r="CM90" s="29"/>
+      <c r="CN90" s="29"/>
+      <c r="CO90" s="29"/>
+      <c r="CP90" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="CQ90" s="30"/>
-      <c r="CR90" s="30"/>
-      <c r="CS90" s="30"/>
-      <c r="CT90" s="30" t="s">
+      <c r="CQ90" s="29"/>
+      <c r="CR90" s="29"/>
+      <c r="CS90" s="29"/>
+      <c r="CT90" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="CU90" s="30"/>
-      <c r="CV90" s="30"/>
-      <c r="CW90" s="30"/>
-      <c r="CX90" s="30" t="s">
+      <c r="CU90" s="29"/>
+      <c r="CV90" s="29"/>
+      <c r="CW90" s="29"/>
+      <c r="CX90" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="CY90" s="30"/>
-      <c r="CZ90" s="30"/>
-      <c r="DA90" s="30"/>
-      <c r="DB90" s="30" t="s">
+      <c r="CY90" s="29"/>
+      <c r="CZ90" s="29"/>
+      <c r="DA90" s="29"/>
+      <c r="DB90" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="DC90" s="30"/>
-      <c r="DD90" s="30"/>
-      <c r="DE90" s="30"/>
-      <c r="DF90" s="30" t="s">
+      <c r="DC90" s="29"/>
+      <c r="DD90" s="29"/>
+      <c r="DE90" s="29"/>
+      <c r="DF90" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="DG90" s="30"/>
-      <c r="DH90" s="30"/>
-      <c r="DI90" s="30"/>
-      <c r="DJ90" s="30" t="s">
+      <c r="DG90" s="29"/>
+      <c r="DH90" s="29"/>
+      <c r="DI90" s="29"/>
+      <c r="DJ90" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="DK90" s="30"/>
-      <c r="DL90" s="30"/>
-      <c r="DM90" s="30"/>
-      <c r="DN90" s="30" t="s">
+      <c r="DK90" s="29"/>
+      <c r="DL90" s="29"/>
+      <c r="DM90" s="29"/>
+      <c r="DN90" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="DO90" s="30"/>
-      <c r="DP90" s="30"/>
-      <c r="DQ90" s="30"/>
-      <c r="DR90" s="30" t="s">
+      <c r="DO90" s="29"/>
+      <c r="DP90" s="29"/>
+      <c r="DQ90" s="29"/>
+      <c r="DR90" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="DS90" s="30"/>
-      <c r="DT90" s="30"/>
-      <c r="DU90" s="30"/>
-      <c r="DV90" s="30" t="s">
+      <c r="DS90" s="29"/>
+      <c r="DT90" s="29"/>
+      <c r="DU90" s="29"/>
+      <c r="DV90" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="DW90" s="30"/>
-      <c r="DX90" s="30"/>
-      <c r="DY90" s="30"/>
-      <c r="DZ90" s="30" t="s">
+      <c r="DW90" s="29"/>
+      <c r="DX90" s="29"/>
+      <c r="DY90" s="29"/>
+      <c r="DZ90" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="EA90" s="30"/>
-      <c r="EB90" s="30"/>
-      <c r="EC90" s="30"/>
-      <c r="ED90" s="30" t="s">
+      <c r="EA90" s="29"/>
+      <c r="EB90" s="29"/>
+      <c r="EC90" s="29"/>
+      <c r="ED90" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="EE90" s="30"/>
-      <c r="EF90" s="30"/>
-      <c r="EG90" s="30"/>
-      <c r="EH90" s="30" t="s">
+      <c r="EE90" s="29"/>
+      <c r="EF90" s="29"/>
+      <c r="EG90" s="29"/>
+      <c r="EH90" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="EI90" s="30"/>
-      <c r="EJ90" s="30"/>
-      <c r="EK90" s="30"/>
-      <c r="EL90" s="30" t="s">
+      <c r="EI90" s="29"/>
+      <c r="EJ90" s="29"/>
+      <c r="EK90" s="29"/>
+      <c r="EL90" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="EM90" s="30"/>
-      <c r="EN90" s="30"/>
-      <c r="EO90" s="30"/>
-      <c r="EP90" s="30" t="s">
+      <c r="EM90" s="29"/>
+      <c r="EN90" s="29"/>
+      <c r="EO90" s="29"/>
+      <c r="EP90" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="EQ90" s="30"/>
-      <c r="ER90" s="30"/>
-      <c r="ES90" s="30"/>
-      <c r="ET90" s="30" t="s">
+      <c r="EQ90" s="29"/>
+      <c r="ER90" s="29"/>
+      <c r="ES90" s="29"/>
+      <c r="ET90" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="EU90" s="30"/>
-      <c r="EV90" s="30"/>
-      <c r="EW90" s="30"/>
-      <c r="EX90" s="30" t="s">
+      <c r="EU90" s="29"/>
+      <c r="EV90" s="29"/>
+      <c r="EW90" s="29"/>
+      <c r="EX90" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="EY90" s="30"/>
-      <c r="EZ90" s="30"/>
-      <c r="FA90" s="30"/>
-      <c r="FB90" s="30" t="s">
+      <c r="EY90" s="29"/>
+      <c r="EZ90" s="29"/>
+      <c r="FA90" s="29"/>
+      <c r="FB90" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="FC90" s="30"/>
-      <c r="FD90" s="30"/>
-      <c r="FE90" s="30"/>
-      <c r="FF90" s="30" t="s">
+      <c r="FC90" s="29"/>
+      <c r="FD90" s="29"/>
+      <c r="FE90" s="29"/>
+      <c r="FF90" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="FG90" s="30"/>
-      <c r="FH90" s="30"/>
-      <c r="FI90" s="30"/>
-      <c r="FJ90" s="30" t="s">
+      <c r="FG90" s="29"/>
+      <c r="FH90" s="29"/>
+      <c r="FI90" s="29"/>
+      <c r="FJ90" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="FK90" s="30"/>
-      <c r="FL90" s="30"/>
+      <c r="FK90" s="29"/>
+      <c r="FL90" s="29"/>
+      <c r="FM90" s="29"/>
     </row>
-    <row r="91" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>14</v>
       </c>
@@ -17648,16 +18012,20 @@
       <c r="FL91" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="FM91" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="92" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:169" x14ac:dyDescent="0.2">
       <c r="FF92" s="24"/>
       <c r="FG92" s="24"/>
       <c r="FH92" s="24"/>
       <c r="FI92" s="24"/>
       <c r="FJ92" s="24"/>
       <c r="FK92" s="24"/>
+      <c r="FM92" s="4"/>
     </row>
-    <row r="93" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>1</v>
       </c>
@@ -18159,11 +18527,14 @@
       <c r="FK93" s="13">
         <v>5.5217510711067916</v>
       </c>
-      <c r="FL93" s="13">
-        <v>5.0476085243877549</v>
+      <c r="FL93" s="34">
+        <v>5.1359036835495004</v>
+      </c>
+      <c r="FM93" s="34">
+        <v>5.3121488136727208</v>
       </c>
     </row>
-    <row r="94" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>2</v>
       </c>
@@ -18665,11 +19036,14 @@
       <c r="FK94" s="13">
         <v>-7.1277971712926131</v>
       </c>
-      <c r="FL94" s="13">
-        <v>6.6835960185741357</v>
+      <c r="FL94" s="34">
+        <v>6.6731423748615555</v>
+      </c>
+      <c r="FM94" s="34">
+        <v>-1.842345721880406</v>
       </c>
     </row>
-    <row r="95" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>3</v>
       </c>
@@ -19171,11 +19545,14 @@
       <c r="FK95" s="13">
         <v>0.25823410563280902</v>
       </c>
-      <c r="FL95" s="13">
-        <v>-1.5754654395484522</v>
+      <c r="FL95" s="34">
+        <v>-1.4115174808383131</v>
+      </c>
+      <c r="FM95" s="34">
+        <v>11.155387785220427</v>
       </c>
     </row>
-    <row r="96" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>4</v>
       </c>
@@ -19677,11 +20054,14 @@
       <c r="FK96" s="13">
         <v>4.4397751231995812</v>
       </c>
-      <c r="FL96" s="13">
-        <v>2.5727595467841127</v>
+      <c r="FL96" s="34">
+        <v>2.6186543690333934</v>
+      </c>
+      <c r="FM96" s="34">
+        <v>-2.6325246655612489</v>
       </c>
     </row>
-    <row r="97" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>5</v>
       </c>
@@ -20183,11 +20563,14 @@
       <c r="FK97" s="13">
         <v>0.22506964153876652</v>
       </c>
-      <c r="FL97" s="13">
-        <v>-1.3371284671494124</v>
+      <c r="FL97" s="34">
+        <v>-1.0748759885046155</v>
+      </c>
+      <c r="FM97" s="34">
+        <v>2.9099448491543853</v>
       </c>
     </row>
-    <row r="98" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
@@ -20355,7 +20738,7 @@
       <c r="FJ98" s="25"/>
       <c r="FK98" s="25"/>
     </row>
-    <row r="99" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:169" x14ac:dyDescent="0.2">
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
@@ -20523,7 +20906,7 @@
       <c r="FJ99" s="25"/>
       <c r="FK99" s="25"/>
     </row>
-    <row r="100" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>10</v>
       </c>
@@ -21025,11 +21408,14 @@
       <c r="FK100" s="13">
         <v>4.3471902117480141</v>
       </c>
-      <c r="FL100" s="13">
-        <v>5.936634885362551</v>
+      <c r="FL100" s="34">
+        <v>5.9884950481602175</v>
+      </c>
+      <c r="FM100" s="34">
+        <v>5.5727153556956068</v>
       </c>
     </row>
-    <row r="101" spans="1:168" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:169" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
@@ -21183,7 +21569,7 @@
       <c r="EV101" s="13"/>
       <c r="EW101" s="13"/>
     </row>
-    <row r="102" spans="1:168" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:169" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
@@ -21337,7 +21723,7 @@
       <c r="EV102" s="13"/>
       <c r="EW102" s="13"/>
     </row>
-    <row r="103" spans="1:168" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:169" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
@@ -21491,7 +21877,7 @@
       <c r="EV103" s="13"/>
       <c r="EW103" s="13"/>
     </row>
-    <row r="104" spans="1:168" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:169" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
@@ -21645,7 +22031,7 @@
       <c r="EV104" s="13"/>
       <c r="EW104" s="13"/>
     </row>
-    <row r="105" spans="1:168" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:169" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -21814,315 +22200,318 @@
       <c r="FJ105" s="9"/>
       <c r="FK105" s="9"/>
     </row>
-    <row r="106" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>0</v>
       </c>
       <c r="FL106" s="4"/>
+      <c r="FM106" s="4"/>
     </row>
-    <row r="107" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="109" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="112" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
     </row>
-    <row r="113" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="115" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="116" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="FP116" s="9"/>
+      <c r="FQ116" s="9"/>
     </row>
-    <row r="117" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
-      <c r="B117" s="30">
+      <c r="B117" s="29">
         <v>1981</v>
       </c>
-      <c r="C117" s="30"/>
-      <c r="D117" s="30"/>
-      <c r="E117" s="30"/>
-      <c r="F117" s="30">
+      <c r="C117" s="29"/>
+      <c r="D117" s="29"/>
+      <c r="E117" s="29"/>
+      <c r="F117" s="29">
         <v>1982</v>
       </c>
-      <c r="G117" s="30"/>
-      <c r="H117" s="30"/>
-      <c r="I117" s="30"/>
-      <c r="J117" s="30">
+      <c r="G117" s="29"/>
+      <c r="H117" s="29"/>
+      <c r="I117" s="29"/>
+      <c r="J117" s="29">
         <v>1983</v>
       </c>
-      <c r="K117" s="30"/>
-      <c r="L117" s="30"/>
-      <c r="M117" s="30"/>
-      <c r="N117" s="30">
+      <c r="K117" s="29"/>
+      <c r="L117" s="29"/>
+      <c r="M117" s="29"/>
+      <c r="N117" s="29">
         <v>1984</v>
       </c>
-      <c r="O117" s="30"/>
-      <c r="P117" s="30"/>
-      <c r="Q117" s="30"/>
-      <c r="R117" s="30">
+      <c r="O117" s="29"/>
+      <c r="P117" s="29"/>
+      <c r="Q117" s="29"/>
+      <c r="R117" s="29">
         <v>1985</v>
       </c>
-      <c r="S117" s="30"/>
-      <c r="T117" s="30"/>
-      <c r="U117" s="30"/>
-      <c r="V117" s="30">
+      <c r="S117" s="29"/>
+      <c r="T117" s="29"/>
+      <c r="U117" s="29"/>
+      <c r="V117" s="29">
         <v>1986</v>
       </c>
-      <c r="W117" s="30"/>
-      <c r="X117" s="30"/>
-      <c r="Y117" s="30"/>
-      <c r="Z117" s="30">
+      <c r="W117" s="29"/>
+      <c r="X117" s="29"/>
+      <c r="Y117" s="29"/>
+      <c r="Z117" s="29">
         <v>1987</v>
       </c>
-      <c r="AA117" s="30"/>
-      <c r="AB117" s="30"/>
-      <c r="AC117" s="30"/>
-      <c r="AD117" s="30">
+      <c r="AA117" s="29"/>
+      <c r="AB117" s="29"/>
+      <c r="AC117" s="29"/>
+      <c r="AD117" s="29">
         <v>1988</v>
       </c>
-      <c r="AE117" s="30"/>
-      <c r="AF117" s="30"/>
-      <c r="AG117" s="30"/>
-      <c r="AH117" s="30">
+      <c r="AE117" s="29"/>
+      <c r="AF117" s="29"/>
+      <c r="AG117" s="29"/>
+      <c r="AH117" s="29">
         <v>1989</v>
       </c>
-      <c r="AI117" s="30"/>
-      <c r="AJ117" s="30"/>
-      <c r="AK117" s="30"/>
-      <c r="AL117" s="30">
+      <c r="AI117" s="29"/>
+      <c r="AJ117" s="29"/>
+      <c r="AK117" s="29"/>
+      <c r="AL117" s="29">
         <v>1990</v>
       </c>
-      <c r="AM117" s="30"/>
-      <c r="AN117" s="30"/>
-      <c r="AO117" s="30"/>
-      <c r="AP117" s="30">
+      <c r="AM117" s="29"/>
+      <c r="AN117" s="29"/>
+      <c r="AO117" s="29"/>
+      <c r="AP117" s="29">
         <v>1991</v>
       </c>
-      <c r="AQ117" s="30"/>
-      <c r="AR117" s="30"/>
-      <c r="AS117" s="30"/>
-      <c r="AT117" s="30">
+      <c r="AQ117" s="29"/>
+      <c r="AR117" s="29"/>
+      <c r="AS117" s="29"/>
+      <c r="AT117" s="29">
         <v>1992</v>
       </c>
-      <c r="AU117" s="30"/>
-      <c r="AV117" s="30"/>
-      <c r="AW117" s="30"/>
-      <c r="AX117" s="30">
+      <c r="AU117" s="29"/>
+      <c r="AV117" s="29"/>
+      <c r="AW117" s="29"/>
+      <c r="AX117" s="29">
         <v>1993</v>
       </c>
-      <c r="AY117" s="30"/>
-      <c r="AZ117" s="30"/>
-      <c r="BA117" s="30"/>
-      <c r="BB117" s="30">
+      <c r="AY117" s="29"/>
+      <c r="AZ117" s="29"/>
+      <c r="BA117" s="29"/>
+      <c r="BB117" s="29">
         <v>1994</v>
       </c>
-      <c r="BC117" s="30"/>
-      <c r="BD117" s="30"/>
-      <c r="BE117" s="30"/>
-      <c r="BF117" s="30">
+      <c r="BC117" s="29"/>
+      <c r="BD117" s="29"/>
+      <c r="BE117" s="29"/>
+      <c r="BF117" s="29">
         <v>1995</v>
       </c>
-      <c r="BG117" s="30"/>
-      <c r="BH117" s="30"/>
-      <c r="BI117" s="30"/>
-      <c r="BJ117" s="30">
+      <c r="BG117" s="29"/>
+      <c r="BH117" s="29"/>
+      <c r="BI117" s="29"/>
+      <c r="BJ117" s="29">
         <v>1996</v>
       </c>
-      <c r="BK117" s="30"/>
-      <c r="BL117" s="30"/>
-      <c r="BM117" s="30"/>
-      <c r="BN117" s="30">
+      <c r="BK117" s="29"/>
+      <c r="BL117" s="29"/>
+      <c r="BM117" s="29"/>
+      <c r="BN117" s="29">
         <v>1997</v>
       </c>
-      <c r="BO117" s="30"/>
-      <c r="BP117" s="30"/>
-      <c r="BQ117" s="30"/>
-      <c r="BR117" s="30">
+      <c r="BO117" s="29"/>
+      <c r="BP117" s="29"/>
+      <c r="BQ117" s="29"/>
+      <c r="BR117" s="29">
         <v>1998</v>
       </c>
-      <c r="BS117" s="30"/>
-      <c r="BT117" s="30"/>
-      <c r="BU117" s="30"/>
-      <c r="BV117" s="30">
+      <c r="BS117" s="29"/>
+      <c r="BT117" s="29"/>
+      <c r="BU117" s="29"/>
+      <c r="BV117" s="29">
         <v>1999</v>
       </c>
-      <c r="BW117" s="30"/>
-      <c r="BX117" s="30"/>
-      <c r="BY117" s="30"/>
-      <c r="BZ117" s="30">
+      <c r="BW117" s="29"/>
+      <c r="BX117" s="29"/>
+      <c r="BY117" s="29"/>
+      <c r="BZ117" s="29">
         <v>2000</v>
       </c>
-      <c r="CA117" s="30"/>
-      <c r="CB117" s="30"/>
-      <c r="CC117" s="30"/>
-      <c r="CD117" s="30">
+      <c r="CA117" s="29"/>
+      <c r="CB117" s="29"/>
+      <c r="CC117" s="29"/>
+      <c r="CD117" s="29">
         <v>2001</v>
       </c>
-      <c r="CE117" s="30"/>
-      <c r="CF117" s="30"/>
-      <c r="CG117" s="30"/>
-      <c r="CH117" s="30">
+      <c r="CE117" s="29"/>
+      <c r="CF117" s="29"/>
+      <c r="CG117" s="29"/>
+      <c r="CH117" s="29">
         <v>2002</v>
       </c>
-      <c r="CI117" s="30"/>
-      <c r="CJ117" s="30"/>
-      <c r="CK117" s="30"/>
-      <c r="CL117" s="30">
+      <c r="CI117" s="29"/>
+      <c r="CJ117" s="29"/>
+      <c r="CK117" s="29"/>
+      <c r="CL117" s="29">
         <v>2003</v>
       </c>
-      <c r="CM117" s="30"/>
-      <c r="CN117" s="30"/>
-      <c r="CO117" s="30"/>
-      <c r="CP117" s="30">
+      <c r="CM117" s="29"/>
+      <c r="CN117" s="29"/>
+      <c r="CO117" s="29"/>
+      <c r="CP117" s="29">
         <v>2004</v>
       </c>
-      <c r="CQ117" s="30"/>
-      <c r="CR117" s="30"/>
-      <c r="CS117" s="30"/>
-      <c r="CT117" s="30">
+      <c r="CQ117" s="29"/>
+      <c r="CR117" s="29"/>
+      <c r="CS117" s="29"/>
+      <c r="CT117" s="29">
         <v>2005</v>
       </c>
-      <c r="CU117" s="30"/>
-      <c r="CV117" s="30"/>
-      <c r="CW117" s="30"/>
-      <c r="CX117" s="30">
+      <c r="CU117" s="29"/>
+      <c r="CV117" s="29"/>
+      <c r="CW117" s="29"/>
+      <c r="CX117" s="29">
         <v>2006</v>
       </c>
-      <c r="CY117" s="30"/>
-      <c r="CZ117" s="30"/>
-      <c r="DA117" s="30"/>
-      <c r="DB117" s="30">
+      <c r="CY117" s="29"/>
+      <c r="CZ117" s="29"/>
+      <c r="DA117" s="29"/>
+      <c r="DB117" s="29">
         <v>2007</v>
       </c>
-      <c r="DC117" s="30"/>
-      <c r="DD117" s="30"/>
-      <c r="DE117" s="30"/>
-      <c r="DF117" s="30">
+      <c r="DC117" s="29"/>
+      <c r="DD117" s="29"/>
+      <c r="DE117" s="29"/>
+      <c r="DF117" s="29">
         <v>2008</v>
       </c>
-      <c r="DG117" s="30"/>
-      <c r="DH117" s="30"/>
-      <c r="DI117" s="30"/>
-      <c r="DJ117" s="30">
+      <c r="DG117" s="29"/>
+      <c r="DH117" s="29"/>
+      <c r="DI117" s="29"/>
+      <c r="DJ117" s="29">
         <v>2009</v>
       </c>
-      <c r="DK117" s="30"/>
-      <c r="DL117" s="30"/>
-      <c r="DM117" s="30"/>
-      <c r="DN117" s="30">
+      <c r="DK117" s="29"/>
+      <c r="DL117" s="29"/>
+      <c r="DM117" s="29"/>
+      <c r="DN117" s="29">
         <v>2010</v>
       </c>
-      <c r="DO117" s="30"/>
-      <c r="DP117" s="30"/>
-      <c r="DQ117" s="30"/>
-      <c r="DR117" s="30">
+      <c r="DO117" s="29"/>
+      <c r="DP117" s="29"/>
+      <c r="DQ117" s="29"/>
+      <c r="DR117" s="29">
         <v>2011</v>
       </c>
-      <c r="DS117" s="30"/>
-      <c r="DT117" s="30"/>
-      <c r="DU117" s="30"/>
-      <c r="DV117" s="30">
+      <c r="DS117" s="29"/>
+      <c r="DT117" s="29"/>
+      <c r="DU117" s="29"/>
+      <c r="DV117" s="29">
         <v>2012</v>
       </c>
-      <c r="DW117" s="30"/>
-      <c r="DX117" s="30"/>
-      <c r="DY117" s="30"/>
-      <c r="DZ117" s="30">
+      <c r="DW117" s="29"/>
+      <c r="DX117" s="29"/>
+      <c r="DY117" s="29"/>
+      <c r="DZ117" s="29">
         <v>2013</v>
       </c>
-      <c r="EA117" s="30"/>
-      <c r="EB117" s="30"/>
-      <c r="EC117" s="30"/>
-      <c r="ED117" s="30">
+      <c r="EA117" s="29"/>
+      <c r="EB117" s="29"/>
+      <c r="EC117" s="29"/>
+      <c r="ED117" s="29">
         <v>2014</v>
       </c>
-      <c r="EE117" s="30"/>
-      <c r="EF117" s="30"/>
-      <c r="EG117" s="30"/>
-      <c r="EH117" s="30">
+      <c r="EE117" s="29"/>
+      <c r="EF117" s="29"/>
+      <c r="EG117" s="29"/>
+      <c r="EH117" s="29">
         <v>2015</v>
       </c>
-      <c r="EI117" s="30"/>
-      <c r="EJ117" s="30"/>
-      <c r="EK117" s="30"/>
-      <c r="EL117" s="30">
+      <c r="EI117" s="29"/>
+      <c r="EJ117" s="29"/>
+      <c r="EK117" s="29"/>
+      <c r="EL117" s="29">
         <v>2016</v>
       </c>
-      <c r="EM117" s="30"/>
-      <c r="EN117" s="30"/>
-      <c r="EO117" s="30"/>
-      <c r="EP117" s="30">
+      <c r="EM117" s="29"/>
+      <c r="EN117" s="29"/>
+      <c r="EO117" s="29"/>
+      <c r="EP117" s="29">
         <v>2017</v>
       </c>
-      <c r="EQ117" s="30"/>
-      <c r="ER117" s="30"/>
-      <c r="ES117" s="30"/>
-      <c r="ET117" s="30">
+      <c r="EQ117" s="29"/>
+      <c r="ER117" s="29"/>
+      <c r="ES117" s="29"/>
+      <c r="ET117" s="29">
         <v>2018</v>
       </c>
-      <c r="EU117" s="30"/>
-      <c r="EV117" s="30"/>
-      <c r="EW117" s="30"/>
-      <c r="EX117" s="30">
+      <c r="EU117" s="29"/>
+      <c r="EV117" s="29"/>
+      <c r="EW117" s="29"/>
+      <c r="EX117" s="29">
         <v>2019</v>
       </c>
-      <c r="EY117" s="30"/>
-      <c r="EZ117" s="30"/>
-      <c r="FA117" s="30"/>
-      <c r="FB117" s="30">
+      <c r="EY117" s="29"/>
+      <c r="EZ117" s="29"/>
+      <c r="FA117" s="29"/>
+      <c r="FB117" s="29">
         <v>2020</v>
       </c>
-      <c r="FC117" s="30"/>
-      <c r="FD117" s="30"/>
+      <c r="FC117" s="29"/>
+      <c r="FD117" s="29"/>
       <c r="FE117" s="4"/>
-      <c r="FF117" s="30">
+      <c r="FF117" s="29">
         <v>2021</v>
       </c>
-      <c r="FG117" s="30"/>
-      <c r="FH117" s="30"/>
-      <c r="FI117" s="30"/>
-      <c r="FJ117" s="30">
+      <c r="FG117" s="29"/>
+      <c r="FH117" s="29"/>
+      <c r="FI117" s="29"/>
+      <c r="FJ117" s="29">
         <v>2022</v>
       </c>
-      <c r="FK117" s="30"/>
-      <c r="FL117" s="30"/>
-      <c r="FM117" s="30"/>
-      <c r="FN117" s="30">
+      <c r="FK117" s="29"/>
+      <c r="FL117" s="29"/>
+      <c r="FM117" s="29"/>
+      <c r="FN117" s="29">
         <v>2023</v>
       </c>
-      <c r="FO117" s="30"/>
-      <c r="FP117" s="30"/>
+      <c r="FO117" s="29"/>
+      <c r="FP117" s="29"/>
+      <c r="FQ117" s="29"/>
     </row>
-    <row r="118" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>14</v>
       </c>
@@ -22639,11 +23028,14 @@
       <c r="FP118" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="FQ118" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="119" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:173" x14ac:dyDescent="0.2">
       <c r="FB119" s="2"/>
     </row>
-    <row r="120" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>1</v>
       </c>
@@ -23157,11 +23549,14 @@
       <c r="FO120" s="13">
         <v>73.498747626685983</v>
       </c>
-      <c r="FP120" s="13">
-        <v>78.861292455233354</v>
+      <c r="FP120" s="34">
+        <v>78.862068913672957</v>
+      </c>
+      <c r="FQ120" s="34">
+        <v>75.598361173656883</v>
       </c>
     </row>
-    <row r="121" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>2</v>
       </c>
@@ -23675,11 +24070,14 @@
       <c r="FO121" s="13">
         <v>15.562638622420661</v>
       </c>
-      <c r="FP121" s="13">
-        <v>15.154101754555125</v>
+      <c r="FP121" s="34">
+        <v>15.139857116026597</v>
+      </c>
+      <c r="FQ121" s="34">
+        <v>12.839621534668616</v>
       </c>
     </row>
-    <row r="122" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>3</v>
       </c>
@@ -24193,11 +24591,14 @@
       <c r="FO122" s="13">
         <v>26.402950580940477</v>
       </c>
-      <c r="FP122" s="13">
-        <v>22.093147290286648</v>
+      <c r="FP122" s="34">
+        <v>22.131336015043672</v>
+      </c>
+      <c r="FQ122" s="34">
+        <v>21.775909473873185</v>
       </c>
     </row>
-    <row r="123" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>4</v>
       </c>
@@ -24711,11 +25112,14 @@
       <c r="FO123" s="13">
         <v>25.82646009454405</v>
       </c>
-      <c r="FP123" s="13">
-        <v>30.24798607865738</v>
+      <c r="FP123" s="34">
+        <v>30.23232465068547</v>
+      </c>
+      <c r="FQ123" s="34">
+        <v>23.631258510925136</v>
       </c>
     </row>
-    <row r="124" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>5</v>
       </c>
@@ -25229,11 +25633,14 @@
       <c r="FO124" s="13">
         <v>41.147256743660193</v>
       </c>
-      <c r="FP124" s="13">
-        <v>45.671471511741643</v>
+      <c r="FP124" s="34">
+        <v>45.778903867593016</v>
+      </c>
+      <c r="FQ124" s="34">
+        <v>34.168558625815102</v>
       </c>
     </row>
-    <row r="125" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:173" x14ac:dyDescent="0.2">
       <c r="B125" s="13">
         <v>10.790109715083961</v>
       </c>
@@ -25558,7 +25965,7 @@
       <c r="FO125" s="21"/>
       <c r="FP125" s="21"/>
     </row>
-    <row r="126" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:173" x14ac:dyDescent="0.2">
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
@@ -25731,7 +26138,7 @@
       <c r="FO126" s="21"/>
       <c r="FP126" s="21"/>
     </row>
-    <row r="127" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
         <v>10</v>
       </c>
@@ -26248,8 +26655,11 @@
       <c r="FP127" s="13">
         <v>100</v>
       </c>
+      <c r="FQ127" s="13">
+        <v>100</v>
+      </c>
     </row>
-    <row r="128" spans="1:172" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:173" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="13">
         <v>0</v>
       </c>
@@ -26409,7 +26819,7 @@
       <c r="EZ128" s="13"/>
       <c r="FA128" s="13"/>
     </row>
-    <row r="129" spans="1:172" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:175" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" s="13">
         <v>0</v>
       </c>
@@ -26569,7 +26979,7 @@
       <c r="EZ129" s="13"/>
       <c r="FA129" s="13"/>
     </row>
-    <row r="130" spans="1:172" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:175" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" s="13">
         <v>0</v>
       </c>
@@ -26729,7 +27139,7 @@
       <c r="EZ130" s="13"/>
       <c r="FA130" s="13"/>
     </row>
-    <row r="131" spans="1:172" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:175" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" s="13">
         <v>0</v>
       </c>
@@ -26889,7 +27299,7 @@
       <c r="EZ131" s="13"/>
       <c r="FA131" s="13"/>
     </row>
-    <row r="132" spans="1:172" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:175" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -27063,33 +27473,34 @@
       <c r="FO132" s="9"/>
       <c r="FP132" s="9"/>
     </row>
-    <row r="133" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="FQ133" s="4"/>
     </row>
-    <row r="136" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="139" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="FC139" s="3"/>
       <c r="FD139" s="3"/>
       <c r="FE139" s="3"/>
     </row>
-    <row r="140" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>46</v>
       </c>
@@ -27097,7 +27508,7 @@
       <c r="FD140" s="3"/>
       <c r="FE140" s="3"/>
     </row>
-    <row r="141" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
         <v>82</v>
       </c>
@@ -27105,279 +27516,283 @@
       <c r="FD141" s="3"/>
       <c r="FE141" s="3"/>
     </row>
-    <row r="142" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>54</v>
       </c>
       <c r="FC142" s="3"/>
       <c r="FD142" s="3"/>
       <c r="FE142" s="3"/>
+      <c r="FS142" s="30"/>
     </row>
-    <row r="143" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="FC143" s="3"/>
       <c r="FD143" s="3"/>
       <c r="FE143" s="3"/>
       <c r="FP143" s="9"/>
+      <c r="FQ143" s="9"/>
     </row>
-    <row r="144" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
-      <c r="B144" s="30">
+      <c r="B144" s="29">
         <v>1981</v>
       </c>
-      <c r="C144" s="30"/>
-      <c r="D144" s="30"/>
-      <c r="E144" s="30"/>
-      <c r="F144" s="30">
+      <c r="C144" s="29"/>
+      <c r="D144" s="29"/>
+      <c r="E144" s="29"/>
+      <c r="F144" s="29">
         <v>1982</v>
       </c>
-      <c r="G144" s="30"/>
-      <c r="H144" s="30"/>
-      <c r="I144" s="30"/>
-      <c r="J144" s="30">
+      <c r="G144" s="29"/>
+      <c r="H144" s="29"/>
+      <c r="I144" s="29"/>
+      <c r="J144" s="29">
         <v>1983</v>
       </c>
-      <c r="K144" s="30"/>
-      <c r="L144" s="30"/>
-      <c r="M144" s="30"/>
-      <c r="N144" s="30">
+      <c r="K144" s="29"/>
+      <c r="L144" s="29"/>
+      <c r="M144" s="29"/>
+      <c r="N144" s="29">
         <v>1984</v>
       </c>
-      <c r="O144" s="30"/>
-      <c r="P144" s="30"/>
-      <c r="Q144" s="30"/>
-      <c r="R144" s="30">
+      <c r="O144" s="29"/>
+      <c r="P144" s="29"/>
+      <c r="Q144" s="29"/>
+      <c r="R144" s="29">
         <v>1985</v>
       </c>
-      <c r="S144" s="30"/>
-      <c r="T144" s="30"/>
-      <c r="U144" s="30"/>
-      <c r="V144" s="30">
+      <c r="S144" s="29"/>
+      <c r="T144" s="29"/>
+      <c r="U144" s="29"/>
+      <c r="V144" s="29">
         <v>1986</v>
       </c>
-      <c r="W144" s="30"/>
-      <c r="X144" s="30"/>
-      <c r="Y144" s="30"/>
-      <c r="Z144" s="30">
+      <c r="W144" s="29"/>
+      <c r="X144" s="29"/>
+      <c r="Y144" s="29"/>
+      <c r="Z144" s="29">
         <v>1987</v>
       </c>
-      <c r="AA144" s="30"/>
-      <c r="AB144" s="30"/>
-      <c r="AC144" s="30"/>
-      <c r="AD144" s="30">
+      <c r="AA144" s="29"/>
+      <c r="AB144" s="29"/>
+      <c r="AC144" s="29"/>
+      <c r="AD144" s="29">
         <v>1988</v>
       </c>
-      <c r="AE144" s="30"/>
-      <c r="AF144" s="30"/>
-      <c r="AG144" s="30"/>
-      <c r="AH144" s="30">
+      <c r="AE144" s="29"/>
+      <c r="AF144" s="29"/>
+      <c r="AG144" s="29"/>
+      <c r="AH144" s="29">
         <v>1989</v>
       </c>
-      <c r="AI144" s="30"/>
-      <c r="AJ144" s="30"/>
-      <c r="AK144" s="30"/>
-      <c r="AL144" s="30">
+      <c r="AI144" s="29"/>
+      <c r="AJ144" s="29"/>
+      <c r="AK144" s="29"/>
+      <c r="AL144" s="29">
         <v>1990</v>
       </c>
-      <c r="AM144" s="30"/>
-      <c r="AN144" s="30"/>
-      <c r="AO144" s="30"/>
-      <c r="AP144" s="30">
+      <c r="AM144" s="29"/>
+      <c r="AN144" s="29"/>
+      <c r="AO144" s="29"/>
+      <c r="AP144" s="29">
         <v>1991</v>
       </c>
-      <c r="AQ144" s="30"/>
-      <c r="AR144" s="30"/>
-      <c r="AS144" s="30"/>
-      <c r="AT144" s="30">
+      <c r="AQ144" s="29"/>
+      <c r="AR144" s="29"/>
+      <c r="AS144" s="29"/>
+      <c r="AT144" s="29">
         <v>1992</v>
       </c>
-      <c r="AU144" s="30"/>
-      <c r="AV144" s="30"/>
-      <c r="AW144" s="30"/>
-      <c r="AX144" s="30">
+      <c r="AU144" s="29"/>
+      <c r="AV144" s="29"/>
+      <c r="AW144" s="29"/>
+      <c r="AX144" s="29">
         <v>1993</v>
       </c>
-      <c r="AY144" s="30"/>
-      <c r="AZ144" s="30"/>
-      <c r="BA144" s="30"/>
-      <c r="BB144" s="30">
+      <c r="AY144" s="29"/>
+      <c r="AZ144" s="29"/>
+      <c r="BA144" s="29"/>
+      <c r="BB144" s="29">
         <v>1994</v>
       </c>
-      <c r="BC144" s="30"/>
-      <c r="BD144" s="30"/>
-      <c r="BE144" s="30"/>
-      <c r="BF144" s="30">
+      <c r="BC144" s="29"/>
+      <c r="BD144" s="29"/>
+      <c r="BE144" s="29"/>
+      <c r="BF144" s="29">
         <v>1995</v>
       </c>
-      <c r="BG144" s="30"/>
-      <c r="BH144" s="30"/>
-      <c r="BI144" s="30"/>
-      <c r="BJ144" s="30">
+      <c r="BG144" s="29"/>
+      <c r="BH144" s="29"/>
+      <c r="BI144" s="29"/>
+      <c r="BJ144" s="29">
         <v>1996</v>
       </c>
-      <c r="BK144" s="30"/>
-      <c r="BL144" s="30"/>
-      <c r="BM144" s="30"/>
-      <c r="BN144" s="30">
+      <c r="BK144" s="29"/>
+      <c r="BL144" s="29"/>
+      <c r="BM144" s="29"/>
+      <c r="BN144" s="29">
         <v>1997</v>
       </c>
-      <c r="BO144" s="30"/>
-      <c r="BP144" s="30"/>
-      <c r="BQ144" s="30"/>
-      <c r="BR144" s="30">
+      <c r="BO144" s="29"/>
+      <c r="BP144" s="29"/>
+      <c r="BQ144" s="29"/>
+      <c r="BR144" s="29">
         <v>1998</v>
       </c>
-      <c r="BS144" s="30"/>
-      <c r="BT144" s="30"/>
-      <c r="BU144" s="30"/>
-      <c r="BV144" s="30">
+      <c r="BS144" s="29"/>
+      <c r="BT144" s="29"/>
+      <c r="BU144" s="29"/>
+      <c r="BV144" s="29">
         <v>1999</v>
       </c>
-      <c r="BW144" s="30"/>
-      <c r="BX144" s="30"/>
-      <c r="BY144" s="30"/>
-      <c r="BZ144" s="30">
+      <c r="BW144" s="29"/>
+      <c r="BX144" s="29"/>
+      <c r="BY144" s="29"/>
+      <c r="BZ144" s="29">
         <v>2000</v>
       </c>
-      <c r="CA144" s="30"/>
-      <c r="CB144" s="30"/>
-      <c r="CC144" s="30"/>
-      <c r="CD144" s="30">
+      <c r="CA144" s="29"/>
+      <c r="CB144" s="29"/>
+      <c r="CC144" s="29"/>
+      <c r="CD144" s="29">
         <v>2001</v>
       </c>
-      <c r="CE144" s="30"/>
-      <c r="CF144" s="30"/>
-      <c r="CG144" s="30"/>
-      <c r="CH144" s="30">
+      <c r="CE144" s="29"/>
+      <c r="CF144" s="29"/>
+      <c r="CG144" s="29"/>
+      <c r="CH144" s="29">
         <v>2002</v>
       </c>
-      <c r="CI144" s="30"/>
-      <c r="CJ144" s="30"/>
-      <c r="CK144" s="30"/>
-      <c r="CL144" s="30">
+      <c r="CI144" s="29"/>
+      <c r="CJ144" s="29"/>
+      <c r="CK144" s="29"/>
+      <c r="CL144" s="29">
         <v>2003</v>
       </c>
-      <c r="CM144" s="30"/>
-      <c r="CN144" s="30"/>
-      <c r="CO144" s="30"/>
-      <c r="CP144" s="30">
+      <c r="CM144" s="29"/>
+      <c r="CN144" s="29"/>
+      <c r="CO144" s="29"/>
+      <c r="CP144" s="29">
         <v>2004</v>
       </c>
-      <c r="CQ144" s="30"/>
-      <c r="CR144" s="30"/>
-      <c r="CS144" s="30"/>
-      <c r="CT144" s="30">
+      <c r="CQ144" s="29"/>
+      <c r="CR144" s="29"/>
+      <c r="CS144" s="29"/>
+      <c r="CT144" s="29">
         <v>2005</v>
       </c>
-      <c r="CU144" s="30"/>
-      <c r="CV144" s="30"/>
-      <c r="CW144" s="30"/>
-      <c r="CX144" s="30">
+      <c r="CU144" s="29"/>
+      <c r="CV144" s="29"/>
+      <c r="CW144" s="29"/>
+      <c r="CX144" s="29">
         <v>2006</v>
       </c>
-      <c r="CY144" s="30"/>
-      <c r="CZ144" s="30"/>
-      <c r="DA144" s="30"/>
-      <c r="DB144" s="30">
+      <c r="CY144" s="29"/>
+      <c r="CZ144" s="29"/>
+      <c r="DA144" s="29"/>
+      <c r="DB144" s="29">
         <v>2007</v>
       </c>
-      <c r="DC144" s="30"/>
-      <c r="DD144" s="30"/>
-      <c r="DE144" s="30"/>
-      <c r="DF144" s="30">
+      <c r="DC144" s="29"/>
+      <c r="DD144" s="29"/>
+      <c r="DE144" s="29"/>
+      <c r="DF144" s="29">
         <v>2008</v>
       </c>
-      <c r="DG144" s="30"/>
-      <c r="DH144" s="30"/>
-      <c r="DI144" s="30"/>
-      <c r="DJ144" s="30">
+      <c r="DG144" s="29"/>
+      <c r="DH144" s="29"/>
+      <c r="DI144" s="29"/>
+      <c r="DJ144" s="29">
         <v>2009</v>
       </c>
-      <c r="DK144" s="30"/>
-      <c r="DL144" s="30"/>
-      <c r="DM144" s="30"/>
-      <c r="DN144" s="30">
+      <c r="DK144" s="29"/>
+      <c r="DL144" s="29"/>
+      <c r="DM144" s="29"/>
+      <c r="DN144" s="29">
         <v>2010</v>
       </c>
-      <c r="DO144" s="30"/>
-      <c r="DP144" s="30"/>
-      <c r="DQ144" s="30"/>
-      <c r="DR144" s="30">
+      <c r="DO144" s="29"/>
+      <c r="DP144" s="29"/>
+      <c r="DQ144" s="29"/>
+      <c r="DR144" s="29">
         <v>2011</v>
       </c>
-      <c r="DS144" s="30"/>
-      <c r="DT144" s="30"/>
-      <c r="DU144" s="30"/>
-      <c r="DV144" s="30">
+      <c r="DS144" s="29"/>
+      <c r="DT144" s="29"/>
+      <c r="DU144" s="29"/>
+      <c r="DV144" s="29">
         <v>2012</v>
       </c>
-      <c r="DW144" s="30"/>
-      <c r="DX144" s="30"/>
-      <c r="DY144" s="30"/>
-      <c r="DZ144" s="30">
+      <c r="DW144" s="29"/>
+      <c r="DX144" s="29"/>
+      <c r="DY144" s="29"/>
+      <c r="DZ144" s="29">
         <v>2013</v>
       </c>
-      <c r="EA144" s="30"/>
-      <c r="EB144" s="30"/>
-      <c r="EC144" s="30"/>
-      <c r="ED144" s="30">
+      <c r="EA144" s="29"/>
+      <c r="EB144" s="29"/>
+      <c r="EC144" s="29"/>
+      <c r="ED144" s="29">
         <v>2014</v>
       </c>
-      <c r="EE144" s="30"/>
-      <c r="EF144" s="30"/>
-      <c r="EG144" s="30"/>
-      <c r="EH144" s="30">
+      <c r="EE144" s="29"/>
+      <c r="EF144" s="29"/>
+      <c r="EG144" s="29"/>
+      <c r="EH144" s="29">
         <v>2015</v>
       </c>
-      <c r="EI144" s="30"/>
-      <c r="EJ144" s="30"/>
-      <c r="EK144" s="30"/>
-      <c r="EL144" s="30">
+      <c r="EI144" s="29"/>
+      <c r="EJ144" s="29"/>
+      <c r="EK144" s="29"/>
+      <c r="EL144" s="29">
         <v>2016</v>
       </c>
-      <c r="EM144" s="30"/>
-      <c r="EN144" s="30"/>
-      <c r="EO144" s="30"/>
-      <c r="EP144" s="30">
+      <c r="EM144" s="29"/>
+      <c r="EN144" s="29"/>
+      <c r="EO144" s="29"/>
+      <c r="EP144" s="29">
         <v>2017</v>
       </c>
-      <c r="EQ144" s="30"/>
-      <c r="ER144" s="30"/>
-      <c r="ES144" s="30"/>
-      <c r="ET144" s="30">
+      <c r="EQ144" s="29"/>
+      <c r="ER144" s="29"/>
+      <c r="ES144" s="29"/>
+      <c r="ET144" s="29">
         <v>2018</v>
       </c>
-      <c r="EU144" s="30"/>
-      <c r="EV144" s="30"/>
-      <c r="EW144" s="30"/>
-      <c r="EX144" s="30">
+      <c r="EU144" s="29"/>
+      <c r="EV144" s="29"/>
+      <c r="EW144" s="29"/>
+      <c r="EX144" s="29">
         <v>2019</v>
       </c>
-      <c r="EY144" s="30"/>
-      <c r="EZ144" s="30"/>
-      <c r="FA144" s="30"/>
-      <c r="FB144" s="30">
+      <c r="EY144" s="29"/>
+      <c r="EZ144" s="29"/>
+      <c r="FA144" s="29"/>
+      <c r="FB144" s="29">
         <v>2020</v>
       </c>
-      <c r="FC144" s="30"/>
-      <c r="FD144" s="30"/>
+      <c r="FC144" s="29"/>
+      <c r="FD144" s="29"/>
       <c r="FE144" s="4"/>
-      <c r="FF144" s="30">
+      <c r="FF144" s="29">
         <v>2021</v>
       </c>
-      <c r="FG144" s="30"/>
-      <c r="FH144" s="30"/>
-      <c r="FI144" s="30"/>
-      <c r="FJ144" s="30">
+      <c r="FG144" s="29"/>
+      <c r="FH144" s="29"/>
+      <c r="FI144" s="29"/>
+      <c r="FJ144" s="29">
         <v>2022</v>
       </c>
-      <c r="FK144" s="30"/>
-      <c r="FL144" s="30"/>
-      <c r="FM144" s="30"/>
-      <c r="FN144" s="30">
+      <c r="FK144" s="29"/>
+      <c r="FL144" s="29"/>
+      <c r="FM144" s="29"/>
+      <c r="FN144" s="29">
         <v>2023</v>
       </c>
-      <c r="FO144" s="30"/>
+      <c r="FO144" s="29"/>
+      <c r="FP144" s="29"/>
+      <c r="FQ144" s="29"/>
     </row>
     <row r="145" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
@@ -27896,9 +28311,13 @@
       <c r="FP145" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="FQ145" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="146" spans="1:173" x14ac:dyDescent="0.2">
       <c r="FB146" s="2"/>
+      <c r="FQ146" s="4"/>
     </row>
     <row r="147" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
@@ -28414,8 +28833,11 @@
       <c r="FO147" s="13">
         <v>68.829476708023634</v>
       </c>
-      <c r="FP147" s="13">
-        <v>72.911344607737192</v>
+      <c r="FP147" s="34">
+        <v>72.936922926462373</v>
+      </c>
+      <c r="FQ147" s="34">
+        <v>75.078163249479317</v>
       </c>
     </row>
     <row r="148" spans="1:173" x14ac:dyDescent="0.2">
@@ -28932,8 +29354,11 @@
       <c r="FO148" s="13">
         <v>16.101079673026248</v>
       </c>
-      <c r="FP148" s="13">
-        <v>14.753502005791816</v>
+      <c r="FP148" s="34">
+        <v>14.744838169027588</v>
+      </c>
+      <c r="FQ148" s="34">
+        <v>11.78525700341542</v>
       </c>
     </row>
     <row r="149" spans="1:173" x14ac:dyDescent="0.2">
@@ -29450,8 +29875,11 @@
       <c r="FO149" s="13">
         <v>25.921325856863042</v>
       </c>
-      <c r="FP149" s="13">
-        <v>20.919575428511493</v>
+      <c r="FP149" s="34">
+        <v>20.944168638384724</v>
+      </c>
+      <c r="FQ149" s="34">
+        <v>22.407796084894208</v>
       </c>
     </row>
     <row r="150" spans="1:173" x14ac:dyDescent="0.2">
@@ -29968,8 +30396,11 @@
       <c r="FO150" s="13">
         <v>27.294961908606975</v>
       </c>
-      <c r="FP150" s="13">
-        <v>31.108095338090685</v>
+      <c r="FP150" s="34">
+        <v>31.106786243921249</v>
+      </c>
+      <c r="FQ150" s="34">
+        <v>23.733030509253084</v>
       </c>
     </row>
     <row r="151" spans="1:173" x14ac:dyDescent="0.2">
@@ -30486,10 +30917,12 @@
       <c r="FO151" s="13">
         <v>38.835891146997106</v>
       </c>
-      <c r="FP151" s="13">
-        <v>40.056729510667708</v>
-      </c>
-      <c r="FQ151" s="13"/>
+      <c r="FP151" s="34">
+        <v>40.143551111278356</v>
+      </c>
+      <c r="FQ151" s="34">
+        <v>33.864984296454772</v>
+      </c>
     </row>
     <row r="152" spans="1:173" x14ac:dyDescent="0.2">
       <c r="B152" s="13"/>
@@ -31352,6 +31785,9 @@
         <v>100</v>
       </c>
       <c r="FP154" s="21">
+        <v>100</v>
+      </c>
+      <c r="FQ154" s="21">
         <v>100</v>
       </c>
     </row>
@@ -32160,31 +32596,32 @@
       <c r="FN159" s="9"/>
       <c r="FO159" s="9"/>
       <c r="FP159" s="9"/>
+      <c r="FQ159" s="9"/>
     </row>
     <row r="160" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="166" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
     </row>
-    <row r="167" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>47</v>
       </c>
@@ -32192,7 +32629,7 @@
       <c r="FD167" s="3"/>
       <c r="FE167" s="3"/>
     </row>
-    <row r="168" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A168" s="11" t="s">
         <v>82</v>
       </c>
@@ -32200,7 +32637,7 @@
       <c r="FD168" s="3"/>
       <c r="FE168" s="3"/>
     </row>
-    <row r="169" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>11</v>
       </c>
@@ -32208,274 +32645,276 @@
       <c r="FD169" s="3"/>
       <c r="FE169" s="3"/>
     </row>
-    <row r="170" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="FC170" s="3"/>
       <c r="FD170" s="3"/>
       <c r="FE170" s="3"/>
       <c r="FP170" s="9"/>
+      <c r="FQ170" s="9"/>
     </row>
-    <row r="171" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
-      <c r="B171" s="30">
+      <c r="B171" s="29">
         <v>1981</v>
       </c>
-      <c r="C171" s="30"/>
-      <c r="D171" s="30"/>
-      <c r="E171" s="30"/>
-      <c r="F171" s="30">
+      <c r="C171" s="29"/>
+      <c r="D171" s="29"/>
+      <c r="E171" s="29"/>
+      <c r="F171" s="29">
         <v>1982</v>
       </c>
-      <c r="G171" s="30"/>
-      <c r="H171" s="30"/>
-      <c r="I171" s="30"/>
-      <c r="J171" s="30">
+      <c r="G171" s="29"/>
+      <c r="H171" s="29"/>
+      <c r="I171" s="29"/>
+      <c r="J171" s="29">
         <v>1983</v>
       </c>
-      <c r="K171" s="30"/>
-      <c r="L171" s="30"/>
-      <c r="M171" s="30"/>
-      <c r="N171" s="30">
+      <c r="K171" s="29"/>
+      <c r="L171" s="29"/>
+      <c r="M171" s="29"/>
+      <c r="N171" s="29">
         <v>1984</v>
       </c>
-      <c r="O171" s="30"/>
-      <c r="P171" s="30"/>
-      <c r="Q171" s="30"/>
-      <c r="R171" s="30">
+      <c r="O171" s="29"/>
+      <c r="P171" s="29"/>
+      <c r="Q171" s="29"/>
+      <c r="R171" s="29">
         <v>1985</v>
       </c>
-      <c r="S171" s="30"/>
-      <c r="T171" s="30"/>
-      <c r="U171" s="30"/>
-      <c r="V171" s="30">
+      <c r="S171" s="29"/>
+      <c r="T171" s="29"/>
+      <c r="U171" s="29"/>
+      <c r="V171" s="29">
         <v>1986</v>
       </c>
-      <c r="W171" s="30"/>
-      <c r="X171" s="30"/>
-      <c r="Y171" s="30"/>
-      <c r="Z171" s="30">
+      <c r="W171" s="29"/>
+      <c r="X171" s="29"/>
+      <c r="Y171" s="29"/>
+      <c r="Z171" s="29">
         <v>1987</v>
       </c>
-      <c r="AA171" s="30"/>
-      <c r="AB171" s="30"/>
-      <c r="AC171" s="30"/>
-      <c r="AD171" s="30">
+      <c r="AA171" s="29"/>
+      <c r="AB171" s="29"/>
+      <c r="AC171" s="29"/>
+      <c r="AD171" s="29">
         <v>1988</v>
       </c>
-      <c r="AE171" s="30"/>
-      <c r="AF171" s="30"/>
-      <c r="AG171" s="30"/>
-      <c r="AH171" s="30">
+      <c r="AE171" s="29"/>
+      <c r="AF171" s="29"/>
+      <c r="AG171" s="29"/>
+      <c r="AH171" s="29">
         <v>1989</v>
       </c>
-      <c r="AI171" s="30"/>
-      <c r="AJ171" s="30"/>
-      <c r="AK171" s="30"/>
-      <c r="AL171" s="30">
+      <c r="AI171" s="29"/>
+      <c r="AJ171" s="29"/>
+      <c r="AK171" s="29"/>
+      <c r="AL171" s="29">
         <v>1990</v>
       </c>
-      <c r="AM171" s="30"/>
-      <c r="AN171" s="30"/>
-      <c r="AO171" s="30"/>
-      <c r="AP171" s="30">
+      <c r="AM171" s="29"/>
+      <c r="AN171" s="29"/>
+      <c r="AO171" s="29"/>
+      <c r="AP171" s="29">
         <v>1991</v>
       </c>
-      <c r="AQ171" s="30"/>
-      <c r="AR171" s="30"/>
-      <c r="AS171" s="30"/>
-      <c r="AT171" s="30">
+      <c r="AQ171" s="29"/>
+      <c r="AR171" s="29"/>
+      <c r="AS171" s="29"/>
+      <c r="AT171" s="29">
         <v>1992</v>
       </c>
-      <c r="AU171" s="30"/>
-      <c r="AV171" s="30"/>
-      <c r="AW171" s="30"/>
-      <c r="AX171" s="30">
+      <c r="AU171" s="29"/>
+      <c r="AV171" s="29"/>
+      <c r="AW171" s="29"/>
+      <c r="AX171" s="29">
         <v>1993</v>
       </c>
-      <c r="AY171" s="30"/>
-      <c r="AZ171" s="30"/>
-      <c r="BA171" s="30"/>
-      <c r="BB171" s="30">
+      <c r="AY171" s="29"/>
+      <c r="AZ171" s="29"/>
+      <c r="BA171" s="29"/>
+      <c r="BB171" s="29">
         <v>1994</v>
       </c>
-      <c r="BC171" s="30"/>
-      <c r="BD171" s="30"/>
-      <c r="BE171" s="30"/>
-      <c r="BF171" s="30">
+      <c r="BC171" s="29"/>
+      <c r="BD171" s="29"/>
+      <c r="BE171" s="29"/>
+      <c r="BF171" s="29">
         <v>1995</v>
       </c>
-      <c r="BG171" s="30"/>
-      <c r="BH171" s="30"/>
-      <c r="BI171" s="30"/>
-      <c r="BJ171" s="30">
+      <c r="BG171" s="29"/>
+      <c r="BH171" s="29"/>
+      <c r="BI171" s="29"/>
+      <c r="BJ171" s="29">
         <v>1996</v>
       </c>
-      <c r="BK171" s="30"/>
-      <c r="BL171" s="30"/>
-      <c r="BM171" s="30"/>
-      <c r="BN171" s="30">
+      <c r="BK171" s="29"/>
+      <c r="BL171" s="29"/>
+      <c r="BM171" s="29"/>
+      <c r="BN171" s="29">
         <v>1997</v>
       </c>
-      <c r="BO171" s="30"/>
-      <c r="BP171" s="30"/>
-      <c r="BQ171" s="30"/>
-      <c r="BR171" s="30">
+      <c r="BO171" s="29"/>
+      <c r="BP171" s="29"/>
+      <c r="BQ171" s="29"/>
+      <c r="BR171" s="29">
         <v>1998</v>
       </c>
-      <c r="BS171" s="30"/>
-      <c r="BT171" s="30"/>
-      <c r="BU171" s="30"/>
-      <c r="BV171" s="30">
+      <c r="BS171" s="29"/>
+      <c r="BT171" s="29"/>
+      <c r="BU171" s="29"/>
+      <c r="BV171" s="29">
         <v>1999</v>
       </c>
-      <c r="BW171" s="30"/>
-      <c r="BX171" s="30"/>
-      <c r="BY171" s="30"/>
-      <c r="BZ171" s="30">
+      <c r="BW171" s="29"/>
+      <c r="BX171" s="29"/>
+      <c r="BY171" s="29"/>
+      <c r="BZ171" s="29">
         <v>2000</v>
       </c>
-      <c r="CA171" s="30"/>
-      <c r="CB171" s="30"/>
-      <c r="CC171" s="30"/>
-      <c r="CD171" s="30">
+      <c r="CA171" s="29"/>
+      <c r="CB171" s="29"/>
+      <c r="CC171" s="29"/>
+      <c r="CD171" s="29">
         <v>2001</v>
       </c>
-      <c r="CE171" s="30"/>
-      <c r="CF171" s="30"/>
-      <c r="CG171" s="30"/>
-      <c r="CH171" s="30">
+      <c r="CE171" s="29"/>
+      <c r="CF171" s="29"/>
+      <c r="CG171" s="29"/>
+      <c r="CH171" s="29">
         <v>2002</v>
       </c>
-      <c r="CI171" s="30"/>
-      <c r="CJ171" s="30"/>
-      <c r="CK171" s="30"/>
-      <c r="CL171" s="30">
+      <c r="CI171" s="29"/>
+      <c r="CJ171" s="29"/>
+      <c r="CK171" s="29"/>
+      <c r="CL171" s="29">
         <v>2003</v>
       </c>
-      <c r="CM171" s="30"/>
-      <c r="CN171" s="30"/>
-      <c r="CO171" s="30"/>
-      <c r="CP171" s="30">
+      <c r="CM171" s="29"/>
+      <c r="CN171" s="29"/>
+      <c r="CO171" s="29"/>
+      <c r="CP171" s="29">
         <v>2004</v>
       </c>
-      <c r="CQ171" s="30"/>
-      <c r="CR171" s="30"/>
-      <c r="CS171" s="30"/>
-      <c r="CT171" s="30">
+      <c r="CQ171" s="29"/>
+      <c r="CR171" s="29"/>
+      <c r="CS171" s="29"/>
+      <c r="CT171" s="29">
         <v>2005</v>
       </c>
-      <c r="CU171" s="30"/>
-      <c r="CV171" s="30"/>
-      <c r="CW171" s="30"/>
-      <c r="CX171" s="30">
+      <c r="CU171" s="29"/>
+      <c r="CV171" s="29"/>
+      <c r="CW171" s="29"/>
+      <c r="CX171" s="29">
         <v>2006</v>
       </c>
-      <c r="CY171" s="30"/>
-      <c r="CZ171" s="30"/>
-      <c r="DA171" s="30"/>
-      <c r="DB171" s="30">
+      <c r="CY171" s="29"/>
+      <c r="CZ171" s="29"/>
+      <c r="DA171" s="29"/>
+      <c r="DB171" s="29">
         <v>2007</v>
       </c>
-      <c r="DC171" s="30"/>
-      <c r="DD171" s="30"/>
-      <c r="DE171" s="30"/>
-      <c r="DF171" s="30">
+      <c r="DC171" s="29"/>
+      <c r="DD171" s="29"/>
+      <c r="DE171" s="29"/>
+      <c r="DF171" s="29">
         <v>2008</v>
       </c>
-      <c r="DG171" s="30"/>
-      <c r="DH171" s="30"/>
-      <c r="DI171" s="30"/>
-      <c r="DJ171" s="30">
+      <c r="DG171" s="29"/>
+      <c r="DH171" s="29"/>
+      <c r="DI171" s="29"/>
+      <c r="DJ171" s="29">
         <v>2009</v>
       </c>
-      <c r="DK171" s="30"/>
-      <c r="DL171" s="30"/>
-      <c r="DM171" s="30"/>
-      <c r="DN171" s="30">
+      <c r="DK171" s="29"/>
+      <c r="DL171" s="29"/>
+      <c r="DM171" s="29"/>
+      <c r="DN171" s="29">
         <v>2010</v>
       </c>
-      <c r="DO171" s="30"/>
-      <c r="DP171" s="30"/>
-      <c r="DQ171" s="30"/>
-      <c r="DR171" s="30">
+      <c r="DO171" s="29"/>
+      <c r="DP171" s="29"/>
+      <c r="DQ171" s="29"/>
+      <c r="DR171" s="29">
         <v>2011</v>
       </c>
-      <c r="DS171" s="30"/>
-      <c r="DT171" s="30"/>
-      <c r="DU171" s="30"/>
-      <c r="DV171" s="30">
+      <c r="DS171" s="29"/>
+      <c r="DT171" s="29"/>
+      <c r="DU171" s="29"/>
+      <c r="DV171" s="29">
         <v>2012</v>
       </c>
-      <c r="DW171" s="30"/>
-      <c r="DX171" s="30"/>
-      <c r="DY171" s="30"/>
-      <c r="DZ171" s="30">
+      <c r="DW171" s="29"/>
+      <c r="DX171" s="29"/>
+      <c r="DY171" s="29"/>
+      <c r="DZ171" s="29">
         <v>2013</v>
       </c>
-      <c r="EA171" s="30"/>
-      <c r="EB171" s="30"/>
-      <c r="EC171" s="30"/>
-      <c r="ED171" s="30">
+      <c r="EA171" s="29"/>
+      <c r="EB171" s="29"/>
+      <c r="EC171" s="29"/>
+      <c r="ED171" s="29">
         <v>2014</v>
       </c>
-      <c r="EE171" s="30"/>
-      <c r="EF171" s="30"/>
-      <c r="EG171" s="30"/>
-      <c r="EH171" s="30">
+      <c r="EE171" s="29"/>
+      <c r="EF171" s="29"/>
+      <c r="EG171" s="29"/>
+      <c r="EH171" s="29">
         <v>2015</v>
       </c>
-      <c r="EI171" s="30"/>
-      <c r="EJ171" s="30"/>
-      <c r="EK171" s="30"/>
-      <c r="EL171" s="30">
+      <c r="EI171" s="29"/>
+      <c r="EJ171" s="29"/>
+      <c r="EK171" s="29"/>
+      <c r="EL171" s="29">
         <v>2016</v>
       </c>
-      <c r="EM171" s="30"/>
-      <c r="EN171" s="30"/>
-      <c r="EO171" s="30"/>
-      <c r="EP171" s="30">
+      <c r="EM171" s="29"/>
+      <c r="EN171" s="29"/>
+      <c r="EO171" s="29"/>
+      <c r="EP171" s="29">
         <v>2017</v>
       </c>
-      <c r="EQ171" s="30"/>
-      <c r="ER171" s="30"/>
-      <c r="ES171" s="30"/>
-      <c r="ET171" s="30">
+      <c r="EQ171" s="29"/>
+      <c r="ER171" s="29"/>
+      <c r="ES171" s="29"/>
+      <c r="ET171" s="29">
         <v>2018</v>
       </c>
-      <c r="EU171" s="30"/>
-      <c r="EV171" s="30"/>
-      <c r="EW171" s="30"/>
-      <c r="EX171" s="30">
+      <c r="EU171" s="29"/>
+      <c r="EV171" s="29"/>
+      <c r="EW171" s="29"/>
+      <c r="EX171" s="29">
         <v>2019</v>
       </c>
-      <c r="EY171" s="30"/>
-      <c r="EZ171" s="30"/>
-      <c r="FA171" s="30"/>
-      <c r="FB171" s="30">
+      <c r="EY171" s="29"/>
+      <c r="EZ171" s="29"/>
+      <c r="FA171" s="29"/>
+      <c r="FB171" s="29">
         <v>2020</v>
       </c>
-      <c r="FC171" s="30"/>
-      <c r="FD171" s="30"/>
+      <c r="FC171" s="29"/>
+      <c r="FD171" s="29"/>
       <c r="FE171" s="4"/>
-      <c r="FF171" s="30">
+      <c r="FF171" s="29">
         <v>2021</v>
       </c>
-      <c r="FG171" s="30"/>
-      <c r="FH171" s="30"/>
-      <c r="FI171" s="30"/>
-      <c r="FJ171" s="30">
+      <c r="FG171" s="29"/>
+      <c r="FH171" s="29"/>
+      <c r="FI171" s="29"/>
+      <c r="FJ171" s="29">
         <v>2022</v>
       </c>
-      <c r="FK171" s="30"/>
-      <c r="FL171" s="30"/>
-      <c r="FM171" s="30"/>
-      <c r="FN171" s="30">
+      <c r="FK171" s="29"/>
+      <c r="FL171" s="29"/>
+      <c r="FM171" s="29"/>
+      <c r="FN171" s="29">
         <v>2023</v>
       </c>
-      <c r="FO171" s="30"/>
-      <c r="FP171" s="30"/>
+      <c r="FO171" s="29"/>
+      <c r="FP171" s="29"/>
+      <c r="FQ171" s="29"/>
     </row>
-    <row r="172" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
         <v>13</v>
       </c>
@@ -32992,11 +33431,14 @@
       <c r="FP172" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="FQ172" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="173" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:173" x14ac:dyDescent="0.2">
       <c r="FB173" s="2"/>
     </row>
-    <row r="174" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:173" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="15" t="s">
         <v>74</v>
       </c>
@@ -33510,11 +33952,14 @@
       <c r="FO174" s="27">
         <v>503274.48194832471</v>
       </c>
-      <c r="FP174" s="27">
-        <v>511098.93678850296</v>
+      <c r="FP174" s="33">
+        <v>511411.5393583845</v>
+      </c>
+      <c r="FQ174" s="33">
+        <v>703012.74031719903</v>
       </c>
     </row>
-    <row r="175" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:173" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="15" t="s">
         <v>75</v>
       </c>
@@ -34028,11 +34473,14 @@
       <c r="FO175" s="27">
         <v>1732463.9863531</v>
       </c>
-      <c r="FP175" s="27">
-        <v>1418964.3666051482</v>
+      <c r="FP175" s="33">
+        <v>1421545.8024763803</v>
+      </c>
+      <c r="FQ175" s="33">
+        <v>2038028.3176036985</v>
       </c>
     </row>
-    <row r="176" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:173" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="15" t="s">
         <v>76</v>
       </c>
@@ -34546,11 +34994,14 @@
       <c r="FO176" s="27">
         <v>3651663.5983134755</v>
       </c>
-      <c r="FP176" s="27">
-        <v>3815651.2303143018</v>
+      <c r="FP176" s="33">
+        <v>3817599.4689125549</v>
+      </c>
+      <c r="FQ176" s="33">
+        <v>4309522.7858992303</v>
       </c>
     </row>
-    <row r="177" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A177" s="16"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -34724,7 +35175,7 @@
       <c r="FO177" s="7"/>
       <c r="FP177" s="7"/>
     </row>
-    <row r="178" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>10</v>
       </c>
@@ -35238,11 +35689,14 @@
       <c r="FO178" s="27">
         <v>5887402.0666149054</v>
       </c>
-      <c r="FP178" s="27">
-        <v>5745714.5337079531</v>
+      <c r="FP178" s="33">
+        <v>5750556.8107473198</v>
+      </c>
+      <c r="FQ178" s="33">
+        <v>7050563.8438201277</v>
       </c>
     </row>
-    <row r="179" spans="1:172" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:173" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
@@ -35405,8 +35859,10 @@
       <c r="FC179" s="7">
         <v>-24370.119758612476</v>
       </c>
+      <c r="FP179" s="33"/>
+      <c r="FQ179" s="33"/>
     </row>
-    <row r="180" spans="1:172" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:173" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
@@ -35566,7 +36022,7 @@
       <c r="FB180" s="7"/>
       <c r="FC180" s="7"/>
     </row>
-    <row r="181" spans="1:172" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:173" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
@@ -35730,7 +36186,7 @@
         <v>4857262.3839106075</v>
       </c>
     </row>
-    <row r="182" spans="1:172" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:173" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
@@ -35888,7 +36344,7 @@
       <c r="EZ182" s="7"/>
       <c r="FA182" s="7"/>
     </row>
-    <row r="183" spans="1:172" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:173" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="9"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
@@ -36061,32 +36517,33 @@
       <c r="FN183" s="9"/>
       <c r="FO183" s="9"/>
       <c r="FP183" s="9"/>
+      <c r="FQ183" s="9"/>
     </row>
-    <row r="184" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:173" x14ac:dyDescent="0.2">
       <c r="E185" s="10"/>
       <c r="I185" s="10"/>
     </row>
-    <row r="186" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:173" x14ac:dyDescent="0.2">
       <c r="FB186" s="2"/>
     </row>
-    <row r="187" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:173" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -36245,7 +36702,7 @@
       <c r="EZ189" s="2"/>
       <c r="FA189" s="2"/>
     </row>
-    <row r="190" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:173" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -36404,7 +36861,7 @@
       <c r="EZ190" s="2"/>
       <c r="FA190" s="2"/>
     </row>
-    <row r="191" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:173" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>48</v>
       </c>
@@ -36565,7 +37022,7 @@
       <c r="EZ191" s="2"/>
       <c r="FA191" s="2"/>
     </row>
-    <row r="192" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:173" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="11" t="s">
         <v>82</v>
       </c>
@@ -36726,7 +37183,7 @@
       <c r="EZ192" s="2"/>
       <c r="FA192" s="2"/>
     </row>
-    <row r="193" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:173" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>12</v>
       </c>
@@ -36887,7 +37344,7 @@
       <c r="EZ193" s="2"/>
       <c r="FA193" s="2"/>
     </row>
-    <row r="194" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:173" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -37047,266 +37504,268 @@
       <c r="FA194" s="2"/>
       <c r="FP194" s="28"/>
     </row>
-    <row r="195" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:173" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
-      <c r="B195" s="30">
+      <c r="B195" s="29">
         <v>1981</v>
       </c>
-      <c r="C195" s="30"/>
-      <c r="D195" s="30"/>
-      <c r="E195" s="30"/>
-      <c r="F195" s="30">
+      <c r="C195" s="29"/>
+      <c r="D195" s="29"/>
+      <c r="E195" s="29"/>
+      <c r="F195" s="29">
         <v>1982</v>
       </c>
-      <c r="G195" s="30"/>
-      <c r="H195" s="30"/>
-      <c r="I195" s="30"/>
-      <c r="J195" s="30">
+      <c r="G195" s="29"/>
+      <c r="H195" s="29"/>
+      <c r="I195" s="29"/>
+      <c r="J195" s="29">
         <v>1983</v>
       </c>
-      <c r="K195" s="30"/>
-      <c r="L195" s="30"/>
-      <c r="M195" s="30"/>
-      <c r="N195" s="30">
+      <c r="K195" s="29"/>
+      <c r="L195" s="29"/>
+      <c r="M195" s="29"/>
+      <c r="N195" s="29">
         <v>1984</v>
       </c>
-      <c r="O195" s="30"/>
-      <c r="P195" s="30"/>
-      <c r="Q195" s="30"/>
-      <c r="R195" s="30">
+      <c r="O195" s="29"/>
+      <c r="P195" s="29"/>
+      <c r="Q195" s="29"/>
+      <c r="R195" s="29">
         <v>1985</v>
       </c>
-      <c r="S195" s="30"/>
-      <c r="T195" s="30"/>
-      <c r="U195" s="30"/>
-      <c r="V195" s="30">
+      <c r="S195" s="29"/>
+      <c r="T195" s="29"/>
+      <c r="U195" s="29"/>
+      <c r="V195" s="29">
         <v>1986</v>
       </c>
-      <c r="W195" s="30"/>
-      <c r="X195" s="30"/>
-      <c r="Y195" s="30"/>
-      <c r="Z195" s="30">
+      <c r="W195" s="29"/>
+      <c r="X195" s="29"/>
+      <c r="Y195" s="29"/>
+      <c r="Z195" s="29">
         <v>1987</v>
       </c>
-      <c r="AA195" s="30"/>
-      <c r="AB195" s="30"/>
-      <c r="AC195" s="30"/>
-      <c r="AD195" s="30">
+      <c r="AA195" s="29"/>
+      <c r="AB195" s="29"/>
+      <c r="AC195" s="29"/>
+      <c r="AD195" s="29">
         <v>1988</v>
       </c>
-      <c r="AE195" s="30"/>
-      <c r="AF195" s="30"/>
-      <c r="AG195" s="30"/>
-      <c r="AH195" s="30">
+      <c r="AE195" s="29"/>
+      <c r="AF195" s="29"/>
+      <c r="AG195" s="29"/>
+      <c r="AH195" s="29">
         <v>1989</v>
       </c>
-      <c r="AI195" s="30"/>
-      <c r="AJ195" s="30"/>
-      <c r="AK195" s="30"/>
-      <c r="AL195" s="30">
+      <c r="AI195" s="29"/>
+      <c r="AJ195" s="29"/>
+      <c r="AK195" s="29"/>
+      <c r="AL195" s="29">
         <v>1990</v>
       </c>
-      <c r="AM195" s="30"/>
-      <c r="AN195" s="30"/>
-      <c r="AO195" s="30"/>
-      <c r="AP195" s="30">
+      <c r="AM195" s="29"/>
+      <c r="AN195" s="29"/>
+      <c r="AO195" s="29"/>
+      <c r="AP195" s="29">
         <v>1991</v>
       </c>
-      <c r="AQ195" s="30"/>
-      <c r="AR195" s="30"/>
-      <c r="AS195" s="30"/>
-      <c r="AT195" s="30">
+      <c r="AQ195" s="29"/>
+      <c r="AR195" s="29"/>
+      <c r="AS195" s="29"/>
+      <c r="AT195" s="29">
         <v>1992</v>
       </c>
-      <c r="AU195" s="30"/>
-      <c r="AV195" s="30"/>
-      <c r="AW195" s="30"/>
-      <c r="AX195" s="30">
+      <c r="AU195" s="29"/>
+      <c r="AV195" s="29"/>
+      <c r="AW195" s="29"/>
+      <c r="AX195" s="29">
         <v>1993</v>
       </c>
-      <c r="AY195" s="30"/>
-      <c r="AZ195" s="30"/>
-      <c r="BA195" s="30"/>
-      <c r="BB195" s="30">
+      <c r="AY195" s="29"/>
+      <c r="AZ195" s="29"/>
+      <c r="BA195" s="29"/>
+      <c r="BB195" s="29">
         <v>1994</v>
       </c>
-      <c r="BC195" s="30"/>
-      <c r="BD195" s="30"/>
-      <c r="BE195" s="30"/>
-      <c r="BF195" s="30">
+      <c r="BC195" s="29"/>
+      <c r="BD195" s="29"/>
+      <c r="BE195" s="29"/>
+      <c r="BF195" s="29">
         <v>1995</v>
       </c>
-      <c r="BG195" s="30"/>
-      <c r="BH195" s="30"/>
-      <c r="BI195" s="30"/>
-      <c r="BJ195" s="30">
+      <c r="BG195" s="29"/>
+      <c r="BH195" s="29"/>
+      <c r="BI195" s="29"/>
+      <c r="BJ195" s="29">
         <v>1996</v>
       </c>
-      <c r="BK195" s="30"/>
-      <c r="BL195" s="30"/>
-      <c r="BM195" s="30"/>
-      <c r="BN195" s="30">
+      <c r="BK195" s="29"/>
+      <c r="BL195" s="29"/>
+      <c r="BM195" s="29"/>
+      <c r="BN195" s="29">
         <v>1997</v>
       </c>
-      <c r="BO195" s="30"/>
-      <c r="BP195" s="30"/>
-      <c r="BQ195" s="30"/>
-      <c r="BR195" s="30">
+      <c r="BO195" s="29"/>
+      <c r="BP195" s="29"/>
+      <c r="BQ195" s="29"/>
+      <c r="BR195" s="29">
         <v>1998</v>
       </c>
-      <c r="BS195" s="30"/>
-      <c r="BT195" s="30"/>
-      <c r="BU195" s="30"/>
-      <c r="BV195" s="30">
+      <c r="BS195" s="29"/>
+      <c r="BT195" s="29"/>
+      <c r="BU195" s="29"/>
+      <c r="BV195" s="29">
         <v>1999</v>
       </c>
-      <c r="BW195" s="30"/>
-      <c r="BX195" s="30"/>
-      <c r="BY195" s="30"/>
-      <c r="BZ195" s="30">
+      <c r="BW195" s="29"/>
+      <c r="BX195" s="29"/>
+      <c r="BY195" s="29"/>
+      <c r="BZ195" s="29">
         <v>2000</v>
       </c>
-      <c r="CA195" s="30"/>
-      <c r="CB195" s="30"/>
-      <c r="CC195" s="30"/>
-      <c r="CD195" s="30">
+      <c r="CA195" s="29"/>
+      <c r="CB195" s="29"/>
+      <c r="CC195" s="29"/>
+      <c r="CD195" s="29">
         <v>2001</v>
       </c>
-      <c r="CE195" s="30"/>
-      <c r="CF195" s="30"/>
-      <c r="CG195" s="30"/>
-      <c r="CH195" s="30">
+      <c r="CE195" s="29"/>
+      <c r="CF195" s="29"/>
+      <c r="CG195" s="29"/>
+      <c r="CH195" s="29">
         <v>2002</v>
       </c>
-      <c r="CI195" s="30"/>
-      <c r="CJ195" s="30"/>
-      <c r="CK195" s="30"/>
-      <c r="CL195" s="30">
+      <c r="CI195" s="29"/>
+      <c r="CJ195" s="29"/>
+      <c r="CK195" s="29"/>
+      <c r="CL195" s="29">
         <v>2003</v>
       </c>
-      <c r="CM195" s="30"/>
-      <c r="CN195" s="30"/>
-      <c r="CO195" s="30"/>
-      <c r="CP195" s="30">
+      <c r="CM195" s="29"/>
+      <c r="CN195" s="29"/>
+      <c r="CO195" s="29"/>
+      <c r="CP195" s="29">
         <v>2004</v>
       </c>
-      <c r="CQ195" s="30"/>
-      <c r="CR195" s="30"/>
-      <c r="CS195" s="30"/>
-      <c r="CT195" s="30">
+      <c r="CQ195" s="29"/>
+      <c r="CR195" s="29"/>
+      <c r="CS195" s="29"/>
+      <c r="CT195" s="29">
         <v>2005</v>
       </c>
-      <c r="CU195" s="30"/>
-      <c r="CV195" s="30"/>
-      <c r="CW195" s="30"/>
-      <c r="CX195" s="30">
+      <c r="CU195" s="29"/>
+      <c r="CV195" s="29"/>
+      <c r="CW195" s="29"/>
+      <c r="CX195" s="29">
         <v>2006</v>
       </c>
-      <c r="CY195" s="30"/>
-      <c r="CZ195" s="30"/>
-      <c r="DA195" s="30"/>
-      <c r="DB195" s="30">
+      <c r="CY195" s="29"/>
+      <c r="CZ195" s="29"/>
+      <c r="DA195" s="29"/>
+      <c r="DB195" s="29">
         <v>2007</v>
       </c>
-      <c r="DC195" s="30"/>
-      <c r="DD195" s="30"/>
-      <c r="DE195" s="30"/>
-      <c r="DF195" s="30">
+      <c r="DC195" s="29"/>
+      <c r="DD195" s="29"/>
+      <c r="DE195" s="29"/>
+      <c r="DF195" s="29">
         <v>2008</v>
       </c>
-      <c r="DG195" s="30"/>
-      <c r="DH195" s="30"/>
-      <c r="DI195" s="30"/>
-      <c r="DJ195" s="30">
+      <c r="DG195" s="29"/>
+      <c r="DH195" s="29"/>
+      <c r="DI195" s="29"/>
+      <c r="DJ195" s="29">
         <v>2009</v>
       </c>
-      <c r="DK195" s="30"/>
-      <c r="DL195" s="30"/>
-      <c r="DM195" s="30"/>
-      <c r="DN195" s="30">
+      <c r="DK195" s="29"/>
+      <c r="DL195" s="29"/>
+      <c r="DM195" s="29"/>
+      <c r="DN195" s="29">
         <v>2010</v>
       </c>
-      <c r="DO195" s="30"/>
-      <c r="DP195" s="30"/>
-      <c r="DQ195" s="30"/>
-      <c r="DR195" s="30">
+      <c r="DO195" s="29"/>
+      <c r="DP195" s="29"/>
+      <c r="DQ195" s="29"/>
+      <c r="DR195" s="29">
         <v>2011</v>
       </c>
-      <c r="DS195" s="30"/>
-      <c r="DT195" s="30"/>
-      <c r="DU195" s="30"/>
-      <c r="DV195" s="30">
+      <c r="DS195" s="29"/>
+      <c r="DT195" s="29"/>
+      <c r="DU195" s="29"/>
+      <c r="DV195" s="29">
         <v>2012</v>
       </c>
-      <c r="DW195" s="30"/>
-      <c r="DX195" s="30"/>
-      <c r="DY195" s="30"/>
-      <c r="DZ195" s="30">
+      <c r="DW195" s="29"/>
+      <c r="DX195" s="29"/>
+      <c r="DY195" s="29"/>
+      <c r="DZ195" s="29">
         <v>2013</v>
       </c>
-      <c r="EA195" s="30"/>
-      <c r="EB195" s="30"/>
-      <c r="EC195" s="30"/>
-      <c r="ED195" s="30">
+      <c r="EA195" s="29"/>
+      <c r="EB195" s="29"/>
+      <c r="EC195" s="29"/>
+      <c r="ED195" s="29">
         <v>2014</v>
       </c>
-      <c r="EE195" s="30"/>
-      <c r="EF195" s="30"/>
-      <c r="EG195" s="30"/>
-      <c r="EH195" s="30">
+      <c r="EE195" s="29"/>
+      <c r="EF195" s="29"/>
+      <c r="EG195" s="29"/>
+      <c r="EH195" s="29">
         <v>2015</v>
       </c>
-      <c r="EI195" s="30"/>
-      <c r="EJ195" s="30"/>
-      <c r="EK195" s="30"/>
-      <c r="EL195" s="30">
+      <c r="EI195" s="29"/>
+      <c r="EJ195" s="29"/>
+      <c r="EK195" s="29"/>
+      <c r="EL195" s="29">
         <v>2016</v>
       </c>
-      <c r="EM195" s="30"/>
-      <c r="EN195" s="30"/>
-      <c r="EO195" s="30"/>
-      <c r="EP195" s="30">
+      <c r="EM195" s="29"/>
+      <c r="EN195" s="29"/>
+      <c r="EO195" s="29"/>
+      <c r="EP195" s="29">
         <v>2017</v>
       </c>
-      <c r="EQ195" s="30"/>
-      <c r="ER195" s="30"/>
-      <c r="ES195" s="30"/>
-      <c r="ET195" s="30">
+      <c r="EQ195" s="29"/>
+      <c r="ER195" s="29"/>
+      <c r="ES195" s="29"/>
+      <c r="ET195" s="29">
         <v>2018</v>
       </c>
-      <c r="EU195" s="30"/>
-      <c r="EV195" s="30"/>
-      <c r="EW195" s="30"/>
-      <c r="EX195" s="30">
+      <c r="EU195" s="29"/>
+      <c r="EV195" s="29"/>
+      <c r="EW195" s="29"/>
+      <c r="EX195" s="29">
         <v>2019</v>
       </c>
-      <c r="EY195" s="30"/>
-      <c r="EZ195" s="30"/>
-      <c r="FA195" s="30"/>
-      <c r="FB195" s="30">
+      <c r="EY195" s="29"/>
+      <c r="EZ195" s="29"/>
+      <c r="FA195" s="29"/>
+      <c r="FB195" s="29">
         <v>2020</v>
       </c>
-      <c r="FC195" s="30"/>
-      <c r="FD195" s="30"/>
+      <c r="FC195" s="29"/>
+      <c r="FD195" s="29"/>
       <c r="FE195" s="4"/>
-      <c r="FF195" s="30">
+      <c r="FF195" s="29">
         <v>2021</v>
       </c>
-      <c r="FG195" s="30"/>
-      <c r="FH195" s="30"/>
-      <c r="FI195" s="30"/>
-      <c r="FJ195" s="30">
+      <c r="FG195" s="29"/>
+      <c r="FH195" s="29"/>
+      <c r="FI195" s="29"/>
+      <c r="FJ195" s="29">
         <v>2022</v>
       </c>
-      <c r="FK195" s="30"/>
-      <c r="FL195" s="30"/>
-      <c r="FM195" s="30"/>
-      <c r="FN195" s="30">
+      <c r="FK195" s="29"/>
+      <c r="FL195" s="29"/>
+      <c r="FM195" s="29"/>
+      <c r="FN195" s="29">
         <v>2023</v>
       </c>
-      <c r="FO195" s="30"/>
+      <c r="FO195" s="29"/>
+      <c r="FP195" s="29"/>
+      <c r="FQ195" s="29"/>
     </row>
-    <row r="196" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:173" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
         <v>13</v>
       </c>
@@ -37823,11 +38282,15 @@
       <c r="FP196" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="FQ196" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="197" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:173" x14ac:dyDescent="0.2">
       <c r="FB197" s="2"/>
+      <c r="FQ197" s="4"/>
     </row>
-    <row r="198" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:173" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="15" t="s">
         <v>74</v>
       </c>
@@ -38341,11 +38804,14 @@
       <c r="FO198" s="27">
         <v>417669.76416018978</v>
       </c>
-      <c r="FP198" s="27">
-        <v>410292.62907667737</v>
+      <c r="FP198" s="33">
+        <v>410328.4774171703</v>
+      </c>
+      <c r="FQ198" s="33">
+        <v>532424.03088026482</v>
       </c>
     </row>
-    <row r="199" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:173" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="15" t="s">
         <v>75</v>
       </c>
@@ -38859,11 +39325,14 @@
       <c r="FO199" s="27">
         <v>1554913.8271811504</v>
       </c>
-      <c r="FP199" s="27">
-        <v>1351011.0906849075</v>
+      <c r="FP199" s="33">
+        <v>1352303.3088058264</v>
+      </c>
+      <c r="FQ199" s="33">
+        <v>1754040.4946135196</v>
       </c>
     </row>
-    <row r="200" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:173" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="15" t="s">
         <v>76</v>
       </c>
@@ -39377,11 +39846,14 @@
       <c r="FO200" s="27">
         <v>3235139.9447425022</v>
       </c>
-      <c r="FP200" s="27">
-        <v>3289283.3338253545</v>
+      <c r="FP200" s="33">
+        <v>3290427.729011476</v>
+      </c>
+      <c r="FQ200" s="33">
+        <v>3599366.6815651217</v>
       </c>
     </row>
-    <row r="201" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:173" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="16"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -39555,7 +40027,7 @@
       <c r="FO201" s="23"/>
       <c r="FP201" s="23"/>
     </row>
-    <row r="202" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:173" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>10</v>
       </c>
@@ -40069,11 +40541,14 @@
       <c r="FO202" s="27">
         <v>5207723.5360838426</v>
       </c>
-      <c r="FP202" s="27">
-        <v>5050587.0535869393</v>
+      <c r="FP202" s="33">
+        <v>5053059.5152344722</v>
+      </c>
+      <c r="FQ202" s="33">
+        <v>5885831.2070589066</v>
       </c>
     </row>
-    <row r="203" spans="1:172" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:173" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
@@ -40241,7 +40716,7 @@
       <c r="FL203" s="2"/>
       <c r="FM203" s="2"/>
     </row>
-    <row r="204" spans="1:172" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:173" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -40405,7 +40880,7 @@
       <c r="FL204" s="2"/>
       <c r="FM204" s="2"/>
     </row>
-    <row r="205" spans="1:172" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:173" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
@@ -40573,7 +41048,7 @@
       <c r="FL205" s="2"/>
       <c r="FM205" s="2"/>
     </row>
-    <row r="206" spans="1:172" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:173" s="3" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
@@ -40736,7 +41211,7 @@
       <c r="FL206" s="2"/>
       <c r="FM206" s="2"/>
     </row>
-    <row r="207" spans="1:172" s="3" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:173" s="3" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="9"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
@@ -40910,18 +41385,19 @@
       <c r="FO207" s="9"/>
       <c r="FP207" s="9"/>
     </row>
-    <row r="208" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="FQ208" s="4"/>
     </row>
-    <row r="210" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:169" x14ac:dyDescent="0.2">
       <c r="FB210" s="17"/>
       <c r="FC210" s="17"/>
       <c r="FD210" s="17"/>
       <c r="FE210" s="17"/>
     </row>
-    <row r="211" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>8</v>
       </c>
@@ -40930,7 +41406,7 @@
       <c r="FD211" s="17"/>
       <c r="FE211" s="17"/>
     </row>
-    <row r="212" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>7</v>
       </c>
@@ -40939,19 +41415,19 @@
       <c r="FD212" s="17"/>
       <c r="FE212" s="17"/>
     </row>
-    <row r="213" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="FB213" s="17"/>
       <c r="FC213" s="17"/>
       <c r="FD213" s="17"/>
       <c r="FE213" s="17"/>
     </row>
-    <row r="214" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
     </row>
-    <row r="215" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>49</v>
       </c>
@@ -40959,15 +41435,15 @@
       <c r="FD215" s="3"/>
       <c r="FE215" s="3"/>
     </row>
-    <row r="216" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A216" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="FC216" s="3"/>
       <c r="FD216" s="3"/>
       <c r="FE216" s="3"/>
     </row>
-    <row r="217" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>19</v>
       </c>
@@ -40975,7 +41451,7 @@
       <c r="FD217" s="3"/>
       <c r="FE217" s="3"/>
     </row>
-    <row r="218" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="FC218" s="3"/>
       <c r="FD218" s="3"/>
@@ -40984,261 +41460,262 @@
       <c r="FG218" s="9"/>
       <c r="FL218" s="9"/>
     </row>
-    <row r="219" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
-      <c r="B219" s="30" t="s">
+      <c r="B219" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C219" s="30"/>
-      <c r="D219" s="30"/>
-      <c r="E219" s="30"/>
-      <c r="F219" s="30" t="s">
+      <c r="C219" s="29"/>
+      <c r="D219" s="29"/>
+      <c r="E219" s="29"/>
+      <c r="F219" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="G219" s="30"/>
-      <c r="H219" s="30"/>
-      <c r="I219" s="30"/>
-      <c r="J219" s="30" t="s">
+      <c r="G219" s="29"/>
+      <c r="H219" s="29"/>
+      <c r="I219" s="29"/>
+      <c r="J219" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="K219" s="30"/>
-      <c r="L219" s="30"/>
-      <c r="M219" s="30"/>
-      <c r="N219" s="30" t="s">
+      <c r="K219" s="29"/>
+      <c r="L219" s="29"/>
+      <c r="M219" s="29"/>
+      <c r="N219" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="O219" s="30"/>
-      <c r="P219" s="30"/>
-      <c r="Q219" s="30"/>
-      <c r="R219" s="30" t="s">
+      <c r="O219" s="29"/>
+      <c r="P219" s="29"/>
+      <c r="Q219" s="29"/>
+      <c r="R219" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="S219" s="30"/>
-      <c r="T219" s="30"/>
-      <c r="U219" s="30"/>
-      <c r="V219" s="30" t="s">
+      <c r="S219" s="29"/>
+      <c r="T219" s="29"/>
+      <c r="U219" s="29"/>
+      <c r="V219" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="W219" s="30"/>
-      <c r="X219" s="30"/>
-      <c r="Y219" s="30"/>
-      <c r="Z219" s="30" t="s">
+      <c r="W219" s="29"/>
+      <c r="X219" s="29"/>
+      <c r="Y219" s="29"/>
+      <c r="Z219" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AA219" s="30"/>
-      <c r="AB219" s="30"/>
-      <c r="AC219" s="30"/>
-      <c r="AD219" s="30" t="s">
+      <c r="AA219" s="29"/>
+      <c r="AB219" s="29"/>
+      <c r="AC219" s="29"/>
+      <c r="AD219" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AE219" s="30"/>
-      <c r="AF219" s="30"/>
-      <c r="AG219" s="30"/>
-      <c r="AH219" s="30" t="s">
+      <c r="AE219" s="29"/>
+      <c r="AF219" s="29"/>
+      <c r="AG219" s="29"/>
+      <c r="AH219" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AI219" s="30"/>
-      <c r="AJ219" s="30"/>
-      <c r="AK219" s="30"/>
-      <c r="AL219" s="30" t="s">
+      <c r="AI219" s="29"/>
+      <c r="AJ219" s="29"/>
+      <c r="AK219" s="29"/>
+      <c r="AL219" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="AM219" s="30"/>
-      <c r="AN219" s="30"/>
-      <c r="AO219" s="30"/>
-      <c r="AP219" s="30" t="s">
+      <c r="AM219" s="29"/>
+      <c r="AN219" s="29"/>
+      <c r="AO219" s="29"/>
+      <c r="AP219" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AQ219" s="30"/>
-      <c r="AR219" s="30"/>
-      <c r="AS219" s="30"/>
-      <c r="AT219" s="30" t="s">
+      <c r="AQ219" s="29"/>
+      <c r="AR219" s="29"/>
+      <c r="AS219" s="29"/>
+      <c r="AT219" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AU219" s="30"/>
-      <c r="AV219" s="30"/>
-      <c r="AW219" s="30"/>
-      <c r="AX219" s="30" t="s">
+      <c r="AU219" s="29"/>
+      <c r="AV219" s="29"/>
+      <c r="AW219" s="29"/>
+      <c r="AX219" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="AY219" s="30"/>
-      <c r="AZ219" s="30"/>
-      <c r="BA219" s="30"/>
-      <c r="BB219" s="30" t="s">
+      <c r="AY219" s="29"/>
+      <c r="AZ219" s="29"/>
+      <c r="BA219" s="29"/>
+      <c r="BB219" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="BC219" s="30"/>
-      <c r="BD219" s="30"/>
-      <c r="BE219" s="30"/>
-      <c r="BF219" s="30" t="s">
+      <c r="BC219" s="29"/>
+      <c r="BD219" s="29"/>
+      <c r="BE219" s="29"/>
+      <c r="BF219" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="BG219" s="30"/>
-      <c r="BH219" s="30"/>
-      <c r="BI219" s="30"/>
-      <c r="BJ219" s="30" t="s">
+      <c r="BG219" s="29"/>
+      <c r="BH219" s="29"/>
+      <c r="BI219" s="29"/>
+      <c r="BJ219" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="BK219" s="30"/>
-      <c r="BL219" s="30"/>
-      <c r="BM219" s="30"/>
-      <c r="BN219" s="30" t="s">
+      <c r="BK219" s="29"/>
+      <c r="BL219" s="29"/>
+      <c r="BM219" s="29"/>
+      <c r="BN219" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="BO219" s="30"/>
-      <c r="BP219" s="30"/>
-      <c r="BQ219" s="30"/>
-      <c r="BR219" s="30" t="s">
+      <c r="BO219" s="29"/>
+      <c r="BP219" s="29"/>
+      <c r="BQ219" s="29"/>
+      <c r="BR219" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="BS219" s="30"/>
-      <c r="BT219" s="30"/>
-      <c r="BU219" s="30"/>
-      <c r="BV219" s="30" t="s">
+      <c r="BS219" s="29"/>
+      <c r="BT219" s="29"/>
+      <c r="BU219" s="29"/>
+      <c r="BV219" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="BW219" s="30"/>
-      <c r="BX219" s="30"/>
-      <c r="BY219" s="30"/>
-      <c r="BZ219" s="30" t="s">
+      <c r="BW219" s="29"/>
+      <c r="BX219" s="29"/>
+      <c r="BY219" s="29"/>
+      <c r="BZ219" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="CA219" s="30"/>
-      <c r="CB219" s="30"/>
-      <c r="CC219" s="30"/>
-      <c r="CD219" s="30" t="s">
+      <c r="CA219" s="29"/>
+      <c r="CB219" s="29"/>
+      <c r="CC219" s="29"/>
+      <c r="CD219" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="CE219" s="30"/>
-      <c r="CF219" s="30"/>
-      <c r="CG219" s="30"/>
-      <c r="CH219" s="30" t="s">
+      <c r="CE219" s="29"/>
+      <c r="CF219" s="29"/>
+      <c r="CG219" s="29"/>
+      <c r="CH219" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="CI219" s="30"/>
-      <c r="CJ219" s="30"/>
-      <c r="CK219" s="30"/>
-      <c r="CL219" s="30" t="s">
+      <c r="CI219" s="29"/>
+      <c r="CJ219" s="29"/>
+      <c r="CK219" s="29"/>
+      <c r="CL219" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="CM219" s="30"/>
-      <c r="CN219" s="30"/>
-      <c r="CO219" s="30"/>
-      <c r="CP219" s="30" t="s">
+      <c r="CM219" s="29"/>
+      <c r="CN219" s="29"/>
+      <c r="CO219" s="29"/>
+      <c r="CP219" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="CQ219" s="30"/>
-      <c r="CR219" s="30"/>
-      <c r="CS219" s="30"/>
-      <c r="CT219" s="30" t="s">
+      <c r="CQ219" s="29"/>
+      <c r="CR219" s="29"/>
+      <c r="CS219" s="29"/>
+      <c r="CT219" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="CU219" s="30"/>
-      <c r="CV219" s="30"/>
-      <c r="CW219" s="30"/>
-      <c r="CX219" s="30" t="s">
+      <c r="CU219" s="29"/>
+      <c r="CV219" s="29"/>
+      <c r="CW219" s="29"/>
+      <c r="CX219" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="CY219" s="30"/>
-      <c r="CZ219" s="30"/>
-      <c r="DA219" s="30"/>
-      <c r="DB219" s="30" t="s">
+      <c r="CY219" s="29"/>
+      <c r="CZ219" s="29"/>
+      <c r="DA219" s="29"/>
+      <c r="DB219" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="DC219" s="30"/>
-      <c r="DD219" s="30"/>
-      <c r="DE219" s="30"/>
-      <c r="DF219" s="30" t="s">
+      <c r="DC219" s="29"/>
+      <c r="DD219" s="29"/>
+      <c r="DE219" s="29"/>
+      <c r="DF219" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="DG219" s="30"/>
-      <c r="DH219" s="30"/>
-      <c r="DI219" s="30"/>
-      <c r="DJ219" s="30" t="s">
+      <c r="DG219" s="29"/>
+      <c r="DH219" s="29"/>
+      <c r="DI219" s="29"/>
+      <c r="DJ219" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="DK219" s="30"/>
-      <c r="DL219" s="30"/>
-      <c r="DM219" s="30"/>
-      <c r="DN219" s="30" t="s">
+      <c r="DK219" s="29"/>
+      <c r="DL219" s="29"/>
+      <c r="DM219" s="29"/>
+      <c r="DN219" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="DO219" s="30"/>
-      <c r="DP219" s="30"/>
-      <c r="DQ219" s="30"/>
-      <c r="DR219" s="30" t="s">
+      <c r="DO219" s="29"/>
+      <c r="DP219" s="29"/>
+      <c r="DQ219" s="29"/>
+      <c r="DR219" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="DS219" s="30"/>
-      <c r="DT219" s="30"/>
-      <c r="DU219" s="30"/>
-      <c r="DV219" s="30" t="s">
+      <c r="DS219" s="29"/>
+      <c r="DT219" s="29"/>
+      <c r="DU219" s="29"/>
+      <c r="DV219" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="DW219" s="30"/>
-      <c r="DX219" s="30"/>
-      <c r="DY219" s="30"/>
-      <c r="DZ219" s="30" t="s">
+      <c r="DW219" s="29"/>
+      <c r="DX219" s="29"/>
+      <c r="DY219" s="29"/>
+      <c r="DZ219" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="EA219" s="30"/>
-      <c r="EB219" s="30"/>
-      <c r="EC219" s="30"/>
-      <c r="ED219" s="30" t="s">
+      <c r="EA219" s="29"/>
+      <c r="EB219" s="29"/>
+      <c r="EC219" s="29"/>
+      <c r="ED219" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="EE219" s="30"/>
-      <c r="EF219" s="30"/>
-      <c r="EG219" s="30"/>
-      <c r="EH219" s="30" t="s">
+      <c r="EE219" s="29"/>
+      <c r="EF219" s="29"/>
+      <c r="EG219" s="29"/>
+      <c r="EH219" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="EI219" s="30"/>
-      <c r="EJ219" s="30"/>
-      <c r="EK219" s="30"/>
-      <c r="EL219" s="30" t="s">
+      <c r="EI219" s="29"/>
+      <c r="EJ219" s="29"/>
+      <c r="EK219" s="29"/>
+      <c r="EL219" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="EM219" s="30"/>
-      <c r="EN219" s="30"/>
-      <c r="EO219" s="30"/>
-      <c r="EP219" s="30" t="s">
+      <c r="EM219" s="29"/>
+      <c r="EN219" s="29"/>
+      <c r="EO219" s="29"/>
+      <c r="EP219" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="EQ219" s="30"/>
-      <c r="ER219" s="30"/>
-      <c r="ES219" s="30"/>
-      <c r="ET219" s="30" t="s">
+      <c r="EQ219" s="29"/>
+      <c r="ER219" s="29"/>
+      <c r="ES219" s="29"/>
+      <c r="ET219" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="EU219" s="30"/>
-      <c r="EV219" s="30"/>
-      <c r="EW219" s="30"/>
-      <c r="EX219" s="30" t="s">
+      <c r="EU219" s="29"/>
+      <c r="EV219" s="29"/>
+      <c r="EW219" s="29"/>
+      <c r="EX219" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="EY219" s="30"/>
-      <c r="EZ219" s="30"/>
+      <c r="EY219" s="29"/>
+      <c r="EZ219" s="29"/>
       <c r="FA219" s="4"/>
-      <c r="FB219" s="30" t="s">
+      <c r="FB219" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="FC219" s="30"/>
-      <c r="FD219" s="30"/>
-      <c r="FE219" s="30"/>
-      <c r="FF219" s="30" t="s">
+      <c r="FC219" s="29"/>
+      <c r="FD219" s="29"/>
+      <c r="FE219" s="29"/>
+      <c r="FF219" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="FG219" s="30"/>
-      <c r="FH219" s="30"/>
-      <c r="FI219" s="30"/>
-      <c r="FJ219" s="30" t="s">
+      <c r="FG219" s="29"/>
+      <c r="FH219" s="29"/>
+      <c r="FI219" s="29"/>
+      <c r="FJ219" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="FK219" s="30"/>
-      <c r="FL219" s="30"/>
+      <c r="FK219" s="29"/>
+      <c r="FL219" s="29"/>
+      <c r="FM219" s="29"/>
     </row>
-    <row r="220" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
         <v>13</v>
       </c>
@@ -41743,15 +42220,19 @@
       <c r="FL220" s="26" t="s">
         <v>17</v>
       </c>
+      <c r="FM220" s="26" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="221" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:169" x14ac:dyDescent="0.2">
       <c r="FB221" s="2"/>
       <c r="FF221" s="24"/>
       <c r="FJ221" s="24"/>
       <c r="FK221" s="24"/>
       <c r="FL221" s="4"/>
+      <c r="FM221" s="4"/>
     </row>
-    <row r="222" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A222" s="15" t="s">
         <v>74</v>
       </c>
@@ -42253,11 +42734,14 @@
       <c r="FK222" s="13">
         <v>4.7526460650888112</v>
       </c>
-      <c r="FL222" s="13">
-        <v>5.4528657271190326</v>
+      <c r="FL222" s="34">
+        <v>5.517363683297134</v>
+      </c>
+      <c r="FM222" s="34">
+        <v>10.170370160858269</v>
       </c>
     </row>
-    <row r="223" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A223" s="15" t="s">
         <v>75</v>
       </c>
@@ -42759,11 +43243,14 @@
       <c r="FK223" s="13">
         <v>4.9170956111242106</v>
       </c>
-      <c r="FL223" s="13">
-        <v>6.0097275287550644</v>
+      <c r="FL223" s="34">
+        <v>6.2025846009851335</v>
+      </c>
+      <c r="FM223" s="34">
+        <v>3.7213891781709947</v>
       </c>
     </row>
-    <row r="224" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A224" s="15" t="s">
         <v>76</v>
       </c>
@@ -43265,11 +43752,14 @@
       <c r="FK224" s="13">
         <v>11.843284500936548</v>
       </c>
-      <c r="FL224" s="13">
-        <v>11.392421683387326</v>
+      <c r="FL224" s="34">
+        <v>11.44929769284866</v>
+      </c>
+      <c r="FM224" s="34">
+        <v>11.977953684891006</v>
       </c>
     </row>
-    <row r="225" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A225" s="16"/>
       <c r="B225" s="13"/>
       <c r="C225" s="13"/>
@@ -43438,7 +43928,7 @@
       <c r="FJ225" s="25"/>
       <c r="FK225" s="25"/>
     </row>
-    <row r="226" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>10</v>
       </c>
@@ -43940,11 +44430,14 @@
       <c r="FK226" s="13">
         <v>9.0927783558765469</v>
       </c>
-      <c r="FL226" s="13">
-        <v>9.4712287880847725</v>
+      <c r="FL226" s="34">
+        <v>9.5634871163609034</v>
+      </c>
+      <c r="FM226" s="34">
+        <v>9.284526883319927</v>
       </c>
     </row>
-    <row r="227" spans="1:168" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
       <c r="B227" s="13"/>
       <c r="C227" s="13"/>
       <c r="D227" s="13"/>
@@ -44111,7 +44604,7 @@
       <c r="FJ227" s="25"/>
       <c r="FK227" s="25"/>
     </row>
-    <row r="228" spans="1:168" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
       <c r="B228" s="13"/>
       <c r="C228" s="13"/>
       <c r="D228" s="13"/>
@@ -44278,7 +44771,7 @@
       <c r="FJ228" s="25"/>
       <c r="FK228" s="25"/>
     </row>
-    <row r="229" spans="1:168" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
       <c r="B229" s="13"/>
       <c r="C229" s="13"/>
       <c r="D229" s="13"/>
@@ -44447,7 +44940,7 @@
       </c>
       <c r="FK229" s="25"/>
     </row>
-    <row r="230" spans="1:168" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
       <c r="B230" s="13"/>
       <c r="C230" s="13"/>
       <c r="D230" s="13"/>
@@ -44608,7 +45101,7 @@
       </c>
       <c r="FB230" s="2"/>
     </row>
-    <row r="231" spans="1:168" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:169" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="9"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
@@ -44777,321 +45270,323 @@
       <c r="FJ231" s="9"/>
       <c r="FK231" s="9"/>
     </row>
-    <row r="232" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>0</v>
       </c>
       <c r="FB232" s="2"/>
       <c r="FL232" s="4"/>
+      <c r="FM232" s="4"/>
     </row>
-    <row r="233" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:169" x14ac:dyDescent="0.2">
       <c r="FB233" s="2"/>
     </row>
-    <row r="234" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:169" x14ac:dyDescent="0.2">
       <c r="FB234" s="2"/>
     </row>
-    <row r="235" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>8</v>
       </c>
       <c r="FB235" s="2"/>
     </row>
-    <row r="236" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>7</v>
       </c>
       <c r="FB236" s="2"/>
     </row>
-    <row r="237" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="FB237" s="2"/>
     </row>
-    <row r="238" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="FB238" s="2"/>
     </row>
-    <row r="239" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>50</v>
       </c>
       <c r="FB239" s="2"/>
     </row>
-    <row r="240" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A240" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="FB240" s="2"/>
     </row>
-    <row r="241" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>20</v>
       </c>
       <c r="FB241" s="2"/>
     </row>
-    <row r="242" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="FB242" s="2"/>
       <c r="FF242" s="9"/>
       <c r="FG242" s="9"/>
       <c r="FL242" s="9"/>
     </row>
-    <row r="243" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
-      <c r="B243" s="30" t="s">
+      <c r="B243" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C243" s="30"/>
-      <c r="D243" s="30"/>
-      <c r="E243" s="30"/>
-      <c r="F243" s="30" t="s">
+      <c r="C243" s="29"/>
+      <c r="D243" s="29"/>
+      <c r="E243" s="29"/>
+      <c r="F243" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="G243" s="30"/>
-      <c r="H243" s="30"/>
-      <c r="I243" s="30"/>
-      <c r="J243" s="30" t="s">
+      <c r="G243" s="29"/>
+      <c r="H243" s="29"/>
+      <c r="I243" s="29"/>
+      <c r="J243" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="K243" s="30"/>
-      <c r="L243" s="30"/>
-      <c r="M243" s="30"/>
-      <c r="N243" s="30" t="s">
+      <c r="K243" s="29"/>
+      <c r="L243" s="29"/>
+      <c r="M243" s="29"/>
+      <c r="N243" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="O243" s="30"/>
-      <c r="P243" s="30"/>
-      <c r="Q243" s="30"/>
-      <c r="R243" s="30" t="s">
+      <c r="O243" s="29"/>
+      <c r="P243" s="29"/>
+      <c r="Q243" s="29"/>
+      <c r="R243" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="S243" s="30"/>
-      <c r="T243" s="30"/>
-      <c r="U243" s="30"/>
-      <c r="V243" s="30" t="s">
+      <c r="S243" s="29"/>
+      <c r="T243" s="29"/>
+      <c r="U243" s="29"/>
+      <c r="V243" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="W243" s="30"/>
-      <c r="X243" s="30"/>
-      <c r="Y243" s="30"/>
-      <c r="Z243" s="30" t="s">
+      <c r="W243" s="29"/>
+      <c r="X243" s="29"/>
+      <c r="Y243" s="29"/>
+      <c r="Z243" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AA243" s="30"/>
-      <c r="AB243" s="30"/>
-      <c r="AC243" s="30"/>
-      <c r="AD243" s="30" t="s">
+      <c r="AA243" s="29"/>
+      <c r="AB243" s="29"/>
+      <c r="AC243" s="29"/>
+      <c r="AD243" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AE243" s="30"/>
-      <c r="AF243" s="30"/>
-      <c r="AG243" s="30"/>
-      <c r="AH243" s="30" t="s">
+      <c r="AE243" s="29"/>
+      <c r="AF243" s="29"/>
+      <c r="AG243" s="29"/>
+      <c r="AH243" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AI243" s="30"/>
-      <c r="AJ243" s="30"/>
-      <c r="AK243" s="30"/>
-      <c r="AL243" s="30" t="s">
+      <c r="AI243" s="29"/>
+      <c r="AJ243" s="29"/>
+      <c r="AK243" s="29"/>
+      <c r="AL243" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="AM243" s="30"/>
-      <c r="AN243" s="30"/>
-      <c r="AO243" s="30"/>
-      <c r="AP243" s="30" t="s">
+      <c r="AM243" s="29"/>
+      <c r="AN243" s="29"/>
+      <c r="AO243" s="29"/>
+      <c r="AP243" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AQ243" s="30"/>
-      <c r="AR243" s="30"/>
-      <c r="AS243" s="30"/>
-      <c r="AT243" s="30" t="s">
+      <c r="AQ243" s="29"/>
+      <c r="AR243" s="29"/>
+      <c r="AS243" s="29"/>
+      <c r="AT243" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AU243" s="30"/>
-      <c r="AV243" s="30"/>
-      <c r="AW243" s="30"/>
-      <c r="AX243" s="30" t="s">
+      <c r="AU243" s="29"/>
+      <c r="AV243" s="29"/>
+      <c r="AW243" s="29"/>
+      <c r="AX243" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="AY243" s="30"/>
-      <c r="AZ243" s="30"/>
-      <c r="BA243" s="30"/>
-      <c r="BB243" s="30" t="s">
+      <c r="AY243" s="29"/>
+      <c r="AZ243" s="29"/>
+      <c r="BA243" s="29"/>
+      <c r="BB243" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="BC243" s="30"/>
-      <c r="BD243" s="30"/>
-      <c r="BE243" s="30"/>
-      <c r="BF243" s="30" t="s">
+      <c r="BC243" s="29"/>
+      <c r="BD243" s="29"/>
+      <c r="BE243" s="29"/>
+      <c r="BF243" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="BG243" s="30"/>
-      <c r="BH243" s="30"/>
-      <c r="BI243" s="30"/>
-      <c r="BJ243" s="30" t="s">
+      <c r="BG243" s="29"/>
+      <c r="BH243" s="29"/>
+      <c r="BI243" s="29"/>
+      <c r="BJ243" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="BK243" s="30"/>
-      <c r="BL243" s="30"/>
-      <c r="BM243" s="30"/>
-      <c r="BN243" s="30" t="s">
+      <c r="BK243" s="29"/>
+      <c r="BL243" s="29"/>
+      <c r="BM243" s="29"/>
+      <c r="BN243" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="BO243" s="30"/>
-      <c r="BP243" s="30"/>
-      <c r="BQ243" s="30"/>
-      <c r="BR243" s="30" t="s">
+      <c r="BO243" s="29"/>
+      <c r="BP243" s="29"/>
+      <c r="BQ243" s="29"/>
+      <c r="BR243" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="BS243" s="30"/>
-      <c r="BT243" s="30"/>
-      <c r="BU243" s="30"/>
-      <c r="BV243" s="30" t="s">
+      <c r="BS243" s="29"/>
+      <c r="BT243" s="29"/>
+      <c r="BU243" s="29"/>
+      <c r="BV243" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="BW243" s="30"/>
-      <c r="BX243" s="30"/>
-      <c r="BY243" s="30"/>
-      <c r="BZ243" s="30" t="s">
+      <c r="BW243" s="29"/>
+      <c r="BX243" s="29"/>
+      <c r="BY243" s="29"/>
+      <c r="BZ243" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="CA243" s="30"/>
-      <c r="CB243" s="30"/>
-      <c r="CC243" s="30"/>
-      <c r="CD243" s="30" t="s">
+      <c r="CA243" s="29"/>
+      <c r="CB243" s="29"/>
+      <c r="CC243" s="29"/>
+      <c r="CD243" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="CE243" s="30"/>
-      <c r="CF243" s="30"/>
-      <c r="CG243" s="30"/>
-      <c r="CH243" s="30" t="s">
+      <c r="CE243" s="29"/>
+      <c r="CF243" s="29"/>
+      <c r="CG243" s="29"/>
+      <c r="CH243" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="CI243" s="30"/>
-      <c r="CJ243" s="30"/>
-      <c r="CK243" s="30"/>
-      <c r="CL243" s="30" t="s">
+      <c r="CI243" s="29"/>
+      <c r="CJ243" s="29"/>
+      <c r="CK243" s="29"/>
+      <c r="CL243" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="CM243" s="30"/>
-      <c r="CN243" s="30"/>
-      <c r="CO243" s="30"/>
-      <c r="CP243" s="30" t="s">
+      <c r="CM243" s="29"/>
+      <c r="CN243" s="29"/>
+      <c r="CO243" s="29"/>
+      <c r="CP243" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="CQ243" s="30"/>
-      <c r="CR243" s="30"/>
-      <c r="CS243" s="30"/>
-      <c r="CT243" s="30" t="s">
+      <c r="CQ243" s="29"/>
+      <c r="CR243" s="29"/>
+      <c r="CS243" s="29"/>
+      <c r="CT243" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="CU243" s="30"/>
-      <c r="CV243" s="30"/>
-      <c r="CW243" s="30"/>
-      <c r="CX243" s="30" t="s">
+      <c r="CU243" s="29"/>
+      <c r="CV243" s="29"/>
+      <c r="CW243" s="29"/>
+      <c r="CX243" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="CY243" s="30"/>
-      <c r="CZ243" s="30"/>
-      <c r="DA243" s="30"/>
-      <c r="DB243" s="30" t="s">
+      <c r="CY243" s="29"/>
+      <c r="CZ243" s="29"/>
+      <c r="DA243" s="29"/>
+      <c r="DB243" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="DC243" s="30"/>
-      <c r="DD243" s="30"/>
-      <c r="DE243" s="30"/>
-      <c r="DF243" s="30" t="s">
+      <c r="DC243" s="29"/>
+      <c r="DD243" s="29"/>
+      <c r="DE243" s="29"/>
+      <c r="DF243" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="DG243" s="30"/>
-      <c r="DH243" s="30"/>
-      <c r="DI243" s="30"/>
-      <c r="DJ243" s="30" t="s">
+      <c r="DG243" s="29"/>
+      <c r="DH243" s="29"/>
+      <c r="DI243" s="29"/>
+      <c r="DJ243" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="DK243" s="30"/>
-      <c r="DL243" s="30"/>
-      <c r="DM243" s="30"/>
-      <c r="DN243" s="30" t="s">
+      <c r="DK243" s="29"/>
+      <c r="DL243" s="29"/>
+      <c r="DM243" s="29"/>
+      <c r="DN243" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="DO243" s="30"/>
-      <c r="DP243" s="30"/>
-      <c r="DQ243" s="30"/>
-      <c r="DR243" s="30" t="s">
+      <c r="DO243" s="29"/>
+      <c r="DP243" s="29"/>
+      <c r="DQ243" s="29"/>
+      <c r="DR243" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="DS243" s="30"/>
-      <c r="DT243" s="30"/>
-      <c r="DU243" s="30"/>
-      <c r="DV243" s="30" t="s">
+      <c r="DS243" s="29"/>
+      <c r="DT243" s="29"/>
+      <c r="DU243" s="29"/>
+      <c r="DV243" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="DW243" s="30"/>
-      <c r="DX243" s="30"/>
-      <c r="DY243" s="30"/>
-      <c r="DZ243" s="30" t="s">
+      <c r="DW243" s="29"/>
+      <c r="DX243" s="29"/>
+      <c r="DY243" s="29"/>
+      <c r="DZ243" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="EA243" s="30"/>
-      <c r="EB243" s="30"/>
-      <c r="EC243" s="30"/>
-      <c r="ED243" s="30" t="s">
+      <c r="EA243" s="29"/>
+      <c r="EB243" s="29"/>
+      <c r="EC243" s="29"/>
+      <c r="ED243" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="EE243" s="30"/>
-      <c r="EF243" s="30"/>
-      <c r="EG243" s="30"/>
-      <c r="EH243" s="30" t="s">
+      <c r="EE243" s="29"/>
+      <c r="EF243" s="29"/>
+      <c r="EG243" s="29"/>
+      <c r="EH243" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="EI243" s="30"/>
-      <c r="EJ243" s="30"/>
-      <c r="EK243" s="30"/>
-      <c r="EL243" s="30" t="s">
+      <c r="EI243" s="29"/>
+      <c r="EJ243" s="29"/>
+      <c r="EK243" s="29"/>
+      <c r="EL243" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="EM243" s="30"/>
-      <c r="EN243" s="30"/>
-      <c r="EO243" s="30"/>
-      <c r="EP243" s="30" t="s">
+      <c r="EM243" s="29"/>
+      <c r="EN243" s="29"/>
+      <c r="EO243" s="29"/>
+      <c r="EP243" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="EQ243" s="30"/>
-      <c r="ER243" s="30"/>
-      <c r="ES243" s="30"/>
-      <c r="ET243" s="30" t="s">
+      <c r="EQ243" s="29"/>
+      <c r="ER243" s="29"/>
+      <c r="ES243" s="29"/>
+      <c r="ET243" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="EU243" s="30"/>
-      <c r="EV243" s="30"/>
-      <c r="EW243" s="30"/>
-      <c r="EX243" s="30" t="s">
+      <c r="EU243" s="29"/>
+      <c r="EV243" s="29"/>
+      <c r="EW243" s="29"/>
+      <c r="EX243" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="EY243" s="30"/>
-      <c r="EZ243" s="30"/>
+      <c r="EY243" s="29"/>
+      <c r="EZ243" s="29"/>
       <c r="FA243" s="4"/>
-      <c r="FB243" s="30" t="s">
+      <c r="FB243" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="FC243" s="30"/>
-      <c r="FD243" s="30"/>
-      <c r="FE243" s="30"/>
-      <c r="FF243" s="30" t="s">
+      <c r="FC243" s="29"/>
+      <c r="FD243" s="29"/>
+      <c r="FE243" s="29"/>
+      <c r="FF243" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="FG243" s="30"/>
-      <c r="FH243" s="30"/>
-      <c r="FI243" s="30"/>
-      <c r="FJ243" s="30" t="s">
+      <c r="FG243" s="29"/>
+      <c r="FH243" s="29"/>
+      <c r="FI243" s="29"/>
+      <c r="FJ243" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="FK243" s="30"/>
-      <c r="FL243" s="30"/>
+      <c r="FK243" s="29"/>
+      <c r="FL243" s="29"/>
+      <c r="FM243" s="29"/>
     </row>
-    <row r="244" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
         <v>13</v>
       </c>
@@ -45596,14 +46091,18 @@
       <c r="FL244" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="FM244" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="245" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:169" x14ac:dyDescent="0.2">
       <c r="FB245" s="2"/>
       <c r="FF245" s="24"/>
       <c r="FJ245" s="24"/>
       <c r="FK245" s="24"/>
+      <c r="FM245" s="4"/>
     </row>
-    <row r="246" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A246" s="15" t="s">
         <v>74</v>
       </c>
@@ -46105,11 +46604,14 @@
       <c r="FK246" s="13">
         <v>0.20386316084042733</v>
       </c>
-      <c r="FL246" s="13">
-        <v>0.92006033368478768</v>
+      <c r="FL246" s="34">
+        <v>0.92887798340362338</v>
+      </c>
+      <c r="FM246" s="34">
+        <v>1.3627478802922468</v>
       </c>
     </row>
-    <row r="247" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A247" s="15" t="s">
         <v>75</v>
       </c>
@@ -46611,11 +47113,14 @@
       <c r="FK247" s="13">
         <v>2.050032889551261</v>
       </c>
-      <c r="FL247" s="13">
-        <v>5.4521770996200729</v>
+      <c r="FL247" s="34">
+        <v>5.5530402347031611</v>
+      </c>
+      <c r="FM247" s="34">
+        <v>3.2306421853257206</v>
       </c>
     </row>
-    <row r="248" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A248" s="15" t="s">
         <v>76</v>
       </c>
@@ -47117,11 +47622,14 @@
       <c r="FK248" s="13">
         <v>6.0608594393198842</v>
       </c>
-      <c r="FL248" s="13">
-        <v>6.80036955256287</v>
+      <c r="FL248" s="34">
+        <v>6.8375271386957195</v>
+      </c>
+      <c r="FM248" s="34">
+        <v>7.4203358526098384</v>
       </c>
     </row>
-    <row r="249" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A249" s="16"/>
       <c r="B249" s="13"/>
       <c r="C249" s="13"/>
@@ -47290,7 +47798,7 @@
       <c r="FJ249" s="25"/>
       <c r="FK249" s="25"/>
     </row>
-    <row r="250" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>10</v>
       </c>
@@ -47792,11 +48300,14 @@
       <c r="FK250" s="13">
         <v>4.3471902117480141</v>
       </c>
-      <c r="FL250" s="13">
-        <v>5.936634885362551</v>
+      <c r="FL250" s="34">
+        <v>5.9884950481602175</v>
+      </c>
+      <c r="FM250" s="34">
+        <v>5.5727153556956068</v>
       </c>
     </row>
-    <row r="251" spans="1:168" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
       <c r="B251" s="13"/>
       <c r="C251" s="13"/>
       <c r="D251" s="13"/>
@@ -47962,7 +48473,7 @@
       <c r="FJ251" s="25"/>
       <c r="FK251" s="25"/>
     </row>
-    <row r="252" spans="1:168" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
       <c r="B252" s="13"/>
       <c r="C252" s="13"/>
       <c r="D252" s="13"/>
@@ -48124,7 +48635,7 @@
       <c r="FJ252" s="25"/>
       <c r="FK252" s="25"/>
     </row>
-    <row r="253" spans="1:168" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
       <c r="B253" s="13"/>
       <c r="C253" s="13"/>
       <c r="D253" s="13"/>
@@ -48292,7 +48803,7 @@
       </c>
       <c r="FK253" s="25"/>
     </row>
-    <row r="254" spans="1:168" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:169" hidden="1" x14ac:dyDescent="0.2">
       <c r="B254" s="13"/>
       <c r="C254" s="13"/>
       <c r="D254" s="13"/>
@@ -48447,7 +48958,7 @@
       <c r="EW254" s="13"/>
       <c r="EX254" s="3"/>
     </row>
-    <row r="255" spans="1:168" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:169" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="9"/>
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
@@ -48616,309 +49127,311 @@
       <c r="FJ255" s="9"/>
       <c r="FK255" s="9"/>
     </row>
-    <row r="256" spans="1:168" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:169" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>0</v>
       </c>
       <c r="FL256" s="4"/>
+      <c r="FM256" s="4"/>
     </row>
-    <row r="259" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="262" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
     </row>
-    <row r="263" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="264" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A264" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="265" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="266" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
     </row>
-    <row r="267" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
-      <c r="B267" s="30">
+      <c r="B267" s="29">
         <v>1981</v>
       </c>
-      <c r="C267" s="30"/>
-      <c r="D267" s="30"/>
-      <c r="E267" s="30"/>
-      <c r="F267" s="30">
+      <c r="C267" s="29"/>
+      <c r="D267" s="29"/>
+      <c r="E267" s="29"/>
+      <c r="F267" s="29">
         <v>1982</v>
       </c>
-      <c r="G267" s="30"/>
-      <c r="H267" s="30"/>
-      <c r="I267" s="30"/>
-      <c r="J267" s="30">
+      <c r="G267" s="29"/>
+      <c r="H267" s="29"/>
+      <c r="I267" s="29"/>
+      <c r="J267" s="29">
         <v>1983</v>
       </c>
-      <c r="K267" s="30"/>
-      <c r="L267" s="30"/>
-      <c r="M267" s="30"/>
-      <c r="N267" s="30">
+      <c r="K267" s="29"/>
+      <c r="L267" s="29"/>
+      <c r="M267" s="29"/>
+      <c r="N267" s="29">
         <v>1984</v>
       </c>
-      <c r="O267" s="30"/>
-      <c r="P267" s="30"/>
-      <c r="Q267" s="30"/>
-      <c r="R267" s="30">
+      <c r="O267" s="29"/>
+      <c r="P267" s="29"/>
+      <c r="Q267" s="29"/>
+      <c r="R267" s="29">
         <v>1985</v>
       </c>
-      <c r="S267" s="30"/>
-      <c r="T267" s="30"/>
-      <c r="U267" s="30"/>
-      <c r="V267" s="30">
+      <c r="S267" s="29"/>
+      <c r="T267" s="29"/>
+      <c r="U267" s="29"/>
+      <c r="V267" s="29">
         <v>1986</v>
       </c>
-      <c r="W267" s="30"/>
-      <c r="X267" s="30"/>
-      <c r="Y267" s="30"/>
-      <c r="Z267" s="30">
+      <c r="W267" s="29"/>
+      <c r="X267" s="29"/>
+      <c r="Y267" s="29"/>
+      <c r="Z267" s="29">
         <v>1987</v>
       </c>
-      <c r="AA267" s="30"/>
-      <c r="AB267" s="30"/>
-      <c r="AC267" s="30"/>
-      <c r="AD267" s="30">
+      <c r="AA267" s="29"/>
+      <c r="AB267" s="29"/>
+      <c r="AC267" s="29"/>
+      <c r="AD267" s="29">
         <v>1988</v>
       </c>
-      <c r="AE267" s="30"/>
-      <c r="AF267" s="30"/>
-      <c r="AG267" s="30"/>
-      <c r="AH267" s="30">
+      <c r="AE267" s="29"/>
+      <c r="AF267" s="29"/>
+      <c r="AG267" s="29"/>
+      <c r="AH267" s="29">
         <v>1989</v>
       </c>
-      <c r="AI267" s="30"/>
-      <c r="AJ267" s="30"/>
-      <c r="AK267" s="30"/>
-      <c r="AL267" s="30">
+      <c r="AI267" s="29"/>
+      <c r="AJ267" s="29"/>
+      <c r="AK267" s="29"/>
+      <c r="AL267" s="29">
         <v>1990</v>
       </c>
-      <c r="AM267" s="30"/>
-      <c r="AN267" s="30"/>
-      <c r="AO267" s="30"/>
-      <c r="AP267" s="30">
+      <c r="AM267" s="29"/>
+      <c r="AN267" s="29"/>
+      <c r="AO267" s="29"/>
+      <c r="AP267" s="29">
         <v>1991</v>
       </c>
-      <c r="AQ267" s="30"/>
-      <c r="AR267" s="30"/>
-      <c r="AS267" s="30"/>
-      <c r="AT267" s="30">
+      <c r="AQ267" s="29"/>
+      <c r="AR267" s="29"/>
+      <c r="AS267" s="29"/>
+      <c r="AT267" s="29">
         <v>1992</v>
       </c>
-      <c r="AU267" s="30"/>
-      <c r="AV267" s="30"/>
-      <c r="AW267" s="30"/>
-      <c r="AX267" s="30">
+      <c r="AU267" s="29"/>
+      <c r="AV267" s="29"/>
+      <c r="AW267" s="29"/>
+      <c r="AX267" s="29">
         <v>1993</v>
       </c>
-      <c r="AY267" s="30"/>
-      <c r="AZ267" s="30"/>
-      <c r="BA267" s="30"/>
-      <c r="BB267" s="30">
+      <c r="AY267" s="29"/>
+      <c r="AZ267" s="29"/>
+      <c r="BA267" s="29"/>
+      <c r="BB267" s="29">
         <v>1994</v>
       </c>
-      <c r="BC267" s="30"/>
-      <c r="BD267" s="30"/>
-      <c r="BE267" s="30"/>
-      <c r="BF267" s="30">
+      <c r="BC267" s="29"/>
+      <c r="BD267" s="29"/>
+      <c r="BE267" s="29"/>
+      <c r="BF267" s="29">
         <v>1995</v>
       </c>
-      <c r="BG267" s="30"/>
-      <c r="BH267" s="30"/>
-      <c r="BI267" s="30"/>
-      <c r="BJ267" s="30">
+      <c r="BG267" s="29"/>
+      <c r="BH267" s="29"/>
+      <c r="BI267" s="29"/>
+      <c r="BJ267" s="29">
         <v>1996</v>
       </c>
-      <c r="BK267" s="30"/>
-      <c r="BL267" s="30"/>
-      <c r="BM267" s="30"/>
-      <c r="BN267" s="30">
+      <c r="BK267" s="29"/>
+      <c r="BL267" s="29"/>
+      <c r="BM267" s="29"/>
+      <c r="BN267" s="29">
         <v>1997</v>
       </c>
-      <c r="BO267" s="30"/>
-      <c r="BP267" s="30"/>
-      <c r="BQ267" s="30"/>
-      <c r="BR267" s="30">
+      <c r="BO267" s="29"/>
+      <c r="BP267" s="29"/>
+      <c r="BQ267" s="29"/>
+      <c r="BR267" s="29">
         <v>1998</v>
       </c>
-      <c r="BS267" s="30"/>
-      <c r="BT267" s="30"/>
-      <c r="BU267" s="30"/>
-      <c r="BV267" s="30">
+      <c r="BS267" s="29"/>
+      <c r="BT267" s="29"/>
+      <c r="BU267" s="29"/>
+      <c r="BV267" s="29">
         <v>1999</v>
       </c>
-      <c r="BW267" s="30"/>
-      <c r="BX267" s="30"/>
-      <c r="BY267" s="30"/>
-      <c r="BZ267" s="30">
+      <c r="BW267" s="29"/>
+      <c r="BX267" s="29"/>
+      <c r="BY267" s="29"/>
+      <c r="BZ267" s="29">
         <v>2000</v>
       </c>
-      <c r="CA267" s="30"/>
-      <c r="CB267" s="30"/>
-      <c r="CC267" s="30"/>
-      <c r="CD267" s="30">
+      <c r="CA267" s="29"/>
+      <c r="CB267" s="29"/>
+      <c r="CC267" s="29"/>
+      <c r="CD267" s="29">
         <v>2001</v>
       </c>
-      <c r="CE267" s="30"/>
-      <c r="CF267" s="30"/>
-      <c r="CG267" s="30"/>
-      <c r="CH267" s="30">
+      <c r="CE267" s="29"/>
+      <c r="CF267" s="29"/>
+      <c r="CG267" s="29"/>
+      <c r="CH267" s="29">
         <v>2002</v>
       </c>
-      <c r="CI267" s="30"/>
-      <c r="CJ267" s="30"/>
-      <c r="CK267" s="30"/>
-      <c r="CL267" s="30">
+      <c r="CI267" s="29"/>
+      <c r="CJ267" s="29"/>
+      <c r="CK267" s="29"/>
+      <c r="CL267" s="29">
         <v>2003</v>
       </c>
-      <c r="CM267" s="30"/>
-      <c r="CN267" s="30"/>
-      <c r="CO267" s="30"/>
-      <c r="CP267" s="30">
+      <c r="CM267" s="29"/>
+      <c r="CN267" s="29"/>
+      <c r="CO267" s="29"/>
+      <c r="CP267" s="29">
         <v>2004</v>
       </c>
-      <c r="CQ267" s="30"/>
-      <c r="CR267" s="30"/>
-      <c r="CS267" s="30"/>
-      <c r="CT267" s="30">
+      <c r="CQ267" s="29"/>
+      <c r="CR267" s="29"/>
+      <c r="CS267" s="29"/>
+      <c r="CT267" s="29">
         <v>2005</v>
       </c>
-      <c r="CU267" s="30"/>
-      <c r="CV267" s="30"/>
-      <c r="CW267" s="30"/>
-      <c r="CX267" s="30">
+      <c r="CU267" s="29"/>
+      <c r="CV267" s="29"/>
+      <c r="CW267" s="29"/>
+      <c r="CX267" s="29">
         <v>2006</v>
       </c>
-      <c r="CY267" s="30"/>
-      <c r="CZ267" s="30"/>
-      <c r="DA267" s="30"/>
-      <c r="DB267" s="30">
+      <c r="CY267" s="29"/>
+      <c r="CZ267" s="29"/>
+      <c r="DA267" s="29"/>
+      <c r="DB267" s="29">
         <v>2007</v>
       </c>
-      <c r="DC267" s="30"/>
-      <c r="DD267" s="30"/>
-      <c r="DE267" s="30"/>
-      <c r="DF267" s="30">
+      <c r="DC267" s="29"/>
+      <c r="DD267" s="29"/>
+      <c r="DE267" s="29"/>
+      <c r="DF267" s="29">
         <v>2008</v>
       </c>
-      <c r="DG267" s="30"/>
-      <c r="DH267" s="30"/>
-      <c r="DI267" s="30"/>
-      <c r="DJ267" s="30">
+      <c r="DG267" s="29"/>
+      <c r="DH267" s="29"/>
+      <c r="DI267" s="29"/>
+      <c r="DJ267" s="29">
         <v>2009</v>
       </c>
-      <c r="DK267" s="30"/>
-      <c r="DL267" s="30"/>
-      <c r="DM267" s="30"/>
-      <c r="DN267" s="30">
+      <c r="DK267" s="29"/>
+      <c r="DL267" s="29"/>
+      <c r="DM267" s="29"/>
+      <c r="DN267" s="29">
         <v>2010</v>
       </c>
-      <c r="DO267" s="30"/>
-      <c r="DP267" s="30"/>
-      <c r="DQ267" s="30"/>
-      <c r="DR267" s="30">
+      <c r="DO267" s="29"/>
+      <c r="DP267" s="29"/>
+      <c r="DQ267" s="29"/>
+      <c r="DR267" s="29">
         <v>2011</v>
       </c>
-      <c r="DS267" s="30"/>
-      <c r="DT267" s="30"/>
-      <c r="DU267" s="30"/>
-      <c r="DV267" s="30">
+      <c r="DS267" s="29"/>
+      <c r="DT267" s="29"/>
+      <c r="DU267" s="29"/>
+      <c r="DV267" s="29">
         <v>2012</v>
       </c>
-      <c r="DW267" s="30"/>
-      <c r="DX267" s="30"/>
-      <c r="DY267" s="30"/>
-      <c r="DZ267" s="30">
+      <c r="DW267" s="29"/>
+      <c r="DX267" s="29"/>
+      <c r="DY267" s="29"/>
+      <c r="DZ267" s="29">
         <v>2013</v>
       </c>
-      <c r="EA267" s="30"/>
-      <c r="EB267" s="30"/>
-      <c r="EC267" s="30"/>
-      <c r="ED267" s="30">
+      <c r="EA267" s="29"/>
+      <c r="EB267" s="29"/>
+      <c r="EC267" s="29"/>
+      <c r="ED267" s="29">
         <v>2014</v>
       </c>
-      <c r="EE267" s="30"/>
-      <c r="EF267" s="30"/>
-      <c r="EG267" s="30"/>
-      <c r="EH267" s="30">
+      <c r="EE267" s="29"/>
+      <c r="EF267" s="29"/>
+      <c r="EG267" s="29"/>
+      <c r="EH267" s="29">
         <v>2015</v>
       </c>
-      <c r="EI267" s="30"/>
-      <c r="EJ267" s="30"/>
-      <c r="EK267" s="30"/>
-      <c r="EL267" s="30">
+      <c r="EI267" s="29"/>
+      <c r="EJ267" s="29"/>
+      <c r="EK267" s="29"/>
+      <c r="EL267" s="29">
         <v>2016</v>
       </c>
-      <c r="EM267" s="30"/>
-      <c r="EN267" s="30"/>
-      <c r="EO267" s="30"/>
-      <c r="EP267" s="30">
+      <c r="EM267" s="29"/>
+      <c r="EN267" s="29"/>
+      <c r="EO267" s="29"/>
+      <c r="EP267" s="29">
         <v>2017</v>
       </c>
-      <c r="EQ267" s="30"/>
-      <c r="ER267" s="30"/>
-      <c r="ES267" s="30"/>
-      <c r="ET267" s="30">
+      <c r="EQ267" s="29"/>
+      <c r="ER267" s="29"/>
+      <c r="ES267" s="29"/>
+      <c r="ET267" s="29">
         <v>2018</v>
       </c>
-      <c r="EU267" s="30"/>
-      <c r="EV267" s="30"/>
-      <c r="EW267" s="30"/>
-      <c r="EX267" s="30">
+      <c r="EU267" s="29"/>
+      <c r="EV267" s="29"/>
+      <c r="EW267" s="29"/>
+      <c r="EX267" s="29">
         <v>2019</v>
       </c>
-      <c r="EY267" s="30"/>
-      <c r="EZ267" s="30"/>
-      <c r="FA267" s="30"/>
-      <c r="FB267" s="30">
+      <c r="EY267" s="29"/>
+      <c r="EZ267" s="29"/>
+      <c r="FA267" s="29"/>
+      <c r="FB267" s="29">
         <v>2020</v>
       </c>
-      <c r="FC267" s="30"/>
-      <c r="FD267" s="30"/>
+      <c r="FC267" s="29"/>
+      <c r="FD267" s="29"/>
       <c r="FE267" s="4"/>
-      <c r="FF267" s="30">
+      <c r="FF267" s="29">
         <v>2021</v>
       </c>
-      <c r="FG267" s="30"/>
-      <c r="FH267" s="30"/>
-      <c r="FI267" s="30"/>
-      <c r="FJ267" s="30">
+      <c r="FG267" s="29"/>
+      <c r="FH267" s="29"/>
+      <c r="FI267" s="29"/>
+      <c r="FJ267" s="29">
         <v>2022</v>
       </c>
-      <c r="FK267" s="30"/>
-      <c r="FL267" s="30"/>
-      <c r="FM267" s="30"/>
-      <c r="FN267" s="30">
+      <c r="FK267" s="29"/>
+      <c r="FL267" s="29"/>
+      <c r="FM267" s="29"/>
+      <c r="FN267" s="29">
         <v>2023</v>
       </c>
-      <c r="FO267" s="30"/>
-      <c r="FP267" s="30"/>
+      <c r="FO267" s="29"/>
+      <c r="FP267" s="29"/>
+      <c r="FQ267" s="29"/>
     </row>
-    <row r="268" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A268" s="5" t="s">
         <v>13</v>
       </c>
@@ -49435,11 +49948,15 @@
       <c r="FP268" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="FQ268" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="269" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:173" x14ac:dyDescent="0.2">
       <c r="FB269" s="2"/>
+      <c r="FQ269" s="4"/>
     </row>
-    <row r="270" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A270" s="15" t="s">
         <v>74</v>
       </c>
@@ -49953,11 +50470,14 @@
       <c r="FO270" s="13">
         <v>8.5483287238388623</v>
       </c>
-      <c r="FP270" s="13">
-        <v>8.8953068202410179</v>
+      <c r="FP270" s="34">
+        <v>8.8932525351736071</v>
+      </c>
+      <c r="FQ270" s="34">
+        <v>9.9710144591257759</v>
       </c>
     </row>
-    <row r="271" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A271" s="15" t="s">
         <v>75</v>
       </c>
@@ -50471,11 +50991,14 @@
       <c r="FO271" s="13">
         <v>29.426629381696429</v>
       </c>
-      <c r="FP271" s="13">
-        <v>24.696047084842384</v>
+      <c r="FP271" s="34">
+        <v>24.720141879472045</v>
+      </c>
+      <c r="FQ271" s="34">
+        <v>28.905891255634053</v>
       </c>
     </row>
-    <row r="272" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:173" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" s="15" t="s">
         <v>76</v>
       </c>
@@ -50989,11 +51512,14 @@
       <c r="FO272" s="13">
         <v>62.025041894464692</v>
       </c>
-      <c r="FP272" s="13">
-        <v>66.408646094916591</v>
+      <c r="FP272" s="34">
+        <v>66.386605585354346</v>
+      </c>
+      <c r="FQ272" s="34">
+        <v>61.123094285240178</v>
       </c>
     </row>
-    <row r="273" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:173" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A273" s="16"/>
       <c r="B273" s="13"/>
       <c r="C273" s="13"/>
@@ -51167,7 +51693,7 @@
       <c r="FO273" s="22"/>
       <c r="FP273" s="22"/>
     </row>
-    <row r="274" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:173" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" s="8" t="s">
         <v>10</v>
       </c>
@@ -51684,8 +52210,11 @@
       <c r="FP274" s="22">
         <v>100</v>
       </c>
+      <c r="FQ274" s="22">
+        <v>100</v>
+      </c>
     </row>
-    <row r="275" spans="1:172" s="3" customFormat="1" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:173" s="3" customFormat="1" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="2"/>
       <c r="B275" s="13"/>
       <c r="C275" s="13"/>
@@ -51850,7 +52379,7 @@
         <v>-24370.119758612476</v>
       </c>
     </row>
-    <row r="276" spans="1:172" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:173" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="2"/>
       <c r="B276" s="13"/>
       <c r="C276" s="13"/>
@@ -52011,7 +52540,7 @@
       <c r="FB276" s="7"/>
       <c r="FC276" s="7"/>
     </row>
-    <row r="277" spans="1:172" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:173" hidden="1" x14ac:dyDescent="0.2">
       <c r="B277" s="13"/>
       <c r="C277" s="13"/>
       <c r="D277" s="13"/>
@@ -52175,7 +52704,7 @@
         <v>4857262.3839106075</v>
       </c>
     </row>
-    <row r="278" spans="1:172" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:173" hidden="1" x14ac:dyDescent="0.2">
       <c r="B278" s="13"/>
       <c r="C278" s="13"/>
       <c r="D278" s="13"/>
@@ -52333,7 +52862,7 @@
       <c r="EZ278" s="13"/>
       <c r="FA278" s="13"/>
     </row>
-    <row r="279" spans="1:172" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:173" ht="7.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="9"/>
       <c r="B279" s="9"/>
       <c r="C279" s="9"/>
@@ -52507,36 +53036,37 @@
       <c r="FO279" s="9"/>
       <c r="FP279" s="9"/>
     </row>
-    <row r="280" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="FQ280" s="4"/>
     </row>
-    <row r="283" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="FC285" s="3"/>
       <c r="FD285" s="3"/>
       <c r="FE285" s="3"/>
     </row>
-    <row r="286" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="FC286" s="3"/>
       <c r="FD286" s="3"/>
       <c r="FE286" s="3"/>
     </row>
-    <row r="287" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>52</v>
       </c>
@@ -52544,284 +53074,286 @@
       <c r="FD287" s="3"/>
       <c r="FE287" s="3"/>
     </row>
-    <row r="288" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A288" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="289" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="290" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
       <c r="FJ290" s="9"/>
       <c r="FN290" s="9"/>
       <c r="FO290" s="9"/>
       <c r="FP290" s="9"/>
+      <c r="FQ290" s="9"/>
     </row>
-    <row r="291" spans="1:172" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:173" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
-      <c r="B291" s="30">
+      <c r="B291" s="29">
         <v>1981</v>
       </c>
-      <c r="C291" s="30"/>
-      <c r="D291" s="30"/>
-      <c r="E291" s="30"/>
-      <c r="F291" s="30">
+      <c r="C291" s="29"/>
+      <c r="D291" s="29"/>
+      <c r="E291" s="29"/>
+      <c r="F291" s="29">
         <v>1982</v>
       </c>
-      <c r="G291" s="30"/>
-      <c r="H291" s="30"/>
-      <c r="I291" s="30"/>
-      <c r="J291" s="30">
+      <c r="G291" s="29"/>
+      <c r="H291" s="29"/>
+      <c r="I291" s="29"/>
+      <c r="J291" s="29">
         <v>1983</v>
       </c>
-      <c r="K291" s="30"/>
-      <c r="L291" s="30"/>
-      <c r="M291" s="30"/>
-      <c r="N291" s="30">
+      <c r="K291" s="29"/>
+      <c r="L291" s="29"/>
+      <c r="M291" s="29"/>
+      <c r="N291" s="29">
         <v>1984</v>
       </c>
-      <c r="O291" s="30"/>
-      <c r="P291" s="30"/>
-      <c r="Q291" s="30"/>
-      <c r="R291" s="30">
+      <c r="O291" s="29"/>
+      <c r="P291" s="29"/>
+      <c r="Q291" s="29"/>
+      <c r="R291" s="29">
         <v>1985</v>
       </c>
-      <c r="S291" s="30"/>
-      <c r="T291" s="30"/>
-      <c r="U291" s="30"/>
-      <c r="V291" s="30">
+      <c r="S291" s="29"/>
+      <c r="T291" s="29"/>
+      <c r="U291" s="29"/>
+      <c r="V291" s="29">
         <v>1986</v>
       </c>
-      <c r="W291" s="30"/>
-      <c r="X291" s="30"/>
-      <c r="Y291" s="30"/>
-      <c r="Z291" s="30">
+      <c r="W291" s="29"/>
+      <c r="X291" s="29"/>
+      <c r="Y291" s="29"/>
+      <c r="Z291" s="29">
         <v>1987</v>
       </c>
-      <c r="AA291" s="30"/>
-      <c r="AB291" s="30"/>
-      <c r="AC291" s="30"/>
-      <c r="AD291" s="30">
+      <c r="AA291" s="29"/>
+      <c r="AB291" s="29"/>
+      <c r="AC291" s="29"/>
+      <c r="AD291" s="29">
         <v>1988</v>
       </c>
-      <c r="AE291" s="30"/>
-      <c r="AF291" s="30"/>
-      <c r="AG291" s="30"/>
-      <c r="AH291" s="30">
+      <c r="AE291" s="29"/>
+      <c r="AF291" s="29"/>
+      <c r="AG291" s="29"/>
+      <c r="AH291" s="29">
         <v>1989</v>
       </c>
-      <c r="AI291" s="30"/>
-      <c r="AJ291" s="30"/>
-      <c r="AK291" s="30"/>
-      <c r="AL291" s="30">
+      <c r="AI291" s="29"/>
+      <c r="AJ291" s="29"/>
+      <c r="AK291" s="29"/>
+      <c r="AL291" s="29">
         <v>1990</v>
       </c>
-      <c r="AM291" s="30"/>
-      <c r="AN291" s="30"/>
-      <c r="AO291" s="30"/>
-      <c r="AP291" s="30">
+      <c r="AM291" s="29"/>
+      <c r="AN291" s="29"/>
+      <c r="AO291" s="29"/>
+      <c r="AP291" s="29">
         <v>1991</v>
       </c>
-      <c r="AQ291" s="30"/>
-      <c r="AR291" s="30"/>
-      <c r="AS291" s="30"/>
-      <c r="AT291" s="30">
+      <c r="AQ291" s="29"/>
+      <c r="AR291" s="29"/>
+      <c r="AS291" s="29"/>
+      <c r="AT291" s="29">
         <v>1992</v>
       </c>
-      <c r="AU291" s="30"/>
-      <c r="AV291" s="30"/>
-      <c r="AW291" s="30"/>
-      <c r="AX291" s="30">
+      <c r="AU291" s="29"/>
+      <c r="AV291" s="29"/>
+      <c r="AW291" s="29"/>
+      <c r="AX291" s="29">
         <v>1993</v>
       </c>
-      <c r="AY291" s="30"/>
-      <c r="AZ291" s="30"/>
-      <c r="BA291" s="30"/>
-      <c r="BB291" s="30">
+      <c r="AY291" s="29"/>
+      <c r="AZ291" s="29"/>
+      <c r="BA291" s="29"/>
+      <c r="BB291" s="29">
         <v>1994</v>
       </c>
-      <c r="BC291" s="30"/>
-      <c r="BD291" s="30"/>
-      <c r="BE291" s="30"/>
-      <c r="BF291" s="30">
+      <c r="BC291" s="29"/>
+      <c r="BD291" s="29"/>
+      <c r="BE291" s="29"/>
+      <c r="BF291" s="29">
         <v>1995</v>
       </c>
-      <c r="BG291" s="30"/>
-      <c r="BH291" s="30"/>
-      <c r="BI291" s="30"/>
-      <c r="BJ291" s="30">
+      <c r="BG291" s="29"/>
+      <c r="BH291" s="29"/>
+      <c r="BI291" s="29"/>
+      <c r="BJ291" s="29">
         <v>1996</v>
       </c>
-      <c r="BK291" s="30"/>
-      <c r="BL291" s="30"/>
-      <c r="BM291" s="30"/>
-      <c r="BN291" s="30">
+      <c r="BK291" s="29"/>
+      <c r="BL291" s="29"/>
+      <c r="BM291" s="29"/>
+      <c r="BN291" s="29">
         <v>1997</v>
       </c>
-      <c r="BO291" s="30"/>
-      <c r="BP291" s="30"/>
-      <c r="BQ291" s="30"/>
-      <c r="BR291" s="30">
+      <c r="BO291" s="29"/>
+      <c r="BP291" s="29"/>
+      <c r="BQ291" s="29"/>
+      <c r="BR291" s="29">
         <v>1998</v>
       </c>
-      <c r="BS291" s="30"/>
-      <c r="BT291" s="30"/>
-      <c r="BU291" s="30"/>
-      <c r="BV291" s="30">
+      <c r="BS291" s="29"/>
+      <c r="BT291" s="29"/>
+      <c r="BU291" s="29"/>
+      <c r="BV291" s="29">
         <v>1999</v>
       </c>
-      <c r="BW291" s="30"/>
-      <c r="BX291" s="30"/>
-      <c r="BY291" s="30"/>
-      <c r="BZ291" s="30">
+      <c r="BW291" s="29"/>
+      <c r="BX291" s="29"/>
+      <c r="BY291" s="29"/>
+      <c r="BZ291" s="29">
         <v>2000</v>
       </c>
-      <c r="CA291" s="30"/>
-      <c r="CB291" s="30"/>
-      <c r="CC291" s="30"/>
-      <c r="CD291" s="30">
+      <c r="CA291" s="29"/>
+      <c r="CB291" s="29"/>
+      <c r="CC291" s="29"/>
+      <c r="CD291" s="29">
         <v>2001</v>
       </c>
-      <c r="CE291" s="30"/>
-      <c r="CF291" s="30"/>
-      <c r="CG291" s="30"/>
-      <c r="CH291" s="30">
+      <c r="CE291" s="29"/>
+      <c r="CF291" s="29"/>
+      <c r="CG291" s="29"/>
+      <c r="CH291" s="29">
         <v>2002</v>
       </c>
-      <c r="CI291" s="30"/>
-      <c r="CJ291" s="30"/>
-      <c r="CK291" s="30"/>
-      <c r="CL291" s="30">
+      <c r="CI291" s="29"/>
+      <c r="CJ291" s="29"/>
+      <c r="CK291" s="29"/>
+      <c r="CL291" s="29">
         <v>2003</v>
       </c>
-      <c r="CM291" s="30"/>
-      <c r="CN291" s="30"/>
-      <c r="CO291" s="30"/>
-      <c r="CP291" s="30">
+      <c r="CM291" s="29"/>
+      <c r="CN291" s="29"/>
+      <c r="CO291" s="29"/>
+      <c r="CP291" s="29">
         <v>2004</v>
       </c>
-      <c r="CQ291" s="30"/>
-      <c r="CR291" s="30"/>
-      <c r="CS291" s="30"/>
-      <c r="CT291" s="30">
+      <c r="CQ291" s="29"/>
+      <c r="CR291" s="29"/>
+      <c r="CS291" s="29"/>
+      <c r="CT291" s="29">
         <v>2005</v>
       </c>
-      <c r="CU291" s="30"/>
-      <c r="CV291" s="30"/>
-      <c r="CW291" s="30"/>
-      <c r="CX291" s="30">
+      <c r="CU291" s="29"/>
+      <c r="CV291" s="29"/>
+      <c r="CW291" s="29"/>
+      <c r="CX291" s="29">
         <v>2006</v>
       </c>
-      <c r="CY291" s="30"/>
-      <c r="CZ291" s="30"/>
-      <c r="DA291" s="30"/>
-      <c r="DB291" s="30">
+      <c r="CY291" s="29"/>
+      <c r="CZ291" s="29"/>
+      <c r="DA291" s="29"/>
+      <c r="DB291" s="29">
         <v>2007</v>
       </c>
-      <c r="DC291" s="30"/>
-      <c r="DD291" s="30"/>
-      <c r="DE291" s="30"/>
-      <c r="DF291" s="30">
+      <c r="DC291" s="29"/>
+      <c r="DD291" s="29"/>
+      <c r="DE291" s="29"/>
+      <c r="DF291" s="29">
         <v>2008</v>
       </c>
-      <c r="DG291" s="30"/>
-      <c r="DH291" s="30"/>
-      <c r="DI291" s="30"/>
-      <c r="DJ291" s="30">
+      <c r="DG291" s="29"/>
+      <c r="DH291" s="29"/>
+      <c r="DI291" s="29"/>
+      <c r="DJ291" s="29">
         <v>2009</v>
       </c>
-      <c r="DK291" s="30"/>
-      <c r="DL291" s="30"/>
-      <c r="DM291" s="30"/>
-      <c r="DN291" s="30">
+      <c r="DK291" s="29"/>
+      <c r="DL291" s="29"/>
+      <c r="DM291" s="29"/>
+      <c r="DN291" s="29">
         <v>2010</v>
       </c>
-      <c r="DO291" s="30"/>
-      <c r="DP291" s="30"/>
-      <c r="DQ291" s="30"/>
-      <c r="DR291" s="30">
+      <c r="DO291" s="29"/>
+      <c r="DP291" s="29"/>
+      <c r="DQ291" s="29"/>
+      <c r="DR291" s="29">
         <v>2011</v>
       </c>
-      <c r="DS291" s="30"/>
-      <c r="DT291" s="30"/>
-      <c r="DU291" s="30"/>
-      <c r="DV291" s="30">
+      <c r="DS291" s="29"/>
+      <c r="DT291" s="29"/>
+      <c r="DU291" s="29"/>
+      <c r="DV291" s="29">
         <v>2012</v>
       </c>
-      <c r="DW291" s="30"/>
-      <c r="DX291" s="30"/>
-      <c r="DY291" s="30"/>
-      <c r="DZ291" s="30">
+      <c r="DW291" s="29"/>
+      <c r="DX291" s="29"/>
+      <c r="DY291" s="29"/>
+      <c r="DZ291" s="29">
         <v>2013</v>
       </c>
-      <c r="EA291" s="30"/>
-      <c r="EB291" s="30"/>
-      <c r="EC291" s="30"/>
-      <c r="ED291" s="30">
+      <c r="EA291" s="29"/>
+      <c r="EB291" s="29"/>
+      <c r="EC291" s="29"/>
+      <c r="ED291" s="29">
         <v>2014</v>
       </c>
-      <c r="EE291" s="30"/>
-      <c r="EF291" s="30"/>
-      <c r="EG291" s="30"/>
-      <c r="EH291" s="30">
+      <c r="EE291" s="29"/>
+      <c r="EF291" s="29"/>
+      <c r="EG291" s="29"/>
+      <c r="EH291" s="29">
         <v>2015</v>
       </c>
-      <c r="EI291" s="30"/>
-      <c r="EJ291" s="30"/>
-      <c r="EK291" s="30"/>
-      <c r="EL291" s="30">
+      <c r="EI291" s="29"/>
+      <c r="EJ291" s="29"/>
+      <c r="EK291" s="29"/>
+      <c r="EL291" s="29">
         <v>2016</v>
       </c>
-      <c r="EM291" s="30"/>
-      <c r="EN291" s="30"/>
-      <c r="EO291" s="30"/>
-      <c r="EP291" s="30">
+      <c r="EM291" s="29"/>
+      <c r="EN291" s="29"/>
+      <c r="EO291" s="29"/>
+      <c r="EP291" s="29">
         <v>2017</v>
       </c>
-      <c r="EQ291" s="30"/>
-      <c r="ER291" s="30"/>
-      <c r="ES291" s="30"/>
-      <c r="ET291" s="30">
+      <c r="EQ291" s="29"/>
+      <c r="ER291" s="29"/>
+      <c r="ES291" s="29"/>
+      <c r="ET291" s="29">
         <v>2018</v>
       </c>
-      <c r="EU291" s="30"/>
-      <c r="EV291" s="30"/>
-      <c r="EW291" s="30"/>
-      <c r="EX291" s="30">
+      <c r="EU291" s="29"/>
+      <c r="EV291" s="29"/>
+      <c r="EW291" s="29"/>
+      <c r="EX291" s="29">
         <v>2019</v>
       </c>
-      <c r="EY291" s="30"/>
-      <c r="EZ291" s="30"/>
-      <c r="FA291" s="30"/>
-      <c r="FB291" s="30">
+      <c r="EY291" s="29"/>
+      <c r="EZ291" s="29"/>
+      <c r="FA291" s="29"/>
+      <c r="FB291" s="29">
         <v>2020</v>
       </c>
-      <c r="FC291" s="30"/>
-      <c r="FD291" s="30"/>
-      <c r="FE291" s="30">
+      <c r="FC291" s="29"/>
+      <c r="FD291" s="29"/>
+      <c r="FE291" s="29">
         <v>2021</v>
       </c>
-      <c r="FF291" s="30"/>
-      <c r="FG291" s="30"/>
-      <c r="FH291" s="30"/>
-      <c r="FI291" s="30"/>
-      <c r="FJ291" s="30">
+      <c r="FF291" s="29"/>
+      <c r="FG291" s="29"/>
+      <c r="FH291" s="29"/>
+      <c r="FI291" s="29"/>
+      <c r="FJ291" s="29">
         <v>2022</v>
       </c>
-      <c r="FK291" s="30"/>
-      <c r="FL291" s="30"/>
-      <c r="FM291" s="30"/>
-      <c r="FN291" s="30">
+      <c r="FK291" s="29"/>
+      <c r="FL291" s="29"/>
+      <c r="FM291" s="29"/>
+      <c r="FN291" s="32">
         <v>2023</v>
       </c>
-      <c r="FO291" s="30"/>
-      <c r="FP291" s="30"/>
+      <c r="FO291" s="32"/>
+      <c r="FP291" s="32"/>
+      <c r="FQ291" s="32"/>
     </row>
-    <row r="292" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A292" s="5" t="s">
         <v>13</v>
       </c>
@@ -53338,11 +53870,14 @@
       <c r="FP292" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="FQ292" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="293" spans="1:172" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:173" x14ac:dyDescent="0.2">
       <c r="FB293" s="2"/>
     </row>
-    <row r="294" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:173" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A294" s="15" t="s">
         <v>74</v>
       </c>
@@ -53856,11 +54391,14 @@
       <c r="FO294" s="13">
         <v>8.0201984853111732</v>
       </c>
-      <c r="FP294" s="13">
-        <v>8.1236621549822914</v>
+      <c r="FP294" s="34">
+        <v>8.1203966860091548</v>
+      </c>
+      <c r="FQ294" s="34">
+        <v>9.0458596611082918</v>
       </c>
     </row>
-    <row r="295" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:173" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="15" t="s">
         <v>75</v>
       </c>
@@ -54374,11 +54912,14 @@
       <c r="FO295" s="13">
         <v>29.857841269938657</v>
       </c>
-      <c r="FP295" s="13">
-        <v>26.749585272971704</v>
+      <c r="FP295" s="34">
+        <v>26.762069687261082</v>
+      </c>
+      <c r="FQ295" s="34">
+        <v>29.801066882616173</v>
       </c>
     </row>
-    <row r="296" spans="1:172" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:173" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A296" s="15" t="s">
         <v>76</v>
       </c>
@@ -54892,11 +55433,14 @@
       <c r="FO296" s="13">
         <v>62.